--- a/data/02_intermediate/cleaned_Demi_Portion_songs.xlsx
+++ b/data/02_intermediate/cleaned_Demi_Portion_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Les guerres, y a du monde pour les guider Pah, pah, pah, vite, y a personne pour les faire Faire, pah J'peux m'cramer pour mes idées Ouais, ouais, ouais, lui peut m'cramer pour mes frères Le doigt en l'air pour les cistes-ra Ouais, CNEWS dans l'angle mort Pah, pah, pah, pah Secousses et tremblements, fuck le Rassemblement Pah, pah, ouais Un pays, deux facettes, le revers d'la médaille Pah, pah, pah Sur toute la longueur d'la A7, faut qu'on rembobine la cassette Ouais, ouais La menace vient droit des cités Ouais, ouais, pah, ma gueule, on vote contre les porcs Jordan, t'es mort, Jordan, t'es mort Fianso Y a quoi dans l'coffre de la Benz ? La Benz Y a quoi dans la poche de ma veste ? Y a quoi ? Tout ça à cause de ma face, j'mange un contrôle d'faciès Brr Pour les p'tits frères, on s'inquiète, ils s'font tampon' en Vespa Veulent pas la paix mais la guerre, pour ça qu'les riches ne restent pas Yeah, j'propose un octogone à Bardella Ferme les frontières mais la dope remontera d'Marbella quand même Quand même Donc, ouais, c'est pour ça qu'je les ken, donc ouais, c'est pour ça qu'j'ai la peine Ouais, ouais Donc tous les jours fuck le RN, tu sais déjà c'est laquelle Rrrah On est pas différent mais faux différents, pas différent mais faut différencier Ouais Lève-toi, va voter, faut pas rester assis alors que c'est nous la France Ouais, ces bâtards, ils sont C'est nous Alors que c'est nous la France, ces bâtards, ils sont sciés Ouais Tes pensées racistes, va les mettre dans ton cul Ils vont péter un câble, j'vais voter à gauche mais c'est pas que pour la léga' du canna' Les gars du canna', ils ont tenté de nous sous-informer, fais pas genre t'as pas remarqué là T'as pas remarqué là J'fais la passe que vers la gauche, qu'elle soit en Crocs ou en Margiela Ou en Margiela J'suis pas les politiciens genre j'fais pas trop le Mandela Nan, nan Mais tout c'que j'sais, c'est qu'on vote pas Marine et baise la mère à Bardella Rrrah You might also like Pour être honnête, moi, j'ai jamais voté, j'suis de l'autre côté Les gars, je vote pas mais bon j'suis très étonné, leur programme, il fait pas rigoler Allez niquer vos mères, Marine et Bardella, bientôt, je me barre de là Le raciste en pause quand sur la compo' il va marquer les blazes de Grizou, Kanté, Barcola Anti-RN, t'façon tu les reconnais, des affiches déchirées devant l'collège Minot inconscient, j'insultais l'FN mais j'comprenais pas c'était quoi l'manège Donc tout l'monde veut faire l'ménage, La France, tu l'aimes ou alors dégage Des slogans supportez Bardella, j'suis qu'un porte-parole des mecs d'mon âge Y'a eu Kery avant moi, et Rockin' Squat avant lui Après moi, qui viendra ? Après moi, c'est pas fini J'rappe pour les quartiers de Marseille et les banlieues de Paname J'rappe pour tous ceux qu'on oublie dans les villages, les campagnes Soit tu l'aimes, soit tu la quittes, c'est souvent ce qu'on m'a dit Tu peux demander à mon ex, aujourd'hui, qui est la plus triste Les gars, faut se réveiller, quitte à mettre ses deux doigts dans la prise Parce que l'histoire se répète, ça sent le cramé dans la brise De base, moi j'connais rien d'tout ça, igo, hein J'suis d'la sale géné', moi, donc j'vais pas m'gêner, boy Déterrez Louis si vous voulez savoir pourquoi on en est là Déterrez Louis si vous voulez savoir pourquoi on en est là Leur projet, c'est d'nous faire croire que c'est eux les bons, han, han Leur projet, c'est d'nous faire croire qu'on est dans le faux Soixante J'comprends rien aux histoires, de toutes ces élections Mais j'sais qu'l'extrême droite se sert de ma déconnexion, donc anti-RN Faut choisir son camp, nique le hela, et comme eux, faut voter U.Z En bas du bloc, on nique le hela, et comme eux, on va voter Faut s'rassembler, voter comme quand t'achètes les albums Fort Faut faire les causes contre les fachos aç-comme On fait comme ça Faut pas s'laisser duper, c'est nous contre eux Si ça t'fait du pied, nique leur jeu, faut s'intéresser, c'est ça l'karaté J'connais pas Le Pen Marine, j'en connais une qui l'a pé-ta l'soir avec ses big narines Si les fachos passent, j'vais sortir avec un big calibre J'sors les canines, les p'tits niquent leur vie pour un peu d'dopamine Ils nous vendent des belles paroles cellophanées L'intérieur d'leur âme est fané, ils méritent de caner J'suis dans l'allée, j'revends c'qui fait planer J'me suis nourri tout seul comme un grand garçon Fuck , c'est tous des francs-maçons J'me suis endormi le 29 calé d'vant BFM J'me suis réveillé le 8 juillet, j'entends plus aucun bruit d'cross dans la tess comme si j'avais voté Le Pen Y a plus nos darons donc y a plus d'usines-sines, on n'est pas bons qu'à ramener la résine-sine J'ai la dalle mais y a plus d'c-gre, c'est Jumu'ah, y a plus d'mosquée Ça veut sauter la mixité Ah bon ?, sans dignité Ils oublient qu'Deschamps a gagné la Coupe du Monde avec des fils d'immigrés Des valeurs qui s'perdent, c'est l'bordel, j'suis obligé d'donner mon avis Celui qui veut renvoyer les dards-blé, dis-lui d'commencer par Tanguy David Le RN veut pas qu'j'traine avec le pote Maxime que j'connais depuis la récré' Nan J'ai fait un cauchemar, j'ai oublié d'aller voter Araï Ils s'plaignent de nos surs et d'nos mères mais eux-mêmes se voilent la face La jeunesse se lève pas voter, elle est scotchée sous frapasse Sous frappe Faudra s'bouger, ça va péter, on a l'avenir entre nos mains Hein Les racistes d'hier et d'aujourd'hui seront les députés d'demain Réel J'ai la triple nationalité, j'peux pas choisir entre les trois Trois J'y mets les tripes, frérot, j'm'agrippe, t'augmentes tes chances quand t'y crois Ça vend la frappe dans tous les bât', couleur des cheveux à Marine Ils pètent la cess et bectent la farine, c'était pour leurs narines Triple OG donne son avis mais t'es unhappy Général La France était vichyste, remerciez la Russie Bardella par-ci, Bardella par-là, qu'il se barre de là, ou pas Tout l'monde me parle de lui, hey, je suis borderline Général Un vieux loup ne suit jamais la meute, je n'voterai ni pour toi, ni pour toi La grosse douille, c'est d'avoir peur de c'qu'on ne connait pas Général Le monde est contrôlé par des illu-minés Général La vérité, j'sais plus avec quoi la faire rimer Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir Général, Général, Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir J'recharge le Kalachnikov, en Louis Vuitton comme Ramzan Kadyrov Clique, clique Nique l'imam Chalgoumi et ceux qui suivent le Sheitan à tout prix Trogneux Marine et Marion, les putes, un coup de bâton sur ces chiennes en rut Vlan On continue la lutte, bientôt, on va célébrer leur chute Tchin Nique tous ces députés, on sait qu'ils manipulent les statistiques Menteurs Y a rien de magnifique, nous on fait de la violence artistique Sale Font du mal à nos enfants, ils veulent nous injecter une puce dans l'sang Antéchris DJ Kore le commandant, on vient pour projeter une vue d'ensemble Tounsi Des racistes en rafale, je sais que les médias en raffolent J'vois des corps au sol, l'être humain n'a plus d'corazón Espèce de franc-maçon, tu te nourris du sang qu'tu consommes Dans leurs ambassades, c'est le Sheitan qui les passionne Ouais, la France, c'est nous C'est nous, fuck Eric Zemmour Pas besoin d'chercher des rimes, ils tournent à l'heure du ftour Tu sais qu'c'est ça qui est terrible, ils nous font des longs discours La France, ça d'vient l'Amérique, peur qu'elle tombe après les deux tours Ils veulent tous faire un billard à trois bandes avec du sale et du moche Mais, parfois, ça foire, la boule noire atterrit dans la poche Quarante ans qu'on l'écrit, voilà, on en est là avec un seul candidat Jordannuel Macronardella Vingt piges de 11 septembre, de Syrie, d'attentats et de faits-divers miteux en boucle, tous les jours dans les médias L'État nous fait les poches, prend le fric, avec, on s'fait taper par les flics Et insulter en prime sur le service public C'est pas sur un scrutin, au quotidien, il faut combattre C'est pas un candidat, c'est les idées qu'il faut qu'on batte Les années 30 et leur odeur font leur comeback Normal que Sheytanyahou soit le blanc qui assure leur contact 2016, on était anti-racistes et pacifistes, avec les mêmes paroles, maintenant complotistes, antisémites Le monde penche à droite, et nos rêves, leur clan les ont pendus Rien n'a changé, j'préfère la main tendue au bras tendu Tant qu'y aura des Zemmour, des Bardella, ce genre de sbires, y aura d'quoi rapper La lumière est mise actif, donc vote, ça va déraper Le rassemblement doit être rationnel pas national L'argumentaire est sans équivoque pour nos intérêts Les urnes avant qu'ça brûle, ça urge alors ça hurle, l'histoire s'répète C'est la même chanson, la France, tu l'aimes ou tu la quittes Moi, j'kicke fort et prends position comme y a vingt ans Si tu restes neutre, attends-toi à vivre un sale printemps Fuck l'identitaire, jeunesse affiliée à dolf-A J'rappe pour les SDF habillés en coste-La On a franchi la ligne rouge comme Prada Linea Rossa La France est devenue un vivier à chos-fa Les bavures, tous ces policiers adorent ça Ils veulent nous karcheriser à l'eau froide ou nous carboniser à chaudes flammes Kalash' verbale, FAMAS oral, j'crache des balles sur flamme nationale Voter RN, c'est comme une FEMEN qui veut être femme à Soral Laissez-moi faire, on a la méthode, un il de moins pour le père à Marine Y a trop d'couleurs, oui, dans mon ghetto, nique les clones si l'FN arrive Chut ? Normal, j'dis c'que j'pense, alors ta gueule, j'ai mes distances Mais qui nous ressemble ? Qui nous rassemble ? On a des racines donc j'ai mes réseaux Les racistes votent, nous aussi et mon cur est en Palestine On reste fiers, c'est nos principes et mon cur est en Palestine On arrive élancés, on créé l'ouverture Yeah, on te met un but On a eu l'astuce, on te pose un huit, mais j'en veux toujours plus Ouais J'suis partout chez moi sachant qu'ils ont fait partouze chez moi Quoi ? J'suis étranger d'après des étrangers qui viennent de chez moi On m'a dit qu'j'étais un handicap, j'suis noir et fier comme tonton Nakk Réveille-toi, c'est dans nos pattes que l'ange de droite s'déguise en diable Ouais, ouais Tout marche à la peur, cousin, fais-toi pas avoir T'es au RSA, la vie est chère mais on nous montre du doigt Tss Ça part en couilles, fais ton job devant les urnes Ils veulent la guerre, il faut qu'ça dure, ce n'est qu'une marche avant la purge La douleur du Tennessee s'est immiscée dans cette missive J'ai niché au M-I-C, MC blessé dans l'hémicycle Jamais sous Hennessy, j'récite ma haine contre leur électorat Le rectorat pour ceux qui ont un cur dans l'thorax et sous le pectoral Bien sûr, c'est murement réfléchi que j'dis tous qu'tous les tags du RN doivent être suivis de NTM peint sur les murs Parce que ça reste le FN fondé par un Waffen-SS Et toi, tu vas voter ces merdes parce qu'on a jamais ess-essayé Jamais d'la vie on votera RN No Déjà, c'est une dinguerie, j'vote, dehors, y a tous mes potes qui s'démènent C'est les fils d'immigrés qui bossent Les fafs, ça fait dix ans, j'les fume dans toute la ville Aujourd'hui, c'est les urnes Mmh mais l'Front Populaire faut bien l'tenir dans toutes les ues-r Vive la Palestine d'la Seine au Jourdain, fuck Jordan, c'est une marionnette Venez, on ressort les baïonnettes, si la gauche passe, on fera des bails honnêtes Enfin, j'crois Sa mère, faut pas qu'ils passent, y a mon pote sous OQTF Casual Auteuil, baise les fafs, j'espère que t'as toutes les réf'2</t>
+          <t>Les guerres, y a du monde pour les guider Pah, pah, pah, vite, y a personne pour les faire Faire, pah J'peux m'cramer pour mes idées Ouais, ouais, ouais, lui peut m'cramer pour mes frères Le doigt en l'air pour les cistes-ra Ouais, CNEWS dans l'angle mort Pah, pah, pah, pah Secousses et tremblements, fuck le Rassemblement Pah, pah, ouais Un pays, deux facettes, le revers d'la médaille Pah, pah, pah Sur toute la longueur d'la A7, faut qu'on rembobine la cassette Ouais, ouais La menace vient droit des cités Ouais, ouais, pah, ma gueule, on vote contre les porcs Jordan, t'es mort, Jordan, t'es mort Fianso Y a quoi dans l'coffre de la Benz ? La Benz Y a quoi dans la poche de ma veste ? Y a quoi ? Tout ça à cause de ma face, j'mange un contrôle d'faciès Brr Pour les p'tits frères, on s'inquiète, ils s'font tampon' en Vespa Veulent pas la paix mais la guerre, pour ça qu'les riches ne restent pas Yeah, j'propose un octogone à Bardella Ferme les frontières mais la dope remontera d'Marbella quand même Quand même Donc, ouais, c'est pour ça qu'je les ken, donc ouais, c'est pour ça qu'j'ai la peine Ouais, ouais Donc tous les jours fuck le RN, tu sais déjà c'est laquelle Rrrah On est pas différent mais faux différents, pas différent mais faut différencier Ouais Lève-toi, va voter, faut pas rester assis alors que c'est nous la France Ouais, ces bâtards, ils sont C'est nous Alors que c'est nous la France, ces bâtards, ils sont sciés Ouais Tes pensées racistes, va les mettre dans ton cul Ils vont péter un câble, j'vais voter à gauche mais c'est pas que pour la léga' du canna' Les gars du canna', ils ont tenté de nous sous-informer, fais pas genre t'as pas remarqué là T'as pas remarqué là J'fais la passe que vers la gauche, qu'elle soit en Crocs ou en Margiela Ou en Margiela J'suis pas les politiciens genre j'fais pas trop le Mandela Nan, nan Mais tout c'que j'sais, c'est qu'on vote pas Marine et baise la mère à Bardella Rrrah Pour être honnête, moi, j'ai jamais voté, j'suis de l'autre côté Les gars, je vote pas mais bon j'suis très étonné, leur programme, il fait pas rigoler Allez niquer vos mères, Marine et Bardella, bientôt, je me barre de là Le raciste en pause quand sur la compo' il va marquer les blazes de Grizou, Kanté, Barcola Anti-RN, t'façon tu les reconnais, des affiches déchirées devant l'collège Minot inconscient, j'insultais l'FN mais j'comprenais pas c'était quoi l'manège Donc tout l'monde veut faire l'ménage, La France, tu l'aimes ou alors dégage Des slogans supportez Bardella, j'suis qu'un porte-parole des mecs d'mon âge Y'a eu Kery avant moi, et Rockin' Squat avant lui Après moi, qui viendra ? Après moi, c'est pas fini J'rappe pour les quartiers de Marseille et les banlieues de Paname J'rappe pour tous ceux qu'on oublie dans les villages, les campagnes Soit tu l'aimes, soit tu la quittes, c'est souvent ce qu'on m'a dit Tu peux demander à mon ex, aujourd'hui, qui est la plus triste Les gars, faut se réveiller, quitte à mettre ses deux doigts dans la prise Parce que l'histoire se répète, ça sent le cramé dans la brise De base, moi j'connais rien d'tout ça, igo, hein J'suis d'la sale géné', moi, donc j'vais pas m'gêner, boy Déterrez Louis si vous voulez savoir pourquoi on en est là Déterrez Louis si vous voulez savoir pourquoi on en est là Leur projet, c'est d'nous faire croire que c'est eux les bons, han, han Leur projet, c'est d'nous faire croire qu'on est dans le faux Soixante J'comprends rien aux histoires, de toutes ces élections Mais j'sais qu'l'extrême droite se sert de ma déconnexion, donc anti-RN Faut choisir son camp, nique le hela, et comme eux, faut voter U.Z En bas du bloc, on nique le hela, et comme eux, on va voter Faut s'rassembler, voter comme quand t'achètes les albums Fort Faut faire les causes contre les fachos aç-comme On fait comme ça Faut pas s'laisser duper, c'est nous contre eux Si ça t'fait du pied, nique leur jeu, faut s'intéresser, c'est ça l'karaté J'connais pas Le Pen Marine, j'en connais une qui l'a pé-ta l'soir avec ses big narines Si les fachos passent, j'vais sortir avec un big calibre J'sors les canines, les p'tits niquent leur vie pour un peu d'dopamine Ils nous vendent des belles paroles cellophanées L'intérieur d'leur âme est fané, ils méritent de caner J'suis dans l'allée, j'revends c'qui fait planer J'me suis nourri tout seul comme un grand garçon Fuck , c'est tous des francs-maçons J'me suis endormi le 29 calé d'vant BFM J'me suis réveillé le 8 juillet, j'entends plus aucun bruit d'cross dans la tess comme si j'avais voté Le Pen Y a plus nos darons donc y a plus d'usines-sines, on n'est pas bons qu'à ramener la résine-sine J'ai la dalle mais y a plus d'c-gre, c'est Jumu'ah, y a plus d'mosquée Ça veut sauter la mixité Ah bon ?, sans dignité Ils oublient qu'Deschamps a gagné la Coupe du Monde avec des fils d'immigrés Des valeurs qui s'perdent, c'est l'bordel, j'suis obligé d'donner mon avis Celui qui veut renvoyer les dards-blé, dis-lui d'commencer par Tanguy David Le RN veut pas qu'j'traine avec le pote Maxime que j'connais depuis la récré' Nan J'ai fait un cauchemar, j'ai oublié d'aller voter Araï Ils s'plaignent de nos surs et d'nos mères mais eux-mêmes se voilent la face La jeunesse se lève pas voter, elle est scotchée sous frapasse Sous frappe Faudra s'bouger, ça va péter, on a l'avenir entre nos mains Hein Les racistes d'hier et d'aujourd'hui seront les députés d'demain Réel J'ai la triple nationalité, j'peux pas choisir entre les trois Trois J'y mets les tripes, frérot, j'm'agrippe, t'augmentes tes chances quand t'y crois Ça vend la frappe dans tous les bât', couleur des cheveux à Marine Ils pètent la cess et bectent la farine, c'était pour leurs narines Triple OG donne son avis mais t'es unhappy Général La France était vichyste, remerciez la Russie Bardella par-ci, Bardella par-là, qu'il se barre de là, ou pas Tout l'monde me parle de lui, hey, je suis borderline Général Un vieux loup ne suit jamais la meute, je n'voterai ni pour toi, ni pour toi La grosse douille, c'est d'avoir peur de c'qu'on ne connait pas Général Le monde est contrôlé par des illu-minés Général La vérité, j'sais plus avec quoi la faire rimer Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir Général, Général, Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir J'recharge le Kalachnikov, en Louis Vuitton comme Ramzan Kadyrov Clique, clique Nique l'imam Chalgoumi et ceux qui suivent le Sheitan à tout prix Trogneux Marine et Marion, les putes, un coup de bâton sur ces chiennes en rut Vlan On continue la lutte, bientôt, on va célébrer leur chute Tchin Nique tous ces députés, on sait qu'ils manipulent les statistiques Menteurs Y a rien de magnifique, nous on fait de la violence artistique Sale Font du mal à nos enfants, ils veulent nous injecter une puce dans l'sang Antéchris DJ Kore le commandant, on vient pour projeter une vue d'ensemble Tounsi Des racistes en rafale, je sais que les médias en raffolent J'vois des corps au sol, l'être humain n'a plus d'corazón Espèce de franc-maçon, tu te nourris du sang qu'tu consommes Dans leurs ambassades, c'est le Sheitan qui les passionne Ouais, la France, c'est nous C'est nous, fuck Eric Zemmour Pas besoin d'chercher des rimes, ils tournent à l'heure du ftour Tu sais qu'c'est ça qui est terrible, ils nous font des longs discours La France, ça d'vient l'Amérique, peur qu'elle tombe après les deux tours Ils veulent tous faire un billard à trois bandes avec du sale et du moche Mais, parfois, ça foire, la boule noire atterrit dans la poche Quarante ans qu'on l'écrit, voilà, on en est là avec un seul candidat Jordannuel Macronardella Vingt piges de 11 septembre, de Syrie, d'attentats et de faits-divers miteux en boucle, tous les jours dans les médias L'État nous fait les poches, prend le fric, avec, on s'fait taper par les flics Et insulter en prime sur le service public C'est pas sur un scrutin, au quotidien, il faut combattre C'est pas un candidat, c'est les idées qu'il faut qu'on batte Les années 30 et leur odeur font leur comeback Normal que Sheytanyahou soit le blanc qui assure leur contact 2016, on était anti-racistes et pacifistes, avec les mêmes paroles, maintenant complotistes, antisémites Le monde penche à droite, et nos rêves, leur clan les ont pendus Rien n'a changé, j'préfère la main tendue au bras tendu Tant qu'y aura des Zemmour, des Bardella, ce genre de sbires, y aura d'quoi rapper La lumière est mise actif, donc vote, ça va déraper Le rassemblement doit être rationnel pas national L'argumentaire est sans équivoque pour nos intérêts Les urnes avant qu'ça brûle, ça urge alors ça hurle, l'histoire s'répète C'est la même chanson, la France, tu l'aimes ou tu la quittes Moi, j'kicke fort et prends position comme y a vingt ans Si tu restes neutre, attends-toi à vivre un sale printemps Fuck l'identitaire, jeunesse affiliée à dolf-A J'rappe pour les SDF habillés en coste-La On a franchi la ligne rouge comme Prada Linea Rossa La France est devenue un vivier à chos-fa Les bavures, tous ces policiers adorent ça Ils veulent nous karcheriser à l'eau froide ou nous carboniser à chaudes flammes Kalash' verbale, FAMAS oral, j'crache des balles sur flamme nationale Voter RN, c'est comme une FEMEN qui veut être femme à Soral Laissez-moi faire, on a la méthode, un il de moins pour le père à Marine Y a trop d'couleurs, oui, dans mon ghetto, nique les clones si l'FN arrive Chut ? Normal, j'dis c'que j'pense, alors ta gueule, j'ai mes distances Mais qui nous ressemble ? Qui nous rassemble ? On a des racines donc j'ai mes réseaux Les racistes votent, nous aussi et mon cur est en Palestine On reste fiers, c'est nos principes et mon cur est en Palestine On arrive élancés, on créé l'ouverture Yeah, on te met un but On a eu l'astuce, on te pose un huit, mais j'en veux toujours plus Ouais J'suis partout chez moi sachant qu'ils ont fait partouze chez moi Quoi ? J'suis étranger d'après des étrangers qui viennent de chez moi On m'a dit qu'j'étais un handicap, j'suis noir et fier comme tonton Nakk Réveille-toi, c'est dans nos pattes que l'ange de droite s'déguise en diable Ouais, ouais Tout marche à la peur, cousin, fais-toi pas avoir T'es au RSA, la vie est chère mais on nous montre du doigt Tss Ça part en couilles, fais ton job devant les urnes Ils veulent la guerre, il faut qu'ça dure, ce n'est qu'une marche avant la purge La douleur du Tennessee s'est immiscée dans cette missive J'ai niché au M-I-C, MC blessé dans l'hémicycle Jamais sous Hennessy, j'récite ma haine contre leur électorat Le rectorat pour ceux qui ont un cur dans l'thorax et sous le pectoral Bien sûr, c'est murement réfléchi que j'dis tous qu'tous les tags du RN doivent être suivis de NTM peint sur les murs Parce que ça reste le FN fondé par un Waffen-SS Et toi, tu vas voter ces merdes parce qu'on a jamais ess-essayé Jamais d'la vie on votera RN No Déjà, c'est une dinguerie, j'vote, dehors, y a tous mes potes qui s'démènent C'est les fils d'immigrés qui bossent Les fafs, ça fait dix ans, j'les fume dans toute la ville Aujourd'hui, c'est les urnes Mmh mais l'Front Populaire faut bien l'tenir dans toutes les ues-r Vive la Palestine d'la Seine au Jourdain, fuck Jordan, c'est une marionnette Venez, on ressort les baïonnettes, si la gauche passe, on fera des bails honnêtes Enfin, j'crois Sa mère, faut pas qu'ils passent, y a mon pote sous OQTF Casual Auteuil, baise les fafs, j'espère que t'as toutes les réf'2</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A l'heure où tout le monde essaie de marcher sur les autres.. Ouais ! On y est ! On essaie d'se prendre la tête... Fusion Sur cahier.. Kaméhaméha.. Ca fait d'nous des supers-guerriers Demi-Portion, Beep Beep, R.A.C.H.I.D Ecoute ça ! Hein hein d'accord vas-y Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Ceux qui partent ne reviennent pas comme San Goku Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Avec mes 7 boules de freestyle du son tout court Tiens v'la une nouvelle histoire apprécie cette galette J'ai encore plein pouvoir d'ma planète Namek A ceux qui arrivent à m'backer jusqu'au Québec Autant d'clips que de films dans une vidéothèque Vu qu'on veut s'en sortir avec ou sans chèque Aucune crainte des hnouchs, on est dans mon désert Et si y'a trop d'grandes bouches c'est qu'il y a trop chekem Vu que j'ai plusieurs langues ghadi nbedele Kheli el micro ghedebe, ghadi tkhoche be deme Ana bouhdir ghir eskoute ou khellini nkemel El radi n'goulek fin tesken Un dialecte rien d'plus un combot d'tekken ? Car on a plusieurs branches avec des feuilles spéciales En toute saison, ça passe, repousse les bonnes pétales Bref, c'est Dragon Rashball t'as reconnu l'Tapion ? Demi Débit, phénoménal, stop fusion Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Ceux qui partent ne reviennent pas comme San Goku Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Avec mes 7 boules de freestyle Un lyrics de cyborg dur comment ça taff sa mère En accappella ou en kick ou sinon tappes des mains Comment nos vies s'mélanges ? Est-ce que le bizz m'appelle ? Juste un album pénard, sur une ambiance Wu-Tang Non j'fais quoi c'matin ? J'attends rien d'personne Car ils sont plusieurs à t'butter seulement pour 100 pesos La plus part sont occupés derrière leur vie d'mensonge Pour avoir des vrais amis fallait qu'je goûte mes sauces Oui la France pète un plomb et s'invite en battle Soit tu les suis, soit tu les regardes en tant qu'spectateur Et ils jouent qu'avec la peur donc j'fais quoi ma gueule ? On se met bien quand on se parle du premier Alcatel La rage d'Aimé Césaire, entrainement DBZ Du bon zbeul, qué pasa cous' on est restés zen Vas-y zoom, c'est Beep Beep, Demi et puis c'est tout On donne ça tranquille avant que tout s'écroule Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Ceux qui partent ne reviennent pas comme San Goku Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Avec mes 7 boules de freestyle Ca s'arrête pas, on veut s'percher autre part Si on a la côte dis moi c'est qu'on s'rapproche de Drogba Dédié à la Côte d'Ivoire et les pays qui font l'poids On s'met en place p'tit à p'tit, il faut l'croire Si les PDG montent grave c'est qu'on s'tue au boulot Juste un milieu d'requin où tout l'monde travaille sous l'eau Et si tu rames ces bonos ça n'usera pas leurs moteurs Donc on remonte les manches sans la paye de Steve Urkel Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Ceux qui partent ne reviennent pas comme San Goku Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Avec mes 7 boules de freestyle You might also like3</t>
+          <t>A l'heure où tout le monde essaie de marcher sur les autres.. Ouais ! On y est ! On essaie d'se prendre la tête... Fusion Sur cahier.. Kaméhaméha.. Ca fait d'nous des supers-guerriers Demi-Portion, Beep Beep, R.A.C.H.I.D Ecoute ça ! Hein hein d'accord vas-y Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Ceux qui partent ne reviennent pas comme San Goku Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Avec mes 7 boules de freestyle du son tout court Tiens v'la une nouvelle histoire apprécie cette galette J'ai encore plein pouvoir d'ma planète Namek A ceux qui arrivent à m'backer jusqu'au Québec Autant d'clips que de films dans une vidéothèque Vu qu'on veut s'en sortir avec ou sans chèque Aucune crainte des hnouchs, on est dans mon désert Et si y'a trop d'grandes bouches c'est qu'il y a trop chekem Vu que j'ai plusieurs langues ghadi nbedele Kheli el micro ghedebe, ghadi tkhoche be deme Ana bouhdir ghir eskoute ou khellini nkemel El radi n'goulek fin tesken Un dialecte rien d'plus un combot d'tekken ? Car on a plusieurs branches avec des feuilles spéciales En toute saison, ça passe, repousse les bonnes pétales Bref, c'est Dragon Rashball t'as reconnu l'Tapion ? Demi Débit, phénoménal, stop fusion Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Ceux qui partent ne reviennent pas comme San Goku Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Avec mes 7 boules de freestyle Un lyrics de cyborg dur comment ça taff sa mère En accappella ou en kick ou sinon tappes des mains Comment nos vies s'mélanges ? Est-ce que le bizz m'appelle ? Juste un album pénard, sur une ambiance Wu-Tang Non j'fais quoi c'matin ? J'attends rien d'personne Car ils sont plusieurs à t'butter seulement pour 100 pesos La plus part sont occupés derrière leur vie d'mensonge Pour avoir des vrais amis fallait qu'je goûte mes sauces Oui la France pète un plomb et s'invite en battle Soit tu les suis, soit tu les regardes en tant qu'spectateur Et ils jouent qu'avec la peur donc j'fais quoi ma gueule ? On se met bien quand on se parle du premier Alcatel La rage d'Aimé Césaire, entrainement DBZ Du bon zbeul, qué pasa cous' on est restés zen Vas-y zoom, c'est Beep Beep, Demi et puis c'est tout On donne ça tranquille avant que tout s'écroule Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Ceux qui partent ne reviennent pas comme San Goku Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Avec mes 7 boules de freestyle Ca s'arrête pas, on veut s'percher autre part Si on a la côte dis moi c'est qu'on s'rapproche de Drogba Dédié à la Côte d'Ivoire et les pays qui font l'poids On s'met en place p'tit à p'tit, il faut l'croire Si les PDG montent grave c'est qu'on s'tue au boulot Juste un milieu d'requin où tout l'monde travaille sous l'eau Et si tu rames ces bonos ça n'usera pas leurs moteurs Donc on remonte les manches sans la paye de Steve Urkel Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Ceux qui partent ne reviennent pas comme San Goku Oui j'avoue que l'on avance en repoussant les coups A part la vue on a rien au sommet d'nos tours Le combat continue chouf ghadi nmoutou Avec mes 7 boules de freestyle 3</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>On m'a dit Toi ne lâche pas Suis ton fil conducteur On est qu'entre nous C'est bon, j'ai pas fini docteur On s'lève à 4h, dévarié selon l'ordonnance La route est longue, même si j'la ferais j'la recommence Dis qui m'la recommande ? Belle manière de se divertir La France est une ... qui nous demande toujours de faire pire Regarde sous l'drap, si y'a pas une merde sous la couverture Ça m'perturbe, et v'là c'que j'retranscris sur chaque titre On m'a dit c'rap c'est un terrain avec dix arbitres Le stade est archi-plein hormis les trous d'balle qui s'invitent Garde tes p'tits sourires ou tes vieilles filles platine Retourne jouer un rôle ou lâche ta thune à Agadir Ici ça pense qu'à fuir ou nuire vos combinaisons Y'a plus d'shit, et la coke payera mieux qu'Michel Denisot On m'a dit l'horizon deviendra flou qu'si j'recule C'est pas grave j'avance et j'm'en fous ça fera une aventure On m'a dit toi, ne lâche pas J't'invite à voir de tout Nos fleurs n'ont plus d'pétales et nos fruits n'ont plus de goût On m'a dit toi, ne lâche pas Tranquille, n'sois pas pressé Qui ne se plante jamais n'a aucune chance de pousser On m'a dit toi, ne lâche pas T'as vu l'industrie c'que c'est On m'a dit Entre le buzz et les sales succès On t'a dit on aime le rap et on s'en cache pas Ouais, ouais ouais Et foncer même si ça passe pas You might also like Deuzio on m'a dit n'cherche pas d'sensations Regarde ses yeux ça sera meilleur qu'une conversation Une nouvelle vie ? J'préfère taper dans l'occasion Amoureux du son, fallait bien ignorer vos stations Lamentable, dur de trouver un MC qui ment pas Des faux tueurs, tous là à s'baiser comme dans les mangas On m'a dit faut qu't'en parles, deux mesures s'occupent Le rap j'en écoute peu de peur d'vous faire trop d'pub Le R'n'Boule débile débarque le samedi soir Rappeur techno, prod merde David Guitare Les MC s'font coucher, et dans leur lit y'a plus d'lattes Mille positions à s'faire mal donner dans un clic-clac On m'a dit sois loin d'l'attaque, les calcule pas Révolutionnaire ? Mon cul ! T'as pas vu Cuba ! À mon insu tu parles, mais dans tous les cas ça viendra Y'a qu'un Dieu frérot et tous tes sales péchés ne payent pas On m'a dit toi, ne lâche pas J't'invite à voir de tout Nos fleurs n'ont plus d'pétales et nos fruits n'ont plus de goût On m'a dit toi, ne lâche pas Tranquille, n'sois pas pressé Qui ne se plante jamais n'a aucune chance de pousser On m'a dit toi, ne lâche pas T'as vu l'industrie c'que c'est On m'a dit Entre le buzz et les sales succès On t'a dit on aime le rap et on s'en cache pas Ouais, ouais ouais Et foncer même si ça passe pas Il n'y a que Dieu qui t'surveille, chaque pas il le verra Y'a plus d'freestyles c'est sûr, dis ciao à la caméra La mort nous appellera, on m'a dit reste tranquille Cogite la vérité ne s'trouve que dans un livre saint C'est donc Rachid avant Demi-P Oublie les stylos, tous des sataniques et même chez Mickey Sacré business, afin d'nous faire rire chez Disney La crise t'achèvera si tu viens d'accoucher des triplés L'avenir est abstrait, les tableaux perdent de sa couleur Peu d'choses à faire, donc on s'met à chercher des pensions neuves La vrai main d'uvre, on m'a dit forge-toi en artisan... ...du Bic, mais sur l'chemin y'a eu plein d'trucs bizarres À combler les p'tites salles, avouer m'faire plaisir Le son est sale, non merci on n'veut pas de lessive On m'a dit fais l'pressing, ne lâche pas l'maillot Chaque obstacle est difficile comme tomber du Grand Canyon Je nique la page blanche, histoire que les pauvres taches flanchent Un trou dans mon histoire, un flou dans ma mémoire On m'a dit toi, ne lâche pas J't'invite à voir de tout Nos fleurs n'ont plus d'pétales et nos fruits n'ont plus de goût On m'a dit toi, ne lâche pas Tranquille, n'sois pas pressé Qui ne se plante jamais n'a aucune chance de pousser On m'a dit toi, ne lâche pas T'as vu l'industrie c'que c'est On m'a dit Entre le buzz et les sales succès On t'a dit on aime le rap et on s'en cache pas Ouais, ouais ouais Et foncer même si ça passe pas2</t>
+          <t>On m'a dit Toi ne lâche pas Suis ton fil conducteur On est qu'entre nous C'est bon, j'ai pas fini docteur On s'lève à 4h, dévarié selon l'ordonnance La route est longue, même si j'la ferais j'la recommence Dis qui m'la recommande ? Belle manière de se divertir La France est une ... qui nous demande toujours de faire pire Regarde sous l'drap, si y'a pas une merde sous la couverture Ça m'perturbe, et v'là c'que j'retranscris sur chaque titre On m'a dit c'rap c'est un terrain avec dix arbitres Le stade est archi-plein hormis les trous d'balle qui s'invitent Garde tes p'tits sourires ou tes vieilles filles platine Retourne jouer un rôle ou lâche ta thune à Agadir Ici ça pense qu'à fuir ou nuire vos combinaisons Y'a plus d'shit, et la coke payera mieux qu'Michel Denisot On m'a dit l'horizon deviendra flou qu'si j'recule C'est pas grave j'avance et j'm'en fous ça fera une aventure On m'a dit toi, ne lâche pas J't'invite à voir de tout Nos fleurs n'ont plus d'pétales et nos fruits n'ont plus de goût On m'a dit toi, ne lâche pas Tranquille, n'sois pas pressé Qui ne se plante jamais n'a aucune chance de pousser On m'a dit toi, ne lâche pas T'as vu l'industrie c'que c'est On m'a dit Entre le buzz et les sales succès On t'a dit on aime le rap et on s'en cache pas Ouais, ouais ouais Et foncer même si ça passe pas Deuzio on m'a dit n'cherche pas d'sensations Regarde ses yeux ça sera meilleur qu'une conversation Une nouvelle vie ? J'préfère taper dans l'occasion Amoureux du son, fallait bien ignorer vos stations Lamentable, dur de trouver un MC qui ment pas Des faux tueurs, tous là à s'baiser comme dans les mangas On m'a dit faut qu't'en parles, deux mesures s'occupent Le rap j'en écoute peu de peur d'vous faire trop d'pub Le R'n'Boule débile débarque le samedi soir Rappeur techno, prod merde David Guitare Les MC s'font coucher, et dans leur lit y'a plus d'lattes Mille positions à s'faire mal donner dans un clic-clac On m'a dit sois loin d'l'attaque, les calcule pas Révolutionnaire ? Mon cul ! T'as pas vu Cuba ! À mon insu tu parles, mais dans tous les cas ça viendra Y'a qu'un Dieu frérot et tous tes sales péchés ne payent pas On m'a dit toi, ne lâche pas J't'invite à voir de tout Nos fleurs n'ont plus d'pétales et nos fruits n'ont plus de goût On m'a dit toi, ne lâche pas Tranquille, n'sois pas pressé Qui ne se plante jamais n'a aucune chance de pousser On m'a dit toi, ne lâche pas T'as vu l'industrie c'que c'est On m'a dit Entre le buzz et les sales succès On t'a dit on aime le rap et on s'en cache pas Ouais, ouais ouais Et foncer même si ça passe pas Il n'y a que Dieu qui t'surveille, chaque pas il le verra Y'a plus d'freestyles c'est sûr, dis ciao à la caméra La mort nous appellera, on m'a dit reste tranquille Cogite la vérité ne s'trouve que dans un livre saint C'est donc Rachid avant Demi-P Oublie les stylos, tous des sataniques et même chez Mickey Sacré business, afin d'nous faire rire chez Disney La crise t'achèvera si tu viens d'accoucher des triplés L'avenir est abstrait, les tableaux perdent de sa couleur Peu d'choses à faire, donc on s'met à chercher des pensions neuves La vrai main d'uvre, on m'a dit forge-toi en artisan... ...du Bic, mais sur l'chemin y'a eu plein d'trucs bizarres À combler les p'tites salles, avouer m'faire plaisir Le son est sale, non merci on n'veut pas de lessive On m'a dit fais l'pressing, ne lâche pas l'maillot Chaque obstacle est difficile comme tomber du Grand Canyon Je nique la page blanche, histoire que les pauvres taches flanchent Un trou dans mon histoire, un flou dans ma mémoire On m'a dit toi, ne lâche pas J't'invite à voir de tout Nos fleurs n'ont plus d'pétales et nos fruits n'ont plus de goût On m'a dit toi, ne lâche pas Tranquille, n'sois pas pressé Qui ne se plante jamais n'a aucune chance de pousser On m'a dit toi, ne lâche pas T'as vu l'industrie c'que c'est On m'a dit Entre le buzz et les sales succès On t'a dit on aime le rap et on s'en cache pas Ouais, ouais ouais Et foncer même si ça passe pas2</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tout s'achète. L'amour, l'art, la planète Terre, vous, moi. Surtout moi. L'homme est un produit comme les autres, avec une date limite de vente. Vous croyez que j'embellis le monde ? Perdu, je le bousille. Tout est provisoire. L'amour, l'art, la planète Terre, vous, moi. Surtout moi Je vous en prie, écoutez-moi car aujourd'hui je n'ai plus rien du tout J'ai plus d'famille, ni d'abri, j'ai tout perdu dans mon parcours Un père cool, une mère calme et une p'tite sur que j'aimais tant Une sale histoire qui m'fait mal et j'ai même plus d'pays en même temps Tuez-moi, j'crève quand ? J'trouve plus d'force à continuer Je n'arrive plus à vivre dans l'noir même si la lumière reste allumée Être dehors, vivre enrhumé, le froid n'efface plus cque je vois Pourquoi me plaindre ? On n'm'entend pas, personne vivra juste une fois Une femme, un amour, à cette période tu dis qu'j'abuse Dis-moi pourquoi ça tombe sur moi, est-ce que sur mon front y'a écrit je m'accuse ? Non, vas-y, j'arrête là, je vais trop loin, je m'en excuse J'ai besoin d'aide écoutez-moi, j'compterai sur vous si on m'expulse On ne peut pas changer le temps, ni la direction des tanks On ne peut ni changer le plan, qui va presser sur la détente ? Oh, qui va presser sur la détente ? Personne car... On ne peut pas changer le temps, ni la direction des tanks On ne peut ni changer le plan, qui va presser sur la détente ? Qui va presser sur la détente ? Salam Oualeïkoum, j'ai neuf ans, j'm'appelle Mounir, Palestinien J'ai plus d'famille, ni d'abri, j'ai toujours peur dcelui qui vient J'ai pas d'école, pas d'amis, nan, j'ai passé l'âge Jconnais aucun dessin animé, chez moi j'entends qu'les bruits dKalash Jcôtoie les larmes et les barrages, on fouille mon sac dans les checkpoints Pourtant j'ai jamais eu d'goûter, ah si j'ai juste les gouttes qui tombent Je veux la paix, écoutez-moi tout simplement D'accord, tout l'monde s'conduit n'importe comment Sans logement, ni nourriture, ouais la télé tcache la totale Dans ma classe, toutes nos tables ont été prises pour lits d'hôpital N'ayez pas d'frissons quand j'vous parle, retenez-moi si vous l'pouvez Disons que ... quand j'me suis approché des barbelés On ne peut pas changer le temps, ni la direction des tanks On ne peut ni changer le plan, qui va presser sur la détente ? Qui va presser sur la détente ?You might also like1</t>
+          <t>Tout s'achète. L'amour, l'art, la planète Terre, vous, moi. Surtout moi. L'homme est un produit comme les autres, avec une date limite de vente. Vous croyez que j'embellis le monde ? Perdu, je le bousille. Tout est provisoire. L'amour, l'art, la planète Terre, vous, moi. Surtout moi Je vous en prie, écoutez-moi car aujourd'hui je n'ai plus rien du tout J'ai plus d'famille, ni d'abri, j'ai tout perdu dans mon parcours Un père cool, une mère calme et une p'tite sur que j'aimais tant Une sale histoire qui m'fait mal et j'ai même plus d'pays en même temps Tuez-moi, j'crève quand ? J'trouve plus d'force à continuer Je n'arrive plus à vivre dans l'noir même si la lumière reste allumée Être dehors, vivre enrhumé, le froid n'efface plus cque je vois Pourquoi me plaindre ? On n'm'entend pas, personne vivra juste une fois Une femme, un amour, à cette période tu dis qu'j'abuse Dis-moi pourquoi ça tombe sur moi, est-ce que sur mon front y'a écrit je m'accuse ? Non, vas-y, j'arrête là, je vais trop loin, je m'en excuse J'ai besoin d'aide écoutez-moi, j'compterai sur vous si on m'expulse On ne peut pas changer le temps, ni la direction des tanks On ne peut ni changer le plan, qui va presser sur la détente ? Oh, qui va presser sur la détente ? Personne car... On ne peut pas changer le temps, ni la direction des tanks On ne peut ni changer le plan, qui va presser sur la détente ? Qui va presser sur la détente ? Salam Oualeïkoum, j'ai neuf ans, j'm'appelle Mounir, Palestinien J'ai plus d'famille, ni d'abri, j'ai toujours peur dcelui qui vient J'ai pas d'école, pas d'amis, nan, j'ai passé l'âge Jconnais aucun dessin animé, chez moi j'entends qu'les bruits dKalash Jcôtoie les larmes et les barrages, on fouille mon sac dans les checkpoints Pourtant j'ai jamais eu d'goûter, ah si j'ai juste les gouttes qui tombent Je veux la paix, écoutez-moi tout simplement D'accord, tout l'monde s'conduit n'importe comment Sans logement, ni nourriture, ouais la télé tcache la totale Dans ma classe, toutes nos tables ont été prises pour lits d'hôpital N'ayez pas d'frissons quand j'vous parle, retenez-moi si vous l'pouvez Disons que ... quand j'me suis approché des barbelés On ne peut pas changer le temps, ni la direction des tanks On ne peut ni changer le plan, qui va presser sur la détente ? Qui va presser sur la détente ?1</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Extraits de dialogue en anglais Tous mes souvenirs Poussez-vous de là j'arrive déposer mon style Parlez moi des mômes, Maitre de cérémonie si Obligé qu'on s'installe, du bas de la montagne La rime est menaçante mais je rappe en même temps On est là pour l'instant, allumez la machine On arrache tout jusqu'à la racine Y'a la rime à l'arrière, y'a les thèmes à la pelle Laissez place à l'art du nouveau, à l'ancienne On arrive élancés, on crée l'ouverture Sans joueurs on te met un but On a eu l'astuce, on te pose un 16 mais j'en veux toujours plus Y'a un paquet d'artistes, non pas qu'tu triches Tu veux la guerre, c'est Demi one peace J'ai vu que le temps passe comme ce flow est speed J'ai vu que le temps passe donc faut qu'on respire J'veux garder tous mes souvenirs Envoie un pari et j'pars emballé Advisory parental J'veux garder tous mes souvenirs J'veux garder tous mes souvenirs Tous mes souvenirs x2 Même si j'vois pas les sous venir J'veux garder tous mes souvenirs Tous mes souvenirs x2 Même si j'vois pas les sous venir You might also like La mélodie coule dans le sang x2 Suis le son x3 Poussez-vous de là j'arrive déposer mon texte Ouais y'a du monde à la pelle Le mic est open, le hip hop est en place, la basse est bonne Et la balle est dans l'camp Lever la main, oui viser le ciel La musique sème la paix Un freestyle, pas de problèmes, c'est de chez moi oui qu'on m'a appelé Poussez-vous de là y'a de l'espoir encore J'veux du son pas la boite à Pandore J'veux du sens non pas qu'on m'endort Tous gagnants sans la médaille d'or De barre en barre on opère d'en bas on te parle Les mêmes paramètres et l'stylo qui m'accompagne J'veux garder tous mes souvenirs Envoie un pari et j'pars emballé Advisory parental J'veux garder tous mes souvenirs Tous mes souvenirs x2 Même si j'vois pas les sous venir J'veux garder tous mes souvenirs Tous mes souvenirs x2 Même si j'vois pas les sous venir La mélodie coule dans le sang x2 Suis le son x3 J'veux garder tous mes souvenirs Rien n'est éternel Demi Portion1</t>
+          <t>Extraits de dialogue en anglais Tous mes souvenirs Poussez-vous de là j'arrive déposer mon style Parlez moi des mômes, Maitre de cérémonie si Obligé qu'on s'installe, du bas de la montagne La rime est menaçante mais je rappe en même temps On est là pour l'instant, allumez la machine On arrache tout jusqu'à la racine Y'a la rime à l'arrière, y'a les thèmes à la pelle Laissez place à l'art du nouveau, à l'ancienne On arrive élancés, on crée l'ouverture Sans joueurs on te met un but On a eu l'astuce, on te pose un 16 mais j'en veux toujours plus Y'a un paquet d'artistes, non pas qu'tu triches Tu veux la guerre, c'est Demi one peace J'ai vu que le temps passe comme ce flow est speed J'ai vu que le temps passe donc faut qu'on respire J'veux garder tous mes souvenirs Envoie un pari et j'pars emballé Advisory parental J'veux garder tous mes souvenirs J'veux garder tous mes souvenirs Tous mes souvenirs x2 Même si j'vois pas les sous venir J'veux garder tous mes souvenirs Tous mes souvenirs x2 Même si j'vois pas les sous venir La mélodie coule dans le sang x2 Suis le son x3 Poussez-vous de là j'arrive déposer mon texte Ouais y'a du monde à la pelle Le mic est open, le hip hop est en place, la basse est bonne Et la balle est dans l'camp Lever la main, oui viser le ciel La musique sème la paix Un freestyle, pas de problèmes, c'est de chez moi oui qu'on m'a appelé Poussez-vous de là y'a de l'espoir encore J'veux du son pas la boite à Pandore J'veux du sens non pas qu'on m'endort Tous gagnants sans la médaille d'or De barre en barre on opère d'en bas on te parle Les mêmes paramètres et l'stylo qui m'accompagne J'veux garder tous mes souvenirs Envoie un pari et j'pars emballé Advisory parental J'veux garder tous mes souvenirs Tous mes souvenirs x2 Même si j'vois pas les sous venir J'veux garder tous mes souvenirs Tous mes souvenirs x2 Même si j'vois pas les sous venir La mélodie coule dans le sang x2 Suis le son x3 J'veux garder tous mes souvenirs Rien n'est éternel Demi Portion1</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>On estime à environ 550 millions le nombre d'armes à feu actuellement en circulation. Autrement dit, il y a un homme sur douze qui est armé sur cette planète. La seule question c'est comment armer les onze autres ? D'une je te présente ma plume Vie d'crapule, méfie-toi le meilleur voleur n'a pas d'sweat capuche Encore plus immature, l'décor a plusieurs peintures L'bédo les intéresse plus, l'ghetto ne rapporte plus Ce n'est pas d'ma faute, bienvenue aux auditeurs À l'époque j'faisais la même, mais sans distributeur de disque Petit ou peut-être encore grillé Trop facile et fasciné, jenchaîne les titres à l'affilée Des beats s'invitent et m'ont viré Devient virile et varié J'navigue et vie sans me fier Trouver des rimes à marier Au-delà des thèmes on y est Ce n'est pas d'ma faute J'ai soif de musique, chaque son en est la flotte J'demande pas c'que tu sautes ni moins c'que tu m'cites C'était bidon, c'est pas grave, j't'appelle Patrick Timsit Juste arrête un peu l'shit, ça t'a rendu parano Dans l'dos t'as pas d'couteau, on t'a planté une GoPro Le monde il en fait trop, le mytho connaît chaque bled Son Mexique il l'a visité par le biais de Google Earth Alerte y'a pas d'galère, non l'voisin tire en l'air Tu étais juste en bas d'chez lui avec la bande à Baader Non, panique pas grand-père, range le fusil T'as vu, regarde la presse, le monde pète un fusible À côté y'a la jet-set, et les beaux jacuzzis Où pour l'argent le cousin pourra s'taper la cousine Tranquille, t'as vu Rachid a voulu faire de la 'zique En faisant pleurer les violons, chaque titre est un classique Magique, tragique, bâtir mes monuments Dans l'ombre j'me suis frotté, mais sans génie dans ma lampe Alors qui trouve ça marrant ? Raconte qu'on rigole tous T'as vu tout est possible, non personne n'a suivi Tom Cruise Le rappeur est à Hollywood, il rêve de ça Un seul film ferait mon rap, appelle-moi Intouchables J'pousse ça, nan nan j'ai pas trop l'choix L'alcool et le shit nous met l'cerveau dans un pochoir On a oublié nos rêves, c'est un cauchemar Arrête tu n'vis pas la misère, t'as clippé un hangar Équitable, peut-être, merci, c'est honnête J'essaie d'garder le fil, non pas celui d'une marionnette You might also like On en revient au même Old school ou new school Merci à la musique, allez v'nez qu'on s'rapproche tous On est revient au même, tout se joue dans l'mental Où tous les coups sont permis, un peu comme l'a fait Van Damme On en revient au même, de Dakar à Moscou J'considère que chaque disque va m'construire un hosto On en revient au même, quoi ? On en revient au même... Problème, problème Quelque gerbes de mots sur le terreau de la misère Y'a pas d'évolution mais que les saisons qui changent Merde, c'est bizarre, ça donne ma rue quand tu mélanges On en revient au même Yes, rendez-vous le 16 septembre On en revient au même Le deuxième album... Les Histoires... Yes, encore ? Sète, Montpellier, le 34 Loin du buzz et du biz', du système, de leurs complices Loin du vice ou d'leur carrière à vingt centimes Qui ne fait rien sans team, qui t'sort une compile T'as fait cent titres, mais y'en a juste un qu'on a compris Cannabis ou carabine, tes rimes n'ont même pas d'style Mais comment est-ce possible ? T'as surement raté l'casting Pathétique, tout l'monde s'clashe, fantastique Comment remonter les ventes quand les trous de balle font pas d'fric Les halls sont bourrés d'seringues, lodeur d'escalope Du douaize jusqu'à la 0.9 espagnole Le bénéfice tourne en rond, le commissaire en rogne Trouver le bon coin comme investir un gamos Calmos, les temps sont durs, j't'apprends plus rien Un conseil, barre tout qu'ça t'fasse du bien Gros problème, arrête avec ta morale Ton rap n'est qu'un journal sponsorisé BFM 4</t>
+          <t>On estime à environ 550 millions le nombre d'armes à feu actuellement en circulation. Autrement dit, il y a un homme sur douze qui est armé sur cette planète. La seule question c'est comment armer les onze autres ? D'une je te présente ma plume Vie d'crapule, méfie-toi le meilleur voleur n'a pas d'sweat capuche Encore plus immature, l'décor a plusieurs peintures L'bédo les intéresse plus, l'ghetto ne rapporte plus Ce n'est pas d'ma faute, bienvenue aux auditeurs À l'époque j'faisais la même, mais sans distributeur de disque Petit ou peut-être encore grillé Trop facile et fasciné, jenchaîne les titres à l'affilée Des beats s'invitent et m'ont viré Devient virile et varié J'navigue et vie sans me fier Trouver des rimes à marier Au-delà des thèmes on y est Ce n'est pas d'ma faute J'ai soif de musique, chaque son en est la flotte J'demande pas c'que tu sautes ni moins c'que tu m'cites C'était bidon, c'est pas grave, j't'appelle Patrick Timsit Juste arrête un peu l'shit, ça t'a rendu parano Dans l'dos t'as pas d'couteau, on t'a planté une GoPro Le monde il en fait trop, le mytho connaît chaque bled Son Mexique il l'a visité par le biais de Google Earth Alerte y'a pas d'galère, non l'voisin tire en l'air Tu étais juste en bas d'chez lui avec la bande à Baader Non, panique pas grand-père, range le fusil T'as vu, regarde la presse, le monde pète un fusible À côté y'a la jet-set, et les beaux jacuzzis Où pour l'argent le cousin pourra s'taper la cousine Tranquille, t'as vu Rachid a voulu faire de la 'zique En faisant pleurer les violons, chaque titre est un classique Magique, tragique, bâtir mes monuments Dans l'ombre j'me suis frotté, mais sans génie dans ma lampe Alors qui trouve ça marrant ? Raconte qu'on rigole tous T'as vu tout est possible, non personne n'a suivi Tom Cruise Le rappeur est à Hollywood, il rêve de ça Un seul film ferait mon rap, appelle-moi Intouchables J'pousse ça, nan nan j'ai pas trop l'choix L'alcool et le shit nous met l'cerveau dans un pochoir On a oublié nos rêves, c'est un cauchemar Arrête tu n'vis pas la misère, t'as clippé un hangar Équitable, peut-être, merci, c'est honnête J'essaie d'garder le fil, non pas celui d'une marionnette On en revient au même Old school ou new school Merci à la musique, allez v'nez qu'on s'rapproche tous On est revient au même, tout se joue dans l'mental Où tous les coups sont permis, un peu comme l'a fait Van Damme On en revient au même, de Dakar à Moscou J'considère que chaque disque va m'construire un hosto On en revient au même, quoi ? On en revient au même... Problème, problème Quelque gerbes de mots sur le terreau de la misère Y'a pas d'évolution mais que les saisons qui changent Merde, c'est bizarre, ça donne ma rue quand tu mélanges On en revient au même Yes, rendez-vous le 16 septembre On en revient au même Le deuxième album... Les Histoires... Yes, encore ? Sète, Montpellier, le 34 Loin du buzz et du biz', du système, de leurs complices Loin du vice ou d'leur carrière à vingt centimes Qui ne fait rien sans team, qui t'sort une compile T'as fait cent titres, mais y'en a juste un qu'on a compris Cannabis ou carabine, tes rimes n'ont même pas d'style Mais comment est-ce possible ? T'as surement raté l'casting Pathétique, tout l'monde s'clashe, fantastique Comment remonter les ventes quand les trous de balle font pas d'fric Les halls sont bourrés d'seringues, lodeur d'escalope Du douaize jusqu'à la 0.9 espagnole Le bénéfice tourne en rond, le commissaire en rogne Trouver le bon coin comme investir un gamos Calmos, les temps sont durs, j't'apprends plus rien Un conseil, barre tout qu'ça t'fasse du bien Gros problème, arrête avec ta morale Ton rap n'est qu'un journal sponsorisé BFM 4</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Comment sappelle lalbum ? La Cour des Grands Comment sappelle lalbum ? La Cour des Grands Mais il sort quand lalbum ? Le premier juin Mais il sort quand lalbum ? Le premier juin Est-cque tu vas lchoper ? Ouais ouais ouais Est-cque tu vas lchoper ? Ouais ouais ouais Et si tu télécharges, tes un bâtard Et si tu télécharges, tes un bâtard Voici le retour des gosses terribles J'ai grave taffé, oui le flow se mérite Il fausse mes rimes Si t'es cardiaque ou si t'es fêlé, fait pause fait vite Le Boss de la ville Rose t'envoie dans la fosse septique C'est le retour du King des mecs qui défoncent des têtes de cons Qui parlent mal Biggy débite des rimes ce mec est trop bon A paname Il se la pète c'est pour eux quelques balles de plomb Ca clashe grave Mais quand j'ai le mike ta clique se jette d'un pont Balance une instru classique que je l'astique Les mots je les mastique, puis les recrache en rap flow élastique Bigflo est l'as, la classe, l'art, la tactique MC fantastique comme Nas Envoie tous ses nazes au casse pipe Non mais les gars, écoutez moi, je mets le rap dans tous ses états J'suis Végéta, karatéka, vous avez mal mais ne cavalez pas Quand on arrive on distribue des baffes verbales On t'éclate on se tape des barres On épargnera pas ni les filles ni les gars Fermez la Ca sort les flingues les benz', ça joue les gangsta Ca joue les Ben Laden, les dingues, mais ça le fait même pas Moi je te fous des beignes, je te saigne, ouais j'suis pas sympa J'fais pointer les seins, les dindes sont en extase Et je t'ai fait une selecta des MC à écouter sous smecta Qu'est ce t'as j'suis pas ta bestah moi, je suis une guest star J'suis extra, c'est le retour de la gestapo Pour de l'exsta', tes meilleurs potos veulent ta peau J'entends le démon en moi je défie la peur Ma tête bouge de haut en bas, elle crée de la vapeur Tu sais je fais l'acteur, lourd comme un tracteur A la fin de ce couplet amène un défibrillateur Car mon cur part en couille, faut le sauver L'amour on l'a frôlé Oui la foule on la connait Non j'avoue j'ai déconné Et tous les MC font les hooligans Et tout à coup les bouls apparaissent Car les go's elles aiment les fous il parait Désolé je crois que tu voulais parler Non je ne vais pas m'arrêter là je rappe encore Tu le sais quand je prend le mic', pas de temps mort Toi t'as qu'à lever les bras et j'temporte Illégal tellement ça claque Attends que je pose le mic, ils font les macs mais je suis le master Pire que Michael, mate mes Nike, je pète les bacs J'perd les backs, j'sèche les , À coups de battes dans les pattes de ces bâtards Trop d'amateurs, trop de blagues, trop de nazes Dadoo, mon pote ça vient du sud Don Choa, mon pote ça vient du sud Set Match, mon pote ça vient du sud Demi P, mon pote ça vient du sud Bigflo Oli, mon pote ça vient du sud Iam, mon pote ça vient du sud Kimfu, mon pote ça vient du sud You might also like Un flow de malade, un enfant dur à soigner Le temps passe avec ou sans montre autour du poignet J'trace sans strass, j'reste honnête J'écris fier mes poèmes incompris comme la pierre de rosette Derrière le rideau, l'artiste se prépare On peut être partout et n'aller nulle part J'ai rallumé la flamme, c'est le début d'un incendie Ils ont brulé nos livres comme à Alexandrie Et, si tout le monde m'aime, moi, je déteste personne Le rap est mort mais s'vend encore MichaelJackson Et j'enterre ces gangsters, ces connards de bandits J'ai le regard qui tue mais comme les yeux de Gandhi J'ai vu des combats sur papier échappés des bas fond J'ai déterré la hache de guerre pour l'enterrer plus profond Le génie se distille un peu et je médite L'amour, ça crève les yeux, demande à dipe Dans l'noir, le soir, j'ravale mes doutes L'Diable m'a appellé pour acheter mon âme, je lui ai dit qu'elle en valait le double Et, dans cette conquête, je me balade et j'grave mes vers Le rap ? C'est le malade imaginaire Et il va s'manger le décor, attraper le virus J'bats des records, ma plume dévore le papyrus L'avenir se dessine, j'rime dans un but précis MC, on m'désigne messie de cette prophétie Le vynil grésille, ici, j'éclaircis le récit Net et précis, l'horizon rétrécit Depuis des années, des fous prédisent tous sa mort Mais à Planète Rap, le son tourne encore Quand je dis Dadoo, vous dites classique Je ne vais pas dans une berline jouer les macs mon frère Ni même me torcher au dollar pour du crack mon frère Page publicitaire, ouvre ton Macbook Air Google double O, tape MC légendaire Ça y est le rap change d'air, retour à l'Elysée Punchlines aiguisées, retour des dents aiguisées J'ai plus de trente piges et je n'ai pas de Bentley J'suis la mort du bling-bling dans le rap français Ici c'est Midi-P, pays des flambeurs à pile Les rolex brillent mais elles fondent à midi pile Tas d'amis en Audi sur l'autoroute du crédit J'ai vu l'avenir tirer des cartes de crédit en double file J'ai le son qui met la pression, comme un cours de zumba Tout le contraire de Booba, mon nom c'est Dooda Je rappe dans le vers, pas de revolver J'ai pas de Jack pervers, balance comme Jacques Prévert Mon rap est mort comme un vulgaire junkee Dans un costume d'égocentrie à la couleur du mépris Pas une prise un peu consciente de vide Les racines de sa conscience sont d'abord endormies Le verbe fumant du feu MC brule encore sur les platines crépitantes de nostalgie Quelques témoins n'ont pour lui que des cris, noyés par des larmes sourdes Alors je pousse pas, je rappe sans forcer, au fond je m'en bats Je dois élever ma fille, mais le rap a besoin de moi Don't make a sound pour mes saloperies de voyelles Si le rap c'est tendance, lève ton string pucelle J'suis l'école des tordus, des mordus t'entends? Mic' branché, j'suis de l'école des maquereaux d'argent Oh, j'ai déjà rappé pour pas trop d'argent Mais entre toi et moi, je préfère pour beaucoup d'argent Ouais t'as reconnu la pureté, Cosy Bang Bang Ouais t'as reconnu la dureté, ça va péter Quand je kicke j'enlève le cran de sureté T'avais déjà kiffé avant d'appuyer sur play Négro on arrive lourd, feu sur Toute la capitale et ses alentours je te jure Cette année on rentre dans la grande cour Posé dans ma grande tour je vais les rendre fou en douze mesures Nous c'est que du one shot, pas besoin d'un tas de pistes Punchline pimentée pour que ça arrache plus Raconte pas ta vie, fais tourner le oinj à Faktiss Qui vivra verra mon négro, nique sa mère le bac plus On bicrave des pulls et des teesh', étudie le disque On t'apprendra comment faire des tubes et du biff Parlons peu, parlons bien, parlons de liquide industrie des putes et du shit Le premier et le quinze juin, le rap français en avait bien besoin Mon négro précommande cette shit Faut qu'on atteigne le nombre à 7 chiffres Le premier et le quinze juin, le rap français en avait bien besoin Mon négro vas y achète le C'est moins cher et plus puissant qu'un sachet de beuh Je vais vous montrer que je suis le meilleur, sans vous parler de mon bras d'enfant Toujours un temps avance comme les cainris oui, mais je fais du rap en France Dans le futur je suis dans ton foutu seigneur Je prépare l'otage, je prépare la rançon Cette équipe veut des buts, veut faire plein de hits J'sui Pelé, le meilleur avant-centre Je prend des épaules, pas des épaulettes J'écoute pas de rap français pour être honnête Il y a que mon crew que je suis censé connaitre Négro j'ai les crocs et qu'une parole, je vais tenir mes promesses , dis moi tu veux du flow, du groove dans tes synapses Cosy Bang Bang fait danser tout le village Notre prochain album est déjà dans le sillage Cosy Cosy Bang Bang Trentenaire, trentenaire, j'en ai marre de ces bolosses et leurs sapes de merde Trop de boulettes sur mon coste-La boy Je respire le rap, tu n'en as que l'air Surpris par la foule à tous nos concerts Frappé par la foudre depuis collège Ouais depuis O'High je fais des tracks illicites Je vois même crier des meufs devant nos posters Cosy Bang Bang pour toi joli cur Premier disque, dispo chez ton disquaire Ouais harcèle ton fournisseur Grosse énergie, vibe d'apothicaire Vas y remue ton boul petite tass' Tu veux des Dès la première note tu fais des folies, folies Tu veux des selfies, tu veux des dédicaces Trop de flow, tellement Que tu vas m'accuser d'harcèlement Je ne suis que joie et bonne humeur Alors vous ferez la fête le jour de mon enterrement Tu me vois loin devant Torse bombé, je cours fièrement Tu me parles de vitesse, tu me parles de vie de rêve Je crois que je suis en plein dedans Rien d'neuf, rien d'clinquant, gun dans les tympans Vieux déglingué fringuant, cinglé, jeune délinquant Inquiet les cinq sens, cherche le billet d'cinq cent Les petits prenaient des cinq francs, maintenant ils prennent des cinq ans Pendant qu'on m'parle d'un temps qui n'pourra pas renaître Comme un printemps, j'regarde passer les putes à la fenêtre En trinquant, et j'ai crié jusqu'à c'que j'm'endorme Ma mémoire... ou une boite de Pandore Moi, j'ai déçu leurs attentes, paraît qu'c'est trop tard, c'est mort Ferme ton cul quand j'chante, que les petites garces m'ignorent Moi, j'ris quand j'me plante, on dirait qu'j'suis Garcimore Mais c'est plus pareil depuis qu'ma bande a mis la clé sous la porte Mon clan a baisé le score, ouais, mais ça fait long time Porté disparu, putain d'barbu dans la montagne On gagne ou on meurt, on s'marre et on pleure Mais, ressasser les rancurs du passé, c'est zéro euro d'l'heure J'ai rien contre le succès, thanks to the almighty N'essaie pas d'me sucer MenaceToSociety J'ai pas fait ça pour la gloire, j'ai fait ça pour le biscuit J'ai fait ça pour pouvoir me lever tous les jours à midi Et je flippe que ça soit fini, j'traîne seul le soir sous liqueur Ça parle mal sur Twitter, préviens-moi sur mon bippeur Il m'a tellement donné, j'peux pas haïr ce jeu D'l'ancien volcan, ils veulent voir rejaillir le feu Hey yo, roule un gros zbar négro Ton number one pothead est dans le spot Je veux une Jouer pour le Barça, vivre une vie de pacha Faire le même score que Jackson Thriller Ma vie est tournée vers ça Puis vice et versa je vise la couronne de Versailles Méduse sur le torse je porte du Versace Camouflage vert kaki Nouvelle chance, qui la offerte à qui ? Jirai provoquer la banque je veux pas de tes vers gratuits Pacifiste en lâme mais jai le verbe actif Cest quand les miens fondent en larmes que je me serre la vis Navigue sur des mers arides, attendant que le best arrive Pour le reste cest le même tarif Jsuis lopposé du maire de la ville Fumée dherbe à pleine narine Vivre jusquà en perdre la vie Jai versé trop de sang sur feuille blanche Aujourdhui je tombe chaque neurone pour que mon flambe Fortifie mes fondations, faut que les leurs tremblent Que leurs armes soient dirigées sur leurs propres tempes Jemmerde leur culte jai mon propre temple Quand tu tires le recul à trop dimportance Jcroise que des MC impotents Faux, comme croire de croiser les choses en votant Tu mcroiseras joint au bec en sifflotant Le futur tappartient seulement si tu prends le volant Donc met ta cagoule met les gants Jme sens mieux quand les billets se mélangent Jvais pas tirer sur les gens mais jsuis attiré par les grands de ce monde Qui me poussent à prier pour que mes plans se montent La tête appuyée sur les planches du sol On est venus en peace, négro range ton Glock En plus ça roule des spliffs toutes les 30 secondes Demi Portion tape un petit passe-passe sur la touche Mais vise la surface, l'effet de surprise Big Up à pour rester sur pause, une vida loca, cherche loccaz Un peu d'audace de faire des bêtises On a passé lâge, on sen fiche Un jour tout sefface Oui cest Rachid, fait voir ton visage Oui cest facile de parler trop mal Non cest rapide de faire des dommages Atterrit tandis que décolle lâge Pas de coloriage ne me colle pas de biatch Rien à lamiable jeune âge Je me sers de ma bouche comme une arme Où je me couche, toi tu te caches Centre de menaces, tu toublies grave Oui je vis sans, loin des strass Pourquoi tu stresses ? Faut que tu saches Manque pas dadresse à chaque message Oui les mots blessent, mais qui est sage ? Naal dine oumouk un coup de schlass Rentrer dans le moule, ça faut pas Tout est fragile, il y a tout qui se casse Qui fait la tête, et qui sécrase Sorti de Sète, Lion de lAtlas Pas de compet, jai pas le temps pour ça La grosse tête te gâchit la face Oui ça magace, pas trop ma tasse Pendant que tu parles, et bousille le taff Bigflo et Oli, freestyle Dédicace à mon crew le classique Beaucoup de bruit pour Bigflo et Oli Le sud le fait mieux, le sud le fait mieux Le sud le fait mieux, le sud le fait mieux 7 piges de silence, et le rap est blessé Il est passé de Nique Ta Mère à Mathilde Seigner Parait quil ne mange plus de porc, et se gave de billets Pour une Bentley en or, certains se mettent à briller Je ne suis pas le meilleur des oursons, au pays du rap game Moi je rappe pour ton frisson, eux ils font du rap Whats my name ? D double O dans le rap game Clint Eastwood mon nickname Tu gobes mon flow tu deviens dingue Je te bang bang, bang bang, molécules je les décompose Je naime pas quand le mic', jflingue, MC que tes Nike reposent Weed bleue dans le gros bang Mon cur vogue à Penny Lane Wicked, Wikileaks, mon flow qui tape tout ton abdomen Si je nai pas pris le mic' depuis Où vous êtes , cest que vous êtes la En paquet de six, un paquet pour six, des couches et du zetla Weed bleue qui te guette la Rap français qui te jet-lague Weed bleue qui me jette la Rap français on est quittes Donne des low-kicks comme une kalash dans un pays de apaches Grand armés de haches, et dune équipe sans attaches Jfuck tout ce business, cest de lamour au kilogramme Manager dans le money gramme, et lespoir miroite comme un hologramme Quand je dis Dadoo, vous dites classique, classique Quand je dis Dadoo, vous dites classique, classique Les MC débitent des phrases débiles Se prennent pour les rois des beats mais les échecs défilent Pourtant ils font partie des hits, ils font le tour des villes Voici venus Biggy et Oli te fait pas de bile La jeunesse ne connaît plus le respect Ils rêvent que de caisses, de liasses et de tasse-pé Ils aiment le sexe sous tous ses aspects On les engraisse au MacDo et tous ces abcès Séjour carcéral, non mais envoie le flow même si ça fait mal Contrôle parental, si tu mets pas du cul, je sais c'est pas rentable C'est lamentable mais c'est l'industrie du chiffre aujourd'hui Tu vends plus aucun disque, poursuivi par le fisc Tu veux pas prendre de risques alors tu sors une connerie En plus ça se vend par milliers Musique décevante, humilié Ils veulent que tu banques, ils veulent que tu danses, tu flanches Ils veulent nous faire plier On va pas les prier, nous on les casse, leurs tours de passe-passe, leur cache-cache face à face Qu'est ce que tu veux qu'ils fassent ? On va leur casser le dos, pour plus qu'ils fassent les beaux Télévision pour les dix petites arnaques au téléphone Met des culs dans les clips pendant que l'état nous assome Et des tonnes de codes, l'école déconne, les bonnes sont connes, à coup de Aucune envie d'vous aider, jeune padawan, vieux pédé J'vous découpe à coup d'épée, vous et vos putes toutes pétées Les fous, c'est plus c'que c'était, tout l'monde me demande Où t'étais ? Même si tu parles pas, tout se sait et, même si tu parles, tout se paie Tout se paie cash ou à crédit, come on biatch, are you ready? Are you ready? De la douleur, j'prédis, pas de douceur, j't'ai dit, moi, c'est Krueger Freddy Ou Rocco Siffredi-fredi et, tout d'un coup, ton pussy frémit, frémit J'suis la nouvelle épidémie-démie, you know I'm not good comme Amy, Amy, Amy Rest in peace miss Amy Winehouse, François in the hood, j'suis dans la White House Où ? Dans la White House où ? Dans la White House, suce mon cigare ou bye-bye pétasse Aïe, des fois, massacrer, ça fait mal au cur, aïe, mais tu l'as mérité motherfucker Die, et tu vas nous quitter motherfucker, die motherfucker, die motherfucker Tminik et j'te baise, moi, c'est Philippe Etchebest Timnik et j'te baise, moi, c'est Philippe Etchebest C'est Philippe Etchebest, Philippe, Philippe Etchebest Philippe Etchebest Y'a pas de hasard, tout est logique, j'suis un barbare technologique J'frappe à coup d'marteau dans ton crâne, et j'soigne tous tes problèmes psy-psychologiques C'est pas la peine d'appeler la police, non, à peine arrivés, ils périssent Les grillons, on les crame, on les brûle dans les flammes Comme les dragons de Daenerys Je vois des flashs, j'en entends qui rouspètent Nique la kalash, j'ai sorti la 12.7 J'arrive plus bordélique qu'un bolchévique ouzbek C'est pas Michael, mais ils vont crier Who's Bad? , à coup d'rafale dans la tête Quand ça rafale, ils se cachent, ils cavalent, là, je crache, ils avalent, ils avalent, ils avalent Dans le conduit nasal, ma came artisanale, ton style, il a mal, lyrics archi-banales Nanani nanana, mais y'a tchi, y'a nada, plus précis qu'la NASA J'suis ratatatatatatata Tminik et j'te... Tminik et j'te baise, moi, c'est Philippe Etchebest Philippe Etchebest, Philippe, Philippe Etchebest Tminik et j'te baise, moi, c'est Philippe Etchebest Pour mes sahbs, pour mes homies Pour les singes et les barges et les jolies L'ambiance elle est calme elle est cosy Oui dans ma tête, dans mes rêves, dans mes folies T'as voulu réveiller l'eau qui dort Dis moi alors quand est-ce qu'on s'isole ? J'ai des pensées insensées, c'est mon corps qui se colle Surtout ne crie pas il y a mes potes qui dorment Le jour se lève sur ton Je flippe, je redoute, mais ta Je le vis dans ma tête, et je goute tes lèvres Je remercie Dieu vers la voute céleste Cosy cosy bang bang Je vis d'amour et d'eau tiède Fuck ta parano je n'ai plus peur des triangles isocèles</t>
+          <t>Comment sappelle lalbum ? La Cour des Grands Comment sappelle lalbum ? La Cour des Grands Mais il sort quand lalbum ? Le premier juin Mais il sort quand lalbum ? Le premier juin Est-cque tu vas lchoper ? Ouais ouais ouais Est-cque tu vas lchoper ? Ouais ouais ouais Et si tu télécharges, tes un bâtard Et si tu télécharges, tes un bâtard Voici le retour des gosses terribles J'ai grave taffé, oui le flow se mérite Il fausse mes rimes Si t'es cardiaque ou si t'es fêlé, fait pause fait vite Le Boss de la ville Rose t'envoie dans la fosse septique C'est le retour du King des mecs qui défoncent des têtes de cons Qui parlent mal Biggy débite des rimes ce mec est trop bon A paname Il se la pète c'est pour eux quelques balles de plomb Ca clashe grave Mais quand j'ai le mike ta clique se jette d'un pont Balance une instru classique que je l'astique Les mots je les mastique, puis les recrache en rap flow élastique Bigflo est l'as, la classe, l'art, la tactique MC fantastique comme Nas Envoie tous ses nazes au casse pipe Non mais les gars, écoutez moi, je mets le rap dans tous ses états J'suis Végéta, karatéka, vous avez mal mais ne cavalez pas Quand on arrive on distribue des baffes verbales On t'éclate on se tape des barres On épargnera pas ni les filles ni les gars Fermez la Ca sort les flingues les benz', ça joue les gangsta Ca joue les Ben Laden, les dingues, mais ça le fait même pas Moi je te fous des beignes, je te saigne, ouais j'suis pas sympa J'fais pointer les seins, les dindes sont en extase Et je t'ai fait une selecta des MC à écouter sous smecta Qu'est ce t'as j'suis pas ta bestah moi, je suis une guest star J'suis extra, c'est le retour de la gestapo Pour de l'exsta', tes meilleurs potos veulent ta peau J'entends le démon en moi je défie la peur Ma tête bouge de haut en bas, elle crée de la vapeur Tu sais je fais l'acteur, lourd comme un tracteur A la fin de ce couplet amène un défibrillateur Car mon cur part en couille, faut le sauver L'amour on l'a frôlé Oui la foule on la connait Non j'avoue j'ai déconné Et tous les MC font les hooligans Et tout à coup les bouls apparaissent Car les go's elles aiment les fous il parait Désolé je crois que tu voulais parler Non je ne vais pas m'arrêter là je rappe encore Tu le sais quand je prend le mic', pas de temps mort Toi t'as qu'à lever les bras et j'temporte Illégal tellement ça claque Attends que je pose le mic, ils font les macs mais je suis le master Pire que Michael, mate mes Nike, je pète les bacs J'perd les backs, j'sèche les , À coups de battes dans les pattes de ces bâtards Trop d'amateurs, trop de blagues, trop de nazes Dadoo, mon pote ça vient du sud Don Choa, mon pote ça vient du sud Set Match, mon pote ça vient du sud Demi P, mon pote ça vient du sud Bigflo Oli, mon pote ça vient du sud Iam, mon pote ça vient du sud Kimfu, mon pote ça vient du sud Un flow de malade, un enfant dur à soigner Le temps passe avec ou sans montre autour du poignet J'trace sans strass, j'reste honnête J'écris fier mes poèmes incompris comme la pierre de rosette Derrière le rideau, l'artiste se prépare On peut être partout et n'aller nulle part J'ai rallumé la flamme, c'est le début d'un incendie Ils ont brulé nos livres comme à Alexandrie Et, si tout le monde m'aime, moi, je déteste personne Le rap est mort mais s'vend encore MichaelJackson Et j'enterre ces gangsters, ces connards de bandits J'ai le regard qui tue mais comme les yeux de Gandhi J'ai vu des combats sur papier échappés des bas fond J'ai déterré la hache de guerre pour l'enterrer plus profond Le génie se distille un peu et je médite L'amour, ça crève les yeux, demande à dipe Dans l'noir, le soir, j'ravale mes doutes L'Diable m'a appellé pour acheter mon âme, je lui ai dit qu'elle en valait le double Et, dans cette conquête, je me balade et j'grave mes vers Le rap ? C'est le malade imaginaire Et il va s'manger le décor, attraper le virus J'bats des records, ma plume dévore le papyrus L'avenir se dessine, j'rime dans un but précis MC, on m'désigne messie de cette prophétie Le vynil grésille, ici, j'éclaircis le récit Net et précis, l'horizon rétrécit Depuis des années, des fous prédisent tous sa mort Mais à Planète Rap, le son tourne encore Quand je dis Dadoo, vous dites classique Je ne vais pas dans une berline jouer les macs mon frère Ni même me torcher au dollar pour du crack mon frère Page publicitaire, ouvre ton Macbook Air Google double O, tape MC légendaire Ça y est le rap change d'air, retour à l'Elysée Punchlines aiguisées, retour des dents aiguisées J'ai plus de trente piges et je n'ai pas de Bentley J'suis la mort du bling-bling dans le rap français Ici c'est Midi-P, pays des flambeurs à pile Les rolex brillent mais elles fondent à midi pile Tas d'amis en Audi sur l'autoroute du crédit J'ai vu l'avenir tirer des cartes de crédit en double file J'ai le son qui met la pression, comme un cours de zumba Tout le contraire de Booba, mon nom c'est Dooda Je rappe dans le vers, pas de revolver J'ai pas de Jack pervers, balance comme Jacques Prévert Mon rap est mort comme un vulgaire junkee Dans un costume d'égocentrie à la couleur du mépris Pas une prise un peu consciente de vide Les racines de sa conscience sont d'abord endormies Le verbe fumant du feu MC brule encore sur les platines crépitantes de nostalgie Quelques témoins n'ont pour lui que des cris, noyés par des larmes sourdes Alors je pousse pas, je rappe sans forcer, au fond je m'en bats Je dois élever ma fille, mais le rap a besoin de moi Don't make a sound pour mes saloperies de voyelles Si le rap c'est tendance, lève ton string pucelle J'suis l'école des tordus, des mordus t'entends? Mic' branché, j'suis de l'école des maquereaux d'argent Oh, j'ai déjà rappé pour pas trop d'argent Mais entre toi et moi, je préfère pour beaucoup d'argent Ouais t'as reconnu la pureté, Cosy Bang Bang Ouais t'as reconnu la dureté, ça va péter Quand je kicke j'enlève le cran de sureté T'avais déjà kiffé avant d'appuyer sur play Négro on arrive lourd, feu sur Toute la capitale et ses alentours je te jure Cette année on rentre dans la grande cour Posé dans ma grande tour je vais les rendre fou en douze mesures Nous c'est que du one shot, pas besoin d'un tas de pistes Punchline pimentée pour que ça arrache plus Raconte pas ta vie, fais tourner le oinj à Faktiss Qui vivra verra mon négro, nique sa mère le bac plus On bicrave des pulls et des teesh', étudie le disque On t'apprendra comment faire des tubes et du biff Parlons peu, parlons bien, parlons de liquide industrie des putes et du shit Le premier et le quinze juin, le rap français en avait bien besoin Mon négro précommande cette shit Faut qu'on atteigne le nombre à 7 chiffres Le premier et le quinze juin, le rap français en avait bien besoin Mon négro vas y achète le C'est moins cher et plus puissant qu'un sachet de beuh Je vais vous montrer que je suis le meilleur, sans vous parler de mon bras d'enfant Toujours un temps avance comme les cainris oui, mais je fais du rap en France Dans le futur je suis dans ton foutu seigneur Je prépare l'otage, je prépare la rançon Cette équipe veut des buts, veut faire plein de hits J'sui Pelé, le meilleur avant-centre Je prend des épaules, pas des épaulettes J'écoute pas de rap français pour être honnête Il y a que mon crew que je suis censé connaitre Négro j'ai les crocs et qu'une parole, je vais tenir mes promesses , dis moi tu veux du flow, du groove dans tes synapses Cosy Bang Bang fait danser tout le village Notre prochain album est déjà dans le sillage Cosy Cosy Bang Bang Trentenaire, trentenaire, j'en ai marre de ces bolosses et leurs sapes de merde Trop de boulettes sur mon coste-La boy Je respire le rap, tu n'en as que l'air Surpris par la foule à tous nos concerts Frappé par la foudre depuis collège Ouais depuis O'High je fais des tracks illicites Je vois même crier des meufs devant nos posters Cosy Bang Bang pour toi joli cur Premier disque, dispo chez ton disquaire Ouais harcèle ton fournisseur Grosse énergie, vibe d'apothicaire Vas y remue ton boul petite tass' Tu veux des Dès la première note tu fais des folies, folies Tu veux des selfies, tu veux des dédicaces Trop de flow, tellement Que tu vas m'accuser d'harcèlement Je ne suis que joie et bonne humeur Alors vous ferez la fête le jour de mon enterrement Tu me vois loin devant Torse bombé, je cours fièrement Tu me parles de vitesse, tu me parles de vie de rêve Je crois que je suis en plein dedans Rien d'neuf, rien d'clinquant, gun dans les tympans Vieux déglingué fringuant, cinglé, jeune délinquant Inquiet les cinq sens, cherche le billet d'cinq cent Les petits prenaient des cinq francs, maintenant ils prennent des cinq ans Pendant qu'on m'parle d'un temps qui n'pourra pas renaître Comme un printemps, j'regarde passer les putes à la fenêtre En trinquant, et j'ai crié jusqu'à c'que j'm'endorme Ma mémoire... ou une boite de Pandore Moi, j'ai déçu leurs attentes, paraît qu'c'est trop tard, c'est mort Ferme ton cul quand j'chante, que les petites garces m'ignorent Moi, j'ris quand j'me plante, on dirait qu'j'suis Garcimore Mais c'est plus pareil depuis qu'ma bande a mis la clé sous la porte Mon clan a baisé le score, ouais, mais ça fait long time Porté disparu, putain d'barbu dans la montagne On gagne ou on meurt, on s'marre et on pleure Mais, ressasser les rancurs du passé, c'est zéro euro d'l'heure J'ai rien contre le succès, thanks to the almighty N'essaie pas d'me sucer MenaceToSociety J'ai pas fait ça pour la gloire, j'ai fait ça pour le biscuit J'ai fait ça pour pouvoir me lever tous les jours à midi Et je flippe que ça soit fini, j'traîne seul le soir sous liqueur Ça parle mal sur Twitter, préviens-moi sur mon bippeur Il m'a tellement donné, j'peux pas haïr ce jeu D'l'ancien volcan, ils veulent voir rejaillir le feu Hey yo, roule un gros zbar négro Ton number one pothead est dans le spot Je veux une Jouer pour le Barça, vivre une vie de pacha Faire le même score que Jackson Thriller Ma vie est tournée vers ça Puis vice et versa je vise la couronne de Versailles Méduse sur le torse je porte du Versace Camouflage vert kaki Nouvelle chance, qui la offerte à qui ? Jirai provoquer la banque je veux pas de tes vers gratuits Pacifiste en lâme mais jai le verbe actif Cest quand les miens fondent en larmes que je me serre la vis Navigue sur des mers arides, attendant que le best arrive Pour le reste cest le même tarif Jsuis lopposé du maire de la ville Fumée dherbe à pleine narine Vivre jusquà en perdre la vie Jai versé trop de sang sur feuille blanche Aujourdhui je tombe chaque neurone pour que mon flambe Fortifie mes fondations, faut que les leurs tremblent Que leurs armes soient dirigées sur leurs propres tempes Jemmerde leur culte jai mon propre temple Quand tu tires le recul à trop dimportance Jcroise que des MC impotents Faux, comme croire de croiser les choses en votant Tu mcroiseras joint au bec en sifflotant Le futur tappartient seulement si tu prends le volant Donc met ta cagoule met les gants Jme sens mieux quand les billets se mélangent Jvais pas tirer sur les gens mais jsuis attiré par les grands de ce monde Qui me poussent à prier pour que mes plans se montent La tête appuyée sur les planches du sol On est venus en peace, négro range ton Glock En plus ça roule des spliffs toutes les 30 secondes Demi Portion tape un petit passe-passe sur la touche Mais vise la surface, l'effet de surprise Big Up à pour rester sur pause, une vida loca, cherche loccaz Un peu d'audace de faire des bêtises On a passé lâge, on sen fiche Un jour tout sefface Oui cest Rachid, fait voir ton visage Oui cest facile de parler trop mal Non cest rapide de faire des dommages Atterrit tandis que décolle lâge Pas de coloriage ne me colle pas de biatch Rien à lamiable jeune âge Je me sers de ma bouche comme une arme Où je me couche, toi tu te caches Centre de menaces, tu toublies grave Oui je vis sans, loin des strass Pourquoi tu stresses ? Faut que tu saches Manque pas dadresse à chaque message Oui les mots blessent, mais qui est sage ? Naal dine oumouk un coup de schlass Rentrer dans le moule, ça faut pas Tout est fragile, il y a tout qui se casse Qui fait la tête, et qui sécrase Sorti de Sète, Lion de lAtlas Pas de compet, jai pas le temps pour ça La grosse tête te gâchit la face Oui ça magace, pas trop ma tasse Pendant que tu parles, et bousille le taff Bigflo et Oli, freestyle Dédicace à mon crew le classique Beaucoup de bruit pour Bigflo et Oli Le sud le fait mieux, le sud le fait mieux Le sud le fait mieux, le sud le fait mieux 7 piges de silence, et le rap est blessé Il est passé de Nique Ta Mère à Mathilde Seigner Parait quil ne mange plus de porc, et se gave de billets Pour une Bentley en or, certains se mettent à briller Je ne suis pas le meilleur des oursons, au pays du rap game Moi je rappe pour ton frisson, eux ils font du rap Whats my name ? D double O dans le rap game Clint Eastwood mon nickname Tu gobes mon flow tu deviens dingue Je te bang bang, bang bang, molécules je les décompose Je naime pas quand le mic', jflingue, MC que tes Nike reposent Weed bleue dans le gros bang Mon cur vogue à Penny Lane Wicked, Wikileaks, mon flow qui tape tout ton abdomen Si je nai pas pris le mic' depuis Où vous êtes , cest que vous êtes la En paquet de six, un paquet pour six, des couches et du zetla Weed bleue qui te guette la Rap français qui te jet-lague Weed bleue qui me jette la Rap français on est quittes Donne des low-kicks comme une kalash dans un pays de apaches Grand armés de haches, et dune équipe sans attaches Jfuck tout ce business, cest de lamour au kilogramme Manager dans le money gramme, et lespoir miroite comme un hologramme Quand je dis Dadoo, vous dites classique, classique Quand je dis Dadoo, vous dites classique, classique Les MC débitent des phrases débiles Se prennent pour les rois des beats mais les échecs défilent Pourtant ils font partie des hits, ils font le tour des villes Voici venus Biggy et Oli te fait pas de bile La jeunesse ne connaît plus le respect Ils rêvent que de caisses, de liasses et de tasse-pé Ils aiment le sexe sous tous ses aspects On les engraisse au MacDo et tous ces abcès Séjour carcéral, non mais envoie le flow même si ça fait mal Contrôle parental, si tu mets pas du cul, je sais c'est pas rentable C'est lamentable mais c'est l'industrie du chiffre aujourd'hui Tu vends plus aucun disque, poursuivi par le fisc Tu veux pas prendre de risques alors tu sors une connerie En plus ça se vend par milliers Musique décevante, humilié Ils veulent que tu banques, ils veulent que tu danses, tu flanches Ils veulent nous faire plier On va pas les prier, nous on les casse, leurs tours de passe-passe, leur cache-cache face à face Qu'est ce que tu veux qu'ils fassent ? On va leur casser le dos, pour plus qu'ils fassent les beaux Télévision pour les dix petites arnaques au téléphone Met des culs dans les clips pendant que l'état nous assome Et des tonnes de codes, l'école déconne, les bonnes sont connes, à coup de Aucune envie d'vous aider, jeune padawan, vieux pédé J'vous découpe à coup d'épée, vous et vos putes toutes pétées Les fous, c'est plus c'que c'était, tout l'monde me demande Où t'étais ? Même si tu parles pas, tout se sait et, même si tu parles, tout se paie Tout se paie cash ou à crédit, come on biatch, are you ready? Are you ready? De la douleur, j'prédis, pas de douceur, j't'ai dit, moi, c'est Krueger Freddy Ou Rocco Siffredi-fredi et, tout d'un coup, ton pussy frémit, frémit J'suis la nouvelle épidémie-démie, you know I'm not good comme Amy, Amy, Amy Rest in peace miss Amy Winehouse, François in the hood, j'suis dans la White House Où ? Dans la White House où ? Dans la White House, suce mon cigare ou bye-bye pétasse Aïe, des fois, massacrer, ça fait mal au cur, aïe, mais tu l'as mérité motherfucker Die, et tu vas nous quitter motherfucker, die motherfucker, die motherfucker Tminik et j'te baise, moi, c'est Philippe Etchebest Timnik et j'te baise, moi, c'est Philippe Etchebest C'est Philippe Etchebest, Philippe, Philippe Etchebest Philippe Etchebest Y'a pas de hasard, tout est logique, j'suis un barbare technologique J'frappe à coup d'marteau dans ton crâne, et j'soigne tous tes problèmes psy-psychologiques C'est pas la peine d'appeler la police, non, à peine arrivés, ils périssent Les grillons, on les crame, on les brûle dans les flammes Comme les dragons de Daenerys Je vois des flashs, j'en entends qui rouspètent Nique la kalash, j'ai sorti la 12.7 J'arrive plus bordélique qu'un bolchévique ouzbek C'est pas Michael, mais ils vont crier Who's Bad? , à coup d'rafale dans la tête Quand ça rafale, ils se cachent, ils cavalent, là, je crache, ils avalent, ils avalent, ils avalent Dans le conduit nasal, ma came artisanale, ton style, il a mal, lyrics archi-banales Nanani nanana, mais y'a tchi, y'a nada, plus précis qu'la NASA J'suis ratatatatatatata Tminik et j'te... Tminik et j'te baise, moi, c'est Philippe Etchebest Philippe Etchebest, Philippe, Philippe Etchebest Tminik et j'te baise, moi, c'est Philippe Etchebest Pour mes sahbs, pour mes homies Pour les singes et les barges et les jolies L'ambiance elle est calme elle est cosy Oui dans ma tête, dans mes rêves, dans mes folies T'as voulu réveiller l'eau qui dort Dis moi alors quand est-ce qu'on s'isole ? J'ai des pensées insensées, c'est mon corps qui se colle Surtout ne crie pas il y a mes potes qui dorment Le jour se lève sur ton Je flippe, je redoute, mais ta Je le vis dans ma tête, et je goute tes lèvres Je remercie Dieu vers la voute céleste Cosy cosy bang bang Je vis d'amour et d'eau tiède Fuck ta parano je n'ai plus peur des triangles isocèles</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vas-y DeparOne on est chauds Envoie-moi une poignée de punchlines La première sera gratuite histoire de bien rentrer dans l'time D'accord Rimes en détails Réfléchir entre mes lignes J't'envoie de quoi bouffer En te souhaitant bon appétit Toujours propre comme en jeûnant Toutes les soirées entre potes J'vois que t'es mal à l'intérieur Mais j'suis pas ANTHROPOLOGUE Juste artiste et j'enveloppe Ceux qui sont partis à mort Le dernier des sons d'mon casque n'est pas sorti d'une FLASHMOB Qu'est c't'as ? Chut Laisse déposer le best of PORTION DE FRITES avec une instru de keftas Désolé on se lève tard Le menu d'une sale recette Donne-moi un Bic cousin et j'te referais le MasterChef Un plateau devant l'HLM, en voyage en ULM Avec l'impression de planer mais sans devoir toucher à l'herbe Sans Gucci ni Chanel De Sète jusqu'en BELGIQUE On m'casse du sucre sur le dos Dédié à tous mes DIABÉTIQUES Une vie éclectique Obligé d's'y faire vite Non c'texte n'a rien de sorcier ni de magie D'ALCHIMISTE Juste un beat d'Alchemist Du son pour mes enfoirés Donc merci au beatmaker qui m'donne envie de LOGORRHÉE On aime à vous l'saviez Ouais Ouais Ouais La route est longue et j'les vois tous encore loin Toujours intemporel on t'refera les textes d'avant T'as signé, Psartek, c'est p-t'être même ton TESTAMENT Tu tombes ça les arrange, relève-toi 9a les démange On nous salis tous un jour pour ensuite mis au lavage Sauvage Mais tu l'répètes depuis trop d'années Au fond t'es formidable quand r'chantes STROMAE Aujourd'hui pour percer Plus de terrain, plus de risques Un peu de vice merdique Un compte ou un COUTEAU SUISSE Soirée pot d'vin pour l'coup Faudrait être sur la liste Esprit Hip Hop mon cul Fuck ton SPIRITUALISME Non y'a rien de réaliste qui te fera payer les charges Un milieu de requins avec si peu de POISSONS-CHATS Écrire est primordial un de plus dans le baladeur J'parle de ce que je vois Désolé d'être OBSERVATEUR INDÉLÉBILE est le marqueur Un SARRASIN visiteur qui passe un grand Salaam À toi qui a de la rancur Un petit fond de MARACASSEsous une prod' orientale J'en place une à Hélas, c'est le SKATEBOARD à Lucas On se porte en bas de la classe Y'a rien de bon soudain J'tire mon chapeau à Give me Five ARSÈNE LUPINYou might also like3</t>
+          <t>Vas-y DeparOne on est chauds Envoie-moi une poignée de punchlines La première sera gratuite histoire de bien rentrer dans l'time D'accord Rimes en détails Réfléchir entre mes lignes J't'envoie de quoi bouffer En te souhaitant bon appétit Toujours propre comme en jeûnant Toutes les soirées entre potes J'vois que t'es mal à l'intérieur Mais j'suis pas ANTHROPOLOGUE Juste artiste et j'enveloppe Ceux qui sont partis à mort Le dernier des sons d'mon casque n'est pas sorti d'une FLASHMOB Qu'est c't'as ? Chut Laisse déposer le best of PORTION DE FRITES avec une instru de keftas Désolé on se lève tard Le menu d'une sale recette Donne-moi un Bic cousin et j'te referais le MasterChef Un plateau devant l'HLM, en voyage en ULM Avec l'impression de planer mais sans devoir toucher à l'herbe Sans Gucci ni Chanel De Sète jusqu'en BELGIQUE On m'casse du sucre sur le dos Dédié à tous mes DIABÉTIQUES Une vie éclectique Obligé d's'y faire vite Non c'texte n'a rien de sorcier ni de magie D'ALCHIMISTE Juste un beat d'Alchemist Du son pour mes enfoirés Donc merci au beatmaker qui m'donne envie de LOGORRHÉE On aime à vous l'saviez Ouais Ouais Ouais La route est longue et j'les vois tous encore loin Toujours intemporel on t'refera les textes d'avant T'as signé, Psartek, c'est p-t'être même ton TESTAMENT Tu tombes ça les arrange, relève-toi 9a les démange On nous salis tous un jour pour ensuite mis au lavage Sauvage Mais tu l'répètes depuis trop d'années Au fond t'es formidable quand r'chantes STROMAE Aujourd'hui pour percer Plus de terrain, plus de risques Un peu de vice merdique Un compte ou un COUTEAU SUISSE Soirée pot d'vin pour l'coup Faudrait être sur la liste Esprit Hip Hop mon cul Fuck ton SPIRITUALISME Non y'a rien de réaliste qui te fera payer les charges Un milieu de requins avec si peu de POISSONS-CHATS Écrire est primordial un de plus dans le baladeur J'parle de ce que je vois Désolé d'être OBSERVATEUR INDÉLÉBILE est le marqueur Un SARRASIN visiteur qui passe un grand Salaam À toi qui a de la rancur Un petit fond de MARACASSEsous une prod' orientale J'en place une à Hélas, c'est le SKATEBOARD à Lucas On se porte en bas de la classe Y'a rien de bon soudain J'tire mon chapeau à Give me Five ARSÈNE LUPIN3</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mais qui sont ces MC ? Ecoute ça De chez nous Écoute, on avance tous malgré les coups bas On sait qu'la vie est un round, qu'on n'finira pas l'combat Ecoute, j'envoie les soupapes, envoie la prod et l'boom bap Maîtrise le flow est comme d'hab, boom baba bay J'fais rien sans mon équipe de zouer à mon pote chinois Celle-ci c'est pour ma ZUP dXXX La prod est signée Beep beep, l'amour d'la rime Habibi On s'rassemble, kif kif, et comme Rita c'est bim bim J'arrive ici mains dans les poches, j'sais même pas de quoi j'vais parler Je ne suis pas le cheval sur lequel il fallait parier Pardon si ma bouche crache des Kaméhameha Ce n'est pas ma faute si t'as chaud, ne va pas croire qu't'es sous les palmiers Pas la peine, j'damerai pas ta pilule vivant Je ne me confie qu'à cet ectoplasme assis sur l'divan Disons qu'en tout cas je vous fais déjà mille excuses Si ça kicke dur, je suis venu claquer 8 demi m'sures, suivant On veut donner de l'espoir, on persévère en continuant notre but Sans prendre des ailes, on veut vous faire planer en combinant nos plumes Pas près de me taire, j'ouvre ma gueule quand la plupart se laisse faire J'm'invite dans ton cerveau car quand je pe-ra, j'ai le pouvoir de Messmer Pour ceux qui squattent encore au poste, et qui sont claustrophobes C'est pour vous que je cause trop fort Qu'j'livre des messages plus vite que Chronopost Le but c'est de voir l'avenir, y en a ras-le-bol de perdre du temps C'est ma façon de tenir le choc, de vous écrire des paroles percutantes You might also like Salam Rachid frère, merci pour l'invitation Paré au décollage, en direction d'la planète Rashton Les plus belles pages tombent mais l'bouquin s'écrit encore Pourquoi mes plus grands rêves se réalisent uniquement quand j'dors ? De Belgique jusqu'à Sète, on crie nos rimes sans label Pas d'frontière comme un featuring de Brassens et Jacques Brel J'écris celle-ci pour les miens et les vôtres Car dans le ciel, les plus belles étoiles sont d'abord celles qui font briller les autres Moteur, j'fais face aux moqueurs tous présents au rendez-vous C'est l'arrière-plan bande de jalouses, on va vous mettre hors de vous Ça va pas trop dans nos têtes, arrête de chercher la bête On préfère penser au rappel, toi rien que tu te la pètes Aveuglé par les hebbet pilules sans rien ça joue les patrons Dans le pétrin, devant une patrouille, combien n'hausserait pas le ton ? Pour ces conneries, non, mes potos n'ont pas l'temps 2 Chez Moi, ouai le frérot en charbonne à plein temps Tu déjeunes et tu planes, les jeunes en dégénérescence On leurs demande de générer d'l'or et de digérer d'l'essence Les élites m'ont notifié de gagner peu en bossant trop Génétiquement modifié par le shit et Monsanto On veut rendre nos mères fières, voir tous nos frères pénards On vient mettre à la diète les fans de Robert Ménard On est pas super veinard, faut éclaircir l'tableau Ça veut refaire Neymar, Jay-Z ou Don Pablo Si t'es perdu, qu't'as des questions, avec des coups je te réponds Ici mêmes les sages penseurs arrivent à cours de raison Appelle moi louveteau, si t'es une chienne je te bouffe le téton Appelle moi Ramses, pharaon des tours de béton Béton, ma pyramide c'est p't'être la tour Eiffel Alors j'impose la tyrannie parce que l'amour est faible Faible, la coupe est pleine et on est trop sur les nerfs Je dégaine, je tire, la nasa retrouvera mon flow sur Kepler Quelques taffes de sensi, j'entends le chant des rènes-si J'ressens monter l'inspi', gratte un texte en deuspi M'assurant qui reste digne, je reste près, je surveille le respect, les oreilles auxquelles il se destine J'exprime en un seul jet tout mon spleen Mon esprit démasque le r'flet d'un tas d'skins J'esquive les dégâts d'la faucheuse et ses couperets JP Manova live pour un demi-couplet A travers chaque rime j'invite ma vie en feat Depuis que j'm'applique je passe de ville en ville J'écris jour et nuit pour éviter de partir en vrille Du coup j'en ai banni l'envie, j'me fous de c'que ta clique en dit Pas besoin de m'en sortir, j'suis pas rentré dans le moule Le sang coule et les gens souffrent entre les corps sans pouls Ce monde m'a rossé comme quatre mille cent coups J'arrose la prod en hommage à tous ceux qui m'entoure Combien nous imitent comme des p'tits malades ? Je dépasse des limites et je vis ma life Et dis-toi que, là j'optimise quand j'écris la night Oublie la maille là, y'a le feeling, y'a l'inspi', la vibe La rime j'la taille fut fut artistique magnifique travail On taffe d'ailleurs, y a pas de plage je cherche de la place ailleurs Sale bailleur, j'suis intouchable un peu comme Mac Tyer Punchline, lol, la plupart c'est des jeunes schlagues Gun, schlasse, thug life, combien devant les keufs chialent ? J'suis désolé d'être aussi dark, me parlez plus d'taule et sida Tu crois que l'amour se répare, j'ai grillé l'ampoule à ce qu'il parlent J'ai des idées noires de génie, j'ai mis qu'un oigt-d et la fille gémit J'suis le Racine du mal, qui assassine Iphigénie J'ai la plume qui tue, les mésanges dans un éclair et un grand bruit Juste, parce que l'homme n'est qu'un mélange entre Hitler et Gandhi En live de Garges-sur-Conakry ? où dans l'impasse, les piétons crient Tu sais Rachid, comme Derrida j'suis déconstruit2</t>
+          <t>Mais qui sont ces MC ? Ecoute ça De chez nous Écoute, on avance tous malgré les coups bas On sait qu'la vie est un round, qu'on n'finira pas l'combat Ecoute, j'envoie les soupapes, envoie la prod et l'boom bap Maîtrise le flow est comme d'hab, boom baba bay J'fais rien sans mon équipe de zouer à mon pote chinois Celle-ci c'est pour ma ZUP dXXX La prod est signée Beep beep, l'amour d'la rime Habibi On s'rassemble, kif kif, et comme Rita c'est bim bim J'arrive ici mains dans les poches, j'sais même pas de quoi j'vais parler Je ne suis pas le cheval sur lequel il fallait parier Pardon si ma bouche crache des Kaméhameha Ce n'est pas ma faute si t'as chaud, ne va pas croire qu't'es sous les palmiers Pas la peine, j'damerai pas ta pilule vivant Je ne me confie qu'à cet ectoplasme assis sur l'divan Disons qu'en tout cas je vous fais déjà mille excuses Si ça kicke dur, je suis venu claquer 8 demi m'sures, suivant On veut donner de l'espoir, on persévère en continuant notre but Sans prendre des ailes, on veut vous faire planer en combinant nos plumes Pas près de me taire, j'ouvre ma gueule quand la plupart se laisse faire J'm'invite dans ton cerveau car quand je pe-ra, j'ai le pouvoir de Messmer Pour ceux qui squattent encore au poste, et qui sont claustrophobes C'est pour vous que je cause trop fort Qu'j'livre des messages plus vite que Chronopost Le but c'est de voir l'avenir, y en a ras-le-bol de perdre du temps C'est ma façon de tenir le choc, de vous écrire des paroles percutantes Salam Rachid frère, merci pour l'invitation Paré au décollage, en direction d'la planète Rashton Les plus belles pages tombent mais l'bouquin s'écrit encore Pourquoi mes plus grands rêves se réalisent uniquement quand j'dors ? De Belgique jusqu'à Sète, on crie nos rimes sans label Pas d'frontière comme un featuring de Brassens et Jacques Brel J'écris celle-ci pour les miens et les vôtres Car dans le ciel, les plus belles étoiles sont d'abord celles qui font briller les autres Moteur, j'fais face aux moqueurs tous présents au rendez-vous C'est l'arrière-plan bande de jalouses, on va vous mettre hors de vous Ça va pas trop dans nos têtes, arrête de chercher la bête On préfère penser au rappel, toi rien que tu te la pètes Aveuglé par les hebbet pilules sans rien ça joue les patrons Dans le pétrin, devant une patrouille, combien n'hausserait pas le ton ? Pour ces conneries, non, mes potos n'ont pas l'temps 2 Chez Moi, ouai le frérot en charbonne à plein temps Tu déjeunes et tu planes, les jeunes en dégénérescence On leurs demande de générer d'l'or et de digérer d'l'essence Les élites m'ont notifié de gagner peu en bossant trop Génétiquement modifié par le shit et Monsanto On veut rendre nos mères fières, voir tous nos frères pénards On vient mettre à la diète les fans de Robert Ménard On est pas super veinard, faut éclaircir l'tableau Ça veut refaire Neymar, Jay-Z ou Don Pablo Si t'es perdu, qu't'as des questions, avec des coups je te réponds Ici mêmes les sages penseurs arrivent à cours de raison Appelle moi louveteau, si t'es une chienne je te bouffe le téton Appelle moi Ramses, pharaon des tours de béton Béton, ma pyramide c'est p't'être la tour Eiffel Alors j'impose la tyrannie parce que l'amour est faible Faible, la coupe est pleine et on est trop sur les nerfs Je dégaine, je tire, la nasa retrouvera mon flow sur Kepler Quelques taffes de sensi, j'entends le chant des rènes-si J'ressens monter l'inspi', gratte un texte en deuspi M'assurant qui reste digne, je reste près, je surveille le respect, les oreilles auxquelles il se destine J'exprime en un seul jet tout mon spleen Mon esprit démasque le r'flet d'un tas d'skins J'esquive les dégâts d'la faucheuse et ses couperets JP Manova live pour un demi-couplet A travers chaque rime j'invite ma vie en feat Depuis que j'm'applique je passe de ville en ville J'écris jour et nuit pour éviter de partir en vrille Du coup j'en ai banni l'envie, j'me fous de c'que ta clique en dit Pas besoin de m'en sortir, j'suis pas rentré dans le moule Le sang coule et les gens souffrent entre les corps sans pouls Ce monde m'a rossé comme quatre mille cent coups J'arrose la prod en hommage à tous ceux qui m'entoure Combien nous imitent comme des p'tits malades ? Je dépasse des limites et je vis ma life Et dis-toi que, là j'optimise quand j'écris la night Oublie la maille là, y'a le feeling, y'a l'inspi', la vibe La rime j'la taille fut fut artistique magnifique travail On taffe d'ailleurs, y a pas de plage je cherche de la place ailleurs Sale bailleur, j'suis intouchable un peu comme Mac Tyer Punchline, lol, la plupart c'est des jeunes schlagues Gun, schlasse, thug life, combien devant les keufs chialent ? J'suis désolé d'être aussi dark, me parlez plus d'taule et sida Tu crois que l'amour se répare, j'ai grillé l'ampoule à ce qu'il parlent J'ai des idées noires de génie, j'ai mis qu'un oigt-d et la fille gémit J'suis le Racine du mal, qui assassine Iphigénie J'ai la plume qui tue, les mésanges dans un éclair et un grand bruit Juste, parce que l'homme n'est qu'un mélange entre Hitler et Gandhi En live de Garges-sur-Conakry ? où dans l'impasse, les piétons crient Tu sais Rachid, comme Derrida j'suis déconstruit2</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Encore un son d'malade, non j'ai rien d'un Gang Starr Vas-y planque le pétard, le reste on verra plus tard Aïe, aïe, aïe, aïe, la famille est grande mais sache que Aïe, aïe, aïe, aïe, mon silence est un message Vas-y roule un pétard, le reste on verra plus tard À l'heure où l'argent facile arrive plus vite qu'une pizza Pom, pom, pom, pom, non ne joue pas avec les armes Aïe, aïe, aïe, aïe Ok, allez une pour elle et une pour toi Et si on en grille une, juste une manière de s'poser J'ai vu que tout le monde jouaient les durs J'voulais dire non, pas d'parrain, ni aucune arme sous l'pull En avoir une c'est simple mais tirer ça compte plus Dehors c'est H24, combien qui s'entretuent ? Vu qu'avant cessait le but mais personne prend du recul Oui les mêmes places qu'on occupe, oui les mêmes postes on récup' Qui va travailler demain ? Qui va donc lâcher l'stup' ? Gagner du fric c'est sûr, demande à Oxmo je t'assure Car c'est la même à Paname, de Sète à la Côte d'Azur Des paroles et des paroles, les parrains de ma rue S'inventent du rêve dehors, chut personne a vu Non, non, non, personne a vu, ouais l'milieu est corrompu La famille est grande mais tout change quand t'es adulte Joue pas la mafia non plus, dans c'cas là vaut mieux s'taire Un petit sample c'est suffisant pour un petit air de gangster You might also like Encore un son d'malade, non j'ai rien d'un Gang Starr Vas-y planque le pétard, le reste on verra plus tard Aïe, aïe, aïe, aïe, la famille est grande mais sache que Aïe, aïe, aïe, aïe, mon silence est un message Vas-y roule un pétard, le reste on verra plus tard À l'heure où l'argent facile arrive plus vite qu'une pizza Pom, pom, pom, pom, non ne joue pas avec les armes Aïe, aïe, aïe, aïe Économie suspecte, chantage, contrebande La police qui inspecte charbonneurs et soldats Aux armes, aux bif', la drogue vient de Cuba Donc ici parlez liquide, pas d'chèque ni d'compte PayPal Le silence est un message si il reste sage À l'heure où l'argent facile arrive plus vite qu'une pizza Débrouillard, dépanneur avec un grand D Aux bosseurs et fournisseurs qui n'laissent rien d'côté Rigoler ça vaut de l'or mais n'sourie pas chez l'joker Signer ton enterrement c'est plus facile qu'un job, certes Rime offerte, pas d'fraude, le reste on verra plus tard La prod est surtravaillée, Demi Cosa Nostra 34 c'est par là, encore un beat de malade Les G.G c'est ma life, par ici la brigade Jouez pas la mafia, dans c'cas là vaut mieux s'taire Un petit sample c'est suffisant pour un petit air de gangster Encore un son d'malade, non j'ai rien d'un Gang Starr Vas-y planque le pétard, le reste on verra plus tard Aïe, aïe, aïe, aïe, la famille est grande mais sache que Aïe, aïe, aïe, aïe, mon silence est un message Vas-y roule un pétard, le reste on verra plus tard À l'heure où l'argent facile arrive plus vite qu'une pizza Pom, pom, pom, pom, non ne joue pas avec les armes Aïe, aïe, aïe, aïe Speak softly, love and hold me warm against your heart I feel your words, the tender trembling moments start My life is yours and all because You came into my world with love so softly love1</t>
+          <t>Encore un son d'malade, non j'ai rien d'un Gang Starr Vas-y planque le pétard, le reste on verra plus tard Aïe, aïe, aïe, aïe, la famille est grande mais sache que Aïe, aïe, aïe, aïe, mon silence est un message Vas-y roule un pétard, le reste on verra plus tard À l'heure où l'argent facile arrive plus vite qu'une pizza Pom, pom, pom, pom, non ne joue pas avec les armes Aïe, aïe, aïe, aïe Ok, allez une pour elle et une pour toi Et si on en grille une, juste une manière de s'poser J'ai vu que tout le monde jouaient les durs J'voulais dire non, pas d'parrain, ni aucune arme sous l'pull En avoir une c'est simple mais tirer ça compte plus Dehors c'est H24, combien qui s'entretuent ? Vu qu'avant cessait le but mais personne prend du recul Oui les mêmes places qu'on occupe, oui les mêmes postes on récup' Qui va travailler demain ? Qui va donc lâcher l'stup' ? Gagner du fric c'est sûr, demande à Oxmo je t'assure Car c'est la même à Paname, de Sète à la Côte d'Azur Des paroles et des paroles, les parrains de ma rue S'inventent du rêve dehors, chut personne a vu Non, non, non, personne a vu, ouais l'milieu est corrompu La famille est grande mais tout change quand t'es adulte Joue pas la mafia non plus, dans c'cas là vaut mieux s'taire Un petit sample c'est suffisant pour un petit air de gangster Encore un son d'malade, non j'ai rien d'un Gang Starr Vas-y planque le pétard, le reste on verra plus tard Aïe, aïe, aïe, aïe, la famille est grande mais sache que Aïe, aïe, aïe, aïe, mon silence est un message Vas-y roule un pétard, le reste on verra plus tard À l'heure où l'argent facile arrive plus vite qu'une pizza Pom, pom, pom, pom, non ne joue pas avec les armes Aïe, aïe, aïe, aïe Économie suspecte, chantage, contrebande La police qui inspecte charbonneurs et soldats Aux armes, aux bif', la drogue vient de Cuba Donc ici parlez liquide, pas d'chèque ni d'compte PayPal Le silence est un message si il reste sage À l'heure où l'argent facile arrive plus vite qu'une pizza Débrouillard, dépanneur avec un grand D Aux bosseurs et fournisseurs qui n'laissent rien d'côté Rigoler ça vaut de l'or mais n'sourie pas chez l'joker Signer ton enterrement c'est plus facile qu'un job, certes Rime offerte, pas d'fraude, le reste on verra plus tard La prod est surtravaillée, Demi Cosa Nostra 34 c'est par là, encore un beat de malade Les G.G c'est ma life, par ici la brigade Jouez pas la mafia, dans c'cas là vaut mieux s'taire Un petit sample c'est suffisant pour un petit air de gangster Encore un son d'malade, non j'ai rien d'un Gang Starr Vas-y planque le pétard, le reste on verra plus tard Aïe, aïe, aïe, aïe, la famille est grande mais sache que Aïe, aïe, aïe, aïe, mon silence est un message Vas-y roule un pétard, le reste on verra plus tard À l'heure où l'argent facile arrive plus vite qu'une pizza Pom, pom, pom, pom, non ne joue pas avec les armes Aïe, aïe, aïe, aïe Speak softly, love and hold me warm against your heart I feel your words, the tender trembling moments start My life is yours and all because You came into my world with love so softly love1</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ça y est j'ai peur et j'voulais te le dire Regards fatigués, tout comme nos yeux s'alourdissent Peur, mal au ventre, je sais que tu le ressens Donc j'écris pour ceux qui partent ainsi pour ceux qui patientent Malade ? Non, on essaie de rester conscient Nos vies ne sont pas des films même si on se rapproche d'Audiard Peur du prophète, j'en ferai pas un titre La religion c'est dans l'cur pas dans un clip vide On sempare de la lead à toute heure enregistre Envoie moi une demi-potion on te niquera Astérix Atterri à tes risques et même si t'y vas franco Ils ont encore la mentalité du scénario Django En attendant on tient le coup, tâche de gérer ta colère J'apprends à leur faire mal avec un dictionnaire Avec une clope au bec, notre corps est pollué mec À s'prendre la tête pour écrire devant le bouton REC Au cinéma avec des acteurs qui déconnent Ils gèrent le blé en nous laissant les pop-corn D'accord, prend l'ticket j't'invite à capter l'texte Y'a pas d'victoire alors admire c'qui reste d'une coupe pleine Handek tout part avec, y'a personne qui revient Y'a rien de lourd c'est d'la merde alors tu crois qu'c'est Mezienne J'ai peur, mais dans l'délire j'pense que tout vient de toi Même si on est cool au fond de nous on a tous un peu d'Végéta J'ai peur et j'ai l'droit, toute manière ça m'occupe Toute façon la bonne frappe reste importée du sud En tout cas restez lucides même si j'ai grandi en ZUP Savoir calculer son truc et sans passer par maths sup' Sans passer par l'insulte c'est tout c'qu'il y a de facile On se fait p'tit c'est les principes de Rachid J'ai peur de l'avenir, de ce présent, du passé À tout ce qui s'amuse avec nous surtout si il est haut placé J'ai peur de laisser passer, chaque jour est unique On veut faire son trou comme Frankie au Bayern de Munich J'déborde, je dribble en attendant l'ouverture On fait la fête, on s'contente dès qu'y'a match nul J'ai peur, il y a pire ailleurs On espère changer le décor, mais nous ne sommes pas designer Ça sert à quoi ? J'vous l'avait dit que le monde est un souk Tu refuses l'exploitation, t'es content d'un Samsung La télé nous rend sourd, des émissions qui m'saoulent Tous pleins de cess' trop d'speed, normal quand y'a trop soupe J'ai peur qu'on nous brise tous et qu'on nous délaisse lentement Tellement sombre qu'on pourrait se transformer en Batman On bat de l'aile, pas grave, j'voulais t'sauver bonhomme Les gens sortent plus, pensent tout connaître via Google Chrome Chacun ses goûts, comme sa maîtrise de manier les mots Et quand ça pue ça vend aussi comme chez Marionnaud On teste un échantillon, vu qu'tu n'es qu'un produit La poche pleine, cours vite, un Kangourou d'Australie Peur que tu tombes à pic avant d'le rapper ensuite Un jeune debout ne verra jamais mieux qu'un vieux assis Mais me retourne pas la question, chacun ses idées mec Chacun ses convictions, mais sans savoir où les mettre Peur qu'on soit tous raides y'a pas d'rap hardcore Même ceux qui vivent dehors prennent le soin d'être propre L'habit ne fait pas le moine et la parole plus l'homme Derrière une marionnette s'trouve un ventriloque Trouves un tas d'pilotes qui défont toutes leur caisses J'vois ton parcours fichu entre parenthèses Peur de la vie d'tess mais vu qu'tout passe trop vite Et la jeunesse d'aujourd'hui te dira qu'elle profite Peur que l'on s'faufile et qu'on perde tous le rythme Toujours en gardant le smile juste avant d'mourir J'ai peur et j'ai sûrement tué l'stylo Un peu d'chaleur ne tuera point une famille d'esquimaux J'ai peur et j'ai sûrement tué l'stylo Un peu d'chaleur ne tuera point une famille d'esquimauxYou might also like2</t>
+          <t>Ça y est j'ai peur et j'voulais te le dire Regards fatigués, tout comme nos yeux s'alourdissent Peur, mal au ventre, je sais que tu le ressens Donc j'écris pour ceux qui partent ainsi pour ceux qui patientent Malade ? Non, on essaie de rester conscient Nos vies ne sont pas des films même si on se rapproche d'Audiard Peur du prophète, j'en ferai pas un titre La religion c'est dans l'cur pas dans un clip vide On sempare de la lead à toute heure enregistre Envoie moi une demi-potion on te niquera Astérix Atterri à tes risques et même si t'y vas franco Ils ont encore la mentalité du scénario Django En attendant on tient le coup, tâche de gérer ta colère J'apprends à leur faire mal avec un dictionnaire Avec une clope au bec, notre corps est pollué mec À s'prendre la tête pour écrire devant le bouton REC Au cinéma avec des acteurs qui déconnent Ils gèrent le blé en nous laissant les pop-corn D'accord, prend l'ticket j't'invite à capter l'texte Y'a pas d'victoire alors admire c'qui reste d'une coupe pleine Handek tout part avec, y'a personne qui revient Y'a rien de lourd c'est d'la merde alors tu crois qu'c'est Mezienne J'ai peur, mais dans l'délire j'pense que tout vient de toi Même si on est cool au fond de nous on a tous un peu d'Végéta J'ai peur et j'ai l'droit, toute manière ça m'occupe Toute façon la bonne frappe reste importée du sud En tout cas restez lucides même si j'ai grandi en ZUP Savoir calculer son truc et sans passer par maths sup' Sans passer par l'insulte c'est tout c'qu'il y a de facile On se fait p'tit c'est les principes de Rachid J'ai peur de l'avenir, de ce présent, du passé À tout ce qui s'amuse avec nous surtout si il est haut placé J'ai peur de laisser passer, chaque jour est unique On veut faire son trou comme Frankie au Bayern de Munich J'déborde, je dribble en attendant l'ouverture On fait la fête, on s'contente dès qu'y'a match nul J'ai peur, il y a pire ailleurs On espère changer le décor, mais nous ne sommes pas designer Ça sert à quoi ? J'vous l'avait dit que le monde est un souk Tu refuses l'exploitation, t'es content d'un Samsung La télé nous rend sourd, des émissions qui m'saoulent Tous pleins de cess' trop d'speed, normal quand y'a trop soupe J'ai peur qu'on nous brise tous et qu'on nous délaisse lentement Tellement sombre qu'on pourrait se transformer en Batman On bat de l'aile, pas grave, j'voulais t'sauver bonhomme Les gens sortent plus, pensent tout connaître via Google Chrome Chacun ses goûts, comme sa maîtrise de manier les mots Et quand ça pue ça vend aussi comme chez Marionnaud On teste un échantillon, vu qu'tu n'es qu'un produit La poche pleine, cours vite, un Kangourou d'Australie Peur que tu tombes à pic avant d'le rapper ensuite Un jeune debout ne verra jamais mieux qu'un vieux assis Mais me retourne pas la question, chacun ses idées mec Chacun ses convictions, mais sans savoir où les mettre Peur qu'on soit tous raides y'a pas d'rap hardcore Même ceux qui vivent dehors prennent le soin d'être propre L'habit ne fait pas le moine et la parole plus l'homme Derrière une marionnette s'trouve un ventriloque Trouves un tas d'pilotes qui défont toutes leur caisses J'vois ton parcours fichu entre parenthèses Peur de la vie d'tess mais vu qu'tout passe trop vite Et la jeunesse d'aujourd'hui te dira qu'elle profite Peur que l'on s'faufile et qu'on perde tous le rythme Toujours en gardant le smile juste avant d'mourir J'ai peur et j'ai sûrement tué l'stylo Un peu d'chaleur ne tuera point une famille d'esquimaux J'ai peur et j'ai sûrement tué l'stylo Un peu d'chaleur ne tuera point une famille d'esquimaux2</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C'est vrai qu'on parle de rien, on parle de tout Faut bien qu'on s'tape des barres, au bar on boit des coups L'impression d'vivre le cul sur un barbecue Aller en cours me glace le sang, j'suis jamais loin du chauffage On devient adulte une partie d'adolescence dans l'sophage J'écris des mesures, elles se mesurent le tour de ventre J'attends le jour de paye pour qu'chaque journée ressemble au Jour de l'An J'soigne mon mal-être comme je peux, Viva la vida Avec ma carte bleue j'me paye de l'herbe couleur carte vitale Tu m'auras pas, j't'ai vu venir de loin, mes potes parlent assez d'cul Écrire me fait du bien, un jour j'serai payée par la Sécu' J'déteste les gens qui croient tout savoir, le sais-tu C'qui est fou c'est qu'j'déteste encore plus les journées où je sais plus Hey yo j'suis pas d'ta mif', tu crois qu'tu parles à qui Un jour j'irai chercher mes rêves dans le service des soins palliatifs L'impression d'jouer des qualifs de Coupe d'Europe En m'droguant plus que le leader d'un groupe de rock Et j'me sens traquée, à croire qu'ils m'ont placée dans leurs viseurs On provoque pas la chance un chapelet au rétroviseur Ils m'appellent Ladéa mais pour Maman j'porte un autre nom Maudit le jour où j'ai écrit des phases, comment vivre autrement Rappelez-vous d'ces jours où vous disiez que j'lâchais des couplets trop doux J'viens couper vos doutes, vous aiguiller han PoupéeVaudou Toutes vos putains d'critiques froissantes et cassantes s'imprègnent Quand une année signifie 365 peines J'mémorise les jours de deuil, crache un vomi funeste Mon rap une symphonie muette loin des folies du net J'ai honte du jour où ils butèrent Luther Comme j'ai honte du jour où j'ai saoulé ma reum' pour une vulgaire bulle d'air Les jours où j'me suis dit pourquoi cette vie est aussi conne ? Ça sent l'béton dans nos sitcoms et la rage quand nos mots s'y collent Les jours où j'ai compris qu'j'suis rien sans mon monozygote Que leurs pigeons chient sur nos colombes et nos cigognes Rentrée des classes avec des habits moches Les jours d'décès des amis proches Avec la joie faudrait p't-êt' qu'j'me rabiboche Les jours où j'ai compris qu'le rap maquille nos galères On nage pas dans l'bonheur, on nage dans des baggys Rocawear Les jours où j'cache ma larme et j'crache ma hargne Les jours où j'offrirai le Taj Mahal à celle qui partage ma life Les jours où j'ferai d'l'éléctro nan, là tu rêves Pas d'autotune, mon rap est né par voie naturelle Ma fille mon havre de paix, mon fils ma bataille Il arrivera bientôt le jour où mon fils fera ma taille Ils nous respectent de moins en moins, Rest In Peace Rama Yade Ce fameux jour où ils cesseront d'être plein d'vices, d'amalgames On fait pas la révolution devant Texas Ranger Drôles de murs Chez nous les keufs s'bouchent le nez dès qu'ça sent l'meurtre Si tu m'avais écouté tu tirerais pas onze ans Le jour où t'as dit aux keufs ne tirez pas, on s'rend ! J'te l'ai dit cent fois marre du bif, parlons d'Éden Et t'as dit J'ai perdu mon sang froid, pardon, je t'aime Quand j'quitterai la tess', là p't-êt' que j'serai en paix Le jour où j'donnerai plus d'pièces aux SDF édentés L'avocat t'a dit tout est payant, fais l'compte Tu lui as dit le bitume, c'est un alibi en béton Le jour où j'ai eu honte du rap j'avais les joues rouges Soulja Boy sort un skeud' le jour d'la mort de Guru Le jour où on m'a dit Nakk ton rap ça l'fera toujours J'ai écrit une phase la nuit qu'a fini phrase du jour Le jour où avec Les 10' on tombe sur Radio Nova Le jour où j'aurai plus d'encre, j'dirai adieu aux fans Je n'partage pas mes ratures, moi je les gomme en chette-ca J'ai arrêté l'rap le jour où j'ai commencé l'taf Ce jour où j'ai arrêté sec, c'est le silence depuis Le jour où j'fous rien c'est qu'c'est un dimanche de pluie Ils connaissent quoi les gosses ? En transit, mais j'ai grandi Chambre 36 avec Raekwon et Ghost Et j'me sens seul comme Strauss-Kahn dans un Sofitel vide Les jours où j'ai trop d'style comme un sosie d'Elvis Un jour tu tombes de haut, ils ont shooté Scarface Un jour, tout est parfait. Un doute, tout est à refaire Ce jour où j'ai tendu la main on m'a scié les bras Aide-toi et cette fois c'est toi que le Ciel aidera Les jours où j'aimais, les jours où j'ai merdé C'est mort mais j'm'en remets les jours où j'émerge Et les jours où quand j't'appelle tu donnes ton dos J'me rappelle de ces jours, des jours comme tant d'autres Le jour où ça n'allait pas, comme d'hab' Qui s'en souvient, sans blagues Voir la main de son shrab s'transformer en crabe Le jour où tout l'monde s'en tape, te la raconte pas N'cherche plus de contact, requin ou anaconda Pourquoi les MC s'comparent ? Vous faites la même chose Welcome dans l'nouvel art où les soleils veulent s'la jouer sombre Sobre ? Nan, rien n'est neutre dans l'sang Tu t'étonnes ? Hmm, ce rap Français s'est vu à Boston Y'a des jours sous alcool, ou avec fumette et rien d'bon Le jour où j'ai entendu Renaud j'ai vite zappé leurs albums Trouve des thèmes y'en a d'autres, ça c'est pour nos MC's C'soir j'ai pas l'pepsi, non j'm'écoute Chanson triste Le jour où t'es parti j'conserve c'que tu m'as offert Depuis les cris j'persiste et gratte nul si découvert Le jour où ça va pas, j't'assure, mets toi ça Qu'on apprécie tous l'envie comme le bic de MendosaParoles rédigées et expliquées par la communauté Rap Genius France !You might also like</t>
+          <t>C'est vrai qu'on parle de rien, on parle de tout Faut bien qu'on s'tape des barres, au bar on boit des coups L'impression d'vivre le cul sur un barbecue Aller en cours me glace le sang, j'suis jamais loin du chauffage On devient adulte une partie d'adolescence dans l'sophage J'écris des mesures, elles se mesurent le tour de ventre J'attends le jour de paye pour qu'chaque journée ressemble au Jour de l'An J'soigne mon mal-être comme je peux, Viva la vida Avec ma carte bleue j'me paye de l'herbe couleur carte vitale Tu m'auras pas, j't'ai vu venir de loin, mes potes parlent assez d'cul Écrire me fait du bien, un jour j'serai payée par la Sécu' J'déteste les gens qui croient tout savoir, le sais-tu C'qui est fou c'est qu'j'déteste encore plus les journées où je sais plus Hey yo j'suis pas d'ta mif', tu crois qu'tu parles à qui Un jour j'irai chercher mes rêves dans le service des soins palliatifs L'impression d'jouer des qualifs de Coupe d'Europe En m'droguant plus que le leader d'un groupe de rock Et j'me sens traquée, à croire qu'ils m'ont placée dans leurs viseurs On provoque pas la chance un chapelet au rétroviseur Ils m'appellent Ladéa mais pour Maman j'porte un autre nom Maudit le jour où j'ai écrit des phases, comment vivre autrement Rappelez-vous d'ces jours où vous disiez que j'lâchais des couplets trop doux J'viens couper vos doutes, vous aiguiller han PoupéeVaudou Toutes vos putains d'critiques froissantes et cassantes s'imprègnent Quand une année signifie 365 peines J'mémorise les jours de deuil, crache un vomi funeste Mon rap une symphonie muette loin des folies du net J'ai honte du jour où ils butèrent Luther Comme j'ai honte du jour où j'ai saoulé ma reum' pour une vulgaire bulle d'air Les jours où j'me suis dit pourquoi cette vie est aussi conne ? Ça sent l'béton dans nos sitcoms et la rage quand nos mots s'y collent Les jours où j'ai compris qu'j'suis rien sans mon monozygote Que leurs pigeons chient sur nos colombes et nos cigognes Rentrée des classes avec des habits moches Les jours d'décès des amis proches Avec la joie faudrait p't-êt' qu'j'me rabiboche Les jours où j'ai compris qu'le rap maquille nos galères On nage pas dans l'bonheur, on nage dans des baggys Rocawear Les jours où j'cache ma larme et j'crache ma hargne Les jours où j'offrirai le Taj Mahal à celle qui partage ma life Les jours où j'ferai d'l'éléctro nan, là tu rêves Pas d'autotune, mon rap est né par voie naturelle Ma fille mon havre de paix, mon fils ma bataille Il arrivera bientôt le jour où mon fils fera ma taille Ils nous respectent de moins en moins, Rest In Peace Rama Yade Ce fameux jour où ils cesseront d'être plein d'vices, d'amalgames On fait pas la révolution devant Texas Ranger Drôles de murs Chez nous les keufs s'bouchent le nez dès qu'ça sent l'meurtre Si tu m'avais écouté tu tirerais pas onze ans Le jour où t'as dit aux keufs ne tirez pas, on s'rend ! J'te l'ai dit cent fois marre du bif, parlons d'Éden Et t'as dit J'ai perdu mon sang froid, pardon, je t'aime Quand j'quitterai la tess', là p't-êt' que j'serai en paix Le jour où j'donnerai plus d'pièces aux SDF édentés L'avocat t'a dit tout est payant, fais l'compte Tu lui as dit le bitume, c'est un alibi en béton Le jour où j'ai eu honte du rap j'avais les joues rouges Soulja Boy sort un skeud' le jour d'la mort de Guru Le jour où on m'a dit Nakk ton rap ça l'fera toujours J'ai écrit une phase la nuit qu'a fini phrase du jour Le jour où avec Les 10' on tombe sur Radio Nova Le jour où j'aurai plus d'encre, j'dirai adieu aux fans Je n'partage pas mes ratures, moi je les gomme en chette-ca J'ai arrêté l'rap le jour où j'ai commencé l'taf Ce jour où j'ai arrêté sec, c'est le silence depuis Le jour où j'fous rien c'est qu'c'est un dimanche de pluie Ils connaissent quoi les gosses ? En transit, mais j'ai grandi Chambre 36 avec Raekwon et Ghost Et j'me sens seul comme Strauss-Kahn dans un Sofitel vide Les jours où j'ai trop d'style comme un sosie d'Elvis Un jour tu tombes de haut, ils ont shooté Scarface Un jour, tout est parfait. Un doute, tout est à refaire Ce jour où j'ai tendu la main on m'a scié les bras Aide-toi et cette fois c'est toi que le Ciel aidera Les jours où j'aimais, les jours où j'ai merdé C'est mort mais j'm'en remets les jours où j'émerge Et les jours où quand j't'appelle tu donnes ton dos J'me rappelle de ces jours, des jours comme tant d'autres Le jour où ça n'allait pas, comme d'hab' Qui s'en souvient, sans blagues Voir la main de son shrab s'transformer en crabe Le jour où tout l'monde s'en tape, te la raconte pas N'cherche plus de contact, requin ou anaconda Pourquoi les MC s'comparent ? Vous faites la même chose Welcome dans l'nouvel art où les soleils veulent s'la jouer sombre Sobre ? Nan, rien n'est neutre dans l'sang Tu t'étonnes ? Hmm, ce rap Français s'est vu à Boston Y'a des jours sous alcool, ou avec fumette et rien d'bon Le jour où j'ai entendu Renaud j'ai vite zappé leurs albums Trouve des thèmes y'en a d'autres, ça c'est pour nos MC's C'soir j'ai pas l'pepsi, non j'm'écoute Chanson triste Le jour où t'es parti j'conserve c'que tu m'as offert Depuis les cris j'persiste et gratte nul si découvert Le jour où ça va pas, j't'assure, mets toi ça Qu'on apprécie tous l'envie comme le bic de MendosaParoles rédigées et expliquées par la communauté Rap Genius France !</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A tous les passionnés, vive le rap français Comme d'hab Tout s'accélère, tout va trop vite, j'ai l'impression de tout perdre Tu sais combien de familles s'butent afin de quitter leur bled Trop d'maladies on sait tous vu qu'on trouve pas de remède J'ai préféré parler d'misère plutôt qu'un clip au Club Med Maman m'a dit de n'pas me taire maint'nant je fais le contraire Les gens préfèrent dire nique ta mère que balancer un je t'aime Ma musique porte une attelle, sur mes écrits et l'entorse A force de courir, on s'calme avant de s'casser un os Et ouais on sait qu'la vie est belle, aussi jolie qu'une White Widow Tant qu'l'espoir est là, tant qu'le cur crie Freedom Freedom, mais l'avenir près d'un piège à loup Avance, ne les écoute pas, d'toute manière t'auras des jaloux La musique est un symbole mais t'offrira pas l'Oscar J'ai grandi en cité cousin ça fait pas d'moi un Gang Starr A part ça t'attends qu'ça, ce son est un accident Assuré sans AXA comme travailler dans l'ciment En baroud c'est dur un peu comme une famille en Bosnie Nos malheurs et nos pleurs on les trouve dans les sons de Hasni La musique est dans les gènes, ceux qui bloquent en bas de l'échelle Et tente d'prend'du recul, et de comprend' tout c'qui s'passe On vient d'loin mais tu sais qu'on n'pourra pas changer d'race Laisse place à l'espèce, aux artisans de l'espace On apprend vite sur le terrain, pas enfermé dans une classe x8 Comme d'hab', on continue comme d'hab' Yo, on continue comme d'hab Quatrième album, 2ChezMoi Vive le hip-hop Vas-y Rolxx, balance le scratch x8 Comme d'hab', on continue comme d'hab'You might also like3</t>
+          <t>A tous les passionnés, vive le rap français Comme d'hab Tout s'accélère, tout va trop vite, j'ai l'impression de tout perdre Tu sais combien de familles s'butent afin de quitter leur bled Trop d'maladies on sait tous vu qu'on trouve pas de remède J'ai préféré parler d'misère plutôt qu'un clip au Club Med Maman m'a dit de n'pas me taire maint'nant je fais le contraire Les gens préfèrent dire nique ta mère que balancer un je t'aime Ma musique porte une attelle, sur mes écrits et l'entorse A force de courir, on s'calme avant de s'casser un os Et ouais on sait qu'la vie est belle, aussi jolie qu'une White Widow Tant qu'l'espoir est là, tant qu'le cur crie Freedom Freedom, mais l'avenir près d'un piège à loup Avance, ne les écoute pas, d'toute manière t'auras des jaloux La musique est un symbole mais t'offrira pas l'Oscar J'ai grandi en cité cousin ça fait pas d'moi un Gang Starr A part ça t'attends qu'ça, ce son est un accident Assuré sans AXA comme travailler dans l'ciment En baroud c'est dur un peu comme une famille en Bosnie Nos malheurs et nos pleurs on les trouve dans les sons de Hasni La musique est dans les gènes, ceux qui bloquent en bas de l'échelle Et tente d'prend'du recul, et de comprend' tout c'qui s'passe On vient d'loin mais tu sais qu'on n'pourra pas changer d'race Laisse place à l'espèce, aux artisans de l'espace On apprend vite sur le terrain, pas enfermé dans une classe x8 Comme d'hab', on continue comme d'hab' Yo, on continue comme d'hab Quatrième album, 2ChezMoi Vive le hip-hop Vas-y Rolxx, balance le scratch x8 Comme d'hab', on continue comme d'hab'3</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hey Rachid, hey Rachid Ça va pas ? Ça va bien ? Ça va cool ? T'as vu là, j'prépare ma sarbacane car ça parle vu ma voix Vu ma voix, oui va voir, oui je rappe Le cachet dépasse peu 800 balles Vu den bas, feats en balle, rimes à revendre Mets ta flamme, oui je plane, oui ça plante, rien à battre, impeccable Y'a la barre dès quon t'tape, y'a du son, je m'installe Pendant que toi tu dis quoi ? Je fais ci, je fais ça J't'apprécie, tu comprends, t'es content, j't'accompagne, n'y compte pas Vite qu'on s'barre, qu'on s'barre, on s'barre Tu m'aimes pas ? Hein crevard ? Qu'on trouve pas d'air en bas ? Ouais bombarde, y'a l'équipe là mon gars Les versets brillent, check mes rimes en filigrane dans l'antipop J'viens rocker l'micro jusqu'à 65 comme Iggy Pop Multi-pluri-formes, mille albums dans un unique corps Mi-clochard, mi-légende, appelle-moi Unicorne J'viens jouer à saute-mouton en flinguant des crews entiers Ni pression, ni rêve, ni limite comme un fou rentier Ma bite et ma voix, car l'espoir n'est qu'un mauvais collage Éclair de génie lorsque le beat rencontre un orage Fruit du cynisme, de l'amour et de la manne urbaine Ils auront ma peau quand j'aurai mué en bombe humaine Les hommes affrontent les murs, mais les lâches préfèrent la fuite Le reste est une perte de temps comme lire la presse gratuite You might also like Enlevez vos bas-résilles, allez-y, accueillez mes reptiles Apprécie ou atterris, à tes risques et périls Dans ma rétine, que des putes prêtes à tout pour vendre Toi dis-moi que faire quand même le succès à un goût d'cendre Crois-moi gars, Liqid est sur une planche savonneuse Tu t'tires une balle dans l'pied, moi j'me coupe la jambe à la tronçonneuse Poursuis ma route, digne d'une narration biblique Rien n'peut m'arrêter à part la castration chimique Et tu m'mates de trav', mises en secret sur ma défaite Quand j'vois la merde qui marche, moi j'me souhaite secrètement l'échec Pour l'heure j'entasse mes rimes en pile comme un gros tas de Lego Criant Hijo de puta !, à la Maradona Diego Tu m'aimes pas ? J'te comprends, j'reconnais Qu'moi non plus j'm'aimais pas avant de mieux me connaître Si j'étais Dieu j'te sauverais, mais marlich c'est pas moi J'ai qu'deux yeux, deux oreilles, ma bite et ma voix Et ma voix... Les nerfs en boule et c'est sans but que j'déambule sans un centime en poche J'croise que des vendus, j'vois qu'les gens puent, que des gens qui m'rendent gore J'veux voir ces têtes pendues, qu'auraient tant dû, enfin tranquillement morts Haine et colère, j'm'emplis encore d'sentiments moches Y'a qu'la 'zique qui m'fait vibrer, qui m'fait vivre des moments à part Manier la plume me donne des faux airs de Comanche, Apache Là j'avoue, j'romance la page, j'commence à croire qu'j'suis qu'un inadapté J'suis à la traîne, putain d'life, qu'on m'explique comment ça marche J'penserai des trucs sensés l'jour où j'aurai une barbe de grand-père Saleté dgamberge, ma foi j'veux faire ma loi comme un parlementaire Il faut qu'je gagne, XXX qu'j'fasse mon trou, pas qu'je m'enterre Mon âme est morte quand on m'a forgé dans les flammes de l'Enfer Éteins les lumières et j'te serre dans les ruelles On est cruels, j'étale du miel sur tes fesses de prépubère T'es du-per', merde, moi j'ai du flair pour les pucelles Toutes ces belles baises, toutes ces putes aiment que j'énumère Des trucs pervers, t'es perplexe, tu perds tes repères Mais ton sexe vierge me permet de tester ta chair fraîche Ho, ha ! Oh t'es dégueulasse Tic, tac ! Au fait, j'ai le DASS'... Flippe pas, tu couches avec le Diable Bouge avec le swag, mélange de rouge avec le noir T'as signé le pacte de l'acte avec le mac J'te mate fasciné, tu gardes le cap, arrête de croire On m'appelle Jimmy l'Éponge, j'suis d'la catégorie des joufflus Faut qu'j'arrête l'eau-d'vie, les coups durs Jimmy t'es con ! J'suis plus rhum Charrette que grosse barrette, pas très poli mais tout cru La soif d'un éléphant, j'bois comme un géant Alerte au SMIC, j'ai tout bu la science infuse Quand j'ai l'sang dans l'fût Loin d'être saint comme la messe, l'hostie et Gourcuff Allégories dépourvues d'réalisme, réalise Tard-pé, orgie et bouture, et caca sur le charisme Bourre-pif, puis tourbillon, ça dégobille des gros trucs Sourdine et court-bouillon, sardine ou Et dodo sur le divan, et j'me réveille, divan sur le dos Heureusement qu'mon sarce est joliment touffu Tu m'aimes pas ? J'te comprends, j'reconnais Qu'moi non plus j'm'aimais pas avant de mieux me connaître Si j'étais Dieu j'te sauverais, mais marlich c'est pas moi J'ai qu'deux yeux, deux oreilles, ma bite et ma voix Et ma voix... J'vois déjà ta tête lorsque ce morceau sera terminé La même que les médecins lorsque ma mère m'a fait examiner Nourriture pour statistiques, tueur d'lycéens potentiel car j'squattais les dessins animés J'fais parler la poudre, mon nez trempe pas dans celle qu'on aligne, et J'fais plus gaffe aux bavards qui attendent que la haine use ma voix Pessimiste, plus que ça T'fatigue pas à me haïr, tu pourras pas l'faire plus que moi Cerveau en mode Columbine, t'es sauvé par la flemme Pour mater de longs mangas, j'attends patiemment la retraite Taffe pour l'écart d'ma peine J'décide pas de mon sort mais je sais que les cartes m'appartiennent Fuck ces négros utiles, j'reste un gamin Pour narguer le taux de mortalité infantile d'mon pays d'origine Ma femme prendra soin d'elle parce que les contraires s'attirent J'entends chanter mes cauchemars, j'vis des concerts la nuit Dans l'quartier c'est pas les hommes mais c'est les balles qui percent Alors moi et mon rap on est en batterie faible, eh Tu veux surfer sur ma vague mais tu vas nager dans l'Cocyte Pour être ivre tu veux m'suivre, termine en apnée dans l'vomi Oh oui, j'aime les femmes mais j'fais qu'draguer l'insomnie Folie, c'est l'désastre, besoin d'débarquer la police Promis, j'arrête le rap quand j'gère des 'tasses, des alcooliques Solide, je gère mes bails avec des armes que j'm'approprie Ma voix et mes sautes d'humeur, car c'est du son qui coule dans mes veines En BPM, j'lâche que des gros flows du cur J'ai des tonnes d'amis gays pour l'insertion Face à un tel don, le genre canidé Fait la gueule tes rappeurs pé-ra d'leurs chiottes Ils sortent tant d'merde qu'j'tté-gra leur glotte Avec ma crosse comme en temps d'guerre Qu'on m'entende, c'est pourquoi les fesses montent en l'air Mes seize sont d'l'amphèt' une fois bien analysés Les larcins banalisés font des tains-p' agités J'aime les anciens qui maudissent mon arrivée Ma comptine, c'est ta voix qui s'tord quand je rentre Puis j'dors, franchement ma combine est fatale T'as compris qu'c'est la foire, j'accomplis qu'des ravages J'assombris les caves avec ma longue bite et ma voix Tu m'aimes pas ? J'te comprends, j'reconnais Qu'moi non plus j'm'aimais pas avant de mieux me connaître Si j'étais Dieu j'te sauverais, mais marlich c'est pas moi J'ai qu'deux yeux, deux oreilles, ma bite et ma voix Et ma voix... Tu m'aimes pas ? J'te comprends, j'reconnais Qu'moi non plus j'm'aimais pas avant de mieux me connaître Si j'étais Dieu j'te sauverais, mais marlich c'est pas moi J'ai qu'deux yeux, deux oreilles, ma bite et ma voix Et ma voix...8</t>
+          <t>Hey Rachid, hey Rachid Ça va pas ? Ça va bien ? Ça va cool ? T'as vu là, j'prépare ma sarbacane car ça parle vu ma voix Vu ma voix, oui va voir, oui je rappe Le cachet dépasse peu 800 balles Vu den bas, feats en balle, rimes à revendre Mets ta flamme, oui je plane, oui ça plante, rien à battre, impeccable Y'a la barre dès quon t'tape, y'a du son, je m'installe Pendant que toi tu dis quoi ? Je fais ci, je fais ça J't'apprécie, tu comprends, t'es content, j't'accompagne, n'y compte pas Vite qu'on s'barre, qu'on s'barre, on s'barre Tu m'aimes pas ? Hein crevard ? Qu'on trouve pas d'air en bas ? Ouais bombarde, y'a l'équipe là mon gars Les versets brillent, check mes rimes en filigrane dans l'antipop J'viens rocker l'micro jusqu'à 65 comme Iggy Pop Multi-pluri-formes, mille albums dans un unique corps Mi-clochard, mi-légende, appelle-moi Unicorne J'viens jouer à saute-mouton en flinguant des crews entiers Ni pression, ni rêve, ni limite comme un fou rentier Ma bite et ma voix, car l'espoir n'est qu'un mauvais collage Éclair de génie lorsque le beat rencontre un orage Fruit du cynisme, de l'amour et de la manne urbaine Ils auront ma peau quand j'aurai mué en bombe humaine Les hommes affrontent les murs, mais les lâches préfèrent la fuite Le reste est une perte de temps comme lire la presse gratuite Enlevez vos bas-résilles, allez-y, accueillez mes reptiles Apprécie ou atterris, à tes risques et périls Dans ma rétine, que des putes prêtes à tout pour vendre Toi dis-moi que faire quand même le succès à un goût d'cendre Crois-moi gars, Liqid est sur une planche savonneuse Tu t'tires une balle dans l'pied, moi j'me coupe la jambe à la tronçonneuse Poursuis ma route, digne d'une narration biblique Rien n'peut m'arrêter à part la castration chimique Et tu m'mates de trav', mises en secret sur ma défaite Quand j'vois la merde qui marche, moi j'me souhaite secrètement l'échec Pour l'heure j'entasse mes rimes en pile comme un gros tas de Lego Criant Hijo de puta !, à la Maradona Diego Tu m'aimes pas ? J'te comprends, j'reconnais Qu'moi non plus j'm'aimais pas avant de mieux me connaître Si j'étais Dieu j'te sauverais, mais marlich c'est pas moi J'ai qu'deux yeux, deux oreilles, ma bite et ma voix Et ma voix... Les nerfs en boule et c'est sans but que j'déambule sans un centime en poche J'croise que des vendus, j'vois qu'les gens puent, que des gens qui m'rendent gore J'veux voir ces têtes pendues, qu'auraient tant dû, enfin tranquillement morts Haine et colère, j'm'emplis encore d'sentiments moches Y'a qu'la 'zique qui m'fait vibrer, qui m'fait vivre des moments à part Manier la plume me donne des faux airs de Comanche, Apache Là j'avoue, j'romance la page, j'commence à croire qu'j'suis qu'un inadapté J'suis à la traîne, putain d'life, qu'on m'explique comment ça marche J'penserai des trucs sensés l'jour où j'aurai une barbe de grand-père Saleté dgamberge, ma foi j'veux faire ma loi comme un parlementaire Il faut qu'je gagne, XXX qu'j'fasse mon trou, pas qu'je m'enterre Mon âme est morte quand on m'a forgé dans les flammes de l'Enfer Éteins les lumières et j'te serre dans les ruelles On est cruels, j'étale du miel sur tes fesses de prépubère T'es du-per', merde, moi j'ai du flair pour les pucelles Toutes ces belles baises, toutes ces putes aiment que j'énumère Des trucs pervers, t'es perplexe, tu perds tes repères Mais ton sexe vierge me permet de tester ta chair fraîche Ho, ha ! Oh t'es dégueulasse Tic, tac ! Au fait, j'ai le DASS'... Flippe pas, tu couches avec le Diable Bouge avec le swag, mélange de rouge avec le noir T'as signé le pacte de l'acte avec le mac J'te mate fasciné, tu gardes le cap, arrête de croire On m'appelle Jimmy l'Éponge, j'suis d'la catégorie des joufflus Faut qu'j'arrête l'eau-d'vie, les coups durs Jimmy t'es con ! J'suis plus rhum Charrette que grosse barrette, pas très poli mais tout cru La soif d'un éléphant, j'bois comme un géant Alerte au SMIC, j'ai tout bu la science infuse Quand j'ai l'sang dans l'fût Loin d'être saint comme la messe, l'hostie et Gourcuff Allégories dépourvues d'réalisme, réalise Tard-pé, orgie et bouture, et caca sur le charisme Bourre-pif, puis tourbillon, ça dégobille des gros trucs Sourdine et court-bouillon, sardine ou Et dodo sur le divan, et j'me réveille, divan sur le dos Heureusement qu'mon sarce est joliment touffu Tu m'aimes pas ? J'te comprends, j'reconnais Qu'moi non plus j'm'aimais pas avant de mieux me connaître Si j'étais Dieu j'te sauverais, mais marlich c'est pas moi J'ai qu'deux yeux, deux oreilles, ma bite et ma voix Et ma voix... J'vois déjà ta tête lorsque ce morceau sera terminé La même que les médecins lorsque ma mère m'a fait examiner Nourriture pour statistiques, tueur d'lycéens potentiel car j'squattais les dessins animés J'fais parler la poudre, mon nez trempe pas dans celle qu'on aligne, et J'fais plus gaffe aux bavards qui attendent que la haine use ma voix Pessimiste, plus que ça T'fatigue pas à me haïr, tu pourras pas l'faire plus que moi Cerveau en mode Columbine, t'es sauvé par la flemme Pour mater de longs mangas, j'attends patiemment la retraite Taffe pour l'écart d'ma peine J'décide pas de mon sort mais je sais que les cartes m'appartiennent Fuck ces négros utiles, j'reste un gamin Pour narguer le taux de mortalité infantile d'mon pays d'origine Ma femme prendra soin d'elle parce que les contraires s'attirent J'entends chanter mes cauchemars, j'vis des concerts la nuit Dans l'quartier c'est pas les hommes mais c'est les balles qui percent Alors moi et mon rap on est en batterie faible, eh Tu veux surfer sur ma vague mais tu vas nager dans l'Cocyte Pour être ivre tu veux m'suivre, termine en apnée dans l'vomi Oh oui, j'aime les femmes mais j'fais qu'draguer l'insomnie Folie, c'est l'désastre, besoin d'débarquer la police Promis, j'arrête le rap quand j'gère des 'tasses, des alcooliques Solide, je gère mes bails avec des armes que j'm'approprie Ma voix et mes sautes d'humeur, car c'est du son qui coule dans mes veines En BPM, j'lâche que des gros flows du cur J'ai des tonnes d'amis gays pour l'insertion Face à un tel don, le genre canidé Fait la gueule tes rappeurs pé-ra d'leurs chiottes Ils sortent tant d'merde qu'j'tté-gra leur glotte Avec ma crosse comme en temps d'guerre Qu'on m'entende, c'est pourquoi les fesses montent en l'air Mes seize sont d'l'amphèt' une fois bien analysés Les larcins banalisés font des tains-p' agités J'aime les anciens qui maudissent mon arrivée Ma comptine, c'est ta voix qui s'tord quand je rentre Puis j'dors, franchement ma combine est fatale T'as compris qu'c'est la foire, j'accomplis qu'des ravages J'assombris les caves avec ma longue bite et ma voix Tu m'aimes pas ? J'te comprends, j'reconnais Qu'moi non plus j'm'aimais pas avant de mieux me connaître Si j'étais Dieu j'te sauverais, mais marlich c'est pas moi J'ai qu'deux yeux, deux oreilles, ma bite et ma voix Et ma voix... Tu m'aimes pas ? J'te comprends, j'reconnais Qu'moi non plus j'm'aimais pas avant de mieux me connaître Si j'étais Dieu j'te sauverais, mais marlich c'est pas moi J'ai qu'deux yeux, deux oreilles, ma bite et ma voix Et ma voix...8</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Demi portion, La Barbe, Rolxx Un jour viendra oui Messieurs dames un jour viendra cesseront les clans, les races 200 frères affalés, ravaler une demie en terrasse sans se faire rafaler Du sang sort de ses orifices et dans ses bras fallait, du courage Papa dit souris fils, soit de ces braves allez Va falloir vivre avec le bruit des chars, son prix t'échappe La vie confond le jour, la nuit, le gris des chats Boom Y aura des bombes là sur les Champs Y aura des mauvais gens, y aura des bons rassure-les chante Viendra le jour où elle sera femme et faudra l'assumer Je l'aurais protégé contre flammes et fous, la race humaine Lui dirais qu'le monde est laid sans ignorer pourquoi l'aimer J'en oublierai mais vous continuerez pour moi les mecs Grandit la princesse s'échappe l'attend son père, balise Si le temps perd ses charmes, la chanson verbalise Les cris d'enfants remplacés par des courants d'airs minés Et que l'on soit ou pas mi-mai ses coups l'ont terminé Un jour viendra me restera 10 minutes un point c'est tout Dix mille lignes, mon rire diminue puis dans un coin s'étouffe Le pilier se brisera, et des milliers mépriseront Sans trier mes tristes raps et plier mes crises ronflent La barbe s'endormira, elle qui ravit l'velours Dit ça sent bon le miracle, qui criera vive le loup Et puis elle tapera sur la boîte et moi plus j'tape aussi Mais on m'entendra pas, ce jour viendra mais le plus tard possible You might also like x2 Vivre sous cette épée d'Damoclès Te pose pas la question si je suis rond, si je joue bien l'drame J'peux pas t'aider la mort t'laisse La vie pour dire adieu et nous verrons si ce jour viendra Yo, un jour viendra on y verra plus rien Hein, tous morts au pluriel Depuis qu'le maquillage a su bien cacher le naturel Au d'là des rêves du cauchemar, jusqu'au fond des ténèbres Une bête ne peux pas t'nir trop longtemps dans le contener Un jour viendra sans colère, être amoureux sans s'connaître On prend des coups, on s'relève, ça d'puis l'époque du collège Un jour viendra mes collègues, papa oui je t'aime très fort T'as vu aujourd'hui j'rappe, j'ai p't'être trouver mon trésor Ta force et tout ton courage Mama je t'oublierai pas Élever des enfants toute seule, ça tombe Rocky Balboa Un jour viendra on s'tiendra histoire de régler nos montres En espérant vivre au calme sans réveiller nos démons Trop démotions ou p't'être pas, celle-ci c'est pour nos amis La défense de Paul Pogba, les cerveaux de Platini Un jour viendra on s'aimera, j'te jure promis on s'aidera La vie te serre la main mais cache toujours une sérieuse clé d'bras Va falloir vivre avec ça, rêver de partir autre part On n'peux pas suivre les tanks, ni s'mettre à la place d'une balle Un jour viendra sans s'tromper, bien sûr ne laisse pas tomber Car si y a pas d'plan B, du coup y a tout l'alphabet x2 Vivre sous cette épée d'Damoclès Te pose pas la question si je suis rond, si je joue bien l'drame J'peux pas t'aider la mort t'laisse La vie pour dire adieu et nous verrons si ce jour viendra Furax, Barbarossa Demi4</t>
+          <t>Demi portion, La Barbe, Rolxx Un jour viendra oui Messieurs dames un jour viendra cesseront les clans, les races 200 frères affalés, ravaler une demie en terrasse sans se faire rafaler Du sang sort de ses orifices et dans ses bras fallait, du courage Papa dit souris fils, soit de ces braves allez Va falloir vivre avec le bruit des chars, son prix t'échappe La vie confond le jour, la nuit, le gris des chats Boom Y aura des bombes là sur les Champs Y aura des mauvais gens, y aura des bons rassure-les chante Viendra le jour où elle sera femme et faudra l'assumer Je l'aurais protégé contre flammes et fous, la race humaine Lui dirais qu'le monde est laid sans ignorer pourquoi l'aimer J'en oublierai mais vous continuerez pour moi les mecs Grandit la princesse s'échappe l'attend son père, balise Si le temps perd ses charmes, la chanson verbalise Les cris d'enfants remplacés par des courants d'airs minés Et que l'on soit ou pas mi-mai ses coups l'ont terminé Un jour viendra me restera 10 minutes un point c'est tout Dix mille lignes, mon rire diminue puis dans un coin s'étouffe Le pilier se brisera, et des milliers mépriseront Sans trier mes tristes raps et plier mes crises ronflent La barbe s'endormira, elle qui ravit l'velours Dit ça sent bon le miracle, qui criera vive le loup Et puis elle tapera sur la boîte et moi plus j'tape aussi Mais on m'entendra pas, ce jour viendra mais le plus tard possible x2 Vivre sous cette épée d'Damoclès Te pose pas la question si je suis rond, si je joue bien l'drame J'peux pas t'aider la mort t'laisse La vie pour dire adieu et nous verrons si ce jour viendra Yo, un jour viendra on y verra plus rien Hein, tous morts au pluriel Depuis qu'le maquillage a su bien cacher le naturel Au d'là des rêves du cauchemar, jusqu'au fond des ténèbres Une bête ne peux pas t'nir trop longtemps dans le contener Un jour viendra sans colère, être amoureux sans s'connaître On prend des coups, on s'relève, ça d'puis l'époque du collège Un jour viendra mes collègues, papa oui je t'aime très fort T'as vu aujourd'hui j'rappe, j'ai p't'être trouver mon trésor Ta force et tout ton courage Mama je t'oublierai pas Élever des enfants toute seule, ça tombe Rocky Balboa Un jour viendra on s'tiendra histoire de régler nos montres En espérant vivre au calme sans réveiller nos démons Trop démotions ou p't'être pas, celle-ci c'est pour nos amis La défense de Paul Pogba, les cerveaux de Platini Un jour viendra on s'aimera, j'te jure promis on s'aidera La vie te serre la main mais cache toujours une sérieuse clé d'bras Va falloir vivre avec ça, rêver de partir autre part On n'peux pas suivre les tanks, ni s'mettre à la place d'une balle Un jour viendra sans s'tromper, bien sûr ne laisse pas tomber Car si y a pas d'plan B, du coup y a tout l'alphabet x2 Vivre sous cette épée d'Damoclès Te pose pas la question si je suis rond, si je joue bien l'drame J'peux pas t'aider la mort t'laisse La vie pour dire adieu et nous verrons si ce jour viendra Furax, Barbarossa Demi4</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>D'ici on trouve l'espoir avant de disparaître On a les mêmes pinceaux mais pas la même palette Oui la monnaie rend fou, rend fou Non la vie de Pablo demande beaucoup d'sous D'ici on trouve l'espoir avant de disparaître On a les mêmes pinceaux mais pas la même palette Oui la monnaie rend fou, Escobar Ouais ouais ouais, trop fou, quelque part On a les mains en fait pour l'or, mais elles sont dans la merde On a perdu plein de potes depuis qu'on est gamin On a cherché un salaire, on a pas voulu dormir Le quotidien est trop dur, on a gardé le sourire On veut faire le tour du monde avec un petit navire Explorer chaque espace, on m'a dit ça c'est la vie Dehors y a trop de retard, des tires qui nous tuent à tous Y a même des bougies par terre, qu'on allumera en pleine course Le travail nous rend trop speed, on a plus l'temps de causer J'te fais la bise ce soir avant de te déposer La musique nous aide en vrai, elle te relève ma parole Car si elle n'était plus là, j'n'aurais jamais eu de rôle On choisit pas son étoile, ni son nuage magique Comme nous l'a dit IAM, petit frère grandit trop vite J'joue pas la mafia non, j'vous servirai que du son Juste avant qu'on se barre, ouais vive la révolution D'ici on trouve l'espoir avant de disparaître On a les mêmes pinceaux mais pas la même palette Oui la monnaie rend fou, rend fou Non la vie de Pablo demande beaucoup d'sous D'ici on trouve l'espoir avant de disparaître On a les mêmes pinceaux mais pas la même palette Oui la monnaie rend fou, Escobar Ouais ouais ouais, trop fou, quelque part On a des soucis, un peu comme tout le monde Qui a chanté ça ? dis lui d'écouter l'album Des coups, des hématomes, c'est tout ce que l'envieux adore Non laisse-moi dans les tribunes j'me fou de la médaille d'or Jamais d'accord, ferme la porte tu verras qu'on rentre Remballez vos sandales, j'viens compter combien d'jeunes rappent La trentaine gratte, t'aimes fracturer sous l'plâtre On s'en tape d'aller vite, on n'mise pas sur une soupape Chez nous on est deux, voire quatre bouches et p't'être dix mille P't'être timide, mes textes me donnent pas l'salaire de Maldini Tu vois l'délire, mis à part ça, j'dis hamdoulilah Ne regarde pas d'haut, il y aura ce jour où tu n'auras plus d'ailes La zic', on a qu'elle, j'arrête et c'est p't'être t'à l'heure J'ai passé l'âge de m'plaindre ou d'frapper un contrôleur Non j'joue pas la mafia, j'vous servirai que du son Ouais juste avant qu'on se barre, vive la révolution D'ici on trouve l'espoir avant de disparaître On a les mêmes pinceaux mais pas la même palette Oui la monnaie rend fou, rend fou Non la vie de Pablo demande beaucoup d'sous D'ici on trouve l'espoir avant de disparaître On a les mêmes pinceaux mais pas la même palette Oui la monnaie rend fou, Escobar Ouais ouais ouais, trop fou, quelque partYou might also like6</t>
+          <t>D'ici on trouve l'espoir avant de disparaître On a les mêmes pinceaux mais pas la même palette Oui la monnaie rend fou, rend fou Non la vie de Pablo demande beaucoup d'sous D'ici on trouve l'espoir avant de disparaître On a les mêmes pinceaux mais pas la même palette Oui la monnaie rend fou, Escobar Ouais ouais ouais, trop fou, quelque part On a les mains en fait pour l'or, mais elles sont dans la merde On a perdu plein de potes depuis qu'on est gamin On a cherché un salaire, on a pas voulu dormir Le quotidien est trop dur, on a gardé le sourire On veut faire le tour du monde avec un petit navire Explorer chaque espace, on m'a dit ça c'est la vie Dehors y a trop de retard, des tires qui nous tuent à tous Y a même des bougies par terre, qu'on allumera en pleine course Le travail nous rend trop speed, on a plus l'temps de causer J'te fais la bise ce soir avant de te déposer La musique nous aide en vrai, elle te relève ma parole Car si elle n'était plus là, j'n'aurais jamais eu de rôle On choisit pas son étoile, ni son nuage magique Comme nous l'a dit IAM, petit frère grandit trop vite J'joue pas la mafia non, j'vous servirai que du son Juste avant qu'on se barre, ouais vive la révolution D'ici on trouve l'espoir avant de disparaître On a les mêmes pinceaux mais pas la même palette Oui la monnaie rend fou, rend fou Non la vie de Pablo demande beaucoup d'sous D'ici on trouve l'espoir avant de disparaître On a les mêmes pinceaux mais pas la même palette Oui la monnaie rend fou, Escobar Ouais ouais ouais, trop fou, quelque part On a des soucis, un peu comme tout le monde Qui a chanté ça ? dis lui d'écouter l'album Des coups, des hématomes, c'est tout ce que l'envieux adore Non laisse-moi dans les tribunes j'me fou de la médaille d'or Jamais d'accord, ferme la porte tu verras qu'on rentre Remballez vos sandales, j'viens compter combien d'jeunes rappent La trentaine gratte, t'aimes fracturer sous l'plâtre On s'en tape d'aller vite, on n'mise pas sur une soupape Chez nous on est deux, voire quatre bouches et p't'être dix mille P't'être timide, mes textes me donnent pas l'salaire de Maldini Tu vois l'délire, mis à part ça, j'dis hamdoulilah Ne regarde pas d'haut, il y aura ce jour où tu n'auras plus d'ailes La zic', on a qu'elle, j'arrête et c'est p't'être t'à l'heure J'ai passé l'âge de m'plaindre ou d'frapper un contrôleur Non j'joue pas la mafia, j'vous servirai que du son Ouais juste avant qu'on se barre, vive la révolution D'ici on trouve l'espoir avant de disparaître On a les mêmes pinceaux mais pas la même palette Oui la monnaie rend fou, rend fou Non la vie de Pablo demande beaucoup d'sous D'ici on trouve l'espoir avant de disparaître On a les mêmes pinceaux mais pas la même palette Oui la monnaie rend fou, Escobar Ouais ouais ouais, trop fou, quelque part6</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tu veux du flow, là ? Je vais t'envoyer tout c'que t'aimes T'as capté mon art À t'enfoncer toutes quenelles Mets du son, on s'met bien, ça m'évite toutes querelles T'es un voyou ? Tiens, un gros beat et nos belles voyelles Ils portent pas d'poubelles, paraît qu'y'a trop d'déchets Désolé pour l'terme trop d'mecs ont chié La machine a changé, fallait oser On n'a pas d'congés mais fallait bosser Qu'on s'est traumatisés Prose polarisée Oh shit ! Et des gosses déscolarisés On est trop dans l'panier, non j'ferai pas fortune Tu rappes bien, ouais, mais t'es entouré d'faux-culs Boxe les mots un peu comme une partie d'baseball On parle aux mômes comme s'ils allaient rentrer en taule On rappe encore, c'est cool et terrible encore Premier couplet, c'est histoire de mettre tout l'monde d'accord Un pur son hip-hop Technique sur iPod ou méthode Face B ou bonne prod' Avec tout c'qu'on note Depuis l'époque on donne Sans venir de Boston Sète c'est déjà Kingston Rap sans piston Pourquoi nous existons Comme t'es mon fiston C'est tout c'qu'on vise, con Le son c'est non stop Le Monde est au top Et quand l'public sort Hip-hop-hop-hop-hop You might also like H, parce que le hasch' fait aussi partie d'nous ... J'ai oublié la rime Ouais faut du cash, y'a même plus d'sous D'accord, vas-y demander à mon shrab Karim Nous on est loin d'Paris et des grosses industries On se démarque très vite avec notre propre style Suis, j'ai les mêmes types et la même équipe Si, gardez la même mine dans chaque titre Allitérations affolantes, extensions millimétrées Déballez-la, ma rime arrive. Stop, c'est que l'medley Hip-hop microscope, l'amour est vu d'près Aux grapheurs et leur bombe tout en restant discrets Aimés ou détestés, on fera c'qu'on aime, c'est tout On gardera les mêmes roues, on enlèvera qu'les clous On fait du rap ça tourne, big up à vous encore Et si tu sens qu'ça coule, c'est que nous sommes d'accord Un pur son hip-hop Technique sur iPod ou méthode Face B ou bonne prod' Avec tout c'qu'on note Depuis l'époque on donne Sans venir de Boston Sète c'est déjà Kingston Rap sans piston Pourquoi nous existons Comme t'es mon fiston C'est tout c'qu'on vise, con Le son c'est non stop Le Monde est au top Et quand l'public sort Hip-hop-hop-hop-hop C'est vrai qu'ça t'parle Le beat m'accapare La bass tabasse grave Limite avance-toi T'es sûr t'es partant, réécoute avant c'soir Rallume le pétard qu'on tape tous une barre Qui cherche la bagarre ? L'État ou le bâtard ? T'façon y'a plus grave à casser une guitare Ma rage est vitale, l'accent inimitable Pourquoi t'arrêtes le rap ? T'as même pas vu le départ ! Un pur son hip-hop Technique sur iPod ou méthode Face B ou bonne prod' Avec tout c'qu'on note Depuis l'époque on donne Sans venir de Boston Sète c'est déjà Kingston Rap sans piston Pourquoi nous existons Comme t'es mon fiston C'est tout c'qu'on vise, con Le son c'est non stop Le Monde est au top Et quand l'public sort Hip-hop-hop-hop-hop</t>
+          <t>Tu veux du flow, là ? Je vais t'envoyer tout c'que t'aimes T'as capté mon art À t'enfoncer toutes quenelles Mets du son, on s'met bien, ça m'évite toutes querelles T'es un voyou ? Tiens, un gros beat et nos belles voyelles Ils portent pas d'poubelles, paraît qu'y'a trop d'déchets Désolé pour l'terme trop d'mecs ont chié La machine a changé, fallait oser On n'a pas d'congés mais fallait bosser Qu'on s'est traumatisés Prose polarisée Oh shit ! Et des gosses déscolarisés On est trop dans l'panier, non j'ferai pas fortune Tu rappes bien, ouais, mais t'es entouré d'faux-culs Boxe les mots un peu comme une partie d'baseball On parle aux mômes comme s'ils allaient rentrer en taule On rappe encore, c'est cool et terrible encore Premier couplet, c'est histoire de mettre tout l'monde d'accord Un pur son hip-hop Technique sur iPod ou méthode Face B ou bonne prod' Avec tout c'qu'on note Depuis l'époque on donne Sans venir de Boston Sète c'est déjà Kingston Rap sans piston Pourquoi nous existons Comme t'es mon fiston C'est tout c'qu'on vise, con Le son c'est non stop Le Monde est au top Et quand l'public sort Hip-hop-hop-hop-hop H, parce que le hasch' fait aussi partie d'nous ... J'ai oublié la rime Ouais faut du cash, y'a même plus d'sous D'accord, vas-y demander à mon shrab Karim Nous on est loin d'Paris et des grosses industries On se démarque très vite avec notre propre style Suis, j'ai les mêmes types et la même équipe Si, gardez la même mine dans chaque titre Allitérations affolantes, extensions millimétrées Déballez-la, ma rime arrive. Stop, c'est que l'medley Hip-hop microscope, l'amour est vu d'près Aux grapheurs et leur bombe tout en restant discrets Aimés ou détestés, on fera c'qu'on aime, c'est tout On gardera les mêmes roues, on enlèvera qu'les clous On fait du rap ça tourne, big up à vous encore Et si tu sens qu'ça coule, c'est que nous sommes d'accord Un pur son hip-hop Technique sur iPod ou méthode Face B ou bonne prod' Avec tout c'qu'on note Depuis l'époque on donne Sans venir de Boston Sète c'est déjà Kingston Rap sans piston Pourquoi nous existons Comme t'es mon fiston C'est tout c'qu'on vise, con Le son c'est non stop Le Monde est au top Et quand l'public sort Hip-hop-hop-hop-hop C'est vrai qu'ça t'parle Le beat m'accapare La bass tabasse grave Limite avance-toi T'es sûr t'es partant, réécoute avant c'soir Rallume le pétard qu'on tape tous une barre Qui cherche la bagarre ? L'État ou le bâtard ? T'façon y'a plus grave à casser une guitare Ma rage est vitale, l'accent inimitable Pourquoi t'arrêtes le rap ? T'as même pas vu le départ ! Un pur son hip-hop Technique sur iPod ou méthode Face B ou bonne prod' Avec tout c'qu'on note Depuis l'époque on donne Sans venir de Boston Sète c'est déjà Kingston Rap sans piston Pourquoi nous existons Comme t'es mon fiston C'est tout c'qu'on vise, con Le son c'est non stop Le Monde est au top Et quand l'public sort Hip-hop-hop-hop-hop</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>On m'dit Essaye de gratter tout ce que t'as Morale, on lâche nos rages, j'cherche que dalle Donc c'est tout ce que mon rap hélas n'aura Vos lois ne feront pas naître l'humeur adorable Mais j'veux bien qu'mon cur vive en silence Si mon mal être lui meurt à l'oral On rame, terrifiant comment j'dérive sans l'rap On gratte des rimes sombres, rale, vu que les rires se font rares Rien que des lâches, on voit les bons hélas dévorés Tema l'homme écrasent Envoient les bombes et rasent les forêts J'touche le fond et j'perds la forme, ma vie m'écrase S'vider l'crâne, tous le font moi j'pé-ra fort Est-ce un délit d'rapper des nuits? Check ça Chacun son délire, moi gratter des lignes j'ai qu'ça Ils ont beau dire Calme toi J'suis pas surhumain, a qui tu veux qu'j'parle? J'ai moins d'potes qu'il y a de doigts cé-pla sur une main Trop d'zebla, crois pas j'fais semblant Faut qu'on s'barre sans gue-bla Vu que ce monde à deux balles nous laisse en plan Putain d'freestyle, en direct de Belgique C'est pour mes tournaisiens Pour les gars, faites du bruit pour la caméra Dis-toi qu'c'est automatique, respecte les potos d'ma clique Tu fais l'beau beau mais comprend pas qu'on t'photographie Est-ce la faute aux papys ? La faute à la jeunesse? Demande à madame Genest ce qu'elle pense des bobos fascistes C'est un gros traumatisme le choc des générations Pour certains, célébration et pour d'autres des propos fascistes Regarde dans quoi les prolos gravitent Certains d'mes potos trafiquent Loin de ces porcs au vies pornographiques Prise de tête, c'est l'gros néant, han Poto, j'm'attriste, j'écris ce texte Comme si j'prenais en photo la crise You might also like Eh la vie c'est comme quand je nage, au fond j'm'y perds Bienvenue, on t'juge pas pour ce que t'es Mais pour ce qu'on t'aura vu faire Moi j'ai la rime un peu trop franche, veu-gra comme l'adultère Vu qu'au fil du temps j'deviens celui qu'j'aurais pas dû être Allez, demande à Dindin on veut d'l'amour à tout prix Vu qu'le seul espoir s'dessine quand on esquisse un sourire Avant de mourir, j'veux pas me retrouver à pourrir Qu'on mattrape et qu'on me foute au tiroir Comme cette foutue souris Déçu car j'ai pas pu ouvrir, les portes qu'au final j'enfonce Et les malheurs sont aussi nombreux qu'les minables dans l'son J'suis pire que sombre, y'a pas à dire quand j'braille mes phases Ils refusent de m'tendre la main Moi j'leur tendrais mon troisième doigt Avoues qu'tu croyais pas, en la force des coups d'mes gars Surtout depuis que S.W.A. rime avec des couplets sales Le soutien ça vient tout seul, arrêtez de faire vos gratteurs Avec vos sales gueules, j'assume vraiment pas d'être rappeur J'ai mal au crâne, je fume et je crame des grammes Y'a pas de thunes, ça c'est grave Les p'tits fument, ouais ça se dégrade, dehors c'est crade J'écris toute la nuit, ouais y'a pas d'excès de rap Mec, c'est hard, c'est la merde C'est dead, toujours pas de Mercedes Je rentre jamais chez moi, c'est pour ça que ma mère s'énerve Envie de me défouler et de faire des folies Ça me rend fou de voir l'avenir devenir une phobie On fait quoi nous, on faiblit, et on fait le poids même amaigris Critiqués par des abrutis, si le savoir est une arme Bah fais pas l'armée étudie 7500, la trilogique, loin d'être illogique Hey, check ma vie, c'est pas la tienne frérot J'ai pas besoin d'un fix d'héro pour me sentir bien Au fond de moi même, je rêvais d'être un héros On s'était promis qu'on s'en sortirait Ce, sans sortilège, trop de promesses, de sacrilèges Et je noie mon chagrin dans un verre de bière On m'a dit Beni, profite car le temps passe vite Et c'est facile, facile de faire le fou quand personne s'agite C'est bien de s'amuser, mais t'as pensé à planquer de la maille ? Car quand les soucis frappent C'est pas le rap qui sera ton gilet pare-balle J'en ai fait des erreurs, des choix pas très judicieux J'ai trop souvent écouté mon cur, celui-ci m'a déçu Y'a trop de vicieux, oui m'sieur, c'est vrai que la haine attire Moi je suis trop seul depuis que... Non, ça j'ai trop de peine à le dire Il s'agit pas de réussir, juste kiffer à fond nos vies Et frérot, je pourrai dormir quand j'aurai skeefé toute ta weed Salope... Mokless, dis leur, difficile de s'en sortir quand on a Lappétit de Bernard Tapie et le caractère de Cantonna Ça rentre pas mal mais les ennemis m'ont jetés l'Aïn Bon, je suis tout sang salit par les habits de lAïd tu sais La jalousie démarre que chez les profiteurs J'ai qu'une place dans ma Clio, j'ai pas les clefs d'un gros pick-up Big-up à toi mais ne te ronge pas trop les ongles Viens me parler si tas un truc mais ne calcule pas trop les autres Les hommes, des corbeaux, qui ne font qu'admirer la chair Et même si on se cachait en scred ils nous pisteraient au laser Ça sert à quoi ? J'ai trop de rimes à faire tourner Je veux pas t'arriver à la cheville t'es encore loin de mes ourlets C'est pour Tournai, la Belgique et tous qui sont ici Et quand je gratte, c'est ma vie perso que j'essaie d'égailler Mais grand je craque quand je vois Que les frères sautent comme des CD rayés J'ai déjà assez déraillé, je rappe mes blessures je pleure Les instrus je vais les grailler, brailler ce que j'ai sur le cur Faire les gros titres, rien à foutre, à tout ça je vais mettre un terme Ça vient des tripes, chacun de mes sons Pourrait sappeler Lettre interne J'ai pris la plume, réciter un texte, c'est pas si terrible, j'essaie Et j'espère m'en sortir indemne, ne pas quitter le ring blessé Tu sais ma rage je la tempère J'continue tant que mes couplets surinent Mon rap c'est la tempête, un coup de pression A t'en couper le sourire, je suis comme toi zinc Je suis loin d'être sain et pas l'exemple, et pour aller mieux J'ai pas besoin d'un médecin mais de cramer le sample Je suis un mec simple, sois pas vexant, ne fait pas de moi ton idole J'serais pas le même sans mes galères, sans les fin de mois au Lidl Paraît que quand je pose, c'est magique Oui mais ce sera de la folie de penser vivre de ma zik' Vu que j'suis pas un de ces faux leaders On a la haine couz', téma ce que nos frères vivent Connard la peine pousse en bas de nos tours hyper vides C'est le gouvernement qui nous met dans de sales états Détournement, t'es d'jà mé-cra contrôler par des perfides Faudrait calmer ma haine, changer leur paramètres C'est comme parler d'quenelle et au final ne pas la mettre Ici, il y a trop d'grandes gueules, trop d'caniches qui aboient Ne vois-tu pas les génocides ? Comment fais-tu pour ne pas l'admettre ? Tiers-moyen, faut qu'tu saches qui sont les délinquants Vêtus d'Lacoste ou d'costume, qui pense déjà t'niquer à ses 20 ans Liberté d'expression, tu vois bien qu'on nous manipule On frôle la répression pendant qu'Carla s'fait une manucure Trop d'man titubent, j'vois des tas d'MC's bégayer L'eau qui dort est aussi forte qu'une flamme réveillée C'est en tirant les bonnes idées Qu'on luttera pour les bonnes causes Les portes fermées par des putes L'impression qu'il y a qu'des maisons closes J'écris à lindélébile, mes erreurs sont ineffaçables Et quand j'suis pas dans mon assiette Les porcs voudraient que j'passe à table On s'débarrasse pas d'ses soucis en disant bon débarras On a l'embarras du choix, pourtant c'est c'qui nous embarrasse Alors, on perd le fil puis on pète un câble On est capable du pire, on nous traite d'incapables Allez laisse place à la relève, on a la tête dans l'espace N'est-ce pas ? Mauvais élèves, on ne pensait qu'à l'espèce Rien s'passe au hasard, on a toutes les cartes en main On s'écarte du bon, en empruntant l'mauvais chemin Un printemps sans lendemain, le temps passe j'suis à la bourre J'suis encerclé par le vice depuis qu'l'alcool me joue des tours Encore une soirée bien arrosée, champagne, bouteille de rosé Réveil d'humeur névrosée, quand j'y pense ça m'donne la nausée Plus je bois et plus j'te raconte mes déboires À deux pas de finir dans l'fossé Car nombreux sont les trous d'mémoire8</t>
+          <t>On m'dit Essaye de gratter tout ce que t'as Morale, on lâche nos rages, j'cherche que dalle Donc c'est tout ce que mon rap hélas n'aura Vos lois ne feront pas naître l'humeur adorable Mais j'veux bien qu'mon cur vive en silence Si mon mal être lui meurt à l'oral On rame, terrifiant comment j'dérive sans l'rap On gratte des rimes sombres, rale, vu que les rires se font rares Rien que des lâches, on voit les bons hélas dévorés Tema l'homme écrasent Envoient les bombes et rasent les forêts J'touche le fond et j'perds la forme, ma vie m'écrase S'vider l'crâne, tous le font moi j'pé-ra fort Est-ce un délit d'rapper des nuits? Check ça Chacun son délire, moi gratter des lignes j'ai qu'ça Ils ont beau dire Calme toi J'suis pas surhumain, a qui tu veux qu'j'parle? J'ai moins d'potes qu'il y a de doigts cé-pla sur une main Trop d'zebla, crois pas j'fais semblant Faut qu'on s'barre sans gue-bla Vu que ce monde à deux balles nous laisse en plan Putain d'freestyle, en direct de Belgique C'est pour mes tournaisiens Pour les gars, faites du bruit pour la caméra Dis-toi qu'c'est automatique, respecte les potos d'ma clique Tu fais l'beau beau mais comprend pas qu'on t'photographie Est-ce la faute aux papys ? La faute à la jeunesse? Demande à madame Genest ce qu'elle pense des bobos fascistes C'est un gros traumatisme le choc des générations Pour certains, célébration et pour d'autres des propos fascistes Regarde dans quoi les prolos gravitent Certains d'mes potos trafiquent Loin de ces porcs au vies pornographiques Prise de tête, c'est l'gros néant, han Poto, j'm'attriste, j'écris ce texte Comme si j'prenais en photo la crise Eh la vie c'est comme quand je nage, au fond j'm'y perds Bienvenue, on t'juge pas pour ce que t'es Mais pour ce qu'on t'aura vu faire Moi j'ai la rime un peu trop franche, veu-gra comme l'adultère Vu qu'au fil du temps j'deviens celui qu'j'aurais pas dû être Allez, demande à Dindin on veut d'l'amour à tout prix Vu qu'le seul espoir s'dessine quand on esquisse un sourire Avant de mourir, j'veux pas me retrouver à pourrir Qu'on mattrape et qu'on me foute au tiroir Comme cette foutue souris Déçu car j'ai pas pu ouvrir, les portes qu'au final j'enfonce Et les malheurs sont aussi nombreux qu'les minables dans l'son J'suis pire que sombre, y'a pas à dire quand j'braille mes phases Ils refusent de m'tendre la main Moi j'leur tendrais mon troisième doigt Avoues qu'tu croyais pas, en la force des coups d'mes gars Surtout depuis que S.W.A. rime avec des couplets sales Le soutien ça vient tout seul, arrêtez de faire vos gratteurs Avec vos sales gueules, j'assume vraiment pas d'être rappeur J'ai mal au crâne, je fume et je crame des grammes Y'a pas de thunes, ça c'est grave Les p'tits fument, ouais ça se dégrade, dehors c'est crade J'écris toute la nuit, ouais y'a pas d'excès de rap Mec, c'est hard, c'est la merde C'est dead, toujours pas de Mercedes Je rentre jamais chez moi, c'est pour ça que ma mère s'énerve Envie de me défouler et de faire des folies Ça me rend fou de voir l'avenir devenir une phobie On fait quoi nous, on faiblit, et on fait le poids même amaigris Critiqués par des abrutis, si le savoir est une arme Bah fais pas l'armée étudie 7500, la trilogique, loin d'être illogique Hey, check ma vie, c'est pas la tienne frérot J'ai pas besoin d'un fix d'héro pour me sentir bien Au fond de moi même, je rêvais d'être un héros On s'était promis qu'on s'en sortirait Ce, sans sortilège, trop de promesses, de sacrilèges Et je noie mon chagrin dans un verre de bière On m'a dit Beni, profite car le temps passe vite Et c'est facile, facile de faire le fou quand personne s'agite C'est bien de s'amuser, mais t'as pensé à planquer de la maille ? Car quand les soucis frappent C'est pas le rap qui sera ton gilet pare-balle J'en ai fait des erreurs, des choix pas très judicieux J'ai trop souvent écouté mon cur, celui-ci m'a déçu Y'a trop de vicieux, oui m'sieur, c'est vrai que la haine attire Moi je suis trop seul depuis que... Non, ça j'ai trop de peine à le dire Il s'agit pas de réussir, juste kiffer à fond nos vies Et frérot, je pourrai dormir quand j'aurai skeefé toute ta weed Salope... Mokless, dis leur, difficile de s'en sortir quand on a Lappétit de Bernard Tapie et le caractère de Cantonna Ça rentre pas mal mais les ennemis m'ont jetés l'Aïn Bon, je suis tout sang salit par les habits de lAïd tu sais La jalousie démarre que chez les profiteurs J'ai qu'une place dans ma Clio, j'ai pas les clefs d'un gros pick-up Big-up à toi mais ne te ronge pas trop les ongles Viens me parler si tas un truc mais ne calcule pas trop les autres Les hommes, des corbeaux, qui ne font qu'admirer la chair Et même si on se cachait en scred ils nous pisteraient au laser Ça sert à quoi ? J'ai trop de rimes à faire tourner Je veux pas t'arriver à la cheville t'es encore loin de mes ourlets C'est pour Tournai, la Belgique et tous qui sont ici Et quand je gratte, c'est ma vie perso que j'essaie d'égailler Mais grand je craque quand je vois Que les frères sautent comme des CD rayés J'ai déjà assez déraillé, je rappe mes blessures je pleure Les instrus je vais les grailler, brailler ce que j'ai sur le cur Faire les gros titres, rien à foutre, à tout ça je vais mettre un terme Ça vient des tripes, chacun de mes sons Pourrait sappeler Lettre interne J'ai pris la plume, réciter un texte, c'est pas si terrible, j'essaie Et j'espère m'en sortir indemne, ne pas quitter le ring blessé Tu sais ma rage je la tempère J'continue tant que mes couplets surinent Mon rap c'est la tempête, un coup de pression A t'en couper le sourire, je suis comme toi zinc Je suis loin d'être sain et pas l'exemple, et pour aller mieux J'ai pas besoin d'un médecin mais de cramer le sample Je suis un mec simple, sois pas vexant, ne fait pas de moi ton idole J'serais pas le même sans mes galères, sans les fin de mois au Lidl Paraît que quand je pose, c'est magique Oui mais ce sera de la folie de penser vivre de ma zik' Vu que j'suis pas un de ces faux leaders On a la haine couz', téma ce que nos frères vivent Connard la peine pousse en bas de nos tours hyper vides C'est le gouvernement qui nous met dans de sales états Détournement, t'es d'jà mé-cra contrôler par des perfides Faudrait calmer ma haine, changer leur paramètres C'est comme parler d'quenelle et au final ne pas la mettre Ici, il y a trop d'grandes gueules, trop d'caniches qui aboient Ne vois-tu pas les génocides ? Comment fais-tu pour ne pas l'admettre ? Tiers-moyen, faut qu'tu saches qui sont les délinquants Vêtus d'Lacoste ou d'costume, qui pense déjà t'niquer à ses 20 ans Liberté d'expression, tu vois bien qu'on nous manipule On frôle la répression pendant qu'Carla s'fait une manucure Trop d'man titubent, j'vois des tas d'MC's bégayer L'eau qui dort est aussi forte qu'une flamme réveillée C'est en tirant les bonnes idées Qu'on luttera pour les bonnes causes Les portes fermées par des putes L'impression qu'il y a qu'des maisons closes J'écris à lindélébile, mes erreurs sont ineffaçables Et quand j'suis pas dans mon assiette Les porcs voudraient que j'passe à table On s'débarrasse pas d'ses soucis en disant bon débarras On a l'embarras du choix, pourtant c'est c'qui nous embarrasse Alors, on perd le fil puis on pète un câble On est capable du pire, on nous traite d'incapables Allez laisse place à la relève, on a la tête dans l'espace N'est-ce pas ? Mauvais élèves, on ne pensait qu'à l'espèce Rien s'passe au hasard, on a toutes les cartes en main On s'écarte du bon, en empruntant l'mauvais chemin Un printemps sans lendemain, le temps passe j'suis à la bourre J'suis encerclé par le vice depuis qu'l'alcool me joue des tours Encore une soirée bien arrosée, champagne, bouteille de rosé Réveil d'humeur névrosée, quand j'y pense ça m'donne la nausée Plus je bois et plus j'te raconte mes déboires À deux pas de finir dans l'fossé Car nombreux sont les trous d'mémoire8</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Un texte, pas dsouci, jsuis paré pour tenvoyer ça Chez moi cest dev'nu lusine avec la paye du RSA Et jai limpression daimer ça, jsuis loin dêtre difficile Jviens d'là où on grandit seul, viens faire un tour et tu visites Lambiance est partie. Quest-ce quelle est belle, la France ! Jai un million dvues et ces trous dballe croient qujai une vie dpalace Et vas-y nique ta race, car il fallait bien quje lsorte Des rimes fortes, tais-toi non, cnest pas la rage que jporte Prose virale, reflet dune attitude pirate Aïe, viens voir ma ZUP elle ne fait pas dmiracle Grave, cest lchantier mais sans briques, des discrets aux indic Inscrits au Pôle Emploi en attendant un ptit SMIC Tout lmonde devant son stick, rien de fantastique Tout lmonde devient tendu, une forme de gymnastique De lherbe dans lplastique, argumente vos articles Ici, cest chacun ses règles, cest pas une forme mais l'arbitre Du béton au bétail, lodeur dla maille à cBeckham Du ghetto à Guetta, cherche à remplir le basstam On a tous une vie à faire, vas-y regarde et valide Ya mes gars sur le terrain mais pas au Real de Madrid Fuck lÉtat et son équipe ou leur couper lappétit Un peu oui un sale mollard dans leurs spaghettis Fini djouer, jai compris, j'ai mis d'côté l'Rachid Cest Les Histoires, et si jreviens cest pour casser la machine Toujours en scred, si-si, et un message précis Jai des clips sans piscine qui tournent jusquen Sicile On se fait ptit mais si, jvous laisse en haut jacter Chacun ses griffes, dans cmétier, tu en verras gratter Rapper tue, te rend tétu, joues-tu un rôle battu ? Plus jtécoute et jen peux plus en pleine période récup À l'aise, celle-ci elle t'éduque et vas-y lâche loreille Lève-toi et montre leur comment travaille lélève Fais ta vie et mêle toi seulement de c'qui te regarde Tu tomberas mais yaura personne comme Spiderman Fin dmois difficile, problème invisible Paye une facture et demain tu en as dix qui arrivent Cest la vie, cest ainsi, mais trop près des étincelles Toujours les pieds sur Terre et même quand je monte sur scène Si tas un truc, va lfaire, naie pas peur de la perte Tfaçon ya rien à gagner vas-y fonce tu vas perdre ! Non ya pas dracket et ni dvendeurs dlamelles On connaît tous un gars qui r'veut lcasting dLa haine Le parking est 3amar et les discours pareils Avoir un flingue cest vicieux, mais est-ce que tirer cest malin ? Ten sais rien, cque tu prônes na rien dun message Et les seules fois qutu progresses, cest quand tu tes téléchargé La barre est surchargée et toutes tes notes sont fausses Pendant qutu tinventes une vie uniquement sur Firefox De 1, j'fais un boucan, de 2 jte souhaite de rien perdre Le 3 jle fais tout ltemps mais jnai jamais tué quelquun À 4 parce que ça date, chaque histoire a sa raison Ouais, grâce au hip-hop jnai pas fondé une maison Maitre de cérémonie, artisan à chaque saison Jai sorti juste un album pour mille et une liaisons Le groupe, cest les Grandes Gueules et pourtant on aime le silence Tranquille, ça marche, on verra si lprojet sort en marsYou might also like</t>
+          <t>Un texte, pas dsouci, jsuis paré pour tenvoyer ça Chez moi cest dev'nu lusine avec la paye du RSA Et jai limpression daimer ça, jsuis loin dêtre difficile Jviens d'là où on grandit seul, viens faire un tour et tu visites Lambiance est partie. Quest-ce quelle est belle, la France ! Jai un million dvues et ces trous dballe croient qujai une vie dpalace Et vas-y nique ta race, car il fallait bien quje lsorte Des rimes fortes, tais-toi non, cnest pas la rage que jporte Prose virale, reflet dune attitude pirate Aïe, viens voir ma ZUP elle ne fait pas dmiracle Grave, cest lchantier mais sans briques, des discrets aux indic Inscrits au Pôle Emploi en attendant un ptit SMIC Tout lmonde devant son stick, rien de fantastique Tout lmonde devient tendu, une forme de gymnastique De lherbe dans lplastique, argumente vos articles Ici, cest chacun ses règles, cest pas une forme mais l'arbitre Du béton au bétail, lodeur dla maille à cBeckham Du ghetto à Guetta, cherche à remplir le basstam On a tous une vie à faire, vas-y regarde et valide Ya mes gars sur le terrain mais pas au Real de Madrid Fuck lÉtat et son équipe ou leur couper lappétit Un peu oui un sale mollard dans leurs spaghettis Fini djouer, jai compris, j'ai mis d'côté l'Rachid Cest Les Histoires, et si jreviens cest pour casser la machine Toujours en scred, si-si, et un message précis Jai des clips sans piscine qui tournent jusquen Sicile On se fait ptit mais si, jvous laisse en haut jacter Chacun ses griffes, dans cmétier, tu en verras gratter Rapper tue, te rend tétu, joues-tu un rôle battu ? Plus jtécoute et jen peux plus en pleine période récup À l'aise, celle-ci elle t'éduque et vas-y lâche loreille Lève-toi et montre leur comment travaille lélève Fais ta vie et mêle toi seulement de c'qui te regarde Tu tomberas mais yaura personne comme Spiderman Fin dmois difficile, problème invisible Paye une facture et demain tu en as dix qui arrivent Cest la vie, cest ainsi, mais trop près des étincelles Toujours les pieds sur Terre et même quand je monte sur scène Si tas un truc, va lfaire, naie pas peur de la perte Tfaçon ya rien à gagner vas-y fonce tu vas perdre ! Non ya pas dracket et ni dvendeurs dlamelles On connaît tous un gars qui r'veut lcasting dLa haine Le parking est 3amar et les discours pareils Avoir un flingue cest vicieux, mais est-ce que tirer cest malin ? Ten sais rien, cque tu prônes na rien dun message Et les seules fois qutu progresses, cest quand tu tes téléchargé La barre est surchargée et toutes tes notes sont fausses Pendant qutu tinventes une vie uniquement sur Firefox De 1, j'fais un boucan, de 2 jte souhaite de rien perdre Le 3 jle fais tout ltemps mais jnai jamais tué quelquun À 4 parce que ça date, chaque histoire a sa raison Ouais, grâce au hip-hop jnai pas fondé une maison Maitre de cérémonie, artisan à chaque saison Jai sorti juste un album pour mille et une liaisons Le groupe, cest les Grandes Gueules et pourtant on aime le silence Tranquille, ça marche, on verra si lprojet sort en mars</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Rachid Il est temps de finir le dictionnaire La musique, c'est éphémère Et ouais, ça dure pas Démocratie A été virée de mon régime Ouais c'est injuste mais tout en haut Ils n'ont pas le temps de réfléchir Fraternité Depuis tout jeune c'est mon idée Car toutes les couleurs de ce monde Forment du HD en qualité La solitude N'est pas le meilleur des chemins On a 5000 amis c'est faux J'en veux juste un qui me tend la main L'immigration Ça fait pas de mal en vérité Le monde est à nous, mon cul Y'a des frontières électrifiées L'innocence Nous rend coupable évidemment On sera jugés un par un Surtout sur nos vies d'avant Insulter J'crois qu'on a su faire le contraire Faire du mal à une personne Nous a jamais rendu fier La politique Ça fait 30 ans que ça avance pas Toutes les promesses non tenues Sont déguisées sous un costard La luxure Aujourd'hui tout est sur mesure Car tous ces pauvres d'esprit Ne seront pas riches de nature et ouais L'humanité Perd ses valeurs et sa valise Personne ne choisit l'malheur Et ni d'être premier sur la liste La confiance On fait l'maximum pour la garder Non je veux pas d'apartheid Ni de civils bombardés Menacer Le genre de propos qui t'fait peur On s'est divisés tout seuls À force d'oublier nos curs La réussite C'est rien c'est gagner quelques pions Je préfère ma planète Namek J'm'entends bien avec Tapion Illusion Grâce à la 'sique on est ensemble Regardes tes mains toutes propres Et d'autres sont dans la cendre Réfugiés J'crois qu'on est tous concernés On va tous nous virer un jour Sans faire la marche au pas de Calais La misère A fait son buzz dans tout le globe Comment voter pour des personnes Qui n'ont jamais eu la méthode ? Attentat Quand ça pète on s'y attend pas On sait qu'personne est à l'abri Même perché au Sri Lanka Sentimental Au fond on a besoin de ça Des sentiments au fond on a besoin de ça Partager Donnes-moi je te l'rendrai On a tous perdu une fois Et réussi le coup d'après La magie Ne fonctionne pas à tous les tours Le lapin s'est fait la malle Car le chapeau avait un trou Consommer C'est ce qu'on a fait depuis 100 ans Aujourd'hui manger ça fait peur On sait plus trop c'qu'y a dedans Sentimental Au fond on a besoin de ça Des sentiments au fond on a besoin de ça Mon dico ça te rappelle un truc comme ça Entre Robert et Larousse rajoutes Rachid le p'tit rabza Mon dico, demi portion Mon dico, 2 chez moi Mon dico bouquet final Mon dico Mon dico Mon dico Mon dicoYou might also like</t>
+          <t>Rachid Il est temps de finir le dictionnaire La musique, c'est éphémère Et ouais, ça dure pas Démocratie A été virée de mon régime Ouais c'est injuste mais tout en haut Ils n'ont pas le temps de réfléchir Fraternité Depuis tout jeune c'est mon idée Car toutes les couleurs de ce monde Forment du HD en qualité La solitude N'est pas le meilleur des chemins On a 5000 amis c'est faux J'en veux juste un qui me tend la main L'immigration Ça fait pas de mal en vérité Le monde est à nous, mon cul Y'a des frontières électrifiées L'innocence Nous rend coupable évidemment On sera jugés un par un Surtout sur nos vies d'avant Insulter J'crois qu'on a su faire le contraire Faire du mal à une personne Nous a jamais rendu fier La politique Ça fait 30 ans que ça avance pas Toutes les promesses non tenues Sont déguisées sous un costard La luxure Aujourd'hui tout est sur mesure Car tous ces pauvres d'esprit Ne seront pas riches de nature et ouais L'humanité Perd ses valeurs et sa valise Personne ne choisit l'malheur Et ni d'être premier sur la liste La confiance On fait l'maximum pour la garder Non je veux pas d'apartheid Ni de civils bombardés Menacer Le genre de propos qui t'fait peur On s'est divisés tout seuls À force d'oublier nos curs La réussite C'est rien c'est gagner quelques pions Je préfère ma planète Namek J'm'entends bien avec Tapion Illusion Grâce à la 'sique on est ensemble Regardes tes mains toutes propres Et d'autres sont dans la cendre Réfugiés J'crois qu'on est tous concernés On va tous nous virer un jour Sans faire la marche au pas de Calais La misère A fait son buzz dans tout le globe Comment voter pour des personnes Qui n'ont jamais eu la méthode ? Attentat Quand ça pète on s'y attend pas On sait qu'personne est à l'abri Même perché au Sri Lanka Sentimental Au fond on a besoin de ça Des sentiments au fond on a besoin de ça Partager Donnes-moi je te l'rendrai On a tous perdu une fois Et réussi le coup d'après La magie Ne fonctionne pas à tous les tours Le lapin s'est fait la malle Car le chapeau avait un trou Consommer C'est ce qu'on a fait depuis 100 ans Aujourd'hui manger ça fait peur On sait plus trop c'qu'y a dedans Sentimental Au fond on a besoin de ça Des sentiments au fond on a besoin de ça Mon dico ça te rappelle un truc comme ça Entre Robert et Larousse rajoutes Rachid le p'tit rabza Mon dico, demi portion Mon dico, 2 chez moi Mon dico bouquet final Mon dico Mon dico Mon dico Mon dico</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nid de Renard Mezzika mon amour, men yamat l'parabole Derratni f'rassi manf3ni m3aha ta panadole Mountifi 3ala tol, anbda esquiver la taule Casa rada gelbi bianconero comme piano Ho, tana baghi compte cheb3an f'Panama Chi bien Neglizi, Dmaghi m'connecte m3a Canada Ta daba bagha la dalle, carta f'banana Kichta, mula, w jack normal koulchi pila lala oulalala 9aloulek hana jay, khroujna men pharmacie Dir zik w tebba3 7na 7 f'taxi La musique, c'est l'mossiba, la famille, c'est l'principal, hein Tla7 fel etage chouf, nlou7 les pages koulchi ghir cinema Vas-y, khouya ghir tire, ahh, on a qu'l'amour à l'infini, yah Donc tu connais nos victimes Mezzika mon amour, men yamat l'parabole Derratni f'rassi manf3ni m3aha ta panadole Mountifi 3ala tol, anbda esquiver la taule Casa rada gelbi bianconero comme piano Ho, tana baghi compte cheb3an f'Panama Chi bien Neglizi, Dmaghi m'connecte m3a Canada Ta daba Nadal, carta f'banana Kichta, mula, w jack normal koulchi pila lala oulalala You might also like Ouh, la la la la, ouh, la la la la Ouh, la la la la, ouh, la la la la Ouh, la la la la, ouh, la la la la Ouh, la la la la, ouh, la la la la J'ai dû défoncer les portes et me relever, c'est tout Ils parlent de cité mais n'ont jamais vu nos tours Ceux qui sont partis n'ont pas pris de retour Dans la vie, y a rien de sympa, sympa Un peu d'oseille et ça passe, ça passe Dans la vie, y a rien de sympa, sympa Dis-moi comme ça s'fait qu'on s'aime pas, s'aime pas Mezzika mon amour, men yamat l'parabole Derratni f'rassi manf3ni m3aha ta panadole Mountifi 3ala tol, anbda esquiver la taule Casa rada gelbi bianconero comme piano Ho, tana baghi compte cheb3an f'Panama Chi bien Neglizi, Dmaghi m'connecte m3a Canada Ta daba Nadal, carta f'banana Kichta, mula, w jack normal koulchi pila lala oulalala Ouh, la la la la, ouh, la la la la Ouh, la la la la, ouh, la la la la Ouh, la la la la, ouh, la la la la Ouh, la la la la, ouh, la la la la</t>
+          <t>Nid de Renard Mezzika mon amour, men yamat l'parabole Derratni f'rassi manf3ni m3aha ta panadole Mountifi 3ala tol, anbda esquiver la taule Casa rada gelbi bianconero comme piano Ho, tana baghi compte cheb3an f'Panama Chi bien Neglizi, Dmaghi m'connecte m3a Canada Ta daba bagha la dalle, carta f'banana Kichta, mula, w jack normal koulchi pila lala oulalala 9aloulek hana jay, khroujna men pharmacie Dir zik w tebba3 7na 7 f'taxi La musique, c'est l'mossiba, la famille, c'est l'principal, hein Tla7 fel etage chouf, nlou7 les pages koulchi ghir cinema Vas-y, khouya ghir tire, ahh, on a qu'l'amour à l'infini, yah Donc tu connais nos victimes Mezzika mon amour, men yamat l'parabole Derratni f'rassi manf3ni m3aha ta panadole Mountifi 3ala tol, anbda esquiver la taule Casa rada gelbi bianconero comme piano Ho, tana baghi compte cheb3an f'Panama Chi bien Neglizi, Dmaghi m'connecte m3a Canada Ta daba Nadal, carta f'banana Kichta, mula, w jack normal koulchi pila lala oulalala Ouh, la la la la, ouh, la la la la Ouh, la la la la, ouh, la la la la Ouh, la la la la, ouh, la la la la Ouh, la la la la, ouh, la la la la J'ai dû défoncer les portes et me relever, c'est tout Ils parlent de cité mais n'ont jamais vu nos tours Ceux qui sont partis n'ont pas pris de retour Dans la vie, y a rien de sympa, sympa Un peu d'oseille et ça passe, ça passe Dans la vie, y a rien de sympa, sympa Dis-moi comme ça s'fait qu'on s'aime pas, s'aime pas Mezzika mon amour, men yamat l'parabole Derratni f'rassi manf3ni m3aha ta panadole Mountifi 3ala tol, anbda esquiver la taule Casa rada gelbi bianconero comme piano Ho, tana baghi compte cheb3an f'Panama Chi bien Neglizi, Dmaghi m'connecte m3a Canada Ta daba Nadal, carta f'banana Kichta, mula, w jack normal koulchi pila lala oulalala Ouh, la la la la, ouh, la la la la Ouh, la la la la, ouh, la la la la Ouh, la la la la, ouh, la la la la Ouh, la la la la, ouh, la la la la</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Au village sans prétention J'ai mauvaise réputation Que j'me démène ou qu'j'reste coi J'passe pour un je-ne-sais-quoi Je ne fais pourtant de tort à personne En suivant mon chemin de petit bonhomme Petit, petit, petit, petit bonhomme x4 Bonhomme... Bonhomme... Bonhomme... Stick un petit collage Un mic et c'est l'décollage un vrai collant, artisan bricolage Mate comment on maîtrise la... Arrête non on ne fait pas semblant Si le savoir est une arme, pourquoi se munir d'balle à blanc ? Fuck toi et ton apparence, sous des carrera T'es déjà mort dans l'film avant qu'on trouve une caméra Et toi, qu'est-ce qu'tu racontes ? A part des sales bêtises La plupart des MC s'vantent d'avoir un casier factice Un boulot de facteur, nettoyeur de Findus Un vieux port, c'n'est pas qu'à Marseille qu'on en r'trouve le plus Y'a même plus d'yeux dans l'bus, l'état dira qu'ont les crames Ça fera la Une de l'actu, encore les mêmes qui ralent Mauvaise Réputation You might also like J'ai mauvaise réputation mais c'est mieux comme ça Cassez-vous, laissez moi respirer J'ai mauvaise réputation, attention à l'obstacle Détourne toi juste pour regarder Tout le monde médit de moi, sauf les muets ça va de soi Tout le monde me montre du doigt, sauf les manchots ça va de soi Tout le monde se rue sur moi, sauf les culs-de-jatte ça va de soi Tout le monde viendra me voir pendu, sauf les aveugles bien entendu En attendant madame il semblerait dommage Et vos adorateurs en seraient tous peinés D'aller perdre de vue que pour lui rendre hommage Il est d'autre moyen que je les connais Que je les connais... que je les connais... Bic up, Demi-Portion, c'est sûr Ne jugez pas un homme sans avoir marché quelques pas dans ses chaussures Au village sans prétention J'ai mauvaise réputation Que j'me démène ou qu'j'reste coi J'passe pour un je-ne-sais-quoi Je ne fais pourtant de tort à personne En suivant mon chemin de petit bonhomme</t>
+          <t>Au village sans prétention J'ai mauvaise réputation Que j'me démène ou qu'j'reste coi J'passe pour un je-ne-sais-quoi Je ne fais pourtant de tort à personne En suivant mon chemin de petit bonhomme Petit, petit, petit, petit bonhomme x4 Bonhomme... Bonhomme... Bonhomme... Stick un petit collage Un mic et c'est l'décollage un vrai collant, artisan bricolage Mate comment on maîtrise la... Arrête non on ne fait pas semblant Si le savoir est une arme, pourquoi se munir d'balle à blanc ? Fuck toi et ton apparence, sous des carrera T'es déjà mort dans l'film avant qu'on trouve une caméra Et toi, qu'est-ce qu'tu racontes ? A part des sales bêtises La plupart des MC s'vantent d'avoir un casier factice Un boulot de facteur, nettoyeur de Findus Un vieux port, c'n'est pas qu'à Marseille qu'on en r'trouve le plus Y'a même plus d'yeux dans l'bus, l'état dira qu'ont les crames Ça fera la Une de l'actu, encore les mêmes qui ralent Mauvaise Réputation J'ai mauvaise réputation mais c'est mieux comme ça Cassez-vous, laissez moi respirer J'ai mauvaise réputation, attention à l'obstacle Détourne toi juste pour regarder Tout le monde médit de moi, sauf les muets ça va de soi Tout le monde me montre du doigt, sauf les manchots ça va de soi Tout le monde se rue sur moi, sauf les culs-de-jatte ça va de soi Tout le monde viendra me voir pendu, sauf les aveugles bien entendu En attendant madame il semblerait dommage Et vos adorateurs en seraient tous peinés D'aller perdre de vue que pour lui rendre hommage Il est d'autre moyen que je les connais Que je les connais... que je les connais... Bic up, Demi-Portion, c'est sûr Ne jugez pas un homme sans avoir marché quelques pas dans ses chaussures Au village sans prétention J'ai mauvaise réputation Que j'me démène ou qu'j'reste coi J'passe pour un je-ne-sais-quoi Je ne fais pourtant de tort à personne En suivant mon chemin de petit bonhomme</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tu crois que je sais quelque chose des difficultés que tu as rencontré dans la vie ? De ce que tu ressens, de ce que tu hais ? Est-c'qu'un rappeur est une perle rare ? Est-c'qu'on nous tire vers le bas ? Est-c'qu'on a fait le premier pas ? Est-c'que mes questions vous parlent ? Est-c'qu'on va tomber en panne ? Est-c'qu'on va tracer autre part ? Est-c'qu'on peut causer au calme ? Est-c'qu'on peut lâcher l'otage ? Est-c'qu'on peut mâcher les mots ? Est-c'que à deux on est plus fort ? Est-c'qu'on rappe pour les minots ? Est-c'que le feu brûle encore ? Est-c'que nos curs sont en pierre ? Est-c'qu'on respire en pleine air ? Est-c'que la route est si claire ? Est-c'qu'à Beyrouth ça va mieux ? Est-c'qu'on mérite la galère ? Est-c'qu'on la recherche en vrai ? Est-c'qu'on comprend la grammaire ? Est-c'qu'on détourne l'alphabet ? Est-c'que tu mens quand tu rappes ? Est-c'que tu fais du théâtre ? Est-c'que tu aimes la cuisine ? Est-c'que t'as vu Breaking Bad ? Est-c'qu'on partage avec toi ? Est-c'qu'on peut crier victoire ? Est-c'qu'on touchera les étoiles ? Est-c'que tu rêves d'après toi ? Est-c'que tu crois en Dieu ? Est-c'que t'as peur du Diable ? Est-c'que tu donnes un peu ? Est-c'que t'es seul à table ? Est-c'que les gens sont malades ? Est-c'qu'il y a des hôpitaux ? Est-c'que les gens sont fidèles ? Est-c'qu'on va tirer l'rideau ? Est-c'qu'on doit finir par balles ? Est-c'qu'on doit punir lÉtat ? Est-c'qu'on va trouver du taff ? Est-c'qu'on va trouver du temps ? Est-c'qu'on doit tourner la page ? Est-c'que t'as ouvert un livre ? Est-c'que tu tiens ta parole ? Ou est-c'que c'est du playback ? Est-c'que frapper ça vaut l'coup ? Est-c'qu'on doit sauter son tour ? Est-c'qu'il y a d'l'argent partout ? Est-c'qu'y a la crise à Moscou ? You might also like Interrogations Est-c'qu'il fait chaud au mitard ? Est-c'qu'il vit bien Abidal ? Est-c'qu'on s'est levés trop tard ? Est-c'que tu rêves d'autre part ? Est-ce un cauchemar au final ? Est-c'qu'on est encore debout ? Est-c'qu'on doit fermer les yeux ? Est-c'que t'es honnête dans l'doute ? Est-c'que tu aides ton prochain ? Est-ce bien d'faire d'la chanson ? Est-c'qu'on aura tout c'qu'on souhaite ? Est-c'qu'on a tort ou raison ? Est-c'que partout y a des bêtes ? Est-c'qu'on fait partie des pitres ? Est-c'que partout y a des fenêtres ? Ont-ils nettoyé les vitres ? Est-c'qu'on est bien dans l'décor ? Est-c'qu'on sort tous des Beaux Arts ? Est-c'qu'on doit changer le globe ? Est-c'qu'on entaille un Bonsaï ? Est-c'que t'élèves une famille ? Est-c'que tu t'sens responsable ? Est-c'qu'on a peur d'sa gamine ? Est-c'qu'on va t'sauver dans l'rap ? Est-c'qu'on en veut a Tom Hanks ? Est-c'qu'on va sauver Ryan ? Est-c'que t'es bien dans le luxe ? Est-c'que t'es bien quand tu dors ? Est-c'que d'la thune y en a plus ? Est-c'que t'es mieux que les autres ? Est-c'que t'as plusieurs idoles ? Est-c'que ton papa t'ignore ? Est-c'qu'on s'accroche à l'école ? Est-c'qu'on apprend chez les profs ? Est-c'qu'on a joué fair-play ? Est-c'qu'on s'arrête quand y a faute ? Est-c'qu'on a vraiment merdé ? Est-c'que ça pue dans le monde ? Est-c'que tu t'es demandé ? Est-c'que on court après la montre ? Est-c'que tu t'es senti nargué ? Est-c'qu'on se bat pour répondre ? Est-c'qu'il connait ses secrets ? Est-c'qu'il protège nos épaules ? Est-c'qu'ils connaissait la notice ? Est-c'qu'on y est pour quelque chose ? Est-c'que j'devais vous l'dire ? Autant d'questions sans réponses ?5</t>
+          <t>Tu crois que je sais quelque chose des difficultés que tu as rencontré dans la vie ? De ce que tu ressens, de ce que tu hais ? Est-c'qu'un rappeur est une perle rare ? Est-c'qu'on nous tire vers le bas ? Est-c'qu'on a fait le premier pas ? Est-c'que mes questions vous parlent ? Est-c'qu'on va tomber en panne ? Est-c'qu'on va tracer autre part ? Est-c'qu'on peut causer au calme ? Est-c'qu'on peut lâcher l'otage ? Est-c'qu'on peut mâcher les mots ? Est-c'que à deux on est plus fort ? Est-c'qu'on rappe pour les minots ? Est-c'que le feu brûle encore ? Est-c'que nos curs sont en pierre ? Est-c'qu'on respire en pleine air ? Est-c'que la route est si claire ? Est-c'qu'à Beyrouth ça va mieux ? Est-c'qu'on mérite la galère ? Est-c'qu'on la recherche en vrai ? Est-c'qu'on comprend la grammaire ? Est-c'qu'on détourne l'alphabet ? Est-c'que tu mens quand tu rappes ? Est-c'que tu fais du théâtre ? Est-c'que tu aimes la cuisine ? Est-c'que t'as vu Breaking Bad ? Est-c'qu'on partage avec toi ? Est-c'qu'on peut crier victoire ? Est-c'qu'on touchera les étoiles ? Est-c'que tu rêves d'après toi ? Est-c'que tu crois en Dieu ? Est-c'que t'as peur du Diable ? Est-c'que tu donnes un peu ? Est-c'que t'es seul à table ? Est-c'que les gens sont malades ? Est-c'qu'il y a des hôpitaux ? Est-c'que les gens sont fidèles ? Est-c'qu'on va tirer l'rideau ? Est-c'qu'on doit finir par balles ? Est-c'qu'on doit punir lÉtat ? Est-c'qu'on va trouver du taff ? Est-c'qu'on va trouver du temps ? Est-c'qu'on doit tourner la page ? Est-c'que t'as ouvert un livre ? Est-c'que tu tiens ta parole ? Ou est-c'que c'est du playback ? Est-c'que frapper ça vaut l'coup ? Est-c'qu'on doit sauter son tour ? Est-c'qu'il y a d'l'argent partout ? Est-c'qu'y a la crise à Moscou ? Interrogations Est-c'qu'il fait chaud au mitard ? Est-c'qu'il vit bien Abidal ? Est-c'qu'on s'est levés trop tard ? Est-c'que tu rêves d'autre part ? Est-ce un cauchemar au final ? Est-c'qu'on est encore debout ? Est-c'qu'on doit fermer les yeux ? Est-c'que t'es honnête dans l'doute ? Est-c'que tu aides ton prochain ? Est-ce bien d'faire d'la chanson ? Est-c'qu'on aura tout c'qu'on souhaite ? Est-c'qu'on a tort ou raison ? Est-c'que partout y a des bêtes ? Est-c'qu'on fait partie des pitres ? Est-c'que partout y a des fenêtres ? Ont-ils nettoyé les vitres ? Est-c'qu'on est bien dans l'décor ? Est-c'qu'on sort tous des Beaux Arts ? Est-c'qu'on doit changer le globe ? Est-c'qu'on entaille un Bonsaï ? Est-c'que t'élèves une famille ? Est-c'que tu t'sens responsable ? Est-c'qu'on a peur d'sa gamine ? Est-c'qu'on va t'sauver dans l'rap ? Est-c'qu'on en veut a Tom Hanks ? Est-c'qu'on va sauver Ryan ? Est-c'que t'es bien dans le luxe ? Est-c'que t'es bien quand tu dors ? Est-c'que d'la thune y en a plus ? Est-c'que t'es mieux que les autres ? Est-c'que t'as plusieurs idoles ? Est-c'que ton papa t'ignore ? Est-c'qu'on s'accroche à l'école ? Est-c'qu'on apprend chez les profs ? Est-c'qu'on a joué fair-play ? Est-c'qu'on s'arrête quand y a faute ? Est-c'qu'on a vraiment merdé ? Est-c'que ça pue dans le monde ? Est-c'que tu t'es demandé ? Est-c'que on court après la montre ? Est-c'que tu t'es senti nargué ? Est-c'qu'on se bat pour répondre ? Est-c'qu'il connait ses secrets ? Est-c'qu'il protège nos épaules ? Est-c'qu'ils connaissait la notice ? Est-c'qu'on y est pour quelque chose ? Est-c'que j'devais vous l'dire ? Autant d'questions sans réponses ?5</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>L'enfant seul je sais qu'c'est toi Yeah, c'est encore nous, nous Puccino et Demi Portion, yeah x2 J'étais venu m'asseoir car y'a d'la place pour tous On s'en sortira avec ou sans coup d'pouce En y mettant du cur on fait c'qu'on peut On fait c'qu'on peut avec une chaise pour deux J'étais venu m'asseoir oui y'a d'la place pour tous Qu'est-c'qu'elle fait toute seule devant son gros couscous ? Est-ce ainsi, que s'dessine la vie Craindre de perdre sa place dans un cinéma vide ? Unique, donc chacun a son rôle Cause du bordel celui qu'a tout l'or veut le bronze des autres J'veux qu'on m'épaule, pas qu'on m'traîne Ni être fait abonné car une aide peut finir en cadeau à pardonner Un fauteuil pour deux, c'est mieux que cinq pour dix Je serai l'premier levé donc c'est same to me Mes textes formulent deux-mille potions, à ta santé On croise la rime avec Demi Portion, yeah x2 J'étais venu m'asseoir car y'a d'la place pour tous On s'en sortira avec ou sans coup d'pouce En y mettant du cur on fait c'qu'on peut On fait c'qu'on peut avec une chaise pour deux You might also like Il fallait qu'on partage ce titre, un peu comme nos meilleurs plats Un honneur d'avoir Oxmo comme donner la force aux petits gars Une chaise pour deux, rassis-toi, le voyage risque d'être long Fais comme chez toi j'te rassure, y'a tout c'qu'il faut dans l'salon J'ai commencé par passion, sans vouloir prendre l'ascenseur Apprendre mes leçons chaque soir, un peu comme un enfant seul Mes rimes sont mes défenseurs, mon stylo mon professeur Si aujourd'hui on s'en sort c'est p't-être grâce aux prédécesseurs Demi Portion c'est mon blaze t'as vu c'est bien partagé Donner, toujours donner, c'est un peu c'qu'on a envisagé Copier, toujours coller, ça bugge toujours à c'qu'il paraît Moi j'ai préféré durer que prendre le mauvais train sans arrêt x2 J'étais venu m'asseoir car y'a d'la place pour tous On s'en sortira avec ou sans coup d'pouce En y mettant du cur on fait c'qu'on peut On fait c'qu'on peut avec une chaise pour deux Les applaudissements sont nos instruments Donner sans retour sinon les années, punissent injustement Ici c'est donnant-donnant, dis aux radins qu'on s'la donne et comment Aujourd'hui offrir de son temps c'est prendre commande On est de connivence, pour la France de Son Excellence Sache-le On perd sa place rien d'grave sache-le, on attend l'prochain tour Intermittent du spectacle nan artisan pour toujours Paraît qu'mon son parle aux sourds, et toute une génération Regarde ses yeux, ça sera meilleur qu'une conversation Un sofa pour deux, dis-moi, tu connais l'proverbe Une petite maison en ruine vaut mieux qu'un palais en commune x2 J'étais venu m'asseoir car y'a d'la place pour tous On s'en sortira avec ou sans coup d'pouce En y mettant du cur on fait c'qu'on peut On fait c'qu'on peut avec une chaise pour deux C'est ça, tu sais pas toi, tu sais rien J'étais venu m'asseoir, toi debout tire-toi Prends l'avion, après la diligence S'il-te-plaît, laisse-nous tranquilles entre potos Parce que nous on est des potos, et des potos comme ça c'est trop rare mon pote Tu veux être des potos à nous, mais toi t'es l'poto d'personne Alors fuck you man2</t>
+          <t>L'enfant seul je sais qu'c'est toi Yeah, c'est encore nous, nous Puccino et Demi Portion, yeah x2 J'étais venu m'asseoir car y'a d'la place pour tous On s'en sortira avec ou sans coup d'pouce En y mettant du cur on fait c'qu'on peut On fait c'qu'on peut avec une chaise pour deux J'étais venu m'asseoir oui y'a d'la place pour tous Qu'est-c'qu'elle fait toute seule devant son gros couscous ? Est-ce ainsi, que s'dessine la vie Craindre de perdre sa place dans un cinéma vide ? Unique, donc chacun a son rôle Cause du bordel celui qu'a tout l'or veut le bronze des autres J'veux qu'on m'épaule, pas qu'on m'traîne Ni être fait abonné car une aide peut finir en cadeau à pardonner Un fauteuil pour deux, c'est mieux que cinq pour dix Je serai l'premier levé donc c'est same to me Mes textes formulent deux-mille potions, à ta santé On croise la rime avec Demi Portion, yeah x2 J'étais venu m'asseoir car y'a d'la place pour tous On s'en sortira avec ou sans coup d'pouce En y mettant du cur on fait c'qu'on peut On fait c'qu'on peut avec une chaise pour deux Il fallait qu'on partage ce titre, un peu comme nos meilleurs plats Un honneur d'avoir Oxmo comme donner la force aux petits gars Une chaise pour deux, rassis-toi, le voyage risque d'être long Fais comme chez toi j'te rassure, y'a tout c'qu'il faut dans l'salon J'ai commencé par passion, sans vouloir prendre l'ascenseur Apprendre mes leçons chaque soir, un peu comme un enfant seul Mes rimes sont mes défenseurs, mon stylo mon professeur Si aujourd'hui on s'en sort c'est p't-être grâce aux prédécesseurs Demi Portion c'est mon blaze t'as vu c'est bien partagé Donner, toujours donner, c'est un peu c'qu'on a envisagé Copier, toujours coller, ça bugge toujours à c'qu'il paraît Moi j'ai préféré durer que prendre le mauvais train sans arrêt x2 J'étais venu m'asseoir car y'a d'la place pour tous On s'en sortira avec ou sans coup d'pouce En y mettant du cur on fait c'qu'on peut On fait c'qu'on peut avec une chaise pour deux Les applaudissements sont nos instruments Donner sans retour sinon les années, punissent injustement Ici c'est donnant-donnant, dis aux radins qu'on s'la donne et comment Aujourd'hui offrir de son temps c'est prendre commande On est de connivence, pour la France de Son Excellence Sache-le On perd sa place rien d'grave sache-le, on attend l'prochain tour Intermittent du spectacle nan artisan pour toujours Paraît qu'mon son parle aux sourds, et toute une génération Regarde ses yeux, ça sera meilleur qu'une conversation Un sofa pour deux, dis-moi, tu connais l'proverbe Une petite maison en ruine vaut mieux qu'un palais en commune x2 J'étais venu m'asseoir car y'a d'la place pour tous On s'en sortira avec ou sans coup d'pouce En y mettant du cur on fait c'qu'on peut On fait c'qu'on peut avec une chaise pour deux C'est ça, tu sais pas toi, tu sais rien J'étais venu m'asseoir, toi debout tire-toi Prends l'avion, après la diligence S'il-te-plaît, laisse-nous tranquilles entre potos Parce que nous on est des potos, et des potos comme ça c'est trop rare mon pote Tu veux être des potos à nous, mais toi t'es l'poto d'personne Alors fuck you man2</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ne me parlez plus du festin qu'est-ce t'as, t'as vu l'destin ? J'écris, regarde le dessein c'est dur mais on fait simple Libre, mais est-ce possible ? Rester sur place ou courir ? Dois-je pleurer ou sourire ou croquer dans une pomme pourrie ? Pénible, non stupide les p'tits relisent nos lignes D'autres tirant sur un joint, une vie noyée dans une olive Dis-moi en vrai qu'est-ce qu'il t'arrive ? Quel est l'tarif ? La route est longue, et vu l'chemin, la plupart s'arrête au périph' Stupide, nous l'savions j'verrai quand tu tombes du vide Et si Maman rate l'avion j'ferai pas la même que Kévin Depuis qu'ils nous passent devant j'ai l'impression de m'blesser Si l'rap était mieux avant c'est qu'le présent t'as stressé En tout cas pas s'presser chez nous, on y va doucement C'est l'savoir que j'ai blindé là où les Brinks pètent souvent Se rapprocher du magma laisse-moi vivre à la campagne T'as visé l'sommet ? On s'verra en-bas de la montagne Les mots partent et toutes mes rimes jouent dans le mental C'est ma vision d'voir les choses laisse, j'm'occupe du montage Laisse, j'm'occupe de ma page et de ces langues qui s'délient Un peu comme le matraquage des grosses cités d'police Demande à Renaud j'encaisse y'en a partout des gorilles Je saigne, sans pansements pour pas ressembler à une momie Laisse couler l'instru, mec celle-ci m'donne envie Texte anti-mythomanie de ta cité jusqu'en ville Chut. Ne khleh pas sauf si l'décor part en vrille Ouais bonhomme t'es pas hardcore mais seulement quand tu parles aux filles Arrête de parler de finances aussi la rue n'a rien d'philosophique Vive le mélange, des p'tits blancs aux p'tits d'Afrique Rien à foutre, rien à faire les conditions deviennent bestiales Waouh ! Respire j'vais vous refaire ça Quoi, t'as rien d'social t'as tiré sur quelle écurie ? T'as dix fois pompé mon style ou cherché tous mes featurings T'es perché, mais sur qui t'urines ? Arrête, tu vas te chier dessus C'est que d'la musique en vrai tant qu't'es sérieux et qu't'assures Poids lourd, bonne plume, c'est tout c'qu'on demande en plus On l'rappe depuis jeune alors, t'as pas entendu ? C'est qu'un constat j'attends pas l'buzz ni la pendule J'avance et j't'écris, mais tu n'm'as jamais répondu On n'voit plus d'compte-rendu, le système est une ordure Et tous les moutons camés à bien sentir la drogue dure Ici l'luxe a un goût d'shit Certains n'ont plus d'chicots mais s'imaginent une dent Gucci Casquette, faux blue jean on l'aura vu, chaque style De l'époque des Fugees jusqu'à Charlie Chaplin Ce soir j'travaile chaque rime, demain j'relis chaque ligne Pas d'perfection, aucune étape n'est établie Rachid, Les Grandes Gueules c'est sorti d'Sète Et c'est dans l'calme qu'on cherche une vie simple You might also like No name Demi portion Les pieds dans l'sable Une dette non remboursable Sans doute responsables On vit en restant souples On vit en restant souples1</t>
+          <t>Ne me parlez plus du festin qu'est-ce t'as, t'as vu l'destin ? J'écris, regarde le dessein c'est dur mais on fait simple Libre, mais est-ce possible ? Rester sur place ou courir ? Dois-je pleurer ou sourire ou croquer dans une pomme pourrie ? Pénible, non stupide les p'tits relisent nos lignes D'autres tirant sur un joint, une vie noyée dans une olive Dis-moi en vrai qu'est-ce qu'il t'arrive ? Quel est l'tarif ? La route est longue, et vu l'chemin, la plupart s'arrête au périph' Stupide, nous l'savions j'verrai quand tu tombes du vide Et si Maman rate l'avion j'ferai pas la même que Kévin Depuis qu'ils nous passent devant j'ai l'impression de m'blesser Si l'rap était mieux avant c'est qu'le présent t'as stressé En tout cas pas s'presser chez nous, on y va doucement C'est l'savoir que j'ai blindé là où les Brinks pètent souvent Se rapprocher du magma laisse-moi vivre à la campagne T'as visé l'sommet ? On s'verra en-bas de la montagne Les mots partent et toutes mes rimes jouent dans le mental C'est ma vision d'voir les choses laisse, j'm'occupe du montage Laisse, j'm'occupe de ma page et de ces langues qui s'délient Un peu comme le matraquage des grosses cités d'police Demande à Renaud j'encaisse y'en a partout des gorilles Je saigne, sans pansements pour pas ressembler à une momie Laisse couler l'instru, mec celle-ci m'donne envie Texte anti-mythomanie de ta cité jusqu'en ville Chut. Ne khleh pas sauf si l'décor part en vrille Ouais bonhomme t'es pas hardcore mais seulement quand tu parles aux filles Arrête de parler de finances aussi la rue n'a rien d'philosophique Vive le mélange, des p'tits blancs aux p'tits d'Afrique Rien à foutre, rien à faire les conditions deviennent bestiales Waouh ! Respire j'vais vous refaire ça Quoi, t'as rien d'social t'as tiré sur quelle écurie ? T'as dix fois pompé mon style ou cherché tous mes featurings T'es perché, mais sur qui t'urines ? Arrête, tu vas te chier dessus C'est que d'la musique en vrai tant qu't'es sérieux et qu't'assures Poids lourd, bonne plume, c'est tout c'qu'on demande en plus On l'rappe depuis jeune alors, t'as pas entendu ? C'est qu'un constat j'attends pas l'buzz ni la pendule J'avance et j't'écris, mais tu n'm'as jamais répondu On n'voit plus d'compte-rendu, le système est une ordure Et tous les moutons camés à bien sentir la drogue dure Ici l'luxe a un goût d'shit Certains n'ont plus d'chicots mais s'imaginent une dent Gucci Casquette, faux blue jean on l'aura vu, chaque style De l'époque des Fugees jusqu'à Charlie Chaplin Ce soir j'travaile chaque rime, demain j'relis chaque ligne Pas d'perfection, aucune étape n'est établie Rachid, Les Grandes Gueules c'est sorti d'Sète Et c'est dans l'calme qu'on cherche une vie simple No name Demi portion Les pieds dans l'sable Une dette non remboursable Sans doute responsables On vit en restant souples On vit en restant souples1</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Demi Portion Ouais, Beep-Beep à la prod' De retour, parce que j'avais pas fini l'premier Donc j'ai tourné la page Écoute... Brutal a su rentrer dans ma mémoire Et si ça t'rappelle un truc j'ai pas retrouvé ma boîte noire Gagner c'est pas tout l'monde qui a la coupe Vu qu'ils la donnent toujours à lui, même si on la remporte en groupe Vouloir y'a plusieurs façons de s'y prendre Ils voulaient ci, ils voulaient ça, donc ils finiront par se vendre La France combien viendront la visiter ? Dans tous leurs guides touristiques, ils n'ont pas entouré nos cités Partir et quitte à leur laisser des traces Il suffira d'ouvrir les yeux, tu verras vite le temps qui passe La crise ce n'était qu'un mytho en plus Ça ne choquera même plus personne de t'voir pieuter sous l'abribus Survivre t'as qu'à demander à ta daronne Papa est en déficit, et puis le plus grand frère s'est mis au rhum Les larmes reste à savoir pourquoi elles tombent Parfois elles coulent sur le visage en piétinant le panneau Stop Les sourires peuvent aussi signifier la peine Il y a des jours où j'fais semblant depuis qu'mon père manque à l'appel La foi et la piété font bon ménage Depuis que l'équipage rame et veulent couler tous ceux qui nagent Boycotté pourtant j'n'ai encore rien dit de mal Est-ce naïf d'rentrer à poil, ils m'ont dit Mets l'gilet pare-balles Les lascars sont sûrement pas qu'en DVD Ma destinée n'est pas écrite, mais la colère s'en est mêlée La guerre mais reste à voir pourquoi ils tirent T'as vu c'qu'ils nous mettent à 20h en nous disant Bon appétit ? Maigrir tout c'poids nous a enlevé l'envie de rire Si on parlait reconnaissance l'homme s'met derrière une vitrine Affolé citoyens désespérés dans vos manifs Si on disait qu'la CGT faisait partie de leurs complices Voyager pas tout l'monde peut faire ses valises Certains habitent en banlieue, n'ont même pas visité Bériz L'Enfer certainement qu'on laisse traîner un pied dessus Comme des fois où j'perds le Nord à s'demander où est le Sud Les technologies ça rentre facile dans nos maisons Pour pas cher t'as des virus, on t'offre gratuit le téléphone L'assurance j'm'y suis même pas inscrit un mois Car il fallait que j'reste en vie, mais pour payer ça coûte un doigt La santé qu'elle soit près d'vous, je vous le souhaite Croyez pas qu'c'est qu'une pensée bazardée par un d'ces poètes La musique belle, parfois mauvaise, faut qu'tu le saches Elle peut te saouler, lasser, pousser le divorce à la rage Le futur peut effrayer, mais n'aie pas peur Moi j'veux qu'mon fils aime sa mère, son père et son Créateur Le destin c'est p't-êt' le dernier son qu'j'écris À force de tourner en rond, on apprend la géométrie Mon Dico fallait bien servir le volume 2 Entre P'tit Robert et Larousse, ajoute Rachid le P'tit Rebeu You might also like Rachid Mon Dico, deuxième épisode, deuxième chapitre, la suite ... Sète Tant qu'on est là inch'Allah Sans gros mots ni politesses Artisan du Bic2</t>
+          <t>Demi Portion Ouais, Beep-Beep à la prod' De retour, parce que j'avais pas fini l'premier Donc j'ai tourné la page Écoute... Brutal a su rentrer dans ma mémoire Et si ça t'rappelle un truc j'ai pas retrouvé ma boîte noire Gagner c'est pas tout l'monde qui a la coupe Vu qu'ils la donnent toujours à lui, même si on la remporte en groupe Vouloir y'a plusieurs façons de s'y prendre Ils voulaient ci, ils voulaient ça, donc ils finiront par se vendre La France combien viendront la visiter ? Dans tous leurs guides touristiques, ils n'ont pas entouré nos cités Partir et quitte à leur laisser des traces Il suffira d'ouvrir les yeux, tu verras vite le temps qui passe La crise ce n'était qu'un mytho en plus Ça ne choquera même plus personne de t'voir pieuter sous l'abribus Survivre t'as qu'à demander à ta daronne Papa est en déficit, et puis le plus grand frère s'est mis au rhum Les larmes reste à savoir pourquoi elles tombent Parfois elles coulent sur le visage en piétinant le panneau Stop Les sourires peuvent aussi signifier la peine Il y a des jours où j'fais semblant depuis qu'mon père manque à l'appel La foi et la piété font bon ménage Depuis que l'équipage rame et veulent couler tous ceux qui nagent Boycotté pourtant j'n'ai encore rien dit de mal Est-ce naïf d'rentrer à poil, ils m'ont dit Mets l'gilet pare-balles Les lascars sont sûrement pas qu'en DVD Ma destinée n'est pas écrite, mais la colère s'en est mêlée La guerre mais reste à voir pourquoi ils tirent T'as vu c'qu'ils nous mettent à 20h en nous disant Bon appétit ? Maigrir tout c'poids nous a enlevé l'envie de rire Si on parlait reconnaissance l'homme s'met derrière une vitrine Affolé citoyens désespérés dans vos manifs Si on disait qu'la CGT faisait partie de leurs complices Voyager pas tout l'monde peut faire ses valises Certains habitent en banlieue, n'ont même pas visité Bériz L'Enfer certainement qu'on laisse traîner un pied dessus Comme des fois où j'perds le Nord à s'demander où est le Sud Les technologies ça rentre facile dans nos maisons Pour pas cher t'as des virus, on t'offre gratuit le téléphone L'assurance j'm'y suis même pas inscrit un mois Car il fallait que j'reste en vie, mais pour payer ça coûte un doigt La santé qu'elle soit près d'vous, je vous le souhaite Croyez pas qu'c'est qu'une pensée bazardée par un d'ces poètes La musique belle, parfois mauvaise, faut qu'tu le saches Elle peut te saouler, lasser, pousser le divorce à la rage Le futur peut effrayer, mais n'aie pas peur Moi j'veux qu'mon fils aime sa mère, son père et son Créateur Le destin c'est p't-êt' le dernier son qu'j'écris À force de tourner en rond, on apprend la géométrie Mon Dico fallait bien servir le volume 2 Entre P'tit Robert et Larousse, ajoute Rachid le P'tit Rebeu Rachid Mon Dico, deuxième épisode, deuxième chapitre, la suite ... Sète Tant qu'on est là inch'Allah Sans gros mots ni politesses Artisan du Bic2</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Avance sans personnes on en sera libre Là je boirais 1 litre sec et rapide Je varie quoi tu parie? Toi pose un billet c'est sûr que tu le récupère pas Alerte si t'es en panne ne te pose plus d'questions Loin des mytho et d'leurs embrouilles bidons Moi tu m'verrais juste au parc avec le p'tit fiston Toi j'te laisse te pavaner au store de Louis Vuitton Chacun ses dièse en vrai on n'force personne Attend on pousse Suffit d'réfléchir c'est tout mon rap fait pas d'moral Et mon disque ne remplacera jamais ton p'tit journal On a vu des grands s'faire mal au milieu de sales vermines Qu'est ce tu veux qu'j'y fasse c'est la même dans toutes les villes Peu pour être crédible ou pour s'faire une image Oh la nouvelle tendance, oh c'est des Oh c'est des stars coriaces mais ils tiendront pas une seconde Lindustrie de la musique fera de toi une bombe Et si ça va pas demain elle fera de toi une tombe Aujourd'hui c'est cool dit t'as de nouvelles shoes Ton clip t'as vu on lui mes beaucoup d'pouces Allez y faites vos courses sortez vos meilleurs chevaux Moi j'ai failli tuer le jockey pour mon deuxième solo Hélas c'est l'nouveau polo et demi en street wear Un ptit logo et les GG comme cris de guerre Bref c'est vite fait trompette caisse claire Tu crois qu'j'écris vite? Non c'est seulement dut à la gamberge Lâche pas l'affaire J'ai jamais parlé aux fantômes et pourquoi pas rire avec Casper Paraîtrait qu'on va s'plaire Arrête tes foutaises percées mais tu n'as pas serré la bonne mèche C'est que du RAP french C'est que du RAP french T'es fraîche? Et ben j'te laisse poser sur d'la dance You might also like Envoie un beat un simple et ça m'arrange Un titre signé à l'arrache Change pas une équipe à la ramasse Prendre l'art en main comme un Famas Attaque la feuille comme un Kalash Chaque morceau te t'pète à la ganache Écoute mes rimes et ses balafres Oui ça me lasse évidement Chaque projet devient un médicament Y'a le style qui t'rend fou malade On est soudés Soudés vous dites bonjour à la France Bien-sur qu'on est nombreux Donc faites place Faites place Le refrain on l'jouera pas 2 fois Yeah Man, coup d'grâce1</t>
+          <t>Avance sans personnes on en sera libre Là je boirais 1 litre sec et rapide Je varie quoi tu parie? Toi pose un billet c'est sûr que tu le récupère pas Alerte si t'es en panne ne te pose plus d'questions Loin des mytho et d'leurs embrouilles bidons Moi tu m'verrais juste au parc avec le p'tit fiston Toi j'te laisse te pavaner au store de Louis Vuitton Chacun ses dièse en vrai on n'force personne Attend on pousse Suffit d'réfléchir c'est tout mon rap fait pas d'moral Et mon disque ne remplacera jamais ton p'tit journal On a vu des grands s'faire mal au milieu de sales vermines Qu'est ce tu veux qu'j'y fasse c'est la même dans toutes les villes Peu pour être crédible ou pour s'faire une image Oh la nouvelle tendance, oh c'est des Oh c'est des stars coriaces mais ils tiendront pas une seconde Lindustrie de la musique fera de toi une bombe Et si ça va pas demain elle fera de toi une tombe Aujourd'hui c'est cool dit t'as de nouvelles shoes Ton clip t'as vu on lui mes beaucoup d'pouces Allez y faites vos courses sortez vos meilleurs chevaux Moi j'ai failli tuer le jockey pour mon deuxième solo Hélas c'est l'nouveau polo et demi en street wear Un ptit logo et les GG comme cris de guerre Bref c'est vite fait trompette caisse claire Tu crois qu'j'écris vite? Non c'est seulement dut à la gamberge Lâche pas l'affaire J'ai jamais parlé aux fantômes et pourquoi pas rire avec Casper Paraîtrait qu'on va s'plaire Arrête tes foutaises percées mais tu n'as pas serré la bonne mèche C'est que du RAP french C'est que du RAP french T'es fraîche? Et ben j'te laisse poser sur d'la dance Envoie un beat un simple et ça m'arrange Un titre signé à l'arrache Change pas une équipe à la ramasse Prendre l'art en main comme un Famas Attaque la feuille comme un Kalash Chaque morceau te t'pète à la ganache Écoute mes rimes et ses balafres Oui ça me lasse évidement Chaque projet devient un médicament Y'a le style qui t'rend fou malade On est soudés Soudés vous dites bonjour à la France Bien-sur qu'on est nombreux Donc faites place Faites place Le refrain on l'jouera pas 2 fois Yeah Man, coup d'grâce1</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ta maison, comment elle sera, ta maison d'ouvrier? Ah ben, moi ça sera dans un gratte-ciel parce qu'il y aura plus de pavillons Y aura plus de petits immeubles, rien du tout Et tu seras très haut? Oh, ça dépends de la hauteur qu'ils nous logeront Et t'auras envie de quoi? Assez propre, pour, pour pas tomber Ah-ha Ouais Rien n'a changé tu sais, partout c'est la même La majorité d'entre nous ont tous connu un problème Quelle galère, pfff On connait tous la saveur, on a pas vu le train passer Sauf la pause d'un graffeur, rien n'a changé C'est pas l'époque qu'on préfère, trop déçu Depuis que j'ai vu la montée du FN Comment gueuler nos galères, ou être toujours à l'heure Trop attendu des menteurs, qui s'opposent à nos valeurs Oui j'aime bien parler d'amour, la violence est dans les murs Tu sais que la prod est la foudre, et qu'mon stylo est Zeus Les projets à 100Keus, 'paraît qu'on les dépriment oh Fallait bien arrêt d'album, signé à demi mot You might also likeYo yo, on se lance, on avance doucement, bouge la tête 2, 2 Ouais le son vient de New York, Allez, on gère l'attaque Ouais la prod c'est Mkach, quand ça pète la kush Ça sonne jusqu'à l'étage, on vérifie, on a le filon, le bac est rempli de pilon On s'y met sûr, comme un Saphir qui vient embrasser le sillon, check check Envoie les platines, ouais, jamais on s'fatigue, ouais Envoie les platines, yo, jamais on s'fatigue, ah ah Ça sonne 90' en même temps c'est 2020 Ça sonne 90' en même temps c'est 2020 Ça sonne 90' en même temps c'est 2020, ah ah Ça sonne 90' en même temps c'est 2020 Ça sonne 90' en même temps c'est 2020 Ça sonne 90' en même temps c'est 2020, ah ah Y a pas de nom sur l'affiche, ni nouveau ni ancien Chaque son est différent comme les 101 Dalmatiens Ouais la police tabasse, ils ont visé des pompiers On dit que rien n'a changé, ouais ma cité a craqué Est-ce qu'il y a des choses à gratter, ou bien des riches en prison À force de croire en l'espoir, j'sais plus qui a raison Vas y Rolxx, on est là ouais on le fera sans médias On est hip-hop mamène oui comme Ramzy Bedia Je n'ai rien d'une micro-star, laisse moi le micro stop J'connais le game par cur, non non, pas besoin de microscope Donne moi le mic et je donne, avant que les microbes sortent Tu veux la vie de rêve ou bien la thune à Microsoft Et ouais, le monde est stone, en toute modestie Avant qu'on monte les stores, avant notre dernier cri Et ouais le monde est stone, en toute modestie Avant qu'on monte les stores, avant notre dernier cri, oui, oui Mais entre l'époque et maintenant Rien n'a changé Rien n'a changé Ça sonne toujours La même mélodie Les mêmes thèmes Les mêmes problèmes Ah ah Et ça sonne 90' en même temps c'est 2020 Ça sonne 90' en même temps c'est 2020 Ça sonne 90' et en même temps c'est 2020 Ah ouais, Demi Portion</t>
+          <t>Ta maison, comment elle sera, ta maison d'ouvrier? Ah ben, moi ça sera dans un gratte-ciel parce qu'il y aura plus de pavillons Y aura plus de petits immeubles, rien du tout Et tu seras très haut? Oh, ça dépends de la hauteur qu'ils nous logeront Et t'auras envie de quoi? Assez propre, pour, pour pas tomber Ah-ha Ouais Rien n'a changé tu sais, partout c'est la même La majorité d'entre nous ont tous connu un problème Quelle galère, pfff On connait tous la saveur, on a pas vu le train passer Sauf la pause d'un graffeur, rien n'a changé C'est pas l'époque qu'on préfère, trop déçu Depuis que j'ai vu la montée du FN Comment gueuler nos galères, ou être toujours à l'heure Trop attendu des menteurs, qui s'opposent à nos valeurs Oui j'aime bien parler d'amour, la violence est dans les murs Tu sais que la prod est la foudre, et qu'mon stylo est Zeus Les projets à 100Keus, 'paraît qu'on les dépriment oh Fallait bien arrêt d'album, signé à demi mot Yo yo, on se lance, on avance doucement, bouge la tête 2, 2 Ouais le son vient de New York, Allez, on gère l'attaque Ouais la prod c'est Mkach, quand ça pète la kush Ça sonne jusqu'à l'étage, on vérifie, on a le filon, le bac est rempli de pilon On s'y met sûr, comme un Saphir qui vient embrasser le sillon, check check Envoie les platines, ouais, jamais on s'fatigue, ouais Envoie les platines, yo, jamais on s'fatigue, ah ah Ça sonne 90' en même temps c'est 2020 Ça sonne 90' en même temps c'est 2020 Ça sonne 90' en même temps c'est 2020, ah ah Ça sonne 90' en même temps c'est 2020 Ça sonne 90' en même temps c'est 2020 Ça sonne 90' en même temps c'est 2020, ah ah Y a pas de nom sur l'affiche, ni nouveau ni ancien Chaque son est différent comme les 101 Dalmatiens Ouais la police tabasse, ils ont visé des pompiers On dit que rien n'a changé, ouais ma cité a craqué Est-ce qu'il y a des choses à gratter, ou bien des riches en prison À force de croire en l'espoir, j'sais plus qui a raison Vas y Rolxx, on est là ouais on le fera sans médias On est hip-hop mamène oui comme Ramzy Bedia Je n'ai rien d'une micro-star, laisse moi le micro stop J'connais le game par cur, non non, pas besoin de microscope Donne moi le mic et je donne, avant que les microbes sortent Tu veux la vie de rêve ou bien la thune à Microsoft Et ouais, le monde est stone, en toute modestie Avant qu'on monte les stores, avant notre dernier cri Et ouais le monde est stone, en toute modestie Avant qu'on monte les stores, avant notre dernier cri, oui, oui Mais entre l'époque et maintenant Rien n'a changé Rien n'a changé Ça sonne toujours La même mélodie Les mêmes thèmes Les mêmes problèmes Ah ah Et ça sonne 90' en même temps c'est 2020 Ça sonne 90' en même temps c'est 2020 Ça sonne 90' et en même temps c'est 2020 Ah ouais, Demi Portion</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C'est Rémy, ouais Woo! Il m'reste plus que 24 heures à vivre, j'me regarde dans mon miroir Les heures passent, les minutes tombent et les secondes, j'les vois même pas Bwah! J'pense à mes frères à Fleury, eux ça parle en années Il m'reste un peu moins de 23h, j'vais voir mes gars puis ma re-mè Lui dire tout c'que j'ai pas su dire, que d'la rue on a pas pu fuir Ah ouais J'suis parti voir mon père mais il a pas voulu m'ouvrir 21h il m'reste, j'ai plus d'coco donc j'en remets Y avait du monde à la pompe il reste que 20h, sa mère Putain! J'croise Lounès et Rim-Ka, j'checke de l'épaule mon gars Be-Squa On va graille avec Biggie, c'est moi qui régale pour une fois Il est 22h, j'passe voir So-John et le Zeur, y a Mohand à la planque donc j'pose mon dernier 12 mesures Il était une fois l'histoire de ma vie, 24h à vivre Quand y rest'ra quelques secondes, p'tet que j'sauterai dans l'vide Pourquoi pas, 2h pour tout essayer, j'monte sur scène avec Oxmo, Jazzy et Demi pour mon dernier couplet Non mais qui veut m'nettoyer du terrain, c'est la seule raison qui m'aide à chercher le butin Finis ma journée dans l'speed, dernier taffe sur c'spliff Envoie d'la bande tout d'suite, à c't'heure y a rien d'toxique La fumée sort d'l'usine, le temps d'une dernière zone On dit que l'argent facile rapporte mieux qu'Amazon Il me reste 24h à vivre donc j'irai voir maman Lui dire je t'aime simplement pour savourer ce moment Lentement, sûrement, discret, c'est la marque Vu que l'horloge tourne, j'donne tout, c'est pas grave Matricule D-E-M-I, je reste dangereux vu qu'le temps passe trop vite quoi Je reste dans l'jeu, ha You might also like Il nous reste 24h à vivre Rien à foutre Personne peut nous priver Tu vas nous suivre si tu veux y arriver Nos rêves, c'est c'qui nous reste à faire Tu piges frères, que puis-je faire d'autre quand Il nous reste 24h à vivre Rien à foutre Personne peut nous priver Tu vas nous suivre si tu veux y arriver Nos rêves, c'est c'qui nous reste à faire Tu piges frères, que puis-je faire d'autre quand.. J'espérais une tendre mort mais j'ai déjà tant d'remords J'serai bientôt plus d'ce monde, 24h c'est une seconde Ouais, le compte à rebours passe si vite, j'attends la visite De la faucheuse avec une arme lourde J'ai un problème avec la mort, surtout la mienne Comment veux-tu que j'trouve la paix sous la terre, où ça mène tout ça C'est un énorme bordel, j'ai même pas préparé un ou deux albums post-mortem J'regrette déjà nos fous-rires et d'avoir vécu comme une chauve-souris Du mal à vivre chaque jour comme le dernier jusqu'à aujourd'hui J'dis je t'aime à ceux attristés par mon déclin, avant de faire mes débuts en tant que défunt Faut que je mette cette fille enceinte de mon fils Qui, j'espère, sera doué, méchant et rappera comme son putain de père Pire que la Lady Di, keuss façon Pit Bacardi Rappera dessus, ce sera lhétéro black Elton John Moltonelle pour le cerceuil, enceintes 200 watts L'album de Biggie, Clarks et chaînes en or en poster pour le décor J'dirai à tous mes potes de se tatouer Mon nom, mon prénom, mon pseudonyme Comme je l'ai fait pour mon pote Moe Jackpot au lit, c'est ce que perdrait chaque fille M'ayant élue au top du copsueur toutes options J'passe dix heures avec ma mère Qui mérite l'héritage d'un fils black et millionnaire Qui marqua le rap français pour le millénaire Rap criminaminard Hein.. Il nous reste plus que 24h à vivre, j'te livre mes derniers actes Tuer c'type qui voulait que j'finisse ma vie en taule J'irai dans ce banc de Skins foutre mon rap, ce type Pit Graine Caf Ox, Rémy et Jazzy Bazz, le gong sonne, il m'reste peu d'temps qu'j'venais passer en love avec maman Ou en gova avec mes potes de Place ou Première Classe, j'ai peur de m'casser sans dire au revoir à mes reufs et cette 'tasse Putain, il m'reste 10 minutes pour dire à Matt et Houmi d'garder Mars et Keuss, d'construire à 4 la relève Le beat est lourd, soit de Time Bomb Superstar sans costard, disque d'or en survet' Nike 2018, collaboration historique Demi Portion, Jazzy Bazz C'est Rémy, Baccardi Maître Fader, Prince Charles Alexander Mars, Seck, Rick, aw... Aw... Haha</t>
+          <t>C'est Rémy, ouais Woo! Il m'reste plus que 24 heures à vivre, j'me regarde dans mon miroir Les heures passent, les minutes tombent et les secondes, j'les vois même pas Bwah! J'pense à mes frères à Fleury, eux ça parle en années Il m'reste un peu moins de 23h, j'vais voir mes gars puis ma re-mè Lui dire tout c'que j'ai pas su dire, que d'la rue on a pas pu fuir Ah ouais J'suis parti voir mon père mais il a pas voulu m'ouvrir 21h il m'reste, j'ai plus d'coco donc j'en remets Y avait du monde à la pompe il reste que 20h, sa mère Putain! J'croise Lounès et Rim-Ka, j'checke de l'épaule mon gars Be-Squa On va graille avec Biggie, c'est moi qui régale pour une fois Il est 22h, j'passe voir So-John et le Zeur, y a Mohand à la planque donc j'pose mon dernier 12 mesures Il était une fois l'histoire de ma vie, 24h à vivre Quand y rest'ra quelques secondes, p'tet que j'sauterai dans l'vide Pourquoi pas, 2h pour tout essayer, j'monte sur scène avec Oxmo, Jazzy et Demi pour mon dernier couplet Non mais qui veut m'nettoyer du terrain, c'est la seule raison qui m'aide à chercher le butin Finis ma journée dans l'speed, dernier taffe sur c'spliff Envoie d'la bande tout d'suite, à c't'heure y a rien d'toxique La fumée sort d'l'usine, le temps d'une dernière zone On dit que l'argent facile rapporte mieux qu'Amazon Il me reste 24h à vivre donc j'irai voir maman Lui dire je t'aime simplement pour savourer ce moment Lentement, sûrement, discret, c'est la marque Vu que l'horloge tourne, j'donne tout, c'est pas grave Matricule D-E-M-I, je reste dangereux vu qu'le temps passe trop vite quoi Je reste dans l'jeu, ha Il nous reste 24h à vivre Rien à foutre Personne peut nous priver Tu vas nous suivre si tu veux y arriver Nos rêves, c'est c'qui nous reste à faire Tu piges frères, que puis-je faire d'autre quand Il nous reste 24h à vivre Rien à foutre Personne peut nous priver Tu vas nous suivre si tu veux y arriver Nos rêves, c'est c'qui nous reste à faire Tu piges frères, que puis-je faire d'autre quand.. J'espérais une tendre mort mais j'ai déjà tant d'remords J'serai bientôt plus d'ce monde, 24h c'est une seconde Ouais, le compte à rebours passe si vite, j'attends la visite De la faucheuse avec une arme lourde J'ai un problème avec la mort, surtout la mienne Comment veux-tu que j'trouve la paix sous la terre, où ça mène tout ça C'est un énorme bordel, j'ai même pas préparé un ou deux albums post-mortem J'regrette déjà nos fous-rires et d'avoir vécu comme une chauve-souris Du mal à vivre chaque jour comme le dernier jusqu'à aujourd'hui J'dis je t'aime à ceux attristés par mon déclin, avant de faire mes débuts en tant que défunt Faut que je mette cette fille enceinte de mon fils Qui, j'espère, sera doué, méchant et rappera comme son putain de père Pire que la Lady Di, keuss façon Pit Bacardi Rappera dessus, ce sera lhétéro black Elton John Moltonelle pour le cerceuil, enceintes 200 watts L'album de Biggie, Clarks et chaînes en or en poster pour le décor J'dirai à tous mes potes de se tatouer Mon nom, mon prénom, mon pseudonyme Comme je l'ai fait pour mon pote Moe Jackpot au lit, c'est ce que perdrait chaque fille M'ayant élue au top du copsueur toutes options J'passe dix heures avec ma mère Qui mérite l'héritage d'un fils black et millionnaire Qui marqua le rap français pour le millénaire Rap criminaminard Hein.. Il nous reste plus que 24h à vivre, j'te livre mes derniers actes Tuer c'type qui voulait que j'finisse ma vie en taule J'irai dans ce banc de Skins foutre mon rap, ce type Pit Graine Caf Ox, Rémy et Jazzy Bazz, le gong sonne, il m'reste peu d'temps qu'j'venais passer en love avec maman Ou en gova avec mes potes de Place ou Première Classe, j'ai peur de m'casser sans dire au revoir à mes reufs et cette 'tasse Putain, il m'reste 10 minutes pour dire à Matt et Houmi d'garder Mars et Keuss, d'construire à 4 la relève Le beat est lourd, soit de Time Bomb Superstar sans costard, disque d'or en survet' Nike 2018, collaboration historique Demi Portion, Jazzy Bazz C'est Rémy, Baccardi Maître Fader, Prince Charles Alexander Mars, Seck, Rick, aw... Aw... Haha</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>C'est les 4 coins d'la France Talents Fâchés 4, putain d'4x4 coins d'la France Depuis 2003 on est là, on est présent sur l'bitume dans vos oreilles ouais ouais ouais TLF, Talents Fâchés 4 Ici c'est chacun sa merde, nique sa mère l'État, le monde est à moi ZU-ZU-ZUP de Blois comme d'hab on va tout baiser crois-moi Toujours fauché, j'écris des seize par-ci par-là Ils cherchaient un talent fâché, soubhan'Allah j'suis passé par là Inch'Allah si ça marche je vais faire des hagras Ya trop d'fils de lâche compare-nous même pas à tous ces gars-là J'compte même plus les balafres, j'écoute même plus tes salades J'rappe pour ceux qui font la salât sous les rafales de kalash Ici c'est Metz, pour tous les jeunes de quartiers En galère ou qui pèsent, les ghetto youth qu'on peut pas dompter Les calmes et les effrontés, en boite galère à rentrer Prends plaisir à dépenser quand l'oseille commence à rentrer, ok! On veut des thunes on saura toujours quoi en faire Ça risque du ferme, accro au bitume, rêve d'esquiver la galère 57, Bellecroix nique la sère-mi sur Talents Fâchés Pour tous les ghetto youth qui prennent des risques parce qu'ils veulent brasser You might also like Frein à main sur l'instru qui nage j'viens représenter Rennes Tu voulais ma peau, tu me fais d'la peine tu... tu vas perdre la tienne 35, 9-4, c'est la même, partout c'est la merde Les sisstes-gro veulent plus parler en ki, en kilos mais en mètres D'où je viens les barres HLM ont des paraboles à la fenêtre Si t'appliques pas la loi du silence, on te mêle Salam aux frères derrière les barreaux qui mangent la gamelle Et je t'assure qu'on a la dalle comme mon tard-m', c'est pour ça que rien nous freine Moi je dit fuck m'arrêtez au stop, j'veux pas rester au top et ouais Docteur j'emmerde les écouteurs, ouais v'là les stéthoscopes Fuck les balances et l'horoscope Et si le grossiste insiste on met une balle a Robocop Je surfe sur les grosses prods, t'sais qu'les gosses cognent Contact, grosse côte, j'nique les bonnes notes et bonnes profs Talent fâché depuis le 1 Trop de négros sucent, dis-leur que nous on a arrêté depuis le sein Donne tout pour ton ghetto Pour les frères et surs qui sont en manque d'euros Du Nord au Sud on a tous les même problèmes Fuck ce système qui génère trop de haine J'viens d'la capitale des risques, chez nous ça brave les interdits Ici la jeunesse bicrave des meuj, et qu'c'est pérave l'intérim Dans les compiles y'a pas mon blaze, ca m'empêche pas d'mi-dor Il font shab hésitant, ces petits pds crachent sur une mine d'or Si la Rue se-serait le rap y'aurait plein de phrases utiles Mon stylo c'est de la weed, mes putains de phrases un flash de whisky LECK TLF 4 tu débarques en balle et BRAH, j'te déchire J'ai une carrière à mener sans fléchir et faire l'honneur du XXX Les dealeurs c'est la coke, la brown sugar Les cristaux de crack, les quintaux de hasch, la superskunk pas la colle Les nayeks c'est braquo, les armes crachent le feu comme des dragons Dopé comme Ivan Drago, j'motive les loco' pas les wagons Moi je viens de la côte, comme mes zincs je nage dans l'alcool Les gangsters sexécutent au colt pour le contrôle de la récolte J'suis Gak, faut les outils adéquates Tu contre pèse ou bien tu t'rétractes, tu comptes le pèse ou bien tu le braques Depuis tout c'temps dans l'hip-hop, c'est toujours la même Toujours les mêmes qui croquent, pendant qu'les vrais talents sont gâchés D'ma couleur, tu peux ressentir ma colère Black comme Barack Obama, j'veux le pouvoir Pouvoir tout ken, R4 du 59 Fuck les chtis et les shtar, en direct du Dunkerque et ses quartiers Sois prêt, sur tes gardes Comme un palestinien armé d'une grenade, j'vais tout baiser TLF 4-4, non tu ne connais pas, on sait dire que c'est mort, non non XX pas J'prend le mic pour lacrim donc prenez-prenez garde, fais pas ça pour la frime, stop ... Tu peux allez crier, tu pries La tristesse de nos mères dans nos tess ont plus de place dans nos prières Moi c'est STA pour le ter-ter, tant qu'on reste ... sous terre-terre ... c'est genoux à terre, paye 3-40 allant dans les artères Aie aie aie, désolé il faut qu'j'me taille Alors j'le fais un ... Ouais guy, tu m'as demandé un couplet sévère pour TLF 4 Demi Portion c'est les grandes gueules, un porte parole du 34 Toujours prêt à ouvrir le bal et du buzz j'en ai rien à battre J'fais d'la zik, rien d'important, ma mère voulais que j'finisse cadre C'est sans regret si j'rappe, j'ferais pas exprès si j'te rate J'gratte selon mon inspiration, j'm'en fou que les MCs s'bradent Les moyens du bord ont coulés, appelle moi Demi-Naufragé Si la jeunesse t'envoie chier, c'est qu'elle détient ce talent fâché Donne tout pour ton ghetto Pour les frères et surs qui sont en manque d'euros Du Nord au Sud on a tous les même problèmes Fuck ce système qui génère trop de haine Donne tout pour ton ghetto Pour les frères et surs qui sont en manque d'euros Du Nord au Sud on a tous les même problèmes Fuck ce système qui génère trop de haine Donne tout pour ton ghetto Pour les frères et surs qui sont en manque d'euros Du Nord au Sud on a tous les même problèmes Fuck ce système qui génère trop de haine Donne tout pour ton ghetto Pour les frères et surs qui sont en manque d'euros Du Nord au Sud on a tous les même problèmes Fuck ce système qui génère trop de haine Big UP à tous les quartiers des 4 coins d'la France Ouais, Blois, Metz, Rennes, Bordeaux, Le Havre, tous les quartiers d'Nice, Dunkerque, Nantes, Sètes, Grenoble, Saint Etienne, Lyon, Dijon, Strasbourg, 95, 94, 93, 92, 91, 77, 78, 75, 13, Nîmes, Montpellier, Toulouse, Orléans TLF pour les 4 coins d'la France Talents Fâchés 4 coins d'la France..</t>
+          <t>C'est les 4 coins d'la France Talents Fâchés 4, putain d'4x4 coins d'la France Depuis 2003 on est là, on est présent sur l'bitume dans vos oreilles ouais ouais ouais TLF, Talents Fâchés 4 Ici c'est chacun sa merde, nique sa mère l'État, le monde est à moi ZU-ZU-ZUP de Blois comme d'hab on va tout baiser crois-moi Toujours fauché, j'écris des seize par-ci par-là Ils cherchaient un talent fâché, soubhan'Allah j'suis passé par là Inch'Allah si ça marche je vais faire des hagras Ya trop d'fils de lâche compare-nous même pas à tous ces gars-là J'compte même plus les balafres, j'écoute même plus tes salades J'rappe pour ceux qui font la salât sous les rafales de kalash Ici c'est Metz, pour tous les jeunes de quartiers En galère ou qui pèsent, les ghetto youth qu'on peut pas dompter Les calmes et les effrontés, en boite galère à rentrer Prends plaisir à dépenser quand l'oseille commence à rentrer, ok! On veut des thunes on saura toujours quoi en faire Ça risque du ferme, accro au bitume, rêve d'esquiver la galère 57, Bellecroix nique la sère-mi sur Talents Fâchés Pour tous les ghetto youth qui prennent des risques parce qu'ils veulent brasser Frein à main sur l'instru qui nage j'viens représenter Rennes Tu voulais ma peau, tu me fais d'la peine tu... tu vas perdre la tienne 35, 9-4, c'est la même, partout c'est la merde Les sisstes-gro veulent plus parler en ki, en kilos mais en mètres D'où je viens les barres HLM ont des paraboles à la fenêtre Si t'appliques pas la loi du silence, on te mêle Salam aux frères derrière les barreaux qui mangent la gamelle Et je t'assure qu'on a la dalle comme mon tard-m', c'est pour ça que rien nous freine Moi je dit fuck m'arrêtez au stop, j'veux pas rester au top et ouais Docteur j'emmerde les écouteurs, ouais v'là les stéthoscopes Fuck les balances et l'horoscope Et si le grossiste insiste on met une balle a Robocop Je surfe sur les grosses prods, t'sais qu'les gosses cognent Contact, grosse côte, j'nique les bonnes notes et bonnes profs Talent fâché depuis le 1 Trop de négros sucent, dis-leur que nous on a arrêté depuis le sein Donne tout pour ton ghetto Pour les frères et surs qui sont en manque d'euros Du Nord au Sud on a tous les même problèmes Fuck ce système qui génère trop de haine J'viens d'la capitale des risques, chez nous ça brave les interdits Ici la jeunesse bicrave des meuj, et qu'c'est pérave l'intérim Dans les compiles y'a pas mon blaze, ca m'empêche pas d'mi-dor Il font shab hésitant, ces petits pds crachent sur une mine d'or Si la Rue se-serait le rap y'aurait plein de phrases utiles Mon stylo c'est de la weed, mes putains de phrases un flash de whisky LECK TLF 4 tu débarques en balle et BRAH, j'te déchire J'ai une carrière à mener sans fléchir et faire l'honneur du XXX Les dealeurs c'est la coke, la brown sugar Les cristaux de crack, les quintaux de hasch, la superskunk pas la colle Les nayeks c'est braquo, les armes crachent le feu comme des dragons Dopé comme Ivan Drago, j'motive les loco' pas les wagons Moi je viens de la côte, comme mes zincs je nage dans l'alcool Les gangsters sexécutent au colt pour le contrôle de la récolte J'suis Gak, faut les outils adéquates Tu contre pèse ou bien tu t'rétractes, tu comptes le pèse ou bien tu le braques Depuis tout c'temps dans l'hip-hop, c'est toujours la même Toujours les mêmes qui croquent, pendant qu'les vrais talents sont gâchés D'ma couleur, tu peux ressentir ma colère Black comme Barack Obama, j'veux le pouvoir Pouvoir tout ken, R4 du 59 Fuck les chtis et les shtar, en direct du Dunkerque et ses quartiers Sois prêt, sur tes gardes Comme un palestinien armé d'une grenade, j'vais tout baiser TLF 4-4, non tu ne connais pas, on sait dire que c'est mort, non non XX pas J'prend le mic pour lacrim donc prenez-prenez garde, fais pas ça pour la frime, stop ... Tu peux allez crier, tu pries La tristesse de nos mères dans nos tess ont plus de place dans nos prières Moi c'est STA pour le ter-ter, tant qu'on reste ... sous terre-terre ... c'est genoux à terre, paye 3-40 allant dans les artères Aie aie aie, désolé il faut qu'j'me taille Alors j'le fais un ... Ouais guy, tu m'as demandé un couplet sévère pour TLF 4 Demi Portion c'est les grandes gueules, un porte parole du 34 Toujours prêt à ouvrir le bal et du buzz j'en ai rien à battre J'fais d'la zik, rien d'important, ma mère voulais que j'finisse cadre C'est sans regret si j'rappe, j'ferais pas exprès si j'te rate J'gratte selon mon inspiration, j'm'en fou que les MCs s'bradent Les moyens du bord ont coulés, appelle moi Demi-Naufragé Si la jeunesse t'envoie chier, c'est qu'elle détient ce talent fâché Donne tout pour ton ghetto Pour les frères et surs qui sont en manque d'euros Du Nord au Sud on a tous les même problèmes Fuck ce système qui génère trop de haine Donne tout pour ton ghetto Pour les frères et surs qui sont en manque d'euros Du Nord au Sud on a tous les même problèmes Fuck ce système qui génère trop de haine Donne tout pour ton ghetto Pour les frères et surs qui sont en manque d'euros Du Nord au Sud on a tous les même problèmes Fuck ce système qui génère trop de haine Donne tout pour ton ghetto Pour les frères et surs qui sont en manque d'euros Du Nord au Sud on a tous les même problèmes Fuck ce système qui génère trop de haine Big UP à tous les quartiers des 4 coins d'la France Ouais, Blois, Metz, Rennes, Bordeaux, Le Havre, tous les quartiers d'Nice, Dunkerque, Nantes, Sètes, Grenoble, Saint Etienne, Lyon, Dijon, Strasbourg, 95, 94, 93, 92, 91, 77, 78, 75, 13, Nîmes, Montpellier, Toulouse, Orléans TLF pour les 4 coins d'la France Talents Fâchés 4 coins d'la France..</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Quand j'parle de rap retour aux sources, j'parle de... Faut pas être un vendu, moi, j'sais qu'j'ai une ceinture trop serrées pour qu'mon pantalon il tombe C'est-à-dire que, qu'en aucun cas, ni pour de l'argent, ni pour le succès, pour la notoriété, tout ça, j'irai faire un rap qui est pas propre à moi Et j'crois qu'c'est ça qui y avait avant Mehsah à la prod' Avant, les gens, ils faisaient du rap C'est dans l'calme qu'on exerce Dans la musique, on excelle J'la mange comme d'habitude et nsuite, j'fais la vaisselle La prod' st à missiler, à Sète, j'suis domicilié Le BIC est bien taillé, en forme de canon scié Non, pas d'comptes à rendre, j'gratte sur le papier On compte plus les galères, les cernes sur les paupières Les gratteurs ont tout picoré, trop bouffé la mort aux rats Il est l'heure de se barrer, comme une trace à Maradona J'ai qu'à regarder le ciel, j'ai qu'à suivre mon aura On a les pieds dans l'ciment, pas l'autre à Bora-Bora Comment on dessine une vie et puis le refaire à l'oral Quand on nous parle que de guerre ou de ce vieux caporal Alors, j'écris le sang chaud, pas d'questions immorales J'comptes plus mes textes ou les contrôles à la douane J'ai grandi avec Hasni, mais j'aime aussi Goldman À toute la nouvelle génération, branchez le Walkman On glorifie pas le mal, on s'penche que pour prier On est juste de passage, alors prépare outils et N'essaie pas de rembobiner tant qu'on n'a pas tout plié N'essaie pas de nous copier, on n'a pas le même sablier Faites qu'un jour, on t'oubliera, j'ai cessé les accolades On est artistes et pirates qui trafiquent le copyright On s'est battu pour nos droits pendant qu'tu t'butes à la ligne Maintenant, c'est les opticiens qui transportent la cocaïne J'ai pas bossé dans le crime, mais bon, les jeunes en raffolent Dur de refaire le monde, y a tout sur leur téléphone Il m'a dit J'peux être célèbre aujourd'hui, sans faire d'effort Celui qui brûle des voitures et p't-être trop fort à l'école On a tous perdu les codes, tactiles et trop sales On a tous perdus des potes pour un p'tit vu sur WhatsApp Y a des sujets importants qu'on maître plus au portable J'prends des clichés de ma vie comme un sale appareil Kodak J'oublierai pas d'faire un hommage, un p'tit doigt aux majorés Allez dire à Maître Gims, c'est l'rap qui est désolé Le luxe vous a décoré, le silence est devenu payant Bien sûr qu'on a tout pigé, comme les dossiers de Mitterrand J'm'en fous d'être boycotté, j'suis pas à l'abri du rap Quand j'écoutais Lunatic, j'pétais encore le neiman Alors, il fallait démarrer avec ou sans casque intégral J'ai appris à voir des choses qu'on ne voit pas sur Télégram La cam est un sale héritage pour la paix d'un footballer On a fait l'choix entre dealer ou le stylo quatre couleurs On a fait l'choix entre dealer ou le stylo quatre couleurs You might also like Aujourd'hui, y a des mecs ou des filles, elles vont faire du rap un peu par, par procuration, quoi Elles... Ils respectent pas c'qu'ils font Ils ont un truc conforme, faut faire ça comme ça, pour que ça passe là et là, pour que j'sois perçu de telle ou telle façon Et moi, j'supporte pas ça, et ça, c'est l'rap aujourd'hui, quoi Y a beaucoup, beaucoup, beaucoup d'rappeurs qui se, comment dire Je n'trouve pas l'mot Qui sont... C'est formaté Message à tous ceux qui m'ont permis de faire c'que j'aime À ma femme, à mon amour qui est mon oxygène On a tous besoin d'aide jusqu'à ce que tout s'arrête On a tous fait des fautes, mais faudra bien l'admettre Tout s'achète l'amour, l'art, la planète Terre, vous, moi, surtout moi L'homme est un produit comme les autres, avec une date limite de vente, vous croyez que j'en béni le monde ? Perdu, j'le bousille, tout est provisoire l'amour, l'art, la planète Terre, vous, moi, surtout moi</t>
+          <t>Quand j'parle de rap retour aux sources, j'parle de... Faut pas être un vendu, moi, j'sais qu'j'ai une ceinture trop serrées pour qu'mon pantalon il tombe C'est-à-dire que, qu'en aucun cas, ni pour de l'argent, ni pour le succès, pour la notoriété, tout ça, j'irai faire un rap qui est pas propre à moi Et j'crois qu'c'est ça qui y avait avant Mehsah à la prod' Avant, les gens, ils faisaient du rap C'est dans l'calme qu'on exerce Dans la musique, on excelle J'la mange comme d'habitude et nsuite, j'fais la vaisselle La prod' st à missiler, à Sète, j'suis domicilié Le BIC est bien taillé, en forme de canon scié Non, pas d'comptes à rendre, j'gratte sur le papier On compte plus les galères, les cernes sur les paupières Les gratteurs ont tout picoré, trop bouffé la mort aux rats Il est l'heure de se barrer, comme une trace à Maradona J'ai qu'à regarder le ciel, j'ai qu'à suivre mon aura On a les pieds dans l'ciment, pas l'autre à Bora-Bora Comment on dessine une vie et puis le refaire à l'oral Quand on nous parle que de guerre ou de ce vieux caporal Alors, j'écris le sang chaud, pas d'questions immorales J'comptes plus mes textes ou les contrôles à la douane J'ai grandi avec Hasni, mais j'aime aussi Goldman À toute la nouvelle génération, branchez le Walkman On glorifie pas le mal, on s'penche que pour prier On est juste de passage, alors prépare outils et N'essaie pas de rembobiner tant qu'on n'a pas tout plié N'essaie pas de nous copier, on n'a pas le même sablier Faites qu'un jour, on t'oubliera, j'ai cessé les accolades On est artistes et pirates qui trafiquent le copyright On s'est battu pour nos droits pendant qu'tu t'butes à la ligne Maintenant, c'est les opticiens qui transportent la cocaïne J'ai pas bossé dans le crime, mais bon, les jeunes en raffolent Dur de refaire le monde, y a tout sur leur téléphone Il m'a dit J'peux être célèbre aujourd'hui, sans faire d'effort Celui qui brûle des voitures et p't-être trop fort à l'école On a tous perdu les codes, tactiles et trop sales On a tous perdus des potes pour un p'tit vu sur WhatsApp Y a des sujets importants qu'on maître plus au portable J'prends des clichés de ma vie comme un sale appareil Kodak J'oublierai pas d'faire un hommage, un p'tit doigt aux majorés Allez dire à Maître Gims, c'est l'rap qui est désolé Le luxe vous a décoré, le silence est devenu payant Bien sûr qu'on a tout pigé, comme les dossiers de Mitterrand J'm'en fous d'être boycotté, j'suis pas à l'abri du rap Quand j'écoutais Lunatic, j'pétais encore le neiman Alors, il fallait démarrer avec ou sans casque intégral J'ai appris à voir des choses qu'on ne voit pas sur Télégram La cam est un sale héritage pour la paix d'un footballer On a fait l'choix entre dealer ou le stylo quatre couleurs On a fait l'choix entre dealer ou le stylo quatre couleurs Aujourd'hui, y a des mecs ou des filles, elles vont faire du rap un peu par, par procuration, quoi Elles... Ils respectent pas c'qu'ils font Ils ont un truc conforme, faut faire ça comme ça, pour que ça passe là et là, pour que j'sois perçu de telle ou telle façon Et moi, j'supporte pas ça, et ça, c'est l'rap aujourd'hui, quoi Y a beaucoup, beaucoup, beaucoup d'rappeurs qui se, comment dire Je n'trouve pas l'mot Qui sont... C'est formaté Message à tous ceux qui m'ont permis de faire c'que j'aime À ma femme, à mon amour qui est mon oxygène On a tous besoin d'aide jusqu'à ce que tout s'arrête On a tous fait des fautes, mais faudra bien l'admettre Tout s'achète l'amour, l'art, la planète Terre, vous, moi, surtout moi L'homme est un produit comme les autres, avec une date limite de vente, vous croyez que j'en béni le monde ? Perdu, j'le bousille, tout est provisoire l'amour, l'art, la planète Terre, vous, moi, surtout moi</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>On m'a dit Toi, n'lâche pas, suis ton fil conducteur On n'est qu'entre nous, c'est bon, j'ai pas fini, docteur On s'lève à quatre heure, des variés selon l'ordonnance La route est longue, même si j'la ferais, j'la recommence Dis, qui m'la recommande ? Belle manière de se divertir La France est une... qui m'demande toujours de faire pire Regarde sous le drap si il n'y a pas une merde sous la couverture Et ça me perturbe, v'là c'que j'retranscris sur chaque titre On m'a dit C'rap, c'est un terrain avec dix arbitres Le stade est archi-plein, hormis les trous d'balle qui s'invitent Garde tes petits sourires ou tes vieilles filles platines Retourne jouer un rôle ou lâche ta thune à Agadir Ici, ça pense qu'à fuir, ou nuire vos combinaisons Y'a plus d'shit', et la coke payera mieux qu'Michel Denisot On m'a dit qu'l'horizon deviendra floue que si je recule C'est pas grave, j'avance et j'm'en fous, ça m'fera une aventure Une vraie cure, on m'a dit N'cherche pas d'sensations Regarde ses yeux, ça sera meilleur qu'une conversation Une nouvelle vie, et j'préfère taper dans l'occasion Amoureux du son, fallait bien ignorer vos stations Lamentable dur de trouver un MC qui n'ment pas Des faux tueurs, tous là à s'baiser, comme dans les mangas On m'a dit Faut qu't'en parles, deux mesures s'occupent Le rap, j'en écoute peu, de peur d'vous faire trop d'pub' Le R'n'Boule débarque le samedi soir Rappeur techno', merde, prod' d'David Guitare Les MC s'font coucher, et, dans leur lit, y'a plus d'latte Mille positions à s'faire mal donner dans un clic-clac On m'a dit Sois loin d'l'attaque, n'les calcule pas Révolutionnaire mon cul, t'as pas vu Cuba A mon insu, tu parles, mais, dans tous les cas, ça viendra Y'a qu'un Dieu, frérot, et tous tes sales pêchés ne payent pas You might also like Tous tes sales pêchés ne payent pas, demande à Demi Portion Kacem Wapalek est là, prod' d'Oster Lapwass Nadir derrière... Ok, toi-même, tu sais Ok, ça fait... Kacem, comme un bédo, fume la bande FM Et fait même bander femmes et enfants, enfin, mes fans Et, quand la rime est fine, aucune fille n'fait bande à part Viens, gros, mon flow, c'est du Viagra La bande FM Kacem te la fait bander ferme J'ai c'qui fait qu'on fait aux filles autant d'effet que James Bond aux femmes Des fausses cailleras, défoncées au 'sky, rappent C'est à s'demander jusqu'où ira Skyrock Par contre, j'suis prêt à jurer devant témoins Qu'c'est ma radio préférée si Sky' m'appelle demain J'ai pas un radis au fond S'il faut sucer aussi Radio Fun on fonce On fout leur émission radio en feu Au fond, nous, on s'en fout C'est comme un service rendu aux fans Enfin, nos bas fonds s'expriment au microphone Et le font cramer, j'écris, et chaque rime assassine Est-ce un crime ? Attends, j'ai pas fini Kacem, c'est c'taré au top, anti-stéréotypes Jamais austère ou hautain, on joue pas les stars, et on tue Ceux qu'ont pas pu s'tirer à temps, qui jouent les gangsters hauts et tuent T'as des villas, grosses voitures, et t'es jamais allé en taule T'es bon qu'à t'la raconter, tu rêves de monter, nous C'est pas pour les ronds qu'on taffe, et tu nous traites de menteurs Mais qu'est-ce tu m'parles de réussite ? Arrête le rap et reste un rat Va taffer dans un restaurant puisque tu comptes faire des recettes Il était un petit Nadir n'ayant jamais navigué Comme une vague dans vos gueules, et n'ayant jamais rien à dire Comme ça, c'est fait tous les jeux d'mots sont écoulés Quant à ta langue de couleuvre, je la vois changer de couleur Je mets les voiles un révolutionnaire en burqa En menant sa barque à la rame avant l'retour au bercail Loin de l'Occident qui marchandait même pas deux balles le nègre Des connards en mal d'amour, je préfère encore mon mal de mer Dans un coin de l'océan, une gaffe est décelée On peut dire qu'j'ai bu la tasse, et l'addition était salée Même que, parfois, je prends d'la bouteille à la mer Ta liberté a fait naufrage, tu voudrais goûter à la mienne Mais t'as plané, ma rime te fait blanchir si t'y trempes le nez Reste dans ta planète, en tous cas, qu'on ne te revoit pas d'l'année Hé, Demi Portion, ça y est, j'me casse au large Et torcherais mon pur anus avec mon reste d'argent Mais j'veux plus d'goudron, je ce que j'ai là me suffit Je détermine un cas passé XXX en sifflant Mais tu t'es cru où ? Comme ça à t'emballer un max ? Reviens sur Terre, connard, tu veux pas 100 balles et un Mars ? Tu parcours l'immensité, et voilà qu't'es dans la Lune Mais ce pendant que des bâtards voulaient te dicter ton allure Yo, Lyon, Sète, Demi Portion, Kacem Wapalek, Oster Lapwass</t>
+          <t>On m'a dit Toi, n'lâche pas, suis ton fil conducteur On n'est qu'entre nous, c'est bon, j'ai pas fini, docteur On s'lève à quatre heure, des variés selon l'ordonnance La route est longue, même si j'la ferais, j'la recommence Dis, qui m'la recommande ? Belle manière de se divertir La France est une... qui m'demande toujours de faire pire Regarde sous le drap si il n'y a pas une merde sous la couverture Et ça me perturbe, v'là c'que j'retranscris sur chaque titre On m'a dit C'rap, c'est un terrain avec dix arbitres Le stade est archi-plein, hormis les trous d'balle qui s'invitent Garde tes petits sourires ou tes vieilles filles platines Retourne jouer un rôle ou lâche ta thune à Agadir Ici, ça pense qu'à fuir, ou nuire vos combinaisons Y'a plus d'shit', et la coke payera mieux qu'Michel Denisot On m'a dit qu'l'horizon deviendra floue que si je recule C'est pas grave, j'avance et j'm'en fous, ça m'fera une aventure Une vraie cure, on m'a dit N'cherche pas d'sensations Regarde ses yeux, ça sera meilleur qu'une conversation Une nouvelle vie, et j'préfère taper dans l'occasion Amoureux du son, fallait bien ignorer vos stations Lamentable dur de trouver un MC qui n'ment pas Des faux tueurs, tous là à s'baiser, comme dans les mangas On m'a dit Faut qu't'en parles, deux mesures s'occupent Le rap, j'en écoute peu, de peur d'vous faire trop d'pub' Le R'n'Boule débarque le samedi soir Rappeur techno', merde, prod' d'David Guitare Les MC s'font coucher, et, dans leur lit, y'a plus d'latte Mille positions à s'faire mal donner dans un clic-clac On m'a dit Sois loin d'l'attaque, n'les calcule pas Révolutionnaire mon cul, t'as pas vu Cuba A mon insu, tu parles, mais, dans tous les cas, ça viendra Y'a qu'un Dieu, frérot, et tous tes sales pêchés ne payent pas Tous tes sales pêchés ne payent pas, demande à Demi Portion Kacem Wapalek est là, prod' d'Oster Lapwass Nadir derrière... Ok, toi-même, tu sais Ok, ça fait... Kacem, comme un bédo, fume la bande FM Et fait même bander femmes et enfants, enfin, mes fans Et, quand la rime est fine, aucune fille n'fait bande à part Viens, gros, mon flow, c'est du Viagra La bande FM Kacem te la fait bander ferme J'ai c'qui fait qu'on fait aux filles autant d'effet que James Bond aux femmes Des fausses cailleras, défoncées au 'sky, rappent C'est à s'demander jusqu'où ira Skyrock Par contre, j'suis prêt à jurer devant témoins Qu'c'est ma radio préférée si Sky' m'appelle demain J'ai pas un radis au fond S'il faut sucer aussi Radio Fun on fonce On fout leur émission radio en feu Au fond, nous, on s'en fout C'est comme un service rendu aux fans Enfin, nos bas fonds s'expriment au microphone Et le font cramer, j'écris, et chaque rime assassine Est-ce un crime ? Attends, j'ai pas fini Kacem, c'est c'taré au top, anti-stéréotypes Jamais austère ou hautain, on joue pas les stars, et on tue Ceux qu'ont pas pu s'tirer à temps, qui jouent les gangsters hauts et tuent T'as des villas, grosses voitures, et t'es jamais allé en taule T'es bon qu'à t'la raconter, tu rêves de monter, nous C'est pas pour les ronds qu'on taffe, et tu nous traites de menteurs Mais qu'est-ce tu m'parles de réussite ? Arrête le rap et reste un rat Va taffer dans un restaurant puisque tu comptes faire des recettes Il était un petit Nadir n'ayant jamais navigué Comme une vague dans vos gueules, et n'ayant jamais rien à dire Comme ça, c'est fait tous les jeux d'mots sont écoulés Quant à ta langue de couleuvre, je la vois changer de couleur Je mets les voiles un révolutionnaire en burqa En menant sa barque à la rame avant l'retour au bercail Loin de l'Occident qui marchandait même pas deux balles le nègre Des connards en mal d'amour, je préfère encore mon mal de mer Dans un coin de l'océan, une gaffe est décelée On peut dire qu'j'ai bu la tasse, et l'addition était salée Même que, parfois, je prends d'la bouteille à la mer Ta liberté a fait naufrage, tu voudrais goûter à la mienne Mais t'as plané, ma rime te fait blanchir si t'y trempes le nez Reste dans ta planète, en tous cas, qu'on ne te revoit pas d'l'année Hé, Demi Portion, ça y est, j'me casse au large Et torcherais mon pur anus avec mon reste d'argent Mais j'veux plus d'goudron, je ce que j'ai là me suffit Je détermine un cas passé XXX en sifflant Mais tu t'es cru où ? Comme ça à t'emballer un max ? Reviens sur Terre, connard, tu veux pas 100 balles et un Mars ? Tu parcours l'immensité, et voilà qu't'es dans la Lune Mais ce pendant que des bâtards voulaient te dicter ton allure Yo, Lyon, Sète, Demi Portion, Kacem Wapalek, Oster Lapwass</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Wesh, quoi dneuf à Marseille ? Disons que cest la même à Sète, Lyon ou Sarcelles Le rap, paraît quça nous sert à sremplir un compte Sacem Du tout jarrange une crevaison, javance et vite, ça freine Depuis jévite ça frère, des fois je m'tape des scènes Ici pour fuir la routine la jeunesse tape des seize Les filles font peu dménage, vu quelles nettoient, MSN SMS, sans boulot, même des arabes deviennent CRS Entre crise et antistress, le monde est un hôpital On sfait discret évidemment, on nse fie pas de leau qui parle Qui ronfle, des fois j'm'endors, trouve du repos près des enceintes Allô Kacem ? Putain même au tél' y'a des Larsen Toujours open à chaque scène, donne un micro et jsaurai quoi faire On mcherche des poux autant qula merde, jaurais dû finir coiffeur Couper des têtes à laveuglette, non personne mérite la mort Cest froid, je l'sais très bien qujattendrai pas Catherine Laborde Cest chaud, cest normal, nos darons portaient des grosses caisses Ils nont pas eu ltemps dchialer ou dpleurer sur les Myspace Deux caisses claires, sans boucle, attends lbuzz pour quça roule Le rap français nest plus hard mettez Oster ou Aznavour Savoure, ouais, jviens faire causer les muets Javoue, jparle pas trop vite avant décrire le résumé En bref les Grandes Gueules, dédié à R.E.D.K Demi Portion loriginal, évitez la version béta You might also like On raconte que mes punchlines feraient l'amour aux tiennes En même temps t'es voué à l'échec comme un transfert de Rothen Très franchement j'préfère jeter ton disque au tri T'as juste moins de charisme qu'un discours de Martine Aubry C'est 1 pour mes potes, 2 pour ton club S-M Plus de réac' dans l'rap qu'à un congrès du FN Ton score est encore vierge, même après 10 duels Mec on a plus de jus que toi d'amis virtuels T'as p'têt Twitter mais toujours pas de bons textes T'existe pas, même remis dans ton contexte Nous on s'branle d'afficher nos tronches sur une revue Trop d'connards confondent encore talent et nombre de vues Yo, tu connais l'équipe Oster Lapwass Zéro P Ethor Skull a le flow incendiaire, contre l'eau et le feu J'ai l'pouvoir des maîtres de l'air Comme l'Everest, trop élevé A la fois lourd et léger Venu de nulle part comme ces fous d'bérets verts Poids plume au coeur de pierre pour clouer des becs Sache que ma rime et moi, on est un vrai couple de pervers J'adore lui rouler des pelles et lui toucher les fesses Sniffer jusque sous les aisselles Sauvage comme les Everglades ils disent tous elle est belle Vu que dès qu'je l'ouvre j'fais d'l'effet Beaucoup se chient d'ssus J'en ai fais couler des bielles Et les ploucs et les prêtres direct, cours chez les deps J'rends leur vie éphémère Y a comme un goût d'guerre éclair Et sans limite, t'es excédé ? Va te faire foutre chez les grecs Je r'muerais ciel et terre, tu tuerais père et mère Pour connaître ma rime et tous ses secrets Doux et XXX Zéro P. des cancres coupeurs de tête Tous XXX Spécial pour Ilenazz et Na.K mes doux frères de lettre J'suis celui qui détecte les mecs alertés Du genre rêve qu'la sieste se jette à leurs pieds Car c'est de l'art, excès d'zèle, être zen J'ai le style F-L-E-M-A-R-D Pas tellement bon élément En quête de litote de 10 tonnes En tête à tête avec une tête de linotte Dans la détente dès que je dégaine Dès que ma beuh en 2-2 j'nique, ça se déclenche Ralenti, conséquences que-man Keum comment on s'détend quand on manque de temps Lentement j'te mens pas Quoi, c'est qu'en s'tenant droit Moi j'me fatigue quand toi tu penses que nan Ralenti, conséquences que-man Keum comment on s'détend quand on manque de temps Lentement j'te mens pas Quoi, c'est qu'en s'tenant droit Moi j'me fatigue quand toi tu penses que nan Comment ne pas vous communiquer quel est mon état, ma douleur Est comme une épée qui me nique et qui me transperce le coeur Y avait trop d'orgueil dans les r'gards des types Trop d'égotrip, trop de critiques à mon égard Je les décortique, et m'égare On me r'garde, de garder le cap Dégrader le rap des gredins, tu captes? J'suis pas sûr que les gos trempent Et que les mecs des égouts trippent J'sais p'têt pas rapper ou très peu Mais j't'raterai pas si j't'étripe Et j't'réponds qu'tu t'trompes, on trippe On trempe nos plumes dans nos tripes Not' rap est trop craps Attrape ça, ça frappe sec C'est pour mes rabzas, rap anti as'decs' Ecoute-ça, goûte-ça, pas d'doutes ça t'shoote sec C'est comme cette mélodie qui t'accompagne dans l'fiou Comme c'est mauvais d'aborder un combat dans l'doute Dis-moi combien s'disent conscients mais sont tarés, fous C'est tout en restant calme, on a pas grandi dans l'hood Dar a fait ses classes entre Sète et Strasbourg Mélange du froid sibérien et d'la chaleur d'un four Et me dis pas qu'tu connais rien quand tu parles d'amour Même des fois ta colère a fait tonner la foudre Quand la tristesse te fait sourire sec comme un polak Qu'après l'échec scolaire, le savoir n'est qu'un gros sac Génération sunshine, disco-tecto-nikoumouk Ont grandi dans des endroits de fous J'vais pas te refaire l'apologie d'la poudre J'ai vu trop d'frères à l'agonie, de soeurs à recoudre La théorie du complot nous a prise pour des ploucs On vit pas éternellement, on finira dans un trou Le sommeil qui part en sucette Entre l'ennui et les plans, combien de nuits blanches se succèdent Et si les 7 vérités sautent aux yeux Guette les cernes sous les miens et ceux de mes soss', vieux ! On croit rester jeune Mais que penser quand tu déjeunes avec un stick On agit comme des junk's Nan, suffit d'avouer Que si je vis c'est A un état de santé critique que je suis voué XXX H24 A la vie contrarié alors l'instru on vient l' XXX Avec mes shrabs Dardar et Rachid La nuit tard ça dort pas et toujours été comme ça Sérieux les gars, faut remédier à ces brèches Plus attendre Chasse Pêche pour taper XXX Hé, envoyez, les gars Peut-être qu'un jour on s'ra connu, on sera riche à Genêve Ou j'aurais honte toute ma vie comme la future fille d'Marjolaine Si t'es moche il t'restera toujours les filles tah le bled J'me fais rire, j'ai besoin d'personne et Bigard j'le baise Je squatte comme un minable le web Si mon rival veut perdre la vie, ben qu'il y aille, j'le laisse Bizarre j'veux plaire à des gens que je déteste Là je sens que je vais mettre mon habit noir de guerre Ton attirail de ped et tes cigares ne t'aident pas Moi j'écris et j'raconte même des histoires de gays Au fait tu veux un scoop, on baise la flicaille, le maire On réfléchit pas c'est comme le choix entre Chirac - Le Pen Je bois plus, pour moi Rhum ça veut dire les tziganes de l'Est Bref, ça freestyle avec les shrabs de Sète C'est le fric pas le sexe, mon problème Ne me pique pas le thème ou j'vais t'faire sortir ma p'tite flaque de gerbe1</t>
+          <t>Wesh, quoi dneuf à Marseille ? Disons que cest la même à Sète, Lyon ou Sarcelles Le rap, paraît quça nous sert à sremplir un compte Sacem Du tout jarrange une crevaison, javance et vite, ça freine Depuis jévite ça frère, des fois je m'tape des scènes Ici pour fuir la routine la jeunesse tape des seize Les filles font peu dménage, vu quelles nettoient, MSN SMS, sans boulot, même des arabes deviennent CRS Entre crise et antistress, le monde est un hôpital On sfait discret évidemment, on nse fie pas de leau qui parle Qui ronfle, des fois j'm'endors, trouve du repos près des enceintes Allô Kacem ? Putain même au tél' y'a des Larsen Toujours open à chaque scène, donne un micro et jsaurai quoi faire On mcherche des poux autant qula merde, jaurais dû finir coiffeur Couper des têtes à laveuglette, non personne mérite la mort Cest froid, je l'sais très bien qujattendrai pas Catherine Laborde Cest chaud, cest normal, nos darons portaient des grosses caisses Ils nont pas eu ltemps dchialer ou dpleurer sur les Myspace Deux caisses claires, sans boucle, attends lbuzz pour quça roule Le rap français nest plus hard mettez Oster ou Aznavour Savoure, ouais, jviens faire causer les muets Javoue, jparle pas trop vite avant décrire le résumé En bref les Grandes Gueules, dédié à R.E.D.K Demi Portion loriginal, évitez la version béta On raconte que mes punchlines feraient l'amour aux tiennes En même temps t'es voué à l'échec comme un transfert de Rothen Très franchement j'préfère jeter ton disque au tri T'as juste moins de charisme qu'un discours de Martine Aubry C'est 1 pour mes potes, 2 pour ton club S-M Plus de réac' dans l'rap qu'à un congrès du FN Ton score est encore vierge, même après 10 duels Mec on a plus de jus que toi d'amis virtuels T'as p'têt Twitter mais toujours pas de bons textes T'existe pas, même remis dans ton contexte Nous on s'branle d'afficher nos tronches sur une revue Trop d'connards confondent encore talent et nombre de vues Yo, tu connais l'équipe Oster Lapwass Zéro P Ethor Skull a le flow incendiaire, contre l'eau et le feu J'ai l'pouvoir des maîtres de l'air Comme l'Everest, trop élevé A la fois lourd et léger Venu de nulle part comme ces fous d'bérets verts Poids plume au coeur de pierre pour clouer des becs Sache que ma rime et moi, on est un vrai couple de pervers J'adore lui rouler des pelles et lui toucher les fesses Sniffer jusque sous les aisselles Sauvage comme les Everglades ils disent tous elle est belle Vu que dès qu'je l'ouvre j'fais d'l'effet Beaucoup se chient d'ssus J'en ai fais couler des bielles Et les ploucs et les prêtres direct, cours chez les deps J'rends leur vie éphémère Y a comme un goût d'guerre éclair Et sans limite, t'es excédé ? Va te faire foutre chez les grecs Je r'muerais ciel et terre, tu tuerais père et mère Pour connaître ma rime et tous ses secrets Doux et XXX Zéro P. des cancres coupeurs de tête Tous XXX Spécial pour Ilenazz et Na.K mes doux frères de lettre J'suis celui qui détecte les mecs alertés Du genre rêve qu'la sieste se jette à leurs pieds Car c'est de l'art, excès d'zèle, être zen J'ai le style F-L-E-M-A-R-D Pas tellement bon élément En quête de litote de 10 tonnes En tête à tête avec une tête de linotte Dans la détente dès que je dégaine Dès que ma beuh en 2-2 j'nique, ça se déclenche Ralenti, conséquences que-man Keum comment on s'détend quand on manque de temps Lentement j'te mens pas Quoi, c'est qu'en s'tenant droit Moi j'me fatigue quand toi tu penses que nan Ralenti, conséquences que-man Keum comment on s'détend quand on manque de temps Lentement j'te mens pas Quoi, c'est qu'en s'tenant droit Moi j'me fatigue quand toi tu penses que nan Comment ne pas vous communiquer quel est mon état, ma douleur Est comme une épée qui me nique et qui me transperce le coeur Y avait trop d'orgueil dans les r'gards des types Trop d'égotrip, trop de critiques à mon égard Je les décortique, et m'égare On me r'garde, de garder le cap Dégrader le rap des gredins, tu captes? J'suis pas sûr que les gos trempent Et que les mecs des égouts trippent J'sais p'têt pas rapper ou très peu Mais j't'raterai pas si j't'étripe Et j't'réponds qu'tu t'trompes, on trippe On trempe nos plumes dans nos tripes Not' rap est trop craps Attrape ça, ça frappe sec C'est pour mes rabzas, rap anti as'decs' Ecoute-ça, goûte-ça, pas d'doutes ça t'shoote sec C'est comme cette mélodie qui t'accompagne dans l'fiou Comme c'est mauvais d'aborder un combat dans l'doute Dis-moi combien s'disent conscients mais sont tarés, fous C'est tout en restant calme, on a pas grandi dans l'hood Dar a fait ses classes entre Sète et Strasbourg Mélange du froid sibérien et d'la chaleur d'un four Et me dis pas qu'tu connais rien quand tu parles d'amour Même des fois ta colère a fait tonner la foudre Quand la tristesse te fait sourire sec comme un polak Qu'après l'échec scolaire, le savoir n'est qu'un gros sac Génération sunshine, disco-tecto-nikoumouk Ont grandi dans des endroits de fous J'vais pas te refaire l'apologie d'la poudre J'ai vu trop d'frères à l'agonie, de soeurs à recoudre La théorie du complot nous a prise pour des ploucs On vit pas éternellement, on finira dans un trou Le sommeil qui part en sucette Entre l'ennui et les plans, combien de nuits blanches se succèdent Et si les 7 vérités sautent aux yeux Guette les cernes sous les miens et ceux de mes soss', vieux ! On croit rester jeune Mais que penser quand tu déjeunes avec un stick On agit comme des junk's Nan, suffit d'avouer Que si je vis c'est A un état de santé critique que je suis voué XXX H24 A la vie contrarié alors l'instru on vient l' XXX Avec mes shrabs Dardar et Rachid La nuit tard ça dort pas et toujours été comme ça Sérieux les gars, faut remédier à ces brèches Plus attendre Chasse Pêche pour taper XXX Hé, envoyez, les gars Peut-être qu'un jour on s'ra connu, on sera riche à Genêve Ou j'aurais honte toute ma vie comme la future fille d'Marjolaine Si t'es moche il t'restera toujours les filles tah le bled J'me fais rire, j'ai besoin d'personne et Bigard j'le baise Je squatte comme un minable le web Si mon rival veut perdre la vie, ben qu'il y aille, j'le laisse Bizarre j'veux plaire à des gens que je déteste Là je sens que je vais mettre mon habit noir de guerre Ton attirail de ped et tes cigares ne t'aident pas Moi j'écris et j'raconte même des histoires de gays Au fait tu veux un scoop, on baise la flicaille, le maire On réfléchit pas c'est comme le choix entre Chirac - Le Pen Je bois plus, pour moi Rhum ça veut dire les tziganes de l'Est Bref, ça freestyle avec les shrabs de Sète C'est le fric pas le sexe, mon problème Ne me pique pas le thème ou j'vais t'faire sortir ma p'tite flaque de gerbe1</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Jarrive en balles pour un nouvel album, hip-hop Où il sera la mascotte, on remonte le score dune forme olympique Allez renvoie le son, je suis dhumeur électrique Elle, elle à mon équipe, elle veut porter le glock On se connait, on est là depuis lépoque Fort est le titre, on se motive, on dit que le son ma rendu émotif Jai le même motif depuis la vie scolaire On a plus le temps, non pour nos vieilles colères Je ne comprends plus ce que le monde tolère Fais une faute grave on te monte en lair On veut tourner la page, mais il y a pas de sommaire La cage descalier fait le bon commerce Eh poussez-vous de là javais déposé mon deal Laisse tourner le son, oui cest mon domaine Non les braves gens n'aiment pas que, l'on suive une autre route queux Non les braves gens n'aiment pas que, l'on suive une autre route queux Non les braves gens n'aiment pas que, l'on suive une autre route queux Non les braves gens n'aiment pas que, quon prenne enfin la route à deux Un jour viendra, où le soleil se lèvera Rien que pour moi, et ce jour-là, je dirai oui You might also like Jarrive en balle pour un nouveau bail Hip-hop non-stop je gravis les montagnes Je dévoile ma toile comme une uvre dart Demi débite, quoi, quoi, ouvrez les portails On est full contact, on a tout dans le texte Spa, spa sous le pas, tas du tyrolex Jamais dans lintendance dans la bande directe Je reste aussi scred et jai ma connexion Bougez-vous de là, jarrive déposer mon bilan Je veux quon traverse tous les continents Le monde est à nous, mais quest-ce quon attend Plus me contenter de tout ce quon na pas Je veux quon traverse tous les continents Le monde est à nous, mais quest-ce quon attend Plus me contenter de tout ce quon na pas Un jour, un jour viendra Non les braves gens n'aiment pas que, l'on suive une autre route queux Non les braves gens n'aiment pas que, l'on suive une autre route queux Non les braves gens n'aiment pas que, l'on suive une autre route queux Non les braves gens n'aiment pas que, quon prenne enfin la route à deux Un jour viendra, où le soleil se lèvera Rien que pour moi, et ce jour-là, je dirai oui Je crois que ça s'entends dans mes chansons, je ne suis pas désespéré cest quune mise, misanthrope, misogyne, désespéré de tout ça, sont des pessimistes, sont, sont des comiques, moi je suis pas désespéré, je fais semblant Je dirais oui De protester complètement le monde, et de dire quil ny a pas despoirs mais je pense quil y en a un petit quand même, je crois quon a eu une chance de sen sortir, mais pas pour tout de suite Un jour 7 sur Sète 7 sur Sète 7 sur Sète 7 sur Sète 7 sur Sète 7 sur Sète 7 sur Sète Un jour2</t>
+          <t>Jarrive en balles pour un nouvel album, hip-hop Où il sera la mascotte, on remonte le score dune forme olympique Allez renvoie le son, je suis dhumeur électrique Elle, elle à mon équipe, elle veut porter le glock On se connait, on est là depuis lépoque Fort est le titre, on se motive, on dit que le son ma rendu émotif Jai le même motif depuis la vie scolaire On a plus le temps, non pour nos vieilles colères Je ne comprends plus ce que le monde tolère Fais une faute grave on te monte en lair On veut tourner la page, mais il y a pas de sommaire La cage descalier fait le bon commerce Eh poussez-vous de là javais déposé mon deal Laisse tourner le son, oui cest mon domaine Non les braves gens n'aiment pas que, l'on suive une autre route queux Non les braves gens n'aiment pas que, l'on suive une autre route queux Non les braves gens n'aiment pas que, l'on suive une autre route queux Non les braves gens n'aiment pas que, quon prenne enfin la route à deux Un jour viendra, où le soleil se lèvera Rien que pour moi, et ce jour-là, je dirai oui Jarrive en balle pour un nouveau bail Hip-hop non-stop je gravis les montagnes Je dévoile ma toile comme une uvre dart Demi débite, quoi, quoi, ouvrez les portails On est full contact, on a tout dans le texte Spa, spa sous le pas, tas du tyrolex Jamais dans lintendance dans la bande directe Je reste aussi scred et jai ma connexion Bougez-vous de là, jarrive déposer mon bilan Je veux quon traverse tous les continents Le monde est à nous, mais quest-ce quon attend Plus me contenter de tout ce quon na pas Je veux quon traverse tous les continents Le monde est à nous, mais quest-ce quon attend Plus me contenter de tout ce quon na pas Un jour, un jour viendra Non les braves gens n'aiment pas que, l'on suive une autre route queux Non les braves gens n'aiment pas que, l'on suive une autre route queux Non les braves gens n'aiment pas que, l'on suive une autre route queux Non les braves gens n'aiment pas que, quon prenne enfin la route à deux Un jour viendra, où le soleil se lèvera Rien que pour moi, et ce jour-là, je dirai oui Je crois que ça s'entends dans mes chansons, je ne suis pas désespéré cest quune mise, misanthrope, misogyne, désespéré de tout ça, sont des pessimistes, sont, sont des comiques, moi je suis pas désespéré, je fais semblant Je dirais oui De protester complètement le monde, et de dire quil ny a pas despoirs mais je pense quil y en a un petit quand même, je crois quon a eu une chance de sen sortir, mais pas pour tout de suite Un jour 7 sur Sète 7 sur Sète 7 sur Sète 7 sur Sète 7 sur Sète 7 sur Sète 7 sur Sète Un jour2</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cest pas du vandalisme cest de ladrénaline Qui transforme une uvre dart dans les Metro de paris Ya encore une odeur de bombe sous les graffitis À ceux chargent les peintures même si le sac est petit Cest à lheure que tout le monde dort quon sort tard Sonne le gong camouflé comme un soldat Caméra posté envoi un coup Poska En bref petit café et ça repart de bon sbah On a cogné des caisses claires de Sète à Bez-bar La tenue Wrung est nickel et on démarre le Vespa On se rabaisse pas admire le spectacle À tous ceux qui pose leurs tag et quon retrouve dans chaque gare Ouais ouais, on arrive a survoler chaque map Et en bonus on te fais la façade Représente le squad, le crew est dans le square On nique tous ces dirigeant, y a pas de mystère On est dans le spot les gueules, balance un blockletter À tous les bons guetteurs qui défendent lunivers À tous les homeboy, cest signer hardcore Ceux qui tapent des trains et défoncent tous les stores À tous les homeboy, cest signer hardcore Ceux qui tapent des trains et défoncent tous les stores You might also like Cest pas du vandalisme, c'est de l'adrénaline Et si tu vois pas le blaze faut tapprenne à lire Je monte sur les toits de la ville, me cale sur quelques tuiles À tous les graffeurs de France qui mélanges les styles On reste dans lesprit, en pleine élévation Tsais quon sinvestit on peint avec passion Fresque ou Fatcap tous en première classe On a plusieurs cap's chargé dans le Eastpak Masqué comme des chimiste et une vue panoramique Et tu sais quon laisse une trace même si la police rapplique À tous mes homeboy cest signé hardcore Ceux qui tapent des trains et déposent tous leurs flop Le mur un espace, tant qule message passe À tous nos anciens, donc logique à Miss Van Fait pas de gaffe, attention si tu repasses ! Sur la voie ferré on te laissera une dédicace À tous les homeboy, cest signer hardcore Ceux qui tapent des trains et défoncent tous les stores À tous les homeboy, cest signer hardcore Ceux qui tapent des trains et défoncent tous les stores</t>
+          <t>Cest pas du vandalisme cest de ladrénaline Qui transforme une uvre dart dans les Metro de paris Ya encore une odeur de bombe sous les graffitis À ceux chargent les peintures même si le sac est petit Cest à lheure que tout le monde dort quon sort tard Sonne le gong camouflé comme un soldat Caméra posté envoi un coup Poska En bref petit café et ça repart de bon sbah On a cogné des caisses claires de Sète à Bez-bar La tenue Wrung est nickel et on démarre le Vespa On se rabaisse pas admire le spectacle À tous ceux qui pose leurs tag et quon retrouve dans chaque gare Ouais ouais, on arrive a survoler chaque map Et en bonus on te fais la façade Représente le squad, le crew est dans le square On nique tous ces dirigeant, y a pas de mystère On est dans le spot les gueules, balance un blockletter À tous les bons guetteurs qui défendent lunivers À tous les homeboy, cest signer hardcore Ceux qui tapent des trains et défoncent tous les stores À tous les homeboy, cest signer hardcore Ceux qui tapent des trains et défoncent tous les stores Cest pas du vandalisme, c'est de l'adrénaline Et si tu vois pas le blaze faut tapprenne à lire Je monte sur les toits de la ville, me cale sur quelques tuiles À tous les graffeurs de France qui mélanges les styles On reste dans lesprit, en pleine élévation Tsais quon sinvestit on peint avec passion Fresque ou Fatcap tous en première classe On a plusieurs cap's chargé dans le Eastpak Masqué comme des chimiste et une vue panoramique Et tu sais quon laisse une trace même si la police rapplique À tous mes homeboy cest signé hardcore Ceux qui tapent des trains et déposent tous leurs flop Le mur un espace, tant qule message passe À tous nos anciens, donc logique à Miss Van Fait pas de gaffe, attention si tu repasses ! Sur la voie ferré on te laissera une dédicace À tous les homeboy, cest signer hardcore Ceux qui tapent des trains et défoncent tous les stores À tous les homeboy, cest signer hardcore Ceux qui tapent des trains et défoncent tous les stores</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Comment oublier les potes ? Les premières soirées ? Hein, c'est ça, Rachid, remets tes Stansmith x2 Envoyez-moi l'instrumentale Le style oui à l'ancienne De chez moi vie de freestyle J'rappe comme à l'ancienne Ça change pas, t'as capté le son à l'ancienne Ça, c'est pour tout mes gaillards à chaque scène Là, j'accélère envoyez-moi la skunk Chut, l'équipe maîtrise le pas d'funk Un bic un tas d'feuille, un thème et c'est parti De chez moi ça fait longtemps qu'on est pas sorti Tu l'as ressenti enfermé d'puis l'album Qui ne se plante jamais n'a pas connu l'alcool Remets les Clarks, pattes d'ef, j'aurai le même texte On a la technique comme Lilou au breakdance On a des valises de mots, des valeurs ma gueule Chope ça, mon cousin c'est le Rachid The Gang On est resté à l'ancienne, à l'ancienne, à l'ancienne On est resté funky, on est resté funky You might also like x2 Envoyez-moi l'instrumentale Le style oui à l'ancienne De chez moi vie de freestyle J'rappe comme à l'ancienne Remets le poste cassette comme à l'ancienne Libérez-nous tous les musiciens La vibe tabasse la vie d'ma mère, vue sur la mer et quand j'm'emmerde allumer le mic ta race Sorti de Sète, t'as vu le site c'est beau l'sud A l'ancienne ici la chaleur sort du studio Fuck le buzz depuis gamin on se donne sûr, en indé On les a fracturer sans radio De chez moi sans masque ni de costume On donne ça mouiller, le maillot à chaque scène On a des valises de mots, des valeurs ma gueule Chope ça, mon cousin c'est le Rachid The Gang Où sont les postes cassettes ? Nab à la prod On est resté funky, on est resté funky x2 Envoyez-moi l'instrumentale Le style oui à l'ancienne De chez moi vie de freestyle J'rappe comme à l'ancienne</t>
+          <t>Comment oublier les potes ? Les premières soirées ? Hein, c'est ça, Rachid, remets tes Stansmith x2 Envoyez-moi l'instrumentale Le style oui à l'ancienne De chez moi vie de freestyle J'rappe comme à l'ancienne Ça change pas, t'as capté le son à l'ancienne Ça, c'est pour tout mes gaillards à chaque scène Là, j'accélère envoyez-moi la skunk Chut, l'équipe maîtrise le pas d'funk Un bic un tas d'feuille, un thème et c'est parti De chez moi ça fait longtemps qu'on est pas sorti Tu l'as ressenti enfermé d'puis l'album Qui ne se plante jamais n'a pas connu l'alcool Remets les Clarks, pattes d'ef, j'aurai le même texte On a la technique comme Lilou au breakdance On a des valises de mots, des valeurs ma gueule Chope ça, mon cousin c'est le Rachid The Gang On est resté à l'ancienne, à l'ancienne, à l'ancienne On est resté funky, on est resté funky x2 Envoyez-moi l'instrumentale Le style oui à l'ancienne De chez moi vie de freestyle J'rappe comme à l'ancienne Remets le poste cassette comme à l'ancienne Libérez-nous tous les musiciens La vibe tabasse la vie d'ma mère, vue sur la mer et quand j'm'emmerde allumer le mic ta race Sorti de Sète, t'as vu le site c'est beau l'sud A l'ancienne ici la chaleur sort du studio Fuck le buzz depuis gamin on se donne sûr, en indé On les a fracturer sans radio De chez moi sans masque ni de costume On donne ça mouiller, le maillot à chaque scène On a des valises de mots, des valeurs ma gueule Chope ça, mon cousin c'est le Rachid The Gang Où sont les postes cassettes ? Nab à la prod On est resté funky, on est resté funky x2 Envoyez-moi l'instrumentale Le style oui à l'ancienne De chez moi vie de freestyle J'rappe comme à l'ancienne</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Demi P À l'aide, à l'aide, à l'aide J'entends le monde sonner l'alerte Allez, allez, allez Chante la vie et nos galères À l'aide, à l'aide, à l'aide J'entends le monde sonner l'alerte Allez, allez, allez Chante la vie et nos galères Je m'appelle comme toi mais on est différents Ce soir il fait froid mais j'ai plus d'élan Non, j'ai même plus d'force et ni de chez moi J'connais que merci, j'emploie deux syllabes Non, personne ne me voit quand je fais la manche Pourquoi je tombe cash quand je prends la marche Oui, je crie à l'aide, mais de l'intérieur Je ne vis que la nuit, je n'ai même plus d'heure La rue est cupide et n'a aucune douleur Ça pue l'embrouille et le coup d'cutter Du mal à dormir, je n'ai même plus d'rêves Quand mes larmes coulent jusqu'au bout des lèvres Je ne regrette pas d'être un bon élève Qui m'aime me suive ou bien me délaisse Je ne regrette pas d'être un bon élève Qui m'aime me suive ou bien me délaisse You might also like Où sont les hommes? Où sont les femmes? Qui est l'exemple? Hey Où sont les autres? Où sont les arbres? Où est le temple? Hey D'où vient la mort? Tu connais la vie Mais pas la suite Hey On reste forts On reste fiers Il faut le dire Hey À l'aide, à l'aide, à l'aide J'entends le monde sonner l'alerte Allez, allez, allez Chante la vie et nos galères À l'aide, à l'aide, à l'aide J'entends le monde sonner l'alerte Allez, allez, allez Chante la vie et nos galères Pas d'jugement Tuez-moi tout d'suite, frérots, si je mens Je reste un petit homme sous vos monuments Une feuille morte cachée à l'abri du vent Allez, place au son, que ma voix résonne que ma voix résonne, que ma voix résonne Allez, place au son, que ma voix résonne que ma voix résonne, que ma voix résonne T'as vu les bombes Tu vois les balles J'en ai ras-le-bol Hey Où sont les riches? Tu vois les pauvres Ça devient grave Hey T'as vu l'époque Où va le monde J'ai peur d'mes mômes Hey Allez, les hommes À l'aide aux femmes On reste ensemble Hey D'où vient la mort Tu connais la vie Mais pas la suite Hey On reste forts On reste fiers Il faut le dire Hey À l'aide, à l'aide, à l'aide J'entends le monde sonner l'alerte Allez, allez, allez Chante la vie et nos galères À l'aide, à l'aide, à l'aide J'entends le monde sonner l'alerte Allez, allez, allez Chante la vie et nos galères</t>
+          <t>Demi P À l'aide, à l'aide, à l'aide J'entends le monde sonner l'alerte Allez, allez, allez Chante la vie et nos galères À l'aide, à l'aide, à l'aide J'entends le monde sonner l'alerte Allez, allez, allez Chante la vie et nos galères Je m'appelle comme toi mais on est différents Ce soir il fait froid mais j'ai plus d'élan Non, j'ai même plus d'force et ni de chez moi J'connais que merci, j'emploie deux syllabes Non, personne ne me voit quand je fais la manche Pourquoi je tombe cash quand je prends la marche Oui, je crie à l'aide, mais de l'intérieur Je ne vis que la nuit, je n'ai même plus d'heure La rue est cupide et n'a aucune douleur Ça pue l'embrouille et le coup d'cutter Du mal à dormir, je n'ai même plus d'rêves Quand mes larmes coulent jusqu'au bout des lèvres Je ne regrette pas d'être un bon élève Qui m'aime me suive ou bien me délaisse Je ne regrette pas d'être un bon élève Qui m'aime me suive ou bien me délaisse Où sont les hommes? Où sont les femmes? Qui est l'exemple? Hey Où sont les autres? Où sont les arbres? Où est le temple? Hey D'où vient la mort? Tu connais la vie Mais pas la suite Hey On reste forts On reste fiers Il faut le dire Hey À l'aide, à l'aide, à l'aide J'entends le monde sonner l'alerte Allez, allez, allez Chante la vie et nos galères À l'aide, à l'aide, à l'aide J'entends le monde sonner l'alerte Allez, allez, allez Chante la vie et nos galères Pas d'jugement Tuez-moi tout d'suite, frérots, si je mens Je reste un petit homme sous vos monuments Une feuille morte cachée à l'abri du vent Allez, place au son, que ma voix résonne que ma voix résonne, que ma voix résonne Allez, place au son, que ma voix résonne que ma voix résonne, que ma voix résonne T'as vu les bombes Tu vois les balles J'en ai ras-le-bol Hey Où sont les riches? Tu vois les pauvres Ça devient grave Hey T'as vu l'époque Où va le monde J'ai peur d'mes mômes Hey Allez, les hommes À l'aide aux femmes On reste ensemble Hey D'où vient la mort Tu connais la vie Mais pas la suite Hey On reste forts On reste fiers Il faut le dire Hey À l'aide, à l'aide, à l'aide J'entends le monde sonner l'alerte Allez, allez, allez Chante la vie et nos galères À l'aide, à l'aide, à l'aide J'entends le monde sonner l'alerte Allez, allez, allez Chante la vie et nos galères</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Papa, ce soir, s'il te plaît ne me frappe pas J'ai des bleus et de partout, tiens voilà mon bras Maman, s'il te plaît, à ce moment écoute-moi Me virer de la maison m'a vidé l'estomac Donc j'en pleure et j'ai peur, s'il vous plaît, réchauffez-moi Mon cur est en sueur et ne peut ressentir le froid Arrête, arrête, arrête J'ai du mal à m'en remettre Arrête, arrête, arrête J'ai du mal à m'en remettre Toi, t'es pas un homme, t'as jamais connu l'amour Ce soir, tu m'as laissée comme une traînée devant la tour Encore une fois, t'as fait le sourd Fière et tu en joues J'te voulais juste à côté, c'qui n'm'intéresse ce n'est pas les sous Tu m'as blessée, triste, toute ta haine suit ma mort Tu ne vois rien de l'intérieur car tu passes ta vie dehors Arrête, arrête, arrête J'ai du mal à m'en remettre Arrête, arrête, arrête J'ai du mal à m'en remettre You might also like Je suis faible, fort, juste un p'tit peu malade Je suis un homme oui, qui n'a rien de formidable Je suis un ange, triste, qui a trop peur des gens La vie est une sale actrice qui a son rôle de la méchante Je rêve, je rêve, je rêve Mais je n'veux pas me réveiller Arrête, arrête, arrête J'ai du mal à m'en remettre Arrête, arrête, arrête J'ai du mal à m'en remettre</t>
+          <t>Papa, ce soir, s'il te plaît ne me frappe pas J'ai des bleus et de partout, tiens voilà mon bras Maman, s'il te plaît, à ce moment écoute-moi Me virer de la maison m'a vidé l'estomac Donc j'en pleure et j'ai peur, s'il vous plaît, réchauffez-moi Mon cur est en sueur et ne peut ressentir le froid Arrête, arrête, arrête J'ai du mal à m'en remettre Arrête, arrête, arrête J'ai du mal à m'en remettre Toi, t'es pas un homme, t'as jamais connu l'amour Ce soir, tu m'as laissée comme une traînée devant la tour Encore une fois, t'as fait le sourd Fière et tu en joues J'te voulais juste à côté, c'qui n'm'intéresse ce n'est pas les sous Tu m'as blessée, triste, toute ta haine suit ma mort Tu ne vois rien de l'intérieur car tu passes ta vie dehors Arrête, arrête, arrête J'ai du mal à m'en remettre Arrête, arrête, arrête J'ai du mal à m'en remettre Je suis faible, fort, juste un p'tit peu malade Je suis un homme oui, qui n'a rien de formidable Je suis un ange, triste, qui a trop peur des gens La vie est une sale actrice qui a son rôle de la méchante Je rêve, je rêve, je rêve Mais je n'veux pas me réveiller Arrête, arrête, arrête J'ai du mal à m'en remettre Arrête, arrête, arrête J'ai du mal à m'en remettre</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Arrêtez d'nous dire que c'est pas la même Viens respirer un peu J'aurai pleins d'choses à t' montrer J'aurai des feuilles, un stylo, un cendrier sur l'côté Rapper, je fais que ça, j'ai pas d'contrat qui m'pousse L'inspiration vient seule, c'n'est pas la maille qui m'boost Tous les soucis XXX ce n'est pas à dix heures qu'on s'couche On aime pas crier mais écrire, c'qui a fait d'nous des grandes bouches Le flow, on le réchauffe comme un joueur sur la touche Paraît que quand t'es islamique, t'as l'envie d'enterrer Bush Ta gueule ! Tu parles beaucoup et t'es peu sur le terrain Je vais loin, mes rimes sont dopées à la Richard XXX, c'est tout Me demande pas si j'ai grandi dans le rap On est shooté à la musique comme un toxico sur le crack Et si y'a un beat, on le braque Demande à Soul Children A XXX ou à ce petit producteur A tous les nouveaux rimeurs, qui se prennent pas trop la tête Vu qu'notre sport est l'son et on s'doit d'devenir athlète Car écrire est facile mais le vivre est plus dur On a toujours une sale plaie, on nous a oublié la couture, la coupure Mais malgré cela, on sait crié les perdus Et j'viens enchaîné les phrases sans y laissé une virgule Vu qu'j'ai pas l'temps d'en mettre une Et vous retentez le une-deux Ne m'endors pas pour du rap et XXX pour Dieu Car vivre XXX Plus j'en apprends, et ça varie L'actualité, j'y crois même pas à cette Lorence Ferrari On se sera fier aux farines Et l'essentiel passe à travers On a tous tenu un beau blé, on s'est laissé servir un verre C'est finit, y'a rien de fun, on l'a déjà dit sur vinyle Y'a trop d'surprises, trop d'merdes, comme le jouet du Happy Meal Y'a plus grand chose qui m'anime, à part la famille et la foi On est tous heureux quand ça va sans écouter du Balavoine On veut tous mettre les voiles, quand ça va plus à l'intérieur On veut tous attaquer seul sans faire appel à l'entraîneur You might also like Arrêtez d'nous dire qu'ici bas, ce n'est pas la même Ça fait dix ans qu'on nous configure les mêmes paramètres Rapper c'est sûr qu'à fera pas d'nous des survivors Passe l'info, qu'on ne croit même pas à Monsieur d'Arvor Arrêtez d'nous dire qu'ici bas, ce n'est pas la même Ça fait dix ans qu'on nous configure les mêmes paramètres Rapper c'est sûr qu'à fera pas d'nous des survivors Passe l'info, qu'on ne croit même pas à Monsieur d'Arvor Arrêtez d'nous dire qu'ici bas, ce n'est pas la même Ça fait dix ans qu'on nous configure les mêmes paramètres Rapper c'est sûr qu'à fera pas d'moi un survivor Passe l'info, qu'j'm'en de Monsieur d'Arvor Sprinter, Demi Portion Ouais Seth Les, les Grandes Gueules Sprinter à la prod Pour tous les quartiers d'France Ouais 2009</t>
+          <t>Arrêtez d'nous dire que c'est pas la même Viens respirer un peu J'aurai pleins d'choses à t' montrer J'aurai des feuilles, un stylo, un cendrier sur l'côté Rapper, je fais que ça, j'ai pas d'contrat qui m'pousse L'inspiration vient seule, c'n'est pas la maille qui m'boost Tous les soucis XXX ce n'est pas à dix heures qu'on s'couche On aime pas crier mais écrire, c'qui a fait d'nous des grandes bouches Le flow, on le réchauffe comme un joueur sur la touche Paraît que quand t'es islamique, t'as l'envie d'enterrer Bush Ta gueule ! Tu parles beaucoup et t'es peu sur le terrain Je vais loin, mes rimes sont dopées à la Richard XXX, c'est tout Me demande pas si j'ai grandi dans le rap On est shooté à la musique comme un toxico sur le crack Et si y'a un beat, on le braque Demande à Soul Children A XXX ou à ce petit producteur A tous les nouveaux rimeurs, qui se prennent pas trop la tête Vu qu'notre sport est l'son et on s'doit d'devenir athlète Car écrire est facile mais le vivre est plus dur On a toujours une sale plaie, on nous a oublié la couture, la coupure Mais malgré cela, on sait crié les perdus Et j'viens enchaîné les phrases sans y laissé une virgule Vu qu'j'ai pas l'temps d'en mettre une Et vous retentez le une-deux Ne m'endors pas pour du rap et XXX pour Dieu Car vivre XXX Plus j'en apprends, et ça varie L'actualité, j'y crois même pas à cette Lorence Ferrari On se sera fier aux farines Et l'essentiel passe à travers On a tous tenu un beau blé, on s'est laissé servir un verre C'est finit, y'a rien de fun, on l'a déjà dit sur vinyle Y'a trop d'surprises, trop d'merdes, comme le jouet du Happy Meal Y'a plus grand chose qui m'anime, à part la famille et la foi On est tous heureux quand ça va sans écouter du Balavoine On veut tous mettre les voiles, quand ça va plus à l'intérieur On veut tous attaquer seul sans faire appel à l'entraîneur Arrêtez d'nous dire qu'ici bas, ce n'est pas la même Ça fait dix ans qu'on nous configure les mêmes paramètres Rapper c'est sûr qu'à fera pas d'nous des survivors Passe l'info, qu'on ne croit même pas à Monsieur d'Arvor Arrêtez d'nous dire qu'ici bas, ce n'est pas la même Ça fait dix ans qu'on nous configure les mêmes paramètres Rapper c'est sûr qu'à fera pas d'nous des survivors Passe l'info, qu'on ne croit même pas à Monsieur d'Arvor Arrêtez d'nous dire qu'ici bas, ce n'est pas la même Ça fait dix ans qu'on nous configure les mêmes paramètres Rapper c'est sûr qu'à fera pas d'moi un survivor Passe l'info, qu'j'm'en de Monsieur d'Arvor Sprinter, Demi Portion Ouais Seth Les, les Grandes Gueules Sprinter à la prod Pour tous les quartiers d'France Ouais 2009</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ouais Arrière Plan, c'est quoi ? Dix artistes, hm Sète, Montpellier J'les vois tous y comprend pas tout et comment je fais Dans la vie on se fait p'tit, un peu comme en l'an Comment tu sais ? Stop ! Ne me complique pas les choses Un artisan en chantier, c'est les Histoires Petit Bonhomme L'arrière plan est d'sorti, un peu comme des chiens d'la casse A tout ceux qui marchent seuls ou ceux qu'ont connu la DDASS On est complet, c'est qu'un début, la suite arrive On veut dépasser les frontières avec une demi citadine On fait du rap car on aime ça, tu veux savoir c'qui motive ? File moi un bic et une feuille j'deviens très vite émotif Mehdiathèque t'as reconnu l'style authentique et limpide J'suis c'rappeur qui fume l'inspi', sans rouler un stick A l'heure où tout s'divise on fait du rap en famille Y'a pas de strass ni d'paillettes que des couplets qui brillent C'est bon j'm'impose sur l'beat à la force des mots Tranquille j'me pose sur la piste, atterrissage réglo You might also like Pendant qu'ils font dodo, ils pensent que I-Med dort Chut depuis l'époque Prend ma part, 25 ans j'connais bien l'dehors Entre rap, rage, galère, famille et vie en or On cherche la paix et ils nous prennent comme appât J'oublierais pas ceux qui m'ont aidé quand j'étais à patte sans appart m'embarque pas, en évitant la perte Donc vu qu'on parle pas, ils ont trop humiliés nos pères C'est nous contre eux, plus de un contre un Au contraire on s'adapte selon ta manière de faire Ne contrarie pas la daronne qui a trop souffert On pourrait mal le prendre à l'usure on a du s'y faire Si ça doit se faire, et ben on va tout reperdre Parce qu'à la base on voulait la paix mon frère Revenir en arrière n'est pas dans nos projets C'qui est fait est fait inutile de nous interroger L'argent parle, ma rime en parle, les partisans d'ma rime en bavent cousin Ça vient d'Montpell, ha, nique toute ta team en clash Au fait moi c'est Monotof pour ceux qui m'connaissent pas Y'a le avec mes collègues j'taff J'place un 8 pour mon 3.4 en furie La rage en featuring étant honnête brave man Oh mec voilà une équipe qui se glisse discrètement Et c'est que l'début de c'qu'on vise réellement C'est Rocma , ça fait des années Rap sale ou propre on s'en fou on vient pavaner De temps en temps sort la tête de l'eau pour se dépanner Y'a des valises et valises de texte à poser pour les cannés Ah oui, j'ai pas tout dit, rap anti-BUZZ On a jeté l'cartable mais c'est les profs qu'on a maudits A l'heure où j'pose ce texte des p'tits dans l'bloc font d'la maille Ne m'dit pas lequel t'la mise, vite faut qu'on s'en aille Dans s'bas monde , on s', on s'bat, on s'barre, sur une autre planète On s'évade avec s'qu'on peut, ici on ski pas, j'habite à Sète entre l'étang et l'mont Saint Clair au moins c'est clair Tu vois d'où je suis, capitale du rap conscient Là ou les MC's n'ont pas la tête vide, demande à l'ami Saïd On n'a jamais pu s'taire ou plaire à tout le monde Depuis tes premiers posters, le rap a bien changé Ma Nike sessuie, sur ton faciès fastoche Ton rap factice, nouvelle approche, accroche comme une balle qui ricoche LMS crew, on s'accroche sur le mic, c'est c'est DER-K sur lequel j'm' Et j'veux ma part du goûter, écoutez, j'dois lutter, sans douter, et ça tu le sais Tu suce mon sang, tel une sangsue J'suis fâché d'constater Salam Fréro Vas-y , tape moi la bise Parle moi de tout, mais sauf du Biz Moi, je bosse dans le hallal et j'ai arrêté la tize Même si des fois j'ai du mal à enlever la prise De ce Sheitan qui nous méprise Par ce que des fois je lâche prise Par ce que toujours dans ma tête c'est la crise Sois tu taffe, t'évite le chômage ou tu finis dans les ruines Rarement cherché à diviser les frères Au contraire, en plus toi même tu sais qu'on traîne là ou y'a v'la les contraintes Fuck toutes tes groupies, moi j'veux voir la somme Envoie un gros beat, on t'envoie la sauce Avec la faction en fait en sorte de rester zen Dans la team y'a tout, Cameroun, France, Maroc, C'est l'Arrière Plan tu sais, bientôt tu vas connaitre La vibes qu'on aime bien entendu, tous les vrais s'reconnaissent Arrière Plan, Demi-Portion Dezef, Rocma, Der-K, , M.O.N.O.T.O.F Arrière Plan, I-Med, Medhiathèque Patchooli, Rolex, Taïeb, Sprinter ... dans un film de John Wayne, c'est violent, comme un film de John Woo</t>
+          <t>Ouais Arrière Plan, c'est quoi ? Dix artistes, hm Sète, Montpellier J'les vois tous y comprend pas tout et comment je fais Dans la vie on se fait p'tit, un peu comme en l'an Comment tu sais ? Stop ! Ne me complique pas les choses Un artisan en chantier, c'est les Histoires Petit Bonhomme L'arrière plan est d'sorti, un peu comme des chiens d'la casse A tout ceux qui marchent seuls ou ceux qu'ont connu la DDASS On est complet, c'est qu'un début, la suite arrive On veut dépasser les frontières avec une demi citadine On fait du rap car on aime ça, tu veux savoir c'qui motive ? File moi un bic et une feuille j'deviens très vite émotif Mehdiathèque t'as reconnu l'style authentique et limpide J'suis c'rappeur qui fume l'inspi', sans rouler un stick A l'heure où tout s'divise on fait du rap en famille Y'a pas de strass ni d'paillettes que des couplets qui brillent C'est bon j'm'impose sur l'beat à la force des mots Tranquille j'me pose sur la piste, atterrissage réglo Pendant qu'ils font dodo, ils pensent que I-Med dort Chut depuis l'époque Prend ma part, 25 ans j'connais bien l'dehors Entre rap, rage, galère, famille et vie en or On cherche la paix et ils nous prennent comme appât J'oublierais pas ceux qui m'ont aidé quand j'étais à patte sans appart m'embarque pas, en évitant la perte Donc vu qu'on parle pas, ils ont trop humiliés nos pères C'est nous contre eux, plus de un contre un Au contraire on s'adapte selon ta manière de faire Ne contrarie pas la daronne qui a trop souffert On pourrait mal le prendre à l'usure on a du s'y faire Si ça doit se faire, et ben on va tout reperdre Parce qu'à la base on voulait la paix mon frère Revenir en arrière n'est pas dans nos projets C'qui est fait est fait inutile de nous interroger L'argent parle, ma rime en parle, les partisans d'ma rime en bavent cousin Ça vient d'Montpell, ha, nique toute ta team en clash Au fait moi c'est Monotof pour ceux qui m'connaissent pas Y'a le avec mes collègues j'taff J'place un 8 pour mon 3.4 en furie La rage en featuring étant honnête brave man Oh mec voilà une équipe qui se glisse discrètement Et c'est que l'début de c'qu'on vise réellement C'est Rocma , ça fait des années Rap sale ou propre on s'en fou on vient pavaner De temps en temps sort la tête de l'eau pour se dépanner Y'a des valises et valises de texte à poser pour les cannés Ah oui, j'ai pas tout dit, rap anti-BUZZ On a jeté l'cartable mais c'est les profs qu'on a maudits A l'heure où j'pose ce texte des p'tits dans l'bloc font d'la maille Ne m'dit pas lequel t'la mise, vite faut qu'on s'en aille Dans s'bas monde , on s', on s'bat, on s'barre, sur une autre planète On s'évade avec s'qu'on peut, ici on ski pas, j'habite à Sète entre l'étang et l'mont Saint Clair au moins c'est clair Tu vois d'où je suis, capitale du rap conscient Là ou les MC's n'ont pas la tête vide, demande à l'ami Saïd On n'a jamais pu s'taire ou plaire à tout le monde Depuis tes premiers posters, le rap a bien changé Ma Nike sessuie, sur ton faciès fastoche Ton rap factice, nouvelle approche, accroche comme une balle qui ricoche LMS crew, on s'accroche sur le mic, c'est c'est DER-K sur lequel j'm' Et j'veux ma part du goûter, écoutez, j'dois lutter, sans douter, et ça tu le sais Tu suce mon sang, tel une sangsue J'suis fâché d'constater Salam Fréro Vas-y , tape moi la bise Parle moi de tout, mais sauf du Biz Moi, je bosse dans le hallal et j'ai arrêté la tize Même si des fois j'ai du mal à enlever la prise De ce Sheitan qui nous méprise Par ce que des fois je lâche prise Par ce que toujours dans ma tête c'est la crise Sois tu taffe, t'évite le chômage ou tu finis dans les ruines Rarement cherché à diviser les frères Au contraire, en plus toi même tu sais qu'on traîne là ou y'a v'la les contraintes Fuck toutes tes groupies, moi j'veux voir la somme Envoie un gros beat, on t'envoie la sauce Avec la faction en fait en sorte de rester zen Dans la team y'a tout, Cameroun, France, Maroc, C'est l'Arrière Plan tu sais, bientôt tu vas connaitre La vibes qu'on aime bien entendu, tous les vrais s'reconnaissent Arrière Plan, Demi-Portion Dezef, Rocma, Der-K, , M.O.N.O.T.O.F Arrière Plan, I-Med, Medhiathèque Patchooli, Rolex, Taïeb, Sprinter ... dans un film de John Wayne, c'est violent, comme un film de John Woo</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>J'vais t'envoyer un p'tit coup Un p'tit cours de style Crains pas la com et la zitoun C'est cool, laisse tomber sinon on t'raccompagne T'as fait 10 tours t'es gros, laisse passer le maigre de Shanghaï Te la sens pas c'qui monte vite redescend bas, je plane Là où tout me paraît invraisemblable Bien avant que les journalistes envoient des sandales C'est fini ils n'ont plus l'envie d'aller filmer des soldats Dar, et tu peux demander aux gendarmes Si on peignait les cons en vert les commissariats seraient des parcs Bye Fabe, viens voir un peu l'rap part en fight En faillite, en fait, comme voir un crime en flag' Waw, retourne-toi si t'as mal aux yeux Et si mon rap fait trop d'bruit, achète-lui un silencieux Irresponsable, donne un Bic j'coupe ta soirée samba Sans blabla, paraît que Big était un Nan j'blague, petit et rapide comme Ong-bak Paré au coup d'stylo, manière d'y laisser une tache d'encre Qu'est-ce qui m'dépasse tant ? J'ai pris une castagne On est plusieurs à avoir pris la musique comme passe-temps Oho c'est quoi c'plan Si t'as une idée de c'qui s'trame Non c'est pas à Miami qu'tu vas apprendre mieux l'IslamYou might also like</t>
+          <t>J'vais t'envoyer un p'tit coup Un p'tit cours de style Crains pas la com et la zitoun C'est cool, laisse tomber sinon on t'raccompagne T'as fait 10 tours t'es gros, laisse passer le maigre de Shanghaï Te la sens pas c'qui monte vite redescend bas, je plane Là où tout me paraît invraisemblable Bien avant que les journalistes envoient des sandales C'est fini ils n'ont plus l'envie d'aller filmer des soldats Dar, et tu peux demander aux gendarmes Si on peignait les cons en vert les commissariats seraient des parcs Bye Fabe, viens voir un peu l'rap part en fight En faillite, en fait, comme voir un crime en flag' Waw, retourne-toi si t'as mal aux yeux Et si mon rap fait trop d'bruit, achète-lui un silencieux Irresponsable, donne un Bic j'coupe ta soirée samba Sans blabla, paraît que Big était un Nan j'blague, petit et rapide comme Ong-bak Paré au coup d'stylo, manière d'y laisser une tache d'encre Qu'est-ce qui m'dépasse tant ? J'ai pris une castagne On est plusieurs à avoir pris la musique comme passe-temps Oho c'est quoi c'plan Si t'as une idée de c'qui s'trame Non c'est pas à Miami qu'tu vas apprendre mieux l'Islam</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>x2 Au coin d'ma rue, c'est comme un arc-en-ciel y a trop d'couleurs Du coin d'ma rue, c'est comme un arc-en-ciel y a trop d'couleurs x2 Besoin de toi, tu le sais comme de partir pour écrire Comme de s'isoler une fois d'être prisonnier pour être libre Besoin de s'évader tranquille et d'se retrouver soi-même Nous faire croire que l'argent fait aussi parti d'une vie saine wow wow La musique a pris de l'ampleur on pourra pas dire le contraire Elle a tellement pris d'la hauteur mais sûrement pas de nos têtes Au fond d'nos coeurs, c'est comme un ghetto Dés qu'il sent l'approche extérieure, il se resserre comme un étau T'entends Scred Co', heeey D'mande à Fabe depuis l'époque avant qu'on touche le premier bédo La claque on la prend trop tôt très jeune avec Marie Jeanne Pas d'régime on s'fait seul, déjeune avec nos tisanes Le son tourne sur la lune Vas-y prête moi ta plume comme les poètes de la rue Laisses-nous piloter le truc non, on va écraser personne Pas besoin de casser une porte pour découvrir ma clé d'Sol x2 Au coin d'ma rue, c'est comme un arc-en-ciel y a trop d'couleurs Du coin d'ma rue, c'est comme un arc-en-ciel y a trop d'couleurs You might also like La musique est à tout le monde pas d'couleur, pas d'image J'en place une à ces artistes fabuleux dans l'paysage Besoin d'ça pour qu'on voyage sans vouloir viser le top D'mande à Sprinter mon pote c'est hip hop hop hop Besoin d'la rime merci, demande à la Rumeur aussi D'puis gamin on a l 'stylo pas l'envie d'remplir un Zénith On aime ce rap c'est d'l'abus couz' ay ay ay ay A tout mes demi parrains passionnés depuis long time Besoin d'un texte en freestyle, taillé comme un box thai A tout mes j'vous ferais boom ba ba bay J'répète j'ai plus de force, j'ai plus de force On a grandi évidemment avec toujours ce rêve de gosse On vient flasher rapper mec, tant qu'la musique nous fait plais' Vive le rap français XXX d'IAM jusqu'à NTM Laisses-nous piloter le truc, on va écraser personne Pas besoin de casser une porte pour découvrir ma clé d'Sol x2 Au coin d'ma rue, c'est comme un arc-en-ciel y a trop d'couleurs Du coin d'ma rue, c'est comme un arc-en-ciel y a trop d'couleurs</t>
+          <t>x2 Au coin d'ma rue, c'est comme un arc-en-ciel y a trop d'couleurs Du coin d'ma rue, c'est comme un arc-en-ciel y a trop d'couleurs x2 Besoin de toi, tu le sais comme de partir pour écrire Comme de s'isoler une fois d'être prisonnier pour être libre Besoin de s'évader tranquille et d'se retrouver soi-même Nous faire croire que l'argent fait aussi parti d'une vie saine wow wow La musique a pris de l'ampleur on pourra pas dire le contraire Elle a tellement pris d'la hauteur mais sûrement pas de nos têtes Au fond d'nos coeurs, c'est comme un ghetto Dés qu'il sent l'approche extérieure, il se resserre comme un étau T'entends Scred Co', heeey D'mande à Fabe depuis l'époque avant qu'on touche le premier bédo La claque on la prend trop tôt très jeune avec Marie Jeanne Pas d'régime on s'fait seul, déjeune avec nos tisanes Le son tourne sur la lune Vas-y prête moi ta plume comme les poètes de la rue Laisses-nous piloter le truc non, on va écraser personne Pas besoin de casser une porte pour découvrir ma clé d'Sol x2 Au coin d'ma rue, c'est comme un arc-en-ciel y a trop d'couleurs Du coin d'ma rue, c'est comme un arc-en-ciel y a trop d'couleurs La musique est à tout le monde pas d'couleur, pas d'image J'en place une à ces artistes fabuleux dans l'paysage Besoin d'ça pour qu'on voyage sans vouloir viser le top D'mande à Sprinter mon pote c'est hip hop hop hop Besoin d'la rime merci, demande à la Rumeur aussi D'puis gamin on a l 'stylo pas l'envie d'remplir un Zénith On aime ce rap c'est d'l'abus couz' ay ay ay ay A tout mes demi parrains passionnés depuis long time Besoin d'un texte en freestyle, taillé comme un box thai A tout mes j'vous ferais boom ba ba bay J'répète j'ai plus de force, j'ai plus de force On a grandi évidemment avec toujours ce rêve de gosse On vient flasher rapper mec, tant qu'la musique nous fait plais' Vive le rap français XXX d'IAM jusqu'à NTM Laisses-nous piloter le truc, on va écraser personne Pas besoin de casser une porte pour découvrir ma clé d'Sol x2 Au coin d'ma rue, c'est comme un arc-en-ciel y a trop d'couleurs Du coin d'ma rue, c'est comme un arc-en-ciel y a trop d'couleurs</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Génération tinquiètes, sbattre avec des fausses pierres Tu sais quon est des soldats, sûrement un dces volontaires Au fond et dans les tranchées, on apprend le style dMC En cas dmal cest clair oui qule son est une pharmacie Tas capté lart cest pas grave, tu peux garder ton contrat On est mieux chez les remplaçants, pour une meilleure contre-attaque On t'attaque on sent rien, sur lterrain on sen tape On srelève cest fair-play, car finalement ya pas dballe Pas drègles, pas dmal, jopère en mode Mad Max Une capuche, un Posca, on trefait lcentre commercial On rvient briser les cadenas, du réel dans lcinéma On sélimine à ptit feu, et brûle devant nos funérailles x2 Il fallait bien qujreprésente ça, couper la rime au tonc ça Autopsie cest top ça, ya une erreur on gomme ça Boxer les mots Bob Sapp, tout comme Lino Borsa Cest la folie dans chaque son, tout comme les chants du Barça Tu sais à part compter la maille, on calcule plus ses fautes Ça déraille, mais le train nest pas le même chez les autres On perd tout devant ses potes, et le sourire au fil des années Être seul nous fait plus peur, tout comme la maison darrêt Entre barrettes et cocaïne, Doliprane et compagnie Des allers-retours en Espagne jusquau fond dlItalie Vas-y cherche tu trouves, non non, fréro ya plus dflouze Les jeunes préfèrent Amsterdam non plus lmusée du Louvre Je louvre, pour qudemain on oublie rien On tombe on srelève, jusquà navoir même plus dreins On y voit même plus rien, frères captivés à consommer Et si la vie était si simple, jcrois qutout lmonde le saurait You might also like x2 Il fallait bien qujreprésente ça, couper la rime au tonc ça Autopsie cest top ça, ya une erreur on gomme ça Boxer les mots Bob Sapp, tout comme Lino Borsa Cest la folie dans chaque son, tout comme les chants du Barça On entend ici un sample du morceau Retour aux Pyramides du groupe de rap X-Men, morceau qui figure sur la bande-originale du film Ma 6-T va Crack-er1</t>
+          <t>Génération tinquiètes, sbattre avec des fausses pierres Tu sais quon est des soldats, sûrement un dces volontaires Au fond et dans les tranchées, on apprend le style dMC En cas dmal cest clair oui qule son est une pharmacie Tas capté lart cest pas grave, tu peux garder ton contrat On est mieux chez les remplaçants, pour une meilleure contre-attaque On t'attaque on sent rien, sur lterrain on sen tape On srelève cest fair-play, car finalement ya pas dballe Pas drègles, pas dmal, jopère en mode Mad Max Une capuche, un Posca, on trefait lcentre commercial On rvient briser les cadenas, du réel dans lcinéma On sélimine à ptit feu, et brûle devant nos funérailles x2 Il fallait bien qujreprésente ça, couper la rime au tonc ça Autopsie cest top ça, ya une erreur on gomme ça Boxer les mots Bob Sapp, tout comme Lino Borsa Cest la folie dans chaque son, tout comme les chants du Barça Tu sais à part compter la maille, on calcule plus ses fautes Ça déraille, mais le train nest pas le même chez les autres On perd tout devant ses potes, et le sourire au fil des années Être seul nous fait plus peur, tout comme la maison darrêt Entre barrettes et cocaïne, Doliprane et compagnie Des allers-retours en Espagne jusquau fond dlItalie Vas-y cherche tu trouves, non non, fréro ya plus dflouze Les jeunes préfèrent Amsterdam non plus lmusée du Louvre Je louvre, pour qudemain on oublie rien On tombe on srelève, jusquà navoir même plus dreins On y voit même plus rien, frères captivés à consommer Et si la vie était si simple, jcrois qutout lmonde le saurait x2 Il fallait bien qujreprésente ça, couper la rime au tonc ça Autopsie cest top ça, ya une erreur on gomme ça Boxer les mots Bob Sapp, tout comme Lino Borsa Cest la folie dans chaque son, tout comme les chants du Barça On entend ici un sample du morceau Retour aux Pyramides du groupe de rap X-Men, morceau qui figure sur la bande-originale du film Ma 6-T va Crack-er1</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Aujourd'hui, j'ai plus d'force, peut-être bien incassable Et tenir debout, chaque jour, j'en pense qu'à ça Wesh qué pasa ? Ne me les casse pas J'ai écrit un de ces textes, écoute et tu comprendras Arrête et tu m'reprendras, d'toute façon tu connais qu'ça Garde tes paroles en l'air, puriste tu reconnais l'sample ? Arrête, vas-y je t'envoie cette lettre Pour ma part, quand je te vois, mes yeux pressent Delete Tu t'démerdes La plus belle chose que j'ai apprise non, j'ai pas envie d'être célèbre Quel caprice, quelle gâterie, laisse couler la batterie Laisse parler les soldats, et cesse donc tous tes caprices Vite que tu déguerpisses, j'ai quitté la partie Rares sont ceux qui partagent à l'heure de la cantine Personne quand ça s'complique, un bisou à ma mère J'ai gardé cette config' et deux-trois gros joints d'herbe Oui c'est comme ça qu'on sait faire, de temps en temps ça m'effraie Quand tu fais le nécessaire, mais c'que tu fais on l'a déjà fait Mais tu sais bien que taffer, ça demande beaucoup d'patience Marlich, on recommence, avec plaisir une revanche Moi, j'ai mon style, tant mieux, un travail consciencieux J'aime le hip-hop et je n'cherche pas qui est le con d'entre eux Qui a le compte blindé ? Qui vend le plus de disques ? Qui a la meilleure prod' ? Au mix un max de pistes Anti rap touriste, un tas d'comiques Où ça court pour la thune comme le sale jeu d'Sonic Ils voudront savoir d'où j'sors et où j'm'insère Comment j'donne un concert, ou si l'cachet est trop cher Un mic' et j'me sers, virez vos gros pecs Au fait, j'ai vu qu'ta meuf voulait qu'je sois son mec Yo ! Lance la sonnette, tu veux m'connaître si j'suis honnête Pas d'problèmes, arrête tu cries comme une chatte qui miaule Non, ils voudront savoir si l'équipe n'a pas d'bol C'est Les Histoires, ce petit con sort le deuxième album Est-ce qu'il est sous alcool ? J'trouve qu'il est trop hardcore Tu parles mal, que ta bouche est plein d'hématomes You might also like1</t>
+          <t>Aujourd'hui, j'ai plus d'force, peut-être bien incassable Et tenir debout, chaque jour, j'en pense qu'à ça Wesh qué pasa ? Ne me les casse pas J'ai écrit un de ces textes, écoute et tu comprendras Arrête et tu m'reprendras, d'toute façon tu connais qu'ça Garde tes paroles en l'air, puriste tu reconnais l'sample ? Arrête, vas-y je t'envoie cette lettre Pour ma part, quand je te vois, mes yeux pressent Delete Tu t'démerdes La plus belle chose que j'ai apprise non, j'ai pas envie d'être célèbre Quel caprice, quelle gâterie, laisse couler la batterie Laisse parler les soldats, et cesse donc tous tes caprices Vite que tu déguerpisses, j'ai quitté la partie Rares sont ceux qui partagent à l'heure de la cantine Personne quand ça s'complique, un bisou à ma mère J'ai gardé cette config' et deux-trois gros joints d'herbe Oui c'est comme ça qu'on sait faire, de temps en temps ça m'effraie Quand tu fais le nécessaire, mais c'que tu fais on l'a déjà fait Mais tu sais bien que taffer, ça demande beaucoup d'patience Marlich, on recommence, avec plaisir une revanche Moi, j'ai mon style, tant mieux, un travail consciencieux J'aime le hip-hop et je n'cherche pas qui est le con d'entre eux Qui a le compte blindé ? Qui vend le plus de disques ? Qui a la meilleure prod' ? Au mix un max de pistes Anti rap touriste, un tas d'comiques Où ça court pour la thune comme le sale jeu d'Sonic Ils voudront savoir d'où j'sors et où j'm'insère Comment j'donne un concert, ou si l'cachet est trop cher Un mic' et j'me sers, virez vos gros pecs Au fait, j'ai vu qu'ta meuf voulait qu'je sois son mec Yo ! Lance la sonnette, tu veux m'connaître si j'suis honnête Pas d'problèmes, arrête tu cries comme une chatte qui miaule Non, ils voudront savoir si l'équipe n'a pas d'bol C'est Les Histoires, ce petit con sort le deuxième album Est-ce qu'il est sous alcool ? J'trouve qu'il est trop hardcore Tu parles mal, que ta bouche est plein d'hématomes 1</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Babylon, as in for good anyway Ouvre les yeux, regarde un peu, comment la jeunesse se dresse Le temps passe trop vite et je vois que tout le monde se presse Le manque d'initiative, des sueurs en plein sommeil Vouloir viser le sommet, mais sans qu'y est de soleil Difficile de résonner de parler aux citoyens Quand Babylone temmène nulle part si tu as rien On lève le poing quand même, la force nous l'enseigne Quand Babylone bat de l'aile on est loin d'une mise en scène La rage manifeste, la haine nous laisse les restes Déshumanisé une fierté pour ceux qui règnent Ouvre les yeux lève la tête, écoute et prépare toi Prépare toi, prépare toi, il y a trop de belles choses à voir Et ma foie, j'envoie encore un message en paix Et parfois j'angoisse donc on se met à chanter Babylon, as in for good anyway Babylone, babylone ça va pas, ça va bien Ca va cool t'as vus là j'prépare ma sarbacane Car ça parle vu ma voix Ma voix, oui va voir Oui je rappe le cachet dépasse peu 800 balles Vue d'en bas feat en balle Rimes à r'vendre met ta flamme Oui je plane, ça plante Rien à battre impécable Il y a la barre dès qu'on se tape Il y a du son je m'installe Pendant qu'toi tu dis quoi Je fais çi, je fais ça J't'apprécie, tu comprends T'es content J't'accompagne, ni compte pas, vite qu'on's'barre On s'barre, on s'barre De Babylone You might also like I share my words, I share my mind Where the people all around There's some of you in every rhyme There's some truth in every lie What goes up must come down Waiting for the XXX give up on the crown Try hard and take it easy While they're running on and on and and on and on...</t>
+          <t>Babylon, as in for good anyway Ouvre les yeux, regarde un peu, comment la jeunesse se dresse Le temps passe trop vite et je vois que tout le monde se presse Le manque d'initiative, des sueurs en plein sommeil Vouloir viser le sommet, mais sans qu'y est de soleil Difficile de résonner de parler aux citoyens Quand Babylone temmène nulle part si tu as rien On lève le poing quand même, la force nous l'enseigne Quand Babylone bat de l'aile on est loin d'une mise en scène La rage manifeste, la haine nous laisse les restes Déshumanisé une fierté pour ceux qui règnent Ouvre les yeux lève la tête, écoute et prépare toi Prépare toi, prépare toi, il y a trop de belles choses à voir Et ma foie, j'envoie encore un message en paix Et parfois j'angoisse donc on se met à chanter Babylon, as in for good anyway Babylone, babylone ça va pas, ça va bien Ca va cool t'as vus là j'prépare ma sarbacane Car ça parle vu ma voix Ma voix, oui va voir Oui je rappe le cachet dépasse peu 800 balles Vue d'en bas feat en balle Rimes à r'vendre met ta flamme Oui je plane, ça plante Rien à battre impécable Il y a la barre dès qu'on se tape Il y a du son je m'installe Pendant qu'toi tu dis quoi Je fais çi, je fais ça J't'apprécie, tu comprends T'es content J't'accompagne, ni compte pas, vite qu'on's'barre On s'barre, on s'barre De Babylone I share my words, I share my mind Where the people all around There's some of you in every rhyme There's some truth in every lie What goes up must come down Waiting for the XXX give up on the crown Try hard and take it easy While they're running on and on and and on and on...</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Je vous en prie, écoutez-moi car aujourd'hui je n'ai plus rien du tout J'ai plus d'famille, ni d'abri, j'ai tout perdu dans mon parcours Un père cool, une mère calme et une p'tite sur que j'aimais tant Une sale histoire qui m'fait mal et j'ai même plus d'pays en même temps Vas-y tuez-moi mais j'crève quand, j'trouve plus d'force à continuer Je n'arrive plus à vivre dans l'noir même si la lumière reste allumée Être dehors, vivre enrhumé, le froid n'efface plus cque je vois Pourquoi me plaindre on n'm'entend pas, personne le vivra juste une fois Juste une femme, juste un amour, à cette période tu dis qu'j'abuse Dis-moi pourquoi ça tombe sur moi, est-ce que sur mon front y'a écrit j'm'accuse ? Non, vas-y, j'arrête là, je vais trop loin, je m'en excuse J'ai besoin d'aide écoutez-moi, j'compterai sur vous si on m'expulse On ne peut pas changer le temps, ni la direction des tanks On ne peut ni changer le plan, qui veut presser sur la détente ? Oh, qui veut presser sur la détente ? Personne car.. On ne peut pas changer le temps, ni la direction des tanks On ne peut ni changer le plan, qui veut presser sur la détente ? Oh, oh, qui veut presser sur la détente ? Salam Oualeïkoum, j'ai neuf ans, j'm'appelle Mounir, Palestinien J'ai plus d'famille, ni d'abri, j'ai toujours peur dcelui qui vient J'ai pas d'école donc pas d'amis, jai plus d'jouets, j'ai passé l'âge Jconnais aucun dessin animé, chez moi j'entends qu'les bruits dkalash Jcôtoie les larmes et les barrages, on fouille mon sac dans les checkpoint Pourtant j'ai jamais eu d'goûter, ah si j'ai juste les gouttes qui tombent Je veux la paix et j'vous l'demande, j'suis né en guerre tout simplement J'ai besoin d'aide écoutez-moi, tout l'monde s'conduit n'importe comment Sans logement, ni nourriture, oui la télé tcache la totale Dans ma classe, toutes nos tables ont été prises pour lits d'hôpital N'ayez pas d'frissons quand j'vous parle, retenez-moi si vous pouvez Disons qu'mon cur s'est déchiré quand j'me suis approché des barbelés You might also likeOn ne peut pas changer le temps, ni la direction des tanks On ne peut pas changer le plan, qui veut presser sur la détente ? Qui veut presser sur la détente ?</t>
+          <t>Je vous en prie, écoutez-moi car aujourd'hui je n'ai plus rien du tout J'ai plus d'famille, ni d'abri, j'ai tout perdu dans mon parcours Un père cool, une mère calme et une p'tite sur que j'aimais tant Une sale histoire qui m'fait mal et j'ai même plus d'pays en même temps Vas-y tuez-moi mais j'crève quand, j'trouve plus d'force à continuer Je n'arrive plus à vivre dans l'noir même si la lumière reste allumée Être dehors, vivre enrhumé, le froid n'efface plus cque je vois Pourquoi me plaindre on n'm'entend pas, personne le vivra juste une fois Juste une femme, juste un amour, à cette période tu dis qu'j'abuse Dis-moi pourquoi ça tombe sur moi, est-ce que sur mon front y'a écrit j'm'accuse ? Non, vas-y, j'arrête là, je vais trop loin, je m'en excuse J'ai besoin d'aide écoutez-moi, j'compterai sur vous si on m'expulse On ne peut pas changer le temps, ni la direction des tanks On ne peut ni changer le plan, qui veut presser sur la détente ? Oh, qui veut presser sur la détente ? Personne car.. On ne peut pas changer le temps, ni la direction des tanks On ne peut ni changer le plan, qui veut presser sur la détente ? Oh, oh, qui veut presser sur la détente ? Salam Oualeïkoum, j'ai neuf ans, j'm'appelle Mounir, Palestinien J'ai plus d'famille, ni d'abri, j'ai toujours peur dcelui qui vient J'ai pas d'école donc pas d'amis, jai plus d'jouets, j'ai passé l'âge Jconnais aucun dessin animé, chez moi j'entends qu'les bruits dkalash Jcôtoie les larmes et les barrages, on fouille mon sac dans les checkpoint Pourtant j'ai jamais eu d'goûter, ah si j'ai juste les gouttes qui tombent Je veux la paix et j'vous l'demande, j'suis né en guerre tout simplement J'ai besoin d'aide écoutez-moi, tout l'monde s'conduit n'importe comment Sans logement, ni nourriture, oui la télé tcache la totale Dans ma classe, toutes nos tables ont été prises pour lits d'hôpital N'ayez pas d'frissons quand j'vous parle, retenez-moi si vous pouvez Disons qu'mon cur s'est déchiré quand j'me suis approché des barbelés On ne peut pas changer le temps, ni la direction des tanks On ne peut pas changer le plan, qui veut presser sur la détente ? Qui veut presser sur la détente ?</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mets le son à fond, mets le son à fond Mets le son à fond, mets le son à fond yo Mets le son à fond Au début, on était seul mais on cherchait où va le Ouai ma zup n'a pas changée y qu'les murs qu'on a repeints Jamais lâché depuis gamin trouver la force dans la 'sique Les gens braillent avec ou sans la paye d'Ibrahimovic Un système trahit d'office, on fait les choses mon gars La route est longue mais plus jolie avec une vieille Honda On sait qu'la vie ne ment pas, comme le destin lui aussi Et comme Hamid le jardinier on a fait pousser d'la résine Oui le terrain nous a validé, monte le beat tout est réglé On change pas reste les mêmes, ça c'est notre mentalité On fait les choses garder l'idée pour le reste garde la thune yo Et pour le monde j'offre ma plume x2 Bien sûr sous la colère, une envie d'frapper les hommes Et oui depuis gamin tu sais bien qu'on fait les choses Besoin des mots et du son pour faire vibrer les ondes Il suffira d'avancer mais jamais plus vite que l'ombre on fait les choses You might also like Surtout quand la dure réalité t'frappe je sais C'est difficile de garder la tête froide Tous dans de beaux draps, stups en chemin on s'écarte La quiétude on l'obtiendra un de ces quatre La vie parfois c'est bof parfois c'est impeccable, ouai c'est magnifique frérot Parfois c'est impeccable qu'ce soit avec madame ou avec tout ces schlagues J'm'aperçois qu' c'est tout un art de garder son calme Et là d'un coup c'est le drame Garder son calme, relativiser ne pas péter son câble On fait les choses soldat alors prends garde D'la musique douce comme de l'herbe dans l'bocal x2 Bien sûr sous la colère, une envie d'frapper les hommes Et oui depuis gamin tu sais bien qu'on fait les choses Besoin des mots et du son pour faire vibrer les ondes Il suffira d'avancer mais jamais plus vite que l'ombre on fait les choses J'ai préféré ignorer le mauvais et voir le bon côté des choses Innover 'vec des mots vrais pas du genre à boycotter les roses Le stylo plume on le voit plus face au dernier Iphone Mais bon c'est que du son j'suis pas de ces folles qui dans l'merdier saffolent Toujours la même, la même équipe, la même recette sur scène Tu me reçois ça part de Sète, 34, 7 sur 7 qui que tu sois T'es la bienvenue dans notre univers T'es uni frère, c'est bien vu, on est loin du délire unitaire En haut es-tu d'accord comme un cutter ça taille J'vais rejoindre Albator, je monte à bord de leur fusée Ariane Pour nos projets, on fera comme l'a su faire IAM Ensemble on est en forme, avec la force d'un Super Saiyan yaaah x2 Bien sûr sous la colère, une envie d'frapper les hommes Et oui depuis gamin tu sais bien qu'on fait les choses Besoin des mots et du son pour faire vibrer les ondes Il suffira d'avancer mais jamais plus vite que l'ombre on fait les choses</t>
+          <t>Mets le son à fond, mets le son à fond Mets le son à fond, mets le son à fond yo Mets le son à fond Au début, on était seul mais on cherchait où va le Ouai ma zup n'a pas changée y qu'les murs qu'on a repeints Jamais lâché depuis gamin trouver la force dans la 'sique Les gens braillent avec ou sans la paye d'Ibrahimovic Un système trahit d'office, on fait les choses mon gars La route est longue mais plus jolie avec une vieille Honda On sait qu'la vie ne ment pas, comme le destin lui aussi Et comme Hamid le jardinier on a fait pousser d'la résine Oui le terrain nous a validé, monte le beat tout est réglé On change pas reste les mêmes, ça c'est notre mentalité On fait les choses garder l'idée pour le reste garde la thune yo Et pour le monde j'offre ma plume x2 Bien sûr sous la colère, une envie d'frapper les hommes Et oui depuis gamin tu sais bien qu'on fait les choses Besoin des mots et du son pour faire vibrer les ondes Il suffira d'avancer mais jamais plus vite que l'ombre on fait les choses Surtout quand la dure réalité t'frappe je sais C'est difficile de garder la tête froide Tous dans de beaux draps, stups en chemin on s'écarte La quiétude on l'obtiendra un de ces quatre La vie parfois c'est bof parfois c'est impeccable, ouai c'est magnifique frérot Parfois c'est impeccable qu'ce soit avec madame ou avec tout ces schlagues J'm'aperçois qu' c'est tout un art de garder son calme Et là d'un coup c'est le drame Garder son calme, relativiser ne pas péter son câble On fait les choses soldat alors prends garde D'la musique douce comme de l'herbe dans l'bocal x2 Bien sûr sous la colère, une envie d'frapper les hommes Et oui depuis gamin tu sais bien qu'on fait les choses Besoin des mots et du son pour faire vibrer les ondes Il suffira d'avancer mais jamais plus vite que l'ombre on fait les choses J'ai préféré ignorer le mauvais et voir le bon côté des choses Innover 'vec des mots vrais pas du genre à boycotter les roses Le stylo plume on le voit plus face au dernier Iphone Mais bon c'est que du son j'suis pas de ces folles qui dans l'merdier saffolent Toujours la même, la même équipe, la même recette sur scène Tu me reçois ça part de Sète, 34, 7 sur 7 qui que tu sois T'es la bienvenue dans notre univers T'es uni frère, c'est bien vu, on est loin du délire unitaire En haut es-tu d'accord comme un cutter ça taille J'vais rejoindre Albator, je monte à bord de leur fusée Ariane Pour nos projets, on fera comme l'a su faire IAM Ensemble on est en forme, avec la force d'un Super Saiyan yaaah x2 Bien sûr sous la colère, une envie d'frapper les hommes Et oui depuis gamin tu sais bien qu'on fait les choses Besoin des mots et du son pour faire vibrer les ondes Il suffira d'avancer mais jamais plus vite que l'ombre on fait les choses</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Il fallait bien que j'représente ça, couper la rime autant qu'ça Autopsie, c'est top ça, y'a une erreur on gomme ça Boxer les mots Bob Sapp tout comme lino-Borsa C'est la folie dans chaque son tout comme les chants du BarçaYou might also like1</t>
+          <t>Il fallait bien que j'représente ça, couper la rime autant qu'ça Autopsie, c'est top ça, y'a une erreur on gomme ça Boxer les mots Bob Sapp tout comme lino-Borsa C'est la folie dans chaque son tout comme les chants du Barça1</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>J'trouve ma peine dans c'qui est fragile Le monde pleure mais qui m'entend ? La peur nous imagine Elle tape très fort depuis longtemps Maintenant non non j'n'ai même plus de pays Et plus personne ne nous regarde Ils ne voient que des bonhommes en treillis C'est mon village que l'on bombarde Bloquez-les, bloquez-les, bloquez-les, allez-y bloquez-les Ils m'ont fait souffrir donc bloquez-les Bloquez-les, bloquez-les, allez-y bloquez-les Ils m'ont fait souffrir donc ce soir... Ils ne voient que des bonhommes en treillis C'est mon village que l'on bombarde bombarde... bombarde... Vu que ma colère est trop pénible pénible... pénible... Dit leur l'ont qu'on est pas sauvage sauvage... sauvage... Mais à force de vivre que des cauchemars bang, bang On ne peut rêver que du bonheur Loin de tous ces chefs en costard Car derrière ça il y a des meurtres Le monde joue le sourd quand on l'appelle Ce soir tu es libre donc sauve qui peut Les yeux bandés oui quand je cache ma peine Allez-y pendez-les, nan je pense à Dieu Même si la rage nous pousse, j'vais tempérer, j'vais tempérer La corde au cou, vas-y soldat mets toi debout La hache de guerre ce soir, on va l'enterrer You might also like Bloquez-les, bloquez-les, bloquez-les, allez-y bloquez-les Ils m'ont fait souffrir donc bloquez-les Bloquez-les, bloquez-les, allez-y bloquez-les Ils m'ont fait souffrir donc ce soir... Demi Portion La vie est courte frérot</t>
+          <t>J'trouve ma peine dans c'qui est fragile Le monde pleure mais qui m'entend ? La peur nous imagine Elle tape très fort depuis longtemps Maintenant non non j'n'ai même plus de pays Et plus personne ne nous regarde Ils ne voient que des bonhommes en treillis C'est mon village que l'on bombarde Bloquez-les, bloquez-les, bloquez-les, allez-y bloquez-les Ils m'ont fait souffrir donc bloquez-les Bloquez-les, bloquez-les, allez-y bloquez-les Ils m'ont fait souffrir donc ce soir... Ils ne voient que des bonhommes en treillis C'est mon village que l'on bombarde bombarde... bombarde... Vu que ma colère est trop pénible pénible... pénible... Dit leur l'ont qu'on est pas sauvage sauvage... sauvage... Mais à force de vivre que des cauchemars bang, bang On ne peut rêver que du bonheur Loin de tous ces chefs en costard Car derrière ça il y a des meurtres Le monde joue le sourd quand on l'appelle Ce soir tu es libre donc sauve qui peut Les yeux bandés oui quand je cache ma peine Allez-y pendez-les, nan je pense à Dieu Même si la rage nous pousse, j'vais tempérer, j'vais tempérer La corde au cou, vas-y soldat mets toi debout La hache de guerre ce soir, on va l'enterrer Bloquez-les, bloquez-les, bloquez-les, allez-y bloquez-les Ils m'ont fait souffrir donc bloquez-les Bloquez-les, bloquez-les, allez-y bloquez-les Ils m'ont fait souffrir donc ce soir... Demi Portion La vie est courte frérot</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>J'commence par un big up, après, j'colle un sticker Nan, j'réponds pas au tél', cousin, j'ai mon bipeur Dépassé par Twitter, une prod' sur ton cutter On a gardé l'attitude, han, ambiance de kickeurs J'ai deux montres, j'ai pas d'heure, mon DJ, obligé, découpé le fadeur Le fadeur Han, y a que des Mark Landers, c'est pour mes blacks, blancs, beurs Et comme dans toute famille, on a tous des potes glandeurs On les branche , ouais, Les Princes de la ville Et on pousse le videur, en tout cas, quoi qu'il arriv Découpe le beat au cuttr, chez nous, y a pas de leader Nique sa mère, faim, , j'fais mes courses à Lidl Tu fais tes courses à Lidl, il fait ses courses à Lidl Galère à la fin du mois, et c'est pour ça qu'il gueule La même tactique, sans technique, mes potes vont te niquer si t'as pas la technique Allez, je le lance un big up à toutes les mamans qui jump On pope pas dans la kitchen si t'as fait des pâtes au ketchup Ah Yeah, qui tape tes pâtes au ketchup Jump, jump, jump, han, jump, jump, jump, yeah Allez, je lance un big up à toutes les mamans qui cup On pope pas dans la kitchen qui taff des pâtes au ketchup Allez, je lance un big up à toutes les mamies qui jump On pope pas dans la kitchen des pâtes au ketchup Allez, je lance un big up à toutes les mamies qui jump Jump, jump, jump, yeahYou might also like</t>
+          <t>J'commence par un big up, après, j'colle un sticker Nan, j'réponds pas au tél', cousin, j'ai mon bipeur Dépassé par Twitter, une prod' sur ton cutter On a gardé l'attitude, han, ambiance de kickeurs J'ai deux montres, j'ai pas d'heure, mon DJ, obligé, découpé le fadeur Le fadeur Han, y a que des Mark Landers, c'est pour mes blacks, blancs, beurs Et comme dans toute famille, on a tous des potes glandeurs On les branche , ouais, Les Princes de la ville Et on pousse le videur, en tout cas, quoi qu'il arriv Découpe le beat au cuttr, chez nous, y a pas de leader Nique sa mère, faim, , j'fais mes courses à Lidl Tu fais tes courses à Lidl, il fait ses courses à Lidl Galère à la fin du mois, et c'est pour ça qu'il gueule La même tactique, sans technique, mes potes vont te niquer si t'as pas la technique Allez, je le lance un big up à toutes les mamans qui jump On pope pas dans la kitchen si t'as fait des pâtes au ketchup Ah Yeah, qui tape tes pâtes au ketchup Jump, jump, jump, han, jump, jump, jump, yeah Allez, je lance un big up à toutes les mamans qui cup On pope pas dans la kitchen qui taff des pâtes au ketchup Allez, je lance un big up à toutes les mamies qui jump On pope pas dans la kitchen des pâtes au ketchup Allez, je lance un big up à toutes les mamies qui jump Jump, jump, jump, yeah</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Plutot gueuler que de me taire Parler que de mentir Le stylo Bic d'Harry Potter, pas une magie pour rebondir Premier album que je mets à terre J'viens de loin comment vous dire? Et que Dieu m'en soit témoin je n'ai pas de mic pour les coquines Je n'ai pas l'temps je le confirme Si tu ne m'aimes pas je fais avec Je parle francais ma consigne sans la CB de Ben Affleck Sans le CV de ceux qui grimpent et qu'on retrouve une fois en bas Pendant que t'étais dans tes studios ben ton pére se tuait au taf Inutile de chercher une dame d'après elles tu comptes pas Tu comprends, fais l'calcul ça n'aide plus le BEP Comptatble! Ca sert à quoi de rester stable, souriant voire amical? À force de regarder les gens, j'comprends tes douleurs cervicales J'm'excuse de m'servir tard, en vrai j'avais pas faim L'homme, a tellement la dalle et la femme veut avoir trois seins Voyant que c'est possible, ça fonce tout droit vers l'échec Il ne faut pas un bac 10 pour voir qu'on est dans l'mauvais siècle Recycle, t'as vu les clowns sont dans un cirque, sappe Sauvage, où plein d'animaux ne se promènent qu'en zigzag C'est la savane ici bas, les chasseurs et leurs cigares Viens dans le Sud, tu entendras ou des Tziganes et cigales! Appelez vite un psychiatre, il aura ptet des sous à s'faire Tous nés avec un handicap sortis de la crasse ouvrière OK chef pas d'ordres, donnés par un caporal C'est mort comme déjeuner seulement au Coca Cola Et bonne théorie verbale J'conserve ma liberta Autant j'prendrais onze cartouches à la Khaled Kelkal Dis, si tu vois mieux autre part Rapper reste illégal Les jeunes restent tant imitables et sans voler une Caisse d'Epargne L'argent facile se déclare, les patrons se téléportent On t'fait oublier l'interim même si t'amenes un CV propre Non, touche pas à l'enveloppe Parait que nous sommes loin d'être idéal Ca fait la queue des Major comme un samedi chez Ikea Le succès n'vaut rien en France Ils sont encore trop lents ils ont découvert le breakdance chez Incroyable Talent Nos cités sont pleines de cultures couscouss, macaronnades Une semaine dans le shit c'est moins risqué que d'bouffer Macdonald Demande à Adil, la langue de Molière est dans la bouche d'un arabe Tu m'as connu sur Facebook mais pas sorti de Harvard Si le savoir est une arme, ben c'est des balles que j'partage Parait que l'on parle cash et que l'on s'y fait aux sarcasmes You might also like Le bonheur, la belle vie, chacun connait la voie La thune ya ceux qui l'ont et ceux qui s'tuent à l'avoir Donc y'a la gueule de l'emploi et ceux qui passent la douane Avec toutes les cachettes qu'il y a, plein de choses restent introuvables! Ici tout le monde veut du pécule, même un bourge connait le vol! Être parfait c'est ridicule quand tu vois comment tourne le globe! Déstresser à la clope, agis, ne regarde pas l'autre Chacun sa vie, mais pas à l'abri de voir bruler sa paillotte</t>
+          <t>Plutot gueuler que de me taire Parler que de mentir Le stylo Bic d'Harry Potter, pas une magie pour rebondir Premier album que je mets à terre J'viens de loin comment vous dire? Et que Dieu m'en soit témoin je n'ai pas de mic pour les coquines Je n'ai pas l'temps je le confirme Si tu ne m'aimes pas je fais avec Je parle francais ma consigne sans la CB de Ben Affleck Sans le CV de ceux qui grimpent et qu'on retrouve une fois en bas Pendant que t'étais dans tes studios ben ton pére se tuait au taf Inutile de chercher une dame d'après elles tu comptes pas Tu comprends, fais l'calcul ça n'aide plus le BEP Comptatble! Ca sert à quoi de rester stable, souriant voire amical? À force de regarder les gens, j'comprends tes douleurs cervicales J'm'excuse de m'servir tard, en vrai j'avais pas faim L'homme, a tellement la dalle et la femme veut avoir trois seins Voyant que c'est possible, ça fonce tout droit vers l'échec Il ne faut pas un bac 10 pour voir qu'on est dans l'mauvais siècle Recycle, t'as vu les clowns sont dans un cirque, sappe Sauvage, où plein d'animaux ne se promènent qu'en zigzag C'est la savane ici bas, les chasseurs et leurs cigares Viens dans le Sud, tu entendras ou des Tziganes et cigales! Appelez vite un psychiatre, il aura ptet des sous à s'faire Tous nés avec un handicap sortis de la crasse ouvrière OK chef pas d'ordres, donnés par un caporal C'est mort comme déjeuner seulement au Coca Cola Et bonne théorie verbale J'conserve ma liberta Autant j'prendrais onze cartouches à la Khaled Kelkal Dis, si tu vois mieux autre part Rapper reste illégal Les jeunes restent tant imitables et sans voler une Caisse d'Epargne L'argent facile se déclare, les patrons se téléportent On t'fait oublier l'interim même si t'amenes un CV propre Non, touche pas à l'enveloppe Parait que nous sommes loin d'être idéal Ca fait la queue des Major comme un samedi chez Ikea Le succès n'vaut rien en France Ils sont encore trop lents ils ont découvert le breakdance chez Incroyable Talent Nos cités sont pleines de cultures couscouss, macaronnades Une semaine dans le shit c'est moins risqué que d'bouffer Macdonald Demande à Adil, la langue de Molière est dans la bouche d'un arabe Tu m'as connu sur Facebook mais pas sorti de Harvard Si le savoir est une arme, ben c'est des balles que j'partage Parait que l'on parle cash et que l'on s'y fait aux sarcasmes Le bonheur, la belle vie, chacun connait la voie La thune ya ceux qui l'ont et ceux qui s'tuent à l'avoir Donc y'a la gueule de l'emploi et ceux qui passent la douane Avec toutes les cachettes qu'il y a, plein de choses restent introuvables! Ici tout le monde veut du pécule, même un bourge connait le vol! Être parfait c'est ridicule quand tu vois comment tourne le globe! Déstresser à la clope, agis, ne regarde pas l'autre Chacun sa vie, mais pas à l'abri de voir bruler sa paillotte</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>J'ai la langue bien coupante auditeurs, auditrice Disons qu'la vie nous cisaille, argenté mes cicatrices L'hôpital psychiatrique est sûrement en bas d'chez toi Les jeunes sortent de GTA, seulement loin de la première Sega On fait avec appuie rec, chaque thème une balade Frère, t'as vu le temps passe depuis mon premier Amstrad Depuis l'time, on espère changer le décors On passe du temps à décrire, le temps passe et nous étonnes Limpression, oui qu'on s'en sorte qu'avec des mots sincères Shurik'n à l'époque donc qu'on passe à l'essentiel Obligé d'm'étaler, désolé si j'te mens pas On s'relève à chaque fois, l'armée meurt mais ne se rend pas Nos vies s'enlisent dans le sablier On veut le futur avant le passé x2 Tic, tac Toujours dans le rythme Tic, tac Faut qu'on en profite Tic, tac De toute façon, ça défile Sur le kiffe on s'focalise avant qu'ça s'volatilise À l'époque on n'nous a pas dit que linnocence était un luxe Et qu'une fois atteinte par la vie, la pauvre n'aurait pas survécu Que le temps lui filait si vite que même les secondes sont restées cons Qu'on pouvait les stopper, même à la vitesse du son Pourtant le monde court après chaque jours mais qui panserait nos blessures Si Chronos freinait sa course, est-ce qu'on cesserait de vieillir ? Il file et n'épargne aucun de nos remords Nous on chante pour les âmes dont il a doucement usé le corps Il nous stress et nous presse, cherche à effacer nos traces Bien gravé le souvenir, reste un guerrier coriace Depuis toujours il veut avoir raison de nos rêves Certains touchés ont fini au bûcher et toucher l'autre rive On passe nos jours lil sur le gousset À trop foncer on voit pas le fossé Tic, tac Toujours dans le rythme Tic, tac Faut qu'on en profite Tic, tac De toute façon, ça défile Sur le kiffe on s'focalise avant qu'ça s'volatilise Nos débuts, le départ, le débat, les dégats, les états Le temps passe, faut qu'on s'en aille Quand les aiguilles tournent mal, en retard est l'humaine, certainement moins il en amasse À cent ans, à son temps, chaque chose à son temps, à cent ans À cent ans, à son temps, chaque chose à son temps, à cent ans x2 Tic, tac Toujours dans le rythme Tic, tac Faut qu'on en profite Tic, tac De toute façon, ça défile Sur le kiffe on s'focalise avant qu'ça s'volatilise Tic, tac, tic, tac tout ça va trop vite Tic, tac, tic, tac on se précipite Tic, tac de toute façon, ça défile Sur le kiffe on s'focalise avant qu'ça s'volatilise vite Tic, tac, tic, tac toujours dans le rythme Tic, tac, tic, tac faut qu'on en profite Tic, tac de toute façon, ça défile Sur le kiffe on s'focalise avant qu'ça s'volatilise viteYou might also like3</t>
+          <t>J'ai la langue bien coupante auditeurs, auditrice Disons qu'la vie nous cisaille, argenté mes cicatrices L'hôpital psychiatrique est sûrement en bas d'chez toi Les jeunes sortent de GTA, seulement loin de la première Sega On fait avec appuie rec, chaque thème une balade Frère, t'as vu le temps passe depuis mon premier Amstrad Depuis l'time, on espère changer le décors On passe du temps à décrire, le temps passe et nous étonnes Limpression, oui qu'on s'en sorte qu'avec des mots sincères Shurik'n à l'époque donc qu'on passe à l'essentiel Obligé d'm'étaler, désolé si j'te mens pas On s'relève à chaque fois, l'armée meurt mais ne se rend pas Nos vies s'enlisent dans le sablier On veut le futur avant le passé x2 Tic, tac Toujours dans le rythme Tic, tac Faut qu'on en profite Tic, tac De toute façon, ça défile Sur le kiffe on s'focalise avant qu'ça s'volatilise À l'époque on n'nous a pas dit que linnocence était un luxe Et qu'une fois atteinte par la vie, la pauvre n'aurait pas survécu Que le temps lui filait si vite que même les secondes sont restées cons Qu'on pouvait les stopper, même à la vitesse du son Pourtant le monde court après chaque jours mais qui panserait nos blessures Si Chronos freinait sa course, est-ce qu'on cesserait de vieillir ? Il file et n'épargne aucun de nos remords Nous on chante pour les âmes dont il a doucement usé le corps Il nous stress et nous presse, cherche à effacer nos traces Bien gravé le souvenir, reste un guerrier coriace Depuis toujours il veut avoir raison de nos rêves Certains touchés ont fini au bûcher et toucher l'autre rive On passe nos jours lil sur le gousset À trop foncer on voit pas le fossé Tic, tac Toujours dans le rythme Tic, tac Faut qu'on en profite Tic, tac De toute façon, ça défile Sur le kiffe on s'focalise avant qu'ça s'volatilise Nos débuts, le départ, le débat, les dégats, les états Le temps passe, faut qu'on s'en aille Quand les aiguilles tournent mal, en retard est l'humaine, certainement moins il en amasse À cent ans, à son temps, chaque chose à son temps, à cent ans À cent ans, à son temps, chaque chose à son temps, à cent ans x2 Tic, tac Toujours dans le rythme Tic, tac Faut qu'on en profite Tic, tac De toute façon, ça défile Sur le kiffe on s'focalise avant qu'ça s'volatilise Tic, tac, tic, tac tout ça va trop vite Tic, tac, tic, tac on se précipite Tic, tac de toute façon, ça défile Sur le kiffe on s'focalise avant qu'ça s'volatilise vite Tic, tac, tic, tac toujours dans le rythme Tic, tac, tic, tac faut qu'on en profite Tic, tac de toute façon, ça défile Sur le kiffe on s'focalise avant qu'ça s'volatilise vite3</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jai un K-Way dans mon sac en guise de combinaison Pour retrouver mes gants, jai dû retourner toute ma maison Et même si tes malchanceux, la montagne ça te gagne Moi jparle trop, jvais rater mon train, il faut que jme magne Allô ?! Ten es où là ? Cest bon jsuis dedans, direction le ski, coco Escale à Perpignan pour récupérer les potos Les bronzés vont skier mais pas comme les Rasta Rockett Ya que dla neige par terre, on va quand même fumer dla moquette Viens rejoins-nous, remue-toi, frérot bouge Plus facile d'surfer sur le net que sur une piste rouge Jai pris mon bonnet, mes lunettes et mes après-ski Mon MP3, mon gros casque, ça part en couille, Express' Di' On en profite délicatement Ça sent la montagne, lair frais, au revoir les pots déchappements Demande à R.Can ou à Demi P le frère de Sète Pour apprendre, faut tomber, surtout aimer les glaçons secs Ça glisse comme une lettre à la poste Ça passe crème, comme un polo Lacoste Ça glisse, pour toi, ça glisse, pour moi Ça glisse, on va pas splaindre Marco entre la basse et lkick, la prod est glissante Rap tout dans laltitude, la première édition est cuisante Lhonneur pour sélancer du haut du big air, je te le laisse Sur ce coup là, pas la grande gueule, je me fais discret comme Mokless Entre le freestyler, celui qui prend la noire en chasse-neige Celui qui pleure sa mère le cul bloqué sur ltélésiège Ya de tout, on est bien ici, loin des regards acides La récolte de Novembre nous rend plus ou moins lucide Et puis si tu décidais de poser les skis, fais le à Font-Romeu Ya lambiance, le respect et une partie dta banlieue Toi qua toujours rêvé de toucher le ciel et quest reparti à poil Tes sûr quici au moins on va te la filer ta première étoile Lécho des montagnes, smile, le charme des rideuses Ya que sur les pistes que tu pourras me voir traîner dans la poudreuse Une lettre à la poste, message sincère même en snow Et jte livre avec le cur et la squette-ca de Besancenot You might also like Quest-ce que tu sais du temps quon passe à écrire ? Le temps quon passe à vrai dire Des fois sans rien aboutir, sale délire Quest-ce que tu sais de mon quartier ? Les jeunes signent des faux chèques mais pas encore chez Barclay Quest-ce que tu sais de nos femmes ? Tu parles de nos mères, ceux qui parlent souvent forts ne se respectent pas eux-mêmes Ne change pas les règles, quest-ce que tu sais de la drogue ? Ouais, allô, Montana cest juste un rêve de block Comment on vole une mob' ? Comment on ouvre une clope ? Et même en ski une dédicace à mes sauvages du globe Toujours hip-hop ? Yes, quest-ce que tu sais dnos textes ? Vise pas lsommet, jconnais aucun MC quest au-dessus de lEverest Quest-ce que tu sais de la zic ? Tes sous leffet dla zeb Garde ton style, jconnais aucun Maitre Gims, qu'un Rahzel Quest-ce que tu sais dla peur ? Putain, qui craint de souffrir souffre déjà de ce quil craint Paroles rédigées et expliquées par la communauté Rap Genius France !</t>
+          <t>Jai un K-Way dans mon sac en guise de combinaison Pour retrouver mes gants, jai dû retourner toute ma maison Et même si tes malchanceux, la montagne ça te gagne Moi jparle trop, jvais rater mon train, il faut que jme magne Allô ?! Ten es où là ? Cest bon jsuis dedans, direction le ski, coco Escale à Perpignan pour récupérer les potos Les bronzés vont skier mais pas comme les Rasta Rockett Ya que dla neige par terre, on va quand même fumer dla moquette Viens rejoins-nous, remue-toi, frérot bouge Plus facile d'surfer sur le net que sur une piste rouge Jai pris mon bonnet, mes lunettes et mes après-ski Mon MP3, mon gros casque, ça part en couille, Express' Di' On en profite délicatement Ça sent la montagne, lair frais, au revoir les pots déchappements Demande à R.Can ou à Demi P le frère de Sète Pour apprendre, faut tomber, surtout aimer les glaçons secs Ça glisse comme une lettre à la poste Ça passe crème, comme un polo Lacoste Ça glisse, pour toi, ça glisse, pour moi Ça glisse, on va pas splaindre Marco entre la basse et lkick, la prod est glissante Rap tout dans laltitude, la première édition est cuisante Lhonneur pour sélancer du haut du big air, je te le laisse Sur ce coup là, pas la grande gueule, je me fais discret comme Mokless Entre le freestyler, celui qui prend la noire en chasse-neige Celui qui pleure sa mère le cul bloqué sur ltélésiège Ya de tout, on est bien ici, loin des regards acides La récolte de Novembre nous rend plus ou moins lucide Et puis si tu décidais de poser les skis, fais le à Font-Romeu Ya lambiance, le respect et une partie dta banlieue Toi qua toujours rêvé de toucher le ciel et quest reparti à poil Tes sûr quici au moins on va te la filer ta première étoile Lécho des montagnes, smile, le charme des rideuses Ya que sur les pistes que tu pourras me voir traîner dans la poudreuse Une lettre à la poste, message sincère même en snow Et jte livre avec le cur et la squette-ca de Besancenot Quest-ce que tu sais du temps quon passe à écrire ? Le temps quon passe à vrai dire Des fois sans rien aboutir, sale délire Quest-ce que tu sais de mon quartier ? Les jeunes signent des faux chèques mais pas encore chez Barclay Quest-ce que tu sais de nos femmes ? Tu parles de nos mères, ceux qui parlent souvent forts ne se respectent pas eux-mêmes Ne change pas les règles, quest-ce que tu sais de la drogue ? Ouais, allô, Montana cest juste un rêve de block Comment on vole une mob' ? Comment on ouvre une clope ? Et même en ski une dédicace à mes sauvages du globe Toujours hip-hop ? Yes, quest-ce que tu sais dnos textes ? Vise pas lsommet, jconnais aucun MC quest au-dessus de lEverest Quest-ce que tu sais de la zic ? Tes sous leffet dla zeb Garde ton style, jconnais aucun Maitre Gims, qu'un Rahzel Quest-ce que tu sais dla peur ? Putain, qui craint de souffrir souffre déjà de ce quil craint Paroles rédigées et expliquées par la communauté Rap Genius France !</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ça sert à quoi de se renseigner Ça sert à quoi de me demander si j'ai pas signé D'accord Je suis parti de ce principe qu'ont était tous fichés Si t'as voulu garder un secret on saura tous c'que c'est Que la plupart de ces balances si je les ai toutes pesées L'envieux a voulu vite monter, mais il a tout de suite creusé Viens te poser un peu, je t'invite à voir de tout L'odeur du Douez ou le respect d'un salâm aalaykoum Ça sert à quoi de vous parlez de l'essentiel, dis-moi? On galère tous devant le guichet le 6 du mois Ça sert à quoi de vous écrire en vrai sincèrement La musique est belle, dissimule un délire infernal Smalia tu me vois péter un plomb dans l'immédiat J'ai le souvenir d'enterrer mon père à Mohammédia Je m'en bas les couilles de ta morale Tu m'as vu deux fois à peine La vie est une escalade où l'on chutera tous en rappel Mon Bic toujours en taule Ma feuille en Q.H.S Enfin le premier album et un respect si tu lachètes Fais très attention à toi et aux sales effets secondaires Plutôt que d'parler d'c'que tu gagnes, viens voir un peu ce que l'on perd Ça sert à quoi Montana Ce n'est qu'un film, trou de balle Ça sert à quoi de jouer un rôle quant on s'y trouve pas Profite, réfléchis, nous sommes juste de passage Linsalubrité ici j'ai dû m'y faire avec l'âge Ça sert à quoi t'as vu, même si je sais de quoi je parle Je prend des clichés de ma vie comme un sale appareil jetable On vie, on canne, ça sert à quoi que tu ricanes Faire semblant de ne rien voir ça t'mettra pas à l'écart Ça sert à quoi de vous sortir un disque en 2009 L'industrie est bloquée comme à la prison de Villeneuve Même la TV est faussée de toutes façon Tout est géré par ces pyramides et ces francs-maçons Je viens parler en face, pas derrière vous Appelle-moi, je te ferai un bon son à l'interview Ça sert à quoi de rapper, non j'avais pas besoin de pilules Toujours ému quant on me dis Vas-y Rachid, continue! Ça sert à ça on essaye juste d'oublier l'inquiétude Soutenir la paix c'est pas grâce à une vidéo sur YouTube Ça sert à quoi en fait à force de tourner en rond A force de tourner dans le ring, je n'ai pas tenu un round Ça sert à ça, demande à Flo on pourrait qu'halluciner T'écoutes mes sons, et tu vas piquer mon album chez Seeneey Ça sert à quoi, à rien, ne croyiez pas que l'on se régale Qu'on ferait manger une famille grâce à un compte PayPal Ici on s'entraîne fedar, je fais qu' écrire c'est ça On vient tout casser comme Astérix face à Jules César Et ça sert à quoi aujourd'hui d'embaucher des médiateurs On a prit le ticket et à coup sûr la thune des horodateurs Ça sert à quoi cette merde, je serais le premier à dire non Mets une gifle si tu vois un petit traîner avec un pilon Ça sert à quoi, t'as bien vu, dans le mal ou le bien Malgré bien on est toujours fiers d'être Maghrébins Je reviens lâcher ce thème Prend ce couplet pour une tâche Dédicacé à tout ceux qui se donnent dans le break ou dans le graphe Ça sert à quoi on devrait tout classer par différence Viens ici je vais te montrerai ce qu'on a fe rass Ça sert à quoi t'as bien vu que le monde était un souk Ça sert à ça et ne croyez pas que Rachid en rajoute You might also like Ne croyez pas que Rachid en rajoute Demi Portion, les Grandes Gueules 2-0-0-9 On veux tous s'y reconnaître et ça malgré nos douleurs Noirs, blancs, jaunes, seul Jackson à pût changer sa couleur Ça sert à quoi??</t>
+          <t>Ça sert à quoi de se renseigner Ça sert à quoi de me demander si j'ai pas signé D'accord Je suis parti de ce principe qu'ont était tous fichés Si t'as voulu garder un secret on saura tous c'que c'est Que la plupart de ces balances si je les ai toutes pesées L'envieux a voulu vite monter, mais il a tout de suite creusé Viens te poser un peu, je t'invite à voir de tout L'odeur du Douez ou le respect d'un salâm aalaykoum Ça sert à quoi de vous parlez de l'essentiel, dis-moi? On galère tous devant le guichet le 6 du mois Ça sert à quoi de vous écrire en vrai sincèrement La musique est belle, dissimule un délire infernal Smalia tu me vois péter un plomb dans l'immédiat J'ai le souvenir d'enterrer mon père à Mohammédia Je m'en bas les couilles de ta morale Tu m'as vu deux fois à peine La vie est une escalade où l'on chutera tous en rappel Mon Bic toujours en taule Ma feuille en Q.H.S Enfin le premier album et un respect si tu lachètes Fais très attention à toi et aux sales effets secondaires Plutôt que d'parler d'c'que tu gagnes, viens voir un peu ce que l'on perd Ça sert à quoi Montana Ce n'est qu'un film, trou de balle Ça sert à quoi de jouer un rôle quant on s'y trouve pas Profite, réfléchis, nous sommes juste de passage Linsalubrité ici j'ai dû m'y faire avec l'âge Ça sert à quoi t'as vu, même si je sais de quoi je parle Je prend des clichés de ma vie comme un sale appareil jetable On vie, on canne, ça sert à quoi que tu ricanes Faire semblant de ne rien voir ça t'mettra pas à l'écart Ça sert à quoi de vous sortir un disque en 2009 L'industrie est bloquée comme à la prison de Villeneuve Même la TV est faussée de toutes façon Tout est géré par ces pyramides et ces francs-maçons Je viens parler en face, pas derrière vous Appelle-moi, je te ferai un bon son à l'interview Ça sert à quoi de rapper, non j'avais pas besoin de pilules Toujours ému quant on me dis Vas-y Rachid, continue! Ça sert à ça on essaye juste d'oublier l'inquiétude Soutenir la paix c'est pas grâce à une vidéo sur YouTube Ça sert à quoi en fait à force de tourner en rond A force de tourner dans le ring, je n'ai pas tenu un round Ça sert à ça, demande à Flo on pourrait qu'halluciner T'écoutes mes sons, et tu vas piquer mon album chez Seeneey Ça sert à quoi, à rien, ne croyiez pas que l'on se régale Qu'on ferait manger une famille grâce à un compte PayPal Ici on s'entraîne fedar, je fais qu' écrire c'est ça On vient tout casser comme Astérix face à Jules César Et ça sert à quoi aujourd'hui d'embaucher des médiateurs On a prit le ticket et à coup sûr la thune des horodateurs Ça sert à quoi cette merde, je serais le premier à dire non Mets une gifle si tu vois un petit traîner avec un pilon Ça sert à quoi, t'as bien vu, dans le mal ou le bien Malgré bien on est toujours fiers d'être Maghrébins Je reviens lâcher ce thème Prend ce couplet pour une tâche Dédicacé à tout ceux qui se donnent dans le break ou dans le graphe Ça sert à quoi on devrait tout classer par différence Viens ici je vais te montrerai ce qu'on a fe rass Ça sert à quoi t'as bien vu que le monde était un souk Ça sert à ça et ne croyez pas que Rachid en rajoute Ne croyez pas que Rachid en rajoute Demi Portion, les Grandes Gueules 2-0-0-9 On veux tous s'y reconnaître et ça malgré nos douleurs Noirs, blancs, jaunes, seul Jackson à pût changer sa couleur Ça sert à quoi??</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Deux, deux, deux mille treize, écoute le crew, t'inquiète y'en a pour tous les goûts, suce ce 16 remix ! Hors des normes depuis long time, la mécanique est là Vas-y, viens bédave mon style de rime, il est magique et gras Pose le doigt sur la glotte, commence à apprécier Ça va te laisser des marques sur le palet, sois pas pressé À part lâcher des chuppa chups en forme de lettres Au menu des cônes glacés sans bord de mer Faut qu'tu pé-pom la chose, que t'ingurgites c'qu'on dit On a même des phases à gauche pour nourrir tes convives Préparer d'quoi gaver les sceptiques et leurs bandes Qu'ils viennent happer mes vers, y laisser quelques dents J'suis c't'ancien mômes marqués par la ie-v, la lutte, le stress Désorientant le commissaire, lui disant pompe ce texte ! On a lâché la school, sur feuille On s'est mis en mode missile donc apprécie le mille-feuille dans ta bouche Ma gueule, y'a qu'des kickers avec des burnes de steak Et j'finis simplement en disant suce ce 16 ! J'écris mes 16 sur des feuilles sales Et j'm'évade sur des scènes, en remplissant des p'tites salles Qu'les Mc sucent ça, au lieu d'baiser des p'tites crades Quand ça va pas, j'compulse l'herbe que j'consomme Les caisses de sky qui m'saoûlent et j'me rends compte, y'a qu'la caisse claire qui m'console Quand j'vois ma vie, j'suis conscient, faut qu'j'm'en sorte Le match est dur mais c'qui compte c'est le score T'inquiète poto, j'irai au bout avec ma clique et mes couilles qui m'escortent ! You might also like Violent comme nos codes, nos modes de vies, le thème et l'nom d'ma clique Tu testes pour finir dans ta pisse, ça démonte sa machine J'démonte parce que ça m'démange de leur faire de l'ombre C'est les gangsters du dimanche, RDV dans leurs bureaux Pour un clip filmé par Swylox, attention c'est Gre Si y regardent de travers à l'arrêt, pour un acte gore J'représente, même si j'avoue que parfois c'est trop La tess enferme les génies dans un drôle de rôle Demi débite, phénoménal, transformation de l'animal Laisse deux minutes, polyvalent, poli d'abord, Demi galant Oh le gala, oh les dégâts, écartez les gars, descend de l'étage Mettez les gants et virer les tass' Mettez du son et ouvrez la casse T'as tué qui ? Personne, j'me téléguide seul, garçon Petit bonhomme, vu le blason chaque recettes est fait maison Aucune raison, un peu de résine, un rizon et en sandwich ! En bas de l'affiche, en bas de la fosse, on fait qu'du rap et on s'en fiche ! Tu veux des rimes, on a c'qui faut Tu cherches un gramme, on a l'kilo On bave, découpe, grosse taffe, esclaffe, tout pars du bon pilon J'arrive, emballe dans l'continent, à t'faire voler un sous-marin Pas besoin d'police, juste un son pour voir tout l'monde les mains en l'air On t'dépasse pas, reste à terre, reste tranquille, c'est l'bordel Entre parenthèses, un peu d'seum, chaque mesure devient mortelle Vas-y, venez voir et vous verrez ! On travaille les jours fériés Chez nous auteur, compositeur, j'attire les fans d'Léo Ferré ! Laisse moi faire mon rap, j'suis pas là pour être la révélation d'l'année ! Jcause pépère à mon cahier, j'suis pas d'cette génération cramée Trop loin d'être sage frérot ! J'viens pas t'donner d'leçon Au moins j'm'évade, c'est drôle, parfois j'déconnecte d'ce monde On paraît libre, en grandissant on comprends qu'on vit à peine Comme toi et lui, j'ai fais des choses dans ma vie dont j'suis pas fier Faudrait qu'j'me casse quelque part, ouais faudrait enfin qu'j'me barre Si j'fais ma life dans le rap, c'est qu'j'suis forcément un peu barje Faut qu'tu montes plus le volume, j'm'en fous d'être unanime Fuck ton nombre de vues, j'suis connu dans toutes les rues d'ma ville Pas là pour faire croire aux plus p'tits qu'dans la rue on est mieux J'suis ni un nouveau, ni un ancien, j'suis une fusion des deux Jeff m'a dit brûle ce truc et j'étais plus que prêt ! La rime est dure j'te jure, j'vise dans la nuque d'ce game J'balance un truc de plus, frérot, j'fais juste c'que j'aime Donc vas-y suce et re-suce, suce et re-suce ce 16 ! Oh, dis-moi, qu'est-ce t'entends par un plan calme ? Les p'tits ont des parents bancales, et repars en brancard J'm'affiche pas devant mes afficionados T'as cru tuer tous les rebelles, mais non, fils y'en a d'autres Met la radio, c'est parti en merde, j'ai la gerbe Face à face avec la partie émergée de l'iceberg La violence parle d'elle même, on parle pas, on s'tait Délinquance, maman outrée, papa où t'es ? J'ai la tête ailleurs quand y m'parlent de sa life Je saigne parce que sa lame me passe le salaam T'as pris des coups, le destin se contorsionne J'suis la liasse qui fait déborder le compte offshore Calme-toi, t'es ni Biggie, t'es ni 2Pac T'es un bras cassé, mais j'veux bien signer ton plâtre J'fais qu'passer comme une comète Arrêtez les comm', vous êtes bloqués dans l'passé comme une Claudette ! J'ai dû avaler la pillule mais vers la fin j'sens qu'elle est mal passée Ils voudraient qu'j'me plie aux règles, ils m'serrent la main ne voulant pas m'froisser C'est pas des thunes, c'est ta fierté qu'tu mets d'côté Mais la fierté comme la défense, elle sert à rien quand elle est mal placée C'est laborieux comme dans ma tête T'auras beau sucer c'texte mais j'resterais inglorieux, demande à Jeff Pourquoi on vise la lune, pas l'soleil On les a vu s'brûler les ailes, mec ces chiens m'ont mis la puce à l'oreille ! J'ai froissé moult monde au test, ça panique, pire le doute retombe Soupçonné d'écrire des textes sataniques, tirés d'outre-tombe A m'entendre des mois, retour à l'ordre des fois Mais j'ai l'sang chaud, tu finiras manchot à t'en mordre les doigts Suce ce 16, au pire t'en a marre, lèche-le ! Comme la langue française à léchée l'sol, tirée par les cheveux C'est parti du bas d'l'échelle Et j'ferais parti de ceux qui n'ont pas d'Bescherelle qui aurait pu lire et parler schleu ! Yo ma clique pèse, en Clio 2 devant l'Martinez Vas-y, baisse les vitres et monte le beat de Mani Deiz ! Qu'ils bougent leurs têtes sur nos airs, nos flows musclés Oui, goute le texte, nos 16, mothfuck, suce-les ! C'est pas du hip hop muselé, ni du rap soumis Dis à ta hiérarchie qu'on l'élargit, Katsuni ! Ça dans ta bouche, vite, vite, j'm'échappe dans la soute Gros, ça sent la soude, pfft, pfft, éjac' dans la soupe ! Trop d'clip d'pipelettes, leur game j't'ai dis, j'm'y perds Me demande rien, moi j'sais juste qu'c'est un nid d'vipères ! Roule un fumigène, l'équipe culmine Le beat surine, Jeff, des lames tranchantes en featuring T'aimes le bon produit ? ben prends soin de te rapprocher J'introduis mon 16, l'aimes-tu au point d'le galocher ? Oh t'as raccroché ? cerné, j'taf la noche Des tas d'projets sans reposer mon crâne amoché !</t>
+          <t>Deux, deux, deux mille treize, écoute le crew, t'inquiète y'en a pour tous les goûts, suce ce 16 remix ! Hors des normes depuis long time, la mécanique est là Vas-y, viens bédave mon style de rime, il est magique et gras Pose le doigt sur la glotte, commence à apprécier Ça va te laisser des marques sur le palet, sois pas pressé À part lâcher des chuppa chups en forme de lettres Au menu des cônes glacés sans bord de mer Faut qu'tu pé-pom la chose, que t'ingurgites c'qu'on dit On a même des phases à gauche pour nourrir tes convives Préparer d'quoi gaver les sceptiques et leurs bandes Qu'ils viennent happer mes vers, y laisser quelques dents J'suis c't'ancien mômes marqués par la ie-v, la lutte, le stress Désorientant le commissaire, lui disant pompe ce texte ! On a lâché la school, sur feuille On s'est mis en mode missile donc apprécie le mille-feuille dans ta bouche Ma gueule, y'a qu'des kickers avec des burnes de steak Et j'finis simplement en disant suce ce 16 ! J'écris mes 16 sur des feuilles sales Et j'm'évade sur des scènes, en remplissant des p'tites salles Qu'les Mc sucent ça, au lieu d'baiser des p'tites crades Quand ça va pas, j'compulse l'herbe que j'consomme Les caisses de sky qui m'saoûlent et j'me rends compte, y'a qu'la caisse claire qui m'console Quand j'vois ma vie, j'suis conscient, faut qu'j'm'en sorte Le match est dur mais c'qui compte c'est le score T'inquiète poto, j'irai au bout avec ma clique et mes couilles qui m'escortent ! Violent comme nos codes, nos modes de vies, le thème et l'nom d'ma clique Tu testes pour finir dans ta pisse, ça démonte sa machine J'démonte parce que ça m'démange de leur faire de l'ombre C'est les gangsters du dimanche, RDV dans leurs bureaux Pour un clip filmé par Swylox, attention c'est Gre Si y regardent de travers à l'arrêt, pour un acte gore J'représente, même si j'avoue que parfois c'est trop La tess enferme les génies dans un drôle de rôle Demi débite, phénoménal, transformation de l'animal Laisse deux minutes, polyvalent, poli d'abord, Demi galant Oh le gala, oh les dégâts, écartez les gars, descend de l'étage Mettez les gants et virer les tass' Mettez du son et ouvrez la casse T'as tué qui ? Personne, j'me téléguide seul, garçon Petit bonhomme, vu le blason chaque recettes est fait maison Aucune raison, un peu de résine, un rizon et en sandwich ! En bas de l'affiche, en bas de la fosse, on fait qu'du rap et on s'en fiche ! Tu veux des rimes, on a c'qui faut Tu cherches un gramme, on a l'kilo On bave, découpe, grosse taffe, esclaffe, tout pars du bon pilon J'arrive, emballe dans l'continent, à t'faire voler un sous-marin Pas besoin d'police, juste un son pour voir tout l'monde les mains en l'air On t'dépasse pas, reste à terre, reste tranquille, c'est l'bordel Entre parenthèses, un peu d'seum, chaque mesure devient mortelle Vas-y, venez voir et vous verrez ! On travaille les jours fériés Chez nous auteur, compositeur, j'attire les fans d'Léo Ferré ! Laisse moi faire mon rap, j'suis pas là pour être la révélation d'l'année ! Jcause pépère à mon cahier, j'suis pas d'cette génération cramée Trop loin d'être sage frérot ! J'viens pas t'donner d'leçon Au moins j'm'évade, c'est drôle, parfois j'déconnecte d'ce monde On paraît libre, en grandissant on comprends qu'on vit à peine Comme toi et lui, j'ai fais des choses dans ma vie dont j'suis pas fier Faudrait qu'j'me casse quelque part, ouais faudrait enfin qu'j'me barre Si j'fais ma life dans le rap, c'est qu'j'suis forcément un peu barje Faut qu'tu montes plus le volume, j'm'en fous d'être unanime Fuck ton nombre de vues, j'suis connu dans toutes les rues d'ma ville Pas là pour faire croire aux plus p'tits qu'dans la rue on est mieux J'suis ni un nouveau, ni un ancien, j'suis une fusion des deux Jeff m'a dit brûle ce truc et j'étais plus que prêt ! La rime est dure j'te jure, j'vise dans la nuque d'ce game J'balance un truc de plus, frérot, j'fais juste c'que j'aime Donc vas-y suce et re-suce, suce et re-suce ce 16 ! Oh, dis-moi, qu'est-ce t'entends par un plan calme ? Les p'tits ont des parents bancales, et repars en brancard J'm'affiche pas devant mes afficionados T'as cru tuer tous les rebelles, mais non, fils y'en a d'autres Met la radio, c'est parti en merde, j'ai la gerbe Face à face avec la partie émergée de l'iceberg La violence parle d'elle même, on parle pas, on s'tait Délinquance, maman outrée, papa où t'es ? J'ai la tête ailleurs quand y m'parlent de sa life Je saigne parce que sa lame me passe le salaam T'as pris des coups, le destin se contorsionne J'suis la liasse qui fait déborder le compte offshore Calme-toi, t'es ni Biggie, t'es ni 2Pac T'es un bras cassé, mais j'veux bien signer ton plâtre J'fais qu'passer comme une comète Arrêtez les comm', vous êtes bloqués dans l'passé comme une Claudette ! J'ai dû avaler la pillule mais vers la fin j'sens qu'elle est mal passée Ils voudraient qu'j'me plie aux règles, ils m'serrent la main ne voulant pas m'froisser C'est pas des thunes, c'est ta fierté qu'tu mets d'côté Mais la fierté comme la défense, elle sert à rien quand elle est mal placée C'est laborieux comme dans ma tête T'auras beau sucer c'texte mais j'resterais inglorieux, demande à Jeff Pourquoi on vise la lune, pas l'soleil On les a vu s'brûler les ailes, mec ces chiens m'ont mis la puce à l'oreille ! J'ai froissé moult monde au test, ça panique, pire le doute retombe Soupçonné d'écrire des textes sataniques, tirés d'outre-tombe A m'entendre des mois, retour à l'ordre des fois Mais j'ai l'sang chaud, tu finiras manchot à t'en mordre les doigts Suce ce 16, au pire t'en a marre, lèche-le ! Comme la langue française à léchée l'sol, tirée par les cheveux C'est parti du bas d'l'échelle Et j'ferais parti de ceux qui n'ont pas d'Bescherelle qui aurait pu lire et parler schleu ! Yo ma clique pèse, en Clio 2 devant l'Martinez Vas-y, baisse les vitres et monte le beat de Mani Deiz ! Qu'ils bougent leurs têtes sur nos airs, nos flows musclés Oui, goute le texte, nos 16, mothfuck, suce-les ! C'est pas du hip hop muselé, ni du rap soumis Dis à ta hiérarchie qu'on l'élargit, Katsuni ! Ça dans ta bouche, vite, vite, j'm'échappe dans la soute Gros, ça sent la soude, pfft, pfft, éjac' dans la soupe ! Trop d'clip d'pipelettes, leur game j't'ai dis, j'm'y perds Me demande rien, moi j'sais juste qu'c'est un nid d'vipères ! Roule un fumigène, l'équipe culmine Le beat surine, Jeff, des lames tranchantes en featuring T'aimes le bon produit ? ben prends soin de te rapprocher J'introduis mon 16, l'aimes-tu au point d'le galocher ? Oh t'as raccroché ? cerné, j'taf la noche Des tas d'projets sans reposer mon crâne amoché !</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Celui qui a mal tourné x7 Il y avait des temps et des temps Que je n'm'étais pas servi d'mes dents Que je n'mettais pas d'vin dans mon eau Ni de charbon dans mon fourneau Tous les croque-morts silencieux Me dévoraient déjà des yeux Ma dernière heure allait sonner C'est alors que j'ai mal tourné N'y allant pas par quatre chemins J'estourbis en un tournemain En un coup de bûche excessif Un noctambule en or massif Les chats fourrés, quand ils l'ont su M'ont posé la patte dessus Pour m'envoyer à la Santé Me refaire une honnêteté Machin, Chose, un tel, une telle Tous ces communs des mortels Furent d'avis que j'aurais dû En bonne justice être pendu A la lanterne et sur-le-champ Il s'voyaient déjà partageant Ma corde, en tout bien tout honneur En guise de porte-bonheur Au bout d'un siècle, on m'a jeté A la porte de la Santé Comme je suis sentimental Je retourne au quartier natal Baissant les yeux, rasant les murs Mal à l'aise sur mes fémurs M'attendant à voir les humains Se détourner de mon chemin Y'en a un qui m'a dit Salut Te revoir, on n'y comptait plus Y'en a un qui m'a demandé Des nouvelles de ma santé Lorsque j'ai vu qu'il restait encore Du monde et du beau monde par terre J'ai pleuré le cul par terre Toutes les larmes de mon corps You might also like1</t>
+          <t>Celui qui a mal tourné x7 Il y avait des temps et des temps Que je n'm'étais pas servi d'mes dents Que je n'mettais pas d'vin dans mon eau Ni de charbon dans mon fourneau Tous les croque-morts silencieux Me dévoraient déjà des yeux Ma dernière heure allait sonner C'est alors que j'ai mal tourné N'y allant pas par quatre chemins J'estourbis en un tournemain En un coup de bûche excessif Un noctambule en or massif Les chats fourrés, quand ils l'ont su M'ont posé la patte dessus Pour m'envoyer à la Santé Me refaire une honnêteté Machin, Chose, un tel, une telle Tous ces communs des mortels Furent d'avis que j'aurais dû En bonne justice être pendu A la lanterne et sur-le-champ Il s'voyaient déjà partageant Ma corde, en tout bien tout honneur En guise de porte-bonheur Au bout d'un siècle, on m'a jeté A la porte de la Santé Comme je suis sentimental Je retourne au quartier natal Baissant les yeux, rasant les murs Mal à l'aise sur mes fémurs M'attendant à voir les humains Se détourner de mon chemin Y'en a un qui m'a dit Salut Te revoir, on n'y comptait plus Y'en a un qui m'a demandé Des nouvelles de ma santé Lorsque j'ai vu qu'il restait encore Du monde et du beau monde par terre J'ai pleuré le cul par terre Toutes les larmes de mon corps 1</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Yeah yeah yeah Bigflo Oli, Demi Portion Toulouse, Sète C'est tout cqu'il nous reste Yeah Dis-leur La même bande de potes depuis la primaire ouais, un amour que rien ne viendra contrarier rien Nos fous rires ricochent sur les bords d'une rivière ah, ah, on lance les paris du premier qui va se marier ouh On saccroche, on arpente le meilleur du pire, des destins qu'la voyante n'avait pas vu v'nir nan, nan Mais j'ai une chance infime de gagner le prix Goncourt avec mon journal intime han Les cornets de glace assis sur la Grand Place à la sortie des classes, on s'faisait la belle Les flashs des voitures qui passent et l'eau des flaques dans la face, on voulait visiter l'espace, est-cque tu trappelles ? Parce que c'est simple comme Rachid Demi P et son demi-accent chantant Parce que j'suis déjà nostalgique et ça passera pas avec le temps Garder nos souvenirs, imager notre avenir Prendre le temps de vivre, c'est tout c'quil nous reste L'espoir d'un jour meilleur, regarder passer les heures Laisser parler le cur, c'est tout c'qu'il nous reste C'est tout c'qu'il nous reste, c'est tout c'qu'il nous reste Mmh, mmh, c'est tout c'qu'il nous reste Mmh, mmh, c'est tout c'qu'il nous reste You might also like On a toujours rêvé des raisons de partir ouais Quitter sa famille un moyen de s'en sortir Maman, je t'aime et j'espère qu'on va pas ramer Adieu ma terre, j'vois la mer Méditerranée On pense à vous tous, j'médite sans arrêt woaw Mon cur s'est battu mais n'a toujours pas d'armée Toujours pas dormi, on m'fait les mêmes remarques La vie est une série, j'attends la saison 4 Demi Portion, c'est toi, t'es ma moitié maintenant On est des animaux, paraît qu'on vit bêtement Rêvé de prendre le large, laissez-nous prendre l'air Rêvé de prendre le large, laissez-nous prendre l'air On n'y trouve peu d'modèle donc je chante la vie On dit qu'la vie est belle, Bigflo Oli Allez, stop, laissez-nous rêver simplement Laissez-moi rêver simplement Garder nos souvenirs, imager notre avenir Prendre le temps de vivre, c'est tout c'qu'il nous reste L'espoir d'un jour meilleur, regarder passer les heures Laisser parler le cur, c'est tout c'qu'il nous reste C'est tout c'qu'il nous reste, c'est tout c'qu'il nous reste Mmh, mmh, c'est tout c'qu'il nous reste Mmh, mmh, c'est tout c'qu'il nous reste Le premier regard de celle qui t'aime, le premier souvenir notoire d'un cur fidèle Assis sur le trottoir, histoire si belle, Promis, toi et moi, c'est pour la vie, dit-elle Tous ces moments d'enfance heureuse perdus, qui sont passés, qu'on n'aura jamais plus Le Soleil et les promesses du vent, quand nos grands-pères étaient encore vivants On veut encore du rire, on veut encore durer, on veut encore le dire, on veut encore du vrai Libérez nos esprits de pensées torturées, on est encore là, désolés d'vous importuner Parce qu'on a bientôt plus le choix, qu'on a connu des peines indicibles Parce que nos pères sont tous des rois mais que leurs couronnes sont invisibles Garder nos souvenirs, imager notre avenir Prendre le temps de vivre, c'est tout c'qu'il nous reste L'espoir d'un jour meilleur, regarder passer les heures Laisser parler le cur, c'est tout c'qu'il nous reste C'est tout c'qu'il nous reste, c'est tout c'qu'il nous reste Mmh, mmh, c'est tout c'qu'il nous reste Mmh, mmh, c'est tout c'qu'il nous reste Demi Portion</t>
+          <t>Yeah yeah yeah Bigflo Oli, Demi Portion Toulouse, Sète C'est tout cqu'il nous reste Yeah Dis-leur La même bande de potes depuis la primaire ouais, un amour que rien ne viendra contrarier rien Nos fous rires ricochent sur les bords d'une rivière ah, ah, on lance les paris du premier qui va se marier ouh On saccroche, on arpente le meilleur du pire, des destins qu'la voyante n'avait pas vu v'nir nan, nan Mais j'ai une chance infime de gagner le prix Goncourt avec mon journal intime han Les cornets de glace assis sur la Grand Place à la sortie des classes, on s'faisait la belle Les flashs des voitures qui passent et l'eau des flaques dans la face, on voulait visiter l'espace, est-cque tu trappelles ? Parce que c'est simple comme Rachid Demi P et son demi-accent chantant Parce que j'suis déjà nostalgique et ça passera pas avec le temps Garder nos souvenirs, imager notre avenir Prendre le temps de vivre, c'est tout c'quil nous reste L'espoir d'un jour meilleur, regarder passer les heures Laisser parler le cur, c'est tout c'qu'il nous reste C'est tout c'qu'il nous reste, c'est tout c'qu'il nous reste Mmh, mmh, c'est tout c'qu'il nous reste Mmh, mmh, c'est tout c'qu'il nous reste On a toujours rêvé des raisons de partir ouais Quitter sa famille un moyen de s'en sortir Maman, je t'aime et j'espère qu'on va pas ramer Adieu ma terre, j'vois la mer Méditerranée On pense à vous tous, j'médite sans arrêt woaw Mon cur s'est battu mais n'a toujours pas d'armée Toujours pas dormi, on m'fait les mêmes remarques La vie est une série, j'attends la saison 4 Demi Portion, c'est toi, t'es ma moitié maintenant On est des animaux, paraît qu'on vit bêtement Rêvé de prendre le large, laissez-nous prendre l'air Rêvé de prendre le large, laissez-nous prendre l'air On n'y trouve peu d'modèle donc je chante la vie On dit qu'la vie est belle, Bigflo Oli Allez, stop, laissez-nous rêver simplement Laissez-moi rêver simplement Garder nos souvenirs, imager notre avenir Prendre le temps de vivre, c'est tout c'qu'il nous reste L'espoir d'un jour meilleur, regarder passer les heures Laisser parler le cur, c'est tout c'qu'il nous reste C'est tout c'qu'il nous reste, c'est tout c'qu'il nous reste Mmh, mmh, c'est tout c'qu'il nous reste Mmh, mmh, c'est tout c'qu'il nous reste Le premier regard de celle qui t'aime, le premier souvenir notoire d'un cur fidèle Assis sur le trottoir, histoire si belle, Promis, toi et moi, c'est pour la vie, dit-elle Tous ces moments d'enfance heureuse perdus, qui sont passés, qu'on n'aura jamais plus Le Soleil et les promesses du vent, quand nos grands-pères étaient encore vivants On veut encore du rire, on veut encore durer, on veut encore le dire, on veut encore du vrai Libérez nos esprits de pensées torturées, on est encore là, désolés d'vous importuner Parce qu'on a bientôt plus le choix, qu'on a connu des peines indicibles Parce que nos pères sont tous des rois mais que leurs couronnes sont invisibles Garder nos souvenirs, imager notre avenir Prendre le temps de vivre, c'est tout c'qu'il nous reste L'espoir d'un jour meilleur, regarder passer les heures Laisser parler le cur, c'est tout c'qu'il nous reste C'est tout c'qu'il nous reste, c'est tout c'qu'il nous reste Mmh, mmh, c'est tout c'qu'il nous reste Mmh, mmh, c'est tout c'qu'il nous reste Demi Portion</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>C'est pour ce gosse qui voit plus loin qu'le paysage Qui dans ses rêves décolle, se fait chambrer à l'école pour une histoire de métissage C'est pour ce père de famille qui voit naitre un sourire précoce Qui change de vie et qui part tard pour pouvoir nourrir ses gosses Pour ceux qui se sont trompés, connaissent l'amour et sa trempe Pour ceux qui fument comme des pompiers, qui savent que la mort les attendent C'est pour c't'ado qui pensait qu'tout est drôle Et qu'a fini par caner à force de vouloir tester toutes les drogues Ceux qu'on pas d'identité, qui s'battent à la vie à la mort Pour les darons qui doivent identifier leur fille ou leur fils à la morgue Ceux qui ouvrent une épicerie pour couvrir leurs ventes Imagine le nombre de gens qui dealent pour nourrir leur ventre C'est pour ceux qui savent c'qui s'cache derrière leur conflits sombres Qui baisent l'insigne, qu'on des principes, s'arrachent pour leurs convictions Ceux qui sont paro, qui quand sont trop mal tisent Qui connaissent les barreaux d'la tristesse quand le business pousse au traumatisme C'est pour cette étudiante qui pour du cash racole Pour les vécus percutants qui perdent du temps, qui s'cachent derrière l'alcool Pour ceux qui pensent qu'ils n'ont pas l'air capable C'est faux! Pour les frères qui s'aident, lâchent leur canap le jour où t'es en galère d'appart C'est pour cette femme qui d'un amour féroce s'acharne Un p'tit gabarit qu'a pas d'mari avec 4 gosses à charge A l'heure où l'vice et la vertu s'heurtent et s'apparentent De tout cur c'est pour ces potes d'enfance qu'ont perdu leurs parents Y'a ceux qui trouvent l'amour, y'a ceux qui trouvent la mort Y'a ceux qui couvent la vie, ceux qui la bouffent ceux qui la mordent Y'a ceux qui pour vivre comme vous prennent pour dix ans fermes Loin d'êtres fous, y'a ceux qu'on un cerveau et ceux qui s'en servent You might also like A nos chacals, nos frères Nos bâtards, nos pères A ceux qui ragent, qui crachent A tous ceux qui partagent nos peines A nos mères pudiques, notre cher public A toute cette force qui s'reflète dans chaque pupille d'ceux qui acclament nos 16 A nos chacals, nos frères Nos bâtards, nos pères A ceux qui ragent, qui crachent A tous ceux qui partagent nos peines A nos mères pudiques, notre cher public Dites leur que les miens m'suffisent, que la rage s'éteint quand nos pages sont pleines C'est pour celle, qui a vu son fils unique partir à tout jamais Histoire de fric, de jalousie, brisant le nid d'un doux chalet C'est pour celui qu'esquive, quand la rue est sous ricard Démuni, ayant comme seule arme la vue d'un suricate Pour celle qui ne dérange en aucun cas A part ses fesses qu'encaissent sans moufter, devant les casseroles séquestrée par ses frères Celui qui jette son fric, enivré d'aucune passion Ayant comme seul chef celui de ses inculpations Celui qui pète son stick toute l'aprem sur logiciel En mode autiste, pour l'bonheur de nos oreilles, ne voit pas le joli ciel A celles qui mettent en selle nos rêves, nos pieds à l'étriers Sans elles, pas d'galop, mais l'allure du pas d'un équidé Trop d'idées dans ma tête trottent attristées pour ce monde Non seulement pour mes futurs gones si ce jour se montre C'est pour celui en bleu de travail sans super costard Ex taulard, sur la bonne voie d'une névralgie intercostale A celui qui tutoie la faillite, qu'a de grands faillis Talonnait, les pas biens périlleux de Rédoine Faïd Celui qui tend la main au pied d'un guichet BNP Celui qui ne voit rien mais bien trop voyeur d'vant la TNT C'est pour ce petit flemmard qui débarrasse jamais sa table Mais le fait chez les autres, et pour moins que ça certain permet sa tarte A cette jeunesse d'à peine 20 ans et tant d'antécédents Comment croquer la vie quand la drogue a prit le temps d'oter ses dents? Y'à ceux qui cherchent la merde et qui la trouvent alors Y'a ceux qui kiffent la vie, ceux qui la perdent ceux qui l'adorent C'est pour les mots qu'j'aurais du dire et arrondir les angles Même si le silence gène allons laissons venir les anges A nos chacals, nos frères Nos bâtards, nos pères A ceux qui ragent, qui crachent A tous ceux qui partagent nos peines A nos mères pudiques, notre cher public A toute cette force qui s'reflète dans chaque pupille d'ceux qui acclament nos 16 A nos chacals, nos frères Nos bâtards, nos pères A ceux qui ragent, qui crachent A tous ceux qui partagent nos peines A nos mères pudiques, notre cher public Dites leur que les miens m'suffisent, que la rage s'éteint quand nos pages sont pleines C'est pour tous ceux qui charbonnent cous' Pour ceux qui crient au secours Ceux qui évitent les secousses Ceux qui opèrent en douce A cette maman qui te parle plus Ce papa que tu fait peine Toute cette rage que t'évacue Jusqu'au jour où tu vas t'perdre Ceux qui n'voient même plus les règles Ni les traces de la limite Avoir le plus de billets verts ne fera pas vivre à l'infini Ceux qui t'font mal au cerveau jusqu'à t'vendre du doliprane La blanche n'est plus pour les riches, maintenant c'est devenu légal Ceux qui perdent plus qu'ils en gagnent Bosse plus, mourira jeune S'tuer pour 10 balles à l'heure Écrire l'avenir à l'effaceur Pour ceux qui s'battent sans avoir peur Parler sans devoir se taire A cette fille qui pleure tout l'temps, qui tombe autant d'gouttes qu'en hiver A tout ceux qui enrichissent la guerre sans avoir senti un cadavre Demande à Koma, on est déçus dès qu'elle retire son maquillage Fuck Kylie Minaj, ptetre la seule fois où j'suis bilingue Pour ceux qui sont drogués au son, qui n'ont pas senti la seringue A nos chacals, nos frères Nos batards, nos pères A ceux qui ragent, qui crachent A tous ceux qui partagent nos peines A nos mères pudiques, notre cher public A toute cette force qui s'reflète dans chaque pupille d'ceux qui acclament nos 16 A nos chacals, nos frères Nos batards, nos pères A ceux qui ragent, qui crachent A tous ceux qui partagent nos peines A nos mères pudiques, notre cher public Dites leur que les miens m'suffisent, que la rage s'éteint quand nos pages sont pleines</t>
+          <t>C'est pour ce gosse qui voit plus loin qu'le paysage Qui dans ses rêves décolle, se fait chambrer à l'école pour une histoire de métissage C'est pour ce père de famille qui voit naitre un sourire précoce Qui change de vie et qui part tard pour pouvoir nourrir ses gosses Pour ceux qui se sont trompés, connaissent l'amour et sa trempe Pour ceux qui fument comme des pompiers, qui savent que la mort les attendent C'est pour c't'ado qui pensait qu'tout est drôle Et qu'a fini par caner à force de vouloir tester toutes les drogues Ceux qu'on pas d'identité, qui s'battent à la vie à la mort Pour les darons qui doivent identifier leur fille ou leur fils à la morgue Ceux qui ouvrent une épicerie pour couvrir leurs ventes Imagine le nombre de gens qui dealent pour nourrir leur ventre C'est pour ceux qui savent c'qui s'cache derrière leur conflits sombres Qui baisent l'insigne, qu'on des principes, s'arrachent pour leurs convictions Ceux qui sont paro, qui quand sont trop mal tisent Qui connaissent les barreaux d'la tristesse quand le business pousse au traumatisme C'est pour cette étudiante qui pour du cash racole Pour les vécus percutants qui perdent du temps, qui s'cachent derrière l'alcool Pour ceux qui pensent qu'ils n'ont pas l'air capable C'est faux! Pour les frères qui s'aident, lâchent leur canap le jour où t'es en galère d'appart C'est pour cette femme qui d'un amour féroce s'acharne Un p'tit gabarit qu'a pas d'mari avec 4 gosses à charge A l'heure où l'vice et la vertu s'heurtent et s'apparentent De tout cur c'est pour ces potes d'enfance qu'ont perdu leurs parents Y'a ceux qui trouvent l'amour, y'a ceux qui trouvent la mort Y'a ceux qui couvent la vie, ceux qui la bouffent ceux qui la mordent Y'a ceux qui pour vivre comme vous prennent pour dix ans fermes Loin d'êtres fous, y'a ceux qu'on un cerveau et ceux qui s'en servent A nos chacals, nos frères Nos bâtards, nos pères A ceux qui ragent, qui crachent A tous ceux qui partagent nos peines A nos mères pudiques, notre cher public A toute cette force qui s'reflète dans chaque pupille d'ceux qui acclament nos 16 A nos chacals, nos frères Nos bâtards, nos pères A ceux qui ragent, qui crachent A tous ceux qui partagent nos peines A nos mères pudiques, notre cher public Dites leur que les miens m'suffisent, que la rage s'éteint quand nos pages sont pleines C'est pour celle, qui a vu son fils unique partir à tout jamais Histoire de fric, de jalousie, brisant le nid d'un doux chalet C'est pour celui qu'esquive, quand la rue est sous ricard Démuni, ayant comme seule arme la vue d'un suricate Pour celle qui ne dérange en aucun cas A part ses fesses qu'encaissent sans moufter, devant les casseroles séquestrée par ses frères Celui qui jette son fric, enivré d'aucune passion Ayant comme seul chef celui de ses inculpations Celui qui pète son stick toute l'aprem sur logiciel En mode autiste, pour l'bonheur de nos oreilles, ne voit pas le joli ciel A celles qui mettent en selle nos rêves, nos pieds à l'étriers Sans elles, pas d'galop, mais l'allure du pas d'un équidé Trop d'idées dans ma tête trottent attristées pour ce monde Non seulement pour mes futurs gones si ce jour se montre C'est pour celui en bleu de travail sans super costard Ex taulard, sur la bonne voie d'une névralgie intercostale A celui qui tutoie la faillite, qu'a de grands faillis Talonnait, les pas biens périlleux de Rédoine Faïd Celui qui tend la main au pied d'un guichet BNP Celui qui ne voit rien mais bien trop voyeur d'vant la TNT C'est pour ce petit flemmard qui débarrasse jamais sa table Mais le fait chez les autres, et pour moins que ça certain permet sa tarte A cette jeunesse d'à peine 20 ans et tant d'antécédents Comment croquer la vie quand la drogue a prit le temps d'oter ses dents? Y'à ceux qui cherchent la merde et qui la trouvent alors Y'a ceux qui kiffent la vie, ceux qui la perdent ceux qui l'adorent C'est pour les mots qu'j'aurais du dire et arrondir les angles Même si le silence gène allons laissons venir les anges A nos chacals, nos frères Nos bâtards, nos pères A ceux qui ragent, qui crachent A tous ceux qui partagent nos peines A nos mères pudiques, notre cher public A toute cette force qui s'reflète dans chaque pupille d'ceux qui acclament nos 16 A nos chacals, nos frères Nos bâtards, nos pères A ceux qui ragent, qui crachent A tous ceux qui partagent nos peines A nos mères pudiques, notre cher public Dites leur que les miens m'suffisent, que la rage s'éteint quand nos pages sont pleines C'est pour tous ceux qui charbonnent cous' Pour ceux qui crient au secours Ceux qui évitent les secousses Ceux qui opèrent en douce A cette maman qui te parle plus Ce papa que tu fait peine Toute cette rage que t'évacue Jusqu'au jour où tu vas t'perdre Ceux qui n'voient même plus les règles Ni les traces de la limite Avoir le plus de billets verts ne fera pas vivre à l'infini Ceux qui t'font mal au cerveau jusqu'à t'vendre du doliprane La blanche n'est plus pour les riches, maintenant c'est devenu légal Ceux qui perdent plus qu'ils en gagnent Bosse plus, mourira jeune S'tuer pour 10 balles à l'heure Écrire l'avenir à l'effaceur Pour ceux qui s'battent sans avoir peur Parler sans devoir se taire A cette fille qui pleure tout l'temps, qui tombe autant d'gouttes qu'en hiver A tout ceux qui enrichissent la guerre sans avoir senti un cadavre Demande à Koma, on est déçus dès qu'elle retire son maquillage Fuck Kylie Minaj, ptetre la seule fois où j'suis bilingue Pour ceux qui sont drogués au son, qui n'ont pas senti la seringue A nos chacals, nos frères Nos batards, nos pères A ceux qui ragent, qui crachent A tous ceux qui partagent nos peines A nos mères pudiques, notre cher public A toute cette force qui s'reflète dans chaque pupille d'ceux qui acclament nos 16 A nos chacals, nos frères Nos batards, nos pères A ceux qui ragent, qui crachent A tous ceux qui partagent nos peines A nos mères pudiques, notre cher public Dites leur que les miens m'suffisent, que la rage s'éteint quand nos pages sont pleines</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Y'a pas de honte Je vis ma vie, survis comme je l'entends On rit, on pleure, grandit, la honte m'apprendra On dit, on meurt, on est bloqués dans l'temps La joie, la peur, la foi, plus rien n'me surprend Je vis ma vie, ma façon d'se venger J'veux voir autre chose, j'ai l'envie de changer Mes peines, mes craintes veulent tous en fait s'arracher Et si parfois j'ai honte, ça va bien s'arranger Ah ouais, s'arranger C'est sûr, j'sais pas Primo, je n'ai pas honte ni la peur de dire c'que j'pense J'ai vu un trou J'suis face à ce moment qui faut qu'je passe J'ai pas honte d'être à la dèche sur la tête de ma mère Tu sais qu'ici je crois en Dieu comme la puissance du tonnerre J'ai pas honte de parler franc dans les périodes où j'me sens mal Si tu réfléchis un peu, tu saurais d'où vient mon arsenal N'espère pas qu'mon art se vend, y'a pas grand chose dans le rayon On est freestyle, tu l'verras très bien le soir du réveillon Les moyens du bord ont pris l'eau même perdu le capitaine On a tous tenté d'voler jusquà qu'on nous décapite l'aile Cerveau, élevé en ZUP très tôt, on connaît l'insulte Et j'ai pas honte d'rapper la suite J'ferai un seize qui te résume Ma vie, malgré ça, elle est pas si intéressante J'm'ennuie Comme trouver une télévision sans Canalsat à devenir fou tu sais Mais y'a pas qu'moi dans ce cas-là On dit qu'le rap est comme la boxe et un bon couplet, un gala You might also like Je vis ma vie, survis comme je l'entends On rit, on pleure, grandit, la honte m'apprendra On dit, on meurt, on est bloqués dans l'temps La joie, la peur, la foi, plus rien n'me surprend Je vis ma vie, ma façon d'se venger J'veux voir autre chose, j'ai l'envie de changer Mes peines, mes craintes veulent toutes en fait s'arracher Et si parfois j'ai honte, ça va bien s'arranger T'es sûr ? Ça reste à voir Mon cul Avertissez tous les canards J'ai aucune banque au Panama J'aurai pas donc de dire qu'enfin, j'me fous d'Barack Obama J'dirai pas qu'ici ça va, ce serait un moyen d'vous mentir J'ai pas honte, j'me répète, trouver la zik et s'en sortir J'vis ma vie tant qu'il est temps et j'y rajoute de l'ambition J'ai pas honte même si j'ai l'air d'être enfermé dans ma prison J'ai envie de voir autre chose, virer tout c'qui m'déconcentre Vouloir monter le niveau, qu'l'échelle soit plus décroissante Savoir s'unir et si tu peux, tends-lui la main De débute plus par tes histoires, on a déjà relis la fin Arrête ton scénario, ici ton rôle ne sert à rien Accouche d'un problème, on va te faire une césarienne N'aie pas honte, ce sera rapide même si t'es d'humeur pudique Hacheum tu vas trop loin que tu sois seul ou en public C'n'est pas c'terrain que j'côtoie Une route, ça klaxonne vu qu'la vie n'est pas un film mais y'a pas d'Samuel Jackson Ne te sauve pas Je vis ma vie, survis quand je l'entends On rit, on pleure, grandit, la honte m'apprendra On dit, on meurt, on est bloqué dans l'temps La joie, la peur, la foi, plus rien n'me surprend Je vis ma vie, ma façon d'se venger J'veux voir autre chose, j'ai l'envie de changer Mes peines, mes craintes veulent toutes en fait s'arracher Et si parfois j'ai honte, ça va bien s'arranger Inch'Allah Dieu seul devrait avoir le pouvoir d'être partout à la fois</t>
+          <t>Y'a pas de honte Je vis ma vie, survis comme je l'entends On rit, on pleure, grandit, la honte m'apprendra On dit, on meurt, on est bloqués dans l'temps La joie, la peur, la foi, plus rien n'me surprend Je vis ma vie, ma façon d'se venger J'veux voir autre chose, j'ai l'envie de changer Mes peines, mes craintes veulent tous en fait s'arracher Et si parfois j'ai honte, ça va bien s'arranger Ah ouais, s'arranger C'est sûr, j'sais pas Primo, je n'ai pas honte ni la peur de dire c'que j'pense J'ai vu un trou J'suis face à ce moment qui faut qu'je passe J'ai pas honte d'être à la dèche sur la tête de ma mère Tu sais qu'ici je crois en Dieu comme la puissance du tonnerre J'ai pas honte de parler franc dans les périodes où j'me sens mal Si tu réfléchis un peu, tu saurais d'où vient mon arsenal N'espère pas qu'mon art se vend, y'a pas grand chose dans le rayon On est freestyle, tu l'verras très bien le soir du réveillon Les moyens du bord ont pris l'eau même perdu le capitaine On a tous tenté d'voler jusquà qu'on nous décapite l'aile Cerveau, élevé en ZUP très tôt, on connaît l'insulte Et j'ai pas honte d'rapper la suite J'ferai un seize qui te résume Ma vie, malgré ça, elle est pas si intéressante J'm'ennuie Comme trouver une télévision sans Canalsat à devenir fou tu sais Mais y'a pas qu'moi dans ce cas-là On dit qu'le rap est comme la boxe et un bon couplet, un gala Je vis ma vie, survis comme je l'entends On rit, on pleure, grandit, la honte m'apprendra On dit, on meurt, on est bloqués dans l'temps La joie, la peur, la foi, plus rien n'me surprend Je vis ma vie, ma façon d'se venger J'veux voir autre chose, j'ai l'envie de changer Mes peines, mes craintes veulent toutes en fait s'arracher Et si parfois j'ai honte, ça va bien s'arranger T'es sûr ? Ça reste à voir Mon cul Avertissez tous les canards J'ai aucune banque au Panama J'aurai pas donc de dire qu'enfin, j'me fous d'Barack Obama J'dirai pas qu'ici ça va, ce serait un moyen d'vous mentir J'ai pas honte, j'me répète, trouver la zik et s'en sortir J'vis ma vie tant qu'il est temps et j'y rajoute de l'ambition J'ai pas honte même si j'ai l'air d'être enfermé dans ma prison J'ai envie de voir autre chose, virer tout c'qui m'déconcentre Vouloir monter le niveau, qu'l'échelle soit plus décroissante Savoir s'unir et si tu peux, tends-lui la main De débute plus par tes histoires, on a déjà relis la fin Arrête ton scénario, ici ton rôle ne sert à rien Accouche d'un problème, on va te faire une césarienne N'aie pas honte, ce sera rapide même si t'es d'humeur pudique Hacheum tu vas trop loin que tu sois seul ou en public C'n'est pas c'terrain que j'côtoie Une route, ça klaxonne vu qu'la vie n'est pas un film mais y'a pas d'Samuel Jackson Ne te sauve pas Je vis ma vie, survis quand je l'entends On rit, on pleure, grandit, la honte m'apprendra On dit, on meurt, on est bloqué dans l'temps La joie, la peur, la foi, plus rien n'me surprend Je vis ma vie, ma façon d'se venger J'veux voir autre chose, j'ai l'envie de changer Mes peines, mes craintes veulent toutes en fait s'arracher Et si parfois j'ai honte, ça va bien s'arranger Inch'Allah Dieu seul devrait avoir le pouvoir d'être partout à la fois</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ouais, salut les Grandes Gueules J'vous ai vus y a pas longtemps à un concert Et j'avais deux-trois questions à vous poser Une particulièrement à toi, Demi-Portion J't'ai entendu plus souvent Et j'aurais aimé que tu m'en dises un peu plus sur vous Et tu voulais savoir quoi, en fait ? Je sais pas, vos débuts, vos motivations OK J'ai pas eu le choix de lui dire non donc j'suis rentré dans le circuit Première scène en 9-6, j'avais douze ans et des biscuits Les d'mi-portions à cette époque on était six Eh tout ça grâce à Adil-El-Kabir et ses disciples 1-9-9-6 et dans nos délires enfantins Et j'me souviens que pour rapper fallait ramener mes bulletins La motivation fait qu'on s'donnait grave à l'écriture On calculait ni l'argent et c'qui s'passait dans cette culture Les souvenirs me reviennent et j'n'ai rien oublié à Sète Une grosse dédicace à Saxe qui me refilait des cassettes 1-9-9-9, l'année où mon père est mort J'ai quinze ans, trois p'tites surs, fallait pas que je perde le Nord J'ai vu ma mère toute seule alors j'ai mis l'école dehors J'me suis écarté du monde et quitte à dépasser les bords J'voulais plus rendre des comptes, j'n'avais plus rien à donner Donc j'écrivais la semaine solo et le week-end je gommais Et toujours un peu paumé et perdu dans la fumette Des nuits blanches et ces moments penché vers la cuvette Le haram à la lunette, croyant qu'c'est comme ça qu'on s'élève T'as qu'à demander à Sprinter c'qu'on doit à la SNCF Vagabonder m'a zehef comme tous ces plans solitaires Encore merci à Ekoué pour sa chambre universitaire Zoner de Paris à Lille, avec la mère qui disjoncte Vu qu'la passion nous attire et c'était la même à Dijon L'an 2000 passe en bref, v'là un an qu'on rappe ensemble Karim l'ami d'enfance, on met des faces B en sang Et concentré à l'atelier entre le savoir et le dico On m'disait toi faut que tu travailles, l'avenir est dur pour un bicot Extra large, Less du Neuf et un petit bonjour à la France Un remerciement à Fabe de m'avoir bien laissé une trace 2-0-0-1, on rentre dans une nouvelle phase 2-0-0-2, on n'mangera pas grâce à nos phrases Mixtape Que d'la haine et Explishit en 2003 Maître de cérémonie car on nous a demandé d'y croire You might also like Ah OK, bah j'vois mieux maintenant J'vois mieux Et toi Sprinter ? Ouais ? T'as ton mot à dire dans tout ça Ouais, normalement Comment tu vois la suite depuis ? 2-0-0-4, on espère un disque compact Un peu jeunes, c'est sûr, mais fallait apprendre à combattre À tous les frères comme Paps qui nous ont vraiment soutenus Tous ceux qui ont pas hésité à nous dire quand c'était nul 2-0-0-5, loin d'la fermer, dans les bacs Une dédicace à Veekash pour toutes ses instrus en vrac Pour la promo, y a pas photo, on va s'casser partout À travers la France, tracer un bête de parcours 2-0-0-6, un bic emporté par les vagues C'est la sortie d'ONPP et même sans viser les Fnac Tu le trouvais dans les snacks ou dans quelques boîtes à gants En calculant pas la Sacem si c'n'est mes parts de bon taga 2-0-0-7, un bon filon pour la distrib' ONPP 2 arrive pour s'faire une place dans l'industrie Là on le confirme, c'est sûr la route est longue Bien qu'on n'ait jamais souhaité de passer sur toutes les ondes Plutôt les scènes, y a pas mieux qu'face au public Travailler un premier album et voir comment on l'étudie 2-0-0-8 titres et demi en pleine poire, un crime solo Tous les puristes ne s'en plaignent pas Et mine de rien, on va boucler le troisième clip du groupe Les moyens du bord, toi-même tu sais, c'est quitte ou double Écoutez tous, on a trouvé l'inspi autre part En bref, un rap dédié à ceux qui s'la racontent pas Ah merci Ça m'fait plaisir J'vous souhaite une bonne continuation Et merci pour cette chronologie À plus Salut Merci à toi Ceux qui soutiennent Ouais Débutants, professionnels Les Grandes Gueules Sprinter, Demi Portion Premier album Chronologie</t>
+          <t>Ouais, salut les Grandes Gueules J'vous ai vus y a pas longtemps à un concert Et j'avais deux-trois questions à vous poser Une particulièrement à toi, Demi-Portion J't'ai entendu plus souvent Et j'aurais aimé que tu m'en dises un peu plus sur vous Et tu voulais savoir quoi, en fait ? Je sais pas, vos débuts, vos motivations OK J'ai pas eu le choix de lui dire non donc j'suis rentré dans le circuit Première scène en 9-6, j'avais douze ans et des biscuits Les d'mi-portions à cette époque on était six Eh tout ça grâce à Adil-El-Kabir et ses disciples 1-9-9-6 et dans nos délires enfantins Et j'me souviens que pour rapper fallait ramener mes bulletins La motivation fait qu'on s'donnait grave à l'écriture On calculait ni l'argent et c'qui s'passait dans cette culture Les souvenirs me reviennent et j'n'ai rien oublié à Sète Une grosse dédicace à Saxe qui me refilait des cassettes 1-9-9-9, l'année où mon père est mort J'ai quinze ans, trois p'tites surs, fallait pas que je perde le Nord J'ai vu ma mère toute seule alors j'ai mis l'école dehors J'me suis écarté du monde et quitte à dépasser les bords J'voulais plus rendre des comptes, j'n'avais plus rien à donner Donc j'écrivais la semaine solo et le week-end je gommais Et toujours un peu paumé et perdu dans la fumette Des nuits blanches et ces moments penché vers la cuvette Le haram à la lunette, croyant qu'c'est comme ça qu'on s'élève T'as qu'à demander à Sprinter c'qu'on doit à la SNCF Vagabonder m'a zehef comme tous ces plans solitaires Encore merci à Ekoué pour sa chambre universitaire Zoner de Paris à Lille, avec la mère qui disjoncte Vu qu'la passion nous attire et c'était la même à Dijon L'an 2000 passe en bref, v'là un an qu'on rappe ensemble Karim l'ami d'enfance, on met des faces B en sang Et concentré à l'atelier entre le savoir et le dico On m'disait toi faut que tu travailles, l'avenir est dur pour un bicot Extra large, Less du Neuf et un petit bonjour à la France Un remerciement à Fabe de m'avoir bien laissé une trace 2-0-0-1, on rentre dans une nouvelle phase 2-0-0-2, on n'mangera pas grâce à nos phrases Mixtape Que d'la haine et Explishit en 2003 Maître de cérémonie car on nous a demandé d'y croire Ah OK, bah j'vois mieux maintenant J'vois mieux Et toi Sprinter ? Ouais ? T'as ton mot à dire dans tout ça Ouais, normalement Comment tu vois la suite depuis ? 2-0-0-4, on espère un disque compact Un peu jeunes, c'est sûr, mais fallait apprendre à combattre À tous les frères comme Paps qui nous ont vraiment soutenus Tous ceux qui ont pas hésité à nous dire quand c'était nul 2-0-0-5, loin d'la fermer, dans les bacs Une dédicace à Veekash pour toutes ses instrus en vrac Pour la promo, y a pas photo, on va s'casser partout À travers la France, tracer un bête de parcours 2-0-0-6, un bic emporté par les vagues C'est la sortie d'ONPP et même sans viser les Fnac Tu le trouvais dans les snacks ou dans quelques boîtes à gants En calculant pas la Sacem si c'n'est mes parts de bon taga 2-0-0-7, un bon filon pour la distrib' ONPP 2 arrive pour s'faire une place dans l'industrie Là on le confirme, c'est sûr la route est longue Bien qu'on n'ait jamais souhaité de passer sur toutes les ondes Plutôt les scènes, y a pas mieux qu'face au public Travailler un premier album et voir comment on l'étudie 2-0-0-8 titres et demi en pleine poire, un crime solo Tous les puristes ne s'en plaignent pas Et mine de rien, on va boucler le troisième clip du groupe Les moyens du bord, toi-même tu sais, c'est quitte ou double Écoutez tous, on a trouvé l'inspi autre part En bref, un rap dédié à ceux qui s'la racontent pas Ah merci Ça m'fait plaisir J'vous souhaite une bonne continuation Et merci pour cette chronologie À plus Salut Merci à toi Ceux qui soutiennent Ouais Débutants, professionnels Les Grandes Gueules Sprinter, Demi Portion Premier album Chronologie</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ce soir j'suis le cousin de Bob vu que la qualité est propre La dernière fois que j'ai dormis je crois que c'était au Coffee shop Oui l'équipe est official entre Audi et Purple Je pourrai même changer le flow s'il te fallait faire un jingle Alors fais tourner y a du monde comme c'est toujours le piano Changez le ministre de la culture et mettez Le Rat Luciano Allez je repars au galop je veux qu'on se régale qu'on fait du rap Apparemment on fume trop qu'on trouve Snoop dans mes synapses Bien conscient de mes syllabes comment dessiner mes images Oui je m'en fou d'être une star y a pas grand monde dans mon village On veut ce qu'il y a de musical tout ce qui est son incritical Lève la main si t'es d'accord car on veut le ??? balles On reste toujours assidus on change rarement le style Cypress Hill dès que je mets les pieds en Espagne Ce soir je danse le MIA oui je réveille la Gorilla Oui nous sommes des milliards voir une grande familia Alors fait péter le jocker on veut que le public jump Envoie le sachet de beuh qu'on te fume un kg de skunk Laissez-nous savourer ça comme la bonne et Montello On dit que le quartier détaille depuis l'époque du Tcherlo Faudrait 8 dépénalisés on m'a roulé 10 à l'Elysée Donnez-moi une petite forêt anh Prenons conscience de la nature avant de la carboniser Allez promis demain j'arrête j'ai vu des potes banaliser La solitude et tout ce qui suit au milieu des paranos Quand ma tête tourne trop vide c'est le circuit de Monte Carlo Laissez-moi rouler j'organise on gère notre métabolisme N'hésite pas à tout cacher si t'entends la police Pas dangereux ni violents mais pas à l'abris des risques On pourrait faire de la prison pour un petit joint de cannabis J'en place une parmi ça à ceux qui passent le message You might also likeQui ne se plante jamais ne comprendra pas le tissage Tous marqués sur nos visages comme les pneus d'un cylindré J'ai grandis avec la Scred mélangée à Dr. Dre J'ai esquivé les timbrés mais pas les regards des fachos Oui mon arme c'est le stylo depuis que j'ai pris le mic d'assaut Laissez-nous fumer notre art on aura besoin que de feuilles Laissez-nous savourer la vie avant que la mort nous recueille À un j'envois la dose de deux je fume ça comme un boss Trois nique sa race envoie du son Approche-toi respirer l'air fais doucement le disque d'or L'impression de me réveiller dès que je te regarde faire le mort Non j'vois pas la vie en rose juste la sirène des bleus Dès que l'humain se croit plus fort il devient moins scrupuleux J'aime partager mon assiette et pour ça je remercie Dieu Les écrans nous font oublier que la terre est si fabuleuse Mon drapeau est incolore et correspond à ce que l'on vit Quand un fruit pourri non c'est pas l'arbre qui a moisi On se cache de la pluie sous un grand ciel gris Toujours à l'abris sous un grand ciel gris Pour mes amis sous un grand un ciel gris Pour ceux qui m'aiment sous un grand un ciel gris 7 sous un grand un ciel gris Toute la France d'ailleurs Un nuage de fumée me contient Demi portion Un nuage de fumée me contient Rachid Toujours toujours Wahou Sous un grand un ciel gris On se protège comme on peut Un nuage de fumée me contient Un nuage de fumée me contient Idéal Demi</t>
+          <t>Ce soir j'suis le cousin de Bob vu que la qualité est propre La dernière fois que j'ai dormis je crois que c'était au Coffee shop Oui l'équipe est official entre Audi et Purple Je pourrai même changer le flow s'il te fallait faire un jingle Alors fais tourner y a du monde comme c'est toujours le piano Changez le ministre de la culture et mettez Le Rat Luciano Allez je repars au galop je veux qu'on se régale qu'on fait du rap Apparemment on fume trop qu'on trouve Snoop dans mes synapses Bien conscient de mes syllabes comment dessiner mes images Oui je m'en fou d'être une star y a pas grand monde dans mon village On veut ce qu'il y a de musical tout ce qui est son incritical Lève la main si t'es d'accord car on veut le ??? balles On reste toujours assidus on change rarement le style Cypress Hill dès que je mets les pieds en Espagne Ce soir je danse le MIA oui je réveille la Gorilla Oui nous sommes des milliards voir une grande familia Alors fait péter le jocker on veut que le public jump Envoie le sachet de beuh qu'on te fume un kg de skunk Laissez-nous savourer ça comme la bonne et Montello On dit que le quartier détaille depuis l'époque du Tcherlo Faudrait 8 dépénalisés on m'a roulé 10 à l'Elysée Donnez-moi une petite forêt anh Prenons conscience de la nature avant de la carboniser Allez promis demain j'arrête j'ai vu des potes banaliser La solitude et tout ce qui suit au milieu des paranos Quand ma tête tourne trop vide c'est le circuit de Monte Carlo Laissez-moi rouler j'organise on gère notre métabolisme N'hésite pas à tout cacher si t'entends la police Pas dangereux ni violents mais pas à l'abris des risques On pourrait faire de la prison pour un petit joint de cannabis J'en place une parmi ça à ceux qui passent le message Qui ne se plante jamais ne comprendra pas le tissage Tous marqués sur nos visages comme les pneus d'un cylindré J'ai grandis avec la Scred mélangée à Dr. Dre J'ai esquivé les timbrés mais pas les regards des fachos Oui mon arme c'est le stylo depuis que j'ai pris le mic d'assaut Laissez-nous fumer notre art on aura besoin que de feuilles Laissez-nous savourer la vie avant que la mort nous recueille À un j'envois la dose de deux je fume ça comme un boss Trois nique sa race envoie du son Approche-toi respirer l'air fais doucement le disque d'or L'impression de me réveiller dès que je te regarde faire le mort Non j'vois pas la vie en rose juste la sirène des bleus Dès que l'humain se croit plus fort il devient moins scrupuleux J'aime partager mon assiette et pour ça je remercie Dieu Les écrans nous font oublier que la terre est si fabuleuse Mon drapeau est incolore et correspond à ce que l'on vit Quand un fruit pourri non c'est pas l'arbre qui a moisi On se cache de la pluie sous un grand ciel gris Toujours à l'abris sous un grand ciel gris Pour mes amis sous un grand un ciel gris Pour ceux qui m'aiment sous un grand un ciel gris 7 sous un grand un ciel gris Toute la France d'ailleurs Un nuage de fumée me contient Demi portion Un nuage de fumée me contient Rachid Toujours toujours Wahou Sous un grand un ciel gris On se protège comme on peut Un nuage de fumée me contient Un nuage de fumée me contient Idéal Demi</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>En cours...You might also like</t>
+          <t>En cours...</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Oh yé yé Oh oh, oh ohoh Premier skeud sques-di dans un quartier rincé, suivez mes sensei Dans mon rêve US, tu pouvais mpincer Lhistoire un check que jte fais ravir un coeur Mais pas ltemps, jétais c'frenchy entouré de gunneurs dangereux Avec mon jean Levis couleur tangerine Jétais là où les démons bavent et où les anges riment Je suis parti discret avec au MIC pelerin Et j'savais que je mélèverai sans faire appel au baise-main Lourdement armé dans la caisse a derek Passer de la rue au studio lorsque jappuie play rec tout à coup Mon monde silluminait avec mes textes bout à bout Cétait la vie et la mort debout qui couraient coude à coude Puis on a écrit à 4 mains, Jo ma rejoint Combien de potes nont pas passé les années 80 Quand quelques ballons soufflés à ça de nous DJE voulait quon svenge et tirer sur ces gars qui priaient à genoux Là cétait la fois de trop, garder la main sur le métal Mais celui du micro, voilà ma destinée La vie pourrie, jlui ai serré la pince Laisser la rue au roi et moi jsuis parti comme un prince You might also like Oh yé yé allez allez Oh yé yé Il faut mieux les laisser parler ohoh Tant quon vit tant quon rap Oh oh oh Comme des princes faut quon parte Maître de cérémonie, jarrive à fond comme une grosse tornade Un coup de pioche, on s'dépêche Jsuis la tempête sur Fortnite Monter l'echelle, viser haut Revoir nos vies en vidéo Des fois jai été très rapide, sur dautres jsuis Doc Gynéco On dit qule son nous anime Regarde IAM en témoignent On sréveille aujourdhui car on est né sous la même étoile Il est tant dcrier victoire On ma dit toi ne lâche pas La fierté des nôtres, larmée meurt mais ne se rend pas On chante, depuis le début, si le malheur nous coince On fera en sorte, le sais-tu oui, de partir comme un prince Premier concert à New York, un album en 2011 Vu qula vie nest pas si rose, jtrouve mes couleurs sur autre chose Petit frère a déserté, sorti des terrains djeu Absorbé par la fumée, caché par un joint dbeu On sconcentre, on apprend tardivement quça passe trop vite Vive le rap à lancienne, le futur me rend nostalgique La tête haute mon pote Aussi tranchant quun katana On a préféré rester humble Ashtag Kendrick Lamar Basket blanche j'respecte l'arche Jfinirai par mama mia Jpartirai comme un prince Juste avant de danser le mia Oh yé yé allez allez Oh yé yé Il faut mieux les laisser parler ohoh Tant quon vit tant quon rap Oh oh oh Comme des princes faut quon parte Nos convictions sous le bras On continue à tracer Et nen déplaise aux étiquettes, on continue à blesser Ouais jète un oeil sur tout cpublic, on continue à peser Tinquiète on nrate pas lessentiel, on continue à kiffer Toujours la même ligne de mire que ces mômes pleines de rêves Parti du métro, sans ticket vers le monde La quête reste un thème, n'aucun corps sous les décombres Cherche-nous là où sen brisent les codes Là où lâme demeure une place forte Chacune de nos phrases porte une charge pleine de rage de vie Des tonnes de larmes, des kilos de pages, sous l'néon noircit Jour après jour, ça doit être ça lamour Après 30 ans dvie commune, on na toujours pas fait le tour Mais cest comme ça quon laime, fier, beau Mais sans concession Une rose qui germe dans nos têtes, rasées mais qui poussent sur le béton Crois-nous si on te dit quon porte notre art à bout de lances Cest sur, venus à poil, on repartira comme des princes, ouais Oh yé yé allez allez Oh yé yé Il faut mieux les laisser parler ohoh Tant quon vit tant quon rap Oh oh oh Comme des princes faut quon parte Oh yé yé allez allez Oh yé yé Il faut mieux les laisser parler ohoh Tant quon vit tant quon rap Oh oh oh Comme des princes faut quon parte1</t>
+          <t>Oh yé yé Oh oh, oh ohoh Premier skeud sques-di dans un quartier rincé, suivez mes sensei Dans mon rêve US, tu pouvais mpincer Lhistoire un check que jte fais ravir un coeur Mais pas ltemps, jétais c'frenchy entouré de gunneurs dangereux Avec mon jean Levis couleur tangerine Jétais là où les démons bavent et où les anges riment Je suis parti discret avec au MIC pelerin Et j'savais que je mélèverai sans faire appel au baise-main Lourdement armé dans la caisse a derek Passer de la rue au studio lorsque jappuie play rec tout à coup Mon monde silluminait avec mes textes bout à bout Cétait la vie et la mort debout qui couraient coude à coude Puis on a écrit à 4 mains, Jo ma rejoint Combien de potes nont pas passé les années 80 Quand quelques ballons soufflés à ça de nous DJE voulait quon svenge et tirer sur ces gars qui priaient à genoux Là cétait la fois de trop, garder la main sur le métal Mais celui du micro, voilà ma destinée La vie pourrie, jlui ai serré la pince Laisser la rue au roi et moi jsuis parti comme un prince Oh yé yé allez allez Oh yé yé Il faut mieux les laisser parler ohoh Tant quon vit tant quon rap Oh oh oh Comme des princes faut quon parte Maître de cérémonie, jarrive à fond comme une grosse tornade Un coup de pioche, on s'dépêche Jsuis la tempête sur Fortnite Monter l'echelle, viser haut Revoir nos vies en vidéo Des fois jai été très rapide, sur dautres jsuis Doc Gynéco On dit qule son nous anime Regarde IAM en témoignent On sréveille aujourdhui car on est né sous la même étoile Il est tant dcrier victoire On ma dit toi ne lâche pas La fierté des nôtres, larmée meurt mais ne se rend pas On chante, depuis le début, si le malheur nous coince On fera en sorte, le sais-tu oui, de partir comme un prince Premier concert à New York, un album en 2011 Vu qula vie nest pas si rose, jtrouve mes couleurs sur autre chose Petit frère a déserté, sorti des terrains djeu Absorbé par la fumée, caché par un joint dbeu On sconcentre, on apprend tardivement quça passe trop vite Vive le rap à lancienne, le futur me rend nostalgique La tête haute mon pote Aussi tranchant quun katana On a préféré rester humble Ashtag Kendrick Lamar Basket blanche j'respecte l'arche Jfinirai par mama mia Jpartirai comme un prince Juste avant de danser le mia Oh yé yé allez allez Oh yé yé Il faut mieux les laisser parler ohoh Tant quon vit tant quon rap Oh oh oh Comme des princes faut quon parte Nos convictions sous le bras On continue à tracer Et nen déplaise aux étiquettes, on continue à blesser Ouais jète un oeil sur tout cpublic, on continue à peser Tinquiète on nrate pas lessentiel, on continue à kiffer Toujours la même ligne de mire que ces mômes pleines de rêves Parti du métro, sans ticket vers le monde La quête reste un thème, n'aucun corps sous les décombres Cherche-nous là où sen brisent les codes Là où lâme demeure une place forte Chacune de nos phrases porte une charge pleine de rage de vie Des tonnes de larmes, des kilos de pages, sous l'néon noircit Jour après jour, ça doit être ça lamour Après 30 ans dvie commune, on na toujours pas fait le tour Mais cest comme ça quon laime, fier, beau Mais sans concession Une rose qui germe dans nos têtes, rasées mais qui poussent sur le béton Crois-nous si on te dit quon porte notre art à bout de lances Cest sur, venus à poil, on repartira comme des princes, ouais Oh yé yé allez allez Oh yé yé Il faut mieux les laisser parler ohoh Tant quon vit tant quon rap Oh oh oh Comme des princes faut quon parte Oh yé yé allez allez Oh yé yé Il faut mieux les laisser parler ohoh Tant quon vit tant quon rap Oh oh oh Comme des princes faut quon parte1</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Grinder - Fumée - Tuer - Pause Pétard - Briquet - Haja - Osmose Musique - Théière - Bon seum - Colle Odeur - Chaleur - Sueur - Symptômes Bouffée - Grosse latte - Bob - Cogne Amné - White - AK - Bubble Gum Paquet - P'tit sachet - Feuille - Clope Smoke - Stone - Loque - Stop Rouler - Tabac - Mélange - Propre Le Taga - Saga - Ma série - Top Bang - Souffler - Effets - Maroc Pays-Bas - Jamaïque - Capitale - Drogue Douze - Pousse - Plantes - SCROG Culture - Placard - Jardin - Box Attente - Résultat - Substance - Botch Déstresse - P'tit presse - Filtre - Scotche Fait comme un rash dans l'coin J'te jure ça craint Le spliff me court après même quand j'oublie de faire un joint Fait comme un rash dans l'coin T'as vu c'est malsain J'essaye de m'y faire mais j'crois bien qu'y a pas moyen You might also like Liquide - Recette - Client - Stock Vitesse - Cachette - Police - Chope Dossier - Problèmes - Danger - Proc Enquête - Témoin - Perquis' - Choc Grammes - Valise - Pesette - Tonnes Bateau - Avion - Bécane - Trom Crédit - Monnaie - Avance - Chrom Gourmand - Arnaque - Perte - Drôle Poursuite - Equipe - Turbo - Job Voyage - Baraque - Sexe - Bonne Yeux rouges - Sale tête - Cernes - Cause Bédave - Nuits Blanches - Over-dose Salaire - Loyer - Supplément - Fuck Prud'hommes - Esclave - Manière Forte Réveil Brutal - Travail - Closes Respect des Règles - Machin Chose 2</t>
+          <t>Grinder - Fumée - Tuer - Pause Pétard - Briquet - Haja - Osmose Musique - Théière - Bon seum - Colle Odeur - Chaleur - Sueur - Symptômes Bouffée - Grosse latte - Bob - Cogne Amné - White - AK - Bubble Gum Paquet - P'tit sachet - Feuille - Clope Smoke - Stone - Loque - Stop Rouler - Tabac - Mélange - Propre Le Taga - Saga - Ma série - Top Bang - Souffler - Effets - Maroc Pays-Bas - Jamaïque - Capitale - Drogue Douze - Pousse - Plantes - SCROG Culture - Placard - Jardin - Box Attente - Résultat - Substance - Botch Déstresse - P'tit presse - Filtre - Scotche Fait comme un rash dans l'coin J'te jure ça craint Le spliff me court après même quand j'oublie de faire un joint Fait comme un rash dans l'coin T'as vu c'est malsain J'essaye de m'y faire mais j'crois bien qu'y a pas moyen Liquide - Recette - Client - Stock Vitesse - Cachette - Police - Chope Dossier - Problèmes - Danger - Proc Enquête - Témoin - Perquis' - Choc Grammes - Valise - Pesette - Tonnes Bateau - Avion - Bécane - Trom Crédit - Monnaie - Avance - Chrom Gourmand - Arnaque - Perte - Drôle Poursuite - Equipe - Turbo - Job Voyage - Baraque - Sexe - Bonne Yeux rouges - Sale tête - Cernes - Cause Bédave - Nuits Blanches - Over-dose Salaire - Loyer - Supplément - Fuck Prud'hommes - Esclave - Manière Forte Réveil Brutal - Travail - Closes Respect des Règles - Machin Chose 2</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Continue dy croire, et regarde juste autour de toi Appris que tout lmonde tenvie ici-bas pour nimporte quoi On porte le poids du fer, non ya pas dlangue de bois Et si les frères tapent du ferme cest sûrement le mode d'emploi Le manque demploi et ses pistons à léchelle mondiale Écrire une lettre de motiv cest cool mais ils nous répondent pas Du coup toujours debout avec le sens de la débrouille Des fous yen a partout, arrête ton rap ça me dégoûte Tas fatigué, ça me défoule défoule Mon nom en marge, la rage en titre, entériner tu pourras pas me découdre Lencre en guise de poudre, un flow en guise de canon Jai lécriture et les mêmes blessures que Frantz Fanon Oui personne trouve ça long, toi qui tplains quand ça rame Et quand jtombe elles disparaissent toutes, les peaux dbanane Non mais qui sporte garant ? Tu mdiras cqui tarrange Tout dvient possible, garer un poids lourd dans un ptit garage Ya plus dpartage, me demande pas dêtre honnête Cest juste avant les histoires ou juste avant les problèmes On ma même traité dpoète, qu'il fallait vite avancer Je men bats les couilles dta compét, jfais uniquement du rap français Comment ça va ? Cest Demi Portion On va surtout pas... non p't'être sorti dta maison Fille ou garçon, ya plus dlook dans lmouvement Merci internet mais Rachid tu le découvres là Lamour et tous ses coups-bas, hip-hop non-stop Arrête un peu le shit vu qutes joues ressemblent à Snoop Dogg Des barres mais sincèrement on fait cquil y a dmieux On est loin du départ et bientôt jvous dirai adieu Le groupe sest monté à deux, on scontente, labess On est encore loin du budget de Jay-Z et dKanye West Sorti dSète, cest ladresse, lart dans toute sa tendresse Vas-y lève les mains en lair ça fra plaisir à nos seize Nos textes sont complexes, paraît quça parle à tout lmonde Jai pleins dmissions à finir, pour ça quon mappelle Rach'bombe Rimes à chaque seconde, dautres diront quon est commercial Dis-lui dmonter sur scène si demain tu ltrouves dans la salle Vas-y fais cque tu veux x3 You might also like Si tu dois partir loin vas-y fais cque tu veux Si lrap est ta passion vas-y fais cque tu veux Écrire et s'mettre bien vas-y fais cque tu veux Ils parleront dtoute façon, ça fait partie du jeu Oui ça fait parti du jeu, ça fait partie du jeu</t>
+          <t>Continue dy croire, et regarde juste autour de toi Appris que tout lmonde tenvie ici-bas pour nimporte quoi On porte le poids du fer, non ya pas dlangue de bois Et si les frères tapent du ferme cest sûrement le mode d'emploi Le manque demploi et ses pistons à léchelle mondiale Écrire une lettre de motiv cest cool mais ils nous répondent pas Du coup toujours debout avec le sens de la débrouille Des fous yen a partout, arrête ton rap ça me dégoûte Tas fatigué, ça me défoule défoule Mon nom en marge, la rage en titre, entériner tu pourras pas me découdre Lencre en guise de poudre, un flow en guise de canon Jai lécriture et les mêmes blessures que Frantz Fanon Oui personne trouve ça long, toi qui tplains quand ça rame Et quand jtombe elles disparaissent toutes, les peaux dbanane Non mais qui sporte garant ? Tu mdiras cqui tarrange Tout dvient possible, garer un poids lourd dans un ptit garage Ya plus dpartage, me demande pas dêtre honnête Cest juste avant les histoires ou juste avant les problèmes On ma même traité dpoète, qu'il fallait vite avancer Je men bats les couilles dta compét, jfais uniquement du rap français Comment ça va ? Cest Demi Portion On va surtout pas... non p't'être sorti dta maison Fille ou garçon, ya plus dlook dans lmouvement Merci internet mais Rachid tu le découvres là Lamour et tous ses coups-bas, hip-hop non-stop Arrête un peu le shit vu qutes joues ressemblent à Snoop Dogg Des barres mais sincèrement on fait cquil y a dmieux On est loin du départ et bientôt jvous dirai adieu Le groupe sest monté à deux, on scontente, labess On est encore loin du budget de Jay-Z et dKanye West Sorti dSète, cest ladresse, lart dans toute sa tendresse Vas-y lève les mains en lair ça fra plaisir à nos seize Nos textes sont complexes, paraît quça parle à tout lmonde Jai pleins dmissions à finir, pour ça quon mappelle Rach'bombe Rimes à chaque seconde, dautres diront quon est commercial Dis-lui dmonter sur scène si demain tu ltrouves dans la salle Vas-y fais cque tu veux x3 Si tu dois partir loin vas-y fais cque tu veux Si lrap est ta passion vas-y fais cque tu veux Écrire et s'mettre bien vas-y fais cque tu veux Ils parleront dtoute façon, ça fait partie du jeu Oui ça fait parti du jeu, ça fait partie du jeu</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Coupable, cou-pable, coupable coupable Coupable, à jamais à jamais Coupable, cou-pable, coupable coupable Coupable, à jamais Coupable, c'est pas grave il en faut toujours un On est plusieurs mais à la fin on nous vise toujours seuls Coupable, c'est pas grave même si je change demain Apparemment j'hésite encore à demander le chemin Coupable, accusé, la même pour pleins de potos Mon dernier album souvenir serait empreinte photo Coupable, c'est pas grave faudra bien être jugé XXX XXX sans jamais trop refuser Coupable, c'est pas grave c'est que ça en vaut la peine Même à la télé, le sentiment de se voir à l'antenne Coupable, et tu l'sais que c'est une belle invention Au menu de Coupable, c'est pas grave faut bien qu'on s'organise Ma liberté de entre Florent Pagny Coupable, mais bon laissez C'est pas méchant je suppose que tu l'as vu d'entrée You might also like Coupable, c'est pas grave de toute manière c'est fait Comme on a tous essayé de trafiquer le CV Coupable, c'est pas grave j'ai reçu plusieurs lettres De plus, y'avait même pas mon nom sur cette sonnette Coupable, c'est pas grave faut bien que je paie mes dettes Pas à la rue mais l'impression d'être un proxénète Coupable, à me demander que me veulent ces femmes ces mecs J'peux pas savoir, à toi de voir, même à la barre j'suis raide Coupable, c'est pas grave j'n'ai encore rien volé La même histoire du vigile depuis la morve au nez Coupable, c'est pas grave on a dû tous mentir Dire que c'est la faute à tout le monde XXX c'est mal parti Coupable, c'est pas grave j'avoue que c'est bien quand même On te dit clairement qu'on te tue sur ton paquet de Camel Coupable, c'est pas grave quoiqu'il arrive j'suis là Dieu a créé le monde le reste m'a dit XXX x2 C'est pas de ma faute si je me sens coupable En attendant que mon cur s'arrête de battre C'est pas de ma faute et je le vis pas trop mal Seconde après on finit par le rendre</t>
+          <t>Coupable, cou-pable, coupable coupable Coupable, à jamais à jamais Coupable, cou-pable, coupable coupable Coupable, à jamais Coupable, c'est pas grave il en faut toujours un On est plusieurs mais à la fin on nous vise toujours seuls Coupable, c'est pas grave même si je change demain Apparemment j'hésite encore à demander le chemin Coupable, accusé, la même pour pleins de potos Mon dernier album souvenir serait empreinte photo Coupable, c'est pas grave faudra bien être jugé XXX XXX sans jamais trop refuser Coupable, c'est pas grave c'est que ça en vaut la peine Même à la télé, le sentiment de se voir à l'antenne Coupable, et tu l'sais que c'est une belle invention Au menu de Coupable, c'est pas grave faut bien qu'on s'organise Ma liberté de entre Florent Pagny Coupable, mais bon laissez C'est pas méchant je suppose que tu l'as vu d'entrée Coupable, c'est pas grave de toute manière c'est fait Comme on a tous essayé de trafiquer le CV Coupable, c'est pas grave j'ai reçu plusieurs lettres De plus, y'avait même pas mon nom sur cette sonnette Coupable, c'est pas grave faut bien que je paie mes dettes Pas à la rue mais l'impression d'être un proxénète Coupable, à me demander que me veulent ces femmes ces mecs J'peux pas savoir, à toi de voir, même à la barre j'suis raide Coupable, c'est pas grave j'n'ai encore rien volé La même histoire du vigile depuis la morve au nez Coupable, c'est pas grave on a dû tous mentir Dire que c'est la faute à tout le monde XXX c'est mal parti Coupable, c'est pas grave j'avoue que c'est bien quand même On te dit clairement qu'on te tue sur ton paquet de Camel Coupable, c'est pas grave quoiqu'il arrive j'suis là Dieu a créé le monde le reste m'a dit XXX x2 C'est pas de ma faute si je me sens coupable En attendant que mon cur s'arrête de battre C'est pas de ma faute et je le vis pas trop mal Seconde après on finit par le rendre</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Le monde a lair malade à lagonie et moi jai que dalle à offrir Jme sens vide et appauvri, jcite des alcooliques Isolé dans ma bulle, jtape la feuille Jespère quon mpasse là kush, mec je réfléchis Mais jsais pas ce que ces bâtards mveulent Cest quand tas besoin des gens quils se cachent comme des cafards Connasse, viens pas pleurer si tout lmonde connait ta chatte Jdirais que ty es sûrement pour quelque chose Jentends ces cons persuadés davoir une bête de flow Mais tous ces gamins rappent les mêmes conneries Jsais pas si nos vies sont les mêmes, la mienne na rien de comique Certains dêtre des loups alors que vous êtes des chiennes dociles Jsuis lgenre dartiste qui a beaucoup plus quun grain dfolie Jsors pour passer dla zique quand jai du Jack et dla weed Sinon je reste chez moi pour mater Matrix et gratter ma bite Jcommence à compter même si jsuis nul en mathématique Ya plus personne qui arrivera à mfaire rapper gratuit Jme sens bien dans cette merde que quand jécoute du son Yen avait entre nous , jai fait sauter ce foutu pont Cest après vous avoir croisé que jme trouve plus con Faut que je zappe, que jmisole, que jme coupe du monde Le fait de vous parler maintenant ne me rends plus seul Regarde lécran de ce monde mais j'vois plus le curseur Parce que le fait de vous écrire me libère franchement Malgré toutes les blessures que jai, vous êtes mon pansement Encore un pincement au cur ou la gorge nouée Dabord avec les moyens du bord faudrait une bouée Daccord, travailler dur dois-je lavouer ? Cest sûr, même avec mon regard je parle aux muets Je nai jamais écrasé personne, jai juste pris mon chemin Avec les bâtons dans les roues, jai repris Michelin Avec la même équipe depuis, jai appris trop dchoses Comme toujours, aimer les siens en guise de bonne dose Cest ça la bonne cause, tout en gardant les mêmes codes En cas de mal, j'ai que des mots, ma première démo tourne encore Extra large, bonjour la France avec Fabe Ouais le temps passe, jai gobé le hip-hop comme extase Hein, Convok, demi-Portion, coupé de mondeYou might also like</t>
+          <t>Le monde a lair malade à lagonie et moi jai que dalle à offrir Jme sens vide et appauvri, jcite des alcooliques Isolé dans ma bulle, jtape la feuille Jespère quon mpasse là kush, mec je réfléchis Mais jsais pas ce que ces bâtards mveulent Cest quand tas besoin des gens quils se cachent comme des cafards Connasse, viens pas pleurer si tout lmonde connait ta chatte Jdirais que ty es sûrement pour quelque chose Jentends ces cons persuadés davoir une bête de flow Mais tous ces gamins rappent les mêmes conneries Jsais pas si nos vies sont les mêmes, la mienne na rien de comique Certains dêtre des loups alors que vous êtes des chiennes dociles Jsuis lgenre dartiste qui a beaucoup plus quun grain dfolie Jsors pour passer dla zique quand jai du Jack et dla weed Sinon je reste chez moi pour mater Matrix et gratter ma bite Jcommence à compter même si jsuis nul en mathématique Ya plus personne qui arrivera à mfaire rapper gratuit Jme sens bien dans cette merde que quand jécoute du son Yen avait entre nous , jai fait sauter ce foutu pont Cest après vous avoir croisé que jme trouve plus con Faut que je zappe, que jmisole, que jme coupe du monde Le fait de vous parler maintenant ne me rends plus seul Regarde lécran de ce monde mais j'vois plus le curseur Parce que le fait de vous écrire me libère franchement Malgré toutes les blessures que jai, vous êtes mon pansement Encore un pincement au cur ou la gorge nouée Dabord avec les moyens du bord faudrait une bouée Daccord, travailler dur dois-je lavouer ? Cest sûr, même avec mon regard je parle aux muets Je nai jamais écrasé personne, jai juste pris mon chemin Avec les bâtons dans les roues, jai repris Michelin Avec la même équipe depuis, jai appris trop dchoses Comme toujours, aimer les siens en guise de bonne dose Cest ça la bonne cause, tout en gardant les mêmes codes En cas de mal, j'ai que des mots, ma première démo tourne encore Extra large, bonjour la France avec Fabe Ouais le temps passe, jai gobé le hip-hop comme extase Hein, Convok, demi-Portion, coupé de monde</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Et si on te balance du haut du mur combien de temps mettras-tu à tomber ? Il demande si ils te trouveront avant que les loups ne te dévorent Qu'est-ce que tu regardes demi-portion? C'est toi que je regarde, tu as un visage intéressant 2x Vas-y danse, danse, danse avec les loups Avant qu'ils n'arrivent près de chez vous ouh ouh ouh Ça commence dès le réveil, comme l'histoire du Titanic On coule très vite vu les infos peut-être sortis de la ligue Même si on se fout du match, avec toute l'équipe de snatch Arrête moi si tu peux, fuck les racistes et leurs vagues J'ai jamais compris leurs blagues, j'garde la mémoire dans la peau On s'tape trop de films dans la vie, et on s'refait le scénario T'as vu les jeux à Rio, ça cache la misère derrière On gardera un coup d'avance, slumdog millionaire Retour à la ligne verte, comment ça va mon patron? Ce soir on est en Afrique, appelez-nous les Rois Lions On suivra pas le troupeau, je garde le silence des agneaux Tu seras mon pote pas de problème, Sangoku, Naruto Laisse-moi me poser sur un banc, tranquillement Forrest Gump Vu que j'aime tellement écrire, j'ai fait mon livre de la jungle Près d'un Taxi Driver, on connait les bonnes adresses Comme dans Heat, c'est le shoot tout le monde veut tirer la caisse N'oublie jamais ta maman, la vie est belle tu le sais Les temps changent, suprenant petits on voulait être policiers Il faut sauver le soldat, mais je l'ai perdu en voyage Même si le nouveau Rocky sort n'aura pas le même héritage Vas-y danse avec les loups, c'est arrivé près de chez vous La crainte divise tout le monde donc lèves-toi et tiens debout On met de côté les nerfs à vif au-dessus d'un nid de coucou La cité des Dieux normalement on ne peut la voir qu'à genoux Donc on se donne, donne, donne, comme dans Raging Bull C'est notre film de la vie, y a pas d'DivX en double J'vous aime fort, évidemment, toi qui m'écoute chaque fois La vie est courte, profites-en You might also like Vas-y danse, danse, danse avec les loups Avant qu'ils n'arrivent près de chez vous Libérez-moi de ces chaînes, autour du cou Libérez-nous de ces chaînes, autour du cou 2x1</t>
+          <t>Et si on te balance du haut du mur combien de temps mettras-tu à tomber ? Il demande si ils te trouveront avant que les loups ne te dévorent Qu'est-ce que tu regardes demi-portion? C'est toi que je regarde, tu as un visage intéressant 2x Vas-y danse, danse, danse avec les loups Avant qu'ils n'arrivent près de chez vous ouh ouh ouh Ça commence dès le réveil, comme l'histoire du Titanic On coule très vite vu les infos peut-être sortis de la ligue Même si on se fout du match, avec toute l'équipe de snatch Arrête moi si tu peux, fuck les racistes et leurs vagues J'ai jamais compris leurs blagues, j'garde la mémoire dans la peau On s'tape trop de films dans la vie, et on s'refait le scénario T'as vu les jeux à Rio, ça cache la misère derrière On gardera un coup d'avance, slumdog millionaire Retour à la ligne verte, comment ça va mon patron? Ce soir on est en Afrique, appelez-nous les Rois Lions On suivra pas le troupeau, je garde le silence des agneaux Tu seras mon pote pas de problème, Sangoku, Naruto Laisse-moi me poser sur un banc, tranquillement Forrest Gump Vu que j'aime tellement écrire, j'ai fait mon livre de la jungle Près d'un Taxi Driver, on connait les bonnes adresses Comme dans Heat, c'est le shoot tout le monde veut tirer la caisse N'oublie jamais ta maman, la vie est belle tu le sais Les temps changent, suprenant petits on voulait être policiers Il faut sauver le soldat, mais je l'ai perdu en voyage Même si le nouveau Rocky sort n'aura pas le même héritage Vas-y danse avec les loups, c'est arrivé près de chez vous La crainte divise tout le monde donc lèves-toi et tiens debout On met de côté les nerfs à vif au-dessus d'un nid de coucou La cité des Dieux normalement on ne peut la voir qu'à genoux Donc on se donne, donne, donne, comme dans Raging Bull C'est notre film de la vie, y a pas d'DivX en double J'vous aime fort, évidemment, toi qui m'écoute chaque fois La vie est courte, profites-en Vas-y danse, danse, danse avec les loups Avant qu'ils n'arrivent près de chez vous Libérez-moi de ces chaînes, autour du cou Libérez-nous de ces chaînes, autour du cou 2x1</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Jai vu le rap grandir, jai vu le rap couler Jai vu le rap mentir ou essayer de nous rouler Jai vu le rap game, jai vu le rap lourd Jai vu le rap sale exploser au milieu dla cour Jai vu le rap US, jai vu le rap tuer Jai vu le rap censé enlever de nos yeux la buée Jai vu le rap ghetto, jai vu le rap star Jai vu le rap mourir comme 2Pac, Ol' Dirty Bastard Jai vu le rap mytho passer à la télé Les MCs défilés qui sla racontent à lheure quil est Jai vu le rap business tenu par des minables Des putains dMCs et des concerts interminables Jai vu le rap major, jai vu le rap indé Des mecs quavaient tout mis et qui sont toujours pas blindés Jai vu un tas dgens quavaient tant dchoses à prouver Moi, jlaisserai lrap dans létat dans lquel jlai trouvé Cquon dit, cest qutu peux monter ou descendre Mais aujourdhui, y en a plus dun qujpeux pas comprendre Leurs torpilles peuvent nous scier les jambes Mais nempêcheront jamais les gens bien de rentrer dans la légende Cquon dit, cest qutu peux monter ou descendre Koma, Demi, le son qule public veut entendre Leurs torpilles peuvent nous scier les jambes Mais nempêcheront jamais les gens bien de rentrer dans la légende You might also like Jai vu le rap sérieux, jai vu le rap qui tplait Jai vu le rap sfaire vieux comme nos anciens couplets Jai vu le rap cassette, jai vu le rap CD Jai vu le rap barbu, rasé ou pt-être drogué Jai vu le rap que taimes, jai même grandi avec Jai vu lindustrie tsucrer à trefiler ldiabète Jai vu le rap de rue, jai vu le rap de luxe Jai vu le rap prise de tête pour dla musique en plus Jai vu le rap davant, jai vu le rap dhier Jai vu le rap snoyer dans une bouteille de bière Jai vu le rap lutter, jai vu le rap dactu Jai vu le rap en clair, un big up à tout cqui dure Jai vu le rap gangsta, jai vu le rap dacteur Jai vu le rap buggé comme ta mémoire dordinateur Jai vu le rap se taire, jai vu le rap rien dire Jai vu le rap dirty mais jpréfère E.P.M.D Jai vu le rap mentir mais jécris en vrai Moi, jlaisserai lrap dans létat dans lquel jlai trouvé Cquon dit, cest qutu peux monter ou descendre Mais aujourdhui, y en a plus dun qujpeux pas comprendre Leurs torpilles peuvent nous scier les jambes Mais nempêcheront jamais les gens bien de rentrer dans la légende Cquon dit, cest qutu peux monter ou descendre Koma, Demi, le son qule public veut entendre Leurs torpilles peuvent nous scier les jambes Mais nempêcheront jamais les gens bien de rentrer dans la légende1</t>
+          <t>Jai vu le rap grandir, jai vu le rap couler Jai vu le rap mentir ou essayer de nous rouler Jai vu le rap game, jai vu le rap lourd Jai vu le rap sale exploser au milieu dla cour Jai vu le rap US, jai vu le rap tuer Jai vu le rap censé enlever de nos yeux la buée Jai vu le rap ghetto, jai vu le rap star Jai vu le rap mourir comme 2Pac, Ol' Dirty Bastard Jai vu le rap mytho passer à la télé Les MCs défilés qui sla racontent à lheure quil est Jai vu le rap business tenu par des minables Des putains dMCs et des concerts interminables Jai vu le rap major, jai vu le rap indé Des mecs quavaient tout mis et qui sont toujours pas blindés Jai vu un tas dgens quavaient tant dchoses à prouver Moi, jlaisserai lrap dans létat dans lquel jlai trouvé Cquon dit, cest qutu peux monter ou descendre Mais aujourdhui, y en a plus dun qujpeux pas comprendre Leurs torpilles peuvent nous scier les jambes Mais nempêcheront jamais les gens bien de rentrer dans la légende Cquon dit, cest qutu peux monter ou descendre Koma, Demi, le son qule public veut entendre Leurs torpilles peuvent nous scier les jambes Mais nempêcheront jamais les gens bien de rentrer dans la légende Jai vu le rap sérieux, jai vu le rap qui tplait Jai vu le rap sfaire vieux comme nos anciens couplets Jai vu le rap cassette, jai vu le rap CD Jai vu le rap barbu, rasé ou pt-être drogué Jai vu le rap que taimes, jai même grandi avec Jai vu lindustrie tsucrer à trefiler ldiabète Jai vu le rap de rue, jai vu le rap de luxe Jai vu le rap prise de tête pour dla musique en plus Jai vu le rap davant, jai vu le rap dhier Jai vu le rap snoyer dans une bouteille de bière Jai vu le rap lutter, jai vu le rap dactu Jai vu le rap en clair, un big up à tout cqui dure Jai vu le rap gangsta, jai vu le rap dacteur Jai vu le rap buggé comme ta mémoire dordinateur Jai vu le rap se taire, jai vu le rap rien dire Jai vu le rap dirty mais jpréfère E.P.M.D Jai vu le rap mentir mais jécris en vrai Moi, jlaisserai lrap dans létat dans lquel jlai trouvé Cquon dit, cest qutu peux monter ou descendre Mais aujourdhui, y en a plus dun qujpeux pas comprendre Leurs torpilles peuvent nous scier les jambes Mais nempêcheront jamais les gens bien de rentrer dans la légende Cquon dit, cest qutu peux monter ou descendre Koma, Demi, le son qule public veut entendre Leurs torpilles peuvent nous scier les jambes Mais nempêcheront jamais les gens bien de rentrer dans la légende1</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Demi Portion.. Oh ! C'est pour quand les histoires ? Racontes nous une histoire ! En c'moment, ça va t'parler du présent le passé qui aurais cru qu'on plaisante Avec plaisir en c'moment, j'examine chaque exemple Appris ce qui est nécessaire j'n'ai pas laissé trainer ça Intéréssant en c'moment, t'es ptet seul chez toi Là c'est un copain d'abord et un p'tit son c'est toi J'suis t'sais quoi ? L'arrogance t'a rendu exécrable T'sais que c'est crade, qu'on pratiquait des excès graves En c'moment t'as eu l'âge, de quoi devenir instable Pourtant j'n'inciterais pas les gosses XXX thunes en shtar En c'moment t'es une star ? T'es qu'un humain connard Révise tes mots, insulte n'engendre que des coups d'poignards Les histoires ont commencées, j'suis d'plus en plus lassé Ceux du bords éloignés, car leurs conneries ont lassés On assure en affaire de rimes prêtes à menacer Sur sans concert que l'combat on l'mène assez Reste assis, laisse nous passer Le flow est en place oui, l'instru t'fait fantasmer Ecoute et laisse faire, bienvenue dans ma sphère You might also like Loyal mais ça dure pas, t'as vu ça ? La burqa que Fatal Bazooka T'façon ça m'dérange pas personne changera les lois C'est froid comme un clodo l'soir dans les rues lilloises En c'moment c'est galère, on attends le début d'mois On en rigole autant qu'on peut même si l'ambiance est sournoise En c'moment ça dit quoi ? Si l'rap était mieux avant Chacun sa version, t'façon ça fera pas d'nous des savants Savez-vous ? Ca n'arrange rien en ce moment Malheureusement des gens droits partent en vrille en slalomant Bref, XXX On avance sur un XXX...</t>
+          <t>Demi Portion.. Oh ! C'est pour quand les histoires ? Racontes nous une histoire ! En c'moment, ça va t'parler du présent le passé qui aurais cru qu'on plaisante Avec plaisir en c'moment, j'examine chaque exemple Appris ce qui est nécessaire j'n'ai pas laissé trainer ça Intéréssant en c'moment, t'es ptet seul chez toi Là c'est un copain d'abord et un p'tit son c'est toi J'suis t'sais quoi ? L'arrogance t'a rendu exécrable T'sais que c'est crade, qu'on pratiquait des excès graves En c'moment t'as eu l'âge, de quoi devenir instable Pourtant j'n'inciterais pas les gosses XXX thunes en shtar En c'moment t'es une star ? T'es qu'un humain connard Révise tes mots, insulte n'engendre que des coups d'poignards Les histoires ont commencées, j'suis d'plus en plus lassé Ceux du bords éloignés, car leurs conneries ont lassés On assure en affaire de rimes prêtes à menacer Sur sans concert que l'combat on l'mène assez Reste assis, laisse nous passer Le flow est en place oui, l'instru t'fait fantasmer Ecoute et laisse faire, bienvenue dans ma sphère Loyal mais ça dure pas, t'as vu ça ? La burqa que Fatal Bazooka T'façon ça m'dérange pas personne changera les lois C'est froid comme un clodo l'soir dans les rues lilloises En c'moment c'est galère, on attends le début d'mois On en rigole autant qu'on peut même si l'ambiance est sournoise En c'moment ça dit quoi ? Si l'rap était mieux avant Chacun sa version, t'façon ça fera pas d'nous des savants Savez-vous ? Ca n'arrange rien en ce moment Malheureusement des gens droits partent en vrille en slalomant Bref, XXX On avance sur un XXX...</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Evidemment que j'ai pas l'temps de faire semblant qu'on est tous aimables Bienvenue dans l'spectacle parmi ces comiques et leurs coups d'théâtre Branche le mic consciemment J'vais t'montrer qu'on est serviables Mettez les tartines sur la table Venez voir comment l'beurre dérape Nos blessures, on les guérira Qu'à la fin de la guérilla Enfermés, on sortira comme un taureau dans une féria Mes rimes, je les écris là Linspiration vient d'autre part On s'est procuré Internet et quelques malheureux mots d'passe Chut, paranoïes pas Y'a qu'la zik à faire tourner J'veux pas t'arriver à la cheville T'es encore loin de mes ourlets Je t'inviterai dans mes journées Sûr, tu tiendras pas une nuit Sûr, tu verras pas le lit Les règles, tu n'auras qu'à les lire Non, pas d'Star Academy J'sens qu'j'te filerai un Snickers Si t'es calme jusqu'à la fin, j'te mets à vendre un beatmaker Te mets en place un pacemaker En espérant que tu respires Mets ta capuche, ta casquette Ton clip a besoin d'faire style You might also like x2 Dis-moi, t'as peur du vertige ? Ou t'attends que je saute ? Arrête avec tes avatars Ou t'placer dans l'magazine Choc, entre autre On devient rudes Mes rimes chauffent de cette province Et t'auras beau me boycotter ou me serrer là où ça coince Encore de l'encre sur ma paperasse Une de mes manières de témoigner Qui a voulu qu'on finisse cons et qu'on s'permettre à vouvoyer Ici les maîtres s'font mitrailler, Sarkozy ne donne pas d'ordres Regarde, dans les usines, toutes les machines remplacent les hommes T'as raison, beaucoup se battent pour fonder leurs maisons Rajoutent une mère et un gosse pour garder la liaison Le son, une d'ces leçon que tu noteras après À c'q'uil paraît, dans ce pays, y a tout l'monde qui sait rapper Y'a personne qui s'est raté et ça c'est eux qui l'raconte Vu qu'la technologie t'as eu, du DJ au Seraton Les radios nous jouent peu parce qu'on est pas si radieux Donc on s'invite sur une table, sur une chaise, assis à deux Donc on se méfie de ceux qui parlaient trop au départ Ne donne pas cours au fermier qui a grandi dans l'bétail On a pas peur du ou d'la sirène bleu Vas-y laisse moi les hématomes, j'veux voir noircir mes bleus x2 Dis-moi, t'as peur du vertige ? Ou t'attends que je saute ? Arrête avec tes avatars Ou t'placer dans l'magazine Choc, entre autre On devient rudes Mes rimes chauffent de cette province Et t'auras beau me boycotter ou me serrer là où ça coince Je ne suis pas, ne suis pas Là, t'es assis bas C'est si peu, les suis pas Écoute et n'insiste pas Dur de dire Mais dix-sept ans qu'j'ai appris à perdre J'connais la défaite comme Van Gogh a appris à peindre Ça m'inspire quand ils m'disent que j'suis un peu simiesque Comme un singe et ça relèvera de l'arabesque Pas d'salade fils, réel comme un salafiste Un sale sudiste qui vient démasquer tous ces sionistes Et nés pas unis, on est comme les États-Unis L'isolement n'est pas inné La merde, on l'a réunie Désunis sans déshonneur, c'est la zizanie J'suis désarmé J'ai besoin d'aide mais j'ai pas d'amis, pas d'points d'appuis Si tu peux, nage où t'as pas pieds Tu vois l'topo ? Y'a pas d'répit dans un monde sans paix En fait, on vit avec la suspicion Y'a ceux qui t'font un trait et ceux qui t'laisse sur le paillasson x2 Dis-moi, t'as peur du vertige ? Ou t'attends que je saute ? Arrête avec tes avatars Ou t'placer dans l'magazine Choc, entre autre On devient rudes Mes rimes chauffent de cette province Et t'auras beau me boycotter ou me serrer là où ça coince Ouais Ça vient d'Sète poto Mehdi, Demi Portion Sous l'choc</t>
+          <t>Evidemment que j'ai pas l'temps de faire semblant qu'on est tous aimables Bienvenue dans l'spectacle parmi ces comiques et leurs coups d'théâtre Branche le mic consciemment J'vais t'montrer qu'on est serviables Mettez les tartines sur la table Venez voir comment l'beurre dérape Nos blessures, on les guérira Qu'à la fin de la guérilla Enfermés, on sortira comme un taureau dans une féria Mes rimes, je les écris là Linspiration vient d'autre part On s'est procuré Internet et quelques malheureux mots d'passe Chut, paranoïes pas Y'a qu'la zik à faire tourner J'veux pas t'arriver à la cheville T'es encore loin de mes ourlets Je t'inviterai dans mes journées Sûr, tu tiendras pas une nuit Sûr, tu verras pas le lit Les règles, tu n'auras qu'à les lire Non, pas d'Star Academy J'sens qu'j'te filerai un Snickers Si t'es calme jusqu'à la fin, j'te mets à vendre un beatmaker Te mets en place un pacemaker En espérant que tu respires Mets ta capuche, ta casquette Ton clip a besoin d'faire style x2 Dis-moi, t'as peur du vertige ? Ou t'attends que je saute ? Arrête avec tes avatars Ou t'placer dans l'magazine Choc, entre autre On devient rudes Mes rimes chauffent de cette province Et t'auras beau me boycotter ou me serrer là où ça coince Encore de l'encre sur ma paperasse Une de mes manières de témoigner Qui a voulu qu'on finisse cons et qu'on s'permettre à vouvoyer Ici les maîtres s'font mitrailler, Sarkozy ne donne pas d'ordres Regarde, dans les usines, toutes les machines remplacent les hommes T'as raison, beaucoup se battent pour fonder leurs maisons Rajoutent une mère et un gosse pour garder la liaison Le son, une d'ces leçon que tu noteras après À c'q'uil paraît, dans ce pays, y a tout l'monde qui sait rapper Y'a personne qui s'est raté et ça c'est eux qui l'raconte Vu qu'la technologie t'as eu, du DJ au Seraton Les radios nous jouent peu parce qu'on est pas si radieux Donc on s'invite sur une table, sur une chaise, assis à deux Donc on se méfie de ceux qui parlaient trop au départ Ne donne pas cours au fermier qui a grandi dans l'bétail On a pas peur du ou d'la sirène bleu Vas-y laisse moi les hématomes, j'veux voir noircir mes bleus x2 Dis-moi, t'as peur du vertige ? Ou t'attends que je saute ? Arrête avec tes avatars Ou t'placer dans l'magazine Choc, entre autre On devient rudes Mes rimes chauffent de cette province Et t'auras beau me boycotter ou me serrer là où ça coince Je ne suis pas, ne suis pas Là, t'es assis bas C'est si peu, les suis pas Écoute et n'insiste pas Dur de dire Mais dix-sept ans qu'j'ai appris à perdre J'connais la défaite comme Van Gogh a appris à peindre Ça m'inspire quand ils m'disent que j'suis un peu simiesque Comme un singe et ça relèvera de l'arabesque Pas d'salade fils, réel comme un salafiste Un sale sudiste qui vient démasquer tous ces sionistes Et nés pas unis, on est comme les États-Unis L'isolement n'est pas inné La merde, on l'a réunie Désunis sans déshonneur, c'est la zizanie J'suis désarmé J'ai besoin d'aide mais j'ai pas d'amis, pas d'points d'appuis Si tu peux, nage où t'as pas pieds Tu vois l'topo ? Y'a pas d'répit dans un monde sans paix En fait, on vit avec la suspicion Y'a ceux qui t'font un trait et ceux qui t'laisse sur le paillasson x2 Dis-moi, t'as peur du vertige ? Ou t'attends que je saute ? Arrête avec tes avatars Ou t'placer dans l'magazine Choc, entre autre On devient rudes Mes rimes chauffent de cette province Et t'auras beau me boycotter ou me serrer là où ça coince Ouais Ça vient d'Sète poto Mehdi, Demi Portion Sous l'choc</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Depuis ljour où elle ma dit je taime Vu la fierté dlhomme, cette image ne pourra être si belle Jmy perds, ya plein dmoments où on a lair si bête On écrit seul en sdisant quça sera une page secrète Jarrête quand elle ma dit sérieux jveux mmarier Marre de mennuyer, dêtre fermé comme un jour férié Donc on souvre à la vie tout en essayant de rester vrai Attends pas davoir un fils bien élevé Tas vu lambiance qu'il y a ? Et cette époque me rend plus anxieux Peur, de mon ptit frère à la plus grande sur Beaucoup d'réponses seul, prendre de lâge ici mfatigue Ris jaune entre hypocrisie et sympathie Jblague pas, on est loin du jeu des sept familles Vu lair quon respire, rien à voir au goût dvanille Fondamental, jai eu laccord parental Et jme suis accroché comme à femme sentimentale Le jour où elle ma dit je taime Cest dans les larmes quon retrouve un sourire djoker Laissez-vous emporter par la voix Ce soir, ça ira bien, soyez pas dmauvaise foi La musique est un sacré calmant Ya de la place, viens sauf si tu ty gares mal Jai ni la force, ni lenvie dêtre tenant du titre Jme suis permis de sortir comme artisan du bic You might also like Le jour où tu lui as dit tinquiète, réfléchis pas trop Lui qui naimait pas la fumette ou sfaire mener en bateau Fort souriant avec un air discipliné Quand il parle à tous ses potes, faut soit-disant sy plier À des moments l'supplier quand il rentre dans ses caprices À laise dans cquil raconte, t'es l'bienvenu dans sa matrice Plus dfalaise dans sa route, non, le pilote a dû voler Car une vision du dessus est bien meilleure à cqui parait Vivre ailleurs est signe darrêt ou alors en relancement Car jai vu plein de départs comme des plaies et des pansements On sdéplaît malheureusement à attendre la fin du film Aucun rôle nest fait pour nous, au casting en vrai tu vires S'armer de bons outils en sfichant des apparences Si tagis en trichant, ne me parle pas quand ça tarranges Depuis l'jour où il réalise quil nfra pas partie des pires Même en voulant viser personne, il sentraînait au stand de tir Rien ne me console, même pas la vie dartiste Depuis le jour où tu m'as dit handek fais attention Un rappeur nest pas seulement un survêt, une carte son Sans amour, va falloir ty faire à mi-chemin Tellement de roues crevées quil faudra racheter Michelin Qui taimes, toi ? Ne sois pas si narcissique La route est longue, mais est-ce une raison dla faire en tricycle ? Depuis ljour ou parler dlhomme invisible Depuis ljour</t>
+          <t>Depuis ljour où elle ma dit je taime Vu la fierté dlhomme, cette image ne pourra être si belle Jmy perds, ya plein dmoments où on a lair si bête On écrit seul en sdisant quça sera une page secrète Jarrête quand elle ma dit sérieux jveux mmarier Marre de mennuyer, dêtre fermé comme un jour férié Donc on souvre à la vie tout en essayant de rester vrai Attends pas davoir un fils bien élevé Tas vu lambiance qu'il y a ? Et cette époque me rend plus anxieux Peur, de mon ptit frère à la plus grande sur Beaucoup d'réponses seul, prendre de lâge ici mfatigue Ris jaune entre hypocrisie et sympathie Jblague pas, on est loin du jeu des sept familles Vu lair quon respire, rien à voir au goût dvanille Fondamental, jai eu laccord parental Et jme suis accroché comme à femme sentimentale Le jour où elle ma dit je taime Cest dans les larmes quon retrouve un sourire djoker Laissez-vous emporter par la voix Ce soir, ça ira bien, soyez pas dmauvaise foi La musique est un sacré calmant Ya de la place, viens sauf si tu ty gares mal Jai ni la force, ni lenvie dêtre tenant du titre Jme suis permis de sortir comme artisan du bic Le jour où tu lui as dit tinquiète, réfléchis pas trop Lui qui naimait pas la fumette ou sfaire mener en bateau Fort souriant avec un air discipliné Quand il parle à tous ses potes, faut soit-disant sy plier À des moments l'supplier quand il rentre dans ses caprices À laise dans cquil raconte, t'es l'bienvenu dans sa matrice Plus dfalaise dans sa route, non, le pilote a dû voler Car une vision du dessus est bien meilleure à cqui parait Vivre ailleurs est signe darrêt ou alors en relancement Car jai vu plein de départs comme des plaies et des pansements On sdéplaît malheureusement à attendre la fin du film Aucun rôle nest fait pour nous, au casting en vrai tu vires S'armer de bons outils en sfichant des apparences Si tagis en trichant, ne me parle pas quand ça tarranges Depuis l'jour où il réalise quil nfra pas partie des pires Même en voulant viser personne, il sentraînait au stand de tir Rien ne me console, même pas la vie dartiste Depuis le jour où tu m'as dit handek fais attention Un rappeur nest pas seulement un survêt, une carte son Sans amour, va falloir ty faire à mi-chemin Tellement de roues crevées quil faudra racheter Michelin Qui taimes, toi ? Ne sois pas si narcissique La route est longue, mais est-ce une raison dla faire en tricycle ? Depuis ljour ou parler dlhomme invisible Depuis ljour</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tu te souviens, la première fois que nous nous sommes rencontrés, je t'avais pris pour un petit prétentieux insolent et suicidaire Nan mais dis-moi, d'où tu viens toi ? Pourquoi tu parles quand tu n'sais pas ? À l'heure où mettre même un keffieh te fera vite vibrer l'État Fini l'été, fini la fête, j'ai sorti l'arme chez Demi Paix La mine est fine et ça nous libère, nan nan y'a rien de plus compliqué Vas-y au pire sors ton briquet, mon labo c'est pire que Breaking Goûte, ce qu'on te cuisine, j'vais pouvoir même t'ouvrir l'appétit J'ai pas d'gun, juste les mots, ouais gros, c'est qu'on te l'a mise Ici j'esquive toutes les comédies, j'ai plus enquêtes que sur M6 Parasite aucun soucis, trop de thèmes sur ce coup-ci Désolé pour les vieilles cibles, je n'mène pas la vie de Brooklyn Bien sûr qu'on a besoin de conseils, qu'on sache d'abord comment procéder Bien sûr qu'on est tous un peu fragiles, la vie nous frappe de tous les côtés Même quand je rappe nos vie d'ici-bas, tout l'monde puisse se lever Mettre à l'amende tous ces rappeurs, encore mieux qu'ces foutus PV Rebelle et boom matez les dégâts, le compte-à-rebours a déjà commencé Mais comment ça, t'as vu je déballe mais j'reste habile pour le rap français Regarde les beats qu'on a ramassés, les scènes qu'on a ramassées L'amour, la haine nous a cabossé, travaille pour qu'la machine soit lancée Garder toujours la manière de faire, une manie de gérer mon business Tous ceux qui parlent mal je laisse, inutile de gaspiller un 16 Ma gueule est devenue M16 avec toutes ces formes de politesse Ma gueule est devenue M16 avec toutes ces formes de politesse You might also like Dragon Rash Enfin te voilà Dragon Rash, Dragon Rash, Dragon Rash, Dragon Rash, Dragon Rash, Dragon Rash</t>
+          <t>Tu te souviens, la première fois que nous nous sommes rencontrés, je t'avais pris pour un petit prétentieux insolent et suicidaire Nan mais dis-moi, d'où tu viens toi ? Pourquoi tu parles quand tu n'sais pas ? À l'heure où mettre même un keffieh te fera vite vibrer l'État Fini l'été, fini la fête, j'ai sorti l'arme chez Demi Paix La mine est fine et ça nous libère, nan nan y'a rien de plus compliqué Vas-y au pire sors ton briquet, mon labo c'est pire que Breaking Goûte, ce qu'on te cuisine, j'vais pouvoir même t'ouvrir l'appétit J'ai pas d'gun, juste les mots, ouais gros, c'est qu'on te l'a mise Ici j'esquive toutes les comédies, j'ai plus enquêtes que sur M6 Parasite aucun soucis, trop de thèmes sur ce coup-ci Désolé pour les vieilles cibles, je n'mène pas la vie de Brooklyn Bien sûr qu'on a besoin de conseils, qu'on sache d'abord comment procéder Bien sûr qu'on est tous un peu fragiles, la vie nous frappe de tous les côtés Même quand je rappe nos vie d'ici-bas, tout l'monde puisse se lever Mettre à l'amende tous ces rappeurs, encore mieux qu'ces foutus PV Rebelle et boom matez les dégâts, le compte-à-rebours a déjà commencé Mais comment ça, t'as vu je déballe mais j'reste habile pour le rap français Regarde les beats qu'on a ramassés, les scènes qu'on a ramassées L'amour, la haine nous a cabossé, travaille pour qu'la machine soit lancée Garder toujours la manière de faire, une manie de gérer mon business Tous ceux qui parlent mal je laisse, inutile de gaspiller un 16 Ma gueule est devenue M16 avec toutes ces formes de politesse Ma gueule est devenue M16 avec toutes ces formes de politesse Dragon Rash Enfin te voilà Dragon Rash, Dragon Rash, Dragon Rash, Dragon Rash, Dragon Rash, Dragon Rash</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Juste un petit freestyle 19 janvier 3eme album Dragon Rash Ça y est j'ai peur et je voulais te le dire Regarde te fatiguer tout comme nos yeux s'alourdissent Peur, mal au ventre, je sais que tu le ressens Donc j'écris pour ceux qui partent ainsi que pour ceux qui patientent Malades ? Non, on essaie de rester conscient Nos vies ne sont pas les films Même si on se rapproche d'Audiard Peur du prophète, j'en ferais pas un titre La religion c'est dans le cur, pas dans un clip On s'empare de XXX A toute heure enregistre Envoie-moi une demi potion XXX Astérix Atterri, à tes risques, et même si t'y va franco Ils ont encore la mentalité du scénario de Django En attendant, tiens le coup, apprend à gérer ta colère J'apprends à leur faire mal avec un dictionnaire Avec une clope au bec, notre corps est pollué mec A se prendre la tête pour écrire devant le bouton REC Au cinéma avec des acteurs qui déconnent Ils gèrent le blé en nous laissant les popcorns D'accord, prend le ticket j't'invite à capter le texte Y'a pas de victoire alors admire ce qu'il reste du Handek tout pars avec et y'a personne qui revient Y'a rien de lourd c'est de l'emmerde alors tu crois que c'est Mezian J'ai peur, et dans le délire je pense que tout viens de toi Même si on est cool, au fond de nous on a tous un peu de végéta You might also like19 janvier, Demi Portion Dragon Rash</t>
+          <t>Juste un petit freestyle 19 janvier 3eme album Dragon Rash Ça y est j'ai peur et je voulais te le dire Regarde te fatiguer tout comme nos yeux s'alourdissent Peur, mal au ventre, je sais que tu le ressens Donc j'écris pour ceux qui partent ainsi que pour ceux qui patientent Malades ? Non, on essaie de rester conscient Nos vies ne sont pas les films Même si on se rapproche d'Audiard Peur du prophète, j'en ferais pas un titre La religion c'est dans le cur, pas dans un clip On s'empare de XXX A toute heure enregistre Envoie-moi une demi potion XXX Astérix Atterri, à tes risques, et même si t'y va franco Ils ont encore la mentalité du scénario de Django En attendant, tiens le coup, apprend à gérer ta colère J'apprends à leur faire mal avec un dictionnaire Avec une clope au bec, notre corps est pollué mec A se prendre la tête pour écrire devant le bouton REC Au cinéma avec des acteurs qui déconnent Ils gèrent le blé en nous laissant les popcorns D'accord, prend le ticket j't'invite à capter le texte Y'a pas de victoire alors admire ce qu'il reste du Handek tout pars avec et y'a personne qui revient Y'a rien de lourd c'est de l'emmerde alors tu crois que c'est Mezian J'ai peur, et dans le délire je pense que tout viens de toi Même si on est cool, au fond de nous on a tous un peu de végéta 19 janvier, Demi Portion Dragon Rash</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Une vie dMC je raconte On s'amuse bien quand même A la rencontre cest ça, sur le terrain je minstalle Une vie dMC normale, surpasser chaque problème Profiter un max en stud ou en freestyle Une scène on ne refuse pas dites à lingé de monter Que cette mignonne espère chauffer la salle Tout le monde entre, court Allumer vos briquets Non, jai une meilleure idée Je veux que tout le monde se régale Tu sais très bien de quoi je parle De chaque thème adopté On sest tellement forgé une théorie fondamentale On voit les choses en grand, malgré nos difficultés Laisse couler, confiance Cest naturel mon gars On voit les choses en grand comme Passepartout On se dispute souvent mais on saime beaucoup Cest en partant de rien quon arrive à tout Allez dis-moi doù tu viens quon y fasse un tour Check ce son si t es à cours didées Ce titre est une drogue à te mettre dans tous les états Cest en partant de rien doù vient ma sériosité Ne tinquiète pas je connais lart avant l'56 K Toujours lentement mais surement Une belle priorité Ne tinvente pas une vie, ça va te rendre si mal On ne demande que de la zik et vos meilleurs couplets Je te gratte pas de cigarette, juste une instrumentale Quon se fasse plaisir, yes, si ten envie dexploser Avec peu despace comme une nuit dans le placard Avec peu despèces, jai revu toute la France Avec toutes mes phrases, jen place une pour IAM Je ne possédais rien et je voulais fonder une cabane Ça marche, je trace, cours je trouve ça impeccable Toi tu parles de gun, je trouve ça un peu con Bref chacun ses torts, nos vies et leurs décors You might also like1</t>
+          <t>Une vie dMC je raconte On s'amuse bien quand même A la rencontre cest ça, sur le terrain je minstalle Une vie dMC normale, surpasser chaque problème Profiter un max en stud ou en freestyle Une scène on ne refuse pas dites à lingé de monter Que cette mignonne espère chauffer la salle Tout le monde entre, court Allumer vos briquets Non, jai une meilleure idée Je veux que tout le monde se régale Tu sais très bien de quoi je parle De chaque thème adopté On sest tellement forgé une théorie fondamentale On voit les choses en grand, malgré nos difficultés Laisse couler, confiance Cest naturel mon gars On voit les choses en grand comme Passepartout On se dispute souvent mais on saime beaucoup Cest en partant de rien quon arrive à tout Allez dis-moi doù tu viens quon y fasse un tour Check ce son si t es à cours didées Ce titre est une drogue à te mettre dans tous les états Cest en partant de rien doù vient ma sériosité Ne tinquiète pas je connais lart avant l'56 K Toujours lentement mais surement Une belle priorité Ne tinvente pas une vie, ça va te rendre si mal On ne demande que de la zik et vos meilleurs couplets Je te gratte pas de cigarette, juste une instrumentale Quon se fasse plaisir, yes, si ten envie dexploser Avec peu despace comme une nuit dans le placard Avec peu despèces, jai revu toute la France Avec toutes mes phrases, jen place une pour IAM Je ne possédais rien et je voulais fonder une cabane Ça marche, je trace, cours je trouve ça impeccable Toi tu parles de gun, je trouve ça un peu con Bref chacun ses torts, nos vies et leurs décors 1</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Donne-moi donne-moi Donne-moi donne-moi J'te rendrai ça B.R.A.V. J'te rendrai ça Demi P Donne-moi donne-moi Donne-moi donne-moi J'te rendrai ça J'te rendrai ça Donnez-moi des mots, donnez-moi le mic Qu'on puisse sortir de l'anonymat Transformation oui de l'animal Depuis qu'l'humain se porte mal Donnez-moi la nuit, ça porte conseil J'ai préféré les nuits blanches Donnez-moi du son, qu'on s'enracine Qu'on puisse un jour retrouver sa branche Donnez-moi des armes t j'en ferais quoi? Toi, mais t'en frais quoi? Donnez-moi l'amour, non pas de haine Ni toutes ces troupes qui se déploient D'accord, alors prête-moi Reste près de moi Qui nous prédomine Qu'on puisse ensemble repousser le mal You might also like Donne-moi une raison qui tient la route Plutôt qu'un prétexte bateau Donne-moi ton sourire J't'avoue, le mien fait grève depuis très tôt Donne-moi le sentiment d'être libre Sans avoir besoin de m'isoler Dommage que les cons soient ceux Qui n'ont jamais envie de prendre congés Donne-moi du temps, je t'en rendrai autant Donne-moi une chance ou je la prends Donne-moi ton cur Si tu n'as pas peur qu'il pleure à force de m'attendre Donne-moi ta main ma belle, main ma belle, main ma belle Y a que sur mon lit d'mort qu'on pourra dire que la vie est belle Et bien mortelle Une grosse envie, oui de s'évader, s'évader, s'évader Toujours garder les pieds sur terre et n'jamais trop se laisser tenter Une grosse envie, oui de s'évader Toujours garder les pieds sur terre et n'jamais trop se laisser tenter Donne-moi donne-moi Donne-moi donne-moi J'te rendrai ça J'te rendrai ça Donne-moi la force et j'dominerai la peur De la chute inévitable Donne-moi les rires que la vie nous a privés au final Laisse-moi croire qu'l'espoir n'a jamais totalement quitté nos lieux Donnez-moi l'amour qui rend aveugle Plutôt qu'la haine qui crève les yeux Donne-moi, donne-moi, donne-moi, donne-moi Envie d'aller d'l'avant Je remplacerai les causes qui nous divisent par celles qui nous ressemblent C'est les petits dons de soi qui bâtissent les plus grandes destinées On reçoit plus en donnant, j'vous laisserai tout avant de me tirer Dites-moi lesquelles, oui sont les solutions Et s'en sortir tant qu'on y est La vie est un examen mais peu d'personnes à recopier J'rêve de changer les mentalités Chacun se fait son idée en mauvaise ou très bonne qualité Tant qu'l'espoir est là, vas-y Donnez-moi, comblez-moi, oui les trous d'mémoire J'trouve l'inspiration et la force Juste avec le sourire de Yéma Tu as tort, j'peux t'rassurer vainqueur J'tombe amoureux d'un cur Pas nécessairement d'un corps Une grosse envie, oui de s'évader, s'évader, s'évader Toujours garder les pieds sur terre et n'jamais trop se laisser tenter Une grosse envie, oui de s'évader Toujours garder les pieds sur terre et n'jamais trop se laisser tenter Yeah Demi Portion j'te représente Brav Sète Le Havre Donne-moi, donne-moi, donne-moi Donne-moi, donne-moi, donne-moi, donne-moi</t>
+          <t>Donne-moi donne-moi Donne-moi donne-moi J'te rendrai ça B.R.A.V. J'te rendrai ça Demi P Donne-moi donne-moi Donne-moi donne-moi J'te rendrai ça J'te rendrai ça Donnez-moi des mots, donnez-moi le mic Qu'on puisse sortir de l'anonymat Transformation oui de l'animal Depuis qu'l'humain se porte mal Donnez-moi la nuit, ça porte conseil J'ai préféré les nuits blanches Donnez-moi du son, qu'on s'enracine Qu'on puisse un jour retrouver sa branche Donnez-moi des armes t j'en ferais quoi? Toi, mais t'en frais quoi? Donnez-moi l'amour, non pas de haine Ni toutes ces troupes qui se déploient D'accord, alors prête-moi Reste près de moi Qui nous prédomine Qu'on puisse ensemble repousser le mal Donne-moi une raison qui tient la route Plutôt qu'un prétexte bateau Donne-moi ton sourire J't'avoue, le mien fait grève depuis très tôt Donne-moi le sentiment d'être libre Sans avoir besoin de m'isoler Dommage que les cons soient ceux Qui n'ont jamais envie de prendre congés Donne-moi du temps, je t'en rendrai autant Donne-moi une chance ou je la prends Donne-moi ton cur Si tu n'as pas peur qu'il pleure à force de m'attendre Donne-moi ta main ma belle, main ma belle, main ma belle Y a que sur mon lit d'mort qu'on pourra dire que la vie est belle Et bien mortelle Une grosse envie, oui de s'évader, s'évader, s'évader Toujours garder les pieds sur terre et n'jamais trop se laisser tenter Une grosse envie, oui de s'évader Toujours garder les pieds sur terre et n'jamais trop se laisser tenter Donne-moi donne-moi Donne-moi donne-moi J'te rendrai ça J'te rendrai ça Donne-moi la force et j'dominerai la peur De la chute inévitable Donne-moi les rires que la vie nous a privés au final Laisse-moi croire qu'l'espoir n'a jamais totalement quitté nos lieux Donnez-moi l'amour qui rend aveugle Plutôt qu'la haine qui crève les yeux Donne-moi, donne-moi, donne-moi, donne-moi Envie d'aller d'l'avant Je remplacerai les causes qui nous divisent par celles qui nous ressemblent C'est les petits dons de soi qui bâtissent les plus grandes destinées On reçoit plus en donnant, j'vous laisserai tout avant de me tirer Dites-moi lesquelles, oui sont les solutions Et s'en sortir tant qu'on y est La vie est un examen mais peu d'personnes à recopier J'rêve de changer les mentalités Chacun se fait son idée en mauvaise ou très bonne qualité Tant qu'l'espoir est là, vas-y Donnez-moi, comblez-moi, oui les trous d'mémoire J'trouve l'inspiration et la force Juste avec le sourire de Yéma Tu as tort, j'peux t'rassurer vainqueur J'tombe amoureux d'un cur Pas nécessairement d'un corps Une grosse envie, oui de s'évader, s'évader, s'évader Toujours garder les pieds sur terre et n'jamais trop se laisser tenter Une grosse envie, oui de s'évader Toujours garder les pieds sur terre et n'jamais trop se laisser tenter Yeah Demi Portion j'te représente Brav Sète Le Havre Donne-moi, donne-moi, donne-moi Donne-moi, donne-moi, donne-moi, donne-moi</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>On fait les choses comment ? Depuis tout petit Ne pas aller trop vite Tranquille Doucement Relax, envoie le beat mon pote Mon shaab, esquiver l'air maussade Au Sud y'a l'air c'est ça peut être inspiration Respire, écrire fait de nous des mauvais garçons Pas sûr, donc écoute et rechante moi ça Allume le feu, pour une fois qu'on réchauffe la salle Aux armes, comme pour viser, on prend l'time Doucement avant de bien savoir s'y prendre Tu tombes, tu t'rattrapes, tu flambes, tu plombes, tu rappes, tu tapes T'as la sape et la drogue dans la trappe T'es fort obéissant puissant sans effort Tu perfore t'es parfait On allume tu thaf3 T'as faim, t'as plus de fin tu t'bourres t'en reveux T'es nerveux tu cours tu t'goure mais suis le parfum Tu y parviens le gout de l'argent et du bien Très bien le sourire c'est urgent mais... doucement You might also like Doucement on prend l'temps Surement qu'on se trompe pas Doucement on fout le camp Lentement ça coule grave Doucement, doucement On a pas tous la chance Doucement, doucement Rachid Demi Portion Les Histoires Sprinter Demi Portion One drop beats Mehdizik Dj Rolex Bic Up On a pas tous la chance Plus j'réfléchis moins j'y trouve de sens1</t>
+          <t>On fait les choses comment ? Depuis tout petit Ne pas aller trop vite Tranquille Doucement Relax, envoie le beat mon pote Mon shaab, esquiver l'air maussade Au Sud y'a l'air c'est ça peut être inspiration Respire, écrire fait de nous des mauvais garçons Pas sûr, donc écoute et rechante moi ça Allume le feu, pour une fois qu'on réchauffe la salle Aux armes, comme pour viser, on prend l'time Doucement avant de bien savoir s'y prendre Tu tombes, tu t'rattrapes, tu flambes, tu plombes, tu rappes, tu tapes T'as la sape et la drogue dans la trappe T'es fort obéissant puissant sans effort Tu perfore t'es parfait On allume tu thaf3 T'as faim, t'as plus de fin tu t'bourres t'en reveux T'es nerveux tu cours tu t'goure mais suis le parfum Tu y parviens le gout de l'argent et du bien Très bien le sourire c'est urgent mais... doucement Doucement on prend l'temps Surement qu'on se trompe pas Doucement on fout le camp Lentement ça coule grave Doucement, doucement On a pas tous la chance Doucement, doucement Rachid Demi Portion Les Histoires Sprinter Demi Portion One drop beats Mehdizik Dj Rolex Bic Up On a pas tous la chance Plus j'réfléchis moins j'y trouve de sens1</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>x2 Qu'on dise ou qu'on fasse, y en a trop qui haryem? Non il n'y a pas de fiction, ici tout est réel Ca tape des risques, pas mal de drames Ca taffe les rimes, toujours pas marre d'ce rap Oui, on sait tous que t'es faux mais y faut qu'tu traces Tu pensais faire ce qui fallait, au final tu t'rates Combien tu claques ? Combien tu coffres ? Est-ce que toi aussi pour réussir tu donnes ton corps ? Oh, cousine tu parles trop, cousin tu brades trop Fais comme tout le monde, sois un homme et prend ta part du gâteau On attend personne, ouais y a trop d'bâtards Pour t'en apercevoir pas besoin d'aller au placard Pas b'soin d'milliard, c'est la fier de l'or là juste dehors La dalle se bute avec les forces de l'ordre C'est triste à voir, les mêmes actions qui se répétent Mauvais réflexes, ça me rend bête mais heureusement j'ai mes repères You might also likeQuoiqu'on dise, quoiqu'on fasse, y en a trop qui hayem? Non il n'y a pas de fiction, ici tout est réel Les G-G, c'est plus qu'un groupe ou qu'un simple concept T'as jamais vu aucun rendez-vous un soir de concert Qu'on dise ou qu'on fasse, y en a trop qui haryem? Non il n'y a pas de fiction, ici tout est réel Ça tape des risques, pas mal de drames Ça taffe les rimes, toujours pas marre d'ce rap Non j'vais pas m'inventer une vie dure Plein d'salade et d'confiture On a la rime qui escalade, elle s'ballade en écriture On a c'flow qui est malade, et s'case sur n'importe quel beat Mon avion s'est crashé fort avec un bic dans l'cockpit Fuck, j'vois qu'des animaux domestiques Fuck, et si tu vois l'contraire tu m'expliques A faire la tête pour un stick ? Toxico Et ton côté artistique est troué comme tes chicos Paraît qu'les vrais reconnaissent vrais, hein on les r'connaît, t'as déconné Et ton vieux flow copié-collé, trop picolé C'est bon, j'te balance une bière, une demie Non merci, j'risque d'oublier le tiers du texte à vous dire Je n'suis qu'au début de mes histoires, le fait d'aboutir en plat froid? ne vous en faites pas Chaud j'arrive te servir, sans kronembourg Le rap te rend service mais ??? à Cliancourt x2 Rashid Demi Portion Sprinter Les Grandes Gueules x2 Le bic ma profession, ayant rayé trop d'feuilles Sprinter Quand j'arrive ici à mon tour, j'ai qu'ma sale voix x2</t>
+          <t>x2 Qu'on dise ou qu'on fasse, y en a trop qui haryem? Non il n'y a pas de fiction, ici tout est réel Ca tape des risques, pas mal de drames Ca taffe les rimes, toujours pas marre d'ce rap Oui, on sait tous que t'es faux mais y faut qu'tu traces Tu pensais faire ce qui fallait, au final tu t'rates Combien tu claques ? Combien tu coffres ? Est-ce que toi aussi pour réussir tu donnes ton corps ? Oh, cousine tu parles trop, cousin tu brades trop Fais comme tout le monde, sois un homme et prend ta part du gâteau On attend personne, ouais y a trop d'bâtards Pour t'en apercevoir pas besoin d'aller au placard Pas b'soin d'milliard, c'est la fier de l'or là juste dehors La dalle se bute avec les forces de l'ordre C'est triste à voir, les mêmes actions qui se répétent Mauvais réflexes, ça me rend bête mais heureusement j'ai mes repères Quoiqu'on dise, quoiqu'on fasse, y en a trop qui hayem? Non il n'y a pas de fiction, ici tout est réel Les G-G, c'est plus qu'un groupe ou qu'un simple concept T'as jamais vu aucun rendez-vous un soir de concert Qu'on dise ou qu'on fasse, y en a trop qui haryem? Non il n'y a pas de fiction, ici tout est réel Ça tape des risques, pas mal de drames Ça taffe les rimes, toujours pas marre d'ce rap Non j'vais pas m'inventer une vie dure Plein d'salade et d'confiture On a la rime qui escalade, elle s'ballade en écriture On a c'flow qui est malade, et s'case sur n'importe quel beat Mon avion s'est crashé fort avec un bic dans l'cockpit Fuck, j'vois qu'des animaux domestiques Fuck, et si tu vois l'contraire tu m'expliques A faire la tête pour un stick ? Toxico Et ton côté artistique est troué comme tes chicos Paraît qu'les vrais reconnaissent vrais, hein on les r'connaît, t'as déconné Et ton vieux flow copié-collé, trop picolé C'est bon, j'te balance une bière, une demie Non merci, j'risque d'oublier le tiers du texte à vous dire Je n'suis qu'au début de mes histoires, le fait d'aboutir en plat froid? ne vous en faites pas Chaud j'arrive te servir, sans kronembourg Le rap te rend service mais ??? à Cliancourt x2 Rashid Demi Portion Sprinter Les Grandes Gueules x2 Le bic ma profession, ayant rayé trop d'feuilles Sprinter Quand j'arrive ici à mon tour, j'ai qu'ma sale voix x2</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Je sais pas par où commencer vu que notre rap tient la route On attend que tourne la roue, tu sais comment cest Ils sont comme hantés par lenvie de réussir Instinct farouche, inutile de commenter Javoue, jai perdu du temps sur le beat Jai du time à rattraper donc jmets les feux rouges sur le green Moi jpeux rimer bien quils me croient bête Du haut dleur rap qui pue la merde masterisé par leurs toilettes À la bourre, on attend que lheure sonne On est ces talents sans le buzz vu quon a insulté personne Indépendants, on connaît la douleur du ring Le rap et ses mauvais penchants et les sourires couleur urine Et javoue que je npeux pas plaire à tout l'monde Vu que les MC mentent comme ils respirent et quils respirent à pleins poumons Donc à vous de faire la part des choses Entre celui qui veut sa part du cake et celui qui veut la part du pauvre À bout, on taffe et s'applique loin du rap qui tapine On pose un tas de phrasés, phases, phrases classées classiques Du lourd donc ils men veulent, la recette Un cinquième de Carpe Diem, une Demi Portion de Grandes Gueules On est là depuis l'époque déjà Jvois qules choses se dégradent Sale époque, cest grave Le rap se meurt et nous on frôle le désastre On y redonne vie en restant vrais You might also like Tranquille, Kader, alors dis-moi quoi dneuf à Marseille ? Disons que cest la même à Sète, Metz, Lille ou Sarcelles Le rap, paraît quça nous sert à sremplir un compte Sacem Du tout jarrange une crevaison, javance et vite, ça freine Depuis jévite ça frère, des fois je m'tape des scènes Ici pour fuir la routine la jeunesse tape des seizes Les filles font peu dménage, vu quelles nettoient et quelles mécènent SMS, sans boulot, même des arabes deviennent CRS Entre crise et antistress, le monde est un hôpital On sfait discret évidemment, on nse fie pas de leau qui parle Qui ronfle, des fois j'm'endors, trouve du repos près des enceintes Allô R.E.D.K. ? Putain même au tél' y'a des Larsen Toujours open à chaque scène, donne un micro et jsaurais quoi faire On mcherche des poux autant qula merde, jaurais dû finir coiffeur Couper des têtes à laveuglette, non personne mérite la mort Cest froid, je l'sais très bien qujattendrais pas Catherine Laborde Cest chaud, cest normal, nos darons portaient des grosses caisses Ils nont pas eu ltemps dchialer ou dcharrier sur les Myspace Deux caisses claires, sans boucle, attends lbuzz pour quça roule Le rap français nest plus hard mettez Brassens ou Aznavour Savoure, ouais, jviens faire causer les muets Javoue, jparle pas trop vite avant décrire le résumé En bref les Grandes Gueules, Carpe Diem, R.E.D.K Demi Portion loriginal, évitez la version béta On est là depuis l'époque déjà Jvois qules choses se dégradent Sale époque, cest grave Le rap se meurt et nous on frôle le désastre On y redonne vie en restant vrais</t>
+          <t>Je sais pas par où commencer vu que notre rap tient la route On attend que tourne la roue, tu sais comment cest Ils sont comme hantés par lenvie de réussir Instinct farouche, inutile de commenter Javoue, jai perdu du temps sur le beat Jai du time à rattraper donc jmets les feux rouges sur le green Moi jpeux rimer bien quils me croient bête Du haut dleur rap qui pue la merde masterisé par leurs toilettes À la bourre, on attend que lheure sonne On est ces talents sans le buzz vu quon a insulté personne Indépendants, on connaît la douleur du ring Le rap et ses mauvais penchants et les sourires couleur urine Et javoue que je npeux pas plaire à tout l'monde Vu que les MC mentent comme ils respirent et quils respirent à pleins poumons Donc à vous de faire la part des choses Entre celui qui veut sa part du cake et celui qui veut la part du pauvre À bout, on taffe et s'applique loin du rap qui tapine On pose un tas de phrasés, phases, phrases classées classiques Du lourd donc ils men veulent, la recette Un cinquième de Carpe Diem, une Demi Portion de Grandes Gueules On est là depuis l'époque déjà Jvois qules choses se dégradent Sale époque, cest grave Le rap se meurt et nous on frôle le désastre On y redonne vie en restant vrais Tranquille, Kader, alors dis-moi quoi dneuf à Marseille ? Disons que cest la même à Sète, Metz, Lille ou Sarcelles Le rap, paraît quça nous sert à sremplir un compte Sacem Du tout jarrange une crevaison, javance et vite, ça freine Depuis jévite ça frère, des fois je m'tape des scènes Ici pour fuir la routine la jeunesse tape des seizes Les filles font peu dménage, vu quelles nettoient et quelles mécènent SMS, sans boulot, même des arabes deviennent CRS Entre crise et antistress, le monde est un hôpital On sfait discret évidemment, on nse fie pas de leau qui parle Qui ronfle, des fois j'm'endors, trouve du repos près des enceintes Allô R.E.D.K. ? Putain même au tél' y'a des Larsen Toujours open à chaque scène, donne un micro et jsaurais quoi faire On mcherche des poux autant qula merde, jaurais dû finir coiffeur Couper des têtes à laveuglette, non personne mérite la mort Cest froid, je l'sais très bien qujattendrais pas Catherine Laborde Cest chaud, cest normal, nos darons portaient des grosses caisses Ils nont pas eu ltemps dchialer ou dcharrier sur les Myspace Deux caisses claires, sans boucle, attends lbuzz pour quça roule Le rap français nest plus hard mettez Brassens ou Aznavour Savoure, ouais, jviens faire causer les muets Javoue, jparle pas trop vite avant décrire le résumé En bref les Grandes Gueules, Carpe Diem, R.E.D.K Demi Portion loriginal, évitez la version béta On est là depuis l'époque déjà Jvois qules choses se dégradent Sale époque, cest grave Le rap se meurt et nous on frôle le désastre On y redonne vie en restant vrais</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Jai ajusté mon horloge interne à ma manière. Lorsque la prison était réveillée, je dormais. Lorsquils dormaient, je m'réveillais. Je nvivais ni dans ma cellule, ni dans mon cur. Seulement dans mon esprit. Depuis quils mont dit qujallais rentrer là La prison très jeune a dû mrider à la Mandela Lincarcération et leur foutu parloir Stop, jai pas la cellule à Tapie Bernard Ici jai la dalle et lmaton a la gueule dun sanglier Irrespirable, si tu voyais létat dmon cendrier Sans briller, tout est noir, cest pas grave Mon détenu, tellement barge quon parlait dlui sur la quatre Macabre, si tu savais tout cquil est capable T'es pas cap non, même quand jmange, jlui donne ma part Cest sympa, jte parle pas dla bouffe qu'il nous sert Putain dmerde, jai dû perdre dix kilos dans leur self Sans sel ou des visages entaillés par lsucre Toxicomanes, des Dalton enragés d'Lucky Luke Une minute, jcompte plus le temps, ni d'amour Chez moi on sréconforte seulement lpremier samedi du mois Hachek, le plan déchec depuis qujsuis tombé T'fous tranquille, jaurais dû pt-être laisser ccondé Si jpaye cest sans regrets, si jplaide jmabaisse aux keufs Dis à Maman sincèrement qu'jmexcuse du fond du cur Le trou a mauvais accueil, lodeur de ces sanitaires Du pédophile jusquà celui qui roule sans mis-per Cauchemar, non dma fenêtre jvois pas dcroissant dlune Jcolle ce timbre et de cqui reste pour men rouler une You might also like Une fois javais tendu la main pour demander de laide. Elle était retombée. Toute flétrie, comme lherbe sèche réduite en poussière. En ne laissant rien. Désormais je nattends plus rien, je nai besoin de rien, pas de lendemain, pas de liberté, pas de justice. Et un jour, la prison sévanouira. Wesh frère, jespère que tu tiens le coup de là où tes Pas dnouvelles ici à part quPapa tombe dans la bouteille Jte dirai pas qutout baigne, jpense et tu lsais bien Bref, tu mconnais jte dis la vérité sans boire de bière Maman, elle ne dort plus depuis que tes là-bas La maison est vide, ya plus dson, tas du péter la baffle Bref, toujours un plaisir drecevoir tes lettres Ne tinquiète pas pour ta cantine et tes cigarettes Au fait, la ptite balance est tombée aussi Ne le touche pas sinon ldossier risque de se grossir Lavocat, daprès cquil dit, tu sors bientôt Et pour les démarches, jétais obligé dle payer plein pot Peu importe, cqui compte cest que tu gardes le moral Dehors, ya tes amis qui draguent ton ex-compagne Tu parles, plus dconfiance, ils tenvoyent pas dmandat La vie est une escalade où on chutera tous dune montagne Nest-ce pas ? Mets-toi au calme et laisse verser le son Comme a dit lautre nique sa mère la réinsertion Les pénitenciers ont lâché lsort La justice nest pas si blanche qula figure dMarylin Manson Si lon prend soin dtoi chAllah, tu verras vite ta chambre La tête haute, cest mieux quavoir une vie dpacha Passons, jespère qula lecture te fra vadrouiller Promis, jte réécrirai quand tu reçois lcourrier Cest à partir de cmoment-là que je décidais de prendre ma vie en main. Je préparais mon corps pour quil devienne une arme. Nique sa mère la réinsertion Ta cité cest pas ta mère et si tu crèves, elle aura dautres enfants Tu veux les avantages du quartier, t'auras les inconvénients</t>
+          <t>Jai ajusté mon horloge interne à ma manière. Lorsque la prison était réveillée, je dormais. Lorsquils dormaient, je m'réveillais. Je nvivais ni dans ma cellule, ni dans mon cur. Seulement dans mon esprit. Depuis quils mont dit qujallais rentrer là La prison très jeune a dû mrider à la Mandela Lincarcération et leur foutu parloir Stop, jai pas la cellule à Tapie Bernard Ici jai la dalle et lmaton a la gueule dun sanglier Irrespirable, si tu voyais létat dmon cendrier Sans briller, tout est noir, cest pas grave Mon détenu, tellement barge quon parlait dlui sur la quatre Macabre, si tu savais tout cquil est capable T'es pas cap non, même quand jmange, jlui donne ma part Cest sympa, jte parle pas dla bouffe qu'il nous sert Putain dmerde, jai dû perdre dix kilos dans leur self Sans sel ou des visages entaillés par lsucre Toxicomanes, des Dalton enragés d'Lucky Luke Une minute, jcompte plus le temps, ni d'amour Chez moi on sréconforte seulement lpremier samedi du mois Hachek, le plan déchec depuis qujsuis tombé T'fous tranquille, jaurais dû pt-être laisser ccondé Si jpaye cest sans regrets, si jplaide jmabaisse aux keufs Dis à Maman sincèrement qu'jmexcuse du fond du cur Le trou a mauvais accueil, lodeur de ces sanitaires Du pédophile jusquà celui qui roule sans mis-per Cauchemar, non dma fenêtre jvois pas dcroissant dlune Jcolle ce timbre et de cqui reste pour men rouler une Une fois javais tendu la main pour demander de laide. Elle était retombée. Toute flétrie, comme lherbe sèche réduite en poussière. En ne laissant rien. Désormais je nattends plus rien, je nai besoin de rien, pas de lendemain, pas de liberté, pas de justice. Et un jour, la prison sévanouira. Wesh frère, jespère que tu tiens le coup de là où tes Pas dnouvelles ici à part quPapa tombe dans la bouteille Jte dirai pas qutout baigne, jpense et tu lsais bien Bref, tu mconnais jte dis la vérité sans boire de bière Maman, elle ne dort plus depuis que tes là-bas La maison est vide, ya plus dson, tas du péter la baffle Bref, toujours un plaisir drecevoir tes lettres Ne tinquiète pas pour ta cantine et tes cigarettes Au fait, la ptite balance est tombée aussi Ne le touche pas sinon ldossier risque de se grossir Lavocat, daprès cquil dit, tu sors bientôt Et pour les démarches, jétais obligé dle payer plein pot Peu importe, cqui compte cest que tu gardes le moral Dehors, ya tes amis qui draguent ton ex-compagne Tu parles, plus dconfiance, ils tenvoyent pas dmandat La vie est une escalade où on chutera tous dune montagne Nest-ce pas ? Mets-toi au calme et laisse verser le son Comme a dit lautre nique sa mère la réinsertion Les pénitenciers ont lâché lsort La justice nest pas si blanche qula figure dMarylin Manson Si lon prend soin dtoi chAllah, tu verras vite ta chambre La tête haute, cest mieux quavoir une vie dpacha Passons, jespère qula lecture te fra vadrouiller Promis, jte réécrirai quand tu reçois lcourrier Cest à partir de cmoment-là que je décidais de prendre ma vie en main. Je préparais mon corps pour quil devienne une arme. Nique sa mère la réinsertion Ta cité cest pas ta mère et si tu crèves, elle aura dautres enfants Tu veux les avantages du quartier, t'auras les inconvénients</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cette fois, cest original, on va slancer cousin Comme si trop simple depuis qunotre musique en touche plus dun Oui cest notre style urbain, tas même reconnu lflow Vas-y oh yo yo yo yo Attention à chaque mot, un appel à mes matlots Comme tous les galériens qui se sont faits mener en bateau On est plein sur un plateau, hip-hop est la bonne méthode Oui cest du lourd et j'en suis sûr que t'as rien porté d'autres Entre midi et Demi Moore, demi mort, non aoudou billah On peut vite partir à 2.000 à lheure Stoppe là, demi-tour, cest vu de lintérieur Une demi pute qui vise un demi but reste un mauvais joueur Quest-ce tas ? Fais ta route, cest dla musique en vrai Ça vaut de lor vu tous les couplets quon a coffrés Trop frais, chaud, cest dû à mon rap glacial Le refrain est chaleureux cest du ragga-rap partial Cest bon, on taccueille si tu fais bien lboulot Ça fait oh yo yo yo yo Cest pas ltube de lété, chacun a son stylo Disons que oh yo yo yo En hiver ya rien à péter, un peu comme une prison On slibère et on tramène avec nous dtoute façon Tout est offert et cest toute option Illimité, entre Mehdi et Demi Portion You might also like Tu veux savoir cqui nous unit, ce qui nous rassemble ? Cest faire des rimes, les assembler et poser sur le sample Non, rien dplus simple, complique pas les choses La musique pour tous cest ça lesprit hip-hop Le sens du partage, oui quoi quil en soit Nous on tinvite que tu sois Hakim ou François Tu fumes ? Plane et voyage avec nous En deuxième classe on refera lmonde jusquau lever du jour Originale technique, oui tas r'connu lstyle Avec des textes à la simplicité des plus subtiles Inutile dsavoir si cest rap ou reggae Mais chante avec nous yé yé yé yé Vas-y ouvre ta fnêtre, ya un beau soleil Pénétrant, venu du Sud à ten couper lsommeil De la chaleur dans les curs, ça ne fait pas dmal Original fait du ragga-rap partial Oui de là, jme laisse aller et la musique memporte Des mots vivons car ne les écrivons pas de main morte Le rap et moi, cest un peu comme Laurel et Hardy On squitte pas de la semelle, du Lundi au Samedi Joins-toi à nous, ya de la place pour tous On spousse et on se sert pour manger un couscous De là jte dis coucou, prend bien soin de toi Entre Mehdi et Demi pour un ptit son sétois Là les jaloux napparaissent pas, jte jure quils me paraissent pâles Arrêtez ne me parlez pas, rembobine et rmets au départ Mehdi Demi, rimes au métal, Midi Libre qui me régale Un journal qui dure des temps, jte jure ny résiste pas</t>
+          <t>Cette fois, cest original, on va slancer cousin Comme si trop simple depuis qunotre musique en touche plus dun Oui cest notre style urbain, tas même reconnu lflow Vas-y oh yo yo yo yo Attention à chaque mot, un appel à mes matlots Comme tous les galériens qui se sont faits mener en bateau On est plein sur un plateau, hip-hop est la bonne méthode Oui cest du lourd et j'en suis sûr que t'as rien porté d'autres Entre midi et Demi Moore, demi mort, non aoudou billah On peut vite partir à 2.000 à lheure Stoppe là, demi-tour, cest vu de lintérieur Une demi pute qui vise un demi but reste un mauvais joueur Quest-ce tas ? Fais ta route, cest dla musique en vrai Ça vaut de lor vu tous les couplets quon a coffrés Trop frais, chaud, cest dû à mon rap glacial Le refrain est chaleureux cest du ragga-rap partial Cest bon, on taccueille si tu fais bien lboulot Ça fait oh yo yo yo yo Cest pas ltube de lété, chacun a son stylo Disons que oh yo yo yo En hiver ya rien à péter, un peu comme une prison On slibère et on tramène avec nous dtoute façon Tout est offert et cest toute option Illimité, entre Mehdi et Demi Portion Tu veux savoir cqui nous unit, ce qui nous rassemble ? Cest faire des rimes, les assembler et poser sur le sample Non, rien dplus simple, complique pas les choses La musique pour tous cest ça lesprit hip-hop Le sens du partage, oui quoi quil en soit Nous on tinvite que tu sois Hakim ou François Tu fumes ? Plane et voyage avec nous En deuxième classe on refera lmonde jusquau lever du jour Originale technique, oui tas r'connu lstyle Avec des textes à la simplicité des plus subtiles Inutile dsavoir si cest rap ou reggae Mais chante avec nous yé yé yé yé Vas-y ouvre ta fnêtre, ya un beau soleil Pénétrant, venu du Sud à ten couper lsommeil De la chaleur dans les curs, ça ne fait pas dmal Original fait du ragga-rap partial Oui de là, jme laisse aller et la musique memporte Des mots vivons car ne les écrivons pas de main morte Le rap et moi, cest un peu comme Laurel et Hardy On squitte pas de la semelle, du Lundi au Samedi Joins-toi à nous, ya de la place pour tous On spousse et on se sert pour manger un couscous De là jte dis coucou, prend bien soin de toi Entre Mehdi et Demi pour un ptit son sétois Là les jaloux napparaissent pas, jte jure quils me paraissent pâles Arrêtez ne me parlez pas, rembobine et rmets au départ Mehdi Demi, rimes au métal, Midi Libre qui me régale Un journal qui dure des temps, jte jure ny résiste pas</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>On essaye toujours de faire mieux On essaye toujours de faire mieux On essaye toujours de faire mieux Alors avance si tes ok On essaye toujours de faire mieux On essaye toujours de faire mieux Tu essaye toujours de faire mieux Alors avance si tes ok Ça y est j'ai 100k on a du faire les cents pas Mais bon je le sent pas comme ken et son cas Ouai la street s'emballe sans parler de sondage Avant d'en arriver là on a froisser les 100 pages My space oui ??? A nos anciens soldats Ceux qui font de la musique et ouai les couilles sur la table J'ai le mental, alors ne ment pas Aujourd'hui y'en a trop, rare ceux qui mentent pas Y'a l'effet du gun gun , l'époque du buzz buzz Retour du biz biz, piscine et vieille teuch Y'en a marre des vieilles gueuch engorge le même game On dirait un film de peur donc le sang j'dégaine Des mots en guise de gun pas qu'on fasse le deuille Chaque quartier à sa recette, oui plusieurs odeurs Oui de Sète à Montpel' c'est toujours les grandes gueules Oui le son ta pris de court aller chouf la longueur You might also like On essaye toujours de faire mieux On essaye toujours de faire mieux On essaye toujours de faire mieux Alors avance si tes ok On essaye toujours de faire mieux On essaye toujours de faire mieux Tu essaye toujours de faire mieux Alors avance si tes ok J'élimine les maux des malades, je les ai mis dans la malle Manie la langue et la masse mise les prix olala Le bic à remplacé la lame, de Sète oui à Panama Épargnez moi j'aime pas les maux PAM PAM décalez vous Le studio en chantier navale, sans préliminaire Non c'est pas Eminem, c'est bon tu m'énerve Pourquoi tu bat de l'aile, pourquoi tu bad trip Et oui c'est boom bap ou Jimmy Hendrix On a géré oui le montage de nos vies On a bien choisit l'équipage du navire C'est grâce à vous qu'on a fait l'tour de la ville Laisse moi l'ouvrir on a eu le temps d'revenir Depuis tout petit tu sais la merde j'esquive J'ai préféré le rap à Shakespeare Ho j'esquive, Demi s'organise, flop phénoménal que dieu te bénisse On essaye toujours de faire mieux On essaye toujours de faire mieux On essaye toujours de faire mieux Alors avance si tes ok On essaye toujours de faire mieux On essaye toujours de faire mieux Tu essaye toujours de faire mieux Alors avance si tes ok On reste les même et on lâche pas On essaye toujours de faire mieux Lâche pas l'affaire On essaye toujours de faire mieux Wouw! On essaye toujours de faire mieux c'est ça ! Alors avance si tes ok Sans, sans, sans galère On essaye toujours de faire mieux Tient, tient, tient On essaye toujours de faire mieux Tu essaye toujours de faire mieux Alors avance si tes ok On essaye toujours de faire mieux On essaye toujours de faire mieux On essaye toujours de faire mieux Alors avance si tes ok On essaye toujours de faire mieux On essaye toujours de faire mieux Tu essaye toujours de faire mieux Alors avance si tes ok</t>
+          <t>On essaye toujours de faire mieux On essaye toujours de faire mieux On essaye toujours de faire mieux Alors avance si tes ok On essaye toujours de faire mieux On essaye toujours de faire mieux Tu essaye toujours de faire mieux Alors avance si tes ok Ça y est j'ai 100k on a du faire les cents pas Mais bon je le sent pas comme ken et son cas Ouai la street s'emballe sans parler de sondage Avant d'en arriver là on a froisser les 100 pages My space oui ??? A nos anciens soldats Ceux qui font de la musique et ouai les couilles sur la table J'ai le mental, alors ne ment pas Aujourd'hui y'en a trop, rare ceux qui mentent pas Y'a l'effet du gun gun , l'époque du buzz buzz Retour du biz biz, piscine et vieille teuch Y'en a marre des vieilles gueuch engorge le même game On dirait un film de peur donc le sang j'dégaine Des mots en guise de gun pas qu'on fasse le deuille Chaque quartier à sa recette, oui plusieurs odeurs Oui de Sète à Montpel' c'est toujours les grandes gueules Oui le son ta pris de court aller chouf la longueur On essaye toujours de faire mieux On essaye toujours de faire mieux On essaye toujours de faire mieux Alors avance si tes ok On essaye toujours de faire mieux On essaye toujours de faire mieux Tu essaye toujours de faire mieux Alors avance si tes ok J'élimine les maux des malades, je les ai mis dans la malle Manie la langue et la masse mise les prix olala Le bic à remplacé la lame, de Sète oui à Panama Épargnez moi j'aime pas les maux PAM PAM décalez vous Le studio en chantier navale, sans préliminaire Non c'est pas Eminem, c'est bon tu m'énerve Pourquoi tu bat de l'aile, pourquoi tu bad trip Et oui c'est boom bap ou Jimmy Hendrix On a géré oui le montage de nos vies On a bien choisit l'équipage du navire C'est grâce à vous qu'on a fait l'tour de la ville Laisse moi l'ouvrir on a eu le temps d'revenir Depuis tout petit tu sais la merde j'esquive J'ai préféré le rap à Shakespeare Ho j'esquive, Demi s'organise, flop phénoménal que dieu te bénisse On essaye toujours de faire mieux On essaye toujours de faire mieux On essaye toujours de faire mieux Alors avance si tes ok On essaye toujours de faire mieux On essaye toujours de faire mieux Tu essaye toujours de faire mieux Alors avance si tes ok On reste les même et on lâche pas On essaye toujours de faire mieux Lâche pas l'affaire On essaye toujours de faire mieux Wouw! On essaye toujours de faire mieux c'est ça ! Alors avance si tes ok Sans, sans, sans galère On essaye toujours de faire mieux Tient, tient, tient On essaye toujours de faire mieux Tu essaye toujours de faire mieux Alors avance si tes ok On essaye toujours de faire mieux On essaye toujours de faire mieux On essaye toujours de faire mieux Alors avance si tes ok On essaye toujours de faire mieux On essaye toujours de faire mieux Tu essaye toujours de faire mieux Alors avance si tes ok</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Oh citoyens, sortez les armes, je n'y crois vraiment plus Un cheval finit en âne dès qu'il est corrompu L'être humain change d'avis comme il change de pompes Car la jalousie aussi fera que tu changes de potes Si l'Président savait comment ça règne dehors Peur de l'autre, mais surtout pas des forces de l'ordre Le monde est la monnaie, le chemin est un casse-pipe Faudrait un cur de pierre d'après les Quatre Fantastiques Nos parents taffaient dur avec la sueur d'un boxeur Banger avec un mic sous le Bombers J'veux qu'tu prennes ta part, non pas qu'tu fermes la porte Les gens n'aiment plus l'respect, aiment quand tu gueules d'abord J'envoie des bouteilles à la mer mais y a un tas d'requins La vie est rose, la mer est bleue, c'est juste un fond d'teint La vie est belle, porte un maquillage d'actrice Entre les ruses, on tente de placer les bonnes tactiques Hey, ho Hey, ho Hey, ho Hey, ho Oh citoyens, sortez les armes, je n'y crois vraiment plus Aujourd'hui, l'humain se filme dès qu'il est abattu Le son ne ment pas, yo, du haut d'la montagne On a le mental, yo, voilà mon gars Kicke une caisse claire, fais péter la cymbale On désire apprécier la vie, déjà c'est le principal La police te frappe souvent si tu n'connais pas tes lois Faudrait qu'on nous laisse tranquilles sur un son à Sizzla Attention au couloir, vers une scène sans trou noir J'veux que le public prenne place sur tout le boulevard La musique m'a sauvé, éloigné d'plusieurs connards Demande à la mafia c'qu'on fait pour des dinars La musique est belle, porte un maquillage d'actrice Entre les ruses, on tente de placer les bonnes tactiques You might also like Hey, ho à notre patrimoine Hey, ho yeah, vive le rap français Hey, ho dédicace à la Scred Connexion Hey, ho DJ Saxe, frérot Hey, ho Assassin, la Rumeur Hey, ho la Cliqua Hey, ho Less' du Neuf Hey, ho et tous que j'ai rencontrés Hey, ho merci à vous les gars Hey, ho à ceux qui représentent Hey, ho au public Hey, ho respect à Sheryo Hey, ho Mysa, Kadaz Hey, ho jusqu'au Canada Hey, ho toute la France Hey, ho l'Espagne, la Suisse, la Belgique Hey, ho One love, yeah Hey, ho</t>
+          <t>Oh citoyens, sortez les armes, je n'y crois vraiment plus Un cheval finit en âne dès qu'il est corrompu L'être humain change d'avis comme il change de pompes Car la jalousie aussi fera que tu changes de potes Si l'Président savait comment ça règne dehors Peur de l'autre, mais surtout pas des forces de l'ordre Le monde est la monnaie, le chemin est un casse-pipe Faudrait un cur de pierre d'après les Quatre Fantastiques Nos parents taffaient dur avec la sueur d'un boxeur Banger avec un mic sous le Bombers J'veux qu'tu prennes ta part, non pas qu'tu fermes la porte Les gens n'aiment plus l'respect, aiment quand tu gueules d'abord J'envoie des bouteilles à la mer mais y a un tas d'requins La vie est rose, la mer est bleue, c'est juste un fond d'teint La vie est belle, porte un maquillage d'actrice Entre les ruses, on tente de placer les bonnes tactiques Hey, ho Hey, ho Hey, ho Hey, ho Oh citoyens, sortez les armes, je n'y crois vraiment plus Aujourd'hui, l'humain se filme dès qu'il est abattu Le son ne ment pas, yo, du haut d'la montagne On a le mental, yo, voilà mon gars Kicke une caisse claire, fais péter la cymbale On désire apprécier la vie, déjà c'est le principal La police te frappe souvent si tu n'connais pas tes lois Faudrait qu'on nous laisse tranquilles sur un son à Sizzla Attention au couloir, vers une scène sans trou noir J'veux que le public prenne place sur tout le boulevard La musique m'a sauvé, éloigné d'plusieurs connards Demande à la mafia c'qu'on fait pour des dinars La musique est belle, porte un maquillage d'actrice Entre les ruses, on tente de placer les bonnes tactiques Hey, ho à notre patrimoine Hey, ho yeah, vive le rap français Hey, ho dédicace à la Scred Connexion Hey, ho DJ Saxe, frérot Hey, ho Assassin, la Rumeur Hey, ho la Cliqua Hey, ho Less' du Neuf Hey, ho et tous que j'ai rencontrés Hey, ho merci à vous les gars Hey, ho à ceux qui représentent Hey, ho au public Hey, ho respect à Sheryo Hey, ho Mysa, Kadaz Hey, ho jusqu'au Canada Hey, ho toute la France Hey, ho l'Espagne, la Suisse, la Belgique Hey, ho One love, yeah Hey, ho</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Un texte, pas dsouci, jsuis paré pour tenvoyer ça Chez moi cest d'venu lusine avec la paye du RSA Jai limpression daimer ça, jsuis loin dêtre difficile Jviens d'là où on grandit seul, viens faire un tour et tu visites Lambiance, quest-ce quelle est belle, la France ! Jai millions dvues, ces trous dballe croient qujai une vie dpalace Et vas-y nique ta race, car il fallait bien quje lsorte Des rimes fortes, tais-toi non, cnest pas la rage que jporte Prose virale, dune attitude pirate Hein, fais voir ma ZUP elle ne fait pas dmiracle Grave, cest lchantier mais sans briques, des discrets aux indic Inscrits au Pôle Emploi en attendant un ptit SMIC Tout lmonde devant son stick, rien de fantastique Tout lmonde devient tendu, une forme de gymnastique De lherbe dans lplastique, argumente leurs articles Ici, cest chacun ses règles, cest pas une forme mais l'arbitre Du béton au bétail, lodeur dla maille à cBeckham Du ghetto à Guetta, cherche à remplir le basstam On a tous une vie à faire, regarde et valide Ya mes gars sur le terrain mais pas au Real de Madrid Fuck lÉtat, son équipe, leur couper lappétit Un peu oui un sale mollard dans leurs spaghettis Fini djouer, jai compris, j'ai mis d'côté le Rachid Cest Les Histoires, et si jreviens cest pour casser la machine Toujours en scred, si-si, et un message précis Jai des clips sans piscine qui tournent jusquen Sicile On se fait ptit mais si, jvous laisse en haut jacter Chacun ses griffes, dans cmétier, tu en verras gratter Rapper tue, te rend têtu, joues-tu un rôle battu ? Plus jtécoute et jen peux plus en pleine période récup À l'aise elle t'éduque et vas-y lâche loreille Lève-toi et montre leurs comment travaille lélève Fais ta vie et mêle toi seulement de c'qui te regarde Tu tomberas mais yaura personne comme Spiderman Fin dmois difficile, problème invisible Paye une facture mais demain tu en as dix qui arrivent Cest la vie et cest ainsi, mais près des étincelles Toujours les pieds sur Terre même quand je monte sur scène Si tas un truc, va lfaire, naie pas peur de la perte Tfaçon ya rien à gagner vas-y fonce tu vas perdre ! Non ya pas dracket, ni vendeurs de lamelles On connaît tous un gars qui veut le casting de La haine Le parking a 3amar et les discours pareils Avoir un flingue cest vicieux, mais est-ce que tirer cest malin ? Ten sais rien, cque tu prônes na rien dun message Et les seules fois qutu progresses, cest quand tu tes téléchargé La barre est surchargée et toutes tes notes sont fausses Pendant qutu tinventes une vie uniquement sur Firefox De 1, j'fais un boucan, de 2 jte souhaite de rien perdre Le 3 jle fais tout ltemps mais jnai jamais tué quelquun À 4 parce que ça date, chaque histoire a sa raison Ouais, grâce au hip-hop jai pas fondé une maison Maitre de cérémonie, artisan à chaque saison Jai sorti trois albums pour mille et une liaisons Le groupe, cest les Grandes Gueules et pourtant on aime le silence Big up à Pone et à la planète MarsYou might also like</t>
+          <t>Un texte, pas dsouci, jsuis paré pour tenvoyer ça Chez moi cest d'venu lusine avec la paye du RSA Jai limpression daimer ça, jsuis loin dêtre difficile Jviens d'là où on grandit seul, viens faire un tour et tu visites Lambiance, quest-ce quelle est belle, la France ! Jai millions dvues, ces trous dballe croient qujai une vie dpalace Et vas-y nique ta race, car il fallait bien quje lsorte Des rimes fortes, tais-toi non, cnest pas la rage que jporte Prose virale, dune attitude pirate Hein, fais voir ma ZUP elle ne fait pas dmiracle Grave, cest lchantier mais sans briques, des discrets aux indic Inscrits au Pôle Emploi en attendant un ptit SMIC Tout lmonde devant son stick, rien de fantastique Tout lmonde devient tendu, une forme de gymnastique De lherbe dans lplastique, argumente leurs articles Ici, cest chacun ses règles, cest pas une forme mais l'arbitre Du béton au bétail, lodeur dla maille à cBeckham Du ghetto à Guetta, cherche à remplir le basstam On a tous une vie à faire, regarde et valide Ya mes gars sur le terrain mais pas au Real de Madrid Fuck lÉtat, son équipe, leur couper lappétit Un peu oui un sale mollard dans leurs spaghettis Fini djouer, jai compris, j'ai mis d'côté le Rachid Cest Les Histoires, et si jreviens cest pour casser la machine Toujours en scred, si-si, et un message précis Jai des clips sans piscine qui tournent jusquen Sicile On se fait ptit mais si, jvous laisse en haut jacter Chacun ses griffes, dans cmétier, tu en verras gratter Rapper tue, te rend têtu, joues-tu un rôle battu ? Plus jtécoute et jen peux plus en pleine période récup À l'aise elle t'éduque et vas-y lâche loreille Lève-toi et montre leurs comment travaille lélève Fais ta vie et mêle toi seulement de c'qui te regarde Tu tomberas mais yaura personne comme Spiderman Fin dmois difficile, problème invisible Paye une facture mais demain tu en as dix qui arrivent Cest la vie et cest ainsi, mais près des étincelles Toujours les pieds sur Terre même quand je monte sur scène Si tas un truc, va lfaire, naie pas peur de la perte Tfaçon ya rien à gagner vas-y fonce tu vas perdre ! Non ya pas dracket, ni vendeurs de lamelles On connaît tous un gars qui veut le casting de La haine Le parking a 3amar et les discours pareils Avoir un flingue cest vicieux, mais est-ce que tirer cest malin ? Ten sais rien, cque tu prônes na rien dun message Et les seules fois qutu progresses, cest quand tu tes téléchargé La barre est surchargée et toutes tes notes sont fausses Pendant qutu tinventes une vie uniquement sur Firefox De 1, j'fais un boucan, de 2 jte souhaite de rien perdre Le 3 jle fais tout ltemps mais jnai jamais tué quelquun À 4 parce que ça date, chaque histoire a sa raison Ouais, grâce au hip-hop jai pas fondé une maison Maitre de cérémonie, artisan à chaque saison Jai sorti trois albums pour mille et une liaisons Le groupe, cest les Grandes Gueules et pourtant on aime le silence Big up à Pone et à la planète Mars</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Un texte, pas dsouci, jsuis paré pour tenvoyer ça Chez moi cest d'venu lusine avec la paye du RSA Jai limpression daimer ça, jsuis loin dêtre difficile Jviens d'là où on grandit seul, viens faire un tour et tu visites Lambiance, quest-ce quelle est belle, la France ! Jai millions dvues, ces trous dballe croient qujai une vie dpalace Et vas-y nique ta race, car il fallait bien quje lsorte Des rimes fortes, tais-toi non, cnest pas la rage que jporte Prose virale, dune attitude pirate Hein, fais voir ma ZUP elle ne fait pas dmiracle Grave, cest lchantier mais sans briques, des discrets aux indic Inscrits au Pôle Emploi en attendant un ptit SMIC Tout lmonde devant son stick, rien de fantastique Tout lmonde devient tendu, une forme de gymnastique De lherbe dans lplastique, argumente leurs articles Ici, cest chacun ses règles, cest pas une forme mais l'arbitre Du béton au bétail, lodeur dla maille à cBeckham Du ghetto à Guetta, cherche à remplir le basstam On a tous une vie à faire, regarde et valide Ya mes gars sur le terrain mais pas au Real de Madrid Fuck lÉtat, son équipe, leur couper lappétit Un peu oui un sale mollard dans leurs spaghettis Fini djouer, jai compris, j'ai mis d'côté le Rachid Cest Les Histoires, et si jreviens cest pour casser la machine Toujours en scred, si-si, et un message précis Jai des clips sans piscine qui tournent jusquen Sicile On se fait ptit mais si, jvous laisse en haut jacter Chacun ses griffes, dans cmétier, tu en verras gratter Rapper tue, te rend têtu, joues-tu un rôle battu ? Plus jtécoute et jen peux plus en pleine période récup À l'aise elle t'éduque et vas-y lâche loreille Lève-toi et montre leurs comment travaille lélève Fais ta vie et mêle toi seulement de c'qui te regarde Tu tomberas mais yaura personne comme Spiderman Fin dmois difficile, problème invisible Paye une facture mais demain tu en as dix qui arrivent Cest la vie et cest ainsi, mais près des étincelles Toujours les pieds sur Terre même quand je monte sur scène Si tas un truc, va lfaire, naie pas peur de la perte Tfaçon ya rien à gagner vas-y fonce tu vas perdre ! Non ya pas dracket, ni vendeurs de lamelles On connaît tous un gars qui veut le casting de La haine Le parking a 3amar et les discours pareils Avoir un flingue cest vicieux, mais est-ce que tirer cest malin ? Ten sais rien, cque tu prônes na rien dun message Et les seules fois qutu progresses, cest quand tu tes téléchargé La barre est surchargée et toutes tes notes sont fausses Pendant qutu tinventes une vie uniquement sur Firefox De 1, j'fais un boucan, de 2 jte souhaite de rien perdre Le 3 jle fais tout ltemps mais jnai jamais tué quelquun À 4 parce que ça date, chaque histoire a sa raison Ouais, grâce au hip-hop jai pas fondé une maison Maitre de cérémonie, artisan à chaque saison Jai sorti trois albums pour mille et une liaisons Le groupe, cest les Grandes Gueules et pourtant on aime le silence Big up à Pone et à la planète MarsYou might also like</t>
+          <t>Un texte, pas dsouci, jsuis paré pour tenvoyer ça Chez moi cest d'venu lusine avec la paye du RSA Jai limpression daimer ça, jsuis loin dêtre difficile Jviens d'là où on grandit seul, viens faire un tour et tu visites Lambiance, quest-ce quelle est belle, la France ! Jai millions dvues, ces trous dballe croient qujai une vie dpalace Et vas-y nique ta race, car il fallait bien quje lsorte Des rimes fortes, tais-toi non, cnest pas la rage que jporte Prose virale, dune attitude pirate Hein, fais voir ma ZUP elle ne fait pas dmiracle Grave, cest lchantier mais sans briques, des discrets aux indic Inscrits au Pôle Emploi en attendant un ptit SMIC Tout lmonde devant son stick, rien de fantastique Tout lmonde devient tendu, une forme de gymnastique De lherbe dans lplastique, argumente leurs articles Ici, cest chacun ses règles, cest pas une forme mais l'arbitre Du béton au bétail, lodeur dla maille à cBeckham Du ghetto à Guetta, cherche à remplir le basstam On a tous une vie à faire, regarde et valide Ya mes gars sur le terrain mais pas au Real de Madrid Fuck lÉtat, son équipe, leur couper lappétit Un peu oui un sale mollard dans leurs spaghettis Fini djouer, jai compris, j'ai mis d'côté le Rachid Cest Les Histoires, et si jreviens cest pour casser la machine Toujours en scred, si-si, et un message précis Jai des clips sans piscine qui tournent jusquen Sicile On se fait ptit mais si, jvous laisse en haut jacter Chacun ses griffes, dans cmétier, tu en verras gratter Rapper tue, te rend têtu, joues-tu un rôle battu ? Plus jtécoute et jen peux plus en pleine période récup À l'aise elle t'éduque et vas-y lâche loreille Lève-toi et montre leurs comment travaille lélève Fais ta vie et mêle toi seulement de c'qui te regarde Tu tomberas mais yaura personne comme Spiderman Fin dmois difficile, problème invisible Paye une facture mais demain tu en as dix qui arrivent Cest la vie et cest ainsi, mais près des étincelles Toujours les pieds sur Terre même quand je monte sur scène Si tas un truc, va lfaire, naie pas peur de la perte Tfaçon ya rien à gagner vas-y fonce tu vas perdre ! Non ya pas dracket, ni vendeurs de lamelles On connaît tous un gars qui veut le casting de La haine Le parking a 3amar et les discours pareils Avoir un flingue cest vicieux, mais est-ce que tirer cest malin ? Ten sais rien, cque tu prônes na rien dun message Et les seules fois qutu progresses, cest quand tu tes téléchargé La barre est surchargée et toutes tes notes sont fausses Pendant qutu tinventes une vie uniquement sur Firefox De 1, j'fais un boucan, de 2 jte souhaite de rien perdre Le 3 jle fais tout ltemps mais jnai jamais tué quelquun À 4 parce que ça date, chaque histoire a sa raison Ouais, grâce au hip-hop jai pas fondé une maison Maitre de cérémonie, artisan à chaque saison Jai sorti trois albums pour mille et une liaisons Le groupe, cest les Grandes Gueules et pourtant on aime le silence Big up à Pone et à la planète Mars</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Rachid ... Couzin sortie d'Sete D'origine marocaine aussi un domaine armisète? Profession grande gueule un dossier bien classé Une pute normalement on s'doit d'la dédicasser Ecrasé on saute ça on veut tous viser le mille Vas y regarde ces gamines qui veulent devenir Lauryn Hill Bref je marche seul tel que Rémi sans famille Ai pris un chemin vide ou y'a même plus d'compagnie J'morganise normal , seul ou accompagné En essayant d'rester lucide comme jordan sous l'panier On s'en fou d'gagner on l'souligne trou d'balle Le bon taff est mérité comme la paye a Drogba Les etapes se grillent pas , les raps rigolent pas Et les règles sont simple rien n'est servi sur un plat Ok , en premier plan ma gueule de l'emploi Et si personne est content ramené vous à trois Le rap est si important et produit des pop stars Tes lyrics racontent rien et ton faux style de Busta..Rhymes Pourquoi tu rales et rêve des U.S.A Leur nuit américaine subventionne Al-Quaida Tu paris gars de quoi on a capté l'imbecile Les Etats Unis charie et nous salut sur NBC Sale récit et beaucoup cherchent le boul à Stevie Quand trop se contentent d'un clip sur Trace TV Tu m'as suivi tu comprend à force de tourner en rond Les portes ouvertes aux blanc et fermées pour les marrons Eh ouais ouais les grandes gueules , et joue trop les fanfarons Continuer d'parler mariole j'te vois qu'deux fois par an Le rap à rien d'marrant y'a pas d'mec mortel Remballer le champagne et vos produits dans l'cocktail 2007 rien d'plus à part que la route est longue Ouais j'vis comme l'animal et m'confie a un zoologue Parfois trop monologue mefiant depuis petit Attention a ton shrab et même si il est gentil Fermé et souriant j'ai vu trop des positions Y'a trop d'mecs qui s'plaignent de s'voir en pôle position Vas y change ta potion j'crois bien qu'elle agit mal Arrete de taper la cc faire semblant dans le gymnase T'as vu l'image? Regarde va bloquer ton miroir Tu serais aussi dégouté qu'tu sortiras en peignoir Ok , Vas y pénard si t'aime pas les grandes gueules Allergique à ma couleur et qui n'aime pas les rappeurs Et si on en revenait , et si on leur apprenait On a prit l'bic normalement sans vouloir être premier Matte la rime ou je la met , très bien abritée On dira qu'ont aiment le noir et s'fou d'la célébrité Maitre de céremonie y'a qu'ça qui m'fascine Enlève tes Tony où tu rêves de t'mélanger à MesrineYou might also like1</t>
+          <t>Rachid ... Couzin sortie d'Sete D'origine marocaine aussi un domaine armisète? Profession grande gueule un dossier bien classé Une pute normalement on s'doit d'la dédicasser Ecrasé on saute ça on veut tous viser le mille Vas y regarde ces gamines qui veulent devenir Lauryn Hill Bref je marche seul tel que Rémi sans famille Ai pris un chemin vide ou y'a même plus d'compagnie J'morganise normal , seul ou accompagné En essayant d'rester lucide comme jordan sous l'panier On s'en fou d'gagner on l'souligne trou d'balle Le bon taff est mérité comme la paye a Drogba Les etapes se grillent pas , les raps rigolent pas Et les règles sont simple rien n'est servi sur un plat Ok , en premier plan ma gueule de l'emploi Et si personne est content ramené vous à trois Le rap est si important et produit des pop stars Tes lyrics racontent rien et ton faux style de Busta..Rhymes Pourquoi tu rales et rêve des U.S.A Leur nuit américaine subventionne Al-Quaida Tu paris gars de quoi on a capté l'imbecile Les Etats Unis charie et nous salut sur NBC Sale récit et beaucoup cherchent le boul à Stevie Quand trop se contentent d'un clip sur Trace TV Tu m'as suivi tu comprend à force de tourner en rond Les portes ouvertes aux blanc et fermées pour les marrons Eh ouais ouais les grandes gueules , et joue trop les fanfarons Continuer d'parler mariole j'te vois qu'deux fois par an Le rap à rien d'marrant y'a pas d'mec mortel Remballer le champagne et vos produits dans l'cocktail 2007 rien d'plus à part que la route est longue Ouais j'vis comme l'animal et m'confie a un zoologue Parfois trop monologue mefiant depuis petit Attention a ton shrab et même si il est gentil Fermé et souriant j'ai vu trop des positions Y'a trop d'mecs qui s'plaignent de s'voir en pôle position Vas y change ta potion j'crois bien qu'elle agit mal Arrete de taper la cc faire semblant dans le gymnase T'as vu l'image? Regarde va bloquer ton miroir Tu serais aussi dégouté qu'tu sortiras en peignoir Ok , Vas y pénard si t'aime pas les grandes gueules Allergique à ma couleur et qui n'aime pas les rappeurs Et si on en revenait , et si on leur apprenait On a prit l'bic normalement sans vouloir être premier Matte la rime ou je la met , très bien abritée On dira qu'ont aiment le noir et s'fou d'la célébrité Maitre de céremonie y'a qu'ça qui m'fascine Enlève tes Tony où tu rêves de t'mélanger à Mesrine1</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Freestyle numéro 5 Quest-ce quon sen tape ? Exact, quest-ce quon sen tape ? En ce moment, check le style Un remix bien de taille paré pour un freestyle Yo, cest quoi ce délire ? Yeah, toujours bien suivre entre mes lignes Dragon, nouvelle série, épisode encore inédit On est de sortie, quest-ce que ten dis ? Reste tranquille Ok, écoute ça, cest partit Quon oublie tout ici la terre, parait quon vise la lune Ma plume, elle va te faire planer avec ou sans thunes Un bic, ça sert, pas pour tes chèques ou ta signature Jhabite à Sète, demande à Fabe, cest pas New-York non plus Javance tranquille, comme être assis sur le dos dune tortue On sy fait aux histoires sans queues ni têtes Nos frères nont plus dchicots, deviennent des pirates comme Johnny Depp Compte la thune au millimètre, ça rapporte bien la semaine Ils nont pas peur de leur mère, seulement du bruit des sirènes Ma zique, jcompte sur elle, tes prié de partir avec Jai dépassé 30 level et jai pas changé de manette You might also like Écartez-moi tous ces reporters Jai pas la magie dHarry Potter Deux, le mental dHurricane Carter Trois, cest pour mes babtous et mes berbères Non mais quoi ? Cest quoi ce délire ? Chut, cest pour tous mes zonards de BX Aux frérots qui gèrent leur boutique Stop, cest juste un ptit remix, on sapplique Bic Up, Demi Portion Cest pour Stoemp, DéparOne, GiveMe5 Bruxelles, Sète</t>
+          <t>Freestyle numéro 5 Quest-ce quon sen tape ? Exact, quest-ce quon sen tape ? En ce moment, check le style Un remix bien de taille paré pour un freestyle Yo, cest quoi ce délire ? Yeah, toujours bien suivre entre mes lignes Dragon, nouvelle série, épisode encore inédit On est de sortie, quest-ce que ten dis ? Reste tranquille Ok, écoute ça, cest partit Quon oublie tout ici la terre, parait quon vise la lune Ma plume, elle va te faire planer avec ou sans thunes Un bic, ça sert, pas pour tes chèques ou ta signature Jhabite à Sète, demande à Fabe, cest pas New-York non plus Javance tranquille, comme être assis sur le dos dune tortue On sy fait aux histoires sans queues ni têtes Nos frères nont plus dchicots, deviennent des pirates comme Johnny Depp Compte la thune au millimètre, ça rapporte bien la semaine Ils nont pas peur de leur mère, seulement du bruit des sirènes Ma zique, jcompte sur elle, tes prié de partir avec Jai dépassé 30 level et jai pas changé de manette Écartez-moi tous ces reporters Jai pas la magie dHarry Potter Deux, le mental dHurricane Carter Trois, cest pour mes babtous et mes berbères Non mais quoi ? Cest quoi ce délire ? Chut, cest pour tous mes zonards de BX Aux frérots qui gèrent leur boutique Stop, cest juste un ptit remix, on sapplique Bic Up, Demi Portion Cest pour Stoemp, DéparOne, GiveMe5 Bruxelles, Sète</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Et cours, cours, j'irai d'la même allure en marchant C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant Demi débite, phénoménal, transformation de l'animal Laisse deux minutes, polyvalent, poli d'abord, demi galant Oh le gars là, oh les dégâts, écartez les gars, descendre de l'étage Et mettez des gants, et virez les 'tasses, et mettez du son, et ouvrez la cage T'as tué qui ? Personne j'me téléguide seul, garçon Petit bonhomme, vu l'blason chaque recette est fait maison Aucune raison, d'accord un Reason et un sandwich En bas de l'affiche, en bas de la fosse, on fait du rap et on s'en fiche Tu veux des rimes ? On a c'qu'il faut en grammes, on a l'kilo On coupe, découpe, grosses taffes, esclaffe, tout part du bon pilon J'arrive en balle dans l'continent à t'faire voler en sous-marin Pas besoin d'poli, juste un sample pour voir tout l'monde les mains en l'air On s'dépasse pas, reste à terre, reste tranquille, c'est l'bordel Entre parenthèses, un peu d'sem, chaque mesure devient mortelle Vas-y, venez voir et vous verrez, on travaille les jours fériés Chez nous, auteur-compositeur, j'attire les fans d'Léo Ferré You might also like C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant Demi Portion tape un p'tit passe-passe sur la touche mais vise la surface L'effet de surprise, big up à pour rester sur pause, une vida loca Cherche loccas, un peu d'audace, de faire des bêtises, on a passé lâge On sen fiche, un jour, tout sefface oui, cest Rachid, fais voir ton visage Oui, cest facile de parler trop mal non, cest rapide de faire des dommages Atterris, t'as niqué des collages pas d'coloriage, ne me colle pas de biatch Rien à lamiable, mate c'que je lâche j'me sers de ma bouche comme une arme Où j'me couche, toi, tu t'caches centre de menaces, j'toublie grave Oui, j'vis ça, loin des strasses pourquoi tu stresses ? Faut qu'tu saches Manque pas dadresse à chaque message oui, les mots blessent, mais qui est sage ? Na3din amouk, un coup d'schlass rentrer dans l'moule ça, faut pas Tout est fragile, y'a tout qui s'casse qui fait la tête, et qui sécrase Sorti de Sète, Lion d'lAtlas pas d'compét, jai pas l'temps pour ça La grosse tête te gâchait la face, eh oui, ça magace, c'est pas trop ma tasse Pendant qu'tu parles et bousilles le taf... C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant1</t>
+          <t>C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Et cours, cours, j'irai d'la même allure en marchant C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant Demi débite, phénoménal, transformation de l'animal Laisse deux minutes, polyvalent, poli d'abord, demi galant Oh le gars là, oh les dégâts, écartez les gars, descendre de l'étage Et mettez des gants, et virez les 'tasses, et mettez du son, et ouvrez la cage T'as tué qui ? Personne j'me téléguide seul, garçon Petit bonhomme, vu l'blason chaque recette est fait maison Aucune raison, d'accord un Reason et un sandwich En bas de l'affiche, en bas de la fosse, on fait du rap et on s'en fiche Tu veux des rimes ? On a c'qu'il faut en grammes, on a l'kilo On coupe, découpe, grosses taffes, esclaffe, tout part du bon pilon J'arrive en balle dans l'continent à t'faire voler en sous-marin Pas besoin d'poli, juste un sample pour voir tout l'monde les mains en l'air On s'dépasse pas, reste à terre, reste tranquille, c'est l'bordel Entre parenthèses, un peu d'sem, chaque mesure devient mortelle Vas-y, venez voir et vous verrez, on travaille les jours fériés Chez nous, auteur-compositeur, j'attire les fans d'Léo Ferré C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant Demi Portion tape un p'tit passe-passe sur la touche mais vise la surface L'effet de surprise, big up à pour rester sur pause, une vida loca Cherche loccas, un peu d'audace, de faire des bêtises, on a passé lâge On sen fiche, un jour, tout sefface oui, cest Rachid, fais voir ton visage Oui, cest facile de parler trop mal non, cest rapide de faire des dommages Atterris, t'as niqué des collages pas d'coloriage, ne me colle pas de biatch Rien à lamiable, mate c'que je lâche j'me sers de ma bouche comme une arme Où j'me couche, toi, tu t'caches centre de menaces, j'toublie grave Oui, j'vis ça, loin des strasses pourquoi tu stresses ? Faut qu'tu saches Manque pas dadresse à chaque message oui, les mots blessent, mais qui est sage ? Na3din amouk, un coup d'schlass rentrer dans l'moule ça, faut pas Tout est fragile, y'a tout qui s'casse qui fait la tête, et qui sécrase Sorti de Sète, Lion d'lAtlas pas d'compét, jai pas l'temps pour ça La grosse tête te gâchait la face, eh oui, ça magace, c'est pas trop ma tasse Pendant qu'tu parles et bousilles le taf... C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant1</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Tu reconnais l'instru' ? D, parce que demain c'est loin et qu'Demi arrive à temps Dédicace à Shurik'n et son instru d'il y a 20 ans 20 ans aujourd'hui passé, fini l'époque de Passi Maintenant c'est XXX ou bien la drogue du Brasil Brasil, blazé les petits veulent la classe et Préfèrent vendre de la drogue, fourrer son nez dans la C À les mêmes enfin toujours les mêmes, les mêmes Qui parlent des mêmes pistonnés par les mêmes Leurs Maires et leurs murs on les voit qu'aux élections Et la nouvelle promesse sera une nouvelle décollation Jeffrey ici ça chauffe à te faire cramer les glaçons Et j'connais pleins d'enfants qui n'ont jamais vu une attraction Le système corrompu, lexcrément mieux vendu Nan il n'y a pas qu'sur papier qu'on a vu des corps pendus Pendule, la pendule et les aiguilles sont perdues Même en changeant les piles du temps on s'en rappelle plus Rappelle plus rappais tu comme les photos sur le paquet Fume avant qu'la vie ne te fume et termine pas éclaté À claquer ta grosse thune, frérot tout ça ne dure pas Arrête t'es pas dans le futur t'es tout simplement en retard Hors taxe bâtard combien cherchèrent Combien ne savent pas nager ont plongé dans la Le bédo les pétards oui chez toi c'est chez moi On apprend à ne plus dormir comme l'épicier d'un Chinois combien rêvent de cette vie là Zoné en ville on vola on cambriolais la villa Posé sur le net rien d'autre à faire, lache un commentaire On cherche le profil qui fera l'affaire À la fin c'est l'enfer, au début ça rend fier Quand une famille se sépare c'est pas tout les jours la fête Billave, décès jusqu'à relâcher l'volant Les risques les excès un casier d'ex taulard On tolère, le temps passe demande à Mc Solaar L'art a tellement changé depuis la Macarena Aux armes j'tire l'alarme dans les clips il y en a d'jà trop Les bandits ne rappent pas frère, eux ils achètent des tableauxYou might also like</t>
+          <t>Tu reconnais l'instru' ? D, parce que demain c'est loin et qu'Demi arrive à temps Dédicace à Shurik'n et son instru d'il y a 20 ans 20 ans aujourd'hui passé, fini l'époque de Passi Maintenant c'est XXX ou bien la drogue du Brasil Brasil, blazé les petits veulent la classe et Préfèrent vendre de la drogue, fourrer son nez dans la C À les mêmes enfin toujours les mêmes, les mêmes Qui parlent des mêmes pistonnés par les mêmes Leurs Maires et leurs murs on les voit qu'aux élections Et la nouvelle promesse sera une nouvelle décollation Jeffrey ici ça chauffe à te faire cramer les glaçons Et j'connais pleins d'enfants qui n'ont jamais vu une attraction Le système corrompu, lexcrément mieux vendu Nan il n'y a pas qu'sur papier qu'on a vu des corps pendus Pendule, la pendule et les aiguilles sont perdues Même en changeant les piles du temps on s'en rappelle plus Rappelle plus rappais tu comme les photos sur le paquet Fume avant qu'la vie ne te fume et termine pas éclaté À claquer ta grosse thune, frérot tout ça ne dure pas Arrête t'es pas dans le futur t'es tout simplement en retard Hors taxe bâtard combien cherchèrent Combien ne savent pas nager ont plongé dans la Le bédo les pétards oui chez toi c'est chez moi On apprend à ne plus dormir comme l'épicier d'un Chinois combien rêvent de cette vie là Zoné en ville on vola on cambriolais la villa Posé sur le net rien d'autre à faire, lache un commentaire On cherche le profil qui fera l'affaire À la fin c'est l'enfer, au début ça rend fier Quand une famille se sépare c'est pas tout les jours la fête Billave, décès jusqu'à relâcher l'volant Les risques les excès un casier d'ex taulard On tolère, le temps passe demande à Mc Solaar L'art a tellement changé depuis la Macarena Aux armes j'tire l'alarme dans les clips il y en a d'jà trop Les bandits ne rappent pas frère, eux ils achètent des tableaux</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>C'est dans la merde que mes gars nagent V'là une équipe qui rappe en décalage Une prod et c'est l'carnage Sur le beat c'est D.A.V.O.D.K.A Marre du rap actuel, à la première écoute c'est la barbe Leurs discours sont rasoirs, nous, quand on débarque tout est au poil Quand ça fait mal, me demande pas qu'est-ce qui m'arrive Les seuls fois où ça gaze dans mon quartier, c'est quand y a des manifs Dans l'ombre s'agite, y a rien de magique, la haine de ma clique Est symptomatique, on revendique la force de nos Bic Y a pas de comics, des phases toniques quand la rage domine J't'l'accorde, à bas les porcs, c'est la devise Paris 18, frappe fort, casse les portes, éclate le beat J'aime les risques, car dans ma vie C'est pas la peine et surtout pas la joie J'fais de la rime rapide qui dépasse les frontières Et qui casse les barrages de la douane Fidèle à moi, j'file pas droit Combine le texte, le flow et la voix J'mets là, la gouache, fais gaffe à toi J'nique les lois d'une justice à la noix Faire d'la prison, c'est beau ! mais la plupart s'sont trompés d'voie Faire la taule, c'est la tuile, mais y a pas d'quoi le crier sur tous les toits J'entame la vibe, savate la bass Nous gonfle pas on te monte en l'air Normal mes phases te crachent du plomb dans l'tronc et non dans l'aile Si j'parle que d'mon chibre C'est qu'c'est mon atout schneck T'inquiète cousine tu vas prendre cher Tout comme la Schtroumphette Hé j'suis pas le roi Heenok yo Mais t'entends j'plie la prod Ça s'passe sans gants si j't'ammoche Tu finis sans dents si tapproches J'suis d'ceux qui font qu's'enjailler Et bafouer les études Ton rap est un torrent de diarrhée Alors arrête de jouer les durs J'emmerde ta clique si tu fais trop le frimeur mes gars te terminent et ouais Trop déter' tel un chauffeur-livreur d'chez Star's Service Yo, je kick trop sale le beat j'le mac Mes rimes te baffent te fistera T'hérissent le poil Évite de clash j'debite trop grave flow pictogramme Allez remballe, j'suis plus crédible, que ta Master Card Mes phases catapultent comme la première latte d'un kamas de frappe T'as beau chafrav' ton rap Restera à vie zinda Cousin moi j'aime pas le foot, pourtant j'ai un zizi dâne You might also like Hé ouais ma ville je la connais par cur Comme les parquets de la drogue Et j'ai de quoi l'haïr et de quoi en être accro La vie est faite de choix J'ai marié le fond et la forme Et ma prose relate mon parcours à coup de métaphores hip-hop J'me vois mal sombrer dans la monotonie J'ai mes propres limites et j'me fous bien d'ce que le code m'autorise Quand je pilote ma Toyota aux cotés d'mon pote Oli Un prototype au micro de ma commune cosmopolite J'ai vu la cour des miracles synonyme de zone à risque L'amour propre salit comme de faire sa maille Les femmes trop naïves feront le bonheur des hommes de la nuit Ou de la famille Mc Do qui nous escroque de père en fils L'époque des drogues douces est dure Et des dealers en masse Pour un tox' de perdu y en a dix qui le remplacent Tu peux leur donner tout ce que t'aime mais ne crois pas qu'on te le rendra Pour ma part je grave mon blase sur les gravats de mes rents-pa Il fallait qu'on partage ce titre, un peu comme nos meilleurs plats Un honneur d'avoir ces types, de donner la force aux petits gars Une chaise pour deux, rassis-toi, le voyage risque d'être long Fais comme chez toi j'te rassure, y'a tout c'qu'il faut dans l'salon J'ai commencé par passion, sans vouloir prendre l'ascenseur Apprendre mes leçons chaque soir, un peu comme un enfant seul Mes rimes sont mes défenseurs, mon art mon professeur Si aujourd'hui on s'en sort c'est p't-être grâce aux prédécesseurs Demi Portion c'est mon blaze t'as vu c'est déjà partagé Donner, toujours donner, c'est un peu c'qu'on a envisagé Copier, toujours coller, ça buggue toujours à c'qu'il paraît Moi j'ai préféré durer que prendre le mauvais train sans arrêt Ici on en a marre les femmes et les maris se plaignent Imagine Ben-Laden face à Marine Le Pen Chez nous c'est trop la zone ça sent la floraison Ils préfèrent quand je suis rasé M'suggèrent le chorizo Oh j'm'exprime, à l'écrit à l'oral, j'fais face au rap Pour être un dissident j'attendrai pas Soral Oh fais place aux khey On s'en cogne des vieux paumés Ça fait long time qu'on nous boycotte comme Dieudonné Hé, joue pas l'étonné Nan, dis pas qu't'as pas vu ça Détournement de fonds fondé par Cahuzac Y a pas que la rue qui craque Regarde Jean Luc Delarue Hé oui, qui aurait cru Y a pas que les qui tapent ! Au... au volant de ma vie j'm'en fout d'c'que dit Hollande Ici c'est violent quand on entend sa virologue La trilogique, loin d'être illogique Hé j'suis là et j'bougerai pas J'ai pas gé-chan depuis l'départ J'viens pas te ter-chant, m'confondez pas J'suis pas méchant mais bon j'sais pas Les condés parlent, le monde est barge Le bide reste vide comme le compte épargne Et comptez pas sur moi pour dire d'la merde La vie de ma mère J'rappe pas pour faire le deuil Mon père est dead J'ai toujours pas fais le deuil J'sais pas c'qui m'arrive, j'ai pété les plombs J'voulais être carré comme Bob mais j'ai jeté l'éponge Trop d'questions et peu de réponses Trop d'pression, mes ondes dérangent Les gens te kiffent quand ça les arrange J'écris avec la rage et j'm'en fout si ça te dérange j'm'en fout si ça te dérange La trilogique, 7-5, tournez, frère Plus près de la mort que de la trentaine Une soirée de plus passée sur ma feuille à refaire le monde Et merde, j'aurai tout le temps d'le faire dans mon cercueil J'suis pas une star, t'façons j'ai même pas des loves Y a des cs-me qui t'plantent dans le dos et en face te demandent des tofs Mais le monde étouffe et ça d'vient trop grave Dès la première faut que je rétrograde J'emmerde les péteux les aristocrates Moi j'veux rapper, rapper, rapper encore On va tout faire péter, comme les mafieux en Corse Disiz, à trop entendre parler de tournées au tout début On était rien mais les p'tits jeunes vous ont choqué Non non c'est pas d'la prétention J'remets les choses à leur place Comme Yousseph j'emmerde tout ceux qui disaient qu'on avait pas l'âge et Dieu sait que c'était pas facile Entre la tise et les cônes On a du se serrer les coudes pour pas sombrer dans l'vice J'les entends se plaindre, de leur vie pourtant simple Génération XX, pas b'soin d'faire un dessin Mais il est temps d'te poser gamin Car les lovés ça pue Si j'arrive à faire que d'la merde même avec de l'or dans les mains J'les vois tous faire du rap, ça d'vient un effet d'mode Moi j'ai pas attendu Gradur pour porter mon Bob On est bel et bien là Toujours à squatter dans les bons plans J'laisse que des cadavres Après mon passage y a plus de bon temps Tu connais pas le F bon sang Toujours conscient quand je me concentre Depuis qu'les watts me sucent la... J'ai la bite en sang J'les laisse en transe, enclenche le beat J'veux même pas que les gens dansent J'veux même pas les entendre En fait j'suis comme un canon sur leur tempe 1-4 on est là ou pas ? J'veux faire du cash comme à Dubaï Donc faire du rap en guise de bra-bra-bra Tu connais l'équipe donc vaut mieux rester poli fils La police vise nos têtes Même sans brolic on reste incorrigibles Plus rien n'm'étonne depuis qu'y a même des pédés dans la politique Trop on nous a promis l'fric Donc tends l'oreille que j'te fasse un aurifique Le genre de type que personne nhorrifie Perso j'reste official J'suis fiché depuis p'tit On est là ou pas ? Tu connais l'Or du Commun, tu connais Roméo Elvis Qu'est-ce qui t'a fait dire qu'on était différent des autres MCs ? Qui t'a dit qu'on était pas tes copains ? On aime le monde entier à part les drogués prétentieux Et les connards de provinces En fait, les drogués tout court mais ça ne rimait pas Les artistes se salissent, se trouvent cools et parfois trop bien Écoute mes cools musiques et mes douces paroles Un jour de blues planqué dans de ta ville Les vrais reconnaissent l'addiction J'ai passé tout l'hiver enfermé dans une prison logée dans ma tête Pour faire germer des textes et des thèmes intéressants Mais je déteste rester zen trop longtemps Il est vrai que Vis-El est un bosse tard, à défaut d'être gracié Il amasse quelques dollars mais va repartir à pied Comme la plupart de ses potes students Un peu de sous mais pas le job du siècle Ni de quoi se propulser Il est dit qu'on doit se faire des copains Voudrais-tu être mon copain ? Aucun ennemi dans le game mais j'ai pas que des copains Y a des suceurs comme diraient les grossiers merles Et des dossiers traînent et ça forme des rumeurs Moi je veux le pulpeux, le minéral Une vie sans pubs, des études présidentielles Sans payer le minerval Gratter des rimes et les rapper voilà c'qui m'a sauvé d'la solitude J'suis au volant d'ma vie, faut pas que j'dérape et que la folie m'tue J'veux pas qu'mon père s'énerve alors dites-lui qu'l'amour des mots Me pousse à la fois à parler d'mon malheur et d'celui des autres Ça m'démange, trop d'ordures veulent m'brûler les ailes Ça m'dérange, frère, l'argent veut briser mes rêves Et il est là l'problème on rêve de vivre de belles histoires Mais la colombe s'est faite plumer un vendredi soir Alors j'suis là, à rêvasser, la tête dans les étoiles Seul sur ma planète, j'entends ma tête me dire Ressaisis-toi ! Car j'ai pas l'droit d'baisser les bras et d'perdre le nord Alors je prie, quand j'vois toute la merde qui erre dehors Allez leur dire, j'ai d'l'ambition à revendre Mais j'suis qu'un fou qui rappe en douze syllabes tout c'qu'il a dans l'ventre C'est bien plus qu'un rêve de gosse et, ça, les vrais l'savent L'écriture avant l'rap et l'kiff avant l'message On envoie l'flow vodka-redbull, la plume en main on n'm'arrête plus T'as voulu salir ma réput mais j'rappais déjà à l'arrêt d'bus J'ai fais mon trou tout seul en scred et maintenant j'suis là qu'est-ce t'as mec ? J'lâche des phases en espagnol j'suis pas venu faire des castagnettes Leurs discours ça casse la tête, ouais cousin chacun sa perte Ils disent tous qu'on est soudé mais finalement chacun sa merde Mon seul passe temps c'est d'gratter les pages, bloqué en bas j'ai râté l'étage Oreille et les phases, t'as capté l'image, faites attention à l'atterrissage Un monde de barges ! Et pourtant moi j'ai des tonnes d'idées J'expose ma boîte à musique pour tout mon comité C'est pas fini XXX après minuit Pire qu'un zombie j'lâche mes récits A mes XXX c'est pas permis Tout l'monde s'en fou ça pense qu'à baise des tass Et ça s'trahit entre frères pour quelques pesetas Melfiano le ciel des zéros dans ma plume J'débarque ni vu ni connu et puis j'disparais dans la brume Quand j'arrive à raviver mes rêves, je revois Nos rires avant qu'on vire vers un ravin D'où peu revinrent, on a viré de bord D'abord de bar en bar et de barrettes en barrettes Tous parés pour être des barons, on s'bagarre pour un regard, une Marlboro C'est aberrant, si t'as l'bon rôle, c'est toi l'baron Il faut être cérébral ou nombreux Si t'as que tes bras, là, t'es mal barré On frime mais, quand les coups pleuvent, on va sabriter De la déprime dans notre état d'ébriété Tes yeux brillent et tu brûles un autre bout marron Mer-fu, c'est bien marrant mais fais gaffe à l'effet boomerang Rouiller en bas me rend gue-din', me rend dingue Rien que d'en parler, mon rap s'déglingue La rue, c'est pas qu'des strings, des gring, des glings des... J'en perds mon latin Toi même tu sais, on n'est pas là pour baratiner Pourquoi tu baragouines ? Tu fais plus de bordel pour rien que d'orgies dans un bar à gouines1</t>
+          <t>C'est dans la merde que mes gars nagent V'là une équipe qui rappe en décalage Une prod et c'est l'carnage Sur le beat c'est D.A.V.O.D.K.A Marre du rap actuel, à la première écoute c'est la barbe Leurs discours sont rasoirs, nous, quand on débarque tout est au poil Quand ça fait mal, me demande pas qu'est-ce qui m'arrive Les seuls fois où ça gaze dans mon quartier, c'est quand y a des manifs Dans l'ombre s'agite, y a rien de magique, la haine de ma clique Est symptomatique, on revendique la force de nos Bic Y a pas de comics, des phases toniques quand la rage domine J't'l'accorde, à bas les porcs, c'est la devise Paris 18, frappe fort, casse les portes, éclate le beat J'aime les risques, car dans ma vie C'est pas la peine et surtout pas la joie J'fais de la rime rapide qui dépasse les frontières Et qui casse les barrages de la douane Fidèle à moi, j'file pas droit Combine le texte, le flow et la voix J'mets là, la gouache, fais gaffe à toi J'nique les lois d'une justice à la noix Faire d'la prison, c'est beau ! mais la plupart s'sont trompés d'voie Faire la taule, c'est la tuile, mais y a pas d'quoi le crier sur tous les toits J'entame la vibe, savate la bass Nous gonfle pas on te monte en l'air Normal mes phases te crachent du plomb dans l'tronc et non dans l'aile Si j'parle que d'mon chibre C'est qu'c'est mon atout schneck T'inquiète cousine tu vas prendre cher Tout comme la Schtroumphette Hé j'suis pas le roi Heenok yo Mais t'entends j'plie la prod Ça s'passe sans gants si j't'ammoche Tu finis sans dents si tapproches J'suis d'ceux qui font qu's'enjailler Et bafouer les études Ton rap est un torrent de diarrhée Alors arrête de jouer les durs J'emmerde ta clique si tu fais trop le frimeur mes gars te terminent et ouais Trop déter' tel un chauffeur-livreur d'chez Star's Service Yo, je kick trop sale le beat j'le mac Mes rimes te baffent te fistera T'hérissent le poil Évite de clash j'debite trop grave flow pictogramme Allez remballe, j'suis plus crédible, que ta Master Card Mes phases catapultent comme la première latte d'un kamas de frappe T'as beau chafrav' ton rap Restera à vie zinda Cousin moi j'aime pas le foot, pourtant j'ai un zizi dâne Hé ouais ma ville je la connais par cur Comme les parquets de la drogue Et j'ai de quoi l'haïr et de quoi en être accro La vie est faite de choix J'ai marié le fond et la forme Et ma prose relate mon parcours à coup de métaphores hip-hop J'me vois mal sombrer dans la monotonie J'ai mes propres limites et j'me fous bien d'ce que le code m'autorise Quand je pilote ma Toyota aux cotés d'mon pote Oli Un prototype au micro de ma commune cosmopolite J'ai vu la cour des miracles synonyme de zone à risque L'amour propre salit comme de faire sa maille Les femmes trop naïves feront le bonheur des hommes de la nuit Ou de la famille Mc Do qui nous escroque de père en fils L'époque des drogues douces est dure Et des dealers en masse Pour un tox' de perdu y en a dix qui le remplacent Tu peux leur donner tout ce que t'aime mais ne crois pas qu'on te le rendra Pour ma part je grave mon blase sur les gravats de mes rents-pa Il fallait qu'on partage ce titre, un peu comme nos meilleurs plats Un honneur d'avoir ces types, de donner la force aux petits gars Une chaise pour deux, rassis-toi, le voyage risque d'être long Fais comme chez toi j'te rassure, y'a tout c'qu'il faut dans l'salon J'ai commencé par passion, sans vouloir prendre l'ascenseur Apprendre mes leçons chaque soir, un peu comme un enfant seul Mes rimes sont mes défenseurs, mon art mon professeur Si aujourd'hui on s'en sort c'est p't-être grâce aux prédécesseurs Demi Portion c'est mon blaze t'as vu c'est déjà partagé Donner, toujours donner, c'est un peu c'qu'on a envisagé Copier, toujours coller, ça buggue toujours à c'qu'il paraît Moi j'ai préféré durer que prendre le mauvais train sans arrêt Ici on en a marre les femmes et les maris se plaignent Imagine Ben-Laden face à Marine Le Pen Chez nous c'est trop la zone ça sent la floraison Ils préfèrent quand je suis rasé M'suggèrent le chorizo Oh j'm'exprime, à l'écrit à l'oral, j'fais face au rap Pour être un dissident j'attendrai pas Soral Oh fais place aux khey On s'en cogne des vieux paumés Ça fait long time qu'on nous boycotte comme Dieudonné Hé, joue pas l'étonné Nan, dis pas qu't'as pas vu ça Détournement de fonds fondé par Cahuzac Y a pas que la rue qui craque Regarde Jean Luc Delarue Hé oui, qui aurait cru Y a pas que les qui tapent ! Au... au volant de ma vie j'm'en fout d'c'que dit Hollande Ici c'est violent quand on entend sa virologue La trilogique, loin d'être illogique Hé j'suis là et j'bougerai pas J'ai pas gé-chan depuis l'départ J'viens pas te ter-chant, m'confondez pas J'suis pas méchant mais bon j'sais pas Les condés parlent, le monde est barge Le bide reste vide comme le compte épargne Et comptez pas sur moi pour dire d'la merde La vie de ma mère J'rappe pas pour faire le deuil Mon père est dead J'ai toujours pas fais le deuil J'sais pas c'qui m'arrive, j'ai pété les plombs J'voulais être carré comme Bob mais j'ai jeté l'éponge Trop d'questions et peu de réponses Trop d'pression, mes ondes dérangent Les gens te kiffent quand ça les arrange J'écris avec la rage et j'm'en fout si ça te dérange j'm'en fout si ça te dérange La trilogique, 7-5, tournez, frère Plus près de la mort que de la trentaine Une soirée de plus passée sur ma feuille à refaire le monde Et merde, j'aurai tout le temps d'le faire dans mon cercueil J'suis pas une star, t'façons j'ai même pas des loves Y a des cs-me qui t'plantent dans le dos et en face te demandent des tofs Mais le monde étouffe et ça d'vient trop grave Dès la première faut que je rétrograde J'emmerde les péteux les aristocrates Moi j'veux rapper, rapper, rapper encore On va tout faire péter, comme les mafieux en Corse Disiz, à trop entendre parler de tournées au tout début On était rien mais les p'tits jeunes vous ont choqué Non non c'est pas d'la prétention J'remets les choses à leur place Comme Yousseph j'emmerde tout ceux qui disaient qu'on avait pas l'âge et Dieu sait que c'était pas facile Entre la tise et les cônes On a du se serrer les coudes pour pas sombrer dans l'vice J'les entends se plaindre, de leur vie pourtant simple Génération XX, pas b'soin d'faire un dessin Mais il est temps d'te poser gamin Car les lovés ça pue Si j'arrive à faire que d'la merde même avec de l'or dans les mains J'les vois tous faire du rap, ça d'vient un effet d'mode Moi j'ai pas attendu Gradur pour porter mon Bob On est bel et bien là Toujours à squatter dans les bons plans J'laisse que des cadavres Après mon passage y a plus de bon temps Tu connais pas le F bon sang Toujours conscient quand je me concentre Depuis qu'les watts me sucent la... J'ai la bite en sang J'les laisse en transe, enclenche le beat J'veux même pas que les gens dansent J'veux même pas les entendre En fait j'suis comme un canon sur leur tempe 1-4 on est là ou pas ? J'veux faire du cash comme à Dubaï Donc faire du rap en guise de bra-bra-bra Tu connais l'équipe donc vaut mieux rester poli fils La police vise nos têtes Même sans brolic on reste incorrigibles Plus rien n'm'étonne depuis qu'y a même des pédés dans la politique Trop on nous a promis l'fric Donc tends l'oreille que j'te fasse un aurifique Le genre de type que personne nhorrifie Perso j'reste official J'suis fiché depuis p'tit On est là ou pas ? Tu connais l'Or du Commun, tu connais Roméo Elvis Qu'est-ce qui t'a fait dire qu'on était différent des autres MCs ? Qui t'a dit qu'on était pas tes copains ? On aime le monde entier à part les drogués prétentieux Et les connards de provinces En fait, les drogués tout court mais ça ne rimait pas Les artistes se salissent, se trouvent cools et parfois trop bien Écoute mes cools musiques et mes douces paroles Un jour de blues planqué dans de ta ville Les vrais reconnaissent l'addiction J'ai passé tout l'hiver enfermé dans une prison logée dans ma tête Pour faire germer des textes et des thèmes intéressants Mais je déteste rester zen trop longtemps Il est vrai que Vis-El est un bosse tard, à défaut d'être gracié Il amasse quelques dollars mais va repartir à pied Comme la plupart de ses potes students Un peu de sous mais pas le job du siècle Ni de quoi se propulser Il est dit qu'on doit se faire des copains Voudrais-tu être mon copain ? Aucun ennemi dans le game mais j'ai pas que des copains Y a des suceurs comme diraient les grossiers merles Et des dossiers traînent et ça forme des rumeurs Moi je veux le pulpeux, le minéral Une vie sans pubs, des études présidentielles Sans payer le minerval Gratter des rimes et les rapper voilà c'qui m'a sauvé d'la solitude J'suis au volant d'ma vie, faut pas que j'dérape et que la folie m'tue J'veux pas qu'mon père s'énerve alors dites-lui qu'l'amour des mots Me pousse à la fois à parler d'mon malheur et d'celui des autres Ça m'démange, trop d'ordures veulent m'brûler les ailes Ça m'dérange, frère, l'argent veut briser mes rêves Et il est là l'problème on rêve de vivre de belles histoires Mais la colombe s'est faite plumer un vendredi soir Alors j'suis là, à rêvasser, la tête dans les étoiles Seul sur ma planète, j'entends ma tête me dire Ressaisis-toi ! Car j'ai pas l'droit d'baisser les bras et d'perdre le nord Alors je prie, quand j'vois toute la merde qui erre dehors Allez leur dire, j'ai d'l'ambition à revendre Mais j'suis qu'un fou qui rappe en douze syllabes tout c'qu'il a dans l'ventre C'est bien plus qu'un rêve de gosse et, ça, les vrais l'savent L'écriture avant l'rap et l'kiff avant l'message On envoie l'flow vodka-redbull, la plume en main on n'm'arrête plus T'as voulu salir ma réput mais j'rappais déjà à l'arrêt d'bus J'ai fais mon trou tout seul en scred et maintenant j'suis là qu'est-ce t'as mec ? J'lâche des phases en espagnol j'suis pas venu faire des castagnettes Leurs discours ça casse la tête, ouais cousin chacun sa perte Ils disent tous qu'on est soudé mais finalement chacun sa merde Mon seul passe temps c'est d'gratter les pages, bloqué en bas j'ai râté l'étage Oreille et les phases, t'as capté l'image, faites attention à l'atterrissage Un monde de barges ! Et pourtant moi j'ai des tonnes d'idées J'expose ma boîte à musique pour tout mon comité C'est pas fini XXX après minuit Pire qu'un zombie j'lâche mes récits A mes XXX c'est pas permis Tout l'monde s'en fou ça pense qu'à baise des tass Et ça s'trahit entre frères pour quelques pesetas Melfiano le ciel des zéros dans ma plume J'débarque ni vu ni connu et puis j'disparais dans la brume Quand j'arrive à raviver mes rêves, je revois Nos rires avant qu'on vire vers un ravin D'où peu revinrent, on a viré de bord D'abord de bar en bar et de barrettes en barrettes Tous parés pour être des barons, on s'bagarre pour un regard, une Marlboro C'est aberrant, si t'as l'bon rôle, c'est toi l'baron Il faut être cérébral ou nombreux Si t'as que tes bras, là, t'es mal barré On frime mais, quand les coups pleuvent, on va sabriter De la déprime dans notre état d'ébriété Tes yeux brillent et tu brûles un autre bout marron Mer-fu, c'est bien marrant mais fais gaffe à l'effet boomerang Rouiller en bas me rend gue-din', me rend dingue Rien que d'en parler, mon rap s'déglingue La rue, c'est pas qu'des strings, des gring, des glings des... J'en perds mon latin Toi même tu sais, on n'est pas là pour baratiner Pourquoi tu baragouines ? Tu fais plus de bordel pour rien que d'orgies dans un bar à gouines1</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Monsieur le Président, une lettre tout simplement Monsieur le Président désolé cette fois j'ai pas le temps Le changement c'est quoi, c'est quand Ça fait 10 ans qu'on attend J'essaie de vous écrire, ce texte ne sera qu'pour vous Je n'veux servir de modèle juste un Monsieur le Président, je viens parler pour toute une jeunesse En parlant du principal, j'fume et j'reste honnête Rap et reste correct, un dicton bien placé Qui ne se plante jamais non, n'a aucune chance de poussé Chez nous c'est légalisé faudrait dépénaliser Si j'étais le Président j'enfumerais lÉlysée J'vous changerais les musées je changerais Disneyland J'ai appris avec ton nom, on s'amuse mieux en Hollande François salut, sur ce coup c'est freestyle Sans vous manquer de respect j'vais arroser Marie-JeanneYou might also like</t>
+          <t>Monsieur le Président, une lettre tout simplement Monsieur le Président désolé cette fois j'ai pas le temps Le changement c'est quoi, c'est quand Ça fait 10 ans qu'on attend J'essaie de vous écrire, ce texte ne sera qu'pour vous Je n'veux servir de modèle juste un Monsieur le Président, je viens parler pour toute une jeunesse En parlant du principal, j'fume et j'reste honnête Rap et reste correct, un dicton bien placé Qui ne se plante jamais non, n'a aucune chance de poussé Chez nous c'est légalisé faudrait dépénaliser Si j'étais le Président j'enfumerais lÉlysée J'vous changerais les musées je changerais Disneyland J'ai appris avec ton nom, on s'amuse mieux en Hollande François salut, sur ce coup c'est freestyle Sans vous manquer de respect j'vais arroser Marie-Jeanne</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Freestyle, one shot, demi portion... Rendez-vous le 25 novembre ! Merci à ceux qui soutiennent, bic up C'est par ici qu'ça s'passe, ouvre les yeux regarde un peu Si on voyage en 3ème classe c'est qu'on a pas su faire la queue Heureux ? j'sais pas trop, j'vis ma vie et puis j'constate Sur feuille et face au micro c'est devenu du full contact XXX mais y'a rien d'mieux, merci à la zik d'nous réunir Merci si tu soutiens si tu m'écris pour prévenir Un respect à c'monde, à toutes ces familles d'immigrés On a trop sali ma couleur qu'elle c'est transformée en tigré Intégré ? Ca fais un bail pose plus cette question Et tes vieux clichets d'racaille à la poubelle mon fiston A croire qu'on s'nourri dans la jungle entassés dans des cabanes Et comme Rocca on fini par manier le micro comme une sarbacane Tais toi ! Ca va pas, reviens booster la culture Quand j'te dirais tout vas bien c'est quand j'aurais eu ma structure J'ai vu tellement d'choses sales, et comme nos mères à la rupture J'ai vu certain appuyer pause et ignorer l'bouton lecture Sachant qu'la vie est un combat qu'on est toujours en kimono Et des couplets tellement XXX comment demander d'aller molo J'ai vu qu'il fallait du boulot, en période bien agitée J'ai vu Chazal s'énerver quand on était pas dans son JT J'ai vu des trucs trop grave, j'ai vu le manque de suivi J'ai vu l'envieux parler mal et trop d'chacals ont suivis Est-ce que dans chaque mot tu devines ? Essaye, imagine J'ai vu des petits s'exploser avec un esprit trop fragile On sait qui sont les ennemis, mais pas sur des alliés Quand beaucoup veulent qu'on squatte mais juste nos cages d'escaliers Ouais j'perd mon tempérament, ouais man, j'vis comme l'animal Et puis l'envie XXX m'a dit l'envieux la pris mal Ici j'ai trop pété les plombs, on m'a trop coupés les ponts J'ai vu qu'la France avait un handicap mais seulement au Téléthon J'ai vu et admettons que ce soit nous qui les condamnes Je serais à la place du président entrain d'arroser Marie-Jeanne You might also like Cronologie avant 96 Parait qu'le rap n'appartenait qu'à des vrais combattants Ma première dose c'est l'injection dAfrika Bambaataa Attends, quand cette culture venait des USA Les vrais le savent, copier leur style tout l'monde à refait ça Ce n'est pas une mode de vouloir dire c'qu'on pense Monter un groupe c'est simple car à l'époque tu en avais 10 qui dansent Et mesure pas l'temps qui passe, maître de cérémonie La zik m'a mis une casque sans trop serrer la monnaie Rêve de gosse à accomplir, un baillement et tout s'efface Arrête, j'ai vite compris comment ça peut faire mal une phrase Y'a l'collège qui est en face et le lycée m'attends toujours Si mon carnet de liaison, un emploi du temps d'un MC Sectaire et sans regret qu'on m'dit d'aller voir un psy J'aime écrire c'est comme ça, donc faire autre chose non merci J'vais t'envoyer un p'tit coup Un p'tit cours de style XXX Crame pas la com et la zitoun C'est cool, laisse tomber sinon on t'raccompagne T'as fait 10 tours t'es gros, laisse passer le maigre de Shanghaï XXX c'qui monte vite redescend bas, je plane Là où tout me paraît invraisemblable Bien avant que les journalistes envoyent des sandales C'est fini ils n'ont plus l'envie d'aller filmer des soldats Dar, et tu peux demander aux gendarmes Si on peignait les cons en vert les commissariats seraient des parcs Bye Fabe, vient voir un peu l'rap part en fight En faillite, en fait, comme voir un crime en flag' Waw, retourne-toi si t'as mal aux yeux Et si mon rap fait trop d'bruit, achète-lui un silencieux Irresponsable, donne un bic j'coupe ta soirée samba Sans blabla, paraît que Big était un homme blanc Nan j'blague, petit et rapide comme Ong-bak Paré au coup d'stylo, manière d'y laisser une tache d'encre Qu'est-ce qui m'dépasse tant ? J'ai pris une castagne On est plusieurs à avoir pris cette musique en passe-temps Oho c'est quoi c'plan T'as une idée de c'qui s'trame Non c'est pas à Miami qu'tu vas apprendre mieux.. Le beat est même pas parti que tu hoches la tête La route est longue et un plaisir d'la faire en claquettes T'inquiète XXX comme si j'portais 1000 palettes Textes virtigineux à te provoquer un malaise Rap n'est pas un rêve mais tout l'monde peut l'faire quand même Chacun ses goûts, comme ses couilles ou son oreille Toi tu crois qu't'as des boules mais tu les vois qu'au Loto Tu pues et pour t'en sortir t'as pressé tous les boutons Testé tous les guidons, t'avais pas d'autres choix T'es monté haut, tu vas redescendre c'n'est qu'une balançoire Tout c'qu'on recherche en soi, faire du bien c'est dur C'que tu nous montres à chaque fois n'est qu'une mauvaise habitude Arrête de parler d'street, à croire qu'tu marches pieds nus Mon rap est sincère sans trop d'idées farfelues Non, t'es pas le bienvenue, je pense qu'on t'as prévenu Tes news cool ? Génial, j'te met 10 ans d'retenus</t>
+          <t>Freestyle, one shot, demi portion... Rendez-vous le 25 novembre ! Merci à ceux qui soutiennent, bic up C'est par ici qu'ça s'passe, ouvre les yeux regarde un peu Si on voyage en 3ème classe c'est qu'on a pas su faire la queue Heureux ? j'sais pas trop, j'vis ma vie et puis j'constate Sur feuille et face au micro c'est devenu du full contact XXX mais y'a rien d'mieux, merci à la zik d'nous réunir Merci si tu soutiens si tu m'écris pour prévenir Un respect à c'monde, à toutes ces familles d'immigrés On a trop sali ma couleur qu'elle c'est transformée en tigré Intégré ? Ca fais un bail pose plus cette question Et tes vieux clichets d'racaille à la poubelle mon fiston A croire qu'on s'nourri dans la jungle entassés dans des cabanes Et comme Rocca on fini par manier le micro comme une sarbacane Tais toi ! Ca va pas, reviens booster la culture Quand j'te dirais tout vas bien c'est quand j'aurais eu ma structure J'ai vu tellement d'choses sales, et comme nos mères à la rupture J'ai vu certain appuyer pause et ignorer l'bouton lecture Sachant qu'la vie est un combat qu'on est toujours en kimono Et des couplets tellement XXX comment demander d'aller molo J'ai vu qu'il fallait du boulot, en période bien agitée J'ai vu Chazal s'énerver quand on était pas dans son JT J'ai vu des trucs trop grave, j'ai vu le manque de suivi J'ai vu l'envieux parler mal et trop d'chacals ont suivis Est-ce que dans chaque mot tu devines ? Essaye, imagine J'ai vu des petits s'exploser avec un esprit trop fragile On sait qui sont les ennemis, mais pas sur des alliés Quand beaucoup veulent qu'on squatte mais juste nos cages d'escaliers Ouais j'perd mon tempérament, ouais man, j'vis comme l'animal Et puis l'envie XXX m'a dit l'envieux la pris mal Ici j'ai trop pété les plombs, on m'a trop coupés les ponts J'ai vu qu'la France avait un handicap mais seulement au Téléthon J'ai vu et admettons que ce soit nous qui les condamnes Je serais à la place du président entrain d'arroser Marie-Jeanne Cronologie avant 96 Parait qu'le rap n'appartenait qu'à des vrais combattants Ma première dose c'est l'injection dAfrika Bambaataa Attends, quand cette culture venait des USA Les vrais le savent, copier leur style tout l'monde à refait ça Ce n'est pas une mode de vouloir dire c'qu'on pense Monter un groupe c'est simple car à l'époque tu en avais 10 qui dansent Et mesure pas l'temps qui passe, maître de cérémonie La zik m'a mis une casque sans trop serrer la monnaie Rêve de gosse à accomplir, un baillement et tout s'efface Arrête, j'ai vite compris comment ça peut faire mal une phrase Y'a l'collège qui est en face et le lycée m'attends toujours Si mon carnet de liaison, un emploi du temps d'un MC Sectaire et sans regret qu'on m'dit d'aller voir un psy J'aime écrire c'est comme ça, donc faire autre chose non merci J'vais t'envoyer un p'tit coup Un p'tit cours de style XXX Crame pas la com et la zitoun C'est cool, laisse tomber sinon on t'raccompagne T'as fait 10 tours t'es gros, laisse passer le maigre de Shanghaï XXX c'qui monte vite redescend bas, je plane Là où tout me paraît invraisemblable Bien avant que les journalistes envoyent des sandales C'est fini ils n'ont plus l'envie d'aller filmer des soldats Dar, et tu peux demander aux gendarmes Si on peignait les cons en vert les commissariats seraient des parcs Bye Fabe, vient voir un peu l'rap part en fight En faillite, en fait, comme voir un crime en flag' Waw, retourne-toi si t'as mal aux yeux Et si mon rap fait trop d'bruit, achète-lui un silencieux Irresponsable, donne un bic j'coupe ta soirée samba Sans blabla, paraît que Big était un homme blanc Nan j'blague, petit et rapide comme Ong-bak Paré au coup d'stylo, manière d'y laisser une tache d'encre Qu'est-ce qui m'dépasse tant ? J'ai pris une castagne On est plusieurs à avoir pris cette musique en passe-temps Oho c'est quoi c'plan T'as une idée de c'qui s'trame Non c'est pas à Miami qu'tu vas apprendre mieux.. Le beat est même pas parti que tu hoches la tête La route est longue et un plaisir d'la faire en claquettes T'inquiète XXX comme si j'portais 1000 palettes Textes virtigineux à te provoquer un malaise Rap n'est pas un rêve mais tout l'monde peut l'faire quand même Chacun ses goûts, comme ses couilles ou son oreille Toi tu crois qu't'as des boules mais tu les vois qu'au Loto Tu pues et pour t'en sortir t'as pressé tous les boutons Testé tous les guidons, t'avais pas d'autres choix T'es monté haut, tu vas redescendre c'n'est qu'une balançoire Tout c'qu'on recherche en soi, faire du bien c'est dur C'que tu nous montres à chaque fois n'est qu'une mauvaise habitude Arrête de parler d'street, à croire qu'tu marches pieds nus Mon rap est sincère sans trop d'idées farfelues Non, t'es pas le bienvenue, je pense qu'on t'as prévenu Tes news cool ? Génial, j'te met 10 ans d'retenus</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>On est parti de ce principe qu'on était tous fichés Si t'as voulu garder un secret, on saura tous c'que c'est Que la plupart de ces balances, on les a toutes pesées L'envieux a voulu vite monter, mais il a tout d'suite creusé Viens te poser un peu, j't'invite à voir de tout L'odeur du Douez ou le respect d'un salâm aalaykoum Ça sert à quoi de vous parlez de l'essentiel ? Dis-moi On galère tous devant le guichet le six du mois Ça sert à quoi de vous parler en vrai, sincèrement ? La musique est belle, dissimule un délire infernal Smalia, tu m'vois péter un câble dans l'immédiat J'ai le souvenir d'enterrer mon père à Mohammédia J'm'en bats les couilles d'ta morale, tu m'as vu deux fois à peine La vie est une escalade où l'on chutera tous en rappel Mon Bic toujours en taule, ma feuille en Q.H.S Enfin l'premier album, et un respect si tu lachètes Fais attention à toi et aux sales effets secondaires Plutôt que d'parler d'c'que tu gagnes, viens voir un peu ce qu'on perd Ça sert à quoi, Montana ? Ce n'est qu'un film, trou d'balle Ça sert à quoi d'jouer un rôle quant on s'y trouve pas ? Profite, réfléchis, et nous sommes juste de passage Linsalubrité ici, j'ai dû m'y faire avec l'âge Ça sert à quoi t'as vu, même si je sais de quoi j'parle ? Je prends des clichés de ma vie comme un sale appareil jetable Et on vit, on cane, ça sert à quoi qu'tu ricanes ? Et faire semblant de ne rien voir, ça t'mettra pas à l'écart Ça sert à quoi de vous sortir un disque en deux mille dix ? L'industrie est bloquée comme à la prison de Villeneuve Même la TV est faussée, de toutes façons Tout est géré par ces pyramides et ces francs-maçons Je viens parler en face, pas derrière vous Appelle-moi, j'te ferai un bon son à l'interview Ça sert à quoi d'rapper ? Non, j'en veux pas d'votre pilule Toujours ému quand on me dit Vas-y, Rachid, continue Ça sert à ça, on essaye juste d'oublier l'inquiétude Soutenir la paix, c'est pas grâce à une vidéo sur YouTube Ça sert à quoi, en fait, à force de tourner en rond ? À force de tourner dans l'ring, j'n'ai pas tenu un round Ça sert à quoi t'as vu, même si je sais de quoi j'parle ? Je prends des clichés de ma vie comme un sale appareil jetable You might also like Je n'avais plus que de bons souv'nirs et autant d'remords Et j'ai pas vu les sous v'nir, mais j'reste auteur d'romans Écrire, ça peut que t'rendre humain, faut réfléchir et savoir Tendre une main à son prochain feutre pour lui faire atteindre Mars Mec, moi, je m'accepte pour mettre ce qui me harcèle en morceaux Manie les mots sans merci, ma langue est un art martial Un martien et même si un autre MC a fait l'ancien J'suis là, ça y est, mais l'assaillant me laisse et, en se rasseyant Me laisse y aller, yallah, yes, yo, c'est hella J'te haram et tu sais même plus pourquoi t'es là Si tu te la pètes, intello, depuis tout à l'heure Range ta langue, t'es trop lent, t'as pas l'talent, de quoi t'as l'air ? Arrête, allons, t'es loin d'être un étalon, t'as rien Dans le pantalon, putain, t'es lourd, alors pourquoi tu l'ouvres ? Arrête là si tu te livres à toutes les rimes faciles Je peux te l'affirmer frime et j't'assassine Tu t'la pètes, hélas, tu baisses ton pantalon puis tu t'allonges Comme une petite pute alors j'te pète à l'amende Eh, putain, les mecs, les putes ont le mors Donc j'les pète à l'amende, sec, mec Un pétard au bec, la main sur un Bic Un mac au mic attaque à coups de mots qui claquent sec Et, si tu t'rates, c'est qu'j'te braque, mec Tu traques et j'te fous la trique même si tu fais la schnek Encore un truc avant le break si t'as capté, bsahtek Sinon, tends l'oreille comme Spok dans Star Trek T'auras beau gueuler qu'c'est pas si rigolo qu'ça Moi, dans ma galaxie, y'a pas de gars laxiste Ceux qui rigolent existent, quelques uns résistent Mais la plupart de mes amis, dans l'illégal, excellent Et tu peux gueuler qu'c'est pas si rigolo qu'ça Moi, dans ma galaxie, y'a pas de gars laxiste Ceux qui rigolent existent, quelques uns résistent Mais la plupart de mes amis, dans l'illégal, excellent</t>
+          <t>On est parti de ce principe qu'on était tous fichés Si t'as voulu garder un secret, on saura tous c'que c'est Que la plupart de ces balances, on les a toutes pesées L'envieux a voulu vite monter, mais il a tout d'suite creusé Viens te poser un peu, j't'invite à voir de tout L'odeur du Douez ou le respect d'un salâm aalaykoum Ça sert à quoi de vous parlez de l'essentiel ? Dis-moi On galère tous devant le guichet le six du mois Ça sert à quoi de vous parler en vrai, sincèrement ? La musique est belle, dissimule un délire infernal Smalia, tu m'vois péter un câble dans l'immédiat J'ai le souvenir d'enterrer mon père à Mohammédia J'm'en bats les couilles d'ta morale, tu m'as vu deux fois à peine La vie est une escalade où l'on chutera tous en rappel Mon Bic toujours en taule, ma feuille en Q.H.S Enfin l'premier album, et un respect si tu lachètes Fais attention à toi et aux sales effets secondaires Plutôt que d'parler d'c'que tu gagnes, viens voir un peu ce qu'on perd Ça sert à quoi, Montana ? Ce n'est qu'un film, trou d'balle Ça sert à quoi d'jouer un rôle quant on s'y trouve pas ? Profite, réfléchis, et nous sommes juste de passage Linsalubrité ici, j'ai dû m'y faire avec l'âge Ça sert à quoi t'as vu, même si je sais de quoi j'parle ? Je prends des clichés de ma vie comme un sale appareil jetable Et on vit, on cane, ça sert à quoi qu'tu ricanes ? Et faire semblant de ne rien voir, ça t'mettra pas à l'écart Ça sert à quoi de vous sortir un disque en deux mille dix ? L'industrie est bloquée comme à la prison de Villeneuve Même la TV est faussée, de toutes façons Tout est géré par ces pyramides et ces francs-maçons Je viens parler en face, pas derrière vous Appelle-moi, j'te ferai un bon son à l'interview Ça sert à quoi d'rapper ? Non, j'en veux pas d'votre pilule Toujours ému quand on me dit Vas-y, Rachid, continue Ça sert à ça, on essaye juste d'oublier l'inquiétude Soutenir la paix, c'est pas grâce à une vidéo sur YouTube Ça sert à quoi, en fait, à force de tourner en rond ? À force de tourner dans l'ring, j'n'ai pas tenu un round Ça sert à quoi t'as vu, même si je sais de quoi j'parle ? Je prends des clichés de ma vie comme un sale appareil jetable Je n'avais plus que de bons souv'nirs et autant d'remords Et j'ai pas vu les sous v'nir, mais j'reste auteur d'romans Écrire, ça peut que t'rendre humain, faut réfléchir et savoir Tendre une main à son prochain feutre pour lui faire atteindre Mars Mec, moi, je m'accepte pour mettre ce qui me harcèle en morceaux Manie les mots sans merci, ma langue est un art martial Un martien et même si un autre MC a fait l'ancien J'suis là, ça y est, mais l'assaillant me laisse et, en se rasseyant Me laisse y aller, yallah, yes, yo, c'est hella J'te haram et tu sais même plus pourquoi t'es là Si tu te la pètes, intello, depuis tout à l'heure Range ta langue, t'es trop lent, t'as pas l'talent, de quoi t'as l'air ? Arrête, allons, t'es loin d'être un étalon, t'as rien Dans le pantalon, putain, t'es lourd, alors pourquoi tu l'ouvres ? Arrête là si tu te livres à toutes les rimes faciles Je peux te l'affirmer frime et j't'assassine Tu t'la pètes, hélas, tu baisses ton pantalon puis tu t'allonges Comme une petite pute alors j'te pète à l'amende Eh, putain, les mecs, les putes ont le mors Donc j'les pète à l'amende, sec, mec Un pétard au bec, la main sur un Bic Un mac au mic attaque à coups de mots qui claquent sec Et, si tu t'rates, c'est qu'j'te braque, mec Tu traques et j'te fous la trique même si tu fais la schnek Encore un truc avant le break si t'as capté, bsahtek Sinon, tends l'oreille comme Spok dans Star Trek T'auras beau gueuler qu'c'est pas si rigolo qu'ça Moi, dans ma galaxie, y'a pas de gars laxiste Ceux qui rigolent existent, quelques uns résistent Mais la plupart de mes amis, dans l'illégal, excellent Et tu peux gueuler qu'c'est pas si rigolo qu'ça Moi, dans ma galaxie, y'a pas de gars laxiste Ceux qui rigolent existent, quelques uns résistent Mais la plupart de mes amis, dans l'illégal, excellent</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ok, un, deux C'est quand qu'on échange les rôles ? C'est quand qu'on s'mélange ? C'est drôle ces clans alors qu'chacun dépend de l'autre Souffrance, toujours on the road Si la montée est épineuse, c'est qu'à la fin, il y aura un champ de roses J'arrive et c'est Santa Cruz, ma banlieue, c'est comme partout Sauf qu'on garde un il ouvert quand on s'repose Frère, j'suis en colère, j'frappe dans l'poteau, Wu-Tang Clan dans l'auto C'est la nuit et j'rentre dans ls locaux On s'retrouve à la planque On fait Y a plusiurs types de weed dans les bocaux, fais l'réseau comme Bouygues loco Y'a les schmitt dans le Oppo J'ai les yeux qui brillent parce-que j'suis défoncé au shit J'mets trois fois et j'fais hat trick 'chète ça avec un grec et un spliff Si j'veux changer, j'prends une crêpe, y aura toujours un spliff J'ai envie d'dire des trucs dingues J'vous amène la lumière comme un prêtre avec un flingue Y a personne qui sait c'qu'il y'a dans leurs seringues Personne m'arrête avec un plein, à part un train J'raconte beaucoup d'vérités, un peu d'baratin Identité vérifiée, Souffrance et Demi P Lâche rien même si c'est niqué You might also like Combien d'fois j'ai entendu Que faire pour percer ? T'as deux fois plus de chance de gagner au tiercé Dis-leur comment qu'c'est, hein, autopsie En scred j'arrive de jour, de nuit comme Banksy J'répare quelques pannes, sorti d'quelque part On r'fait le mur avec quelques tags Il faut plus qu'on stagne, on a tout dans l'bag Get Buzy est le meilleur mag Ouais, ma gueule, la prod' claque sa race On reste , change le mot d'passe Le monde fait flipper, l'ambiance est fliquée Putain, quelle rime de bâtard Les rappeurs s'la pètent, font plus profiter, eh ouais Putain, quelle rime de Qatar On a l'même combat malgré les obstacles Le rap est mort depuis Gang Starr Demi P, Souffrance Le rap est mort depuis Gang Starr L'uZine, les grandes gueules Souffrance et Demi P Lâche rien même si c'est niqué Who's the real criminals, take a look behind the scenes This is where we really prepare I watched y'all get fat, now I want my share</t>
+          <t>Ok, un, deux C'est quand qu'on échange les rôles ? C'est quand qu'on s'mélange ? C'est drôle ces clans alors qu'chacun dépend de l'autre Souffrance, toujours on the road Si la montée est épineuse, c'est qu'à la fin, il y aura un champ de roses J'arrive et c'est Santa Cruz, ma banlieue, c'est comme partout Sauf qu'on garde un il ouvert quand on s'repose Frère, j'suis en colère, j'frappe dans l'poteau, Wu-Tang Clan dans l'auto C'est la nuit et j'rentre dans ls locaux On s'retrouve à la planque On fait Y a plusiurs types de weed dans les bocaux, fais l'réseau comme Bouygues loco Y'a les schmitt dans le Oppo J'ai les yeux qui brillent parce-que j'suis défoncé au shit J'mets trois fois et j'fais hat trick 'chète ça avec un grec et un spliff Si j'veux changer, j'prends une crêpe, y aura toujours un spliff J'ai envie d'dire des trucs dingues J'vous amène la lumière comme un prêtre avec un flingue Y a personne qui sait c'qu'il y'a dans leurs seringues Personne m'arrête avec un plein, à part un train J'raconte beaucoup d'vérités, un peu d'baratin Identité vérifiée, Souffrance et Demi P Lâche rien même si c'est niqué Combien d'fois j'ai entendu Que faire pour percer ? T'as deux fois plus de chance de gagner au tiercé Dis-leur comment qu'c'est, hein, autopsie En scred j'arrive de jour, de nuit comme Banksy J'répare quelques pannes, sorti d'quelque part On r'fait le mur avec quelques tags Il faut plus qu'on stagne, on a tout dans l'bag Get Buzy est le meilleur mag Ouais, ma gueule, la prod' claque sa race On reste , change le mot d'passe Le monde fait flipper, l'ambiance est fliquée Putain, quelle rime de bâtard Les rappeurs s'la pètent, font plus profiter, eh ouais Putain, quelle rime de Qatar On a l'même combat malgré les obstacles Le rap est mort depuis Gang Starr Demi P, Souffrance Le rap est mort depuis Gang Starr L'uZine, les grandes gueules Souffrance et Demi P Lâche rien même si c'est niqué Who's the real criminals, take a look behind the scenes This is where we really prepare I watched y'all get fat, now I want my share</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Hé Rachid Voilà la bouée de sauvetage C'est dur de garder le cap Non, non Demi Portion Davodka 28 piges que j'mène ma barque sur lÎle-de-France, si un jour tout s'effondre J'veux prendre le large, je ne veux pas être une épave juste bon qu'à toucher l'fond J'ai fondé une famille gros j'serais plus rien sans ça J'veux pas d'promesse ni d'argent sale mais du soleil et des cocktails sur un transat Le but c'est d'garder le cap, faire sa route petit à petit à son gré De n'jamais changer de bord, même là où le Titanic a sombré Moi j'ai dû mettre mes voiles loin d'mes rêves d'ado T'as jamais vécu la galère si tu trouves ce texte bateau J'navigue sur une fonce-dé que l'Eristoff prolonge j'écris des strophes trop longues En gardant le cap j'ai découvert l'indé pas comme Christophe Colomb La 'sique, c'est du partage donc on donne tout sur des scènes qui tabassent Vu la force que vous m'donnez, j'fais plus des sons j'fais des Genki Dama J'ai pris le mic car c'est ma raison d'être Je me libère de mon mal à chaque fois qu'les sons pètent Je m'éloigne des bla-bla tant qu'je mène ma barque Et je largue les amarres et traverse les tempêtes Depuis des années, dans la douleur, ça s'fight J'ai compris qu'rien ne tombe du ciel même si le mien à la couleur de l'asphalte T'essaie de rebondir, on t'impose un saut d'l'ange Moi j'étais trop d'équerre pour être en mesure d'voir les choses d'un autre angle Maintenant j'me jette à l'eau et prends l'temps d'savourer Le rap ma bouée d'sauvetage j'arrive à faire surface que lorsque mon encre a coulé You might also like Laisse-moi le coup d'un passe-passe le temps de m'installer Oui, on dira que le hip-hop marche très bien c'tte année Garder le cap, t'inquiète, Cortez, vieille casquette Garder le cap, sans 'gueil, sans trop changer d'manette On a des potes et des gobelets qui restent non potables Prends un verre et tu verras les belles rimes de Davodka Maintenant on s'cache autre part, la mort ne patiente pas Elle nous attaque brusquement en veillant sur nos pas On a la pluie, le beau temps, on a même plus de saison Les dirigeants se libèrent et veulent le peuple en prison Garder le cap, disons, un son, une bonne tisane On s'donne donne donne patrons et artisans La porte s'ouvrira bientôt c'est c'qu'on s'dit soi-disant La mort arrivera fissa loin d'leur délires d'Ibiza Garder le cap, le noble art, mon stylo Colombine On y travaille depuis long time car tout l'monde y trouve sa voie Laissez-nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile Laissez-nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile Demi Portion, Davodka Hé, hé Hé Rachid En fait, c'est pas si dur de garder l'cap, hé ! Laissez nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile Laissez nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile2</t>
+          <t>Hé Rachid Voilà la bouée de sauvetage C'est dur de garder le cap Non, non Demi Portion Davodka 28 piges que j'mène ma barque sur lÎle-de-France, si un jour tout s'effondre J'veux prendre le large, je ne veux pas être une épave juste bon qu'à toucher l'fond J'ai fondé une famille gros j'serais plus rien sans ça J'veux pas d'promesse ni d'argent sale mais du soleil et des cocktails sur un transat Le but c'est d'garder le cap, faire sa route petit à petit à son gré De n'jamais changer de bord, même là où le Titanic a sombré Moi j'ai dû mettre mes voiles loin d'mes rêves d'ado T'as jamais vécu la galère si tu trouves ce texte bateau J'navigue sur une fonce-dé que l'Eristoff prolonge j'écris des strophes trop longues En gardant le cap j'ai découvert l'indé pas comme Christophe Colomb La 'sique, c'est du partage donc on donne tout sur des scènes qui tabassent Vu la force que vous m'donnez, j'fais plus des sons j'fais des Genki Dama J'ai pris le mic car c'est ma raison d'être Je me libère de mon mal à chaque fois qu'les sons pètent Je m'éloigne des bla-bla tant qu'je mène ma barque Et je largue les amarres et traverse les tempêtes Depuis des années, dans la douleur, ça s'fight J'ai compris qu'rien ne tombe du ciel même si le mien à la couleur de l'asphalte T'essaie de rebondir, on t'impose un saut d'l'ange Moi j'étais trop d'équerre pour être en mesure d'voir les choses d'un autre angle Maintenant j'me jette à l'eau et prends l'temps d'savourer Le rap ma bouée d'sauvetage j'arrive à faire surface que lorsque mon encre a coulé Laisse-moi le coup d'un passe-passe le temps de m'installer Oui, on dira que le hip-hop marche très bien c'tte année Garder le cap, t'inquiète, Cortez, vieille casquette Garder le cap, sans 'gueil, sans trop changer d'manette On a des potes et des gobelets qui restent non potables Prends un verre et tu verras les belles rimes de Davodka Maintenant on s'cache autre part, la mort ne patiente pas Elle nous attaque brusquement en veillant sur nos pas On a la pluie, le beau temps, on a même plus de saison Les dirigeants se libèrent et veulent le peuple en prison Garder le cap, disons, un son, une bonne tisane On s'donne donne donne patrons et artisans La porte s'ouvrira bientôt c'est c'qu'on s'dit soi-disant La mort arrivera fissa loin d'leur délires d'Ibiza Garder le cap, le noble art, mon stylo Colombine On y travaille depuis long time car tout l'monde y trouve sa voie Laissez-nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile Laissez-nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile Demi Portion, Davodka Hé, hé Hé Rachid En fait, c'est pas si dur de garder l'cap, hé ! Laissez nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile Laissez nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile2</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Vu qu'un rappeur Se doit d'parler Que ce soit bien ou mal Get up, get up, get up Ça va dans les deux sens Get up, get up, get up Elle est douce, verte et nous fait planer Elle a un grand succès ces dernières années Elle sort à toutes heures, allumeuse, le buzz convoitée chez les fumeuses Elle pousse belle, à toute saison, on la sent arriver comme cette odeur dans la maison Elle provoque la perte, pour d'autre la raison Elle fait tourner la tête J'la connais par coeur, j'la connais par coeur Elle ma suivie, oui, depuis mon premier parcours Si j'pars de ce monde, dis lui qu'j'la déteste La vie ma bien élevée, sans jamais trouver d'prétexte Non j'déconne, ouais j'perds le Nord Autant vivre à deux, vu qu'tu m'fais du mal encore On dit qu'le bruit remporte et que le silence répare Juste un peu d'musique j'te ferai l'amour en rappant Get up, get up, get up Get up, get up, get up Oui on se donne, donne, donne Oui on se donne, donne, donne Oui on se donne, donne, donne Ouais, ouais, ouais Ouais, ouais, ouais Ouais, ouais, ouais You might also like Elle est blanche, forte, apparemment discrète Elle aime le monde de la nuit et d'la bonne disquette Elle coûte un peu cher, aime les riches et les pauvres J'ai peur que mon prof, fasse la même à l'école Elle est souvent drôle, ramène beaucoup le drame Elle arrive de loin, après plusieurs escales Elle a fait le tour du globe, à tuer sans dire stop Éliminer du monde avec l'argent qu'on m'escorte Elle parle toutes les langues, connait la muerte Allez santé ! Ou viva la liberté Déconcerté, folle égocentrique, faut bien l'accepter Tout devient sordide Get up, get up, get up Get up, get up, get up Oui on se donne, donne, donne Oui on se donne, donne, donne Oui on se donne, donne, donne Oui on se donne, donne, donne</t>
+          <t>Vu qu'un rappeur Se doit d'parler Que ce soit bien ou mal Get up, get up, get up Ça va dans les deux sens Get up, get up, get up Elle est douce, verte et nous fait planer Elle a un grand succès ces dernières années Elle sort à toutes heures, allumeuse, le buzz convoitée chez les fumeuses Elle pousse belle, à toute saison, on la sent arriver comme cette odeur dans la maison Elle provoque la perte, pour d'autre la raison Elle fait tourner la tête J'la connais par coeur, j'la connais par coeur Elle ma suivie, oui, depuis mon premier parcours Si j'pars de ce monde, dis lui qu'j'la déteste La vie ma bien élevée, sans jamais trouver d'prétexte Non j'déconne, ouais j'perds le Nord Autant vivre à deux, vu qu'tu m'fais du mal encore On dit qu'le bruit remporte et que le silence répare Juste un peu d'musique j'te ferai l'amour en rappant Get up, get up, get up Get up, get up, get up Oui on se donne, donne, donne Oui on se donne, donne, donne Oui on se donne, donne, donne Ouais, ouais, ouais Ouais, ouais, ouais Ouais, ouais, ouais Elle est blanche, forte, apparemment discrète Elle aime le monde de la nuit et d'la bonne disquette Elle coûte un peu cher, aime les riches et les pauvres J'ai peur que mon prof, fasse la même à l'école Elle est souvent drôle, ramène beaucoup le drame Elle arrive de loin, après plusieurs escales Elle a fait le tour du globe, à tuer sans dire stop Éliminer du monde avec l'argent qu'on m'escorte Elle parle toutes les langues, connait la muerte Allez santé ! Ou viva la liberté Déconcerté, folle égocentrique, faut bien l'accepter Tout devient sordide Get up, get up, get up Get up, get up, get up Oui on se donne, donne, donne Oui on se donne, donne, donne Oui on se donne, donne, donne Oui on se donne, donne, donne</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SCY, deux L, A DEMI Dans la jungle Dans la jungle Dans la jungle Ah, ma chérie grandir dans la jungle modifie les profils Ouais Dur de devenir l'homme qu'on s'était promis La raison est simple, tu m'as aimé trop vite Ouh Moi, je l'ai fait comme un gorille Ah, logique, mais pourquoi tu cogites ? Au final, rien d'autre n'était plausible Comprends qu'il est difficile en tant qu'artiste de faire triompher les esprits quand il n'y a que les singes qui applaudissent Hm, ah Touchant, quand t'y vois un tel charme Dans les sables mouvants personne ne te jette Yah J'viens d'cette zone de la jungle ou même Baloo commence à fantasmer sur Shere Khan Ici, c'est un business très juteux Stress, violence, sexe, drogue, fric presque élu Dieu Je suis p't-être une espèce d'ogre, mais parmi les hommes, je reste toujours l'un des rares qui connaisse encore le secret du feu J'vois plus qu'des animaux horribles Y a plus dans nos yeux le moindre petit Mowgli Aimer cette folie me domine aussi, t'as beau dire, mais nos villes ont des allures de zoos vides Ah, hm L'appel de la jungle Ah, hm L'appel de la jungle Ah, hm Ah, hm You might also like Ah, hm Elle n'est pas le cadre dont j'veux Tous les jours, mon cur la condamne Ah, hm Et j'ai beau vouloir le contraire La jungle fait de lil à mon âme Ah, hm Elle n'est pas le cadre dont j'veux Tous les jours, mon cur la condamne Ah, hm J'ai beau vouloir le contraire Elle fait de lil à mon âme Grandir dans la jungle au milieu des sauvages Le sentiment d'être un gorille, donc il a fallu lâcher un rap On dit que tous les coups sont permis Ouh Welcome, la forêt ne dort pas L'humain est interdit, surtout avec un port d'arme Tout le monde est 'cor-da Ouais, l'venin du cobra Passe par la rivière, t'auras le piège de l'anaconda L'homme est un loup pour l'homme Nous n'en sommes pas surpris Nous savons quand il grogne, il n'attire que les cris Dans la jungle, faut survivre, protéger les siens Prendre soin de la terre, c'est embellir le ciel Aussi, c'est un système très dangereux Toujours mieux à la baraque avec une chaise pour deux Je suis une espèce d'homme, mais parmi les animaux, je reste l'un des rares qui connaisse encore l'effet de la beuh J'ai plus l'envie de dormir et reste encore ceux qui ont des délires de vampires Et c'est de pire en pire, comment dire, j'vais sortir Mais nos rimes, tu le sais, ont des allures de Gandhi Ow J'ai promis d'essayer Ouais On est premiers sur la liste On est premiers sur la liste J'ai ouvert un safari J'ai ouvert un safari Mais pas pour les touristes Ah, oh L'appel de la jungle L'appel de la jungle Scylla, Demi P Dans la jungle Ah hm Ah hm Ah hm Ah hm Yeah</t>
+          <t>SCY, deux L, A DEMI Dans la jungle Dans la jungle Dans la jungle Ah, ma chérie grandir dans la jungle modifie les profils Ouais Dur de devenir l'homme qu'on s'était promis La raison est simple, tu m'as aimé trop vite Ouh Moi, je l'ai fait comme un gorille Ah, logique, mais pourquoi tu cogites ? Au final, rien d'autre n'était plausible Comprends qu'il est difficile en tant qu'artiste de faire triompher les esprits quand il n'y a que les singes qui applaudissent Hm, ah Touchant, quand t'y vois un tel charme Dans les sables mouvants personne ne te jette Yah J'viens d'cette zone de la jungle ou même Baloo commence à fantasmer sur Shere Khan Ici, c'est un business très juteux Stress, violence, sexe, drogue, fric presque élu Dieu Je suis p't-être une espèce d'ogre, mais parmi les hommes, je reste toujours l'un des rares qui connaisse encore le secret du feu J'vois plus qu'des animaux horribles Y a plus dans nos yeux le moindre petit Mowgli Aimer cette folie me domine aussi, t'as beau dire, mais nos villes ont des allures de zoos vides Ah, hm L'appel de la jungle Ah, hm L'appel de la jungle Ah, hm Ah, hm Ah, hm Elle n'est pas le cadre dont j'veux Tous les jours, mon cur la condamne Ah, hm Et j'ai beau vouloir le contraire La jungle fait de lil à mon âme Ah, hm Elle n'est pas le cadre dont j'veux Tous les jours, mon cur la condamne Ah, hm J'ai beau vouloir le contraire Elle fait de lil à mon âme Grandir dans la jungle au milieu des sauvages Le sentiment d'être un gorille, donc il a fallu lâcher un rap On dit que tous les coups sont permis Ouh Welcome, la forêt ne dort pas L'humain est interdit, surtout avec un port d'arme Tout le monde est 'cor-da Ouais, l'venin du cobra Passe par la rivière, t'auras le piège de l'anaconda L'homme est un loup pour l'homme Nous n'en sommes pas surpris Nous savons quand il grogne, il n'attire que les cris Dans la jungle, faut survivre, protéger les siens Prendre soin de la terre, c'est embellir le ciel Aussi, c'est un système très dangereux Toujours mieux à la baraque avec une chaise pour deux Je suis une espèce d'homme, mais parmi les animaux, je reste l'un des rares qui connaisse encore l'effet de la beuh J'ai plus l'envie de dormir et reste encore ceux qui ont des délires de vampires Et c'est de pire en pire, comment dire, j'vais sortir Mais nos rimes, tu le sais, ont des allures de Gandhi Ow J'ai promis d'essayer Ouais On est premiers sur la liste On est premiers sur la liste J'ai ouvert un safari J'ai ouvert un safari Mais pas pour les touristes Ah, oh L'appel de la jungle L'appel de la jungle Scylla, Demi P Dans la jungle Ah hm Ah hm Ah hm Ah hm Yeah</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Y a des jours où seul on pourrait craquer Quand face à l'horizon, on n'pense plus savoir nager N'attends rien d'moi, Dieu m'a répondu quand j'ai prié Enfin c'que j'crois, tu vois, c'est qu'les signes ne nous mentent pas J'ai croisé sur mon chemin tant de gens sans attaches Au désespoir si grand que leur vie n'avait pas d'poids Et toi quand j't'ai rencontré, au premier mot j'ai su Qu't'étais un frère, un vrai, l'humain qu'j'ai vu était plus Plus que tout, la main que tu m'as tendue Plus que tout, l'espoir que tu m'as rendu Plus que tout, l'amitié que j'ai reçue Plus que tous cs mots, plus que tout J'ai cru en l'homme, gardé la foi comm j'ai pu compter sur toi Aucun problème, des solutions, me demande même pas pourquoi Tendre la main, l'espoir comme une vie sur la mer Marhaba, bienvenue, y a qu'l'amour qu'on ramène Oui le soleil va avec jusqu'au boulevard des airs Je serai présent évidemment, oui jusqu'au fond du désert On désire que l'homme soit comblé de bonheur Qu'il trouve la paix, sa porte ou sa clé dans le cur You might also like C'est pas l'temps qui passe, même s'il m'écrase Qui m'fera oublier mes promesses ni même par où je passe Si je pars trop tôt, j'veux pas qu'tu m'oublies sans larmes Frérot, on a tellement de gloire en haut du stade On triomphera d'ce monde, tu sais c'est sûr qu'on l'aura Et même si l'monde est méchant, il l'est moins grâce à toi Ici j'suis sur l'sommet, à peine la rage en sommeil On trinquera devant l'horizon car on mérite le Champagne J'combats dur et j'ai mal, j'veux qu'on devienne des étoiles Si jamais t'as besoin d'aide, t'as mes épaules pour échelle Les amis nous guident dans la mer J'ai toujours pu compter sur toi, même quand parfois j'te perds Khoya beslama Khoya beslama</t>
+          <t>Y a des jours où seul on pourrait craquer Quand face à l'horizon, on n'pense plus savoir nager N'attends rien d'moi, Dieu m'a répondu quand j'ai prié Enfin c'que j'crois, tu vois, c'est qu'les signes ne nous mentent pas J'ai croisé sur mon chemin tant de gens sans attaches Au désespoir si grand que leur vie n'avait pas d'poids Et toi quand j't'ai rencontré, au premier mot j'ai su Qu't'étais un frère, un vrai, l'humain qu'j'ai vu était plus Plus que tout, la main que tu m'as tendue Plus que tout, l'espoir que tu m'as rendu Plus que tout, l'amitié que j'ai reçue Plus que tous cs mots, plus que tout J'ai cru en l'homme, gardé la foi comm j'ai pu compter sur toi Aucun problème, des solutions, me demande même pas pourquoi Tendre la main, l'espoir comme une vie sur la mer Marhaba, bienvenue, y a qu'l'amour qu'on ramène Oui le soleil va avec jusqu'au boulevard des airs Je serai présent évidemment, oui jusqu'au fond du désert On désire que l'homme soit comblé de bonheur Qu'il trouve la paix, sa porte ou sa clé dans le cur C'est pas l'temps qui passe, même s'il m'écrase Qui m'fera oublier mes promesses ni même par où je passe Si je pars trop tôt, j'veux pas qu'tu m'oublies sans larmes Frérot, on a tellement de gloire en haut du stade On triomphera d'ce monde, tu sais c'est sûr qu'on l'aura Et même si l'monde est méchant, il l'est moins grâce à toi Ici j'suis sur l'sommet, à peine la rage en sommeil On trinquera devant l'horizon car on mérite le Champagne J'combats dur et j'ai mal, j'veux qu'on devienne des étoiles Si jamais t'as besoin d'aide, t'as mes épaules pour échelle Les amis nous guident dans la mer J'ai toujours pu compter sur toi, même quand parfois j'te perds Khoya beslama Khoya beslama</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>J'ai un couplet pour m'étaler, j'arrive voir si tout allait bien On n'a pas l'fric à Escobar ni les gros puits d'un Saoudien On aime le rap vu qu'ça nous tient parce que, des fois, on pète un câble Alors le courant ne passe plus comme s'noyer dans une cascade On lève la tête, c'est pas grave, j'arrive nettoyer ça Oui, j'préfère remplir des curs et, en même temps, blinder les salles La vie est un coup d'poker, surtout quand t'as pas les cartes On a pris des gifles, normal pour mieux tomber sur nos pattes On a perdu plein de potes, toujours les meilleurs qui partent, ohoh J'n'ai pas compté, comme toutes ces feuilles que j'claque solo Parce que, les règles, j'les ai construites depuis l'temps, frérot La route est longue, maintenant, j'l'apprécie juste en vélo Oui, c'est bon, ne faites rien, oui, le son s'écoute bien Et, le reste, on s'en fout, c'est comme une histoire sans fin C'est bon, ne faites rien, MOH s'écoute bien Et, le reste, on s'en fout, c'est comme une histoire sans fin À RETRANSCRIRE ! Ok, yeah, je ne céderai à la pression, à leur conditionnement J'suis à la , ma montagne, ma cellule d'isolement Qu'on se plie et qu'on s'agenouille ils aimeraient tellement On s'est garé dans l'game, verbalisés au stationnement On vit au jour le jour jusqu'à qu'la nuit nous trompe Et que le tonnerre nous gronde car le Puissant est sur le trône Vivants donc on avance de fil en aiguille On n'dort pas, on écrit, on en devient aigris Tellement ça me crispe Ils veulent qu'on se cambre pour qu'on vende du disque J'leur déclare pas, tout comme le fisc Parce que y'a trop de fils de pratiqueur de fist Yeah, on s'arrête pas devant l'obstacle et la médisance On rappe le bitume avec quiétude et intelligence Une nuisance en sonore, les Hommes s'croient indolores Mais, dead, au point mort, ils n'peuvent plus faire les À RETRANSCRIRE ! Tu peux demander à Demi J'entends chanter les deux et demi Chez moi, le crime a son académie Et les langues de pute chantent leurs calomnies C'est bon, ne faites rien, le son s'écoute bien Et, le reste, on s'en fout, c'est comme une histoire sans fin C'est bon, ne faites rien, MOH s'écoute bien Et, le reste, on s'en fout, c'est que des histoires sans finYou might also like</t>
+          <t>J'ai un couplet pour m'étaler, j'arrive voir si tout allait bien On n'a pas l'fric à Escobar ni les gros puits d'un Saoudien On aime le rap vu qu'ça nous tient parce que, des fois, on pète un câble Alors le courant ne passe plus comme s'noyer dans une cascade On lève la tête, c'est pas grave, j'arrive nettoyer ça Oui, j'préfère remplir des curs et, en même temps, blinder les salles La vie est un coup d'poker, surtout quand t'as pas les cartes On a pris des gifles, normal pour mieux tomber sur nos pattes On a perdu plein de potes, toujours les meilleurs qui partent, ohoh J'n'ai pas compté, comme toutes ces feuilles que j'claque solo Parce que, les règles, j'les ai construites depuis l'temps, frérot La route est longue, maintenant, j'l'apprécie juste en vélo Oui, c'est bon, ne faites rien, oui, le son s'écoute bien Et, le reste, on s'en fout, c'est comme une histoire sans fin C'est bon, ne faites rien, MOH s'écoute bien Et, le reste, on s'en fout, c'est comme une histoire sans fin À RETRANSCRIRE ! Ok, yeah, je ne céderai à la pression, à leur conditionnement J'suis à la , ma montagne, ma cellule d'isolement Qu'on se plie et qu'on s'agenouille ils aimeraient tellement On s'est garé dans l'game, verbalisés au stationnement On vit au jour le jour jusqu'à qu'la nuit nous trompe Et que le tonnerre nous gronde car le Puissant est sur le trône Vivants donc on avance de fil en aiguille On n'dort pas, on écrit, on en devient aigris Tellement ça me crispe Ils veulent qu'on se cambre pour qu'on vende du disque J'leur déclare pas, tout comme le fisc Parce que y'a trop de fils de pratiqueur de fist Yeah, on s'arrête pas devant l'obstacle et la médisance On rappe le bitume avec quiétude et intelligence Une nuisance en sonore, les Hommes s'croient indolores Mais, dead, au point mort, ils n'peuvent plus faire les À RETRANSCRIRE ! Tu peux demander à Demi J'entends chanter les deux et demi Chez moi, le crime a son académie Et les langues de pute chantent leurs calomnies C'est bon, ne faites rien, le son s'écoute bien Et, le reste, on s'en fout, c'est comme une histoire sans fin C'est bon, ne faites rien, MOH s'écoute bien Et, le reste, on s'en fout, c'est que des histoires sans fin</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Et ouais J'viens d'une époque formidable où les valeurs n'étaient pas les mêmes Les jeunes s'prennent pour des rois, oublient qu'leurs mamans, c'est des reines On s'dérègle au fil du temps, les problèmes n'arrivent pas direct Dessiner son chemin quand on ne dépasse même pas dix mètres Y a de la méth' dans la dinette, les hommes vendent à la minute On t'prnd pour un fou, pas grave, j'vais pas gober votre pilul Faut qu'on les insulte à chaque fois parce qu'ils nous écoutent plus J'écoute pas la politique parce que c'est pire qu'fumer tue Tu veux du rap, tiens ça, j'écris des cordes depuis des lustres Encore un tag à l'arrêt d'bus ou un sticker de plus Personne ne croyait en nous, mais on n'a rien lâché l'cous' J'viens d'une époque formidable, personne ne parle de flouse Merci aux jaloux aussi et leur générosité Leur montrer que c'est possible en venant d'une cité J'ai passé tellement d'galères que j'me fous de la victoire Oui, j'ai pleuré dans l'malheur, qui y a qu'Allah qui Tu peux parler ou m'faire du mal, on essaie de se protéger On nous parle souvent d'moutons, mais on respecte le berger D'où l'on vient, où j'vais, comme ceux qui nous tirent vers le bas han J'ai deux côtés, j'ai Son Goku et Vegeta You might also like J'écoute toujours avec les tripes, est-ce que vous voyez ? J'décris toujours mes sentiments, est-ce que vous voyez ? Toujours à la recherche de titres, est-ce que vous voyez ? Et si je fais aucune story, est-ce que vous m'voyez ? C'est pour ma famille, mes amis, mon fils et ma p'tite gamine Frérot, je remercie Dieu tant qu'il y a la foi qui m'câline Reste fier, reste fort, ce monde est rempli d'ordures La classe est dans la tête, frère, c'est aussi beau qu'un costume Je postule, ouais, ouais Je bosse dur, ouais, ouais Son costume, ouais, ouais On fait l'truc, ouais, ouais Pas d'impostures, eh non Le trajet, ouais, s'fait long J'rappe en a cappella et j'refais l'même bilan Wow Ça va pas où quoi, là, ramène ça une fois, deux fois, trois fois, autant d'fois qui le faudra L'homme s'appelle Demi Portion, sans perdre de temps, roulez J'écoute toujours avec les tripes, est-ce que vous voyez ? J'décris toujours mes sentiments, est-ce que vous voyez ? Toujours à la recherche de titres, est-ce que vous voyez ? Et si je fais aucune story, est-ce que vous m'voyez ? Rachid DJ Rolxx Yeah I got you stuck off the realness The next rhyme I write might be about you I got you stuck off the realness Or the next rhyme I write might be about you</t>
+          <t>Et ouais J'viens d'une époque formidable où les valeurs n'étaient pas les mêmes Les jeunes s'prennent pour des rois, oublient qu'leurs mamans, c'est des reines On s'dérègle au fil du temps, les problèmes n'arrivent pas direct Dessiner son chemin quand on ne dépasse même pas dix mètres Y a de la méth' dans la dinette, les hommes vendent à la minute On t'prnd pour un fou, pas grave, j'vais pas gober votre pilul Faut qu'on les insulte à chaque fois parce qu'ils nous écoutent plus J'écoute pas la politique parce que c'est pire qu'fumer tue Tu veux du rap, tiens ça, j'écris des cordes depuis des lustres Encore un tag à l'arrêt d'bus ou un sticker de plus Personne ne croyait en nous, mais on n'a rien lâché l'cous' J'viens d'une époque formidable, personne ne parle de flouse Merci aux jaloux aussi et leur générosité Leur montrer que c'est possible en venant d'une cité J'ai passé tellement d'galères que j'me fous de la victoire Oui, j'ai pleuré dans l'malheur, qui y a qu'Allah qui Tu peux parler ou m'faire du mal, on essaie de se protéger On nous parle souvent d'moutons, mais on respecte le berger D'où l'on vient, où j'vais, comme ceux qui nous tirent vers le bas han J'ai deux côtés, j'ai Son Goku et Vegeta J'écoute toujours avec les tripes, est-ce que vous voyez ? J'décris toujours mes sentiments, est-ce que vous voyez ? Toujours à la recherche de titres, est-ce que vous voyez ? Et si je fais aucune story, est-ce que vous m'voyez ? C'est pour ma famille, mes amis, mon fils et ma p'tite gamine Frérot, je remercie Dieu tant qu'il y a la foi qui m'câline Reste fier, reste fort, ce monde est rempli d'ordures La classe est dans la tête, frère, c'est aussi beau qu'un costume Je postule, ouais, ouais Je bosse dur, ouais, ouais Son costume, ouais, ouais On fait l'truc, ouais, ouais Pas d'impostures, eh non Le trajet, ouais, s'fait long J'rappe en a cappella et j'refais l'même bilan Wow Ça va pas où quoi, là, ramène ça une fois, deux fois, trois fois, autant d'fois qui le faudra L'homme s'appelle Demi Portion, sans perdre de temps, roulez J'écoute toujours avec les tripes, est-ce que vous voyez ? J'décris toujours mes sentiments, est-ce que vous voyez ? Toujours à la recherche de titres, est-ce que vous voyez ? Et si je fais aucune story, est-ce que vous m'voyez ? Rachid DJ Rolxx Yeah I got you stuck off the realness The next rhyme I write might be about you I got you stuck off the realness Or the next rhyme I write might be about you</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Que tout soit clair, depuis mes premiers pas, j'ai vite compris qu'on n'me comprendrai pas J'ai rien d'un renégat, nan j'peux pas m'renier moi À chaque prise de parole, j'vous vois tous hésiter Comprenez qu'dans l'bien ou dans l'mal on va tous bosser pour des idées Certains pensaient qu'on allait baisser la tête Prendre une fessée ou s'affaisser comme si c'était la fête Nettoie ça, mets-toi là, fais-toi light, fête pas l'Aïd C'est pas grave, t'es malade mais respecte les fatwas laïques Descendant d'esclaves et tirailleurs des trente glorieuses Cultivant l'espoir sans une lueur au fond d'leurs yeuz Hypnotisés par des aguerris sémantique Sous tutelle de crapules les cités d'France s'émancipent Lance des rimes sur le gangsterisme, ces gens s'déguisent Pour forcer l'Enfer croyant qu'on y danse terrible Qu'est-ce qui fait tourner l'monde dans c'maudit bourbier sombre Des mouvements boursier d'nombres fait par des courtiers d'l'ombre On s'bat dans une arène devant des seigneurs à la panse pleine Bercé par l'injustice, mais faudrait pas qu'on s'plaigne, alors On cherche des leaders, y'a que des followers Qui chialent quand leur idole se casse un ongle, accélèrent quand un prolo meurt J'me sens moins jugé par ceux qui me considèrent ennemis J'les sens plus sincère que les trolls de ma cyber ethnie J'me prends pour rien ni personne mais j'suis pas là pour rien Si tu sais pas où tu vas au moins tu vas savoir d'où je viens Hors des sentiers jamais battus quand tu montais on redescendait J'me sens riche de mes choix comme si j'avais d'la thune Des mots si forts pour des vies aussi mortes Forcé de prouver que le terme réalité virtuelle est un oxymore On s'évertue à faire pousser la graine en herbe Leur propagande voudrait changer la crème en merde Quand le mensonge prend l'ascenseur la vérité prend la censure Normal quand j'avance seul de méditer dans l'aventure Un frère me dit Mysa j'suis viré de l'usine PSA Après le fusible RSA y'a que le fusil Berretta J'aimerais trucider l'État, j'suis conscient que Lucifer est là Mais j'ai beau vociférer gars j'me sens pas considéré moi C'est ça les mêmes ingénieurs qui les aident et qui les jaugent Car gentil n'a qu'un il ou porte un gilet jaune Perds la main au Père Lachaise t'as compris comment tu gères ton bail Chômage longue durée épitaphe sur ta pierre tombale J'fais pas dans le charabia faut que je réhabilite Balavoine Quand le vent tourne y'a plus que des girouettes et des chars à voile Ça sent le bord de mer, y'a plus de flot qu'à Palavas Et vivement la tournée Rachid, on va se voir à la caravane Pas de mot d'excuse un Rubik's cube avec mes mots d'exclus Faut que j'humilie le stud un missile scud et ils me reconnaissent plus Combien de rappeurs dégagent une haine légendaire ? Méritent une peine exemplaire mais on se dit laisse les gens faire La majorité d'entre eux s'amuse déchaîne les enfers Ici y'a pas de justice mais dans mes rêves je les enterre Ils tuent des gosses et prennent leur chèque en sauve des vies gratuit Pendant qu'ils mentent et jurent j'te dis pas sur le livre à qui J'suis qu'une histoire dont Dieu en est l'auteur Une trajectoire ombragée de gloires illégitimes qui sabotent mes moteurs J'me dis qu'Noé a prêché presque un millénaire Donc on reste amis les frères mais vous m'avez mis les nerfs You might also like Hors des sentiers on descendait, on vous voyait aller chercher la thune On travaillait mais pour manger on préférait passer par les pâtures Pourquoi on devrait s'adapter à des adultes souvent pas très matures ? Hors des sentiers oui mais jamais battus Ça fait on me reconnaît à l'accent cousin Mets le contact mets le volume on aime les choses trop simples On se tue ouais la frustration domine ça Encore un son de malade c'est normal c'est avec Mysa J'ai mille rimes mille sabres ... officiel J'suis le demi d'une portion la vraie moitié d'une pizza L'instru est la médecine douce pas moyen que je mette une douille Allez poussez vous tous tout le monde mérite son coup de pouce On déballe nos verres mauvaise bonne nouvelle Le son est une pure bombe allez sortez les couverts L'ennemi est le principal mais monte les décibels Toujours autant de présence depuis Ménélik Tout baigne La même dégaine ouais les mêmes séquelles yeah Sachant très bien que la musique n'est pas éternelle T'sais que j'aime être seul tel une bonne soeur Je te pose une belle fleur dans un bain de seum Allez bouge de là c'est ce qui me fait écrire Prendre du poids dans la musique c'est ce qui te fait maigrir Alors j'essaie d'écrire des merveilles On dit que je fête plus mon anniversaire Alors j'essaie d'écrire des merveilles En essayant de rester sincère La sincérité frérot aujourd'hui y'a que ça de vrai Demi Portion M.Y.S.A on parle vrai Hors des sentiers on descendait, on vous voyait aller chercher la thune On travaillait mais pour manger on préférait passer par les pâtures Pourquoi on devrait s'adapter à des adultes souvent pas très matures ? Hors des sentiers oui mais jamais battus 15 ans après notre premier feat toujours présent 2.0.2.0 Hors des sentiers on descendait, on vous voyait aller chercher la thune On travaillait mais pour manger on préférait passer par les pâtures Pourquoi on devrait s'adapter à des adultes souvent pas très matures ? Hors des sentiers oui mais jamais battus</t>
+          <t>Que tout soit clair, depuis mes premiers pas, j'ai vite compris qu'on n'me comprendrai pas J'ai rien d'un renégat, nan j'peux pas m'renier moi À chaque prise de parole, j'vous vois tous hésiter Comprenez qu'dans l'bien ou dans l'mal on va tous bosser pour des idées Certains pensaient qu'on allait baisser la tête Prendre une fessée ou s'affaisser comme si c'était la fête Nettoie ça, mets-toi là, fais-toi light, fête pas l'Aïd C'est pas grave, t'es malade mais respecte les fatwas laïques Descendant d'esclaves et tirailleurs des trente glorieuses Cultivant l'espoir sans une lueur au fond d'leurs yeuz Hypnotisés par des aguerris sémantique Sous tutelle de crapules les cités d'France s'émancipent Lance des rimes sur le gangsterisme, ces gens s'déguisent Pour forcer l'Enfer croyant qu'on y danse terrible Qu'est-ce qui fait tourner l'monde dans c'maudit bourbier sombre Des mouvements boursier d'nombres fait par des courtiers d'l'ombre On s'bat dans une arène devant des seigneurs à la panse pleine Bercé par l'injustice, mais faudrait pas qu'on s'plaigne, alors On cherche des leaders, y'a que des followers Qui chialent quand leur idole se casse un ongle, accélèrent quand un prolo meurt J'me sens moins jugé par ceux qui me considèrent ennemis J'les sens plus sincère que les trolls de ma cyber ethnie J'me prends pour rien ni personne mais j'suis pas là pour rien Si tu sais pas où tu vas au moins tu vas savoir d'où je viens Hors des sentiers jamais battus quand tu montais on redescendait J'me sens riche de mes choix comme si j'avais d'la thune Des mots si forts pour des vies aussi mortes Forcé de prouver que le terme réalité virtuelle est un oxymore On s'évertue à faire pousser la graine en herbe Leur propagande voudrait changer la crème en merde Quand le mensonge prend l'ascenseur la vérité prend la censure Normal quand j'avance seul de méditer dans l'aventure Un frère me dit Mysa j'suis viré de l'usine PSA Après le fusible RSA y'a que le fusil Berretta J'aimerais trucider l'État, j'suis conscient que Lucifer est là Mais j'ai beau vociférer gars j'me sens pas considéré moi C'est ça les mêmes ingénieurs qui les aident et qui les jaugent Car gentil n'a qu'un il ou porte un gilet jaune Perds la main au Père Lachaise t'as compris comment tu gères ton bail Chômage longue durée épitaphe sur ta pierre tombale J'fais pas dans le charabia faut que je réhabilite Balavoine Quand le vent tourne y'a plus que des girouettes et des chars à voile Ça sent le bord de mer, y'a plus de flot qu'à Palavas Et vivement la tournée Rachid, on va se voir à la caravane Pas de mot d'excuse un Rubik's cube avec mes mots d'exclus Faut que j'humilie le stud un missile scud et ils me reconnaissent plus Combien de rappeurs dégagent une haine légendaire ? Méritent une peine exemplaire mais on se dit laisse les gens faire La majorité d'entre eux s'amuse déchaîne les enfers Ici y'a pas de justice mais dans mes rêves je les enterre Ils tuent des gosses et prennent leur chèque en sauve des vies gratuit Pendant qu'ils mentent et jurent j'te dis pas sur le livre à qui J'suis qu'une histoire dont Dieu en est l'auteur Une trajectoire ombragée de gloires illégitimes qui sabotent mes moteurs J'me dis qu'Noé a prêché presque un millénaire Donc on reste amis les frères mais vous m'avez mis les nerfs Hors des sentiers on descendait, on vous voyait aller chercher la thune On travaillait mais pour manger on préférait passer par les pâtures Pourquoi on devrait s'adapter à des adultes souvent pas très matures ? Hors des sentiers oui mais jamais battus Ça fait on me reconnaît à l'accent cousin Mets le contact mets le volume on aime les choses trop simples On se tue ouais la frustration domine ça Encore un son de malade c'est normal c'est avec Mysa J'ai mille rimes mille sabres ... officiel J'suis le demi d'une portion la vraie moitié d'une pizza L'instru est la médecine douce pas moyen que je mette une douille Allez poussez vous tous tout le monde mérite son coup de pouce On déballe nos verres mauvaise bonne nouvelle Le son est une pure bombe allez sortez les couverts L'ennemi est le principal mais monte les décibels Toujours autant de présence depuis Ménélik Tout baigne La même dégaine ouais les mêmes séquelles yeah Sachant très bien que la musique n'est pas éternelle T'sais que j'aime être seul tel une bonne soeur Je te pose une belle fleur dans un bain de seum Allez bouge de là c'est ce qui me fait écrire Prendre du poids dans la musique c'est ce qui te fait maigrir Alors j'essaie d'écrire des merveilles On dit que je fête plus mon anniversaire Alors j'essaie d'écrire des merveilles En essayant de rester sincère La sincérité frérot aujourd'hui y'a que ça de vrai Demi Portion M.Y.S.A on parle vrai Hors des sentiers on descendait, on vous voyait aller chercher la thune On travaillait mais pour manger on préférait passer par les pâtures Pourquoi on devrait s'adapter à des adultes souvent pas très matures ? Hors des sentiers oui mais jamais battus 15 ans après notre premier feat toujours présent 2.0.2.0 Hors des sentiers on descendait, on vous voyait aller chercher la thune On travaillait mais pour manger on préférait passer par les pâtures Pourquoi on devrait s'adapter à des adultes souvent pas très matures ? Hors des sentiers oui mais jamais battus</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Lâche un big up à tout mes rats, jamais ils ne cesseront Ni drôle, ni cinéma, j'arrive changer le scénario Ici on est tolérant à représenter l'Hérault Appelle-moi ton festival on te f'ra mieux qu'à Rio La bonne rime est allié de Casa' jusqu'Antalya Big up à toute l'España en passant par les Baléares J'm'en bas les reins j'ai pas d'masque Peur de faire du mal Peur de faire du mal, peur de faire du mal Beaucoup partent pour 100 balles A la guerre du pourcentage Il est mort, il est plus là Juste pour l'amour de son cash J'ai dû froisser dix mille pages j'ai dû refaire des tympans Mais bon quand on aime bien frère Soi-disant on ne compte pas Oublis les problèmes au calme d'après le son qu'on propage J'ai fait mon chemin c'est pas grave j'te laisse porter mes sandales Donc on y met la totale, en faisant gaffe aux faux pas Y a trop d'monde derrière qui ne connaissent pas Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma car Dieu a crée le Monde le reste Made In China Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma You might also like Envoi un beat que l'on s'explique tu sais que l'encre m'appelle Envenimer le bic mec, d'manière à que ce soit mortel J'aime pas le changement évidemment, vu que ça donne une sale recette On goûte à la vie chaque jour, j'partirai maigre comme Brassens On tend la joue vers les siens, t'as le temps de prendre ta gifle On félicite nos petits, dès qu'les projets s'finalisent C'est normal, on en remet, envoie du son car j'dors pas Croquer la vie à pleine dent, j'veux bien mais ça mord pas Y a rien d'grave bic up ! Heureusement que l'on gratte Qu'on pensera à Sean Price, Big L ou à Gang Starr On minimise à chaque fois même si le respect s'oublie J'voudrais laisser une belle trace juste avant d'être enseveli On en remet, c'est grâce aux erreurs qu'on se r'lit Qu'on apprend à tourner la page même si on a même plus de livre Oui laissez-nous respirer Laissez-nous sans pression, j'passe à travers le filet Un truc comme demi portion Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'ils ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma car Dieu a crée le Monde le reste Made In China Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'ils ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma et ouai Depuis le, depuis le, depuis le temps que je rappe Depuis le, depuis le, depuis le temps que je rappe... la Rumeur Depuis le, depuis le temps que je rappe... à la Scred Depuis le, depuis le temps que je rappe... Rocca Depuis, depuis le temps que je rappe... Assassin Depuis le, depuis le temps que je rappe... les Sages Po' Depuis le, depuis le temps que je rappe... c'est ça Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma car Dieu a crée le Monde le reste Made In China Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma Malgré les douleurs et les blessures on se relève gars</t>
+          <t>Lâche un big up à tout mes rats, jamais ils ne cesseront Ni drôle, ni cinéma, j'arrive changer le scénario Ici on est tolérant à représenter l'Hérault Appelle-moi ton festival on te f'ra mieux qu'à Rio La bonne rime est allié de Casa' jusqu'Antalya Big up à toute l'España en passant par les Baléares J'm'en bas les reins j'ai pas d'masque Peur de faire du mal Peur de faire du mal, peur de faire du mal Beaucoup partent pour 100 balles A la guerre du pourcentage Il est mort, il est plus là Juste pour l'amour de son cash J'ai dû froisser dix mille pages j'ai dû refaire des tympans Mais bon quand on aime bien frère Soi-disant on ne compte pas Oublis les problèmes au calme d'après le son qu'on propage J'ai fait mon chemin c'est pas grave j'te laisse porter mes sandales Donc on y met la totale, en faisant gaffe aux faux pas Y a trop d'monde derrière qui ne connaissent pas Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma car Dieu a crée le Monde le reste Made In China Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma Envoi un beat que l'on s'explique tu sais que l'encre m'appelle Envenimer le bic mec, d'manière à que ce soit mortel J'aime pas le changement évidemment, vu que ça donne une sale recette On goûte à la vie chaque jour, j'partirai maigre comme Brassens On tend la joue vers les siens, t'as le temps de prendre ta gifle On félicite nos petits, dès qu'les projets s'finalisent C'est normal, on en remet, envoie du son car j'dors pas Croquer la vie à pleine dent, j'veux bien mais ça mord pas Y a rien d'grave bic up ! Heureusement que l'on gratte Qu'on pensera à Sean Price, Big L ou à Gang Starr On minimise à chaque fois même si le respect s'oublie J'voudrais laisser une belle trace juste avant d'être enseveli On en remet, c'est grâce aux erreurs qu'on se r'lit Qu'on apprend à tourner la page même si on a même plus de livre Oui laissez-nous respirer Laissez-nous sans pression, j'passe à travers le filet Un truc comme demi portion Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'ils ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma car Dieu a crée le Monde le reste Made In China Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'ils ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma et ouai Depuis le, depuis le, depuis le temps que je rappe Depuis le, depuis le, depuis le temps que je rappe... la Rumeur Depuis le, depuis le temps que je rappe... à la Scred Depuis le, depuis le temps que je rappe... Rocca Depuis, depuis le temps que je rappe... Assassin Depuis le, depuis le temps que je rappe... les Sages Po' Depuis le, depuis le temps que je rappe... c'est ça Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma car Dieu a crée le Monde le reste Made In China Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma Malgré les douleurs et les blessures on se relève gars</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ils voudront savoir Si tout va pour moi Et ils se plaindront de mon silence Ils voudront savoir Ils voudront savoir quoi ? Si tout va pour moi Ah bon ? Et ils se plaindront de mon silence Que font-ils ? Mais où sont-ils ? Ils voudront savoir Ils voudront savoir quoi ? Si tout va pour moi Ah bon ? Et ils se plaindront de mon silence Un beat et du rap, j'innove la fiesta Comme dirait Busta C'est nous les reustas Plus d'modestie, tout va bien pour moi Et si t'as pris une grosse gifle, c'est qu't'insultes les mamans Ils voudront savoir comme d'hab' qui a commencé Qui nous a parlés mal et qui nous a balancés Ferme ta gueule, j't'arrête là, remballe, tu rigoles J'fais ni du rap d'intello, ni ton rap de mongol' Ni d'la nouvelle école, tu vois bien un couloir On dort, mais y'a toujours un texte dans l'coltard J'm'emporte, et me demande pas pourquoi je dors tard J'm'exporte, et c'est derrière que j'masse Wouaw, on va pas s'battre, bande de curieux Ne suce pas, ne cherche pas, l'être humain n'a qu'une queue Dès fois il n'a pas d'cur, et fait style d'être dangereux J'te laisse dans l'délire, moi j'suis même plus dans l'jeu You might also like Peu importe l'heure ou l'endroit on s'en remet au destin La vie est un test hein, faut qu'je reste modeste, wesh Allez, p't-être une fois dans l'année j'me la pète, mais jamais j'fais le roi Quand j'peux, je donne ou je prête, jamais je fais le rat En tête de faire plaisir à l'entourage mais faut la XXX Question d'texte, j'en suis amoureux mais j'm'en fous du rap On fait ça pour le kiff, le bif s'il en reste Combien d'fois ces derniers temps on entend C'est la hass ! ? Grosse collision entre l'euphorie et les baisses de moral Une fois tu ris, une fois tu pleures, vas-y renvoie la balle Surtout quand la dure réalité t'frappe, des fois Je sais c'est dur de garder la tête froide, en tout cas Quand ça va mal, j'saurai quoi dire à mon zinc' Les miens, ils comptent sur moi comme Kadir à Marseille Sûr, compte sur moi la famille, compte sur moi Paroles rédigées et expliquées par la communauté Rap Genius France !</t>
+          <t>Ils voudront savoir Si tout va pour moi Et ils se plaindront de mon silence Ils voudront savoir Ils voudront savoir quoi ? Si tout va pour moi Ah bon ? Et ils se plaindront de mon silence Que font-ils ? Mais où sont-ils ? Ils voudront savoir Ils voudront savoir quoi ? Si tout va pour moi Ah bon ? Et ils se plaindront de mon silence Un beat et du rap, j'innove la fiesta Comme dirait Busta C'est nous les reustas Plus d'modestie, tout va bien pour moi Et si t'as pris une grosse gifle, c'est qu't'insultes les mamans Ils voudront savoir comme d'hab' qui a commencé Qui nous a parlés mal et qui nous a balancés Ferme ta gueule, j't'arrête là, remballe, tu rigoles J'fais ni du rap d'intello, ni ton rap de mongol' Ni d'la nouvelle école, tu vois bien un couloir On dort, mais y'a toujours un texte dans l'coltard J'm'emporte, et me demande pas pourquoi je dors tard J'm'exporte, et c'est derrière que j'masse Wouaw, on va pas s'battre, bande de curieux Ne suce pas, ne cherche pas, l'être humain n'a qu'une queue Dès fois il n'a pas d'cur, et fait style d'être dangereux J'te laisse dans l'délire, moi j'suis même plus dans l'jeu Peu importe l'heure ou l'endroit on s'en remet au destin La vie est un test hein, faut qu'je reste modeste, wesh Allez, p't-être une fois dans l'année j'me la pète, mais jamais j'fais le roi Quand j'peux, je donne ou je prête, jamais je fais le rat En tête de faire plaisir à l'entourage mais faut la XXX Question d'texte, j'en suis amoureux mais j'm'en fous du rap On fait ça pour le kiff, le bif s'il en reste Combien d'fois ces derniers temps on entend C'est la hass ! ? Grosse collision entre l'euphorie et les baisses de moral Une fois tu ris, une fois tu pleures, vas-y renvoie la balle Surtout quand la dure réalité t'frappe, des fois Je sais c'est dur de garder la tête froide, en tout cas Quand ça va mal, j'saurai quoi dire à mon zinc' Les miens, ils comptent sur moi comme Kadir à Marseille Sûr, compte sur moi la famille, compte sur moi Paroles rédigées et expliquées par la communauté Rap Genius France !</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Trente-quatre piges, toujours insolent Yeah Pousse le son, il faut qu'ça résonne dans tout l'habitacle Troisième et dernier épisode d'une série classique tah l'Big Mac Ils nous laissent dans de beaux draps donc on avance grandes gueules ouvertes Et crois-moi qu'il en faudra avant que mon gang de loups perde Coupe la télé, ouvre les yeux et c'est là qu'l'effet s'annule Je marche chaque jour deux grammes dans l'corps, pourtant, j'ai jamais fait la mule Putain, déjà quatre piges que quarante-trois rappeurs mythiques fusillent c'thème Plutôt mourir majeur levé qu'victime du système Yo, dis-leur, Tek', j'suis insolent, NTM, MC Solaar On a grandi avec Céline et regardez les vices qu'on a J'mate l'avenir comme un connard et passe du temps devant ma feuille, hein Un teh et j'me sens bien, en même temps, on est seuls, hein On a la bonne, t'sais très bien qu'on a la bonne On pense souvent à la mort car, à côté, on voit la taule Donc, l'espoir, j'en veux encore juste avant d'se faire la malle J'suis l'mélange d'Abraham featuring Kendrick Lamar You might also like J'me suis pas souvent battue, mais que mes frères en soient témoins J'étais l'genre de p'tite qui t'fatigue et n'aime pas qu'on la dévisage J'avais l'genre de répartie qui donne envie d'en v'nir aux mains Avec un r'gard qui t'assassine et un sourire de fille si sage J'ai souvent mal parlé, pas souvent demandé pardon Le corps athlétique mais c'est ma bouche qui en a buté plus d'un Tu sais d'jà qu'on s'en bat les steaks des qu'en dira-t-on ? Toujours l'même adjectif noté en rouge à chaque bulletin À chaque couplet, c'est la cérémonie des grosses rimes quand ma folie s'égosille J'envoie une frappe par semaine et j'terrorise tes prodiges J'ai l'produit, c'est promis, dis-leur qu'j'suis insolent Comme un raciste qui s'branle devant un boule catégorie ebony J'ai pas qu'un sale grain, bien sûr que j'aimerais grimper Mais, pour eux, j'suis qu'un grincheux qui rappe son chagrin La réussite est une guerre à mener, mais j'suis pas seul À faire mon trou, je pense à ceux qui m'aident à creuser, manito J'suis comme La Provence, moi, j'suis là pour votre information J'suis dans l'insolence et ça provoque des insolations On cherche un soleil, c'est parce qu'on n'attend rien d'la lune C'monde est ainsi fait, mon habitat est insalubre Les miens aussi, ils veulent des sous, c'est pas d'la symbolique On t'fait un son lourd et ça d'vient insolite Et, moi, dans l'absolu, j'ai b'soin d'avoir des bases solides La rime étant sonnante, le shit est dans la Samsonite J'suis du genre à perdre le sud toi, t'es juste du genre à perdre Comme dirait Jimmie des comme toi, y'en a à perte de vue Espèce de pute, j'réveille le puma qui sommeille en toi Pour qu'il réveille le braconnier qui sommeille en moi et qu'j'te bute J'ai la rime qui fait remuer la queue d'ta chienne de nuque Et la weed qui fait bader quand il en reste plus Quoi d'plus sensé que d'se faire baiser par ceux qui t'aiment le plus ? Grand J'aurais perdu la vie bien avant qu'je perde le truc J'ai pas changé, même si j'rappe plus sur des violons acérés J'pense toujours à ces règles, j'continue à serrer J'm'enferme de plus en plus et j'm'accroche à ces rêves Pourquoi parler des flux ? Ça fait des siècles qu'on est ferrés han J'sais pas c'que j'ai, j'ai des envies, han Mais j'dois m'soucier de ces gens qui dansent Sur des milliers d'chants, à pieds joints sur des minages Ma soirée devient minable Comme toi, j'ai pas toujours fait c'qu'il fallait Sur mon béton, toutes les roses ont fané J'crache sur nos dirigeants, ils m'font marrer T'étonne pas qu'on réponde avec des pavés J'viens pour tout brûler, pourtant, j'suis calme, hein Toxique comme les vapeurs que j'inhale J'ai bu, j'ai bu tous les jerricanes Insolent comme mes démons qui ricanent Paradoxal, j'ai fait mes classes en séchant les cours Vesqui' la brigade, la drogua bien au chaud dans les couilles Vu qu'c'est l'seul attribut qui t'fait tenir debout Un caractère trop têtu a d'autres tentatives d'être maboule J'porte des lourdes peines, c'est l'poids des années d'blèmes-pro' Minot, p't-être même que j'rêvais trop d'Merco Benz J'étais qu'un gosse à la cabosse amochée walou Rien de bien méchant, le cur légèrement cabossé On est v'nus pour claquer des culs mais, maint'nant, ça zappe les études Au fond, je crois qu'de nos jours l'insolence, c'est pas braquer des thunes Dans ce monde où chacun, de son ego, se gargarise Où tout l'monde veut t'la mettre, prépare les doses de margarine On est mal barrés au milieu d'ce tas d'tarés, j'rappe paré Insolents, c'est rap pour contrer cette phase d'arrêt Masse ta raie si tu veux, nous, on espère qu'ça change L'espoir est p't-être vain mais ça marche pas si tu laisses faire la chance J'ai passé l'âge d'être insolent mais tout s'effondre Et ceux qui peuvent changer s'en foutent alors, c'coup-ci, y'en a assez J'ai envie d'caillasser un keuf comme le clown Que j'étais y'a quinze ans passés Ouais, vous n'aimez pas les gueux mais, non, ne fermez pas les yeux Lorsque les oubliés de Dieu tendent les mains aux Cieux Macron, si tu crains l'accident, pourquoi tu scies l'essieu ? Si, si, ce sont bien des linceuls écrasés sous tes rêves de béton et d'acier Ils veulent qu'on suce leurs rois grotesques, quitte à finir les lèvres rouges sang On a toujours suivi nos règles les tiennes, tu peux t'les mettre où j'pense Personne n'dirige nos rêves, tu peux dire à cette belle douce France Qu'on n'va pas finir vos restes et supporter de telles souffrances Un saut d'ange dans les flammes pour savoir qu'on a mangé sale Insolents dans les âmes, tu pourras jamais changer ça Big up à ceux sur l'même navire, à tous mes insolents Qui peut contrôler ta vie quand c'est toi qui tiens l'volant ? Le majeur en pôle position, t'apprends à rendre les coups J'pousse pas la fonte, juste ma voix pour en découdre et j'les emmerde à fond Quand tout m'est égal, j'dédie qu'à mes gars, aux mans, aux potes de ma clique Je pète des câbles, ça fait des dégâts, du mal, des chocs traumatiques Et j'veux que le vin efface la poussière, l'insolence tient la porte Le chant des sirènes tire la corde de façon grossière Lassés comme ça, les coups durs, on s'y fait, ça forge, à force Les gens préfèrent te critiquer que d'envoyer d'la force J'crois qu'en une track, on mesure pas tout l'level d'insolence Dès qu't'en serres trois, j'rentre en débat, c'est bien plus passionnant Certains l'oublient, d'autres sans sous-titre n'ont pas appris à penser Ouais, mon sourire, j'le sors pour l'pire et prie la vie d'avancer J'suis pas si p'tite pour témoigner d'leur arrogance Car la limite se pose quand ils s'considèrent comme le sommet Cousin, l'respect est mort y'a bien longtemps loin d'la romance Pour qu'le combat prenne sens, je t'offre une dose d'insolence à consommer Tu vas payer pour ton insolence ridicule</t>
+          <t>Trente-quatre piges, toujours insolent Yeah Pousse le son, il faut qu'ça résonne dans tout l'habitacle Troisième et dernier épisode d'une série classique tah l'Big Mac Ils nous laissent dans de beaux draps donc on avance grandes gueules ouvertes Et crois-moi qu'il en faudra avant que mon gang de loups perde Coupe la télé, ouvre les yeux et c'est là qu'l'effet s'annule Je marche chaque jour deux grammes dans l'corps, pourtant, j'ai jamais fait la mule Putain, déjà quatre piges que quarante-trois rappeurs mythiques fusillent c'thème Plutôt mourir majeur levé qu'victime du système Yo, dis-leur, Tek', j'suis insolent, NTM, MC Solaar On a grandi avec Céline et regardez les vices qu'on a J'mate l'avenir comme un connard et passe du temps devant ma feuille, hein Un teh et j'me sens bien, en même temps, on est seuls, hein On a la bonne, t'sais très bien qu'on a la bonne On pense souvent à la mort car, à côté, on voit la taule Donc, l'espoir, j'en veux encore juste avant d'se faire la malle J'suis l'mélange d'Abraham featuring Kendrick Lamar J'me suis pas souvent battue, mais que mes frères en soient témoins J'étais l'genre de p'tite qui t'fatigue et n'aime pas qu'on la dévisage J'avais l'genre de répartie qui donne envie d'en v'nir aux mains Avec un r'gard qui t'assassine et un sourire de fille si sage J'ai souvent mal parlé, pas souvent demandé pardon Le corps athlétique mais c'est ma bouche qui en a buté plus d'un Tu sais d'jà qu'on s'en bat les steaks des qu'en dira-t-on ? Toujours l'même adjectif noté en rouge à chaque bulletin À chaque couplet, c'est la cérémonie des grosses rimes quand ma folie s'égosille J'envoie une frappe par semaine et j'terrorise tes prodiges J'ai l'produit, c'est promis, dis-leur qu'j'suis insolent Comme un raciste qui s'branle devant un boule catégorie ebony J'ai pas qu'un sale grain, bien sûr que j'aimerais grimper Mais, pour eux, j'suis qu'un grincheux qui rappe son chagrin La réussite est une guerre à mener, mais j'suis pas seul À faire mon trou, je pense à ceux qui m'aident à creuser, manito J'suis comme La Provence, moi, j'suis là pour votre information J'suis dans l'insolence et ça provoque des insolations On cherche un soleil, c'est parce qu'on n'attend rien d'la lune C'monde est ainsi fait, mon habitat est insalubre Les miens aussi, ils veulent des sous, c'est pas d'la symbolique On t'fait un son lourd et ça d'vient insolite Et, moi, dans l'absolu, j'ai b'soin d'avoir des bases solides La rime étant sonnante, le shit est dans la Samsonite J'suis du genre à perdre le sud toi, t'es juste du genre à perdre Comme dirait Jimmie des comme toi, y'en a à perte de vue Espèce de pute, j'réveille le puma qui sommeille en toi Pour qu'il réveille le braconnier qui sommeille en moi et qu'j'te bute J'ai la rime qui fait remuer la queue d'ta chienne de nuque Et la weed qui fait bader quand il en reste plus Quoi d'plus sensé que d'se faire baiser par ceux qui t'aiment le plus ? Grand J'aurais perdu la vie bien avant qu'je perde le truc J'ai pas changé, même si j'rappe plus sur des violons acérés J'pense toujours à ces règles, j'continue à serrer J'm'enferme de plus en plus et j'm'accroche à ces rêves Pourquoi parler des flux ? Ça fait des siècles qu'on est ferrés han J'sais pas c'que j'ai, j'ai des envies, han Mais j'dois m'soucier de ces gens qui dansent Sur des milliers d'chants, à pieds joints sur des minages Ma soirée devient minable Comme toi, j'ai pas toujours fait c'qu'il fallait Sur mon béton, toutes les roses ont fané J'crache sur nos dirigeants, ils m'font marrer T'étonne pas qu'on réponde avec des pavés J'viens pour tout brûler, pourtant, j'suis calme, hein Toxique comme les vapeurs que j'inhale J'ai bu, j'ai bu tous les jerricanes Insolent comme mes démons qui ricanent Paradoxal, j'ai fait mes classes en séchant les cours Vesqui' la brigade, la drogua bien au chaud dans les couilles Vu qu'c'est l'seul attribut qui t'fait tenir debout Un caractère trop têtu a d'autres tentatives d'être maboule J'porte des lourdes peines, c'est l'poids des années d'blèmes-pro' Minot, p't-être même que j'rêvais trop d'Merco Benz J'étais qu'un gosse à la cabosse amochée walou Rien de bien méchant, le cur légèrement cabossé On est v'nus pour claquer des culs mais, maint'nant, ça zappe les études Au fond, je crois qu'de nos jours l'insolence, c'est pas braquer des thunes Dans ce monde où chacun, de son ego, se gargarise Où tout l'monde veut t'la mettre, prépare les doses de margarine On est mal barrés au milieu d'ce tas d'tarés, j'rappe paré Insolents, c'est rap pour contrer cette phase d'arrêt Masse ta raie si tu veux, nous, on espère qu'ça change L'espoir est p't-être vain mais ça marche pas si tu laisses faire la chance J'ai passé l'âge d'être insolent mais tout s'effondre Et ceux qui peuvent changer s'en foutent alors, c'coup-ci, y'en a assez J'ai envie d'caillasser un keuf comme le clown Que j'étais y'a quinze ans passés Ouais, vous n'aimez pas les gueux mais, non, ne fermez pas les yeux Lorsque les oubliés de Dieu tendent les mains aux Cieux Macron, si tu crains l'accident, pourquoi tu scies l'essieu ? Si, si, ce sont bien des linceuls écrasés sous tes rêves de béton et d'acier Ils veulent qu'on suce leurs rois grotesques, quitte à finir les lèvres rouges sang On a toujours suivi nos règles les tiennes, tu peux t'les mettre où j'pense Personne n'dirige nos rêves, tu peux dire à cette belle douce France Qu'on n'va pas finir vos restes et supporter de telles souffrances Un saut d'ange dans les flammes pour savoir qu'on a mangé sale Insolents dans les âmes, tu pourras jamais changer ça Big up à ceux sur l'même navire, à tous mes insolents Qui peut contrôler ta vie quand c'est toi qui tiens l'volant ? Le majeur en pôle position, t'apprends à rendre les coups J'pousse pas la fonte, juste ma voix pour en découdre et j'les emmerde à fond Quand tout m'est égal, j'dédie qu'à mes gars, aux mans, aux potes de ma clique Je pète des câbles, ça fait des dégâts, du mal, des chocs traumatiques Et j'veux que le vin efface la poussière, l'insolence tient la porte Le chant des sirènes tire la corde de façon grossière Lassés comme ça, les coups durs, on s'y fait, ça forge, à force Les gens préfèrent te critiquer que d'envoyer d'la force J'crois qu'en une track, on mesure pas tout l'level d'insolence Dès qu't'en serres trois, j'rentre en débat, c'est bien plus passionnant Certains l'oublient, d'autres sans sous-titre n'ont pas appris à penser Ouais, mon sourire, j'le sors pour l'pire et prie la vie d'avancer J'suis pas si p'tite pour témoigner d'leur arrogance Car la limite se pose quand ils s'considèrent comme le sommet Cousin, l'respect est mort y'a bien longtemps loin d'la romance Pour qu'le combat prenne sens, je t'offre une dose d'insolence à consommer Tu vas payer pour ton insolence ridicule</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Cette piste est un interlude musical C'est une instrumentaleYou might also like</t>
+          <t>Cette piste est un interlude musical C'est une instrumentale</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Cette piste est un interlude musical C'est une instrumentaleYou might also like</t>
+          <t>Cette piste est un interlude musical C'est une instrumentale</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Les grandes gueules Le puzzle Demi portion Ecoute ça Le vrai Ben J'ai encore du mal à vivre Savourer l'air d'cette planète On s'habitue vite à cette merde mélangée à la cigarette J'ai encore du mal à vivre Mes souvenirs effacés Les regards plus sévères quand ta mère parle pas l'français J'ai encore du mal à vivre Faire confiance aux vrais amis On apprend vite à s'lever seul et n'plus voir le tatami J'ai encore du mal à vivre Regarder une pute en face qui essaie d'se faire tourner Qu'on dirait une pub en France J'ai encore du mal à vivre Gros c'est trop depuis minot On veut tous réparer seul sans faire appel au mécano A part tomber dans l'panneau, essayer d'gérer sa route Certains ont préféré la fume, d'autres une bouteille au hanout J'ai encore du mal à vivre Et chaque matin on vient m'rappeler Qu'le temps est compté, qu'le chemin on l'finira à pied J'ai encore du mal à vivre Moi aussi j'veux des enfants Comme je saurai donner l'amour, et j'te l'dis en restant franc Y a toujours ce mal de vivre, tu le liras sous mes cernes Comment refermer la plaie quand elle est débordée d'sel Vouloir chercher conseil, les jaloux répondront Vas-y mange le goulot Et tes projets qui ont 100 ans J'ai encore du mal à vivre Endurcir mon édifice Chaque couplet vient cracher à ceux qui souhaitent qu'on s'divise Le combat on l'continuera, en groupe ou tout seul Demi Portion, les Grandes Gueules et le Vrai Ben du Puzzle You might also like J'ai encore du mal à vivre J'ai encore du mal à vivre J'ai encore du mal à vivre J'ai encore du mal à vivre Ma raison est en cavale Mais moi j'respire, c'est d'jà pas mal Mon nom résonne ici tant bien qu'mal Gravé sur un CD, bientôt sur une pierre tombale J'ai pas l'moral mon cousin J'suis pas fait pour la vraie vie, c'est dur mon cousin Se lever tôt le matin, pressé pour rien Faire semblant d'aimer des gens qui font semblant de m'aimer, putain J'ai encore du mal à vivre ma vie A la radio c'matin Alain Souchon m'a dit de mettre l'amour à la machine pour retrouver les couleurs connerie J'ai essayé, Rachid, l'amour a rétrécit Des naissances, des décès, des échecs, des succès Ce gâchis c'est la vie, tu sais Saisons automne-hiver bébé Quand j'm'occupe de mes oignons, ça m'donne envie d'pleurer Les énarques et les héritiers entassent les sous Ces gens qui ne comprennent rien décident de tout Les autres regardent la télé, ils deviennent débiles Et les génies incompris finissent à l'asile Même s'ils disent que non, les gens n'ont besoin que d'amour et d'attention Qu'importe la religion, qu'importe leur couleur Les gens sont juste des gens, ils vivent, ensuite ils meurent x2</t>
+          <t>Les grandes gueules Le puzzle Demi portion Ecoute ça Le vrai Ben J'ai encore du mal à vivre Savourer l'air d'cette planète On s'habitue vite à cette merde mélangée à la cigarette J'ai encore du mal à vivre Mes souvenirs effacés Les regards plus sévères quand ta mère parle pas l'français J'ai encore du mal à vivre Faire confiance aux vrais amis On apprend vite à s'lever seul et n'plus voir le tatami J'ai encore du mal à vivre Regarder une pute en face qui essaie d'se faire tourner Qu'on dirait une pub en France J'ai encore du mal à vivre Gros c'est trop depuis minot On veut tous réparer seul sans faire appel au mécano A part tomber dans l'panneau, essayer d'gérer sa route Certains ont préféré la fume, d'autres une bouteille au hanout J'ai encore du mal à vivre Et chaque matin on vient m'rappeler Qu'le temps est compté, qu'le chemin on l'finira à pied J'ai encore du mal à vivre Moi aussi j'veux des enfants Comme je saurai donner l'amour, et j'te l'dis en restant franc Y a toujours ce mal de vivre, tu le liras sous mes cernes Comment refermer la plaie quand elle est débordée d'sel Vouloir chercher conseil, les jaloux répondront Vas-y mange le goulot Et tes projets qui ont 100 ans J'ai encore du mal à vivre Endurcir mon édifice Chaque couplet vient cracher à ceux qui souhaitent qu'on s'divise Le combat on l'continuera, en groupe ou tout seul Demi Portion, les Grandes Gueules et le Vrai Ben du Puzzle J'ai encore du mal à vivre J'ai encore du mal à vivre J'ai encore du mal à vivre J'ai encore du mal à vivre Ma raison est en cavale Mais moi j'respire, c'est d'jà pas mal Mon nom résonne ici tant bien qu'mal Gravé sur un CD, bientôt sur une pierre tombale J'ai pas l'moral mon cousin J'suis pas fait pour la vraie vie, c'est dur mon cousin Se lever tôt le matin, pressé pour rien Faire semblant d'aimer des gens qui font semblant de m'aimer, putain J'ai encore du mal à vivre ma vie A la radio c'matin Alain Souchon m'a dit de mettre l'amour à la machine pour retrouver les couleurs connerie J'ai essayé, Rachid, l'amour a rétrécit Des naissances, des décès, des échecs, des succès Ce gâchis c'est la vie, tu sais Saisons automne-hiver bébé Quand j'm'occupe de mes oignons, ça m'donne envie d'pleurer Les énarques et les héritiers entassent les sous Ces gens qui ne comprennent rien décident de tout Les autres regardent la télé, ils deviennent débiles Et les génies incompris finissent à l'asile Même s'ils disent que non, les gens n'ont besoin que d'amour et d'attention Qu'importe la religion, qu'importe leur couleur Les gens sont juste des gens, ils vivent, ensuite ils meurent x2</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>J'ai pas les mots Hmm j'ai pas les mots Yo J'ai toujours dis c'que j'avais sur le cur Mais jamais tout C'est fou ces infos qui peuvent rester enfouis Dans un si petit corps Petit à petit les pires douleurs deviennent Comme les meilleurs fous rires Difficile à décrire me rend compte que j'ai pas les mots Pourtant ça gratte des textes un jour sur deux Mais même pas capable D'aborder des sujets complexes Taper du poing sur la table J'veux qu'on m'écoute, pas qu'on m'acclame Sera déçu qui m'demande La première fois qu'j'ai vu un cadavre Car j'ai pas les mots Inspirée par le paysage, l'histoire et mes états d'âme On s'est pavané à Paname mais si c'est pas là-bas qu'on est nés Du bord de mer on kiffe aimer, la moue, la nature qui fait mal Montagnes autour, le seul point commun C'est qu'au sommet j'ai pas les mots You might also like Le paradoxe est là Drôle quand t'y penses D'écrire un son qui révèle à tous que le silence était d'or Mais c'est fort en émotion Moi les mots sortent Parait qu'c'est ça le vrai bonheur La déception, l'autocensure ou la pudeur Et quand les mômes font une démo pourrie J'ai pas les mots Quand un je t'aime va avec deux sourires J'ai pas les mots J'ai beau courir après le vocabulaire Taffer des nouveaux thèmes Restent ces images dans ma tête Pour lesquelles je n'ai pas de mots Les cicatrices sur mon visage J'ai pas les mots La première fois au-dessus des nuages J'ai pas les mots J'ai beau m'ouvrir je me mens Trop compliqué à définir simplement Ces sentiments pour lesquels Il n'y a pas de mots J'arrive du sud comme d'habitude Avec l'accent de Brassens Demande à Fabe j'ai l'attitude Depuis le poste cassette J'ai pas les mots et ni la flûte Vu qu'mon silence est un orchestre Mes textes ont fait des nuits blanches Explosés sous un couchette Tous s'embrouille ouais Fanny J'rappe en restant poli J'nique la musique de France Mais j'l'aime toujours dans mon lit J'ai pas les mots s'il te plait Donc cherche pas l'anomalie C'est pas les rappeurs qui puent C'est l'auditeur qui salit J'ai pas les mots smahlia On partira comme Aaliyah On espère se faire oublier un peu comme le groupe Alliage J'ai pas les mots smahlia On partira comme Aaliyah On espère se faire oublier un peu comme le groupe Alliage Envoie la tasse de café Et crame donc la grosse tête Et laisse nous fumer J'ai pas les mots préfère vivre en scred Quand tu t'mens à toi-même Excuse j'ai pas les mots Laisse nous vivre simplement Pardon j'aime pas la mort Un coucher de soleil, une tempête qui s'lève J'ai pas les mots La modernisation des esclaves J'ai pas les mots Tu peux jouer mais pas tricher Très peu j'me suis dévoilée m'man S'être égaré beaucoup de retouches Et quand la bouche trouve pas les mots J'voulais parler d'mes plus belles victoires J'ai pas les mots Remplir des salles mais face au miroir J'ai pas les mots J'voulais qu'on m'aime Comme à l'ancienne être une poète au micro Mais le rap de comique et de mytho 2.0 JPLM x2 Le paradoxe est là Drôle quand t'y penses D'écrire un son qui révèle à tous Que le silence était d'or Mais c'est fort en émotion Moi les mots sortent Parait que c'est ça le vrai bonheur La déception, l'autocensure ou la pudeur J'ai pas les mots</t>
+          <t>J'ai pas les mots Hmm j'ai pas les mots Yo J'ai toujours dis c'que j'avais sur le cur Mais jamais tout C'est fou ces infos qui peuvent rester enfouis Dans un si petit corps Petit à petit les pires douleurs deviennent Comme les meilleurs fous rires Difficile à décrire me rend compte que j'ai pas les mots Pourtant ça gratte des textes un jour sur deux Mais même pas capable D'aborder des sujets complexes Taper du poing sur la table J'veux qu'on m'écoute, pas qu'on m'acclame Sera déçu qui m'demande La première fois qu'j'ai vu un cadavre Car j'ai pas les mots Inspirée par le paysage, l'histoire et mes états d'âme On s'est pavané à Paname mais si c'est pas là-bas qu'on est nés Du bord de mer on kiffe aimer, la moue, la nature qui fait mal Montagnes autour, le seul point commun C'est qu'au sommet j'ai pas les mots Le paradoxe est là Drôle quand t'y penses D'écrire un son qui révèle à tous que le silence était d'or Mais c'est fort en émotion Moi les mots sortent Parait qu'c'est ça le vrai bonheur La déception, l'autocensure ou la pudeur Et quand les mômes font une démo pourrie J'ai pas les mots Quand un je t'aime va avec deux sourires J'ai pas les mots J'ai beau courir après le vocabulaire Taffer des nouveaux thèmes Restent ces images dans ma tête Pour lesquelles je n'ai pas de mots Les cicatrices sur mon visage J'ai pas les mots La première fois au-dessus des nuages J'ai pas les mots J'ai beau m'ouvrir je me mens Trop compliqué à définir simplement Ces sentiments pour lesquels Il n'y a pas de mots J'arrive du sud comme d'habitude Avec l'accent de Brassens Demande à Fabe j'ai l'attitude Depuis le poste cassette J'ai pas les mots et ni la flûte Vu qu'mon silence est un orchestre Mes textes ont fait des nuits blanches Explosés sous un couchette Tous s'embrouille ouais Fanny J'rappe en restant poli J'nique la musique de France Mais j'l'aime toujours dans mon lit J'ai pas les mots s'il te plait Donc cherche pas l'anomalie C'est pas les rappeurs qui puent C'est l'auditeur qui salit J'ai pas les mots smahlia On partira comme Aaliyah On espère se faire oublier un peu comme le groupe Alliage J'ai pas les mots smahlia On partira comme Aaliyah On espère se faire oublier un peu comme le groupe Alliage Envoie la tasse de café Et crame donc la grosse tête Et laisse nous fumer J'ai pas les mots préfère vivre en scred Quand tu t'mens à toi-même Excuse j'ai pas les mots Laisse nous vivre simplement Pardon j'aime pas la mort Un coucher de soleil, une tempête qui s'lève J'ai pas les mots La modernisation des esclaves J'ai pas les mots Tu peux jouer mais pas tricher Très peu j'me suis dévoilée m'man S'être égaré beaucoup de retouches Et quand la bouche trouve pas les mots J'voulais parler d'mes plus belles victoires J'ai pas les mots Remplir des salles mais face au miroir J'ai pas les mots J'voulais qu'on m'aime Comme à l'ancienne être une poète au micro Mais le rap de comique et de mytho 2.0 JPLM x2 Le paradoxe est là Drôle quand t'y penses D'écrire un son qui révèle à tous Que le silence était d'or Mais c'est fort en émotion Moi les mots sortent Parait que c'est ça le vrai bonheur La déception, l'autocensure ou la pudeur J'ai pas les mots</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place J'irai visiter le monde et là, je crois que c'est le cas de le dire, hein J'ai scellé mon cadenas sur l'Accademia à Venise Une rose à la main, j'arrose mon annif' à Rovinj Non, je n'attends pas la fin, je vais me noyer à l'eau d'vie Me plonger dans les décors de la Polynésie française Moi, j'ai plaidé la cause de l'harmonie existentielle Mes mots sont des croquis, les hiéroglyphes de l'Égypte ancienne Du bonheur céleste à l'agonie des villes entières J'ai visité les étoiles, j'ai atterri au plat pays A méditer plus de trois décennies dans le bois de l'abbaye Des écrits calligraphiques gravés à l'encre de Chine hein Et la flamme se ravive quand j'entends chanter le chilien Comme cet enfant polyglotte se rappelant qu'il vient de si loin J'ai la foi de Don Chisciotte qui rappe avec l'accent sicilien De la mode de Philipp Plein aux marmots philippins À la conquête de la galaxie comme les astrophysiciens You might also like J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place J'irai visiter le monde avec toi ou sans famille J'irai, oui, parler aux mômes avant qu'ils croisent la zizanie J'ai du mal à vous l'dire mais j'laisserai cracher la plume À quoi bon vivre au soleil quand on a la tête dans la brume ? Donc j'arrive à mille à l'heure, j'veux qu'on traverse les frontières Excuse-moi, je m'appelle Demi car j'te laisse une part entière Non, j'ai pas un cur de pierre car le porter, c'est trop lourd J'pense l'avoir déjà jeté contre un système qui m'fout les boules J'ai faim entouré de mies et pris soin de ma valise La nouvelle vie n'est pas un rêve, d'autres l'ont eu en Australie J'irai visiter le monde parce que Tony n'est même pas là Non, ceci n'est pas un film, je sais qu'le monde est à moi Il est à toi et tu le sais donc C'est à nous dirait Laurent Car l'humain né un déchet à la fois un déodorant Donc c'est bon, je m'arrête là, te donne ma force pour demain J'irai vivre en théorie car en théorie, tout s'passe bien J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place J'irai visiter le monde, visiter la terre de mes ancêtres Vivre ma vie en parallèle du Capricorne au Cancer Observer le soleil, le sable sous la sandale Bah ouais, j'ferai l'tour du globe même s'il m'reste cent balles Visiter ces endroits qui laissent peu d'gens indifférents Et si j'ai pas trouvé ma place, il est temps que j'quitte les rangs Et vu que la vérité dérange, tout le monde prétend se sentir bien à la maison Alors que rien n'change, pas même les saisons Et tu sais, pour en construire, il faut bien couper les ponts Je t'assure que quand j'lui parle parfois, le ciel me répond Des kilomètres à rêver, ça use, ça use les souliers On se sépare mais on laissera ce joli destin nous lier J'ai grandi et j'avoue qu'au bout d'un moment la té-ci m'saoule Mon âme entre la mer du nord et le sable de En vrai, où que j'aille, c'est mon cur que je découvrirai C'est mon for intérieur que j'irai visiter J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place</t>
+          <t>J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place J'irai visiter le monde et là, je crois que c'est le cas de le dire, hein J'ai scellé mon cadenas sur l'Accademia à Venise Une rose à la main, j'arrose mon annif' à Rovinj Non, je n'attends pas la fin, je vais me noyer à l'eau d'vie Me plonger dans les décors de la Polynésie française Moi, j'ai plaidé la cause de l'harmonie existentielle Mes mots sont des croquis, les hiéroglyphes de l'Égypte ancienne Du bonheur céleste à l'agonie des villes entières J'ai visité les étoiles, j'ai atterri au plat pays A méditer plus de trois décennies dans le bois de l'abbaye Des écrits calligraphiques gravés à l'encre de Chine hein Et la flamme se ravive quand j'entends chanter le chilien Comme cet enfant polyglotte se rappelant qu'il vient de si loin J'ai la foi de Don Chisciotte qui rappe avec l'accent sicilien De la mode de Philipp Plein aux marmots philippins À la conquête de la galaxie comme les astrophysiciens J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place J'irai visiter le monde avec toi ou sans famille J'irai, oui, parler aux mômes avant qu'ils croisent la zizanie J'ai du mal à vous l'dire mais j'laisserai cracher la plume À quoi bon vivre au soleil quand on a la tête dans la brume ? Donc j'arrive à mille à l'heure, j'veux qu'on traverse les frontières Excuse-moi, je m'appelle Demi car j'te laisse une part entière Non, j'ai pas un cur de pierre car le porter, c'est trop lourd J'pense l'avoir déjà jeté contre un système qui m'fout les boules J'ai faim entouré de mies et pris soin de ma valise La nouvelle vie n'est pas un rêve, d'autres l'ont eu en Australie J'irai visiter le monde parce que Tony n'est même pas là Non, ceci n'est pas un film, je sais qu'le monde est à moi Il est à toi et tu le sais donc C'est à nous dirait Laurent Car l'humain né un déchet à la fois un déodorant Donc c'est bon, je m'arrête là, te donne ma force pour demain J'irai vivre en théorie car en théorie, tout s'passe bien J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place J'irai visiter le monde, visiter la terre de mes ancêtres Vivre ma vie en parallèle du Capricorne au Cancer Observer le soleil, le sable sous la sandale Bah ouais, j'ferai l'tour du globe même s'il m'reste cent balles Visiter ces endroits qui laissent peu d'gens indifférents Et si j'ai pas trouvé ma place, il est temps que j'quitte les rangs Et vu que la vérité dérange, tout le monde prétend se sentir bien à la maison Alors que rien n'change, pas même les saisons Et tu sais, pour en construire, il faut bien couper les ponts Je t'assure que quand j'lui parle parfois, le ciel me répond Des kilomètres à rêver, ça use, ça use les souliers On se sépare mais on laissera ce joli destin nous lier J'ai grandi et j'avoue qu'au bout d'un moment la té-ci m'saoule Mon âme entre la mer du nord et le sable de En vrai, où que j'aille, c'est mon cur que je découvrirai C'est mon for intérieur que j'irai visiter J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Utopie, Demi portion écoute ca ! Dans la foulée j'en ai vu jouer au jeu du foulard J'ai vu mes chevilles enfler juste après leurs fichues foulures Des bêtes crever parce qu'une pute voulait leur fourrure Des hommes lever le poing acclamant ce putain d'Führer J'ai vu mes rêves fuir et tout ces plaisirs éphémères me rendre flemmard J'me suis même vu agir sur les nerfs Insulter le maire parce que nos murs sont toujours plein de merde De même, j'ai vu des frères se bousiller à l'herbe J'ai vu l'air polluée, des plages noires pleines de pétrole Un pote à 18 piges devenir père et dans le pétrin J'ai vu le ciel bé-ton et le béton me frapper fort J'ai cru toucher Sarko en caillassant les forces de l'ordre J'ai vu la nuit devenir jour, le jour devenir nuit Et l'ennui siffler la mort parce que la mort appelle la vie J'ai vu ta fille tailler des pipes alors où tu pensais qu'elle dort Et ce rappeur quitter son groupe parce qu'il voulait le disque d'or J'ai vu des hommes promettre, des hommes traitres, j'ai vu des hommes putes J'ai vu c'pit bouffer un môme, moi j'te l'dis c'est le maître que j'bute J'ai vu l'amour, le coup de foudre avant un coup d'feu Durant 400 ans j'ai vu le blanc mettre des coups de fouet J'ai vu cette vie crade et cette junky qu'la dépendance habite Qui pour 1 gramme se met à 4 pattes et peut t'sucer la bite J'ai vu l'enfer du haut d'une tour, d'en bas j'ai vu mes torts Voyant la corde, je me suis vu pendu dans le décor J'ai vu ces racistes me faire taire parce qu'ils avaient le flash-ball Et sur tf1, Hey Arnold remplacer Dragon Ball J'ai vu mon époque mourir ou dépasser par une autre Des profs juger des gens sur un putain d'carnet d'note J'ai vu ma haine prendre le contrôle, la raison me contraindre Beaucoup d'embrouilles mais rarement de 1 contre 1 J'ai vu leur contrat et mon pe-ra s'épanouir sans L'argent c'est bien mais, l'objectif c'est d'faire du bon son Je me suis vu bosser, écrire des textes à la chaîne Ressentir le rap comme si c'était ma propre chaire J'ai vu le Hip-Hop partir en couille à cause de leur mc Des sons péter quand ces pd se prennent pour des Messies J'ai vu c'coucher d'soleil j'm'y étais cru me c'n'était qu'une carte postale Et vu des centaines, d'Emilie couchées sur un lit d'hôpital De quoi prendre un pétard et s'sauter la cervelle Quand des gamines en arrivent à s'ouvrir les veines J'ai vu les p'tits d'la tess partir en couille parce qu'y a pas d'vacances Qu'l'ennui rend dingue sur les bancs d'la galère, y'a pas de place vacante Alors on campe dans l'hall, emmerde le voisinage Tristesse sur nos visages, brouillard de béton pour seul paysage J'ai vu cette fille rendre dingue celui qu'j'app'lais mon meilleur pote Peut-être que sa chatte était meilleure que notre époque J'sais pas dans l'fond y'a trop d'questions et sa m'rend barge On est plus qu'trois dis moi où est passée ma bande d'en-bas J'ai vu des trucs et pour les dire il me faut plus d'un couplet Plus d'un son, plus d'un album pour trouver la paix Alors j'ai vu ce qui m'choque et même des choses qui m'échappent Utopie frère j'garde l'écharpe d'Arafat You might also like Ouais c'est par ici qu'ça s'passe, ouvres les yeux regardes un peu Si on voyage en 3ème classe c'est qu'on a pas voulu faire la queue Heureux ? je sais pas trop, j'vie ma vie puis j'constate Sur feuille et face au micro c'est dev'nu du full contact Et s'exprimer y'a rien d'mieux merci a la zik d'nous réunir Merci si tu soutiens, si tu écris pour prévenir Un respect à c'monde à toutes les familles d'immigrés On a trop sali ma couleur qu'elle s'est transformée en tigré Intégré ca fait un bail, ne m'pose plus cette question Et tes vieux clichés d'racaille à la poubelle mon fiston A croire qu'on s'nourri dans la jungle, entassé dans des cabanes Et comme Rocca on fini par manier l'micro comme une sarbacane Tais toi, non ça va pas, j'reviens booster la culture Quand j'te dirais tout va bien c'est quand j'aurais eu ma structure J'ai vu tellement d'choses sales et comme nos mères à la rupture J'ai vu certain appuyer pause et ignorer le bouton lecture Sachant que la vie est un combat on est toujours en kimono Et des couplets tellement francs qu'on ma demandé d'aller mollo J'ai vu qu'il fallait du boulot en période bien agitée J'ai vu Chazal s'énerver quand on était pas dans son JT J'ai vu des trucs trop graves, j'ai vu le manque de suivi J'ai vu l'envieux parler mal et trop d'chacals en civil Est-c'que dans chaque mots tu devine essayes et imagines J'ai vue des p'tits s'exploser avec un esprit trop fragile On sait qui sont nos ennemis mais pas trop sûr des alliés Comme beaucoup veulent qu'on squatte juste nos cages d'escaliers J'perd mon tempérament, ouais man j'vis comme l'animal Et puis l'envie en final, m'a redit l'envieux l'a prit mal Ici j'ai trop pété les plombs, on m'a trop coupé les ponts J'ai vu qu'la France aimait l'handicap mais seulement au téléthon J'ai vu et admettons que ce soit nous qui les condamne Je serais à la place du président en train d'arroser Marie-Jeanne...</t>
+          <t>Utopie, Demi portion écoute ca ! Dans la foulée j'en ai vu jouer au jeu du foulard J'ai vu mes chevilles enfler juste après leurs fichues foulures Des bêtes crever parce qu'une pute voulait leur fourrure Des hommes lever le poing acclamant ce putain d'Führer J'ai vu mes rêves fuir et tout ces plaisirs éphémères me rendre flemmard J'me suis même vu agir sur les nerfs Insulter le maire parce que nos murs sont toujours plein de merde De même, j'ai vu des frères se bousiller à l'herbe J'ai vu l'air polluée, des plages noires pleines de pétrole Un pote à 18 piges devenir père et dans le pétrin J'ai vu le ciel bé-ton et le béton me frapper fort J'ai cru toucher Sarko en caillassant les forces de l'ordre J'ai vu la nuit devenir jour, le jour devenir nuit Et l'ennui siffler la mort parce que la mort appelle la vie J'ai vu ta fille tailler des pipes alors où tu pensais qu'elle dort Et ce rappeur quitter son groupe parce qu'il voulait le disque d'or J'ai vu des hommes promettre, des hommes traitres, j'ai vu des hommes putes J'ai vu c'pit bouffer un môme, moi j'te l'dis c'est le maître que j'bute J'ai vu l'amour, le coup de foudre avant un coup d'feu Durant 400 ans j'ai vu le blanc mettre des coups de fouet J'ai vu cette vie crade et cette junky qu'la dépendance habite Qui pour 1 gramme se met à 4 pattes et peut t'sucer la bite J'ai vu l'enfer du haut d'une tour, d'en bas j'ai vu mes torts Voyant la corde, je me suis vu pendu dans le décor J'ai vu ces racistes me faire taire parce qu'ils avaient le flash-ball Et sur tf1, Hey Arnold remplacer Dragon Ball J'ai vu mon époque mourir ou dépasser par une autre Des profs juger des gens sur un putain d'carnet d'note J'ai vu ma haine prendre le contrôle, la raison me contraindre Beaucoup d'embrouilles mais rarement de 1 contre 1 J'ai vu leur contrat et mon pe-ra s'épanouir sans L'argent c'est bien mais, l'objectif c'est d'faire du bon son Je me suis vu bosser, écrire des textes à la chaîne Ressentir le rap comme si c'était ma propre chaire J'ai vu le Hip-Hop partir en couille à cause de leur mc Des sons péter quand ces pd se prennent pour des Messies J'ai vu c'coucher d'soleil j'm'y étais cru me c'n'était qu'une carte postale Et vu des centaines, d'Emilie couchées sur un lit d'hôpital De quoi prendre un pétard et s'sauter la cervelle Quand des gamines en arrivent à s'ouvrir les veines J'ai vu les p'tits d'la tess partir en couille parce qu'y a pas d'vacances Qu'l'ennui rend dingue sur les bancs d'la galère, y'a pas de place vacante Alors on campe dans l'hall, emmerde le voisinage Tristesse sur nos visages, brouillard de béton pour seul paysage J'ai vu cette fille rendre dingue celui qu'j'app'lais mon meilleur pote Peut-être que sa chatte était meilleure que notre époque J'sais pas dans l'fond y'a trop d'questions et sa m'rend barge On est plus qu'trois dis moi où est passée ma bande d'en-bas J'ai vu des trucs et pour les dire il me faut plus d'un couplet Plus d'un son, plus d'un album pour trouver la paix Alors j'ai vu ce qui m'choque et même des choses qui m'échappent Utopie frère j'garde l'écharpe d'Arafat Ouais c'est par ici qu'ça s'passe, ouvres les yeux regardes un peu Si on voyage en 3ème classe c'est qu'on a pas voulu faire la queue Heureux ? je sais pas trop, j'vie ma vie puis j'constate Sur feuille et face au micro c'est dev'nu du full contact Et s'exprimer y'a rien d'mieux merci a la zik d'nous réunir Merci si tu soutiens, si tu écris pour prévenir Un respect à c'monde à toutes les familles d'immigrés On a trop sali ma couleur qu'elle s'est transformée en tigré Intégré ca fait un bail, ne m'pose plus cette question Et tes vieux clichés d'racaille à la poubelle mon fiston A croire qu'on s'nourri dans la jungle, entassé dans des cabanes Et comme Rocca on fini par manier l'micro comme une sarbacane Tais toi, non ça va pas, j'reviens booster la culture Quand j'te dirais tout va bien c'est quand j'aurais eu ma structure J'ai vu tellement d'choses sales et comme nos mères à la rupture J'ai vu certain appuyer pause et ignorer le bouton lecture Sachant que la vie est un combat on est toujours en kimono Et des couplets tellement francs qu'on ma demandé d'aller mollo J'ai vu qu'il fallait du boulot en période bien agitée J'ai vu Chazal s'énerver quand on était pas dans son JT J'ai vu des trucs trop graves, j'ai vu le manque de suivi J'ai vu l'envieux parler mal et trop d'chacals en civil Est-c'que dans chaque mots tu devine essayes et imagines J'ai vue des p'tits s'exploser avec un esprit trop fragile On sait qui sont nos ennemis mais pas trop sûr des alliés Comme beaucoup veulent qu'on squatte juste nos cages d'escaliers J'perd mon tempérament, ouais man j'vis comme l'animal Et puis l'envie en final, m'a redit l'envieux l'a prit mal Ici j'ai trop pété les plombs, on m'a trop coupé les ponts J'ai vu qu'la France aimait l'handicap mais seulement au téléthon J'ai vu et admettons que ce soit nous qui les condamne Je serais à la place du président en train d'arroser Marie-Jeanne...</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>J'ai vu Ouais J'ai vu des gens me dire, j'ai vu des gens qui dorment T'as vu ce qui n'change pas, t'as vu ce qui s'transforme J'ai vu des uniformes, tapés femmes et des gosses T'as entendu qu'ça tourne jusqu'en Nouvelle-Écosse J'ai passé chaque niveau, mais j'aurai pas d'big boss J'ai toujours cru en nous, malgré les catastrophes J'ai vu des gens sans thunes qui avaient plus de cur Qui avaient du caractère, meilleurs que sur Twitter J'ai vu des dictateurs tenir des citoyens Entouré d'carnivores, et de végétariens J'ai vu des rédacteurs, et puis des détracteurs J'ai vu des gens se taire, et j'ai vu des grandes gueules J'ai vu des papys tu sais, qui n'avaient pas la forme J'ai vu le virus partout, j'ai vu la vache folle J'ai vu les hommes, non, j'ai vu les femmes J'ai vu des gosses, puis j'ai vu le drame J'ai vu les larmes de la Terre remplir l'océan J'ai vu le monde couler avant l'Antarctique avant l'Antarctique, avant l'Antarctique.. Lève le poing, être fort est sur le schéma L'espoir fait vivre, on a pas changé de tactiqueon a pas changé de tactique, pas changé de tactique.. Ouais You might also like J'ai vu la guerre, et ça devient gore On dit qu'le crime paie, et que ça rapporte J'ai vu des portes closes et des enfermés J'ai vu des bonnes personnes et des J'ai vu la technologie nous rendre bêtes J'ai vu qu'on savait mentir, même chez les prêtres J'ai vu la confiance, oui être malhonnête J'ai vu l'amour ramper à des kilomètres J'ai vu la meth, cousin j'ai vu comme toi, han J'ai vu des aveugles qui avaient vu comme moi, han J'ai vu le monde, j'ai fermé les yeux J'ai vu l'amour et j'ai vu les envieux J'ai vu comme toi, partout j'ai vu l'étoile J'ai vu l'étoile qui n'exauçait plus les vux Je peux te dire qu'aujourd'hui je crois en Dieu On peut se dire qu'aujourd'hui c'est mieux à deux deux, deux J'ai vu les larmes de la Terre remplir l'océan J'ai vu le monde couler avant l'Antarctique avant l'Antarctique, avant l'Antarctique.. j'ai vu le monde couler avant l'Antarctique Lève le poing, être fort est sur le schéma L'espoir fait vivre, on a pas changé de tactique on a pas changé de tactique, pas changé de tactique.. on a pas changé de tactique Han, ouais J'ai vu, j'ai vu, j'ai vu On a pas changé de tactique Rachid C'est ça On a pas changé de tactique J'ai vu, j'ai vu, j'ai vu J'ai vu, j'ai vu, j'ai vu J'ai vu, j'ai vu, j'ai vu</t>
+          <t>J'ai vu Ouais J'ai vu des gens me dire, j'ai vu des gens qui dorment T'as vu ce qui n'change pas, t'as vu ce qui s'transforme J'ai vu des uniformes, tapés femmes et des gosses T'as entendu qu'ça tourne jusqu'en Nouvelle-Écosse J'ai passé chaque niveau, mais j'aurai pas d'big boss J'ai toujours cru en nous, malgré les catastrophes J'ai vu des gens sans thunes qui avaient plus de cur Qui avaient du caractère, meilleurs que sur Twitter J'ai vu des dictateurs tenir des citoyens Entouré d'carnivores, et de végétariens J'ai vu des rédacteurs, et puis des détracteurs J'ai vu des gens se taire, et j'ai vu des grandes gueules J'ai vu des papys tu sais, qui n'avaient pas la forme J'ai vu le virus partout, j'ai vu la vache folle J'ai vu les hommes, non, j'ai vu les femmes J'ai vu des gosses, puis j'ai vu le drame J'ai vu les larmes de la Terre remplir l'océan J'ai vu le monde couler avant l'Antarctique avant l'Antarctique, avant l'Antarctique.. Lève le poing, être fort est sur le schéma L'espoir fait vivre, on a pas changé de tactiqueon a pas changé de tactique, pas changé de tactique.. Ouais J'ai vu la guerre, et ça devient gore On dit qu'le crime paie, et que ça rapporte J'ai vu des portes closes et des enfermés J'ai vu des bonnes personnes et des J'ai vu la technologie nous rendre bêtes J'ai vu qu'on savait mentir, même chez les prêtres J'ai vu la confiance, oui être malhonnête J'ai vu l'amour ramper à des kilomètres J'ai vu la meth, cousin j'ai vu comme toi, han J'ai vu des aveugles qui avaient vu comme moi, han J'ai vu le monde, j'ai fermé les yeux J'ai vu l'amour et j'ai vu les envieux J'ai vu comme toi, partout j'ai vu l'étoile J'ai vu l'étoile qui n'exauçait plus les vux Je peux te dire qu'aujourd'hui je crois en Dieu On peut se dire qu'aujourd'hui c'est mieux à deux deux, deux J'ai vu les larmes de la Terre remplir l'océan J'ai vu le monde couler avant l'Antarctique avant l'Antarctique, avant l'Antarctique.. j'ai vu le monde couler avant l'Antarctique Lève le poing, être fort est sur le schéma L'espoir fait vivre, on a pas changé de tactique on a pas changé de tactique, pas changé de tactique.. on a pas changé de tactique Han, ouais J'ai vu, j'ai vu, j'ai vu On a pas changé de tactique Rachid C'est ça On a pas changé de tactique J'ai vu, j'ai vu, j'ai vu J'ai vu, j'ai vu, j'ai vu J'ai vu, j'ai vu, j'ai vu</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>On a appris à compter mais pas sur les autres... Yo je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire la gueule mais bon fallait faire un choix Je n'ai pas voulu faire d'erreurs mais bon fallait l'faire une fois Je n'ai pas voulu faire juste quoi ? Écrire simplement Je n'ai pas voulu tu sais quoi, n'y vois aucun jugement Je n'ai pas voulu faire de mal, si peu nourri par le bien Je n'ai pas voulu faire scandale vu qu'on m'a dit marche ou crève Je n'ai pas voulu faire de grèves ni victimes involontaires Ni jouer sur les couleurs on est déjà tapis au poker Je n'ai pas voulu faire la guerre, obligé d'être violent Je n'ai pas voulu écrire ça, chantonner c'est trop saoulant Je n'ai pas voulu faire souvent, mec on en revient au même T'façon t'es pas content, un jour où on en revient aux mains Je n'ai pas voulu faire l'gamin, regarde le monde est grand Je n'ai pas voulu vous taper, y compris ceux qui dérangent Je n'ai pas voulu faire la pince, vois qu'partout y'a des crevards Si j'te prêterai mon flow j'passerai le reprendre plus tard Je n'ai pas voulu faire l'bâtard, écrire un tas d'insultes Éviter le placard, une belle maison en Côte d'Azur Je n'ai pas voulu faire comme eux et d'toute façon plaire à qui ? La vie nous tacle mon vieux et sifflera jamais penalty Je n'ai pas voulu faire partie, faire semblant d'faire un match Cousine on fait un feat, bitch j'te fais un smatch Au pire tu m'fais un stick ou de l'autre on t'fait un scratch J'arrive les enfumer, que les MC's placent un patch Je n'ai pas voulu faire scare on l'est déjà mais d'origine Je n'ai pas voulu faire le gars trop agressif Je n'ai pas voulu faire bref ça fait parti du jeu Mais qui te force ? Personne vas-y fais c'que tu peux You might also like Yo je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire peur mais plutôt viser l'cur Oui l'homme n'est que dalle même dans l'apesanteur Je n'ai pas voulu d'acteurs, on est même pas dans l'film Je n'ai pas voulu Seigneur mes anneaux sont fragiles Je suis curieux de savoir ce qui fait de toi un si grand expert Je n'ai pas voulu porter, non y'a pas de ouais gros T'as vu ma dégaine cousin mais les mots pèsent une tonne Je n'ai pas voulu faire mal ni taper l'adversaire Je n'ai pas voulu faire d'rap mais plaisir aux anciens Je n'ai pas voulu faire feu mais cramer des enceintes Je n'ai pas voulu saches-le, Dragon est sorti de Sète J'ai trop voulu faire simple, on m'a dit non c'est trop dur De vous tenir au courant mais sans qu'on s'électrocute J'ai trop voulu faire simple, simple, simple, simple Yo je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? La justice nique sa mère1</t>
+          <t>On a appris à compter mais pas sur les autres... Yo je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire la gueule mais bon fallait faire un choix Je n'ai pas voulu faire d'erreurs mais bon fallait l'faire une fois Je n'ai pas voulu faire juste quoi ? Écrire simplement Je n'ai pas voulu tu sais quoi, n'y vois aucun jugement Je n'ai pas voulu faire de mal, si peu nourri par le bien Je n'ai pas voulu faire scandale vu qu'on m'a dit marche ou crève Je n'ai pas voulu faire de grèves ni victimes involontaires Ni jouer sur les couleurs on est déjà tapis au poker Je n'ai pas voulu faire la guerre, obligé d'être violent Je n'ai pas voulu écrire ça, chantonner c'est trop saoulant Je n'ai pas voulu faire souvent, mec on en revient au même T'façon t'es pas content, un jour où on en revient aux mains Je n'ai pas voulu faire l'gamin, regarde le monde est grand Je n'ai pas voulu vous taper, y compris ceux qui dérangent Je n'ai pas voulu faire la pince, vois qu'partout y'a des crevards Si j'te prêterai mon flow j'passerai le reprendre plus tard Je n'ai pas voulu faire l'bâtard, écrire un tas d'insultes Éviter le placard, une belle maison en Côte d'Azur Je n'ai pas voulu faire comme eux et d'toute façon plaire à qui ? La vie nous tacle mon vieux et sifflera jamais penalty Je n'ai pas voulu faire partie, faire semblant d'faire un match Cousine on fait un feat, bitch j'te fais un smatch Au pire tu m'fais un stick ou de l'autre on t'fait un scratch J'arrive les enfumer, que les MC's placent un patch Je n'ai pas voulu faire scare on l'est déjà mais d'origine Je n'ai pas voulu faire le gars trop agressif Je n'ai pas voulu faire bref ça fait parti du jeu Mais qui te force ? Personne vas-y fais c'que tu peux Yo je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire peur mais plutôt viser l'cur Oui l'homme n'est que dalle même dans l'apesanteur Je n'ai pas voulu d'acteurs, on est même pas dans l'film Je n'ai pas voulu Seigneur mes anneaux sont fragiles Je suis curieux de savoir ce qui fait de toi un si grand expert Je n'ai pas voulu porter, non y'a pas de ouais gros T'as vu ma dégaine cousin mais les mots pèsent une tonne Je n'ai pas voulu faire mal ni taper l'adversaire Je n'ai pas voulu faire d'rap mais plaisir aux anciens Je n'ai pas voulu faire feu mais cramer des enceintes Je n'ai pas voulu saches-le, Dragon est sorti de Sète J'ai trop voulu faire simple, on m'a dit non c'est trop dur De vous tenir au courant mais sans qu'on s'électrocute J'ai trop voulu faire simple, simple, simple, simple Yo je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? La justice nique sa mère1</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Je n'avais jamais Ote mon chapeau Devant personne Maintenant je rampe et je fait le beau Quand elle me Sonne J'étais chien méchant, elle me fait pesebre Dans sa menotte J'avais des dents d'loup, je les ai changees Pour des quenottes Je m'suis fait tout p'tit devant une poupée Qui ferme les yeux quand en la couche Je m'suis fait tout p'tit devant une poupée Qui fait maman quand en la touche J'était durante à cuire, elle m'a converti La fine mouche Et je suis tout tombé chaud, tout rôti You might also likeContre sa bouche Qui a des dents de lait quand elle sourit Quand elle chante Et des dents de loup quand elle est Furie Qu'elle est méchante Je subis sa loi, je archivo tout doux Sous hijo imperio Bien qu'elle soit jalouse au-delà de tout Et même pire Une jolie pervenche qui m'avait paru Plus jolie qu'elle Une jolie pervenche un jour en mourut Un golpe de ombrelle</t>
+          <t>Je n'avais jamais Ote mon chapeau Devant personne Maintenant je rampe et je fait le beau Quand elle me Sonne J'étais chien méchant, elle me fait pesebre Dans sa menotte J'avais des dents d'loup, je les ai changees Pour des quenottes Je m'suis fait tout p'tit devant une poupée Qui ferme les yeux quand en la couche Je m'suis fait tout p'tit devant une poupée Qui fait maman quand en la touche J'était durante à cuire, elle m'a converti La fine mouche Et je suis tout tombé chaud, tout rôti Contre sa bouche Qui a des dents de lait quand elle sourit Quand elle chante Et des dents de loup quand elle est Furie Qu'elle est méchante Je subis sa loi, je archivo tout doux Sous hijo imperio Bien qu'elle soit jalouse au-delà de tout Et même pire Une jolie pervenche qui m'avait paru Plus jolie qu'elle Une jolie pervenche un jour en mourut Un golpe de ombrelle</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>J'ai ici quelques poèmes des temps futurs Les anciens ont écrit de fort belles choses évidemment Mais les poètes de demain devrait vous exalter d'avantage Aimez vous? Partir le plus loin revenir le plus vite Tu sais d'ou l'on vient j't'en prie imagine J't'assure ça va bien repose toi tranquille Repose toi un peux t'as plus trop bonne mine Je sais qu'on s'engueule c'est parce qu'on s'uni J'admet quand t'es seul c'est pour mes conneries J'assume que j'm'ennui j'ai plus les épaules Le mal que je récolte que Dieu me pardonne Et si je m'enfui j't'assure j'aurais tord J'me pose des questions s'il te plais répond Même par 4 chemins même par tout les ponts J'bouge pas c'est certain oui j'ai tout le temps Oui mais jusqu'à quand? Oui mais jusqu'à quand? Moi ça ne me dérange pas Le but dans la vie est de consommer à crédit Non tout ça ne me dérange pas Emprunter de l'argent pour acheter des choses dont nous n'avons pas besoin Toi ça te dérange pas? Les générations futures ne nous pardonnerons jamais Alors tout ça ne nous dérange pas Quand elles découvrirons la vérité sur le mode de vie gaspilleur You might also like J'n'avais pas envie de faire comme toi Ça ne me ressembler pas Le soir j'écris en espérant ne pas te voir en pétard J'veux pas renter tard Ne te pose pas d'questions Mais si les fliques viennent un jour ne leurs donnent pas raison Tu m'connais toute façon, j'quitte jamais la maison Mais d'puis des mois t'as pas compris qu'j'étais toujours en mission Évite les comparaison, et dit à papa que'j'bosse Q'on reste en contact surtout qu'on reste en liaison Si t'as besoin d'quoi qu'ce soit tu me fait sonner normal T'inquiète j'ai du forfait et un nouveau portable Ne ferme pas le portail j'ai garé une carcasse Pour aller faire 2, 3 courses et circuler taftaf Vas-y maman le temps passe, j'ai un vote qui m'attend En plus l'autre va arriver et on va parler 30 ans Comme d'hab il comprend pas j'm'occupe de moi tout seul Bon j'y vais gros bisous mais tinquiète pas p'tite sur Oui mais jusqu'à quand? Moi ça ne me dérange pas Je comprend pourquoi c'était très tentant en 1932 Non tout ça ne me dérange pas A l'époque le développement durable n'était pas au centre des préocupations Toi ça te dérange pas? Je ne pense pas qu'on imaginés la planète comme ayant des ressources limitées Alors tout ça ne nous dérange pas On la voyais plutôt comme une source inépuisable Un message pour tous Genre c'est comme si y'avais un gâteau, tu prend une petite part et tu la donne à plein de gens et puis la grosse part c'est quelques personnes qui le partage Rolex Sprinter MedhiZik C'est l'argent mon ennemi, l'argent qui tourne la tête à beaucoup de gens qui fait que t'es prêt à être corrompu à te laisser corrompre, ouais c'est tout ça mes ennemis, les gens qui font du RAP qui finalement ne rendent pas service à nos communautés en donnant une mauvaise image, c'est le journal de 20H, c'est toute la vérité qu'on nous dit pas, c'est tout les gens qui ont des informations et qui veulent pas les donner, c'est les juristes, les juges qui te mettent pas au courant de tout tes droits justice à 5 vitesses et marche arrière1</t>
+          <t>J'ai ici quelques poèmes des temps futurs Les anciens ont écrit de fort belles choses évidemment Mais les poètes de demain devrait vous exalter d'avantage Aimez vous? Partir le plus loin revenir le plus vite Tu sais d'ou l'on vient j't'en prie imagine J't'assure ça va bien repose toi tranquille Repose toi un peux t'as plus trop bonne mine Je sais qu'on s'engueule c'est parce qu'on s'uni J'admet quand t'es seul c'est pour mes conneries J'assume que j'm'ennui j'ai plus les épaules Le mal que je récolte que Dieu me pardonne Et si je m'enfui j't'assure j'aurais tord J'me pose des questions s'il te plais répond Même par 4 chemins même par tout les ponts J'bouge pas c'est certain oui j'ai tout le temps Oui mais jusqu'à quand? Oui mais jusqu'à quand? Moi ça ne me dérange pas Le but dans la vie est de consommer à crédit Non tout ça ne me dérange pas Emprunter de l'argent pour acheter des choses dont nous n'avons pas besoin Toi ça te dérange pas? Les générations futures ne nous pardonnerons jamais Alors tout ça ne nous dérange pas Quand elles découvrirons la vérité sur le mode de vie gaspilleur J'n'avais pas envie de faire comme toi Ça ne me ressembler pas Le soir j'écris en espérant ne pas te voir en pétard J'veux pas renter tard Ne te pose pas d'questions Mais si les fliques viennent un jour ne leurs donnent pas raison Tu m'connais toute façon, j'quitte jamais la maison Mais d'puis des mois t'as pas compris qu'j'étais toujours en mission Évite les comparaison, et dit à papa que'j'bosse Q'on reste en contact surtout qu'on reste en liaison Si t'as besoin d'quoi qu'ce soit tu me fait sonner normal T'inquiète j'ai du forfait et un nouveau portable Ne ferme pas le portail j'ai garé une carcasse Pour aller faire 2, 3 courses et circuler taftaf Vas-y maman le temps passe, j'ai un vote qui m'attend En plus l'autre va arriver et on va parler 30 ans Comme d'hab il comprend pas j'm'occupe de moi tout seul Bon j'y vais gros bisous mais tinquiète pas p'tite sur Oui mais jusqu'à quand? Moi ça ne me dérange pas Je comprend pourquoi c'était très tentant en 1932 Non tout ça ne me dérange pas A l'époque le développement durable n'était pas au centre des préocupations Toi ça te dérange pas? Je ne pense pas qu'on imaginés la planète comme ayant des ressources limitées Alors tout ça ne nous dérange pas On la voyais plutôt comme une source inépuisable Un message pour tous Genre c'est comme si y'avais un gâteau, tu prend une petite part et tu la donne à plein de gens et puis la grosse part c'est quelques personnes qui le partage Rolex Sprinter MedhiZik C'est l'argent mon ennemi, l'argent qui tourne la tête à beaucoup de gens qui fait que t'es prêt à être corrompu à te laisser corrompre, ouais c'est tout ça mes ennemis, les gens qui font du RAP qui finalement ne rendent pas service à nos communautés en donnant une mauvaise image, c'est le journal de 20H, c'est toute la vérité qu'on nous dit pas, c'est tout les gens qui ont des informations et qui veulent pas les donner, c'est les juristes, les juges qui te mettent pas au courant de tout tes droits justice à 5 vitesses et marche arrière1</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Pourquoi on ressent d'la haine alors qu'on voulait Chanel Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Jusqu'ici tout va bien, jusqu'ici tout va bien Jusqu'ici tout va bien, même si on n'va pas Papa maman travaillent dur et l'niveau n'a pas monter Jusqu'ici tout va bien, l'quartier, une boîte à outils On n'y a trouver pleins de vices, facile d'chercher un fautif À trop s'renvoyer la balle, racketter mieux qu'au tennis Combien de fois j'ai entendu arrêtez jappelle la police ? Jusqu'ici tout va bien jusqu'à XXX Arrête de faire le gangter et recollectionne tes pins Jusqu'ici tout va bien mais il s'rait temps qu'on s'extirpe J'ai voulu faire un tête-tête mais ils m'ont ramené seize types On s'estime, se divise, toute ces pensées que l'on garde J'ai pas suivi ta magie, comment cacher une carte à table Jusqu'ici tout est stable mais quand t'as rien c'est pas simple D'autres on fini pendu mais pas celui du dessin J'ai pas les mots, je m'excuse et c'est pas un jeu non plus A vaner Paris Hilton nous aussi on a pas d'cul You might also like Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Pourquoi on ressent d'la haine alors qu'on voulait Chanel Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Jusqu'ici tout va bien, jusqu'ici tout va bien Vas-y viens faire un tour chez moi, tu verras que c'est partout pareil Harra faudra bouger plutôt d'manger la gamelle Les gamins ont mille barrettes, c'est mieux qu'l'ANPE Personne a choisit cette vie, qui va refuser mille E ? Attention à c'que t'écris, les petits t'écoutent mon frère Pour eux l'terrain est si petit mais pas l'casier judiciaire Danger, le moteur serre, wesh cousin c'est normal Les potos rentrent en prison et toutes les balances dorment mal Jusqu'ici tout va bien, on s'en remet un moment Vu qu'la joie est une sale drogue et qu'souvent on ressent le manque Elle est dérivée d'la coke, taper dans la drogue dure Non, y'a pas qu'les hôtels qui s'rapprochent près du mercure Vida loca, chiens de la casse, sale comme un mitard De l'île de Thau à La Deveze en passant par la paillade On rêve de jolies voyages et d'mettre bien la mama Frère tu n'as rien d'une bête, juste en portant un pull puma Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Pourquoi on ressent d'la haine alors qu'on voulait Chanel Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Jusqu'ici tout va bien, jusqu'ici tout va bien4</t>
+          <t>Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Pourquoi on ressent d'la haine alors qu'on voulait Chanel Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Jusqu'ici tout va bien, jusqu'ici tout va bien Jusqu'ici tout va bien, même si on n'va pas Papa maman travaillent dur et l'niveau n'a pas monter Jusqu'ici tout va bien, l'quartier, une boîte à outils On n'y a trouver pleins de vices, facile d'chercher un fautif À trop s'renvoyer la balle, racketter mieux qu'au tennis Combien de fois j'ai entendu arrêtez jappelle la police ? Jusqu'ici tout va bien jusqu'à XXX Arrête de faire le gangter et recollectionne tes pins Jusqu'ici tout va bien mais il s'rait temps qu'on s'extirpe J'ai voulu faire un tête-tête mais ils m'ont ramené seize types On s'estime, se divise, toute ces pensées que l'on garde J'ai pas suivi ta magie, comment cacher une carte à table Jusqu'ici tout est stable mais quand t'as rien c'est pas simple D'autres on fini pendu mais pas celui du dessin J'ai pas les mots, je m'excuse et c'est pas un jeu non plus A vaner Paris Hilton nous aussi on a pas d'cul Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Pourquoi on ressent d'la haine alors qu'on voulait Chanel Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Jusqu'ici tout va bien, jusqu'ici tout va bien Vas-y viens faire un tour chez moi, tu verras que c'est partout pareil Harra faudra bouger plutôt d'manger la gamelle Les gamins ont mille barrettes, c'est mieux qu'l'ANPE Personne a choisit cette vie, qui va refuser mille E ? Attention à c'que t'écris, les petits t'écoutent mon frère Pour eux l'terrain est si petit mais pas l'casier judiciaire Danger, le moteur serre, wesh cousin c'est normal Les potos rentrent en prison et toutes les balances dorment mal Jusqu'ici tout va bien, on s'en remet un moment Vu qu'la joie est une sale drogue et qu'souvent on ressent le manque Elle est dérivée d'la coke, taper dans la drogue dure Non, y'a pas qu'les hôtels qui s'rapprochent près du mercure Vida loca, chiens de la casse, sale comme un mitard De l'île de Thau à La Deveze en passant par la paillade On rêve de jolies voyages et d'mettre bien la mama Frère tu n'as rien d'une bête, juste en portant un pull puma Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Pourquoi on ressent d'la haine alors qu'on voulait Chanel Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Jusqu'ici tout va bien, jusqu'ici tout va bien4</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Hip-hop est mon style, chaud pour un nouveau titre Deuxième album, c'est sûr j'vais pas changer d'public Sorti d'sa coquille, et toutes ces villes à conquir Merci, grâce à vous tous, j'ai eu l'envie d'accomplir Griffonner ma copie, mais est-ce donc ça nos vies ? Non Y'a pas de ronds qui rentrent ou trafiquer le pilon Ma chambre est un coffee, obligatoire Et le soir ça s'transforme en micro-fougatoire Bref, j'invente des mots, et si tu fais gaffe Ce plouc sur Facebook fait des fautes d'orthographe Dis, tu veux du taf ? Va faire la pute en t'grillant Quoiqu'une pute se respecte, elle parle bien au client T'as fini d'sortir tes vannes ? Nan, j'ai pas d'concurrent Des histoires, ma fable Le Son, la Brute, le Truand L'inspi' mon carburant, sans t'parler des poumons Parano c'est ça ? Non, pas pote avec tout l'monde Bienvenue à Rash'land, amusez-vous bien Ils appellent Swag c'que j'appelle Timberland Grosse rigolade, on m'a dit t'habites à Paname ? Non, je suis de Sète, dis-moi t'as pas entendu l'alarme ? J'en ai fait des titres et des sacrés kilomètres Défendre tous mes disques et devoir chanter mes textes C'est ma plus grande réussite, c'est tout c'que j'sais faire Malgré tous mes défauts et quelques pas de travers Les mauvais choix qu'on traverse, qui nous poussent à la déprime Les gens s'esquivent, se parlent peu, ont le kit mains-libres Dis-nous ce qui t'fait rire, dis-nous ce qui t'fait vivre Dis-nous où est l'ferry, où est passé l'navire ? Montre-nous le capitaine qu'on change de direction Qu'on change de cap, qu'il fasse une exception Qu'il signe une dérogation, qu'on ne prenne pas l'même chemin Qu'on se mêle plus les pinceaux, qu'on échange nos dessins C'est simple, et c'est tout c'qu'on veut voir J'te laisse entre les mains mon disque et ses histoires Les Histoires... Les Histoires...You might also like</t>
+          <t>Hip-hop est mon style, chaud pour un nouveau titre Deuxième album, c'est sûr j'vais pas changer d'public Sorti d'sa coquille, et toutes ces villes à conquir Merci, grâce à vous tous, j'ai eu l'envie d'accomplir Griffonner ma copie, mais est-ce donc ça nos vies ? Non Y'a pas de ronds qui rentrent ou trafiquer le pilon Ma chambre est un coffee, obligatoire Et le soir ça s'transforme en micro-fougatoire Bref, j'invente des mots, et si tu fais gaffe Ce plouc sur Facebook fait des fautes d'orthographe Dis, tu veux du taf ? Va faire la pute en t'grillant Quoiqu'une pute se respecte, elle parle bien au client T'as fini d'sortir tes vannes ? Nan, j'ai pas d'concurrent Des histoires, ma fable Le Son, la Brute, le Truand L'inspi' mon carburant, sans t'parler des poumons Parano c'est ça ? Non, pas pote avec tout l'monde Bienvenue à Rash'land, amusez-vous bien Ils appellent Swag c'que j'appelle Timberland Grosse rigolade, on m'a dit t'habites à Paname ? Non, je suis de Sète, dis-moi t'as pas entendu l'alarme ? J'en ai fait des titres et des sacrés kilomètres Défendre tous mes disques et devoir chanter mes textes C'est ma plus grande réussite, c'est tout c'que j'sais faire Malgré tous mes défauts et quelques pas de travers Les mauvais choix qu'on traverse, qui nous poussent à la déprime Les gens s'esquivent, se parlent peu, ont le kit mains-libres Dis-nous ce qui t'fait rire, dis-nous ce qui t'fait vivre Dis-nous où est l'ferry, où est passé l'navire ? Montre-nous le capitaine qu'on change de direction Qu'on change de cap, qu'il fasse une exception Qu'il signe une dérogation, qu'on ne prenne pas l'même chemin Qu'on se mêle plus les pinceaux, qu'on échange nos dessins C'est simple, et c'est tout c'qu'on veut voir J'te laisse entre les mains mon disque et ses histoires Les Histoires... Les Histoires...</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Han, de l'ancienne génération, jusqu'à aujourd'hui Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore, ça r'met tout l'monde d'accord Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore Dégage-toi, j'ai pas le choix de garder les mêmes valeurs Dépêche-toi, je m'active car mon passé arrive à l'heure Sur un beat, on m'accable, dans un rap, pousse la ? Mal en vivant, t'es présent, tes relèves, toute saveur Un mic et c'est l'décollage, l'équipe sont à mon image T.H dans l'p'tit collage à ceux qui me donnent du courage Un stylo et je fais des dommages, et je fais des dommages Je rentre dans la cabine comme si j'allais faire un cambriolage Et ça fait hip-hop-pop-pop-pop, ouais, hip-pop-pop-pop J'ai grandi avec ces notes et l'envie de cramer l'anti-pop Et ça fait hip-hop-pop-pop-pop, hip-pop-pop-pop Encore un son de malade, laisse-moi trouver l'antidote Oyo, fais-nous plaisir, lève la main On s'améliore et c'est la même, passionnés depuis gamins On réunira les b-boys autour d'un cercle en flammes Trouver le réconfort, un peu comme les bras d'une femme Ma voix se pose à l'aise, un joint l'été à l'ouest Un vrai thème, une voyelle, un wow, wallah-wallem Y a des fous et des malins, des vagues et c'est marin Un ami en guise de bouée, en vrai ça m'sert à rien On s'donne au maximum, on taffe à chaque album On ne mâche pas nos mots, vu qu'on ne pense qu'à envoyer la gomme J'suis le coup d'boule de Zidane, pas le plouc de Washington Paraît qu'la maison est blanche mais sale vu les symptômes On dégage toutes les barrières, debout tel un warrior Écoute, pas d'marche arrière, on avance et alors On a l'flow, c'est normal, on t'invitera dans le stade Dédicace à nos anciens qui ont l'doigt sur l'amstrad? Oyo, aux graffeurs et breakeurs Oyo Aux rappeurs et DJs Oyo Beatmakers, beatboxers You might also like Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore, ça r'met tout l'monde d'accord Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore, ça r'met tout l'monde d'accord Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore</t>
+          <t>Han, de l'ancienne génération, jusqu'à aujourd'hui Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore, ça r'met tout l'monde d'accord Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore Dégage-toi, j'ai pas le choix de garder les mêmes valeurs Dépêche-toi, je m'active car mon passé arrive à l'heure Sur un beat, on m'accable, dans un rap, pousse la ? Mal en vivant, t'es présent, tes relèves, toute saveur Un mic et c'est l'décollage, l'équipe sont à mon image T.H dans l'p'tit collage à ceux qui me donnent du courage Un stylo et je fais des dommages, et je fais des dommages Je rentre dans la cabine comme si j'allais faire un cambriolage Et ça fait hip-hop-pop-pop-pop, ouais, hip-pop-pop-pop J'ai grandi avec ces notes et l'envie de cramer l'anti-pop Et ça fait hip-hop-pop-pop-pop, hip-pop-pop-pop Encore un son de malade, laisse-moi trouver l'antidote Oyo, fais-nous plaisir, lève la main On s'améliore et c'est la même, passionnés depuis gamins On réunira les b-boys autour d'un cercle en flammes Trouver le réconfort, un peu comme les bras d'une femme Ma voix se pose à l'aise, un joint l'été à l'ouest Un vrai thème, une voyelle, un wow, wallah-wallem Y a des fous et des malins, des vagues et c'est marin Un ami en guise de bouée, en vrai ça m'sert à rien On s'donne au maximum, on taffe à chaque album On ne mâche pas nos mots, vu qu'on ne pense qu'à envoyer la gomme J'suis le coup d'boule de Zidane, pas le plouc de Washington Paraît qu'la maison est blanche mais sale vu les symptômes On dégage toutes les barrières, debout tel un warrior Écoute, pas d'marche arrière, on avance et alors On a l'flow, c'est normal, on t'invitera dans le stade Dédicace à nos anciens qui ont l'doigt sur l'amstrad? Oyo, aux graffeurs et breakeurs Oyo Aux rappeurs et DJs Oyo Beatmakers, beatboxers Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore, ça r'met tout l'monde d'accord Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore, ça r'met tout l'monde d'accord Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Eh ben voilà, j'crois qu'une fois d'plus, Brassens avait raison Quand il a choisi cette ville pour y fonder sa dernière maison J'n'ai passsé qu'deux jours à Sète, moi et ma peau blème Et sans problème, j'peux vous affirmer qu'cette ville est un poème J'ai respiré l'air marin, senti l'odeur des coquillages J'ai vu qu'y avait une lumière jaune dans chacun d'ses paysages Et puis j'ai rencontré des gens qui avaient trois trucs importants Le sourire, l'air sincère, et surtout ils avaient du temps On a mangé sur le port, une table au bord du paradis Un des meilleurs restos du coin, on a tardé, on a gole-ri À cette table on était quatre mais on a mangé comme dix Pour l'même repas à Paris, on aurait dû emprunter chez Cofidis J'aime la région parisienne mais on y vit dans la démesure Ce jour-là, à cette table, on s'est dit qu'on en ferait trois fois seize mesures Car en face de moi, y avait c'rappeur de Sète qui tenait l'addition Ça a donné un beau moment et puis c'feat avec Demi Portion On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction C'était en août, comme d'hab, à saluer le Soleil Ce qui est sympa de chez moi, t'y fais le tour en Solex J'reçois l'appel de JR, d'une invitation concert C'est l'occasion de voir Fabien et d'se rencontrer à Sète Rien de mieux que de parler autour d'une très belle assiette On a pas vu le temps passer, ça aurait pu durer un siècle Parler de vraies valeurs, je sais, se reconnaître soi-même On a passé deux jours ensembles, on aurait dit une semaine Au sommaire, un chant, sourire et quelques photo à faire Si tu viens faire un tour chez moi, j'te montrerai aussi la mer De Paris à Sète, yeah, y a pas qu'les saisons qui changent On y recherche un peu de calme même si ça paraît étrange J'aime ma petite ville de Sète, c'est pas New York non plus À cette table on s'demandait la dernière fois qu'il a plu Et puis en face de moi cet homme qui se tenait à ma table Ça a donné ce beau partage avec Grand Corps Malade You might also like On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction Bon, Rachid, tu prends l'train à Sète, j'viens t'chercher à Gare de Lyon C'est l'match retour Mais cette fois c'est à moi d'payer, mais... à Paris c'est pas la même mon pote Si j'veux t'payer comme tu m'as sorti, là, homard, langoustines, coquillages... J'vais y laisser ma veste, mon frère, ça va être très très très cher Ah, sinon, viens on va chez moi directement, j'te fais un Deliveroo Ou alors j't'emmène, y a un MacDo à Jaurès Ah, vas-y s'te plaît On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction</t>
+          <t>Eh ben voilà, j'crois qu'une fois d'plus, Brassens avait raison Quand il a choisi cette ville pour y fonder sa dernière maison J'n'ai passsé qu'deux jours à Sète, moi et ma peau blème Et sans problème, j'peux vous affirmer qu'cette ville est un poème J'ai respiré l'air marin, senti l'odeur des coquillages J'ai vu qu'y avait une lumière jaune dans chacun d'ses paysages Et puis j'ai rencontré des gens qui avaient trois trucs importants Le sourire, l'air sincère, et surtout ils avaient du temps On a mangé sur le port, une table au bord du paradis Un des meilleurs restos du coin, on a tardé, on a gole-ri À cette table on était quatre mais on a mangé comme dix Pour l'même repas à Paris, on aurait dû emprunter chez Cofidis J'aime la région parisienne mais on y vit dans la démesure Ce jour-là, à cette table, on s'est dit qu'on en ferait trois fois seize mesures Car en face de moi, y avait c'rappeur de Sète qui tenait l'addition Ça a donné un beau moment et puis c'feat avec Demi Portion On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction C'était en août, comme d'hab, à saluer le Soleil Ce qui est sympa de chez moi, t'y fais le tour en Solex J'reçois l'appel de JR, d'une invitation concert C'est l'occasion de voir Fabien et d'se rencontrer à Sète Rien de mieux que de parler autour d'une très belle assiette On a pas vu le temps passer, ça aurait pu durer un siècle Parler de vraies valeurs, je sais, se reconnaître soi-même On a passé deux jours ensembles, on aurait dit une semaine Au sommaire, un chant, sourire et quelques photo à faire Si tu viens faire un tour chez moi, j'te montrerai aussi la mer De Paris à Sète, yeah, y a pas qu'les saisons qui changent On y recherche un peu de calme même si ça paraît étrange J'aime ma petite ville de Sète, c'est pas New York non plus À cette table on s'demandait la dernière fois qu'il a plu Et puis en face de moi cet homme qui se tenait à ma table Ça a donné ce beau partage avec Grand Corps Malade On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction Bon, Rachid, tu prends l'train à Sète, j'viens t'chercher à Gare de Lyon C'est l'match retour Mais cette fois c'est à moi d'payer, mais... à Paris c'est pas la même mon pote Si j'veux t'payer comme tu m'as sorti, là, homard, langoustines, coquillages... J'vais y laisser ma veste, mon frère, ça va être très très très cher Ah, sinon, viens on va chez moi directement, j'te fais un Deliveroo Ou alors j't'emmène, y a un MacDo à Jaurès Ah, vas-y s'te plaît On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>De la qualité à la quantité, des jeunes aux qualifiés De la réussite à la façon d'y arriver Politiquement parlant, de leurs promesses à leur moralité De leurs beaux projets au temps qu'il leur faut pour les trafiquer J'pèse mes mots de la marchandise à l'emballage Du message à faire passer à la mise en page Un monde de décalage de l'original au plagiat Allez-y les gars, faites place au rap irremplaçable La forme est dans le fond à faire de nous des hommes Des êtres hors-normes, des écrivains avec des thèmes énormes Se fondre dans la masse sans se confondre avec les autres Qui se battent pour lire la carte quand on détient déjà l'trésor L'Hexaler, pèlerin envahit le réseau Juste le temps d'agir sur le terrain sans trahir la raison Aucune remise en question sans réponse La forme est dans l'fond dont s'font les choses Des causes aux conséquences, des faux aux compétents Pas qu'au micro se sont trompés complètement Depuis l'époque où mon son s'est fondé concrètement La forme est dans le fond dès qu'on reconnait la reconnaissance La forme est dans le fond, la forme est dans le fond et non pas l'contraire La forme est dans le fond, la forme est dans le fond et donc j'rappe concret You might also like La forme est dans le fond, on n'vise pas au-dessus de ce qu'on gère Faut qu'on comprenne ce qu'on dit, le matériel est secondaire Simple et précis moi j'écris, j'éclaircis le complexe Je fais ça bien ouais, je me fous de qui dit le contraire A l'heure où tous répètent en chur que tout est confus La silhouette a pris de l'ampleur pour effacer le contenu L'Hexaler fidèle à moi-même face aux corrompus Les liens sont rompus, mec j'avance même si ce monde recule En hommage à la toute puissance qui nous a conçu La nature à l'état pur aiguise les vers au bout d'ma plume Maîtrisant l'espace littéraire où le temps ne se compte plus La vie s'laisse écouter à percer le mystère de l'inconnu Et ouais c'est ça de l'utilité au nécessaire Du néant à ce qui n'va jamais cesser Des discours travestis à l'expression irrépressible C'est pour qui sait que l'estime ne se gagne pas par l'esthétique La forme est dans le fond, la forme est dans le fond et non pas l'contraire La forme est dans le fond, la forme est dans le fond et donc j'rappe concret La forme est dans le fond et non pas l'contraire Les frères sont dans le son et ne veulent plus s'taire T'as vu l'thème est complet, toute l'équipe l'envie d'faire Trop souvent l'envie d'fuir sans pour autant changer d'scène Chaque signe sert à ça, aucune cible au hasard J'ai tellement peur du monde, l'impression d'être un Massaï Artisan d'une bataille, écrivain hors-concours La forme est dans le fond ou dans l'prochain tour Le son tourne, laissons l'rap surtout quand ça touche grave Bousculer ta cervelle à l'endroit où ça n'bouge pas Ne m'touche pas, tais-toi, arrête, vas-y qu'on en parle La musique c'est bien connu on en perd plus qu'on en gagne Banal et c'est comme ça, à chacun ces consignes Depuis que la musique abrite en moi la meilleure voisine Une feuille et c'est magique non on ne s'invente pas une vie A nos enfants d'la patrie, le jour de gloire est gratuit La forme est dans le fond, la forme est dans le fond et non pas l'contraire La forme est dans le fond, la forme est dans le fond et donc j'rappe concret Alors t'es vraiment au courant de rien ? On peut pas tous être immortels, où est-ce qu'on mettrait tout c'monde ? A quoi servent les ondes temporelles ? Pourquoi tu crois que les taxes et les prix augmentent toujours en même temps dans les ghettos ? Le coût de la vie continue d'augmenter pour que les gens continuent d'mourir. C'est pour quoi certains ont des millions d'années pendant que d'autres survivent au jour le jour</t>
+          <t>De la qualité à la quantité, des jeunes aux qualifiés De la réussite à la façon d'y arriver Politiquement parlant, de leurs promesses à leur moralité De leurs beaux projets au temps qu'il leur faut pour les trafiquer J'pèse mes mots de la marchandise à l'emballage Du message à faire passer à la mise en page Un monde de décalage de l'original au plagiat Allez-y les gars, faites place au rap irremplaçable La forme est dans le fond à faire de nous des hommes Des êtres hors-normes, des écrivains avec des thèmes énormes Se fondre dans la masse sans se confondre avec les autres Qui se battent pour lire la carte quand on détient déjà l'trésor L'Hexaler, pèlerin envahit le réseau Juste le temps d'agir sur le terrain sans trahir la raison Aucune remise en question sans réponse La forme est dans l'fond dont s'font les choses Des causes aux conséquences, des faux aux compétents Pas qu'au micro se sont trompés complètement Depuis l'époque où mon son s'est fondé concrètement La forme est dans le fond dès qu'on reconnait la reconnaissance La forme est dans le fond, la forme est dans le fond et non pas l'contraire La forme est dans le fond, la forme est dans le fond et donc j'rappe concret La forme est dans le fond, on n'vise pas au-dessus de ce qu'on gère Faut qu'on comprenne ce qu'on dit, le matériel est secondaire Simple et précis moi j'écris, j'éclaircis le complexe Je fais ça bien ouais, je me fous de qui dit le contraire A l'heure où tous répètent en chur que tout est confus La silhouette a pris de l'ampleur pour effacer le contenu L'Hexaler fidèle à moi-même face aux corrompus Les liens sont rompus, mec j'avance même si ce monde recule En hommage à la toute puissance qui nous a conçu La nature à l'état pur aiguise les vers au bout d'ma plume Maîtrisant l'espace littéraire où le temps ne se compte plus La vie s'laisse écouter à percer le mystère de l'inconnu Et ouais c'est ça de l'utilité au nécessaire Du néant à ce qui n'va jamais cesser Des discours travestis à l'expression irrépressible C'est pour qui sait que l'estime ne se gagne pas par l'esthétique La forme est dans le fond, la forme est dans le fond et non pas l'contraire La forme est dans le fond, la forme est dans le fond et donc j'rappe concret La forme est dans le fond et non pas l'contraire Les frères sont dans le son et ne veulent plus s'taire T'as vu l'thème est complet, toute l'équipe l'envie d'faire Trop souvent l'envie d'fuir sans pour autant changer d'scène Chaque signe sert à ça, aucune cible au hasard J'ai tellement peur du monde, l'impression d'être un Massaï Artisan d'une bataille, écrivain hors-concours La forme est dans le fond ou dans l'prochain tour Le son tourne, laissons l'rap surtout quand ça touche grave Bousculer ta cervelle à l'endroit où ça n'bouge pas Ne m'touche pas, tais-toi, arrête, vas-y qu'on en parle La musique c'est bien connu on en perd plus qu'on en gagne Banal et c'est comme ça, à chacun ces consignes Depuis que la musique abrite en moi la meilleure voisine Une feuille et c'est magique non on ne s'invente pas une vie A nos enfants d'la patrie, le jour de gloire est gratuit La forme est dans le fond, la forme est dans le fond et non pas l'contraire La forme est dans le fond, la forme est dans le fond et donc j'rappe concret Alors t'es vraiment au courant de rien ? On peut pas tous être immortels, où est-ce qu'on mettrait tout c'monde ? A quoi servent les ondes temporelles ? Pourquoi tu crois que les taxes et les prix augmentent toujours en même temps dans les ghettos ? Le coût de la vie continue d'augmenter pour que les gens continuent d'mourir. C'est pour quoi certains ont des millions d'années pendant que d'autres survivent au jour le jour</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ouverture d'esprit Mais pas d'une fracture du crâne R.A.C.H.I.D Il fallait bousiller nos mic' donc on m'a vite appelé Il fallait trouver l'ouverture mais ça ma paie a gueulé Je vise le but comme d'hab mais t'as le ballon doré Au début nos polos deviennent durs mais si t'es mal entouré La génération d'aujourd'hui n'a plus les mêmes acomptes Et les soirées deviennent folles le nez dans la coke Il faut qu'on s'installe, ignorer le style On s'occupe de tout, y'a Rolex aux platines Vive l'indépendance on ne veut pas d'vos chaînes et ni Se rapprocher un peu de ce qui coûte trop cher Tu veux une flamme, des flammes mais tu brûles en fait Tu veux une femme, des femmes mais t'es gay quand même Non pas de baston ni le bruit des bastos Combien d'entres nous en vrai sont partis gratos ? Trouver l'équilibre ici n'est pas devenu fastoche J'ai voulu refaire le monde mais j'ai pas le bon matos Mais où va le monde ? Mais où va le monde ? J'ai l'impression de tourner en rond, de perdre du temps Perdre du temps mais où va le monde ? Mais où va le monde ? J'ai l'impression de tourner en rond, de perdre du temps J'ai pas les bon matos Est-ce que tu entends d'ici vraiment le bruit des balles ? J'ai pas les bon matos x2 Est-ce que tu entends d'ici vraiment le bruit des balles ? Est-ce que tu entends vraiment d'où t'es le bruit des balles ? You might also like Depuis qu'on ma dit Petit tu sais la monnaie parle Depuis qu'on ma dit Non faut pas trop laisser d'écart Moccuper devant le rap comme si la Lyre m'épaulait Mettre de côté le mal et voir le bien décoller J'ai examiné les mots dans mon labo d'à côté J'en veux encore encore Mec sans déconner c'est pour les frères en taule Tout ceux qui sonnent en sport, ceux qui se foutent du score Mais passe le relais je me dois de bien causer à la relève T'as vu la cocaïne tourne chez la jeunesse Mais comment devenir en vrai le bon élève ? Baiser le bénéf'</t>
+          <t>Ouverture d'esprit Mais pas d'une fracture du crâne R.A.C.H.I.D Il fallait bousiller nos mic' donc on m'a vite appelé Il fallait trouver l'ouverture mais ça ma paie a gueulé Je vise le but comme d'hab mais t'as le ballon doré Au début nos polos deviennent durs mais si t'es mal entouré La génération d'aujourd'hui n'a plus les mêmes acomptes Et les soirées deviennent folles le nez dans la coke Il faut qu'on s'installe, ignorer le style On s'occupe de tout, y'a Rolex aux platines Vive l'indépendance on ne veut pas d'vos chaînes et ni Se rapprocher un peu de ce qui coûte trop cher Tu veux une flamme, des flammes mais tu brûles en fait Tu veux une femme, des femmes mais t'es gay quand même Non pas de baston ni le bruit des bastos Combien d'entres nous en vrai sont partis gratos ? Trouver l'équilibre ici n'est pas devenu fastoche J'ai voulu refaire le monde mais j'ai pas le bon matos Mais où va le monde ? Mais où va le monde ? J'ai l'impression de tourner en rond, de perdre du temps Perdre du temps mais où va le monde ? Mais où va le monde ? J'ai l'impression de tourner en rond, de perdre du temps J'ai pas les bon matos Est-ce que tu entends d'ici vraiment le bruit des balles ? J'ai pas les bon matos x2 Est-ce que tu entends d'ici vraiment le bruit des balles ? Est-ce que tu entends vraiment d'où t'es le bruit des balles ? Depuis qu'on ma dit Petit tu sais la monnaie parle Depuis qu'on ma dit Non faut pas trop laisser d'écart Moccuper devant le rap comme si la Lyre m'épaulait Mettre de côté le mal et voir le bien décoller J'ai examiné les mots dans mon labo d'à côté J'en veux encore encore Mec sans déconner c'est pour les frères en taule Tout ceux qui sonnent en sport, ceux qui se foutent du score Mais passe le relais je me dois de bien causer à la relève T'as vu la cocaïne tourne chez la jeunesse Mais comment devenir en vrai le bon élève ? Baiser le bénéf'</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>On s'lève, les nerfs, le taff, la thune, trop d'stress On sait qu'un jour on va l'payer La vie, la drogue, tu testes, t'y restes, arrête On sait qu'un jour on va l'payer Un cercle vicieux, les dettes, les verres, la fête On sait qu'un jour on va l'payer On s'lève, les nerfs, le taff, la thune trop d'stress J'espère qu'un jour ça va s'régler On sait qu'un jour on va l'payer Satisfait ou rembourser Ecoute mon fils, excuse-moi, quand j'n'étais pas là je bossais Aujourd'hui je suis rappeur, je dirais pas que c'est un métier zen A l'époque où j'commençais j'étais encore sur DBZ Encore sur un nuage, un mirage, une facilité Parfois sur un virage, on peut regretter son idée Pas souvent réparer l'erreur, ni trop regarder en arrière J'préfèrais Jack Error plutôt qu'parler à mamie J'avais du mal de voir papi, partir à la mine J'ai donc pris goût à la rime, plutôt qu'un gun sous la veste Qu'mes textes en été pouvaient s'transformer en averse On s'lève, les nerfs, le taff, la thune, trop d'stress You might also like Mais j'tenais à t'écrire, avant d'te rendre les clés Avant que tu grandisses et quitte la cours de récrée Tout est chronométré, les années passent tellement vite Le jour où j'partirai je ne voudrais pas te laisser les mains vides Au moins que tu saches que papa fait tant pour son fils Le jour où ça pètera, observe mon feu d'artifice J't'envoie plein d'couleur, j't'en prie relativise C'est une musique pour tous les gosses, le partage tue l'avarice En oubliant les choses simples, laisse moi chanter la vie Passer son temps à s'plaindre nous a jamais trop servi Alors on essaye d'combattre, sans ignorer la famille Mon fils je t'aime c'est ton MC qui l'affirme</t>
+          <t>On s'lève, les nerfs, le taff, la thune, trop d'stress On sait qu'un jour on va l'payer La vie, la drogue, tu testes, t'y restes, arrête On sait qu'un jour on va l'payer Un cercle vicieux, les dettes, les verres, la fête On sait qu'un jour on va l'payer On s'lève, les nerfs, le taff, la thune trop d'stress J'espère qu'un jour ça va s'régler On sait qu'un jour on va l'payer Satisfait ou rembourser Ecoute mon fils, excuse-moi, quand j'n'étais pas là je bossais Aujourd'hui je suis rappeur, je dirais pas que c'est un métier zen A l'époque où j'commençais j'étais encore sur DBZ Encore sur un nuage, un mirage, une facilité Parfois sur un virage, on peut regretter son idée Pas souvent réparer l'erreur, ni trop regarder en arrière J'préfèrais Jack Error plutôt qu'parler à mamie J'avais du mal de voir papi, partir à la mine J'ai donc pris goût à la rime, plutôt qu'un gun sous la veste Qu'mes textes en été pouvaient s'transformer en averse On s'lève, les nerfs, le taff, la thune, trop d'stress Mais j'tenais à t'écrire, avant d'te rendre les clés Avant que tu grandisses et quitte la cours de récrée Tout est chronométré, les années passent tellement vite Le jour où j'partirai je ne voudrais pas te laisser les mains vides Au moins que tu saches que papa fait tant pour son fils Le jour où ça pètera, observe mon feu d'artifice J't'envoie plein d'couleur, j't'en prie relativise C'est une musique pour tous les gosses, le partage tue l'avarice En oubliant les choses simples, laisse moi chanter la vie Passer son temps à s'plaindre nous a jamais trop servi Alors on essaye d'combattre, sans ignorer la famille Mon fils je t'aime c'est ton MC qui l'affirme</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vas-y laisse-moi réfléchir, histoire de trouver un thème J'ai des chaînes, me v'là bloqué, j'aurais l'astuce comme dans Hostel Me taire ? J'arrive pas, comme passer l'temps à Khemmem Et qu'le mal est de partout, même chez celui qui t'salam Si on s'estime de moins en moins c'est qu'il fallait faire ça On a fini par être heureux et grandir avec l'3ssa Indéterminé, en s'disant qu'est-ce que l'on doit faire ? Vu qu'on a pas l'goût à la fête, ou se marrer comme les Trois Frères Les droits de l'homme, dis-moi, ça fait longtemps que j'vois plus d'règles Plusieurs minos sont tombés dans la Vodka et la bull-Red L'inconscience nous a mis raide, le futur est flippant Les anges ont su parler, mais les démons n'se confient pas Sourire ça suffit pas, là où l'bonheur est absent Car on a toujours été fiers de faire partie d'ces rabzas Bloqués à chaque départ et les barrières on connait ça Comme celui qui traîne avec toi, qui s'ra jamais reconnaissant Toujours l'air innocent arrête on n'refera pas le monde Va faire un tour en Palestine c'est une kalash contre une fronde En essayant de fermer les yeux on pourra sauver personne Où chacun mène son train de vie en attendant que son heure sonne Donc on est loin d'la fermer, c'est comme retrouver son calme Dédié à Mystic en prison les barrières restent horizontales Tiens l'coup vas-y frérot ainsi qu'tout c'qui purge en taule La justice est un cliché qui nique Hakim plutôt qu'Jean-Paul Visant toujours les gens pauvres abonnée au délit de faciès À croire que nos parents se plaisent à faire leurs vies dans un 3 pièces Ou faire du vide ça n'va plus y a bien quelqu'chose qui les brusquent Regarde ces pubs ou leurs affiches qui mettent à poil à l'arrêt de bus À partir d'là n'm'embête plus, laisse ma plume t'écrire autre chose La jeunesse veut pas d'voyage mais juste d'un splif au coffee-shop Elle veut qu'mélanger une clope et un beau dégradé tondeuse Parfois capuche, des fois freestyle afin d'améliorer son buzz On dit qu'la femme est une calculeuse, que l'homme veut l'allumeuse Me crois même pas si t'as envie, disons qu'cette rime est une rumeur Y a ceux qui montent et ceux qui creusent, ceux qui ont et ceux qui r'gardent Non ne me laisse pas les restes, tu sais très bien qu'les meilleurs partent Bon les meilleurs cartes s'trouvent jamais dans une même pioche J'fais du rap en m'disant m'reste ça ou braquer un kiosque Porter un toast pour qui ? Ouais pour le dos de nos darons Ils ont bien bati c'pays pour voir sourire un Mitterrand J'étais petit, mais là j'suis grand, vas-y contacte-nous ces patrons Dis-leur à tous ces fils de putes que d'autres sont tués au bâtiment Évidemment qu'on a plus l'temps, à tout voter pas discutable Depuis qu'trop d'soucis nous rongent, on ressemble à des cure-dents Vas-y excusez-nous du r'tard et d'notre allure d'homme des cavernes Me prend pas de haut Demi Portion ne sera que Joe qui gifle Averell Là où le sheitan fait des grands geste de peur que personne ne remarque Souriant, méchant, et très sérieux quand il te r'garde 2010 putain d'merde je n'ai pas vu le temps passer 26 ans y a plus d'bougies mais qu'la galère à embrasser C'est juste un point parmi les autres qui est v'nu le remplacer On tient d'bout comme y a des jours où l'on marche vite sur des lacets Non j'vais pas te faire la scène, mais cette instru me dit d'écrire C'est qu'l'intro de mon projet, bientôt j'arrête tu connais l'Dîn Inch'Allah Ouais qu'elle privilège de s'exprimer, écrire, développer, vous parlez, revendiquer Pfff et le reste qu'est-ce qu'on s'en bat les couillesYou might also like</t>
+          <t>Vas-y laisse-moi réfléchir, histoire de trouver un thème J'ai des chaînes, me v'là bloqué, j'aurais l'astuce comme dans Hostel Me taire ? J'arrive pas, comme passer l'temps à Khemmem Et qu'le mal est de partout, même chez celui qui t'salam Si on s'estime de moins en moins c'est qu'il fallait faire ça On a fini par être heureux et grandir avec l'3ssa Indéterminé, en s'disant qu'est-ce que l'on doit faire ? Vu qu'on a pas l'goût à la fête, ou se marrer comme les Trois Frères Les droits de l'homme, dis-moi, ça fait longtemps que j'vois plus d'règles Plusieurs minos sont tombés dans la Vodka et la bull-Red L'inconscience nous a mis raide, le futur est flippant Les anges ont su parler, mais les démons n'se confient pas Sourire ça suffit pas, là où l'bonheur est absent Car on a toujours été fiers de faire partie d'ces rabzas Bloqués à chaque départ et les barrières on connait ça Comme celui qui traîne avec toi, qui s'ra jamais reconnaissant Toujours l'air innocent arrête on n'refera pas le monde Va faire un tour en Palestine c'est une kalash contre une fronde En essayant de fermer les yeux on pourra sauver personne Où chacun mène son train de vie en attendant que son heure sonne Donc on est loin d'la fermer, c'est comme retrouver son calme Dédié à Mystic en prison les barrières restent horizontales Tiens l'coup vas-y frérot ainsi qu'tout c'qui purge en taule La justice est un cliché qui nique Hakim plutôt qu'Jean-Paul Visant toujours les gens pauvres abonnée au délit de faciès À croire que nos parents se plaisent à faire leurs vies dans un 3 pièces Ou faire du vide ça n'va plus y a bien quelqu'chose qui les brusquent Regarde ces pubs ou leurs affiches qui mettent à poil à l'arrêt de bus À partir d'là n'm'embête plus, laisse ma plume t'écrire autre chose La jeunesse veut pas d'voyage mais juste d'un splif au coffee-shop Elle veut qu'mélanger une clope et un beau dégradé tondeuse Parfois capuche, des fois freestyle afin d'améliorer son buzz On dit qu'la femme est une calculeuse, que l'homme veut l'allumeuse Me crois même pas si t'as envie, disons qu'cette rime est une rumeur Y a ceux qui montent et ceux qui creusent, ceux qui ont et ceux qui r'gardent Non ne me laisse pas les restes, tu sais très bien qu'les meilleurs partent Bon les meilleurs cartes s'trouvent jamais dans une même pioche J'fais du rap en m'disant m'reste ça ou braquer un kiosque Porter un toast pour qui ? Ouais pour le dos de nos darons Ils ont bien bati c'pays pour voir sourire un Mitterrand J'étais petit, mais là j'suis grand, vas-y contacte-nous ces patrons Dis-leur à tous ces fils de putes que d'autres sont tués au bâtiment Évidemment qu'on a plus l'temps, à tout voter pas discutable Depuis qu'trop d'soucis nous rongent, on ressemble à des cure-dents Vas-y excusez-nous du r'tard et d'notre allure d'homme des cavernes Me prend pas de haut Demi Portion ne sera que Joe qui gifle Averell Là où le sheitan fait des grands geste de peur que personne ne remarque Souriant, méchant, et très sérieux quand il te r'garde 2010 putain d'merde je n'ai pas vu le temps passer 26 ans y a plus d'bougies mais qu'la galère à embrasser C'est juste un point parmi les autres qui est v'nu le remplacer On tient d'bout comme y a des jours où l'on marche vite sur des lacets Non j'vais pas te faire la scène, mais cette instru me dit d'écrire C'est qu'l'intro de mon projet, bientôt j'arrête tu connais l'Dîn Inch'Allah Ouais qu'elle privilège de s'exprimer, écrire, développer, vous parlez, revendiquer Pfff et le reste qu'est-ce qu'on s'en bat les couilles</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Vas-y laisse-moi réfléchir un peu, histoire de trouver un thème J'ai des chaînes, me v'là bloqué, j'aurais l'astuce comme dans Hostel Me taire ? J'arrive pas, comme passer mon temps à Khemmem Et qu'le mal est de partout, même chez celui qui t'salam Si on s'estime de moins en moins, c'est qu'il fallait faire ça On a fini par être heureux et grandir avec l'3ssa Indéterminé, en s'disant qu'est-ce que l'on doit faire ? Vu qu'on a pas l'goût à la fête, ou se marrer comme les Trois Frères Les droits de l'homme, dis-moi, ça fait longtemps que j'vois plus d'règles Plusieurs minos sont tombés dans la Vodka, la bull-red L'inconscience nous a mis raide, le futur est flippant Les anges ont su parler, mais les démons n'se confient pas Sourire ? ça suffit pas, là où l'bonheur est absent Car on a toujours été fiers de faire partie d'ces rabzas Bloqués à chaque départ, les barrières on connait ça Comme celui qui traîne avec toi, qui s'ra jamais reconnaissant Toujours l'air innocent, arrête on n'refera pas le monde Va faire un tour en Palestine, c'est la kalash contre la fronde En essayant de fermer les yeux, on pourra sauver personne Où chacun mène son train de vie en attendant que son heure sonne Donc on est loin d'la fermer, c'est comme retrouver son calme Les Grandes Gueules et Mystik, les barrières restent horizontales horizontales Hip Hop Mia-mytho, est-ce qu'une vraie c'est une révolution ? Mystik, Grandes Gueules, Demi Portion Authentique MC, micro-test one-two Nique la aine taa elnasse, rebelle comme Maâtoub Lounès On n'demande pas la parole, on la prend Génocide en Afrique, politique africaine de la France Celle qui dit qu'on fait du bruit, qu'on hue On est tous cool à la base, c'est la vie qui pousse à faire des sales trucs Dieu seul nous juge, j'ai des potes ils en ont rien à foutre du rap Ils savent chanter devant les juges Chacun fait c'qu'il peut, t'as vu nos races ? Pour calmer mes nerfs, j'écoutais XXX Tes corones XXX La vie m'a déjà fait assez d'marques, y a plus rien qui fait rafle Moral d'acier, le rap c'est devenu chelou Tu peux avoir du buzz avec un album à chier Tous les frères qui carburent, faut pas lâcher On croquera la victoire à la force du poignet Si tu veux mon avis, l'état des lieues désole Crois en toi, n'deviens pas martyr de la folie des hommes des hommes You might also like Simplement des jeunes en plein milieu d'la foule Peut-être bien que le seul point commun avec toi c'est qu'on en a rien à foutre Nous dis jamais qu'le courage y en a pas Tout comme les cousins d'Alger, Constantine, Annaba D'en bas, on présente tous un danger Étranger mais rien à battre, nous on la ferme pas Face à leurs flics, leurs discours politiques Ou face à eux qui se disent pour le litige Khlass, ceux qui intégrant? le dit Haut et fort à tous les frères avec des phases inédites Quitte à redire, nique sa mère si t'accroches pas Si t'es un vrai, toi-même tu vois de quoi j'parle Tout comme les miens, occupé à faire d'la maille Ou les autres au QG qui veulent se faire la malle Ouais rien à foutre, qu'il y ai des bornes à franchir Combien de fois pris l'autoroute sans même réfléchir réfléchir Sber ngoulik 7aja Had lmoussi9a kharja mn lgelb Klam dial cha3b Fi khater cha3b B9aw 3ala khir insh'allah</t>
+          <t>Vas-y laisse-moi réfléchir un peu, histoire de trouver un thème J'ai des chaînes, me v'là bloqué, j'aurais l'astuce comme dans Hostel Me taire ? J'arrive pas, comme passer mon temps à Khemmem Et qu'le mal est de partout, même chez celui qui t'salam Si on s'estime de moins en moins, c'est qu'il fallait faire ça On a fini par être heureux et grandir avec l'3ssa Indéterminé, en s'disant qu'est-ce que l'on doit faire ? Vu qu'on a pas l'goût à la fête, ou se marrer comme les Trois Frères Les droits de l'homme, dis-moi, ça fait longtemps que j'vois plus d'règles Plusieurs minos sont tombés dans la Vodka, la bull-red L'inconscience nous a mis raide, le futur est flippant Les anges ont su parler, mais les démons n'se confient pas Sourire ? ça suffit pas, là où l'bonheur est absent Car on a toujours été fiers de faire partie d'ces rabzas Bloqués à chaque départ, les barrières on connait ça Comme celui qui traîne avec toi, qui s'ra jamais reconnaissant Toujours l'air innocent, arrête on n'refera pas le monde Va faire un tour en Palestine, c'est la kalash contre la fronde En essayant de fermer les yeux, on pourra sauver personne Où chacun mène son train de vie en attendant que son heure sonne Donc on est loin d'la fermer, c'est comme retrouver son calme Les Grandes Gueules et Mystik, les barrières restent horizontales horizontales Hip Hop Mia-mytho, est-ce qu'une vraie c'est une révolution ? Mystik, Grandes Gueules, Demi Portion Authentique MC, micro-test one-two Nique la aine taa elnasse, rebelle comme Maâtoub Lounès On n'demande pas la parole, on la prend Génocide en Afrique, politique africaine de la France Celle qui dit qu'on fait du bruit, qu'on hue On est tous cool à la base, c'est la vie qui pousse à faire des sales trucs Dieu seul nous juge, j'ai des potes ils en ont rien à foutre du rap Ils savent chanter devant les juges Chacun fait c'qu'il peut, t'as vu nos races ? Pour calmer mes nerfs, j'écoutais XXX Tes corones XXX La vie m'a déjà fait assez d'marques, y a plus rien qui fait rafle Moral d'acier, le rap c'est devenu chelou Tu peux avoir du buzz avec un album à chier Tous les frères qui carburent, faut pas lâcher On croquera la victoire à la force du poignet Si tu veux mon avis, l'état des lieues désole Crois en toi, n'deviens pas martyr de la folie des hommes des hommes Simplement des jeunes en plein milieu d'la foule Peut-être bien que le seul point commun avec toi c'est qu'on en a rien à foutre Nous dis jamais qu'le courage y en a pas Tout comme les cousins d'Alger, Constantine, Annaba D'en bas, on présente tous un danger Étranger mais rien à battre, nous on la ferme pas Face à leurs flics, leurs discours politiques Ou face à eux qui se disent pour le litige Khlass, ceux qui intégrant? le dit Haut et fort à tous les frères avec des phases inédites Quitte à redire, nique sa mère si t'accroches pas Si t'es un vrai, toi-même tu vois de quoi j'parle Tout comme les miens, occupé à faire d'la maille Ou les autres au QG qui veulent se faire la malle Ouais rien à foutre, qu'il y ai des bornes à franchir Combien de fois pris l'autoroute sans même réfléchir réfléchir Sber ngoulik 7aja Had lmoussi9a kharja mn lgelb Klam dial cha3b Fi khater cha3b B9aw 3ala khir insh'allah</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Encore le réveil qui sonne, la même routine disons Papa maman à l'usine charbonnent voir maintenant plus d'dix ans Le même patron bizarre, le même whisky fait maison Les mêmes travailleurs qui attendent une augmentation Les mêmes locaux pourraves, les mêmes conversations T'as vu le match d'hier ? Bof, y'a pas eu trop d'action La même secrétaire bidon, qui passe son temps à fumer Qui te parle en fin d'journée, comme si elle venait d'se lever Les mêmes machines à café, sans te parler de leur goût T'en bois un, t'en es sûr, tu tiens la chaîne jusqu'au cou Le même qui ralentit tout, mais bon, t'as rien d'rapide Ce que raconte l'intérim, aujourd'hui, je rime C'est loi d'être une fin en soi, comme lire entre mes lignes Un autre texte à chaque fois Au fond on a tous un cur, mais bon reste à voir s'il bat Quand la vie est un ring et qu'les coups deviennent si bas x2 On fait les choses c'est pas grave, non ne laisse pas tomber Ne laisse pas tomber, jamais ne laisse tomber Au fond tu t'en sortiras, le sort nous a rassemblés Et si t'as d'plan B, du coup y'a tout l'alphabet On a pas eu c'qu'il fallait, donc j'ai eu l'envie d'aller voir À force de plus s'calculer on s'est trop laissés d'écart Tous emportés par le rire, ignoraient les vraies occas' On perd tous des calories, à porter l'mal à la base On fait du sport sans s'nourrir, on fume plus que Lafarge On perd la soif de vivre j'te parle pas de c'qu'on avale Les mains sales, automatiques, comme une vieille arme dans la malle Le côté maléfique, nan j'veux celui de l'imam Non j'ai pas peur de l'ennemi, ni non plus du tribunal De tous ces faux amis comme ta pince si amical Nan y'a pas d'rime illégale, mais le temps veut qu'on se magne Mais il n'est jamais trop tard mais notre vécu en témoigne You might also likex2 On fait les choses c'est pas grave, non ne laisse pas tomber Ne laisse pas tomber, jamais ne laisse tomber Au fond tu t'en sortiras, le sort nous a rassemblés Et si t'as d'plan B, du coup y'a tout l'alphabet Et il faut s'attendre à tout, avancer j'ai pas l'choix Trouver l'inspi' c'est pas simple donc elle arrive le soir Le rap m'est tombé comme ça, entre breaker et un graf' Entre Mos Def, Mobb Deep, loin de la vie d'rockstar Sorti des rimes c'est possible, former un crew l'est aussi J'te parle de 1.9.9.6, encore loin des soucis Des signatures trop faussées, de gros talents dans l'fossé Y'en a combien qu'ont forcé, le temps les a effacés Facile, viens faire un tour dans le rap français La plupart sont des menteurs, trafiquants d'mauvaises pensées Le passé nous apaise, des rêves t'en auras besoin On oubliera jamais personne comme le groupe d'Assassin Aux potes sourds qui m'entendent, c'est sûrement la force des mots Comme Ekoué j'avance tranquille, blessé dans mon égo Métro, photo d'pub, il fallait bien qu'j'm'occupe Bosse de chez moi cool, j'ai trouvé mieux qu'un stud' J'ai trouvé mes quinze titres, j'vais sortir l'album Dragon Rash cousin, fallait bien qu'ça colle Je cause, compose, m'impose à chaque prose Chaque prise, chaque note, me ramène en osmose No stop, on s'tire, le temps d'lever les stores On gagne, on perd, vu qu'on s'en fout du score On s'tord, on boxe, un peu comme du sport On pose, sans pause, c'que le temps nous rapporte On fait les choses c'est pas grave, non ne laisse pas tomber Ne laisse pas tomber, jamais ne laisse tomber Au fond tu t'en sortiras, le sort nous a rassemblés Et si t'as d'plan B, du coup y'a tout l'alphabet</t>
+          <t>Encore le réveil qui sonne, la même routine disons Papa maman à l'usine charbonnent voir maintenant plus d'dix ans Le même patron bizarre, le même whisky fait maison Les mêmes travailleurs qui attendent une augmentation Les mêmes locaux pourraves, les mêmes conversations T'as vu le match d'hier ? Bof, y'a pas eu trop d'action La même secrétaire bidon, qui passe son temps à fumer Qui te parle en fin d'journée, comme si elle venait d'se lever Les mêmes machines à café, sans te parler de leur goût T'en bois un, t'en es sûr, tu tiens la chaîne jusqu'au cou Le même qui ralentit tout, mais bon, t'as rien d'rapide Ce que raconte l'intérim, aujourd'hui, je rime C'est loi d'être une fin en soi, comme lire entre mes lignes Un autre texte à chaque fois Au fond on a tous un cur, mais bon reste à voir s'il bat Quand la vie est un ring et qu'les coups deviennent si bas x2 On fait les choses c'est pas grave, non ne laisse pas tomber Ne laisse pas tomber, jamais ne laisse tomber Au fond tu t'en sortiras, le sort nous a rassemblés Et si t'as d'plan B, du coup y'a tout l'alphabet On a pas eu c'qu'il fallait, donc j'ai eu l'envie d'aller voir À force de plus s'calculer on s'est trop laissés d'écart Tous emportés par le rire, ignoraient les vraies occas' On perd tous des calories, à porter l'mal à la base On fait du sport sans s'nourrir, on fume plus que Lafarge On perd la soif de vivre j'te parle pas de c'qu'on avale Les mains sales, automatiques, comme une vieille arme dans la malle Le côté maléfique, nan j'veux celui de l'imam Non j'ai pas peur de l'ennemi, ni non plus du tribunal De tous ces faux amis comme ta pince si amical Nan y'a pas d'rime illégale, mais le temps veut qu'on se magne Mais il n'est jamais trop tard mais notre vécu en témoigne x2 On fait les choses c'est pas grave, non ne laisse pas tomber Ne laisse pas tomber, jamais ne laisse tomber Au fond tu t'en sortiras, le sort nous a rassemblés Et si t'as d'plan B, du coup y'a tout l'alphabet Et il faut s'attendre à tout, avancer j'ai pas l'choix Trouver l'inspi' c'est pas simple donc elle arrive le soir Le rap m'est tombé comme ça, entre breaker et un graf' Entre Mos Def, Mobb Deep, loin de la vie d'rockstar Sorti des rimes c'est possible, former un crew l'est aussi J'te parle de 1.9.9.6, encore loin des soucis Des signatures trop faussées, de gros talents dans l'fossé Y'en a combien qu'ont forcé, le temps les a effacés Facile, viens faire un tour dans le rap français La plupart sont des menteurs, trafiquants d'mauvaises pensées Le passé nous apaise, des rêves t'en auras besoin On oubliera jamais personne comme le groupe d'Assassin Aux potes sourds qui m'entendent, c'est sûrement la force des mots Comme Ekoué j'avance tranquille, blessé dans mon égo Métro, photo d'pub, il fallait bien qu'j'm'occupe Bosse de chez moi cool, j'ai trouvé mieux qu'un stud' J'ai trouvé mes quinze titres, j'vais sortir l'album Dragon Rash cousin, fallait bien qu'ça colle Je cause, compose, m'impose à chaque prose Chaque prise, chaque note, me ramène en osmose No stop, on s'tire, le temps d'lever les stores On gagne, on perd, vu qu'on s'en fout du score On s'tord, on boxe, un peu comme du sport On pose, sans pause, c'que le temps nous rapporte On fait les choses c'est pas grave, non ne laisse pas tomber Ne laisse pas tomber, jamais ne laisse tomber Au fond tu t'en sortiras, le sort nous a rassemblés Et si t'as d'plan B, du coup y'a tout l'alphabet</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Hin.. Laisser moi respire.. Melis hin.. Demi P 34 Et tu sais pas quoi choisir entre le Dîn, le bizz, la rue J'suis tellement solitaire que dans ma ville J'suis porté disparu Y'en a 10 par rue Terrible de voir que le vice Dans l'droit chemin pas d'exception, pas de déception, ni d'vie crapule La vie m'a passé des épreuves à la chaîne Du vice à la paix D'la paix à la haine Dur d'garder l'contrôle d'soi même Parait qu'le rap est mort ou qu'il serait sous perfusion Pourtant certains disent que lui et moi on fait d'super fusion On a la musique comme seul remède T'es comme moi si quand t'as mal Tu ressens l'envie d'écrire comme seule pulsion vous l'a bien dit On a tous besoin d'aide J'comprends les frères qu'on deux joints d'herbe Pour pouvoir calmer leurs compulsions L'objectif des médias c'est d'nous empêcher d'aimer Dieu Mais tu sais l'amour rend aveugle j'l'ai vu de mes yeux Et ça bloque les frontières quand Blesse la laisse tirée Il est temps que j'me calme Donc poto laisse moi respirer You might also like Envoi un beat que l'on s'explique tu sais que l'encre m'appelle Envenimer le bic mec, d'manière à que ce soit mortel On aime pas le changement , vu que ça donne une sale recette On goûte à la vie chaque jour, j'partirai maigre comme Brassens On tend la joue, perd les siens, t'as le temps de prendre ta gifle On félicite nos petits, dès qu'les projets s'finalisent C'est normal, on en remet, envoie du son car j'dors pas Croquer la vie à pleine dent, j'veux bien mais ça mord pas Y a rien d'grave bic up ! Heureusement que l'on gratte Qu'on pensera à Sean Price, Big L ou à Gang Starr On minimise à chaque fois même si l'respect s'oublie J'voudrais laisser une belle trace juste avant d'être enseveli On s'en remet, c'est grâce aux erreurs qu'on se r'lit Qu'on apprend à tourner la page même si on a même plus de livre Oui laissez-nous respirer Laissez-nous sans pression, j'passe au travers le filet Intrus comme demi portion Laisser nous respirer Frère sache que pour la paix On n'fait qu'espèrer La route encore est longue encore plus Cloitrer dans une caisse tiré Faire de mon mieux quand ça va mal Bien-sur que j'essayerai Donc laisser moi respirer</t>
+          <t>Hin.. Laisser moi respire.. Melis hin.. Demi P 34 Et tu sais pas quoi choisir entre le Dîn, le bizz, la rue J'suis tellement solitaire que dans ma ville J'suis porté disparu Y'en a 10 par rue Terrible de voir que le vice Dans l'droit chemin pas d'exception, pas de déception, ni d'vie crapule La vie m'a passé des épreuves à la chaîne Du vice à la paix D'la paix à la haine Dur d'garder l'contrôle d'soi même Parait qu'le rap est mort ou qu'il serait sous perfusion Pourtant certains disent que lui et moi on fait d'super fusion On a la musique comme seul remède T'es comme moi si quand t'as mal Tu ressens l'envie d'écrire comme seule pulsion vous l'a bien dit On a tous besoin d'aide J'comprends les frères qu'on deux joints d'herbe Pour pouvoir calmer leurs compulsions L'objectif des médias c'est d'nous empêcher d'aimer Dieu Mais tu sais l'amour rend aveugle j'l'ai vu de mes yeux Et ça bloque les frontières quand Blesse la laisse tirée Il est temps que j'me calme Donc poto laisse moi respirer Envoi un beat que l'on s'explique tu sais que l'encre m'appelle Envenimer le bic mec, d'manière à que ce soit mortel On aime pas le changement , vu que ça donne une sale recette On goûte à la vie chaque jour, j'partirai maigre comme Brassens On tend la joue, perd les siens, t'as le temps de prendre ta gifle On félicite nos petits, dès qu'les projets s'finalisent C'est normal, on en remet, envoie du son car j'dors pas Croquer la vie à pleine dent, j'veux bien mais ça mord pas Y a rien d'grave bic up ! Heureusement que l'on gratte Qu'on pensera à Sean Price, Big L ou à Gang Starr On minimise à chaque fois même si l'respect s'oublie J'voudrais laisser une belle trace juste avant d'être enseveli On s'en remet, c'est grâce aux erreurs qu'on se r'lit Qu'on apprend à tourner la page même si on a même plus de livre Oui laissez-nous respirer Laissez-nous sans pression, j'passe au travers le filet Intrus comme demi portion Laisser nous respirer Frère sache que pour la paix On n'fait qu'espèrer La route encore est longue encore plus Cloitrer dans une caisse tiré Faire de mon mieux quand ça va mal Bien-sur que j'essayerai Donc laisser moi respirer</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Salut Furax, comment ça va ? J'espère qu'la famille va bien J'ai eu quelques petites nouvelles grâce à deux, trois toulousains Como esta mon cousin ? Chez moi, c'est toujours la même J'enregistre à la maison avec ces plugs à l'ancienne J'te rassure, niveau taff, c'est pas fameux dans le Sud Y a plus de fumeurs en France que d'policiers chez les stups Je m'habitue, mais bon Fu', y a rien de mieux que d'écrire Entre la joie et les pleurs, qui choisira la déprime ? Ça m'intrigue, j'm'entraîne à donner l'maximum gars La vie nous cache des cicatrices comme génocide au Rwanda Sinon ça va, j'perds mon temps trop souvent à l'gagner Mais Dieu merci, on résiste tel un apprenti cavalier Sinon Furax comme d'habitude, j'essaie de nous faire plaisir Garder l'sourire, c'est gratuit, c'est une occasion à saisir Atterrir mais est-c'que la musique est un vrai boulot ? J'ai galéré à m'faire entendre comme un walkman sous l'eau Donc aujourd'hui, j'ai une revanche et un message pour les nôtres J'ai voulu prendre mon temps mais c'est une course contre la montre Ma lettre est pour les Hommes, ma plume est un trésor Non, on n'a jamais voulu s'vendre, on sait qu'l'argent dévore Merci Furax, à bientôt, s'exprimer, ça vaut d'l'or Tu sais qu'à Sète, il fait pas beau mais c'est quand tu veux près du port P.S. j't'écris d'chez moi en préparant mon album Tu sais pour moi un featuring, c'est d'abord bien aimer l'homme Peace Demi-Portion, neuf février Rachid J'attends de tes nouvelles, big up You might also like Sabah el nour Rachid, ta lettre est un point d'eau dans un désert de sable Frangin, tes verbes sabrent la fumée de mes herbes sales Ça m'a fait plaisir de te lire, y a les misères, le sah Ici, c'est pas encore le pire mais y a des airs de ça J'te suis sur les réseaux, les gens t'traquent sur Insta' Super-héros, dans mes reilles-o, un jour, tu chanteras sur un stade c'est sûr Tu n'es qu'amour, j'suis c'côté âpre de la merde Mais on s'est lié sur la route jusqu'au théâtre de la mer Dis-moi qu'on a fait la fierté de nos rents-pa Que Liberté, Égalité, Fraternité ne m'auront pas Que Vanité sera chassée de nos remparts Que l'humanité, c'est nos gosses et gars ça, c'est de l'or en barre Sinon pour ma part, Rachid Rachid, là où j'écris ça Y a toujours pas d'couleurs, pas de magie, la rouge est grise Loin des clashs est biz' j'suis classé bizarre Loin des plages d'Ibiza, ici, c'est glacé blizzard La mort qu'on est sensé zappé, moi, j'entends ses appels Je viens de faire deux fois vingt hier j'en avais seize à peine Quand la vie r'prendra son butin et mettra la pose Et, Rach', j'partirai comme une putain d'lettre à la poste Comprendre la peine, ça mène à rien, ça m'aide à la chanter Bref, j'espère que la madre va bien, qu'Ahmed a la santé Désolé, j'voulais pas plier mais le stress fait vriller Amitié sincère sur papier en ce treize février Barbarossa À récolter ce que l'on sème On finit par s'étouffer On s'aime, on s'aime On se le dit pas c'est tout frère</t>
+          <t>Salut Furax, comment ça va ? J'espère qu'la famille va bien J'ai eu quelques petites nouvelles grâce à deux, trois toulousains Como esta mon cousin ? Chez moi, c'est toujours la même J'enregistre à la maison avec ces plugs à l'ancienne J'te rassure, niveau taff, c'est pas fameux dans le Sud Y a plus de fumeurs en France que d'policiers chez les stups Je m'habitue, mais bon Fu', y a rien de mieux que d'écrire Entre la joie et les pleurs, qui choisira la déprime ? Ça m'intrigue, j'm'entraîne à donner l'maximum gars La vie nous cache des cicatrices comme génocide au Rwanda Sinon ça va, j'perds mon temps trop souvent à l'gagner Mais Dieu merci, on résiste tel un apprenti cavalier Sinon Furax comme d'habitude, j'essaie de nous faire plaisir Garder l'sourire, c'est gratuit, c'est une occasion à saisir Atterrir mais est-c'que la musique est un vrai boulot ? J'ai galéré à m'faire entendre comme un walkman sous l'eau Donc aujourd'hui, j'ai une revanche et un message pour les nôtres J'ai voulu prendre mon temps mais c'est une course contre la montre Ma lettre est pour les Hommes, ma plume est un trésor Non, on n'a jamais voulu s'vendre, on sait qu'l'argent dévore Merci Furax, à bientôt, s'exprimer, ça vaut d'l'or Tu sais qu'à Sète, il fait pas beau mais c'est quand tu veux près du port P.S. j't'écris d'chez moi en préparant mon album Tu sais pour moi un featuring, c'est d'abord bien aimer l'homme Peace Demi-Portion, neuf février Rachid J'attends de tes nouvelles, big up Sabah el nour Rachid, ta lettre est un point d'eau dans un désert de sable Frangin, tes verbes sabrent la fumée de mes herbes sales Ça m'a fait plaisir de te lire, y a les misères, le sah Ici, c'est pas encore le pire mais y a des airs de ça J'te suis sur les réseaux, les gens t'traquent sur Insta' Super-héros, dans mes reilles-o, un jour, tu chanteras sur un stade c'est sûr Tu n'es qu'amour, j'suis c'côté âpre de la merde Mais on s'est lié sur la route jusqu'au théâtre de la mer Dis-moi qu'on a fait la fierté de nos rents-pa Que Liberté, Égalité, Fraternité ne m'auront pas Que Vanité sera chassée de nos remparts Que l'humanité, c'est nos gosses et gars ça, c'est de l'or en barre Sinon pour ma part, Rachid Rachid, là où j'écris ça Y a toujours pas d'couleurs, pas de magie, la rouge est grise Loin des clashs est biz' j'suis classé bizarre Loin des plages d'Ibiza, ici, c'est glacé blizzard La mort qu'on est sensé zappé, moi, j'entends ses appels Je viens de faire deux fois vingt hier j'en avais seize à peine Quand la vie r'prendra son butin et mettra la pose Et, Rach', j'partirai comme une putain d'lettre à la poste Comprendre la peine, ça mène à rien, ça m'aide à la chanter Bref, j'espère que la madre va bien, qu'Ahmed a la santé Désolé, j'voulais pas plier mais le stress fait vriller Amitié sincère sur papier en ce treize février Barbarossa À récolter ce que l'on sème On finit par s'étouffer On s'aime, on s'aime On se le dit pas c'est tout frère</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Yo, 2ChezMoi, écoute Ils ont voulu qu'on finisse con Que nos petits n'y connaissent rien,mise à part squatter le banc L'école? ça dit plus rien,ils te diront que ça compte pas J'ai fermé ma trousse mais j'utilise le compas Continue le combat et chacun tape sa fouine Y a celui qui partage et ceux qui te laisse les ruines Ils ont voulu qu'on la ferme et qu'on finisse stérile On nous rebande tu vois même dans les boites d'intérim Frères surs,cessons de rester anonyme Car suivre les règles,ne veut pas dire tenir la ligne En premier choix,j'ai du apprendre le slalom Etre droit ne certifie pas anti l'homme Le courage,la rage,ce n'est qu'un délire tout ça Mais le truc c'est d'agir et d'oublié le mot froussard Etre fier c'est trop bizarre, être zèle c'est trop facile Regarde le dos à nos pères,ce que leur a fait l'usine Regarde les yeux de mes frères modifié à la résine Regarde toutes ces filles à bloquées sur un fanzine Remets les pieds sur terre,y a rien dans les nuages A force de démarrer pour rien,t'as du pété l'allumage Ils ont sali notre image,la religion musulmane T'as vu les caricatures et ils parlent mal des imams Ils me verront comme un âne et on dira c'est normal J'serai jamais d'accord avec ce putain de kofi anane Vu que j'aime que le rap et toujours au service du kick C'est ça qui m'a appris tu vois,à quoi servait un titre Un message logique,y'aura de la place pour tout le monde Mais attention que nos petites soeurs n'ont pas trop de merde Dans leur I-POD Génération Kily Minogue,ces clips qu'on leur enseigne On te dira que c'est la mode G.S.M et MSN Et ça part d'ici au bled, un virus universel Et je suis de moins en moins ravi frère à chaque anniversaire A parlé de misère,ça ramène rien de jdide Tapé ta cocaïne,ça ramène rien de street Stricte ou sectaire,jouer le fair-play ou faire plaire En essayant de faire le max,c'est pas effacé les repères Tranquillef,c'est pas trop ça pour le moment Et j'te le dis profite bien,pendant que tu dors chez ta maman 2016 c'est pas marrant, Et l'avenir est effarant mais la galère d'aujourd'hui n'a rien aux yeux de tes parents De chez moi a chez toi, Bic Up Keny Arkana De de de demi-portionYou might also like</t>
+          <t>Yo, 2ChezMoi, écoute Ils ont voulu qu'on finisse con Que nos petits n'y connaissent rien,mise à part squatter le banc L'école? ça dit plus rien,ils te diront que ça compte pas J'ai fermé ma trousse mais j'utilise le compas Continue le combat et chacun tape sa fouine Y a celui qui partage et ceux qui te laisse les ruines Ils ont voulu qu'on la ferme et qu'on finisse stérile On nous rebande tu vois même dans les boites d'intérim Frères surs,cessons de rester anonyme Car suivre les règles,ne veut pas dire tenir la ligne En premier choix,j'ai du apprendre le slalom Etre droit ne certifie pas anti l'homme Le courage,la rage,ce n'est qu'un délire tout ça Mais le truc c'est d'agir et d'oublié le mot froussard Etre fier c'est trop bizarre, être zèle c'est trop facile Regarde le dos à nos pères,ce que leur a fait l'usine Regarde les yeux de mes frères modifié à la résine Regarde toutes ces filles à bloquées sur un fanzine Remets les pieds sur terre,y a rien dans les nuages A force de démarrer pour rien,t'as du pété l'allumage Ils ont sali notre image,la religion musulmane T'as vu les caricatures et ils parlent mal des imams Ils me verront comme un âne et on dira c'est normal J'serai jamais d'accord avec ce putain de kofi anane Vu que j'aime que le rap et toujours au service du kick C'est ça qui m'a appris tu vois,à quoi servait un titre Un message logique,y'aura de la place pour tout le monde Mais attention que nos petites soeurs n'ont pas trop de merde Dans leur I-POD Génération Kily Minogue,ces clips qu'on leur enseigne On te dira que c'est la mode G.S.M et MSN Et ça part d'ici au bled, un virus universel Et je suis de moins en moins ravi frère à chaque anniversaire A parlé de misère,ça ramène rien de jdide Tapé ta cocaïne,ça ramène rien de street Stricte ou sectaire,jouer le fair-play ou faire plaire En essayant de faire le max,c'est pas effacé les repères Tranquillef,c'est pas trop ça pour le moment Et j'te le dis profite bien,pendant que tu dors chez ta maman 2016 c'est pas marrant, Et l'avenir est effarant mais la galère d'aujourd'hui n'a rien aux yeux de tes parents De chez moi a chez toi, Bic Up Keny Arkana De de de demi-portion</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>On t'a mis une raclée à la gare À cause de toi on est passés à la barre Sale balance, j'rappe salement Tu mérites que mes genous et mes quatre phalanges Demande à L.A.S.C.A.R.S Vous êtes en France on est sur M.A.R.S Villeneuve-la-Garenne ça bédave normal Mais sur un contrôle les flics veulent ma barrette Bordel de merde, ok j'me perds Mais comment faire autrement avec mes problèmes d'oseille J'opère le game L'enfoiré est dans un sale état Fallait pas me foutre la rage maintenant chialez pas J'suis pas assistante sociale Je ne connais que la rue, la haine, le bâtiment, le local VLD, VLG on s'est tapé des barres J'me rappelle des raclées quand on ramenait les schtars La rue, la ruse, la vie, la caille et la son-pri Ça pue t'as vu dans mes freestyles tu l'as compris Que des zombies dans mon équipe Que des balances, des baltringues, des don-bi dans ton équipe Crois pas qu'on est quitte J'en ai gros sur la patate donc retiens que c'est chaud si tu parles mal Toujours bien sapé, faut des liasses Fuck les biatchs, ces conneries ça vient après You might also like Surveille les tiens car ils le font pour toi Ça bouge pas Comme des fois on se demande pourquoi Paraît qu'on se tue chaque soir Vodka ou eau de Cologne Les zombies y'en a pas que sur Call of Des histoires, moi, j'en ai pas plus qu'les autres Tout se ressemble vas-y tweete ça que mon chat déteste les hommes J'ai le flow qui baise le soul track Sans boys band Waouh ! Sors le Gospel de Whoopi Goldberg Non je délire compère, j'ai le droit de le faire parfois Je rappe depuis 96, à mes délires, les nouveaux clips à voir On devient maniables, maniaques, demande à Mo-guiz comment je manie l'art A manger l'instru, cannibale L'amour de l'encre, je te raconte pas une vie de freestyle YW comme un fast qui traverse l'Espagne Y'a rien de bestial, j'suis pas venu pour clasher Arabe c'est toi, t'as vu de chez toi, t'as reconnu le trajet Articule ou écoute, si tu ne sais pas chanter Speede pas avant d'apprendre le mot patienter C'est un message pour tous, pour tous, pour tous Évite le rap sale sinon on te refile un rap douche Mouille-toi là j'efface tout Défoule-toi, mets des coups Tu veux briller mais t'es grillé comme le billet de Gainsbourg Comme le billet de Gainsbourg... Tu veux me descendre pendant que je té-mon Arrête tes conneries avant que je sois rattrapé par mes vieux démons Laisse-moi te dire que l'espoir n'existe pas Qu'on est tous dans la merde parce que les stars méprisent le rap Et c'est la même du 34 au 92 Ouais on se la met mes semblables ont grave besoin de flouze Guizmo, Demi-P, de Sète à Ri-pas N'oublie pas qu'on a kické sur les faces B de la Cliqua Trop de jaloux font leur speech Tu m'as pris pour ta femme, okay ! Vas-y viens voir on va te faire des enfants N'importe qui s'enflamme et j'vois l'avenir en plus La justice veut me voir au parquet mais pas dans celui des bus</t>
+          <t>On t'a mis une raclée à la gare À cause de toi on est passés à la barre Sale balance, j'rappe salement Tu mérites que mes genous et mes quatre phalanges Demande à L.A.S.C.A.R.S Vous êtes en France on est sur M.A.R.S Villeneuve-la-Garenne ça bédave normal Mais sur un contrôle les flics veulent ma barrette Bordel de merde, ok j'me perds Mais comment faire autrement avec mes problèmes d'oseille J'opère le game L'enfoiré est dans un sale état Fallait pas me foutre la rage maintenant chialez pas J'suis pas assistante sociale Je ne connais que la rue, la haine, le bâtiment, le local VLD, VLG on s'est tapé des barres J'me rappelle des raclées quand on ramenait les schtars La rue, la ruse, la vie, la caille et la son-pri Ça pue t'as vu dans mes freestyles tu l'as compris Que des zombies dans mon équipe Que des balances, des baltringues, des don-bi dans ton équipe Crois pas qu'on est quitte J'en ai gros sur la patate donc retiens que c'est chaud si tu parles mal Toujours bien sapé, faut des liasses Fuck les biatchs, ces conneries ça vient après Surveille les tiens car ils le font pour toi Ça bouge pas Comme des fois on se demande pourquoi Paraît qu'on se tue chaque soir Vodka ou eau de Cologne Les zombies y'en a pas que sur Call of Des histoires, moi, j'en ai pas plus qu'les autres Tout se ressemble vas-y tweete ça que mon chat déteste les hommes J'ai le flow qui baise le soul track Sans boys band Waouh ! Sors le Gospel de Whoopi Goldberg Non je délire compère, j'ai le droit de le faire parfois Je rappe depuis 96, à mes délires, les nouveaux clips à voir On devient maniables, maniaques, demande à Mo-guiz comment je manie l'art A manger l'instru, cannibale L'amour de l'encre, je te raconte pas une vie de freestyle YW comme un fast qui traverse l'Espagne Y'a rien de bestial, j'suis pas venu pour clasher Arabe c'est toi, t'as vu de chez toi, t'as reconnu le trajet Articule ou écoute, si tu ne sais pas chanter Speede pas avant d'apprendre le mot patienter C'est un message pour tous, pour tous, pour tous Évite le rap sale sinon on te refile un rap douche Mouille-toi là j'efface tout Défoule-toi, mets des coups Tu veux briller mais t'es grillé comme le billet de Gainsbourg Comme le billet de Gainsbourg... Tu veux me descendre pendant que je té-mon Arrête tes conneries avant que je sois rattrapé par mes vieux démons Laisse-moi te dire que l'espoir n'existe pas Qu'on est tous dans la merde parce que les stars méprisent le rap Et c'est la même du 34 au 92 Ouais on se la met mes semblables ont grave besoin de flouze Guizmo, Demi-P, de Sète à Ri-pas N'oublie pas qu'on a kické sur les faces B de la Cliqua Trop de jaloux font leur speech Tu m'as pris pour ta femme, okay ! Vas-y viens voir on va te faire des enfants N'importe qui s'enflamme et j'vois l'avenir en plus La justice veut me voir au parquet mais pas dans celui des bus</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Ouais Les grandes gueules Demi Portion Rachid Sur une prod XXX Ouais Pour un rap de XXX Ecoute ça Ca y est Le rap XXX la haine, un sixième élément Le XXX a téléphoné, il s'est fâché sérieusement Maître de cérémonie Beaucoup veulent serrer mon art Et j'viens choquer Marine, mon stylo porte le foulard Demi Portion prend du plaisir XXX Vingt-trois ans, souviens-toi en Comme j'trouve plus de solutions On s'y fait petit à petit On essaye de pas s'plaindre Même ici, l'échelle est courte et plus personne veut faire peintre Encore enfant tu vois On m'a dit toi, tu finiras docteur Finis tes cours et tu trouveras ton fil conducteur Sans pitié, regarde l'écriture comme métier L'amitié et la jalousie, j'lai comprise qu'à moitié On est loin des cocotiers Des neurones trop près du shit Vu qu'personne veut nous capter, on ira pirater vos sites Certains XXX en slip On est repartit pour un tour Et j'ai gardé les mêmes principes en évitant d'parler d'amour Embarqué par des vautours Beaucoup ont perdu les racines Et puis comment rester tranquille au plein milieu de racistes Ma couleur, un parasite Dans c'pays paranoïaque Et citoyens XXX souflés, Sarko est cardiaque Mais on avance par miracle Ne te pose aucune question Comme beaucoup souhaitent qu'on trace et très peu que nous restions J'ai pas choisi c'contraste Y'a plus moyen que j'coopère et j'ai zappé les sentiments le jour où j'ai perdu mon père, ouais Le manque de repères Tu m'diras t'es encore jeune Nage pendant que l'eau est tiède accompagné d'sales plongeurs Un milieu de sales rongeurs Et c'est chacun pour sa gueule XXX le mauvais il et XXX à laccueil Y'aura du monde à laccueil Et je cherche pas d'placements A trop squatter le petit écran, on a oublié le plasma Le classement, bloqué en premier plan, ne rit pas Ce qu'ils m'ont offert en menu, y'avait un piège dans le repas Aussi Afrique en retard mais on XXX HLM Et la police d'aujourd'hui veut qu'tu ailles vite visiter XXX Ou rouler avec un frein On ignore le mot facile Ceux qui jouaient les solidaires Certains ont fini dociles C'est possible Ici, même les mariages d'homos s'négocient Le boulot éteint ceci Tu vois ça sent le roussi On a la matière entre les mains et l'avenir aussi Et toujours loin d' l'enfermer et ça d'après l'autopsie You might also like x4 Ouais, on m'a redit qu'la route est longue et beaucoup d'nos petites surs se sont vite casser un ongle La plupart d'nos petits frères se sont vite passé le mot Qu'ici, tout s'ressemble et qu'ça chauffe sans chalumeau Ouais Vu qu'ça chauffe sans chalumeau On essaie d'faire c'qu'on peut En évitant les tribunaux C'est les grandes gueules Demi Portion</t>
+          <t>Ouais Les grandes gueules Demi Portion Rachid Sur une prod XXX Ouais Pour un rap de XXX Ecoute ça Ca y est Le rap XXX la haine, un sixième élément Le XXX a téléphoné, il s'est fâché sérieusement Maître de cérémonie Beaucoup veulent serrer mon art Et j'viens choquer Marine, mon stylo porte le foulard Demi Portion prend du plaisir XXX Vingt-trois ans, souviens-toi en Comme j'trouve plus de solutions On s'y fait petit à petit On essaye de pas s'plaindre Même ici, l'échelle est courte et plus personne veut faire peintre Encore enfant tu vois On m'a dit toi, tu finiras docteur Finis tes cours et tu trouveras ton fil conducteur Sans pitié, regarde l'écriture comme métier L'amitié et la jalousie, j'lai comprise qu'à moitié On est loin des cocotiers Des neurones trop près du shit Vu qu'personne veut nous capter, on ira pirater vos sites Certains XXX en slip On est repartit pour un tour Et j'ai gardé les mêmes principes en évitant d'parler d'amour Embarqué par des vautours Beaucoup ont perdu les racines Et puis comment rester tranquille au plein milieu de racistes Ma couleur, un parasite Dans c'pays paranoïaque Et citoyens XXX souflés, Sarko est cardiaque Mais on avance par miracle Ne te pose aucune question Comme beaucoup souhaitent qu'on trace et très peu que nous restions J'ai pas choisi c'contraste Y'a plus moyen que j'coopère et j'ai zappé les sentiments le jour où j'ai perdu mon père, ouais Le manque de repères Tu m'diras t'es encore jeune Nage pendant que l'eau est tiède accompagné d'sales plongeurs Un milieu de sales rongeurs Et c'est chacun pour sa gueule XXX le mauvais il et XXX à laccueil Y'aura du monde à laccueil Et je cherche pas d'placements A trop squatter le petit écran, on a oublié le plasma Le classement, bloqué en premier plan, ne rit pas Ce qu'ils m'ont offert en menu, y'avait un piège dans le repas Aussi Afrique en retard mais on XXX HLM Et la police d'aujourd'hui veut qu'tu ailles vite visiter XXX Ou rouler avec un frein On ignore le mot facile Ceux qui jouaient les solidaires Certains ont fini dociles C'est possible Ici, même les mariages d'homos s'négocient Le boulot éteint ceci Tu vois ça sent le roussi On a la matière entre les mains et l'avenir aussi Et toujours loin d' l'enfermer et ça d'après l'autopsie x4 Ouais, on m'a redit qu'la route est longue et beaucoup d'nos petites surs se sont vite casser un ongle La plupart d'nos petits frères se sont vite passé le mot Qu'ici, tout s'ressemble et qu'ça chauffe sans chalumeau Ouais Vu qu'ça chauffe sans chalumeau On essaie d'faire c'qu'on peut En évitant les tribunaux C'est les grandes gueules Demi Portion</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>C'est la sirène du rap français Onanaooo Wonana wonanana Onanaooo Wonana wonanana, Action ! Onanaooo Wonana wonanana Onanaooo Wonana wonanana Branche le mic, allume nous ça, fais péter le son Prendre la feuille et la fracturer par passion J'ai fais mon truc sans trop suivre les tentations J'ai mon essence donc j'ai pas eu besoin de stations Voulu chanter parce que le public m'a dit je t'aime Le rap c'est quoi, je trouve pas l'amour chez un disquaire De toutes manière on a toujours voulu s'ambiancer Action ! C'est la sirène du rap français Onanaooo Wonana wonanana Onanaooo Wonana wonanana, Action ! Onanaooo Wonana wonanana Onanaooo Wonana wonanana, C'est la sirène du rap français C'est la sirène, la sirène, la sirène, la sirène, la sirène du rap français You might also like 4, 3, 2 Compliqué, depuis tout petit on a milles branches Dépassé, le futur est devenu vintage Nouvel album, j'ai du finir walking dead C'est la sirène du rap français dans la disquette Trop de codes, parait que le sérieux est un sketch yo yo Allez-y, envoyez le cri de guerre En combattant, c'est celui qui a l'envie de perdre en combattant, c'est celui qui a l'envie de perdre Onanaooo Wonana wonanana Onanaooo Wonana wonanana Onanaooo Wonana wonanana Onanaooo Wonana wonanana, C'est la sirène du rap français C'est la sirène, la sirène, yeah ! allez-y envoyez le cri de guerre, hein, la sirène, la sirène, c'est ça, la sirène du rap français Onanaonanana Onanaonanana, on est là Onanaooo Onanaooo Wonanaonanana c'est la sirène, la sirène</t>
+          <t>C'est la sirène du rap français Onanaooo Wonana wonanana Onanaooo Wonana wonanana, Action ! Onanaooo Wonana wonanana Onanaooo Wonana wonanana Branche le mic, allume nous ça, fais péter le son Prendre la feuille et la fracturer par passion J'ai fais mon truc sans trop suivre les tentations J'ai mon essence donc j'ai pas eu besoin de stations Voulu chanter parce que le public m'a dit je t'aime Le rap c'est quoi, je trouve pas l'amour chez un disquaire De toutes manière on a toujours voulu s'ambiancer Action ! C'est la sirène du rap français Onanaooo Wonana wonanana Onanaooo Wonana wonanana, Action ! Onanaooo Wonana wonanana Onanaooo Wonana wonanana, C'est la sirène du rap français C'est la sirène, la sirène, la sirène, la sirène, la sirène du rap français 4, 3, 2 Compliqué, depuis tout petit on a milles branches Dépassé, le futur est devenu vintage Nouvel album, j'ai du finir walking dead C'est la sirène du rap français dans la disquette Trop de codes, parait que le sérieux est un sketch yo yo Allez-y, envoyez le cri de guerre En combattant, c'est celui qui a l'envie de perdre en combattant, c'est celui qui a l'envie de perdre Onanaooo Wonana wonanana Onanaooo Wonana wonanana Onanaooo Wonana wonanana Onanaooo Wonana wonanana, C'est la sirène du rap français C'est la sirène, la sirène, yeah ! allez-y envoyez le cri de guerre, hein, la sirène, la sirène, c'est ça, la sirène du rap français Onanaonanana Onanaonanana, on est là Onanaooo Onanaooo Wonanaonanana c'est la sirène, la sirène</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Ça sera la faute de personne quand tu seras dans l'dédale Ça sera à cause de personne quand tu crèveras la dalle Ça sera la trêve pour tout le monde, ta sortie triomphale XXX et leurs discours banales Première partie, c'est repartit pour les potes qui m'supportent XXX plus la route devient glissante Et XXX alors tu prends conscience Qu'il n'faut pas prendre confiance mais reste à une bonne distance Tout ça est stratégique comme XXX, c'est loin d'mon champ d'vision est pathétique Comme un XXX qui se soigne J'récupère mon XXX C'est qu'j'devais être incitant, assisté par des assistants Vers qui j'ai du persister Subsiste à ma liberté Ma fierté d'avoir la tête haute Qu'on voit XXX nous même si la gloire me saute A ceux qui reculent devant rien et qui donnent leur cul quand y ont rien C'est qu'vraiment dans c'pays, tout est plein d'platitude La seul grosse merde sur l'plateau XXX prendre de l'altitude Personne veut perde ses tics, ses habitudes Le plus rude, c'est que tout est dans l'attitudeYou might also like</t>
+          <t>Ça sera la faute de personne quand tu seras dans l'dédale Ça sera à cause de personne quand tu crèveras la dalle Ça sera la trêve pour tout le monde, ta sortie triomphale XXX et leurs discours banales Première partie, c'est repartit pour les potes qui m'supportent XXX plus la route devient glissante Et XXX alors tu prends conscience Qu'il n'faut pas prendre confiance mais reste à une bonne distance Tout ça est stratégique comme XXX, c'est loin d'mon champ d'vision est pathétique Comme un XXX qui se soigne J'récupère mon XXX C'est qu'j'devais être incitant, assisté par des assistants Vers qui j'ai du persister Subsiste à ma liberté Ma fierté d'avoir la tête haute Qu'on voit XXX nous même si la gloire me saute A ceux qui reculent devant rien et qui donnent leur cul quand y ont rien C'est qu'vraiment dans c'pays, tout est plein d'platitude La seul grosse merde sur l'plateau XXX prendre de l'altitude Personne veut perde ses tics, ses habitudes Le plus rude, c'est que tout est dans l'attitude</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>La vérité Y paraîtrait qu'c'est bientôt la fin du monde, hein On est postés comme toutes ces putains d'caméra à Londres La vérité On n'arrive plus à s'égarer des sales problèmes, t'as vu On s'ralentit comme on s'le dit devant XXX La vérité J'sais pas trop si on va vivre encore longtemps En vrai, c'est l 'quatre étoiles si on bloquait à Koh Lantha La vérité Si j'ai pris l'bic, c'est que j'avais qu'ça à faire, en gros Si tu m'invites, faut pas qu't'ais peur de tes affaires La vérité C'est qu'en vrai, on arrête pas d'nous mentir La vérité L'euro nous a niqué et ça on l'a ressenti La vérité On nous l'a mise XXX sentir la rotte-ca La vérité Rien qu'tu mens donc n'y rajoute pas ta vodka Ferme ta gueule, j'suis loin de tes délires La vérité M'serre pas la main, toi qui derrière nous dénigre La vérité Et si faibles et violés par le monde sans XXX La vérité Tous les mc's vont aussi t'écrire la même chose La vérité C'est qu'les rappeurs, aujourd'hui on les connaît Sans hésité, tous attirés par la monnaie La vérité C'est vrai, certains ont peur de dénoncer La vérité Ils sont tous là juste pour un titre qui fait danser La vérité Bien sûr, c'est chaud d'vous sortir un disque La vérité Y'a trop d'merdes, fais gaffe à pas chopper le XXX C'est l'titre comme j'aurai pu parler du faux La vérité Provient du fond tout en sachant qu'on a des formes Tu la défends et rends si riches des avocats La vérité T'y amuses pas même si tu sais qu't'as l'avantage La vérité C'est l'message et ce qu'on offre de plus XXX La vérité Ne la cache pas par ton sale appui d'Satan La vérité Je l'attends et j't'en pousserai à faire autant La vérité Est bafouée comme tous les dirigeants d'l'OTAN La vérité Simplement, n'est pas dans l'rap mais dans l'Coran N'écoute que toi, pas c'rappeur XXX La vérité J'évacue, ils m'ont tous saoulé avec leurs histoires La vérité Je fais du rap, viens pas m'parler de petites stars La vérité En étant franc, je n'ai flippé que de mon père La vérité J'm'en bats les couilles d'MySpace et d'ses commentaires La vérité On te l'a dit, on n'peut pas plaire à tout le monde La vérité Je suis comme toi, t'as des questions ? Bah j'vais t'répondre La vérité Ose s'étendre, voilà pourquoi j'me répète La vérité Est méritée comme chaque humain qui s'respecte La vérité J'sais qu'ce son ne passera pas dans vos radios La vérité Pas défaitiste mais pas dans le même bateau La vérité Ouais l'gâteau, une de ces parts contaminée La vérité Dis leur la race, tous les chemins sont minés Ouais You might also like Les grandes gueules Demi Portion XXX de ouf La vérité, la vérité</t>
+          <t>La vérité Y paraîtrait qu'c'est bientôt la fin du monde, hein On est postés comme toutes ces putains d'caméra à Londres La vérité On n'arrive plus à s'égarer des sales problèmes, t'as vu On s'ralentit comme on s'le dit devant XXX La vérité J'sais pas trop si on va vivre encore longtemps En vrai, c'est l 'quatre étoiles si on bloquait à Koh Lantha La vérité Si j'ai pris l'bic, c'est que j'avais qu'ça à faire, en gros Si tu m'invites, faut pas qu't'ais peur de tes affaires La vérité C'est qu'en vrai, on arrête pas d'nous mentir La vérité L'euro nous a niqué et ça on l'a ressenti La vérité On nous l'a mise XXX sentir la rotte-ca La vérité Rien qu'tu mens donc n'y rajoute pas ta vodka Ferme ta gueule, j'suis loin de tes délires La vérité M'serre pas la main, toi qui derrière nous dénigre La vérité Et si faibles et violés par le monde sans XXX La vérité Tous les mc's vont aussi t'écrire la même chose La vérité C'est qu'les rappeurs, aujourd'hui on les connaît Sans hésité, tous attirés par la monnaie La vérité C'est vrai, certains ont peur de dénoncer La vérité Ils sont tous là juste pour un titre qui fait danser La vérité Bien sûr, c'est chaud d'vous sortir un disque La vérité Y'a trop d'merdes, fais gaffe à pas chopper le XXX C'est l'titre comme j'aurai pu parler du faux La vérité Provient du fond tout en sachant qu'on a des formes Tu la défends et rends si riches des avocats La vérité T'y amuses pas même si tu sais qu't'as l'avantage La vérité C'est l'message et ce qu'on offre de plus XXX La vérité Ne la cache pas par ton sale appui d'Satan La vérité Je l'attends et j't'en pousserai à faire autant La vérité Est bafouée comme tous les dirigeants d'l'OTAN La vérité Simplement, n'est pas dans l'rap mais dans l'Coran N'écoute que toi, pas c'rappeur XXX La vérité J'évacue, ils m'ont tous saoulé avec leurs histoires La vérité Je fais du rap, viens pas m'parler de petites stars La vérité En étant franc, je n'ai flippé que de mon père La vérité J'm'en bats les couilles d'MySpace et d'ses commentaires La vérité On te l'a dit, on n'peut pas plaire à tout le monde La vérité Je suis comme toi, t'as des questions ? Bah j'vais t'répondre La vérité Ose s'étendre, voilà pourquoi j'me répète La vérité Est méritée comme chaque humain qui s'respecte La vérité J'sais qu'ce son ne passera pas dans vos radios La vérité Pas défaitiste mais pas dans le même bateau La vérité Ouais l'gâteau, une de ces parts contaminée La vérité Dis leur la race, tous les chemins sont minés Ouais Les grandes gueules Demi Portion XXX de ouf La vérité, la vérité</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Yo, tu veux du lourd ? Désolé, j'ai le cur léger DJ Rolex et Demi, la scène a pris une fessée J'apprends, j'passe la première, j'tombe, j'passe la deuxième Ma mère m'a dit attention, les yeux rivés sur 2M Au bled, on est des touristes, c'est c'que me disent les cousins C'est pas ça la vie d'artiste, trouve un boulot, c'est plus simple Dix ans qu'on s'tue à la mine, Amine comme dirait mamène Bien sûr qu'on l'aime, la musique, mais pas autant que nos mères On s'ramène, on s'installe, toujours à l'avant quand même On charbonne, c'est l'usine, comme un ouvrier nickel On fait l'tour du monde, on donne ça pour tout l'monde On fait l'tour du monde et on l'refait chaque semaine Laissons le temps de rire et dépasser les problèmes Tout l'monde a des cicatrices mais peu d'pharmacies ouvertes Au fond d'la tête, c'est sûr, nul est impossible Le corps est une plante donc à toi d'voir tes racines Les espèces disparaissent, va falloir qu'on réagisse On aimerait voir autre chose mais c'est pas c'qu'on imagine Rachid casse la machine, le sample est trop massif Quand l'équipe a d'la résine, on dit Viva la médecine Ok mec, j'garde mon style, indé' est mon label Une flûte et c'est parti, bien que les mots m'appellent R.A.C.H.I.D, mon blase, c'est Demi Portion Qui peut prétendre faire du rap sans prendre position ? You might also like C'est Demi Portion C'est ça qu'on aime c'est Demi Oh, c'est ça qu'on aime en ces temps, temps C'est ça qu'on aime hip-hop, pop pop pop pop C'est ça qu'on aime hip-hop, pop pop pop pop C'est ça qu'on aime on lâche rien et tu l'sais C'est ça qu'on aime yeah, ah ah La vie est belle La vie est belle han, ça vient du 7 sur Sète La vie est belle han, ça vient du 7 sur Sète C'est ça qu'on aime yo, Rachid Oh lalalalalala, oh lalalalalala Yeah, yeah, han</t>
+          <t>Yo, tu veux du lourd ? Désolé, j'ai le cur léger DJ Rolex et Demi, la scène a pris une fessée J'apprends, j'passe la première, j'tombe, j'passe la deuxième Ma mère m'a dit attention, les yeux rivés sur 2M Au bled, on est des touristes, c'est c'que me disent les cousins C'est pas ça la vie d'artiste, trouve un boulot, c'est plus simple Dix ans qu'on s'tue à la mine, Amine comme dirait mamène Bien sûr qu'on l'aime, la musique, mais pas autant que nos mères On s'ramène, on s'installe, toujours à l'avant quand même On charbonne, c'est l'usine, comme un ouvrier nickel On fait l'tour du monde, on donne ça pour tout l'monde On fait l'tour du monde et on l'refait chaque semaine Laissons le temps de rire et dépasser les problèmes Tout l'monde a des cicatrices mais peu d'pharmacies ouvertes Au fond d'la tête, c'est sûr, nul est impossible Le corps est une plante donc à toi d'voir tes racines Les espèces disparaissent, va falloir qu'on réagisse On aimerait voir autre chose mais c'est pas c'qu'on imagine Rachid casse la machine, le sample est trop massif Quand l'équipe a d'la résine, on dit Viva la médecine Ok mec, j'garde mon style, indé' est mon label Une flûte et c'est parti, bien que les mots m'appellent R.A.C.H.I.D, mon blase, c'est Demi Portion Qui peut prétendre faire du rap sans prendre position ? C'est Demi Portion C'est ça qu'on aime c'est Demi Oh, c'est ça qu'on aime en ces temps, temps C'est ça qu'on aime hip-hop, pop pop pop pop C'est ça qu'on aime hip-hop, pop pop pop pop C'est ça qu'on aime on lâche rien et tu l'sais C'est ça qu'on aime yeah, ah ah La vie est belle La vie est belle han, ça vient du 7 sur Sète La vie est belle han, ça vient du 7 sur Sète C'est ça qu'on aime yo, Rachid Oh lalalalalala, oh lalalalalala Yeah, yeah, han</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>La vie de rêve on te dit quoi il faut penser, ou quoi écrire x2 On est comme on est, fuck la vie de rêve Y'a rien à faire, la vie je l'aime Y'a rien à faire, comment t'le dire Ca passe trop vite.. La vie de rêve d'ici, on l'a jamais recherchée La seule drogue, trop de gars sont restés perchés Combien de papas ont tué leur vie au tiercé ? La vie de rêve non, dis-nous qui va la remercier La monnaie, on sait très bien qu'elle nous fait marcher La clé de la réussite, bloquée ou cadenassée Depuis tout petit l'envie de s'lever, progresser La liberté ne jamais se laisser dresser Vous découvrir ça m'a toujours intéressé Je n'ai jamais voulu m'engraisser J'pense à Papa et tous ceux qui partent blessés C'est ça la vie, de A à Z on finit, décès x2 On est comme on est, fuck la vie de rêve Y'a rien à faire, la vie je l'aime Y'a rien à faire, comment t'le dire Ca passe trop vite.. You might also like La vie de rêve, d'ici on l'a jamais ressentie Vois la vie en rose n'a plus rien de splendide Qui se demande comment mon album est sorti J'ai appris à m'tuer pour un public averti J'transpire, comme la sueur laissée sur chaque scène Ouais j'ai appris à me faire tout p'tit Y'a pas de secret, toujours travailler dans son style Aucune formule, tant qu'le message s'éparpille Rolex c'est parti, le kick tombe pile Ecoute ça tranquille, laisse les mauvais s'enfuir Libertad totale, c'est ça être pur indé Pas marcher sur les autres, la seule façon de grimper x2 On est comme on est, fuck la vie de rêve Y'a rien à faire, la vie je l'aime Y'a rien à faire, comment t'le dire Ca passe trop vite..1</t>
+          <t>La vie de rêve on te dit quoi il faut penser, ou quoi écrire x2 On est comme on est, fuck la vie de rêve Y'a rien à faire, la vie je l'aime Y'a rien à faire, comment t'le dire Ca passe trop vite.. La vie de rêve d'ici, on l'a jamais recherchée La seule drogue, trop de gars sont restés perchés Combien de papas ont tué leur vie au tiercé ? La vie de rêve non, dis-nous qui va la remercier La monnaie, on sait très bien qu'elle nous fait marcher La clé de la réussite, bloquée ou cadenassée Depuis tout petit l'envie de s'lever, progresser La liberté ne jamais se laisser dresser Vous découvrir ça m'a toujours intéressé Je n'ai jamais voulu m'engraisser J'pense à Papa et tous ceux qui partent blessés C'est ça la vie, de A à Z on finit, décès x2 On est comme on est, fuck la vie de rêve Y'a rien à faire, la vie je l'aime Y'a rien à faire, comment t'le dire Ca passe trop vite.. La vie de rêve, d'ici on l'a jamais ressentie Vois la vie en rose n'a plus rien de splendide Qui se demande comment mon album est sorti J'ai appris à m'tuer pour un public averti J'transpire, comme la sueur laissée sur chaque scène Ouais j'ai appris à me faire tout p'tit Y'a pas de secret, toujours travailler dans son style Aucune formule, tant qu'le message s'éparpille Rolex c'est parti, le kick tombe pile Ecoute ça tranquille, laisse les mauvais s'enfuir Libertad totale, c'est ça être pur indé Pas marcher sur les autres, la seule façon de grimper x2 On est comme on est, fuck la vie de rêve Y'a rien à faire, la vie je l'aime Y'a rien à faire, comment t'le dire Ca passe trop vite..1</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Ici comment trouver l'astuce, essayer de voir la vie en rose Laisse moi oui j'arrive encore XXX Matte les thèmes qu'on élabore malgré XXX On ne peut pas plaire à tout le monde j'ai même essayé de rapper russe Tu sais cramer l'arrêt de bus ou tout ça on l'a fait jeunot La France est un pays d'flics c'est comme la belle rime de Renaud Oui on a tous des remords mais la marche arrière est en panne Le temps passe trop vite oui, les grands-pères et leurs cannes On oubliera pas l'époque de la zik dans les temps modernes On partira c'est sur mais on dit que le son est immortel On mord pas, comme partout y'a plein de chose à la poubelle On chante la vie hip hop grille ma clope à la Jacques Brel Jaquetez on est déjà loin comme la vie est en couleurs J'ai appris à tapper la feuille mais elle m'a rendu la douleur Et quand elle me prend dans ses bras Je te jure je vois la vie en rose La zik fait de mes plus gros tracas le cadet de mes soucis J'fais tout pour garder l'essentiel que ma faute ne soit pas remis en cause J'essaye de revenir à la source comme ce gamin qu'est né sous X Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Apelle moi Killa, j'pillave tant que j'vies j'profite Je suis ce petit gars qui a grandit trop vite Mes cauchemars prennent forme je me réveille en sueur puis la j'm'agite Demande à Dragon Rash j'plane sur un nuage magique Ils prennent notre liberté et l'agite tout fière On oublie vite tout ça en consommant un tas d'shit ou d'bières Arpentant les rues titubant pas sans mes chats gris d'gouttières J'apprend de mes erreurs, construis demain avec chaque bout d'hier J'couchais des vertes et des ratures bouffais des vertes et des pas mûres Et sous les toits me faisais de nouvelles plaies ouvertes aidé par le mur On a vu le gouffre, touché des sommets, grimpé dévalé des pentes J'sais que la vie reste une catin même quand elle est grave élégante J'aime pas taper des journées de 12 heures j'aime le jour où tu me payes Ou refaire le monde avec mes homies calés autour d'une teille Même si la life c'est souvent le fracas d'une flamme On se sent mieux au creux d'une prod ou même dans les bras d'une femme Et quand elle me prend dans ses bras Je te jure je vois la vie en rose La zik fait de mes plus gros tracas le cadet de mes soucis J'fais tout pour garder l'essentiel que ma faute ne soit pas remis en cause J'essaye de revenir à la source comme ce gamin qu'est né sous X Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose J'emporterai la foule comme un tsunami d'rimes Pour un hymne à l'amour j'en ai passé des nuits Tant qu'il y aura des jours, allez roulez tambours On s'en fout même avant l'heure la musique à tout va Du matin jusqu'au soir il me reste que ça en fait quand tout fout le camp Le bruit des villes, les affairistes Les blouses blanches, les salles d'attentes, les cris du cur, les gens traqués j'en ai tant vus La fille de joie est triste Y'avait que les mots qui s'accouplaient et un refrain courrait dans la rue Ta zik démerde fait le trottoir, elle fréquentait la rue Pigalle Et l'opinion public n'a pas d'âme pas d'âme Excusez le disque usé, au dessus y'avait du soleil maintenant le ciel est fermé Je me fous pas mal de la FM, secret de polichinelle Dans les kiosques à journaux si le chacal te propose une valse n'y va pas Manuel Je suis un homme comme les autres monsieur incognito Faisons diversion embrasse moi vu que j'entends la sirène Et quand elle me prend dans ses bras Je te jure je vois la vie en rose La zik fait de mes plus gros tracas le cadet de mes soucis J'fais tout pour garder l'essentiel que ma faute ne soit pas remis en cause J'essaye de revenir à la source comme ce gamin qu'est né sous X Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en roseYou might also like1</t>
+          <t>Ici comment trouver l'astuce, essayer de voir la vie en rose Laisse moi oui j'arrive encore XXX Matte les thèmes qu'on élabore malgré XXX On ne peut pas plaire à tout le monde j'ai même essayé de rapper russe Tu sais cramer l'arrêt de bus ou tout ça on l'a fait jeunot La France est un pays d'flics c'est comme la belle rime de Renaud Oui on a tous des remords mais la marche arrière est en panne Le temps passe trop vite oui, les grands-pères et leurs cannes On oubliera pas l'époque de la zik dans les temps modernes On partira c'est sur mais on dit que le son est immortel On mord pas, comme partout y'a plein de chose à la poubelle On chante la vie hip hop grille ma clope à la Jacques Brel Jaquetez on est déjà loin comme la vie est en couleurs J'ai appris à tapper la feuille mais elle m'a rendu la douleur Et quand elle me prend dans ses bras Je te jure je vois la vie en rose La zik fait de mes plus gros tracas le cadet de mes soucis J'fais tout pour garder l'essentiel que ma faute ne soit pas remis en cause J'essaye de revenir à la source comme ce gamin qu'est né sous X Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Apelle moi Killa, j'pillave tant que j'vies j'profite Je suis ce petit gars qui a grandit trop vite Mes cauchemars prennent forme je me réveille en sueur puis la j'm'agite Demande à Dragon Rash j'plane sur un nuage magique Ils prennent notre liberté et l'agite tout fière On oublie vite tout ça en consommant un tas d'shit ou d'bières Arpentant les rues titubant pas sans mes chats gris d'gouttières J'apprend de mes erreurs, construis demain avec chaque bout d'hier J'couchais des vertes et des ratures bouffais des vertes et des pas mûres Et sous les toits me faisais de nouvelles plaies ouvertes aidé par le mur On a vu le gouffre, touché des sommets, grimpé dévalé des pentes J'sais que la vie reste une catin même quand elle est grave élégante J'aime pas taper des journées de 12 heures j'aime le jour où tu me payes Ou refaire le monde avec mes homies calés autour d'une teille Même si la life c'est souvent le fracas d'une flamme On se sent mieux au creux d'une prod ou même dans les bras d'une femme Et quand elle me prend dans ses bras Je te jure je vois la vie en rose La zik fait de mes plus gros tracas le cadet de mes soucis J'fais tout pour garder l'essentiel que ma faute ne soit pas remis en cause J'essaye de revenir à la source comme ce gamin qu'est né sous X Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose J'emporterai la foule comme un tsunami d'rimes Pour un hymne à l'amour j'en ai passé des nuits Tant qu'il y aura des jours, allez roulez tambours On s'en fout même avant l'heure la musique à tout va Du matin jusqu'au soir il me reste que ça en fait quand tout fout le camp Le bruit des villes, les affairistes Les blouses blanches, les salles d'attentes, les cris du cur, les gens traqués j'en ai tant vus La fille de joie est triste Y'avait que les mots qui s'accouplaient et un refrain courrait dans la rue Ta zik démerde fait le trottoir, elle fréquentait la rue Pigalle Et l'opinion public n'a pas d'âme pas d'âme Excusez le disque usé, au dessus y'avait du soleil maintenant le ciel est fermé Je me fous pas mal de la FM, secret de polichinelle Dans les kiosques à journaux si le chacal te propose une valse n'y va pas Manuel Je suis un homme comme les autres monsieur incognito Faisons diversion embrasse moi vu que j'entends la sirène Et quand elle me prend dans ses bras Je te jure je vois la vie en rose La zik fait de mes plus gros tracas le cadet de mes soucis J'fais tout pour garder l'essentiel que ma faute ne soit pas remis en cause J'essaye de revenir à la source comme ce gamin qu'est né sous X Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose1</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Wow, Mokless, Demi Portion Jamais dans la tendance, toujours dans la bonne direction J'ai préféré la modestie, p't-être un fabuleux destin J'ai préféré garder l'esprit pour faire honneur aux anciens J'ai préféré garder mon style, ils sont plusieurs à être pareil J'ai préféré mon spitch plutôt que le changer demain J'ai préféré garder les miens, en même temps qu'les pieds sur terre Moi j'ai préféré DBZ même si les combats se passe en l'air J'ai préféré dire à ma mère, écoute depuis longtemps je rappe J'ai préféré lui dire ça paye même si j'ai rien dans l'avocat J'ai préféré parler du calme, à force de grandir dans le bruit J'ai préféré que l'on m'condamne pour être libre dans ce que je dis J'ai préféré me faire petit, laissant tout c'la à jouer les mac J'ai préféré vous respecter, peut-être un jour changer la vague J'ai préféré être correct, évolué sans trop se plaindre Je me répète mais désoler je crois qu'c'est la même à chaque semaine J'ai préféré les jours d'hiver, on échoue un point c'est tout J'ai préféré rester chez-moi, j't'inviterai bien dans mon igloo De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part You might also like Et j'ai préféré le réaliste, l'écorcher sans bistouri Le demi scred qui passe par un trou dsouris J'ai préféré ma mère à toutes les femmes que j'ai connu Pudique j'ai préféré me rhabiller quand j'étais nu J'ai préféré être un pirate et si pique celui qui s'y frotte N'essaie même pas d'faire chavirer ma pirogue J'ai détesté les artistes qui f'sait l'autruche J'ai préféré les Balavoines ou les Coluches Oublier plutôt qu'faire la guerre à ceux qui m'en veulent J'ai préféré t'donner la main que t'la foutre dans la gueule J'ai préféré être insolent qu'un sot rapide Qui prend pour argent content c'qu'un Soral dit J'ai préféré toi-même tu sais refré Toi-même tu sais, c'est que les demi p J'aime peu les deux tiers de c'que j'ai fais hier Je préfère comment j'en parle aujourd'hui De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part</t>
+          <t>Wow, Mokless, Demi Portion Jamais dans la tendance, toujours dans la bonne direction J'ai préféré la modestie, p't-être un fabuleux destin J'ai préféré garder l'esprit pour faire honneur aux anciens J'ai préféré garder mon style, ils sont plusieurs à être pareil J'ai préféré mon spitch plutôt que le changer demain J'ai préféré garder les miens, en même temps qu'les pieds sur terre Moi j'ai préféré DBZ même si les combats se passe en l'air J'ai préféré dire à ma mère, écoute depuis longtemps je rappe J'ai préféré lui dire ça paye même si j'ai rien dans l'avocat J'ai préféré parler du calme, à force de grandir dans le bruit J'ai préféré que l'on m'condamne pour être libre dans ce que je dis J'ai préféré me faire petit, laissant tout c'la à jouer les mac J'ai préféré vous respecter, peut-être un jour changer la vague J'ai préféré être correct, évolué sans trop se plaindre Je me répète mais désoler je crois qu'c'est la même à chaque semaine J'ai préféré les jours d'hiver, on échoue un point c'est tout J'ai préféré rester chez-moi, j't'inviterai bien dans mon igloo De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part Et j'ai préféré le réaliste, l'écorcher sans bistouri Le demi scred qui passe par un trou dsouris J'ai préféré ma mère à toutes les femmes que j'ai connu Pudique j'ai préféré me rhabiller quand j'étais nu J'ai préféré être un pirate et si pique celui qui s'y frotte N'essaie même pas d'faire chavirer ma pirogue J'ai détesté les artistes qui f'sait l'autruche J'ai préféré les Balavoines ou les Coluches Oublier plutôt qu'faire la guerre à ceux qui m'en veulent J'ai préféré t'donner la main que t'la foutre dans la gueule J'ai préféré être insolent qu'un sot rapide Qui prend pour argent content c'qu'un Soral dit J'ai préféré toi-même tu sais refré Toi-même tu sais, c'est que les demi p J'aime peu les deux tiers de c'que j'ai fais hier Je préfère comment j'en parle aujourd'hui De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Comme un air d'ma génération La mélodie va t'piquer, c'est pour tout le monde, pas d'ségrégation J'voyais les p'tits paniquer J't'emmènes en voyage dans le temps Même si d'base, t'es pas trop opé' L'époque des Boom bap L'époque où j'regardais l'club Dorothée Passionné d'foot, avant c'était pas CR et Messi On faisait du sale à la té-ci Ils appréciaient tous, s'prenaient pour Pelé, au lycée, c'était précis En cas d'embrouille, ça s'prenait pour Kenshiro Mais détalaient en balle quand retentissait l'bruit des gyro' Y a pas d'pitié pour les croissants, laisse moi tirer l'poisson Pour être un super héros, sans pétard ni boisson Le hip-hop est une passion, han, Nicky Larson On est toujours ok, génération Dorothée D. Ace, Demi P, toute l'équipe à côté Power rangers a sauté, nouveau panorama On est dans la capsule Akira Toriyama On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG You might also like J'déteste Ségolène Royal gros, y a pas d'recours C'était soit Dorothée, soit le bas d'nos tours Pour passer les obstacles, fallait qu'j'en fasse beaucoup J'étais le black Goku, avant black Dooku, yeah J'étais dégoûté mais tout s'arrête un jour En vérité, rendez nous Dorothée et reprenez Zemmour, yeah J'veux un nuage magique, fuck ta Maybach Dans mes sons le chevalier Ikki et Nicky font mes backs J'n'avais pas de limite, j'bouffais des animes toute la journée J'connaissais pas la mi-temps, à chaque découverte, j'étais choqué Tous les génériques de Bernard Minet, minot, j'étais comme animé Par Goku face à la menace, qu'il finissait par laminer Olive et Tom à midi, tous les départs avec Mehdi Pour m'rappeler de Ken et Saint Seiya, de temps en temps, je médite J'remercie le club Do' pour avoir comblé mes aprems Y a qu'avant que j'me disais, que ce serait mieux après On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG Un peu d'amour, y a pas qu'la haine Ma daronne s'appelle Dorothée, elle met l'feu dans ma boîte crânienne Au CE2 même pas la moyenne, j'm'en bas les noisettes J'étais en live quand Goku est devenu Saiyen Incollable en animés, frère, j'connais tout, tout, tout De Bioman à Collège fou, fou, fou J'avais pas d'thune, moi, y avait pas d'street, pas d'caille J'voulais la culotte de Bulma et l'flow à Tao Pai Pai On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG On était in da club avant 50 Doro nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG</t>
+          <t>Comme un air d'ma génération La mélodie va t'piquer, c'est pour tout le monde, pas d'ségrégation J'voyais les p'tits paniquer J't'emmènes en voyage dans le temps Même si d'base, t'es pas trop opé' L'époque des Boom bap L'époque où j'regardais l'club Dorothée Passionné d'foot, avant c'était pas CR et Messi On faisait du sale à la té-ci Ils appréciaient tous, s'prenaient pour Pelé, au lycée, c'était précis En cas d'embrouille, ça s'prenait pour Kenshiro Mais détalaient en balle quand retentissait l'bruit des gyro' Y a pas d'pitié pour les croissants, laisse moi tirer l'poisson Pour être un super héros, sans pétard ni boisson Le hip-hop est une passion, han, Nicky Larson On est toujours ok, génération Dorothée D. Ace, Demi P, toute l'équipe à côté Power rangers a sauté, nouveau panorama On est dans la capsule Akira Toriyama On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG J'déteste Ségolène Royal gros, y a pas d'recours C'était soit Dorothée, soit le bas d'nos tours Pour passer les obstacles, fallait qu'j'en fasse beaucoup J'étais le black Goku, avant black Dooku, yeah J'étais dégoûté mais tout s'arrête un jour En vérité, rendez nous Dorothée et reprenez Zemmour, yeah J'veux un nuage magique, fuck ta Maybach Dans mes sons le chevalier Ikki et Nicky font mes backs J'n'avais pas de limite, j'bouffais des animes toute la journée J'connaissais pas la mi-temps, à chaque découverte, j'étais choqué Tous les génériques de Bernard Minet, minot, j'étais comme animé Par Goku face à la menace, qu'il finissait par laminer Olive et Tom à midi, tous les départs avec Mehdi Pour m'rappeler de Ken et Saint Seiya, de temps en temps, je médite J'remercie le club Do' pour avoir comblé mes aprems Y a qu'avant que j'me disais, que ce serait mieux après On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG Un peu d'amour, y a pas qu'la haine Ma daronne s'appelle Dorothée, elle met l'feu dans ma boîte crânienne Au CE2 même pas la moyenne, j'm'en bas les noisettes J'étais en live quand Goku est devenu Saiyen Incollable en animés, frère, j'connais tout, tout, tout De Bioman à Collège fou, fou, fou J'avais pas d'thune, moi, y avait pas d'street, pas d'caille J'voulais la culotte de Bulma et l'flow à Tao Pai Pai On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG On était in da club avant 50 Doro nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>T'as vu aujourd'hui j'rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max, vas-y laisse place à lespèce Interview sur interview non laissez-moi tranquille Ils ont senti le truc, hein depuis le titre on m'a dit Demi Portion explique nous d'où sortent toutes ces paroles À trop vouloir battre le fer on a tué l'tétanos Stop, dis-moi est-ce-que t'es fier, est-ce-que les gens sont cool ? Dis-moi Rachid comment tu fais, explique-moi ton parcours J'ai commencé mes premières lignes de ma ville de Sète Je dépasse pas la 10ème ligue, voir Adil qui m'aide Et Timothée m'a rendu MC 15 ans plus tard Non merci pas de Bercy parlez-moi des petites salles Si je te causais du public, grâce à eux j'en suis là Chez moi y'a pas d'mode, pas d'ça si j'ressors mes Fila Depuis l'époque d'ONPP et d'nos premiers volumes À tous les MCs qu'j'ai connu et qui font qu'ça évolue Et si j'te croise dans la rue, j'toublierai jamais mon pote On reste les mêmes pas de problème, c'est ce qui me donne la force x2 T'as vu aujourd'hui je rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max Vas-y laisse place à lespèce, au guerrier de l'espace You might also like Beaucoup diront c'est du plaisir mais t'as pas vu le chemin Obligé d'cacher mes peines et d'faire le mec serein Dieu merci je manque de rien, aujourd'hui artiste À peine 16 ans je me retrouve à refuser les maisons de disque À cette heure-ci je ne regrette pas ni les meilleurs moments Si je continue de Sète là où m'emporte le vent On fait rien n'importe comment regarde la chance qu'on a J'préfère l'entrainement je veux pas d'championnat Interview mais sur le vif j'trouve jamais les mots Si je te racontais ma vie ça dépasserait le morceau Des soirées sous boisson et des souvenirs agaçants On veut montrer la bonne image malgré qu'elle est transparente Si nos projets tombent à l'eau, est-ce ramasser du liquide ? Pour avoir au moins un but, faut former la bonne équipe T'as vu aujourd'hui j'rappe, peut-être demain je dérape Protégez mon armure, un Chevalier du Zodiaque x2 T'as vu aujourd'hui je rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max Vas-y laisse place à lespèce, au guerrier de l'espace 19 ans que jécris, j'ai gagné, j'ai perdu Et si ma musique est triste, j'ai le sourire entendu Je remercie la culture, et de ce qu'elle m'a donnée Paraît que j'ai une plume, OK donc laissez-moi décorer x2 T'as vu aujourd'hui je rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max Vas-y laisse place à lespèce, au guerrier de l'espace J'suis arrivé au terminus1</t>
+          <t>T'as vu aujourd'hui j'rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max, vas-y laisse place à lespèce Interview sur interview non laissez-moi tranquille Ils ont senti le truc, hein depuis le titre on m'a dit Demi Portion explique nous d'où sortent toutes ces paroles À trop vouloir battre le fer on a tué l'tétanos Stop, dis-moi est-ce-que t'es fier, est-ce-que les gens sont cool ? Dis-moi Rachid comment tu fais, explique-moi ton parcours J'ai commencé mes premières lignes de ma ville de Sète Je dépasse pas la 10ème ligue, voir Adil qui m'aide Et Timothée m'a rendu MC 15 ans plus tard Non merci pas de Bercy parlez-moi des petites salles Si je te causais du public, grâce à eux j'en suis là Chez moi y'a pas d'mode, pas d'ça si j'ressors mes Fila Depuis l'époque d'ONPP et d'nos premiers volumes À tous les MCs qu'j'ai connu et qui font qu'ça évolue Et si j'te croise dans la rue, j'toublierai jamais mon pote On reste les mêmes pas de problème, c'est ce qui me donne la force x2 T'as vu aujourd'hui je rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max Vas-y laisse place à lespèce, au guerrier de l'espace Beaucoup diront c'est du plaisir mais t'as pas vu le chemin Obligé d'cacher mes peines et d'faire le mec serein Dieu merci je manque de rien, aujourd'hui artiste À peine 16 ans je me retrouve à refuser les maisons de disque À cette heure-ci je ne regrette pas ni les meilleurs moments Si je continue de Sète là où m'emporte le vent On fait rien n'importe comment regarde la chance qu'on a J'préfère l'entrainement je veux pas d'championnat Interview mais sur le vif j'trouve jamais les mots Si je te racontais ma vie ça dépasserait le morceau Des soirées sous boisson et des souvenirs agaçants On veut montrer la bonne image malgré qu'elle est transparente Si nos projets tombent à l'eau, est-ce ramasser du liquide ? Pour avoir au moins un but, faut former la bonne équipe T'as vu aujourd'hui j'rappe, peut-être demain je dérape Protégez mon armure, un Chevalier du Zodiaque x2 T'as vu aujourd'hui je rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max Vas-y laisse place à lespèce, au guerrier de l'espace 19 ans que jécris, j'ai gagné, j'ai perdu Et si ma musique est triste, j'ai le sourire entendu Je remercie la culture, et de ce qu'elle m'a donnée Paraît que j'ai une plume, OK donc laissez-moi décorer x2 T'as vu aujourd'hui je rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max Vas-y laisse place à lespèce, au guerrier de l'espace J'suis arrivé au terminus1</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Personne 1 Veuillez vous lever, laudience est ouverte. Lhonorable Président Juge Bonjour chers concitoyens, veuillez-vous asseoir. Messieurs et vous monsieur Accusé Demi Portion Oui monsieur ? Juge Jai devant les yeux, une copie de votre inculpation, abattu par un être humain. Comprenez-vous les accusations portées contre vous ? Accusé Oui Juge Comment comptez-vous plaider ? Excusez-moi Monsieur le Juge, jvais vous raconter simplement Ce soir jétais énervé, ça ma changé lcomportement Javais un drôle de manque, un peu comme un toxico Jai pris un Bic, une feuille et un énorme Zippo Aussitôt, on sdit qula nuit tout l'monde dort, cest sûr Je men souviens, cest vers minuit que jai trouvé une mesure Une par une, tête par tête, jvise ma cible Ce soir-là, comment vous dire, je navais plus dprincipes 16 barils brûlent sans faire de victime Votre honneur, je vous rassure que je nai rien fait dpire Lhistoire est mal partie, pourtant javais rien bu La rage ma provoqué quand jai tapé linstru Quelle horreur, là on mdit dparler au procureur Pour des punchlines aujourdhui on tappelle vite tueur Quand ils rentrent, tinnoves pour une place dans un ptit rang Demande à Flynt, du bon son, cest cque le peuple demande Pourquoi mconvoquer, je ne regrette pas lacte Pour des rimes, jai lmême procès quDieudonné MBala Des titres enregistrés, lenquête sarrête pas là Objection, Demi Portion, vous sortez de là Non, je vous renvoie la balle, si je me permets Toute façon, vous allez faire quoi ? Jsuis déjà enfermé Jury ou citoyens, ne soyez pas étonnés Si aujourdhui il est mort, cest que mes mots lont bien tué You might also like Personne 2 Cest un héros ce type alors libérez-le Juge Que le jury ne tienne pas compte de cette réponse Personne 2 Un héros du peuple ! Juge Allons, veuillez faire taire cet homme aussi Personne 2 Un héros du peuple ! C'est là un homme qui a admis devant vous, en rendant la justice sans laide dun jury La défense veut sa parole, lâchez vos dépositions Daprès le casier des Grandes Gueules, délit chez Demi Portion Article en infraction, inconnu chez nos services Refus dobtempérer pour écriture à rime à risque Plusieurs avertissements, notamment beaucoup dplaintes En nous signant partout des vidéos sur internet Rachid, sorti dSète, cest une arme quil emploie Sa perquisition, il avait de lencre sur les doigts On a les preuves, les plans, tout est revu à la loupe Son bloc-notes, ses amis, un vieux réseau sur Facebook On surveille tout, le coupable est bien présent Cest un vrai récidiviste, il a des textes pour tous les samples Soyez conscient, il ne faut pas quil nous échappe Cest un hors-la-loi qui na pas peur de se défendre Bizarre, et pour indices, il nous a laissé qudes sons On doit lenfermer très vite pour la liberté dexpression Accusé Demi Portion Excusez-moi dhausser la voix, ma dernière question est posée On sait qula vérité blesse, mais a-t-il le droit de tuer ? Personne 3 Le droit de tuer ? Tous ceux qui sont dans ce tribunal le savent, tous nos concitoyens le savent aussi. Il vous suffit à présent de trouver le courage de prononcer Coupable ! et il doit être condamné, jen ai fini Juge Fin de laudience</t>
+          <t>Personne 1 Veuillez vous lever, laudience est ouverte. Lhonorable Président Juge Bonjour chers concitoyens, veuillez-vous asseoir. Messieurs et vous monsieur Accusé Demi Portion Oui monsieur ? Juge Jai devant les yeux, une copie de votre inculpation, abattu par un être humain. Comprenez-vous les accusations portées contre vous ? Accusé Oui Juge Comment comptez-vous plaider ? Excusez-moi Monsieur le Juge, jvais vous raconter simplement Ce soir jétais énervé, ça ma changé lcomportement Javais un drôle de manque, un peu comme un toxico Jai pris un Bic, une feuille et un énorme Zippo Aussitôt, on sdit qula nuit tout l'monde dort, cest sûr Je men souviens, cest vers minuit que jai trouvé une mesure Une par une, tête par tête, jvise ma cible Ce soir-là, comment vous dire, je navais plus dprincipes 16 barils brûlent sans faire de victime Votre honneur, je vous rassure que je nai rien fait dpire Lhistoire est mal partie, pourtant javais rien bu La rage ma provoqué quand jai tapé linstru Quelle horreur, là on mdit dparler au procureur Pour des punchlines aujourdhui on tappelle vite tueur Quand ils rentrent, tinnoves pour une place dans un ptit rang Demande à Flynt, du bon son, cest cque le peuple demande Pourquoi mconvoquer, je ne regrette pas lacte Pour des rimes, jai lmême procès quDieudonné MBala Des titres enregistrés, lenquête sarrête pas là Objection, Demi Portion, vous sortez de là Non, je vous renvoie la balle, si je me permets Toute façon, vous allez faire quoi ? Jsuis déjà enfermé Jury ou citoyens, ne soyez pas étonnés Si aujourdhui il est mort, cest que mes mots lont bien tué Personne 2 Cest un héros ce type alors libérez-le Juge Que le jury ne tienne pas compte de cette réponse Personne 2 Un héros du peuple ! Juge Allons, veuillez faire taire cet homme aussi Personne 2 Un héros du peuple ! C'est là un homme qui a admis devant vous, en rendant la justice sans laide dun jury La défense veut sa parole, lâchez vos dépositions Daprès le casier des Grandes Gueules, délit chez Demi Portion Article en infraction, inconnu chez nos services Refus dobtempérer pour écriture à rime à risque Plusieurs avertissements, notamment beaucoup dplaintes En nous signant partout des vidéos sur internet Rachid, sorti dSète, cest une arme quil emploie Sa perquisition, il avait de lencre sur les doigts On a les preuves, les plans, tout est revu à la loupe Son bloc-notes, ses amis, un vieux réseau sur Facebook On surveille tout, le coupable est bien présent Cest un vrai récidiviste, il a des textes pour tous les samples Soyez conscient, il ne faut pas quil nous échappe Cest un hors-la-loi qui na pas peur de se défendre Bizarre, et pour indices, il nous a laissé qudes sons On doit lenfermer très vite pour la liberté dexpression Accusé Demi Portion Excusez-moi dhausser la voix, ma dernière question est posée On sait qula vérité blesse, mais a-t-il le droit de tuer ? Personne 3 Le droit de tuer ? Tous ceux qui sont dans ce tribunal le savent, tous nos concitoyens le savent aussi. Il vous suffit à présent de trouver le courage de prononcer Coupable ! et il doit être condamné, jen ai fini Juge Fin de laudience</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Demi Portion Soulchildren à la prod Écoute ça Les Grandes Gueules Ouais x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire Alerte incolore On lâchera pas le drapeau blanc À force d'être par terre, on s'fait plus mal en tombant J'vois plus rien à l'horizon et même à l'aide de mes jumelles Et rêve de changer d'vision et sans pouvoir compter les semaines J'ai encore du mal à vivre Et va demander aux vraies belles On s'contente, on survit, d'voir ma famille, la vie est belle J'remercie Dieu d'écrire et d'vous envoyer mes signes En crachant sur le Sheitan qui nous rapproche de la résine Car nos petits grandissent vite et ont compris le mot colère Et puis y'a ceux qui étudient et vont rarement à la vie scolaire Y'a toutes nos surs pudiques qui veulent ressembler à leur mère Ici on veut tourner la page et on veut déchirer le sommaire You might also like x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire J'n'ai pas voulu baisser le son mais j'ai préféré parler fort L'écriture nous a bercé à réunir nos idées folles On dessine tous le monde petit comme la Mini Austin Et les gamines se font grandes, à la Whitney Houston À l'été ou automne, dis-moi pourquoi tu t'étonnes ? Vas-y garde les pieds sur terre et dis-moi pourquoi tu décolles Sachant qu'y'a rien dans les nuages mis à part Dieu qui nous visionne Et si j'ai besoin d'éclairage, encore une famille qui m'résonne On travaille, on essaie juste d'avoir le savoir comme armée Car rien qu'la différence m'a confié d'ne pas s'calmer Enfin, ne pas stagner Et bien vous parler quand j'note C'est bon, j'lance le refrain, un nouveau point parmi les autres x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire Sorti d'là où ça réfléchit avant d'foncer poto Mon image a été sali comme pour une vieille photo Excuse-moi, c'est pas à c'pays que j'dirai je t'aime Et si tu l'fais, chez nous on appelle ça un vrai chekhem On oublie rien Tu sais, à qui la faute J'me sens visé À l'écart, j'me fous d'leurs voyages et MJC Trop d'projets brisés, les jeunes sont sous tension Et ici, on a pas appris l'rap grâce à une subvention Lâche Demi Portion, c'est c'qu'on me répète souvent Qu'mon rap n'arrange rien même si ça pète au Soudan On peut ni changer le temps ni la direction des tanks Ni aider les clochards juste en leur offrant un sand' Si on en revenait Quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour en béton, c'est le ghetto humanitaire x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire Demi Portion Soulchildren à la prod 2008 Ouais Les Grandes Gueules Le ghetto humanitaire</t>
+          <t>Demi Portion Soulchildren à la prod Écoute ça Les Grandes Gueules Ouais x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire Alerte incolore On lâchera pas le drapeau blanc À force d'être par terre, on s'fait plus mal en tombant J'vois plus rien à l'horizon et même à l'aide de mes jumelles Et rêve de changer d'vision et sans pouvoir compter les semaines J'ai encore du mal à vivre Et va demander aux vraies belles On s'contente, on survit, d'voir ma famille, la vie est belle J'remercie Dieu d'écrire et d'vous envoyer mes signes En crachant sur le Sheitan qui nous rapproche de la résine Car nos petits grandissent vite et ont compris le mot colère Et puis y'a ceux qui étudient et vont rarement à la vie scolaire Y'a toutes nos surs pudiques qui veulent ressembler à leur mère Ici on veut tourner la page et on veut déchirer le sommaire x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire J'n'ai pas voulu baisser le son mais j'ai préféré parler fort L'écriture nous a bercé à réunir nos idées folles On dessine tous le monde petit comme la Mini Austin Et les gamines se font grandes, à la Whitney Houston À l'été ou automne, dis-moi pourquoi tu t'étonnes ? Vas-y garde les pieds sur terre et dis-moi pourquoi tu décolles Sachant qu'y'a rien dans les nuages mis à part Dieu qui nous visionne Et si j'ai besoin d'éclairage, encore une famille qui m'résonne On travaille, on essaie juste d'avoir le savoir comme armée Car rien qu'la différence m'a confié d'ne pas s'calmer Enfin, ne pas stagner Et bien vous parler quand j'note C'est bon, j'lance le refrain, un nouveau point parmi les autres x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire Sorti d'là où ça réfléchit avant d'foncer poto Mon image a été sali comme pour une vieille photo Excuse-moi, c'est pas à c'pays que j'dirai je t'aime Et si tu l'fais, chez nous on appelle ça un vrai chekhem On oublie rien Tu sais, à qui la faute J'me sens visé À l'écart, j'me fous d'leurs voyages et MJC Trop d'projets brisés, les jeunes sont sous tension Et ici, on a pas appris l'rap grâce à une subvention Lâche Demi Portion, c'est c'qu'on me répète souvent Qu'mon rap n'arrange rien même si ça pète au Soudan On peut ni changer le temps ni la direction des tanks Ni aider les clochards juste en leur offrant un sand' Si on en revenait Quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour en béton, c'est le ghetto humanitaire x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire Demi Portion Soulchildren à la prod 2008 Ouais Les Grandes Gueules Le ghetto humanitaire</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Est-il en notre temps rien de plus odieux De plus désespérant que de ne pas croire en Dieu ? Jvoudrais avoir la foi, la foi dmon charbonnier Qui est heureux comme un pape et con comme un panier Mon voisin du dessus un certain Blaise Pascal Ma gentiment donné, ce conseil amical Mettez-vous à genoux, priez et implorez Faire qusemblant de croire et bientôt vous mcroirez Jme mis à débiter les rotules à terre Tous les Ave Maria et tous les paternes austères Dans les rues, les cafés, les trains, les autobus Tous les De Profundis, tous les morpionibus Sur ces entrefaites là strouvant dans les orties Une soutane à ma taille et jmen suis travestis Et tonsuré de frais, ma guitare à la main Vers la foi salvatrice, jme mis en chemin Jtombais sur un boisseau dpunaises de sacristie Me prenant pour un autre, en chur Elles mont dit mon père, chantez nous donc quelques refrains sacrés Quelques saines chansons dont vous avez lsecret Grattant avec ferveur, les cordes sous mes doigts Jentonnais Le gorille avec Putain de toi Criant à limposteur, aux traitres aux papelards Elles veulent me faire subir le supplice dAbélard Jvais grossir les rangs des muets du Sérail Les belles ne viendront plus se pendre à mon poitrail Grâce à ma voix coupée, jaurai la place de choix Au milieu des petits chanteurs à la croix dbois Attirer par le bruit, une dame de charité Leur dire que faites-vous ? Malheureuses arrêtez Ya tant dhommes aujourdhui qui ont un penchant pervers A prendre obstinément Cupidon à lenvers Tant dhommes dépourvus de leurs virils appas A ceux qui en ont encore, ne les enlevons pas Ces arguments massues firent une grosse impression On me laissa partir avec des ovations Mais sur le chemin du ciel, je nferai plus un pas La foi viendra delle-même ou elle ne viendra pas Jnai jamais tué, jamais violé non plus Ya déjà quelques temps que je ne vole plus Et si lÉternel existe, en fin dcompte il voit Que je me conduis guère plus mal qusi javais la foi Si lÉternel existe, en fin dcompte il voit Que je me conduis guère plus mal qusi on avait la foiYou might also like</t>
+          <t>Est-il en notre temps rien de plus odieux De plus désespérant que de ne pas croire en Dieu ? Jvoudrais avoir la foi, la foi dmon charbonnier Qui est heureux comme un pape et con comme un panier Mon voisin du dessus un certain Blaise Pascal Ma gentiment donné, ce conseil amical Mettez-vous à genoux, priez et implorez Faire qusemblant de croire et bientôt vous mcroirez Jme mis à débiter les rotules à terre Tous les Ave Maria et tous les paternes austères Dans les rues, les cafés, les trains, les autobus Tous les De Profundis, tous les morpionibus Sur ces entrefaites là strouvant dans les orties Une soutane à ma taille et jmen suis travestis Et tonsuré de frais, ma guitare à la main Vers la foi salvatrice, jme mis en chemin Jtombais sur un boisseau dpunaises de sacristie Me prenant pour un autre, en chur Elles mont dit mon père, chantez nous donc quelques refrains sacrés Quelques saines chansons dont vous avez lsecret Grattant avec ferveur, les cordes sous mes doigts Jentonnais Le gorille avec Putain de toi Criant à limposteur, aux traitres aux papelards Elles veulent me faire subir le supplice dAbélard Jvais grossir les rangs des muets du Sérail Les belles ne viendront plus se pendre à mon poitrail Grâce à ma voix coupée, jaurai la place de choix Au milieu des petits chanteurs à la croix dbois Attirer par le bruit, une dame de charité Leur dire que faites-vous ? Malheureuses arrêtez Ya tant dhommes aujourdhui qui ont un penchant pervers A prendre obstinément Cupidon à lenvers Tant dhommes dépourvus de leurs virils appas A ceux qui en ont encore, ne les enlevons pas Ces arguments massues firent une grosse impression On me laissa partir avec des ovations Mais sur le chemin du ciel, je nferai plus un pas La foi viendra delle-même ou elle ne viendra pas Jnai jamais tué, jamais violé non plus Ya déjà quelques temps que je ne vole plus Et si lÉternel existe, en fin dcompte il voit Que je me conduis guère plus mal qusi javais la foi Si lÉternel existe, en fin dcompte il voit Que je me conduis guère plus mal qusi on avait la foi</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>en cours d'écriture, si tu a les paroles envoie les nous!You might also like</t>
+          <t>en cours d'écriture, si tu a les paroles envoie les nous!</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Le fait d'vous parler maintenant ne me rend plus seul J'regarde l'écran de ce monde mais j'vois qu'le curseur Parce que le fait d'vous écrire me libère franchement Malgré toutes les blessures que j'ai vous êtes mon pansement Encore un pincement au coeur ou la gorge nouée D'abord avec les moyens du bord faudra une bouée D'accord, travailler dur dois-je l'avouer C'est sûr, même avec mon regard j'parle aux muets J'n'ai jamais écrasé personne j'ai juste pris mon chemin Avec les bâtons dans les roues j'ai repris Michelin Avec la même équipe depuis, j'ai appris trop d'choses Comme toujours aimer les siens en guise de bonne dose C'est ça la bonne cause tout en gardant les mêmes codes En cas d'mal j'ai qu'des mots, ma première démo tourne encore Extra large, bonjour la France avec Fabe Ouai le temps passe j'ai gobé l'hip-hop comme extase Un freestyle pas d'soucis j'aime trop ça c'est certain The artist, aller présentez-moi Dujardin En hors-piste, pas d'thème ce son est pour mon public Merci pour votre tenue moi qui suis timide et pudique Rachid, on m'a dit continues si ça s'complique Tranquille, et c'est tout ce qu'ils retiennent d'un sudiste Un accent non ça suffit pas, sûrement trop insuffisant On a tous un pote ou voir un autre qui avait deux visages L'apparence devient trop bizarre, oh v'la l'image Foncer c'est trop facile donc j'me suis intéressé aux limaces Leonidas, sans la carrure de Rambo J'n'ai jamais voulu monter c'n'est pas mon truc la rando Pas d'repos, la seule forme d'autorité Quand on a trop d'caractère est-c'qu'on se doit de l'tweeter ? Nouvel album dans les bacs, sorti en indépendant J'porte la voix de tout l'monde, des passionnés depuis longtemps You might also like Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement On avance à petits pas, mais ça ça n'est que le départ Et paraîtrait qu'c'est pas du gâteau si je veux couper des parts J'ai même en tendu qu'c'était mort, t'es passé comme les TN Mais dans le sud on perd pas l'nord, on aime rapper comme les vrais M hein T'y as vu la scène tout le contraire de celle du crime On arrive sans artifices pour foutre le feu avec une rime Moi j'étais pas dans mon assiette, trouver les couteaux dans mon dos p'tit La chute j'ai su l'amortir, sur un matelas d'ortie Pendant qu'certains déraillent en pensant vivre un train d'enfer Armé de rimes nous on veut voir tout le monde les mains en l'air One loove, facile à dire si t'y mets pas du cur Pris de l'écart où les trois quarts te disent j'm'en bas les couilles T'arrives avec un gun j'arrive avec une fleur Grandi dans la débrouille avec mes frères et surs Envie d'croquer le monde comme ce bonhomme qui revient d'taule Si on fait tâche ce sera seulement avec paintball bang Hein, lol,Triste prise de position, personne refuse le fric On cherche juste les solutions Oublies la thug life, ça vient de Montpel', et pas d'Los Angeles Que du sunshine dans tous les sons qu'je laisse Hé ! Ça part de Sète y a la recette sur scène Au fait, qu'est-ce vous faites y a un concert c'week-end ? Et même faya on foutre l'faya comme un raggaman Envoie le mic, c'est pour mes gaillards pour mes padawans J'vois pas la maille, si j'fais pas l'boulot qui va l'faire boy Tenir la tête sous l'eau j'connais qu'sur Gameboy Tu vois l'bail, on aime kiffer la life la belle grillade au soleil On s'accueillera avec le smile on oubliera les problèmes T'as vu ce mec a mouillé le maillot pour refaire sa maille et finir meilleur Y en a marre des cailloux, de mettre de la mayo, de la sauce samouraï en croyant qu'c'est meilleur On joue pas les voyous, le mental de warrior on est face aux jaloux par ici ou ailleurs Comme Tapion on veut finir meilleur Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement</t>
+          <t>Le fait d'vous parler maintenant ne me rend plus seul J'regarde l'écran de ce monde mais j'vois qu'le curseur Parce que le fait d'vous écrire me libère franchement Malgré toutes les blessures que j'ai vous êtes mon pansement Encore un pincement au coeur ou la gorge nouée D'abord avec les moyens du bord faudra une bouée D'accord, travailler dur dois-je l'avouer C'est sûr, même avec mon regard j'parle aux muets J'n'ai jamais écrasé personne j'ai juste pris mon chemin Avec les bâtons dans les roues j'ai repris Michelin Avec la même équipe depuis, j'ai appris trop d'choses Comme toujours aimer les siens en guise de bonne dose C'est ça la bonne cause tout en gardant les mêmes codes En cas d'mal j'ai qu'des mots, ma première démo tourne encore Extra large, bonjour la France avec Fabe Ouai le temps passe j'ai gobé l'hip-hop comme extase Un freestyle pas d'soucis j'aime trop ça c'est certain The artist, aller présentez-moi Dujardin En hors-piste, pas d'thème ce son est pour mon public Merci pour votre tenue moi qui suis timide et pudique Rachid, on m'a dit continues si ça s'complique Tranquille, et c'est tout ce qu'ils retiennent d'un sudiste Un accent non ça suffit pas, sûrement trop insuffisant On a tous un pote ou voir un autre qui avait deux visages L'apparence devient trop bizarre, oh v'la l'image Foncer c'est trop facile donc j'me suis intéressé aux limaces Leonidas, sans la carrure de Rambo J'n'ai jamais voulu monter c'n'est pas mon truc la rando Pas d'repos, la seule forme d'autorité Quand on a trop d'caractère est-c'qu'on se doit de l'tweeter ? Nouvel album dans les bacs, sorti en indépendant J'porte la voix de tout l'monde, des passionnés depuis longtemps Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement On avance à petits pas, mais ça ça n'est que le départ Et paraîtrait qu'c'est pas du gâteau si je veux couper des parts J'ai même en tendu qu'c'était mort, t'es passé comme les TN Mais dans le sud on perd pas l'nord, on aime rapper comme les vrais M hein T'y as vu la scène tout le contraire de celle du crime On arrive sans artifices pour foutre le feu avec une rime Moi j'étais pas dans mon assiette, trouver les couteaux dans mon dos p'tit La chute j'ai su l'amortir, sur un matelas d'ortie Pendant qu'certains déraillent en pensant vivre un train d'enfer Armé de rimes nous on veut voir tout le monde les mains en l'air One loove, facile à dire si t'y mets pas du cur Pris de l'écart où les trois quarts te disent j'm'en bas les couilles T'arrives avec un gun j'arrive avec une fleur Grandi dans la débrouille avec mes frères et surs Envie d'croquer le monde comme ce bonhomme qui revient d'taule Si on fait tâche ce sera seulement avec paintball bang Hein, lol,Triste prise de position, personne refuse le fric On cherche juste les solutions Oublies la thug life, ça vient de Montpel', et pas d'Los Angeles Que du sunshine dans tous les sons qu'je laisse Hé ! Ça part de Sète y a la recette sur scène Au fait, qu'est-ce vous faites y a un concert c'week-end ? Et même faya on foutre l'faya comme un raggaman Envoie le mic, c'est pour mes gaillards pour mes padawans J'vois pas la maille, si j'fais pas l'boulot qui va l'faire boy Tenir la tête sous l'eau j'connais qu'sur Gameboy Tu vois l'bail, on aime kiffer la life la belle grillade au soleil On s'accueillera avec le smile on oubliera les problèmes T'as vu ce mec a mouillé le maillot pour refaire sa maille et finir meilleur Y en a marre des cailloux, de mettre de la mayo, de la sauce samouraï en croyant qu'c'est meilleur On joue pas les voyous, le mental de warrior on est face aux jaloux par ici ou ailleurs Comme Tapion on veut finir meilleur Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>x2 Des naissances, des décès, des échecs, des succès Ce gâchis c'est la vie, tu sais Saisons automne-hiver bébé Quand j'm'occupe de mes oignons, ça m'donne envie d'pleurer J'ai pas pris le mic pour me la sentir mec Plutôt me sentir libre Quitte à s'en sortir sans tirette La zik' te fait rêver toi R'garde au pire on fait quoi Regarde un peu le ciel, chacun d'mes titres est une étoile Frapper ça sert à quoi ? Ils n'ressentent plus rien La plupart r'fourguent 100 kil' avec une piqueuse dans les reins On n'cherche pas une vie d'galérien, c'est plutôt elle qui trouve Je tourne qu'autour du pot, t'as un problème de zoom Non c'n'est pas le rap qui t'soûle, mais les groupes que tu consommes Quand t'auras fini d'bouffer, ça t'fera une belle addition J'écris le 3 septembre, chaque jour est une rentrée Prof de moi-même j'ai construit ma propre école à côté Sans chercher la renommée, juste un coin d'tranquille On n'sera jamais bien couvert comme un gosse en Syrie Putain ma rime chagrine, pourquoi dois-je parler d'ça Et si j'vous parlais arabe, on a jamais trop d'shrab You might also like x2 On se plaint pas, j'parle pas, souvent trop pas indigné A force de s'planter, écoute, on a fini jardinier Tant qu'y a du taf', on y va, on f'ra les choses comme y faut Mais y a toujours un connard pour souligner tes défauts Comment ça la réussite ne s'mérite qu'en perdant J'ai accidenté l'industrie sans trop m'fier au constat Sans crier mon code postal, car de partout ça déboîte Fais ta vie, j'veux pas savoir comment tu laves ton argent sale Quand t'es au commissariat je suis sûr que tu chiales Tous ceux qui parlaient fort la ferment au moment crucial On est loin d'Ibiza, de grosses piscines à Barcelone Ici c'est plus faux visa mais est-ce difficile d'avoir ce rôle On fait tous partie du monde, chacun ses arguments Le jour où tu partiras tu s'ras solo à ton jugement Donc poto vas-y doucement, en attendant que tout s'arrange Ma soeur, regarde ta mère, est-ce qu'elle a vécu ça avant ? x2 C'est la fin du carnaval pour l'édito de mes histoires J'ai du mal à m'arrêter, j'ai sûrement écrit 100 barres Dédié à ma carte son qui m'a suivi depuis l'époque Dédié à mon XXX qui a vu grandir mon bloc-notes J'parle de misère, mon père voulait l'meilleur de nous-mêmes de nous-mêmes Et non pas voir une génération L-O-L Tout le monde veut devenir star, est-ce un rêve ou cauchemar Mieux vaut marcher d'travers et n'jamais rester au centre Lâche c'que t'as dans l'ventre, j'fais ça avec le coeur Et quand j'rappe même ta montre arrête de t'filer l'heure Tellement décalé, énervé qu'on dirait qu'j'fais du métal Donc allez vous faire foutre dans vos hôtels à Dubaï Fuck les moyens du bord, on a même plus d'gouvernail Rien nous choque, ces temps-ci ça r'vend des litrons de sky Les claquer c'est leur but, afin qu'on n'réfléchisse plus Remplace les t sur ce mot tu verras si ça donne zup, suce Ouais j't'assure comment chaque acte on l'assume J'pourrais t'viser tranquille, sans t'sortir une insulte C'n'est pas parce que t'es moisi que j'dois parler d'pourriture Tu sais t'as aucune patte, MC fruits et légumes Écrire loin du ridicule, on m'a dit -Toi ne lâche pas Y a des ferraris, c'est pas grave j'irais le faire en Mazda J'm'en fous de la course, laissez-moi un camping J'vous laisserai les pleins phares, j'allumerai les warning Si j'rappe ta vie c'est donc, qu'on a les mêmes histoires Un muet pourrait les dire, un aveugle pourrait les voir Si j'rappe ta vie c'est donc, qu'on a les mêmes histoires Un muet pourrait les dire, un aveugle pourrait les voir x2 Yo... Yo... Les Histoires... Les Histoires... Yo... R-A-S-H-I-D - Demi Portion C'était les Histoires... Merci à ceux qui m'soutiennent, à toutes les villes de France Tous ceux qu'j'ai pu rencontrer, le public Ma famille, ceux qui m'ont donné la force A tous les passionnés, tous ceux qui sont présents sur l'album Ceux qui font avancer les choses A ceux que je n'connais pas encore One Love Oh, l'album est fini ? T'as bloqué, jusqu'à la fin des Histoires T'es vraiment un drogué Ouais c'est ma vie Tu veux du flow là ? Je vais t'envoyer tout c'que t'aimes Demi Portion tape un p'tit passe-passe, sur la touche mais vise la surface L'effet de surprise, la rage sur place Ouais c'est sur pause, une vida loca Cherche l'occaz', un peu d''audace, les bêtises on a passé l'âge Un jour tout s'efface Oui c'est Rashid, fais voir ton visage Oui c'est facile de parler trop mal Non c'est rapide de faire des dommages Atterris t'as niqué des collages Pas d'coloriage, ne colle pas de biatchs Rien à l'amiable, mate ce que je lâche J'me sers de ma bouche, comme une arme Ou j'me couche, toi tu craches Centre de menaces, j't'oublie grave Oui j'vis ça, loin des strass, pourquoi tu stresses, faut qu'tu saches Nous on t'adresse à chaque message Oui les mots blessent, mais qui est sage ? XXX nos mots, un coup d'shlass Rentrer dans le moule, ça faut pas C'est fragile, y a tout qui s'casse Qui fait la tête et qui s'écrase Sorti d'Sète, du haut d'la classe Pas d'compét', j'ai pas l'temps pour ça La grosse tête te XXX la face Et oui ça m'agace, c'est pas trop ma tasse XXX qu'tu parles et bousilles le taf' Bousilles le taf'... x2 On a fait de cet art une drogue qu'on r'vend à la populace Paraît qu'on s'pique à chaque note et qu'les saints en redemande Ingurgite des litres d'encre dans toutes nos soirées dark C'est l'retour du Black White Des vies en noir et blanc C'est l'retour du Black White Demi Portion Black White Noir Blanc, époque insomniaque Yes, les Histoires et les Histoires... C'est les Histoires et les Histoires... XXX XXX Big Up</t>
+          <t>x2 Des naissances, des décès, des échecs, des succès Ce gâchis c'est la vie, tu sais Saisons automne-hiver bébé Quand j'm'occupe de mes oignons, ça m'donne envie d'pleurer J'ai pas pris le mic pour me la sentir mec Plutôt me sentir libre Quitte à s'en sortir sans tirette La zik' te fait rêver toi R'garde au pire on fait quoi Regarde un peu le ciel, chacun d'mes titres est une étoile Frapper ça sert à quoi ? Ils n'ressentent plus rien La plupart r'fourguent 100 kil' avec une piqueuse dans les reins On n'cherche pas une vie d'galérien, c'est plutôt elle qui trouve Je tourne qu'autour du pot, t'as un problème de zoom Non c'n'est pas le rap qui t'soûle, mais les groupes que tu consommes Quand t'auras fini d'bouffer, ça t'fera une belle addition J'écris le 3 septembre, chaque jour est une rentrée Prof de moi-même j'ai construit ma propre école à côté Sans chercher la renommée, juste un coin d'tranquille On n'sera jamais bien couvert comme un gosse en Syrie Putain ma rime chagrine, pourquoi dois-je parler d'ça Et si j'vous parlais arabe, on a jamais trop d'shrab x2 On se plaint pas, j'parle pas, souvent trop pas indigné A force de s'planter, écoute, on a fini jardinier Tant qu'y a du taf', on y va, on f'ra les choses comme y faut Mais y a toujours un connard pour souligner tes défauts Comment ça la réussite ne s'mérite qu'en perdant J'ai accidenté l'industrie sans trop m'fier au constat Sans crier mon code postal, car de partout ça déboîte Fais ta vie, j'veux pas savoir comment tu laves ton argent sale Quand t'es au commissariat je suis sûr que tu chiales Tous ceux qui parlaient fort la ferment au moment crucial On est loin d'Ibiza, de grosses piscines à Barcelone Ici c'est plus faux visa mais est-ce difficile d'avoir ce rôle On fait tous partie du monde, chacun ses arguments Le jour où tu partiras tu s'ras solo à ton jugement Donc poto vas-y doucement, en attendant que tout s'arrange Ma soeur, regarde ta mère, est-ce qu'elle a vécu ça avant ? x2 C'est la fin du carnaval pour l'édito de mes histoires J'ai du mal à m'arrêter, j'ai sûrement écrit 100 barres Dédié à ma carte son qui m'a suivi depuis l'époque Dédié à mon XXX qui a vu grandir mon bloc-notes J'parle de misère, mon père voulait l'meilleur de nous-mêmes de nous-mêmes Et non pas voir une génération L-O-L Tout le monde veut devenir star, est-ce un rêve ou cauchemar Mieux vaut marcher d'travers et n'jamais rester au centre Lâche c'que t'as dans l'ventre, j'fais ça avec le coeur Et quand j'rappe même ta montre arrête de t'filer l'heure Tellement décalé, énervé qu'on dirait qu'j'fais du métal Donc allez vous faire foutre dans vos hôtels à Dubaï Fuck les moyens du bord, on a même plus d'gouvernail Rien nous choque, ces temps-ci ça r'vend des litrons de sky Les claquer c'est leur but, afin qu'on n'réfléchisse plus Remplace les t sur ce mot tu verras si ça donne zup, suce Ouais j't'assure comment chaque acte on l'assume J'pourrais t'viser tranquille, sans t'sortir une insulte C'n'est pas parce que t'es moisi que j'dois parler d'pourriture Tu sais t'as aucune patte, MC fruits et légumes Écrire loin du ridicule, on m'a dit -Toi ne lâche pas Y a des ferraris, c'est pas grave j'irais le faire en Mazda J'm'en fous de la course, laissez-moi un camping J'vous laisserai les pleins phares, j'allumerai les warning Si j'rappe ta vie c'est donc, qu'on a les mêmes histoires Un muet pourrait les dire, un aveugle pourrait les voir Si j'rappe ta vie c'est donc, qu'on a les mêmes histoires Un muet pourrait les dire, un aveugle pourrait les voir x2 Yo... Yo... Les Histoires... Les Histoires... Yo... R-A-S-H-I-D - Demi Portion C'était les Histoires... Merci à ceux qui m'soutiennent, à toutes les villes de France Tous ceux qu'j'ai pu rencontrer, le public Ma famille, ceux qui m'ont donné la force A tous les passionnés, tous ceux qui sont présents sur l'album Ceux qui font avancer les choses A ceux que je n'connais pas encore One Love Oh, l'album est fini ? T'as bloqué, jusqu'à la fin des Histoires T'es vraiment un drogué Ouais c'est ma vie Tu veux du flow là ? Je vais t'envoyer tout c'que t'aimes Demi Portion tape un p'tit passe-passe, sur la touche mais vise la surface L'effet de surprise, la rage sur place Ouais c'est sur pause, une vida loca Cherche l'occaz', un peu d''audace, les bêtises on a passé l'âge Un jour tout s'efface Oui c'est Rashid, fais voir ton visage Oui c'est facile de parler trop mal Non c'est rapide de faire des dommages Atterris t'as niqué des collages Pas d'coloriage, ne colle pas de biatchs Rien à l'amiable, mate ce que je lâche J'me sers de ma bouche, comme une arme Ou j'me couche, toi tu craches Centre de menaces, j't'oublie grave Oui j'vis ça, loin des strass, pourquoi tu stresses, faut qu'tu saches Nous on t'adresse à chaque message Oui les mots blessent, mais qui est sage ? XXX nos mots, un coup d'shlass Rentrer dans le moule, ça faut pas C'est fragile, y a tout qui s'casse Qui fait la tête et qui s'écrase Sorti d'Sète, du haut d'la classe Pas d'compét', j'ai pas l'temps pour ça La grosse tête te XXX la face Et oui ça m'agace, c'est pas trop ma tasse XXX qu'tu parles et bousilles le taf' Bousilles le taf'... x2 On a fait de cet art une drogue qu'on r'vend à la populace Paraît qu'on s'pique à chaque note et qu'les saints en redemande Ingurgite des litres d'encre dans toutes nos soirées dark C'est l'retour du Black White Des vies en noir et blanc C'est l'retour du Black White Demi Portion Black White Noir Blanc, époque insomniaque Yes, les Histoires et les Histoires... C'est les Histoires et les Histoires... XXX XXX Big Up</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>J'avais le choix entre faire du rap ou sentir l'urine J'avais le choix entre me battre ou bien sortir du ring On dit que les problèmes arrivent dès qu'on rencontre la merde Tout l'monde veut le gâteau cousin dès qu'on a goûté aux miettes À part se motiver soi-même, à croire que ça nous aide J'crois pas à la politique cousin j'ai peur que ça nous gêne Les sales nous parlent d'hygiène et ça ne date pas d'hier On en revient au même et j'en suis à mon cinquième Yo, j'ai plein d'amour qui se mélange à plein de nerfs La voix des opprimés qui se balade en plein air On arrive en tête, on taffe depuis longtime On finira sur le stade, et même si vous gardez la balle Allez, regardez là-bas, j'arrive remonter la barre Au lieu d'aller trop vite, moi j'ai préféré prendre le car Calmez-vous les gars, beaucoup de tentations Quand l'pétard est tassé, j'sais qu'faut faire attention Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur You might also like D'toute manière c'est l'bordel, temps d'vider la corbeille Vague de problèmes, une fontaine à t'faire tomber une bouteille L'avenir a rien dans l'coude, disons qu'on restera soudés J'm'en fous qu'y ait rien à manger tant qu'Médior a pris l'goûter Prends l'départ au terminus, sans coup d'frein à l'arrivée La rue n'est pas ma prof vu qu'elle m'a déscolarisé Déchire le coloriage et fais péter les décibels Chez moi, y a que Saïd qui a réussi avec la Haine Frapper avec un verbe, éloigné d'vos parasites Ça fait du bien la musique donc j'reprends une pharmacie Dans ma route j'en ai croisés qu'on ne reverra plus jamais J'fais du rap en pyjama, paraît qu'on sera mieux soyer On a commencé d'en bas On a commencé d'en bas Passionnés depuis un bail Passionnés depuis un bail Oui on a démarré d'en bas on a démarré d'en bas Avec la rage qui m'accompagne Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur Oui on a démarré d'en bas Passionnés depuis un bail Passionnés depuis un bail Sprinter On a démarré d'en bas Demi Passionnés depuis un bail Mehdi On a démarré d'en bas Mono Passionnés depuis un bail Rolxx On a démarré d'en bas Passionnés depuis un bail Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur Une musique pas faite pour cent personnes mais pour des millions On est des milliers</t>
+          <t>J'avais le choix entre faire du rap ou sentir l'urine J'avais le choix entre me battre ou bien sortir du ring On dit que les problèmes arrivent dès qu'on rencontre la merde Tout l'monde veut le gâteau cousin dès qu'on a goûté aux miettes À part se motiver soi-même, à croire que ça nous aide J'crois pas à la politique cousin j'ai peur que ça nous gêne Les sales nous parlent d'hygiène et ça ne date pas d'hier On en revient au même et j'en suis à mon cinquième Yo, j'ai plein d'amour qui se mélange à plein de nerfs La voix des opprimés qui se balade en plein air On arrive en tête, on taffe depuis longtime On finira sur le stade, et même si vous gardez la balle Allez, regardez là-bas, j'arrive remonter la barre Au lieu d'aller trop vite, moi j'ai préféré prendre le car Calmez-vous les gars, beaucoup de tentations Quand l'pétard est tassé, j'sais qu'faut faire attention Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur D'toute manière c'est l'bordel, temps d'vider la corbeille Vague de problèmes, une fontaine à t'faire tomber une bouteille L'avenir a rien dans l'coude, disons qu'on restera soudés J'm'en fous qu'y ait rien à manger tant qu'Médior a pris l'goûter Prends l'départ au terminus, sans coup d'frein à l'arrivée La rue n'est pas ma prof vu qu'elle m'a déscolarisé Déchire le coloriage et fais péter les décibels Chez moi, y a que Saïd qui a réussi avec la Haine Frapper avec un verbe, éloigné d'vos parasites Ça fait du bien la musique donc j'reprends une pharmacie Dans ma route j'en ai croisés qu'on ne reverra plus jamais J'fais du rap en pyjama, paraît qu'on sera mieux soyer On a commencé d'en bas On a commencé d'en bas Passionnés depuis un bail Passionnés depuis un bail Oui on a démarré d'en bas on a démarré d'en bas Avec la rage qui m'accompagne Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur Oui on a démarré d'en bas Passionnés depuis un bail Passionnés depuis un bail Sprinter On a démarré d'en bas Demi Passionnés depuis un bail Mehdi On a démarré d'en bas Mono Passionnés depuis un bail Rolxx On a démarré d'en bas Passionnés depuis un bail Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur Une musique pas faite pour cent personnes mais pour des millions On est des milliers</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Rigole c'est que d'la zik, encore, en cur La gagne dans le collimateur, petit à la Tony Parker Acteur, interprète, un smile à mes auditeurs Ceci n'est qu'une demi lettre, envoyé à la bonne heure Le bonheur, la belle vie, Chacun comme il l'a voit La thune y'a ceux qui l'ont, ceux qui se tue à l'avoir Pas d'galère on contrôle, big up à la métropole C'est d'la bonne, on t'la donne, emballée dans l'album Ca se passe comme ça chez Racheton Un beat et j'pose le flow Un pas oui sans jalousie, non pas pour danser le slow Parait que les filles hallucinent, c'est elles qui font tourner le son Gardait le sourire les gars, le smile, la forme et le fond Le smile x3 Toujours on garde le smile Et comment le smile! Avec ça le smile! Encore Tout en gardant le smile Le smile x2 Toujours en gardant le smile Le smile x2 Tout en gardant le smile You might also like Sourit le son t'emporte, car il est temps qu'on partent Ca fait pas d'mal un peux d'joie sur un disque compact Contact, nomade, et ça fait funk Junk, smile, rigolade et ça fait jump, jump La musique adoucit ce qui me rend perplexe Le bon MC n'est pas celui qui a le meilleur texte Lache une oreille et constate Par toi meme qu'c'est de l'amour et du time Un smile, oui un smile Fait passer l'mot au suivant qu'on s'lache qu'on freestyle Nouvelle vibe grillé qu'on oublie un peux le calme A ne jamais oublier c'est qu'une passion au départ Sauvage, sauvage Même si l'argent fait le bonheur triste, dommage Courage, courage La faim justifie les moyens Non pas la fin de nos messages, messages La je t'explique Qui passe trop vite le sbif j'insiste C'est rare mon art Mon art</t>
+          <t>Rigole c'est que d'la zik, encore, en cur La gagne dans le collimateur, petit à la Tony Parker Acteur, interprète, un smile à mes auditeurs Ceci n'est qu'une demi lettre, envoyé à la bonne heure Le bonheur, la belle vie, Chacun comme il l'a voit La thune y'a ceux qui l'ont, ceux qui se tue à l'avoir Pas d'galère on contrôle, big up à la métropole C'est d'la bonne, on t'la donne, emballée dans l'album Ca se passe comme ça chez Racheton Un beat et j'pose le flow Un pas oui sans jalousie, non pas pour danser le slow Parait que les filles hallucinent, c'est elles qui font tourner le son Gardait le sourire les gars, le smile, la forme et le fond Le smile x3 Toujours on garde le smile Et comment le smile! Avec ça le smile! Encore Tout en gardant le smile Le smile x2 Toujours en gardant le smile Le smile x2 Tout en gardant le smile Sourit le son t'emporte, car il est temps qu'on partent Ca fait pas d'mal un peux d'joie sur un disque compact Contact, nomade, et ça fait funk Junk, smile, rigolade et ça fait jump, jump La musique adoucit ce qui me rend perplexe Le bon MC n'est pas celui qui a le meilleur texte Lache une oreille et constate Par toi meme qu'c'est de l'amour et du time Un smile, oui un smile Fait passer l'mot au suivant qu'on s'lache qu'on freestyle Nouvelle vibe grillé qu'on oublie un peux le calme A ne jamais oublier c'est qu'une passion au départ Sauvage, sauvage Même si l'argent fait le bonheur triste, dommage Courage, courage La faim justifie les moyens Non pas la fin de nos messages, messages La je t'explique Qui passe trop vite le sbif j'insiste C'est rare mon art Mon art</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Les Grandes Gueules, eh ouais, toujours Sprinter Demi Portion Je rame dans la même galère que la plupart de mes pairs Écoute, c'est pour les nôtres Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale À chaque, message Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale Aux armes Ouais c'est bizarre d'avouer qu'cent mille euros nan c'est pas la vie d'riche Des Quartiers Nord à la Reynerie, de ma ZUP à Vitry Dans l'immédiat, nous on veut l'or, fuck le Nouvel Ordre et fuck les médias On compte sur le mektoub pas sur la voyance fuck les médiums Toutes leurs prédilections, voudraient qu'tu prennes une direction Tous leurs critères de sélection, du vote aux élections On parle de nous comme si on était bons qu'pour les fractures Jamais démodés depuis la naissance toujours été d'actu Ici, regarde à qui on nous identifie Des sauvages révoltés, ça c'est c'est tout ce dont ils flippent Le Soleil tape mais les soucis en rien n'se modifient Et, qui a dit que dans le Sud la vie c'est magnifique ? De ville en ville les ennuis ne changent pas Devant les naïfs j'passe aussi pour un abruti quand j'parle Qui n'admet pas la peur que le malheur y frappe sec Tous d'accord, hier têtu aujourd'hui tu acceptes You might also like Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale À chaque, message Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale Aux armes Libérez-moi d'ce manège et du vertige avant tout Libérez-moi d'ce siège quitte à m'laisser aux vautours Embarrassé pas du tout, j'n'attends rien en retour Tous ceux qui ont visé la coupe sont tous sortis de la poule À court, la street paraît qu'elle est si maligne Et la thune, il en faut sans trouver un synonyme Et banni, banalisé, foncés sont vérifiés Ouais gros, ta carte bleue est maigre aux Champs Élysées Donc me parle pas d'hip-hop, stop y'a aucun rapport Mais qui dénonce vraiment, stop y'a aucun rappeur Et taper là où ça fait mal c'est connu ils sont protégés, big up Me reste encore un coup d'essai D'ici, ça paraît sec au cirque on en rigole Me sample pas trop MC, j'sais pas si j'te réponds D'ici, ça paraît sec, au cirque on en rigole Me sample pas trop MC, j'sais pas si j'te réponds Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale À chaque, message Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale Aux armes Je rame dans la même galère que la plupart de mes pairs La bombe du freestyle français Je rame dans la même galère que la plupart de mes pairs La bombe du freestyle français Chaque titre est un classique</t>
+          <t>Les Grandes Gueules, eh ouais, toujours Sprinter Demi Portion Je rame dans la même galère que la plupart de mes pairs Écoute, c'est pour les nôtres Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale À chaque, message Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale Aux armes Ouais c'est bizarre d'avouer qu'cent mille euros nan c'est pas la vie d'riche Des Quartiers Nord à la Reynerie, de ma ZUP à Vitry Dans l'immédiat, nous on veut l'or, fuck le Nouvel Ordre et fuck les médias On compte sur le mektoub pas sur la voyance fuck les médiums Toutes leurs prédilections, voudraient qu'tu prennes une direction Tous leurs critères de sélection, du vote aux élections On parle de nous comme si on était bons qu'pour les fractures Jamais démodés depuis la naissance toujours été d'actu Ici, regarde à qui on nous identifie Des sauvages révoltés, ça c'est c'est tout ce dont ils flippent Le Soleil tape mais les soucis en rien n'se modifient Et, qui a dit que dans le Sud la vie c'est magnifique ? De ville en ville les ennuis ne changent pas Devant les naïfs j'passe aussi pour un abruti quand j'parle Qui n'admet pas la peur que le malheur y frappe sec Tous d'accord, hier têtu aujourd'hui tu acceptes Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale À chaque, message Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale Aux armes Libérez-moi d'ce manège et du vertige avant tout Libérez-moi d'ce siège quitte à m'laisser aux vautours Embarrassé pas du tout, j'n'attends rien en retour Tous ceux qui ont visé la coupe sont tous sortis de la poule À court, la street paraît qu'elle est si maligne Et la thune, il en faut sans trouver un synonyme Et banni, banalisé, foncés sont vérifiés Ouais gros, ta carte bleue est maigre aux Champs Élysées Donc me parle pas d'hip-hop, stop y'a aucun rapport Mais qui dénonce vraiment, stop y'a aucun rappeur Et taper là où ça fait mal c'est connu ils sont protégés, big up Me reste encore un coup d'essai D'ici, ça paraît sec au cirque on en rigole Me sample pas trop MC, j'sais pas si j'te réponds D'ici, ça paraît sec, au cirque on en rigole Me sample pas trop MC, j'sais pas si j'te réponds Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale À chaque, message Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale Aux armes Je rame dans la même galère que la plupart de mes pairs La bombe du freestyle français Je rame dans la même galère que la plupart de mes pairs La bombe du freestyle français Chaque titre est un classique</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>J'aimerai avoir la bague au doigt, j'peux pas j'ai les mains gantées J'connais miseria maintenant j'veux l'Maserati Parano j'recompte mes billets deux trois fois dans la noche Avant de finir menotté Mais là j'vends du rêve mais, j'préfère la beuh le shit J'ai trainé dans le bloc mais c'est pas la belle vie J'fais du bénéfice mais y'a qu'mon 9 qui est milli Je sors c'est un feeling, ça tire après minuit Chacun son secteur, chacun son setup tant qu'y'a le guetteur bien calé Y'a ?, de midi à sept heures, v-esqui inspecteur et plein d'camés Y'a du filtré x3 d'la quali, si les flics croient moins y'a le calibre Sacoche remplie, l'guetteur en place, j'ai vu les inspecteurs en face arah En bas du bloc ça vends, ça parle de chatte et de monnaie C'est pas qu'des mots, la rue ne sera jamais démodée C'est pour les p'tits qui frottent la bavette, pour les types qui vivent le pavé Grâce aux reufs t'effrites la barrette, fuck les keufs j'esquive la BAC Faut les lovés ma bambina, j'suis né pour leur faire ? J'vais te faire comme Toto Riina, si tu t'la sens sous coco Ruinart Ça sent la weed dans l'RS3, dans le ? la Beldia Gros moteur sur la troisième voie, appel de phare ? Élevé au chant des ?, ça vient du ghetto, ressors la mélo, bouge la tête tête tête tête Ça cartonne, pourquoi t'es deg deg deg deg Elle s'enjaille, elle kiffe le bail, elle a ? You might also like Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs C'est l'son des blockas 2, ma hbiba c'est cadeau Donc j'ai quarante carrosses, ? ça s'arrose C'est l'son des blockas 2, pour mes cigarillos Torse nu ça lève le cross, ça crie au final Chaibotch Il me manque, le frérot purge sa peine Fort comme un tank, il demande rien à personne C'est pas la peine de demander des nouvelles Ça crack, comme à l'ancienne Elle veut savoir, y'a quoi dans la sacoche Y'a la moula qui m'appelle, bébé m'en veut pas si j'raccroche À part la ceinture du BM, poto j'ai pas d'attaches Revenir c'est plus la peine si j'fais du bruit comme la Kalash J'baraude solo dans la ville, soda glacé dans ma Lean C'est la calle, sur moi j'ai ma lame Tout le monde s'écarte quand j'arrive J'suis avec Chaib D'La Paillade, Le Damou C'est incroyable Le quartier ça rend malade, j'crois qu'il faut qu'j'parte en balade ... ... Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs C'est l'son des blockas 2, ma hbiba c'est cadeau Donc j'ai quarante carrosses, ? ça s'arrose C'est l'son des blockas 2, pour mes cigarillos Torse nu ça lève le cross, ça crie au final Chaibotch Il me manque, le frérot purge sa peine Fort comme un tank, il demande rien à personne C'est pas la peine de demander des nouvelles Ça crack, comme à l'ancienne ... Cest le 3 cest le 4 ça vient pas dRis-pa, j'en place une à Chaib pour l'invitation J'v-esqui les galères à chaque virage, tous les jours dans nos têtes c'est un film d'action Pour réussir y'a pas mille façons, dans nos vida le destin n'existe pas Avec le temps mon cur c'est un vrai glaçon mais crois pas que perde un pote m'attriste pas nan nan Matrixé par les lovés, dans ma tête c'est la guerre, y'a personne pour m'raisonner T'as disparu des radars en pensant que le temps ferait l'taff Maintenant c'est le karma qui t'rattrape pour te mettre des baffes J'rentre dans l'beat comme un Audi Sport, j'aime pas trop quand on parle de star Montre les stats, sur le stade à la Batista Regarde le monde y'en a plein qui s'bute, y'en a plein qui s'rate Y'en a plein qui s'bute, nique le game avec ou sans thunes C'est pout le 3-4 qu'on gagne, on fait les bails ouais ouais ouais C'est dans une p'tite place qu'on s'gare, de Sète à La Paillade ouais ouais ouais Rohpopop Wesh les gars, toujours en forme, on monte la barre On monte la barre, on fête le milli en djellaba Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs</t>
+          <t>J'aimerai avoir la bague au doigt, j'peux pas j'ai les mains gantées J'connais miseria maintenant j'veux l'Maserati Parano j'recompte mes billets deux trois fois dans la noche Avant de finir menotté Mais là j'vends du rêve mais, j'préfère la beuh le shit J'ai trainé dans le bloc mais c'est pas la belle vie J'fais du bénéfice mais y'a qu'mon 9 qui est milli Je sors c'est un feeling, ça tire après minuit Chacun son secteur, chacun son setup tant qu'y'a le guetteur bien calé Y'a ?, de midi à sept heures, v-esqui inspecteur et plein d'camés Y'a du filtré x3 d'la quali, si les flics croient moins y'a le calibre Sacoche remplie, l'guetteur en place, j'ai vu les inspecteurs en face arah En bas du bloc ça vends, ça parle de chatte et de monnaie C'est pas qu'des mots, la rue ne sera jamais démodée C'est pour les p'tits qui frottent la bavette, pour les types qui vivent le pavé Grâce aux reufs t'effrites la barrette, fuck les keufs j'esquive la BAC Faut les lovés ma bambina, j'suis né pour leur faire ? J'vais te faire comme Toto Riina, si tu t'la sens sous coco Ruinart Ça sent la weed dans l'RS3, dans le ? la Beldia Gros moteur sur la troisième voie, appel de phare ? Élevé au chant des ?, ça vient du ghetto, ressors la mélo, bouge la tête tête tête tête Ça cartonne, pourquoi t'es deg deg deg deg Elle s'enjaille, elle kiffe le bail, elle a ? Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs C'est l'son des blockas 2, ma hbiba c'est cadeau Donc j'ai quarante carrosses, ? ça s'arrose C'est l'son des blockas 2, pour mes cigarillos Torse nu ça lève le cross, ça crie au final Chaibotch Il me manque, le frérot purge sa peine Fort comme un tank, il demande rien à personne C'est pas la peine de demander des nouvelles Ça crack, comme à l'ancienne Elle veut savoir, y'a quoi dans la sacoche Y'a la moula qui m'appelle, bébé m'en veut pas si j'raccroche À part la ceinture du BM, poto j'ai pas d'attaches Revenir c'est plus la peine si j'fais du bruit comme la Kalash J'baraude solo dans la ville, soda glacé dans ma Lean C'est la calle, sur moi j'ai ma lame Tout le monde s'écarte quand j'arrive J'suis avec Chaib D'La Paillade, Le Damou C'est incroyable Le quartier ça rend malade, j'crois qu'il faut qu'j'parte en balade ... ... Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs C'est l'son des blockas 2, ma hbiba c'est cadeau Donc j'ai quarante carrosses, ? ça s'arrose C'est l'son des blockas 2, pour mes cigarillos Torse nu ça lève le cross, ça crie au final Chaibotch Il me manque, le frérot purge sa peine Fort comme un tank, il demande rien à personne C'est pas la peine de demander des nouvelles Ça crack, comme à l'ancienne ... Cest le 3 cest le 4 ça vient pas dRis-pa, j'en place une à Chaib pour l'invitation J'v-esqui les galères à chaque virage, tous les jours dans nos têtes c'est un film d'action Pour réussir y'a pas mille façons, dans nos vida le destin n'existe pas Avec le temps mon cur c'est un vrai glaçon mais crois pas que perde un pote m'attriste pas nan nan Matrixé par les lovés, dans ma tête c'est la guerre, y'a personne pour m'raisonner T'as disparu des radars en pensant que le temps ferait l'taff Maintenant c'est le karma qui t'rattrape pour te mettre des baffes J'rentre dans l'beat comme un Audi Sport, j'aime pas trop quand on parle de star Montre les stats, sur le stade à la Batista Regarde le monde y'en a plein qui s'bute, y'en a plein qui s'rate Y'en a plein qui s'bute, nique le game avec ou sans thunes C'est pout le 3-4 qu'on gagne, on fait les bails ouais ouais ouais C'est dans une p'tite place qu'on s'gare, de Sète à La Paillade ouais ouais ouais Rohpopop Wesh les gars, toujours en forme, on monte la barre On monte la barre, on fête le milli en djellaba Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Parolier, même si les mots me manquent souvent L'inconscience m'a trop tamponné Les erreurs m'ont pas pardonné La terreur, oui, m'a cartonné Oui m'a cartonné Vivre seul, je me sens comme emprisonné L'impression de n'plus voir le sommet Y a qu'l'alcool qui a su m'consoler Qui a su m'consoler Qui a su m'consoler Hé taulier C'est l'Demi qui te met la pression L'impression de t'avoir soûlé Sa maison lui a pas pardonné Sa raison l'a abandonné L'a abandonné Pardonnez-moi, car aujourd'hui je n'ai plus rien du tout Plus d'espoir, plus d'amour, ce soir j'ai la corde au cou Seul, m'a rendu tellement fou L'alcool est mon eau de source Mes enfants m'ont laissé en d'ssous Et le silence m'a rendu sourd Le bonheur ne vient plus des sous La lumière me fait mal aux yeux J'ai toujours voulu faire le bien mais le mal est si malicieux Ma mère voulait me rendre heureux Ne jamais dire que c'est dur Pour nos parents, ne plus se plaindre J'crois qu'c'est devenu une procédure ne m'a pas séduit J'ai sûrement fait une sale manuvre Peur de pas regarder les gens sachant qu'il y a toujours pire ailleurs J'me sens comme abandonné J'n'ai pas eu l'don d'être orphelin Comme toi, sortir en famille ou dire juste à papa demain J'n'ai plus rien à portée de main On partira, c'est certain Chaque fois qu'j'me lève, j'me dis c'est bon, j'vais l'faire ce matin You might also like Hé taulier C'est l'Demi qui te met la pression L'impression de t'avoir soûlé Sa maison lui a pas pardonné Sa raison l'a abandonné L'a abandonné</t>
+          <t>Parolier, même si les mots me manquent souvent L'inconscience m'a trop tamponné Les erreurs m'ont pas pardonné La terreur, oui, m'a cartonné Oui m'a cartonné Vivre seul, je me sens comme emprisonné L'impression de n'plus voir le sommet Y a qu'l'alcool qui a su m'consoler Qui a su m'consoler Qui a su m'consoler Hé taulier C'est l'Demi qui te met la pression L'impression de t'avoir soûlé Sa maison lui a pas pardonné Sa raison l'a abandonné L'a abandonné Pardonnez-moi, car aujourd'hui je n'ai plus rien du tout Plus d'espoir, plus d'amour, ce soir j'ai la corde au cou Seul, m'a rendu tellement fou L'alcool est mon eau de source Mes enfants m'ont laissé en d'ssous Et le silence m'a rendu sourd Le bonheur ne vient plus des sous La lumière me fait mal aux yeux J'ai toujours voulu faire le bien mais le mal est si malicieux Ma mère voulait me rendre heureux Ne jamais dire que c'est dur Pour nos parents, ne plus se plaindre J'crois qu'c'est devenu une procédure ne m'a pas séduit J'ai sûrement fait une sale manuvre Peur de pas regarder les gens sachant qu'il y a toujours pire ailleurs J'me sens comme abandonné J'n'ai pas eu l'don d'être orphelin Comme toi, sortir en famille ou dire juste à papa demain J'n'ai plus rien à portée de main On partira, c'est certain Chaque fois qu'j'me lève, j'me dis c'est bon, j'vais l'faire ce matin Hé taulier C'est l'Demi qui te met la pression L'impression de t'avoir soûlé Sa maison lui a pas pardonné Sa raison l'a abandonné L'a abandonné</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>x2 Comment fonctionne l'humain ? Dites-nous comment ça marche Trop de mal à respirer Un peu comme les pieds sur Mars Le temps passe, passe, passe Et depuis rien n'a changé Quand j'm'occupe de mes oignons Ça m'donne envie d'pleurer Avec finesse et précision, qu'j'ai pris les stylos, mon vieux On apprend à lever la tête et s'en sortir sans eux On apprend à créer nos règles et contourner le hors-jeu Donc j'ai appris à cuisiner, comme faire des crêpes sans oeufs Passionné avant tout, à bosser plus de cent heures Les égoïstes mentent seuls et nous bloquent l'ascenseur Ouais j'ai du mal, étant donné qu'on ne fait rien de toute manière Les rappeurs parlent, beaucoup parlent, mais ne mènent pas de carrière Aucun charisme, aucun talent, avec un air méchant Et le dernier qui est monté a fini par redescendre sont pas rentrer dans le stade juste pour viser les jambes Plutôt l'enfant de la terre, qui ralliera les gens Non pas de prime, d'où je suis il m'en reste encore de la rime On a cherché notre route d'un côté plus tranquille On a plus de cent constats, mais bon rien n'a changé On se débrouille comme on peut, en tant que messagers yo You might also like x2 Comment fonctionne l'humain ? Dites-nous comment ça marche Trop de mal à respirer Un peu comme les pieds sur Mars Le temps passe, passe, passe Et depuis rien n'a changé Quand j'm'occupe de mes oignons Ça m'donne envie d'pleurer On n'veut pas suivre le troupeau, mais regarde où ça nous mène Vive le son qui fait en sorte de nous retirer le frein En effet, on se refait, je trace et fais avec Vu que la route est déjà longue, mon dojo sur la Mecque L'art et la manière de savoir donner de belles phrases L'art et la manière de savoir suivre les bonnes bases Non, on ne cherche pas la thune on ne cherche pas la thune Et d'après tout ce qu'on véhicule, on laisse rouler la plume Le temps passe, passe, passe, et depuis on continue Ouais, le monde est à nous, mais qui est-ce qui distribue ? Tu sais que l'homme, joue un rôle, mais ce n'est pas du cinéma Comment ça marche, un humain ? Il s'éteint, il se rallume pas x2 Comment fonctionne l'humain ? Dites-nous comment ça marche Trop de mal à respirer Un peu comme les pieds sur Mars Le temps passe, passe, passe Et depuis rien n'a changé Quand j'm'occupe de mes oignons Ça m'donne envie d'pleurer</t>
+          <t>x2 Comment fonctionne l'humain ? Dites-nous comment ça marche Trop de mal à respirer Un peu comme les pieds sur Mars Le temps passe, passe, passe Et depuis rien n'a changé Quand j'm'occupe de mes oignons Ça m'donne envie d'pleurer Avec finesse et précision, qu'j'ai pris les stylos, mon vieux On apprend à lever la tête et s'en sortir sans eux On apprend à créer nos règles et contourner le hors-jeu Donc j'ai appris à cuisiner, comme faire des crêpes sans oeufs Passionné avant tout, à bosser plus de cent heures Les égoïstes mentent seuls et nous bloquent l'ascenseur Ouais j'ai du mal, étant donné qu'on ne fait rien de toute manière Les rappeurs parlent, beaucoup parlent, mais ne mènent pas de carrière Aucun charisme, aucun talent, avec un air méchant Et le dernier qui est monté a fini par redescendre sont pas rentrer dans le stade juste pour viser les jambes Plutôt l'enfant de la terre, qui ralliera les gens Non pas de prime, d'où je suis il m'en reste encore de la rime On a cherché notre route d'un côté plus tranquille On a plus de cent constats, mais bon rien n'a changé On se débrouille comme on peut, en tant que messagers yo x2 Comment fonctionne l'humain ? Dites-nous comment ça marche Trop de mal à respirer Un peu comme les pieds sur Mars Le temps passe, passe, passe Et depuis rien n'a changé Quand j'm'occupe de mes oignons Ça m'donne envie d'pleurer On n'veut pas suivre le troupeau, mais regarde où ça nous mène Vive le son qui fait en sorte de nous retirer le frein En effet, on se refait, je trace et fais avec Vu que la route est déjà longue, mon dojo sur la Mecque L'art et la manière de savoir donner de belles phrases L'art et la manière de savoir suivre les bonnes bases Non, on ne cherche pas la thune on ne cherche pas la thune Et d'après tout ce qu'on véhicule, on laisse rouler la plume Le temps passe, passe, passe, et depuis on continue Ouais, le monde est à nous, mais qui est-ce qui distribue ? Tu sais que l'homme, joue un rôle, mais ce n'est pas du cinéma Comment ça marche, un humain ? Il s'éteint, il se rallume pas x2 Comment fonctionne l'humain ? Dites-nous comment ça marche Trop de mal à respirer Un peu comme les pieds sur Mars Le temps passe, passe, passe Et depuis rien n'a changé Quand j'm'occupe de mes oignons Ça m'donne envie d'pleurer</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Entends, au loin le troupeau bèle Nous, on fait partie des troupes rebelles La Replic, Demi Portion C'est pas sur leur modèle du bonheur qu'on va calquer nos vies On canne les lobbies qui nous fourrent comme des cannellonis Au fil de la mélodie, on rime, râle et maudit Trop d'trips sales mênent au crime On trime grave, s'démotive, j'en ai trop dit J'suis pas c'mouton à la life fade et qui pourtant le ravit Comme Senna à Imola j'suis à un tournant de ma vie C'est l'heure d'évacuer la rage qui te tourmentes vas y L'Occident ne mange plus, elle est gourmande L'Asie Même si on a pas l'mode de vie d'un ouvrier au bengladesh Au final même ici y en a beaucoup des miens qui craignent la dèche J'fais tout pour que se ferme la page et pour que mes frères se bougent Qu'on soit tous enfin verts de rage au lieu de boire des verres de rouge Mais autour de moi je n'vois qu'des brebis égarées L'être humain court à sa perte c'est bien la preuve qu'il est taré Pour tenir un peuple il faut des jeux, des beuveries il paraît Tu t'demandes pas pourquoi dès qu'il y a un coluche, il disparait You might also like Je ne suivrai pas le troupeau, je n'ai pas besoin de berger Ici bas rien de nouveau, qu'des fruits pourris dans le verger Je sais bien qui est le bourreau, hors de question de l'héberger Je donnerais ma vie pour au moins voir la révolte émerger J'ai l'impression qu'ils sont guidés par des voix que j'n'entends pas Mais le temps passe et je n'veux pas de leur étendard à la recherche d'un sauveur Comme l'impression qu'on y arrive qu'en étant dark, en étant d'acc Mais j'ai tant de hargne et pas d'temps d'arrêt j'veux pas être game over Du fond de la nasse, ils veulent qu'on se fonde dans la masse Se contenter de ce qu'on a mais c'est pas des fonds qu'on amasse On est à fond man hélas toi tu veux le fion de Pamela Nan c'est pas du son de favela mais la route d'actions pavez la! Tu suis la ligne blanche je prends les chemin de traverse Pour rester digne je flanche sur ma feuille c'est que j'la verse Toute cette émotion et toute cette colère mêlées Ils jettent un froid glacial si t'as des polaires mets les Car c'est pas le troupeau qui va te réchauffer Tu es seul au milieu du lot donc il vaut mieux t'étoffer Moi j'ai tout fait pour essayer de pas m'faire bouffer On s'est barré du troupeau car on ne veut pas étouffer 2</t>
+          <t>Entends, au loin le troupeau bèle Nous, on fait partie des troupes rebelles La Replic, Demi Portion C'est pas sur leur modèle du bonheur qu'on va calquer nos vies On canne les lobbies qui nous fourrent comme des cannellonis Au fil de la mélodie, on rime, râle et maudit Trop d'trips sales mênent au crime On trime grave, s'démotive, j'en ai trop dit J'suis pas c'mouton à la life fade et qui pourtant le ravit Comme Senna à Imola j'suis à un tournant de ma vie C'est l'heure d'évacuer la rage qui te tourmentes vas y L'Occident ne mange plus, elle est gourmande L'Asie Même si on a pas l'mode de vie d'un ouvrier au bengladesh Au final même ici y en a beaucoup des miens qui craignent la dèche J'fais tout pour que se ferme la page et pour que mes frères se bougent Qu'on soit tous enfin verts de rage au lieu de boire des verres de rouge Mais autour de moi je n'vois qu'des brebis égarées L'être humain court à sa perte c'est bien la preuve qu'il est taré Pour tenir un peuple il faut des jeux, des beuveries il paraît Tu t'demandes pas pourquoi dès qu'il y a un coluche, il disparait Je ne suivrai pas le troupeau, je n'ai pas besoin de berger Ici bas rien de nouveau, qu'des fruits pourris dans le verger Je sais bien qui est le bourreau, hors de question de l'héberger Je donnerais ma vie pour au moins voir la révolte émerger J'ai l'impression qu'ils sont guidés par des voix que j'n'entends pas Mais le temps passe et je n'veux pas de leur étendard à la recherche d'un sauveur Comme l'impression qu'on y arrive qu'en étant dark, en étant d'acc Mais j'ai tant de hargne et pas d'temps d'arrêt j'veux pas être game over Du fond de la nasse, ils veulent qu'on se fonde dans la masse Se contenter de ce qu'on a mais c'est pas des fonds qu'on amasse On est à fond man hélas toi tu veux le fion de Pamela Nan c'est pas du son de favela mais la route d'actions pavez la! Tu suis la ligne blanche je prends les chemin de traverse Pour rester digne je flanche sur ma feuille c'est que j'la verse Toute cette émotion et toute cette colère mêlées Ils jettent un froid glacial si t'as des polaires mets les Car c'est pas le troupeau qui va te réchauffer Tu es seul au milieu du lot donc il vaut mieux t'étoffer Moi j'ai tout fait pour essayer de pas m'faire bouffer On s'est barré du troupeau car on ne veut pas étouffer 2</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>After laughter comes tears Lâche le bordel, on est plusieurs sur la corde Ça pousse, pousse, en attendant la fournée Pas d'liquide donc la fumée nous emporte On la connaît tous, fais tourner, fais tourner Monsieur le Prédisent, désolé cette fois j'ai pas l'temps Le changement c'est quand, c'est quoi, ça fait 10 ans qu'on attend J'essaie de vous écrire, ce texte ne sera qu'pour vous J'veux servir de modèle, juste un bordel sans mots doux Monsieur le Président, je viens parler pour toute une jeunesse En parlant du principal, j'fume et j'reste honnête Rap et reste correct, un dicton bien placé Qui ne se plante jamais non, n'a aucune chance de pousser Chez nous c'est légalisé, faudrait dépénaliser Si j'étais le Président, j'enfumerais lÉlysée J'vous changerais les musées, je changerais Disneyland J'ai appris avec ton nom, on s'amuse mieux en Hollande François, salut, sur ce coup c'est freestyle Sans vous manquer de respect, j'vais arroser Marie-Jeanne Lâche le bordel, on est plusieurs sur la corde Ça pousse, pousse, en attendant la fournée Pas d'liquide donc la fumée nous emporte On la connaît tous, fais tourner, fais tourner You might also like Allume-le, y a pas d'problème, ça va nous changer l'odeur Monsieur le Président, viens te poser un peu dans l'fauteuil Fais le tourner à côté, surtout ne le fume pas seul Attends faut qu'tu le tasses, non pas trop que tu tousses J'te vois cramer les Droits d'l'Homme, disons qu'on a le droit d'ça J'ai toujours trouvé l'inspi depuis qu'j'écris sur des massa Vie d'maso, joints d'affilés, dans le cendrier Éclairer nos nuis dès que nos yeux se mettent à briller Ici les graines ont grillé, tu connais, ça fait planer Tu vois bien que le mois d'juin, on le porte bien toute l'année Chez nous c'est légalisé, faudrait dépénaliser Si j'étais le Président, j'enfumerais lÉlysée Sans vous manquer de respect, y a que des petites feuilles Monsieur le Président, y a rien d'vraiment trop fun Lâche le bordel, on est plusieurs sur la corde Ça pousse, pousse, en attendant la fournée Pas d'liquide donc la fumée nous emporte On la connaît tous, fais tourner, fais tourner After laughter comes tears After laughter comes tears</t>
+          <t>After laughter comes tears Lâche le bordel, on est plusieurs sur la corde Ça pousse, pousse, en attendant la fournée Pas d'liquide donc la fumée nous emporte On la connaît tous, fais tourner, fais tourner Monsieur le Prédisent, désolé cette fois j'ai pas l'temps Le changement c'est quand, c'est quoi, ça fait 10 ans qu'on attend J'essaie de vous écrire, ce texte ne sera qu'pour vous J'veux servir de modèle, juste un bordel sans mots doux Monsieur le Président, je viens parler pour toute une jeunesse En parlant du principal, j'fume et j'reste honnête Rap et reste correct, un dicton bien placé Qui ne se plante jamais non, n'a aucune chance de pousser Chez nous c'est légalisé, faudrait dépénaliser Si j'étais le Président, j'enfumerais lÉlysée J'vous changerais les musées, je changerais Disneyland J'ai appris avec ton nom, on s'amuse mieux en Hollande François, salut, sur ce coup c'est freestyle Sans vous manquer de respect, j'vais arroser Marie-Jeanne Lâche le bordel, on est plusieurs sur la corde Ça pousse, pousse, en attendant la fournée Pas d'liquide donc la fumée nous emporte On la connaît tous, fais tourner, fais tourner Allume-le, y a pas d'problème, ça va nous changer l'odeur Monsieur le Président, viens te poser un peu dans l'fauteuil Fais le tourner à côté, surtout ne le fume pas seul Attends faut qu'tu le tasses, non pas trop que tu tousses J'te vois cramer les Droits d'l'Homme, disons qu'on a le droit d'ça J'ai toujours trouvé l'inspi depuis qu'j'écris sur des massa Vie d'maso, joints d'affilés, dans le cendrier Éclairer nos nuis dès que nos yeux se mettent à briller Ici les graines ont grillé, tu connais, ça fait planer Tu vois bien que le mois d'juin, on le porte bien toute l'année Chez nous c'est légalisé, faudrait dépénaliser Si j'étais le Président, j'enfumerais lÉlysée Sans vous manquer de respect, y a que des petites feuilles Monsieur le Président, y a rien d'vraiment trop fun Lâche le bordel, on est plusieurs sur la corde Ça pousse, pousse, en attendant la fournée Pas d'liquide donc la fumée nous emporte On la connaît tous, fais tourner, fais tourner After laughter comes tears After laughter comes tears</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>J'avance sans fusil à l'épaule, sans fusil à l'épaule J'veux la paix mais la guerre encore ici nous a bien changé le décor Y a plus d'respect pour les symboles, inspiré du mauvais syndrome Et la nuit c'est le drame et les rêves se rétament juste pour s'évader d'la taule Dès petit je réponds, le béton, ça me tue, papa a d'la force Et des balles et des buts au départ le vécu au lieu de braquer la poste J'avance sans fusil à l'épaule, oui depuis l'ancienne école De la bonne je me donne, tu déconnes, j'espère qu'on puisse même changer les hommes On passe du temps pour un album, d'autres le perdent à Monaco Mon ami, mon amor, pour la vie, à la mort, à la famille j'en suis accro J'avance en oubliant l'ego, le cur serré dans un étau Le bitume, le bétail, ont tué la médaille jusqu'aux produits illégaux T'envoie ma plume tel un sérum, laisse-moi oui propager le son Je débute et milite et des rimes et de l'encre et des litres et crosse le son J'avance sans fusil à l'épaule, tout la fierté de nos darons Tout la fierté de nos darons, branché comme une parabole J'avance en soulevant des tonnes, soulevant des tonnes Protégé par leurs coups de bâton, de leurs coups de bâton Le travail se finit dans les temps, se finit dans les temps J'lève le poing tel un combattant, tel un combattant J'avance sans fusil à l'épaule, sans fusil à l'épaule J'veux la paix mais la guerre encore ici nous a bien changé le décor Y a plus d'respect pour les symboles, inspiré du mauvais syndrome Et la nuit c'est le drame et les rêves se rétament juste pour s'évader d'la taule Libérer, libérer, libertad On va se libérer, libérer, libertad Je veux me libérer, libérer, libertad Libérer, libérer, libertad You might also like J'avance même si on a mal aux côtes, on tombe et se relève encore Jamais ne viser le monopole, content de c'que le bonheur apporte Avant qu'on devienne monotone, dur de mettre tout le monde d'accord Plusieurs à tirer sur la corde, c'que raconte tous les nouveaux rapports Rappeur oui c'est le petit bonhomme, l'envie de construire et de faire un pont Hip-hop hip-hop oui je tiens bon, hip-hop hip-hop oui je charbonne J'avance en soulevant des tonnes, soulevant des tonnes Protégé par leurs coups de bâton, de leurs coups de bâton J'avance même si on a mal aux côtes, on tombe et se relève encore Jamais ne viser le monopole, content de c'que le bonheur apporte Avant qu'on devienne monotone, dur de mettre tout le monde d'accord Plusieurs à tirer sur la corde, c'que raconte tous les nouveaux rapports Rappeur oui c'est le petit bonhomme, l'envie de construire et de faire un pont Hip-hop hip-hop oui je tiens bon, hip-hop hip-hop oui je charbonne Hip-hop hip-hop oui je charbonne J'avance sans fusil à l'épaule, sans fusil à l'épaule J'veux la paix mais la guerre encore ici nous a bien changé le décor Y a plus d'respect pour les symboles, inspiré du mauvais syndrome Et la nuit c'est le drame et les rêves se rétament juste pour s'évader d'la taule Libérer, libérer, libertad On va se libérer, libérer, libertad Je veux me libérer, libérer, libertad Libérer, libérer, libertad</t>
+          <t>J'avance sans fusil à l'épaule, sans fusil à l'épaule J'veux la paix mais la guerre encore ici nous a bien changé le décor Y a plus d'respect pour les symboles, inspiré du mauvais syndrome Et la nuit c'est le drame et les rêves se rétament juste pour s'évader d'la taule Dès petit je réponds, le béton, ça me tue, papa a d'la force Et des balles et des buts au départ le vécu au lieu de braquer la poste J'avance sans fusil à l'épaule, oui depuis l'ancienne école De la bonne je me donne, tu déconnes, j'espère qu'on puisse même changer les hommes On passe du temps pour un album, d'autres le perdent à Monaco Mon ami, mon amor, pour la vie, à la mort, à la famille j'en suis accro J'avance en oubliant l'ego, le cur serré dans un étau Le bitume, le bétail, ont tué la médaille jusqu'aux produits illégaux T'envoie ma plume tel un sérum, laisse-moi oui propager le son Je débute et milite et des rimes et de l'encre et des litres et crosse le son J'avance sans fusil à l'épaule, tout la fierté de nos darons Tout la fierté de nos darons, branché comme une parabole J'avance en soulevant des tonnes, soulevant des tonnes Protégé par leurs coups de bâton, de leurs coups de bâton Le travail se finit dans les temps, se finit dans les temps J'lève le poing tel un combattant, tel un combattant J'avance sans fusil à l'épaule, sans fusil à l'épaule J'veux la paix mais la guerre encore ici nous a bien changé le décor Y a plus d'respect pour les symboles, inspiré du mauvais syndrome Et la nuit c'est le drame et les rêves se rétament juste pour s'évader d'la taule Libérer, libérer, libertad On va se libérer, libérer, libertad Je veux me libérer, libérer, libertad Libérer, libérer, libertad J'avance même si on a mal aux côtes, on tombe et se relève encore Jamais ne viser le monopole, content de c'que le bonheur apporte Avant qu'on devienne monotone, dur de mettre tout le monde d'accord Plusieurs à tirer sur la corde, c'que raconte tous les nouveaux rapports Rappeur oui c'est le petit bonhomme, l'envie de construire et de faire un pont Hip-hop hip-hop oui je tiens bon, hip-hop hip-hop oui je charbonne J'avance en soulevant des tonnes, soulevant des tonnes Protégé par leurs coups de bâton, de leurs coups de bâton J'avance même si on a mal aux côtes, on tombe et se relève encore Jamais ne viser le monopole, content de c'que le bonheur apporte Avant qu'on devienne monotone, dur de mettre tout le monde d'accord Plusieurs à tirer sur la corde, c'que raconte tous les nouveaux rapports Rappeur oui c'est le petit bonhomme, l'envie de construire et de faire un pont Hip-hop hip-hop oui je tiens bon, hip-hop hip-hop oui je charbonne Hip-hop hip-hop oui je charbonne J'avance sans fusil à l'épaule, sans fusil à l'épaule J'veux la paix mais la guerre encore ici nous a bien changé le décor Y a plus d'respect pour les symboles, inspiré du mauvais syndrome Et la nuit c'est le drame et les rêves se rétament juste pour s'évader d'la taule Libérer, libérer, libertad On va se libérer, libérer, libertad Je veux me libérer, libérer, libertad Libérer, libérer, libertad</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba Quand ctruc est rentré dans mes veines, putain Jnavais quà peine 16 ans En y réfléchissant, ce rap nous donnera pas dCésar Donc on sacquit ses armes tout en sdisant qucest ça Qu'c'est l'art à jouer lpremier rôle dans son propre scénar Les vrais MC sfont rares, ce qu'il y a dfaux mfait rire Ghetto, la crise sur le gâteau m'donne lenvie dvomir Ne change pas dprofil, joublierai pas comme dit Fabe Et jai encore du mal à vivre comme la mort dArafat Regarde mes phrases, rien dfun elles sortent à peine dla casse Cest un couplet rien dplus écrit du haut d'l'Atlas Dernier dla classe et dans la rue on strouve premier dla place La route est longue, Artisan du Bic et dma sale paperasse La vie ma tout File-moi un Efferalgan, on ne savoure plus le temps, on a rien de Charlie Ingalls On tire ses dernières taffes, on rfait ce Monde plus tard Imagine ci, imagine ça, jaurai pleins dMasterCard Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba You might also like Regarde ouvre lil, ça devient trop difficile On plonge, on y voit flou comme nos yeux dans une piscine Détruire ? On l'sait tous qu'ça sera si simple à faire On a dû sentir des secousses qui vnaient sûrement d'une averse La guerre ? Y'a plus d'soldats, la bombe est sur un bouton Dégoûtant, cest sur un gosse quon rtrouvera un bout dtôle Marquer des cicatrices quon efface pour un coup dgomme Vu quon est tous défoncés à trop respirer la colle La victoire ? Le seul problème cest quy a un pays qui la cherche Après avoir cramé les champs, impossible d'garder la pêche Neutre car cest dehors quon doit prendre de lassurance Les citoyens sont stressés et des villes sous surveillance Choqué ? Cest pt-êt' pour ça que tu lressens quand je parle Toujours autant dfrissons comme un sale état grippal La France on y est nés, faudra bien qutu ty fasses Incruster plusieurs traits comme la quatrième bande d'Adidas Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba L'image et son rap game, où chacun veut cueillir sa pomme Où des MC nont pas écrit mais veulent déjà créer l'album Old school ou new school, ccouplet sera mon constat Sachant qules vrais lyrics ne pourront attirer un Oscar En tirer une grosse barre ? Non laisse-moi une demi-paix Jen place une à plein dgroupes qui ont assurés dnous inviter Intello ou hardcore et peu importe ton niveau d'vie De Sète à Marseille, de Paname ou même du centre-ville Et blindé ou le compte vide, jai appris tellement dchoses dans ce milieu Mon frère, on tboycotte si tu montes vite La monnaie a fait ses preuves, naturellement cest ça quon dit Le rap ne paye plus comme un puits en Arabie Saoudite Les jeux sont faits et jte laisse prendre la température On ne sra jamais parfaits, ni experts en littérature Jaime la musique, ici on ncourt pas avec les tongs La vérité comme optique en sachant qula route est longue Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba</t>
+          <t>Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba Quand ctruc est rentré dans mes veines, putain Jnavais quà peine 16 ans En y réfléchissant, ce rap nous donnera pas dCésar Donc on sacquit ses armes tout en sdisant qucest ça Qu'c'est l'art à jouer lpremier rôle dans son propre scénar Les vrais MC sfont rares, ce qu'il y a dfaux mfait rire Ghetto, la crise sur le gâteau m'donne lenvie dvomir Ne change pas dprofil, joublierai pas comme dit Fabe Et jai encore du mal à vivre comme la mort dArafat Regarde mes phrases, rien dfun elles sortent à peine dla casse Cest un couplet rien dplus écrit du haut d'l'Atlas Dernier dla classe et dans la rue on strouve premier dla place La route est longue, Artisan du Bic et dma sale paperasse La vie ma tout File-moi un Efferalgan, on ne savoure plus le temps, on a rien de Charlie Ingalls On tire ses dernières taffes, on rfait ce Monde plus tard Imagine ci, imagine ça, jaurai pleins dMasterCard Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba Regarde ouvre lil, ça devient trop difficile On plonge, on y voit flou comme nos yeux dans une piscine Détruire ? On l'sait tous qu'ça sera si simple à faire On a dû sentir des secousses qui vnaient sûrement d'une averse La guerre ? Y'a plus d'soldats, la bombe est sur un bouton Dégoûtant, cest sur un gosse quon rtrouvera un bout dtôle Marquer des cicatrices quon efface pour un coup dgomme Vu quon est tous défoncés à trop respirer la colle La victoire ? Le seul problème cest quy a un pays qui la cherche Après avoir cramé les champs, impossible d'garder la pêche Neutre car cest dehors quon doit prendre de lassurance Les citoyens sont stressés et des villes sous surveillance Choqué ? Cest pt-êt' pour ça que tu lressens quand je parle Toujours autant dfrissons comme un sale état grippal La France on y est nés, faudra bien qutu ty fasses Incruster plusieurs traits comme la quatrième bande d'Adidas Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba L'image et son rap game, où chacun veut cueillir sa pomme Où des MC nont pas écrit mais veulent déjà créer l'album Old school ou new school, ccouplet sera mon constat Sachant qules vrais lyrics ne pourront attirer un Oscar En tirer une grosse barre ? Non laisse-moi une demi-paix Jen place une à plein dgroupes qui ont assurés dnous inviter Intello ou hardcore et peu importe ton niveau d'vie De Sète à Marseille, de Paname ou même du centre-ville Et blindé ou le compte vide, jai appris tellement dchoses dans ce milieu Mon frère, on tboycotte si tu montes vite La monnaie a fait ses preuves, naturellement cest ça quon dit Le rap ne paye plus comme un puits en Arabie Saoudite Les jeux sont faits et jte laisse prendre la température On ne sra jamais parfaits, ni experts en littérature Jaime la musique, ici on ncourt pas avec les tongs La vérité comme optique en sachant qula route est longue Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Oh, faut bien faire les choses Rester le même, jamais changer Han ! Nouvel album, j'arrive encore Carlito on the track Personne n'y arrive Augmente le tarif La montée des siens commence au Tenerife Personne n'y arrive, allez, volez le riche Oui, se la couler douce Oui, à l'ile Maurice On a du prendre des risques Vendre des disques sans maison de disques Fuck le travail, j'veux pas d'code du travail Personne n'y arrive car il faut qu'tu cavales Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré' Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré' Tu connais la choré' Tu connais la choré' Reste sérieux Tu connais la choré Même si You might also like L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque Make money, money, money Make money, money, money Personne n'y arrive J'veux pas d'concert en boite On sait qu'ils me recalent mais je gagne le public N'oublie pas, dans c'rap pour une meuf qui se... chut ! Ce week end la même, oui elle changera de lit Juste un message différé J'suis l'rappeur préféré d'ton rappeur préféré Fuck le travail et leur charge patronale Si j'ressors un album, c'est qu'j'm'en sors pas trop mal Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré Tu connais la choré Tu connais la choré Reste serieux Tu connais la choré L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque Make money, money, money Make money, money, money</t>
+          <t>Oh, faut bien faire les choses Rester le même, jamais changer Han ! Nouvel album, j'arrive encore Carlito on the track Personne n'y arrive Augmente le tarif La montée des siens commence au Tenerife Personne n'y arrive, allez, volez le riche Oui, se la couler douce Oui, à l'ile Maurice On a du prendre des risques Vendre des disques sans maison de disques Fuck le travail, j'veux pas d'code du travail Personne n'y arrive car il faut qu'tu cavales Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré' Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré' Tu connais la choré' Tu connais la choré' Reste sérieux Tu connais la choré Même si L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque Make money, money, money Make money, money, money Personne n'y arrive J'veux pas d'concert en boite On sait qu'ils me recalent mais je gagne le public N'oublie pas, dans c'rap pour une meuf qui se... chut ! Ce week end la même, oui elle changera de lit Juste un message différé J'suis l'rappeur préféré d'ton rappeur préféré Fuck le travail et leur charge patronale Si j'ressors un album, c'est qu'j'm'en sors pas trop mal Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré Tu connais la choré Tu connais la choré Reste serieux Tu connais la choré L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque Make money, money, money Make money, money, money</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Hein, yeah Demi Portion Cédric XXX Ca s'passe comme ça Représente Seth Hein, ouais Yeah Demi Portion précoce dans la place Ca s'passe comme ça, yeah Est-ce j'suis chaud Béziers là ? Hein Ca s'passe comme ça, yeah, hein Hein, hein Yeah Devenir fort sans effort Reprendre son souffle en corps à corps Prendre la grosse tête et laisser ses potes à tribord Putain que j'm'endors quand j'change pas d'décor XXX un mort qui a laissé ses médailles d'or XXX un décès, faut avoir du courage Combattre les barrages et d'être l'homme du XXX Pleurer la XXX du mal, maintenant paix à son âme Alikum Salaam, j'suis fier d'représenter l'Islam Je reste judicieux, et j'pense de mieux en mieux XXX heureux J'vais pas t'en faire une XXX de rédaction J'suis pas la perfection XXX d'être tous les jours moins con C'est comme ça Quand tu perds ton père qui t'a élevé à sa manière Avec le bon matériel, maintenant c'est moi qui m'en sers Maintenant c'est moi qui m'en sers Ouais, ça s'passe comme ça hein You might also like x2 XXX un décès Faut avoir du courage Combattre les barrages et d'être l'homme du XXX Pleurer XXX du mal, maintenant paix à son âme Alikum Salaam, j'suis fier d'représenter l'Islam Je crois en Dieu, j'suis audacieux Je crois en ceux qui s'entraident entre eux Souhaitent aller au paradis, que souffrir dans le feu Toujours les bons qui partent, c'est malheureux Toujours les mauvais qui restent, ça m'rend nerveux Toujours les mêmes têtes qui traînent dans les banlieues Toujours les ordures, les pourritures Qui retient les murs ? XXX en murmure Toujours la bouche bien ouverte mais reste à la même allure Toujours les mêmes qui s'prennent pour des durs C'est comme ça On s'précipite pour rien Ici j'vois pas c'qui c'rime Avec tu veux un coup d'main XXX un monde de recoin XXX race s'propagent comme des indiens Les mères s'cachent au travers des rideaux C'est bizarre Y'a d'quoi en avoir marre Y'a d'quoi en avoir marre, ouais Ça s'passe comme ça Hein x2 C'est comme ça, dans mon quartier qu'on supporte les femmes Sans compter XXX la plus forte L'histoire de peur de ma sur XXX rumeur On voit pas, où en sont les médiateurs On s'cache derrière les carreaux Pour XXX arriver là-haut Le vice s'allume dans leurs yeux Il faudra prier Dieu Y'en a qui forcent leur fille à faire c'qu'il faut pas faire Tu vois l'amitié, il faut reconnaître aussi c'qu'il y'a derrière XXX dans mon lit Face à la XXX j'fuis Voilà un thème qui dit XXX d'mon esprit Ma feuille est un tableau, mon stylo un pinceau Une rime de la peinture XXX pure Ça s'passe comme ça, ouais Représente Seth, hein Est-ce que j'suis chaud Béziers Faites du bruit, allez Hein, ça s'passe comme ça,ouais Hein, yeah! x2</t>
+          <t>Hein, yeah Demi Portion Cédric XXX Ca s'passe comme ça Représente Seth Hein, ouais Yeah Demi Portion précoce dans la place Ca s'passe comme ça, yeah Est-ce j'suis chaud Béziers là ? Hein Ca s'passe comme ça, yeah, hein Hein, hein Yeah Devenir fort sans effort Reprendre son souffle en corps à corps Prendre la grosse tête et laisser ses potes à tribord Putain que j'm'endors quand j'change pas d'décor XXX un mort qui a laissé ses médailles d'or XXX un décès, faut avoir du courage Combattre les barrages et d'être l'homme du XXX Pleurer la XXX du mal, maintenant paix à son âme Alikum Salaam, j'suis fier d'représenter l'Islam Je reste judicieux, et j'pense de mieux en mieux XXX heureux J'vais pas t'en faire une XXX de rédaction J'suis pas la perfection XXX d'être tous les jours moins con C'est comme ça Quand tu perds ton père qui t'a élevé à sa manière Avec le bon matériel, maintenant c'est moi qui m'en sers Maintenant c'est moi qui m'en sers Ouais, ça s'passe comme ça hein x2 XXX un décès Faut avoir du courage Combattre les barrages et d'être l'homme du XXX Pleurer XXX du mal, maintenant paix à son âme Alikum Salaam, j'suis fier d'représenter l'Islam Je crois en Dieu, j'suis audacieux Je crois en ceux qui s'entraident entre eux Souhaitent aller au paradis, que souffrir dans le feu Toujours les bons qui partent, c'est malheureux Toujours les mauvais qui restent, ça m'rend nerveux Toujours les mêmes têtes qui traînent dans les banlieues Toujours les ordures, les pourritures Qui retient les murs ? XXX en murmure Toujours la bouche bien ouverte mais reste à la même allure Toujours les mêmes qui s'prennent pour des durs C'est comme ça On s'précipite pour rien Ici j'vois pas c'qui c'rime Avec tu veux un coup d'main XXX un monde de recoin XXX race s'propagent comme des indiens Les mères s'cachent au travers des rideaux C'est bizarre Y'a d'quoi en avoir marre Y'a d'quoi en avoir marre, ouais Ça s'passe comme ça Hein x2 C'est comme ça, dans mon quartier qu'on supporte les femmes Sans compter XXX la plus forte L'histoire de peur de ma sur XXX rumeur On voit pas, où en sont les médiateurs On s'cache derrière les carreaux Pour XXX arriver là-haut Le vice s'allume dans leurs yeux Il faudra prier Dieu Y'en a qui forcent leur fille à faire c'qu'il faut pas faire Tu vois l'amitié, il faut reconnaître aussi c'qu'il y'a derrière XXX dans mon lit Face à la XXX j'fuis Voilà un thème qui dit XXX d'mon esprit Ma feuille est un tableau, mon stylo un pinceau Une rime de la peinture XXX pure Ça s'passe comme ça, ouais Représente Seth, hein Est-ce que j'suis chaud Béziers Faites du bruit, allez Hein, ça s'passe comme ça,ouais Hein, yeah! x2</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Ma tdirouch âalia, rani bâid âlikoum Ma tdirouch âalia, rani kifkoum Demi débite phénoménal, transformation de l'animal Laisse deux minutes, polyvalent, poli d'abord, demi galant Oh le gala oh les dégâts écartez les gars, descends de l'étage Mettez les gants et virez les 'tasses, mettez du son et ouvrez la cage T'as tué qui ? Personne, j'me téléguide seul garçon Petit bonhomme vu l'blason chaque recette est fait maison Aucune raison, un rizon d'accord et un sandwich En bas de l'affiche, en bas de la fosse, on fait que du rap et on s'en fiche On veut partir mais tu le sais qu'on nous parle souvent de moyens Rester ici mais pourquoi pas ? Disons que t'as vu, ça mène à rien Demain c'est loin vu qu'on m'a dit tu verras, ça ira mieux Ne t'en fais pas si j'reste c'est pour éviter les adieux Loin d'vous mais c'est pas grave j'saurais pas comment l'expliquer Oui chaque jour j'en bave, sûrement que ça m'a éduqué J'voulais juste voyager, voir comment vivaient les autres Mais j'ai compris que l'imbécile était caché souvent chez l'homme You might also like Ma tdirouch âalia, rani bâid âlikoum Ma tdirouch âalia, rani kifkoum Ouais et tu sais ce qu'on recommande, uniquement du son lourd Mets-nous l'texte en avant et une instru qui rend fou Rappe avec ou sans sou non dis pas que ça t'saoule Un plaisir avant tout et un public qui m'entoure On veut des concerts partout, un micro par contre À tous ceux qui s'déplacent et à tous ceux qu'on rencontre Obligé qu'on envoie sans se salir au sens propre Sans détourner les lois ni les valeurs du Hip-Hop Obligé qu'on s'y colle, que personne s'y retrouve Ils veulent pas de nos clips mais des bâtards à Cancún Donc à qui l'prochain tour ? C'est qui l'prochain plouc ? Les produits du marché deviennent si périmés dans le souk On n'veut plus d'vos surfaces, on est si bien en dessous Écrire avec rage et des projets en soum-soum Regarde le petit qui passe a la calvitie d'Zizou À tous mes re-frè qui n'ont pas grandi chez Picsou Ma tdirouch âalia, rani bâid âlikoum Ma tdirouch âalia, rani kifkoum 2</t>
+          <t>Ma tdirouch âalia, rani bâid âlikoum Ma tdirouch âalia, rani kifkoum Demi débite phénoménal, transformation de l'animal Laisse deux minutes, polyvalent, poli d'abord, demi galant Oh le gala oh les dégâts écartez les gars, descends de l'étage Mettez les gants et virez les 'tasses, mettez du son et ouvrez la cage T'as tué qui ? Personne, j'me téléguide seul garçon Petit bonhomme vu l'blason chaque recette est fait maison Aucune raison, un rizon d'accord et un sandwich En bas de l'affiche, en bas de la fosse, on fait que du rap et on s'en fiche On veut partir mais tu le sais qu'on nous parle souvent de moyens Rester ici mais pourquoi pas ? Disons que t'as vu, ça mène à rien Demain c'est loin vu qu'on m'a dit tu verras, ça ira mieux Ne t'en fais pas si j'reste c'est pour éviter les adieux Loin d'vous mais c'est pas grave j'saurais pas comment l'expliquer Oui chaque jour j'en bave, sûrement que ça m'a éduqué J'voulais juste voyager, voir comment vivaient les autres Mais j'ai compris que l'imbécile était caché souvent chez l'homme Ma tdirouch âalia, rani bâid âlikoum Ma tdirouch âalia, rani kifkoum Ouais et tu sais ce qu'on recommande, uniquement du son lourd Mets-nous l'texte en avant et une instru qui rend fou Rappe avec ou sans sou non dis pas que ça t'saoule Un plaisir avant tout et un public qui m'entoure On veut des concerts partout, un micro par contre À tous ceux qui s'déplacent et à tous ceux qu'on rencontre Obligé qu'on envoie sans se salir au sens propre Sans détourner les lois ni les valeurs du Hip-Hop Obligé qu'on s'y colle, que personne s'y retrouve Ils veulent pas de nos clips mais des bâtards à Cancún Donc à qui l'prochain tour ? C'est qui l'prochain plouc ? Les produits du marché deviennent si périmés dans le souk On n'veut plus d'vos surfaces, on est si bien en dessous Écrire avec rage et des projets en soum-soum Regarde le petit qui passe a la calvitie d'Zizou À tous mes re-frè qui n'ont pas grandi chez Picsou Ma tdirouch âalia, rani bâid âlikoum Ma tdirouch âalia, rani kifkoum 2</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Appelez-nous lyricistes Ça fait... Assignés à résistance, comme toute la planète On attend la délivrance, on sort d'la cachette Si la pression est immense comme sur l'pouls d'la canette J'rêve de défier les puissances, que personne m'arrête J'vois clair dans vos jeux, même à la lumière d'la bougie J'vois vos yeux dans l'noir tellement la haine les rougit J'veux plus d'ce monde, vu qu'ce monde est pourri Mais j'peux pas lui casser la main car sa main me nourrit Toujours courir, y en a qui veulent plus ça Qui voient plus rien, tu vois, finissent sous l'eau et sans tuba Tu t'bats, tu sais même plus contre qui Plus tard, qui veux-tu être, tous les rôles de bâtards sont pris Tant pis, tu guettes, la vie quel est son prix? La question s'pose, vu que pour certaines causes, certains payent en années d'son-pri Pause, vous n'avez toujours pas compris, c'est c'qu'on dit Demi Portion, Rocé, la vie qu'on mène, c'est la vie qu'on vit J'écris sur des feuilles volantes, j'essaye d'atteindre les étoiles Nos rêves sont des poids jusqu'à devenir des voiles On dévoile les peurs, les goûts d'histoires des proches Les frères, les surs, les coups du sort féroces On n'oublie rien, on s'habitue à l'attitude Le cur se souvient mais il a sa lassitude Ce monde dur mais durcit, bientôt nos mots seront illicites On résiste, on existe, appelle-nous lyricistes You might also likelyricistes lyricistes lyricistes lyricistes Le reflet du monde n'est qu'une transparence On l'écrit sur des feuilles volantes C'est parti, s'lever pour mieux combattre Si le savoir était une arme, ça fait longtemps qu'on s'attarde J'te rassure, prendre position c'est sûr La voix du peuple est trop chère et crier pousse à l'usure Allons-y, y a plus l'choix, notre rap est compatible En plein milieu d'une histoire, combien sont vraiment partis Combien sont vraiment restés à squatter dans c'parking C'est toujours systématique, comment oublier Mobb Deep Avec la rage dans les tripes, j'ai appris à m'en sortir Une porte fermée c'est tranquille, l'ouvrir devient sordide La vie est une musique et la famille est une compil' Suffit d'une balle et riez, comme un classique Master P Écrire c'est fabuleux, faut re-sonner étant tout petit La haine a ses principes, qui nous poussera à s'engloutir Comment écrire sans vous l'dire, nos mots sont dans l'canon On foncera tout de façon, comme une page à Frantz Fanon Nous sommes les damnés d'la terre, les derniers gladiateurs Un mic en guise de gun et une machette dans les hauts-parleurs DJ Rolxx et Rocé, laissez-nous partir bosser Mon futur est à l'ancienne, oui l'son fait des ricochets Le reflet du monde n'est qu'une transparence On l'écrit sur des feuilles volantes Eh ouais Demi Portion, Rocé Appelez-nous lyricistes Appelez-nous lyricistes Lyricistes, lyricistes, lyricistes, lyricistes, lyricistes lyricistes lyricistes</t>
+          <t>Appelez-nous lyricistes Ça fait... Assignés à résistance, comme toute la planète On attend la délivrance, on sort d'la cachette Si la pression est immense comme sur l'pouls d'la canette J'rêve de défier les puissances, que personne m'arrête J'vois clair dans vos jeux, même à la lumière d'la bougie J'vois vos yeux dans l'noir tellement la haine les rougit J'veux plus d'ce monde, vu qu'ce monde est pourri Mais j'peux pas lui casser la main car sa main me nourrit Toujours courir, y en a qui veulent plus ça Qui voient plus rien, tu vois, finissent sous l'eau et sans tuba Tu t'bats, tu sais même plus contre qui Plus tard, qui veux-tu être, tous les rôles de bâtards sont pris Tant pis, tu guettes, la vie quel est son prix? La question s'pose, vu que pour certaines causes, certains payent en années d'son-pri Pause, vous n'avez toujours pas compris, c'est c'qu'on dit Demi Portion, Rocé, la vie qu'on mène, c'est la vie qu'on vit J'écris sur des feuilles volantes, j'essaye d'atteindre les étoiles Nos rêves sont des poids jusqu'à devenir des voiles On dévoile les peurs, les goûts d'histoires des proches Les frères, les surs, les coups du sort féroces On n'oublie rien, on s'habitue à l'attitude Le cur se souvient mais il a sa lassitude Ce monde dur mais durcit, bientôt nos mots seront illicites On résiste, on existe, appelle-nous lyricistes lyricistes lyricistes lyricistes lyricistes Le reflet du monde n'est qu'une transparence On l'écrit sur des feuilles volantes C'est parti, s'lever pour mieux combattre Si le savoir était une arme, ça fait longtemps qu'on s'attarde J'te rassure, prendre position c'est sûr La voix du peuple est trop chère et crier pousse à l'usure Allons-y, y a plus l'choix, notre rap est compatible En plein milieu d'une histoire, combien sont vraiment partis Combien sont vraiment restés à squatter dans c'parking C'est toujours systématique, comment oublier Mobb Deep Avec la rage dans les tripes, j'ai appris à m'en sortir Une porte fermée c'est tranquille, l'ouvrir devient sordide La vie est une musique et la famille est une compil' Suffit d'une balle et riez, comme un classique Master P Écrire c'est fabuleux, faut re-sonner étant tout petit La haine a ses principes, qui nous poussera à s'engloutir Comment écrire sans vous l'dire, nos mots sont dans l'canon On foncera tout de façon, comme une page à Frantz Fanon Nous sommes les damnés d'la terre, les derniers gladiateurs Un mic en guise de gun et une machette dans les hauts-parleurs DJ Rolxx et Rocé, laissez-nous partir bosser Mon futur est à l'ancienne, oui l'son fait des ricochets Le reflet du monde n'est qu'une transparence On l'écrit sur des feuilles volantes Eh ouais Demi Portion, Rocé Appelez-nous lyricistes Appelez-nous lyricistes Lyricistes, lyricistes, lyricistes, lyricistes, lyricistes lyricistes lyricistes</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>sur mesures Cest bon, allume ta came on va tmontrer un freestyle On ne peut pas plaire à tout lmonde et cest dbonne guerre amicale Banal, moi jfais du rap, je men tape de ton argent Cours, cours, jirai de la même allure en marchant Demi Portion tape un petit passe-passe Sur la touche mais vise la surface Leffet de surprise big up ou rester sur pause, une vida loca Chercher loccas, un peu daudace A part des bêtises, on a passé lâge On sen fiche, un jour tout sefface Oui cest Rasheed fais voir ton visage Oui cest facile de parler trop mal Non cest rapide de faire des dommages Atterris, tas niqué des collages Pas de coloriage, me colle pas de biatchs Rien à lamiable, matte ce que je lâche Je me sers de ma bouche comme une arme Où jme couche, toi tu tcaches Centre de menaces, je toublie grave Oui je vis ça, loin des strass Pourquoi tu stresses ? Faut qutu saches Ne manque pas dadresse à chaque message Oui les mots blessent mais qui est sage ? Naal dine oumouk un coup dschlass Rentrer dans lmoule ça faut pas Tout est fragile, ya tout qui scasse Qui fait la tête et qui sécrase ? Sorti de Sète donc la classe Pas de compét', jai pas ltemps pour ça La grosse tête, te gâcher la face Oui ça magace, cest pas trop ma tasse Pendant qutu parles et bousilles le taf You might also like Première mesure, cest pour mes gaillards du 3-4, ça y est Jai pris lmicro, tout lmonde se chauffe, ça risquera pas dcailler Supporter de ma ville comme Karim Aït-Fana Juin 2012, Place de la Com, cétait vlà lfaya Ça vient du Sud 34 degrés à lombre Je dmande pas dcrécher à Londres Non par ici mec ya un tas dplaya Des talents de quartier comme celui de La Paillade Des blanc, des jaunes, des noirs tu peux remarquer un métissage royal On représente même salé comme Karabatic Cest du nimporte quoi comme Rémi Gaillard à Palavas Beach Joue pas ltaré ou on te tacle à lEl Kaoutari Oh on prépare nos arrières juste au cas où tarrives Ouvre la route quand on débarque cest du 3K ? tout terrain Tu vois mes types dans les clips portent pas du Gucci, Guerlain Jveux faire monter les nôtres comme René Girard On compte pas tromper les votes comme le faisait Chirac Petit, ya trop de modestie, jai jamais dit que je mettais la barre haute Mais jfuck toujours les présidents, les rois ou la baronne Seulement soumis au tout puissant ou à la daronne Au temps qui passe, je peux le jurer sur ma parole Avec léquipe tape des barres au lieu de pleurer sur nos sorts Qui veut une place derrière les barreaux ? Là ya sûrement personne Malheureusement tous bloqué entre libérable et arrivant Les Grandes Gueules, jamais eu le temps de rapper dans le vent Ya pas de leçons à recevoir, plutôt à donner doù jviens Envoie le son mais aussi les ronds quon se mette tous bien Depuis môme, on marche en silence et ils veulent même pas quon réponde Strict minimum car cest limage qui correspond S-P-R-I-N-T accumulation drage Non jsuis pas venu feinter et je men tape dvos sondages Je nveux pas plaire à tout lmonde vu qutout lmonde est perdu Heureusement comme dhabitude, ya quelques bons qui perdurent Sinon, tu las bien vu, les ambiances sont flinguées Ils disent tous être dans le vrai mais se font zingués A chaque fois, confronté à la stupidité des caves Te faire accréditer chez nous ? Pfff vas-y décale, dégage Cest vrai que dans la vie jai trop attendu les choses Et quand on ma dit non, jai dit ok et jai pris des notes Mais je nen veux à personne, fallait quje me bouge un peu Et jai compris que dans la vie faut mériter ce quon veut Alors jai pris un Bic et jai retroussé mes manches Aujourdhui comment vous dire quécrire me démange ? Quatre autres choses me dérangent mais dois-je rester passif ? Subir la vie, fermer ma gueule et puis rester assis Nan, nan ce nest pas le genre de la maison Encore faut-il ne pas confondre un grand monsieur et un grand garçon Moi jai la rime et lflow, il te reste quoi en fait ? Ya plus de place pour faire le fort quand on a tout dun faible Oh, insaisissable, incorruptible Rappeur timide avec des textes un peu trop combustibles Paradoxale quand ils lisent chacune de mes pages Pour eux jsuis un gars normal avec des rimes de barge 1</t>
+          <t>sur mesures Cest bon, allume ta came on va tmontrer un freestyle On ne peut pas plaire à tout lmonde et cest dbonne guerre amicale Banal, moi jfais du rap, je men tape de ton argent Cours, cours, jirai de la même allure en marchant Demi Portion tape un petit passe-passe Sur la touche mais vise la surface Leffet de surprise big up ou rester sur pause, une vida loca Chercher loccas, un peu daudace A part des bêtises, on a passé lâge On sen fiche, un jour tout sefface Oui cest Rasheed fais voir ton visage Oui cest facile de parler trop mal Non cest rapide de faire des dommages Atterris, tas niqué des collages Pas de coloriage, me colle pas de biatchs Rien à lamiable, matte ce que je lâche Je me sers de ma bouche comme une arme Où jme couche, toi tu tcaches Centre de menaces, je toublie grave Oui je vis ça, loin des strass Pourquoi tu stresses ? Faut qutu saches Ne manque pas dadresse à chaque message Oui les mots blessent mais qui est sage ? Naal dine oumouk un coup dschlass Rentrer dans lmoule ça faut pas Tout est fragile, ya tout qui scasse Qui fait la tête et qui sécrase ? Sorti de Sète donc la classe Pas de compét', jai pas ltemps pour ça La grosse tête, te gâcher la face Oui ça magace, cest pas trop ma tasse Pendant qutu parles et bousilles le taf Première mesure, cest pour mes gaillards du 3-4, ça y est Jai pris lmicro, tout lmonde se chauffe, ça risquera pas dcailler Supporter de ma ville comme Karim Aït-Fana Juin 2012, Place de la Com, cétait vlà lfaya Ça vient du Sud 34 degrés à lombre Je dmande pas dcrécher à Londres Non par ici mec ya un tas dplaya Des talents de quartier comme celui de La Paillade Des blanc, des jaunes, des noirs tu peux remarquer un métissage royal On représente même salé comme Karabatic Cest du nimporte quoi comme Rémi Gaillard à Palavas Beach Joue pas ltaré ou on te tacle à lEl Kaoutari Oh on prépare nos arrières juste au cas où tarrives Ouvre la route quand on débarque cest du 3K ? tout terrain Tu vois mes types dans les clips portent pas du Gucci, Guerlain Jveux faire monter les nôtres comme René Girard On compte pas tromper les votes comme le faisait Chirac Petit, ya trop de modestie, jai jamais dit que je mettais la barre haute Mais jfuck toujours les présidents, les rois ou la baronne Seulement soumis au tout puissant ou à la daronne Au temps qui passe, je peux le jurer sur ma parole Avec léquipe tape des barres au lieu de pleurer sur nos sorts Qui veut une place derrière les barreaux ? Là ya sûrement personne Malheureusement tous bloqué entre libérable et arrivant Les Grandes Gueules, jamais eu le temps de rapper dans le vent Ya pas de leçons à recevoir, plutôt à donner doù jviens Envoie le son mais aussi les ronds quon se mette tous bien Depuis môme, on marche en silence et ils veulent même pas quon réponde Strict minimum car cest limage qui correspond S-P-R-I-N-T accumulation drage Non jsuis pas venu feinter et je men tape dvos sondages Je nveux pas plaire à tout lmonde vu qutout lmonde est perdu Heureusement comme dhabitude, ya quelques bons qui perdurent Sinon, tu las bien vu, les ambiances sont flinguées Ils disent tous être dans le vrai mais se font zingués A chaque fois, confronté à la stupidité des caves Te faire accréditer chez nous ? Pfff vas-y décale, dégage Cest vrai que dans la vie jai trop attendu les choses Et quand on ma dit non, jai dit ok et jai pris des notes Mais je nen veux à personne, fallait quje me bouge un peu Et jai compris que dans la vie faut mériter ce quon veut Alors jai pris un Bic et jai retroussé mes manches Aujourdhui comment vous dire quécrire me démange ? Quatre autres choses me dérangent mais dois-je rester passif ? Subir la vie, fermer ma gueule et puis rester assis Nan, nan ce nest pas le genre de la maison Encore faut-il ne pas confondre un grand monsieur et un grand garçon Moi jai la rime et lflow, il te reste quoi en fait ? Ya plus de place pour faire le fort quand on a tout dun faible Oh, insaisissable, incorruptible Rappeur timide avec des textes un peu trop combustibles Paradoxale quand ils lisent chacune de mes pages Pour eux jsuis un gars normal avec des rimes de barge 1</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Coucou c'est nous y'a King Kong l'amour ne sera pas dans l'pré Y'a pas d'secrets ni d'story ça j'te le redis d'entrée Ça se discute de la rue j'commence par Salam Maalekoum Même si y'a la mer près d'chez moi, 'a rien d'Alerte à Malibu Les Frères Scott sont pas ici, très peu révisent leurs cours Ici les jeunes veillent sur l'image et suis l'courant d'une rivière pourpre On est coupables même si j'fais rentrer l'accusé On passe à table, je lui dirai à c'facho c'est pas grossier Influençable pas couché voire terrifié du Grand Journal Incroyable mais vrai comme les infos de chez Groland Salut les Terriens, moi j'vis ma vie si tu fais rien L'argent n'viendra pas seul, nulle part ailleurs et tu l'sais bien C'est à prendre ou à laisser, c'est en cachette que l'on se sert Y'a les enfants de la télé, derrière l'écran y'a la misère Ça flashe, mets ta visière, on n'peut pas plaire à tout l'monde C'est sûr qu'on a peu d'Zidane, l'envie d'percer dans l'football Perdu d'vue, un cauchemar, dis-moi les rêves, combien ça coûte ? La roue d'la fortune non, j'ai l'pneu crevé sans aucun doute On a l'sens du partage un peu comme découper une pièce Sans parier j'termine ce jeu sans rien à Pékin Express On veut le juste prix, l'envoyé spécial pour ceux qui vannent Trente millions d'amis, non j'fais pas l'service après-vente Trois minutes inside, le Fort Boyard dans mon freestyle Viens dans ma zone interdite, tu n'y sors pas, c'est capital Ceux qui veulent gagner des milliards, des marionnettes aux Guignols Aller plus vite que la musique sans trop connaître les paroles Ça saute à force mais du bronze qui passe à l'or Il faudra ensuite sucer ou t'rapprocher du bachelor D'une, on met l'turbo, sur l'terrain ou sur Stade 2 Pour la promo y'a des sticks, j'ai pas d'Flavie sur Fan 2 Bref, c'est l'zapping, ils diront qu'on a tout essayé Avec des racines et des ailes, j'ai vu ton arbre se bousiller Tout en restant poli, y'a qu'la vérité qui compte Oui y'a arrêt sur image car vu du ciel on fait des fautes Finie l'époque, pour ma culture c'est mi amor À tous les frères, ceux qui m'soutiennent, je vous surnomme Famille en or Montez à bord, si tarrives presque à l'agonie On a l'remède et des morceaux qui remplacent Grey's Anatomy Devenir malade, disons qu'chaque titre est embarrassant Si j'te dis quAl-Qaïda gère même la chaîne de Thalassa C'est sous contrôle trop sale, ils te diront qu'c'est du propre Que l'incroyable talent c'est une nouvelle star dans la pop Que les filles plus saines sont sur l'île de la tentation Que les perdants sans réponse regardent Question pour un champion Où va-t-on ? Détruis l'antenne de tous ces vices qu'ils émettent Donc c'est sur feuille moi j'cherche et tape des chiffres et des lettres Exclusive est l'enquête rien ne m'a convaincu Mais bon t'es déjà venu, Sète c'est pas New York non plus ... PS j't'écris de chez moi, j'allume mon PC J'avais oublié y'a pas qu'les p'tits qui matent la téléYou might also like</t>
+          <t>Coucou c'est nous y'a King Kong l'amour ne sera pas dans l'pré Y'a pas d'secrets ni d'story ça j'te le redis d'entrée Ça se discute de la rue j'commence par Salam Maalekoum Même si y'a la mer près d'chez moi, 'a rien d'Alerte à Malibu Les Frères Scott sont pas ici, très peu révisent leurs cours Ici les jeunes veillent sur l'image et suis l'courant d'une rivière pourpre On est coupables même si j'fais rentrer l'accusé On passe à table, je lui dirai à c'facho c'est pas grossier Influençable pas couché voire terrifié du Grand Journal Incroyable mais vrai comme les infos de chez Groland Salut les Terriens, moi j'vis ma vie si tu fais rien L'argent n'viendra pas seul, nulle part ailleurs et tu l'sais bien C'est à prendre ou à laisser, c'est en cachette que l'on se sert Y'a les enfants de la télé, derrière l'écran y'a la misère Ça flashe, mets ta visière, on n'peut pas plaire à tout l'monde C'est sûr qu'on a peu d'Zidane, l'envie d'percer dans l'football Perdu d'vue, un cauchemar, dis-moi les rêves, combien ça coûte ? La roue d'la fortune non, j'ai l'pneu crevé sans aucun doute On a l'sens du partage un peu comme découper une pièce Sans parier j'termine ce jeu sans rien à Pékin Express On veut le juste prix, l'envoyé spécial pour ceux qui vannent Trente millions d'amis, non j'fais pas l'service après-vente Trois minutes inside, le Fort Boyard dans mon freestyle Viens dans ma zone interdite, tu n'y sors pas, c'est capital Ceux qui veulent gagner des milliards, des marionnettes aux Guignols Aller plus vite que la musique sans trop connaître les paroles Ça saute à force mais du bronze qui passe à l'or Il faudra ensuite sucer ou t'rapprocher du bachelor D'une, on met l'turbo, sur l'terrain ou sur Stade 2 Pour la promo y'a des sticks, j'ai pas d'Flavie sur Fan 2 Bref, c'est l'zapping, ils diront qu'on a tout essayé Avec des racines et des ailes, j'ai vu ton arbre se bousiller Tout en restant poli, y'a qu'la vérité qui compte Oui y'a arrêt sur image car vu du ciel on fait des fautes Finie l'époque, pour ma culture c'est mi amor À tous les frères, ceux qui m'soutiennent, je vous surnomme Famille en or Montez à bord, si tarrives presque à l'agonie On a l'remède et des morceaux qui remplacent Grey's Anatomy Devenir malade, disons qu'chaque titre est embarrassant Si j'te dis quAl-Qaïda gère même la chaîne de Thalassa C'est sous contrôle trop sale, ils te diront qu'c'est du propre Que l'incroyable talent c'est une nouvelle star dans la pop Que les filles plus saines sont sur l'île de la tentation Que les perdants sans réponse regardent Question pour un champion Où va-t-on ? Détruis l'antenne de tous ces vices qu'ils émettent Donc c'est sur feuille moi j'cherche et tape des chiffres et des lettres Exclusive est l'enquête rien ne m'a convaincu Mais bon t'es déjà venu, Sète c'est pas New York non plus ... PS j't'écris de chez moi, j'allume mon PC J'avais oublié y'a pas qu'les p'tits qui matent la télé</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Ceux qui voient l'mal partout sont maléfiques Donne-moi un mic et c'est devenu magnifique Dis-leur que c'est des malades On a dansé à voir les absents torts Comme ceux qui étaient pas là A la belle étoile entre nous à la fraîche P'tit déj' tartine au beurre de Marrakech Tous pour un et chacun pour l'autre La scène notre terrain, ce morceau le votre La vie est unique comme son MC Donc 2 fois Sète impossible Chaque seconde la chance de ta vie Chaque seconde la chance de ta vie... x2 Chante la vie et oui c'est magnifique Donne d'l'amour avant que tout se termine Sois meilleur si tu veux des amis Sois meilleur si tu veux des amis La 'sique est magnifique comme cette île en Malaisie L'enfant d'la Terre a toujours besoin d'ses racines S'planter ça ne suffit pas on sait que pousser c'est évident Je cherchais une chaise pour deux du coup on m'a offert un banc Y a la scène donc on se lance le public n'attend qu'ça L'ambiance est Kingston je sais comment on chauffe une salle oh Comme Oxmo la libération de nos mots Puccino histoire de rentrer en osmose C'est magnifique c'est la seule tristesse que j'ressens J'ai mal au rap voila pourquoi nous faut ces prises de son Le rap c'est bien mais toujours mieux de parler aux enfants C'est magnifique mais toujours mieux d'le dire tous ensemble You might also like x2 Chante la vie et oui c'est magnifique Donne d'l'amour avant que tout se termine Sois meilleur si tu veux des amis Sois meilleur si tu veux des amis Pour me copier-coller faut plus qu'un logiciel Temps couvert, mais j'aurais ma part de ciel Eeny, meeny, magnifique Le public chante et c'est le pic de l'histoire Dans l'fond on sera toujours pote on parcourt nos vies dans l'Hip Hop Hop Hop Hop Pas d'guerre ouais c'est p't être ça l'antidote La route est longue donc on s'transforme vite en pilote Vous êtes à bord sourire en papillote Attachez vos ceintures bande de papillons C'est d'l'amour qu'on dégoupille Donc appelle tes potos et tes copines Artiste, non c'est pas difficile Ouais à ta santé Mon frérot c'est D.E.M.I On se met tranquille x2 Chante la vie et oui c'est magnifique Donne d'l'amour avant que tout se termine Sois meilleur si tu veux des amis Sois meilleur si tu veux des amis</t>
+          <t>Ceux qui voient l'mal partout sont maléfiques Donne-moi un mic et c'est devenu magnifique Dis-leur que c'est des malades On a dansé à voir les absents torts Comme ceux qui étaient pas là A la belle étoile entre nous à la fraîche P'tit déj' tartine au beurre de Marrakech Tous pour un et chacun pour l'autre La scène notre terrain, ce morceau le votre La vie est unique comme son MC Donc 2 fois Sète impossible Chaque seconde la chance de ta vie Chaque seconde la chance de ta vie... x2 Chante la vie et oui c'est magnifique Donne d'l'amour avant que tout se termine Sois meilleur si tu veux des amis Sois meilleur si tu veux des amis La 'sique est magnifique comme cette île en Malaisie L'enfant d'la Terre a toujours besoin d'ses racines S'planter ça ne suffit pas on sait que pousser c'est évident Je cherchais une chaise pour deux du coup on m'a offert un banc Y a la scène donc on se lance le public n'attend qu'ça L'ambiance est Kingston je sais comment on chauffe une salle oh Comme Oxmo la libération de nos mots Puccino histoire de rentrer en osmose C'est magnifique c'est la seule tristesse que j'ressens J'ai mal au rap voila pourquoi nous faut ces prises de son Le rap c'est bien mais toujours mieux de parler aux enfants C'est magnifique mais toujours mieux d'le dire tous ensemble x2 Chante la vie et oui c'est magnifique Donne d'l'amour avant que tout se termine Sois meilleur si tu veux des amis Sois meilleur si tu veux des amis Pour me copier-coller faut plus qu'un logiciel Temps couvert, mais j'aurais ma part de ciel Eeny, meeny, magnifique Le public chante et c'est le pic de l'histoire Dans l'fond on sera toujours pote on parcourt nos vies dans l'Hip Hop Hop Hop Hop Pas d'guerre ouais c'est p't être ça l'antidote La route est longue donc on s'transforme vite en pilote Vous êtes à bord sourire en papillote Attachez vos ceintures bande de papillons C'est d'l'amour qu'on dégoupille Donc appelle tes potos et tes copines Artiste, non c'est pas difficile Ouais à ta santé Mon frérot c'est D.E.M.I On se met tranquille x2 Chante la vie et oui c'est magnifique Donne d'l'amour avant que tout se termine Sois meilleur si tu veux des amis Sois meilleur si tu veux des amis</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Eh! Mon frère relève la tête, regarde le ciel, il est si beau Souri même si t'as les poches aussi vide que ton frigo N'écoute pas tous ces mythos qui disent que t'as rien dans l'cartable Nous on a des valeurs que même l'argent ne remplace pas Dans c'monde flingué où même loxygène a son prix Y'a des choses qui n'se vendent pas, qui rendent heureux et j'l'ai compris Avoir des frissons sur scène, que la salle soit ou pas remplie Respirer en pleine nature ou voir la famille s'agrandir Le bonheur c'est de choses simples, c'est d'l'amour que tu récoltes C'est pas d'l'argent c'est encore c'qu'on t'apprend à l'école Moi j'ai mes codes et mes principes, ma façon d'le percevoir Mais j'me contente de peu quand j'pense à ceux qui rêvent de voir Combien d'fois me suis-je demandé si tout ça en valait la peine Mais vos sourires sur vos lèvres m'ont redonné la pêche Gâcher son talent à faire le faux j'éviterais l'gâchis On m'a dit Toi, ne lâche pas, donc j'laisse pas tomber comme Rachid Profiter d'la vie qu'on t'a donnée c'est maintenant ou jamais Remercier dieu pour ses bienfaits c'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis Aller là où temmène ton cur c'est maintenant ou jamais Faire sourire nos frères et sur C'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis You might also like Je suis la plume en personne, celle qui m'aide à m'exprimer A trop connaître le goût du sol, c'est bien de s'refaire son p'tit nez Ecoute moi, j'ai déprimé, j'ai passé du temps sous l'eau A croire qu'un rappeur c'est trop cool, et pt'être noyer dans son boulot On passe souvent la tête sous l'eau, nos intérêts d'l'aquarium Si l'instru' me fait pleurer c'est un sourire pour mon album On m'dit souvent comment tu fais cousin tu rap depuis poussin? Ouai t'as la touffe qui a poussée. En gros est-ce que tu vis tout seul? Les concerts, les cris, les sueurs et des story, dans la bédave Des aller-retour en toute pudeur, c'est ça le retour d'la médaille Etre artiste? Non j'sais pas, j'ai pas calculé tout ça On m'dit t'es fort, non j'suis faible, indécent, universal On fête son anniversaire de Sète jusqu'à Montréal Parce que oui je le vaut bien, comme une aurore boréale Et oui c'est dur dêtre sois même, de partout y'a des miroirs Moi j'ai pas choisis ma couleur, c'est un peu comme sur un billard Profiter d'la vie qu'on t'a donnée c'est maintenant ou jamais Remercier dieu pour ses bienfaits c'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis Aller là où temmène ton cur c'est maintenant ou jamais Faire sourire nos frères et sur C'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis1</t>
+          <t>Eh! Mon frère relève la tête, regarde le ciel, il est si beau Souri même si t'as les poches aussi vide que ton frigo N'écoute pas tous ces mythos qui disent que t'as rien dans l'cartable Nous on a des valeurs que même l'argent ne remplace pas Dans c'monde flingué où même loxygène a son prix Y'a des choses qui n'se vendent pas, qui rendent heureux et j'l'ai compris Avoir des frissons sur scène, que la salle soit ou pas remplie Respirer en pleine nature ou voir la famille s'agrandir Le bonheur c'est de choses simples, c'est d'l'amour que tu récoltes C'est pas d'l'argent c'est encore c'qu'on t'apprend à l'école Moi j'ai mes codes et mes principes, ma façon d'le percevoir Mais j'me contente de peu quand j'pense à ceux qui rêvent de voir Combien d'fois me suis-je demandé si tout ça en valait la peine Mais vos sourires sur vos lèvres m'ont redonné la pêche Gâcher son talent à faire le faux j'éviterais l'gâchis On m'a dit Toi, ne lâche pas, donc j'laisse pas tomber comme Rachid Profiter d'la vie qu'on t'a donnée c'est maintenant ou jamais Remercier dieu pour ses bienfaits c'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis Aller là où temmène ton cur c'est maintenant ou jamais Faire sourire nos frères et sur C'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis Je suis la plume en personne, celle qui m'aide à m'exprimer A trop connaître le goût du sol, c'est bien de s'refaire son p'tit nez Ecoute moi, j'ai déprimé, j'ai passé du temps sous l'eau A croire qu'un rappeur c'est trop cool, et pt'être noyer dans son boulot On passe souvent la tête sous l'eau, nos intérêts d'l'aquarium Si l'instru' me fait pleurer c'est un sourire pour mon album On m'dit souvent comment tu fais cousin tu rap depuis poussin? Ouai t'as la touffe qui a poussée. En gros est-ce que tu vis tout seul? Les concerts, les cris, les sueurs et des story, dans la bédave Des aller-retour en toute pudeur, c'est ça le retour d'la médaille Etre artiste? Non j'sais pas, j'ai pas calculé tout ça On m'dit t'es fort, non j'suis faible, indécent, universal On fête son anniversaire de Sète jusqu'à Montréal Parce que oui je le vaut bien, comme une aurore boréale Et oui c'est dur dêtre sois même, de partout y'a des miroirs Moi j'ai pas choisis ma couleur, c'est un peu comme sur un billard Profiter d'la vie qu'on t'a donnée c'est maintenant ou jamais Remercier dieu pour ses bienfaits c'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis Aller là où temmène ton cur c'est maintenant ou jamais Faire sourire nos frères et sur C'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis1</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Laissez ma musique Pas d'commercial, on est trop rusés Le taff à l'usine, la rime aiguisée Toujours acharné sur le projet car Rien n'est arrivé, t'as vu le départ ? Le destin ne prévient jamais quand la mort nous sépare Quand la mort nous sépare... Paraît qu'on est tous un peu décalés Trop peur de finir égarés Qu'au fond de nous le malaise On vit en bas de la falaise J'rêve juste d'emballer ma valise Voyager loin des coulisses J'en place une à tous les condamnés Que le son puisse nous évader Passionné depuis des années Entouré de mes vrais amis Arroser la fleur fanée Comme chaque mesure est taillée Trouver la paix et s'en aller J'crée le tunnel de ma vallée N'oublions pas ceux qui sont partis Qui ont mis de l'essence dans la machine You might also like Laissez ma musique Pas d'commercial, on est trop rusés Le taff à l'usine, la rime aiguisée Toujours acharné sur le projet car Rien n'est arrivé, t'as vu le départ ? Le destin ne prévient jamais quand la mort nous sépare Quand la mort nous sépare... Paraît qu'on est tous un peu décalés La crainte de jamais démarrer Le vice est parfois si balaise J'veux pas récupérer les restes Donc vas-y retire le masque Montre-nous tout ce qui nous menace Ceux qui n'ont plus la force de crier Porte-parole de tous les guerriers Assumer les textes il fallait Passer nos vies à s'étaler Les mêmes potes depuis l'époque Apprendre à maîtriser les codes Encore des thèmes à déballer Pointer les mots comme une arme On fête jamais l'arrivée Chaque jour est un nouveau départ Laissez ma musique Pas d'commercial, on est trop rusés Le taff à l'usine, la rime aiguisée Toujours acharné sur le projet car Rien n'est arrivé, t'as vu le départ ? Le destin ne prévient jamais quand la mort nous sépare Quand la mort nous sépare... Passer nos vies à s'étaler Apprendre à maîtriser les codes Pointer les mots comme une arme Chaque jour est un nouveau départ</t>
+          <t>Laissez ma musique Pas d'commercial, on est trop rusés Le taff à l'usine, la rime aiguisée Toujours acharné sur le projet car Rien n'est arrivé, t'as vu le départ ? Le destin ne prévient jamais quand la mort nous sépare Quand la mort nous sépare... Paraît qu'on est tous un peu décalés Trop peur de finir égarés Qu'au fond de nous le malaise On vit en bas de la falaise J'rêve juste d'emballer ma valise Voyager loin des coulisses J'en place une à tous les condamnés Que le son puisse nous évader Passionné depuis des années Entouré de mes vrais amis Arroser la fleur fanée Comme chaque mesure est taillée Trouver la paix et s'en aller J'crée le tunnel de ma vallée N'oublions pas ceux qui sont partis Qui ont mis de l'essence dans la machine Laissez ma musique Pas d'commercial, on est trop rusés Le taff à l'usine, la rime aiguisée Toujours acharné sur le projet car Rien n'est arrivé, t'as vu le départ ? Le destin ne prévient jamais quand la mort nous sépare Quand la mort nous sépare... Paraît qu'on est tous un peu décalés La crainte de jamais démarrer Le vice est parfois si balaise J'veux pas récupérer les restes Donc vas-y retire le masque Montre-nous tout ce qui nous menace Ceux qui n'ont plus la force de crier Porte-parole de tous les guerriers Assumer les textes il fallait Passer nos vies à s'étaler Les mêmes potes depuis l'époque Apprendre à maîtriser les codes Encore des thèmes à déballer Pointer les mots comme une arme On fête jamais l'arrivée Chaque jour est un nouveau départ Laissez ma musique Pas d'commercial, on est trop rusés Le taff à l'usine, la rime aiguisée Toujours acharné sur le projet car Rien n'est arrivé, t'as vu le départ ? Le destin ne prévient jamais quand la mort nous sépare Quand la mort nous sépare... Passer nos vies à s'étaler Apprendre à maîtriser les codes Pointer les mots comme une arme Chaque jour est un nouveau départ</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>11 heures du mat', mal de dos sur un clic-clac, j'ai p't être encore mal dormi La vie me réveille à coups de p'tites claques, dosé, j'arrête pas d'vomir, gros la poisse m'atomise Au fond d'mon âme, ma chance agonise, j'sors dehors, j'attrape ma sacoche j'rejoins 2-3 acolytes La hess, on s'accroche et ça cogne, c'est ça comme, chacun pour son cul Demande pas d'aide j'suis pas Malcom X, autant d'vautours et d'rapaces, hein Toi qu'est c'que tu ferais à ma place ? Nan, nan, j'me plains pas, les blessures mentales on les pansent pas avec du Hansaplast Des victoires, des ratures, des amis, des raclures, je sature de ça, rien qu'ça tire et ça tue Du sale shit, des sales putes, rien qu'ça tise, ça s'agite, tout s'achète, trouve ça chill, mec ça pue J'les entend chuchoter, j'les entend chuchoter les joies d'la médisance Et franchement, j'suis choqué, et franchement, j'suis choqué, comprends que j'prenne mes distances Tellement d'voix dans ma tête, je ne m'entends même plus penser Ne m'casser pas les couilles, le cerveau sur répondeur, laissez-moi j'suis fonce-dé Seul sur ma planète, j'veux mourir seul sur ma planète Du cash, j'suis seul sur ma planète, j'ressens ce mal-être J'perds contrôle, j'tiens plus les manettes Seul sur ma planète, laissez-moi seul sur ma planète Moi, je n'rentre pas dans vos panels Ressens mon malaise, dans ma bulle gros, ça tourne pas net 16 heures du mat', pas sommeil, j'ai la barre, c'est pas grave quand je réfléchis Une feuille blanche, des images, j'hallucine, vis la même encore depuis plusieurs nuits En sueur, je dors mal, assure mec, c'est normal, on s'relève vas-y man Insomnie, je tente ma chance, j'sors dehors, roule un niak Quatre albums, bois dans lencrier comme un alcoolique Respecte nous si tu es mal poli, ouais l'public criant historique ! Un selfie, on s'en fout, ça va vite, nan, nan, pas de filtres dans nos p'tites stories Des victoires, des blessures, des gaffes et des gars sûrs, des baffes et des barrettes Tout sachète, des barres et des histoires, ouais les mecs, on est pleins dans ma tête mais seul de ma planète You might also like J'les entend chuchoter, j'les entend chuchoter les joies d'la médisance Et franchement, j'suis choqué, et franchement, j'suis choqué, comprends que j'prenne mes distances Tellement d'voix dans ma tête, je ne m'entends même plus penser Ne m'casser pas les couilles, le cerveau sur répondeur, laissez-moi j'suis fonce-dé Seul sur ma planète, j'veux mourir seul sur ma planète Du cash, j'suis seul sur ma planète, j'ressens ce mal-être J'perds contrôle, j'tiens plus les manettes Seul sur ma planète, laissez moi seul sur ma planète Moi, je n'rentre pas dans vos panels Ressens mon malaise, dans ma bulle gros, ça tourne pas net Sam's, Demi Seul sur ma planète, j'veux mourir seul sur ma planète Du cash, j'suis seul sur ma planète J'ressens ce mal-être, j'perds contrôle, j'tiens plus les manettes Seul sur ma planète, laissez-moi seul sur ma planète Moi, je n'rentre pas dans vos panels Ressens mon malaise, dans ma bulle gros, ça tourne pas net</t>
+          <t>11 heures du mat', mal de dos sur un clic-clac, j'ai p't être encore mal dormi La vie me réveille à coups de p'tites claques, dosé, j'arrête pas d'vomir, gros la poisse m'atomise Au fond d'mon âme, ma chance agonise, j'sors dehors, j'attrape ma sacoche j'rejoins 2-3 acolytes La hess, on s'accroche et ça cogne, c'est ça comme, chacun pour son cul Demande pas d'aide j'suis pas Malcom X, autant d'vautours et d'rapaces, hein Toi qu'est c'que tu ferais à ma place ? Nan, nan, j'me plains pas, les blessures mentales on les pansent pas avec du Hansaplast Des victoires, des ratures, des amis, des raclures, je sature de ça, rien qu'ça tire et ça tue Du sale shit, des sales putes, rien qu'ça tise, ça s'agite, tout s'achète, trouve ça chill, mec ça pue J'les entend chuchoter, j'les entend chuchoter les joies d'la médisance Et franchement, j'suis choqué, et franchement, j'suis choqué, comprends que j'prenne mes distances Tellement d'voix dans ma tête, je ne m'entends même plus penser Ne m'casser pas les couilles, le cerveau sur répondeur, laissez-moi j'suis fonce-dé Seul sur ma planète, j'veux mourir seul sur ma planète Du cash, j'suis seul sur ma planète, j'ressens ce mal-être J'perds contrôle, j'tiens plus les manettes Seul sur ma planète, laissez-moi seul sur ma planète Moi, je n'rentre pas dans vos panels Ressens mon malaise, dans ma bulle gros, ça tourne pas net 16 heures du mat', pas sommeil, j'ai la barre, c'est pas grave quand je réfléchis Une feuille blanche, des images, j'hallucine, vis la même encore depuis plusieurs nuits En sueur, je dors mal, assure mec, c'est normal, on s'relève vas-y man Insomnie, je tente ma chance, j'sors dehors, roule un niak Quatre albums, bois dans lencrier comme un alcoolique Respecte nous si tu es mal poli, ouais l'public criant historique ! Un selfie, on s'en fout, ça va vite, nan, nan, pas de filtres dans nos p'tites stories Des victoires, des blessures, des gaffes et des gars sûrs, des baffes et des barrettes Tout sachète, des barres et des histoires, ouais les mecs, on est pleins dans ma tête mais seul de ma planète J'les entend chuchoter, j'les entend chuchoter les joies d'la médisance Et franchement, j'suis choqué, et franchement, j'suis choqué, comprends que j'prenne mes distances Tellement d'voix dans ma tête, je ne m'entends même plus penser Ne m'casser pas les couilles, le cerveau sur répondeur, laissez-moi j'suis fonce-dé Seul sur ma planète, j'veux mourir seul sur ma planète Du cash, j'suis seul sur ma planète, j'ressens ce mal-être J'perds contrôle, j'tiens plus les manettes Seul sur ma planète, laissez moi seul sur ma planète Moi, je n'rentre pas dans vos panels Ressens mon malaise, dans ma bulle gros, ça tourne pas net Sam's, Demi Seul sur ma planète, j'veux mourir seul sur ma planète Du cash, j'suis seul sur ma planète J'ressens ce mal-être, j'perds contrôle, j'tiens plus les manettes Seul sur ma planète, laissez-moi seul sur ma planète Moi, je n'rentre pas dans vos panels Ressens mon malaise, dans ma bulle gros, ça tourne pas net</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Mais pourquoi t'es méchant? Ouais Demi Portion Les grandes gueules Marre Ouais Les grandes gueules Dj Sax, envoie la basse Marre Ils verront bien comment ça s'passe On a rien demandé à la base Vu qu'on a la tête entre l'étau Jamais perdu l'contrôle Nage pendant que l'eau est tiède On a laissé tomber le crawl, la rage Le stylo-bic, les postillons qu'on dégage Ma sale forme est oblique Pronostique MC adage Certains veulent qu'on dégage Qu'ma couleur se déguise Gamberger dans une cave ou bien finir sa vie sous gaz Et leur dire Qu'on s'excuse alors qu'c'est eux qu'on accuse J'pète une XXX car ils admirent qu'on s'use Marre qu'on se rate Les voir critiquer nos sourates Marre des visages qui s'irritent, un regard dans lil du pirate Marre de joueur de barbares De superflu, d'bobards Marre de ces gros pompeurs qui essaient d'nous baisser la barre Marre d'façon Interne, extérieure crache ces termes A l'horizon plus d'estime, acceptez notre épiderme Marre d'confrères qui dorment Parler à des suicidaires Et marre qu'on considère mieux l'autre à sa thune mon frère Marre de nous voir frire Compter les jours pour souffrir Marre d'l'odeur du souffre mais c'gouffre a l'fou-rire Marre vu qu'on s'camoufle, afin d'ne pas mourir Et mon miroir t'reflète leur deur-gran à l'sourire Qui gronde avant d'l'ouvrir Vas-y crie avant l'soupir Marre, t'as vu d'quoi j'ai l'air comme à Gaza accroupi? Roule pas à deux-cents à l'heure et maîtrise bien ton allure Marre des rappeurs qui s'vendent comme un produit dans l'allu Marre, mets-les dans la corbeille avec leurs fleurs à l'oreille Y'a l'virus qui donne sommeil et y'a les jaloux qui t'conseillent Marre, quand j'me réveille, y'a beaucoup d'choses qui s'révèlent L'actualité m'révolte Ces nouvelles, plutôt mauvaises Marre car on nous vise Qu'on fasse déborder l'vase Qu'on passe des années à trimer juste à balancer des phrases Y'en a marre, j'pète un câble Qui veut respecter l'état ? Le processus d'l'Élisée et d'nous retrouver sous la table Marre de ces pieds au mur Marre de discuter d'morts Bien heureusement qu'y'a des murs qui savent de qui on s'remémore Marre et tu l'ressens Vu qu'il est temps d'opérer Si j'parle tant du passé, c'est qu'ils ont du exagérer Marre, on est encore serrés Dis-moi pourquoi tu t'étonnes ? Regarde la petite qui s'fait vomir, elle veut être Paris Hilton S'mélanger dans les icônes, en s'voyant dans un sitcom Tu vois, la vie n'est pas si simple, elle est souvent bloquée d'codes Elle apprend à monter les cotes Même si l'cerveau en a marre Souvent les pneus crevés mais on fait c'qu'on peut, on démarre On a pas droit au scénar' Mais côtoyer l'arrière plan On a gardé les pieds sur terre, on sera jamais Peter Pan Marre et j'apprécie A présent, un message précis Marre à mon récit, le son va t'fournir des frissons Marre, puis j'm'initie à mieux mener ici Le savoir comme munition et mes racines comme un signe You might also like Le savoir comme munitions Alerte incolore, on lâchera pas l'drapeau blanc A force d'être par terre, on s'fait plus mal en tombant Marre, marre Les grandes gueules Sprinter et Demi Portion 2007 Dj Sax à la prod Y'en a marre Marra, marre, marre Mais pourquoi t'es méchant? XXX Tu me vois et, et, t'es méchant Eh, eh Rachid Ihih, Rachid grande gueule !</t>
+          <t>Mais pourquoi t'es méchant? Ouais Demi Portion Les grandes gueules Marre Ouais Les grandes gueules Dj Sax, envoie la basse Marre Ils verront bien comment ça s'passe On a rien demandé à la base Vu qu'on a la tête entre l'étau Jamais perdu l'contrôle Nage pendant que l'eau est tiède On a laissé tomber le crawl, la rage Le stylo-bic, les postillons qu'on dégage Ma sale forme est oblique Pronostique MC adage Certains veulent qu'on dégage Qu'ma couleur se déguise Gamberger dans une cave ou bien finir sa vie sous gaz Et leur dire Qu'on s'excuse alors qu'c'est eux qu'on accuse J'pète une XXX car ils admirent qu'on s'use Marre qu'on se rate Les voir critiquer nos sourates Marre des visages qui s'irritent, un regard dans lil du pirate Marre de joueur de barbares De superflu, d'bobards Marre de ces gros pompeurs qui essaient d'nous baisser la barre Marre d'façon Interne, extérieure crache ces termes A l'horizon plus d'estime, acceptez notre épiderme Marre d'confrères qui dorment Parler à des suicidaires Et marre qu'on considère mieux l'autre à sa thune mon frère Marre de nous voir frire Compter les jours pour souffrir Marre d'l'odeur du souffre mais c'gouffre a l'fou-rire Marre vu qu'on s'camoufle, afin d'ne pas mourir Et mon miroir t'reflète leur deur-gran à l'sourire Qui gronde avant d'l'ouvrir Vas-y crie avant l'soupir Marre, t'as vu d'quoi j'ai l'air comme à Gaza accroupi? Roule pas à deux-cents à l'heure et maîtrise bien ton allure Marre des rappeurs qui s'vendent comme un produit dans l'allu Marre, mets-les dans la corbeille avec leurs fleurs à l'oreille Y'a l'virus qui donne sommeil et y'a les jaloux qui t'conseillent Marre, quand j'me réveille, y'a beaucoup d'choses qui s'révèlent L'actualité m'révolte Ces nouvelles, plutôt mauvaises Marre car on nous vise Qu'on fasse déborder l'vase Qu'on passe des années à trimer juste à balancer des phrases Y'en a marre, j'pète un câble Qui veut respecter l'état ? Le processus d'l'Élisée et d'nous retrouver sous la table Marre de ces pieds au mur Marre de discuter d'morts Bien heureusement qu'y'a des murs qui savent de qui on s'remémore Marre et tu l'ressens Vu qu'il est temps d'opérer Si j'parle tant du passé, c'est qu'ils ont du exagérer Marre, on est encore serrés Dis-moi pourquoi tu t'étonnes ? Regarde la petite qui s'fait vomir, elle veut être Paris Hilton S'mélanger dans les icônes, en s'voyant dans un sitcom Tu vois, la vie n'est pas si simple, elle est souvent bloquée d'codes Elle apprend à monter les cotes Même si l'cerveau en a marre Souvent les pneus crevés mais on fait c'qu'on peut, on démarre On a pas droit au scénar' Mais côtoyer l'arrière plan On a gardé les pieds sur terre, on sera jamais Peter Pan Marre et j'apprécie A présent, un message précis Marre à mon récit, le son va t'fournir des frissons Marre, puis j'm'initie à mieux mener ici Le savoir comme munition et mes racines comme un signe Le savoir comme munitions Alerte incolore, on lâchera pas l'drapeau blanc A force d'être par terre, on s'fait plus mal en tombant Marre, marre Les grandes gueules Sprinter et Demi Portion 2007 Dj Sax à la prod Y'en a marre Marra, marre, marre Mais pourquoi t'es méchant? XXX Tu me vois et, et, t'es méchant Eh, eh Rachid Ihih, Rachid grande gueule !</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Quand Demi Portion t'rentre dedans Dur de garder tes 32 dents Quand on pose, pousse-toi de devant Avant qu'on texplose dans mon clan C'est du fait maison, que du méchant son Et dans noss chansons, et dans nos chansons Ça parle de mauvais garçons De nichons, d'alcool et de chichon Seulement par outrage, grave, planifie les pages Rage au premier âge, alors kiffe les soirées, films, braquages L'effet de passage, l'image qui nous attache Passer le message, blesser les sages est notre seule tâche Pas reculer, plutôt éviter d'faire chut Vu qu'les ... ont que la merde à accumuler Prêtes-toi au produit pur qui est mis, qui t'instruit En intro sur l'instru, déduit l'intrus, sale truie Qui est-ce qui pisse sur ton single, c'est les grandes gueules Presse le bic sur la feuille et pète les décibels T'es même pas leur et tu te mets dans la peau d'un dealer Tu délires, stoppes tout, laisse la place à ces râleurs A celui qui te crame, virus en XXX Ravale tes histoires de macadam, t'es très mal renseigné Demi-Portion, ce qui est XXX ses lyrics en freestyle L'anarchiste en révolte posé sur l'instrumentale Système en cane, bouge, toi et tes faux sentiments Aucune comparaison, juste ferme-la si tu mens Rancune comme raison, y'a que ça qui me résonne Le réseau du gouvernement est encore complet de bouffonnes Mais on fait avec, on accepte leurs faits Jean-Marie Le Pen sera fiché pendant plusieurs siècles Hun, pendant plusieurs siècles... You might also like2</t>
+          <t>Quand Demi Portion t'rentre dedans Dur de garder tes 32 dents Quand on pose, pousse-toi de devant Avant qu'on texplose dans mon clan C'est du fait maison, que du méchant son Et dans noss chansons, et dans nos chansons Ça parle de mauvais garçons De nichons, d'alcool et de chichon Seulement par outrage, grave, planifie les pages Rage au premier âge, alors kiffe les soirées, films, braquages L'effet de passage, l'image qui nous attache Passer le message, blesser les sages est notre seule tâche Pas reculer, plutôt éviter d'faire chut Vu qu'les ... ont que la merde à accumuler Prêtes-toi au produit pur qui est mis, qui t'instruit En intro sur l'instru, déduit l'intrus, sale truie Qui est-ce qui pisse sur ton single, c'est les grandes gueules Presse le bic sur la feuille et pète les décibels T'es même pas leur et tu te mets dans la peau d'un dealer Tu délires, stoppes tout, laisse la place à ces râleurs A celui qui te crame, virus en XXX Ravale tes histoires de macadam, t'es très mal renseigné Demi-Portion, ce qui est XXX ses lyrics en freestyle L'anarchiste en révolte posé sur l'instrumentale Système en cane, bouge, toi et tes faux sentiments Aucune comparaison, juste ferme-la si tu mens Rancune comme raison, y'a que ça qui me résonne Le réseau du gouvernement est encore complet de bouffonnes Mais on fait avec, on accepte leurs faits Jean-Marie Le Pen sera fiché pendant plusieurs siècles Hun, pendant plusieurs siècles... 2</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Appelle-moi M16, j'aime ça, nouveau projet qui frappe ça Tu captes l'art, une bombe à t'virer Bush du Texas Appelle-moi anti-pétasse, une jolie feuille sans pétale A tuer l'temps en freestyle sur une mélodie d'guitare Appelle-moi si c'est khatar j'ai pas envie d'perdre mon temps J'ai vu des gens vivrent dehors sans vouloir même changer d'camp Appelle-moi si t'es fada, je serai sûrement bon docteur On écoutera un bon Redman, on fera style d'faire les churs Appelle-moi aussi MC, d'toute façon on a qu'ce titre La passion joue sa maligne donc attention qu'elle te quitte Appelle-moi Speed ou Beep Beep non regarde ce qui m'fait vivre Vu qu'on préfère nos blessures non pas trop c'qui m'fait rire Appelle-moi si cet art-là à l'heure d'braquer une pharma' Les cernes de mes amis sont devenues aussi noires qu'un kahwa Appelle-moi si t'es formé ou l'envie d'changer d'format V'là un petit mot verlan tout ça en version cool-al Appelle-moi dérangé man, un insomniaque dans l'coma La mama nous dit d'changer juste avant de perdre tout ce qu'on a Appelle-moi pour c'que je suis j'te donnerai c'que j'pourrai Et si t'aimes pas courir j'te défendrai comme Yaya Touré Rappelle-toi de l'époque, j'espère que tu n'oublies pas C'est pas du sucre sur le dos mais une machine à barbe à papa Appelle-moi guérisseur, mon son le meilleur cacheton Une réelle pensée aux malades qui n'ont que l'hosto comme maison Appelle-moi mec à souçis comme travailler sans outil Foncer c'est trop facile c'est comme mourir en Yamazuki Appelle-moi disque de terre, c'est d'là qu'on va chercher l'or Ma mine est un forage qui n'attend pas l'prix d'son effort Appelle-moi en cas d'galère, d'toute manière c'est ça l'rap Y'a pas d'remède dans la merde, dès que ça pue tout l'monde s'arrache Appelle-moi si tu vas mal, je l'sais que tu n'as pas d'pote J'vais pas t'mettre dans l'panneau espérant que t'as eu ton code Appelle-moi l'animateur qui n'a pas vu l'terrain d'jeu Y'a même plus personne dehors, les petits s'lèvent à 20 heures Appelle-moi perturbateur mais bon t'auras des enfants Stupéfiant avant j'tapais une belle journée pour dix francs Appelle-moi nostalgique, vas-y souris c'est gratuit Faire une pause ? Oublie, c'est devenu cher dans la vie active Appelle-moi en cas d'navette, on a tous l'envie d'voyages Le prix d'un billet d'avion nous met deux loyers en retard Appelle-moi j'ai plus d'crédit, c'est un peu l'concept en vrai Ma messagerie est pleine même le bip m'a laissé tomber Appelle-moi désorienté, rap pour les désenchantés Pas faire d'briques dans l'hip-hop juste améliorer l'chantier Appelle-moi MC, appelle-moi MC Bien sûr j'fais d'la musique non pas celle de Laurent Voulzy Appelle-moi si j'tourne en rond, histoire de bousiller l'compas Compter sur les autres c'est du niveau BEP compta' You might also like J'ai plus d'crédit, c'est un peu l'concept en vrai Ma messagerie est pleine même le bip m'a laissé tomber Appelle-moi désorienté, rap pour les désenchantés Pas faire d'briques dans l'hip-hop juste améliorer l'chantier Appelle, c'est un peu l'concept en vrai Ma messagerie est pleine même le bip m'a laissé tomber Appelle-moi désorienté, rap pour les désenchantés Pas faire d'briques dans l'hip-hop juste améliorer l'chantier4</t>
+          <t>Appelle-moi M16, j'aime ça, nouveau projet qui frappe ça Tu captes l'art, une bombe à t'virer Bush du Texas Appelle-moi anti-pétasse, une jolie feuille sans pétale A tuer l'temps en freestyle sur une mélodie d'guitare Appelle-moi si c'est khatar j'ai pas envie d'perdre mon temps J'ai vu des gens vivrent dehors sans vouloir même changer d'camp Appelle-moi si t'es fada, je serai sûrement bon docteur On écoutera un bon Redman, on fera style d'faire les churs Appelle-moi aussi MC, d'toute façon on a qu'ce titre La passion joue sa maligne donc attention qu'elle te quitte Appelle-moi Speed ou Beep Beep non regarde ce qui m'fait vivre Vu qu'on préfère nos blessures non pas trop c'qui m'fait rire Appelle-moi si cet art-là à l'heure d'braquer une pharma' Les cernes de mes amis sont devenues aussi noires qu'un kahwa Appelle-moi si t'es formé ou l'envie d'changer d'format V'là un petit mot verlan tout ça en version cool-al Appelle-moi dérangé man, un insomniaque dans l'coma La mama nous dit d'changer juste avant de perdre tout ce qu'on a Appelle-moi pour c'que je suis j'te donnerai c'que j'pourrai Et si t'aimes pas courir j'te défendrai comme Yaya Touré Rappelle-toi de l'époque, j'espère que tu n'oublies pas C'est pas du sucre sur le dos mais une machine à barbe à papa Appelle-moi guérisseur, mon son le meilleur cacheton Une réelle pensée aux malades qui n'ont que l'hosto comme maison Appelle-moi mec à souçis comme travailler sans outil Foncer c'est trop facile c'est comme mourir en Yamazuki Appelle-moi disque de terre, c'est d'là qu'on va chercher l'or Ma mine est un forage qui n'attend pas l'prix d'son effort Appelle-moi en cas d'galère, d'toute manière c'est ça l'rap Y'a pas d'remède dans la merde, dès que ça pue tout l'monde s'arrache Appelle-moi si tu vas mal, je l'sais que tu n'as pas d'pote J'vais pas t'mettre dans l'panneau espérant que t'as eu ton code Appelle-moi l'animateur qui n'a pas vu l'terrain d'jeu Y'a même plus personne dehors, les petits s'lèvent à 20 heures Appelle-moi perturbateur mais bon t'auras des enfants Stupéfiant avant j'tapais une belle journée pour dix francs Appelle-moi nostalgique, vas-y souris c'est gratuit Faire une pause ? Oublie, c'est devenu cher dans la vie active Appelle-moi en cas d'navette, on a tous l'envie d'voyages Le prix d'un billet d'avion nous met deux loyers en retard Appelle-moi j'ai plus d'crédit, c'est un peu l'concept en vrai Ma messagerie est pleine même le bip m'a laissé tomber Appelle-moi désorienté, rap pour les désenchantés Pas faire d'briques dans l'hip-hop juste améliorer l'chantier Appelle-moi MC, appelle-moi MC Bien sûr j'fais d'la musique non pas celle de Laurent Voulzy Appelle-moi si j'tourne en rond, histoire de bousiller l'compas Compter sur les autres c'est du niveau BEP compta' J'ai plus d'crédit, c'est un peu l'concept en vrai Ma messagerie est pleine même le bip m'a laissé tomber Appelle-moi désorienté, rap pour les désenchantés Pas faire d'briques dans l'hip-hop juste améliorer l'chantier Appelle, c'est un peu l'concept en vrai Ma messagerie est pleine même le bip m'a laissé tomber Appelle-moi désorienté, rap pour les désenchantés Pas faire d'briques dans l'hip-hop juste améliorer l'chantier4</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Mehsah a la prod Dans mes déboires, j'écris souvent sans langues de bois Maigre et mal rasé avec l'allure d'un malinois L'oiseau est tombé du toit, guette la plume a pris du poids, mon rap est un exutoire, c'est malpoli de montrer du doigt Dans l'ascenseur, la peur, la sueur Le monde est mal de l'intérieur, c'est dur de soigner une tumeur Alors vas-y shote nos coeur, ya 16 bar dans la roulette, on fait appel au beatmaker et met de côté la chansonnette J'entends le marteau qui frappe, encore un dernier signal, j'ai gardé la soif de vaincre même si tu t'deshydrate Trop de morts dans les quartiers, trop de cané planté, plus rien n'suscite la réussite parce qu'on est toujours tenté Parce qu'on a rien inventé et qu'on met rien de côté J'vie dans un monde où c'est des bombes qui tombent d'un cocotier On va pas s'emporter bref, non il n'y a rien de courtois, aux enfants de Palestine et pour c'qu'il reste de Gaza On trace, on suit des pistes sûres On sait qu'la vie tue, on fait l'effort, regarde et sa titube L'État nous suit, nous pisse dessus Mais on s'habitue on reste fort, on garde les attitudes Dans mes déboires, j'écris souvent sans langue de bois, je cache sous mon toit d'la rage et là ça manque de boite C'est ma faute ça dé-déborde depuis tant d'années Le niveau monte, j'ai fermé les portes, j'ai tout condamné Alors ça oui, on s'amuse avec les voyelles en riant et l'Gazaoui, compte les balles qui fusent au Moyen-Orient Alors c'est la vie, on débat où dans tel ou tel avis, qui s'étonne que ça puisse péter dans l'hôtel a Tel Aviv La paix en occident a bercé peu de gens Qu'on dérive avec accident ça perd ses deux beu-jam Tout ces merdiers font bosser l'avocat, ouais C'est plus le gun qui nous enlève les jeunes, mon gros, c'est la coca On était minot, on pétait des carreaux, loin de s'imaginer qu'la vie m'était des K.O, Maintenant la santé dépend du prix des garos, et puis notre liberté peut faire le bruit des barreaux You might also like On trace, on suit des pistes sûres On sait qu'la vie tue, on fait l'effort, regarde et ça titube L'État nous suis, nous pisse dessus Mais on s'habitue on reste fort, on garde les attitudes</t>
+          <t>Mehsah a la prod Dans mes déboires, j'écris souvent sans langues de bois Maigre et mal rasé avec l'allure d'un malinois L'oiseau est tombé du toit, guette la plume a pris du poids, mon rap est un exutoire, c'est malpoli de montrer du doigt Dans l'ascenseur, la peur, la sueur Le monde est mal de l'intérieur, c'est dur de soigner une tumeur Alors vas-y shote nos coeur, ya 16 bar dans la roulette, on fait appel au beatmaker et met de côté la chansonnette J'entends le marteau qui frappe, encore un dernier signal, j'ai gardé la soif de vaincre même si tu t'deshydrate Trop de morts dans les quartiers, trop de cané planté, plus rien n'suscite la réussite parce qu'on est toujours tenté Parce qu'on a rien inventé et qu'on met rien de côté J'vie dans un monde où c'est des bombes qui tombent d'un cocotier On va pas s'emporter bref, non il n'y a rien de courtois, aux enfants de Palestine et pour c'qu'il reste de Gaza On trace, on suit des pistes sûres On sait qu'la vie tue, on fait l'effort, regarde et sa titube L'État nous suit, nous pisse dessus Mais on s'habitue on reste fort, on garde les attitudes Dans mes déboires, j'écris souvent sans langue de bois, je cache sous mon toit d'la rage et là ça manque de boite C'est ma faute ça dé-déborde depuis tant d'années Le niveau monte, j'ai fermé les portes, j'ai tout condamné Alors ça oui, on s'amuse avec les voyelles en riant et l'Gazaoui, compte les balles qui fusent au Moyen-Orient Alors c'est la vie, on débat où dans tel ou tel avis, qui s'étonne que ça puisse péter dans l'hôtel a Tel Aviv La paix en occident a bercé peu de gens Qu'on dérive avec accident ça perd ses deux beu-jam Tout ces merdiers font bosser l'avocat, ouais C'est plus le gun qui nous enlève les jeunes, mon gros, c'est la coca On était minot, on pétait des carreaux, loin de s'imaginer qu'la vie m'était des K.O, Maintenant la santé dépend du prix des garos, et puis notre liberté peut faire le bruit des barreaux On trace, on suit des pistes sûres On sait qu'la vie tue, on fait l'effort, regarde et ça titube L'État nous suis, nous pisse dessus Mais on s'habitue on reste fort, on garde les attitudes</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Vous avez sûrement croisé au détour d'une rue, un de ces personnages bizarre, coiffé d'un drôle de casque Rappelez-vous, il ne manquait que les antennes pour évoquer une autre planète Mais n'ayez pas peur, ils ont simplement un Walkman Ouais, paraît qu'on kicke ça, prends l'chemin en zigzag Non, j'ai rien d'un Marvel, wow, c'est l'effet Pixar Je kicke ça, comme d'hab', on m'connaît à l'accent On lâche rin, ouais, Demi, t'sais très bien qu'on a qu'ça Parce qu la prod' sonne, de Sète à Kingston Mais qu'ils s'taisent, chut, on s'compare en personne Ça fonctionne, han, j'mets du cur à l'ouvrage À nos grands-parents ou Keltoum et à Farid al-Atrash J'ai pas d'scoops, j'préfère un feat qu'faire un clash J'm'en fous du buzz, j'ai leur atout, j'ai gardé les bases Merci à la musique de respecter mes écrits Merci à mon Dieu, de m'aider à faire un tri N'écoute pas la haine, vu qu'la paix rallie les gens C'est pas un film, non, y a pas de gentils, des méchants Yeah, évidemment, la prod', c'est Itam Yo, Demi, passionné depuis un bail J'aime les risques, mais au final, j'ai mes limites À chaque projet, j'veux qu'tout baigne, comme Ménélik On vit des choses qu'on a du mal à digérer, tu sais On s'donne les mains tous avec les poings serrés J'aime les risques, mais au final, j'ai mes limites À chaque projet, j'veux qu'tout baigne, comme Ménélik On vit des choses qu'on a du mal à digérer, tu sais On s'donne les mains tous avec les poings serrés You might also like Ouais, hmm On est gentils, mais faut pas nous prendre pour des cons Étant petit, j'vivais dans la cours des grands, tu sais Au fil du temps, hein, on prend des rides Les souvenirs d'un petit stade où l'on s'prenait pour Ribéry On atterrit entre masque et bactéries, car dans un lit d'hôpital, on ne trouve personne mort de rire Des gosses de riches ou l'cur en or Arrête, de tout manière, on le bat alors D'après les consignes, fallait jouer avec le corps Ne jamais baisser les bras, apprendre à lever les yeux Savoir quand lever le doigt, oui, garder la tête haute Mettre un genou à terre, c'est déjà ne pas se perdre J'aime les risques, mais au final, j'ai mes limites À chaque projet, j'veux qu'tout baigne, comme Ménélik Tout baigne On vit des choses qu'on a du mal à digérer, tu sais On s'donne les mains tous avec les poings serrés C'est ça J'aime les risques, mais au final, j'ai mes limites Mes limites À chaque projet, j'veux qu'tout baigne, comme Ménélik Tout baigne On vit des choses qu'on a du mal à digérer, tu sais On s'donne les mains tous avec les poings serrés J'aime les risques, mais au final, j'ai mes limites À chaque projet, j'veux qu'tout baigne, comme Ménélik On vit des choses qu'on a du mal à digérer, tu sais On s'donne les mains tous avec les poings serrés J'aime les risques, mais au final, j'ai mes limites À chaque projet, j'veux qu'tout baigne, comme Ménélik On vit des choses qu'on a du mal à digérer, tu sais On s'donne les mains tous avec les poings serrés</t>
+          <t>Vous avez sûrement croisé au détour d'une rue, un de ces personnages bizarre, coiffé d'un drôle de casque Rappelez-vous, il ne manquait que les antennes pour évoquer une autre planète Mais n'ayez pas peur, ils ont simplement un Walkman Ouais, paraît qu'on kicke ça, prends l'chemin en zigzag Non, j'ai rien d'un Marvel, wow, c'est l'effet Pixar Je kicke ça, comme d'hab', on m'connaît à l'accent On lâche rin, ouais, Demi, t'sais très bien qu'on a qu'ça Parce qu la prod' sonne, de Sète à Kingston Mais qu'ils s'taisent, chut, on s'compare en personne Ça fonctionne, han, j'mets du cur à l'ouvrage À nos grands-parents ou Keltoum et à Farid al-Atrash J'ai pas d'scoops, j'préfère un feat qu'faire un clash J'm'en fous du buzz, j'ai leur atout, j'ai gardé les bases Merci à la musique de respecter mes écrits Merci à mon Dieu, de m'aider à faire un tri N'écoute pas la haine, vu qu'la paix rallie les gens C'est pas un film, non, y a pas de gentils, des méchants Yeah, évidemment, la prod', c'est Itam Yo, Demi, passionné depuis un bail J'aime les risques, mais au final, j'ai mes limites À chaque projet, j'veux qu'tout baigne, comme Ménélik On vit des choses qu'on a du mal à digérer, tu sais On s'donne les mains tous avec les poings serrés J'aime les risques, mais au final, j'ai mes limites À chaque projet, j'veux qu'tout baigne, comme Ménélik On vit des choses qu'on a du mal à digérer, tu sais On s'donne les mains tous avec les poings serrés Ouais, hmm On est gentils, mais faut pas nous prendre pour des cons Étant petit, j'vivais dans la cours des grands, tu sais Au fil du temps, hein, on prend des rides Les souvenirs d'un petit stade où l'on s'prenait pour Ribéry On atterrit entre masque et bactéries, car dans un lit d'hôpital, on ne trouve personne mort de rire Des gosses de riches ou l'cur en or Arrête, de tout manière, on le bat alors D'après les consignes, fallait jouer avec le corps Ne jamais baisser les bras, apprendre à lever les yeux Savoir quand lever le doigt, oui, garder la tête haute Mettre un genou à terre, c'est déjà ne pas se perdre J'aime les risques, mais au final, j'ai mes limites À chaque projet, j'veux qu'tout baigne, comme Ménélik Tout baigne On vit des choses qu'on a du mal à digérer, tu sais On s'donne les mains tous avec les poings serrés C'est ça J'aime les risques, mais au final, j'ai mes limites Mes limites À chaque projet, j'veux qu'tout baigne, comme Ménélik Tout baigne On vit des choses qu'on a du mal à digérer, tu sais On s'donne les mains tous avec les poings serrés J'aime les risques, mais au final, j'ai mes limites À chaque projet, j'veux qu'tout baigne, comme Ménélik On vit des choses qu'on a du mal à digérer, tu sais On s'donne les mains tous avec les poings serrés J'aime les risques, mais au final, j'ai mes limites À chaque projet, j'veux qu'tout baigne, comme Ménélik On vit des choses qu'on a du mal à digérer, tu sais On s'donne les mains tous avec les poings serrés</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>C'est au début et même à la fin qu'on dit merci On ira remplir les petites salles et puis Bercy À tous ceux qui nous aiment, un grand merci Merci, c'est ainsi C'est au début et même à la fin qu'on dit merci On ira remplir les petites salles et puis Bercy À tous ceux qui nous aiment, un grand merci Merci, c'est ainsi Si ma musique t'aide en vrai, j'te dis merci Si t'es venu en concert, c'est moi qui te remercie Si t'as pas la main en l'air, faut qu'tu m'expliques Si t'es venu avec ton frère, check-le tout d'suite Aucune galère, en clique, en solo, frérot, si tu n'étais pas là, y aurait un trou sur la photo Le rap, un sport olympique, t'as vu tout l'poids qu'on perd ? J'ai regardé tes messages avec deux, trois compères Ma rime n'a pas d'frontières N'a pas d'frontières On aimerait que nos sons voyagent dans la planète entière C'est bon si ça t'fait plais' Partout, je place mon seize Viens faire un tour dans nos curs, t'as pas compris qu'on pèse ? Si t'as un truc à m'raconter, allez, monte sur scène Tu sais, très bien, y a pas d'problème, merci pour tes conseils J'apprends à m'dépenser, à m'dépenser Ceux qui font le déplacement, qui viennent pour danser J'apprends à m'dépenser À m'dépenser Ceux qui font le déplacement et qui viennent pour s'ambiancer Le rythme est bien pensé, ça fait du bien d's'lancer On gardera un p'tit souvenir au fond de nos pensées Le rap, mon élixir, la scène est médicament Ça fait du bien d'le dire, rien n'était mieux avant Rien n'était mieux avant, rien n'était mieux avant, rien n'était mieux avant You might also like C'est au début et même à la fin qu'on dit merci On ira remplir les petites salles et puis Bercy À tous ceux qui nous aiment, un grand merci Merci, c'est ainsi C'est au début et même à la fin qu'on dit merci On ira remplir les petites salles et puis Bercy À tous ceux qui nous aiment, un grand merci Merci, c'est ainsi C'est au début et même à la fin qu'on dit merci On ira remplir les petites salles et puis Bercy À tous ceux qui nous aiment, un grand merci Merci, c'est ainsi</t>
+          <t>C'est au début et même à la fin qu'on dit merci On ira remplir les petites salles et puis Bercy À tous ceux qui nous aiment, un grand merci Merci, c'est ainsi C'est au début et même à la fin qu'on dit merci On ira remplir les petites salles et puis Bercy À tous ceux qui nous aiment, un grand merci Merci, c'est ainsi Si ma musique t'aide en vrai, j'te dis merci Si t'es venu en concert, c'est moi qui te remercie Si t'as pas la main en l'air, faut qu'tu m'expliques Si t'es venu avec ton frère, check-le tout d'suite Aucune galère, en clique, en solo, frérot, si tu n'étais pas là, y aurait un trou sur la photo Le rap, un sport olympique, t'as vu tout l'poids qu'on perd ? J'ai regardé tes messages avec deux, trois compères Ma rime n'a pas d'frontières N'a pas d'frontières On aimerait que nos sons voyagent dans la planète entière C'est bon si ça t'fait plais' Partout, je place mon seize Viens faire un tour dans nos curs, t'as pas compris qu'on pèse ? Si t'as un truc à m'raconter, allez, monte sur scène Tu sais, très bien, y a pas d'problème, merci pour tes conseils J'apprends à m'dépenser, à m'dépenser Ceux qui font le déplacement, qui viennent pour danser J'apprends à m'dépenser À m'dépenser Ceux qui font le déplacement et qui viennent pour s'ambiancer Le rythme est bien pensé, ça fait du bien d's'lancer On gardera un p'tit souvenir au fond de nos pensées Le rap, mon élixir, la scène est médicament Ça fait du bien d'le dire, rien n'était mieux avant Rien n'était mieux avant, rien n'était mieux avant, rien n'était mieux avant C'est au début et même à la fin qu'on dit merci On ira remplir les petites salles et puis Bercy À tous ceux qui nous aiment, un grand merci Merci, c'est ainsi C'est au début et même à la fin qu'on dit merci On ira remplir les petites salles et puis Bercy À tous ceux qui nous aiment, un grand merci Merci, c'est ainsi C'est au début et même à la fin qu'on dit merci On ira remplir les petites salles et puis Bercy À tous ceux qui nous aiment, un grand merci Merci, c'est ainsi</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Pour commencer grosse dédicace à Fabe Pour c'qu'il a laissé dans l'milieu du rap Voilà un thème et disons quça va l'faire On veut la paix mais ça reflète l'enfer Est-ce que tu sais que l'homme fabrique la guerre ? Les chefs d'État trafiquent dans leurs affaires Faisant semblant aujourd'hui dnous plaire Serait-il temps qu'on change l'atmosphère ? Est-ce que tu t'sens d'vouloir aider un faible ? Considère tout l'monde comme tes surs et frères Tant qu'tu as la foi éloignée d'Lucifer Tant qu'tu as ta voix, bâtis tes chemins d'fer Pas d'clichés, ça fait monter l'FN Mêmes les médias ont ce savoir-faire Le sens du partage c'est comme une prière Pleins d'pays en galère ne demandent qu'une cuillère En espérant que ça spasse mieux qu'hier Te font-il peur avec leur nucléaire ? T'as vu ? Tout devient sanguinaire Chose qu'on nous avait cachée à l'école primaire Un soldat qui va tuer a un bon salaire A-t-il vraiment choisi d'être un volontaire ? Une pensée à tous ces innocents qu'on enterre T'as compris, nous partirons un jour de cette Terre You might also like Réalises-tu d'où je sors ces vers ? J'n'ai plus l'âge ni l'envie d'être sévère Inutile d's'arrêter pour un regard d'travers Plutôt d'la peine à mater un clodo mal couvert Personne n'a envie d'être à leur place un soir d'hiver Car nous avons constaté un réel calvaire À tous les résistants d'la traite négrière Sans oublier bien entendu la classe ouvrière Même la politique et leur droit laissent un goût amer Venez un peu dans nos ghettos, ya pas qudes gens vulgaires Ma cité dvient un désert où l'on recherche l'eau claire Dites-leur à tous ces reporters on respecte père et mère Et lève la main si tu as marre aussi d'leurs commentaires Parce que j'veux qu'on en termine, c'est eux les gangsters On t'a souvent redit la ferme mais t'as pas voulu t'taire Moi j'remercie le hip-hop de nous satisfaire Voir des gens de toutes couleurs lors de nos concerts Et grâce à vous je reconnais pourquoi la musique sert L'amour de l'encre depuis mon douzième anniversaire N'aie pas d'crainte si tu es seul, on repousse l'adversaire L'ignorance n'est pas la meilleure façon d'être sincère Il y a un qu'un Dieu et s'y rapprocher, c'est à toi d'le faire Joli comme un baiser sur l'front d'sa grand-mère Ma révolution j'l'ai faite qu'avec des CD-R Oui Oui Des projets avec des bouts d'ficelle et sans pierres Avec nos outils On m'appelle Artisan du Bic</t>
+          <t>Pour commencer grosse dédicace à Fabe Pour c'qu'il a laissé dans l'milieu du rap Voilà un thème et disons quça va l'faire On veut la paix mais ça reflète l'enfer Est-ce que tu sais que l'homme fabrique la guerre ? Les chefs d'État trafiquent dans leurs affaires Faisant semblant aujourd'hui dnous plaire Serait-il temps qu'on change l'atmosphère ? Est-ce que tu t'sens d'vouloir aider un faible ? Considère tout l'monde comme tes surs et frères Tant qu'tu as la foi éloignée d'Lucifer Tant qu'tu as ta voix, bâtis tes chemins d'fer Pas d'clichés, ça fait monter l'FN Mêmes les médias ont ce savoir-faire Le sens du partage c'est comme une prière Pleins d'pays en galère ne demandent qu'une cuillère En espérant que ça spasse mieux qu'hier Te font-il peur avec leur nucléaire ? T'as vu ? Tout devient sanguinaire Chose qu'on nous avait cachée à l'école primaire Un soldat qui va tuer a un bon salaire A-t-il vraiment choisi d'être un volontaire ? Une pensée à tous ces innocents qu'on enterre T'as compris, nous partirons un jour de cette Terre Réalises-tu d'où je sors ces vers ? J'n'ai plus l'âge ni l'envie d'être sévère Inutile d's'arrêter pour un regard d'travers Plutôt d'la peine à mater un clodo mal couvert Personne n'a envie d'être à leur place un soir d'hiver Car nous avons constaté un réel calvaire À tous les résistants d'la traite négrière Sans oublier bien entendu la classe ouvrière Même la politique et leur droit laissent un goût amer Venez un peu dans nos ghettos, ya pas qudes gens vulgaires Ma cité dvient un désert où l'on recherche l'eau claire Dites-leur à tous ces reporters on respecte père et mère Et lève la main si tu as marre aussi d'leurs commentaires Parce que j'veux qu'on en termine, c'est eux les gangsters On t'a souvent redit la ferme mais t'as pas voulu t'taire Moi j'remercie le hip-hop de nous satisfaire Voir des gens de toutes couleurs lors de nos concerts Et grâce à vous je reconnais pourquoi la musique sert L'amour de l'encre depuis mon douzième anniversaire N'aie pas d'crainte si tu es seul, on repousse l'adversaire L'ignorance n'est pas la meilleure façon d'être sincère Il y a un qu'un Dieu et s'y rapprocher, c'est à toi d'le faire Joli comme un baiser sur l'front d'sa grand-mère Ma révolution j'l'ai faite qu'avec des CD-R Oui Oui Des projets avec des bouts d'ficelle et sans pierres Avec nos outils On m'appelle Artisan du Bic</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Une seule solution, mévader... Enfermé dehors jamais libre.. J'aimerais m'laisser aller sur les flots du Nil Un air pas trop étouffant ni trop humide Je suis pas de ceux qui sbattent pour un président noir ou arabe Ni larriviste qui veut sortir de son trou à rats Jdécris lterrain comme la vie méreinte Parfois mbrise les reins, cousin puis-je faire un Crochet par Sète pour y voir la mer ? Jsais qucest la même mais je suis saoulé par moi-même Jsais qucest tout, le monde est un ghetto on matte ces tours De Babylone au Paradis d'enfer je crois que jétouffe On ta dit lhomme cest un animal et cest ce qui t'a mis mal Ne panique pas si ton président est cannibale Ils veulent quon croque la vie comme ils croquent la pomme Jai peur dAllah alors jmen fous quand tattends lalbum On vit trop souvent par les autres tu sais Jconnais pas trop lréussite mais jconnais trop lsuccès Dis-leur que je me casse, on mentira, on dira que j'suis anti-rap En piratant mes phases, je suis même pas payé en Dirhams Rachid passe le Salam à Karim, dis-lui que de mon immeuble Le monde ressemble à Villeneuve On s'fait des signes avec les miroirs, aux reflets du soleil Conscient quon était mort quand on revenait du sommeil Cest pas lcâble qui mretient ni les chaines de télé Je me suis évadé et leurs radios sont pleines de traînées Leur paradis est facile à atteindre, je me fais du mal, jaime la compét Je veux me sentir propre à lheure de la trompette Pas peur de la trentaine mais du jugement de mon créateur Cest pas mes frères mais les médias quici créent la peur You might also like Si la parole est chère, se taire nest toujours pas dans mes gênes Jpourrais jamais mévader sans des ailes Esclave aimerait payer ses factures sans les aides Parfois ils me dégouttent mais malgré tout on les aime Misère à grande échelle, Travaille ! cest tout ce quon entend des chefs Et leurs chaines de télé font ber-ger Envoie nous ton armée quoi quil en soit on les gère On mise pas sur la vie mais sur la mort, oh mes chers ! Mévader, sévader, sévader Arrête cest juste écoute ça non non jai pas trouvé la vie belle Ne va pas dire aux gars en taule quici dehors tas la migraine Aujourdhui ou demain jdirais même quils ne trouvent plus de place Triste, on ne laisse que les traces, la haine assombrit le contraste On vous fait du mal pour un bien, la mort nous appartient tous On prendra rien du tout ni nos clips sur 17 pouces On sait très bien que nombreux crèvent à chaque minute que je te parle Que tous les signes de la fin du monde me poussent à la mise en garde On pense à Lartisan du bic, enfermé dehors et malade Quon écoute pas Abd Al Malik et son discours subliminal Notre parole est trop cher et les meilleurs partent en ciel Donc bienvenue chez les hraymi et lambiance sarkozyenne Tfouh, putain tout msaoule entre les amis et coups de shour Personne entend les cris dsecours quand lfour devient trop skhoune En bref si jécris ce texte ce sera seulement pour tavertir Trop dratures, à bientôt je ferais à la Adil Al Kabir Nos gosses ont l'avenir à bâtir, respect si t'en as 4-5 3Andek au Nouvel Ordre Mondial et d'leur merde dans leurs vaccins A qui son tour d'baisser son froc ? parait que je mets lindustrie en stress, pd ! Quà 17 ans cétait une galère de sortir 1000 CD Loin de leurs pensées, de leur business gangster et jean serré Tu me suis en ligne je te dis Salam aucune rime en différée Désormais on est sous larbre, Mysa et Demi un coup dtonnerre Depuis que jai vu l'projet HAARP jatteins leur XXX Si la parole est chère, se taire nest toujours pas dans mes gênes Jpourrais jamais mévader sans des ailes Esclave aimerait payer ses factures sans les aides Parfois ils me dégouttent mais malgré tout on les aime Misère à grande échelle, Travaille ! cest tout ce quon entend des chefs Et leurs chaines de télé font ber-ger Envoie nous ton armée quoi quil en soit on les gère On mise pas sur la vie mais sur la mort, oh mes chers !</t>
+          <t>Une seule solution, mévader... Enfermé dehors jamais libre.. J'aimerais m'laisser aller sur les flots du Nil Un air pas trop étouffant ni trop humide Je suis pas de ceux qui sbattent pour un président noir ou arabe Ni larriviste qui veut sortir de son trou à rats Jdécris lterrain comme la vie méreinte Parfois mbrise les reins, cousin puis-je faire un Crochet par Sète pour y voir la mer ? Jsais qucest la même mais je suis saoulé par moi-même Jsais qucest tout, le monde est un ghetto on matte ces tours De Babylone au Paradis d'enfer je crois que jétouffe On ta dit lhomme cest un animal et cest ce qui t'a mis mal Ne panique pas si ton président est cannibale Ils veulent quon croque la vie comme ils croquent la pomme Jai peur dAllah alors jmen fous quand tattends lalbum On vit trop souvent par les autres tu sais Jconnais pas trop lréussite mais jconnais trop lsuccès Dis-leur que je me casse, on mentira, on dira que j'suis anti-rap En piratant mes phases, je suis même pas payé en Dirhams Rachid passe le Salam à Karim, dis-lui que de mon immeuble Le monde ressemble à Villeneuve On s'fait des signes avec les miroirs, aux reflets du soleil Conscient quon était mort quand on revenait du sommeil Cest pas lcâble qui mretient ni les chaines de télé Je me suis évadé et leurs radios sont pleines de traînées Leur paradis est facile à atteindre, je me fais du mal, jaime la compét Je veux me sentir propre à lheure de la trompette Pas peur de la trentaine mais du jugement de mon créateur Cest pas mes frères mais les médias quici créent la peur Si la parole est chère, se taire nest toujours pas dans mes gênes Jpourrais jamais mévader sans des ailes Esclave aimerait payer ses factures sans les aides Parfois ils me dégouttent mais malgré tout on les aime Misère à grande échelle, Travaille ! cest tout ce quon entend des chefs Et leurs chaines de télé font ber-ger Envoie nous ton armée quoi quil en soit on les gère On mise pas sur la vie mais sur la mort, oh mes chers ! Mévader, sévader, sévader Arrête cest juste écoute ça non non jai pas trouvé la vie belle Ne va pas dire aux gars en taule quici dehors tas la migraine Aujourdhui ou demain jdirais même quils ne trouvent plus de place Triste, on ne laisse que les traces, la haine assombrit le contraste On vous fait du mal pour un bien, la mort nous appartient tous On prendra rien du tout ni nos clips sur 17 pouces On sait très bien que nombreux crèvent à chaque minute que je te parle Que tous les signes de la fin du monde me poussent à la mise en garde On pense à Lartisan du bic, enfermé dehors et malade Quon écoute pas Abd Al Malik et son discours subliminal Notre parole est trop cher et les meilleurs partent en ciel Donc bienvenue chez les hraymi et lambiance sarkozyenne Tfouh, putain tout msaoule entre les amis et coups de shour Personne entend les cris dsecours quand lfour devient trop skhoune En bref si jécris ce texte ce sera seulement pour tavertir Trop dratures, à bientôt je ferais à la Adil Al Kabir Nos gosses ont l'avenir à bâtir, respect si t'en as 4-5 3Andek au Nouvel Ordre Mondial et d'leur merde dans leurs vaccins A qui son tour d'baisser son froc ? parait que je mets lindustrie en stress, pd ! Quà 17 ans cétait une galère de sortir 1000 CD Loin de leurs pensées, de leur business gangster et jean serré Tu me suis en ligne je te dis Salam aucune rime en différée Désormais on est sous larbre, Mysa et Demi un coup dtonnerre Depuis que jai vu l'projet HAARP jatteins leur XXX Si la parole est chère, se taire nest toujours pas dans mes gênes Jpourrais jamais mévader sans des ailes Esclave aimerait payer ses factures sans les aides Parfois ils me dégouttent mais malgré tout on les aime Misère à grande échelle, Travaille ! cest tout ce quon entend des chefs Et leurs chaines de télé font ber-ger Envoie nous ton armée quoi quil en soit on les gère On mise pas sur la vie mais sur la mort, oh mes chers !</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen, let's make some noise for my man, my brother Demi Portion! Ok, han, yeah, ouais Je mets le tarif, quoi ? Tu sais qu'on arrive là Oui, c'est le bordel, ha, tu connais la fin d'l'histoire Oui, on s'organise, quoi, on a dû soulever l'poids Regarde la chance qu'on a sur c'qu'on ne réalise pas Alors tu paries, hein ? Alors on s'marie, hein ? Comme un safari, hein, le stylo varie, hein Le prix du baril grimpe, la du chute L'ingé' me dit qu'ça craint et qu'on va cramer l'stud' Alors je t'explique, précis dans mon lexique Ramène des kilos de rimes comme un narcos du Mexique Combien tu paries ? Ha, mais qu'est-ce qu'il t'arrive ? Ha On met la barre très haut, faut bien qu'on bouge, les gars Aujourd'hui, j'existe, mélangé à la sensi' Oui, l'ambiance m'excite que si la prod' est sexy Nos vies qu'on dessine, oh no, si, si Si tu m'vois, fais signe, allô, c'est qui ? Huh, on a le bon beat, quoi, tout vient de Brooklyn, quoi Paye-moi en espèces, on n'aime pas les chèques en bois Woo hah, woo hah On n'aime pas l'échec Woo hah, woo hah Microphone check Woo hah, woo hah Mais vous êtes où, les mecs ? Woo hah, woo hah Microphone check Microphone check Hey, wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe, les gens ? You might also like Woo hah, woo hah On n'aime pas l'échec Woo hah, woo hah Microphone check Woo hah, woo hah Mais vous êtes où, les mecs ? Woo hah, woo hah Hey, microphone check Hahahaha Now, make some noise for our challenger, coming straight from the underground mister Deadi! Hey L'agent double zéro sept-huit déboule et tout Sète crie Wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Z'allez vite piger que j'suis rien d'plus qu'un type pire qu'givré Chez qui y'a rien d'plus à piger qu'il est pire qu'givré Celui qui fait c'qu'il dit mais saurait pas dire c'qu'il fait Ni c'qu'il fait là mais, dès qu'il s'y met, fait la dif' Signé savez déjà qui mais toujours pas c'qui lui a pris Et qui vous l'paiera quitte à c'que Jacques ait pas dit d'kicker Ni d's'y perdre et frôler la vie d'si près non, non, non, non, non Jouer les chefs empêchera pas vos compagnies d'glisser grand Paraîtrait qu'je parais loin, et ça m'paraît assez vrai Mais sachez bien que, pour c'qui est d'partir en vrille, j'suis prêt D'chez prêt ché-per' de chez ché-per' et fait d'chez fait Comme on dit, près d'chez près d'chez nous mais frais d'chez frais J'déboule et tous me répètent Arrête avec tes chez Mais le fait est qu'c'est moi qu'on dit fêlé d'chez fêlé J'te fais les six-zéro, t'as encore réussi à m'faire bugger Au prochain feat', appelle Kacem, s'te plaît Allô ? Woo hah, woo hah Sors le sachet d'herbe Woo hah, woo hah Microphone check Woo hah, woo hah Mais vous êtes où, les mecs ? Woo hah, woo hah Hey, microphone check</t>
+          <t>Ladies and gentlemen, let's make some noise for my man, my brother Demi Portion! Ok, han, yeah, ouais Je mets le tarif, quoi ? Tu sais qu'on arrive là Oui, c'est le bordel, ha, tu connais la fin d'l'histoire Oui, on s'organise, quoi, on a dû soulever l'poids Regarde la chance qu'on a sur c'qu'on ne réalise pas Alors tu paries, hein ? Alors on s'marie, hein ? Comme un safari, hein, le stylo varie, hein Le prix du baril grimpe, la du chute L'ingé' me dit qu'ça craint et qu'on va cramer l'stud' Alors je t'explique, précis dans mon lexique Ramène des kilos de rimes comme un narcos du Mexique Combien tu paries ? Ha, mais qu'est-ce qu'il t'arrive ? Ha On met la barre très haut, faut bien qu'on bouge, les gars Aujourd'hui, j'existe, mélangé à la sensi' Oui, l'ambiance m'excite que si la prod' est sexy Nos vies qu'on dessine, oh no, si, si Si tu m'vois, fais signe, allô, c'est qui ? Huh, on a le bon beat, quoi, tout vient de Brooklyn, quoi Paye-moi en espèces, on n'aime pas les chèques en bois Woo hah, woo hah On n'aime pas l'échec Woo hah, woo hah Microphone check Woo hah, woo hah Mais vous êtes où, les mecs ? Woo hah, woo hah Microphone check Microphone check Hey, wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe, les gens ? Woo hah, woo hah On n'aime pas l'échec Woo hah, woo hah Microphone check Woo hah, woo hah Mais vous êtes où, les mecs ? Woo hah, woo hah Hey, microphone check Hahahaha Now, make some noise for our challenger, coming straight from the underground mister Deadi! Hey L'agent double zéro sept-huit déboule et tout Sète crie Wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Z'allez vite piger que j'suis rien d'plus qu'un type pire qu'givré Chez qui y'a rien d'plus à piger qu'il est pire qu'givré Celui qui fait c'qu'il dit mais saurait pas dire c'qu'il fait Ni c'qu'il fait là mais, dès qu'il s'y met, fait la dif' Signé savez déjà qui mais toujours pas c'qui lui a pris Et qui vous l'paiera quitte à c'que Jacques ait pas dit d'kicker Ni d's'y perdre et frôler la vie d'si près non, non, non, non, non Jouer les chefs empêchera pas vos compagnies d'glisser grand Paraîtrait qu'je parais loin, et ça m'paraît assez vrai Mais sachez bien que, pour c'qui est d'partir en vrille, j'suis prêt D'chez prêt ché-per' de chez ché-per' et fait d'chez fait Comme on dit, près d'chez près d'chez nous mais frais d'chez frais J'déboule et tous me répètent Arrête avec tes chez Mais le fait est qu'c'est moi qu'on dit fêlé d'chez fêlé J'te fais les six-zéro, t'as encore réussi à m'faire bugger Au prochain feat', appelle Kacem, s'te plaît Allô ? Woo hah, woo hah Sors le sachet d'herbe Woo hah, woo hah Microphone check Woo hah, woo hah Mais vous êtes où, les mecs ? Woo hah, woo hah Hey, microphone check</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Demi Portion, Crown A Pour abusé, accusé ou arabe Abusé depuis qu'les States ont su créer Oussama B Pour succomber, viens voir où est-ce qu'on se baigne Terre bien trop polluée ou tu fais semblant d'être zen C Pour ta cc Que tu te fourres plein le zen A la recherche des W.C Qu'on bouche devant le kérosène D Pour débuter Demi-P l'procédé Comme je nique la droite et la gauche quitte à te l'écrire sur CD E Me ramènent des envieux F C'est le mauvais il qu'ils me greffent Comme Total ils me font le plein sans pouvoir passer par Elf G J'ai pas l'envie de juger Arrête tu maîtrises pas le sujet J'ai pour grande pour gueule et mon guise de gun obligé H Parce que t'es lâche, hypocrite et tu le sais bien Ceux qui montent vite redescendent vite On les voit tomber du septième I Pour information, injustice, infraction Instructive, j'ai pas eu le choix de mintéresser aux sales sons J Pour cette jeunesse, qui voient flou cet avenir K Pour le triple K et tous ces fachos à vomir L Parce que je suis là bientôt je partirais pour toujours J'irai rapper avec des gestes manière d'offrir du son aux sourds M Pour musulman et toutes ces menaces qu'on surmonte V'la pister pour un album comme toutes ces caméras a Londres N Pour le nombre, on est des milliards à voir la haine Et même si ont est différents au fond on a grandit tous pareil O Pour oublier, non y'aura pire avec Obama Donc on porte mieux la rage en soit qu'un sale Dolce Gabbana P Parce quon veux la paix mais y'a qu'les riches qui se la paye Et quand les PDG chutent ont les vois sombrer dans la bouteille Q Y'a pas de querelles, Question , je sais pas si tu t'en souviens? Pas trop parce que le système voudra que tu finisses sans rien R Pour se rappeur résistant relax On ne marche pas grâce au xxx d'une vidéo a T-max S Pour susceptible , rate le succès se sous estime Les MC se copient donc on m'a conseiller de dépose ce style T Pour terroriste, terreur et terre à risques La télé te fait peur tu ressens même l'adrénaline U Sur qui je rime ? Sur la politique et imagine Si dans les urnes tu te caches pour essorer une sale machine V Pour nos vies, et tous nos enfants qui arrivent Sachant que 50 ans plus tard ils feront toujours les mêmes manifs W Car nos wagons sont encore trop chargés Dédiés a tous les sans papiers qui sont en train de les chercher X Parce que le sheitan rode aussi sur les trottoirs Et que les meilleurs déchets du monde de partout un dépotoir Y Yes, je vais devoir finir ma redac' Z Pour nos zup pour le Maroc et mes blédards You might also likeDemi Portion, Rachid, Les Grandes Gueules L'alphabête l'alphabet avec des lettres et pleins de choses En faite si je réfléchie il est trop dur de zapper la page Hé frère! trop tendu et c'est de la que se propage l'éclair Qu'on se recrache l'éclair, qu'on se dispute les terres T'as pas compris que c'est l'être humain Qui nous fabriquent ces guerres T'as vu où je m'éduque? c'est clair On demande pas grand chose Jute à garder l'équilibre souvent près de la fosse Je te laisserais trouver mes défauts A quelle point je me défonce Mais je changerais ce monde grâce à un flow féroce Si Si les infos sont fausses et tous les citoyens bavent On nous a trop sali comment tu veux que l'arabe taffe ? Il parait qu'on a vider la CAF ils sont pleins de cliché de phrase Je croyais que dans ce pays existais ce qu'on appelle La liberté dexpression!</t>
+          <t>Demi Portion, Crown A Pour abusé, accusé ou arabe Abusé depuis qu'les States ont su créer Oussama B Pour succomber, viens voir où est-ce qu'on se baigne Terre bien trop polluée ou tu fais semblant d'être zen C Pour ta cc Que tu te fourres plein le zen A la recherche des W.C Qu'on bouche devant le kérosène D Pour débuter Demi-P l'procédé Comme je nique la droite et la gauche quitte à te l'écrire sur CD E Me ramènent des envieux F C'est le mauvais il qu'ils me greffent Comme Total ils me font le plein sans pouvoir passer par Elf G J'ai pas l'envie de juger Arrête tu maîtrises pas le sujet J'ai pour grande pour gueule et mon guise de gun obligé H Parce que t'es lâche, hypocrite et tu le sais bien Ceux qui montent vite redescendent vite On les voit tomber du septième I Pour information, injustice, infraction Instructive, j'ai pas eu le choix de mintéresser aux sales sons J Pour cette jeunesse, qui voient flou cet avenir K Pour le triple K et tous ces fachos à vomir L Parce que je suis là bientôt je partirais pour toujours J'irai rapper avec des gestes manière d'offrir du son aux sourds M Pour musulman et toutes ces menaces qu'on surmonte V'la pister pour un album comme toutes ces caméras a Londres N Pour le nombre, on est des milliards à voir la haine Et même si ont est différents au fond on a grandit tous pareil O Pour oublier, non y'aura pire avec Obama Donc on porte mieux la rage en soit qu'un sale Dolce Gabbana P Parce quon veux la paix mais y'a qu'les riches qui se la paye Et quand les PDG chutent ont les vois sombrer dans la bouteille Q Y'a pas de querelles, Question , je sais pas si tu t'en souviens? Pas trop parce que le système voudra que tu finisses sans rien R Pour se rappeur résistant relax On ne marche pas grâce au xxx d'une vidéo a T-max S Pour susceptible , rate le succès se sous estime Les MC se copient donc on m'a conseiller de dépose ce style T Pour terroriste, terreur et terre à risques La télé te fait peur tu ressens même l'adrénaline U Sur qui je rime ? Sur la politique et imagine Si dans les urnes tu te caches pour essorer une sale machine V Pour nos vies, et tous nos enfants qui arrivent Sachant que 50 ans plus tard ils feront toujours les mêmes manifs W Car nos wagons sont encore trop chargés Dédiés a tous les sans papiers qui sont en train de les chercher X Parce que le sheitan rode aussi sur les trottoirs Et que les meilleurs déchets du monde de partout un dépotoir Y Yes, je vais devoir finir ma redac' Z Pour nos zup pour le Maroc et mes blédards Demi Portion, Rachid, Les Grandes Gueules L'alphabête l'alphabet avec des lettres et pleins de choses En faite si je réfléchie il est trop dur de zapper la page Hé frère! trop tendu et c'est de la que se propage l'éclair Qu'on se recrache l'éclair, qu'on se dispute les terres T'as pas compris que c'est l'être humain Qui nous fabriquent ces guerres T'as vu où je m'éduque? c'est clair On demande pas grand chose Jute à garder l'équilibre souvent près de la fosse Je te laisserais trouver mes défauts A quelle point je me défonce Mais je changerais ce monde grâce à un flow féroce Si Si les infos sont fausses et tous les citoyens bavent On nous a trop sali comment tu veux que l'arabe taffe ? Il parait qu'on a vider la CAF ils sont pleins de cliché de phrase Je croyais que dans ce pays existais ce qu'on appelle La liberté dexpression!</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>One shot, un micro, une instru A, B, C, D, E, F, etc Ça fait, un truc comme ça Du genre A Pour abusé, accusé ou arabe Abusé depuis qu'les States ont su créer Oussama B Pour succomber, viens voir où est-ce qu'on se baigne Terre bien trop polluée où tu fais semblant d'être zen C Pour ta C.C. que tu te fourres plein le zen À la recherche des W.C. qu'on bouche devant le kérosène D Pour débuter, Demi-P, l'procédé Comme je nique la droite, la gauche quitte à t'l'écrire sur CD E Me ramènent des envieux F C'est le mauvais il qu'ils me greffent Comme Total, ils m'ont fait l'plein sans pouvoir passer par Elf G J'ai pas l'envie de juger, tu maîtrises pas le sujet J'ai pour grande, pour gueule, et mon guise de gun obligé H Parce que t'es lâche, hypocrite et tu le sais bien Ceux qui montent vite redescendent vite On les voit tomber du septième I Pour information, injustice, infraction Instructive, j'ai pas eu le choix de mintéresser aux sales sons J Pour cette jeunesse, qui voient flou cet avenir K Pour le triple K et tous ces fachos à vomir L Parce que je suis là, bientôt je partirais pour toujours J'irai rapper avec des gestes, manière d'offrir du son aux sourds M Pour musulman, et toutes ces menaces qu'on surmonte V'la pister pour un album comme toutes ces caméras a Londres N Pour le nombre, on est des milliards à voir la haine Même si on est différents, au fond on a grandit tous pareil O Pour oublier, y'a pire avec Obama On porte mieux la rage en soit qu'un sale Dolce Gabbana P Parce quon veux la paix, y'a qu'les riches qui se la payent Quand les PDG chutent, on les voit tomber dans la bouteille Q Y'a pas de querelles, du passé tu t'en souviens ? Pas trop, le futur voudra que tu finisses sans rien R Pour ce rappeur, résistant, relax On ne marche pas grâce au d'une vidéo à T-max S Pour susceptible, rate le succès, se sous-estime Les rappeurs se copient, donc on m'a conseillé de déposer le style T Pour terroriste, terreur et terre à risques La télé te fait peur tu ressens même l'adrénaline U Sur qui j'urine ? Sur la politique et imagine Si dans les urnes tu te caches pour essorer une sale machine V Pour nos vies, et tous nos enfants qui arrivent Sachant que 50 ans plus tard ils feront toujours les mêmes manifs W Mes wagons, encore trop chargés Dédiés à tous les sans-papiers qui sont en train de les chercher X Parce que le sheitan, rode aussi sur les trottoirs Et les meilleurs déchets du monde, de partout un dépotoir Y Yes, je vais devoir finir ma rédac' Z Pour nos zupn pour tout l'monde et nos blédards You might also likeM Maroc A Algérie T Tunisie F France B Belgique C Canada Improvisation Plus un texte Crown à la prod Waouh Bon j'crois qu'c'est bon là hun</t>
+          <t>One shot, un micro, une instru A, B, C, D, E, F, etc Ça fait, un truc comme ça Du genre A Pour abusé, accusé ou arabe Abusé depuis qu'les States ont su créer Oussama B Pour succomber, viens voir où est-ce qu'on se baigne Terre bien trop polluée où tu fais semblant d'être zen C Pour ta C.C. que tu te fourres plein le zen À la recherche des W.C. qu'on bouche devant le kérosène D Pour débuter, Demi-P, l'procédé Comme je nique la droite, la gauche quitte à t'l'écrire sur CD E Me ramènent des envieux F C'est le mauvais il qu'ils me greffent Comme Total, ils m'ont fait l'plein sans pouvoir passer par Elf G J'ai pas l'envie de juger, tu maîtrises pas le sujet J'ai pour grande, pour gueule, et mon guise de gun obligé H Parce que t'es lâche, hypocrite et tu le sais bien Ceux qui montent vite redescendent vite On les voit tomber du septième I Pour information, injustice, infraction Instructive, j'ai pas eu le choix de mintéresser aux sales sons J Pour cette jeunesse, qui voient flou cet avenir K Pour le triple K et tous ces fachos à vomir L Parce que je suis là, bientôt je partirais pour toujours J'irai rapper avec des gestes, manière d'offrir du son aux sourds M Pour musulman, et toutes ces menaces qu'on surmonte V'la pister pour un album comme toutes ces caméras a Londres N Pour le nombre, on est des milliards à voir la haine Même si on est différents, au fond on a grandit tous pareil O Pour oublier, y'a pire avec Obama On porte mieux la rage en soit qu'un sale Dolce Gabbana P Parce quon veux la paix, y'a qu'les riches qui se la payent Quand les PDG chutent, on les voit tomber dans la bouteille Q Y'a pas de querelles, du passé tu t'en souviens ? Pas trop, le futur voudra que tu finisses sans rien R Pour ce rappeur, résistant, relax On ne marche pas grâce au d'une vidéo à T-max S Pour susceptible, rate le succès, se sous-estime Les rappeurs se copient, donc on m'a conseillé de déposer le style T Pour terroriste, terreur et terre à risques La télé te fait peur tu ressens même l'adrénaline U Sur qui j'urine ? Sur la politique et imagine Si dans les urnes tu te caches pour essorer une sale machine V Pour nos vies, et tous nos enfants qui arrivent Sachant que 50 ans plus tard ils feront toujours les mêmes manifs W Mes wagons, encore trop chargés Dédiés à tous les sans-papiers qui sont en train de les chercher X Parce que le sheitan, rode aussi sur les trottoirs Et les meilleurs déchets du monde, de partout un dépotoir Y Yes, je vais devoir finir ma rédac' Z Pour nos zupn pour tout l'monde et nos blédards M Maroc A Algérie T Tunisie F France B Belgique C Canada Improvisation Plus un texte Crown à la prod Waouh Bon j'crois qu'c'est bon là hun</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>C'est Disiz aka le plus gros kickeur J'essais de traduire le Coran car c'est le dico du cur Et dans le dico de l'homme je n'aime qu'authentique L'instru est bon, c'est Demi Portion donc autant kicker Indépendant tout comme ces valeurs qu'on exerce C'est mon dico remix clan sans gros mots ni politesse La patience nous rattrape vite au fil du temps Car on est tous des figurines dans un grand monde de figurants La dèche elle est bien là mais pas dans le Bescherelle Frère c'est la sécheresse si tu parles en wesh khey La houma, elle a pas d'estime mais elle s'en bat les steaks Dans sa tête c'est pas les States, c'est la Palestine Le souffle, respirer dehors me rend ouf Nous on a gardé le sourire depuis l'époque tah La famille mais bien sûr ça n'a pas de prix Ça se fonde, se construit, parfois par malheur se détruit R.A.P. beaucoup trop peace à l'heure actuelle Rêve de gros bifs mais de groupies beaucoup trop lisses, peur de déraper Les caricatures pourraient te faire croire que j'suis un caïd mature Que j'tiens les commandes et puis qu'Hollande n'est pas une raclure You might also like L'écriture est devenu la richesse du pauvre Ça parle de liberté, à chaque mot-clé les portes s'ouvrent Réfléchir fait nourrir toutes nos phrases Un rappeur un peu trop vague c'est une âme qui fait naufrage À l'ancienne comme l'affaire OM-Valenciennes Un bonhomme, un foulard, tout l'monde reconnait l'enseigne En scred parce qu'on fait des connexions Jamais dans la tendance, toujours dans la bonne direction Le réveil j'le regarde à chaque fois qu'il sonne Aujourd'hui c'est la crise mais tout l'monde possède le iPhone J'peux t'annoncer qu'ils ont tous renoncé En vérité le rap est devenu le système qu'il dénonçait L'information, combien sont persuadés que c'est ça ? Quand les trois-quarts ont la télé comme principal accessoire L'égarement, visiblement il est partout Bien malheureusement nos agissements le sont pas tous Liberté, ils ont tout fait pour qu'on se tue Y'a personne pour la paix et trop d'monde devant leur statue La victoire elle n'est pas facile à atteindre Qu'importe la stratégie faudra sacrifier les tiens Le mot mortalité celui qu'est devenu banalité Simple formalité ou contraire de natalité Le mot moralité laisse place à la voracité Ma seule capacité la luxure et la vanité Business, on saccroche, on y arrive À défaut d'avoir du bif' j'ai déjà ta meuf dans la poche L'amour se remplace par une envie d'sexe De nos jours une relation s'résume à une chatte ou un Kleenex Ok mon dico s'ouvre illico sur la lettre S Sniper, vise le cur et la tête pour être bref Parfait, j'tourne les pages au pif, bim lettre V Venimeux comme ma zic, comme Rachid j'reste vrai L'apparence parfois bizarre en y repensant Certains sont si pauvres que tout ce qu'ils ont c'est de l'argent Mon dictionnaire, c'est chacun sa définition On vole pas et pourtant nos textes frôlent le mur du son</t>
+          <t>C'est Disiz aka le plus gros kickeur J'essais de traduire le Coran car c'est le dico du cur Et dans le dico de l'homme je n'aime qu'authentique L'instru est bon, c'est Demi Portion donc autant kicker Indépendant tout comme ces valeurs qu'on exerce C'est mon dico remix clan sans gros mots ni politesse La patience nous rattrape vite au fil du temps Car on est tous des figurines dans un grand monde de figurants La dèche elle est bien là mais pas dans le Bescherelle Frère c'est la sécheresse si tu parles en wesh khey La houma, elle a pas d'estime mais elle s'en bat les steaks Dans sa tête c'est pas les States, c'est la Palestine Le souffle, respirer dehors me rend ouf Nous on a gardé le sourire depuis l'époque tah La famille mais bien sûr ça n'a pas de prix Ça se fonde, se construit, parfois par malheur se détruit R.A.P. beaucoup trop peace à l'heure actuelle Rêve de gros bifs mais de groupies beaucoup trop lisses, peur de déraper Les caricatures pourraient te faire croire que j'suis un caïd mature Que j'tiens les commandes et puis qu'Hollande n'est pas une raclure L'écriture est devenu la richesse du pauvre Ça parle de liberté, à chaque mot-clé les portes s'ouvrent Réfléchir fait nourrir toutes nos phrases Un rappeur un peu trop vague c'est une âme qui fait naufrage À l'ancienne comme l'affaire OM-Valenciennes Un bonhomme, un foulard, tout l'monde reconnait l'enseigne En scred parce qu'on fait des connexions Jamais dans la tendance, toujours dans la bonne direction Le réveil j'le regarde à chaque fois qu'il sonne Aujourd'hui c'est la crise mais tout l'monde possède le iPhone J'peux t'annoncer qu'ils ont tous renoncé En vérité le rap est devenu le système qu'il dénonçait L'information, combien sont persuadés que c'est ça ? Quand les trois-quarts ont la télé comme principal accessoire L'égarement, visiblement il est partout Bien malheureusement nos agissements le sont pas tous Liberté, ils ont tout fait pour qu'on se tue Y'a personne pour la paix et trop d'monde devant leur statue La victoire elle n'est pas facile à atteindre Qu'importe la stratégie faudra sacrifier les tiens Le mot mortalité celui qu'est devenu banalité Simple formalité ou contraire de natalité Le mot moralité laisse place à la voracité Ma seule capacité la luxure et la vanité Business, on saccroche, on y arrive À défaut d'avoir du bif' j'ai déjà ta meuf dans la poche L'amour se remplace par une envie d'sexe De nos jours une relation s'résume à une chatte ou un Kleenex Ok mon dico s'ouvre illico sur la lettre S Sniper, vise le cur et la tête pour être bref Parfait, j'tourne les pages au pif, bim lettre V Venimeux comme ma zic, comme Rachid j'reste vrai L'apparence parfois bizarre en y repensant Certains sont si pauvres que tout ce qu'ils ont c'est de l'argent Mon dictionnaire, c'est chacun sa définition On vole pas et pourtant nos textes frôlent le mur du son</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Mon dictionnaire est une arme révolutionnaire Mais la plupart des rappeurs font un album en une semaine Sincérité tout le monde ment en vérité Le mensonge a fait sa place parmi les grands héritiers La raison elle se murit avec l'âge Et ceux qui viennent de Paris me disent c'est beau dans ton village Distant évidemment qu'il a fallu l'être Mieux comprendre les mots afin d maîtriser le maître L'équilibr comme toutes ces maladies dans ce monde Les produits pesticides ont envahi nos micros ondes L'écologie bientôt y'aura plus de CO2 On sait que l'État est toxique rien à voir à ... La parole on sait que la prendre ça vaut de l'or Hamdoullah on croit en Dieu encore mieux que les droits de l'homme Insignifiance depuis que la violence est banale Fuck les racistes j'ai grandi avec Sylvain et Kamal Générosité avec la crise ça n'arrange rien On peut effacer la famine avec leurs comptes saoudiens La planète perd son souffle évidemment Monsauto va nous tuer sans parler de leurs médicaments Mon dico rien n'a changé depuis le 1er Mes couplets ont 20 ans d'âge appelez moi sommelier L'actualité qu'est ce qu'on attend de la télé ? On est bloqué par leur chaîne sauf qu'on a le porte clé L'histoire on oublie pas les souvenirs À nos grands parents bien sûr et ceux qui se tuent pour se nourrir La richesse ça n'achète pas la bonté Être aisé cest dans la tête léducation et la santé Simplicité cest tout ce quon veut en vérité On nous montre tout le contraire de ce qui se passe nos cités La religion je sais que tout le monde en a besoin Que dieu nous protège cest encore mieux quun vaccin La province et jai laccent depuis minot On sen tape si cest dur ou si le chemin est plus long La méfiance a été créée pour nous faire peur Peu de personnes qui dénoncent cest facile dêtre un rappeur Patience tranquille timide On apprend depuis petit ce qui monte redescend vite Technologie ça va nous tomber du ciel On ma dit Rachid elle rappe l'intelligence artificielle La vitesse les gens sont speed pour être zen Le temps cest pas largent cest le plus important cousin Espoir a été viré de ma mémoire Mon avion sest crashé et a perdu la boîte noireYou might also like</t>
+          <t>Mon dictionnaire est une arme révolutionnaire Mais la plupart des rappeurs font un album en une semaine Sincérité tout le monde ment en vérité Le mensonge a fait sa place parmi les grands héritiers La raison elle se murit avec l'âge Et ceux qui viennent de Paris me disent c'est beau dans ton village Distant évidemment qu'il a fallu l'être Mieux comprendre les mots afin d maîtriser le maître L'équilibr comme toutes ces maladies dans ce monde Les produits pesticides ont envahi nos micros ondes L'écologie bientôt y'aura plus de CO2 On sait que l'État est toxique rien à voir à ... La parole on sait que la prendre ça vaut de l'or Hamdoullah on croit en Dieu encore mieux que les droits de l'homme Insignifiance depuis que la violence est banale Fuck les racistes j'ai grandi avec Sylvain et Kamal Générosité avec la crise ça n'arrange rien On peut effacer la famine avec leurs comptes saoudiens La planète perd son souffle évidemment Monsauto va nous tuer sans parler de leurs médicaments Mon dico rien n'a changé depuis le 1er Mes couplets ont 20 ans d'âge appelez moi sommelier L'actualité qu'est ce qu'on attend de la télé ? On est bloqué par leur chaîne sauf qu'on a le porte clé L'histoire on oublie pas les souvenirs À nos grands parents bien sûr et ceux qui se tuent pour se nourrir La richesse ça n'achète pas la bonté Être aisé cest dans la tête léducation et la santé Simplicité cest tout ce quon veut en vérité On nous montre tout le contraire de ce qui se passe nos cités La religion je sais que tout le monde en a besoin Que dieu nous protège cest encore mieux quun vaccin La province et jai laccent depuis minot On sen tape si cest dur ou si le chemin est plus long La méfiance a été créée pour nous faire peur Peu de personnes qui dénoncent cest facile dêtre un rappeur Patience tranquille timide On apprend depuis petit ce qui monte redescend vite Technologie ça va nous tomber du ciel On ma dit Rachid elle rappe l'intelligence artificielle La vitesse les gens sont speed pour être zen Le temps cest pas largent cest le plus important cousin Espoir a été viré de ma mémoire Mon avion sest crashé et a perdu la boîte noire</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Les grandes gueules... Demi Portion... Ouais ! Les mots dico... Espoir A été viré d'ma mémoire Mon avion sest crashé et a perdu la boîte noire Esclave Certains ont connu ce châtiment Mon père et puis le tien leur ont construit des bâtiments La dette Dis-moi quel pays la paiera Pendant qules States samusent à pratiquer la rhala La gloire On nétait pas pote avec elle Juste avant dcrier victoire, fallait subir des séquelles Lamitié Jessaie de garder les meilleurs Une pensée aux envieux qui ne font que parler des leurs Souvenir Jai en tête les bons, les mauvais Qu'toutes les réponses cachées, il était temps de les trouver La peur Même ton voisin est parano Quand il croise un Arabe il rvoit la figure à Pernaut Les médias Ont su nous salir à ptit feu Se fâcher entre nous, ou séquestrer un ptit Feuj Les racailles Ne sont pas que dans les tours Chaque salaire à Matignon pourrait aider le Darfour La monnaie On sait très bien quelle y contribue Ça tue et change lhumain et le pousse à labus Surprise Comme voir le président sous tise On na pas trop le choix découter leurs précédentes sottises La chance Ma réclamé une redevance À force de la regarder elle ma dit cest perdu davance Distant Évidemment quil a fallu lêtre Mieux comprendre les mots afin de maîtriser les lettres Endormi Et sans toucher aux somnifères Vlà un son qui te réveillera, un vrai déjeuner en sphère Travailler Et puis certains veulent que je chôme On a tous été bloqué entre vice et sourire jaune Tolérance Dis-moi où est le mot respect Quand des flics virent une famille sans le moyen dy rester Coupable Ma couleur est la première cible On ma dit écris comme si tu faisais un homicide La galère Elle a même très bien fait son buzz Elle est passé dans chaque cité et a su jouer la gracieuse Manipuler Comme les dossiers de lÉlysée Les ptits nhésitent même plus aux soirées alcoolisées Accuser J'veux ni monter ou toucher la barre Et j'veux q'mon dernier soupir finisse par Allah Akbar Religion Car il faut savoir en parler Chaque conflit gratuit a été seulement parié Pétrole Synonyme de grande fortune Et jsuis pas si bien placé pour y faire tremper ma plume La faim Elle fait aussi tourner la boule Encore plein de pays à terre, va faire un tour à Kaboul Les termes Cest ce que jai voulu te définir 48 mesures mais men faudrait bien plus pour en finir You might also like Ouais... Demi-Portion... Les mots blessent, mais le savoir est une arme Espoir a été viré de ma mémoire Depuis qu'on regarde mal maghrébins et noirs Esclave, j'ai pris ce bic Afin d'réanimer la langue vivante La dette, dis-moi quel pays la paiera Depuis qu'on est tous enfermés dans c'trou à rats La gloire, la gloire on y croit Mais c'n'est pas mon seul espoir La gloire on y croit, mais ce nest pas mon seul espoir Je tai fait part de mon Dico... Pars de mon Dico</t>
+          <t>Les grandes gueules... Demi Portion... Ouais ! Les mots dico... Espoir A été viré d'ma mémoire Mon avion sest crashé et a perdu la boîte noire Esclave Certains ont connu ce châtiment Mon père et puis le tien leur ont construit des bâtiments La dette Dis-moi quel pays la paiera Pendant qules States samusent à pratiquer la rhala La gloire On nétait pas pote avec elle Juste avant dcrier victoire, fallait subir des séquelles Lamitié Jessaie de garder les meilleurs Une pensée aux envieux qui ne font que parler des leurs Souvenir Jai en tête les bons, les mauvais Qu'toutes les réponses cachées, il était temps de les trouver La peur Même ton voisin est parano Quand il croise un Arabe il rvoit la figure à Pernaut Les médias Ont su nous salir à ptit feu Se fâcher entre nous, ou séquestrer un ptit Feuj Les racailles Ne sont pas que dans les tours Chaque salaire à Matignon pourrait aider le Darfour La monnaie On sait très bien quelle y contribue Ça tue et change lhumain et le pousse à labus Surprise Comme voir le président sous tise On na pas trop le choix découter leurs précédentes sottises La chance Ma réclamé une redevance À force de la regarder elle ma dit cest perdu davance Distant Évidemment quil a fallu lêtre Mieux comprendre les mots afin de maîtriser les lettres Endormi Et sans toucher aux somnifères Vlà un son qui te réveillera, un vrai déjeuner en sphère Travailler Et puis certains veulent que je chôme On a tous été bloqué entre vice et sourire jaune Tolérance Dis-moi où est le mot respect Quand des flics virent une famille sans le moyen dy rester Coupable Ma couleur est la première cible On ma dit écris comme si tu faisais un homicide La galère Elle a même très bien fait son buzz Elle est passé dans chaque cité et a su jouer la gracieuse Manipuler Comme les dossiers de lÉlysée Les ptits nhésitent même plus aux soirées alcoolisées Accuser J'veux ni monter ou toucher la barre Et j'veux q'mon dernier soupir finisse par Allah Akbar Religion Car il faut savoir en parler Chaque conflit gratuit a été seulement parié Pétrole Synonyme de grande fortune Et jsuis pas si bien placé pour y faire tremper ma plume La faim Elle fait aussi tourner la boule Encore plein de pays à terre, va faire un tour à Kaboul Les termes Cest ce que jai voulu te définir 48 mesures mais men faudrait bien plus pour en finir Ouais... Demi-Portion... Les mots blessent, mais le savoir est une arme Espoir a été viré de ma mémoire Depuis qu'on regarde mal maghrébins et noirs Esclave, j'ai pris ce bic Afin d'réanimer la langue vivante La dette, dis-moi quel pays la paiera Depuis qu'on est tous enfermés dans c'trou à rats La gloire, la gloire on y croit Mais c'n'est pas mon seul espoir La gloire on y croit, mais ce nest pas mon seul espoir Je tai fait part de mon Dico... Pars de mon Dico</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Demi-Portion Mon Dico, 3 Parce que j'avais pas fini l'deuxième Donc j'ai encore tourné la page... Les Histoires Là c'est Mon Dico, volume 3 Jamais deux sans toi, tu vas vite comprendre pourquoi Révolté Non mais qui l'a inventé ? On n'fait pas la révolution juste avec un maillot du Che Rêver Mais comment ? L'humain ne dort plus D'un côté y'a l'clavier, de l'autre de la coke pure La drogue Comme pour la drague, ça devient facile Malades complètement, à croire qu'cette merde nous vaccine La Police D'après la loi, elle fait son travail Le dernier boy qui m'a fouillé était plus cool après mes freestyles You might also likePrendre Non, tout l'monde n'en fait qu'à sa tête Les gens deviennent trop radins, en vrai qui partage l'assiette ? Intégré Sache qu'on a un bon pédigrée Mais ma muselière s'enlève au moment où vous m'caressez Éducation Nos parents et leur initiative Pas contents de voir ta p'tite sur dans Confessions intimes La colère On sait qu'parfois elle arrange les choses Ici l'gagnant n'est pas toujours celui qui fournit l'plus d'efforts Automatique Comme le circuit d'la politique Ceux qui ont l'feu entre les mains à cramer une flamme olympique Évolution Sûrement qu'on est en plein dedans Chère télévision, est-ce qu'on recule à pas d'géant ? Indépendant Ça va pas t'protéger les fesses Nous on a le visuel large, un peu comme Hugo Chávez Les connaissances Qui au départ te poussent les ventes Les gens t'soutiennent au début, quand t'es reconnu ils sont plus fans L'avarice Te dira qu'c'n'est qu'partie remise Comme par hasard y'a plus personne quand on recherche un p'tit service La folie Peut être semblable à l'idiotie Et c'est sûrement pour ça qu'on a choisi le son aussi La mort On n'sait pas l'jour où elle attaque S'il-vous-plaît, j'veux pas d'best of si j'm'échappe à la 2Pac Oublier Pas du tout, le monde prend d'la vitesse Un petit a deux cerveaux, à t'pirater une DS Le succès Te dessine, t'anime et te choisit Sur Voici tu serais un bon, un Monstre et compagnie Le style On l'suit cash, quand il est bien fait Avec vos sourcils Adidas, concrètement quel est votre projet ? Le mariage Tu vas trop vite et tu as tort On tombe amoureux d'un cur, pas nécessairement d'un corps Polygame File une instru, j't'la mets en scène Certains font l'amour à trois, d'autres font du rap à Sète Passionné Quand on aime on s'organise En essayant d'être au top, comme un bébé qui arrive L'humour On aime en rire, mais pas de soi Mais des fois j'deviens sourd, sur certains points j'ai pas le choix L'apparence Nous joue des tours, et quoi qu'on fasse J'avais perdu ma boîte noire, mais ils l'ont retrouvée chez Air France Mon flow, Ma voix, Mon Bic, Mes fléchettes De un jusqu'au Dico 3, ça t'fera l'édition R'Hachette Mon Dico, Demi Portion c'est mon concept De un jusqu'au Dico 3, ça t'fera l'édition complète Rachid Les Histoires</t>
+          <t>Demi-Portion Mon Dico, 3 Parce que j'avais pas fini l'deuxième Donc j'ai encore tourné la page... Les Histoires Là c'est Mon Dico, volume 3 Jamais deux sans toi, tu vas vite comprendre pourquoi Révolté Non mais qui l'a inventé ? On n'fait pas la révolution juste avec un maillot du Che Rêver Mais comment ? L'humain ne dort plus D'un côté y'a l'clavier, de l'autre de la coke pure La drogue Comme pour la drague, ça devient facile Malades complètement, à croire qu'cette merde nous vaccine La Police D'après la loi, elle fait son travail Le dernier boy qui m'a fouillé était plus cool après mes freestyles Prendre Non, tout l'monde n'en fait qu'à sa tête Les gens deviennent trop radins, en vrai qui partage l'assiette ? Intégré Sache qu'on a un bon pédigrée Mais ma muselière s'enlève au moment où vous m'caressez Éducation Nos parents et leur initiative Pas contents de voir ta p'tite sur dans Confessions intimes La colère On sait qu'parfois elle arrange les choses Ici l'gagnant n'est pas toujours celui qui fournit l'plus d'efforts Automatique Comme le circuit d'la politique Ceux qui ont l'feu entre les mains à cramer une flamme olympique Évolution Sûrement qu'on est en plein dedans Chère télévision, est-ce qu'on recule à pas d'géant ? Indépendant Ça va pas t'protéger les fesses Nous on a le visuel large, un peu comme Hugo Chávez Les connaissances Qui au départ te poussent les ventes Les gens t'soutiennent au début, quand t'es reconnu ils sont plus fans L'avarice Te dira qu'c'n'est qu'partie remise Comme par hasard y'a plus personne quand on recherche un p'tit service La folie Peut être semblable à l'idiotie Et c'est sûrement pour ça qu'on a choisi le son aussi La mort On n'sait pas l'jour où elle attaque S'il-vous-plaît, j'veux pas d'best of si j'm'échappe à la 2Pac Oublier Pas du tout, le monde prend d'la vitesse Un petit a deux cerveaux, à t'pirater une DS Le succès Te dessine, t'anime et te choisit Sur Voici tu serais un bon, un Monstre et compagnie Le style On l'suit cash, quand il est bien fait Avec vos sourcils Adidas, concrètement quel est votre projet ? Le mariage Tu vas trop vite et tu as tort On tombe amoureux d'un cur, pas nécessairement d'un corps Polygame File une instru, j't'la mets en scène Certains font l'amour à trois, d'autres font du rap à Sète Passionné Quand on aime on s'organise En essayant d'être au top, comme un bébé qui arrive L'humour On aime en rire, mais pas de soi Mais des fois j'deviens sourd, sur certains points j'ai pas le choix L'apparence Nous joue des tours, et quoi qu'on fasse J'avais perdu ma boîte noire, mais ils l'ont retrouvée chez Air France Mon flow, Ma voix, Mon Bic, Mes fléchettes De un jusqu'au Dico 3, ça t'fera l'édition R'Hachette Mon Dico, Demi Portion c'est mon concept De un jusqu'au Dico 3, ça t'fera l'édition complète Rachid Les Histoires</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Il est temps de rouvrir le dictionnaire Mon dico 5, mmh Demi Portion Yeah, écoute Indépendant a été placé dans mon régime On n'a pas lâché l'affaire mais surtout pas suivi les fiches Intelligence, on peut toujours avoir une chance Même si on fait des faux pas, le but, c'est d'apprendre une danse L'excitation, ça fait aussi partie de nous Fais attention, au sommet, tu peux entendre des cris de loup La crainte un doute, une manière d'philosopher Tu sais, j'y pense en boucle mais l'amour m'a étouffé Catastrophe, le monde pleure et c'est notre faute Évidemment qu'on ouvre une porte, comme d'hab', aux xénophobes Étrangers, j'crois qu'on a besoin de l'autre Voir des couleurs, c'est sûr, ça fait du bien à notre coloc' La pauvreté, la bourgeoisie m'a dégoûté Injuste, mais tout en haut, ils ont l'temps de boycotter Manipuler, ceux qui font tout pour reculer Allez tous vous faire car on n'veut plus s'y habituer La tristesse, j'ai vu la joie faire des promesses À force de maquiller sa vie, on laissera s'enfuir la déesse La corruption, parait qu'elle a eu nos parents Ils ont construit des bâtiments afin qu'on y meure dedans L'incertitude nous f'ra serrer la ceinture On veut voyager mais bon, ça coûtera le prix d'une voiture Adrénaline, on sait qu'la rue joue sa maline Elle nous guide, te blesse ou donne des points juste à Marine Le bonheur, c'est c'qu'on recherche avant qu'on meure J'préfère la voix d'ma mère, non, pas celle d'un vocodeur Adoration commence aux portes de ton cur On sait qu'un pays déchiré se répare pas chez un tailleur Les valeurs sont perdues dans une tombola Notre véritable lieu saint s'trouve, oui, au fond de l'âme Le paradis, et j'vous l'souhaite Et ainsi va la vie, un jeune debout ne verra jamais mieux qu'un vieux assis La monnaie, fais attention, c'est un vautour J'aimerais les voir brûler comme ce billet de Gainsbourg L'éducation, car il est temps d'vivre tous ensemble Si c'est pas pour toi, fais-le au moins pour tes enfants Écologie, mais vu qu'tout l'monde s'en bat les steaks D'après les statistiques, le cancer est un concept La rage m'abrite depuis qu'j'suis né dans c'quartier Depuis qu'papa est parti, j'fais semblant d'me calmer La drogue, elle a su rentrer d'partout J'préfère voir une mosquée qu'toucher d'l'or à Moscou Militaire parce que les soldats sont des stars On sait qu'une bombe nucléaire s'trouve sous l'siège d'un connard L'espoir a été viré d'ma mémoire Mon avion s'est crashé et a perdu la boite noire Esclave, laisse-moi ces dicos près de nous Entre Rachid et Hachette, rajoute le 5 et puis c'est tout You might also like Mon dico, mon dico 1, 2, 3, 4, 5, 6, 7, 8, et cetera Ouais, Sofiane Pamart Mon dico, mon dico</t>
+          <t>Il est temps de rouvrir le dictionnaire Mon dico 5, mmh Demi Portion Yeah, écoute Indépendant a été placé dans mon régime On n'a pas lâché l'affaire mais surtout pas suivi les fiches Intelligence, on peut toujours avoir une chance Même si on fait des faux pas, le but, c'est d'apprendre une danse L'excitation, ça fait aussi partie de nous Fais attention, au sommet, tu peux entendre des cris de loup La crainte un doute, une manière d'philosopher Tu sais, j'y pense en boucle mais l'amour m'a étouffé Catastrophe, le monde pleure et c'est notre faute Évidemment qu'on ouvre une porte, comme d'hab', aux xénophobes Étrangers, j'crois qu'on a besoin de l'autre Voir des couleurs, c'est sûr, ça fait du bien à notre coloc' La pauvreté, la bourgeoisie m'a dégoûté Injuste, mais tout en haut, ils ont l'temps de boycotter Manipuler, ceux qui font tout pour reculer Allez tous vous faire car on n'veut plus s'y habituer La tristesse, j'ai vu la joie faire des promesses À force de maquiller sa vie, on laissera s'enfuir la déesse La corruption, parait qu'elle a eu nos parents Ils ont construit des bâtiments afin qu'on y meure dedans L'incertitude nous f'ra serrer la ceinture On veut voyager mais bon, ça coûtera le prix d'une voiture Adrénaline, on sait qu'la rue joue sa maline Elle nous guide, te blesse ou donne des points juste à Marine Le bonheur, c'est c'qu'on recherche avant qu'on meure J'préfère la voix d'ma mère, non, pas celle d'un vocodeur Adoration commence aux portes de ton cur On sait qu'un pays déchiré se répare pas chez un tailleur Les valeurs sont perdues dans une tombola Notre véritable lieu saint s'trouve, oui, au fond de l'âme Le paradis, et j'vous l'souhaite Et ainsi va la vie, un jeune debout ne verra jamais mieux qu'un vieux assis La monnaie, fais attention, c'est un vautour J'aimerais les voir brûler comme ce billet de Gainsbourg L'éducation, car il est temps d'vivre tous ensemble Si c'est pas pour toi, fais-le au moins pour tes enfants Écologie, mais vu qu'tout l'monde s'en bat les steaks D'après les statistiques, le cancer est un concept La rage m'abrite depuis qu'j'suis né dans c'quartier Depuis qu'papa est parti, j'fais semblant d'me calmer La drogue, elle a su rentrer d'partout J'préfère voir une mosquée qu'toucher d'l'or à Moscou Militaire parce que les soldats sont des stars On sait qu'une bombe nucléaire s'trouve sous l'siège d'un connard L'espoir a été viré d'ma mémoire Mon avion s'est crashé et a perdu la boite noire Esclave, laisse-moi ces dicos près de nous Entre Rachid et Hachette, rajoute le 5 et puis c'est tout Mon dico, mon dico 1, 2, 3, 4, 5, 6, 7, 8, et cetera Ouais, Sofiane Pamart Mon dico, mon dico</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Si le temps est de largent, moi, je paye cash, si la vie à des nuds, on les détache On dit que parler bien cousin est un détail, où chercher une belle plume dans ce bétail ? C'est la peine cousin, j'veux la bataille, ramenez-moi les, pas les p'tites tailles Hip-hop yeah, mon bateau et léquipage, ne suis pas la vague, j'connais bien le mistral J'aime enregistrer, transpire à chaque scène, bloque pas laccès, jai laccent d'Brassens On a toujours le choix cousin, où est la justice ? On sen sort de justesse Jen place une aux militants, tout l'temps, on a toujours eu des rêves depuis c'parc Jen place une aux militants, tout l'temps, on a toujours eu des rêves depuis c'parc À nos mères vaillantes, à nos pères virils, à tous les quartiers d'France au regard terrible La porte est fermée mais jai le cur ouvert, on a écrit longtemps mais ya aucune nouvelle Cest avec tant d'joie quon se donne la peine, ne faites pas d'best-of si la mort mappelle Ya des catastrophes mais on ferme lil, dès quune vie arrive, dautres font le deuil On a fait le bilan calmement, passer sous le billard, cest pas l'moment On a fait le bilan calmement, passer sous le billard, cest pas l'moment Motivés, motivés, motivés, motivés Motivés yeah, motivés, motivés Old school, new school, là nest pas la question Old school, new school, là nest pas la question Motivés, motivés, motivés, motivés Motivés, motivés You might also like Mais ça, je n'peux pas le faire à votre place Je suis trop vieux Je vous regarde Je vois ces jeunes visages et je pense Je vais vous dire J'ai fait tous les mauvais choix qu'un homme entre deux âges puisse faire, d'accord? J'ai, j'ai claqué tout mon pognon Croyez-le ou pas J'ai fait fuir tous ceux qui m'ont jamais aimé Et c'est ainsi Je ne supporte même plus de voir mon visage dans le miroir Vous savez, quand vous prenez de l'âge dans la vie Des choses vous sont enlevées J'veux dire, ça, ça fait partie de la vie Mais ça, on ne peut le comprendre qu'une fois qu'on commence à les perdre On découvre que la vie se joue sur quelques centimètres, comme le football Parce que dans ces deux jeux, la vie ou le football La marge d'erreur est si réduite Je veux dire Vous êtes un demi-pas en retard ou en avance et vous ne marquez pas Vous êtes une demi-seconde trop lent ou trop rapide, et vous la manquez de peu Les centimètres qu'il faut gagner, ils sont partout autour de nous ça c'est vrai! Ils en ont chaque opportunités de jeu ouais! À chaque minute, à chaque seconde</t>
+          <t>Si le temps est de largent, moi, je paye cash, si la vie à des nuds, on les détache On dit que parler bien cousin est un détail, où chercher une belle plume dans ce bétail ? C'est la peine cousin, j'veux la bataille, ramenez-moi les, pas les p'tites tailles Hip-hop yeah, mon bateau et léquipage, ne suis pas la vague, j'connais bien le mistral J'aime enregistrer, transpire à chaque scène, bloque pas laccès, jai laccent d'Brassens On a toujours le choix cousin, où est la justice ? On sen sort de justesse Jen place une aux militants, tout l'temps, on a toujours eu des rêves depuis c'parc Jen place une aux militants, tout l'temps, on a toujours eu des rêves depuis c'parc À nos mères vaillantes, à nos pères virils, à tous les quartiers d'France au regard terrible La porte est fermée mais jai le cur ouvert, on a écrit longtemps mais ya aucune nouvelle Cest avec tant d'joie quon se donne la peine, ne faites pas d'best-of si la mort mappelle Ya des catastrophes mais on ferme lil, dès quune vie arrive, dautres font le deuil On a fait le bilan calmement, passer sous le billard, cest pas l'moment On a fait le bilan calmement, passer sous le billard, cest pas l'moment Motivés, motivés, motivés, motivés Motivés yeah, motivés, motivés Old school, new school, là nest pas la question Old school, new school, là nest pas la question Motivés, motivés, motivés, motivés Motivés, motivés Mais ça, je n'peux pas le faire à votre place Je suis trop vieux Je vous regarde Je vois ces jeunes visages et je pense Je vais vous dire J'ai fait tous les mauvais choix qu'un homme entre deux âges puisse faire, d'accord? J'ai, j'ai claqué tout mon pognon Croyez-le ou pas J'ai fait fuir tous ceux qui m'ont jamais aimé Et c'est ainsi Je ne supporte même plus de voir mon visage dans le miroir Vous savez, quand vous prenez de l'âge dans la vie Des choses vous sont enlevées J'veux dire, ça, ça fait partie de la vie Mais ça, on ne peut le comprendre qu'une fois qu'on commence à les perdre On découvre que la vie se joue sur quelques centimètres, comme le football Parce que dans ces deux jeux, la vie ou le football La marge d'erreur est si réduite Je veux dire Vous êtes un demi-pas en retard ou en avance et vous ne marquez pas Vous êtes une demi-seconde trop lent ou trop rapide, et vous la manquez de peu Les centimètres qu'il faut gagner, ils sont partout autour de nous ça c'est vrai! Ils en ont chaque opportunités de jeu ouais! À chaque minute, à chaque seconde</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Yo Au début, on veut un album entouré de bons décibels On sait que le monde est trop beau en commençant une passerelle On recherche une vie sereine comme une famille formidable Apprendre à goûter les siens sans se plaindre des amygdales Au début on s'en fichait, on s'en fiche une On rentre dans les fichier on trouve plusieurs virus J'écris sur papyrus et j'ai un ami t-rex demande à mon pote Karim lui qui a un cur en silex Il n'y a pas de vol de mobylette ni de virées en solex on s'est tous tourné le dos ou pas, pour un, deux, trois soleils, non quatre ou cinq collègues, yo La suite est collector, premier vol de bonbons, première coupe de pinto Au début, on était cons, ma copine est sur le banc on s'était juré qu'un jour on allait foutre le camp Au début on était jeune l'étoile de l'inconscience Je suis né en France mais bon je dois chaque fois le répéter et c'est pas deux trois fachistes qui vont me le faire regretter Il me faudrait plusieurs disques pour te raconter des années Parfois le petit chemin va plus vite que les grandes allées J'ai aimé beaucoup d'amis pas ceux qui nous contaminent Car tu sais là ou j'habite on ne rêve pas d'Abou Dhabi Pas de chaussures sur le tapis Il y a toute la famille dessus J'ai jamais tiré le rideau malgré qu'on met trop déçu Le rap c'est trop de blessures derrière ces pansements des rires et des pleures et des faux compliments Ouais, tomber c'est normal ça fait partie de la vie se relevé c'est pas trop tard ça fait partie de l'avenir ça fait partie de mon passé Comment faire genre, ou est l'argent qui vise les gens ? Heureusement qu'on pardonne tout ce qui nous veulent du mal Solitaire tel un puma A tout ceux qui ont la grosse tête, qui ont perdu leur bonnet De peu d'écrire de la merde on a dû raser les forêts Les pires font la chorée sur TikTok et ces tocs comme on la fait sa fierté entre le sale et le propre Alors viens pas te la péter tira le refaire a d'autre Lève toi te plains pas Pff Y'a bien pire alors Ne me soule pas non surtout pas le soir La vie est un bar sans une balançoire Lève toi, viens t'asseoir Faut se poser La politique d'aujourd'hui veut plus nous voir causer Ça fait partie de mon passé, le mectoub est bien tracé You might also like Ouais Ouais Ouais envoie le son y'a pas de trêve Qui ne se plante jamais n'a aucune chance de pousser Au Rap Français je fais hommage Au Rap Français je fais hommage Ouais Ouais Ouais envoie le son y'a pas de trêve Qui ne se plante jamais n'a aucune chance de pousser Au Rap Français je fais hommage Au Rap Français je fais hommage</t>
+          <t>Yo Au début, on veut un album entouré de bons décibels On sait que le monde est trop beau en commençant une passerelle On recherche une vie sereine comme une famille formidable Apprendre à goûter les siens sans se plaindre des amygdales Au début on s'en fichait, on s'en fiche une On rentre dans les fichier on trouve plusieurs virus J'écris sur papyrus et j'ai un ami t-rex demande à mon pote Karim lui qui a un cur en silex Il n'y a pas de vol de mobylette ni de virées en solex on s'est tous tourné le dos ou pas, pour un, deux, trois soleils, non quatre ou cinq collègues, yo La suite est collector, premier vol de bonbons, première coupe de pinto Au début, on était cons, ma copine est sur le banc on s'était juré qu'un jour on allait foutre le camp Au début on était jeune l'étoile de l'inconscience Je suis né en France mais bon je dois chaque fois le répéter et c'est pas deux trois fachistes qui vont me le faire regretter Il me faudrait plusieurs disques pour te raconter des années Parfois le petit chemin va plus vite que les grandes allées J'ai aimé beaucoup d'amis pas ceux qui nous contaminent Car tu sais là ou j'habite on ne rêve pas d'Abou Dhabi Pas de chaussures sur le tapis Il y a toute la famille dessus J'ai jamais tiré le rideau malgré qu'on met trop déçu Le rap c'est trop de blessures derrière ces pansements des rires et des pleures et des faux compliments Ouais, tomber c'est normal ça fait partie de la vie se relevé c'est pas trop tard ça fait partie de l'avenir ça fait partie de mon passé Comment faire genre, ou est l'argent qui vise les gens ? Heureusement qu'on pardonne tout ce qui nous veulent du mal Solitaire tel un puma A tout ceux qui ont la grosse tête, qui ont perdu leur bonnet De peu d'écrire de la merde on a dû raser les forêts Les pires font la chorée sur TikTok et ces tocs comme on la fait sa fierté entre le sale et le propre Alors viens pas te la péter tira le refaire a d'autre Lève toi te plains pas Pff Y'a bien pire alors Ne me soule pas non surtout pas le soir La vie est un bar sans une balançoire Lève toi, viens t'asseoir Faut se poser La politique d'aujourd'hui veut plus nous voir causer Ça fait partie de mon passé, le mectoub est bien tracé Ouais Ouais Ouais envoie le son y'a pas de trêve Qui ne se plante jamais n'a aucune chance de pousser Au Rap Français je fais hommage Au Rap Français je fais hommage Ouais Ouais Ouais envoie le son y'a pas de trêve Qui ne se plante jamais n'a aucune chance de pousser Au Rap Français je fais hommage Au Rap Français je fais hommage</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Toutes manières je pense qu'il avait pas le courage De venir ou de parler en face Sale coup part, un point de coté Tout juste à les imaginer devant leurs glaces Plus d'regards, rétines éclatées Et quand il fume chaque xxx démange Grosse be-bar et des vieilles Nike au pied Voici le fantasme d'une racaille en place Escobar, il a du se tromper Non plutôt le scénar' devient un film en vrac Nouvelle barre lorsqu'il te voit stopper Mourir pour des idées c'est moche c'est que du RAP Moi j'ai faillis canner résume chaque couplets Sans avoir préparer d'sortir une droite Que tu tombes c'est meilleur à visionner En hurlant à la mort en sang les cotes Spartiates Mourir pour des idées, l'idée est excellente Moi j'ai failli mourir de ne n'avoir pas eu Car tout ce qu'il a fait multitude accablante En hurlant à la mort ils sont tombés dessus De toute manière je pense qu'il serait bien dommage D'essayer d'avoir pitié pour eux Même quand il fait beau ils désirent l'orage A me demander s'ils sont vraiment sérieux Mourir pour des idées leurs faires bouffés mes pages Toujours content à me voir furieux On RAP vandale avec un gros lettrage Monter les rideaux je vous ai graphé le lieu Regardé ma fresque et son paysage Une sorte de voyage, Mesdames et messieurs Nouvelle Poésie l'idée est excellente A la recherche d'un thème, un boulon merveilleux Mourir pour des idées et pour une phrase brûlante Trouver les mots qui nous rendent si joyeux Les grandes gueules vivent leurs langues vivantes En hurlant à la mort de chaque jours faire mieux You might also like</t>
+          <t>Toutes manières je pense qu'il avait pas le courage De venir ou de parler en face Sale coup part, un point de coté Tout juste à les imaginer devant leurs glaces Plus d'regards, rétines éclatées Et quand il fume chaque xxx démange Grosse be-bar et des vieilles Nike au pied Voici le fantasme d'une racaille en place Escobar, il a du se tromper Non plutôt le scénar' devient un film en vrac Nouvelle barre lorsqu'il te voit stopper Mourir pour des idées c'est moche c'est que du RAP Moi j'ai faillis canner résume chaque couplets Sans avoir préparer d'sortir une droite Que tu tombes c'est meilleur à visionner En hurlant à la mort en sang les cotes Spartiates Mourir pour des idées, l'idée est excellente Moi j'ai failli mourir de ne n'avoir pas eu Car tout ce qu'il a fait multitude accablante En hurlant à la mort ils sont tombés dessus De toute manière je pense qu'il serait bien dommage D'essayer d'avoir pitié pour eux Même quand il fait beau ils désirent l'orage A me demander s'ils sont vraiment sérieux Mourir pour des idées leurs faires bouffés mes pages Toujours content à me voir furieux On RAP vandale avec un gros lettrage Monter les rideaux je vous ai graphé le lieu Regardé ma fresque et son paysage Une sorte de voyage, Mesdames et messieurs Nouvelle Poésie l'idée est excellente A la recherche d'un thème, un boulon merveilleux Mourir pour des idées et pour une phrase brûlante Trouver les mots qui nous rendent si joyeux Les grandes gueules vivent leurs langues vivantes En hurlant à la mort de chaque jours faire mieux</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>J'ai des rêves de grandeur autour du poignet ça sera Big Ben Survivre en Seine-Saint-Denis deviendra une épreuve des X-Games Pour eux tous les étés c'est plage de Koh-Lanta et grosse Benz Pour toi c'est pas pareil, c'est plutôt Pôle Emploi et Pole Dance La prose fait mal, mon rap t'a injecté sa dose léthale Faut qu'tu déposes les armes et qu'tu bouges ton boule comme une grosse pédale Mon rap des fois est sombre, lunatique, étrange et cérébral D'autres fois il est con suce ma bite et mange tes céréales Avec Demi-Portion c'est tutti frutti no limit Plutôt pension complète et juicy pussy money weed Les jolies filles et les faux MC se protègent l'orifice J'mords ton tympan ça va saigner comme Evander Holyfield Plus besoin d't'accroupir, maintenant ils peuvent te la mettre debout Tu veux des blagues racistes, va dans le club de Jamel Debbouze Alors on inverse les courbes sur cette planète de fou Averse de sous si tu bicraves du seum en barrettes de douze J'apparais comme un mirage, j'disparais sans qu'on n'me voit Swift Guad et Demi-Portion, ça sent la sanction ce soir Pas tout l'monde contre moi, nan c'est pas blancs contre renois J'fais mentir le diction Y a qu'les montagnes qui s'rencontrent pas Dire qu'à l'Eurovision toutes ces vapeurs ça brouille la vue Après la femme à barbe j'attends l'rappeur à couilles poilues Je tourne en rond je plane, tu peux m'jetter l'frisbee Si tu vis d'amour et d'eau fraîche, je vis de haine et d'whisky You might also like Dis-moi d'où tu viens, toi, quand la passion déboule et s'installe Stop dis pas que le monde est cool, y a plein d'génies qui n'ont pas de tours Gare à ces gars qui sont stériles, ceux qui veulent raffiner ma prose J'ai bicarbonate, caféine, j'ai lidocaïne et lactose Stop dis pas que le monde est fou, parlez-moi de l'humain c'est tout Stop dis pas que le monde est fou, parle-moi de l'humain c'est tout Poser ma voix sur SSL, la survie ou la soumission Aujourd'hui j'suis sur MSN, la Mort Subite du Nourrisson Alors Swift, pas d'souci, j'aime ça c'est certain The Artist, allez présentez-moi Dujardin En hors piste, pas d'thème, ce son est pour mon public Merci pour votre tenue, moi qui suis timide et pudique Rachid, on m'a dit continue si ça s'complique Tranquille, et c'est tout c'qu'il retiennent d'un sudiste Un accent, non, ça suffit pas, sûrement trop insuffisant On a tous un pote ou voir un autre qui avait deux visages L'apparence devient trop bizarre, oh, v'là l'image Foncer c'est trop facile donc j'me suis interressé aux limaces Léonidas, mais sans la carrure de Rambo J'n'ai jamais voulu monter, c'est pas mon truc la rando Pas d'repos, han, ma seule forme d'autorité Quand on a trop d'caractère, est-ce qu'on se doit de l'tweeter ? Nouvel album dans les bacs, sorti en indépendant Je porte la voix de tout le monde, des passionnés depuis longtemps Dis-moi d'où tu viens, toi, quand la passion déboule et s'installe Stop dis pas que le monde est cool, y a plein d'génies qui n'ont pas de tours Gare à ces gars qui sont stériles, ceux qui veulent raffiner ma prose J'ai bicarbonate, caféine, j'ai lidocaïne et lactose Stop dis pas que le monde est fou, parlez-moi de l'humain c'est tout Stop dis pas que le monde est fou, parle-moi de l'humain c'est tout Poser ma voix sur SSL, la survie ou la soumission Aujourd'hui j'suis sur MSN, la Mort Subite du Nourrisson</t>
+          <t>J'ai des rêves de grandeur autour du poignet ça sera Big Ben Survivre en Seine-Saint-Denis deviendra une épreuve des X-Games Pour eux tous les étés c'est plage de Koh-Lanta et grosse Benz Pour toi c'est pas pareil, c'est plutôt Pôle Emploi et Pole Dance La prose fait mal, mon rap t'a injecté sa dose léthale Faut qu'tu déposes les armes et qu'tu bouges ton boule comme une grosse pédale Mon rap des fois est sombre, lunatique, étrange et cérébral D'autres fois il est con suce ma bite et mange tes céréales Avec Demi-Portion c'est tutti frutti no limit Plutôt pension complète et juicy pussy money weed Les jolies filles et les faux MC se protègent l'orifice J'mords ton tympan ça va saigner comme Evander Holyfield Plus besoin d't'accroupir, maintenant ils peuvent te la mettre debout Tu veux des blagues racistes, va dans le club de Jamel Debbouze Alors on inverse les courbes sur cette planète de fou Averse de sous si tu bicraves du seum en barrettes de douze J'apparais comme un mirage, j'disparais sans qu'on n'me voit Swift Guad et Demi-Portion, ça sent la sanction ce soir Pas tout l'monde contre moi, nan c'est pas blancs contre renois J'fais mentir le diction Y a qu'les montagnes qui s'rencontrent pas Dire qu'à l'Eurovision toutes ces vapeurs ça brouille la vue Après la femme à barbe j'attends l'rappeur à couilles poilues Je tourne en rond je plane, tu peux m'jetter l'frisbee Si tu vis d'amour et d'eau fraîche, je vis de haine et d'whisky Dis-moi d'où tu viens, toi, quand la passion déboule et s'installe Stop dis pas que le monde est cool, y a plein d'génies qui n'ont pas de tours Gare à ces gars qui sont stériles, ceux qui veulent raffiner ma prose J'ai bicarbonate, caféine, j'ai lidocaïne et lactose Stop dis pas que le monde est fou, parlez-moi de l'humain c'est tout Stop dis pas que le monde est fou, parle-moi de l'humain c'est tout Poser ma voix sur SSL, la survie ou la soumission Aujourd'hui j'suis sur MSN, la Mort Subite du Nourrisson Alors Swift, pas d'souci, j'aime ça c'est certain The Artist, allez présentez-moi Dujardin En hors piste, pas d'thème, ce son est pour mon public Merci pour votre tenue, moi qui suis timide et pudique Rachid, on m'a dit continue si ça s'complique Tranquille, et c'est tout c'qu'il retiennent d'un sudiste Un accent, non, ça suffit pas, sûrement trop insuffisant On a tous un pote ou voir un autre qui avait deux visages L'apparence devient trop bizarre, oh, v'là l'image Foncer c'est trop facile donc j'me suis interressé aux limaces Léonidas, mais sans la carrure de Rambo J'n'ai jamais voulu monter, c'est pas mon truc la rando Pas d'repos, han, ma seule forme d'autorité Quand on a trop d'caractère, est-ce qu'on se doit de l'tweeter ? Nouvel album dans les bacs, sorti en indépendant Je porte la voix de tout le monde, des passionnés depuis longtemps Dis-moi d'où tu viens, toi, quand la passion déboule et s'installe Stop dis pas que le monde est cool, y a plein d'génies qui n'ont pas de tours Gare à ces gars qui sont stériles, ceux qui veulent raffiner ma prose J'ai bicarbonate, caféine, j'ai lidocaïne et lactose Stop dis pas que le monde est fou, parlez-moi de l'humain c'est tout Stop dis pas que le monde est fou, parle-moi de l'humain c'est tout Poser ma voix sur SSL, la survie ou la soumission Aujourd'hui j'suis sur MSN, la Mort Subite du Nourrisson</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Le beat est même pas parti que tu hoches la tête La route est longue et un plaisir de la faire en claquettes T'inquiètes, enfin prêt comme si je portais mille palettes Texte vertigineux à te provoquer un malaise Le rap n'est pas un rêve, mais tout le monde peut le faire quand même Chacun ses goûts, comme ses couilles ou son oreille Toi tu crois que t'as des boules, mais tu les vois qu'au Loto Tu pues, pour t'en sortir t'as pressé tous les boutons Tester tous les guidons, t'avais pas d'autre choix T'es monté haut ? Tu va redescendre ... ce n'est qu'une balançoire Tout ce qu'on recherche, en soi, faire du bien, c'est dur Ce que tu nous montres à chaque fois n'est qu'une mauvaise habitude Arrête de parler de street, à croire que tu marches pieds nus Mon rap est sincère, sans trop d'idées farfelues Non t'es pas le bienvenu, je pense qu'on t'a prévenu T'es new school, génial, je te mets 10 ans d'retenue Là, j'extériorise sur feuille avec une bonne basse Un beat sur lequel je me place, et je temporise Chez nous ça rappe, qu'il fasse beau ou un temps pourri Rien à foutre sachant que c'est nous la vraie intempérie Dans ce mouvement masqué par la tromperie On vient marquer des points là où trop ont péri Les Grandes Gueules, véritable époque junkie Du fait qu'on soit des jeunes qui claquent plus de 30 feuilles Je te jure, des fois j'effraie d'élégantes girls Qui voyait derrière ma figure un enfant d'choeur Désolé miss, je suis comme ça et je peux pas plaire Les préjugés ... en v'là un sujet qui me pompe l'air Dites que je suis pas clair quand je dis que je reste un Beur Celui qui taffe en indé, précisément dans l'under' Le bruit et l'odeur, éreinté j'y traîne ma poire Et laisse-moi croire qu'je n'suis pas qu'un vrai rôdeur You might also like Moi peur des vôtres ? Cur de pierre, prêt à vendre père, mère Il veulent taillader ce que j'ai coeur d'émeraude Comme le diamant brut j'ai rarement vu payer le talent pur Rubis sur ongle j'ai déjà buté dans ma life Rien de méchant deux-trois mic', quelques potes au paintball Mes veuch' au pento puis pour ton bien culbuter ta wife Toi qui te plaignais des demi-rôles, v'là la réplique à De Niro Ce n'est jamais que de l'égotrip imaginaire Je révise mes fondamentaux, ferme ta gueule Si je veux je te fais faire marche arrière Mon échappatoire quand je sers de vache à lait Huit mois sur douze à grosses mamelles Bats-toi ou c'est l'abattoir, sinon tu feras de la brosse à merde Je vis borderline, ordonné de mon bordel À la limite du hors-délai, mort de rire du bord des lèvres Discret, laissez-moi niquer la vie dans les temps morts Quelques regrets sans remords, j'ai le sang chaud mais je fais le mort Il serait peut-être temps de prendre mon avenir crasseux Par les dreads shampooing et coup de pression Non loin, j'entends les doutes présents Et mon entourage me demande des dates précises J'ai l'impression de devenir agressif J'ai l'humeur changeante et mon visage boudine Je nique les bavards, j'essaye plus d'être fêtard Je vide ton breuvage et j'insinue le futur Je t'avoue que je comprends rien, les questions m'assaillent Je vois le champ de bataille et faut pas que je tombe en chemin Solide sur les gambettes comme disent les compagnons On sait ce qui compte après une bonne omelette de champignons J'ai quelques regrets, les portes de la perception M'ont montré que mes potes pouvaient être les pires absents Mais je me laisse aller, parce que je pense que Si je veux être quelqu'un dans le fond, faut pas calculer la fin J'ai le bagout, la gueule, donc ça le fait Des salles pleines de sales fous m'accueillent Plus le time d'être gentil, L'Animalerie crew de barges Élégante Team, Kalam, Bavoog Avers, Sultan pour les intimes J'ai la coupe d'Action Man en tout schuss à l'instar de Schumacher Je pète la dalle, rouya je meurs De faim, rêve d'un 'dwich buf, salade, gouda, beurre De tartes à la banane rhubarbe des Antilles D'un coup d'un seul, j'évite les soirées arty Plein de chnouf XXX Pures phases que j'estampille Même ligne de conduite jusqu'à ce que je reste sans vie Ma face sous linceul Je ne fais que potasser pour payer l'ISF Les pots cassés, l'Urssaf et les centimes Mais je n'ai que pull crade et veste en jean, sous le futal Sous-vêtement Dim le truc large où elle s'empile Wesh les cocos ! Qu'est-ce ça dit de la ville ? L-Y en jette Tu penseras donc à pas en prendre cette foutue street à temps en rép? Sois fort lorsque l'horloge réveillera un zombie Et puis comment, sa faune est pleine et revigorante L'opéra danse, même les bimbos de Nantes? Une délivrance quand le beat te prend Pacifique seulement quand l'alcool s'absente L'Animalerie, Bavoog Avers, Demi Portion Un pic mon gros, impecc', pas de quiproquo Mais je te dis j'suis chaud patate, à foutre l'ambiance C'est clair quand je déblat' Tu penses bien qu'y a pas besoin de bandana, ça calme Mais bon-sang qu'il est déter ! J'fais juste le taf correctement S'arrête, choquant mais je fais pas bande à part, ouais ! Vas-y Jimbolo mais fais gaffe à toi Vivre d'amour c'est donner plus aux autres, implacable Attention j'enclenche la grenade, j'arrive avec mes camarades Et je suis chaud comme un gars rongé par sa nana Je suis de bien bon goût, le roi du bubblegum Qu'on trouve une baby birl à Kalam Bieber glue Opération de déstockage sur mon talent Avant d'ouvrir un fromager et un hôtel en Italie On repart dès qu'on peut ... tu ne sais pas rapper ? Pour un rappeur n'est-ce pas handicapant n'est-ce pas ? J'écoute les autres et je n'entends rien que des copies Ramène tes copains, je t'envoie Woogie Eddy Kaplan Hum... j'ai pris du galon Pas de brebis galeuses dans le Bavoogaland Le compte-chèque bien garni comme un Chuck Bass Si tchuchi? pète le jackpot jackpot Je rêvais bras ballants, sur la rue j'aboulais Quand soudain déboula Jimbolo Tu seras espoir à vie comme Archavine BVGV, Grandes Gueules, L'Animalerie, au Marché Gare2</t>
+          <t>Le beat est même pas parti que tu hoches la tête La route est longue et un plaisir de la faire en claquettes T'inquiètes, enfin prêt comme si je portais mille palettes Texte vertigineux à te provoquer un malaise Le rap n'est pas un rêve, mais tout le monde peut le faire quand même Chacun ses goûts, comme ses couilles ou son oreille Toi tu crois que t'as des boules, mais tu les vois qu'au Loto Tu pues, pour t'en sortir t'as pressé tous les boutons Tester tous les guidons, t'avais pas d'autre choix T'es monté haut ? Tu va redescendre ... ce n'est qu'une balançoire Tout ce qu'on recherche, en soi, faire du bien, c'est dur Ce que tu nous montres à chaque fois n'est qu'une mauvaise habitude Arrête de parler de street, à croire que tu marches pieds nus Mon rap est sincère, sans trop d'idées farfelues Non t'es pas le bienvenu, je pense qu'on t'a prévenu T'es new school, génial, je te mets 10 ans d'retenue Là, j'extériorise sur feuille avec une bonne basse Un beat sur lequel je me place, et je temporise Chez nous ça rappe, qu'il fasse beau ou un temps pourri Rien à foutre sachant que c'est nous la vraie intempérie Dans ce mouvement masqué par la tromperie On vient marquer des points là où trop ont péri Les Grandes Gueules, véritable époque junkie Du fait qu'on soit des jeunes qui claquent plus de 30 feuilles Je te jure, des fois j'effraie d'élégantes girls Qui voyait derrière ma figure un enfant d'choeur Désolé miss, je suis comme ça et je peux pas plaire Les préjugés ... en v'là un sujet qui me pompe l'air Dites que je suis pas clair quand je dis que je reste un Beur Celui qui taffe en indé, précisément dans l'under' Le bruit et l'odeur, éreinté j'y traîne ma poire Et laisse-moi croire qu'je n'suis pas qu'un vrai rôdeur Moi peur des vôtres ? Cur de pierre, prêt à vendre père, mère Il veulent taillader ce que j'ai coeur d'émeraude Comme le diamant brut j'ai rarement vu payer le talent pur Rubis sur ongle j'ai déjà buté dans ma life Rien de méchant deux-trois mic', quelques potes au paintball Mes veuch' au pento puis pour ton bien culbuter ta wife Toi qui te plaignais des demi-rôles, v'là la réplique à De Niro Ce n'est jamais que de l'égotrip imaginaire Je révise mes fondamentaux, ferme ta gueule Si je veux je te fais faire marche arrière Mon échappatoire quand je sers de vache à lait Huit mois sur douze à grosses mamelles Bats-toi ou c'est l'abattoir, sinon tu feras de la brosse à merde Je vis borderline, ordonné de mon bordel À la limite du hors-délai, mort de rire du bord des lèvres Discret, laissez-moi niquer la vie dans les temps morts Quelques regrets sans remords, j'ai le sang chaud mais je fais le mort Il serait peut-être temps de prendre mon avenir crasseux Par les dreads shampooing et coup de pression Non loin, j'entends les doutes présents Et mon entourage me demande des dates précises J'ai l'impression de devenir agressif J'ai l'humeur changeante et mon visage boudine Je nique les bavards, j'essaye plus d'être fêtard Je vide ton breuvage et j'insinue le futur Je t'avoue que je comprends rien, les questions m'assaillent Je vois le champ de bataille et faut pas que je tombe en chemin Solide sur les gambettes comme disent les compagnons On sait ce qui compte après une bonne omelette de champignons J'ai quelques regrets, les portes de la perception M'ont montré que mes potes pouvaient être les pires absents Mais je me laisse aller, parce que je pense que Si je veux être quelqu'un dans le fond, faut pas calculer la fin J'ai le bagout, la gueule, donc ça le fait Des salles pleines de sales fous m'accueillent Plus le time d'être gentil, L'Animalerie crew de barges Élégante Team, Kalam, Bavoog Avers, Sultan pour les intimes J'ai la coupe d'Action Man en tout schuss à l'instar de Schumacher Je pète la dalle, rouya je meurs De faim, rêve d'un 'dwich buf, salade, gouda, beurre De tartes à la banane rhubarbe des Antilles D'un coup d'un seul, j'évite les soirées arty Plein de chnouf XXX Pures phases que j'estampille Même ligne de conduite jusqu'à ce que je reste sans vie Ma face sous linceul Je ne fais que potasser pour payer l'ISF Les pots cassés, l'Urssaf et les centimes Mais je n'ai que pull crade et veste en jean, sous le futal Sous-vêtement Dim le truc large où elle s'empile Wesh les cocos ! Qu'est-ce ça dit de la ville ? L-Y en jette Tu penseras donc à pas en prendre cette foutue street à temps en rép? Sois fort lorsque l'horloge réveillera un zombie Et puis comment, sa faune est pleine et revigorante L'opéra danse, même les bimbos de Nantes? Une délivrance quand le beat te prend Pacifique seulement quand l'alcool s'absente L'Animalerie, Bavoog Avers, Demi Portion Un pic mon gros, impecc', pas de quiproquo Mais je te dis j'suis chaud patate, à foutre l'ambiance C'est clair quand je déblat' Tu penses bien qu'y a pas besoin de bandana, ça calme Mais bon-sang qu'il est déter ! J'fais juste le taf correctement S'arrête, choquant mais je fais pas bande à part, ouais ! Vas-y Jimbolo mais fais gaffe à toi Vivre d'amour c'est donner plus aux autres, implacable Attention j'enclenche la grenade, j'arrive avec mes camarades Et je suis chaud comme un gars rongé par sa nana Je suis de bien bon goût, le roi du bubblegum Qu'on trouve une baby birl à Kalam Bieber glue Opération de déstockage sur mon talent Avant d'ouvrir un fromager et un hôtel en Italie On repart dès qu'on peut ... tu ne sais pas rapper ? Pour un rappeur n'est-ce pas handicapant n'est-ce pas ? J'écoute les autres et je n'entends rien que des copies Ramène tes copains, je t'envoie Woogie Eddy Kaplan Hum... j'ai pris du galon Pas de brebis galeuses dans le Bavoogaland Le compte-chèque bien garni comme un Chuck Bass Si tchuchi? pète le jackpot jackpot Je rêvais bras ballants, sur la rue j'aboulais Quand soudain déboula Jimbolo Tu seras espoir à vie comme Archavine BVGV, Grandes Gueules, L'Animalerie, au Marché Gare2</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Yo, on a la rime qui brûle alors on y go Entouré de gringos, mon flow a cet effet bingo Demi c'est passe-passe, en dessous de la cascade Oui petit, mais costaud, pousse-toi ah tu ne passes pas Tu m'connais par coeur, je n'apparaîs qu'en freestyle Mon flow revient cette année, stop, on fait escale La tête sur les épaules, hip-hop et la bonne école Porteur de la bonne parole, car trop de colère chez l'homme hein Nos frères tombent tombent, de Paris au Dom Tom Comment donner l'espoir dans ma rime en sens propre Quand tout le monde crie non-stop, y'a personne qui bouge Quand tout le monde crie famine, y'a plus aucune bouche J'ai de la rage pour vous, pour nous, donc j'écris Et l'espoir ici bas m'a dit Rachid vas y brille On se cramponne à la musique et ses valeurs qui s'en suivent On changera jamais le monde, cousin, juste avec des si Oui oui On ne lâchera pas l'affaire, on ne lâchera pas l'affaire On ne lâchera pas l'affaire man, noyés dans une machine infernale Dis leur, on ne lâchera pas l'affaire, on ne lâchera pas l'affaire On ne lâchera pas l'affaire man, noyés dans une machine infernale You might also like Ouais j'ai du mal à dire les choses vu que tout le monde s'en tape Allez montez les neveux, ouais, j'ai chargé la 504 La route est longues mais le principal c'est de regarder les paysages Avec du blanc et du noir on a créé le métissage Parler bien, faut que tu le saches, ça fait partie de mes racines Ça fait partie de mon passé, car ça aussi c'est un classique c'est être droit entre les bras d'énergumènes L'évolution nous cache aussi ouais toute la bêtise humaine On devant la reine et devant tous ces rois qui tiennent le monde On sait bien que lumière elle fait plaisir aussi à l'ombre Non ne me parlez plus de l'homme on sait que la merde elle vaut de l'or Tout ce qui pue se vend cher et ce qui sent bon on le met dehors Nos frères tombent tombent, de Paris au Dom Tom Comment donner l'espoir dans ma rime en sens propre Non, on va pas viser la lune, tu reviendras quand tu seras mort D'accord ? Garde le cap, perds pas le nord On ne lâchera pas l'affaire Pour ceux que j'aime On ne lâchera pas l'affaire Pour ceux qui m'aiment cousin On ne lâchera pas l'affaire non Comme d'hab Noyés dans une machine infernale C'est ça Dis leur, on ne lâchera pas l'affaire Demi portion On ne lâchera pas l'affaire Jamais On ne lâchera pas l'affaire man Noyés dans une machine infernale Wow.. Merci Tricks, merci Sheemi, Sprinter, merci l'équipe pour la prod de ouf, wow C'est un bordel, une machine infernale Rachid 2.0 ce que tu veux Ça vient 77 Toujours on lâche pas l'affaire</t>
+          <t>Yo, on a la rime qui brûle alors on y go Entouré de gringos, mon flow a cet effet bingo Demi c'est passe-passe, en dessous de la cascade Oui petit, mais costaud, pousse-toi ah tu ne passes pas Tu m'connais par coeur, je n'apparaîs qu'en freestyle Mon flow revient cette année, stop, on fait escale La tête sur les épaules, hip-hop et la bonne école Porteur de la bonne parole, car trop de colère chez l'homme hein Nos frères tombent tombent, de Paris au Dom Tom Comment donner l'espoir dans ma rime en sens propre Quand tout le monde crie non-stop, y'a personne qui bouge Quand tout le monde crie famine, y'a plus aucune bouche J'ai de la rage pour vous, pour nous, donc j'écris Et l'espoir ici bas m'a dit Rachid vas y brille On se cramponne à la musique et ses valeurs qui s'en suivent On changera jamais le monde, cousin, juste avec des si Oui oui On ne lâchera pas l'affaire, on ne lâchera pas l'affaire On ne lâchera pas l'affaire man, noyés dans une machine infernale Dis leur, on ne lâchera pas l'affaire, on ne lâchera pas l'affaire On ne lâchera pas l'affaire man, noyés dans une machine infernale Ouais j'ai du mal à dire les choses vu que tout le monde s'en tape Allez montez les neveux, ouais, j'ai chargé la 504 La route est longues mais le principal c'est de regarder les paysages Avec du blanc et du noir on a créé le métissage Parler bien, faut que tu le saches, ça fait partie de mes racines Ça fait partie de mon passé, car ça aussi c'est un classique c'est être droit entre les bras d'énergumènes L'évolution nous cache aussi ouais toute la bêtise humaine On devant la reine et devant tous ces rois qui tiennent le monde On sait bien que lumière elle fait plaisir aussi à l'ombre Non ne me parlez plus de l'homme on sait que la merde elle vaut de l'or Tout ce qui pue se vend cher et ce qui sent bon on le met dehors Nos frères tombent tombent, de Paris au Dom Tom Comment donner l'espoir dans ma rime en sens propre Non, on va pas viser la lune, tu reviendras quand tu seras mort D'accord ? Garde le cap, perds pas le nord On ne lâchera pas l'affaire Pour ceux que j'aime On ne lâchera pas l'affaire Pour ceux qui m'aiment cousin On ne lâchera pas l'affaire non Comme d'hab Noyés dans une machine infernale C'est ça Dis leur, on ne lâchera pas l'affaire Demi portion On ne lâchera pas l'affaire Jamais On ne lâchera pas l'affaire man Noyés dans une machine infernale Wow.. Merci Tricks, merci Sheemi, Sprinter, merci l'équipe pour la prod de ouf, wow C'est un bordel, une machine infernale Rachid 2.0 ce que tu veux Ça vient 77 Toujours on lâche pas l'affaire</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Chacune d'mes traces est machiavélique On dit qu'mon flow est mélancolique La prod' est signée En'Zoo, t'as ressenti l'truc d'Amérique ? Y'a des lignes, t'as des rimes, et si t'es hip-hop t'es partant Si t'as fini, rembobine et reçois mon son comme partage Qu'on s'attache et qu'on placarde De nuit ou sous une lampe Si j't'ai éclairé sur l'sujet, pourquoi on s'amuse mieux en Hollande ? Ça taffe depuis un moment C'est tout c'qu'on veut retransmettre Notre rap n'a pas d'visage, c'est tout c'qui fait sa beauté Excusez-nous d'être honnêtes, d'aimer l'hip-hop à la lettre Pour moi un bon son d'Big L c'est mieux qu'les filles d'à coté J'ai trop d'choses à noter, demande à R.Can J'suis de Sète jusqu'à Perpi', et ceux qui m'traduisent en Espagne Gueuler ou me taire, parler ou mentir Le stylo Bic d'Harry Potter, pas une magie pour rebondir Un album que j'm'enterre, j'viens d'loin comment vous dire Et que Dieu m'en soit témoin, j'n'ai pas d'maille pour les coquines J'n'ai pas l'temps je le confirme Si tu n'm'aimes pas je fais avec J'parle français, ma consigne sans la CB de Ben Affleck Sans l'CV de ceux qui grimpent, qu'on retrouve une fois en-bas Pendant qu't'étais dans tes studios, ben ton père s'tuait au taf Inutile d'chercher une dame, d'après la reine tu ne comptes pas Fais l'calcul ça n'aide plus d'avoir un BEP compta' Ça sert à quoi de rester stable, souriant voire amical ? À force de regarder les gens, j'comprends tes douleurs cervicales You might also like Ne t'inquiète pas on est tous pareils Toi qui vit autre part écoute, my man Je crois que l'écriture et la musique t'amènent Voir que chacun d'entre nous a un p'tit problème Woho Oh mon Dieu qu'elle nous a fait progressé Big up à ceux qui nous ont lâchés, qui n'ont connu que la période d'essai On est dedans depuis le début, sans notice, très impliqués Tu peux courir avant qu'mes valeurs ne se pervertissent J'zappe ceux qui trahissent, j'regarde ceux qui sourient J'suis comme un gamin quand Dee Nasty fait mon warm-up à Paris Alors non merci si mon rap n'est pas porteur de message S'il n'est pas une bouée dans l'aquarium où le Monde nage S'il n'est pas une perche tendue vers un avenir optimiste Secouez-moi si un jour il perd sa flamme militantiste Hip-hop jusqu'à l'amour comme Nabil Zéroual Le plus important c'est le chemin, pas d'atteindre l'étoile Intègre et sans aucun problème existentiel Bien sûr que l'rap c'était mieux avant, et ça c'est officiel J'parle de valeurs, de message, pas d'instrumentale Mais d'ceux qui sont dessus et te saoulent en faisant l'apologie du mal Avec le temps tu t'rendras compte qu'ils ne sont même pas fiables Ils ignorent tant d'choses, ils connaissent même pas Fabe Nous on est chauds, opé sans la te-car d'Affleck Ben Avec l'envie d'offrir à nos proches ce que vise Amel Bent Voilà ce qu'on défend, la façon dont on l'imagine Rachid, j'comprends qu'tu n'veuilles pas d'pâtes dans ton tajine Les fondations feront la tenue de tes entreprises Le but n'est pas qu'elles soient bancales comme celle érigé à Pise Ne t'inquiète pas on est tous pareils Toi qui vit autre part écoute, my man Je crois que l'écriture et la musique t'amènent Voir que chacun d'entre nous a un p'tit problème Woho</t>
+          <t>Chacune d'mes traces est machiavélique On dit qu'mon flow est mélancolique La prod' est signée En'Zoo, t'as ressenti l'truc d'Amérique ? Y'a des lignes, t'as des rimes, et si t'es hip-hop t'es partant Si t'as fini, rembobine et reçois mon son comme partage Qu'on s'attache et qu'on placarde De nuit ou sous une lampe Si j't'ai éclairé sur l'sujet, pourquoi on s'amuse mieux en Hollande ? Ça taffe depuis un moment C'est tout c'qu'on veut retransmettre Notre rap n'a pas d'visage, c'est tout c'qui fait sa beauté Excusez-nous d'être honnêtes, d'aimer l'hip-hop à la lettre Pour moi un bon son d'Big L c'est mieux qu'les filles d'à coté J'ai trop d'choses à noter, demande à R.Can J'suis de Sète jusqu'à Perpi', et ceux qui m'traduisent en Espagne Gueuler ou me taire, parler ou mentir Le stylo Bic d'Harry Potter, pas une magie pour rebondir Un album que j'm'enterre, j'viens d'loin comment vous dire Et que Dieu m'en soit témoin, j'n'ai pas d'maille pour les coquines J'n'ai pas l'temps je le confirme Si tu n'm'aimes pas je fais avec J'parle français, ma consigne sans la CB de Ben Affleck Sans l'CV de ceux qui grimpent, qu'on retrouve une fois en-bas Pendant qu't'étais dans tes studios, ben ton père s'tuait au taf Inutile d'chercher une dame, d'après la reine tu ne comptes pas Fais l'calcul ça n'aide plus d'avoir un BEP compta' Ça sert à quoi de rester stable, souriant voire amical ? À force de regarder les gens, j'comprends tes douleurs cervicales Ne t'inquiète pas on est tous pareils Toi qui vit autre part écoute, my man Je crois que l'écriture et la musique t'amènent Voir que chacun d'entre nous a un p'tit problème Woho Oh mon Dieu qu'elle nous a fait progressé Big up à ceux qui nous ont lâchés, qui n'ont connu que la période d'essai On est dedans depuis le début, sans notice, très impliqués Tu peux courir avant qu'mes valeurs ne se pervertissent J'zappe ceux qui trahissent, j'regarde ceux qui sourient J'suis comme un gamin quand Dee Nasty fait mon warm-up à Paris Alors non merci si mon rap n'est pas porteur de message S'il n'est pas une bouée dans l'aquarium où le Monde nage S'il n'est pas une perche tendue vers un avenir optimiste Secouez-moi si un jour il perd sa flamme militantiste Hip-hop jusqu'à l'amour comme Nabil Zéroual Le plus important c'est le chemin, pas d'atteindre l'étoile Intègre et sans aucun problème existentiel Bien sûr que l'rap c'était mieux avant, et ça c'est officiel J'parle de valeurs, de message, pas d'instrumentale Mais d'ceux qui sont dessus et te saoulent en faisant l'apologie du mal Avec le temps tu t'rendras compte qu'ils ne sont même pas fiables Ils ignorent tant d'choses, ils connaissent même pas Fabe Nous on est chauds, opé sans la te-car d'Affleck Ben Avec l'envie d'offrir à nos proches ce que vise Amel Bent Voilà ce qu'on défend, la façon dont on l'imagine Rachid, j'comprends qu'tu n'veuilles pas d'pâtes dans ton tajine Les fondations feront la tenue de tes entreprises Le but n'est pas qu'elles soient bancales comme celle érigé à Pise Ne t'inquiète pas on est tous pareils Toi qui vit autre part écoute, my man Je crois que l'écriture et la musique t'amènent Voir que chacun d'entre nous a un p'tit problème Woho</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Skizo beat got that Mulla Oh boy! Khouya, ara garou, ca vient de Maroc Demi, Moro, f'tomobila à la mille au mazout 3mmer atay, wach a l'blade ? C'est pour nos surs, c'est pour nos frères, merci le team Khmissat jusqu'à Sète, on est dangereux sur cassette La famille est impeccable, on arrive en CB4 Crame la Belgia, de Sète a Mohammedia Oui, oui, oui, tu connais l'9adiya Rajaoui 3mmer kass, on est bien dans la pièce Que de la frappe proches de Meknès Dmi débité, envoie la weed Wa samaoui, Allah idawi Qu'est c qu'on est bien serre un Berrad, wa Samaoui, Allah idawi J'finis sur ça, vive le Bled Comme Snoop Dogg, envoie la weed You might also like Moro, Moro, Moro, Moro 7na ninja machi Zoro 3araba fel ghetto, Marco Polo Vaffanculo, kandwiw bel 3arbiya wel Euro Qu'est ce qu'on est bien serre un Berrad On finis sur ça, vive le Bled Qu'est ce qu'on est bien serre un Berrad On finis sur ça, vive le Bled Qu'est ce qu'on est bien serre un Berrad On finis sur ça, vive le Bled Qu'est ce qu'on est bien serre un Berrad Wesh a Casa, wesh a l'Bled Ara garou, jib wri9a, s7ab l'baroud S7ab l'ghetto, machi fennan, s7ab l'ballon M.O.R.O, Demi P, l'morale tale3 Olympique Rap marocci 7abibi, wach a ryafa d' Molembek Kanbghi ngol kan3el chitan, kanssawb chi jwan kanzid chi taf Kan3mer rass kanjer ssitar, f'rassi z7am b7al chi sbitar Tal Casa Sète men'ha départ, 7attina l'cali ra kolchi tar Khallina peace w b9a f'2itar, ghan che3lo l3afya wa jib guitar Ana Casa nta fin saken?, me7rougin ki Volswagen Jwan m'dosé, Moro twajen Ndir escale f'Khmiss Issaguen Ara garou!, ch7al sa3a, jouj laroub Jaw l'Maroc, khayo darori, daw l'barouk Moro, Moro, Moro, Moro 7na ninja machi Zoro 3araba fel ghetto, Marco Polo Vaffanculo, kandwiw bel 3arbiya wel Euro Qu'est ce qu'on est bien serre un Berrad On finis sur ça, vive le Bled Qu'est ce qu'on est bien serre un Berrad On finis sur ça, vive le Bled Qu'est ce qu'on est bien serre un Berrad On finis sur ça, vive le Bled Qu'est ce qu'on est bien serre un Berrad Wesh a Casa, wesh a l'Bled</t>
+          <t>Skizo beat got that Mulla Oh boy! Khouya, ara garou, ca vient de Maroc Demi, Moro, f'tomobila à la mille au mazout 3mmer atay, wach a l'blade ? C'est pour nos surs, c'est pour nos frères, merci le team Khmissat jusqu'à Sète, on est dangereux sur cassette La famille est impeccable, on arrive en CB4 Crame la Belgia, de Sète a Mohammedia Oui, oui, oui, tu connais l'9adiya Rajaoui 3mmer kass, on est bien dans la pièce Que de la frappe proches de Meknès Dmi débité, envoie la weed Wa samaoui, Allah idawi Qu'est c qu'on est bien serre un Berrad, wa Samaoui, Allah idawi J'finis sur ça, vive le Bled Comme Snoop Dogg, envoie la weed Moro, Moro, Moro, Moro 7na ninja machi Zoro 3araba fel ghetto, Marco Polo Vaffanculo, kandwiw bel 3arbiya wel Euro Qu'est ce qu'on est bien serre un Berrad On finis sur ça, vive le Bled Qu'est ce qu'on est bien serre un Berrad On finis sur ça, vive le Bled Qu'est ce qu'on est bien serre un Berrad On finis sur ça, vive le Bled Qu'est ce qu'on est bien serre un Berrad Wesh a Casa, wesh a l'Bled Ara garou, jib wri9a, s7ab l'baroud S7ab l'ghetto, machi fennan, s7ab l'ballon M.O.R.O, Demi P, l'morale tale3 Olympique Rap marocci 7abibi, wach a ryafa d' Molembek Kanbghi ngol kan3el chitan, kanssawb chi jwan kanzid chi taf Kan3mer rass kanjer ssitar, f'rassi z7am b7al chi sbitar Tal Casa Sète men'ha départ, 7attina l'cali ra kolchi tar Khallina peace w b9a f'2itar, ghan che3lo l3afya wa jib guitar Ana Casa nta fin saken?, me7rougin ki Volswagen Jwan m'dosé, Moro twajen Ndir escale f'Khmiss Issaguen Ara garou!, ch7al sa3a, jouj laroub Jaw l'Maroc, khayo darori, daw l'barouk Moro, Moro, Moro, Moro 7na ninja machi Zoro 3araba fel ghetto, Marco Polo Vaffanculo, kandwiw bel 3arbiya wel Euro Qu'est ce qu'on est bien serre un Berrad On finis sur ça, vive le Bled Qu'est ce qu'on est bien serre un Berrad On finis sur ça, vive le Bled Qu'est ce qu'on est bien serre un Berrad On finis sur ça, vive le Bled Qu'est ce qu'on est bien serre un Berrad Wesh a Casa, wesh a l'Bled</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Nouvelle note et nouvelle prise sur une belle instrumentale Oublier que la route est longue, périlleuse vu les montagnes Qui a voulu qu'on se taille? Nan, nan On ne peut pas plaire à tout le monde, mais juste à Dieu qui m'accompagne De quoi tu me parles ? J'vois que l'avenir nous rassure pas La plupart quittent les cours et préfèrent découper 100 grammes Fatiguer par ce que je vois, l'écrire est mon devoir Vu qu'on est partis fiché comme un arabe un samedi soir Est-ce que le rap français me déçoit ? En étant clair, je dirais oui Fuck les États-Unis, mais bloque toujours sur JR Ewing Ici on se doit de garder le feeling, pas se fier face aux rires Même dans les pochettes de rap tu trouves des symboles maçonniques Des paroles sataniques dans la plupart de leurs discours Les fils de putes mettent des murs au moment où il faut que tu tournes Est-ce qu'on se doit de vivre cool ? Ou me forcer à boucher les oreilles ? Le système, toujours ce loup qui attend son coucher de soleil Vois que tous les thèmes sont pareils, que l'industrie flippe de nos gestes N'aies pas peur, yaura pas de morts ni aucun corps dans le congel' Notre culture est en danger et trop de bâtards restent zen T'as pas compris ? C'est le début, ya pas mal de choses qu'on te réserve Vas-y tire nous dans les ailes, toi qui croyait qu'on sait voler J'ai fait qu'écrire quand tu sortais, appelle-moi MC isolé Disons que la race est fusionnée, comme Fabe j'suis visionnaire Et j'veux que mon fils aime sa mère, son Bic et son dictionnaire Vire tes mytho après tout, chaque chien, on les connait tous Ceux qui prétendent la fin du monde auront mes balles en 2012 Allez-y préparez vos courses, tape ton crédit si t'en as pas On va les virer du 16éme, niquer Bruni dans son appart' Sacré menu à la carte, j'ai un sale goût dans mon assiette J'en perds mes cheveux, Sangoku les a perdu en mode Sayen Démotivé hayen, j'compte plus ceux qui hayen On ma dit d'avancer demain, mais j'oublie pas les faits d'hier Je ne lis pas les faits divers qui nous rabâchent les mêmes querelles Donc je nique tous les franc-maçons j'ai pas besoin d'un petit proverbe Non, pas de stick de pollen joue pas ce rôle, t'en as pas marre? Toi qui as vendu une barrette et joue le grossiste de Ketama ! Même plus, j'écoute tes vannes, bon j'vais te laisser effriter Les ignorants sont près de nous avec des puces RFID Mauvaise idées non, j'ai trop de mesure dans les veines Évidement que j'ai pas l'accent d'un gars né sous la tour Eiffel MC, la coupe est pleine, le stylo comme une serpette Combien de rappeurs montent sur scène juste pour montrer leurs serviettes ? Combien parlent sur internet ? Des no-lifes sans images Quand tu leur parles du terrain, tous des Rambo du cinéma Y a des robots dans le scénar' et dans les textes ,se disent sur-hommes Ils sont tous là à dire du lourd et sauto-sucent dans les forums Moi j'm'excuse, j'fais de l'ordre pour toi et puis l'autre Ici même plus je fais confiance, robin des rues prend tout aux pauvres Ici la rue t'offre l'alcool, le vice c'est trop fastoche Quand la monnaie reste une guerre, obliger de viser la poste Ya que la bourse qui est en hausse, qui nous embrouille dans les schémas Ya pas de crise, ces marionnettes te feront croire à ce festival Ne me dis pas que les riches râlent, à se la péter aux Émirats J'irai refaire la Palestine, donne-moi un puits ça me suffira You might also like Putain écoutez des merdes, jvous dirai Non merci Ouais, jespère bien que tas capté mon art Cest sûr et certain mon frère quon te fera pas rire à la FredOmar 2010, Fondamental à la machine, Rachid, Demi Portion Non merci</t>
+          <t>Nouvelle note et nouvelle prise sur une belle instrumentale Oublier que la route est longue, périlleuse vu les montagnes Qui a voulu qu'on se taille? Nan, nan On ne peut pas plaire à tout le monde, mais juste à Dieu qui m'accompagne De quoi tu me parles ? J'vois que l'avenir nous rassure pas La plupart quittent les cours et préfèrent découper 100 grammes Fatiguer par ce que je vois, l'écrire est mon devoir Vu qu'on est partis fiché comme un arabe un samedi soir Est-ce que le rap français me déçoit ? En étant clair, je dirais oui Fuck les États-Unis, mais bloque toujours sur JR Ewing Ici on se doit de garder le feeling, pas se fier face aux rires Même dans les pochettes de rap tu trouves des symboles maçonniques Des paroles sataniques dans la plupart de leurs discours Les fils de putes mettent des murs au moment où il faut que tu tournes Est-ce qu'on se doit de vivre cool ? Ou me forcer à boucher les oreilles ? Le système, toujours ce loup qui attend son coucher de soleil Vois que tous les thèmes sont pareils, que l'industrie flippe de nos gestes N'aies pas peur, yaura pas de morts ni aucun corps dans le congel' Notre culture est en danger et trop de bâtards restent zen T'as pas compris ? C'est le début, ya pas mal de choses qu'on te réserve Vas-y tire nous dans les ailes, toi qui croyait qu'on sait voler J'ai fait qu'écrire quand tu sortais, appelle-moi MC isolé Disons que la race est fusionnée, comme Fabe j'suis visionnaire Et j'veux que mon fils aime sa mère, son Bic et son dictionnaire Vire tes mytho après tout, chaque chien, on les connait tous Ceux qui prétendent la fin du monde auront mes balles en 2012 Allez-y préparez vos courses, tape ton crédit si t'en as pas On va les virer du 16éme, niquer Bruni dans son appart' Sacré menu à la carte, j'ai un sale goût dans mon assiette J'en perds mes cheveux, Sangoku les a perdu en mode Sayen Démotivé hayen, j'compte plus ceux qui hayen On ma dit d'avancer demain, mais j'oublie pas les faits d'hier Je ne lis pas les faits divers qui nous rabâchent les mêmes querelles Donc je nique tous les franc-maçons j'ai pas besoin d'un petit proverbe Non, pas de stick de pollen joue pas ce rôle, t'en as pas marre? Toi qui as vendu une barrette et joue le grossiste de Ketama ! Même plus, j'écoute tes vannes, bon j'vais te laisser effriter Les ignorants sont près de nous avec des puces RFID Mauvaise idées non, j'ai trop de mesure dans les veines Évidement que j'ai pas l'accent d'un gars né sous la tour Eiffel MC, la coupe est pleine, le stylo comme une serpette Combien de rappeurs montent sur scène juste pour montrer leurs serviettes ? Combien parlent sur internet ? Des no-lifes sans images Quand tu leur parles du terrain, tous des Rambo du cinéma Y a des robots dans le scénar' et dans les textes ,se disent sur-hommes Ils sont tous là à dire du lourd et sauto-sucent dans les forums Moi j'm'excuse, j'fais de l'ordre pour toi et puis l'autre Ici même plus je fais confiance, robin des rues prend tout aux pauvres Ici la rue t'offre l'alcool, le vice c'est trop fastoche Quand la monnaie reste une guerre, obliger de viser la poste Ya que la bourse qui est en hausse, qui nous embrouille dans les schémas Ya pas de crise, ces marionnettes te feront croire à ce festival Ne me dis pas que les riches râlent, à se la péter aux Émirats J'irai refaire la Palestine, donne-moi un puits ça me suffira Putain écoutez des merdes, jvous dirai Non merci Ouais, jespère bien que tas capté mon art Cest sûr et certain mon frère quon te fera pas rire à la FredOmar 2010, Fondamental à la machine, Rachid, Demi Portion Non merci</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Davodka, c'est parti Je me suis lancé, jen avais marre de tout remettre à demain Si t'es pas passionné dès le départ t'y gagnes que dalle je le crains Jai pris la feuille pour me réfugier, en bref j'ai rien lâché Même si le manque d'oseille est une pédale de frein Quinze piges depuis mon premier texte, je reste fier Des fois je m'étale, je me plains, compte pas sur moi pour abdiquer J'ai bien compris qu'il y avait que la gorge et pas de tickets, alors je frauderai si jamais je rate ce train Quand j'ai de la route pour me soulager je gratte des pages, c'est grave jy prends du plaisir Et ça, ça les fâche, je veux faire partie de ceux qui ont du cur, pas des lâches Après toutes ces années, sur nos joues cest de la sueur pas des larmes J'oublierai pas ce que la masse mordonne, je prends du plaisir à ce que mes pages s'cordonnes La zique a donné un pouvoir à s'corp, mais je fais ma route, inarrêtable un peu comme flash Gordon Avancer en major, c'est comme rouler sur lautoroute Voilà le récit d'un jeu indé qui s'en sort pas trop mal Qui rencontre des périodes de doute mais qui préfère aller tout doucement En savourant le paysage d'une nationale J'écris avec mon cur non-stop, il faut que je résiste, sans doute je le ferai Je te ferai voyager avec les rimes que je stock, quand il y a de la rage, de la tristesse Il y a du plaisir dans tout ce que je créé Hip-hop, on est bien dans ma sphère, non-stop, sincère Hip-hop, sur scène, non-stop Hip-hop, on est bien dans ma sphère, non-stop, yeah, yeah Non-stop, yeah, yeah, hip-hop You might also like Fallait bien nous appeler, sorti d'un atelier Fracturer la feuille, d'où vient le mot casse bélier Embellir le paysage d'après nos histoires On a écrit le film de nos vies sans Oscars Ok man, on a pris du plaisir non-stop D'où vient le respect qu'on instaure Où le rap est un sport, matte bien la technique J'arrive à battre des records avec un vélib' man L'équilibre dans nos rimes depuis nos cortès Toujours envoyer des phrases et tu connais le dièse Mon rap conteste aura la première pièce Peace, pour le moment il y a rien qui m'apaise Microphone, check, on est bien dans ma sphère Depuis le collège, impossible de me taire Tu connais le thème, j'ai brisé la machine Sans le solfège on te fera des classiques Le game bat de l'aile, on a tué des corbeaux Appelle-moi, pas de problèmes, on ne fait pas de pause On travaille trop, de nuit aux matinales On fout le faya, comme au demi festival Fier de nos images, juste un préliminaire Donne-moi un dico, on va les éliminer On va réchauffer les cavaliers, reste au fond Davodka, Demi P, on s'occupe du son Hip-hop, on est bien dans ma sphère, non-stop Hip-hop, non-stop Hip-hop, non-stop Non-stop, Hip-hop Hip-hop, Hip-hop, Hip-hop Hip-hop, non-stop Hip-hop, Hip-hop Davodka, Demi Portion2</t>
+          <t>Davodka, c'est parti Je me suis lancé, jen avais marre de tout remettre à demain Si t'es pas passionné dès le départ t'y gagnes que dalle je le crains Jai pris la feuille pour me réfugier, en bref j'ai rien lâché Même si le manque d'oseille est une pédale de frein Quinze piges depuis mon premier texte, je reste fier Des fois je m'étale, je me plains, compte pas sur moi pour abdiquer J'ai bien compris qu'il y avait que la gorge et pas de tickets, alors je frauderai si jamais je rate ce train Quand j'ai de la route pour me soulager je gratte des pages, c'est grave jy prends du plaisir Et ça, ça les fâche, je veux faire partie de ceux qui ont du cur, pas des lâches Après toutes ces années, sur nos joues cest de la sueur pas des larmes J'oublierai pas ce que la masse mordonne, je prends du plaisir à ce que mes pages s'cordonnes La zique a donné un pouvoir à s'corp, mais je fais ma route, inarrêtable un peu comme flash Gordon Avancer en major, c'est comme rouler sur lautoroute Voilà le récit d'un jeu indé qui s'en sort pas trop mal Qui rencontre des périodes de doute mais qui préfère aller tout doucement En savourant le paysage d'une nationale J'écris avec mon cur non-stop, il faut que je résiste, sans doute je le ferai Je te ferai voyager avec les rimes que je stock, quand il y a de la rage, de la tristesse Il y a du plaisir dans tout ce que je créé Hip-hop, on est bien dans ma sphère, non-stop, sincère Hip-hop, sur scène, non-stop Hip-hop, on est bien dans ma sphère, non-stop, yeah, yeah Non-stop, yeah, yeah, hip-hop Fallait bien nous appeler, sorti d'un atelier Fracturer la feuille, d'où vient le mot casse bélier Embellir le paysage d'après nos histoires On a écrit le film de nos vies sans Oscars Ok man, on a pris du plaisir non-stop D'où vient le respect qu'on instaure Où le rap est un sport, matte bien la technique J'arrive à battre des records avec un vélib' man L'équilibre dans nos rimes depuis nos cortès Toujours envoyer des phrases et tu connais le dièse Mon rap conteste aura la première pièce Peace, pour le moment il y a rien qui m'apaise Microphone, check, on est bien dans ma sphère Depuis le collège, impossible de me taire Tu connais le thème, j'ai brisé la machine Sans le solfège on te fera des classiques Le game bat de l'aile, on a tué des corbeaux Appelle-moi, pas de problèmes, on ne fait pas de pause On travaille trop, de nuit aux matinales On fout le faya, comme au demi festival Fier de nos images, juste un préliminaire Donne-moi un dico, on va les éliminer On va réchauffer les cavaliers, reste au fond Davodka, Demi P, on s'occupe du son Hip-hop, on est bien dans ma sphère, non-stop Hip-hop, non-stop Hip-hop, non-stop Non-stop, Hip-hop Hip-hop, Hip-hop, Hip-hop Hip-hop, non-stop Hip-hop, Hip-hop Davodka, Demi Portion2</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Est-ce que j'ai une gueule à être vegan Ou à me marier devant Elvis à Vegas J'fais partie du peuple libre, j'arrive avec un flow illégal Mohamed Ali, Khabib, Zidane Karim et Rachid sur une bécane On grandit dans le quartier comme une fleur sans pétale Le pétard à la bouche dans une tchop sans clim J'mets les mitaines, j'les cogne, bim bim, j'prends la prime L'équivalent d'une palette dans un wallt J'ai jamais attendu l'alignement ds planètes Les princes de la ville, le prince du Maghreb Prochain concert, j'monte avec les bigoudis de Drake J'ai épuisé les balles qu'j'avais dans mon arme Il m'faut du bonheur, c'est pour nourrir mon âme Parfois j'me dis qu'ils sont tous débiles comme un chômeur sur TikTok Ils veulent m'apprendre le trading J'me lève avant le soleil, je prie avant qu'on m'éteigne, je vis d'hôtel en hôtel J'fais des tunes pour combler mes peines J'fais du rap à dimension humaine Le soir elle simule une migraine Me faufile depuis vingt piges comme un rat des villes Ils ont fait un pacte avec le devil Tout était différent à mes débuts Pitié, arrêtez l'rap, ça peut sauver des vues You might also like J't'avoue, j'me mélange pas trop J'préfère rester là-haut Mon p'tit bout et mon chalumeau J'me fous du regard des autres Parce qu'on a toujours eu le choix de faire c'qu'on veut depuis le temps On sait qu'la route est dessinée et qu'la vie est un marathon On va pas rater la sortie même si t'oublies de partager Sur le terrain la cocaïne a remplacé les potagers Parce que tous mes potes sont âgés et qu'on s'éloigne des faits-divers On dit qu'on a gardé l'espoir et qu'demain sera mieux qu'hier J'calcule pas tout c'qui m'énerve, j'suis en famille toute la semaine On t'a vu tirer la sonnette et doucement être malhonnête On est ensemble dans le navire, laisse-moi donner mon avis Si le lion est mort ce soir il nous reste les princes de la ville On a su immortaliser un souvenir avec un seize Et les réseaux peuvent tuer une carrière avec un dièse Et j'ai un p'tit problème avec le rap Bousillé, le stylo fait des trous dans mon cahier Et j'peux pas nier, mon seize dans le barillet Ou vois tu peux parier, disperse quand la maille y est Aucune marche arrière, casse toutes les barrières En Golf pas en Cayenne, démarre ouais c'est ça qu'on aime Augmente le baromètre, j'veux t'voir les mains en l'air On kicke ça, faut l'admettre, présent à n'importe quel horaire On écrit Rim'K mélangé aux prises de bec On est toujours des Grandes Gueules et on l'fait sans prise de tête Frérot j'ai mon G1004, frérot j'suis l'pro du boom-bap Une pensée à DJ Mehdi, Népal et ceux qui nous parlent J't'avoue, j'me mélange pas trop J'préfère rester là-haut Mon p'tit bout et mon chalumeau J'me fous du regard des autres</t>
+          <t>Est-ce que j'ai une gueule à être vegan Ou à me marier devant Elvis à Vegas J'fais partie du peuple libre, j'arrive avec un flow illégal Mohamed Ali, Khabib, Zidane Karim et Rachid sur une bécane On grandit dans le quartier comme une fleur sans pétale Le pétard à la bouche dans une tchop sans clim J'mets les mitaines, j'les cogne, bim bim, j'prends la prime L'équivalent d'une palette dans un wallt J'ai jamais attendu l'alignement ds planètes Les princes de la ville, le prince du Maghreb Prochain concert, j'monte avec les bigoudis de Drake J'ai épuisé les balles qu'j'avais dans mon arme Il m'faut du bonheur, c'est pour nourrir mon âme Parfois j'me dis qu'ils sont tous débiles comme un chômeur sur TikTok Ils veulent m'apprendre le trading J'me lève avant le soleil, je prie avant qu'on m'éteigne, je vis d'hôtel en hôtel J'fais des tunes pour combler mes peines J'fais du rap à dimension humaine Le soir elle simule une migraine Me faufile depuis vingt piges comme un rat des villes Ils ont fait un pacte avec le devil Tout était différent à mes débuts Pitié, arrêtez l'rap, ça peut sauver des vues J't'avoue, j'me mélange pas trop J'préfère rester là-haut Mon p'tit bout et mon chalumeau J'me fous du regard des autres Parce qu'on a toujours eu le choix de faire c'qu'on veut depuis le temps On sait qu'la route est dessinée et qu'la vie est un marathon On va pas rater la sortie même si t'oublies de partager Sur le terrain la cocaïne a remplacé les potagers Parce que tous mes potes sont âgés et qu'on s'éloigne des faits-divers On dit qu'on a gardé l'espoir et qu'demain sera mieux qu'hier J'calcule pas tout c'qui m'énerve, j'suis en famille toute la semaine On t'a vu tirer la sonnette et doucement être malhonnête On est ensemble dans le navire, laisse-moi donner mon avis Si le lion est mort ce soir il nous reste les princes de la ville On a su immortaliser un souvenir avec un seize Et les réseaux peuvent tuer une carrière avec un dièse Et j'ai un p'tit problème avec le rap Bousillé, le stylo fait des trous dans mon cahier Et j'peux pas nier, mon seize dans le barillet Ou vois tu peux parier, disperse quand la maille y est Aucune marche arrière, casse toutes les barrières En Golf pas en Cayenne, démarre ouais c'est ça qu'on aime Augmente le baromètre, j'veux t'voir les mains en l'air On kicke ça, faut l'admettre, présent à n'importe quel horaire On écrit Rim'K mélangé aux prises de bec On est toujours des Grandes Gueules et on l'fait sans prise de tête Frérot j'ai mon G1004, frérot j'suis l'pro du boom-bap Une pensée à DJ Mehdi, Népal et ceux qui nous parlent J't'avoue, j'me mélange pas trop J'préfère rester là-haut Mon p'tit bout et mon chalumeau J'me fous du regard des autres</t>
         </is>
       </c>
     </row>
@@ -3725,11 +3725,7 @@
           <t>Nouveau départ (Remix)</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3744,7 +3740,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>À l'heure où tout le monde se précipite dans tous les sens, on fait quoi ? On dort, on dort En attendant qu'on se lève, en attendant qu'on se lève En attendant qu'on se lève, avec le sourire aux lèvres On dort, on dort, on dort, on dort On dort, yeah, on dort En attendant qu'on se lève, en attendant qu'on se lève En attendant qu'on se lève, avec le sourire aux lèvres On dort, on dort, encore, encore... Encore encore, d'accord... Encore, encore, pourquoi on dort ? N'aie pas peur il n'y aura pas d'blessés D'accord... Ils voudront savoir comme d'hab' qui est agressé Oui l'amour m'a stressé, vas-y parle-moi j'ai l'temps Raconte tes cicatrices, ce soir je serai ton psychiatre Vas-y lève-toi l'son claque, et nettoie cette poussière Écoute ton cur battre, sa boîte est bloquée en sixième Allume un cierge, on fait la paix, non ils te posent un piège Tu trembles ? Viens te poser, oui j'te laisse un siège J'te laisse une place dans mon album ne refuse pas l'invite T'aimes pas le rap, mais j'en suis sûr qu'on fera un joli feat Oui fonce, et sois rapide Et si le savoir est une arme, y'a qu'sur Call-Of qu'mes potes l'ont gratuite You might also like C'n'est pas une mode de vouloir dire c'qu'on pense C'n'est pas une faute de vouloir t'faire confiance En attendant qu'on se lève Du bon pied, pendant que toi tu t'énerves Un cauchemar, sûrement un mauvais rêve Au départ, y'a des cartes, mais on n'sait plus trop lesquelles choisir Les bonnes choses ont une fin, magique Laisse-nous dormir, file-moi un somnifère Envoie du son s'te-plaît, qu'on oublie un peu la merde Attirés vers le bas nous a jamais rapprochés Même si, tu n'oublies pas, j'habite près de la mer Même Brassens ce pauvre homme a chopé vite la nausée Paroles rédigées et expliquées par la communauté Rap Genius France !</t>
+          <t>À l'heure où tout le monde se précipite dans tous les sens, on fait quoi ? On dort, on dort En attendant qu'on se lève, en attendant qu'on se lève En attendant qu'on se lève, avec le sourire aux lèvres On dort, on dort, on dort, on dort On dort, yeah, on dort En attendant qu'on se lève, en attendant qu'on se lève En attendant qu'on se lève, avec le sourire aux lèvres On dort, on dort, encore, encore... Encore encore, d'accord... Encore, encore, pourquoi on dort ? N'aie pas peur il n'y aura pas d'blessés D'accord... Ils voudront savoir comme d'hab' qui est agressé Oui l'amour m'a stressé, vas-y parle-moi j'ai l'temps Raconte tes cicatrices, ce soir je serai ton psychiatre Vas-y lève-toi l'son claque, et nettoie cette poussière Écoute ton cur battre, sa boîte est bloquée en sixième Allume un cierge, on fait la paix, non ils te posent un piège Tu trembles ? Viens te poser, oui j'te laisse un siège J'te laisse une place dans mon album ne refuse pas l'invite T'aimes pas le rap, mais j'en suis sûr qu'on fera un joli feat Oui fonce, et sois rapide Et si le savoir est une arme, y'a qu'sur Call-Of qu'mes potes l'ont gratuite C'n'est pas une mode de vouloir dire c'qu'on pense C'n'est pas une faute de vouloir t'faire confiance En attendant qu'on se lève Du bon pied, pendant que toi tu t'énerves Un cauchemar, sûrement un mauvais rêve Au départ, y'a des cartes, mais on n'sait plus trop lesquelles choisir Les bonnes choses ont une fin, magique Laisse-nous dormir, file-moi un somnifère Envoie du son s'te-plaît, qu'on oublie un peu la merde Attirés vers le bas nous a jamais rapprochés Même si, tu n'oublies pas, j'habite près de la mer Même Brassens ce pauvre homme a chopé vite la nausée Paroles rédigées et expliquées par la communauté Rap Genius France !</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3757,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>On a la tactique, on sait que tout est factice Se poser sur un cactus à la recherche de one peace On demande rien d'plus, dis-leur qu'il faut qu'on s'active, que la vie est une actrice À la recherche de one peace On a la tactique, on sait que tout est factice Se poser sur un cactus à la recherche de one peace On demande rien d'plus, dis-leur qu'il faut qu'on s'active, que la vie est une actrice À la recherche de one peace J'suis pas en boucle sur Sky', pourtant, j'ai fait l'Olympia Combien d'fois j'ai fait confiance à des gens qui ne m'aiment pas Donc j'travaille le coup bas, hein, comme Bruce Lee C'est grâce à vous, le public, qu'on a baisé l'industrie Oh, qu'est-ce qui a ? Génération bestiale J'ai mon DJ Rolxx, j'm'en bats les couilles d'Festina Invincible, armada, dédié aux spécialiste Chut, donne-moi d'la sativa et puis, je m'organise Un Baise la vocalise Deux Tout le monde veut le khaliss Trois Pas de cocaïne Quatre Sinon, on t'verbalise Donc, j'innove, pars sur le côté, comme Vinícius Frérot, avec nous, tu perceras pas si tu suces On est sur le toit du globe Saluer un tas de monde et vu qu'le projet est carré, on est seuls sur la table ronde You might also like Han, j'suis indépendant et fier de l'être Ouais, ouais, je me fais p'tit, j'fais pas deux mètres On a la tactique, on sait que tout est factice Se poser sur un cactus à la recherche de one peace On demande rien d'plus, dis-leur qu'il faut qu'on s'active, que la vie est une actrice À la recherche de one peace On a la tactique, on sait que tout est factice Se poser sur un cactus à la recherche de one peace On demande rien d'plus, dis-leur qu'il faut qu'on s'active, que la vie est une actrice À la recherche de one peace Découpe la corde raide, j'attends que débarque le RAID Pas le temps d'parler de rêves, on fait plus que nos honoraires Han Je monte en aigu, redescend de l'opéra On structure nos vies un peu comme une scène de théâtre Qui fait du mal paiera, change, tu verras Ouais Même si tout devient étrange, lâche rien, ça ira Ouais, j'suis indépendant et fier de l'être J'me fais p'tit, j'fais pas deux mètres On a la tactique, on sait que tout est factice Se poser sur un cactus à la recherche de one peace On demande rien d'plus, dis-leur qu'il faut qu'on s'active, que la vie est une actrice À la recherche de one peace On a la tactique, on sait que tout est factice Se poser sur un cactus à la recherche de one peace On demande rien d'plus, dis-leur qu'il faut qu'on s'active, que la vie est une actrice À la recherche de one peace</t>
+          <t>On a la tactique, on sait que tout est factice Se poser sur un cactus à la recherche de one peace On demande rien d'plus, dis-leur qu'il faut qu'on s'active, que la vie est une actrice À la recherche de one peace On a la tactique, on sait que tout est factice Se poser sur un cactus à la recherche de one peace On demande rien d'plus, dis-leur qu'il faut qu'on s'active, que la vie est une actrice À la recherche de one peace J'suis pas en boucle sur Sky', pourtant, j'ai fait l'Olympia Combien d'fois j'ai fait confiance à des gens qui ne m'aiment pas Donc j'travaille le coup bas, hein, comme Bruce Lee C'est grâce à vous, le public, qu'on a baisé l'industrie Oh, qu'est-ce qui a ? Génération bestiale J'ai mon DJ Rolxx, j'm'en bats les couilles d'Festina Invincible, armada, dédié aux spécialiste Chut, donne-moi d'la sativa et puis, je m'organise Un Baise la vocalise Deux Tout le monde veut le khaliss Trois Pas de cocaïne Quatre Sinon, on t'verbalise Donc, j'innove, pars sur le côté, comme Vinícius Frérot, avec nous, tu perceras pas si tu suces On est sur le toit du globe Saluer un tas de monde et vu qu'le projet est carré, on est seuls sur la table ronde Han, j'suis indépendant et fier de l'être Ouais, ouais, je me fais p'tit, j'fais pas deux mètres On a la tactique, on sait que tout est factice Se poser sur un cactus à la recherche de one peace On demande rien d'plus, dis-leur qu'il faut qu'on s'active, que la vie est une actrice À la recherche de one peace On a la tactique, on sait que tout est factice Se poser sur un cactus à la recherche de one peace On demande rien d'plus, dis-leur qu'il faut qu'on s'active, que la vie est une actrice À la recherche de one peace Découpe la corde raide, j'attends que débarque le RAID Pas le temps d'parler de rêves, on fait plus que nos honoraires Han Je monte en aigu, redescend de l'opéra On structure nos vies un peu comme une scène de théâtre Qui fait du mal paiera, change, tu verras Ouais Même si tout devient étrange, lâche rien, ça ira Ouais, j'suis indépendant et fier de l'être J'me fais p'tit, j'fais pas deux mètres On a la tactique, on sait que tout est factice Se poser sur un cactus à la recherche de one peace On demande rien d'plus, dis-leur qu'il faut qu'on s'active, que la vie est une actrice À la recherche de one peace On a la tactique, on sait que tout est factice Se poser sur un cactus à la recherche de one peace On demande rien d'plus, dis-leur qu'il faut qu'on s'active, que la vie est une actrice À la recherche de one peace</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3774,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>On rappe fort, prêt à souiller l'instru, on la douille Prêt à bouillave sans faire mouiller la Gaule de David Douillet On rappe fort p't-être parce qu'on a pas les clés On défonce un tas d'portes, un tas d'porcs de Marine Le Pen à Mégret On essaie de faire plus de bruit que les idées FN Vu que t'absorbes de l'absurde iTélé BFM Tous d'accords, sont plus saoulant que l'alcool S'font des films et maquillent les gens du four en Dalton Vu d'ici c'est pas Bel Air, y'a pas d'prince, pas d'trône Les armes arrivent par tonnes, Sheïtan danse comme Carlton Le te-shi te requinque faussement c'est hardcore En chien dans tes requins, tu sais que tous tes vices te harponnent Victime du système passe pour un gros gangster Les vitrines font oublier l'exode de ton propre grand-père Avant que mes proches m'enterrent faut que j'trouve de la lumière J'fais pas du Hip-Hop lanterne y'a pas d'message lunaire On rappe fort mais ça c'est normal comme un maire qui ment La plume pas trop love, acerbe, impertinente Ça tourne quand j'gratte sur l'son d'un frère qui sample Ça tourne de Grenoble à Sète à Perpignan On rappe fort parce qu'on croit qu'on a qu'ça à faire Avec une voix on s'est tous dit vas-y fonce ça fera l'affaire On rappe fort et l'inverse sous la chaleur et l'averse Essayer de vendre du rêve quand on a pas d'commerce Compter un tas d'commères, on repense à trop d'proverbes Croquer la vie à pleines dents quand on a plus d'molaires Quand on a trop d'colère l'humain n'a plus trop l'choix Si t'as un toit sois content d'autres ont une tente Quechua On rappe pour tous, bonsoir, on est plein dans c'cas-là On m'a dit bosse en sous-marin mais aussi gaffe à la noyade De Grenoble jusqu'à Genève, on rappe fort y'a pas d'trêve La couronne on vous la laisse même si on a compris y'a pas d'fève Y'a peu d'hommes et trop d'vestes et des gros films au vestiaire Frère t'es pas à l'ancienne ni à l'époque d'Robespierre On rappe fort c'est festif, p't-être furieux pour certains Les merdeux s'cachent te-vi derrière dix pour en faire qu'un You might also like On rappe fort, on grandit, esclave de Dieu tant qu'Il nous teste Tandis qu'on profite malgré tout du peu d'temps qu'il nous reste On rappe fort, sûrement parce qu'on sait rien faire d'autre Rapport de force quand l'un vient vers l'autre Envolés nos rêves de gamins d'être Belmondo dans L'as des as A trop fumer on devient dé-p' et parano c'est Las Vegas On rappe fort, dur, avec nos kheys pas que dans les jolis halls Ordure, les murs n'ont pas que des oreilles dans les glory hole Mon art j'l'aimais trop j'y mettrai mes 16 et mes tripes Jamais faire d'électro, plutôt crever sur la chaise électrique Tu décryptes, crois-moi trop d'rois, d'princes et d'grands ducs Trou du c' qui s'prennent pour des membres du M13 et des Crips On rappe fort mais pas pour rafler l'titre du roi d'la ville D'autres se battent à bras-le-corps pour gagner vite le droit d'asile Tu veux savoir pourquoi on fout autant l'zbeul ? Tout simplement parce qu'on rappe fort avec nos grandes gueules</t>
+          <t>On rappe fort, prêt à souiller l'instru, on la douille Prêt à bouillave sans faire mouiller la Gaule de David Douillet On rappe fort p't-être parce qu'on a pas les clés On défonce un tas d'portes, un tas d'porcs de Marine Le Pen à Mégret On essaie de faire plus de bruit que les idées FN Vu que t'absorbes de l'absurde iTélé BFM Tous d'accords, sont plus saoulant que l'alcool S'font des films et maquillent les gens du four en Dalton Vu d'ici c'est pas Bel Air, y'a pas d'prince, pas d'trône Les armes arrivent par tonnes, Sheïtan danse comme Carlton Le te-shi te requinque faussement c'est hardcore En chien dans tes requins, tu sais que tous tes vices te harponnent Victime du système passe pour un gros gangster Les vitrines font oublier l'exode de ton propre grand-père Avant que mes proches m'enterrent faut que j'trouve de la lumière J'fais pas du Hip-Hop lanterne y'a pas d'message lunaire On rappe fort mais ça c'est normal comme un maire qui ment La plume pas trop love, acerbe, impertinente Ça tourne quand j'gratte sur l'son d'un frère qui sample Ça tourne de Grenoble à Sète à Perpignan On rappe fort parce qu'on croit qu'on a qu'ça à faire Avec une voix on s'est tous dit vas-y fonce ça fera l'affaire On rappe fort et l'inverse sous la chaleur et l'averse Essayer de vendre du rêve quand on a pas d'commerce Compter un tas d'commères, on repense à trop d'proverbes Croquer la vie à pleines dents quand on a plus d'molaires Quand on a trop d'colère l'humain n'a plus trop l'choix Si t'as un toit sois content d'autres ont une tente Quechua On rappe pour tous, bonsoir, on est plein dans c'cas-là On m'a dit bosse en sous-marin mais aussi gaffe à la noyade De Grenoble jusqu'à Genève, on rappe fort y'a pas d'trêve La couronne on vous la laisse même si on a compris y'a pas d'fève Y'a peu d'hommes et trop d'vestes et des gros films au vestiaire Frère t'es pas à l'ancienne ni à l'époque d'Robespierre On rappe fort c'est festif, p't-être furieux pour certains Les merdeux s'cachent te-vi derrière dix pour en faire qu'un On rappe fort, on grandit, esclave de Dieu tant qu'Il nous teste Tandis qu'on profite malgré tout du peu d'temps qu'il nous reste On rappe fort, sûrement parce qu'on sait rien faire d'autre Rapport de force quand l'un vient vers l'autre Envolés nos rêves de gamins d'être Belmondo dans L'as des as A trop fumer on devient dé-p' et parano c'est Las Vegas On rappe fort, dur, avec nos kheys pas que dans les jolis halls Ordure, les murs n'ont pas que des oreilles dans les glory hole Mon art j'l'aimais trop j'y mettrai mes 16 et mes tripes Jamais faire d'électro, plutôt crever sur la chaise électrique Tu décryptes, crois-moi trop d'rois, d'princes et d'grands ducs Trou du c' qui s'prennent pour des membres du M13 et des Crips On rappe fort mais pas pour rafler l'titre du roi d'la ville D'autres se battent à bras-le-corps pour gagner vite le droit d'asile Tu veux savoir pourquoi on fout autant l'zbeul ? Tout simplement parce qu'on rappe fort avec nos grandes gueules</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3791,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Je viens dun endroit dit détestable, les regards de travers, les quest-ce tas ? Chaque année le quartier attend les stat' du ministère Combien de diligences braquées ? De Dillinger ? LAmérique n'y gère plus rien, ça sent les militaires Les gangsters ils communiquent toujours par le Minitel A lancienne, corrompus de Marseille à Valenciennes Ça part en chienne de vie, les mecs bavent, les mecs se plaignent trop Les mythos mafieux, leurs cheveux pleins de pento Donc chez les gosses ça parle déconne et rater lécole De braquer des coffres, juste pour un peu de gen-g Tu ten sortiras bien peut-être avec un peu dchance En tendormant avec un gros pékos tu causes un feu dchambre Les jeunes slaissent aller grave et leur avenir sent le mé-cra Tous dans le même drap, le droit de miroiter la M3 Toute leur vie ils leurs refilent la haine jcrois Jvis dans lespace Schengen, parait que ça tpousse à la Heineken Les meufs se prennent pour Angela Merkel Jviens dlà où ils disent tous que cest pas des balances Cousin où jvis les rues et les boulevards sont blindés dtalents Mec où jhabite les rappeurs sont politiques Parce que les politiques chantent mal, ils ont un problème auditif Et ouais où jvis frangin, cest pas un rêve, cest un cauchemar Que la droite crève et que la gauche parte Ici on fait notre buzz sans laide de producteurs On a notre liberté chargée sous le siège conducteur Alors je prends lgun avec Demi Portion des Grandes Gueules Quitte à te rendre gue-din car là doù jviens on sest pris la douche bien Là où ne bouge rien, ici on fait tourner léconomie mais on ne bouffe rien cest normal Va chercher de la bouffe aux normands, on crève la dalle de béton Sous laquelle on croupit avant dber-tom Sous les balles ou au pénitencier, fiché pour un délit dpensée On va limite en chier, laissez les élites danser Là où je vis cest pas la vie facile On pense tous à investir dans lacier comme Mittal Steel Ou la rime qui calcine le plus dMC Ma voix parcoure les ghettos dFrance et Rachid na pas raté lbus dEmzi Monte sur ta moto-cross, cousin cest un drive by en auto prod On monte au tribunal pour faire un fuck au proc You might also like Mets ton pare-balles, mets ton holster Charge ton gun et lâche la sauce Cest pas un morceau pour les gangsters Mais pour les frustrés dla zone Ouais frangin là où jvis, jfais ma life dans les règles Mais fais confiance quà mes assoc Qui vivent en sursis, alors jte donne au mic un pur style Limage du rap on tla durcit dans lmorceau Ouais Mysa mon frère, là où je vis cest la même Y a ceux qui parlent bien et ceux qui tserrent pas la main Ceux qui se la ramènent, forment un vrai phénomène Rien de vraiment trop fun, un taf on lfait nous-mêmes En parcours fermé ou bien la porte ouverte On a tous appris à npas pleurer en game over Connais aucun sauveur, des proses Ma feuille toujours accro, le Bic et son ferveur Là où jvis Mysa, jai lmême décor que le tien Ici cest pas Ibiza, ici y a pas dentretien Je retiens et poursuis la voie de lacharnement Nespère même pas que jdonne une voix au gouvernement Je suis couvert comment ? A éviter le coma Le savoir est une arme à tfaire mal ouvertement Changer de comportement, tu le feras un jour Le biz est ta came, cest donné des points aux jnouns Aucune morale jécris, te le répète à loral Et continue de louvrir tant que Bush nest pas mourant Les Grandes Gueules, loin de la fermer, absolument On le sait quaujourdhui ils naiment plus trop les musulmans Bref, on sy fait, cest toujours là où jvis Marrête pas au sifflet, nattend pas dêtre servis Nage pendant que leau est tiède laisse tomber le bateau Ceux qui volaient sont tombés raides lestomac bourré dgâteaux On y a pris lhabitude, rien de vraiment trop fun De la bave qui coule pire que le chien de Beethoven Zut beaucoup nous en veulent, on toffrira ce quil faut Des rimes, du couplet, une manière de tpasser linfo La forme, le fond et tous ces thèmes profonds Capter limbécile et dénicher tous ces bouffons Sans jouer de mauvais tour, on sait que la roue tourne Et aussi rapide que ce Schumacher à Melbourne Mets ton pare-balles, mets ton holster Charge ton gun et lâche la sauce Cest pas un morceau pour les gangsters Mais pour les frustrés dla zone Ouais frangin là où jvis, jfais ma life dans les règles Mais fais confiance quà mes assoc Qui vivent en sursis, alors jte donne au mic un pur style Limage du rap on tla durcit Jte le dis, enfile ton gilet pare-balles, on srépare avec des rustines</t>
+          <t>Je viens dun endroit dit détestable, les regards de travers, les quest-ce tas ? Chaque année le quartier attend les stat' du ministère Combien de diligences braquées ? De Dillinger ? LAmérique n'y gère plus rien, ça sent les militaires Les gangsters ils communiquent toujours par le Minitel A lancienne, corrompus de Marseille à Valenciennes Ça part en chienne de vie, les mecs bavent, les mecs se plaignent trop Les mythos mafieux, leurs cheveux pleins de pento Donc chez les gosses ça parle déconne et rater lécole De braquer des coffres, juste pour un peu de gen-g Tu ten sortiras bien peut-être avec un peu dchance En tendormant avec un gros pékos tu causes un feu dchambre Les jeunes slaissent aller grave et leur avenir sent le mé-cra Tous dans le même drap, le droit de miroiter la M3 Toute leur vie ils leurs refilent la haine jcrois Jvis dans lespace Schengen, parait que ça tpousse à la Heineken Les meufs se prennent pour Angela Merkel Jviens dlà où ils disent tous que cest pas des balances Cousin où jvis les rues et les boulevards sont blindés dtalents Mec où jhabite les rappeurs sont politiques Parce que les politiques chantent mal, ils ont un problème auditif Et ouais où jvis frangin, cest pas un rêve, cest un cauchemar Que la droite crève et que la gauche parte Ici on fait notre buzz sans laide de producteurs On a notre liberté chargée sous le siège conducteur Alors je prends lgun avec Demi Portion des Grandes Gueules Quitte à te rendre gue-din car là doù jviens on sest pris la douche bien Là où ne bouge rien, ici on fait tourner léconomie mais on ne bouffe rien cest normal Va chercher de la bouffe aux normands, on crève la dalle de béton Sous laquelle on croupit avant dber-tom Sous les balles ou au pénitencier, fiché pour un délit dpensée On va limite en chier, laissez les élites danser Là où je vis cest pas la vie facile On pense tous à investir dans lacier comme Mittal Steel Ou la rime qui calcine le plus dMC Ma voix parcoure les ghettos dFrance et Rachid na pas raté lbus dEmzi Monte sur ta moto-cross, cousin cest un drive by en auto prod On monte au tribunal pour faire un fuck au proc Mets ton pare-balles, mets ton holster Charge ton gun et lâche la sauce Cest pas un morceau pour les gangsters Mais pour les frustrés dla zone Ouais frangin là où jvis, jfais ma life dans les règles Mais fais confiance quà mes assoc Qui vivent en sursis, alors jte donne au mic un pur style Limage du rap on tla durcit dans lmorceau Ouais Mysa mon frère, là où je vis cest la même Y a ceux qui parlent bien et ceux qui tserrent pas la main Ceux qui se la ramènent, forment un vrai phénomène Rien de vraiment trop fun, un taf on lfait nous-mêmes En parcours fermé ou bien la porte ouverte On a tous appris à npas pleurer en game over Connais aucun sauveur, des proses Ma feuille toujours accro, le Bic et son ferveur Là où jvis Mysa, jai lmême décor que le tien Ici cest pas Ibiza, ici y a pas dentretien Je retiens et poursuis la voie de lacharnement Nespère même pas que jdonne une voix au gouvernement Je suis couvert comment ? A éviter le coma Le savoir est une arme à tfaire mal ouvertement Changer de comportement, tu le feras un jour Le biz est ta came, cest donné des points aux jnouns Aucune morale jécris, te le répète à loral Et continue de louvrir tant que Bush nest pas mourant Les Grandes Gueules, loin de la fermer, absolument On le sait quaujourdhui ils naiment plus trop les musulmans Bref, on sy fait, cest toujours là où jvis Marrête pas au sifflet, nattend pas dêtre servis Nage pendant que leau est tiède laisse tomber le bateau Ceux qui volaient sont tombés raides lestomac bourré dgâteaux On y a pris lhabitude, rien de vraiment trop fun De la bave qui coule pire que le chien de Beethoven Zut beaucoup nous en veulent, on toffrira ce quil faut Des rimes, du couplet, une manière de tpasser linfo La forme, le fond et tous ces thèmes profonds Capter limbécile et dénicher tous ces bouffons Sans jouer de mauvais tour, on sait que la roue tourne Et aussi rapide que ce Schumacher à Melbourne Mets ton pare-balles, mets ton holster Charge ton gun et lâche la sauce Cest pas un morceau pour les gangsters Mais pour les frustrés dla zone Ouais frangin là où jvis, jfais ma life dans les règles Mais fais confiance quà mes assoc Qui vivent en sursis, alors jte donne au mic un pur style Limage du rap on tla durcit Jte le dis, enfile ton gilet pare-balles, on srépare avec des rustines</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3808,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Saches que malgré toute chose, nous sommes juste de passage Essayez d'ouvrir les yeux x2 Essayez d'ouvrir les yeux quand la détresse les a bandés Impossible d'rallumer une caisse quand tu l'as planté Enfermé dans une pièce, on a eu l'temps d'rêver et s'dire qu'avec ou sans thune, tous les humains vont crever Tu m'diras qu'après ce texte, que je suis un peu trop glauque Que toute ma génération s'est enfumée dans un bloc 25 ans, alerte à t'raconter mes galères Si j'ai pris l'stylo un jour, j'l'ai pas fait pour un vieux salaire Faire que ça ou finir ma vie sur un Bic Désolé d'être sincère mais manger du rap reste un mythe Faire sauter la dynamite, j'ai laissé ça aux terro' Et saches que tu n'apporteras rien même tes fausses dents en céramique Si nos blessures nous rallient et qu'on bave tous face à l'euro Même l'Homme et tous ses calculs ne fera plus de pyramide La machine est si rapide, savoir vivre et s'y rallier Si cher que parfois ici, je glisse même comme au rallye Malade ou devenir fou sans c'médecin qui t'ranime On a tous un boulet au pied jusqu'au jour où on sera libres On m'a dit toi Rachid, va falloir un jour que tu pries vu qu'c'est bien beau d'faire du rap mais sache bien pourquoi t'écris Pourquoi j'finirai meurtri ? T'as vu combien crève la dalle Vire le doigt de la gâchette, t'as pas encore placé la balle Le monde est plein de mythomane C'est la famille, Paco Rabanne Comme toutes ces pubs à la télé ont tous besoin d'une femme à poil Tu m'diras ça sert à quoi ? J'ai même plus l'temps d'y réfléchir On sait Loïc aura du taffe, ce sera pas la même pour Bachir J'ai pas l'envie de me cacher La route est longue vu mon trajet Si en France on est pas chez soi, ailleurs nous serons des étrangers C'est c'qu'on m'a trop répété et ça depuis l'école primaire À force de voir une mère en pleurs, j'n'ai pas été disciplinaire J'ai rien trouvé d'ordinaire, juste atteint d'une mélomanie Combien d'petits au bled veulent finir à la Cheb Mami D'autres ont passé dans une valise en espérant qu'on les serre pas L'avenir ici en France, c'est s'amuser avec un serpent Voir un petit peu les concertants Vas-y laisse-moi rapper en paix Si tu veux un son comme d'habitude, t'iras encore le pirater Si t'as deux-trois CD vierges, normal tu iras le graver Je suis comme toi, au ras du sol Je m'fais plus mal sur le gravier Originaire de Sète, une petite ville perchée dans le Sud Si j'ai pris l'stylo un jour, c'est qu'j'ai réfléchi à un truc Un trip général qui m'a donné l'envie d'écrire Et quand j'leur dis que j'fais du rap, ils ont toujours peur que j'détruis et mon image est salie Et toutes les radios t'le constate Moi j'aime la rime, la phrase, celle qui m'réveille de bon sbah Dis-moi qui a voulu qu'on s'barre et qu'on s'écrase face au système Si t'es rageux, reste seul, à ce qui nous ken Vu qu'plus personne veut s'faire mettre à l'amende Et qu'personne veut qu'on les commande On doit juste ouvrir les yeux même si on te les a bandés You might also like Essayez d'ouvrir les yeux quand la détresse les a bandés Impossible d'rallumer une caisse quand tu l'as planté Enfermé dans une pièce, on a eu l'temps d'rêver et s'dire qu'avec ou sans thune, tous les humains vont - Mais malgré tout, bon bah On retrouve quand même l'esprit de... - À travers qui, à travers le petit... - À travers... heu... Demi Portion - Voilà, c'est ça ! - Voilà c'est ça ! - Et le groupe, c'est les Grandes Gueules ? - Le groupe, les Grandes Gueules ! Casse-dédi à Demi Portion ahah - Voilà</t>
+          <t>Saches que malgré toute chose, nous sommes juste de passage Essayez d'ouvrir les yeux x2 Essayez d'ouvrir les yeux quand la détresse les a bandés Impossible d'rallumer une caisse quand tu l'as planté Enfermé dans une pièce, on a eu l'temps d'rêver et s'dire qu'avec ou sans thune, tous les humains vont crever Tu m'diras qu'après ce texte, que je suis un peu trop glauque Que toute ma génération s'est enfumée dans un bloc 25 ans, alerte à t'raconter mes galères Si j'ai pris l'stylo un jour, j'l'ai pas fait pour un vieux salaire Faire que ça ou finir ma vie sur un Bic Désolé d'être sincère mais manger du rap reste un mythe Faire sauter la dynamite, j'ai laissé ça aux terro' Et saches que tu n'apporteras rien même tes fausses dents en céramique Si nos blessures nous rallient et qu'on bave tous face à l'euro Même l'Homme et tous ses calculs ne fera plus de pyramide La machine est si rapide, savoir vivre et s'y rallier Si cher que parfois ici, je glisse même comme au rallye Malade ou devenir fou sans c'médecin qui t'ranime On a tous un boulet au pied jusqu'au jour où on sera libres On m'a dit toi Rachid, va falloir un jour que tu pries vu qu'c'est bien beau d'faire du rap mais sache bien pourquoi t'écris Pourquoi j'finirai meurtri ? T'as vu combien crève la dalle Vire le doigt de la gâchette, t'as pas encore placé la balle Le monde est plein de mythomane C'est la famille, Paco Rabanne Comme toutes ces pubs à la télé ont tous besoin d'une femme à poil Tu m'diras ça sert à quoi ? J'ai même plus l'temps d'y réfléchir On sait Loïc aura du taffe, ce sera pas la même pour Bachir J'ai pas l'envie de me cacher La route est longue vu mon trajet Si en France on est pas chez soi, ailleurs nous serons des étrangers C'est c'qu'on m'a trop répété et ça depuis l'école primaire À force de voir une mère en pleurs, j'n'ai pas été disciplinaire J'ai rien trouvé d'ordinaire, juste atteint d'une mélomanie Combien d'petits au bled veulent finir à la Cheb Mami D'autres ont passé dans une valise en espérant qu'on les serre pas L'avenir ici en France, c'est s'amuser avec un serpent Voir un petit peu les concertants Vas-y laisse-moi rapper en paix Si tu veux un son comme d'habitude, t'iras encore le pirater Si t'as deux-trois CD vierges, normal tu iras le graver Je suis comme toi, au ras du sol Je m'fais plus mal sur le gravier Originaire de Sète, une petite ville perchée dans le Sud Si j'ai pris l'stylo un jour, c'est qu'j'ai réfléchi à un truc Un trip général qui m'a donné l'envie d'écrire Et quand j'leur dis que j'fais du rap, ils ont toujours peur que j'détruis et mon image est salie Et toutes les radios t'le constate Moi j'aime la rime, la phrase, celle qui m'réveille de bon sbah Dis-moi qui a voulu qu'on s'barre et qu'on s'écrase face au système Si t'es rageux, reste seul, à ce qui nous ken Vu qu'plus personne veut s'faire mettre à l'amende Et qu'personne veut qu'on les commande On doit juste ouvrir les yeux même si on te les a bandés Essayez d'ouvrir les yeux quand la détresse les a bandés Impossible d'rallumer une caisse quand tu l'as planté Enfermé dans une pièce, on a eu l'temps d'rêver et s'dire qu'avec ou sans thune, tous les humains vont - Mais malgré tout, bon bah On retrouve quand même l'esprit de... - À travers qui, à travers le petit... - À travers... heu... Demi Portion - Voilà, c'est ça ! - Voilà c'est ça ! - Et le groupe, c'est les Grandes Gueules ? - Le groupe, les Grandes Gueules ! Casse-dédi à Demi Portion ahah - Voilà</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3825,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Kery James Pardonne-moi si j'ai ignoré les bonnes choses Demi Portion Pardonne-moi si j'étais paumé Pardonne-moi si j'ai déconné Pardonne-moi si j'ai ignoré les bonnes choses Pardonne-moi pour toutes ces fautes commises Sans repères, perdu quand on a plus d'balise Pardonne-moi si j'parle avec toi de moins en moins Oui de chez moi, tu sais très bien qu'on a rien sans rien On se contente mais la vie m'a donné trop d'choses Voir des sourires c'est comme si j'gagnais le jackpot On s'dépasse, parfaite est l'hémorragie Les mots réagissent, hardcore comme Ideal J Pardonne moi si je t'ai menti un jour Pardonne-moi quand ma colère était si lourde Emmène-moi oui emmène-moi Pardonne-moi si j'ai rien donné Pardonne-moi si j't'ai tout volé Pardonne-moi si j'ai ignoré les bonnes choses Pardonne-moi si j'étais paumé Pardonne-moi si j'ai déconné Pardonne-moi si j'ai ignoré les bonnes choses You might also like Regard glacial, visage figé Rancune hivernale, sourire enneigé T'as le sang en ébullition mais l'coeur gelé La haine peut-être une prison la rancur des barbelés On peut pardonner sans oublier On peut reculer sans plier On peut donner sans attendre quoi que ce soit en retour Tout n'est pas à vendre Enfin chacun sa vision, ses raisons, ses pulsions, ses colères , ses addictions J'ai vu des rancuniens implorer le pardon Mais bon, on peut être entier et s'appeler demi portion Pardonne-moi si j'ai rien donné Pardonne-moi si j't'ai tout volé Pardonne-moi si j'ai ignoré les bonnes choses Pardonne-moi si j'étais paumé Pardonne-moi si j'ai déconné Pardonne-moi si j'ai ignoré les bonnes choses</t>
+          <t>Kery James Pardonne-moi si j'ai ignoré les bonnes choses Demi Portion Pardonne-moi si j'étais paumé Pardonne-moi si j'ai déconné Pardonne-moi si j'ai ignoré les bonnes choses Pardonne-moi pour toutes ces fautes commises Sans repères, perdu quand on a plus d'balise Pardonne-moi si j'parle avec toi de moins en moins Oui de chez moi, tu sais très bien qu'on a rien sans rien On se contente mais la vie m'a donné trop d'choses Voir des sourires c'est comme si j'gagnais le jackpot On s'dépasse, parfaite est l'hémorragie Les mots réagissent, hardcore comme Ideal J Pardonne moi si je t'ai menti un jour Pardonne-moi quand ma colère était si lourde Emmène-moi oui emmène-moi Pardonne-moi si j'ai rien donné Pardonne-moi si j't'ai tout volé Pardonne-moi si j'ai ignoré les bonnes choses Pardonne-moi si j'étais paumé Pardonne-moi si j'ai déconné Pardonne-moi si j'ai ignoré les bonnes choses Regard glacial, visage figé Rancune hivernale, sourire enneigé T'as le sang en ébullition mais l'coeur gelé La haine peut-être une prison la rancur des barbelés On peut pardonner sans oublier On peut reculer sans plier On peut donner sans attendre quoi que ce soit en retour Tout n'est pas à vendre Enfin chacun sa vision, ses raisons, ses pulsions, ses colères , ses addictions J'ai vu des rancuniens implorer le pardon Mais bon, on peut être entier et s'appeler demi portion Pardonne-moi si j'ai rien donné Pardonne-moi si j't'ai tout volé Pardonne-moi si j'ai ignoré les bonnes choses Pardonne-moi si j'étais paumé Pardonne-moi si j'ai déconné Pardonne-moi si j'ai ignoré les bonnes choses</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3842,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Beaucoup sont dans mon cas mais ne le revendiquent pas trop Je t'ai plus reconnu, t'as permis à des gens de venir te gueuler à la figure te dire que t'étais nul. Quand ça a été trop dur tu t'es trouvé un responsable, une ombre qui tempêcherait d'éclore J'vais te dire un truc que tu sais déjà... Depuis l'époque tu sais qu'on est partis de rien La même école oui nous sommes tous partis de rien On est nombreux, y'a du monde qui sont partis de rien Sans oublier que chaque son est venu de loin Parce qu'on est forts et qu'on s'bat pour le maintien Compte pas les morts, on va partir c'est certain Malgré les portes fermées, fallait casser la serrure J'ai vu des potes enfermés ou s'endormir dans la rue J'ai vu l'alcool bousiller toute une famille entière Non, non j'fais pas d'rap, j'bosse dans l'humanitaire On parle à tous ceux qui s'perdent sans même crier à l'aide Cousin c'est ça le mélange c'est pour Loïc ou Mohamed Nouveaux lyrics aux manettes, on a les clés des menottes Mon rap parle à tout le monde, tu sais que plus rien nous arrête Parce qu'on est partis de rien et vu les moyens du bord J'ai conservé mes marins dans un vrai bateau Hip-Hop Encore un classique pour nous fidèle et poétique À force de nous mettre à genoux, on assure mieux qu'un génie À force de nous mettre à bout, on a recollé les fils On n'peut pas plaire à tout le monde même pour les plus jolis You might also like Depuis l'époque tu sais qu'on est partis de rien La même école oui nous sommes tous partis de rien On est nombreux, y'a du monde qui sont partis de rien Sans oublier que chaque son est venu de loin Et oui les petits m'écoutent, j'ai voulu rester poli Mais bon ça pollue des fois comme du côté police Les dossiers d'la justice ou les personnes qui te jugent Y'a pas d'justice, pas d'paix parce qu'on n'y voit rien d'juste Oui on demande rien d'plus, toi tu sais pas, parle pas J'ai attendu, rien à changer depuis l'époque de l'Amstrad Tu sors en ville et comme par hasard y'a aucune belle parade Et le théâtre de chez moi n'invite que Pierre Palmade J'te parle pas de balade non, on y arrive même pas là Mais bon t'avances, c'est pas grave même sur une peau d'banane Mais bon je change de canal, les mêmes infos partout Consomme, même le kebab n'a plus l'goût d'Istanbul Beaucoup d'arnaques dans l'coup, même si tu lâches ta pièce Et quand ça pue c'est les riches qui s'exilent en grosse caisse Mais bon y'a pas d'problème, on apprend à plus s'plaindre Et pour le reste j'vais placer un refrain sans suspens Depuis l'époque tu sais qu'on est partis de rien La même école oui nous sommes tous partis de rien On est nombreux, y'a du monde qui sont partis de rien Sans oublier que chaque son est venu de loin Le soleil, les arcs en ciel c'est pas le monde, il y a de vraies tempêtes, de lourdes épreuves. Aussi grand et fort que tu sois, la vie te mettra à genoux et te laissera comme ça en permanence si tu la laisses faire. Toi, moi, n'importe qui, personne ne frappe aussi fort que la vie. C'est pas dêtre un bon cogneur qui compte, l'important c'est de se faire cogner et d'aller quand même de l'avant, c'est de pouvoir encaisser sans jamais, jamais flancher, c'est comme ça qu'on gagne Beaucoup sont dans mon cas mais ne le revendiquent pas trop</t>
+          <t>Beaucoup sont dans mon cas mais ne le revendiquent pas trop Je t'ai plus reconnu, t'as permis à des gens de venir te gueuler à la figure te dire que t'étais nul. Quand ça a été trop dur tu t'es trouvé un responsable, une ombre qui tempêcherait d'éclore J'vais te dire un truc que tu sais déjà... Depuis l'époque tu sais qu'on est partis de rien La même école oui nous sommes tous partis de rien On est nombreux, y'a du monde qui sont partis de rien Sans oublier que chaque son est venu de loin Parce qu'on est forts et qu'on s'bat pour le maintien Compte pas les morts, on va partir c'est certain Malgré les portes fermées, fallait casser la serrure J'ai vu des potes enfermés ou s'endormir dans la rue J'ai vu l'alcool bousiller toute une famille entière Non, non j'fais pas d'rap, j'bosse dans l'humanitaire On parle à tous ceux qui s'perdent sans même crier à l'aide Cousin c'est ça le mélange c'est pour Loïc ou Mohamed Nouveaux lyrics aux manettes, on a les clés des menottes Mon rap parle à tout le monde, tu sais que plus rien nous arrête Parce qu'on est partis de rien et vu les moyens du bord J'ai conservé mes marins dans un vrai bateau Hip-Hop Encore un classique pour nous fidèle et poétique À force de nous mettre à genoux, on assure mieux qu'un génie À force de nous mettre à bout, on a recollé les fils On n'peut pas plaire à tout le monde même pour les plus jolis Depuis l'époque tu sais qu'on est partis de rien La même école oui nous sommes tous partis de rien On est nombreux, y'a du monde qui sont partis de rien Sans oublier que chaque son est venu de loin Et oui les petits m'écoutent, j'ai voulu rester poli Mais bon ça pollue des fois comme du côté police Les dossiers d'la justice ou les personnes qui te jugent Y'a pas d'justice, pas d'paix parce qu'on n'y voit rien d'juste Oui on demande rien d'plus, toi tu sais pas, parle pas J'ai attendu, rien à changer depuis l'époque de l'Amstrad Tu sors en ville et comme par hasard y'a aucune belle parade Et le théâtre de chez moi n'invite que Pierre Palmade J'te parle pas de balade non, on y arrive même pas là Mais bon t'avances, c'est pas grave même sur une peau d'banane Mais bon je change de canal, les mêmes infos partout Consomme, même le kebab n'a plus l'goût d'Istanbul Beaucoup d'arnaques dans l'coup, même si tu lâches ta pièce Et quand ça pue c'est les riches qui s'exilent en grosse caisse Mais bon y'a pas d'problème, on apprend à plus s'plaindre Et pour le reste j'vais placer un refrain sans suspens Depuis l'époque tu sais qu'on est partis de rien La même école oui nous sommes tous partis de rien On est nombreux, y'a du monde qui sont partis de rien Sans oublier que chaque son est venu de loin Le soleil, les arcs en ciel c'est pas le monde, il y a de vraies tempêtes, de lourdes épreuves. Aussi grand et fort que tu sois, la vie te mettra à genoux et te laissera comme ça en permanence si tu la laisses faire. Toi, moi, n'importe qui, personne ne frappe aussi fort que la vie. C'est pas dêtre un bon cogneur qui compte, l'important c'est de se faire cogner et d'aller quand même de l'avant, c'est de pouvoir encaisser sans jamais, jamais flancher, c'est comme ça qu'on gagne Beaucoup sont dans mon cas mais ne le revendiquent pas trop</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3859,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Demi Portion Ecoute ça, non non J'n'ai pas encore trouvé la vie belle Entre l'alcool et ce shit, on s'approche plus de la Vittel Moi c'est Rachid et trop soucieux depuis la vingtaine Les mineurs ne s'amusent plus sans passer par la heineken Nahal sheitan, j'te dirai même que j'ai vu de tout Nos fleurs n'ont plus d'pétales, nos fruits n'ont plus de goût Nos frères manquent trop de sous L'Afrique n'a plus de sources Et j'coure vous passer l'relais même si je suis à bout de souffle Ma vie, j'tue un dilemme, arrive aussitôt l'autre Jamais pensé à consulter psychiatre ou psychologue Pourtant, y'a trop de fois où je vire Trop de poids aux chevilles comme quand la dalle nous incite au vol En vrai la paix, on l'attend depuis un bail XXX te l'a dit, du rap à la guerre, y'a qu'un pas J'suis navré si la rime est trop brute Et pas besoin d'une haleine de feu pour que le micro brûle You might also like XXX de vous passer le relais, on cherche toujours à trouver l'but avec la couleur XXX On s'est trop niqués A force de descendre et monter car j'm'en fous d'finir en bas Insulte moi de révolté, moi y'a longtemps qu'j'suis réveillé Et sans toucher au café Que tu sois maigre, gros ou tassé comme John Café Que t'aimes le rap qui taffe à l'ombre avec la rime qui va très loin Vas-y regarde un peu derrière, je viens te passer le témoin Perdu d'vue, placé l'présent dans mon phrasé Bienvenu dans l'brasier, disons qu'c'rap m'a mis les bracelets J'suis pas là pour brasser, la rue j'veux pas l'embrasser Pour qu'j'puisse aller en classe, c'est mon grand-père qu'ils ont écrasé Mon destin est tracé, mes XXX laissé en partant L'homme ne craint plus Dieu, la question reste on part quand ? Ma mère me dit n'fait pas l'con, c'est chaud elle voie d'son balcon Venu passer l'relais sur une prod à mon frère XXX Overdose de caractère dans beaucoup de secteurs Les alliances se font rares, matte le rétroviseur Noire est l'atmosphère et nos frères dans leur viseur L'adversaire XXX prétend tenir la victoire Revendique son empire, ignore la fin d'l'histoire Commence à réfléchir, il passe du rêve au cauchemar Il transpire trop tard Son avenir est scellé S'réveille dans l'corbillard puis passe le relais Quand j'te disais dans un texte ça fait longtemps que j'milite C'est pas pour rien, c'est pour les frangins donc j'passe le relais Car y'a trop d'relous qui nous mettent des bâtons dans les roues Mais t'inquiètes mec, notre famille tient debout Donc on lance le débat, qu'tu nous aimes ou pas C'n'est qu'le début, notre rime te met des baffes A la prod, c'est XXX et XXX Pour la positive création Essaie d'être moi-même Les mêmes thèmes, les mêmes problèmes Le même travail à la chaîne qu'on enchaîne depuis des semaines Le même qui traîne ses chaines, qui s'déchire et s'déchaîne Qui associe amour et haine car partout c'est bien la même et même Parfois j'saigne J'ai d'la peine et verse des litres Perdu dans l'système, voilà pourquoi on s'tue au shit, le même Des fois XXX à diriger la vingtaine J'passe le relais, y'a un blèm', les XXX sur la huitième A vos marques, prêt, partez On va pas attendre de toucher un quinté ou un XXX On accapare à notre manière de quoi rapporter T'as la prime du risque ou tu t'exprimes sur du mortier Car trop mis à l'écart en aparté Comme s'retrouver à dix dans un appart à glander Sur une prod à mon frère XXX, j'passe le relais Les frères, n'oubliez pas le jugement dernier Ma rancur s'abreuve et la guerre le sourire Elle récolte les blessures d'une ignorance ignorée J'ai la rétine souillée et l'sourire crispé Car la vie a souvent un goût amer et d'inégalité, XXX Ekéhé effort de réflexion Ma conscience est estropiée et nage en pleine confusion Et puis, consciemment je passe le relais Car nombreux d'nos frères se perdent dans la précarité 7 On s'est accusé chacun son tour On est venu faire l'effort de réflexion, c'est l'ADN qui renaît Nos grandes gueules par ces mots ne veulent pas être couronnées Tard on est juste de passage, j'ai beau hurlé Ignoré comme un enfant en base âge C'est pour les miens Tous les discrets et patients, les paroliers Que la vie ne XXX pas là pour aller vu qu'ici Le temps nous force à passer le relais On est arrivé à des situations pas logiques Ça mange le bitume mec, le malheur n'est pas magique Prends peur XXX certains ils l'imaginent Avec le cur, on vous parlera comme XXX Enchaînement d'erreurs du paillasse à la classe relais La rue c'est l'enfer, tr'as échappé, alors passe le relais Y'a que des médiateurs de merde qui voyait pas l'reflet Bismillah et hamdoulah, faudra garder comme vrai réflexe XXX ta bouche XXX la vie dans un monde de ouf Tu le sens que ça fuit, couplet 1 tu découvres Je m'arrange, je rentre, je suis avec le temps, je maîtrise, Créations positives et lui mesure des bêtises Le langage de la rue XXX Les petits l'apprennent vite en faisant des XXX interdits J'vais te passer le relai, la vie qui me rend dingue Ecoute nous à la chaîne car sur la tête, y'a un flingue XXX des tours pendant qu'ce XXX s'étend J'm'évade au bord d'létang XXX t'las dit, on rappe toujours dans les temps Pressé la détente ou bien charger les tanks Dans nos têtes, c'est la guerre Inutile de te détendre Savoir te défendre comme beaucoup veulent te descendre Ta jalousie saute aux yeux, cesse de te méprendre Aucun compte à rendre, passe le relais aux plus jeunes L'écrit loin d'être à vendre, du rap encré dans les gènes Chaud, passe le relais, ça commence, critique Pour tous ceux qui me connaissent, qui ont joué les hypocrites Deux dents en moins et mon regard de sauvage Musculation oblige pour celle qui se pratique avec la rage Huit mesures, j'ai pas l'temps J'en place une pour les quartiers, pour la prod, merci XXX Tu connais le métier Lescadrille, premier couplet dans vos archives Vas-y passe le relais mon frère au lieu d'taper dans l'esquive Je m'défends sur la feuille autan qu'un résistant au front Je m'libère façon crue, tant d'poigne à chaque son Pourquoi j'écris garçon ? XXX munitions Pourquoi j'prêche la bonne parole, pourquoi je m'remets en question ? Car seulement j'ai compris le poids des mots et l'addiction Et l'arme au goût de sang m'a fait comprendre c'qu'est le bon J'étais bloqué dans la brume et javançais sans boussole J'ai pu ouvrir les yeux quand je masquais l'horizon Les XXX et Rachid m'ont proposé d'passer l'relais Pour la première fois, tu m'verras pas en train d'voler Ou parler mal d'ces poulets J'peux pas, j'ai qu'une mesure A peine rentré dans le moule, est-ce que j'dois oublier mes blessures ? Ils nous empêchent d'avancer, nous ont scié le talon d'Achille Après toutes ces années d'attente, on est tous devenu agiles Suis-je e gardien d'mes frères ? J'ai pas si j'donne l'exemple, dédicacé aux Grandes Gueules Y faut qu'Seth, ça représente XXX je n'ai pas peur de perdre Appelle moi c'putain d'rappeur de guerre Dédicace pour les rappeurs de Seth Mec, n'espère pas que les Grandes Gueules se taisent On passera le relais à la plus grande relève Ne donne pas ton uc ou tu vas prendre le zgeg entre les cuisses Sache que t'es cuit si tu comptais nous test' Et ouais, c'est le trois-quatre de mon XXX à Seth Le relais je le passe, faut qu'ça le fasse comme mes premières cassettes</t>
+          <t>Demi Portion Ecoute ça, non non J'n'ai pas encore trouvé la vie belle Entre l'alcool et ce shit, on s'approche plus de la Vittel Moi c'est Rachid et trop soucieux depuis la vingtaine Les mineurs ne s'amusent plus sans passer par la heineken Nahal sheitan, j'te dirai même que j'ai vu de tout Nos fleurs n'ont plus d'pétales, nos fruits n'ont plus de goût Nos frères manquent trop de sous L'Afrique n'a plus de sources Et j'coure vous passer l'relais même si je suis à bout de souffle Ma vie, j'tue un dilemme, arrive aussitôt l'autre Jamais pensé à consulter psychiatre ou psychologue Pourtant, y'a trop de fois où je vire Trop de poids aux chevilles comme quand la dalle nous incite au vol En vrai la paix, on l'attend depuis un bail XXX te l'a dit, du rap à la guerre, y'a qu'un pas J'suis navré si la rime est trop brute Et pas besoin d'une haleine de feu pour que le micro brûle XXX de vous passer le relais, on cherche toujours à trouver l'but avec la couleur XXX On s'est trop niqués A force de descendre et monter car j'm'en fous d'finir en bas Insulte moi de révolté, moi y'a longtemps qu'j'suis réveillé Et sans toucher au café Que tu sois maigre, gros ou tassé comme John Café Que t'aimes le rap qui taffe à l'ombre avec la rime qui va très loin Vas-y regarde un peu derrière, je viens te passer le témoin Perdu d'vue, placé l'présent dans mon phrasé Bienvenu dans l'brasier, disons qu'c'rap m'a mis les bracelets J'suis pas là pour brasser, la rue j'veux pas l'embrasser Pour qu'j'puisse aller en classe, c'est mon grand-père qu'ils ont écrasé Mon destin est tracé, mes XXX laissé en partant L'homme ne craint plus Dieu, la question reste on part quand ? Ma mère me dit n'fait pas l'con, c'est chaud elle voie d'son balcon Venu passer l'relais sur une prod à mon frère XXX Overdose de caractère dans beaucoup de secteurs Les alliances se font rares, matte le rétroviseur Noire est l'atmosphère et nos frères dans leur viseur L'adversaire XXX prétend tenir la victoire Revendique son empire, ignore la fin d'l'histoire Commence à réfléchir, il passe du rêve au cauchemar Il transpire trop tard Son avenir est scellé S'réveille dans l'corbillard puis passe le relais Quand j'te disais dans un texte ça fait longtemps que j'milite C'est pas pour rien, c'est pour les frangins donc j'passe le relais Car y'a trop d'relous qui nous mettent des bâtons dans les roues Mais t'inquiètes mec, notre famille tient debout Donc on lance le débat, qu'tu nous aimes ou pas C'n'est qu'le début, notre rime te met des baffes A la prod, c'est XXX et XXX Pour la positive création Essaie d'être moi-même Les mêmes thèmes, les mêmes problèmes Le même travail à la chaîne qu'on enchaîne depuis des semaines Le même qui traîne ses chaines, qui s'déchire et s'déchaîne Qui associe amour et haine car partout c'est bien la même et même Parfois j'saigne J'ai d'la peine et verse des litres Perdu dans l'système, voilà pourquoi on s'tue au shit, le même Des fois XXX à diriger la vingtaine J'passe le relais, y'a un blèm', les XXX sur la huitième A vos marques, prêt, partez On va pas attendre de toucher un quinté ou un XXX On accapare à notre manière de quoi rapporter T'as la prime du risque ou tu t'exprimes sur du mortier Car trop mis à l'écart en aparté Comme s'retrouver à dix dans un appart à glander Sur une prod à mon frère XXX, j'passe le relais Les frères, n'oubliez pas le jugement dernier Ma rancur s'abreuve et la guerre le sourire Elle récolte les blessures d'une ignorance ignorée J'ai la rétine souillée et l'sourire crispé Car la vie a souvent un goût amer et d'inégalité, XXX Ekéhé effort de réflexion Ma conscience est estropiée et nage en pleine confusion Et puis, consciemment je passe le relais Car nombreux d'nos frères se perdent dans la précarité 7 On s'est accusé chacun son tour On est venu faire l'effort de réflexion, c'est l'ADN qui renaît Nos grandes gueules par ces mots ne veulent pas être couronnées Tard on est juste de passage, j'ai beau hurlé Ignoré comme un enfant en base âge C'est pour les miens Tous les discrets et patients, les paroliers Que la vie ne XXX pas là pour aller vu qu'ici Le temps nous force à passer le relais On est arrivé à des situations pas logiques Ça mange le bitume mec, le malheur n'est pas magique Prends peur XXX certains ils l'imaginent Avec le cur, on vous parlera comme XXX Enchaînement d'erreurs du paillasse à la classe relais La rue c'est l'enfer, tr'as échappé, alors passe le relais Y'a que des médiateurs de merde qui voyait pas l'reflet Bismillah et hamdoulah, faudra garder comme vrai réflexe XXX ta bouche XXX la vie dans un monde de ouf Tu le sens que ça fuit, couplet 1 tu découvres Je m'arrange, je rentre, je suis avec le temps, je maîtrise, Créations positives et lui mesure des bêtises Le langage de la rue XXX Les petits l'apprennent vite en faisant des XXX interdits J'vais te passer le relai, la vie qui me rend dingue Ecoute nous à la chaîne car sur la tête, y'a un flingue XXX des tours pendant qu'ce XXX s'étend J'm'évade au bord d'létang XXX t'las dit, on rappe toujours dans les temps Pressé la détente ou bien charger les tanks Dans nos têtes, c'est la guerre Inutile de te détendre Savoir te défendre comme beaucoup veulent te descendre Ta jalousie saute aux yeux, cesse de te méprendre Aucun compte à rendre, passe le relais aux plus jeunes L'écrit loin d'être à vendre, du rap encré dans les gènes Chaud, passe le relais, ça commence, critique Pour tous ceux qui me connaissent, qui ont joué les hypocrites Deux dents en moins et mon regard de sauvage Musculation oblige pour celle qui se pratique avec la rage Huit mesures, j'ai pas l'temps J'en place une pour les quartiers, pour la prod, merci XXX Tu connais le métier Lescadrille, premier couplet dans vos archives Vas-y passe le relais mon frère au lieu d'taper dans l'esquive Je m'défends sur la feuille autan qu'un résistant au front Je m'libère façon crue, tant d'poigne à chaque son Pourquoi j'écris garçon ? XXX munitions Pourquoi j'prêche la bonne parole, pourquoi je m'remets en question ? Car seulement j'ai compris le poids des mots et l'addiction Et l'arme au goût de sang m'a fait comprendre c'qu'est le bon J'étais bloqué dans la brume et javançais sans boussole J'ai pu ouvrir les yeux quand je masquais l'horizon Les XXX et Rachid m'ont proposé d'passer l'relais Pour la première fois, tu m'verras pas en train d'voler Ou parler mal d'ces poulets J'peux pas, j'ai qu'une mesure A peine rentré dans le moule, est-ce que j'dois oublier mes blessures ? Ils nous empêchent d'avancer, nous ont scié le talon d'Achille Après toutes ces années d'attente, on est tous devenu agiles Suis-je e gardien d'mes frères ? J'ai pas si j'donne l'exemple, dédicacé aux Grandes Gueules Y faut qu'Seth, ça représente XXX je n'ai pas peur de perdre Appelle moi c'putain d'rappeur de guerre Dédicace pour les rappeurs de Seth Mec, n'espère pas que les Grandes Gueules se taisent On passera le relais à la plus grande relève Ne donne pas ton uc ou tu vas prendre le zgeg entre les cuisses Sache que t'es cuit si tu comptais nous test' Et ouais, c'est le trois-quatre de mon XXX à Seth Le relais je le passe, faut qu'ça le fasse comme mes premières cassettes</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3876,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2k on the track Plus c'est gros plus ça passe plus ça passe Plus c'est gros plus ça Plus c'est gros plus ça passe plus ça passe Plus c'est gros plus ça J'reste chez moi, paraît que j'suis insortable Vas-y c'est bon, j'crois qu'il est l'heure d'se mettre à table Matte l'avenir, t'as bien vu qu'on est en retard Déjà petit j'visais oui l'panier comme 'El Jordan J'm'en fous, sans déconner, entouré d'connards On veut bien s'en sortir mais l'système nous voit taulards On veut parler sincère mais l'public en a trop marre Donc j'fais des freestyles, avant que la vague démarre On tue le temps, on tue le mic', ramène à bonne vib' On partira comme 2pac, drive-by J'avance doucement j'veux pas la guerre Les p'tits ont l'génie, non mais pas d'Aladin Ils ont la folie des grandeurs, menteur bac plus trois Nos corps n'ont pas d'puce, ils abusent ils l'ont pas vu j'crois On sort des cases, passe du temps à cogiter Corrompues sont leur idées, ça des médias jusqu'au JT Tout est corrosif l'économie, l'écologie, les colonies Le pire c'est qu'même les prolos nient Y a qu'là jeunesse pour une mise à l'amende morale Aussi vrai que Mysa manque au rap Le message est clair autant dire basta l'pauvre Marre des Plus c'est bon plus ça Plus c'est faux plus ça brasse Ouvre les yeux, plus c'est gros plus ça passe You might also like Avant l'virus ils portaient d'jà tous un masque Balivernes devenus banalités Comptes en Suisse, Bahamas, c'est la réalité Des coupables acquittés au JT d'Pujadas Plus c'est gros plus ça passe Cahuzac, Balkany Plus c'est gros plus ça Plus c'est gros plus ça passe Sarkozy, Khadafi Plus c'est gros plus ça Plus c'est gros plus ça passe Cahuzac, Balkany La vérité c'est rarement c'qu'on a devant les yeux Tu veux voir le monde tel qu'il est mais d'abord lâche ta télé Tellement d'infos on oublie tout c'qui s'passe mais jamais ceux qui partent ??? ??? On est pas comme eux c'est tant mieux</t>
+          <t>2k on the track Plus c'est gros plus ça passe plus ça passe Plus c'est gros plus ça Plus c'est gros plus ça passe plus ça passe Plus c'est gros plus ça J'reste chez moi, paraît que j'suis insortable Vas-y c'est bon, j'crois qu'il est l'heure d'se mettre à table Matte l'avenir, t'as bien vu qu'on est en retard Déjà petit j'visais oui l'panier comme 'El Jordan J'm'en fous, sans déconner, entouré d'connards On veut bien s'en sortir mais l'système nous voit taulards On veut parler sincère mais l'public en a trop marre Donc j'fais des freestyles, avant que la vague démarre On tue le temps, on tue le mic', ramène à bonne vib' On partira comme 2pac, drive-by J'avance doucement j'veux pas la guerre Les p'tits ont l'génie, non mais pas d'Aladin Ils ont la folie des grandeurs, menteur bac plus trois Nos corps n'ont pas d'puce, ils abusent ils l'ont pas vu j'crois On sort des cases, passe du temps à cogiter Corrompues sont leur idées, ça des médias jusqu'au JT Tout est corrosif l'économie, l'écologie, les colonies Le pire c'est qu'même les prolos nient Y a qu'là jeunesse pour une mise à l'amende morale Aussi vrai que Mysa manque au rap Le message est clair autant dire basta l'pauvre Marre des Plus c'est bon plus ça Plus c'est faux plus ça brasse Ouvre les yeux, plus c'est gros plus ça passe Avant l'virus ils portaient d'jà tous un masque Balivernes devenus banalités Comptes en Suisse, Bahamas, c'est la réalité Des coupables acquittés au JT d'Pujadas Plus c'est gros plus ça passe Cahuzac, Balkany Plus c'est gros plus ça Plus c'est gros plus ça passe Sarkozy, Khadafi Plus c'est gros plus ça Plus c'est gros plus ça passe Cahuzac, Balkany La vérité c'est rarement c'qu'on a devant les yeux Tu veux voir le monde tel qu'il est mais d'abord lâche ta télé Tellement d'infos on oublie tout c'qui s'passe mais jamais ceux qui partent ??? ??? On est pas comme eux c'est tant mieux</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3893,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Petit Bonhomme veut la paix Reflètes ça dans les miroirs On sauvera pas le monde avec tout ces cons au pouvoir Lamour est un sale couloir, la vie une salle de classe On peut choisir sa route avant de croiser une impasse Entre beat et contrebasse Jtrouve le temps et cest possible Lance linstru jnégocie vu que notre stylo est docile On fait partie de cette France Coincé dans le canon dun char On a pratiqué ce hip-hop Un peu comme un art martial On a la certitude déjà Dfaire confiance juste à nous même Apprendre à partager avec Mohamed et Manuel Stop on est tous pareil un jour on va disparaitre Et jte demande de rester simple Avant que le disque s'arrête Petit Bonhomme aime la paix Et cest comme ça quon lappelle Cest avec beaucoup de joie Quil aspire à chanter la paix Petit Bonhomme aime la paix Et cest comme ça quon lappelle You might also like Des fleurs ont poussé dans le béton wohoh Petit Bonhomme vit dans le ghetto wohoh Lavenir est à ceux qui se lèvent tôt wohoh Petit Bonhomme vit dans le ghetto yeah On dit que le silence est dor Jai essayé décrire une vie Mais je sais quil en reste encore Nous sommes des milliards dêtres humains À se poser les même questions Dès quon a une réponse on croit quinternet a raison Philosopher ça sert à quoi sur le terrain cest pas la même Moi jy vois pas dgénie non dans ce décors dAladdin On a voulu se balader à linconnu donnes y ta main Cest aussi mieux quune vitamine Ça donne la force et ça maintient Jfais du rap, on fait des rimes Cela fait de nous des écrivains La guerre a fait des morts Quon ne voit pas au musée Grévin Vas-y lèves ton verre Ma plume est un révolver On ne peut pas changer les cons Seulement avec un fond vert Entre la joie et la haine On attend que lamour nous aide Une pensée à ces familles Qui ne veulent quune bonne nouvelle Parce que je chante la vie Dun amour passionnel Parce que les ptits daujourdhui Les pros des ??? réel Des fleurs ont poussé dans le béton wohoh Petit Bonhomme vit dans le ghetto wohoh Lavenir est à ceux qui se lèvent tôt wohoh Petit Bonhomme vit dans le ghetto yeah Ouais petit, petit, petit, petit Maintenant quon est grand petit, petit, petit, petit On dit souvent quon sen fout petit, petit, petit, petit Mais les petits nous écoutent petit, petit, petit, petit Paroliers, la bonne école hein Petit Bonhomme, Demi Portion yeah Des fleurs ont poussé dans le béton wohoh Petit Bonhomme vit dans le ghetto wohoh Lavenir est à ceux qui se lèvent tôt wohoh Petit Bonhomme vit dans le ghetto yeah</t>
+          <t>Petit Bonhomme veut la paix Reflètes ça dans les miroirs On sauvera pas le monde avec tout ces cons au pouvoir Lamour est un sale couloir, la vie une salle de classe On peut choisir sa route avant de croiser une impasse Entre beat et contrebasse Jtrouve le temps et cest possible Lance linstru jnégocie vu que notre stylo est docile On fait partie de cette France Coincé dans le canon dun char On a pratiqué ce hip-hop Un peu comme un art martial On a la certitude déjà Dfaire confiance juste à nous même Apprendre à partager avec Mohamed et Manuel Stop on est tous pareil un jour on va disparaitre Et jte demande de rester simple Avant que le disque s'arrête Petit Bonhomme aime la paix Et cest comme ça quon lappelle Cest avec beaucoup de joie Quil aspire à chanter la paix Petit Bonhomme aime la paix Et cest comme ça quon lappelle Des fleurs ont poussé dans le béton wohoh Petit Bonhomme vit dans le ghetto wohoh Lavenir est à ceux qui se lèvent tôt wohoh Petit Bonhomme vit dans le ghetto yeah On dit que le silence est dor Jai essayé décrire une vie Mais je sais quil en reste encore Nous sommes des milliards dêtres humains À se poser les même questions Dès quon a une réponse on croit quinternet a raison Philosopher ça sert à quoi sur le terrain cest pas la même Moi jy vois pas dgénie non dans ce décors dAladdin On a voulu se balader à linconnu donnes y ta main Cest aussi mieux quune vitamine Ça donne la force et ça maintient Jfais du rap, on fait des rimes Cela fait de nous des écrivains La guerre a fait des morts Quon ne voit pas au musée Grévin Vas-y lèves ton verre Ma plume est un révolver On ne peut pas changer les cons Seulement avec un fond vert Entre la joie et la haine On attend que lamour nous aide Une pensée à ces familles Qui ne veulent quune bonne nouvelle Parce que je chante la vie Dun amour passionnel Parce que les ptits daujourdhui Les pros des ??? réel Des fleurs ont poussé dans le béton wohoh Petit Bonhomme vit dans le ghetto wohoh Lavenir est à ceux qui se lèvent tôt wohoh Petit Bonhomme vit dans le ghetto yeah Ouais petit, petit, petit, petit Maintenant quon est grand petit, petit, petit, petit On dit souvent quon sen fout petit, petit, petit, petit Mais les petits nous écoutent petit, petit, petit, petit Paroliers, la bonne école hein Petit Bonhomme, Demi Portion yeah Des fleurs ont poussé dans le béton wohoh Petit Bonhomme vit dans le ghetto wohoh Lavenir est à ceux qui se lèvent tôt wohoh Petit Bonhomme vit dans le ghetto yeah</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3910,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Le petit prince commença par visiter les planètes voisines Pour y chercher une occupation et pour s'instruire Petit Malik ou petit Théo Petit, on t'aime, mais petit, t'es où ? Petit timide, petit battant Dans le petit soldat dans un petit treillis Petit pays, oui, je t'aime trop fort Petit galère donne petit confort Petit naïf, petit bateau, petit bébé donc petits gâteaux Peut-il m'aider ? Petit garçon chante cette air, petite chanson On t'a averti mais tu n'écoutes pas Tu n'en fais qu'à ta tête car tu n'écoutes que toi Mon petit prince Mon petit prince Petite planète ou petite maison Petite cachette ou petite question Petite galère, petite bestiole Petit effort pour petite fleur Petite canaille ou petit t'canarde Pays, je t'aime, mais l'avenir va mal Petite est g'lée, rentre un petit peut Petit déjeuner featuring petit beurre Petit écart ou petit bourgeois J'avoue qu'c'est l'heure donc petit, bouge-toi Petit écart ou petit bourgeois J'avoue qu'c'est l'heure donc petit, bouge-toi Diego You might also like Je crois que c'est un mythe C'est pas un petit enfant le Petit Prince, c'est un, c'est un rêve On t'a averti mais tu n'écoutes pas Tu n'en fais qu'à ta tête car tu n'écoutes que toi Mon petit prince Mon petit prince Petit, écoute ma petite histoire Petites douleurs mais petit espoir Petit nomade pour petite terre Petit voyage dans une petite mer Petite larme pour petit chagrin Tu sais que je t'aime mais le dire, c'est bien Petite chanson chante ce petit air Grand problème pour un petit prince Grand problème pour un petit prince Grand problème pour un petit prince Grand problème pour un petit prince Et l'innocence, c'est quelque chose de perdu Je crois que on ne peut pas vivre innocemment On n'est jamais tout à fait à la hauteur de c'est rêves Le monde entier est un grand village Et les grandes choses dérivent souvent des p'tites</t>
+          <t>Le petit prince commença par visiter les planètes voisines Pour y chercher une occupation et pour s'instruire Petit Malik ou petit Théo Petit, on t'aime, mais petit, t'es où ? Petit timide, petit battant Dans le petit soldat dans un petit treillis Petit pays, oui, je t'aime trop fort Petit galère donne petit confort Petit naïf, petit bateau, petit bébé donc petits gâteaux Peut-il m'aider ? Petit garçon chante cette air, petite chanson On t'a averti mais tu n'écoutes pas Tu n'en fais qu'à ta tête car tu n'écoutes que toi Mon petit prince Mon petit prince Petite planète ou petite maison Petite cachette ou petite question Petite galère, petite bestiole Petit effort pour petite fleur Petite canaille ou petit t'canarde Pays, je t'aime, mais l'avenir va mal Petite est g'lée, rentre un petit peut Petit déjeuner featuring petit beurre Petit écart ou petit bourgeois J'avoue qu'c'est l'heure donc petit, bouge-toi Petit écart ou petit bourgeois J'avoue qu'c'est l'heure donc petit, bouge-toi Diego Je crois que c'est un mythe C'est pas un petit enfant le Petit Prince, c'est un, c'est un rêve On t'a averti mais tu n'écoutes pas Tu n'en fais qu'à ta tête car tu n'écoutes que toi Mon petit prince Mon petit prince Petit, écoute ma petite histoire Petites douleurs mais petit espoir Petit nomade pour petite terre Petit voyage dans une petite mer Petite larme pour petit chagrin Tu sais que je t'aime mais le dire, c'est bien Petite chanson chante ce petit air Grand problème pour un petit prince Grand problème pour un petit prince Grand problème pour un petit prince Grand problème pour un petit prince Et l'innocence, c'est quelque chose de perdu Je crois que on ne peut pas vivre innocemment On n'est jamais tout à fait à la hauteur de c'est rêves Le monde entier est un grand village Et les grandes choses dérivent souvent des p'tites</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3927,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Allez fais péter la fusil on rend hommage au rap FR Ah ah À nos galères, nos premiers titres sur CDR Donc très jeunes on se démerde, y a que l'argent que l'on sait faire Une platine, un Saphir, 100 voix sur la bande FM Y a du chemin de Sète à la Tour Eiffel Un homme fort reste un homme faible Donc j'ai enchaîné les scènes sans l'argent de la SACEM J'ai enchaîné les freestyles, tu peux demander à Kacem On passe du rire aux larmes, on écoute ACDC mélangé par MC Solaar Ni trop de rap ni Boom bap, par respect à ceux qui militent c'est mon art de rue Moi j'ai ma Funky family crions nous sommes des millions Proches de la sinsemillia On a la tête dans les nuages au sommet de l'Himalaya Ça change pas non on ne lâchera pas l'affaire non Y a pas moyen qu'on la ferme hmm Allez on refait la même toujours à fond sur scène Ça c'est un vrai phénomène Non, on ne lâchera pas l'affaire non Y a pas moyen qu'on la ferme hmm Allez on refait la même toujours à fond sur scène Ça c'est un vrai phénomène Phénomène, phénomène dis leurs Le travail on le fait nous même dis-leur Phénomène, phénomène c'est ça Le travail on le fait nous même dis-leur You might also likeOn a le style, et l'attitude, dans notre façon de pensée À la jeunesse et les anciens qui forment le rap français Du sud au nord, on est le mélange NTM- IAM On reste humains avec la rage d'un grand Super Saiyan Maître des cérémonies, beaucoup veulent serrer mon art J'prends des clichés de ma vie comme un sale appareil jetable Non, j'ai rien d'un gangsta, vas y roule un pétard, le reste on verra plus tard Alors écoute, si je doute, tendons la main en route On reste soudés, le reste tu sais, j'en ai rien à foutre Non j'ai pas le temps de racailler, plus le temps de batailler Disons qu'on est tous coupables du côté des condamnés J'ai des mots en guise de gun, j'écris ça me trompe l'il La joie est un tremplin, la colère a trop d'orgueil On a le style, l'attitude, dans notre façon de penser À la jeunesse et les anciens qui forment le rap français Ça change pas non on ne lâchera pas l'affaire non Y a pas moyen qu'on la ferme hmm Allez on refait la même toujours à fond sur scène Ça c'est un vrai phénomène Non, on ne lâchera pas l'affaire non Y a pas moyen qu'on la ferme hmmm Allez on refait la même toujours à fond sur scène Ça c'est un vrai phénomène Yeah, porte parole, pour tous ceux qui n'ont plus la force de parler One love, pour tous ceux qui nous aiment Demi portion On ne lâchera pas l'affaire Tu sais? Y a pas moyen qu'on la ferme Toujours à fond sur scène, ça c'est un vrai phénomène Ça change pas non on ne lâchera pas l'affaire non Y a pas moyen qu'on la ferme hmm Allez on refait la même toujours à fond sur scène Ça c'est un vrai phénomène Non, on ne lâchera pas l'affaire non Y a pas moyen qu'on la ferme hmm Allez on refait la même toujours à fond sur scène Ça c'est un vrai phénomène</t>
+          <t>Allez fais péter la fusil on rend hommage au rap FR Ah ah À nos galères, nos premiers titres sur CDR Donc très jeunes on se démerde, y a que l'argent que l'on sait faire Une platine, un Saphir, 100 voix sur la bande FM Y a du chemin de Sète à la Tour Eiffel Un homme fort reste un homme faible Donc j'ai enchaîné les scènes sans l'argent de la SACEM J'ai enchaîné les freestyles, tu peux demander à Kacem On passe du rire aux larmes, on écoute ACDC mélangé par MC Solaar Ni trop de rap ni Boom bap, par respect à ceux qui militent c'est mon art de rue Moi j'ai ma Funky family crions nous sommes des millions Proches de la sinsemillia On a la tête dans les nuages au sommet de l'Himalaya Ça change pas non on ne lâchera pas l'affaire non Y a pas moyen qu'on la ferme hmm Allez on refait la même toujours à fond sur scène Ça c'est un vrai phénomène Non, on ne lâchera pas l'affaire non Y a pas moyen qu'on la ferme hmm Allez on refait la même toujours à fond sur scène Ça c'est un vrai phénomène Phénomène, phénomène dis leurs Le travail on le fait nous même dis-leur Phénomène, phénomène c'est ça Le travail on le fait nous même dis-leur On a le style, et l'attitude, dans notre façon de pensée À la jeunesse et les anciens qui forment le rap français Du sud au nord, on est le mélange NTM- IAM On reste humains avec la rage d'un grand Super Saiyan Maître des cérémonies, beaucoup veulent serrer mon art J'prends des clichés de ma vie comme un sale appareil jetable Non, j'ai rien d'un gangsta, vas y roule un pétard, le reste on verra plus tard Alors écoute, si je doute, tendons la main en route On reste soudés, le reste tu sais, j'en ai rien à foutre Non j'ai pas le temps de racailler, plus le temps de batailler Disons qu'on est tous coupables du côté des condamnés J'ai des mots en guise de gun, j'écris ça me trompe l'il La joie est un tremplin, la colère a trop d'orgueil On a le style, l'attitude, dans notre façon de penser À la jeunesse et les anciens qui forment le rap français Ça change pas non on ne lâchera pas l'affaire non Y a pas moyen qu'on la ferme hmm Allez on refait la même toujours à fond sur scène Ça c'est un vrai phénomène Non, on ne lâchera pas l'affaire non Y a pas moyen qu'on la ferme hmmm Allez on refait la même toujours à fond sur scène Ça c'est un vrai phénomène Yeah, porte parole, pour tous ceux qui n'ont plus la force de parler One love, pour tous ceux qui nous aiment Demi portion On ne lâchera pas l'affaire Tu sais? Y a pas moyen qu'on la ferme Toujours à fond sur scène, ça c'est un vrai phénomène Ça change pas non on ne lâchera pas l'affaire non Y a pas moyen qu'on la ferme hmm Allez on refait la même toujours à fond sur scène Ça c'est un vrai phénomène Non, on ne lâchera pas l'affaire non Y a pas moyen qu'on la ferme hmm Allez on refait la même toujours à fond sur scène Ça c'est un vrai phénomène</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3944,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>J'ai pas attendu la merde pour me sortir de là L'humain est prêt à tout pour 1 million de dollars Je me rapproche de Dieu, ça apaise mon âme Dans la cage comme Khabib et j'ai le même programme Laisse-moi monter la barre, on élabore On remerciera jamais ceux qui m'ont claqué la porte Tendu la corde, soigner mes plaies De là je suis rentré dans la salle et j'ai soigné mes couplets Mais bon fallait ter-tout-pé Donc je relis mes ratures Alors j'ai géré ma carrière comme un putain de poids plume De là j'ai remis les gants, et j'ai tapé dans le sac Il fallait remettre un projet oui de nouveau dans les bacs Transpirer à l'entrainement, c'est ça la première étape Finir en indépendant puis enchainer les dates Le temps passe vite, imagine, je lève le majeur À ces batards qui nous baratinent dans leur téléviseur Bref, je prends du recul, mon stylo carbure Et une Dédicace à Beep-beep et ceux qui viennent de la zup J'ai pas le nez dans la zipette je me fous de la vitesse A tous les écorchés qui ont compris que la vie blesse On a tellement vu d'histoires qu'on pourrait avoir netflix J'ai tellement vu de scénarios que j'oublierais ma modestie J'ai peur pour nos gosses vu que ce monde est trop de-spee Maintenant faut tout filmer dès que t'es entouré de quinze flics Pour tout y'a polémique, partout y'a des gros titres Pourillée par les écrans mais toute la France manque d'inspi On a su garder l'espoir même si l'avenir est merdique Qui ose parler de droit, j'ai pris le sens interdit On écrit depuis des mois, à cent, pour cent À toutes les familles ouvrières, et grands ensembles You might also like On écrit depuis des mois, à cent, pour cent A toutes les familles ouvrières, et grands ensembles Poids plume Le thème est annoncé Sans scrupules On va les défoncer On a toujours pris le temps De contrôler ce qu'on fait Dis leur qu'on est de sortie Qu'on va pas rester coincés Poids plume 2 Et monsieur le DJ Envoie un son qui défonce Lève les bras Gérer ça comme un quatre-bras Qu'est-ce qu'il y a, t'es choqué quand je dis ça Style réfléchi, c'est pas le genre de rap qu'ils veulent Lève les bras Gérer ça comme un quatre-bras Qu'est-ce qu'il y a, t'es choqué quand je dis ça Lève la main Dans un style réfléchi Lève les bras Gérer ça comme un quatre-bras Qu'est-ce qu'il y a, t'es choqué quand je dis ça Dans un Style réfléchi, c'est pas le genre de rap qu'ils veulent Lève les bras Gérer ça comme un quatre-bras T'es choqué quand je dis ça, bouge pas, j'ai pas fini ....</t>
+          <t>J'ai pas attendu la merde pour me sortir de là L'humain est prêt à tout pour 1 million de dollars Je me rapproche de Dieu, ça apaise mon âme Dans la cage comme Khabib et j'ai le même programme Laisse-moi monter la barre, on élabore On remerciera jamais ceux qui m'ont claqué la porte Tendu la corde, soigner mes plaies De là je suis rentré dans la salle et j'ai soigné mes couplets Mais bon fallait ter-tout-pé Donc je relis mes ratures Alors j'ai géré ma carrière comme un putain de poids plume De là j'ai remis les gants, et j'ai tapé dans le sac Il fallait remettre un projet oui de nouveau dans les bacs Transpirer à l'entrainement, c'est ça la première étape Finir en indépendant puis enchainer les dates Le temps passe vite, imagine, je lève le majeur À ces batards qui nous baratinent dans leur téléviseur Bref, je prends du recul, mon stylo carbure Et une Dédicace à Beep-beep et ceux qui viennent de la zup J'ai pas le nez dans la zipette je me fous de la vitesse A tous les écorchés qui ont compris que la vie blesse On a tellement vu d'histoires qu'on pourrait avoir netflix J'ai tellement vu de scénarios que j'oublierais ma modestie J'ai peur pour nos gosses vu que ce monde est trop de-spee Maintenant faut tout filmer dès que t'es entouré de quinze flics Pour tout y'a polémique, partout y'a des gros titres Pourillée par les écrans mais toute la France manque d'inspi On a su garder l'espoir même si l'avenir est merdique Qui ose parler de droit, j'ai pris le sens interdit On écrit depuis des mois, à cent, pour cent À toutes les familles ouvrières, et grands ensembles On écrit depuis des mois, à cent, pour cent A toutes les familles ouvrières, et grands ensembles Poids plume Le thème est annoncé Sans scrupules On va les défoncer On a toujours pris le temps De contrôler ce qu'on fait Dis leur qu'on est de sortie Qu'on va pas rester coincés Poids plume 2 Et monsieur le DJ Envoie un son qui défonce Lève les bras Gérer ça comme un quatre-bras Qu'est-ce qu'il y a, t'es choqué quand je dis ça Style réfléchi, c'est pas le genre de rap qu'ils veulent Lève les bras Gérer ça comme un quatre-bras Qu'est-ce qu'il y a, t'es choqué quand je dis ça Lève la main Dans un style réfléchi Lève les bras Gérer ça comme un quatre-bras Qu'est-ce qu'il y a, t'es choqué quand je dis ça Dans un Style réfléchi, c'est pas le genre de rap qu'ils veulent Lève les bras Gérer ça comme un quatre-bras T'es choqué quand je dis ça, bouge pas, j'ai pas fini ....</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3961,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Couplet Envoies les mots Nouvelle démo Pour une poignée de punchlines 2 Première mesure, joli voyage Toujours en direction de Au sens propre, mon vieux L'envie de soigner chaque titre Mieux vaut, rester muet comme un Charlie Chaplin Toujours hip-hop Normal on suit notre propre wagon Rester soudé quoi qu'il arrive On gère notre escadron Trop de risques à prendre Trop de disques à vendre Et comme la fonky family On cherche plus à comprendre Donne moi un thème et je pars Mets du son dans le walkman L'industrie, clash royal Un gros niveau de Pacman Je m'adapte, en pleurs Même si les cris me chatouillent Reprenez vos pharaons, on reveut Tupac Shakur Indés vu qu'on touche tout On m'as dit Rach' nique tout Un somnambule qui se voit réveillé à Tombouctou Tout le monde a son coup d'essai Chacun a son Noctub Vouloir écire sensé Quitte à bosser sans sous Et vas-y tire une taff Le reste on verra plus tard Ce qui nous tue pas cousin nous rend plus fat On fait le taff, la virtuosité d'un caligraphe Parti de rien de Sète à la une sur Paris Match La vie est un jeu de cartes Je t'aurais sans carré d'as Malgré la nouvelle vague Je reste en marée basse Le monde est un calamar entre requins et poignée de crabes Le monde est un grand navire mais le cap s'est fait la malle Laisse-moi en bas de la montagne proche de mes campagnards Si je fais nimporte quoi, j'irais chez Remi gaillard Garde ta maille ouais ouais Utopiste c'est vrai T'envoies de la haine mais comment comment tu veux qu'on puisse s'aimer Minimiser les risques afin de protéger les albums Je connais le rap New Yorkais mieux que Donald Trump Je porte mon art yo Délivre mon argot On m'a dit tape fort vu que la prod' est marteau Il y a personne dehors je me sens comme Heisenberg De ma cuisine j'inove et ressors en charentaise Le rap game tu le sais on s'en fout pas mal On a préféré durer comme le group IAM Laisse-moi raper ma vie On y est L'humanisme une richesse qu'on à oublié Un stylo de platine accroché à mon sixième sens Je te connais pas mais je t'aimerais comme mon ami d'enfance On dit que la colère frappe Ou que l'amour tabasse Jeune et ambitieux De sète j'ai pris mon Parnasse Un cyclomatique on m'a dit oui t'es trop timide Mais j'aime les bolides La même en Sergio Tachini La même équipe, rien n'a changé Protège-toi on est jamais mieux servi sans témoin Donne-moi des mots Un poingée pour être un magicien Un joli tour ça se travaille Donc faut qu'on agisse bien Pour l'exciter c'est toujours mieux quand on se réveille à deux Tu manges bien donc c'est cool quand tu en donnes un peu C'est cool quand tu en donnes un peu C'est ça une poignée de punchlines 2 You might also likeCouplet en arabe je suppose, si quelqu'un veut bien l'écrire D</t>
+          <t>Couplet Envoies les mots Nouvelle démo Pour une poignée de punchlines 2 Première mesure, joli voyage Toujours en direction de Au sens propre, mon vieux L'envie de soigner chaque titre Mieux vaut, rester muet comme un Charlie Chaplin Toujours hip-hop Normal on suit notre propre wagon Rester soudé quoi qu'il arrive On gère notre escadron Trop de risques à prendre Trop de disques à vendre Et comme la fonky family On cherche plus à comprendre Donne moi un thème et je pars Mets du son dans le walkman L'industrie, clash royal Un gros niveau de Pacman Je m'adapte, en pleurs Même si les cris me chatouillent Reprenez vos pharaons, on reveut Tupac Shakur Indés vu qu'on touche tout On m'as dit Rach' nique tout Un somnambule qui se voit réveillé à Tombouctou Tout le monde a son coup d'essai Chacun a son Noctub Vouloir écire sensé Quitte à bosser sans sous Et vas-y tire une taff Le reste on verra plus tard Ce qui nous tue pas cousin nous rend plus fat On fait le taff, la virtuosité d'un caligraphe Parti de rien de Sète à la une sur Paris Match La vie est un jeu de cartes Je t'aurais sans carré d'as Malgré la nouvelle vague Je reste en marée basse Le monde est un calamar entre requins et poignée de crabes Le monde est un grand navire mais le cap s'est fait la malle Laisse-moi en bas de la montagne proche de mes campagnards Si je fais nimporte quoi, j'irais chez Remi gaillard Garde ta maille ouais ouais Utopiste c'est vrai T'envoies de la haine mais comment comment tu veux qu'on puisse s'aimer Minimiser les risques afin de protéger les albums Je connais le rap New Yorkais mieux que Donald Trump Je porte mon art yo Délivre mon argot On m'a dit tape fort vu que la prod' est marteau Il y a personne dehors je me sens comme Heisenberg De ma cuisine j'inove et ressors en charentaise Le rap game tu le sais on s'en fout pas mal On a préféré durer comme le group IAM Laisse-moi raper ma vie On y est L'humanisme une richesse qu'on à oublié Un stylo de platine accroché à mon sixième sens Je te connais pas mais je t'aimerais comme mon ami d'enfance On dit que la colère frappe Ou que l'amour tabasse Jeune et ambitieux De sète j'ai pris mon Parnasse Un cyclomatique on m'a dit oui t'es trop timide Mais j'aime les bolides La même en Sergio Tachini La même équipe, rien n'a changé Protège-toi on est jamais mieux servi sans témoin Donne-moi des mots Un poingée pour être un magicien Un joli tour ça se travaille Donc faut qu'on agisse bien Pour l'exciter c'est toujours mieux quand on se réveille à deux Tu manges bien donc c'est cool quand tu en donnes un peu C'est cool quand tu en donnes un peu C'est ça une poignée de punchlines 2 Couplet en arabe je suppose, si quelqu'un veut bien l'écrire D</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3978,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Aller départ c'est parti Envoi le son y pas de trêve Une poigne de punchlines 3 Entre Brassens et JACQUES BREL Qui ne se plante jamais n'a jamais une chance de pousser On a donc essayé tout, mais ça ne donne pas de rosier J'ai du mal a capter l'humain quand il n'a plus d'antenne Est-ce qu'on voit la vie en couleur dès qu'on a maté La Haine Aller, envoyez-moi les mots Toujours chaud pour une démo Dire que la vie est pédale Oui en sifflant sur un vélo Ouais, ouais ouais, on a tué le rap français avec dix milles, témoin On arrive toujours de loin Avec cette allure impeccable A la fois je suis un ??? avec un peu d'ATK Dédié aux machines de guerre À ces poètes qui me font vibrer Les rappeurs chantent la merde Et bien pire en sous-titré On s'prend la tête a chaque fois Daprès un parcours AUTHENTIQUE Y'en a marre de faire la queue Et de voir toujours les même types La route est longue, Rachid Honore le disque platine Et vu qu'on écoute ??? Laisse pas traîner ton SPLIFF On est premier sur le terrain oyo, parti de rien La zik est un matelas Se noyer tel un matelot Parfois je n'ai pas de mal Parfois je n'ai pas de mots Le bonheur illimité Du Bangladesh au ROHINGA On veut la paix, santé Comme les frangins à Noumeya oyo-yo Tu vois les enfants qu'on enterre On veut l'argent de la F1 nan nan, pas du WU-TANG C'est LÉGENDAIRE on dit souvent que les forts perdent Vis ton suces, toutes façon c'est à court termes Accident tellement, oui le rap nous aide tellement C'est comme vous placer ANTICONSTITUTIONNELLEMENT Le rap conscient, c'est le mode avion d'un téléphone La France n'a pas de couverture, on lui a mis un GILET JAUNE Aux générations délaissées C'qui minquiète ce n'est pas le ballon mais l'argent du PSG Posez les armes, et l'habit de fait pas l'imam La VIVACITE d'un homme se refait le ??? dans son image Au rap français je fais hommage, laissez nous chanter nos vies Et si Rachid rate l'avion, j'ferais pas la même que KEVIN Toujours dans l'timing Non l'temps est trop rapide Les souvenirs passent trop vite d'ALBATOR à ALEX KID Ma rime, reste LIMPIDE Imbibé par un TAJINE Réussir à se mélanger, moi y a que ça qui me fascine Le son est bon ???, balance un fond de CHAÂBI On aimerait voir ailleurs mais c'est pareil a MOZAMBIQUE On se tape la gueule de Marie à CHARLES DE GAULLE On nous fait croire que la vie est moins chère qu'une carte gold Oh Demi t'es énerve non j'ai travaillé l'album Avec une poignée volume 3 j'ai repris une salle de boxe You might also likeDemi P Give me 5 ALYSAH Rien de mieux que de s'exprimer Les mots sont des balles Demi portion Une poignée de punchlines 3</t>
+          <t>Aller départ c'est parti Envoi le son y pas de trêve Une poigne de punchlines 3 Entre Brassens et JACQUES BREL Qui ne se plante jamais n'a jamais une chance de pousser On a donc essayé tout, mais ça ne donne pas de rosier J'ai du mal a capter l'humain quand il n'a plus d'antenne Est-ce qu'on voit la vie en couleur dès qu'on a maté La Haine Aller, envoyez-moi les mots Toujours chaud pour une démo Dire que la vie est pédale Oui en sifflant sur un vélo Ouais, ouais ouais, on a tué le rap français avec dix milles, témoin On arrive toujours de loin Avec cette allure impeccable A la fois je suis un ??? avec un peu d'ATK Dédié aux machines de guerre À ces poètes qui me font vibrer Les rappeurs chantent la merde Et bien pire en sous-titré On s'prend la tête a chaque fois Daprès un parcours AUTHENTIQUE Y'en a marre de faire la queue Et de voir toujours les même types La route est longue, Rachid Honore le disque platine Et vu qu'on écoute ??? Laisse pas traîner ton SPLIFF On est premier sur le terrain oyo, parti de rien La zik est un matelas Se noyer tel un matelot Parfois je n'ai pas de mal Parfois je n'ai pas de mots Le bonheur illimité Du Bangladesh au ROHINGA On veut la paix, santé Comme les frangins à Noumeya oyo-yo Tu vois les enfants qu'on enterre On veut l'argent de la F1 nan nan, pas du WU-TANG C'est LÉGENDAIRE on dit souvent que les forts perdent Vis ton suces, toutes façon c'est à court termes Accident tellement, oui le rap nous aide tellement C'est comme vous placer ANTICONSTITUTIONNELLEMENT Le rap conscient, c'est le mode avion d'un téléphone La France n'a pas de couverture, on lui a mis un GILET JAUNE Aux générations délaissées C'qui minquiète ce n'est pas le ballon mais l'argent du PSG Posez les armes, et l'habit de fait pas l'imam La VIVACITE d'un homme se refait le ??? dans son image Au rap français je fais hommage, laissez nous chanter nos vies Et si Rachid rate l'avion, j'ferais pas la même que KEVIN Toujours dans l'timing Non l'temps est trop rapide Les souvenirs passent trop vite d'ALBATOR à ALEX KID Ma rime, reste LIMPIDE Imbibé par un TAJINE Réussir à se mélanger, moi y a que ça qui me fascine Le son est bon ???, balance un fond de CHAÂBI On aimerait voir ailleurs mais c'est pareil a MOZAMBIQUE On se tape la gueule de Marie à CHARLES DE GAULLE On nous fait croire que la vie est moins chère qu'une carte gold Oh Demi t'es énerve non j'ai travaillé l'album Avec une poignée volume 3 j'ai repris une salle de boxe Demi P Give me 5 ALYSAH Rien de mieux que de s'exprimer Les mots sont des balles Demi portion Une poignée de punchlines 3</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3995,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Disons quà la limite ça blesse, désolé dêtre franc Insupportable, nessaye pas détouffer un enfant Cest navrant comme un thriller qui te met un coup dfroid Ça fait peur mais jvais tenter de t'en parler quune fois Cest grave, tas vu cgosse qui a tué sa famille ? Ça va pas quand il découvre le fusil de Papa Ya des balles donc un armurier dans larmoire À la fin tout lmonde meurt donc jvais en parler quune fois Ça va vite comme la contrebande et ses taros Lhumain cherche la thune jusquà pirater Marlboro Fume, le boloss, le cancer va nous avoir Layster, Allah y ahfou, jvais en parler quune fois En fait, ici la mort nest quune question idiote Inédite comme linterphone qui est placé dans nos blocs Ya rien dneuf et pour ça jtinvite à venir voir Sur ce, jen ai fini en essayant den parler quune fois Jsuis parti de ce principe quon était tous fichés Ça va, ça vient, d'regarder ton salaire Deux mois dpaye dun ministre aiderait la Somalie entière Tfaçon, cest ça lfric et ces histoires de choix Ça joue un rôle chez lhumain, jvais en parler quune fois En effet, cest ça ou rien, on a rien dun saoudien Là où on sfout de tes objets en or dans ta salle de bain Bravo, ta chaise de luxe tappellera pas pour tasseoir Quand cest fini, cest fini, jvais en parler quune fois Je fais vite, les citoyens embobinés par le stress Les gens sévitent et ne sinvitent uniquement qu'par SMS Lebess à part ça, jai limpression quon nous broie Je sens une braise qui menflamme, donc jvais en parler quune fois Hardcore, cest ça, donne du boulot au CSA La vérité, à côté dça ya rien dintéressant Beaucoup ont faussé lexemple, un sale manège dans la foire Vivre à tous ceux qui militent, donc jvais en parler quune fois You might also like J'l'assume ça a jamais tué personne Tas vu, un français sur trois se sent raciste Se sent Derek ou une partie dAmerican History X Belek, ça créé des risques, mec réveille-toi Ya quune couleur qui nous sépare donc jvais en parler quune fois Arrêtez, ici tout lmonde veut faire parler de soi Des faux mariages, de vieille flûte comme Eva Longoria Apprendre par cur leur vie, ya pas quà Tony qujai mis une croix De Montana, ils tont eu donc jvais en parler quune fois Choquant comme la drogue et les espaces quelle occupe Cest mondial et mieux vendeur que Madonna et son cul L'ordure, stupéfiants, técartant de la voie Cest dur de la retrouver vite donc jvais en parler quune fois Le bled reste une fierté même si beaucoup loublient Là-bas j'ai une grande maison et ici jvis dans un taudis Bien sûr Koma, jdirais qutout l'monde doit le savoir Si seulement on sentraidait, jen parlerais même pas une fois La France de mon enfance ne m'a pas tout dit Là-bas jai une grande maison et ici jvis dans un taudis</t>
+          <t>Disons quà la limite ça blesse, désolé dêtre franc Insupportable, nessaye pas détouffer un enfant Cest navrant comme un thriller qui te met un coup dfroid Ça fait peur mais jvais tenter de t'en parler quune fois Cest grave, tas vu cgosse qui a tué sa famille ? Ça va pas quand il découvre le fusil de Papa Ya des balles donc un armurier dans larmoire À la fin tout lmonde meurt donc jvais en parler quune fois Ça va vite comme la contrebande et ses taros Lhumain cherche la thune jusquà pirater Marlboro Fume, le boloss, le cancer va nous avoir Layster, Allah y ahfou, jvais en parler quune fois En fait, ici la mort nest quune question idiote Inédite comme linterphone qui est placé dans nos blocs Ya rien dneuf et pour ça jtinvite à venir voir Sur ce, jen ai fini en essayant den parler quune fois Jsuis parti de ce principe quon était tous fichés Ça va, ça vient, d'regarder ton salaire Deux mois dpaye dun ministre aiderait la Somalie entière Tfaçon, cest ça lfric et ces histoires de choix Ça joue un rôle chez lhumain, jvais en parler quune fois En effet, cest ça ou rien, on a rien dun saoudien Là où on sfout de tes objets en or dans ta salle de bain Bravo, ta chaise de luxe tappellera pas pour tasseoir Quand cest fini, cest fini, jvais en parler quune fois Je fais vite, les citoyens embobinés par le stress Les gens sévitent et ne sinvitent uniquement qu'par SMS Lebess à part ça, jai limpression quon nous broie Je sens une braise qui menflamme, donc jvais en parler quune fois Hardcore, cest ça, donne du boulot au CSA La vérité, à côté dça ya rien dintéressant Beaucoup ont faussé lexemple, un sale manège dans la foire Vivre à tous ceux qui militent, donc jvais en parler quune fois J'l'assume ça a jamais tué personne Tas vu, un français sur trois se sent raciste Se sent Derek ou une partie dAmerican History X Belek, ça créé des risques, mec réveille-toi Ya quune couleur qui nous sépare donc jvais en parler quune fois Arrêtez, ici tout lmonde veut faire parler de soi Des faux mariages, de vieille flûte comme Eva Longoria Apprendre par cur leur vie, ya pas quà Tony qujai mis une croix De Montana, ils tont eu donc jvais en parler quune fois Choquant comme la drogue et les espaces quelle occupe Cest mondial et mieux vendeur que Madonna et son cul L'ordure, stupéfiants, técartant de la voie Cest dur de la retrouver vite donc jvais en parler quune fois Le bled reste une fierté même si beaucoup loublient Là-bas j'ai une grande maison et ici jvis dans un taudis Bien sûr Koma, jdirais qutout l'monde doit le savoir Si seulement on sentraidait, jen parlerais même pas une fois La France de mon enfance ne m'a pas tout dit Là-bas jai une grande maison et ici jvis dans un taudis</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4012,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Quai des brumes De ville en ville il y a qules brumes qui changent pas Du canal de ta ville à ma rue qui sent le chtar Mais non on navance pas dans la vie sans s'battre D'vant les naïf je passe pour un abruti quand jparle On appréhende le réveil les dimanches soir Rêve de quitter mon boulot tous les lundis, quand jpasse Au quai des brumes jen ai la rime qui flanche Voilà pourquoi jen ai la plume qui pense Tavances, tavances et au bout dla route tu trouves personne Perdu sur le quai des brumes et ses ruelles sombres Sobre ? non rien nest neutre dans le son Tu tétonnes, le rap français sest vu à Boston Mate comment les gosses cognent, les générations changent Sale, parait quon fait du rap pour parler quaux sages Quaux singes, quon est dans un zoo toute lannée Au bout de lallée un monde camé avec tout le temps dplaner Il ny a pas dheure pour dire ce quon pense Regarde le temps quon passe à chaque raison il y a une sale discordance Guette les circonstances, personne nest jamais content Dans chaque cirque on danse, et il y a peu dsourires partant A Sète ça a pas grandi pourtant Un peu con partout, à constater que les ptits deviennent grands Rien ne bouge, mais à côté de ça la planète tremble On dort même plus, les marchands de sable ont changé de stand De jour ou dnuit, sméfiant de cquon rconnait pas Nerveux, comme shabiller rouge dans une corrida Tu paries quoi ? Des fois jai peur quand il y a ctrou noir Sur cterritoire, dur de voir ses pas dans lbrouillard Dur dy croire, quand du nord au sud, grosse similitude Encore dehors, il fait jamais trop froid sur le quai des brumes Ce soir jvois la lune et une pluie torrentielle Jai mal, jrigole mais au fond de moi cest la torture ancienne You might also like De ville en ville il y a qules brumes qui changent pas Du canal de ta ville à ma rue qui sent le chtar Mais non on navance pas dans la vie sans s'battre D'vant les naïf je passe pour un abruti quand jparle On appréhende le réveil les dimanches soir Rêve de quitter mon boulot tous les lundis, quand jpasse Au quai des brumes jen ai la rime qui flanche Voilà pourquoi jen ai la plume qui pense On a agrandi dans des coins sales et plutôt défraîchis La Moselle a surement le taux le plus haut ddépressifs En chômage dégressif cest les nerfs qui parlent Et par chez nous lenvolée sociale a une aile qui bat Jai compris le gout dla crête, lintégration au jambon-beurre Técris qula Oumma ta tué avec le sang dton peuple Et leurs défauts ils vont en faire un business Il leur en faut peu pour être fier genre une R1 qui se lève Ca fait les primates mais linnocent essuie les brimades Ils en oublient combien la grâce de Dieu est inestimable Jsuis pas dhumeur, arrête de tpavaner devant limmeuble On est qudes basanés humiliés quand un bandit meurt Jai fait mes armes dans une cave de HLM Plus de putes dans le quartier que de taf chez HM Nan jfinirais pas célèbre, Dieu merci jai pas ce rêve Jattends qumes histoires se règlent, jaimerais partir lâme sereine Mon écriture est si profonde, tu crains la noyade Jpourrai tout foutre en lair après un voyage Sous le soleil harassant des bidons-villes du Maghreb Ten oublie les vents demployeurs qui tont foutu la crève Jfais ma salat au taf, jme pose plus de questions laïques Bientôt jarrête au mic, que dieu remplisse mon estomac vide Jai ramassé une plume au clair de lune un soir dautomne Gamin, si tu piges pas cest peut-être parce quon parle aux hommes Refrain Couplet 3 Si la vie est une pute, cest clair quelle bosse à son compte Ici-bas on est rien, et tous les jours elle nous le montre Tout est écrit frangin, il y a pas dbrouillon, pas dratures Je sais, parfois cest rageant comme une bavure Au passage mon kiff, schmitter un keuf Cest juste un fantasme ou lamertume nous bluffe Tu vois lgenre de questions qui trouve réponse au fond dune bouteille Tout est écrit et ça perturbe mon sommeil Les Stans blanches, les yeux rouges et la tchatche au bec Cétait écrit, mon rap naitrait sur les banc du XXX Entre les maths et les histoires de braquages Apprentissage de la vie, dans un dces parcs sous un dces nuages Pardon Papa, jai le cur meurtri et jpleure ma race de XXXXX Sinon jgrave toujours ma merde sur instrus Mais quest-ce tu veux jai bsoin dça, besoin dévacuer un peu Regarde cétait écrit que des frères partent Quils sfassent dépuceler avant lâge Avant de tfaire ton appart Des soeurs qui partent en live, un signe des temps Cétait écrit qujdécris dans le temps Des gruges en signe détat La chance, savoir la saisir Ou sfaire baiser sans plaisir Un arabe nommé désir Jcompte les lunes, mes thunes, le dos au mur au quai des brumes Refrain Outro Tu vois mon son en noir et blanc comme un film de guerre Et le temps passe comme une péniche de fret Le désespoir vous parait grand comme la ville de Kiev De la Moselle jusquà la ville de Sète On y côtoie que des crapules et des brutes Rachid et Karim les Grandes Gueules cest pour XXX Bienvenue dans mon bassin sur mon quai des brumes Kadaz et Mysa pour le nord-est et nos villes de khos</t>
+          <t>Quai des brumes De ville en ville il y a qules brumes qui changent pas Du canal de ta ville à ma rue qui sent le chtar Mais non on navance pas dans la vie sans s'battre D'vant les naïf je passe pour un abruti quand jparle On appréhende le réveil les dimanches soir Rêve de quitter mon boulot tous les lundis, quand jpasse Au quai des brumes jen ai la rime qui flanche Voilà pourquoi jen ai la plume qui pense Tavances, tavances et au bout dla route tu trouves personne Perdu sur le quai des brumes et ses ruelles sombres Sobre ? non rien nest neutre dans le son Tu tétonnes, le rap français sest vu à Boston Mate comment les gosses cognent, les générations changent Sale, parait quon fait du rap pour parler quaux sages Quaux singes, quon est dans un zoo toute lannée Au bout de lallée un monde camé avec tout le temps dplaner Il ny a pas dheure pour dire ce quon pense Regarde le temps quon passe à chaque raison il y a une sale discordance Guette les circonstances, personne nest jamais content Dans chaque cirque on danse, et il y a peu dsourires partant A Sète ça a pas grandi pourtant Un peu con partout, à constater que les ptits deviennent grands Rien ne bouge, mais à côté de ça la planète tremble On dort même plus, les marchands de sable ont changé de stand De jour ou dnuit, sméfiant de cquon rconnait pas Nerveux, comme shabiller rouge dans une corrida Tu paries quoi ? Des fois jai peur quand il y a ctrou noir Sur cterritoire, dur de voir ses pas dans lbrouillard Dur dy croire, quand du nord au sud, grosse similitude Encore dehors, il fait jamais trop froid sur le quai des brumes Ce soir jvois la lune et une pluie torrentielle Jai mal, jrigole mais au fond de moi cest la torture ancienne De ville en ville il y a qules brumes qui changent pas Du canal de ta ville à ma rue qui sent le chtar Mais non on navance pas dans la vie sans s'battre D'vant les naïf je passe pour un abruti quand jparle On appréhende le réveil les dimanches soir Rêve de quitter mon boulot tous les lundis, quand jpasse Au quai des brumes jen ai la rime qui flanche Voilà pourquoi jen ai la plume qui pense On a agrandi dans des coins sales et plutôt défraîchis La Moselle a surement le taux le plus haut ddépressifs En chômage dégressif cest les nerfs qui parlent Et par chez nous lenvolée sociale a une aile qui bat Jai compris le gout dla crête, lintégration au jambon-beurre Técris qula Oumma ta tué avec le sang dton peuple Et leurs défauts ils vont en faire un business Il leur en faut peu pour être fier genre une R1 qui se lève Ca fait les primates mais linnocent essuie les brimades Ils en oublient combien la grâce de Dieu est inestimable Jsuis pas dhumeur, arrête de tpavaner devant limmeuble On est qudes basanés humiliés quand un bandit meurt Jai fait mes armes dans une cave de HLM Plus de putes dans le quartier que de taf chez HM Nan jfinirais pas célèbre, Dieu merci jai pas ce rêve Jattends qumes histoires se règlent, jaimerais partir lâme sereine Mon écriture est si profonde, tu crains la noyade Jpourrai tout foutre en lair après un voyage Sous le soleil harassant des bidons-villes du Maghreb Ten oublie les vents demployeurs qui tont foutu la crève Jfais ma salat au taf, jme pose plus de questions laïques Bientôt jarrête au mic, que dieu remplisse mon estomac vide Jai ramassé une plume au clair de lune un soir dautomne Gamin, si tu piges pas cest peut-être parce quon parle aux hommes Refrain Couplet 3 Si la vie est une pute, cest clair quelle bosse à son compte Ici-bas on est rien, et tous les jours elle nous le montre Tout est écrit frangin, il y a pas dbrouillon, pas dratures Je sais, parfois cest rageant comme une bavure Au passage mon kiff, schmitter un keuf Cest juste un fantasme ou lamertume nous bluffe Tu vois lgenre de questions qui trouve réponse au fond dune bouteille Tout est écrit et ça perturbe mon sommeil Les Stans blanches, les yeux rouges et la tchatche au bec Cétait écrit, mon rap naitrait sur les banc du XXX Entre les maths et les histoires de braquages Apprentissage de la vie, dans un dces parcs sous un dces nuages Pardon Papa, jai le cur meurtri et jpleure ma race de XXXXX Sinon jgrave toujours ma merde sur instrus Mais quest-ce tu veux jai bsoin dça, besoin dévacuer un peu Regarde cétait écrit que des frères partent Quils sfassent dépuceler avant lâge Avant de tfaire ton appart Des soeurs qui partent en live, un signe des temps Cétait écrit qujdécris dans le temps Des gruges en signe détat La chance, savoir la saisir Ou sfaire baiser sans plaisir Un arabe nommé désir Jcompte les lunes, mes thunes, le dos au mur au quai des brumes Refrain Outro Tu vois mon son en noir et blanc comme un film de guerre Et le temps passe comme une péniche de fret Le désespoir vous parait grand comme la ville de Kiev De la Moselle jusquà la ville de Sète On y côtoie que des crapules et des brutes Rachid et Karim les Grandes Gueules cest pour XXX Bienvenue dans mon bassin sur mon quai des brumes Kadaz et Mysa pour le nord-est et nos villes de khos</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4029,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Leurs engrenages sont en surchauffe, jai la vision de laigle Une évasion en règle dans lencre nage sain et sauf Entre nuages et croûte terrestre, mes splendeurs sous cellophane Vendeurs de doutes lorsque tout fane, mes pages se défenestrent Des fleurs mortes sous mes fenêtres, des rêves dans un cendrier Voir notre honneur renaitre, une trêve avant de vriller Ouvrier de la plume, jai trimé pour le subtil Là où briller est inutile comme frimer dans cette large brume Nos baskets sur le bitume, tous courent à lenvers Mais les discours de ces pervers ne rachètent pas notre amertume Te rackette ? un peu de zèle comme de leau dans le gaz Et leurs machettes sont sur nos ailes, on est les frelots de Pégase Une génération dans le mur, trop de manchettes Les frérots crisent par des murmures, brisent leurs fémurs sur des planchettes Grise atmosphère, jétale mes tripes sur mes toiles Détale entre les étoiles et mextirpe de cet Enfer Par la création, cest des pétales que je respire Quand je rêve de réaction, dun putsch dans leur empire Peu de bouches daérations, quune pour nos textes Louche est ce contexte, pire ça frise laberration Jen ai franchi des monts, mes idées je suivrai Cest décidé que jarriverai affranchi devant leurs démons Jai appris et fait mes armes ici à lécole de la vie Compris le prix, leffet dune larme, que si tu décolles on tenvie You might also like Cest quelques rimes sous le ciel, cest rien de plus Chez nous rien dartificiel, tout cqui prime est dans nos plexus Quelques rimes sous le soleil Cest quelques rimes sous le ciel, cest rien de plus Chez nous rien dartificiel, tout cqui prime est dans nos plexus Chez nous rien dartificiel, tout cqui prime est dans nos plexus Parce quon a pas choisi dêtre comme ça, détrompe toi Laisse le boulot au clochard, il va mieux tparler du trottoir Souriez parce que cette vie va nous rapprocher du comptoir Bourré comme certains le pourront du matin au soir Parce quon a pas choisi de sourire devant un salaire Souffrir tout mais rien nvaut un je taime à sa mère Vas-y, paie ta galère, la monnaie nest que routine J'finis nos rimes, soyons sûr nous paiera pas une Lamborghini Encore à la bourre Demi avant qula date périme Les gens sortent plus entre Facebook et le Blackberry Non aucune blague terrible, ya plus dfemmes à marier Cest mort depuis que lamour accroche les bactéries Qui aurait cru à cconstat ? Personne Cest lcontraire tombe à leau, ya qudes requins qui tsauvent Mince, comment te dire quon choisit pas sa destinée Que le bon rappeur ici nest pas seulement le plus stylé Sous-estimé dvous, pt-être quon est fou un point cest tout Bien éloigné dvos grosses merdes mais en revanche chacun ses goûts On est en France calme-toi, tas pas le droit de parler fort Si tes une star bien sûr quon tjettera dans les ressorts Afin qutu grimpes vite, vite en oubliant le calvaire Chut, j'suis de l'Old School à la Maurice Clavel Salem, on sait quici plein de curieux sbaladent Un milieu sale à stirer les cheveux à la Francis Lalanne Paroles rédigées et expliquées par Rap Genius France</t>
+          <t>Leurs engrenages sont en surchauffe, jai la vision de laigle Une évasion en règle dans lencre nage sain et sauf Entre nuages et croûte terrestre, mes splendeurs sous cellophane Vendeurs de doutes lorsque tout fane, mes pages se défenestrent Des fleurs mortes sous mes fenêtres, des rêves dans un cendrier Voir notre honneur renaitre, une trêve avant de vriller Ouvrier de la plume, jai trimé pour le subtil Là où briller est inutile comme frimer dans cette large brume Nos baskets sur le bitume, tous courent à lenvers Mais les discours de ces pervers ne rachètent pas notre amertume Te rackette ? un peu de zèle comme de leau dans le gaz Et leurs machettes sont sur nos ailes, on est les frelots de Pégase Une génération dans le mur, trop de manchettes Les frérots crisent par des murmures, brisent leurs fémurs sur des planchettes Grise atmosphère, jétale mes tripes sur mes toiles Détale entre les étoiles et mextirpe de cet Enfer Par la création, cest des pétales que je respire Quand je rêve de réaction, dun putsch dans leur empire Peu de bouches daérations, quune pour nos textes Louche est ce contexte, pire ça frise laberration Jen ai franchi des monts, mes idées je suivrai Cest décidé que jarriverai affranchi devant leurs démons Jai appris et fait mes armes ici à lécole de la vie Compris le prix, leffet dune larme, que si tu décolles on tenvie Cest quelques rimes sous le ciel, cest rien de plus Chez nous rien dartificiel, tout cqui prime est dans nos plexus Quelques rimes sous le soleil Cest quelques rimes sous le ciel, cest rien de plus Chez nous rien dartificiel, tout cqui prime est dans nos plexus Chez nous rien dartificiel, tout cqui prime est dans nos plexus Parce quon a pas choisi dêtre comme ça, détrompe toi Laisse le boulot au clochard, il va mieux tparler du trottoir Souriez parce que cette vie va nous rapprocher du comptoir Bourré comme certains le pourront du matin au soir Parce quon a pas choisi de sourire devant un salaire Souffrir tout mais rien nvaut un je taime à sa mère Vas-y, paie ta galère, la monnaie nest que routine J'finis nos rimes, soyons sûr nous paiera pas une Lamborghini Encore à la bourre Demi avant qula date périme Les gens sortent plus entre Facebook et le Blackberry Non aucune blague terrible, ya plus dfemmes à marier Cest mort depuis que lamour accroche les bactéries Qui aurait cru à cconstat ? Personne Cest lcontraire tombe à leau, ya qudes requins qui tsauvent Mince, comment te dire quon choisit pas sa destinée Que le bon rappeur ici nest pas seulement le plus stylé Sous-estimé dvous, pt-être quon est fou un point cest tout Bien éloigné dvos grosses merdes mais en revanche chacun ses goûts On est en France calme-toi, tas pas le droit de parler fort Si tes une star bien sûr quon tjettera dans les ressorts Afin qutu grimpes vite, vite en oubliant le calvaire Chut, j'suis de l'Old School à la Maurice Clavel Salem, on sait quici plein de curieux sbaladent Un milieu sale à stirer les cheveux à la Francis Lalanne Paroles rédigées et expliquées par Rap Genius France</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4046,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Balik J'en ai marre de toute cette merde À n'y plus rien comprendre On nentend plus que le bruit partisan des armées Trop de mensonges et de postures le monde est en cendres Entre cancer de la foi et tumeur de la paix On en est où ? Je vois les gens se replier C'est le hasard c'est le bazar à toi de jeter les dés Dictatures ou démocraties, tous des tarés! Présidents de pères en fils et conflits d'intérêts Ya des promesses en pagaille des mensonges en cascade Des cols blancs en cavale et des gosses en cabane Quelqu'un a pris l'argent sous la table Et de source policière le député est coupable Ils veulent une société sélect alors ils éliminent à mort Définissent les torts, jettent par dessus bord Ils veulent vivre comme des riches et se comportent comme des porcs Ils se comportent comme des porcs Balik Demi Portion Quest ce qui nous tuera? Mais quest ce qui nous tuera? Quest ce qui nous tuera? Mais quest ce qui nous tuera? Demi Portion On nous a tué à coups de malbouffe Lhomme est un loup et sa famille se cache dans la brousse Quest-ce qui nous tuera? On est déjà en train de creuser Le monde est fou, a une démarche à la Keyser Söze On est là pour te sauver la musique le prédit Lamour coûte cher pour une tombe on te fera crédit Quest-ce qui nous tuera? Lair pur ou cette pollution Nique la politique qui ne trouve aucune solution Famine, répression, injustice, on ségare Pourquoi ça ne bouge pas depuis ma première SEGA? A qui profitent les crimes de létat? Demi P, mais quest-ce-qui nous tuera? Et jusquoù on ira? On sait doù on vient pas où on va Je suis né dans une famille modeste Linjustice et la guerre sont des choses que je déteste You might also like Balik Demi Portion Quest ce qui nous tuera? Mais quest ce qui nous tuera? Quest ce qui nous tuera? Mais quest ce qui nous tuera? Balik Mieux vaut louer lart de prendre la lumière Que de vivre dans le noir et la poussière Ne cherchez pas le paradis sur la terre Cest que tapi dans le noir lamour se perd Balik Demi Portion Quest ce qui nous tuera? Mais quest ce qui nous tuera? Quest ce qui nous tuera? Mais quest ce qui nous tuera?</t>
+          <t>Balik J'en ai marre de toute cette merde À n'y plus rien comprendre On nentend plus que le bruit partisan des armées Trop de mensonges et de postures le monde est en cendres Entre cancer de la foi et tumeur de la paix On en est où ? Je vois les gens se replier C'est le hasard c'est le bazar à toi de jeter les dés Dictatures ou démocraties, tous des tarés! Présidents de pères en fils et conflits d'intérêts Ya des promesses en pagaille des mensonges en cascade Des cols blancs en cavale et des gosses en cabane Quelqu'un a pris l'argent sous la table Et de source policière le député est coupable Ils veulent une société sélect alors ils éliminent à mort Définissent les torts, jettent par dessus bord Ils veulent vivre comme des riches et se comportent comme des porcs Ils se comportent comme des porcs Balik Demi Portion Quest ce qui nous tuera? Mais quest ce qui nous tuera? Quest ce qui nous tuera? Mais quest ce qui nous tuera? Demi Portion On nous a tué à coups de malbouffe Lhomme est un loup et sa famille se cache dans la brousse Quest-ce qui nous tuera? On est déjà en train de creuser Le monde est fou, a une démarche à la Keyser Söze On est là pour te sauver la musique le prédit Lamour coûte cher pour une tombe on te fera crédit Quest-ce qui nous tuera? Lair pur ou cette pollution Nique la politique qui ne trouve aucune solution Famine, répression, injustice, on ségare Pourquoi ça ne bouge pas depuis ma première SEGA? A qui profitent les crimes de létat? Demi P, mais quest-ce-qui nous tuera? Et jusquoù on ira? On sait doù on vient pas où on va Je suis né dans une famille modeste Linjustice et la guerre sont des choses que je déteste Balik Demi Portion Quest ce qui nous tuera? Mais quest ce qui nous tuera? Quest ce qui nous tuera? Mais quest ce qui nous tuera? Balik Mieux vaut louer lart de prendre la lumière Que de vivre dans le noir et la poussière Ne cherchez pas le paradis sur la terre Cest que tapi dans le noir lamour se perd Balik Demi Portion Quest ce qui nous tuera? Mais quest ce qui nous tuera? Quest ce qui nous tuera? Mais quest ce qui nous tuera?</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4063,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>J'voulais tout niquer mais j'aimais pas le porno File une feuille c'est mon côté écolo J'voulais parler de moi même mais je trouvais mieux chez toi Entre concert et une nuit dhôtel, explosé, à me lever tard Oui j'démarre, départ trace la route comme une bécane A 12 ans j'rappe, me régale, un vaisseau spatial Chaque fin de scène est cruciale, je n'abuse pas On attendait juste que l'artiste crie, monter c'est le freestyle C'était rare dans tous les cas, y'a pas de hasard J'pense pas qu'ça t'fait bizarre de voir Un bourré dans tous les bars Emporté par la zik la prod et toutes ses notes Toutes ces phrases d'aujourd'hui jusqu'au point les autres On s'prend la tête chaque fois pour faire du Real Hip Hop Et que tu le veuille ou pas c'est ça le Real Hip Hop On aime ça rien d'étonnant, crie Real Hip Hop On fait du Rap conscient? Ça c'est une belle question Maîtriser les mots fallait de l'entrainement Rachid a voulu faire ce qui lui correspond Depuis j'm'étonne et j'ignorais qu'on avançait doucement Soif d'apprendre et le partage pour moi c'est ça le Hip-Hop Première cassette premier disque les délires entre potes Ouais passe ton bac en même temps pour moi c'est ça le Hip-Hop Et trouve un travail à coté j't'assure y'a pas d'pipo L'ambition lacharnement de vouloir faire ça propre Toujours su dire que cet art on le dirige nous même Avec les moyens du bord et le Capitaine Haddock On crée la vague y'a pas de mirage c'est juste un phénomène You might also like Y'a pas qu'le Titanic qui a brisé la coque Envoi du son qu'on puisse s'évader nous même Qu'on puisse sauver les gosses et toutes ces femmes d'abord Non j'veux pas mourir maintenant y'a des naufragés qui traînent 2</t>
+          <t>J'voulais tout niquer mais j'aimais pas le porno File une feuille c'est mon côté écolo J'voulais parler de moi même mais je trouvais mieux chez toi Entre concert et une nuit dhôtel, explosé, à me lever tard Oui j'démarre, départ trace la route comme une bécane A 12 ans j'rappe, me régale, un vaisseau spatial Chaque fin de scène est cruciale, je n'abuse pas On attendait juste que l'artiste crie, monter c'est le freestyle C'était rare dans tous les cas, y'a pas de hasard J'pense pas qu'ça t'fait bizarre de voir Un bourré dans tous les bars Emporté par la zik la prod et toutes ses notes Toutes ces phrases d'aujourd'hui jusqu'au point les autres On s'prend la tête chaque fois pour faire du Real Hip Hop Et que tu le veuille ou pas c'est ça le Real Hip Hop On aime ça rien d'étonnant, crie Real Hip Hop On fait du Rap conscient? Ça c'est une belle question Maîtriser les mots fallait de l'entrainement Rachid a voulu faire ce qui lui correspond Depuis j'm'étonne et j'ignorais qu'on avançait doucement Soif d'apprendre et le partage pour moi c'est ça le Hip-Hop Première cassette premier disque les délires entre potes Ouais passe ton bac en même temps pour moi c'est ça le Hip-Hop Et trouve un travail à coté j't'assure y'a pas d'pipo L'ambition lacharnement de vouloir faire ça propre Toujours su dire que cet art on le dirige nous même Avec les moyens du bord et le Capitaine Haddock On crée la vague y'a pas de mirage c'est juste un phénomène Y'a pas qu'le Titanic qui a brisé la coque Envoi du son qu'on puisse s'évader nous même Qu'on puisse sauver les gosses et toutes ces femmes d'abord Non j'veux pas mourir maintenant y'a des naufragés qui traînent 2</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4080,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Hein, freestyle, dans le Cercle Hein, ça dit quoi ? Yo, ça y est, j'ai peur et j'voulais t'le dire Regarde, fatigué, tout comme nos yeux salourdissent Peur, mal au ventre, je sais qu'tu l'ressens Donc j'écris pour ceux qui partent ainsi que pour ceux qui patientent Malades ? On a essayé de rester conscients Nos vies ne sont pas des films même si on s'rapproche d'Audiard J'ai peur du Prophète, j'en ferai pas un titre La religion c'est dans l'cur , pas dans un clip vid' On s'empare de la lead, à toute heure au registre Envoie-moi une demi potion, on t'niquera Astérix Atteris à tes risques Et même si t'y vas franco, ils ont encore la mentalité du scénario d'Django En attendant, tiens l'coup, tâche de gérer ta colère J'apprends à leur faire mal avec une dictionnaire Avec une clope au bec, notre choré polluait, mec A s'prendre la tête pour écrire devant le bouton rec Au cinéma avec des acteurs qui déconnent , le blé A nous les seins les pop-corns Prends l'ticket, j't'invite à capter le tek Si y'a pas de victoire, alors admire ce qui reste d'une couple pleine Hendek ? Tout part avec et y'a personne qui r'vient Y'a rien de lourd, c'est d'la merde alors tu crois J'ai peur, dans l'délire, j'pense que tout vient de toi On est cool, on fond de nous, on a tous un peu de Vegeta J'ai peur et j'ai l'droit Toute manière, ça m'occupe Toute façon la bonne frappe reste importée du Sud Restez lucides, j'ai grandi en zub Savoir calculer son truc sans passer par Maths sup Sans passer par Maths Sup, c'est tout ce qu'il y a de facile On se fait p'tit, c'est les principes de Rachid Peur de l'avenir, de ce présent du passé A tout ceux qui s'amusent avec nous, surtout chez les hauts placés Peur de laisser passer, chaque jour est unique On veut faire son trou comme Francky au Bayern Munich Je déborde, je dribble, en attendant l'ouverture On fait la fête, on s'contente dès que y'a match nul You might also like 280 C'est BBL Wesh la cité, là</t>
+          <t>Hein, freestyle, dans le Cercle Hein, ça dit quoi ? Yo, ça y est, j'ai peur et j'voulais t'le dire Regarde, fatigué, tout comme nos yeux salourdissent Peur, mal au ventre, je sais qu'tu l'ressens Donc j'écris pour ceux qui partent ainsi que pour ceux qui patientent Malades ? On a essayé de rester conscients Nos vies ne sont pas des films même si on s'rapproche d'Audiard J'ai peur du Prophète, j'en ferai pas un titre La religion c'est dans l'cur , pas dans un clip vid' On s'empare de la lead, à toute heure au registre Envoie-moi une demi potion, on t'niquera Astérix Atteris à tes risques Et même si t'y vas franco, ils ont encore la mentalité du scénario d'Django En attendant, tiens l'coup, tâche de gérer ta colère J'apprends à leur faire mal avec une dictionnaire Avec une clope au bec, notre choré polluait, mec A s'prendre la tête pour écrire devant le bouton rec Au cinéma avec des acteurs qui déconnent , le blé A nous les seins les pop-corns Prends l'ticket, j't'invite à capter le tek Si y'a pas de victoire, alors admire ce qui reste d'une couple pleine Hendek ? Tout part avec et y'a personne qui r'vient Y'a rien de lourd, c'est d'la merde alors tu crois J'ai peur, dans l'délire, j'pense que tout vient de toi On est cool, on fond de nous, on a tous un peu de Vegeta J'ai peur et j'ai l'droit Toute manière, ça m'occupe Toute façon la bonne frappe reste importée du Sud Restez lucides, j'ai grandi en zub Savoir calculer son truc sans passer par Maths sup Sans passer par Maths Sup, c'est tout ce qu'il y a de facile On se fait p'tit, c'est les principes de Rachid Peur de l'avenir, de ce présent du passé A tout ceux qui s'amusent avec nous, surtout chez les hauts placés Peur de laisser passer, chaque jour est unique On veut faire son trou comme Francky au Bayern Munich Je déborde, je dribble, en attendant l'ouverture On fait la fête, on s'contente dès que y'a match nul 280 C'est BBL Wesh la cité, là</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4097,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>S'il fallait me découvrir, alors j'commence par celui-là Quand le soleil se couche, c'est là que se lèvent mes syllabes Si je commence par la base, ce n'est pas que des belles images Déjà petit en frimant l'couz, être à la place de limace Je voulais juste un volant histoire de tenir la route Les petits s'envolaient ayant le plan du mazout Donc on a peur de tout, que le bâton se retourne Nos enfants grandiront au milieu de sales vautours J'ai commencé ce texte, je devais avoir 13 ans Quand j'ai perdu papa dans des conditions stressantes Fallait tenir maman, surtout pas faire semblant Le rap c'est comme la boxe, sauf que j'montais sans gants La rue, m'a portée, bordé plusieurs soirs Je me vois encore zoner, à Barbes Rochechouart Petit, on a la dalle Envoie moi l'instrumentale Avec des petites miettes, je voulais faire une montagne Vingt ans après j'suis là Dieu merci, j'suis content Des sourires qu'on me donne car on ne compte que le temps Oui la parole est d'ange, mais vole au dessus des ténèbres J'ai appris à rapper sur des millions de BPM S'il fallait la refaire Je ferais exactement la même Disons que mon public cousin est dans un monde parallèle Des mixtapes, EPs, des albums c'est ce qu'il reste Et maintenant du streaming vas-y clique et puis meurt En vrai, je sais rapper mais je ne voulais pas être rappeur Un artiste qui marche bien devait être un menteur Un mentor, à mon tour Frère je donne ça encore Tant que la passion est là, je ferais ça avec le coeur Tu nous parles, que de cul, de ta petite queue J'ai préféré Mobb Deep et un petit pétard de Beuh Aujourd'hui c'est le deux On m'a dit demain c'est loin Heureusement, j'ai peur de Dieu Je crois qu'on est plus humain Bien sûr, on vivra mieux Laisse moi prêcher l'espoir J'en ai vu plusieurs partir avec la cam' du soir Oui on refera l'histoire C'est notre seule génération Bien arroser nos racines et partager nos rations On devient tous malade, à croire qu'on a le remède Fais un bisous à la grand mère Envoies-moi une carte du bled Le système jusqu'ici je crois qu'il aime trop ça On a perdu Jackson mamassi mama cossa You might also like Vas-y partage le gâteau Loin d'l'or noir du Quatar Rentrer comme Pelé Casser l'ompte à Neymar Faut bien que j'laisse une marque J'porte ce tailleur Le flow d'un mitrailleur Le dab d'un vrai trappeur, ma gueule Demi Potion C'est p't'être ça l'rap Laisses-nous vivre un p'tit peu Comme admirer un beau graf' Vivre avec son temps J'm'en fous des aristocrates1</t>
+          <t>S'il fallait me découvrir, alors j'commence par celui-là Quand le soleil se couche, c'est là que se lèvent mes syllabes Si je commence par la base, ce n'est pas que des belles images Déjà petit en frimant l'couz, être à la place de limace Je voulais juste un volant histoire de tenir la route Les petits s'envolaient ayant le plan du mazout Donc on a peur de tout, que le bâton se retourne Nos enfants grandiront au milieu de sales vautours J'ai commencé ce texte, je devais avoir 13 ans Quand j'ai perdu papa dans des conditions stressantes Fallait tenir maman, surtout pas faire semblant Le rap c'est comme la boxe, sauf que j'montais sans gants La rue, m'a portée, bordé plusieurs soirs Je me vois encore zoner, à Barbes Rochechouart Petit, on a la dalle Envoie moi l'instrumentale Avec des petites miettes, je voulais faire une montagne Vingt ans après j'suis là Dieu merci, j'suis content Des sourires qu'on me donne car on ne compte que le temps Oui la parole est d'ange, mais vole au dessus des ténèbres J'ai appris à rapper sur des millions de BPM S'il fallait la refaire Je ferais exactement la même Disons que mon public cousin est dans un monde parallèle Des mixtapes, EPs, des albums c'est ce qu'il reste Et maintenant du streaming vas-y clique et puis meurt En vrai, je sais rapper mais je ne voulais pas être rappeur Un artiste qui marche bien devait être un menteur Un mentor, à mon tour Frère je donne ça encore Tant que la passion est là, je ferais ça avec le coeur Tu nous parles, que de cul, de ta petite queue J'ai préféré Mobb Deep et un petit pétard de Beuh Aujourd'hui c'est le deux On m'a dit demain c'est loin Heureusement, j'ai peur de Dieu Je crois qu'on est plus humain Bien sûr, on vivra mieux Laisse moi prêcher l'espoir J'en ai vu plusieurs partir avec la cam' du soir Oui on refera l'histoire C'est notre seule génération Bien arroser nos racines et partager nos rations On devient tous malade, à croire qu'on a le remède Fais un bisous à la grand mère Envoies-moi une carte du bled Le système jusqu'ici je crois qu'il aime trop ça On a perdu Jackson mamassi mama cossa Vas-y partage le gâteau Loin d'l'or noir du Quatar Rentrer comme Pelé Casser l'ompte à Neymar Faut bien que j'laisse une marque J'porte ce tailleur Le flow d'un mitrailleur Le dab d'un vrai trappeur, ma gueule Demi Potion C'est p't'être ça l'rap Laisses-nous vivre un p'tit peu Comme admirer un beau graf' Vivre avec son temps J'm'en fous des aristocrates1</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4114,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Yeah On était jeunes, sans sous, ambitieux, vicieux J'me rappel du petit stade avec les yeux dans les bleus On n'oublie pas nos paroles, comme tout ces premiers concerts Avec passion, j'avance, averti j'observe Ce soir la scène est ouverte, plein de flow au millimètre J'tiens le rap à douze ans, en m'disant oui, c'est éphémère Dix-huit ans pleins d'nerfs, on apprend l'odeur de l'herbe Juste avant les histoires, et bien sûr frérot qu'on bas de l'aile Jenvoie des lignes en l'air, des sessions et des mixtapes M'extirpe de ce système, m'raproche de ceux qui m'aiment Reste fidèle aux freestyles, s'emparer d'un crystal À coter je fais plais' à mama comme protéger mes sistas Nul besoin d'insister, j'grandis dans l'anti-star Garder mon identité, désolé, ça s'refuses pas J'ai bousillé des Nike, dit-leur de rallumer le mic Si j'ai traversé la France, c'est pour ramener une vibe La population manque d'air, comme une couleur sur un graph En ces coins d'un building, ce vertige nous rattrape Alors on aime le rap, on continue comme d'hab De la gloire, on s'en tape depuis l'premier contact Et oui l'amour, ça date, on s'remet à nos souvenirs Fréro, j'reste comme Fabe avec la rage de dire J'en ai mangé du bitume, maman et ses inquiétudes Un survet' un , c'était une bonne attitude Alors on gobe la pilule, aux DJ et leurs cellules Aux vinyles qui ont tournés comme nos poètes de la rue x2 À ceux qui ont du vécus, on séloigne loin du vacarme Normal quand on cherche le calme, quand on s'prend des vacances Et encore, faux des thunes, bientôt l'air sera payante Même pour voir la nature, laddition sera saignante Interdit à la baignade, parait que l'monde a changé Plongé dans la merde, c'est gratuit, ça les fait manger J'ai fait un rétro de ma vie, bien sûr, j'parle de ma ville J'me rappel des coupols, hey, j'te jure, demandes à Nadir Aujourd'hui, j'fais des concerts, heureux de voir qu'on navigue Bien sûr en restant sincère j'ai appris à ce qu'on chavire La vibe reste la même énervée au bord de la mer On s'fait scred et s'exprimes d'un ton solennel J'aime le rap et j'ai pas l'envie de faire autre chose J'aime le rap et j'ai pas l'envie de faire autre chose You might also likeOn m'a dit toi, ne lâche pas, y'a pas de fiesta Nos vies sons des stories qui se terminent en hashtag Les grandes gueules, c'est ma life, rapper, écrire, toute la night Merci à toi qui m'écoutes, comment retirer ses doutes Bientôt, jarrête la musique, car le silence est une route Mon pseudo est à moitié, car j'ai perdu à donner La musique est une beauté qui n'a pas besoin de se montrer J'rap pour ceux qui ne peuvent pas La force est une manuvre qui ne marche pas toujours, ça dépendra des valeurs J'pourrais te parler de tomber, des dégâts que ça nous cause Qu'un toxico en galère ça transpirera pour une dose J'pourrais parler de mon quartier, bien sûr, j'y ai grandi Fier d'y être, qu'est-ce qu't'en dit ? Le pouvoir de s'en sortir, j'ai gardé le sourire pour m'en sortir Yeah Rien n'est éternel, on s'endort sur l'bordel On vois pas la vie en rose au milieu des chrysanthèmes On continue d'se battre malgré la crise sur Terre Il n'y a que la musique qui restera immortelle Yeah Beep Beep à la prod, RETRO J'vois pas la vie en rose au milieu des chrysanthèmes On continue d'se battre malgré la crise sur Terre Il n'y a que la musique qui restera immortelle2</t>
+          <t>Yeah On était jeunes, sans sous, ambitieux, vicieux J'me rappel du petit stade avec les yeux dans les bleus On n'oublie pas nos paroles, comme tout ces premiers concerts Avec passion, j'avance, averti j'observe Ce soir la scène est ouverte, plein de flow au millimètre J'tiens le rap à douze ans, en m'disant oui, c'est éphémère Dix-huit ans pleins d'nerfs, on apprend l'odeur de l'herbe Juste avant les histoires, et bien sûr frérot qu'on bas de l'aile Jenvoie des lignes en l'air, des sessions et des mixtapes M'extirpe de ce système, m'raproche de ceux qui m'aiment Reste fidèle aux freestyles, s'emparer d'un crystal À coter je fais plais' à mama comme protéger mes sistas Nul besoin d'insister, j'grandis dans l'anti-star Garder mon identité, désolé, ça s'refuses pas J'ai bousillé des Nike, dit-leur de rallumer le mic Si j'ai traversé la France, c'est pour ramener une vibe La population manque d'air, comme une couleur sur un graph En ces coins d'un building, ce vertige nous rattrape Alors on aime le rap, on continue comme d'hab De la gloire, on s'en tape depuis l'premier contact Et oui l'amour, ça date, on s'remet à nos souvenirs Fréro, j'reste comme Fabe avec la rage de dire J'en ai mangé du bitume, maman et ses inquiétudes Un survet' un , c'était une bonne attitude Alors on gobe la pilule, aux DJ et leurs cellules Aux vinyles qui ont tournés comme nos poètes de la rue x2 À ceux qui ont du vécus, on séloigne loin du vacarme Normal quand on cherche le calme, quand on s'prend des vacances Et encore, faux des thunes, bientôt l'air sera payante Même pour voir la nature, laddition sera saignante Interdit à la baignade, parait que l'monde a changé Plongé dans la merde, c'est gratuit, ça les fait manger J'ai fait un rétro de ma vie, bien sûr, j'parle de ma ville J'me rappel des coupols, hey, j'te jure, demandes à Nadir Aujourd'hui, j'fais des concerts, heureux de voir qu'on navigue Bien sûr en restant sincère j'ai appris à ce qu'on chavire La vibe reste la même énervée au bord de la mer On s'fait scred et s'exprimes d'un ton solennel J'aime le rap et j'ai pas l'envie de faire autre chose J'aime le rap et j'ai pas l'envie de faire autre chose On m'a dit toi, ne lâche pas, y'a pas de fiesta Nos vies sons des stories qui se terminent en hashtag Les grandes gueules, c'est ma life, rapper, écrire, toute la night Merci à toi qui m'écoutes, comment retirer ses doutes Bientôt, jarrête la musique, car le silence est une route Mon pseudo est à moitié, car j'ai perdu à donner La musique est une beauté qui n'a pas besoin de se montrer J'rap pour ceux qui ne peuvent pas La force est une manuvre qui ne marche pas toujours, ça dépendra des valeurs J'pourrais te parler de tomber, des dégâts que ça nous cause Qu'un toxico en galère ça transpirera pour une dose J'pourrais parler de mon quartier, bien sûr, j'y ai grandi Fier d'y être, qu'est-ce qu't'en dit ? Le pouvoir de s'en sortir, j'ai gardé le sourire pour m'en sortir Yeah Rien n'est éternel, on s'endort sur l'bordel On vois pas la vie en rose au milieu des chrysanthèmes On continue d'se battre malgré la crise sur Terre Il n'y a que la musique qui restera immortelle Yeah Beep Beep à la prod, RETRO J'vois pas la vie en rose au milieu des chrysanthèmes On continue d'se battre malgré la crise sur Terre Il n'y a que la musique qui restera immortelle2</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4131,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Cest en casquette et en petites Cortez Loin d'Los Angeles, chronologie avant 96 Paraît qule rap nappartenait quà des vrais combattants Ma première dose cest linjection dAfrika Bambaataa Attends, quand cette culture venait des U.S.A Les vrais le savent, copier leur style tout l'monde a rfait ça Cnest pas une mode d'vouloir dire cquon pense Monter un groupe cest simple car à lépoque tu en avais dix qui dansent Mesure pas ltemps qui passe, maître de cérémonie La 'zique ma mis un casque sans trop serrer la monnaie Rêve de gosse à accomplir, un bâillement et tout sefface Arrête, jai vite compris comment ça peut faire mal une phrase Ya lcollège qui est en face, le lycée mattend toujours si Mon carnet d'liaison, un emploi du temps d'un MC Sectaire et sans regret, qu'on me dit daller voir un psy Jaime écrire cest comme ça donc faire autre chose non merci Je regardais tout le monde en attendant que tout se passe Je ne faisais jamais de pause quand ils partaient en voyage Un rêve de gosse, que jvais bientôt me permettre Cest rare que jvoyage et pourtant jvois large mec Oui jpersiste, donne un stylo tu comprendras vite Lartisan, lauditeur ont compris quya lestomac vide Écorché vif, dois-je purger pour des rimes à risque ? Mes thèmes sont francs et te visera avant qutarrives Oui jme libère depuis qule hip-hop a remis ses pantoufles Un vieux à laméricaine qui a grandi dvant des cartoons Très vite on prend de lâge, shouf, tourne la page, ouf Jferme la strophe, parait qutout lmonde stape dans la chnouf Merde, jouvre les yeux mais le milieu mles referme À tous les puristes et cqu'ils nous ont offerts À ceux qui battent le fer, à ceux qui grattent la feuille À tous qui veulent parler on vous invite chez Les Grandes Gueules Paraît quon fait trop lzbeul, génération tinquiète Toujours en guerre avec la détermination dun viét Combien drappeurs en France besoin dune calculette On nregrette rien du tout, ni de cquon n'a pas pu être You might also like Je regardais tout le monde en attendant que tout se passe Je ne faisais jamais de pause quand ils partaient en voyage Un rêve de gosse, que jvais bientôt me permettre Cest rare que jvoyage et pourtant jvois large mec J'te laisse deviner, cest fini, les minutes font que défiler Jte laisse mon disque et mon vinyle même si tas rien à me filer Un rêve de gosse ou un cauchemar quon exauce En attendant quon sréveille dans dmeilleures conditions Cest rare que jvoyage et pourtant jvois large mec Celle-ci sera pour Flynt sur mon refrain ça passe net Un scratch ça passe crème, voir Cut Killer à nos fnêtres À lancienne, deux fois plus efficace comme 2 Bal 2 Neg Ni dballes de flingue, le hip-hop jlai connu comme ça Chaud quand ça laisse du neuf ou entre deux mondes à Rocca Rime coupable sans avocat, en passant par Assassin La mixture, la rumeur ou Adil el Kabir comme voisin Le MIP comme tous les rappeurs immigrés De la Scred Connexion aux ptits rappeurs cachés non titrés Je regardais tout le monde en attendant que tout se passe Je ne faisais jamais de pause quand ils partaient en voyage Un rêve de gosse, que jvais bientôt me permettre Cest rare que jvoyage et pourtant jvois large mec</t>
+          <t>Cest en casquette et en petites Cortez Loin d'Los Angeles, chronologie avant 96 Paraît qule rap nappartenait quà des vrais combattants Ma première dose cest linjection dAfrika Bambaataa Attends, quand cette culture venait des U.S.A Les vrais le savent, copier leur style tout l'monde a rfait ça Cnest pas une mode d'vouloir dire cquon pense Monter un groupe cest simple car à lépoque tu en avais dix qui dansent Mesure pas ltemps qui passe, maître de cérémonie La 'zique ma mis un casque sans trop serrer la monnaie Rêve de gosse à accomplir, un bâillement et tout sefface Arrête, jai vite compris comment ça peut faire mal une phrase Ya lcollège qui est en face, le lycée mattend toujours si Mon carnet d'liaison, un emploi du temps d'un MC Sectaire et sans regret, qu'on me dit daller voir un psy Jaime écrire cest comme ça donc faire autre chose non merci Je regardais tout le monde en attendant que tout se passe Je ne faisais jamais de pause quand ils partaient en voyage Un rêve de gosse, que jvais bientôt me permettre Cest rare que jvoyage et pourtant jvois large mec Oui jpersiste, donne un stylo tu comprendras vite Lartisan, lauditeur ont compris quya lestomac vide Écorché vif, dois-je purger pour des rimes à risque ? Mes thèmes sont francs et te visera avant qutarrives Oui jme libère depuis qule hip-hop a remis ses pantoufles Un vieux à laméricaine qui a grandi dvant des cartoons Très vite on prend de lâge, shouf, tourne la page, ouf Jferme la strophe, parait qutout lmonde stape dans la chnouf Merde, jouvre les yeux mais le milieu mles referme À tous les puristes et cqu'ils nous ont offerts À ceux qui battent le fer, à ceux qui grattent la feuille À tous qui veulent parler on vous invite chez Les Grandes Gueules Paraît quon fait trop lzbeul, génération tinquiète Toujours en guerre avec la détermination dun viét Combien drappeurs en France besoin dune calculette On nregrette rien du tout, ni de cquon n'a pas pu être Je regardais tout le monde en attendant que tout se passe Je ne faisais jamais de pause quand ils partaient en voyage Un rêve de gosse, que jvais bientôt me permettre Cest rare que jvoyage et pourtant jvois large mec J'te laisse deviner, cest fini, les minutes font que défiler Jte laisse mon disque et mon vinyle même si tas rien à me filer Un rêve de gosse ou un cauchemar quon exauce En attendant quon sréveille dans dmeilleures conditions Cest rare que jvoyage et pourtant jvois large mec Celle-ci sera pour Flynt sur mon refrain ça passe net Un scratch ça passe crème, voir Cut Killer à nos fnêtres À lancienne, deux fois plus efficace comme 2 Bal 2 Neg Ni dballes de flingue, le hip-hop jlai connu comme ça Chaud quand ça laisse du neuf ou entre deux mondes à Rocca Rime coupable sans avocat, en passant par Assassin La mixture, la rumeur ou Adil el Kabir comme voisin Le MIP comme tous les rappeurs immigrés De la Scred Connexion aux ptits rappeurs cachés non titrés Je regardais tout le monde en attendant que tout se passe Je ne faisais jamais de pause quand ils partaient en voyage Un rêve de gosse, que jvais bientôt me permettre Cest rare que jvoyage et pourtant jvois large mec</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4148,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>I drop lyrics off and on like a lightswitch Cest juste un rap et rien dplus Juste un rap et rien dplus Cest juste un rap et rien dplus, on sexcuse Psartek le texte tue, jpercute chaque instru Chaque ligne XXX en cabine ou en freestyle Comprends ce qui le motive et pourquoi mes textes te parlent Cest dans lrap quon sperd et ça nous gagne Ecoute ça tconcerne et restons calme Tranquille on a du time, ce n'est que du rap Cest juste un rien dplus, tu nauras quà XXX le mic On samuse, libérer les mots sur Bloc-Notes Voir animer Beep-beep entre soirée de Coyote Laisse-nous, on a quun guide, prendre soin du Hip-Hop Jélimine et jai mis à chaque voyage ma mine au pilote Cest juste un rap mon pote, on aime pas faire semblant Artisan du Bic qui sdéchire au Mont Blanc En fait Si cette culture je lai prise de haut cest juste pour savoir ce quelle a dans la tête You might also like Leur intérêt cest de croquer mais moi quest-ce que je gratte Pas encore une vie stable pour faire simplement qudes tracks Jparle au micro et ma feuille, je demande rien dplus Dans mon retard le rap fait aussi parti de ce que jaccuse Leur musique est dans un film, rêve et maquillage dans leurs clips A des moments faut qujme vide, jme fous complétement dla clic Jai commencé au fond dla classe, jconnaissais pas Myspace Des textes, un rappel pour ma passion sur la maille jpisse Les épreuves mont rendu mélancolique avec le poing serré Jme doutais qupour gagner ils finiraient tous la pince serré ? Auditeur qui quand veut en a dans cparadis denfer Dans mon road croyez pas que cest les fiestas et les belles affaires Jenregistre et jveux rien dplus Le chemin continue malheureusement il mattendra pas le bus Des instrus à la rescousse, Sheïtan me booste Beaucoup de gens XXX, fou, une jeunesse à bout Cest juste un rap et rien dplus, pas dcoup dpouce, jai lastuce Les Grandes Gueules, chaque phase est une exclu, la vérité pour excuse Ma vie nest pas une esquisse, lécole nous a exclu Ca fait pas de nous des miskines, laisse que je mexclame La jeunesse parle, là je minstalle, après je mespante Tauras rien dplus, catégorie poids plume, Azoie La Race viens mvoir Cest sûr tu repars plus, cest simple jfais pas lartiste XXX cest comme faire du hors-piste, hors test Tout ça cest que factice, le rap paie pas les factures Jsuis pas marié à une actrice, le facteur cest la fracture Le sang ne cesse de couler, la vie cest pas Fear Factor La plupart blessés à tort voient lhumain dans lerreur Jvois loin du haut de ma tour un peu comme un mirador Le monde est vaste, cest juste du rap et rien dplus I drop lyrics off and on like a lightswitch</t>
+          <t>I drop lyrics off and on like a lightswitch Cest juste un rap et rien dplus Juste un rap et rien dplus Cest juste un rap et rien dplus, on sexcuse Psartek le texte tue, jpercute chaque instru Chaque ligne XXX en cabine ou en freestyle Comprends ce qui le motive et pourquoi mes textes te parlent Cest dans lrap quon sperd et ça nous gagne Ecoute ça tconcerne et restons calme Tranquille on a du time, ce n'est que du rap Cest juste un rien dplus, tu nauras quà XXX le mic On samuse, libérer les mots sur Bloc-Notes Voir animer Beep-beep entre soirée de Coyote Laisse-nous, on a quun guide, prendre soin du Hip-Hop Jélimine et jai mis à chaque voyage ma mine au pilote Cest juste un rap mon pote, on aime pas faire semblant Artisan du Bic qui sdéchire au Mont Blanc En fait Si cette culture je lai prise de haut cest juste pour savoir ce quelle a dans la tête Leur intérêt cest de croquer mais moi quest-ce que je gratte Pas encore une vie stable pour faire simplement qudes tracks Jparle au micro et ma feuille, je demande rien dplus Dans mon retard le rap fait aussi parti de ce que jaccuse Leur musique est dans un film, rêve et maquillage dans leurs clips A des moments faut qujme vide, jme fous complétement dla clic Jai commencé au fond dla classe, jconnaissais pas Myspace Des textes, un rappel pour ma passion sur la maille jpisse Les épreuves mont rendu mélancolique avec le poing serré Jme doutais qupour gagner ils finiraient tous la pince serré ? Auditeur qui quand veut en a dans cparadis denfer Dans mon road croyez pas que cest les fiestas et les belles affaires Jenregistre et jveux rien dplus Le chemin continue malheureusement il mattendra pas le bus Des instrus à la rescousse, Sheïtan me booste Beaucoup de gens XXX, fou, une jeunesse à bout Cest juste un rap et rien dplus, pas dcoup dpouce, jai lastuce Les Grandes Gueules, chaque phase est une exclu, la vérité pour excuse Ma vie nest pas une esquisse, lécole nous a exclu Ca fait pas de nous des miskines, laisse que je mexclame La jeunesse parle, là je minstalle, après je mespante Tauras rien dplus, catégorie poids plume, Azoie La Race viens mvoir Cest sûr tu repars plus, cest simple jfais pas lartiste XXX cest comme faire du hors-piste, hors test Tout ça cest que factice, le rap paie pas les factures Jsuis pas marié à une actrice, le facteur cest la fracture Le sang ne cesse de couler, la vie cest pas Fear Factor La plupart blessés à tort voient lhumain dans lerreur Jvois loin du haut de ma tour un peu comme un mirador Le monde est vaste, cest juste du rap et rien dplus I drop lyrics off and on like a lightswitch</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4165,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Mes origines, oui C'est mes racines yo Mes origines oui Papa, on prend la route ce soir on part très loin Repose toi tu sais que je t'aime bien On a la bague, le témoin, la famille a fait le plein Doucement te presse pas tout ça n'est que l'destin L'odeur du festin, les chéris qui s'marient Klaxonnez, klaxonnez, on est 6 dans l'taxi J'ai rêvé d'un désert près d'un oasis Le sable, fait qu'on plait, ou le soleil à l'artiste La lumière nous donne tout Et salam wa alaykoum Y a de la place pour tous, viens faire un tour Du mafé au couscous, l'ambiance du mélange On quitte la ville, appelle moi chef du village On a semé la paix mais ils ont arraché tout J'ai planté olivier mais y a plus de zeytoun On a cherché le puit mais ils ont bouché le trou J'ai planté l'espoir mais sans cur n'a pas d'goût x2 Salam Salam, Salam wa alaykoum Salam Salam, Salam wa alaykoum Salam Salam Salam Salam Salam Salam Salam wa alaykoum You might also like Mes origines, oui C'est mes racines yo Mes origines oui J'te lâche pas, écoute moi, ce soir on est qu'deux On écrit la paix en arabe ou hébreu J'te l'dis t'es pas seul, on est si nombreux La richesse est en nous donc sortez la un peu Oui laissez nous c'titre, on va prendre la route Comme une Demi-P j'ferai le poids d'un mammouth J'irai manier le micro enfin, comme une sarbacane Partager ce plein un peu comme une sadaqa Y a des larmes et des causes qu'on n'pourra pas oublier On cache nos douleurs derrière ce monde abîmé Y a encore des familles à terre Est-ce-qu'on est des hypocrites ? Est-ce-qu'on doit y mettre un terme ? On a semé l'espoir écoute le chant que j'récolte Y a des hectares de haine, et des gens qui s'révoltent On a la crème de la crème mais toujours pas d'pommade Ils ont plein de remèdes mais n'guérissent pas l'malade x2 Salam Salam, Salam wa alaykoum Salam Salam, Salam wa alaykoum Salam Salam Salam Salam Salam Salam Salam wa alaykoum Mes origines, oui C'est mes racines yo Mes origines oui2</t>
+          <t>Mes origines, oui C'est mes racines yo Mes origines oui Papa, on prend la route ce soir on part très loin Repose toi tu sais que je t'aime bien On a la bague, le témoin, la famille a fait le plein Doucement te presse pas tout ça n'est que l'destin L'odeur du festin, les chéris qui s'marient Klaxonnez, klaxonnez, on est 6 dans l'taxi J'ai rêvé d'un désert près d'un oasis Le sable, fait qu'on plait, ou le soleil à l'artiste La lumière nous donne tout Et salam wa alaykoum Y a de la place pour tous, viens faire un tour Du mafé au couscous, l'ambiance du mélange On quitte la ville, appelle moi chef du village On a semé la paix mais ils ont arraché tout J'ai planté olivier mais y a plus de zeytoun On a cherché le puit mais ils ont bouché le trou J'ai planté l'espoir mais sans cur n'a pas d'goût x2 Salam Salam, Salam wa alaykoum Salam Salam, Salam wa alaykoum Salam Salam Salam Salam Salam Salam Salam wa alaykoum Mes origines, oui C'est mes racines yo Mes origines oui J'te lâche pas, écoute moi, ce soir on est qu'deux On écrit la paix en arabe ou hébreu J'te l'dis t'es pas seul, on est si nombreux La richesse est en nous donc sortez la un peu Oui laissez nous c'titre, on va prendre la route Comme une Demi-P j'ferai le poids d'un mammouth J'irai manier le micro enfin, comme une sarbacane Partager ce plein un peu comme une sadaqa Y a des larmes et des causes qu'on n'pourra pas oublier On cache nos douleurs derrière ce monde abîmé Y a encore des familles à terre Est-ce-qu'on est des hypocrites ? Est-ce-qu'on doit y mettre un terme ? On a semé l'espoir écoute le chant que j'récolte Y a des hectares de haine, et des gens qui s'révoltent On a la crème de la crème mais toujours pas d'pommade Ils ont plein de remèdes mais n'guérissent pas l'malade x2 Salam Salam, Salam wa alaykoum Salam Salam, Salam wa alaykoum Salam Salam Salam Salam Salam Salam Salam wa alaykoum Mes origines, oui C'est mes racines yo Mes origines oui2</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4182,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Je rentre, je sors, 7 heures que j'ai pas dormi Encore, encore, écoutes bien ça mon ami Putain de sale journée, pas l'envie de sourire Bon, vu le résumé, j'te raconte en 16 lignes Rien à faire, normal 24 heures à survivre Encore une vie d'nomade, une sale story Bref, j'm'occupe du rythme, t'as vu la folie Enchaîne plusieurs flows, la XXX Allumes le micro avant qu'le Soleil s'couche L'odeur de la weed blesse sans trop vous parler d'couche Sans s'plaindre on est là, on continue l'aventure Kamehameha, non ça ne marche pas ordure Malade, fatigué, réveillé, mal aux poings Pour le moment, j'arrive sec Demi Chopin Un piano, une basse couz' fin de journée les copins Un piano, un beat couz' fin de journée les copins Non, pas dès le matin Bon, je crois que j'y peux rien Pourtant j'y vois bien Oh, le vice me sert la main You might also like Déjà tu doutes, c'est 100 clopes Réveil direct, c'est syncope J'peine entouré par 5 cop's XXX, tu nous écoutes Menottes dans le dos, XXX Mais XXX, journée bad, j'ai XXX de pierre Menes Tu connais cette sale journée, souvent sponso SNCF C'est lui l'huissier, XXX XXX, qu't'es au poste pour une barrette Ouais la même ta go disparaît, j'crois j'ai XXX à c'qu'il paraît Ceux qui savent, c'est l'écran bleu, y'a pas de ressort dans notre XXX Tu roules ton spliff' et v'là qu'il pleut Je sais c'est peu, mais y'a l'trop plein Pour qu'tu comprenne une sale journée, c'est 8-18 sur Skyrock Entendre XXX feat XXX, c'est comme mélanger Sky et Rhum J'fais leur XXX Pôle Emploi, j'retire mes sous les 6 du mois On bosse nos XXX, on porte des XXX, non y'aura pas de désistements Demi Portion, DBRZ, ça fera déjà une journée d'sauvée Ça donne le smile, ça met sa claque comme une solide tournée D car dans une sale journée, on s'débrouille Ou on s'défoule vu la grosse soirée on désaoule B XXX ce temps ci le moral a baissé Autant après mes XXX, à la fin on va baisé R on est manque grandement mais les temps changent En France, quand la minorité XXX Z pendant qu'tu XXX devant les infos Une nympho fait 3 gosses pour rendre jaloux ses XXX Bref, y'a tout pour passer une sale journée A peine levé, j'ai déjà envie d'me recoucher Quand j'passe une bonne journée, j'm'en souviens pendant 2 ans Oui mon passé est derrière mais la galère est devant Descend d'ton nuage, il m'faudrait plus d'argent Si t'as l'compte en banque plein et qu't'es content j'comprends J'ressens comme une envie d'me barrer loin d'ici des fois Souvent j'me crois au dessus des lois Tant que la vie ou les gens me déçoit Ouais mais c'est moi J'compte vraiment pas changer pour vous plaire Perso j'trouve ton discours foulaire Encore une sale journée mais ça ira surement mieux demain J'suis pas pas trop du genre à croire c'que peut prédire un vieux devin</t>
+          <t>Je rentre, je sors, 7 heures que j'ai pas dormi Encore, encore, écoutes bien ça mon ami Putain de sale journée, pas l'envie de sourire Bon, vu le résumé, j'te raconte en 16 lignes Rien à faire, normal 24 heures à survivre Encore une vie d'nomade, une sale story Bref, j'm'occupe du rythme, t'as vu la folie Enchaîne plusieurs flows, la XXX Allumes le micro avant qu'le Soleil s'couche L'odeur de la weed blesse sans trop vous parler d'couche Sans s'plaindre on est là, on continue l'aventure Kamehameha, non ça ne marche pas ordure Malade, fatigué, réveillé, mal aux poings Pour le moment, j'arrive sec Demi Chopin Un piano, une basse couz' fin de journée les copins Un piano, un beat couz' fin de journée les copins Non, pas dès le matin Bon, je crois que j'y peux rien Pourtant j'y vois bien Oh, le vice me sert la main Déjà tu doutes, c'est 100 clopes Réveil direct, c'est syncope J'peine entouré par 5 cop's XXX, tu nous écoutes Menottes dans le dos, XXX Mais XXX, journée bad, j'ai XXX de pierre Menes Tu connais cette sale journée, souvent sponso SNCF C'est lui l'huissier, XXX XXX, qu't'es au poste pour une barrette Ouais la même ta go disparaît, j'crois j'ai XXX à c'qu'il paraît Ceux qui savent, c'est l'écran bleu, y'a pas de ressort dans notre XXX Tu roules ton spliff' et v'là qu'il pleut Je sais c'est peu, mais y'a l'trop plein Pour qu'tu comprenne une sale journée, c'est 8-18 sur Skyrock Entendre XXX feat XXX, c'est comme mélanger Sky et Rhum J'fais leur XXX Pôle Emploi, j'retire mes sous les 6 du mois On bosse nos XXX, on porte des XXX, non y'aura pas de désistements Demi Portion, DBRZ, ça fera déjà une journée d'sauvée Ça donne le smile, ça met sa claque comme une solide tournée D car dans une sale journée, on s'débrouille Ou on s'défoule vu la grosse soirée on désaoule B XXX ce temps ci le moral a baissé Autant après mes XXX, à la fin on va baisé R on est manque grandement mais les temps changent En France, quand la minorité XXX Z pendant qu'tu XXX devant les infos Une nympho fait 3 gosses pour rendre jaloux ses XXX Bref, y'a tout pour passer une sale journée A peine levé, j'ai déjà envie d'me recoucher Quand j'passe une bonne journée, j'm'en souviens pendant 2 ans Oui mon passé est derrière mais la galère est devant Descend d'ton nuage, il m'faudrait plus d'argent Si t'as l'compte en banque plein et qu't'es content j'comprends J'ressens comme une envie d'me barrer loin d'ici des fois Souvent j'me crois au dessus des lois Tant que la vie ou les gens me déçoit Ouais mais c'est moi J'compte vraiment pas changer pour vous plaire Perso j'trouve ton discours foulaire Encore une sale journée mais ça ira surement mieux demain J'suis pas pas trop du genre à croire c'que peut prédire un vieux devin</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4199,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Ouais Je persévère, balance du son façon trop sévère Le faux devient vert et aussitôt, il en perd ses vers Cherche la bonne manière, j'veux pas qu'mon fils tienne le revolver J'veux qu'il aime sa mère, pas les faits divers Partenaire, actionnaire, on connait l'truc Apprendre à leur faire mal avec un dictionnaire Expert j'opère, on gagne, on perd, comme d'hab' mon frère On récupère les points avant d'jeter la pierre Comment dois-je faire ? J'avance doucement, jamais hésitant Toujours dans les temps, tu connais le plan Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans commentaire Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans commentaire Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans comment' Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans commentaire Documentaire comme l'abus Strauss Khan à l'hôtel Le printemps Arabe, tu l'as vu de Tunis à Le Caire Les pays en guerre, ceux qui n'arrivent plus à allumer l'antenne La perte d'humain, les pauvres ou le manque alimentaire On a joué avec le feu et puis déssécher les fontaines Fautif, personne se motive, ouais le monde s'éteint T'avoues qu'j'crois pas au monde merveilleux ici-bas Les belles images, oui c'est pour Sony et Toshiba On baisse les bras, vise l'état, c'est la même fable Visionnaire donc vingt ans après représente Fabe You might also like Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans commentaire Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans commentaire Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans comment' Si Jean-Marie courait aussi vite que j'l'emmerde, il s'rait tellement loin Avant, j'les détestais mais aujourd'hui, j'les aime tellement moins C'est l'gimmick, , j'ai un gros délire Oui, microphone, microphone branché, je m'sens tellement bien PDG de l'entreprise, de la rime consciente On a des employés et des connards à la présidence Les nôtres à la cour d'assises, d'où la peur du racisme On dit que les mêmes s'en sortent, on dit que les mêmes s'exilent L'allure est présentable, on ne plaisante pas Envoie l'instru', savoure le son comme un dix ans d'âge - Non, c'est fatiguant - Qu'est c'qu'est fatiguant ? - Mais j'sais pas, c'est pas ça du rap, le rap, c'est c'qu'on vient d'faire. C'est c'qui y a des tas d'gens qui font, et faut arrêter d'prendre ça à la dérision et blaguer comme ça parce que, j'sais pas, moi, ça m'fait pas rire - Ah non, on va pas arrêter du tout - Et y a plein d'gens qu'ça fait pas rigoler. Non, on peut blaguer, c'est clair. Mais moi, j'sais pas, j'suis pas là d'dans Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans commentaire Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans commentaire Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans comment'</t>
+          <t>Ouais Je persévère, balance du son façon trop sévère Le faux devient vert et aussitôt, il en perd ses vers Cherche la bonne manière, j'veux pas qu'mon fils tienne le revolver J'veux qu'il aime sa mère, pas les faits divers Partenaire, actionnaire, on connait l'truc Apprendre à leur faire mal avec un dictionnaire Expert j'opère, on gagne, on perd, comme d'hab' mon frère On récupère les points avant d'jeter la pierre Comment dois-je faire ? J'avance doucement, jamais hésitant Toujours dans les temps, tu connais le plan Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans commentaire Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans commentaire Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans comment' Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans commentaire Documentaire comme l'abus Strauss Khan à l'hôtel Le printemps Arabe, tu l'as vu de Tunis à Le Caire Les pays en guerre, ceux qui n'arrivent plus à allumer l'antenne La perte d'humain, les pauvres ou le manque alimentaire On a joué avec le feu et puis déssécher les fontaines Fautif, personne se motive, ouais le monde s'éteint T'avoues qu'j'crois pas au monde merveilleux ici-bas Les belles images, oui c'est pour Sony et Toshiba On baisse les bras, vise l'état, c'est la même fable Visionnaire donc vingt ans après représente Fabe Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans commentaire Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans commentaire Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans comment' Si Jean-Marie courait aussi vite que j'l'emmerde, il s'rait tellement loin Avant, j'les détestais mais aujourd'hui, j'les aime tellement moins C'est l'gimmick, , j'ai un gros délire Oui, microphone, microphone branché, je m'sens tellement bien PDG de l'entreprise, de la rime consciente On a des employés et des connards à la présidence Les nôtres à la cour d'assises, d'où la peur du racisme On dit que les mêmes s'en sortent, on dit que les mêmes s'exilent L'allure est présentable, on ne plaisante pas Envoie l'instru', savoure le son comme un dix ans d'âge - Non, c'est fatiguant - Qu'est c'qu'est fatiguant ? - Mais j'sais pas, c'est pas ça du rap, le rap, c'est c'qu'on vient d'faire. C'est c'qui y a des tas d'gens qui font, et faut arrêter d'prendre ça à la dérision et blaguer comme ça parce que, j'sais pas, moi, ça m'fait pas rire - Ah non, on va pas arrêter du tout - Et y a plein d'gens qu'ça fait pas rigoler. Non, on peut blaguer, c'est clair. Mais moi, j'sais pas, j'suis pas là d'dans Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans commentaire Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans commentaire Ma façon d'envisager le rap est élémentaire Par contre, quand j'ai fini mon couplet, c'est sans comment'</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4216,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Sans prise de tête Sans prise de tête Vitry, on te braque tous Sans prise de tête, c'est qu'du rap, je ferai rien avec Rim'K, les Grandes Gueules, ça fera bim-bim à Sète Rachid c'est Beep Beep donc virez-moi ces coyotes C'est comme ça alors je note, c'est un point parmi les autres C'est que d'la zik, en effet, va dégonfler ta grosse tête Ça bless, bouge ta nuque et appréci la grosse caisse Sans prise de tête, un plaisir malgré l'temps que j'consacre On dit souvent qu'la route est longue sachant qu'c'est un cul-de-sac Premier album, on t'le sert ça en indépendant Ça va taper tellement fort que tu en perdras une dent On a trop perdu du temps, tu sais qu'les années défilent On a tenté de ralentir mais c'était du haut débit Du début jusqu'à maintenant, j'écris sans prise de tête Avec toujours un peu d'rage comme les premiers pas de break Prise de bec, en tout cas la vérité nous renforce Du 34 au 9-4, on revient mélanger la sauce Sans prise de tête, sur la tête de crête L'attitude de dep tah la tektonic boy, ta musique goume On est au tieks, on va en pas en boîte nous On s'bagarre plus à mon âge, Vitry, on vous braque tous C'est pour les favelas de Sète, Demi Portion Les brigades de merde incompétentes mais en fonction État policier, criminel, on marche sur Aux familles de Villiers-le-Bel You might also like J'introduis le produit, demain encore plus de haine qu'aujourd'hui Quand tout se traduit par rien n'est gratuit Si tu vois pas assez clair, aère y a trop de vapeur poto srab j'suis un rappeur Plutôt, agis en discrétion depuis l'enfance J'ai fait un crash avec l'humilité pile en face À mon tour de la donner cru et brut Ma voix s'élève, ici rien qu'on dit Salam mais c'est pas la paix qui règne Et pour le peu qui restent, même l'unité nous a esquivés Tu peux en parler, chacun dira qu'il sait c'qu'il fait Après, j'suis pas assistant social J'en ai trop vus s'égarer sur la piste, insouciants J'peux pas suivre ou foirer sur ce coup Chacun ses couilles et pas l'temps d'clamer au secours Sans prise de tête, comme ça qu'on souhaiterait marcher Dédicace, Sète, Vitry, Montpel' le quartier Sans prise de tête, sur la tête de crête L'attitude de dep tah la tektonic boy, ta musique goume On est au tieks, on va en pas en boîte nous On s'bagarre plus à mon âge, ce son il vous braque tous C'est pour les favelas de Sète, Demi Portion Les brigades de merde incompétentes mais en fonction État policier, criminel, on marche sur Aux familles de Villiers-le-Bel Eh gros, juste un truc Ouais, encore du rap sans prise de tête C'est la famille OK, hey Sans prise de tête Sprinter sans prise de tête Demi-Portion sans prise de tête Kross2Ouf sans prise de tête Rim'K sans prise de tête Ouais sans prise de tête 2-0-0-9 C'est que du rap C'est ça Maître de cérémonie Beaucoup veulent serrer mon art Vu qu'on a su réunir tous les cochons en renards Sans remarque, des casses, nous on fait remarques Vrais pas cinq fois en direction d'la Mecque Mon visage pâle, vois-tu l'shit qui s'écoule Quoi d'mal d'accepter d'croire que ma vie est cool Véhicule du concret, maintenu au ras du sol Irradiera les salles chaque fois qu'y aura du sample Sans prise de tête, sur la tête de crête L'attitude de dep tah la tektonic boy, ta musique goume On est au tieks, on va en pas en boîte nous On s'bagarre plus à mon âge, Vitry, on vous braque tous C'est pour les favelas de Sète, Demi Portion Les brigades de merde incompétentes mais en fonction État policier, criminel, on marche sur Aux familles de Villiers-le-Bel</t>
+          <t>Sans prise de tête Sans prise de tête Vitry, on te braque tous Sans prise de tête, c'est qu'du rap, je ferai rien avec Rim'K, les Grandes Gueules, ça fera bim-bim à Sète Rachid c'est Beep Beep donc virez-moi ces coyotes C'est comme ça alors je note, c'est un point parmi les autres C'est que d'la zik, en effet, va dégonfler ta grosse tête Ça bless, bouge ta nuque et appréci la grosse caisse Sans prise de tête, un plaisir malgré l'temps que j'consacre On dit souvent qu'la route est longue sachant qu'c'est un cul-de-sac Premier album, on t'le sert ça en indépendant Ça va taper tellement fort que tu en perdras une dent On a trop perdu du temps, tu sais qu'les années défilent On a tenté de ralentir mais c'était du haut débit Du début jusqu'à maintenant, j'écris sans prise de tête Avec toujours un peu d'rage comme les premiers pas de break Prise de bec, en tout cas la vérité nous renforce Du 34 au 9-4, on revient mélanger la sauce Sans prise de tête, sur la tête de crête L'attitude de dep tah la tektonic boy, ta musique goume On est au tieks, on va en pas en boîte nous On s'bagarre plus à mon âge, Vitry, on vous braque tous C'est pour les favelas de Sète, Demi Portion Les brigades de merde incompétentes mais en fonction État policier, criminel, on marche sur Aux familles de Villiers-le-Bel J'introduis le produit, demain encore plus de haine qu'aujourd'hui Quand tout se traduit par rien n'est gratuit Si tu vois pas assez clair, aère y a trop de vapeur poto srab j'suis un rappeur Plutôt, agis en discrétion depuis l'enfance J'ai fait un crash avec l'humilité pile en face À mon tour de la donner cru et brut Ma voix s'élève, ici rien qu'on dit Salam mais c'est pas la paix qui règne Et pour le peu qui restent, même l'unité nous a esquivés Tu peux en parler, chacun dira qu'il sait c'qu'il fait Après, j'suis pas assistant social J'en ai trop vus s'égarer sur la piste, insouciants J'peux pas suivre ou foirer sur ce coup Chacun ses couilles et pas l'temps d'clamer au secours Sans prise de tête, comme ça qu'on souhaiterait marcher Dédicace, Sète, Vitry, Montpel' le quartier Sans prise de tête, sur la tête de crête L'attitude de dep tah la tektonic boy, ta musique goume On est au tieks, on va en pas en boîte nous On s'bagarre plus à mon âge, ce son il vous braque tous C'est pour les favelas de Sète, Demi Portion Les brigades de merde incompétentes mais en fonction État policier, criminel, on marche sur Aux familles de Villiers-le-Bel Eh gros, juste un truc Ouais, encore du rap sans prise de tête C'est la famille OK, hey Sans prise de tête Sprinter sans prise de tête Demi-Portion sans prise de tête Kross2Ouf sans prise de tête Rim'K sans prise de tête Ouais sans prise de tête 2-0-0-9 C'est que du rap C'est ça Maître de cérémonie Beaucoup veulent serrer mon art Vu qu'on a su réunir tous les cochons en renards Sans remarque, des casses, nous on fait remarques Vrais pas cinq fois en direction d'la Mecque Mon visage pâle, vois-tu l'shit qui s'écoule Quoi d'mal d'accepter d'croire que ma vie est cool Véhicule du concret, maintenu au ras du sol Irradiera les salles chaque fois qu'y aura du sample Sans prise de tête, sur la tête de crête L'attitude de dep tah la tektonic boy, ta musique goume On est au tieks, on va en pas en boîte nous On s'bagarre plus à mon âge, Vitry, on vous braque tous C'est pour les favelas de Sète, Demi Portion Les brigades de merde incompétentes mais en fonction État policier, criminel, on marche sur Aux familles de Villiers-le-Bel</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4233,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Ouais Demi Portion Et Chinois Sauve qui peut Sauve qui peut, sauve qui peut Sur une prod à crosse de ouf Ouais 2007 Vas-y balance Sauve qui peut Rachid Depuis mes premiers jours, j'étouffe La France est corrompue Elle pousse à la catastrophe Dehors ça sent l'souffre La jeunesse est insociable A croire que dans le gouffre, notre vie se lie avec le diable Si tout est négociable et c'est pas inscrit dans la bible Le savoir est une arme mais on se trompera pas de cible Sauve qui peut parce que Ce mode de vie nous accable Sprinter te l'a dit, c'est plus physique de marcher dans le sable La rue n'est pas rentable et tu perds le sens des repères Les grandes gueules, l'addiction, tu sais comment on opère De manière précise Et on tourne pas autour du pot A force de marcher dans la braise, tout l'monde veut sauver sa peau Y'a plus d'lueur d'espoir On va payer l'air qu'on respire La rue, c'est pas la foire et c'est pour ça qu'elle m'inspire Y'a des requins à nos trousses L'amertume qui nous ronge L'atmosphère s'enflamme et on est loin d'jeter l'éponge Ouais le temps tourne à l'orage Y'a pas d'fumée sans feu Ici c'est marche ou crève mais si tu marches, ils feront feu Ils nous attirent dans les flammes Le vice nous joue des tours On est habitué aux blâmes, aux traîtres et aux vautours Matte bien les alentours La merde qui nous entoure Sectaires et endurcis, on a zappé l'issue d'secours On survit à ton naufrage L'amertume nous inonde Ma rancune prend de l'âge depuis ma vision sur ce monde Constate qu'on est bloqué L'avenir a pris la fuite Ici y'a rien de bon, sache que la merde elle est gratuite Et à force on y prend goût Le moral s'endurcit Tu peux songer au dégoût, on sera jamais à ta merci Les deux pieds dans la vase, on reste sincères et précis Beaucoup jouent les doubles faces quand la chaussée rétrécit Seul but, on s'fait comprendre, toujours avec ce flow acide On est pas là pour la thune et encore moins jouer l'caïd Besoin de s'exprimer, cracher ma vision des choses Mon bic sa came à l'opprimé jusqu'à mourir d'une overdose Toujours en manque de bol, très vite on devient habiles La merde se fait sentir, c'est la rue qui vomit sa bile You might also like Sauve qui peut, chinois C'est bon, t'as récupéré l'schéma D'ici quelques rimes, ça sautera comme Hiroshima C'est partit un peu XXX, j'ai oublié l'hchouma Forcément normal qu'on s'fout d'leurs remerciements Cultive tes versements Cette phrase me berce pas Ici nos petits ont grandi et sache que tu les baise pas Vénère le goût de lappât Vas-y, sauve qui peut J'suis pas là pour répéter ce que la pute pense tout bas Et j'm'énerve tant qu'je peux Laisse moi au moins ça Essaiez d'parler à tous ceux qui n'ont pas encore baisser les bras Venu à mort choquer l'état L'rap en guise d'un Berreta Vas-y garde tes préjugés, toi qui souhaite qu'on se rétame Y'a personne qui se régale Certains sont tombés en panne Dans l'silence où dans l'bruit, on aime trop crier dans le calme Sauf qui peut, non non Y'a cette réalité en face Comme beaucoup finissent athées afin d'éviter les races Sauve qui peut frérot J'te ferai pas d'sales manières Si on oubliait l'bédo et la gifle à la douanière ? Stop ! On est juste venu rapper clair en vérité Trop dopé par ce Hip-hop Pas d'gangsters à imiter Trop d'faux airs à éviter On s'y fait à mi-chemin Y'a tellement d'roues crevés qu'on a du racheter Michelin Ici personne vise rien Y'a l'avenir entre les mains Considère nous comme les petits dans l'grand jardin des nains Vas-y matte les conditions Et fais-toi un constat La rue est passée au feu, qu'elle a fondu le thermostat Rendu mes frères aux shtars Noirs et maghrébins Comme j'te mâcherai pas les mots Toi-même tu sait malgré bien combien y'a-t-il de merdes De frères recouverts de marbres C'est comme te dire combien flippent des arabes à la barre Pas encore nombreux à la barre L'envie d'crever les avares On sait qu'la France match bien toujours les mêmes qui avalent 2007 Chins Demi Portion Sauve qui peut, sauve qui peut Crosse de ouf</t>
+          <t>Ouais Demi Portion Et Chinois Sauve qui peut Sauve qui peut, sauve qui peut Sur une prod à crosse de ouf Ouais 2007 Vas-y balance Sauve qui peut Rachid Depuis mes premiers jours, j'étouffe La France est corrompue Elle pousse à la catastrophe Dehors ça sent l'souffre La jeunesse est insociable A croire que dans le gouffre, notre vie se lie avec le diable Si tout est négociable et c'est pas inscrit dans la bible Le savoir est une arme mais on se trompera pas de cible Sauve qui peut parce que Ce mode de vie nous accable Sprinter te l'a dit, c'est plus physique de marcher dans le sable La rue n'est pas rentable et tu perds le sens des repères Les grandes gueules, l'addiction, tu sais comment on opère De manière précise Et on tourne pas autour du pot A force de marcher dans la braise, tout l'monde veut sauver sa peau Y'a plus d'lueur d'espoir On va payer l'air qu'on respire La rue, c'est pas la foire et c'est pour ça qu'elle m'inspire Y'a des requins à nos trousses L'amertume qui nous ronge L'atmosphère s'enflamme et on est loin d'jeter l'éponge Ouais le temps tourne à l'orage Y'a pas d'fumée sans feu Ici c'est marche ou crève mais si tu marches, ils feront feu Ils nous attirent dans les flammes Le vice nous joue des tours On est habitué aux blâmes, aux traîtres et aux vautours Matte bien les alentours La merde qui nous entoure Sectaires et endurcis, on a zappé l'issue d'secours On survit à ton naufrage L'amertume nous inonde Ma rancune prend de l'âge depuis ma vision sur ce monde Constate qu'on est bloqué L'avenir a pris la fuite Ici y'a rien de bon, sache que la merde elle est gratuite Et à force on y prend goût Le moral s'endurcit Tu peux songer au dégoût, on sera jamais à ta merci Les deux pieds dans la vase, on reste sincères et précis Beaucoup jouent les doubles faces quand la chaussée rétrécit Seul but, on s'fait comprendre, toujours avec ce flow acide On est pas là pour la thune et encore moins jouer l'caïd Besoin de s'exprimer, cracher ma vision des choses Mon bic sa came à l'opprimé jusqu'à mourir d'une overdose Toujours en manque de bol, très vite on devient habiles La merde se fait sentir, c'est la rue qui vomit sa bile Sauve qui peut, chinois C'est bon, t'as récupéré l'schéma D'ici quelques rimes, ça sautera comme Hiroshima C'est partit un peu XXX, j'ai oublié l'hchouma Forcément normal qu'on s'fout d'leurs remerciements Cultive tes versements Cette phrase me berce pas Ici nos petits ont grandi et sache que tu les baise pas Vénère le goût de lappât Vas-y, sauve qui peut J'suis pas là pour répéter ce que la pute pense tout bas Et j'm'énerve tant qu'je peux Laisse moi au moins ça Essaiez d'parler à tous ceux qui n'ont pas encore baisser les bras Venu à mort choquer l'état L'rap en guise d'un Berreta Vas-y garde tes préjugés, toi qui souhaite qu'on se rétame Y'a personne qui se régale Certains sont tombés en panne Dans l'silence où dans l'bruit, on aime trop crier dans le calme Sauf qui peut, non non Y'a cette réalité en face Comme beaucoup finissent athées afin d'éviter les races Sauve qui peut frérot J'te ferai pas d'sales manières Si on oubliait l'bédo et la gifle à la douanière ? Stop ! On est juste venu rapper clair en vérité Trop dopé par ce Hip-hop Pas d'gangsters à imiter Trop d'faux airs à éviter On s'y fait à mi-chemin Y'a tellement d'roues crevés qu'on a du racheter Michelin Ici personne vise rien Y'a l'avenir entre les mains Considère nous comme les petits dans l'grand jardin des nains Vas-y matte les conditions Et fais-toi un constat La rue est passée au feu, qu'elle a fondu le thermostat Rendu mes frères aux shtars Noirs et maghrébins Comme j'te mâcherai pas les mots Toi-même tu sait malgré bien combien y'a-t-il de merdes De frères recouverts de marbres C'est comme te dire combien flippent des arabes à la barre Pas encore nombreux à la barre L'envie d'crever les avares On sait qu'la France match bien toujours les mêmes qui avalent 2007 Chins Demi Portion Sauve qui peut, sauve qui peut Crosse de ouf</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4250,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Jai marché sans pitié, sérieux jsuis fatigué Arrête, jsuis fatigué, fatigué Le monde est sans pitié, sérieux jsuis fatigué Arrête, jsuis fatigué, fatigué Tout ce poids cela ma courbé tôt Toutes ces galères ont soulevé des montagnes À nos grand-parents qui sont partis trop tôt Et toutes ces paroles, oui mont forguer le mental Maman dit souvent quon trouve des solutions Dis-lui je taime papa ça fait lentaille On sème la colère autour de nous sans raison On part prendre lair afin drevenir dans le calme Perdre le souffle mais pas linspiration Prendre le temps mais le temps nous condamne Vivre les couleurs sans discrimination Vas-y, tends-moi la main, sache que je taccompagne Prendre soin de lautre Sans prise de tête Marcher, cravacher Dans ma ville de Sète Jai marché sans pitié, sérieux jsuis fatigué Arrête, jsuis fatigué, fatigué Le monde est sans pitié, sérieux jsuis fatigué Arrête, jsuis fatigué, fatigué You might also like Y'a la vie, la mort, la joie, la colère Derrière le décor le soleil ou ltonerre Y'a la guerre ou la paix, les armes et la peur Y'a lhumain qui sort et y'a lordinateur Y'a les chiens qui mordent, la misère qui rôde Quand les bombes défilent, ce nest pas une mode Fatigué de voir que personne nnous entend On dit que linnocence commence dès lenfant Y'a des mômes et familles qui nont plus de pays Suivis par le viseur dun mirador Ce sentiment de ne plus avoir de vie Et dcompter les jours à chaque fois oui quon sendort Eh eh eh eh Eh eh eh eh Sérieux Sérieux</t>
+          <t>Jai marché sans pitié, sérieux jsuis fatigué Arrête, jsuis fatigué, fatigué Le monde est sans pitié, sérieux jsuis fatigué Arrête, jsuis fatigué, fatigué Tout ce poids cela ma courbé tôt Toutes ces galères ont soulevé des montagnes À nos grand-parents qui sont partis trop tôt Et toutes ces paroles, oui mont forguer le mental Maman dit souvent quon trouve des solutions Dis-lui je taime papa ça fait lentaille On sème la colère autour de nous sans raison On part prendre lair afin drevenir dans le calme Perdre le souffle mais pas linspiration Prendre le temps mais le temps nous condamne Vivre les couleurs sans discrimination Vas-y, tends-moi la main, sache que je taccompagne Prendre soin de lautre Sans prise de tête Marcher, cravacher Dans ma ville de Sète Jai marché sans pitié, sérieux jsuis fatigué Arrête, jsuis fatigué, fatigué Le monde est sans pitié, sérieux jsuis fatigué Arrête, jsuis fatigué, fatigué Y'a la vie, la mort, la joie, la colère Derrière le décor le soleil ou ltonerre Y'a la guerre ou la paix, les armes et la peur Y'a lhumain qui sort et y'a lordinateur Y'a les chiens qui mordent, la misère qui rôde Quand les bombes défilent, ce nest pas une mode Fatigué de voir que personne nnous entend On dit que linnocence commence dès lenfant Y'a des mômes et familles qui nont plus de pays Suivis par le viseur dun mirador Ce sentiment de ne plus avoir de vie Et dcompter les jours à chaque fois oui quon sendort Eh eh eh eh Eh eh eh eh Sérieux Sérieux</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4267,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Met nous des barrières, on ira quand même, on ira quand même... x2 On s'évade On s'évade Inch'Allah qu'on s'revoit à un d'ces quatre Où ça?! On sait pas mais c'est dans la Zik qu'on s'évade C'est ça! Prend tes gardes, n'ignore pas ton tier-quar Fais gaffe Fais gaffe Le beat n'est même pas parti go que tu hoches la tête La route est longue, viens en plaisir Je t'la ferais en claquettes T'inquiètes, enfin prêt comme si j'portais mille palettes Texte vertigineux à t'provoquer un malaise L'rap n'est pas un rêve, mais tout l'monde peut l'faire quand même Chacun ses goûts, comme ses couilles ou son oreille Toi tu crois qu't'as des boules, mais tu les vois qu'au LOTO Tu pues, pour t'en sortir t'as pressé tous les boutons Testé tous les guidons, t'avais pas d'autre choix T'es monté haut ? Tu va r'descendre ... c'n'est qu'une balançoire Tout c'qu'on recherche en soi, faire du bien, c'est dur C'que tu nous sort à chaque fois n'est qu'une mauvaise habitude Arrête de parler d'street, à croire qu'tu marches eu Mon rap est sincère, sans trop d'idées farfelues Non t'es pas le bienvenue, j'pense qu'on t'a prévenu T'es new school, génial, j'te mets 10 ans d'retenue You might also like x2 J'prends plaisir depuis l'époque Non, il n'y a pas d'spectacle Ma synthaxe qu'ils appellent punchlines sympas Ca cogne et c'est comme ça qu'on fait les choses au programme J'rappe comme si Mobb Deep faisait un feat' avec oim Boom Bap, on f'ra la même avec toi Amateur ou d'longue date, on fera les choses avec classe Ne calcule pas d'menaces, ce n'sont qu'des paroles en l'air Avant j'étais un d'ces durs, maintenant j'm'écoute Corneille Bordel, calme-toi, ça fait du bien quand même On ne quitte pas la musique même si on a la rage contre elle Ne me parle pas d'Faudel, de c'qui s'passe au billard D'la boule noire, ah ça on fume, pour danser l'MIA Sortie de Sète, oh Mohamadia Un gros big up du Mali jusqu'à la Chilia T'es guéri, tant mieux, ambiance médicinale Un accent qui finit en -eu c'est mon champ lexical Envie de se barrer loin,de se barrer loin x4 Tu peux nous mettre des barrières, on ira quand même x4 On ira quand même, on ira quand même</t>
+          <t>Met nous des barrières, on ira quand même, on ira quand même... x2 On s'évade On s'évade Inch'Allah qu'on s'revoit à un d'ces quatre Où ça?! On sait pas mais c'est dans la Zik qu'on s'évade C'est ça! Prend tes gardes, n'ignore pas ton tier-quar Fais gaffe Fais gaffe Le beat n'est même pas parti go que tu hoches la tête La route est longue, viens en plaisir Je t'la ferais en claquettes T'inquiètes, enfin prêt comme si j'portais mille palettes Texte vertigineux à t'provoquer un malaise L'rap n'est pas un rêve, mais tout l'monde peut l'faire quand même Chacun ses goûts, comme ses couilles ou son oreille Toi tu crois qu't'as des boules, mais tu les vois qu'au LOTO Tu pues, pour t'en sortir t'as pressé tous les boutons Testé tous les guidons, t'avais pas d'autre choix T'es monté haut ? Tu va r'descendre ... c'n'est qu'une balançoire Tout c'qu'on recherche en soi, faire du bien, c'est dur C'que tu nous sort à chaque fois n'est qu'une mauvaise habitude Arrête de parler d'street, à croire qu'tu marches eu Mon rap est sincère, sans trop d'idées farfelues Non t'es pas le bienvenue, j'pense qu'on t'a prévenu T'es new school, génial, j'te mets 10 ans d'retenue x2 J'prends plaisir depuis l'époque Non, il n'y a pas d'spectacle Ma synthaxe qu'ils appellent punchlines sympas Ca cogne et c'est comme ça qu'on fait les choses au programme J'rappe comme si Mobb Deep faisait un feat' avec oim Boom Bap, on f'ra la même avec toi Amateur ou d'longue date, on fera les choses avec classe Ne calcule pas d'menaces, ce n'sont qu'des paroles en l'air Avant j'étais un d'ces durs, maintenant j'm'écoute Corneille Bordel, calme-toi, ça fait du bien quand même On ne quitte pas la musique même si on a la rage contre elle Ne me parle pas d'Faudel, de c'qui s'passe au billard D'la boule noire, ah ça on fume, pour danser l'MIA Sortie de Sète, oh Mohamadia Un gros big up du Mali jusqu'à la Chilia T'es guéri, tant mieux, ambiance médicinale Un accent qui finit en -eu c'est mon champ lexical Envie de se barrer loin,de se barrer loin x4 Tu peux nous mettre des barrières, on ira quand même x4 On ira quand même, on ira quand même</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4284,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Demi Portion Les grandes gueules Ouais Rachid Sincèrement J'ai du m'y faire là où j'crèche man Faire attention à chaque marche Comme le fait Jean-Luc Reichmann Sincèrement Sincèrement J'reviens pas t'refaire le monde ou parler avec l'ennemi Faire semblant d'rouler vite en laissant crever l'hernie, non Tu sais, et si un jour on abusait Vas-y prends tous mes couplets expose-les dans leurs musées On sait pas trop s'amuser c'qu'ils disent, dans mon état Un arabe et insolant dissimulant des Barreta Stop, je m'arrête là aucune traces et d'larmes Pas besoin d'être un bonhomme pour savoir gérer une lame Tirer une latte ou bien trouver une arme Comme beaucoup jouent les dangereux et ça au dessus de l'âme Sincèrement j'ai du m'y faire là où j'crèche man Attention à chaque marche comme le fait Jean-Luc Reichmann Me fous d'être au piédestal j'finirai ma vie comme ça À écrire tout c'que j'pense et m'fous d'remplir vos salles D'être connu nationalement ici c'est place aux redma Ils ont tué nos darons et nous ont laissé près du magma You might also like x2 Sincèrement j'ai du m'y faire là où j'crèche man Attention à chaque marche comme le fait Jean-Luc Reichmann Fuck moi je partage l'appétit des frères Dans ce monde où chacun y monte sa petite affaire D'mande à Namor, on est bienv'nus dans le traquenard Nos cités s'ressemblent, y'a vraiment quoi en avoir marre Respirer la déception, côtoyer la fièvre Et dans notre petit gâteau, ils ont supprimé la fève On a jamais fait la grève, ni demandé pardon Ouais les jeunes veulent travailler, mais commander le patron On veut tenir le bâton, on n'veut pas de leur dressage Comme le mc veut son cd, pas d'galères en pressage Il veut passer le message sans connards qui bloquent tout Quand des projets tombent à l'eau, c'est pas grave, on sèche tout J'dirai c'est l'mektoub à chacun sa destinée Ses pinceaux, sa palette mais y'a qu'la pluie à dessiner Le soleil nous fait rêver, oublier qu'on est à la masse Les médias m'feront pas croire qu'on est presque aux Bahamas Y'a peu d'potes, mon frère, que j'ai senti open Me semble bien qu'nos surs deviennent vite européennes x2 Sincèrement j'ai du m'y faire là où j'crèche man Attention à chaque marche Comme le fait Jean-Luc Reichmann Fuck Moi je partage l'appétit des frères dans ce monde Où chacun y monte sa petite affaire Le petit frère veut les TN souhaite aussi s'taper la malle Prendre du recul et revoir son tempérament On est pas dans un film et y a pas d'cameraman Ne cherche pas d'victime on sera coupable et c'est normal Notre esprit dans le coma c'est pas ici que j'vois mes gosses Alimentés par McDo et s'mélanger à du matos Dis, t'as bien suivi ma cause ? J'veux pas t'faire la morale Le monde part en couille ça jure sur La Mecque et le Coran, ça craint Mais c'est courant on veut pas finir à g'noux Ou se laisser faire un jour, embobiné par un jnoun Mon avis personnel sache qu'aucune rime ne sera émotionnelle C'est une manière que chaque thème est opérationnel Vivre, c'est l'essentiel bien connaître ses racines Né dans un système où chacun doit gérer sa machine Mon nom c'est Rachid et retiens que Demi Portion Les grandes gueules, ma faction et l'ouvrir, ma fonction Sincèrement Fuck x3 Sincèrement J'ai du m'y faire là où j'crèche man Attention à chaque marche Comme le fait Jean-Luc Reichmann Fuck Moi je partage l'appétit des frères dans ce monde Où chacun y monte sa petite affaire Ouais Dans ce monde Où chacun y montre sa petite affaire Les grandes gueules Demi Portion Sincèrement Sincèrement Paroles d'homme Ouais, paroles d'homme Temax record Demi Portion Pour XXX et Momo Les grandes gueules</t>
+          <t>Demi Portion Les grandes gueules Ouais Rachid Sincèrement J'ai du m'y faire là où j'crèche man Faire attention à chaque marche Comme le fait Jean-Luc Reichmann Sincèrement Sincèrement J'reviens pas t'refaire le monde ou parler avec l'ennemi Faire semblant d'rouler vite en laissant crever l'hernie, non Tu sais, et si un jour on abusait Vas-y prends tous mes couplets expose-les dans leurs musées On sait pas trop s'amuser c'qu'ils disent, dans mon état Un arabe et insolant dissimulant des Barreta Stop, je m'arrête là aucune traces et d'larmes Pas besoin d'être un bonhomme pour savoir gérer une lame Tirer une latte ou bien trouver une arme Comme beaucoup jouent les dangereux et ça au dessus de l'âme Sincèrement j'ai du m'y faire là où j'crèche man Attention à chaque marche comme le fait Jean-Luc Reichmann Me fous d'être au piédestal j'finirai ma vie comme ça À écrire tout c'que j'pense et m'fous d'remplir vos salles D'être connu nationalement ici c'est place aux redma Ils ont tué nos darons et nous ont laissé près du magma x2 Sincèrement j'ai du m'y faire là où j'crèche man Attention à chaque marche comme le fait Jean-Luc Reichmann Fuck moi je partage l'appétit des frères Dans ce monde où chacun y monte sa petite affaire D'mande à Namor, on est bienv'nus dans le traquenard Nos cités s'ressemblent, y'a vraiment quoi en avoir marre Respirer la déception, côtoyer la fièvre Et dans notre petit gâteau, ils ont supprimé la fève On a jamais fait la grève, ni demandé pardon Ouais les jeunes veulent travailler, mais commander le patron On veut tenir le bâton, on n'veut pas de leur dressage Comme le mc veut son cd, pas d'galères en pressage Il veut passer le message sans connards qui bloquent tout Quand des projets tombent à l'eau, c'est pas grave, on sèche tout J'dirai c'est l'mektoub à chacun sa destinée Ses pinceaux, sa palette mais y'a qu'la pluie à dessiner Le soleil nous fait rêver, oublier qu'on est à la masse Les médias m'feront pas croire qu'on est presque aux Bahamas Y'a peu d'potes, mon frère, que j'ai senti open Me semble bien qu'nos surs deviennent vite européennes x2 Sincèrement j'ai du m'y faire là où j'crèche man Attention à chaque marche Comme le fait Jean-Luc Reichmann Fuck Moi je partage l'appétit des frères dans ce monde Où chacun y monte sa petite affaire Le petit frère veut les TN souhaite aussi s'taper la malle Prendre du recul et revoir son tempérament On est pas dans un film et y a pas d'cameraman Ne cherche pas d'victime on sera coupable et c'est normal Notre esprit dans le coma c'est pas ici que j'vois mes gosses Alimentés par McDo et s'mélanger à du matos Dis, t'as bien suivi ma cause ? J'veux pas t'faire la morale Le monde part en couille ça jure sur La Mecque et le Coran, ça craint Mais c'est courant on veut pas finir à g'noux Ou se laisser faire un jour, embobiné par un jnoun Mon avis personnel sache qu'aucune rime ne sera émotionnelle C'est une manière que chaque thème est opérationnel Vivre, c'est l'essentiel bien connaître ses racines Né dans un système où chacun doit gérer sa machine Mon nom c'est Rachid et retiens que Demi Portion Les grandes gueules, ma faction et l'ouvrir, ma fonction Sincèrement Fuck x3 Sincèrement J'ai du m'y faire là où j'crèche man Attention à chaque marche Comme le fait Jean-Luc Reichmann Fuck Moi je partage l'appétit des frères dans ce monde Où chacun y monte sa petite affaire Ouais Dans ce monde Où chacun y montre sa petite affaire Les grandes gueules Demi Portion Sincèrement Sincèrement Paroles d'homme Ouais, paroles d'homme Temax record Demi Portion Pour XXX et Momo Les grandes gueules</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4301,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Hey... Mon rap... Choque ! Demi-Portion T'es sous le choc, on fait du rap, on dira pas qui c'est qui mène La caisse claire est si violente qu'elle rendrait tout Eminem Y'a une basse, la sirène, et un piano pour mélodie Y'a cross de ouf dans le ring, qui met ses charleys au tapis On est gênés, j'm'en fous, maigres et mal rasés On est arabes, dans le four, qui a voulu nous écraser ? Si on est sortis du cours, c'est qu'on nous a trop dépassé Même le prof me disait Toi, tu seras jamais un Français Normal, vu ma gueule, j'me forçais à les comprendre Considère ça comme un single de l'under et son contrat Travaille la technique vocale, vise le mille pour vous la mettre Sous le choc, y'a plus d'arabes qui viennent jurer sur la Mecque Pour l'autre, y'a ce facho qui fera qu'parler sans arrêt C'est la télé qu'est-c'tu veux faire vu qu'elle effraie d'puis des années ? En fait, à redemander si les citoyens sont si nets Froids, que la plupart devraient se transformer en skinhead You might also likeà finir</t>
+          <t>Hey... Mon rap... Choque ! Demi-Portion T'es sous le choc, on fait du rap, on dira pas qui c'est qui mène La caisse claire est si violente qu'elle rendrait tout Eminem Y'a une basse, la sirène, et un piano pour mélodie Y'a cross de ouf dans le ring, qui met ses charleys au tapis On est gênés, j'm'en fous, maigres et mal rasés On est arabes, dans le four, qui a voulu nous écraser ? Si on est sortis du cours, c'est qu'on nous a trop dépassé Même le prof me disait Toi, tu seras jamais un Français Normal, vu ma gueule, j'me forçais à les comprendre Considère ça comme un single de l'under et son contrat Travaille la technique vocale, vise le mille pour vous la mettre Sous le choc, y'a plus d'arabes qui viennent jurer sur la Mecque Pour l'autre, y'a ce facho qui fera qu'parler sans arrêt C'est la télé qu'est-c'tu veux faire vu qu'elle effraie d'puis des années ? En fait, à redemander si les citoyens sont si nets Froids, que la plupart devraient se transformer en skinhead à finir</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4318,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Voila l'début de mes histoires avec un titre en majuscule Tourne tranquillement les pages, et j't'assure n'en rate pas une Mon prénom c'est Rachid et mon pseudo arrive ensuite Nouvelle ? et nouvelle prise car j'pensais qu'c'était possible De vider mon sac bien sur ! Comme si j'étais un boxeur Monter le ring c'est beau ! Mais y a comme un ralentisseur Car la vie est si fragile, de faire semblant de jouer les durs Quand y a des chances qui nous déchirent on veut qu'ca merde dans la couture Des coups bas, des bla bla, des faits divers, des histoires sanglantes Donc j'arrive à parler d'espoir mais si d'work j'fais semblant ! On n'veut pas suivre la danse, on l'regrettera dans cent ans Bien sur qu'on est qu'de passage, vous sortirez si sans poche La colêre est sortie d'cage, l'amour est la mort qui cache Big fumée, big fumée, t'as qu'à d'mander à Rim'k ! Quand l'flow arrive de l'espace, j'pense pas à l'autocensure Un rappeur je le respecte, pour son texte, pas sa voiture Je suis obligé d'vous l'dire, sur ce en bougant la tête hardcore, hardcore c'est comme ca qu't'a niqué mon p'tit frère ! J'découpe la prod en lan-ver aux frangins qui ont fait l'armée Comment te dire caporal, sans signer, m'engager La feuille m'a dédommagé, j'm'en bat les couilles pas d'foot man Mon flow est un silencieux, transformé en Hitman Le beat claque, 2 chez moi, on s'régale, hallucinant J'aime le rap depuis gosse, et j'le f'rai sans signer You might also like Mes frères tombent tombent De Paris jusqu'aux Dom Tom Comment vous donnez l'espoir ? Dans la rime au sens propre Mes frères tombent tombent tombent De Paris jusqu'aux Dom Tom Comment vous donnez l'espoir ? Dans la rime au sens propre Mes frères tombent sous les bombes Ma famille tombe sous les bombes Ma soeur tombe sous les bombes De Paris aux Dom Tom</t>
+          <t>Voila l'début de mes histoires avec un titre en majuscule Tourne tranquillement les pages, et j't'assure n'en rate pas une Mon prénom c'est Rachid et mon pseudo arrive ensuite Nouvelle ? et nouvelle prise car j'pensais qu'c'était possible De vider mon sac bien sur ! Comme si j'étais un boxeur Monter le ring c'est beau ! Mais y a comme un ralentisseur Car la vie est si fragile, de faire semblant de jouer les durs Quand y a des chances qui nous déchirent on veut qu'ca merde dans la couture Des coups bas, des bla bla, des faits divers, des histoires sanglantes Donc j'arrive à parler d'espoir mais si d'work j'fais semblant ! On n'veut pas suivre la danse, on l'regrettera dans cent ans Bien sur qu'on est qu'de passage, vous sortirez si sans poche La colêre est sortie d'cage, l'amour est la mort qui cache Big fumée, big fumée, t'as qu'à d'mander à Rim'k ! Quand l'flow arrive de l'espace, j'pense pas à l'autocensure Un rappeur je le respecte, pour son texte, pas sa voiture Je suis obligé d'vous l'dire, sur ce en bougant la tête hardcore, hardcore c'est comme ca qu't'a niqué mon p'tit frère ! J'découpe la prod en lan-ver aux frangins qui ont fait l'armée Comment te dire caporal, sans signer, m'engager La feuille m'a dédommagé, j'm'en bat les couilles pas d'foot man Mon flow est un silencieux, transformé en Hitman Le beat claque, 2 chez moi, on s'régale, hallucinant J'aime le rap depuis gosse, et j'le f'rai sans signer Mes frères tombent tombent De Paris jusqu'aux Dom Tom Comment vous donnez l'espoir ? Dans la rime au sens propre Mes frères tombent tombent tombent De Paris jusqu'aux Dom Tom Comment vous donnez l'espoir ? Dans la rime au sens propre Mes frères tombent sous les bombes Ma famille tombe sous les bombes Ma soeur tombe sous les bombes De Paris aux Dom Tom</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4335,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>C'est l'retour de l'homme masqué, hey Fier de lêtre J'vous défendrais tous en cur comme un super-héros Je serai là, même à chaque fois, un super-héros Celui qui répond à l'appel, un super-héros Avec des rêves plein la tête, un super-héros J'irai faire même des concerts, comme un super-héros Je reviendrai juste après, un super-héros Vas-y répète, juste après, super-héros Bang bang Stop là, j'arrive en balle, en solo puissance 4 Mets d'l'essence j'arrive en quad, même le chef oublie son grade Retour d'un super-héros, qui n'aura pas d'gros pouvoirs Surtout pas crier au secours, il est jamais venu m'voir On connaît tous une histoire, du Marvel au cinéma J'ai voulu être Spiderman mais pas d'fil entre les doigts S'il vous plaît comprenez-moi, on est plus forts, c'est comics J'me suis créé ma story, comme dans la peau de Malcom X Envoie l'son qu'on atterrisse, j'arrive de loin c'est normal On dit qu'la beuh nous fait planer mais sans les ailes de Batman Immortel, pas tout d'suite y a Marie Jeanne à six heures Dis aux snipers de viser, dêtre à un réel punisher You might also like J'vous défendrai tous en cur comme un super héros Je serais là même à chaque fois un super-héros Celui qui répond à l'appel un super-héros Avec des rêves plein la tête un super-héros J'irai faire même des concerts comme un super-héros Je reviendrai juste après un super-héros Vas-y répète, juste après, super-héros Bang bang Bien sûr, on ira t'sauver, ce soir nous sommes plusieurs Vas-y remets l'son s'teuplait, je n'ressent aucune douleur Vas-y fait sauter l'bout mort, je tiens le micro comme Thor J'ai plein d'rimes fantastiques, produites par Tim Burton Aussi lourd qu'un Raptor, comme Hulk, j'reste au vert, du haut de ma plantation, transformé en Green Lantern J'la frappe sans commentaires, j'rappe sans te mentir J'ai appris à soulever le rap français, sans créatine R-A-C-H-I-D retiens c'blaze comme ta série J'maîtrise ce flow cousin, comme si j'venais d'Amérique Ma voix dans l'équaliseur, le gardien d'ma galaxie Le retour d'un super-héros qui s'appelle juste MC J'vous défendrai tous en cur comme un super héros Je serais là même à chaque fois un super-héros Celui qui répond à l'appel un super-héros Avec des rêves plein la tête un super-héros J'irai faire même des concerts comme un super-héros Je reviendrai juste après un super-héros Vas-y répète, juste après, super-héros Super-héros, super-héros Un super-héros, super-héros - Eh, Ahmed - C'est toi mon super-héros - Je t'aime - Moi aussi On se doit de rester debout, cinquième album, waouh</t>
+          <t>C'est l'retour de l'homme masqué, hey Fier de lêtre J'vous défendrais tous en cur comme un super-héros Je serai là, même à chaque fois, un super-héros Celui qui répond à l'appel, un super-héros Avec des rêves plein la tête, un super-héros J'irai faire même des concerts, comme un super-héros Je reviendrai juste après, un super-héros Vas-y répète, juste après, super-héros Bang bang Stop là, j'arrive en balle, en solo puissance 4 Mets d'l'essence j'arrive en quad, même le chef oublie son grade Retour d'un super-héros, qui n'aura pas d'gros pouvoirs Surtout pas crier au secours, il est jamais venu m'voir On connaît tous une histoire, du Marvel au cinéma J'ai voulu être Spiderman mais pas d'fil entre les doigts S'il vous plaît comprenez-moi, on est plus forts, c'est comics J'me suis créé ma story, comme dans la peau de Malcom X Envoie l'son qu'on atterrisse, j'arrive de loin c'est normal On dit qu'la beuh nous fait planer mais sans les ailes de Batman Immortel, pas tout d'suite y a Marie Jeanne à six heures Dis aux snipers de viser, dêtre à un réel punisher J'vous défendrai tous en cur comme un super héros Je serais là même à chaque fois un super-héros Celui qui répond à l'appel un super-héros Avec des rêves plein la tête un super-héros J'irai faire même des concerts comme un super-héros Je reviendrai juste après un super-héros Vas-y répète, juste après, super-héros Bang bang Bien sûr, on ira t'sauver, ce soir nous sommes plusieurs Vas-y remets l'son s'teuplait, je n'ressent aucune douleur Vas-y fait sauter l'bout mort, je tiens le micro comme Thor J'ai plein d'rimes fantastiques, produites par Tim Burton Aussi lourd qu'un Raptor, comme Hulk, j'reste au vert, du haut de ma plantation, transformé en Green Lantern J'la frappe sans commentaires, j'rappe sans te mentir J'ai appris à soulever le rap français, sans créatine R-A-C-H-I-D retiens c'blaze comme ta série J'maîtrise ce flow cousin, comme si j'venais d'Amérique Ma voix dans l'équaliseur, le gardien d'ma galaxie Le retour d'un super-héros qui s'appelle juste MC J'vous défendrai tous en cur comme un super héros Je serais là même à chaque fois un super-héros Celui qui répond à l'appel un super-héros Avec des rêves plein la tête un super-héros J'irai faire même des concerts comme un super-héros Je reviendrai juste après un super-héros Vas-y répète, juste après, super-héros Super-héros, super-héros Un super-héros, super-héros - Eh, Ahmed - C'est toi mon super-héros - Je t'aime - Moi aussi On se doit de rester debout, cinquième album, waouh</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4352,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Qui ne se plante jamais na aucune chance de pousser Mokless, Demi-Portion, veuillez nous excuser, d'accord ? Ceux qui voulaient me tuer dans l'uf, j'les ai envoyé le faire cuire J'ai pas bougé quand on m'a enculé, j'voulais pas les faire jouir Ça touche quand c'est un proche qui joue les te-trai Trahison, c'est comme brûlure, y'a le premier et le second degré Je me méfie des haineux, des corbeaux et des profiteurs Qui au moment où je te parle creusent ma tombe au marteau-piqueur J'ajoute que tous ces ploucs m'écurent, méritent des coquards Je ne suis qu'un tocard chez leurs bookmakers De ma peau ils ne donnent pas cher mais quils ne sinquiètent pas J'ai un tas d'ennemis pour relever l'enchère Si je suis un peu pourri, eux le sont entièrement Ça m'étonne pas qu'ils pètent le champ le jour de mon enterrement Je peux pas les kiffer, tu veux que je les aiment bessif ? Tellement qu'ils parlent sur moi j'ai les oreilles qui sifflent Vu que tu connais la chanson, jte fais pas le dessin On vit avec l'amour des autres, et la haine des uns Sur nos gardes car il aura toujours un truc à dire sur nos gardes Crève la nuit, sera heureux de te voir partir sur nos gardes Attention car vous tomberez tout de suite sur nos gardes C'est le Marocain et le bon Tounsi sur nos gardes Si on se méfie autant sur nos gardes C'est qu'on nous a fait du tort sur nos gardes Un chien mordu par un serpent sur nos gardes A peur de tout, craint même une corde You might also like Mokless, dis-leur, difficile de s'en sortir quand on a Lappétit de Bernard Tapie et le caractère de Cantona Ça rentre pas mal mais les ennemies m'ont jetés l'Aïn Bon, je suis tout sang salit par les habits de lAïd tu sais La jalousie démarre que chez les profiteurs J'ai qu'une place dans ma Clio, J'ai pas les clefs d'un gros pick-up Big up à toi mais ne te ronge pas trop les ongles Viens me parler si tas un truc mais ne calcule pas trop les autres Les hommes, des corbeaux, qui ne font qu'admirer la chair Et même si on se cachait en scred ils nous pisteraient au laser Ça sert à quoi ? J'ai trop de rimes à faire tourner Je veux pas t'arriver à la cheville t'es encore loin de mes ourlets Je veux qu'on mélange nos traditions mais je veux pas de pates dans mon tajine Vide, t'inquiète, ça sera sans rancune aussi Sur nos gardes c'est certain là où l'envieux se fera suivre Sur Nos Gardes, si on se méfie autant sur nos gardes C'est qu'on nous a fait du tort sur nos gardes Un chien mordu par un serpent sur nos gardes A peur de tout, craint même une corde Sur nos gardes, car ils auront toujours un truc à dire sur nos gardes Crève la nuit, sera heureux de te voir partir sur nos gardes Attention car vous tomberez tout de suite sur nos gardes Depuis quon les a pris pour cible sur nos gardes Ouais, Scred connexion, les Grandes Gueules, Chut, le poids des mots Je n'ai pas choisi d'être ici, ni d'y grandir d'ailleurs Si aujourd'hui on écrit des rimes d'artisans et travailleurs C'est qu'on s'en fout des ricaneurs, gentil selon l'estime On enverra du son, des pierres, comme on le fait en Palestine Écoute, arrête, rien ne sert de parler speed Encore trop de fils de pute comme le Pen auprès des skins Écoute, je vais essayer de t'parler vite de mon domaine En bref, ce n'est pas lrap qui fera le sourire de ma mère Je doute mais l'écriture m'aide juste à me libérer Vu que la route elle est trop longue, qu'on ose même plus accélérer Je freine, jalouse, fais attention on fait que du son Jamais dans la tendance mais toujours dans la bonne correction Sur nos gardes, si on se méfie autant sur nos gardes C'est qu'on nous a fait du tort sur nos gardes Un chien mordu par un serpent sur nos gardes A peur de tout, craint même une corde Sur nos gardes car ils auront toujours un truc à dire sur nos gardes Crève la nuit, sera heureux de te voir partir sur nos gardes Attention car vous tomberez tout de suite sur nos gardes Depuis quon les a pris pour cible sur nos gardes Jespère que vous nêtes pas trop défiguré, quelle belle collection de cicatrices cela vous fait. Noubliez pas à qui vous devez les plus remarquables et soyez-en reconnaissant, nos cicatrices ont le mérite de nous rappeler que le passé na pas été un rêve</t>
+          <t>Qui ne se plante jamais na aucune chance de pousser Mokless, Demi-Portion, veuillez nous excuser, d'accord ? Ceux qui voulaient me tuer dans l'uf, j'les ai envoyé le faire cuire J'ai pas bougé quand on m'a enculé, j'voulais pas les faire jouir Ça touche quand c'est un proche qui joue les te-trai Trahison, c'est comme brûlure, y'a le premier et le second degré Je me méfie des haineux, des corbeaux et des profiteurs Qui au moment où je te parle creusent ma tombe au marteau-piqueur J'ajoute que tous ces ploucs m'écurent, méritent des coquards Je ne suis qu'un tocard chez leurs bookmakers De ma peau ils ne donnent pas cher mais quils ne sinquiètent pas J'ai un tas d'ennemis pour relever l'enchère Si je suis un peu pourri, eux le sont entièrement Ça m'étonne pas qu'ils pètent le champ le jour de mon enterrement Je peux pas les kiffer, tu veux que je les aiment bessif ? Tellement qu'ils parlent sur moi j'ai les oreilles qui sifflent Vu que tu connais la chanson, jte fais pas le dessin On vit avec l'amour des autres, et la haine des uns Sur nos gardes car il aura toujours un truc à dire sur nos gardes Crève la nuit, sera heureux de te voir partir sur nos gardes Attention car vous tomberez tout de suite sur nos gardes C'est le Marocain et le bon Tounsi sur nos gardes Si on se méfie autant sur nos gardes C'est qu'on nous a fait du tort sur nos gardes Un chien mordu par un serpent sur nos gardes A peur de tout, craint même une corde Mokless, dis-leur, difficile de s'en sortir quand on a Lappétit de Bernard Tapie et le caractère de Cantona Ça rentre pas mal mais les ennemies m'ont jetés l'Aïn Bon, je suis tout sang salit par les habits de lAïd tu sais La jalousie démarre que chez les profiteurs J'ai qu'une place dans ma Clio, J'ai pas les clefs d'un gros pick-up Big up à toi mais ne te ronge pas trop les ongles Viens me parler si tas un truc mais ne calcule pas trop les autres Les hommes, des corbeaux, qui ne font qu'admirer la chair Et même si on se cachait en scred ils nous pisteraient au laser Ça sert à quoi ? J'ai trop de rimes à faire tourner Je veux pas t'arriver à la cheville t'es encore loin de mes ourlets Je veux qu'on mélange nos traditions mais je veux pas de pates dans mon tajine Vide, t'inquiète, ça sera sans rancune aussi Sur nos gardes c'est certain là où l'envieux se fera suivre Sur Nos Gardes, si on se méfie autant sur nos gardes C'est qu'on nous a fait du tort sur nos gardes Un chien mordu par un serpent sur nos gardes A peur de tout, craint même une corde Sur nos gardes, car ils auront toujours un truc à dire sur nos gardes Crève la nuit, sera heureux de te voir partir sur nos gardes Attention car vous tomberez tout de suite sur nos gardes Depuis quon les a pris pour cible sur nos gardes Ouais, Scred connexion, les Grandes Gueules, Chut, le poids des mots Je n'ai pas choisi d'être ici, ni d'y grandir d'ailleurs Si aujourd'hui on écrit des rimes d'artisans et travailleurs C'est qu'on s'en fout des ricaneurs, gentil selon l'estime On enverra du son, des pierres, comme on le fait en Palestine Écoute, arrête, rien ne sert de parler speed Encore trop de fils de pute comme le Pen auprès des skins Écoute, je vais essayer de t'parler vite de mon domaine En bref, ce n'est pas lrap qui fera le sourire de ma mère Je doute mais l'écriture m'aide juste à me libérer Vu que la route elle est trop longue, qu'on ose même plus accélérer Je freine, jalouse, fais attention on fait que du son Jamais dans la tendance mais toujours dans la bonne correction Sur nos gardes, si on se méfie autant sur nos gardes C'est qu'on nous a fait du tort sur nos gardes Un chien mordu par un serpent sur nos gardes A peur de tout, craint même une corde Sur nos gardes car ils auront toujours un truc à dire sur nos gardes Crève la nuit, sera heureux de te voir partir sur nos gardes Attention car vous tomberez tout de suite sur nos gardes Depuis quon les a pris pour cible sur nos gardes Jespère que vous nêtes pas trop défiguré, quelle belle collection de cicatrices cela vous fait. Noubliez pas à qui vous devez les plus remarquables et soyez-en reconnaissant, nos cicatrices ont le mérite de nous rappeler que le passé na pas été un rêve</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4369,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Parce que jai attendu tranquille avant de foncer Le monde est beau sauf quil a les sourcils froncés Parce que je chante la vie mais elle ne danse plus On dit que chacun de nos cousins a un côté obscur Obstiné par la thune quand il en touche très peu Lhumain est malsain quand il na pas ce quil veut Parce que je demande rien mais jattends tout de toi Oui lamour est une flamme et le cur un bout de bois Parce quon est tous pareils, arrête on va tous partir Jai semé lespoir mais lhumain nest pas fertile Parce que tout le monde se regarde quon pleure ou quon se marre La gueule de lemploi Mentalité bosniaque Parce que la vie est ainsi et je vous remercie Un jour tu seras fort mais jamais invincible Parce quon a tout ce quon veut mais quon ne savoure pas Est-ce quil est difficile daménager au Rwanda ? On a tous à manger mais le partage est galère Pourquoi on ne vaut rien quand lAfrique lance une alerte ? Pourquoi jécris ? Parce que tout le monde sen bat les couilles, quoi ? Jai vu des gens mourir juste à cause dun débrouille toi! Parce quon est jeune, sportif sans Marie Jeanne Même le manque doseille se reflète sur nos visages Parce que le soleil, oui, circule pour tout le monde Excuse moi, regarde le globe, paraît que la terre tremble You might also like Parce que jai attendu personne avant dêtre sensé On ma dit l'humanité ne pouvait plus danser Je pourrais ten parler des heures en restant assis Jécris des rimes, jai jamais vu le temps passer Parce que jai attendu tranquille avant de foncer Le monde est beau sauf quil a les sourcils froncés Parce que je chante la paix mais elle ne danse plus On ma dit l'humanité ne pouvait plus danser Parce que jai attendu personne avant dêtre sensé Jécris des rimes, et jai jamais vu le temps passer Yeah Yeah Yeah Yeah Yeah Yeah Yeah Yeah Yeah Yeah Yeah Yeah</t>
+          <t>Parce que jai attendu tranquille avant de foncer Le monde est beau sauf quil a les sourcils froncés Parce que je chante la vie mais elle ne danse plus On dit que chacun de nos cousins a un côté obscur Obstiné par la thune quand il en touche très peu Lhumain est malsain quand il na pas ce quil veut Parce que je demande rien mais jattends tout de toi Oui lamour est une flamme et le cur un bout de bois Parce quon est tous pareils, arrête on va tous partir Jai semé lespoir mais lhumain nest pas fertile Parce que tout le monde se regarde quon pleure ou quon se marre La gueule de lemploi Mentalité bosniaque Parce que la vie est ainsi et je vous remercie Un jour tu seras fort mais jamais invincible Parce quon a tout ce quon veut mais quon ne savoure pas Est-ce quil est difficile daménager au Rwanda ? On a tous à manger mais le partage est galère Pourquoi on ne vaut rien quand lAfrique lance une alerte ? Pourquoi jécris ? Parce que tout le monde sen bat les couilles, quoi ? Jai vu des gens mourir juste à cause dun débrouille toi! Parce quon est jeune, sportif sans Marie Jeanne Même le manque doseille se reflète sur nos visages Parce que le soleil, oui, circule pour tout le monde Excuse moi, regarde le globe, paraît que la terre tremble Parce que jai attendu personne avant dêtre sensé On ma dit l'humanité ne pouvait plus danser Je pourrais ten parler des heures en restant assis Jécris des rimes, jai jamais vu le temps passer Parce que jai attendu tranquille avant de foncer Le monde est beau sauf quil a les sourcils froncés Parce que je chante la paix mais elle ne danse plus On ma dit l'humanité ne pouvait plus danser Parce que jai attendu personne avant dêtre sensé Jécris des rimes, et jai jamais vu le temps passer Yeah Yeah Yeah Yeah Yeah Yeah Yeah Yeah Yeah Yeah Yeah Yeah</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4386,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>J'avais jamais autant appelé mes parents J'm'étais jamais senti aussi proche des gens Tout en restant chez moi Est-ce que t'y crois ? J'avais jamais autant respecté la loi hey ! En m'abrutisant pénard dans mon canap' En laissant calmement s'installer la peur Au départ c'est vrai j'en avais rien à battre Maintenant j'applaudis les médecins à vingt heures J'danse tout seul dans le noir J'ai le blues du dimanche soir Mais tous les jours c'est tous les soirs dimanche J'vois plus le jour c'est tous les soir nuit blanche Pu-pu-putain de pandémie j'suis sensé as' et mad, ami Le bu-but, méga dépistage massif J'peux plus voir mes ne-bru, de-blond, rouquines Dépêche de prescrire la chloroquine Le virus kill, personne est tranquille On se confine, enfermé à la Scofield Ça y est, ça y est, c'est la fin de mon couplet E-K-L-I-P-S poto tu connais You might also like A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer Les yeux sont submergés parlez moi Les mots seront soignés parlez moi C'est vrai le beau temps nous paraît loin Est-ce que pour autant faut parler moins ? Quel sera le bilan ? Qu'on ne dira qu'à demi-mot Quand même les dominants tomberont comme des dominos Demi débite oui à deux mille à l'heure J'écoute le doc et Ministère AMER Ce soir je souffre, laissez moi, je souffle L'envie d'être aveugle ou bien de devenir sourd J'ai jamais bougé je suis toujours chez moi Même quand je sors je suis toujours chez moi Compter les jours en criant à l'aide Amour sur vous est l'unique remède Et si j'bois tous les soirs Je vais devenir asocial Si ça dure jusqu'à la sortie Je vais devenir insortable J'envoie des mails des fusées de détresse dans l'espace Échoué dans l'oeil du cyclone j'attends que la tempête passe Faut que je m'implique pour l'instant je m'applique à lire les statistiques épidémiologiques Je regarde l'évolution du Covid dans le monde comme le tableau des médailles aux Jeux Olympiques J'ai compté le nombre de caractères dans le Petit Robert Transformé ma corde à linge en tyrolienne Avec moi mes gosses font l'école buissonnière Mais je maintiens la paix entre eux je mérite un prix Nobel Certains triment, d'autres streament Moi j'ai qu'un p'tit rôle dans le film Mais j'reste optimiste et crie par la fenêtre On va tous mûrir avant de tous renaître Find me dancing on all alone in this crowd Please don't tell me I can't dance and feel the dark A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer Le Covid nique sa mère Le Covid nique sa mère Le Covid nique sa mère Le Covid nique sa mère On va tous mûrir avant de tous renaître</t>
+          <t>J'avais jamais autant appelé mes parents J'm'étais jamais senti aussi proche des gens Tout en restant chez moi Est-ce que t'y crois ? J'avais jamais autant respecté la loi hey ! En m'abrutisant pénard dans mon canap' En laissant calmement s'installer la peur Au départ c'est vrai j'en avais rien à battre Maintenant j'applaudis les médecins à vingt heures J'danse tout seul dans le noir J'ai le blues du dimanche soir Mais tous les jours c'est tous les soirs dimanche J'vois plus le jour c'est tous les soir nuit blanche Pu-pu-putain de pandémie j'suis sensé as' et mad, ami Le bu-but, méga dépistage massif J'peux plus voir mes ne-bru, de-blond, rouquines Dépêche de prescrire la chloroquine Le virus kill, personne est tranquille On se confine, enfermé à la Scofield Ça y est, ça y est, c'est la fin de mon couplet E-K-L-I-P-S poto tu connais A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer Les yeux sont submergés parlez moi Les mots seront soignés parlez moi C'est vrai le beau temps nous paraît loin Est-ce que pour autant faut parler moins ? Quel sera le bilan ? Qu'on ne dira qu'à demi-mot Quand même les dominants tomberont comme des dominos Demi débite oui à deux mille à l'heure J'écoute le doc et Ministère AMER Ce soir je souffre, laissez moi, je souffle L'envie d'être aveugle ou bien de devenir sourd J'ai jamais bougé je suis toujours chez moi Même quand je sors je suis toujours chez moi Compter les jours en criant à l'aide Amour sur vous est l'unique remède Et si j'bois tous les soirs Je vais devenir asocial Si ça dure jusqu'à la sortie Je vais devenir insortable J'envoie des mails des fusées de détresse dans l'espace Échoué dans l'oeil du cyclone j'attends que la tempête passe Faut que je m'implique pour l'instant je m'applique à lire les statistiques épidémiologiques Je regarde l'évolution du Covid dans le monde comme le tableau des médailles aux Jeux Olympiques J'ai compté le nombre de caractères dans le Petit Robert Transformé ma corde à linge en tyrolienne Avec moi mes gosses font l'école buissonnière Mais je maintiens la paix entre eux je mérite un prix Nobel Certains triment, d'autres streament Moi j'ai qu'un p'tit rôle dans le film Mais j'reste optimiste et crie par la fenêtre On va tous mûrir avant de tous renaître Find me dancing on all alone in this crowd Please don't tell me I can't dance and feel the dark A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer Le Covid nique sa mère Le Covid nique sa mère Le Covid nique sa mère Le Covid nique sa mère On va tous mûrir avant de tous renaître</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4403,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Y et W Maître de cérémonie, bien, beaucoup veulent serrer mon art Vu qu'on a su réunir tous les cochons en renards Et sans remarque, les casques m'ont fait suivre la marque Les vrais pas cinq fois en direction de la Mecque Moi le visage pâle vois-tu le shit qui s'écoule ? Et quoi de mal d'accepter de croire que ma vie est cool ? Véhicule du concret car maintenu au ras du sol Ira dire elle est sale à chaque fois qu'il y aura du sang D'ici ça résonne même si ça plaît a personne De loin je t'aperçois mais regarde qui tu impressionnes Enlève ton costume tu vois bien qui je questionne Cautionne vois plus d'ombrageux qui s'additionnent Dessine-moi p'tit comme une Mini Austin Et les gamines se font grandes à la Witney Houston Tu t'étonnes, arrête ça car on peut tout attendre J'en vois rageux, presque prêts pour tout atteindre Terminus, terminus que les bâtards descendent Pour s'descendre, on attendra pas le mois de décembre Terminus, terminus que les bâtards descendent J'rap un rap de voyous ramène tes cendres x2 You might also like Les envieux sont la taxe du succès Grâce aux africains, les grosses auront toujours une vie sexuelle Tu veux te marier, tu rêves d'une vie de famille Tu te noies toi même, wesh, t'as chaud aux seufs Je penses pas que Dieu ait mis une graine dans le ventre de Marie Je pense qu'elle a trompé Joseph Tu tises tu triches dix dix Et dix-huit piges, victimes on est, victime oblige Fais pas la gaffe si tu fais le big deal Petit, je suis dramatique et subtile Y a que les numbos qui ne laissent pas béton Y a que Columbo qui te baise en te respectant On te séquestre pour ta Benz On te rend visite à lhôpital pour te déconseiller de porter plainte Jemmènerai les anges au paradise tu sais Rancunier, je cambriolerai les huissiers T'affole pas, le juge condamne le gros caïd Les avocats sont les riches de la cocaïne J'rappe les bagarres, le placard, le tagga, le haga, le hagal Le braquage, le battage, et l'attache, le partage et la tchatche Le saccage de la classe, le sarcasme et la trace Les chacals et la classe, la vengeance et les casses si je jacasse, ils m'agacent Comment je fait pour gérer mes démons imprévisibles J'arrive en retard à mon propre enterrement x2 Yo, j'aime pas me lever le matin, complètement déphasé Avec des yeuz' éclatés comme des sseu-fés de catin J'ai envie de glandouiller, couché à la maison Ouais je m'en bats les couilles, t'façon elles ont qu'à pendouiller J'ai pas envie de bosser de 5 à 7 Pour un patron et plein de tapettes qui te font la leçon et te flinguent la tête J'ai pas envie de pardonner mon beau père, il nous as laissés en chien Sa baraque et sa meuf au bled c'était son joker J'ai la haine contre presque toute la planète Moi et ma bière, je suis au fond du trou de la canette Tu ressens le blues, le mal-être, la rage dans les pupilles La bagarre dans les yeux cousin, je rappe sale quand c'est utile Du taga dans les futes, on s'arnaque et se fusille En placard, ça se mutile la bac passe et elle jubile Nos papas dans les usines fatigués de vivre Attristés depuis qu'ils ont appris que leurs fils ont trafiqué le shit La rue, c'est pas Joey et son zoum zoum zen Une dette, un flingue chromé et tu te fais boum boum bang ! Y a pas de boss ni de chef c'est l'anarchie totale Tape la tise pour se canaliser, aplati nos crânes Je crois que ça vire au drame, pas du tout d'humeur à festoyer Salis mon blaze et je t'assure que tu te fais nettoyer Guns, schlass dans les mains d'un soucieux Bah ça donne un coup de feu, pas une punchline ! x2 Sho-sho-shotla Barbès-bar Clan Y et W, Willy, Yonea Que les bâtards descendent Termi-termi-terminus Zone sensible Okay, on est là On représente, on a des choses à dire... x23</t>
+          <t>Y et W Maître de cérémonie, bien, beaucoup veulent serrer mon art Vu qu'on a su réunir tous les cochons en renards Et sans remarque, les casques m'ont fait suivre la marque Les vrais pas cinq fois en direction de la Mecque Moi le visage pâle vois-tu le shit qui s'écoule ? Et quoi de mal d'accepter de croire que ma vie est cool ? Véhicule du concret car maintenu au ras du sol Ira dire elle est sale à chaque fois qu'il y aura du sang D'ici ça résonne même si ça plaît a personne De loin je t'aperçois mais regarde qui tu impressionnes Enlève ton costume tu vois bien qui je questionne Cautionne vois plus d'ombrageux qui s'additionnent Dessine-moi p'tit comme une Mini Austin Et les gamines se font grandes à la Witney Houston Tu t'étonnes, arrête ça car on peut tout attendre J'en vois rageux, presque prêts pour tout atteindre Terminus, terminus que les bâtards descendent Pour s'descendre, on attendra pas le mois de décembre Terminus, terminus que les bâtards descendent J'rap un rap de voyous ramène tes cendres x2 Les envieux sont la taxe du succès Grâce aux africains, les grosses auront toujours une vie sexuelle Tu veux te marier, tu rêves d'une vie de famille Tu te noies toi même, wesh, t'as chaud aux seufs Je penses pas que Dieu ait mis une graine dans le ventre de Marie Je pense qu'elle a trompé Joseph Tu tises tu triches dix dix Et dix-huit piges, victimes on est, victime oblige Fais pas la gaffe si tu fais le big deal Petit, je suis dramatique et subtile Y a que les numbos qui ne laissent pas béton Y a que Columbo qui te baise en te respectant On te séquestre pour ta Benz On te rend visite à lhôpital pour te déconseiller de porter plainte Jemmènerai les anges au paradise tu sais Rancunier, je cambriolerai les huissiers T'affole pas, le juge condamne le gros caïd Les avocats sont les riches de la cocaïne J'rappe les bagarres, le placard, le tagga, le haga, le hagal Le braquage, le battage, et l'attache, le partage et la tchatche Le saccage de la classe, le sarcasme et la trace Les chacals et la classe, la vengeance et les casses si je jacasse, ils m'agacent Comment je fait pour gérer mes démons imprévisibles J'arrive en retard à mon propre enterrement x2 Yo, j'aime pas me lever le matin, complètement déphasé Avec des yeuz' éclatés comme des sseu-fés de catin J'ai envie de glandouiller, couché à la maison Ouais je m'en bats les couilles, t'façon elles ont qu'à pendouiller J'ai pas envie de bosser de 5 à 7 Pour un patron et plein de tapettes qui te font la leçon et te flinguent la tête J'ai pas envie de pardonner mon beau père, il nous as laissés en chien Sa baraque et sa meuf au bled c'était son joker J'ai la haine contre presque toute la planète Moi et ma bière, je suis au fond du trou de la canette Tu ressens le blues, le mal-être, la rage dans les pupilles La bagarre dans les yeux cousin, je rappe sale quand c'est utile Du taga dans les futes, on s'arnaque et se fusille En placard, ça se mutile la bac passe et elle jubile Nos papas dans les usines fatigués de vivre Attristés depuis qu'ils ont appris que leurs fils ont trafiqué le shit La rue, c'est pas Joey et son zoum zoum zen Une dette, un flingue chromé et tu te fais boum boum bang ! Y a pas de boss ni de chef c'est l'anarchie totale Tape la tise pour se canaliser, aplati nos crânes Je crois que ça vire au drame, pas du tout d'humeur à festoyer Salis mon blaze et je t'assure que tu te fais nettoyer Guns, schlass dans les mains d'un soucieux Bah ça donne un coup de feu, pas une punchline ! x2 Sho-sho-shotla Barbès-bar Clan Y et W, Willy, Yonea Que les bâtards descendent Termi-termi-terminus Zone sensible Okay, on est là On représente, on a des choses à dire... x23</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4420,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Ça fait plusieurs concerts quon ma dit Rachid pose-toi Tas vu tes cernes comment tu fais on se demande quoi Etre un amoureux du hip-hop ça ne sexplique pas Cest trop dur quoi, comme un enfant dans une classe segpa Jgravi les hectares Vu qula scène est une étoile Jbois mes sentiments puis les recrachent en foutu nectar On dit que ltemps ne sarrête pas Donc jcontinue mon histoire Javance et le jour où on ma dit Rach organise-toi La vie ne tient quà un poil La famille sous un toit, on simagine de plus en plus cousin dans lNicaragua Allez, tout doit disparaître vas-y cousin on reste-la Jai déja fait ltour du rap Et jlai réussi en vespa oh Bordel on est tous fous, on snoie sous leau on spose des questions à devenir saouls On est connus apparemment cousin que pour foutre la merde On sfait discrets comme un petit dans une Mac Laren Fuck les règles jmarrête Jfinirai sur cette lettre On dit que la guerre du monde est un bouton dans une malette Allez tout doit disparaître, non, cousin on reste là Jai déja fait ltour du rap Et jlai réussi en vespa On fait la même et on lâche pas, toujours On continue et on lâche rien, toujours Depuis lépoque on se donne, toujours Tu le sais bien quon se donne toujours On voit Rolex à la prod' Depuis lépoque on se donne, toujours On lâchera rien tu le sais, toujours Cest pour Sète tu le sais Passe par là, micro branché mais quest-ce qui se passe Lève la main, envoie linstrument Passe par là, micro branché mais quest-ce qui se passe on lève les bras Ma façon denvisager lrap est élémentaire Pour les fréros oui toujours On donne oui ça oui toujours On continue par amour Vive mon public pour toujours Pour Medici qui mdonne la force toujours fréro Molotof toujours, sprinter toujours Jimmy Hendrix, toujours Cest pour le S toujours Fréro cest pour Hamed toujours Ildoto, toujours Ma famille Waouh waouh waouh Beng bengYou might also like</t>
+          <t>Ça fait plusieurs concerts quon ma dit Rachid pose-toi Tas vu tes cernes comment tu fais on se demande quoi Etre un amoureux du hip-hop ça ne sexplique pas Cest trop dur quoi, comme un enfant dans une classe segpa Jgravi les hectares Vu qula scène est une étoile Jbois mes sentiments puis les recrachent en foutu nectar On dit que ltemps ne sarrête pas Donc jcontinue mon histoire Javance et le jour où on ma dit Rach organise-toi La vie ne tient quà un poil La famille sous un toit, on simagine de plus en plus cousin dans lNicaragua Allez, tout doit disparaître vas-y cousin on reste-la Jai déja fait ltour du rap Et jlai réussi en vespa oh Bordel on est tous fous, on snoie sous leau on spose des questions à devenir saouls On est connus apparemment cousin que pour foutre la merde On sfait discrets comme un petit dans une Mac Laren Fuck les règles jmarrête Jfinirai sur cette lettre On dit que la guerre du monde est un bouton dans une malette Allez tout doit disparaître, non, cousin on reste là Jai déja fait ltour du rap Et jlai réussi en vespa On fait la même et on lâche pas, toujours On continue et on lâche rien, toujours Depuis lépoque on se donne, toujours Tu le sais bien quon se donne toujours On voit Rolex à la prod' Depuis lépoque on se donne, toujours On lâchera rien tu le sais, toujours Cest pour Sète tu le sais Passe par là, micro branché mais quest-ce qui se passe Lève la main, envoie linstrument Passe par là, micro branché mais quest-ce qui se passe on lève les bras Ma façon denvisager lrap est élémentaire Pour les fréros oui toujours On donne oui ça oui toujours On continue par amour Vive mon public pour toujours Pour Medici qui mdonne la force toujours fréro Molotof toujours, sprinter toujours Jimmy Hendrix, toujours Cest pour le S toujours Fréro cest pour Hamed toujours Ildoto, toujours Ma famille Waouh waouh waouh Beng beng</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4437,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Moi, jy connais rien au CAC 40, ni à la bourse Une chose est sûre les putains aimeraient que jreste à la bourre Que jsquatte la moisissure ben non ! Retiens les boom Si tu mvois évoluer ou voler largent tah le bourge Jdirais qutu la boucles Ta bouche, jdemande pas si tu permets Mieux vaut qutu bouges Tu tcrois au top, aux news ? Mais ty es berné La vérité, demande à Demi-P Ni VIP, ni au programme Nous on sincruste avec des moyens plus que limités Toujours invité en position de contre Les miens ils sinfiltrent et même sans possession du code Shouf, aucun gangster à imiter Comme un disque qui pèse mi-peine pour quelques clopes à lunité ton vice donc arrête de tchatcher Dans les moments durs on ta vu hreb ou même te cacher Bref, excepté jacter dans le vent tu fais que dalle Rien que tu t'pointes à la base, rien que tu baves, rien que tu parles grave Tu tendors en rêvant que tu palpes, cest cool Au réveil, au secours la réalité frappe, cqui alimente ta routine Cest quoi ? À part les faux débats, toujours à ramener ton cul là où il faudrait pas Ça fait vas-y arrête de les pointer du doigt La vengeance un plat froid qui tajoute peu de poids Toi, tu fais quoi à part les faux débats ? Toujours à ramener ton cul là où il faudrait pas Et même si lennemi caresse dans le sens du poil Suffit dy croire, toujours ensemble et sans faux départ Toi, tu fais quoi à part les faux débats ? Toujours à ramener ton cul là où il faudrait pas You might also like Sinon ça gaze, tu es pt-être seul chez toi Là cest deux copains dabord et un ptit son sétois Toujours ensemble frérot, ouais ouais Laisse-moi réfléchir histoire de trouver un thème tu sais Fini les temps comme ces babyfoots à la MJC Devenir grand cest fait comme le souvenir sefface Tellement grillé quon souhaite juste tous mourir en silence Que chaque vie est immense, quon la casse ou bien quon la répare Oublie qu'la mort est inévitable Ne cherche même pas plus loin, juste devant toi Nul besoin de dire la vérité en buvant quoi Jmattarde et cest grâce à Les Grandes Gueules qujbavarde Le métier rentre mais moi jaime quand je sors du travail Cest pour Nadir, et ceux qui vivent en ZUP partout Nabil, Kader et les anciens qui ont suivi lparcours Dmande à Drix les cours, comment les techniques s'tournent Viens à Sète, tu veux du rap, tauras leffet qui sgoure Ya même la France qui slève car on veut plus dmytho Fais pas dcaprices quand je mplains cest quand jai pas dmicro Alors dessine ta route et gère bien ton allure Ya des bombes partout mais certaines font trop dcoulures Trop dtalents cachés mais peu dtemps pour s'découvrir Sache-le cest toujours ensemble quon sra plus libre Ça fait vas-y arrête de les pointer du doigt La vengeance un plat froid qui tajoute peu de poids Toi, tu fais quoi à part les faux débats ? Toujours à ramener ton cul là où il faudrait pas Et même si lennemi caresse dans le sens du poil Suffit dy croire, toujours ensemble et sans faux départ Toi, tu fais quoi à part les faux débats ? Toujours à ramener ton cul là où il faudrait pas</t>
+          <t>Moi, jy connais rien au CAC 40, ni à la bourse Une chose est sûre les putains aimeraient que jreste à la bourre Que jsquatte la moisissure ben non ! Retiens les boom Si tu mvois évoluer ou voler largent tah le bourge Jdirais qutu la boucles Ta bouche, jdemande pas si tu permets Mieux vaut qutu bouges Tu tcrois au top, aux news ? Mais ty es berné La vérité, demande à Demi-P Ni VIP, ni au programme Nous on sincruste avec des moyens plus que limités Toujours invité en position de contre Les miens ils sinfiltrent et même sans possession du code Shouf, aucun gangster à imiter Comme un disque qui pèse mi-peine pour quelques clopes à lunité ton vice donc arrête de tchatcher Dans les moments durs on ta vu hreb ou même te cacher Bref, excepté jacter dans le vent tu fais que dalle Rien que tu t'pointes à la base, rien que tu baves, rien que tu parles grave Tu tendors en rêvant que tu palpes, cest cool Au réveil, au secours la réalité frappe, cqui alimente ta routine Cest quoi ? À part les faux débats, toujours à ramener ton cul là où il faudrait pas Ça fait vas-y arrête de les pointer du doigt La vengeance un plat froid qui tajoute peu de poids Toi, tu fais quoi à part les faux débats ? Toujours à ramener ton cul là où il faudrait pas Et même si lennemi caresse dans le sens du poil Suffit dy croire, toujours ensemble et sans faux départ Toi, tu fais quoi à part les faux débats ? Toujours à ramener ton cul là où il faudrait pas Sinon ça gaze, tu es pt-être seul chez toi Là cest deux copains dabord et un ptit son sétois Toujours ensemble frérot, ouais ouais Laisse-moi réfléchir histoire de trouver un thème tu sais Fini les temps comme ces babyfoots à la MJC Devenir grand cest fait comme le souvenir sefface Tellement grillé quon souhaite juste tous mourir en silence Que chaque vie est immense, quon la casse ou bien quon la répare Oublie qu'la mort est inévitable Ne cherche même pas plus loin, juste devant toi Nul besoin de dire la vérité en buvant quoi Jmattarde et cest grâce à Les Grandes Gueules qujbavarde Le métier rentre mais moi jaime quand je sors du travail Cest pour Nadir, et ceux qui vivent en ZUP partout Nabil, Kader et les anciens qui ont suivi lparcours Dmande à Drix les cours, comment les techniques s'tournent Viens à Sète, tu veux du rap, tauras leffet qui sgoure Ya même la France qui slève car on veut plus dmytho Fais pas dcaprices quand je mplains cest quand jai pas dmicro Alors dessine ta route et gère bien ton allure Ya des bombes partout mais certaines font trop dcoulures Trop dtalents cachés mais peu dtemps pour s'découvrir Sache-le cest toujours ensemble quon sra plus libre Ça fait vas-y arrête de les pointer du doigt La vengeance un plat froid qui tajoute peu de poids Toi, tu fais quoi à part les faux débats ? Toujours à ramener ton cul là où il faudrait pas Et même si lennemi caresse dans le sens du poil Suffit dy croire, toujours ensemble et sans faux départ Toi, tu fais quoi à part les faux débats ? Toujours à ramener ton cul là où il faudrait pas</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4454,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>J'ai fait l'tour du monde, ça r'ssemblait pas A-a-ah, à un rêve J'ai fait l'tour et j'ai vu que pour toi A-a-a-ah, c'est pareil Fais un tour chez moi, y'a les mêmes problèmes Si t'es seul, crois-moi, t'auras plein d'collègues Fais un tour chez moi, t'auras plein d'couleurs T'auras les mêmes bleus mais pas la même douleur Fais un pas vers nous, on fera les cent mètres Devenir athlète, j'te le garantis Entre l'amour, la haine et des gens honnêtes Fais un tour chez moi, j't'aurai pas menti Y'a des cons partout mais on le sait déjà Et, tenir debout, c'est trop difficile Être marginal ou payer des charges On a tous rêvé de partir loin d'ici Mais je reste là, on est bien chez nous Je l'répète encore le monde est à nous Fais un tour chez nous, y'a une pièce en plus La vie n'est pas chère, c'est l'marché aux puces You might also like J'ai fait l'tour du monde, ça r'ssemblait pas A-a-ah, à un rêve J'ai fait l'tour et j'ai vu que pour toi A-a-a-ah, c'est pareil Inégalités, ouais, on connaît la story Reste l'amitié, c'est tout c'qu'on nous autorise, ouais J'ai fait l'tour et j'ai vu que pour toi A-a-a-ah, c'est pareil Yo Fais un tour dehors, tu seras pétrifié Une pensée à toi qui n'a pas de toit Il paraît que nos organes ont été modifiés Est-ce qu'on est tous cons ? On n'a pas le droit On parle de liberté mais y'a trop d'barreaux Malgré les ouvertures, on n'a pas les clés Oui, la Terre va mal mais ne tourne pas rond On se divise tous, ouais, c'est ça, l'progrès Fais un tour partout, on est tous pareils On joue nos vies en boucle mais le disque se raye J'ai fait un tour chez toi, j'en suis vite sorti J'étais un mp3, tu m'as converti J'ai pris l'temps d'vous lire et d'servir mon art Le rap est une magie, remplacez les armes J'ai fait un tour entier, Demi Portion Juste un son sérieux vaut dix mille actions J'ai fait l'tour du monde, ça r'ssemblait pas A-a-ah, à un rêve J'ai fait l'tour et j'ai vu que pour toi A-a-a-ah, c'est pareil Inégalités, ouais, on connaît la story Reste l'amitié, c'est tout c'qu'on nous autorise, ouais J'ai fait l'tour et j'ai vu que pour toi A-a-a-ah, c'est pareil</t>
+          <t>J'ai fait l'tour du monde, ça r'ssemblait pas A-a-ah, à un rêve J'ai fait l'tour et j'ai vu que pour toi A-a-a-ah, c'est pareil Fais un tour chez moi, y'a les mêmes problèmes Si t'es seul, crois-moi, t'auras plein d'collègues Fais un tour chez moi, t'auras plein d'couleurs T'auras les mêmes bleus mais pas la même douleur Fais un pas vers nous, on fera les cent mètres Devenir athlète, j'te le garantis Entre l'amour, la haine et des gens honnêtes Fais un tour chez moi, j't'aurai pas menti Y'a des cons partout mais on le sait déjà Et, tenir debout, c'est trop difficile Être marginal ou payer des charges On a tous rêvé de partir loin d'ici Mais je reste là, on est bien chez nous Je l'répète encore le monde est à nous Fais un tour chez nous, y'a une pièce en plus La vie n'est pas chère, c'est l'marché aux puces J'ai fait l'tour du monde, ça r'ssemblait pas A-a-ah, à un rêve J'ai fait l'tour et j'ai vu que pour toi A-a-a-ah, c'est pareil Inégalités, ouais, on connaît la story Reste l'amitié, c'est tout c'qu'on nous autorise, ouais J'ai fait l'tour et j'ai vu que pour toi A-a-a-ah, c'est pareil Yo Fais un tour dehors, tu seras pétrifié Une pensée à toi qui n'a pas de toit Il paraît que nos organes ont été modifiés Est-ce qu'on est tous cons ? On n'a pas le droit On parle de liberté mais y'a trop d'barreaux Malgré les ouvertures, on n'a pas les clés Oui, la Terre va mal mais ne tourne pas rond On se divise tous, ouais, c'est ça, l'progrès Fais un tour partout, on est tous pareils On joue nos vies en boucle mais le disque se raye J'ai fait un tour chez toi, j'en suis vite sorti J'étais un mp3, tu m'as converti J'ai pris l'temps d'vous lire et d'servir mon art Le rap est une magie, remplacez les armes J'ai fait un tour entier, Demi Portion Juste un son sérieux vaut dix mille actions J'ai fait l'tour du monde, ça r'ssemblait pas A-a-ah, à un rêve J'ai fait l'tour et j'ai vu que pour toi A-a-a-ah, c'est pareil Inégalités, ouais, on connaît la story Reste l'amitié, c'est tout c'qu'on nous autorise, ouais J'ai fait l'tour et j'ai vu que pour toi A-a-a-ah, c'est pareil</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4471,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Couplet Toute ma vie je l'ai senti Toute ma vie elle m'a menti Oui le bonheur est ma hantise Toutes les nuits, j'ai des surprises Je veux niquer le game d'après tout ce qu'il disent J'arrive de loin chauffer la banquise Toute ma vie j'ai eu l'air triste Un artiste, hors piste Je chante ma vie, sans orchestre Demi débite et te rallume ta pièce Trop de flow et de délicatesse Des thèmes par tonnes Et ouais la zic apaise Pas moyen qu'on lache prise J'ai pris de l'espace Envoie la balle, fuck Iniesta Depuis tout petit, je vois plus d'esprits On dit que le hip-hop fabrique des stars Toute ma vie vie je l'ai senti Une étoile brille peut s'assombrir Chacune des prods est une combine Je lance ma mode, c'est fashion weed La route est longue et on avance sans guide On attend des ballons d'or en Argentine On attend de l'eau encore dans toute l'Afrique Les chefs d'Etats n'ont pas la bonne tactique J'arrive à fond guy oui j'ai fondé Trop de rap tue le rap je passe à côté Je décris l'industrie sur un manuscrit Je nique ce milieu et je ressort un style Fixe mes yeux, oui j'ai passé des heures On dit que la musique ramène des heureux Toute ma vie un réveil à l'aurore Car je tourne mes sons comme un film d'horreur You might also likePont x2 La barre est haute ma gueule On veut le compte à George Michael Le monde mécure, il a deux visages Disons qu'il a eut un bon make-up Outro Demi portion Oui le bonheur est ma hantise Toutes les nuits, j'ai des surprises Je veux niquer le game d'après tout ce qu'ils disent J'arrive de loin chauffer la banquise Toute ma vie j'ai eu l'air triste Toute ma vie Bang bang</t>
+          <t>Couplet Toute ma vie je l'ai senti Toute ma vie elle m'a menti Oui le bonheur est ma hantise Toutes les nuits, j'ai des surprises Je veux niquer le game d'après tout ce qu'il disent J'arrive de loin chauffer la banquise Toute ma vie j'ai eu l'air triste Un artiste, hors piste Je chante ma vie, sans orchestre Demi débite et te rallume ta pièce Trop de flow et de délicatesse Des thèmes par tonnes Et ouais la zic apaise Pas moyen qu'on lache prise J'ai pris de l'espace Envoie la balle, fuck Iniesta Depuis tout petit, je vois plus d'esprits On dit que le hip-hop fabrique des stars Toute ma vie vie je l'ai senti Une étoile brille peut s'assombrir Chacune des prods est une combine Je lance ma mode, c'est fashion weed La route est longue et on avance sans guide On attend des ballons d'or en Argentine On attend de l'eau encore dans toute l'Afrique Les chefs d'Etats n'ont pas la bonne tactique J'arrive à fond guy oui j'ai fondé Trop de rap tue le rap je passe à côté Je décris l'industrie sur un manuscrit Je nique ce milieu et je ressort un style Fixe mes yeux, oui j'ai passé des heures On dit que la musique ramène des heureux Toute ma vie un réveil à l'aurore Car je tourne mes sons comme un film d'horreur Pont x2 La barre est haute ma gueule On veut le compte à George Michael Le monde mécure, il a deux visages Disons qu'il a eut un bon make-up Outro Demi portion Oui le bonheur est ma hantise Toutes les nuits, j'ai des surprises Je veux niquer le game d'après tout ce qu'ils disent J'arrive de loin chauffer la banquise Toute ma vie j'ai eu l'air triste Toute ma vie Bang bang</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4488,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Bang bang doù lenfant terrible Trop dingue dingue, oui tout est bordélique Jai plus de bons délires, jai pris le temps de lire Tu sais quy a tant dbalises depuis Amanda Lear Létat immortalise les gens trop faibles, que les jolis trophées Jai jamais soulevé le trophée nan, nan Allez on sprésente plus jmappelle Rachid Allume la machine, une vie pas facile Jdis non merci, tout est possible Jai trouvé la musique, cest mon arme aussi Trop docile, grandir en téci Jai vu le terrain, fallait faire pressing Allez rentre ici, reste ici Le champs de vision a rétréci Ouais, on est sur le banc depuis long time Jai du faire creuser les montagnes Pas de montage ornemental Trouvé deux langues dans mes organes Je te regarde en garde, le son est sorti Dj Rolxx, Hip-hop, et toujours Funky Je te regarde en garde, le son est sorti Dj Rolxx et qui? et Demi, Demi P Haa Bang bang doù lenfant terrible Trop dingue dingue, oui tout est bordélique Jai plus de bon délires, jai pris le temps de lire Tu sais quy a tant dbalises depuis Amanda Lear Létat immortalise les gens trop faibles, que les jolis trophées Jai jamais soulevé le trophée nan, nan You might also likeOuais hein, ah .. Déjà la prod part, y a eu des secousses Vires tes vues jarrive en bluetooth On a semaine en graine daprès le couscous Ouais Comme un Thaïlandais sur un pouss pouss Allez passe, passe je vois que tu tousses fort On sfume le microphone avant le fort Jélimine chaque vestes y'a la bonne couche Je mise tout au PMU pas au bain de douche Mes gars dans le bendo se mettent bien Je baise les cains-ri comme un indien chut Toujours pas sommeil ça tombe bien Jpréfère Ketama au Colombien Jarrive à poil dans le game yeah On casse la porte si cest blindé Jenvoie la prod dans le décor yeah Tu sais les thèmes jen ai des tonnes yeah Et je décris ma vie dans ce bordel bordel Je mélange le son sans cocktail cocktail Et comme Brassens me fait petit Le son est signé D.E.M.I Allez bang bang doù lenfant terrible Trop dingue dingue, tout est bordélique Jai plus de bons délires, jai pris le temps de lire Tu sais quy a tant de balises, depuis Amanda Lear Létat immortalise les gens trop faibles, que les jolis trophées Jai jamais soulevé le trophée Nan nan Demi Nan nan Bang bang doù lenfant terrible Trop dingue dingue, oui tout est bordélique Jai plus de bons délires, jai pris le temps de lire Tu sais quy a tant de balises, depuis Amanda Lear Létat immortalise les gens trop faibles, que les jolis trophées Jai jamais soulevé le trophée Bang bang doù lenfant terrible Trop dingue dingue, oui tout est bordélique Jai plus de bons délires, jai pris le temps de lire Tu sais quy a tant de balises, depuis Amanda Lear Létat immortalise les gens trop faibles, que les jolis trophées Jai jamais soulevé le trophée Dingue, dingue ouais tout est bordélique Jai plus de bons délires, jai pris le temps de lire Tu sais quy a tant de balises, depuis Amanda Lear Trop faibles Trophée Trophée Nan, nan Rolxx Demi</t>
+          <t>Bang bang doù lenfant terrible Trop dingue dingue, oui tout est bordélique Jai plus de bons délires, jai pris le temps de lire Tu sais quy a tant dbalises depuis Amanda Lear Létat immortalise les gens trop faibles, que les jolis trophées Jai jamais soulevé le trophée nan, nan Allez on sprésente plus jmappelle Rachid Allume la machine, une vie pas facile Jdis non merci, tout est possible Jai trouvé la musique, cest mon arme aussi Trop docile, grandir en téci Jai vu le terrain, fallait faire pressing Allez rentre ici, reste ici Le champs de vision a rétréci Ouais, on est sur le banc depuis long time Jai du faire creuser les montagnes Pas de montage ornemental Trouvé deux langues dans mes organes Je te regarde en garde, le son est sorti Dj Rolxx, Hip-hop, et toujours Funky Je te regarde en garde, le son est sorti Dj Rolxx et qui? et Demi, Demi P Haa Bang bang doù lenfant terrible Trop dingue dingue, oui tout est bordélique Jai plus de bon délires, jai pris le temps de lire Tu sais quy a tant dbalises depuis Amanda Lear Létat immortalise les gens trop faibles, que les jolis trophées Jai jamais soulevé le trophée nan, nan Ouais hein, ah .. Déjà la prod part, y a eu des secousses Vires tes vues jarrive en bluetooth On a semaine en graine daprès le couscous Ouais Comme un Thaïlandais sur un pouss pouss Allez passe, passe je vois que tu tousses fort On sfume le microphone avant le fort Jélimine chaque vestes y'a la bonne couche Je mise tout au PMU pas au bain de douche Mes gars dans le bendo se mettent bien Je baise les cains-ri comme un indien chut Toujours pas sommeil ça tombe bien Jpréfère Ketama au Colombien Jarrive à poil dans le game yeah On casse la porte si cest blindé Jenvoie la prod dans le décor yeah Tu sais les thèmes jen ai des tonnes yeah Et je décris ma vie dans ce bordel bordel Je mélange le son sans cocktail cocktail Et comme Brassens me fait petit Le son est signé D.E.M.I Allez bang bang doù lenfant terrible Trop dingue dingue, tout est bordélique Jai plus de bons délires, jai pris le temps de lire Tu sais quy a tant de balises, depuis Amanda Lear Létat immortalise les gens trop faibles, que les jolis trophées Jai jamais soulevé le trophée Nan nan Demi Nan nan Bang bang doù lenfant terrible Trop dingue dingue, oui tout est bordélique Jai plus de bons délires, jai pris le temps de lire Tu sais quy a tant de balises, depuis Amanda Lear Létat immortalise les gens trop faibles, que les jolis trophées Jai jamais soulevé le trophée Bang bang doù lenfant terrible Trop dingue dingue, oui tout est bordélique Jai plus de bons délires, jai pris le temps de lire Tu sais quy a tant de balises, depuis Amanda Lear Létat immortalise les gens trop faibles, que les jolis trophées Jai jamais soulevé le trophée Dingue, dingue ouais tout est bordélique Jai plus de bons délires, jai pris le temps de lire Tu sais quy a tant de balises, depuis Amanda Lear Trop faibles Trophée Trophée Nan, nan Rolxx Demi</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4505,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Demi Portion Les grandes gueules Pour Aki, B-Boy conscient Puristes only Ouais Ecoute ça Tu veux savoir comment on rappe ? Tu veux savoir comment on rappe chez nous ? Y'a rien d'vraiment merveilleux Ecouter les conseils des loups nous a jamais rendu sérieux exact Injurieux, les p'tits veulent devenir impérieux d'l'intérieur Marre d'revoir les mêmes victorieux, mystérieux On gard'ra cette vitesse inférieure Ni pression ni frayeur Le contraire du convoyeur rap Qu'est-ce que j'vois ailleurs ? Mon bic est voyageur Il kiffe être posé comme s'taper un stick XXX Tant qu'le temps est orageux, notre ciel est nuageux Si on joue pas avec nos vies, c'est qu'on est trop nuls à ce jeu Entendu trop d'moi je Des ambiances trop moisies Un pays où trop d'rageux, aussi faux qu'Douste-Blazy Vas-y, normal On a vite perdu les souvenirs On est jamais avertis On ne voit pas trop les coups v'nir Maître de cérémonie Logique on s'exprime On saura t'niquer la feuille sans qu'elle essaie d'mettre un string Y a plus moyen qu'on s'prive Trop veulent s'donner un style J'suis interdit en discothèque, j'ai pas la gueule à Justin Le portefeuille assorti Le bon sourire du touriste À croire que quand j'étais p'tit, j'avais buté ma nourrice, frappé mon institutrice Désolé nahal shaitan Y a pas d'perfection ici alors on s'entraîne XXX Les grandes gueules, frère Sprinter et Demi Portion Tu veux savoir comment on rappe ? Y a aucune disproportion You might also like Tu veux savoir comment on rappe ? Il est temps, il est l'heure Y a rien de trop fun On vient pas arroser les fleurs x2 Tu veux savoir comment on rappe ? Y a rien d'vraiment trop fun Comme la p'tite veut sortir et les minots veulent trois feuilles Tu veux savoir comment on rappe ? Ne cherche même pas plus loin On a opté pour la limace et ignoré l'Formule 1 Tu veux savoir comment on rappe chez nous ? Inspirés par l'hostilité Un stylo-bic, une feuille, est une responsabilité Tu veux savoir comment on rappe ? C'est pour ceux qui nous comprennent Ceux qui voulaient nous faire tomber, aujourd'hui faut qu'ils payent Tu veux savoir comment on rappe ? C'est sans autorisation Jusqu'au jour où c'pays accept'ra la colorisation Tu veux savoir quoi d'plus ? Pourquoi l'bic est motivé ? Garder c'qu'y'a d'positif, le reste on l'a désactivé Tu veux savoir comment on rappe ? Y a rien d'vraiment trop fun La méfiance nous a appris à tous marcher tout seul Tu veux savoir comment on rappe ? Si on est chargé d'équipement Car j'préfère pousser un p'tit qu'aider une équipe qui ment Tu vois, y'a rien d'hallucinant Y a des classiques sur ma commode Dis pas qu'le rap est mort, y'a encore des mc's qui démentent Tu veux savoir comment ils écrivent ? Y a pas besoin d'être doué Vas-y essaie de lire un livre T'auras pas les mains trouées Tu veux savoir comment on rappe ? On a du rester perplexe Distant, résistant, bien travailler ses réflexes Tu veux savoir pourquoi on rappe ? J'aime parler aux frères et surs Pour ceux qui sont en bas, qui ont cassé l'amortisseur Pour l'envieux, le sage, le bon mauvais, le gentil Le naïf, le radin, celui qui touche pas un radis Tu veux savoir pourquoi on rappe ? On croit pas aux miracles Qu'on pensait un jour trouver Ben Laden en Irak Tu veux savoir pourquoi on rappe ? On a pris du recul sans vouloir prendre de l'élan Et j'préfère faire qu'un truc On aime pas trop le mélange x2 Tu veux savoir comment on rappe ? Y a rien d'vraiment trop fun Comme la petite veut sortir et le minot veut trois feuilles Tu veux savoir comment on rappe ? Ne cherche même pas plus loin On a opté pour la limace et ignoré l'Formule 1 Ouais Pour Aki, B-Boy conscient Puristes only Ouais, c'est pour les vrais Dédié à tous les artisans du bic Tu veux savoir comment on rappe ? Y'a rien d'vraiment trop fun Les grandes gueules</t>
+          <t>Demi Portion Les grandes gueules Pour Aki, B-Boy conscient Puristes only Ouais Ecoute ça Tu veux savoir comment on rappe ? Tu veux savoir comment on rappe chez nous ? Y'a rien d'vraiment merveilleux Ecouter les conseils des loups nous a jamais rendu sérieux exact Injurieux, les p'tits veulent devenir impérieux d'l'intérieur Marre d'revoir les mêmes victorieux, mystérieux On gard'ra cette vitesse inférieure Ni pression ni frayeur Le contraire du convoyeur rap Qu'est-ce que j'vois ailleurs ? Mon bic est voyageur Il kiffe être posé comme s'taper un stick XXX Tant qu'le temps est orageux, notre ciel est nuageux Si on joue pas avec nos vies, c'est qu'on est trop nuls à ce jeu Entendu trop d'moi je Des ambiances trop moisies Un pays où trop d'rageux, aussi faux qu'Douste-Blazy Vas-y, normal On a vite perdu les souvenirs On est jamais avertis On ne voit pas trop les coups v'nir Maître de cérémonie Logique on s'exprime On saura t'niquer la feuille sans qu'elle essaie d'mettre un string Y a plus moyen qu'on s'prive Trop veulent s'donner un style J'suis interdit en discothèque, j'ai pas la gueule à Justin Le portefeuille assorti Le bon sourire du touriste À croire que quand j'étais p'tit, j'avais buté ma nourrice, frappé mon institutrice Désolé nahal shaitan Y a pas d'perfection ici alors on s'entraîne XXX Les grandes gueules, frère Sprinter et Demi Portion Tu veux savoir comment on rappe ? Y a aucune disproportion Tu veux savoir comment on rappe ? Il est temps, il est l'heure Y a rien de trop fun On vient pas arroser les fleurs x2 Tu veux savoir comment on rappe ? Y a rien d'vraiment trop fun Comme la p'tite veut sortir et les minots veulent trois feuilles Tu veux savoir comment on rappe ? Ne cherche même pas plus loin On a opté pour la limace et ignoré l'Formule 1 Tu veux savoir comment on rappe chez nous ? Inspirés par l'hostilité Un stylo-bic, une feuille, est une responsabilité Tu veux savoir comment on rappe ? C'est pour ceux qui nous comprennent Ceux qui voulaient nous faire tomber, aujourd'hui faut qu'ils payent Tu veux savoir comment on rappe ? C'est sans autorisation Jusqu'au jour où c'pays accept'ra la colorisation Tu veux savoir quoi d'plus ? Pourquoi l'bic est motivé ? Garder c'qu'y'a d'positif, le reste on l'a désactivé Tu veux savoir comment on rappe ? Y a rien d'vraiment trop fun La méfiance nous a appris à tous marcher tout seul Tu veux savoir comment on rappe ? Si on est chargé d'équipement Car j'préfère pousser un p'tit qu'aider une équipe qui ment Tu vois, y'a rien d'hallucinant Y a des classiques sur ma commode Dis pas qu'le rap est mort, y'a encore des mc's qui démentent Tu veux savoir comment ils écrivent ? Y a pas besoin d'être doué Vas-y essaie de lire un livre T'auras pas les mains trouées Tu veux savoir comment on rappe ? On a du rester perplexe Distant, résistant, bien travailler ses réflexes Tu veux savoir pourquoi on rappe ? J'aime parler aux frères et surs Pour ceux qui sont en bas, qui ont cassé l'amortisseur Pour l'envieux, le sage, le bon mauvais, le gentil Le naïf, le radin, celui qui touche pas un radis Tu veux savoir pourquoi on rappe ? On croit pas aux miracles Qu'on pensait un jour trouver Ben Laden en Irak Tu veux savoir pourquoi on rappe ? On a pris du recul sans vouloir prendre de l'élan Et j'préfère faire qu'un truc On aime pas trop le mélange x2 Tu veux savoir comment on rappe ? Y a rien d'vraiment trop fun Comme la petite veut sortir et le minot veut trois feuilles Tu veux savoir comment on rappe ? Ne cherche même pas plus loin On a opté pour la limace et ignoré l'Formule 1 Ouais Pour Aki, B-Boy conscient Puristes only Ouais, c'est pour les vrais Dédié à tous les artisans du bic Tu veux savoir comment on rappe ? Y'a rien d'vraiment trop fun Les grandes gueules</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4522,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>On s'la donne Je garderai la même parole Les paroles Les paroles Oh mon dieu, écoute-moi car j'ai perdu du monde Ya rabi, je suis seul et j'ai peur du nombre J'ai toujours cette impression de vouloir me libérer Je voulais voir de l'intérieur on m'a dit viens opérer Ô seigneur, libère moi de ce que vois dans ce monde Ya rabi, je pleure le soir dès qu'il y a plus personne J'ai perdu un être cher qui m'a rendu si pauvre Mais le combats de la vie me pousse à rester si fort Excuse moi si j'ai fui, je reconnais mes torts Sache que les larmes, dès le réveil, c'est elles qui remplissent mon bol Toutes les erreurs que j'essuie, je sais qu'elles reviennent encore J'avance avec une entorse tombe et m'relève encore Donc j'ai dû lâcher l'école et non ce n'est pas un exemple C'est où j'ai laissé ma paume, de m'donner sur un sample Oh mon frère loin de toi Ouais la rue c'est bizarre Dans c'milieu y a du sale un gros big up à Mysa On vient lâcher le message Ici l'enfant du Pays Et j'crois qu'les lois ont été faites pour qu'on y désobéisse Excusez-moi si dans ce texte tu ressens la souffrance L'instru le médicament et mes écrits l'ambulance You might also like Je garderai la même parole Les paroles, les paroles La route finira en slalom Comme Georges les copains d'abord D'abord, d'abord Je garderai ma parole avec la crainte de changer Excuse-moi mon Dieu j'vois que tout l'monde veut se venger Le travail ou les congés La vie de famille et caetera On fait les tortues ninja, on sait qu'le patron c'est un rat Le but c'est de ne pas lâcher J'pense au travail a la chaîne Ceux qui se lèvent pour une usine Ceux qui montent sans une échelle Aux enfants de cette planète Puis ces travailleurs honnêtes Aux anciens qui sont perdus dans les temps modernes Pas le temps de voir l'actu Oh mon dieu je perds la boule J'ai envie de regarder les gens, mais je vois que tout le monde porte la cagoule Non c'est pas les Ça cartoon !!! C'est encore mieux animé qu'ça Et les monstres et compagnie sont pas les mêmes que la madrassa On a des mots qui servent à cela Et ça sarrêtera un jour Dès qu'on est sorti du ventre débute le compte a rebours Oh mon dieu excuse moi C'est un peu aussi de ma faute Est-ce que viser les étoiles ce n'est que pour les astronautes ? Libérez moi d'ces menottes Mets toi devant Y'a plus personne sur les terrains Ils sont tous bloqués à Fifa Si on parlait de réseau, j'crois qu'y a plus de connexion Un pote qui tombe amoureux, fait qu'l'amour par téléphone On écrit et on rappe Bam, boom Nouvel album</t>
+          <t>On s'la donne Je garderai la même parole Les paroles Les paroles Oh mon dieu, écoute-moi car j'ai perdu du monde Ya rabi, je suis seul et j'ai peur du nombre J'ai toujours cette impression de vouloir me libérer Je voulais voir de l'intérieur on m'a dit viens opérer Ô seigneur, libère moi de ce que vois dans ce monde Ya rabi, je pleure le soir dès qu'il y a plus personne J'ai perdu un être cher qui m'a rendu si pauvre Mais le combats de la vie me pousse à rester si fort Excuse moi si j'ai fui, je reconnais mes torts Sache que les larmes, dès le réveil, c'est elles qui remplissent mon bol Toutes les erreurs que j'essuie, je sais qu'elles reviennent encore J'avance avec une entorse tombe et m'relève encore Donc j'ai dû lâcher l'école et non ce n'est pas un exemple C'est où j'ai laissé ma paume, de m'donner sur un sample Oh mon frère loin de toi Ouais la rue c'est bizarre Dans c'milieu y a du sale un gros big up à Mysa On vient lâcher le message Ici l'enfant du Pays Et j'crois qu'les lois ont été faites pour qu'on y désobéisse Excusez-moi si dans ce texte tu ressens la souffrance L'instru le médicament et mes écrits l'ambulance Je garderai la même parole Les paroles, les paroles La route finira en slalom Comme Georges les copains d'abord D'abord, d'abord Je garderai ma parole avec la crainte de changer Excuse-moi mon Dieu j'vois que tout l'monde veut se venger Le travail ou les congés La vie de famille et caetera On fait les tortues ninja, on sait qu'le patron c'est un rat Le but c'est de ne pas lâcher J'pense au travail a la chaîne Ceux qui se lèvent pour une usine Ceux qui montent sans une échelle Aux enfants de cette planète Puis ces travailleurs honnêtes Aux anciens qui sont perdus dans les temps modernes Pas le temps de voir l'actu Oh mon dieu je perds la boule J'ai envie de regarder les gens, mais je vois que tout le monde porte la cagoule Non c'est pas les Ça cartoon !!! C'est encore mieux animé qu'ça Et les monstres et compagnie sont pas les mêmes que la madrassa On a des mots qui servent à cela Et ça sarrêtera un jour Dès qu'on est sorti du ventre débute le compte a rebours Oh mon dieu excuse moi C'est un peu aussi de ma faute Est-ce que viser les étoiles ce n'est que pour les astronautes ? Libérez moi d'ces menottes Mets toi devant Y'a plus personne sur les terrains Ils sont tous bloqués à Fifa Si on parlait de réseau, j'crois qu'y a plus de connexion Un pote qui tombe amoureux, fait qu'l'amour par téléphone On écrit et on rappe Bam, boom Nouvel album</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4539,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Refain x2 Le vie est une toupie donc elle tourne Tourne Tourne On s'est jamais tout dit donc moi je tourne en rond Tourne en rond Tourne en rond Couplet 1 Allez c'est parti mon ami A mon avis trop rapide Prend du recul, trop naif Mon rap est ma thérapie Reste à terre on t'éradie On passe à l'autre on rira oui Le roi est mort on leur à dit Qu'on finira prince de la ville Peur du vide, tombé du nid Angoissé par l'épidémie Ma maladie la musique Une feuille en forme d'origamie Entrainé sans tatamie Sans label ni académie Acharné dans le travail De cette manière je tombe à l'ennemie You might also likeRefain x2 Le vie est une toupie donc elle tourne Tourne Tourne On s'est jamais tout dit donc moi je tourne en rond Tourne en rond Tourne en rond Couplet 2 Top départ T'as pas le pôle indépendant et full support Une pile chargée qui décrit, à crié ma modéstie Non j'ai pas trouvé d'esprit Me voir pleuré de compliment Je sais qu'on peut vite partir Finir oui sous le continent On prend juste soin de la ? Un peu de weed entre les ? Mon inspi un tsunami Et voir tous ces mots qui s'envolent Tous ces thèmes que l'on sublime Juste avant le dernier soupir On veut voir la fin du film avec ou sans les sous titres Souris, tu penses au ? Remplis ton coeur à tout prix Le temps n'as pas de répis On aurait pu connaître pire Le son est une pharmacie En cas de plaies on dit merci S'il te plait, dites au monsieur Chaque morceau est un missile</t>
+          <t>Refain x2 Le vie est une toupie donc elle tourne Tourne Tourne On s'est jamais tout dit donc moi je tourne en rond Tourne en rond Tourne en rond Couplet 1 Allez c'est parti mon ami A mon avis trop rapide Prend du recul, trop naif Mon rap est ma thérapie Reste à terre on t'éradie On passe à l'autre on rira oui Le roi est mort on leur à dit Qu'on finira prince de la ville Peur du vide, tombé du nid Angoissé par l'épidémie Ma maladie la musique Une feuille en forme d'origamie Entrainé sans tatamie Sans label ni académie Acharné dans le travail De cette manière je tombe à l'ennemie Refain x2 Le vie est une toupie donc elle tourne Tourne Tourne On s'est jamais tout dit donc moi je tourne en rond Tourne en rond Tourne en rond Couplet 2 Top départ T'as pas le pôle indépendant et full support Une pile chargée qui décrit, à crié ma modéstie Non j'ai pas trouvé d'esprit Me voir pleuré de compliment Je sais qu'on peut vite partir Finir oui sous le continent On prend juste soin de la ? Un peu de weed entre les ? Mon inspi un tsunami Et voir tous ces mots qui s'envolent Tous ces thèmes que l'on sublime Juste avant le dernier soupir On veut voir la fin du film avec ou sans les sous titres Souris, tu penses au ? Remplis ton coeur à tout prix Le temps n'as pas de répis On aurait pu connaître pire Le son est une pharmacie En cas de plaies on dit merci S'il te plait, dites au monsieur Chaque morceau est un missile</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4556,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Ça y est, ça sonne donc il est temps de se réveiller, dis Pendant quma voisine stape lalbum dVanessa Paradis Là il est 15 heures et dmi, cquon appelle niquer la journée Après la douche, le café, des pétards qui partent en fumée Une daronne jamais rassurée donc on lui dit Maman tinquiète pas La hchouma nous prend ldessus car dans ses rêves j'nai pas demploi Son cauchemar donc la thune faut bien sla ferrer Donc jdescends, jvais voir en bas, mais dans lpays dSarko cest fermé La Police recrute des fêlés toujours en manque dadrénaline Vu quils sont prêts à virer ma mère si elle refuse dapprendre à lire Cest mort, et ça ménerve, et ça smélange à mon inspi Vlà qu'jmefforce à vivre avec et depuis lâge de mes douze piges Jabrège et comme trop dmonde, japprends le cours dma vie en bas Donc cest à Sète que jai grandi, jai pas envie dpartir autre part Les gars, dmande à Zouhair, on était fiers en HLM boy Mes souvenirs passent très vite comme ces chaînes de la parabole Putain, 18 heures jai même pas capté Le soleil tombe ici quand tous les fonctionnaires sont rentrés Cloîtrés, ça cest pour tous nos frères en prison Courage, on reste dur comme faire un tête face à un bison Refuse pas lbisou mais vos gestes dans le sens du poil Ne remue pas la plaie, jte dis verses-y le sel du poivre En vrai, tas peur de quoi ? Mes jeunes font leur devoir Oui ils sortent un peu le soir et chient sur tous vos cours dhistoire Vas-y, ça ma saoulé, cest plus la peine 6 heures et dmi, 19 heures donc il est temps de boire la 'teille Seul ou accompagné, je chauffe, paraît quya un paquet dfeuilles À côté on fait lrenard, pour voir qui a du bon seum Ya lfournisseur et bosseur, les caves et ceux qui détaillent Ya deux, trois scooters volés et du shit collé sur la lame Haram, mais la paix, elle est souvent sortie dnos têtes Donc on fra tout le maximum pour se payer deux mois au bled Non personne changera lMonde, jparle seul de ce problème Il est 20 heures et quelques secondes, jai lestomac qui mdit à laide ! Enfin, on sonne lalerte quand ya plus rien dans nos poches On demande rien à ses proches, on scrame un stick sous le porche Ya qucette fumée qui nous pose, dautres ont pris la mauvaise drogue Si jme souviens, avant les grands, ils étaient jdid à l'époque Mon pote, cest 22 heures, jai pas envie dmater lfilm Jserai pas dhumeur comique y a des moments où jverrai des signes Sa mère, jmemporte vite, on dira qujai pris de lâge Aujourdhui, les petits, cest des postes et des brise-glaces Un nouveau portable qui claque et puis lDiable shabille en Nike Il veut des hebbat cest tout, quest-ce qu'il sen fout de Bioman Il est 11 heures du soir, ici lhiver ya pas un chat Si ça klaxonne en centre-ville cest surement une soirée fiançailles Cest Sète et cest comme ça de grandir à lile de Thau Cest pour Tayeb le niçois, lenfoiré dfrère sest barré trop tôt Et cest pas mal non plus, chaque scénario nous a forgés On va pas splaindre non plus, grâce au micro jai voyagé Non jvais pas vendre mon cul, mes rimes ne tournront pas en boîte Ya pas dthune, cest certain le rap va nous chauffer des pâtes Minuit, lheure de sortie, là où les chiens dviennent gris Une heure, ça passe trop vite, jsais pas si tu mas compris La nuit porte conseil, cest à cmoment qujécris lplus en fait Week-end forcément jprendrai lstylo comme une grosse fête Un Coca, un gros pét', mais ça nous dure pas longtemps Hachek, le samedi parfois vodka ou Ballantines La merde, vu que jten parle, arrête linstru jveux qutu mécoutes Jespère bien que tu mentends, ya pas qules gens qui me dégoutent La vie me laisse des doutes, autant de questions sans réponses On a des rêves, cest pt-être pour ça quon voudrait redevenir gosse La 'sique, évidemment, elle sarrêtera un jour, cest sûr Lhumain, je le soignais mais cachera bien ses blessuresYou might also like</t>
+          <t>Ça y est, ça sonne donc il est temps de se réveiller, dis Pendant quma voisine stape lalbum dVanessa Paradis Là il est 15 heures et dmi, cquon appelle niquer la journée Après la douche, le café, des pétards qui partent en fumée Une daronne jamais rassurée donc on lui dit Maman tinquiète pas La hchouma nous prend ldessus car dans ses rêves j'nai pas demploi Son cauchemar donc la thune faut bien sla ferrer Donc jdescends, jvais voir en bas, mais dans lpays dSarko cest fermé La Police recrute des fêlés toujours en manque dadrénaline Vu quils sont prêts à virer ma mère si elle refuse dapprendre à lire Cest mort, et ça ménerve, et ça smélange à mon inspi Vlà qu'jmefforce à vivre avec et depuis lâge de mes douze piges Jabrège et comme trop dmonde, japprends le cours dma vie en bas Donc cest à Sète que jai grandi, jai pas envie dpartir autre part Les gars, dmande à Zouhair, on était fiers en HLM boy Mes souvenirs passent très vite comme ces chaînes de la parabole Putain, 18 heures jai même pas capté Le soleil tombe ici quand tous les fonctionnaires sont rentrés Cloîtrés, ça cest pour tous nos frères en prison Courage, on reste dur comme faire un tête face à un bison Refuse pas lbisou mais vos gestes dans le sens du poil Ne remue pas la plaie, jte dis verses-y le sel du poivre En vrai, tas peur de quoi ? Mes jeunes font leur devoir Oui ils sortent un peu le soir et chient sur tous vos cours dhistoire Vas-y, ça ma saoulé, cest plus la peine 6 heures et dmi, 19 heures donc il est temps de boire la 'teille Seul ou accompagné, je chauffe, paraît quya un paquet dfeuilles À côté on fait lrenard, pour voir qui a du bon seum Ya lfournisseur et bosseur, les caves et ceux qui détaillent Ya deux, trois scooters volés et du shit collé sur la lame Haram, mais la paix, elle est souvent sortie dnos têtes Donc on fra tout le maximum pour se payer deux mois au bled Non personne changera lMonde, jparle seul de ce problème Il est 20 heures et quelques secondes, jai lestomac qui mdit à laide ! Enfin, on sonne lalerte quand ya plus rien dans nos poches On demande rien à ses proches, on scrame un stick sous le porche Ya qucette fumée qui nous pose, dautres ont pris la mauvaise drogue Si jme souviens, avant les grands, ils étaient jdid à l'époque Mon pote, cest 22 heures, jai pas envie dmater lfilm Jserai pas dhumeur comique y a des moments où jverrai des signes Sa mère, jmemporte vite, on dira qujai pris de lâge Aujourdhui, les petits, cest des postes et des brise-glaces Un nouveau portable qui claque et puis lDiable shabille en Nike Il veut des hebbat cest tout, quest-ce qu'il sen fout de Bioman Il est 11 heures du soir, ici lhiver ya pas un chat Si ça klaxonne en centre-ville cest surement une soirée fiançailles Cest Sète et cest comme ça de grandir à lile de Thau Cest pour Tayeb le niçois, lenfoiré dfrère sest barré trop tôt Et cest pas mal non plus, chaque scénario nous a forgés On va pas splaindre non plus, grâce au micro jai voyagé Non jvais pas vendre mon cul, mes rimes ne tournront pas en boîte Ya pas dthune, cest certain le rap va nous chauffer des pâtes Minuit, lheure de sortie, là où les chiens dviennent gris Une heure, ça passe trop vite, jsais pas si tu mas compris La nuit porte conseil, cest à cmoment qujécris lplus en fait Week-end forcément jprendrai lstylo comme une grosse fête Un Coca, un gros pét', mais ça nous dure pas longtemps Hachek, le samedi parfois vodka ou Ballantines La merde, vu que jten parle, arrête linstru jveux qutu mécoutes Jespère bien que tu mentends, ya pas qules gens qui me dégoutent La vie me laisse des doutes, autant de questions sans réponses On a des rêves, cest pt-être pour ça quon voudrait redevenir gosse La 'sique, évidemment, elle sarrêtera un jour, cest sûr Lhumain, je le soignais mais cachera bien ses blessures</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4573,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Yeah Aller une journée de plus, où je vais galérer à mort Jai entendu rien à faire, et ça commencera par dehors Il est quatre heures du matin quand ma play quatro sest mise en veille Encore une soirée Call-Of, sauf que le zombie cest moi-même Encore des barres avec ??? depuis ma vie est particulière Il est lheure de fermer lil car demain jai un concert Donc à peine réveillé que le pétard est déjà levé Jai entendu le facteur qui ne ramène aucun levé Jai entendu ma voisine qui me bassine avec la rousseau Jai le pote, dun pote de mon pote qui se prend même pour Naruto Il va me falloir du repos avant que le soleil se mette à briller Impossible de voir la paix, cest comme le 30 février Il est dix heures, je sors avant que tout le monde me rende fou Faire une pause au PMU cest pour zapper son rendez-vous Pas l'envie de me rendre saoul, jai vu létat de Bernard Depuis tout petit je le vois, il aurait dû finir barman Le monde a perdu la tête vu quil a en tire des hématomes Le frère nique le frère de lautre, un peu comme dans Game of Thrones Donc jai fait un tour en ville entre bonheur et miséria Le jour où ça sera légal jen roulerai au commissariat Café clope il y a pas de mal, manque de feuilles et ça repart Envoie la beuh cest déjà ça, attention oui à la came Il est lheure de faire du son parce que le temps nous attend pas Vu quon a pas de patrons, nique sa mère tous vos contrats Garde tes valeurs qui que tu sois, car je te jure cest mieux comme ça Cest le retour de la R5 qui dépassera une Tesla You might also like Aller une journée de plus où je vais réfléchir encore Jai entendu rien à faire, et ça recommence très fort On est au ralenti au sud mais on se voit pas vivre au nord Si je représente Sète, cest la même aussi à New-York À la province mi amor, à nous de rendre le monde beau On commencera par le faire à mettre à genoux Monsanto Dix-sept heures il y a rien de bon, des bouchons, des klaxons Il y a toujours un vieux devant avec une contrefaçon Dix-huit heures cest la boisson, cest le Ricard qui a gagné Tentendras laccent du sud, allez vous faire enculer À vingt heures cest le journal, toujours les mêmes qui me rendent barge Ils diront quon est des moutons, oui daprès tous les sondages Aller comment tourner la page, où trouver les clés de la cage Vu que les règles de ce monde sont créées par des sauvages Alors la nuit va tomber, elle nous cache plusieurs facettes Je fais du son H-24, on reste ouvert à sept Vingt et une heure au studio, balance une mélodie Dédicace à Rolex, mon nom de sprinter est Medhi À minuit cest pas fini non, ça vient de commencer Cris-le vive le rap français Jai préféré vivre ma vie, que vivre la leur À nos nuits blanches qui nous a donné autant de couleurs Une vie particulière, une vie particulière H-24 Woaw Ta cité cest pas ta mère Ta cité cest pas ta mère Ta cité cest pas ta mère et si tu crèves elle aura dautres enfants Tu veux les avantages du quartier, tauras les inconvénients Ta cité cest pas ta mère et si tu crèves elle aura dautres enfants Ta cité cest pas ta mère Ta cité cest pas ta mère, si tu crèves elle aura dautres enfants Tu veux les avantages du quartier, tauras les inconvénients Ta cité cest pas ta mère Ta cité cest pas ta mère, si tu crèves elle aura dautres enfants Ta cité cest pas ta mère, si tu crèves elle aura dautres enfants Ta cité cest pas ta mère Ta cité cest pas ta mère</t>
+          <t>Yeah Aller une journée de plus, où je vais galérer à mort Jai entendu rien à faire, et ça commencera par dehors Il est quatre heures du matin quand ma play quatro sest mise en veille Encore une soirée Call-Of, sauf que le zombie cest moi-même Encore des barres avec ??? depuis ma vie est particulière Il est lheure de fermer lil car demain jai un concert Donc à peine réveillé que le pétard est déjà levé Jai entendu le facteur qui ne ramène aucun levé Jai entendu ma voisine qui me bassine avec la rousseau Jai le pote, dun pote de mon pote qui se prend même pour Naruto Il va me falloir du repos avant que le soleil se mette à briller Impossible de voir la paix, cest comme le 30 février Il est dix heures, je sors avant que tout le monde me rende fou Faire une pause au PMU cest pour zapper son rendez-vous Pas l'envie de me rendre saoul, jai vu létat de Bernard Depuis tout petit je le vois, il aurait dû finir barman Le monde a perdu la tête vu quil a en tire des hématomes Le frère nique le frère de lautre, un peu comme dans Game of Thrones Donc jai fait un tour en ville entre bonheur et miséria Le jour où ça sera légal jen roulerai au commissariat Café clope il y a pas de mal, manque de feuilles et ça repart Envoie la beuh cest déjà ça, attention oui à la came Il est lheure de faire du son parce que le temps nous attend pas Vu quon a pas de patrons, nique sa mère tous vos contrats Garde tes valeurs qui que tu sois, car je te jure cest mieux comme ça Cest le retour de la R5 qui dépassera une Tesla Aller une journée de plus où je vais réfléchir encore Jai entendu rien à faire, et ça recommence très fort On est au ralenti au sud mais on se voit pas vivre au nord Si je représente Sète, cest la même aussi à New-York À la province mi amor, à nous de rendre le monde beau On commencera par le faire à mettre à genoux Monsanto Dix-sept heures il y a rien de bon, des bouchons, des klaxons Il y a toujours un vieux devant avec une contrefaçon Dix-huit heures cest la boisson, cest le Ricard qui a gagné Tentendras laccent du sud, allez vous faire enculer À vingt heures cest le journal, toujours les mêmes qui me rendent barge Ils diront quon est des moutons, oui daprès tous les sondages Aller comment tourner la page, où trouver les clés de la cage Vu que les règles de ce monde sont créées par des sauvages Alors la nuit va tomber, elle nous cache plusieurs facettes Je fais du son H-24, on reste ouvert à sept Vingt et une heure au studio, balance une mélodie Dédicace à Rolex, mon nom de sprinter est Medhi À minuit cest pas fini non, ça vient de commencer Cris-le vive le rap français Jai préféré vivre ma vie, que vivre la leur À nos nuits blanches qui nous a donné autant de couleurs Une vie particulière, une vie particulière H-24 Woaw Ta cité cest pas ta mère Ta cité cest pas ta mère Ta cité cest pas ta mère et si tu crèves elle aura dautres enfants Tu veux les avantages du quartier, tauras les inconvénients Ta cité cest pas ta mère et si tu crèves elle aura dautres enfants Ta cité cest pas ta mère Ta cité cest pas ta mère, si tu crèves elle aura dautres enfants Tu veux les avantages du quartier, tauras les inconvénients Ta cité cest pas ta mère Ta cité cest pas ta mère, si tu crèves elle aura dautres enfants Ta cité cest pas ta mère, si tu crèves elle aura dautres enfants Ta cité cest pas ta mère Ta cité cest pas ta mère</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4590,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Le monde n'est pas juste, mais les valeurs morales s'imposent à tous les êtres humains. Ce n'est pas parce qu'on dirige qu'on est supérieur, et ceux qui sont dirigés ne sont pas inférieurs non plus. Le monde n'appartient pas aux riches, ni aux puissants mais, il appartient aux hommes de curs On ira au paradis si Dieu veut x2 Il m'en faut peu pour être heureux, peu pour être heureux x2 On ira parler, déballer de cousin Il en faut peu pour être heureux à la base c'est tous pour un On ira changer le monde sans s'ouvrir à la mode J'arrive à enchainer les mots, faire voyager les mômes On ira changer les Hommes, traverser l'horizon Jamais dans la tendance ouais la Scred a raison On ira forcément chercher la victoire En cas de perte pas grave on a la même victoire On ira porter des palettes, s'refaire un palet Peur de ma planète, non pas d'un pistolet Casser le mur, on ne veut plus d'frontières Eh oui passez le mot y a un travail de fer On ira s'lever loin, stopper la montre On parle de tout, non non pas tous les morts à Mayotte On ira changer ci, voter ça Micro test, indé on a nos initiales On ira au paradis si Dieu veut x2 Il m'en faut peu pour être heureux, peu pour être heureux x2 You might also like Ouais on ira donner le mic, allumes-le dés maintenant ma voix est comment, les commandants qui nous mentent On ira voyager, le monde est à nous Demande à Taghmaoui, de la haine à l'amour On ira vivre sans sous, on est heureux sans ça On sera capitaine avec ou sans brassard On ira passer l'mot, décortiquer les thèmes Tu pourras vivre seul mais t'auras besoin d'aide On ira faire un geste ouais ouais ouais On ira prendre la route ouais ouais ouais On ira faire un break la la la Oui donner la force, pour ceux qui t'écoutent On ira au paradis si Dieu veut x2 Il m'en faut peu pour être heureux, peu pour être heureux x2 Le monde nappartient pas aux riches ni même aux puissants. Il appartient aux hommes de cur. Vous avez pensé aux enfants? A ceux qui viennent après nous? Quoi que nous fassions, ils nous voient. Nous devons être des exemples pour eux. Tout ce que nous faisons, ce nest pas pour aujourdhui, mais pour demain1</t>
+          <t>Le monde n'est pas juste, mais les valeurs morales s'imposent à tous les êtres humains. Ce n'est pas parce qu'on dirige qu'on est supérieur, et ceux qui sont dirigés ne sont pas inférieurs non plus. Le monde n'appartient pas aux riches, ni aux puissants mais, il appartient aux hommes de curs On ira au paradis si Dieu veut x2 Il m'en faut peu pour être heureux, peu pour être heureux x2 On ira parler, déballer de cousin Il en faut peu pour être heureux à la base c'est tous pour un On ira changer le monde sans s'ouvrir à la mode J'arrive à enchainer les mots, faire voyager les mômes On ira changer les Hommes, traverser l'horizon Jamais dans la tendance ouais la Scred a raison On ira forcément chercher la victoire En cas de perte pas grave on a la même victoire On ira porter des palettes, s'refaire un palet Peur de ma planète, non pas d'un pistolet Casser le mur, on ne veut plus d'frontières Eh oui passez le mot y a un travail de fer On ira s'lever loin, stopper la montre On parle de tout, non non pas tous les morts à Mayotte On ira changer ci, voter ça Micro test, indé on a nos initiales On ira au paradis si Dieu veut x2 Il m'en faut peu pour être heureux, peu pour être heureux x2 Ouais on ira donner le mic, allumes-le dés maintenant ma voix est comment, les commandants qui nous mentent On ira voyager, le monde est à nous Demande à Taghmaoui, de la haine à l'amour On ira vivre sans sous, on est heureux sans ça On sera capitaine avec ou sans brassard On ira passer l'mot, décortiquer les thèmes Tu pourras vivre seul mais t'auras besoin d'aide On ira faire un geste ouais ouais ouais On ira prendre la route ouais ouais ouais On ira faire un break la la la Oui donner la force, pour ceux qui t'écoutent On ira au paradis si Dieu veut x2 Il m'en faut peu pour être heureux, peu pour être heureux x2 Le monde nappartient pas aux riches ni même aux puissants. Il appartient aux hommes de cur. Vous avez pensé aux enfants? A ceux qui viennent après nous? Quoi que nous fassions, ils nous voient. Nous devons être des exemples pour eux. Tout ce que nous faisons, ce nest pas pour aujourdhui, mais pour demain1</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4607,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Yo La vie est un rêve mais rêver n'est pas vivre Do more than you need This is the dream Make you pauper Or make you queen I won't die lonely I'll have it all prearranged A grave that's deep and wide enough For me and all my mountains o' things Il faut s'attendre à tout, avancer, j'ai pas l'choix Trouver l'inspi c'est pas simple, donc elle arrive le soir Le rap m'est tombé comme ça, entre breakeur et un graff Entre mon zdef', mon , loin de la vie d'rock star Faire des rimes c'est possible, former un crew aussi J'te parle de 1.9.9.6., encore loin des soucis Des signatures faussées, grand talent dans l'fossé Y en a combien qui ont forcé, le temps les a effacés Facile Viens faire un tour dans le rap français La plupart sont des menteurs, trafiquants d'mauvaises pensées Le passé nous apaise, des rêves t'en auras besoin On oubliera jamais personne, comme le groupe d'Assassin Un rêve You might also like Do more than you need This is the dream Make you pauper Or make you queen I won't die lonely I'll have it all prearranged A grave that's deep and wide enough For me and all my mountains o' things Écoute, rêver, c'est beau Mais fallait qu'j'm'occupe Je bosse de chez moi, j'ai trouvé mieux qu'un stud' J'ai trouvé mes 15 titres, j'vais sortir l'album J'ai eu Tracy Chapman mais fallait bien qu'ça colle Je cause, compose, m'impose à chaque prose Chaque prise, chaque note, me ramène en osmose Non-stop, on s'tire, le temps d'lever les stores On gagne, on perds, vu qu'on s'en fout du score , un peu comme du sport , c'est qu'le temps nous rapporte Rappeur, hors-norme, sorti de nulle part Vend pas d'rêve, ni encore de cauchemar Do more than you need This is the dream Make you pauper Or make you queen I won't die lonely I'll have it all prearranged A grave that's deep and wide enough For me and all my mountains o' things dans ta tête les phrases défilent C'est dans le but que tu te fasses des films C'est comme ça Vas-y on zappe la fiction, c'est naze Pour vous, que du vrai dans le scénar', on donne ça Dans ta tête les phrases défilent C'est dans le but que tu te fasses des films C'est comme ça Vas-y on zappe la fiction, c'est naze Pour vous, y a que du vrai dans le scénar' Sans contrat, ni piston, ni label, ni signature P't-être qu'on avancera pas, c'est sûr mais un choix bien sûr Commercial ou indé, le but est d'faire du bon son Vu les grands d'ce monde, j'ai opté pour Demi Portion L'école de notre passion, le temps qu'on a à y passer Trop d'acteurs, d'histoires, des scénarios mal rincés Le film n'a pas commencé, j'sais comment ça s'termine J'traîne qu'avec deux personnes, pour moi ça vaut déjà mille Do more than you need This is the dream Make you pauper Or make you queen I won't die lonely I'll have it all prearranged A grave that's deep and wide enough For me and all my mountains o' things</t>
+          <t>Yo La vie est un rêve mais rêver n'est pas vivre Do more than you need This is the dream Make you pauper Or make you queen I won't die lonely I'll have it all prearranged A grave that's deep and wide enough For me and all my mountains o' things Il faut s'attendre à tout, avancer, j'ai pas l'choix Trouver l'inspi c'est pas simple, donc elle arrive le soir Le rap m'est tombé comme ça, entre breakeur et un graff Entre mon zdef', mon , loin de la vie d'rock star Faire des rimes c'est possible, former un crew aussi J'te parle de 1.9.9.6., encore loin des soucis Des signatures faussées, grand talent dans l'fossé Y en a combien qui ont forcé, le temps les a effacés Facile Viens faire un tour dans le rap français La plupart sont des menteurs, trafiquants d'mauvaises pensées Le passé nous apaise, des rêves t'en auras besoin On oubliera jamais personne, comme le groupe d'Assassin Un rêve Do more than you need This is the dream Make you pauper Or make you queen I won't die lonely I'll have it all prearranged A grave that's deep and wide enough For me and all my mountains o' things Écoute, rêver, c'est beau Mais fallait qu'j'm'occupe Je bosse de chez moi, j'ai trouvé mieux qu'un stud' J'ai trouvé mes 15 titres, j'vais sortir l'album J'ai eu Tracy Chapman mais fallait bien qu'ça colle Je cause, compose, m'impose à chaque prose Chaque prise, chaque note, me ramène en osmose Non-stop, on s'tire, le temps d'lever les stores On gagne, on perds, vu qu'on s'en fout du score , un peu comme du sport , c'est qu'le temps nous rapporte Rappeur, hors-norme, sorti de nulle part Vend pas d'rêve, ni encore de cauchemar Do more than you need This is the dream Make you pauper Or make you queen I won't die lonely I'll have it all prearranged A grave that's deep and wide enough For me and all my mountains o' things dans ta tête les phrases défilent C'est dans le but que tu te fasses des films C'est comme ça Vas-y on zappe la fiction, c'est naze Pour vous, que du vrai dans le scénar', on donne ça Dans ta tête les phrases défilent C'est dans le but que tu te fasses des films C'est comme ça Vas-y on zappe la fiction, c'est naze Pour vous, y a que du vrai dans le scénar' Sans contrat, ni piston, ni label, ni signature P't-être qu'on avancera pas, c'est sûr mais un choix bien sûr Commercial ou indé, le but est d'faire du bon son Vu les grands d'ce monde, j'ai opté pour Demi Portion L'école de notre passion, le temps qu'on a à y passer Trop d'acteurs, d'histoires, des scénarios mal rincés Le film n'a pas commencé, j'sais comment ça s'termine J'traîne qu'avec deux personnes, pour moi ça vaut déjà mille Do more than you need This is the dream Make you pauper Or make you queen I won't die lonely I'll have it all prearranged A grave that's deep and wide enough For me and all my mountains o' things</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4624,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Yo 2ChezMoi Ecoute Ils ont voulu qu'on finisse cons Qu'nos petits connaissent rien Mis à part squatter le banc L'école, ça dit plus rien Ils te diront qu'ça compte pas J'ai fermé ma trousse mais j'utilise le compas Continue le combat Et chacun tape sa fouine Y'a c'lui qui partage Et ceux qui t'laissent les ruines Ils ont voulu qu'on la ferme Et qu'on finisse stériles Honneur aux bombes même dans les boîtes d'interim Frères et surs Cessons de rester anonymes Car suivre les règles n'veut pas dire tenir la ligne En premier choix J'ai du apprendre le slalom Etre droit ne certifie pas entier l'Homme Le courage, la rage C'n'est qu'un délire tout ça Mais le truc c'est d'agir Et d'oublier le mot froussard Etre fier c'est bizarre Et être zen c'est facile Regarde le dos à nos pères Et c'que leur a fait l'usine Regardes le yeux d'mes frères Modifiés à la résine Regarde toutes ces filles A bloguer sur un Remets les pieds sur terre Et rien dans le nuages A force de démarrer pour rien t'as du péter l'allumage On salit notre image La religion musulmane T'as vu, ils caricaturent et ils parlent mal des Imams Ils me verront comme un âne Et on dira qu'c'est normal J'serais jamais d'accord avec c'putain d'Koffi Annan! Vu qu'j'aime que le rap Et toujours au service du Bic C'est ça qui m'as appris, tu vois A quoi servait un titre Un message logique Y'aura de la place pour tout le monde Mais attention que nos p'tites surs N'ont pas trop d'merde dans leur iPod Generation Kylie Minogue Et tous ces clips qu'on leur enseigne On te dira qu'c'est la mode GSM et MSN Ca part d'ici ou l'bled Un virus universel Et j'suis d'moins en moins ravi frère à chaque anniversaire En parler de misère Ca ramène rien de jdid Taper ta cocaïne Ca ramène rien de street Stricte, oui sectaire Jouer fair-play ou s'faire plaire En essayant de faire le max' c'est pas effacer des r'pères! Tranquille, c'est pas trop ça pour le moment Et j'te dis profite bien pendant qu'tu dors chez ta maman 2016 c'est pas marrant Et l'avenir est effarant Mais la galère d'aujourd'hui n'est rien aux yeux de tes parents You might also like Haha 2ChezMoi à chez toi Big Up à Keny Arkana Big Up De-De-De-De-De-Demi Portion, voilà..1</t>
+          <t>Yo 2ChezMoi Ecoute Ils ont voulu qu'on finisse cons Qu'nos petits connaissent rien Mis à part squatter le banc L'école, ça dit plus rien Ils te diront qu'ça compte pas J'ai fermé ma trousse mais j'utilise le compas Continue le combat Et chacun tape sa fouine Y'a c'lui qui partage Et ceux qui t'laissent les ruines Ils ont voulu qu'on la ferme Et qu'on finisse stériles Honneur aux bombes même dans les boîtes d'interim Frères et surs Cessons de rester anonymes Car suivre les règles n'veut pas dire tenir la ligne En premier choix J'ai du apprendre le slalom Etre droit ne certifie pas entier l'Homme Le courage, la rage C'n'est qu'un délire tout ça Mais le truc c'est d'agir Et d'oublier le mot froussard Etre fier c'est bizarre Et être zen c'est facile Regarde le dos à nos pères Et c'que leur a fait l'usine Regardes le yeux d'mes frères Modifiés à la résine Regarde toutes ces filles A bloguer sur un Remets les pieds sur terre Et rien dans le nuages A force de démarrer pour rien t'as du péter l'allumage On salit notre image La religion musulmane T'as vu, ils caricaturent et ils parlent mal des Imams Ils me verront comme un âne Et on dira qu'c'est normal J'serais jamais d'accord avec c'putain d'Koffi Annan! Vu qu'j'aime que le rap Et toujours au service du Bic C'est ça qui m'as appris, tu vois A quoi servait un titre Un message logique Y'aura de la place pour tout le monde Mais attention que nos p'tites surs N'ont pas trop d'merde dans leur iPod Generation Kylie Minogue Et tous ces clips qu'on leur enseigne On te dira qu'c'est la mode GSM et MSN Ca part d'ici ou l'bled Un virus universel Et j'suis d'moins en moins ravi frère à chaque anniversaire En parler de misère Ca ramène rien de jdid Taper ta cocaïne Ca ramène rien de street Stricte, oui sectaire Jouer fair-play ou s'faire plaire En essayant de faire le max' c'est pas effacer des r'pères! Tranquille, c'est pas trop ça pour le moment Et j'te dis profite bien pendant qu'tu dors chez ta maman 2016 c'est pas marrant Et l'avenir est effarant Mais la galère d'aujourd'hui n'est rien aux yeux de tes parents Haha 2ChezMoi à chez toi Big Up à Keny Arkana Big Up De-De-De-De-De-Demi Portion, voilà..1</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4641,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Les grandes gueules Ouais Demi Portion Pour XXX Prêt pour le soulèvement Il a voulu qu'on finisse cons et qu'les noirs deviennent blancs Qu'nos petits n'connaissent rien mise à part squatter le banc L'école, ça dit plus rien Ils te diront ça compte pas J'ai fermé ma trousse mais j'utilise le compas Continue le combat, et chacun tape sa fouine Y'a celui qui partage et ceux qui t'laisse les ruines Ils ont voulu qu'on la ferme et qu'on finisse stériles On nous XXX tu vois, même dans les boîtes intérims Frère et surs, cessons d'rester anonyme Car suivre les règles ne veut pas dire tenir la ligne En premier choix, on doit prendre le slalom Etre droit ne certifie pas entier l'homme Le courage, la rage, c'n'est qu'un délire tout ça Mais l'truc, c'est d'agir et d'oublier le mot froussard Etre fier, c'est trop bizarre Etre zen, c'est trop facile Regarde le doigt d'nos pères, c'que leur a fait l'usine Regarde les yeux d'mes frères, modifiés à la résine Regarde toutes ces filles à bloquer sur un XXX Remets les pieds sur terre, y'a rien dans les nuages A force de démarrer pour rien, t'as du péter l'allumage Ils ont sali notre image, la religion musulmane T'as vu les caricatures, ils parlent mal des imams Ils me verront comme un âne Et on dira qu'c'est normal Je n'serai jamais d'accord avec c'putain d'coffee XXX Vu qu'j'n'ai que le rap Et toujours au service du bic C'est ça qui m'a appris tu vois, à quoi servait un titre Un message logique Y'aura d'la place pour tout le monde Mais attention qu'nos petites surs n'ontt pas trop d'merdes dans leurs ipods Génération Kylie Minogue Ces clips qu'on leur enseigne On te dira que c'est la mode GSM et MSN Et ça part d'ici au bled, un vrai virus universel Et d'moins en moins ravi frère, à chaque anniversaire Rien qu'à parler de misère, ça ramène rien de XXX Et taper ta cocaïne, ça ramène rien de street Strict ou sectaire, jouer l'fairplay ou s'faire plaire ? En essayant d'faire le max et pas effacer les repères Tranquille, pépère, c'est pas trop çà pour le moment Et j'te dis, profites bien pendant qu'tu dors chez ta maman 2007, c'est pas marrant et l'avenir est effarant Et la galère d'aujourd'hui n'est rien aux yeux de tes parents You might also like C'est comme ça alors on l'note 2007 mon frère Juste un point parmi les autres</t>
+          <t>Les grandes gueules Ouais Demi Portion Pour XXX Prêt pour le soulèvement Il a voulu qu'on finisse cons et qu'les noirs deviennent blancs Qu'nos petits n'connaissent rien mise à part squatter le banc L'école, ça dit plus rien Ils te diront ça compte pas J'ai fermé ma trousse mais j'utilise le compas Continue le combat, et chacun tape sa fouine Y'a celui qui partage et ceux qui t'laisse les ruines Ils ont voulu qu'on la ferme et qu'on finisse stériles On nous XXX tu vois, même dans les boîtes intérims Frère et surs, cessons d'rester anonyme Car suivre les règles ne veut pas dire tenir la ligne En premier choix, on doit prendre le slalom Etre droit ne certifie pas entier l'homme Le courage, la rage, c'n'est qu'un délire tout ça Mais l'truc, c'est d'agir et d'oublier le mot froussard Etre fier, c'est trop bizarre Etre zen, c'est trop facile Regarde le doigt d'nos pères, c'que leur a fait l'usine Regarde les yeux d'mes frères, modifiés à la résine Regarde toutes ces filles à bloquer sur un XXX Remets les pieds sur terre, y'a rien dans les nuages A force de démarrer pour rien, t'as du péter l'allumage Ils ont sali notre image, la religion musulmane T'as vu les caricatures, ils parlent mal des imams Ils me verront comme un âne Et on dira qu'c'est normal Je n'serai jamais d'accord avec c'putain d'coffee XXX Vu qu'j'n'ai que le rap Et toujours au service du bic C'est ça qui m'a appris tu vois, à quoi servait un titre Un message logique Y'aura d'la place pour tout le monde Mais attention qu'nos petites surs n'ontt pas trop d'merdes dans leurs ipods Génération Kylie Minogue Ces clips qu'on leur enseigne On te dira que c'est la mode GSM et MSN Et ça part d'ici au bled, un vrai virus universel Et d'moins en moins ravi frère, à chaque anniversaire Rien qu'à parler de misère, ça ramène rien de XXX Et taper ta cocaïne, ça ramène rien de street Strict ou sectaire, jouer l'fairplay ou s'faire plaire ? En essayant d'faire le max et pas effacer les repères Tranquille, pépère, c'est pas trop çà pour le moment Et j'te dis, profites bien pendant qu'tu dors chez ta maman 2007, c'est pas marrant et l'avenir est effarant Et la galère d'aujourd'hui n'est rien aux yeux de tes parents C'est comme ça alors on l'note 2007 mon frère Juste un point parmi les autres</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4658,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Autopsie post-mortem, j'veux une p'tite gogo dance Big up à Doctor House, big up à Orson Welles Cest pas une guerre, cest un problème qui nous dépasse Jai une toux grasse et l'nez bouché, cest p't-être un gros gros rhume Cest pas un mètre, cest un fossé qui nous sépare Plus quun fossé moi j'dirais plutôt qu'cest une fosse commune Leurs commentaires cest p't-être le pire des effets secondaires Si la télé m'dit comment faire, moi j'vais faire le contraire Tous les regards me tirent dessus et cte galère me pompe lair Et puis comme ça le fils de pute il sera fier de son père Nous sommes en guerre disent-ils, nous sommes dans l'pire scénar Plutôt une guerre civile, je crois quon en a pris le'départ Une troisième guerre mondiale, je tourne dans cette cuisine Pour lhumain il s'fait tard, la mort se cache dans l'pesticide J'suis dans ma grotte, jai la tête grosse et j'prends une trop grosse cuite Mal à la gorge, voix caverneuse et j'deviens troglodyte À présent fuck lotite, j'cultive ce fat body Virus est uploadé, à vingt heures j't'applaudis Le système D ça veut dire la débrouille, la débrouille Restez chez vous, nous cassez pas les couilles, pas les couilles Pâtes et PQ, voleurs de paquets d'couches Ça les répugne lodeur de ma dépouille Hommage aux soldats abattus, car y en a plein qui sont morts J'deviens un cordon bleu et jai d'jà gratté vingt-huit ceaux-mor Je crois que Dame Nature se venge et quon endurcit les mesures On finira entre quatre planches et j'me sens subir ces murs Pour les soigner il suffit pas quils avalent un vaccin La bêtise plane sur les deux quais du canal Saint-Martin Y a qui pour nous guider, un être humain de type germophobe J'crois quon a tout niqué, même printemps, été, hiver, automne La tension baisse, la fièvre monte cest p't-être quune affaire de vente Jai d'jà connu lenfermement, chez moi cest lEnfer de Dante Le buzz est plus que viral, sort de ma veine saillante Leur aide est plus que vitale, merci aux aide-soignantes You might also like Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas On a d'jà fait cent fois les cents pas, à faire des tranchées dans l'parquet Et dans la tête y'a juste la famille, les rents-pa Conscient quon évolue dans un monde bien loin dêtre parfait Rien ne sert de se cacher derrière des remparts Jaccepte pas cette logique d'santé rentable Ils prendraient du cash pour jouer de lorgue à ton enterrement Cest plus la peine de s'la jouer faussement sociaux Sentimentale, votre hypocrisie m'dégoûte tellement Eh, on a affaire à une belle bande de cons finis Ils mettent des amendes à des sans-abris, leur demandent de s'confiner J'crois quon atteint le point de non-retour, Godwin a gagné J'vois des chiffres négatifs défiler sur le compte à rebours Le temps presse, donc plus rien ne me tempère, y a comme un avis de tempête Et la colombe a pris la poudre descampette, putain merde Du mal à nous imaginer à N1 La frontière est fine de Laurent Fabius à Agnès Buzyn La mort frappe à chaque étage et toutes les strates Nos soignants voient des vies senvoler, les autres voient des stat La chute sera violente depuis leur piédestal Tous les voyants sont dans l'rouge et j'crois q'ça leur est bien égal Ils vivent cette crise dans le confort de la distance Mais quand vient l'moment d'sentraider, poto, y a pas d'dispense De lathée au musulman, du juif au catho pratiquant De celles qui arborent les talismans, aux réfugiés du Pakistan Jenvoie toutes ces pensées, ma force aux premières lignes Au corps médical, aux familles des victimes Il ne faut pas que toutes ces pertes ne fassent que partie dun listing Car mourir pour sauver des vies ça mérite toute notre estime On sait bien quils font de leur mieux, dans des conditions déplorables, la rage aux yeux Quand l'cri ne trouve pas doreille, le regard va vers les cieux Mais on n'connait que très bien le sort de ceux qui s'prennent pour Dieu J'rappe à la demande générale, des confinés des hip-hôpitaux Le service durgence musicale cest d'loxygène, mon pote est tôt ? Mon fils de six ans sur la moto, agrippé à mon dos Éviter les barrages cest comme un dédale, cest quune atèle, même pas les pédales Aux soignants garants de nos vies, les frères et surs qui sont au logis Avec mon titre honorifique de rappeur en pneumologie 'Paraît qu'cest la détresse pour mettre des masques au personnel qui va vous soigner Mais pas pour fournir aux CRS, des lacrymos, des LBD Je veux bien ne pas critiquer les lacunes de lÉtat providence Mais le manque de moyens mis dans la santé, dans les respirateurs durgence Macron garde ta morale à toi car y a pas eu d'mort sous ton toit Quand j'vois le salaire des soignants, 'faudrait p't-être faire un moratoire À ta prochaine de chocs vitaux, viens te faire soigner en disgrâce Car tous les hôpitaux de France ne ressemblent pas au Val-de-Grâce Car vous nêtes que des populistes obnubilés par leur carrière Et il ny a plus didéalistes politiques que dans les cimetières Et on n'est pas des arrivistes qui visent à redorer leur blason dans l'peu-ra Au-delà des antibiotiques, le streptocoque doré lemportera On a nos masques de braquage quon prête à ceux qu'en ont besoin On a d'lalcool... mais pas tellement sur les mains Une bande de délinquants morbides, venue faire craquer le Covid Parce quavec un stylo bic, nous on t'fait une trachéo-cro-mi Jai lhabitude des gyrophares, mais cest plus les mêmes sirènes La seule fièvre quon vit quelqu'part, devrait être celle d'NTM La souffrance aux soins est immense, j'ai pas vu d'député mourir Dans les couloirs, sur un brancard des urgences il y a urgence Yeah, p't-être que l'irradiation des villes est la radio-thérapie d'la nature Pour soigner un cancer hostile il faut que lhumain paye sa facture P't-être que cest l'drame dans les villes parce qu'vous êtes juste des fous débiles Mais lorsque lhumain disparaît, reviennent les loups de Tchernobyl Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas On s'retrouvera bientôt autour dune teille en faisant des grosses bringues Mais pour lheure il est temps de retrouver l'bonheur dans des choses simples Angoisse en p'tite surdose, lennemi est invisible Les gens comprennent très bien c'quils risquent depuis qu'le monde sest mis sur pause Mouvement d'panique en grande surface car se joue notre vécu Mais qu'tous ces égoïstes se momifient dans leurs rouleaux d'PQ On était prêt, moi jy crois pas des masses, on rentre dans une sale phase hélas La preuve nos hôpitaux vous ont dit bas les masques Dites-moi c'quil reste en France dès qu'les sirènes senclenchent Dites-moi si j'crève, dites-moi si j'rêve, quon n'était pas si prêt pour une si belle sentence Ça fait quoi d'se retrouver face à sa pire hantise Cest pas l'virus mais la bêtise de lHomme qui nous a pris en grippe Nos vrais héros demandent à s'faire entendre à s'faire entendre Personnel médical qui lutte jour et nuits pour qu'la merde séloigne Merci à ceux qui restent au front malgré la fièvre ambiante Et dites aux inconscients quil y a pire prison que dêtre chez soi Quand la bactérie joue d'la batterie, wow Jentends des cris, des moqueries Confiné, j'dois filer, mon fils finit sa poterie Laisse-moi l'temps d'respirer, jai la zik dans la poitrine Douce sera la médecine, perso j'roule ma sensi La zik ma sauvé, j'rajoute ça à mon autopsie Fuck les aristocrates, oui la richesse est coupable Cousin j'rappe en urgence vu que laction est remarquable Donne la force aux grands-parents, noublie pas la mama Avant qu'les larmes coulent sur le bord dun diaporama Finie lépoque Nirvana, marié à Marijuana Allez, donne-moi une scène on fera des sauts à Serge Lama Non, c'monde n'a rien d'banal, rouya Dooz Kawa Bien sûr j'ai de l'espoir même si l'virus fout l'dawa Oui la prod fout l'fire, et tout l'monde fout l'faya Bien sûr j'ai de l'espoir même si l'virus fout l'dawa Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas Toi tu m'as surpris Comme un rhume Au coin de mon lit Toi tu m'as surpris Comme un rhume Mon épidémie Toi tu m'as surpris Comme un rhume Au coin de mon lit Toi tu m'as surpris Comme un rhume Mon épidémie, toi ma brune</t>
+          <t>Autopsie post-mortem, j'veux une p'tite gogo dance Big up à Doctor House, big up à Orson Welles Cest pas une guerre, cest un problème qui nous dépasse Jai une toux grasse et l'nez bouché, cest p't-être un gros gros rhume Cest pas un mètre, cest un fossé qui nous sépare Plus quun fossé moi j'dirais plutôt qu'cest une fosse commune Leurs commentaires cest p't-être le pire des effets secondaires Si la télé m'dit comment faire, moi j'vais faire le contraire Tous les regards me tirent dessus et cte galère me pompe lair Et puis comme ça le fils de pute il sera fier de son père Nous sommes en guerre disent-ils, nous sommes dans l'pire scénar Plutôt une guerre civile, je crois quon en a pris le'départ Une troisième guerre mondiale, je tourne dans cette cuisine Pour lhumain il s'fait tard, la mort se cache dans l'pesticide J'suis dans ma grotte, jai la tête grosse et j'prends une trop grosse cuite Mal à la gorge, voix caverneuse et j'deviens troglodyte À présent fuck lotite, j'cultive ce fat body Virus est uploadé, à vingt heures j't'applaudis Le système D ça veut dire la débrouille, la débrouille Restez chez vous, nous cassez pas les couilles, pas les couilles Pâtes et PQ, voleurs de paquets d'couches Ça les répugne lodeur de ma dépouille Hommage aux soldats abattus, car y en a plein qui sont morts J'deviens un cordon bleu et jai d'jà gratté vingt-huit ceaux-mor Je crois que Dame Nature se venge et quon endurcit les mesures On finira entre quatre planches et j'me sens subir ces murs Pour les soigner il suffit pas quils avalent un vaccin La bêtise plane sur les deux quais du canal Saint-Martin Y a qui pour nous guider, un être humain de type germophobe J'crois quon a tout niqué, même printemps, été, hiver, automne La tension baisse, la fièvre monte cest p't-être quune affaire de vente Jai d'jà connu lenfermement, chez moi cest lEnfer de Dante Le buzz est plus que viral, sort de ma veine saillante Leur aide est plus que vitale, merci aux aide-soignantes Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas On a d'jà fait cent fois les cents pas, à faire des tranchées dans l'parquet Et dans la tête y'a juste la famille, les rents-pa Conscient quon évolue dans un monde bien loin dêtre parfait Rien ne sert de se cacher derrière des remparts Jaccepte pas cette logique d'santé rentable Ils prendraient du cash pour jouer de lorgue à ton enterrement Cest plus la peine de s'la jouer faussement sociaux Sentimentale, votre hypocrisie m'dégoûte tellement Eh, on a affaire à une belle bande de cons finis Ils mettent des amendes à des sans-abris, leur demandent de s'confiner J'crois quon atteint le point de non-retour, Godwin a gagné J'vois des chiffres négatifs défiler sur le compte à rebours Le temps presse, donc plus rien ne me tempère, y a comme un avis de tempête Et la colombe a pris la poudre descampette, putain merde Du mal à nous imaginer à N1 La frontière est fine de Laurent Fabius à Agnès Buzyn La mort frappe à chaque étage et toutes les strates Nos soignants voient des vies senvoler, les autres voient des stat La chute sera violente depuis leur piédestal Tous les voyants sont dans l'rouge et j'crois q'ça leur est bien égal Ils vivent cette crise dans le confort de la distance Mais quand vient l'moment d'sentraider, poto, y a pas d'dispense De lathée au musulman, du juif au catho pratiquant De celles qui arborent les talismans, aux réfugiés du Pakistan Jenvoie toutes ces pensées, ma force aux premières lignes Au corps médical, aux familles des victimes Il ne faut pas que toutes ces pertes ne fassent que partie dun listing Car mourir pour sauver des vies ça mérite toute notre estime On sait bien quils font de leur mieux, dans des conditions déplorables, la rage aux yeux Quand l'cri ne trouve pas doreille, le regard va vers les cieux Mais on n'connait que très bien le sort de ceux qui s'prennent pour Dieu J'rappe à la demande générale, des confinés des hip-hôpitaux Le service durgence musicale cest d'loxygène, mon pote est tôt ? Mon fils de six ans sur la moto, agrippé à mon dos Éviter les barrages cest comme un dédale, cest quune atèle, même pas les pédales Aux soignants garants de nos vies, les frères et surs qui sont au logis Avec mon titre honorifique de rappeur en pneumologie 'Paraît qu'cest la détresse pour mettre des masques au personnel qui va vous soigner Mais pas pour fournir aux CRS, des lacrymos, des LBD Je veux bien ne pas critiquer les lacunes de lÉtat providence Mais le manque de moyens mis dans la santé, dans les respirateurs durgence Macron garde ta morale à toi car y a pas eu d'mort sous ton toit Quand j'vois le salaire des soignants, 'faudrait p't-être faire un moratoire À ta prochaine de chocs vitaux, viens te faire soigner en disgrâce Car tous les hôpitaux de France ne ressemblent pas au Val-de-Grâce Car vous nêtes que des populistes obnubilés par leur carrière Et il ny a plus didéalistes politiques que dans les cimetières Et on n'est pas des arrivistes qui visent à redorer leur blason dans l'peu-ra Au-delà des antibiotiques, le streptocoque doré lemportera On a nos masques de braquage quon prête à ceux qu'en ont besoin On a d'lalcool... mais pas tellement sur les mains Une bande de délinquants morbides, venue faire craquer le Covid Parce quavec un stylo bic, nous on t'fait une trachéo-cro-mi Jai lhabitude des gyrophares, mais cest plus les mêmes sirènes La seule fièvre quon vit quelqu'part, devrait être celle d'NTM La souffrance aux soins est immense, j'ai pas vu d'député mourir Dans les couloirs, sur un brancard des urgences il y a urgence Yeah, p't-être que l'irradiation des villes est la radio-thérapie d'la nature Pour soigner un cancer hostile il faut que lhumain paye sa facture P't-être que cest l'drame dans les villes parce qu'vous êtes juste des fous débiles Mais lorsque lhumain disparaît, reviennent les loups de Tchernobyl Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas On s'retrouvera bientôt autour dune teille en faisant des grosses bringues Mais pour lheure il est temps de retrouver l'bonheur dans des choses simples Angoisse en p'tite surdose, lennemi est invisible Les gens comprennent très bien c'quils risquent depuis qu'le monde sest mis sur pause Mouvement d'panique en grande surface car se joue notre vécu Mais qu'tous ces égoïstes se momifient dans leurs rouleaux d'PQ On était prêt, moi jy crois pas des masses, on rentre dans une sale phase hélas La preuve nos hôpitaux vous ont dit bas les masques Dites-moi c'quil reste en France dès qu'les sirènes senclenchent Dites-moi si j'crève, dites-moi si j'rêve, quon n'était pas si prêt pour une si belle sentence Ça fait quoi d'se retrouver face à sa pire hantise Cest pas l'virus mais la bêtise de lHomme qui nous a pris en grippe Nos vrais héros demandent à s'faire entendre à s'faire entendre Personnel médical qui lutte jour et nuits pour qu'la merde séloigne Merci à ceux qui restent au front malgré la fièvre ambiante Et dites aux inconscients quil y a pire prison que dêtre chez soi Quand la bactérie joue d'la batterie, wow Jentends des cris, des moqueries Confiné, j'dois filer, mon fils finit sa poterie Laisse-moi l'temps d'respirer, jai la zik dans la poitrine Douce sera la médecine, perso j'roule ma sensi La zik ma sauvé, j'rajoute ça à mon autopsie Fuck les aristocrates, oui la richesse est coupable Cousin j'rappe en urgence vu que laction est remarquable Donne la force aux grands-parents, noublie pas la mama Avant qu'les larmes coulent sur le bord dun diaporama Finie lépoque Nirvana, marié à Marijuana Allez, donne-moi une scène on fera des sauts à Serge Lama Non, c'monde n'a rien d'banal, rouya Dooz Kawa Bien sûr j'ai de l'espoir même si l'virus fout l'dawa Oui la prod fout l'fire, et tout l'monde fout l'faya Bien sûr j'ai de l'espoir même si l'virus fout l'dawa Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas Toi tu m'as surpris Comme un rhume Au coin de mon lit Toi tu m'as surpris Comme un rhume Mon épidémie Toi tu m'as surpris Comme un rhume Au coin de mon lit Toi tu m'as surpris Comme un rhume Mon épidémie, toi ma brune</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4675,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Paraît qu'il est mort le hip-hop, on m'a dit d'rev'nir comme l'époque On a ce bon style, écoute le constat, l'impression d'avoir été Busta Envoie la grosse maille, on veut la grosse caille, j'bosse le mix comme dans la box thaï Trop d'vibe, on sort d'ailleurs, c'est moi le patron, j'ai pas d'employeur J'ai une équipe trop badass, même si j'ai trois bandes sur mes adidas Je sais qu'tu rêves et que tu aimes, Paris est sous les bombes depuis NTM J'ai pris la prod à coup de torpilles, ça fait longtemps que je ne dors plus À force de porter le rap français, j'ai chopé des courbatures Eh ouais c'est tordu, éteins cet ordi, y a pas qu'la télé qui a menti Ouais on s'en sortira, dollars, dirhams, entre Bashir et les sales pirates La même depuis le préau, envoie l'truc frérot, on a la paire et l'bon tricot Laisse-moi j'tricote, l'ambiance hip-hop, ouais, le bandana à la Tupac Shakur Ambiance funk, avant l'covid, les premiers masqués étaient Daft Punk Lord Finesse, trop d'finesse, j'ai même les VHS de Louis d'Funès Ambiance funk, avant l'covid, les premiers masqués étaient Daft Punk Lord Finesse, trop d'finesse, j'ai même les VHS de Louis d'Funès Ambiance funk, avant l'covid, les premiers masqués étaient Daft Punk Lord Finesse, trop d'finesse, j'ai même les VHS de Louis d'Funès Paraît qu'il est mort le hip-hop, on m'a dit d'rev'nir comme l'époque On a ce bon style, écoute le constat, l'impression d'avoir été Busta Envoie la grosse maille, on veut la grosse caille, j'bosse le mix comme dans la box thaï Trop d'vibe, on sort d'ailleurs, c'est moi le patron j'ai pas d'employeur You might also like Ambiance funk, avant l'covid, les premiers masqués étaient Daft Punk Lord Finesse, trop d'finesse, j'ai même les VHS de Louis d'Funès Ambiance funk, avant l'covid, les premiers masqués étaient Daft Punk Lord Finesse, trop d'finesse, j'ai même les VHS de Louis d'Funès</t>
+          <t>Paraît qu'il est mort le hip-hop, on m'a dit d'rev'nir comme l'époque On a ce bon style, écoute le constat, l'impression d'avoir été Busta Envoie la grosse maille, on veut la grosse caille, j'bosse le mix comme dans la box thaï Trop d'vibe, on sort d'ailleurs, c'est moi le patron, j'ai pas d'employeur J'ai une équipe trop badass, même si j'ai trois bandes sur mes adidas Je sais qu'tu rêves et que tu aimes, Paris est sous les bombes depuis NTM J'ai pris la prod à coup de torpilles, ça fait longtemps que je ne dors plus À force de porter le rap français, j'ai chopé des courbatures Eh ouais c'est tordu, éteins cet ordi, y a pas qu'la télé qui a menti Ouais on s'en sortira, dollars, dirhams, entre Bashir et les sales pirates La même depuis le préau, envoie l'truc frérot, on a la paire et l'bon tricot Laisse-moi j'tricote, l'ambiance hip-hop, ouais, le bandana à la Tupac Shakur Ambiance funk, avant l'covid, les premiers masqués étaient Daft Punk Lord Finesse, trop d'finesse, j'ai même les VHS de Louis d'Funès Ambiance funk, avant l'covid, les premiers masqués étaient Daft Punk Lord Finesse, trop d'finesse, j'ai même les VHS de Louis d'Funès Ambiance funk, avant l'covid, les premiers masqués étaient Daft Punk Lord Finesse, trop d'finesse, j'ai même les VHS de Louis d'Funès Paraît qu'il est mort le hip-hop, on m'a dit d'rev'nir comme l'époque On a ce bon style, écoute le constat, l'impression d'avoir été Busta Envoie la grosse maille, on veut la grosse caille, j'bosse le mix comme dans la box thaï Trop d'vibe, on sort d'ailleurs, c'est moi le patron j'ai pas d'employeur Ambiance funk, avant l'covid, les premiers masqués étaient Daft Punk Lord Finesse, trop d'finesse, j'ai même les VHS de Louis d'Funès Ambiance funk, avant l'covid, les premiers masqués étaient Daft Punk Lord Finesse, trop d'finesse, j'ai même les VHS de Louis d'Funès</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4692,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Ecoute Des fois c'est dur, de trouver les bonnes paroles Des fois c'est moi ou c'est le monde qui ne tourne pas rond Des fois je m'dis que demain on s'ra même plus là On partira, sans visa ni consulat P't-être qu'il est fou c'lui là, laissez-moi dans mon coin J'ai vu des mères et des pères et des mal en point Et oui la vie c'est bien, je savais qu'elle s'rait dure savais qu'elle s'rait dure, bah ouais Y'a plein de procédures, demande à j't'assure T'as pas saisi, enlève la mer de la côte d'Azur On a de fausses armures, ça nous pousse à pleurer On regarde le monde, d'un oeil écoeuré On est trop nostalgique, on remonte les rideaux Ils ressortent la Nintendo On dit qu'on tourne en boucle, comme un 33 tours Donne-moi un peu, mais ne prends pas tout Donne à ton proche avant qu'il demande J'reste fidèle comme l'équipe de Lens Satisfait de c'que j'ai reçu Moi, y'a qu'les humains qui m'ont trop déçu J'ai pas peur de la mort, mais justement de Dieu Discret, donc c'est pour ça que j'en parle peu Viens on en parle à deux, ça fait du bien en vrai On change rien, c'est ça vouloir innover Pourquoi voir que le mal, là où l'chemin nous mène La bêtise, viens oui de la race humaine Comment te rassurer ? Regarde juste le ciel Y'a plus personne en haut, on descend de la selle Laissez-moi une parcelle, j'veux planter mes graines Qui ne se plante jamais n'connaitra pas le terme Non non, n'connaitra pas le terme Demi Portion You might also like J'ai pris mon sac et j'suis parti par là Comme un oiseau, j'voulais m'envoler Comme un oiseau, j'voulais m'envoler x2</t>
+          <t>Ecoute Des fois c'est dur, de trouver les bonnes paroles Des fois c'est moi ou c'est le monde qui ne tourne pas rond Des fois je m'dis que demain on s'ra même plus là On partira, sans visa ni consulat P't-être qu'il est fou c'lui là, laissez-moi dans mon coin J'ai vu des mères et des pères et des mal en point Et oui la vie c'est bien, je savais qu'elle s'rait dure savais qu'elle s'rait dure, bah ouais Y'a plein de procédures, demande à j't'assure T'as pas saisi, enlève la mer de la côte d'Azur On a de fausses armures, ça nous pousse à pleurer On regarde le monde, d'un oeil écoeuré On est trop nostalgique, on remonte les rideaux Ils ressortent la Nintendo On dit qu'on tourne en boucle, comme un 33 tours Donne-moi un peu, mais ne prends pas tout Donne à ton proche avant qu'il demande J'reste fidèle comme l'équipe de Lens Satisfait de c'que j'ai reçu Moi, y'a qu'les humains qui m'ont trop déçu J'ai pas peur de la mort, mais justement de Dieu Discret, donc c'est pour ça que j'en parle peu Viens on en parle à deux, ça fait du bien en vrai On change rien, c'est ça vouloir innover Pourquoi voir que le mal, là où l'chemin nous mène La bêtise, viens oui de la race humaine Comment te rassurer ? Regarde juste le ciel Y'a plus personne en haut, on descend de la selle Laissez-moi une parcelle, j'veux planter mes graines Qui ne se plante jamais n'connaitra pas le terme Non non, n'connaitra pas le terme Demi Portion J'ai pris mon sac et j'suis parti par là Comme un oiseau, j'voulais m'envoler Comme un oiseau, j'voulais m'envoler x2</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4709,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>W ya raye7, wine msafer Ghi mghamer, f tri9i ghi msamer W ya raye7, trou7 te3iya w twelli F lila nbat nheddem, b sba7 kan3awed nebni Kolhom menfoukhine b latex Hreb men machakil d tieks L7ez9a wel 7jer baghi sex W nefs lhedra w nefs text Ki l'pikala ki l'Q7 Ki la belle ki la bête Nzidou l'moula f recette W Demi Portion c'est la fête Men jiha nebni w men jiha lokhra kan7fer Kheddam machi 9essar lmoula ga3 ma jat zher W drs l'vida ma kan f 7ta chi mou9arrar Jer7a dawiha b sber coffre ghadi w kay3mr0 W bach ne9i dmaghi kanwessekh f riya B zerba bdit nti7 w nesshom ma b9ach kayti9 fiya Madi cicatrice bghit ne3ref chnou mektab liya Ta 7aja ma f khatri ra bghaw yaklouli 7lami triya W nchouf ghi b 3ini w nmiyek Lwi w khelli cerveau miyet Mkhebbi rassi f 9oubiyat Wel 9elb t9al bel oumniyat Kolhom fake f storyat Nefs loun d touniyat Kebberna l'molliyat Men l'époque d CDyat You might also like W ya raye7, wine msafer Ghi mghamer, f tri9i ghi msamer W ya raye7, trou7 te3iya w twelli F lila nbat nheddem, b sba7 kan3awed nebni Mais dis-moi ou tu vas? Tu le perds parfois J'ai pris ma route et je guide ma voix Et si tu dérailles, garde la foi Reste fort, fiers à chaque fois Salam alikom l'khawa J'arrive jamais les poches khawi Dédicases à Oum Kalthoum Ainsi qu'à tous les gnaouis C'est Demi Draganov, one love à nos bedaouis Fédération wa samaoui Ça m'arrive, je manie les rimes dans les sens du terme Ya nari, envoie moi un petit pétard et café crème On a commencé tout en bas de l'échelle Wesh Rachid, ouis Adnane, l'moussi9a c'est l'ADN J'lance l'alerte on est pas condamnés On a galéré depuis tant d'années J'lance l'alerte on est pas condamnés On a galéré depuis tant d'années W ya raye7, wine msafer Ghi mghamer, f tri9i ghi msamer W ya raye7, trou7 te3iya w twelli F lila nbat nheddem, b sba7 kan3awed nebni Mais dis-moi ou tu vas? Tu le perds parfois J'ai pris ma route et je guide ma voix Et si tu dérailles, garde la foi Reste fort, fiers à chaque fois</t>
+          <t>W ya raye7, wine msafer Ghi mghamer, f tri9i ghi msamer W ya raye7, trou7 te3iya w twelli F lila nbat nheddem, b sba7 kan3awed nebni Kolhom menfoukhine b latex Hreb men machakil d tieks L7ez9a wel 7jer baghi sex W nefs lhedra w nefs text Ki l'pikala ki l'Q7 Ki la belle ki la bête Nzidou l'moula f recette W Demi Portion c'est la fête Men jiha nebni w men jiha lokhra kan7fer Kheddam machi 9essar lmoula ga3 ma jat zher W drs l'vida ma kan f 7ta chi mou9arrar Jer7a dawiha b sber coffre ghadi w kay3mr0 W bach ne9i dmaghi kanwessekh f riya B zerba bdit nti7 w nesshom ma b9ach kayti9 fiya Madi cicatrice bghit ne3ref chnou mektab liya Ta 7aja ma f khatri ra bghaw yaklouli 7lami triya W nchouf ghi b 3ini w nmiyek Lwi w khelli cerveau miyet Mkhebbi rassi f 9oubiyat Wel 9elb t9al bel oumniyat Kolhom fake f storyat Nefs loun d touniyat Kebberna l'molliyat Men l'époque d CDyat W ya raye7, wine msafer Ghi mghamer, f tri9i ghi msamer W ya raye7, trou7 te3iya w twelli F lila nbat nheddem, b sba7 kan3awed nebni Mais dis-moi ou tu vas? Tu le perds parfois J'ai pris ma route et je guide ma voix Et si tu dérailles, garde la foi Reste fort, fiers à chaque fois Salam alikom l'khawa J'arrive jamais les poches khawi Dédicases à Oum Kalthoum Ainsi qu'à tous les gnaouis C'est Demi Draganov, one love à nos bedaouis Fédération wa samaoui Ça m'arrive, je manie les rimes dans les sens du terme Ya nari, envoie moi un petit pétard et café crème On a commencé tout en bas de l'échelle Wesh Rachid, ouis Adnane, l'moussi9a c'est l'ADN J'lance l'alerte on est pas condamnés On a galéré depuis tant d'années J'lance l'alerte on est pas condamnés On a galéré depuis tant d'années W ya raye7, wine msafer Ghi mghamer, f tri9i ghi msamer W ya raye7, trou7 te3iya w twelli F lila nbat nheddem, b sba7 kan3awed nebni Mais dis-moi ou tu vas? Tu le perds parfois J'ai pris ma route et je guide ma voix Et si tu dérailles, garde la foi Reste fort, fiers à chaque fois</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Demi_Portion_songs.xlsx
+++ b/data/02_intermediate/cleaned_Demi_Portion_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C252"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Freestyle 12 mesures</t>
+          <t>Freestyle #2chezmoi soutien à la Fonky Family</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0101 LEDOUBLE JEUNE SACHET - 2034 - 0101 Max D. Carter - ingulièrement Vôtre Haché Vissé 0501 Dibson - Le D 0501 Gazy MP - Process - 0501 Houdi - HOOD VOLUME.1 0501 Jeff le Nerf - Dark Green Tape - 0501 Mougli - Dans la jungle 0501 Negrito - Débrouillard 0501 Popey - À découvert - 0501 Resell - BALACLAVA PREMIER GAOUBISAP 0501 Saamou Skuu - Nous cest la TH Vol. 3 0501 Vink - L'Ordre et le Chaos Volume 2 - 1101 Booska-P - Les 11 à suivre 2024 - 1201 404Billy - GDAY - 1201 Bavaz - Noble Art - 1201 Caballero JeanJass - Zushiboyz, volume 3 1201 DosPunto - DOS 1201 HeyMikey!, Bricksy 3g - New Chapitre - 1201 Kaza - HEARTBREAK LIFE II - 1201 Kerchak - Saison 2 1201 Noss Misère Record - Récidive - 1201 Roméo Elvis - Écho - 1201 Rowtag - Zone Tendue - 1201 Serane - S.E.R. - 1201 Still Fresh - PSG OM QUAND TES IVRE - 1201 Yvnnis - L'AFRO OU LES TRESSES - 1301 Ateyaba - ECSTATIC - 1701 Gama Boonta - GRAND DICTATOR 1801 Tali 2C - DOUTER NEST PAS UNE OPTION - 1901 8ruki - POURquoi!! 1901 Demi Portion - Poids plume 1901 JuL - Décennie 1901 Kofs - Après minuit - 1901 Lesram - Du peu que j'ai eu, du mieux que j'ai pu - 1901 Noti Rose - MENTIRDÉCIBELS 1901 Oumaï - SEUL - 1901 PLK - Chambre 140 Part.1 1901 Rizla - RE7 - 1901 Shay - Pourvu qu'il pleuve 1901 So La Zone - De la cellule au château - 1901 Uzibinski - Résilience 1901 Yanso Boub'z - FANTÔMES - 2201 Lonepsi - Sans visage - 2401 Gio Nuovo - The Battacio Mixtape Vol1 - 2401 PAPI TEDDY BEAR Pense - LA CHAUFFE - 2401 your.nash - la plaie et le couteau - 2501 Le Règlement - Règlement Freestyle Saison 5 - 2601 BEN plg - Dire je t'aime 2601 Insa - Blanc comme les murs - 2601 Jaymee - Ma Way - 2601 KIK - ADIEU EDITION GANG 2601 Larry - NCE Partie 1 - 2601 mademoiselle lou - LES OMBRES 2601 morphée. - SPLEEN EST IDEAL - 2601 PLK - Chambre 140 Part.2 - 2601 Rounhaa - JAAFAR - 2601 Rozzy Friendsofbryan - Epik Angels 2601 CO - CEST POUR LES MÉCHANTS 2 - 2601 Sokuu 8 Shuff - CHROMATIC TEARS 2601 Tizzy Miller - 444 - 2601 Zola Koba LaD - Frères Ennemis 2801 ouley mh - S 3101 Bricksy 3g - But It Ain't Février 0102 Chilly Gonzales - Grünt 63 0102 Lybro - Salle du temps - 0101 Yovo DIOGENES - little boy fat man 0202 2TH - Les Prémices - 0202 Cannelle - ODD - 0202 Cellulaire - DAMOUR DARGENT 0202 IAM - HHHistory 0202 kozi - VDA Vol 2 - 0202 Lala ce - SOLSTICE - 0202 PLK - Chambre 140 Part.3 0202 Roshi Shaz - NIGHT RIDE 2 - 0202 Ruff - DADDY GERANIUM - 0202 San-Nom - Un peu pitoyable - 0202 Slimka - Le Grand Mystico - 0202 S.Pri Noir - La Cour des Miracles 0202 S-Tee - LOWLIFE 0202 VVES - SOLIDE - 0202 Zaky - SOULGAZE - 0202 Zkr - Mode Opératoire, vol. 1 - 0402 404Billy - GDAY Version physique - 0402 orphevre - IRREGULAR TRAPPEUR - 0602 Rim'K - Lifat Mat 0702 75ERA - HÉRITAGE - 0702 Empty7 - Lacrimosa - 0802 Jäde - Diabolo Grenadine Rivalise - 0902 528ron Lovarran - DESDB 3 - 0902 BAKSOOZ - CHAOS KING - 0902 Booba - AD VITAM ÆTERNAM 0902 Dany Dan Kyo Itachi - Pièces montées 0902 Dertay - Désolé, d'être moi 0902 Doria - Petite fille 0902 Fanny Polly - MEUF 0902 Lamatrix - SEREIN 0902 MLKWAV - TSUNAMI - 0902 Sokuu - SOLANIN - 0902 TH - SIGNAL II - 1002 Ry's - FANTASMAGORIQUE MUSIC 1202 2 Mètres - 92 Life 1202 Didi B - Before Olympia - 1402 Djibso - Exodia - 1402 Jok'Air - Lune de fiel - 1402 Spider Zed - Mes Ex, Pt. 4 Les mouettes - 1502 Grems - Vie Compte - 1502 Mairo H JeuneCrack - La solution 1502 Noti Rose - dead internet theory 1502 roolio - pour quoi faire? - 1602 Dadju Tayc - Héritage 1602 Dara - Chaos 1602 Gips - Passager59 - 1602 Franglish - Prime - 1602 Infinit' - 888 1602 Lp2.0 - Indifférent 1602 Meel B - UFONY - 1602 menace Santana - Freestyle covid Part. 3 - 1602 Nusky - Tchi 1602 RAS - Retour Aux Sources, Vol. II - 1602 So' - SAHARA, Vol. 2 LAYLA - 1602 Tenma Douze Déluge - ANIMA 1602 Uzi - SUR LE CHEMIN 1602 Valser - SIROCCO - 1602 Wassim - CETTE VIE-LÀ - 1602 Werenoi - Pyramide - 1702 Yarok wasting shit - SSD - 1802 Max D. Carter - Dans la salle de bain de Samantha Jones 1902 Furlax - ETHERIA - 2002 Tiers - Drapétomania - 2102 ihatemed - Serial Killer - 2102 Kaza - Une de perdue - 2202 L'ETAT2ND - L'ÉTAT2ND Vol.2 - 2302 Abou Tall - Monsieur Saudade - 2302 Celestino, Damlif Toboë - emojiski - 2302 Féfé - Hélicoptère 2302 Game Over - Game Over 3 - Terminal 2 - 2302 Gen - Fidel - 2302 GLK - VIDI 2302 IDHEM - RÊVE MACHINE - 2302 Kalash Criminel - BON COURAGE 2302 La MG - PROLOGUE 2302 Larry - NCE 2302 Le A - Eveil 2302 Manny - Shootstar 2302 Melan - La trentaine l'intégrale 2302 Moubarak - ÉPREUVES - 2302 PRIME - MONTADA 2302 Relo - DIEU MERCI ENCORE Réédition 2302 V2 Almz - MAUVAIS PARCOURS 2302 Voleur2Voleur - AUCUNE ATTACHE Vol.1 2302 YL - LARLAR Part.2 - 2302 Zamdane - SOLSAD - 2802 Jaymee - BLACK YELLOW 2802 Moha K - Salam - 2802 your.nash - la pluie sur le coupable 2902 Am La Scampia - La Scamp' - 2902 Médine - HAP LIVE SESSION live session 2902 Hypo'z - Birthday Cake Mars 0103 Allebou - Epicerie du bonheur 0103 aru! - parhélie - 0103 Big Ben - JET - 0103 Croma - Une journée dans mes shoes 0103 Elh Kmer - KJU 0103 Fresh - P.M.R. - 0103 Grems - Algèbre 3.0 0103 LIKMA 140 - TRAIN DE VIE - 0103 Luther - EXIT - 0103 Misa Mano - GRAND ANGLE 0103 Mortalla - Calibré 0103 Nessbeal - Lumières Nocturnes Chapitre 2 0103 Shotas - Oue La 6T 2 0103 Squidji - ANTARCTIQUE - 0103 Teklam - Questquetuveux?? 0103 Tunisiano - Avis de tempête 0103 Uzi - SUR LE CHEMIN Phase 2 - 0103 WarEnd - EMC - 0203 Myth Syzer Ateyaba - ECSTATIC Myth Syzer Edition - 0303 Tiakola - X - 0503 spookyghost333 CCCXXXIII 0503 VII - Seconde Zone - 0603 Marty de Lutece - La nuit d'après 0603 TK - 6 Mars 2024 0603 Venom Cz - Crime Master Reedition 0703 theotin - L'Horreur Des Autres réduit 0803 Achim - Prométhée - 0803 ADÉS THE PLANET - JPLEURE EN DANSANT - 0803 Busta Flex - TCLV 0803 Dinor rdt - RDT - 0803 Dries Bormans - Dries Bormans 0803 Kaeles - NEVERMORE 0803 Keuchei - Gang ou rien 0803 Lapostroz - NOCTURNE Pt. 1 0803 Leys - LEYS - 0803 Malo - 95 - 0803 Sirap - Rapsi World - 0803 Yassine Stein - C'EST DIEU QUI DESSINE - 0903 NDO Runway - La Culture Habite Chez Nous - 1203 nelick - QUI VEUT LA PEAU DE KIWIBUNNY ? - 1303 YUNG POOR ALO - L'oiseau - 1403 Nusky - Deux minutes - 1503 Bekar - Plus fort. 1503 Demszer - REZET - 1503 Eline - Mieux vaut guérir - 1503 FEMTOGO Vilhelm. - La Bête - 1503 Jäde - Les Malheurs de Jäde - 1503 Jeune Lion - SO DIEU - 1503 Le Lij Izen - X.O 1503 Matou - Élixir Vol. 2 - 1503 MC Solaar - Triptyque Lueurs Célestes 1503 Sameer Ahmad - La vie est bien faite - 1503 Sno3 - SOUS LA RÉTINE - 1503 Spider Zed - Prends le bien - 1803 slump. - Z Unit, Vol. 1 - 2003 Chavi - 10 ANS D'ÂGE - 2003 Gio - Le Berger Le Mouton - 2003 Leo SVR - RAP INSTINCTIF APOLOGIE - 2103 LK de l'Hotel Moscou - Wu Wei 2 2103 Senamo - Un cauchemar avant le jour daprès - 2103 T.I.S Kaer MKS - Période bleue - 2203 34murphy - La chouette - 2203 AAMO - CHARBONNER OU PRIER 2203 Dina - DNA 2203 DND - CINQ 2203 Ekloz - 3motional bada b!tch 2203 Falcko - BLACK CODE TOME 4 2203 Hatik - LA VIE DE TYLER - 2203 Jeune Observateur - Fuir Les Ombres 2203 K.S.A - On Load... 2203 Perso - Eminence Grise - 2203 sean - OÙ EST PASSÉ ZEUDOG ? - 2203 Vin's - Le faux miroir 2703 PHLP - Maison Posture - 2703 Todd - MAX2BLÉ - 2803 B.B. Jacques - HORIZON 25 2803 Herman - Pas normal, pas bizarre 2903 Absolem - Les yeux grands fermés - 2903 BUHI - Bushi Tape 3 - 2903 CAPUH - THE RAIN NEVER LIES - 2903 Cheval Blanc - INSPECTEUR CHEVAL - 2903 Deelee S Arsaphe - STEEPLE-CHASE - 2903 J9ueve - NUEVE SEAZON 2903 Josué - Etat d'esprit 2903 Kamas Skuh - La Paye 2 2903 KLS - LA PAIX DES BRAVES PART. 2 2903 L'Hexaler - En parallèle 3 2903 Lybro - Plein potentiel - 2903 Matox Sale Epoque - Les Chats - 2903 NeS - POUR DE VRAI - 2903 Nobodylikesbirdie - The Birdie Tale II Reservoir Dawgz Avril - 0204 Lucio Bukowski Mani Deïz - CHARDONS BLEUS - 0404 SONBEST - Symphonie Des Marécages - 0504 Cellulaire - MAQUINA - 0504 Daej Phantom - Rire Drame et Vendetta - 0504 Green Montana - SAUDADE - 0504 Keroué JeanJass - SCOPE 0504 Moxy - Aube Rose - 0504 Nelick - MON CUR BAT - 0504 Shien - Obsession - 0504 YUNG POOR ALO - Alo et l'oiseau - 0904 Bob Marlich - Les points sur l'Haÿ - 1004 Henri Bleu - REGARDE - 1004 Youri - Enfermez moi - 1204 Dau - ÉTATS D'ÂMES 1204 Guy2Bezbar - AMBITION II - 1204 Inflow - Dernières fleurs - 1204 Joé Dwèt Filé - GOUMIN TERMINÉ - 1204 Kpri - 2002 - 1204 Lycos - HYPERION 1204 Paco Raw Saitama - TRAMONTANE 1204 Peet - À demain - 1204 Rodrigo - ÉTERNEL SECOND 1204 SID - STELLAGONY 1204 SLD Prod Tha Manz - Sixième Sample - 1204 Smeels - GLOF 1204 Tedax Max - Hardeur contemporain 1404 Jahrel Jones - BAKANA SENSITIVE LOVER VOL.1 Talkin' Dirty Before Dark 1504 3xmacoño - LE 3 - 1704 HIBA Lyes Kaci - presque heureux - 1804 Akkai - PragmatiKkK 1804 AnNie .Adaa - Juste Un Peu De Ciel - 1804 Sadandsolo - FACTORY RESET - 1804 Saytam - Marseille Nuit - 1904 Deadi - Enfin - 1904 Enima - DZ D'AMERIQUE 1904 GAZY MP - Vision - 1904 Grand Bazaar - GrandBazaar 02 1904 Jarod - Rédemption 1904 Larsé - Jeune Rookie 1904 Lazzio - DUR LABEUR 1904 mademoiselle lou - LA VAGUE 1904 Mac Tyer - LA VIE DU TRIPLE OG 1904 Mehdi YZ - Ça passe ou ça cash 1904 Momsii - LGT Vol.2 - 1904 Nusky - Pussy miaou 1904 Pedro - Living Room 1904 Rimkus - Fracturé - 1904 Spider Zed - Xari 1904 Uzi - SUR LE CHEMIN Phase 3 - 2304 paradise rq - L'un des sept No.3 - 2404 Owen - WEIHENMAYER 2604 Ashéo - ALO premier appel 2604 Davinhor - Karaba Partie I - 2604 Gros Mo - LES DIÈSES 2 2604 Gutti - AVANT LE GLO 2604 Kima - L'école des Stars - 2604 Lester - Oz 2604 Linton - Home Run 2604 Mister You - HLM3 Réédition 2604 Nyda - Murder Music - 2604 ozkar - scories vol.1 - 2604 Ratu - TTMS, Vol. 3 2604 Stavo - Il était une fois - 2604 Tomàs V - LAdversaire 2604 Suzuya - Morceaux de moi - 2604 Wit. - LE JOUR D'APRÈS - 2904 Asinine - Brûler la maison 2904 JMK ambezza - SOUTH STORY 3004 Black Jack - Strangulation 3004 Flamingo Santana - NAUGHTY BOY Mai 0105 Bouss - Depuis le temps 0105 Chanceko - En roue libre 0305 Baby Neelou - Le Chemin du cur 0305 Bhk220 - Génération 2000 0305 Game Over - Game Over 3 - Terminal 3 - 0305 Gapman - Prochaine Chèvre 2 0305 Heloïm - DERNIER RUSH 0305 KPoint - SHOTTAS 0305 LowKey Juvito Various Artists - JuvTape Vol. 1 NevJoueurs 0305 Nixon - Outsider 0305 Rouge Carmin - GRAND CARMIN HOTEL 0305 samayusi - Des cauchemars qui ont saigné - 0305 Souldia Lost - Portrait robot - 0505 Nemavo - Chrysalide - 0805 VILK - VILKCORE - 1005 AK - BIGDAWG EVO 1005 Cacahouète - Vrai Igo 1005 Dr. Yaro La Folie - À Deux 1005 JYEUHAIR - DAIZOISO 1005 K.S.A - Energie - 1005 Misa Yeuze Low - L'HUILE AU SOL 1005 Skary Wysko - PROLOGUE LE HORLA 1005 Slkrack - Jeune, black qu'en à rien à branler - 1005 Take A Mic - M1NDSET 1005 White N - DEUX FOIS PLUS QU'EUX 1105 Mitch - MODE S 1105 T.I.S - Dans la ville 1505 Bricksy 3g Lilguwop - Glowop - 1505 Zoomy - DIRTY SPRITE 19 - 1605 Butter Bullets - Château - 1605 Närka - HOTEL BLEU 97 1705 Ben.C - BENNY 1705 Biwai - Remontada 2 1705 dima - bastide 1705 Eesah Yasuke - PS J'écris l'album 1705 Harley - Who's Harley - 1705 Huntrill Hologram Lo' - REPLICA 2 - 1705 La F - TNF 3.5 - 1705 Laskiiz - GODJENG 1705 Leith - SI LA FORTUNE EST AVEUGLE - 1705 Magnim - Blanc et Bleu - 1705 Mandyspie - Monster Therapy - 1705 Peka59 - Maryse 1705 SAM - 1ère mi-temps 1705 Stavo - Éviter la misère 1705 Timal - Darzava - 1705 USKY - Anhédonie 1705 your.nash - solitaire, mais bien accompagné - 1705 Yzü - SWIRL TRAUMA - 1705 Zinée - OSMIN - 1905 Cielbleu - Janvier jtm quand même - 2305 So La Lune - NUMERO 11 - 2405 ADVM - .DEMAIN C'EST MIEUX. - 2405 Bluume Triple Nine - MELOGRAM 2405 Dadinho - Coeur Nwar - 2405 Dau - ÉTATS D'ÂMES Vol. 2 - 2405 Douze Déluge - HINTERHALT pt1 - 2405 Folie's - Folie's je t'aime - 2405 Hotel Paradisio - INSOMNIA 2405 Koffi Lossa - À la maison - 2405 Osirus Jack - TSAR NOIR 2405 Skary Wysko - LE HORLA - 2805 Toothpick - JEUNE LIFTIER - 2905 F430 - Focus 2905 PAPI TEDDY BEAR Pense - LA TREMPE - 2905 Toam - CRIMERA - 3005 Famille Nombreuse - Reste Dangereux 3105 410 - 410 Pt. 2 - 3105 AMK - T.A.T - 3105 Dalienski - L'Arme de Cristal - 3105 Deemax - À MA PLACE 3105 Elso - Fula - 3105 Elyon - La musique est une porte - 3105 Hugo TSR - La Pluie 3105 Jack Many - Des flingues et des roses - 3105 Kemmler - Alain - 3105 Lary Kidd - Le cheval blanc de Napoléon 3105 Maks - Enfant Béni 3105 RK - DLPDA - 3105 SCH - JVLIVS Prequel Giulio 3105 Skima - Krieg - 3105 Surprise - Le plus beau des monstres - 3105 thaHomey - RARISSIME II - 3105 Zed - Malcom - 3105 zonmai - Birthday Saison Juin - 0406 Gringe - Du Plomb Effet de Surplomb 0406 Jama - DEVIL Z, Pt. 2 0706 Jey Brownie - Mélodie céleste 0706 JKSN - CRACK - 0706 Jok'Air - Turpitude - 0706 JuL - Mise à jour 0706 Le Lij Brodinski - Zéro Degré 0706 Loveni - MAD LOV 0706 Madjer - LUCKY LUXE - 0706 MSyn - BEFORE Atalante 0706 Skary Wysko - ÉPILOGUE LE HORLA 0706 Slkrack - Le charbon ne s'arrête jamais - 0706 TH - E-TRAP 0706 TiBab - BRICKBABY - 1306 Farloski Pablaw - EUROSTAR MUSIC - 1306 Maeg - Hall of Shame - 1406 abel31 - 0010 - 1406 Arsaphe - NÉVROSÉ - 1406 Caballero - Dose héroïque - 1406 Heuss l'Enfoiré - LVDR - 1406 iTo - Mourir jamais - 1406 Izar - 38ème étage - 1406 Jaymee - ÇA C'EST DU RUN 1406 KABBSKY - DYSTOPIE 1406 Kasar - ALTAÏR 1406 Keeqaid - PARTICIPE 1406 KLS - HORION 1406 Lacrim - VENI VIDI VICI 1406 La Kadrilla - M.A.P 1406 Mano Leyra Kooking - 92BADD 1406 Many Santana - PHE 1406 Meryl - Caviar I 1406 Nayra - TALWIT 1406 Nosnow - Dolo 1406 Notorious 2T - SURVEILLÉ - 1406 OSO - Tundra XP 1406 Princesse - Prélude Nouvelle Romance 1406 Raous Gang - 94 Filature 1406 Still Fresh - CEST LA DERNIÈRE FOIS, Pt. 1 - 1406 Take A Mic - MIN2SET 1406 TheHashClique - LEET 1406 Tovaritch - TSAR - 1406 wasting shit - 1M NE SE GASPILLE PAS TT SEUL 1506 Maes - EN ATTENDANT LVC II 1906 Lison - ABRASIVE NOISES FRAGMENTS - 1906 Romero Xr Dr. Fongible - Mixtape Éon I - 1906 Rowjay - LA VIE RAPIDE - 1906 San-Nom - Un peu moins pitoyable 2106 808NOCHE - 808 BPM 2106 Aketo Unfamouslouie - SPIRITIC 2106 Anas - Diaspora, Vol.1 - 2106 arøne - fin d'été 2106 Bouss - Depuis le temps Part. 2 - 2106 Cellulaire - ÉVANESCENCE 2106 Heykel - Particule élémentaire 2106 Houari - Cest de la Cali 2106 JRK 19 - MAUDIT À VIE 2106 Kay The Prodigy Mezzo Millo - EASTERN WIND 2 BLOOM EDITION 2106 Lebza Khey - Coeur Froid - 2106 LEDOUBLE Hologram Lo' - enfant du soleil 2106 Leith - LE RICHE EST SOURD 2106 Lyonzon - Wave ruler 2106 Naps - MEC DE CITÉ SIMPLE 2106 Naza - Nazaland - 2106 Noti Rose - AVEUGLES 2106 Rohff - Fitna - 2106 Soprano - Freedom 2106 Still Fresh - C'EST LA DERNIÈRE FOIS 2106 TripleGo - NOIR CARBONE 2106 TRZ - TRANSIT 2106 Uzi - SUR LE CHEMIN Phase finale - 2106 Vîrus - NYCTHÉMÈRE 2606 Ashh - Katrina - 2606 Jorrdan - Stevie - 2606 Selug enar - No Signal 2706 Leust - FRAMELESS 2806 Achim - APHANTASIA 2806 Bambino47 Alek500 - SKYLINE 2806 Benab - Drapeau Noir 2806 Cenza - 2997 - 2806 Chilla - 33 2806 Damys - D or D, vol. 2 - 2806 Enima - DZ DAMERIQUE Deluxe Edition 2806 Karmen - MOTEL STUDIO 2 2806 KR Malsain - Une nuit sans étoiles 2806 La Famax - La vie de généraux - 2806 LauCarré - Merci la vie pour les douleurs 2806 Lil Zamm - EUROTAPE 2806 Melan - Havana 2806 Michel - Les Orties 2806 Missan - Full Vision 2806 Mougli - Dans la jungle partie 2 2806 Myth Syzer - HARD 2806 Nono La Grinta - La Griiint 2806 Prototype - LA FÊTE DU SERPENT - 2806 Sasso - VICE CITY - 2806 Scylla - Ivresse des profondeurs 2806 Slim Lessio - La Grande Vie - 2806 St. Jimmy - Boulevard des Rêves Brisés - 2806 Wallace Cleaver - merci - 2806 Yvnnis - SCORE! 2806 Zequin - NTABASHII 2806 Zokush - Du jour au lendemain 3006 Di-Meh - OV3 - 3006 Ptite Soeur Gemroz - KAYFABE CHIMERA - 3006 Zeu - WATERGATE SCANDAL Juillet 0107 Worms-T - Wolf Gang - 0207 T.I.S Kaer MKS - 007 AM 0307 Anta - ANTAGONIS2TE - 0307 B.B. Jacques - Honeymoon - 0307 Mairo - 45 et rouge - 0307 Souffrance - Éléphant - 0507 Artistes divers - Nouvelle École Saison 3 Partie 1 0507 FAYV - MONÊRÊS 0507 Hache-P Kezo - Auto 0507 i300 - LA TRAP M'A SAUVÉ 0507 IPNDEGO - MORNINGSTAR 0507 ISS - Favori - 0507 KLM - JUSTE EN CRIME - 0507 Maxlinker - rose incident 0507 Mortalla - Boussole 0507 Nuev - DESTOCK - 0507 sheng - FCK SCHOOL 0507 Slkrack - La chance n'existe pas 0707 Blaz Pit - NO SKIP, Pt. 2 0907 Godson Anybxdy - LE SALON DES CONDAMNÉS 1007 ICY - RESET 1207 63OG - MPM 1207 ADÉS THE PLANET - UN TRÈS BEL ENTERREMENT - 1207 Artistes divers - Nouvelle École Saison 3 Partie 2 - 1207 Beendo Z - CONNU POUR EXTORSION - 1207 Carbonne - Par nous-mêmes 1207 Gambino - CAPSULE 1207 Hash24 - Trafic 1207 Hulk Van JMF - Je t'avais dit, non? 1207 ISK - Hannibal Part.1 1207 Kaeles - CLOUD NINE - 1207 Lamanif - Jean-Pierre 1207 La MG - ÉPILOGUE 1207 La Rvfleuze - EALS - 1207 Lazuli - Aphrodisiaque 1207 Liim's - Mentalité Baara 1207 Lord Esperanza - Atlas - 1207 mademoiselle lou - VIVRE 1207 MAPESS - VERSUS 1207 Sicario78 - L'instable 1207 YUNG POOR ALO - Un monde où ça va - 1307 baby hayabusa Neophron - Faded Flower Story - 1407 Deelee S - Saison chaude 1607 Deelay - Agoraphonie - 1707 Yovo - EQUUS 1907 Chaax - Kaïzen 1907 Fresh laDouille - Sang limite 1907 Gatchete - SEDNA - 1907 Guy2Bezbar - Maison Blanche 1907 JaySoCold - BODY THERAPY - 1907 Leto - Capitaine fait de l'art 1907 LEVELSANTANA - NONCHALANT - 1907 Maes - LA VIE CONTINUE 1907 Malko - SAHARA 1907 Nessbeal - Black Summer - 1907 Rémy - Après la pluie - 1907 Take A Mic - MINDS3T 2207 La Hasba22 - 75022 2507 Neop0p, Brodinski Modulaw - METANOÏA - 2607 Rizzy Wallace - R FRANCE 2607 SAF - SINAVOICE 2707 Lucci - Qu'une seule route - 3007 OG L'Enf - FAUX RÊVEUR Août 0108 LNK - SAISON 00 LES COEURS S'EMBRASENT 0208 BKRBABYBOY - LOVSZN 0208 Insa - Nuances de I - 0208 Jungle Jack - JUNGLE DES ILLUSIONS VOL 2 0208 Marla - NAISSANCE 0208 Mayo - Yoski 2 Golden Edition 0908 Ruff - PICON GRENADINE 1408 Le Jeune D - HIghland Vol. 1 - 1508 Ateyaba - ECSTATIC 1.5 - 1508 Zinera - Mr. Fastlife 1608 Durden - Le Rap avant T.A.L - 1608 Futur Bandit - POST-APO, vol.1 1608 Morphée - AVI - 1608 Parasit - NOUVEAU LABEL - 1608 Toothpick Guydelafonsdal - TOOTHPICKDELAFONSDAL - 2008 Strano - SDF MUSIK 2308 ARTR - Histoire de 2308 Cinco - PREACH SUMMER - 2308 baby hayabusa Neophron - Faded Flower Story Deluxe - 2308 T.I.S Lando - Citadine 2808 Bricksy 3g Lilguwop - Glowop Deluxe 2808 Moubarak - Tout Droit - 2908 Damso - VIEUX SONS 3008 Afro S - A.N.T 3008 DND - T3 sur soleil 3008 MALTY 2BZ - Solitaire - 3008 Primero - Plaine des Asphodèles Septembre 0109 Saiba - KAESTAR 480P - 0309 The Strangers - Rise Together Que ton mic repose en paix 0409 Chavi - no ref - 0409 JeanJass - Tous ces ongles rongés - 0509 Lucio Bukowski Tcheep - ASADACHI TAPE Vol. 4 - 0609 Deemax - TRASHTALK - 0609 Furlax - ASTRA NOVA - 0609 Jeune Foy - ONCE UPON A TIME - 0609 La Fève - BIGLAF 0609 La Hasba22 - 75022 0609 Raplume - FREESTYLES RAPLUME 2024 - 1309 A2H - ULTRA-SENSIBLE - 1309 ANTHA Jeune Ras - DU SANG SUR LES LÈVRES 1309 Brav - Café crève 1309 Dadi - TPLM 1309 GEPETOGANG - MobbTape Chapitre 1 - 1309 GIMS - LE NORD SE SOUVIENT - 1309 Giuseppe - 1ST PICK - 1309 HOUDI - LE DERNIER RAYON DE SOLEIL 1309 Lyre - MANTRA 1309 N3MS - LE BRUIT DES VAGUES 1309 Norsacce Berlusconi - Sacce Season Trailer 1309 Savage Toddy - Spécial 1309 Trankil Trankil - Surf School 1309 Triple Nine - Daytona - 1309 Yorssy - Road Trip - 1709 DollMoney MIXTAPE PALESTINE LIBRE DE LA MER AU JOURDAIN - 1809 T.I.S J.Crown - 008 PM 1909 Tisma - HAPPY DAYZ 2009 Allebou - L'esquive 2009 Ashéo - ALO deuxième appel - 2009 BARA8! Hitech - Ok Cool! - 2009 Chilla - 333 - 2009 COEURCO - UNRESTRICTED INTERNET ACCESS 2009 Dooz Kawa - Vol de Nuit - 2009 EDGE - JANVIER... 2009 Gringe - Hypersensible - 2009 Tiakola - BDLM VOL.1 2209 Zippo - Automne - 2709 Baby Neelou - Briller de fou - 2709 Chanje - Humain - 2709 Darlean - REBOOT 2709 Double Zulu Just Music Beats - Last Man Standing - 2709 FEDALL - RARE 2709 K.S.A - Energie Reloaded - 2709 Moha MMZ - La plage 2709 Savage Toddy - Né spécial - 2709 SDM - A LA VIE A LA MORT 2809 Caballero JeanJass - Zushiboyz, volume 4 Octobre 0210 Myth Syzer - HARD Deluxe 0310 Yassine Stein - LE SOL TREMBLE 0410 13 Organisé - 13 Organisé 2 - 0410 B.B. Jacques - BLACKBIRD 0410 Jwles - Bijoux 0410 Sensey' - Des rires et des pleurs - 0410 Serane - Prise Musique 3 0410 Souf - Sentiments - 0910 Good Bana - V-IVRE - 0910 Sadandsolo - FACTORY PRESET - 0910 Yovo - EQUUS FERUS 1110 AMK - 15 Vol.2 La polyvalence est un don 1110 Balafré - 40 ACRES 1 MULE - 1110 Godson Anybxdy - CASINO ROYAL II - 1110 James Loup - SOLEIL FROID 1110 JaySoCold - BLESSED 1110 LA HAINE - LA HAINE - 1110 Lovarran - Cascade 1110 Savage Toddy - Personne n'est spécial 1110 Seventiine - Apollo 17 1110 Todd - DBNA - 1410 shooda - Darkness Light - 1610 Teklam - Par ou on passe 1810 AnNie .Adaa - Là où le Soleil se Fait Rare - 1810 Django - paris, 31 août 1810 Ikaz Boi - BRUT4L 2LUXE - 1810 Jayel - Trend 1810 joysad - L'auteur de mes contes 1810 M87 - EMPRISE - 1810 MadeInParis - mourir peut attendre - 1810 MEL - MAISON VIII 1810 RK - DLPDA Extended Version 1810 Ry's - RAYON LASER 1810 Tetsuro - Ce qui compte vraiment - 1810 Werenoi - Pyramide 2 1910 Ashh - PPA - 2210 T.I.S Dysflow - Interférences 2410 34murphy - 8 PAGES 2410 Rsko - En chemin II 2510 Artistes divers - LA MAIN SUR LE CUR 2510 Bramsito - BIG MAN - 2510 Davodka - Héritage - 2510 Jeune Mort - DEMAIN EST ANNULÉ 2510 Julaï - Rapide et Dangereux 3 2510 Lycos - AUTUMN S97 - 2510 NeS - POUR 2 VRAI - 2510 Ninho Niska - GOAT 2510 PHÄNTOM - LA LUMIÈRE DANS L'OBSCURITÉ 2510 Saamou - Impact 2510 Sazamyzy - Dangereuse famille 2510 Sto - Time Out Vol.3 Novembre 0111 Ajna - GOLDMAKER 0111 Bluume - SPIRITS 0111 Diddi Trix - DOPE MUSIC 0111 DIL - MISANTHROPIE 0111 FXLL Tonio 8cho - TRASHTALK - 0111 GRËJ - ANTIPASTI - 0111 Hippocampe Fou - PRÉSENT 0111 Keeqaid Dafliky - PURIZÉ 0111 L'Animal Maté Beats - Dédales 0111 Malo - ARCTIC 0111 Many Santana - NO 0111 Prinzly - DUSK 0111 Theodora - BAD BOY LOVESTORY 0111 Zbig - Zanekkk 0811 Jolagreen23 - 99XP 0811 Le Juiice - NOUS ART Masterpiece 0811 Maydo - Maison Blanca 0811 Percy - RÉSILIENCE 0811 Ratu - Les miens avant les vôtres 1311 Zek - Localisable 1411 Remastered - SYMBIOSE 1511 Damso - J'ai menti 1511 Tyngaa - NSND 2 1511 Zeu - DOPPELGÄNGER 2211 Hatik - 1 2211 Keblack - FOCUS 2211 Yoshi Di Original - Deepa 2211 Yuri Online, Bricksy 3g - HUECO MUNDO 2911 Elh Kmer - Amaru 2911 Dinos - KINTSUGI 2911 Gazo - APOCALYPSE XX11 Huntrill - Nouvelle Trap 2 XX11 Steban - Mode Sport 2 XX11 Swift Guad Ol Zico - Orage Décembre 0612 LaCraps - Poussez-vous 0612 SCH - JVLIVS III Ad Finem 1312 Soprano - Émancipation XX12 Poupy - 4 XX12 Resell - Nouveau projet XX12 Solomando GRËJ - Jeune Basquiat Dates à confirmer 404Billy - SAMO 77 Degrés - 77 Degrés Alpha Wann - Deuxième album ASHE 22 - Nouveau projet Beeby - Nouveau projet Bigflo Oli - Cinquième album Chanceko - En roue libre 2 Cheu-B - BigSky Mixtape Deelee S - RED ALERT 3 Dioussa - Premier projet Dosseh - IKKI Duke Mobb - La cassette 2 F430 - Nouveau projet Gemen - Nouveau projet Genezio - BOUNCE MUSIC S2 Gradur - Projet Kongo H.LA DROGUE - Drogue 2 Ici c'est Paris - Ici c'est Paris J2LASTEU - RSF, pt. 2 Jeune Lion - RULE MI HEART Jeune Morty - Éponyme JOON - Premier projet JRK19 - Nouveau projet JuL - Nouvel album Kery James - Nouvel album Khali - Nouveau projet KronoMuzik - FREE KRONO Part 2 La Caution - Symétrie D'Argan LaCraps - Machine à écrire édition finale Laylow - Troisième album Le Croc - Blue Europe LEDOUBLE Guydelafonsdal - LEDOUBLEDELAFONSDAL L'Hexaler - Nouvel album Lucio Bukowski Mani Deïz - La Noblesse de l'Échec Vol. 2 Lucio Bukowski Oster Lapwass - TEPHRAS Lucio Bukowski Oster Lapwass - NI D.A NI MAÎTRE... Luni Sacks - Nouvel album Mahdi Ba - The Pirate Bay Mini Rttclan - Mini Lingé vol.2 M le Maudit - Nouveau projet Mvshy - EP No Limit - No Limit OBOY - OLYBOY Ormaz - Premier projet Recklessboise - H6 Resell - deuxième projet Rockin' Squat - 1520 Rounhaa - Nouveau projet Rousnam - World Tour Rozzy - Nouvel album So' - SAHARA VOL.3 So La Lune - Nouveau projet Stony Stone - Nouveau projet Swift Guad - Narvalo TK - Nouvel album TLZ Clan - Nouveau projet Ucyll - Nouveau projet Udeyfa - Authentique USKY - HADES Vald - Cinquième album Virgile - Deuxième projet Waïv - Nouvel album winnterzuko - Nouveau projet Yaya D - CityBoi3 Youri - Nouveau projet Zuukou Mayzie - Le film 19h193</t>
+          <t>Un texte, pas dsouci, jsuis paré pour tenvoyer ça Chez moi cest d'venu lusine avec la paye du RSA Jai limpression daimer ça, jsuis loin dêtre difficile Jviens d'là où on grandit seul, viens faire un tour et tu visites Lambiance, quest-ce quelle est belle, la France ! Jai millions dvues, ces trous dballe croient qujai une vie dpalace Et vas-y nique ta race, car il fallait bien quje lsorte Des rimes fortes, tais-toi non, cnest pas la rage que jporte Prose virale, dune attitude pirate Hein, fais voir ma ZUP elle ne fait pas dmiracle Grave, cest lchantier mais sans briques, des discrets aux indic Inscrits au Pôle Emploi en attendant un ptit SMIC Tout lmonde devant son stick, rien de fantastique Tout lmonde devient tendu, une forme de gymnastique De lherbe dans lplastique, argumente leurs articles Ici, cest chacun ses règles, cest pas une forme mais l'arbitre Du béton au bétail, lodeur dla maille à cBeckham Du ghetto à Guetta, cherche à remplir le basstam On a tous une vie à faire, regarde et valide Ya mes gars sur le terrain mais pas au Real de Madrid Fuck lÉtat, son équipe, leur couper lappétit Un peu oui un sale mollard dans leurs spaghettis Fini djouer, jai compris, j'ai mis d'côté le Rachid Cest Les Histoires, et si jreviens cest pour casser la machine Toujours en scred, si-si, et un message précis Jai des clips sans piscine qui tournent jusquen Sicile On se fait ptit mais si, jvous laisse en haut jacter Chacun ses griffes, dans cmétier, tu en verras gratter Rapper tue, te rend têtu, joues-tu un rôle battu ? Plus jtécoute et jen peux plus en pleine période récup À l'aise elle t'éduque et vas-y lâche loreille Lève-toi et montre leurs comment travaille lélève Fais ta vie et mêle toi seulement de c'qui te regarde Tu tomberas mais yaura personne comme Spiderman Fin dmois difficile, problème invisible Paye une facture mais demain tu en as dix qui arrivent Cest la vie et cest ainsi, mais près des étincelles Toujours les pieds sur Terre même quand je monte sur scène Si tas un truc, va lfaire, naie pas peur de la perte Tfaçon ya rien à gagner vas-y fonce tu vas perdre ! Non ya pas dracket, ni vendeurs de lamelles On connaît tous un gars qui veut le casting de La haine Le parking a 3amar et les discours pareils Avoir un flingue cest vicieux, mais est-ce que tirer cest malin ? Ten sais rien, cque tu prônes na rien dun message Et les seules fois qutu progresses, cest quand tu tes téléchargé La barre est surchargée et toutes tes notes sont fausses Pendant qutu tinventes une vie uniquement sur Firefox De 1, j'fais un boucan, de 2 jte souhaite de rien perdre Le 3 jle fais tout ltemps mais jnai jamais tué quelquun À 4 parce que ça date, chaque histoire a sa raison Ouais, grâce au hip-hop jai pas fondé une maison Maitre de cérémonie, artisan à chaque saison Jai sorti trois albums pour mille et une liaisons Le groupe, cest les Grandes Gueules et pourtant on aime le silence Big up à Pone et à la planète Mars</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Freestyle #2chezmoi soutien à la Fonky Family</t>
+          <t>Freestyle à TMAXX</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Un texte, pas dsouci, jsuis paré pour tenvoyer ça Chez moi cest d'venu lusine avec la paye du RSA Jai limpression daimer ça, jsuis loin dêtre difficile Jviens d'là où on grandit seul, viens faire un tour et tu visites Lambiance, quest-ce quelle est belle, la France ! Jai millions dvues, ces trous dballe croient qujai une vie dpalace Et vas-y nique ta race, car il fallait bien quje lsorte Des rimes fortes, tais-toi non, cnest pas la rage que jporte Prose virale, dune attitude pirate Hein, fais voir ma ZUP elle ne fait pas dmiracle Grave, cest lchantier mais sans briques, des discrets aux indic Inscrits au Pôle Emploi en attendant un ptit SMIC Tout lmonde devant son stick, rien de fantastique Tout lmonde devient tendu, une forme de gymnastique De lherbe dans lplastique, argumente leurs articles Ici, cest chacun ses règles, cest pas une forme mais l'arbitre Du béton au bétail, lodeur dla maille à cBeckham Du ghetto à Guetta, cherche à remplir le basstam On a tous une vie à faire, regarde et valide Ya mes gars sur le terrain mais pas au Real de Madrid Fuck lÉtat, son équipe, leur couper lappétit Un peu oui un sale mollard dans leurs spaghettis Fini djouer, jai compris, j'ai mis d'côté le Rachid Cest Les Histoires, et si jreviens cest pour casser la machine Toujours en scred, si-si, et un message précis Jai des clips sans piscine qui tournent jusquen Sicile On se fait ptit mais si, jvous laisse en haut jacter Chacun ses griffes, dans cmétier, tu en verras gratter Rapper tue, te rend têtu, joues-tu un rôle battu ? Plus jtécoute et jen peux plus en pleine période récup À l'aise elle t'éduque et vas-y lâche loreille Lève-toi et montre leurs comment travaille lélève Fais ta vie et mêle toi seulement de c'qui te regarde Tu tomberas mais yaura personne comme Spiderman Fin dmois difficile, problème invisible Paye une facture mais demain tu en as dix qui arrivent Cest la vie et cest ainsi, mais près des étincelles Toujours les pieds sur Terre même quand je monte sur scène Si tas un truc, va lfaire, naie pas peur de la perte Tfaçon ya rien à gagner vas-y fonce tu vas perdre ! Non ya pas dracket, ni vendeurs de lamelles On connaît tous un gars qui veut le casting de La haine Le parking a 3amar et les discours pareils Avoir un flingue cest vicieux, mais est-ce que tirer cest malin ? Ten sais rien, cque tu prônes na rien dun message Et les seules fois qutu progresses, cest quand tu tes téléchargé La barre est surchargée et toutes tes notes sont fausses Pendant qutu tinventes une vie uniquement sur Firefox De 1, j'fais un boucan, de 2 jte souhaite de rien perdre Le 3 jle fais tout ltemps mais jnai jamais tué quelquun À 4 parce que ça date, chaque histoire a sa raison Ouais, grâce au hip-hop jai pas fondé une maison Maitre de cérémonie, artisan à chaque saison Jai sorti trois albums pour mille et une liaisons Le groupe, cest les Grandes Gueules et pourtant on aime le silence Big up à Pone et à la planète Mars</t>
+          <t>Rachid ... Couzin sortie d'Sete D'origine marocaine aussi un domaine armisète? Profession grande gueule un dossier bien classé Une pute normalement on s'doit d'la dédicasser Ecrasé on saute ça on veut tous viser le mille Vas y regarde ces gamines qui veulent devenir Lauryn Hill Bref je marche seul tel que Rémi sans famille Ai pris un chemin vide ou y'a même plus d'compagnie J'morganise normal , seul ou accompagné En essayant d'rester lucide comme jordan sous l'panier On s'en fou d'gagner on l'souligne trou d'balle Le bon taff est mérité comme la paye a Drogba Les etapes se grillent pas , les raps rigolent pas Et les règles sont simple rien n'est servi sur un plat Ok , en premier plan ma gueule de l'emploi Et si personne est content ramené vous à trois Le rap est si important et produit des pop stars Tes lyrics racontent rien et ton faux style de Busta..Rhymes Pourquoi tu rales et rêve des U.S.A Leur nuit américaine subventionne Al-Quaida Tu paris gars de quoi on a capté l'imbecile Les Etats Unis charie et nous salut sur NBC Sale récit et beaucoup cherchent le boul à Stevie Quand trop se contentent d'un clip sur Trace TV Tu m'as suivi tu comprend à force de tourner en rond Les portes ouvertes aux blanc et fermées pour les marrons Eh ouais ouais les grandes gueules , et joue trop les fanfarons Continuer d'parler mariole j'te vois qu'deux fois par an Le rap à rien d'marrant y'a pas d'mec mortel Remballer le champagne et vos produits dans l'cocktail 2007 rien d'plus à part que la route est longue Ouais j'vis comme l'animal et m'confie a un zoologue Parfois trop monologue mefiant depuis petit Attention a ton shrab et même si il est gentil Fermé et souriant j'ai vu trop des positions Y'a trop d'mecs qui s'plaignent de s'voir en pôle position Vas y change ta potion j'crois bien qu'elle agit mal Arrete de taper la cc faire semblant dans le gymnase T'as vu l'image? Regarde va bloquer ton miroir Tu serais aussi dégouté qu'tu sortiras en peignoir Ok , Vas y pénard si t'aime pas les grandes gueules Allergique à ma couleur et qui n'aime pas les rappeurs Et si on en revenait , et si on leur apprenait On a prit l'bic normalement sans vouloir être premier Matte la rime ou je la met , très bien abritée On dira qu'ont aiment le noir et s'fou d'la célébrité Maitre de céremonie y'a qu'ça qui m'fascine Enlève tes Tony où tu rêves de t'mélanger à Mesrine1</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Freestyle à TMAXX</t>
+          <t>Freestyle chez STOEMP #5</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Rachid ... Couzin sortie d'Sete D'origine marocaine aussi un domaine armisète? Profession grande gueule un dossier bien classé Une pute normalement on s'doit d'la dédicasser Ecrasé on saute ça on veut tous viser le mille Vas y regarde ces gamines qui veulent devenir Lauryn Hill Bref je marche seul tel que Rémi sans famille Ai pris un chemin vide ou y'a même plus d'compagnie J'morganise normal , seul ou accompagné En essayant d'rester lucide comme jordan sous l'panier On s'en fou d'gagner on l'souligne trou d'balle Le bon taff est mérité comme la paye a Drogba Les etapes se grillent pas , les raps rigolent pas Et les règles sont simple rien n'est servi sur un plat Ok , en premier plan ma gueule de l'emploi Et si personne est content ramené vous à trois Le rap est si important et produit des pop stars Tes lyrics racontent rien et ton faux style de Busta..Rhymes Pourquoi tu rales et rêve des U.S.A Leur nuit américaine subventionne Al-Quaida Tu paris gars de quoi on a capté l'imbecile Les Etats Unis charie et nous salut sur NBC Sale récit et beaucoup cherchent le boul à Stevie Quand trop se contentent d'un clip sur Trace TV Tu m'as suivi tu comprend à force de tourner en rond Les portes ouvertes aux blanc et fermées pour les marrons Eh ouais ouais les grandes gueules , et joue trop les fanfarons Continuer d'parler mariole j'te vois qu'deux fois par an Le rap à rien d'marrant y'a pas d'mec mortel Remballer le champagne et vos produits dans l'cocktail 2007 rien d'plus à part que la route est longue Ouais j'vis comme l'animal et m'confie a un zoologue Parfois trop monologue mefiant depuis petit Attention a ton shrab et même si il est gentil Fermé et souriant j'ai vu trop des positions Y'a trop d'mecs qui s'plaignent de s'voir en pôle position Vas y change ta potion j'crois bien qu'elle agit mal Arrete de taper la cc faire semblant dans le gymnase T'as vu l'image? Regarde va bloquer ton miroir Tu serais aussi dégouté qu'tu sortiras en peignoir Ok , Vas y pénard si t'aime pas les grandes gueules Allergique à ma couleur et qui n'aime pas les rappeurs Et si on en revenait , et si on leur apprenait On a prit l'bic normalement sans vouloir être premier Matte la rime ou je la met , très bien abritée On dira qu'ont aiment le noir et s'fou d'la célébrité Maitre de céremonie y'a qu'ça qui m'fascine Enlève tes Tony où tu rêves de t'mélanger à Mesrine1</t>
+          <t>Freestyle numéro 5 Quest-ce quon sen tape ? Exact, quest-ce quon sen tape ? En ce moment, check le style Un remix bien de taille paré pour un freestyle Yo, cest quoi ce délire ? Yeah, toujours bien suivre entre mes lignes Dragon, nouvelle série, épisode encore inédit On est de sortie, quest-ce que ten dis ? Reste tranquille Ok, écoute ça, cest partit Quon oublie tout ici la terre, parait quon vise la lune Ma plume, elle va te faire planer avec ou sans thunes Un bic, ça sert, pas pour tes chèques ou ta signature Jhabite à Sète, demande à Fabe, cest pas New-York non plus Javance tranquille, comme être assis sur le dos dune tortue On sy fait aux histoires sans queues ni têtes Nos frères nont plus dchicots, deviennent des pirates comme Johnny Depp Compte la thune au millimètre, ça rapporte bien la semaine Ils nont pas peur de leur mère, seulement du bruit des sirènes Ma zique, jcompte sur elle, tes prié de partir avec Jai dépassé 30 level et jai pas changé de manette Écartez-moi tous ces reporters Jai pas la magie dHarry Potter Deux, le mental dHurricane Carter Trois, cest pour mes babtous et mes berbères Non mais quoi ? Cest quoi ce délire ? Chut, cest pour tous mes zonards de BX Aux frérots qui gèrent leur boutique Stop, cest juste un ptit remix, on sapplique Bic Up, Demi Portion Cest pour Stoemp, DéparOne, GiveMe5 Bruxelles, Sète</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Freestyle chez STOEMP #5</t>
+          <t>Freestyle Générations 17/03/2015</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Freestyle numéro 5 Quest-ce quon sen tape ? Exact, quest-ce quon sen tape ? En ce moment, check le style Un remix bien de taille paré pour un freestyle Yo, cest quoi ce délire ? Yeah, toujours bien suivre entre mes lignes Dragon, nouvelle série, épisode encore inédit On est de sortie, quest-ce que ten dis ? Reste tranquille Ok, écoute ça, cest partit Quon oublie tout ici la terre, parait quon vise la lune Ma plume, elle va te faire planer avec ou sans thunes Un bic, ça sert, pas pour tes chèques ou ta signature Jhabite à Sète, demande à Fabe, cest pas New-York non plus Javance tranquille, comme être assis sur le dos dune tortue On sy fait aux histoires sans queues ni têtes Nos frères nont plus dchicots, deviennent des pirates comme Johnny Depp Compte la thune au millimètre, ça rapporte bien la semaine Ils nont pas peur de leur mère, seulement du bruit des sirènes Ma zique, jcompte sur elle, tes prié de partir avec Jai dépassé 30 level et jai pas changé de manette Écartez-moi tous ces reporters Jai pas la magie dHarry Potter Deux, le mental dHurricane Carter Trois, cest pour mes babtous et mes berbères Non mais quoi ? Cest quoi ce délire ? Chut, cest pour tous mes zonards de BX Aux frérots qui gèrent leur boutique Stop, cest juste un ptit remix, on sapplique Bic Up, Demi Portion Cest pour Stoemp, DéparOne, GiveMe5 Bruxelles, Sète</t>
+          <t>C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Et cours, cours, j'irai d'la même allure en marchant C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant Demi débite, phénoménal, transformation de l'animal Laisse deux minutes, polyvalent, poli d'abord, demi galant Oh le gars là, oh les dégâts, écartez les gars, descendre de l'étage Et mettez des gants, et virez les 'tasses, et mettez du son, et ouvrez la cage T'as tué qui ? Personne j'me téléguide seul, garçon Petit bonhomme, vu l'blason chaque recette est fait maison Aucune raison, d'accord un Reason et un sandwich En bas de l'affiche, en bas de la fosse, on fait du rap et on s'en fiche Tu veux des rimes ? On a c'qu'il faut en grammes, on a l'kilo On coupe, découpe, grosses taffes, esclaffe, tout part du bon pilon J'arrive en balle dans l'continent à t'faire voler en sous-marin Pas besoin d'poli, juste un sample pour voir tout l'monde les mains en l'air On s'dépasse pas, reste à terre, reste tranquille, c'est l'bordel Entre parenthèses, un peu d'sem, chaque mesure devient mortelle Vas-y, venez voir et vous verrez, on travaille les jours fériés Chez nous, auteur-compositeur, j'attire les fans d'Léo Ferré C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant Demi Portion tape un p'tit passe-passe sur la touche mais vise la surface L'effet de surprise, big up à pour rester sur pause, une vida loca Cherche loccas, un peu d'audace, de faire des bêtises, on a passé lâge On sen fiche, un jour, tout sefface oui, cest Rachid, fais voir ton visage Oui, cest facile de parler trop mal non, cest rapide de faire des dommages Atterris, t'as niqué des collages pas d'coloriage, ne me colle pas de biatch Rien à lamiable, mate c'que je lâche j'me sers de ma bouche comme une arme Où j'me couche, toi, tu t'caches centre de menaces, j'toublie grave Oui, j'vis ça, loin des strasses pourquoi tu stresses ? Faut qu'tu saches Manque pas dadresse à chaque message oui, les mots blessent, mais qui est sage ? Na3din amouk, un coup d'schlass rentrer dans l'moule ça, faut pas Tout est fragile, y'a tout qui s'casse qui fait la tête, et qui sécrase Sorti de Sète, Lion d'lAtlas pas d'compét, jai pas l'temps pour ça La grosse tête te gâchait la face, eh oui, ça magace, c'est pas trop ma tasse Pendant qu'tu parles et bousilles le taf... C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant1</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Freestyle Générations 17/03/2015</t>
+          <t>Freestyle : Hier C’est Près</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Et cours, cours, j'irai d'la même allure en marchant C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant Demi débite, phénoménal, transformation de l'animal Laisse deux minutes, polyvalent, poli d'abord, demi galant Oh le gars là, oh les dégâts, écartez les gars, descendre de l'étage Et mettez des gants, et virez les 'tasses, et mettez du son, et ouvrez la cage T'as tué qui ? Personne j'me téléguide seul, garçon Petit bonhomme, vu l'blason chaque recette est fait maison Aucune raison, d'accord un Reason et un sandwich En bas de l'affiche, en bas de la fosse, on fait du rap et on s'en fiche Tu veux des rimes ? On a c'qu'il faut en grammes, on a l'kilo On coupe, découpe, grosses taffes, esclaffe, tout part du bon pilon J'arrive en balle dans l'continent à t'faire voler en sous-marin Pas besoin d'poli, juste un sample pour voir tout l'monde les mains en l'air On s'dépasse pas, reste à terre, reste tranquille, c'est l'bordel Entre parenthèses, un peu d'sem, chaque mesure devient mortelle Vas-y, venez voir et vous verrez, on travaille les jours fériés Chez nous, auteur-compositeur, j'attire les fans d'Léo Ferré C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant Demi Portion tape un p'tit passe-passe sur la touche mais vise la surface L'effet de surprise, big up à pour rester sur pause, une vida loca Cherche loccas, un peu d'audace, de faire des bêtises, on a passé lâge On sen fiche, un jour, tout sefface oui, cest Rachid, fais voir ton visage Oui, cest facile de parler trop mal non, cest rapide de faire des dommages Atterris, t'as niqué des collages pas d'coloriage, ne me colle pas de biatch Rien à lamiable, mate c'que je lâche j'me sers de ma bouche comme une arme Où j'me couche, toi, tu t'caches centre de menaces, j'toublie grave Oui, j'vis ça, loin des strasses pourquoi tu stresses ? Faut qu'tu saches Manque pas dadresse à chaque message oui, les mots blessent, mais qui est sage ? Na3din amouk, un coup d'schlass rentrer dans l'moule ça, faut pas Tout est fragile, y'a tout qui s'casse qui fait la tête, et qui sécrase Sorti de Sète, Lion d'lAtlas pas d'compét, jai pas l'temps pour ça La grosse tête te gâchait la face, eh oui, ça magace, c'est pas trop ma tasse Pendant qu'tu parles et bousilles le taf... C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant C'est bon, allume ta cam', on va t'montrer un freestyle On ne peut pas plaire à tout l'monde, et c'est d'bonne guerre amicale Banal, moi, j'fais du rap, j'm'en tape de ton argent Cours, cours, j'irai d'la même allure en marchant1</t>
+          <t>Tu reconnais l'instru' ? D, parce que demain c'est loin et qu'Demi arrive à temps Dédicace à Shurik'n et son instru d'il y a 20 ans 20 ans aujourd'hui passé, fini l'époque de Passi Maintenant c'est XXX ou bien la drogue du Brasil Brasil, blazé les petits veulent la classe et Préfèrent vendre de la drogue, fourrer son nez dans la C À les mêmes enfin toujours les mêmes, les mêmes Qui parlent des mêmes pistonnés par les mêmes Leurs Maires et leurs murs on les voit qu'aux élections Et la nouvelle promesse sera une nouvelle décollation Jeffrey ici ça chauffe à te faire cramer les glaçons Et j'connais pleins d'enfants qui n'ont jamais vu une attraction Le système corrompu, lexcrément mieux vendu Nan il n'y a pas qu'sur papier qu'on a vu des corps pendus Pendule, la pendule et les aiguilles sont perdues Même en changeant les piles du temps on s'en rappelle plus Rappelle plus rappais tu comme les photos sur le paquet Fume avant qu'la vie ne te fume et termine pas éclaté À claquer ta grosse thune, frérot tout ça ne dure pas Arrête t'es pas dans le futur t'es tout simplement en retard Hors taxe bâtard combien cherchèrent Combien ne savent pas nager ont plongé dans la Le bédo les pétards oui chez toi c'est chez moi On apprend à ne plus dormir comme l'épicier d'un Chinois combien rêvent de cette vie là Zoné en ville on vola on cambriolais la villa Posé sur le net rien d'autre à faire, lache un commentaire On cherche le profil qui fera l'affaire À la fin c'est l'enfer, au début ça rend fier Quand une famille se sépare c'est pas tout les jours la fête Billave, décès jusqu'à relâcher l'volant Les risques les excès un casier d'ex taulard On tolère, le temps passe demande à Mc Solaar L'art a tellement changé depuis la Macarena Aux armes j'tire l'alarme dans les clips il y en a d'jà trop Les bandits ne rappent pas frère, eux ils achètent des tableaux</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Freestyle : Hier C’est Près</t>
+          <t>Freestyle La Brique</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Tu reconnais l'instru' ? D, parce que demain c'est loin et qu'Demi arrive à temps Dédicace à Shurik'n et son instru d'il y a 20 ans 20 ans aujourd'hui passé, fini l'époque de Passi Maintenant c'est XXX ou bien la drogue du Brasil Brasil, blazé les petits veulent la classe et Préfèrent vendre de la drogue, fourrer son nez dans la C À les mêmes enfin toujours les mêmes, les mêmes Qui parlent des mêmes pistonnés par les mêmes Leurs Maires et leurs murs on les voit qu'aux élections Et la nouvelle promesse sera une nouvelle décollation Jeffrey ici ça chauffe à te faire cramer les glaçons Et j'connais pleins d'enfants qui n'ont jamais vu une attraction Le système corrompu, lexcrément mieux vendu Nan il n'y a pas qu'sur papier qu'on a vu des corps pendus Pendule, la pendule et les aiguilles sont perdues Même en changeant les piles du temps on s'en rappelle plus Rappelle plus rappais tu comme les photos sur le paquet Fume avant qu'la vie ne te fume et termine pas éclaté À claquer ta grosse thune, frérot tout ça ne dure pas Arrête t'es pas dans le futur t'es tout simplement en retard Hors taxe bâtard combien cherchèrent Combien ne savent pas nager ont plongé dans la Le bédo les pétards oui chez toi c'est chez moi On apprend à ne plus dormir comme l'épicier d'un Chinois combien rêvent de cette vie là Zoné en ville on vola on cambriolais la villa Posé sur le net rien d'autre à faire, lache un commentaire On cherche le profil qui fera l'affaire À la fin c'est l'enfer, au début ça rend fier Quand une famille se sépare c'est pas tout les jours la fête Billave, décès jusqu'à relâcher l'volant Les risques les excès un casier d'ex taulard On tolère, le temps passe demande à Mc Solaar L'art a tellement changé depuis la Macarena Aux armes j'tire l'alarme dans les clips il y en a d'jà trop Les bandits ne rappent pas frère, eux ils achètent des tableaux</t>
+          <t>C'est dans la merde que mes gars nagent V'là une équipe qui rappe en décalage Une prod et c'est l'carnage Sur le beat c'est D.A.V.O.D.K.A Marre du rap actuel, à la première écoute c'est la barbe Leurs discours sont rasoirs, nous, quand on débarque tout est au poil Quand ça fait mal, me demande pas qu'est-ce qui m'arrive Les seuls fois où ça gaze dans mon quartier, c'est quand y a des manifs Dans l'ombre s'agite, y a rien de magique, la haine de ma clique Est symptomatique, on revendique la force de nos Bic Y a pas de comics, des phases toniques quand la rage domine J't'l'accorde, à bas les porcs, c'est la devise Paris 18, frappe fort, casse les portes, éclate le beat J'aime les risques, car dans ma vie C'est pas la peine et surtout pas la joie J'fais de la rime rapide qui dépasse les frontières Et qui casse les barrages de la douane Fidèle à moi, j'file pas droit Combine le texte, le flow et la voix J'mets là, la gouache, fais gaffe à toi J'nique les lois d'une justice à la noix Faire d'la prison, c'est beau ! mais la plupart s'sont trompés d'voie Faire la taule, c'est la tuile, mais y a pas d'quoi le crier sur tous les toits J'entame la vibe, savate la bass Nous gonfle pas on te monte en l'air Normal mes phases te crachent du plomb dans l'tronc et non dans l'aile Si j'parle que d'mon chibre C'est qu'c'est mon atout schneck T'inquiète cousine tu vas prendre cher Tout comme la Schtroumphette Hé j'suis pas le roi Heenok yo Mais t'entends j'plie la prod Ça s'passe sans gants si j't'ammoche Tu finis sans dents si tapproches J'suis d'ceux qui font qu's'enjailler Et bafouer les études Ton rap est un torrent de diarrhée Alors arrête de jouer les durs J'emmerde ta clique si tu fais trop le frimeur mes gars te terminent et ouais Trop déter' tel un chauffeur-livreur d'chez Star's Service Yo, je kick trop sale le beat j'le mac Mes rimes te baffent te fistera T'hérissent le poil Évite de clash j'debite trop grave flow pictogramme Allez remballe, j'suis plus crédible, que ta Master Card Mes phases catapultent comme la première latte d'un kamas de frappe T'as beau chafrav' ton rap Restera à vie zinda Cousin moi j'aime pas le foot, pourtant j'ai un zizi dâne Hé ouais ma ville je la connais par cur Comme les parquets de la drogue Et j'ai de quoi l'haïr et de quoi en être accro La vie est faite de choix J'ai marié le fond et la forme Et ma prose relate mon parcours à coup de métaphores hip-hop J'me vois mal sombrer dans la monotonie J'ai mes propres limites et j'me fous bien d'ce que le code m'autorise Quand je pilote ma Toyota aux cotés d'mon pote Oli Un prototype au micro de ma commune cosmopolite J'ai vu la cour des miracles synonyme de zone à risque L'amour propre salit comme de faire sa maille Les femmes trop naïves feront le bonheur des hommes de la nuit Ou de la famille Mc Do qui nous escroque de père en fils L'époque des drogues douces est dure Et des dealers en masse Pour un tox' de perdu y en a dix qui le remplacent Tu peux leur donner tout ce que t'aime mais ne crois pas qu'on te le rendra Pour ma part je grave mon blase sur les gravats de mes rents-pa Il fallait qu'on partage ce titre, un peu comme nos meilleurs plats Un honneur d'avoir ces types, de donner la force aux petits gars Une chaise pour deux, rassis-toi, le voyage risque d'être long Fais comme chez toi j'te rassure, y'a tout c'qu'il faut dans l'salon J'ai commencé par passion, sans vouloir prendre l'ascenseur Apprendre mes leçons chaque soir, un peu comme un enfant seul Mes rimes sont mes défenseurs, mon art mon professeur Si aujourd'hui on s'en sort c'est p't-être grâce aux prédécesseurs Demi Portion c'est mon blaze t'as vu c'est déjà partagé Donner, toujours donner, c'est un peu c'qu'on a envisagé Copier, toujours coller, ça buggue toujours à c'qu'il paraît Moi j'ai préféré durer que prendre le mauvais train sans arrêt Ici on en a marre les femmes et les maris se plaignent Imagine Ben-Laden face à Marine Le Pen Chez nous c'est trop la zone ça sent la floraison Ils préfèrent quand je suis rasé M'suggèrent le chorizo Oh j'm'exprime, à l'écrit à l'oral, j'fais face au rap Pour être un dissident j'attendrai pas Soral Oh fais place aux khey On s'en cogne des vieux paumés Ça fait long time qu'on nous boycotte comme Dieudonné Hé, joue pas l'étonné Nan, dis pas qu't'as pas vu ça Détournement de fonds fondé par Cahuzac Y a pas que la rue qui craque Regarde Jean Luc Delarue Hé oui, qui aurait cru Y a pas que les qui tapent ! Au... au volant de ma vie j'm'en fout d'c'que dit Hollande Ici c'est violent quand on entend sa virologue La trilogique, loin d'être illogique Hé j'suis là et j'bougerai pas J'ai pas gé-chan depuis l'départ J'viens pas te ter-chant, m'confondez pas J'suis pas méchant mais bon j'sais pas Les condés parlent, le monde est barge Le bide reste vide comme le compte épargne Et comptez pas sur moi pour dire d'la merde La vie de ma mère J'rappe pas pour faire le deuil Mon père est dead J'ai toujours pas fais le deuil J'sais pas c'qui m'arrive, j'ai pété les plombs J'voulais être carré comme Bob mais j'ai jeté l'éponge Trop d'questions et peu de réponses Trop d'pression, mes ondes dérangent Les gens te kiffent quand ça les arrange J'écris avec la rage et j'm'en fout si ça te dérange j'm'en fout si ça te dérange La trilogique, 7-5, tournez, frère Plus près de la mort que de la trentaine Une soirée de plus passée sur ma feuille à refaire le monde Et merde, j'aurai tout le temps d'le faire dans mon cercueil J'suis pas une star, t'façons j'ai même pas des loves Y a des cs-me qui t'plantent dans le dos et en face te demandent des tofs Mais le monde étouffe et ça d'vient trop grave Dès la première faut que je rétrograde J'emmerde les péteux les aristocrates Moi j'veux rapper, rapper, rapper encore On va tout faire péter, comme les mafieux en Corse Disiz, à trop entendre parler de tournées au tout début On était rien mais les p'tits jeunes vous ont choqué Non non c'est pas d'la prétention J'remets les choses à leur place Comme Yousseph j'emmerde tout ceux qui disaient qu'on avait pas l'âge et Dieu sait que c'était pas facile Entre la tise et les cônes On a du se serrer les coudes pour pas sombrer dans l'vice J'les entends se plaindre, de leur vie pourtant simple Génération XX, pas b'soin d'faire un dessin Mais il est temps d'te poser gamin Car les lovés ça pue Si j'arrive à faire que d'la merde même avec de l'or dans les mains J'les vois tous faire du rap, ça d'vient un effet d'mode Moi j'ai pas attendu Gradur pour porter mon Bob On est bel et bien là Toujours à squatter dans les bons plans J'laisse que des cadavres Après mon passage y a plus de bon temps Tu connais pas le F bon sang Toujours conscient quand je me concentre Depuis qu'les watts me sucent la... J'ai la bite en sang J'les laisse en transe, enclenche le beat J'veux même pas que les gens dansent J'veux même pas les entendre En fait j'suis comme un canon sur leur tempe 1-4 on est là ou pas ? J'veux faire du cash comme à Dubaï Donc faire du rap en guise de bra-bra-bra Tu connais l'équipe donc vaut mieux rester poli fils La police vise nos têtes Même sans brolic on reste incorrigibles Plus rien n'm'étonne depuis qu'y a même des pédés dans la politique Trop on nous a promis l'fric Donc tends l'oreille que j'te fasse un aurifique Le genre de type que personne nhorrifie Perso j'reste official J'suis fiché depuis p'tit On est là ou pas ? Tu connais l'Or du Commun, tu connais Roméo Elvis Qu'est-ce qui t'a fait dire qu'on était différent des autres MCs ? Qui t'a dit qu'on était pas tes copains ? On aime le monde entier à part les drogués prétentieux Et les connards de provinces En fait, les drogués tout court mais ça ne rimait pas Les artistes se salissent, se trouvent cools et parfois trop bien Écoute mes cools musiques et mes douces paroles Un jour de blues planqué dans de ta ville Les vrais reconnaissent l'addiction J'ai passé tout l'hiver enfermé dans une prison logée dans ma tête Pour faire germer des textes et des thèmes intéressants Mais je déteste rester zen trop longtemps Il est vrai que Vis-El est un bosse tard, à défaut d'être gracié Il amasse quelques dollars mais va repartir à pied Comme la plupart de ses potes students Un peu de sous mais pas le job du siècle Ni de quoi se propulser Il est dit qu'on doit se faire des copains Voudrais-tu être mon copain ? Aucun ennemi dans le game mais j'ai pas que des copains Y a des suceurs comme diraient les grossiers merles Et des dossiers traînent et ça forme des rumeurs Moi je veux le pulpeux, le minéral Une vie sans pubs, des études présidentielles Sans payer le minerval Gratter des rimes et les rapper voilà c'qui m'a sauvé d'la solitude J'suis au volant d'ma vie, faut pas que j'dérape et que la folie m'tue J'veux pas qu'mon père s'énerve alors dites-lui qu'l'amour des mots Me pousse à la fois à parler d'mon malheur et d'celui des autres Ça m'démange, trop d'ordures veulent m'brûler les ailes Ça m'dérange, frère, l'argent veut briser mes rêves Et il est là l'problème on rêve de vivre de belles histoires Mais la colombe s'est faite plumer un vendredi soir Alors j'suis là, à rêvasser, la tête dans les étoiles Seul sur ma planète, j'entends ma tête me dire Ressaisis-toi ! Car j'ai pas l'droit d'baisser les bras et d'perdre le nord Alors je prie, quand j'vois toute la merde qui erre dehors Allez leur dire, j'ai d'l'ambition à revendre Mais j'suis qu'un fou qui rappe en douze syllabes tout c'qu'il a dans l'ventre C'est bien plus qu'un rêve de gosse et, ça, les vrais l'savent L'écriture avant l'rap et l'kiff avant l'message On envoie l'flow vodka-redbull, la plume en main on n'm'arrête plus T'as voulu salir ma réput mais j'rappais déjà à l'arrêt d'bus J'ai fais mon trou tout seul en scred et maintenant j'suis là qu'est-ce t'as mec ? J'lâche des phases en espagnol j'suis pas venu faire des castagnettes Leurs discours ça casse la tête, ouais cousin chacun sa perte Ils disent tous qu'on est soudé mais finalement chacun sa merde Mon seul passe temps c'est d'gratter les pages, bloqué en bas j'ai râté l'étage Oreille et les phases, t'as capté l'image, faites attention à l'atterrissage Un monde de barges ! Et pourtant moi j'ai des tonnes d'idées J'expose ma boîte à musique pour tout mon comité C'est pas fini XXX après minuit Pire qu'un zombie j'lâche mes récits A mes XXX c'est pas permis Tout l'monde s'en fou ça pense qu'à baise des tass Et ça s'trahit entre frères pour quelques pesetas Melfiano le ciel des zéros dans ma plume J'débarque ni vu ni connu et puis j'disparais dans la brume Quand j'arrive à raviver mes rêves, je revois Nos rires avant qu'on vire vers un ravin D'où peu revinrent, on a viré de bord D'abord de bar en bar et de barrettes en barrettes Tous parés pour être des barons, on s'bagarre pour un regard, une Marlboro C'est aberrant, si t'as l'bon rôle, c'est toi l'baron Il faut être cérébral ou nombreux Si t'as que tes bras, là, t'es mal barré On frime mais, quand les coups pleuvent, on va sabriter De la déprime dans notre état d'ébriété Tes yeux brillent et tu brûles un autre bout marron Mer-fu, c'est bien marrant mais fais gaffe à l'effet boomerang Rouiller en bas me rend gue-din', me rend dingue Rien que d'en parler, mon rap s'déglingue La rue, c'est pas qu'des strings, des gring, des glings des... J'en perds mon latin Toi même tu sais, on n'est pas là pour baratiner Pourquoi tu baragouines ? Tu fais plus de bordel pour rien que d'orgies dans un bar à gouines1</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Freestyle La Brique</t>
+          <t>Freestyle : Lettre Au Président</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>C'est dans la merde que mes gars nagent V'là une équipe qui rappe en décalage Une prod et c'est l'carnage Sur le beat c'est D.A.V.O.D.K.A Marre du rap actuel, à la première écoute c'est la barbe Leurs discours sont rasoirs, nous, quand on débarque tout est au poil Quand ça fait mal, me demande pas qu'est-ce qui m'arrive Les seuls fois où ça gaze dans mon quartier, c'est quand y a des manifs Dans l'ombre s'agite, y a rien de magique, la haine de ma clique Est symptomatique, on revendique la force de nos Bic Y a pas de comics, des phases toniques quand la rage domine J't'l'accorde, à bas les porcs, c'est la devise Paris 18, frappe fort, casse les portes, éclate le beat J'aime les risques, car dans ma vie C'est pas la peine et surtout pas la joie J'fais de la rime rapide qui dépasse les frontières Et qui casse les barrages de la douane Fidèle à moi, j'file pas droit Combine le texte, le flow et la voix J'mets là, la gouache, fais gaffe à toi J'nique les lois d'une justice à la noix Faire d'la prison, c'est beau ! mais la plupart s'sont trompés d'voie Faire la taule, c'est la tuile, mais y a pas d'quoi le crier sur tous les toits J'entame la vibe, savate la bass Nous gonfle pas on te monte en l'air Normal mes phases te crachent du plomb dans l'tronc et non dans l'aile Si j'parle que d'mon chibre C'est qu'c'est mon atout schneck T'inquiète cousine tu vas prendre cher Tout comme la Schtroumphette Hé j'suis pas le roi Heenok yo Mais t'entends j'plie la prod Ça s'passe sans gants si j't'ammoche Tu finis sans dents si tapproches J'suis d'ceux qui font qu's'enjailler Et bafouer les études Ton rap est un torrent de diarrhée Alors arrête de jouer les durs J'emmerde ta clique si tu fais trop le frimeur mes gars te terminent et ouais Trop déter' tel un chauffeur-livreur d'chez Star's Service Yo, je kick trop sale le beat j'le mac Mes rimes te baffent te fistera T'hérissent le poil Évite de clash j'debite trop grave flow pictogramme Allez remballe, j'suis plus crédible, que ta Master Card Mes phases catapultent comme la première latte d'un kamas de frappe T'as beau chafrav' ton rap Restera à vie zinda Cousin moi j'aime pas le foot, pourtant j'ai un zizi dâne Hé ouais ma ville je la connais par cur Comme les parquets de la drogue Et j'ai de quoi l'haïr et de quoi en être accro La vie est faite de choix J'ai marié le fond et la forme Et ma prose relate mon parcours à coup de métaphores hip-hop J'me vois mal sombrer dans la monotonie J'ai mes propres limites et j'me fous bien d'ce que le code m'autorise Quand je pilote ma Toyota aux cotés d'mon pote Oli Un prototype au micro de ma commune cosmopolite J'ai vu la cour des miracles synonyme de zone à risque L'amour propre salit comme de faire sa maille Les femmes trop naïves feront le bonheur des hommes de la nuit Ou de la famille Mc Do qui nous escroque de père en fils L'époque des drogues douces est dure Et des dealers en masse Pour un tox' de perdu y en a dix qui le remplacent Tu peux leur donner tout ce que t'aime mais ne crois pas qu'on te le rendra Pour ma part je grave mon blase sur les gravats de mes rents-pa Il fallait qu'on partage ce titre, un peu comme nos meilleurs plats Un honneur d'avoir ces types, de donner la force aux petits gars Une chaise pour deux, rassis-toi, le voyage risque d'être long Fais comme chez toi j'te rassure, y'a tout c'qu'il faut dans l'salon J'ai commencé par passion, sans vouloir prendre l'ascenseur Apprendre mes leçons chaque soir, un peu comme un enfant seul Mes rimes sont mes défenseurs, mon art mon professeur Si aujourd'hui on s'en sort c'est p't-être grâce aux prédécesseurs Demi Portion c'est mon blaze t'as vu c'est déjà partagé Donner, toujours donner, c'est un peu c'qu'on a envisagé Copier, toujours coller, ça buggue toujours à c'qu'il paraît Moi j'ai préféré durer que prendre le mauvais train sans arrêt Ici on en a marre les femmes et les maris se plaignent Imagine Ben-Laden face à Marine Le Pen Chez nous c'est trop la zone ça sent la floraison Ils préfèrent quand je suis rasé M'suggèrent le chorizo Oh j'm'exprime, à l'écrit à l'oral, j'fais face au rap Pour être un dissident j'attendrai pas Soral Oh fais place aux khey On s'en cogne des vieux paumés Ça fait long time qu'on nous boycotte comme Dieudonné Hé, joue pas l'étonné Nan, dis pas qu't'as pas vu ça Détournement de fonds fondé par Cahuzac Y a pas que la rue qui craque Regarde Jean Luc Delarue Hé oui, qui aurait cru Y a pas que les qui tapent ! Au... au volant de ma vie j'm'en fout d'c'que dit Hollande Ici c'est violent quand on entend sa virologue La trilogique, loin d'être illogique Hé j'suis là et j'bougerai pas J'ai pas gé-chan depuis l'départ J'viens pas te ter-chant, m'confondez pas J'suis pas méchant mais bon j'sais pas Les condés parlent, le monde est barge Le bide reste vide comme le compte épargne Et comptez pas sur moi pour dire d'la merde La vie de ma mère J'rappe pas pour faire le deuil Mon père est dead J'ai toujours pas fais le deuil J'sais pas c'qui m'arrive, j'ai pété les plombs J'voulais être carré comme Bob mais j'ai jeté l'éponge Trop d'questions et peu de réponses Trop d'pression, mes ondes dérangent Les gens te kiffent quand ça les arrange J'écris avec la rage et j'm'en fout si ça te dérange j'm'en fout si ça te dérange La trilogique, 7-5, tournez, frère Plus près de la mort que de la trentaine Une soirée de plus passée sur ma feuille à refaire le monde Et merde, j'aurai tout le temps d'le faire dans mon cercueil J'suis pas une star, t'façons j'ai même pas des loves Y a des cs-me qui t'plantent dans le dos et en face te demandent des tofs Mais le monde étouffe et ça d'vient trop grave Dès la première faut que je rétrograde J'emmerde les péteux les aristocrates Moi j'veux rapper, rapper, rapper encore On va tout faire péter, comme les mafieux en Corse Disiz, à trop entendre parler de tournées au tout début On était rien mais les p'tits jeunes vous ont choqué Non non c'est pas d'la prétention J'remets les choses à leur place Comme Yousseph j'emmerde tout ceux qui disaient qu'on avait pas l'âge et Dieu sait que c'était pas facile Entre la tise et les cônes On a du se serrer les coudes pour pas sombrer dans l'vice J'les entends se plaindre, de leur vie pourtant simple Génération XX, pas b'soin d'faire un dessin Mais il est temps d'te poser gamin Car les lovés ça pue Si j'arrive à faire que d'la merde même avec de l'or dans les mains J'les vois tous faire du rap, ça d'vient un effet d'mode Moi j'ai pas attendu Gradur pour porter mon Bob On est bel et bien là Toujours à squatter dans les bons plans J'laisse que des cadavres Après mon passage y a plus de bon temps Tu connais pas le F bon sang Toujours conscient quand je me concentre Depuis qu'les watts me sucent la... J'ai la bite en sang J'les laisse en transe, enclenche le beat J'veux même pas que les gens dansent J'veux même pas les entendre En fait j'suis comme un canon sur leur tempe 1-4 on est là ou pas ? J'veux faire du cash comme à Dubaï Donc faire du rap en guise de bra-bra-bra Tu connais l'équipe donc vaut mieux rester poli fils La police vise nos têtes Même sans brolic on reste incorrigibles Plus rien n'm'étonne depuis qu'y a même des pédés dans la politique Trop on nous a promis l'fric Donc tends l'oreille que j'te fasse un aurifique Le genre de type que personne nhorrifie Perso j'reste official J'suis fiché depuis p'tit On est là ou pas ? Tu connais l'Or du Commun, tu connais Roméo Elvis Qu'est-ce qui t'a fait dire qu'on était différent des autres MCs ? Qui t'a dit qu'on était pas tes copains ? On aime le monde entier à part les drogués prétentieux Et les connards de provinces En fait, les drogués tout court mais ça ne rimait pas Les artistes se salissent, se trouvent cools et parfois trop bien Écoute mes cools musiques et mes douces paroles Un jour de blues planqué dans de ta ville Les vrais reconnaissent l'addiction J'ai passé tout l'hiver enfermé dans une prison logée dans ma tête Pour faire germer des textes et des thèmes intéressants Mais je déteste rester zen trop longtemps Il est vrai que Vis-El est un bosse tard, à défaut d'être gracié Il amasse quelques dollars mais va repartir à pied Comme la plupart de ses potes students Un peu de sous mais pas le job du siècle Ni de quoi se propulser Il est dit qu'on doit se faire des copains Voudrais-tu être mon copain ? Aucun ennemi dans le game mais j'ai pas que des copains Y a des suceurs comme diraient les grossiers merles Et des dossiers traînent et ça forme des rumeurs Moi je veux le pulpeux, le minéral Une vie sans pubs, des études présidentielles Sans payer le minerval Gratter des rimes et les rapper voilà c'qui m'a sauvé d'la solitude J'suis au volant d'ma vie, faut pas que j'dérape et que la folie m'tue J'veux pas qu'mon père s'énerve alors dites-lui qu'l'amour des mots Me pousse à la fois à parler d'mon malheur et d'celui des autres Ça m'démange, trop d'ordures veulent m'brûler les ailes Ça m'dérange, frère, l'argent veut briser mes rêves Et il est là l'problème on rêve de vivre de belles histoires Mais la colombe s'est faite plumer un vendredi soir Alors j'suis là, à rêvasser, la tête dans les étoiles Seul sur ma planète, j'entends ma tête me dire Ressaisis-toi ! Car j'ai pas l'droit d'baisser les bras et d'perdre le nord Alors je prie, quand j'vois toute la merde qui erre dehors Allez leur dire, j'ai d'l'ambition à revendre Mais j'suis qu'un fou qui rappe en douze syllabes tout c'qu'il a dans l'ventre C'est bien plus qu'un rêve de gosse et, ça, les vrais l'savent L'écriture avant l'rap et l'kiff avant l'message On envoie l'flow vodka-redbull, la plume en main on n'm'arrête plus T'as voulu salir ma réput mais j'rappais déjà à l'arrêt d'bus J'ai fais mon trou tout seul en scred et maintenant j'suis là qu'est-ce t'as mec ? J'lâche des phases en espagnol j'suis pas venu faire des castagnettes Leurs discours ça casse la tête, ouais cousin chacun sa perte Ils disent tous qu'on est soudé mais finalement chacun sa merde Mon seul passe temps c'est d'gratter les pages, bloqué en bas j'ai râté l'étage Oreille et les phases, t'as capté l'image, faites attention à l'atterrissage Un monde de barges ! Et pourtant moi j'ai des tonnes d'idées J'expose ma boîte à musique pour tout mon comité C'est pas fini XXX après minuit Pire qu'un zombie j'lâche mes récits A mes XXX c'est pas permis Tout l'monde s'en fou ça pense qu'à baise des tass Et ça s'trahit entre frères pour quelques pesetas Melfiano le ciel des zéros dans ma plume J'débarque ni vu ni connu et puis j'disparais dans la brume Quand j'arrive à raviver mes rêves, je revois Nos rires avant qu'on vire vers un ravin D'où peu revinrent, on a viré de bord D'abord de bar en bar et de barrettes en barrettes Tous parés pour être des barons, on s'bagarre pour un regard, une Marlboro C'est aberrant, si t'as l'bon rôle, c'est toi l'baron Il faut être cérébral ou nombreux Si t'as que tes bras, là, t'es mal barré On frime mais, quand les coups pleuvent, on va sabriter De la déprime dans notre état d'ébriété Tes yeux brillent et tu brûles un autre bout marron Mer-fu, c'est bien marrant mais fais gaffe à l'effet boomerang Rouiller en bas me rend gue-din', me rend dingue Rien que d'en parler, mon rap s'déglingue La rue, c'est pas qu'des strings, des gring, des glings des... J'en perds mon latin Toi même tu sais, on n'est pas là pour baratiner Pourquoi tu baragouines ? Tu fais plus de bordel pour rien que d'orgies dans un bar à gouines1</t>
+          <t>Monsieur le Président, une lettre tout simplement Monsieur le Président désolé cette fois j'ai pas le temps Le changement c'est quoi, c'est quand Ça fait 10 ans qu'on attend J'essaie de vous écrire, ce texte ne sera qu'pour vous Je n'veux servir de modèle juste un Monsieur le Président, je viens parler pour toute une jeunesse En parlant du principal, j'fume et j'reste honnête Rap et reste correct, un dicton bien placé Qui ne se plante jamais non, n'a aucune chance de poussé Chez nous c'est légalisé faudrait dépénaliser Si j'étais le Président j'enfumerais lÉlysée J'vous changerais les musées je changerais Disneyland J'ai appris avec ton nom, on s'amuse mieux en Hollande François salut, sur ce coup c'est freestyle Sans vous manquer de respect j'vais arroser Marie-Jeanne</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Freestyle : Lettre Au Président</t>
+          <t>Freestyle One Shot</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Monsieur le Président, une lettre tout simplement Monsieur le Président désolé cette fois j'ai pas le temps Le changement c'est quoi, c'est quand Ça fait 10 ans qu'on attend J'essaie de vous écrire, ce texte ne sera qu'pour vous Je n'veux servir de modèle juste un Monsieur le Président, je viens parler pour toute une jeunesse En parlant du principal, j'fume et j'reste honnête Rap et reste correct, un dicton bien placé Qui ne se plante jamais non, n'a aucune chance de poussé Chez nous c'est légalisé faudrait dépénaliser Si j'étais le Président j'enfumerais lÉlysée J'vous changerais les musées je changerais Disneyland J'ai appris avec ton nom, on s'amuse mieux en Hollande François salut, sur ce coup c'est freestyle Sans vous manquer de respect j'vais arroser Marie-Jeanne</t>
+          <t>Freestyle, one shot, demi portion... Rendez-vous le 25 novembre ! Merci à ceux qui soutiennent, bic up C'est par ici qu'ça s'passe, ouvre les yeux regarde un peu Si on voyage en 3ème classe c'est qu'on a pas su faire la queue Heureux ? j'sais pas trop, j'vis ma vie et puis j'constate Sur feuille et face au micro c'est devenu du full contact XXX mais y'a rien d'mieux, merci à la zik d'nous réunir Merci si tu soutiens si tu m'écris pour prévenir Un respect à c'monde, à toutes ces familles d'immigrés On a trop sali ma couleur qu'elle c'est transformée en tigré Intégré ? Ca fais un bail pose plus cette question Et tes vieux clichets d'racaille à la poubelle mon fiston A croire qu'on s'nourri dans la jungle entassés dans des cabanes Et comme Rocca on fini par manier le micro comme une sarbacane Tais toi ! Ca va pas, reviens booster la culture Quand j'te dirais tout vas bien c'est quand j'aurais eu ma structure J'ai vu tellement d'choses sales, et comme nos mères à la rupture J'ai vu certain appuyer pause et ignorer l'bouton lecture Sachant qu'la vie est un combat qu'on est toujours en kimono Et des couplets tellement XXX comment demander d'aller molo J'ai vu qu'il fallait du boulot, en période bien agitée J'ai vu Chazal s'énerver quand on était pas dans son JT J'ai vu des trucs trop grave, j'ai vu le manque de suivi J'ai vu l'envieux parler mal et trop d'chacals ont suivis Est-ce que dans chaque mot tu devines ? Essaye, imagine J'ai vu des petits s'exploser avec un esprit trop fragile On sait qui sont les ennemis, mais pas sur des alliés Quand beaucoup veulent qu'on squatte mais juste nos cages d'escaliers Ouais j'perd mon tempérament, ouais man, j'vis comme l'animal Et puis l'envie XXX m'a dit l'envieux la pris mal Ici j'ai trop pété les plombs, on m'a trop coupés les ponts J'ai vu qu'la France avait un handicap mais seulement au Téléthon J'ai vu et admettons que ce soit nous qui les condamnes Je serais à la place du président entrain d'arroser Marie-Jeanne Cronologie avant 96 Parait qu'le rap n'appartenait qu'à des vrais combattants Ma première dose c'est l'injection dAfrika Bambaataa Attends, quand cette culture venait des USA Les vrais le savent, copier leur style tout l'monde à refait ça Ce n'est pas une mode de vouloir dire c'qu'on pense Monter un groupe c'est simple car à l'époque tu en avais 10 qui dansent Et mesure pas l'temps qui passe, maître de cérémonie La zik m'a mis une casque sans trop serrer la monnaie Rêve de gosse à accomplir, un baillement et tout s'efface Arrête, j'ai vite compris comment ça peut faire mal une phrase Y'a l'collège qui est en face et le lycée m'attends toujours Si mon carnet de liaison, un emploi du temps d'un MC Sectaire et sans regret qu'on m'dit d'aller voir un psy J'aime écrire c'est comme ça, donc faire autre chose non merci J'vais t'envoyer un p'tit coup Un p'tit cours de style XXX Crame pas la com et la zitoun C'est cool, laisse tomber sinon on t'raccompagne T'as fait 10 tours t'es gros, laisse passer le maigre de Shanghaï XXX c'qui monte vite redescend bas, je plane Là où tout me paraît invraisemblable Bien avant que les journalistes envoyent des sandales C'est fini ils n'ont plus l'envie d'aller filmer des soldats Dar, et tu peux demander aux gendarmes Si on peignait les cons en vert les commissariats seraient des parcs Bye Fabe, vient voir un peu l'rap part en fight En faillite, en fait, comme voir un crime en flag' Waw, retourne-toi si t'as mal aux yeux Et si mon rap fait trop d'bruit, achète-lui un silencieux Irresponsable, donne un bic j'coupe ta soirée samba Sans blabla, paraît que Big était un homme blanc Nan j'blague, petit et rapide comme Ong-bak Paré au coup d'stylo, manière d'y laisser une tache d'encre Qu'est-ce qui m'dépasse tant ? J'ai pris une castagne On est plusieurs à avoir pris cette musique en passe-temps Oho c'est quoi c'plan T'as une idée de c'qui s'trame Non c'est pas à Miami qu'tu vas apprendre mieux.. Le beat est même pas parti que tu hoches la tête La route est longue et un plaisir d'la faire en claquettes T'inquiète XXX comme si j'portais 1000 palettes Textes virtigineux à te provoquer un malaise Rap n'est pas un rêve mais tout l'monde peut l'faire quand même Chacun ses goûts, comme ses couilles ou son oreille Toi tu crois qu't'as des boules mais tu les vois qu'au Loto Tu pues et pour t'en sortir t'as pressé tous les boutons Testé tous les guidons, t'avais pas d'autres choix T'es monté haut, tu vas redescendre c'n'est qu'une balançoire Tout c'qu'on recherche en soi, faire du bien c'est dur C'que tu nous montres à chaque fois n'est qu'une mauvaise habitude Arrête de parler d'street, à croire qu'tu marches pieds nus Mon rap est sincère sans trop d'idées farfelues Non, t'es pas le bienvenue, je pense qu'on t'as prévenu Tes news cool ? Génial, j'te met 10 ans d'retenus</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Freestyle One Shot</t>
+          <t>Freestyle RapAs-7 (Rapassete)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Freestyle, one shot, demi portion... Rendez-vous le 25 novembre ! Merci à ceux qui soutiennent, bic up C'est par ici qu'ça s'passe, ouvre les yeux regarde un peu Si on voyage en 3ème classe c'est qu'on a pas su faire la queue Heureux ? j'sais pas trop, j'vis ma vie et puis j'constate Sur feuille et face au micro c'est devenu du full contact XXX mais y'a rien d'mieux, merci à la zik d'nous réunir Merci si tu soutiens si tu m'écris pour prévenir Un respect à c'monde, à toutes ces familles d'immigrés On a trop sali ma couleur qu'elle c'est transformée en tigré Intégré ? Ca fais un bail pose plus cette question Et tes vieux clichets d'racaille à la poubelle mon fiston A croire qu'on s'nourri dans la jungle entassés dans des cabanes Et comme Rocca on fini par manier le micro comme une sarbacane Tais toi ! Ca va pas, reviens booster la culture Quand j'te dirais tout vas bien c'est quand j'aurais eu ma structure J'ai vu tellement d'choses sales, et comme nos mères à la rupture J'ai vu certain appuyer pause et ignorer l'bouton lecture Sachant qu'la vie est un combat qu'on est toujours en kimono Et des couplets tellement XXX comment demander d'aller molo J'ai vu qu'il fallait du boulot, en période bien agitée J'ai vu Chazal s'énerver quand on était pas dans son JT J'ai vu des trucs trop grave, j'ai vu le manque de suivi J'ai vu l'envieux parler mal et trop d'chacals ont suivis Est-ce que dans chaque mot tu devines ? Essaye, imagine J'ai vu des petits s'exploser avec un esprit trop fragile On sait qui sont les ennemis, mais pas sur des alliés Quand beaucoup veulent qu'on squatte mais juste nos cages d'escaliers Ouais j'perd mon tempérament, ouais man, j'vis comme l'animal Et puis l'envie XXX m'a dit l'envieux la pris mal Ici j'ai trop pété les plombs, on m'a trop coupés les ponts J'ai vu qu'la France avait un handicap mais seulement au Téléthon J'ai vu et admettons que ce soit nous qui les condamnes Je serais à la place du président entrain d'arroser Marie-Jeanne Cronologie avant 96 Parait qu'le rap n'appartenait qu'à des vrais combattants Ma première dose c'est l'injection dAfrika Bambaataa Attends, quand cette culture venait des USA Les vrais le savent, copier leur style tout l'monde à refait ça Ce n'est pas une mode de vouloir dire c'qu'on pense Monter un groupe c'est simple car à l'époque tu en avais 10 qui dansent Et mesure pas l'temps qui passe, maître de cérémonie La zik m'a mis une casque sans trop serrer la monnaie Rêve de gosse à accomplir, un baillement et tout s'efface Arrête, j'ai vite compris comment ça peut faire mal une phrase Y'a l'collège qui est en face et le lycée m'attends toujours Si mon carnet de liaison, un emploi du temps d'un MC Sectaire et sans regret qu'on m'dit d'aller voir un psy J'aime écrire c'est comme ça, donc faire autre chose non merci J'vais t'envoyer un p'tit coup Un p'tit cours de style XXX Crame pas la com et la zitoun C'est cool, laisse tomber sinon on t'raccompagne T'as fait 10 tours t'es gros, laisse passer le maigre de Shanghaï XXX c'qui monte vite redescend bas, je plane Là où tout me paraît invraisemblable Bien avant que les journalistes envoyent des sandales C'est fini ils n'ont plus l'envie d'aller filmer des soldats Dar, et tu peux demander aux gendarmes Si on peignait les cons en vert les commissariats seraient des parcs Bye Fabe, vient voir un peu l'rap part en fight En faillite, en fait, comme voir un crime en flag' Waw, retourne-toi si t'as mal aux yeux Et si mon rap fait trop d'bruit, achète-lui un silencieux Irresponsable, donne un bic j'coupe ta soirée samba Sans blabla, paraît que Big était un homme blanc Nan j'blague, petit et rapide comme Ong-bak Paré au coup d'stylo, manière d'y laisser une tache d'encre Qu'est-ce qui m'dépasse tant ? J'ai pris une castagne On est plusieurs à avoir pris cette musique en passe-temps Oho c'est quoi c'plan T'as une idée de c'qui s'trame Non c'est pas à Miami qu'tu vas apprendre mieux.. Le beat est même pas parti que tu hoches la tête La route est longue et un plaisir d'la faire en claquettes T'inquiète XXX comme si j'portais 1000 palettes Textes virtigineux à te provoquer un malaise Rap n'est pas un rêve mais tout l'monde peut l'faire quand même Chacun ses goûts, comme ses couilles ou son oreille Toi tu crois qu't'as des boules mais tu les vois qu'au Loto Tu pues et pour t'en sortir t'as pressé tous les boutons Testé tous les guidons, t'avais pas d'autres choix T'es monté haut, tu vas redescendre c'n'est qu'une balançoire Tout c'qu'on recherche en soi, faire du bien c'est dur C'que tu nous montres à chaque fois n'est qu'une mauvaise habitude Arrête de parler d'street, à croire qu'tu marches pieds nus Mon rap est sincère sans trop d'idées farfelues Non, t'es pas le bienvenue, je pense qu'on t'as prévenu Tes news cool ? Génial, j'te met 10 ans d'retenus</t>
+          <t>On est parti de ce principe qu'on était tous fichés Si t'as voulu garder un secret, on saura tous c'que c'est Que la plupart de ces balances, on les a toutes pesées L'envieux a voulu vite monter, mais il a tout d'suite creusé Viens te poser un peu, j't'invite à voir de tout L'odeur du Douez ou le respect d'un salâm aalaykoum Ça sert à quoi de vous parlez de l'essentiel ? Dis-moi On galère tous devant le guichet le six du mois Ça sert à quoi de vous parler en vrai, sincèrement ? La musique est belle, dissimule un délire infernal Smalia, tu m'vois péter un câble dans l'immédiat J'ai le souvenir d'enterrer mon père à Mohammédia J'm'en bats les couilles d'ta morale, tu m'as vu deux fois à peine La vie est une escalade où l'on chutera tous en rappel Mon Bic toujours en taule, ma feuille en Q.H.S Enfin l'premier album, et un respect si tu lachètes Fais attention à toi et aux sales effets secondaires Plutôt que d'parler d'c'que tu gagnes, viens voir un peu ce qu'on perd Ça sert à quoi, Montana ? Ce n'est qu'un film, trou d'balle Ça sert à quoi d'jouer un rôle quant on s'y trouve pas ? Profite, réfléchis, et nous sommes juste de passage Linsalubrité ici, j'ai dû m'y faire avec l'âge Ça sert à quoi t'as vu, même si je sais de quoi j'parle ? Je prends des clichés de ma vie comme un sale appareil jetable Et on vit, on cane, ça sert à quoi qu'tu ricanes ? Et faire semblant de ne rien voir, ça t'mettra pas à l'écart Ça sert à quoi de vous sortir un disque en deux mille dix ? L'industrie est bloquée comme à la prison de Villeneuve Même la TV est faussée, de toutes façons Tout est géré par ces pyramides et ces francs-maçons Je viens parler en face, pas derrière vous Appelle-moi, j'te ferai un bon son à l'interview Ça sert à quoi d'rapper ? Non, j'en veux pas d'votre pilule Toujours ému quand on me dit Vas-y, Rachid, continue Ça sert à ça, on essaye juste d'oublier l'inquiétude Soutenir la paix, c'est pas grâce à une vidéo sur YouTube Ça sert à quoi, en fait, à force de tourner en rond ? À force de tourner dans l'ring, j'n'ai pas tenu un round Ça sert à quoi t'as vu, même si je sais de quoi j'parle ? Je prends des clichés de ma vie comme un sale appareil jetable Je n'avais plus que de bons souv'nirs et autant d'remords Et j'ai pas vu les sous v'nir, mais j'reste auteur d'romans Écrire, ça peut que t'rendre humain, faut réfléchir et savoir Tendre une main à son prochain feutre pour lui faire atteindre Mars Mec, moi, je m'accepte pour mettre ce qui me harcèle en morceaux Manie les mots sans merci, ma langue est un art martial Un martien et même si un autre MC a fait l'ancien J'suis là, ça y est, mais l'assaillant me laisse et, en se rasseyant Me laisse y aller, yallah, yes, yo, c'est hella J'te haram et tu sais même plus pourquoi t'es là Si tu te la pètes, intello, depuis tout à l'heure Range ta langue, t'es trop lent, t'as pas l'talent, de quoi t'as l'air ? Arrête, allons, t'es loin d'être un étalon, t'as rien Dans le pantalon, putain, t'es lourd, alors pourquoi tu l'ouvres ? Arrête là si tu te livres à toutes les rimes faciles Je peux te l'affirmer frime et j't'assassine Tu t'la pètes, hélas, tu baisses ton pantalon puis tu t'allonges Comme une petite pute alors j'te pète à l'amende Eh, putain, les mecs, les putes ont le mors Donc j'les pète à l'amende, sec, mec Un pétard au bec, la main sur un Bic Un mac au mic attaque à coups de mots qui claquent sec Et, si tu t'rates, c'est qu'j'te braque, mec Tu traques et j'te fous la trique même si tu fais la schnek Encore un truc avant le break si t'as capté, bsahtek Sinon, tends l'oreille comme Spok dans Star Trek T'auras beau gueuler qu'c'est pas si rigolo qu'ça Moi, dans ma galaxie, y'a pas de gars laxiste Ceux qui rigolent existent, quelques uns résistent Mais la plupart de mes amis, dans l'illégal, excellent Et tu peux gueuler qu'c'est pas si rigolo qu'ça Moi, dans ma galaxie, y'a pas de gars laxiste Ceux qui rigolent existent, quelques uns résistent Mais la plupart de mes amis, dans l'illégal, excellent</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Freestyle RapAs-7 (Rapassete)</t>
+          <t>Gangstarr</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>On est parti de ce principe qu'on était tous fichés Si t'as voulu garder un secret, on saura tous c'que c'est Que la plupart de ces balances, on les a toutes pesées L'envieux a voulu vite monter, mais il a tout d'suite creusé Viens te poser un peu, j't'invite à voir de tout L'odeur du Douez ou le respect d'un salâm aalaykoum Ça sert à quoi de vous parlez de l'essentiel ? Dis-moi On galère tous devant le guichet le six du mois Ça sert à quoi de vous parler en vrai, sincèrement ? La musique est belle, dissimule un délire infernal Smalia, tu m'vois péter un câble dans l'immédiat J'ai le souvenir d'enterrer mon père à Mohammédia J'm'en bats les couilles d'ta morale, tu m'as vu deux fois à peine La vie est une escalade où l'on chutera tous en rappel Mon Bic toujours en taule, ma feuille en Q.H.S Enfin l'premier album, et un respect si tu lachètes Fais attention à toi et aux sales effets secondaires Plutôt que d'parler d'c'que tu gagnes, viens voir un peu ce qu'on perd Ça sert à quoi, Montana ? Ce n'est qu'un film, trou d'balle Ça sert à quoi d'jouer un rôle quant on s'y trouve pas ? Profite, réfléchis, et nous sommes juste de passage Linsalubrité ici, j'ai dû m'y faire avec l'âge Ça sert à quoi t'as vu, même si je sais de quoi j'parle ? Je prends des clichés de ma vie comme un sale appareil jetable Et on vit, on cane, ça sert à quoi qu'tu ricanes ? Et faire semblant de ne rien voir, ça t'mettra pas à l'écart Ça sert à quoi de vous sortir un disque en deux mille dix ? L'industrie est bloquée comme à la prison de Villeneuve Même la TV est faussée, de toutes façons Tout est géré par ces pyramides et ces francs-maçons Je viens parler en face, pas derrière vous Appelle-moi, j'te ferai un bon son à l'interview Ça sert à quoi d'rapper ? Non, j'en veux pas d'votre pilule Toujours ému quand on me dit Vas-y, Rachid, continue Ça sert à ça, on essaye juste d'oublier l'inquiétude Soutenir la paix, c'est pas grâce à une vidéo sur YouTube Ça sert à quoi, en fait, à force de tourner en rond ? À force de tourner dans l'ring, j'n'ai pas tenu un round Ça sert à quoi t'as vu, même si je sais de quoi j'parle ? Je prends des clichés de ma vie comme un sale appareil jetable Je n'avais plus que de bons souv'nirs et autant d'remords Et j'ai pas vu les sous v'nir, mais j'reste auteur d'romans Écrire, ça peut que t'rendre humain, faut réfléchir et savoir Tendre une main à son prochain feutre pour lui faire atteindre Mars Mec, moi, je m'accepte pour mettre ce qui me harcèle en morceaux Manie les mots sans merci, ma langue est un art martial Un martien et même si un autre MC a fait l'ancien J'suis là, ça y est, mais l'assaillant me laisse et, en se rasseyant Me laisse y aller, yallah, yes, yo, c'est hella J'te haram et tu sais même plus pourquoi t'es là Si tu te la pètes, intello, depuis tout à l'heure Range ta langue, t'es trop lent, t'as pas l'talent, de quoi t'as l'air ? Arrête, allons, t'es loin d'être un étalon, t'as rien Dans le pantalon, putain, t'es lourd, alors pourquoi tu l'ouvres ? Arrête là si tu te livres à toutes les rimes faciles Je peux te l'affirmer frime et j't'assassine Tu t'la pètes, hélas, tu baisses ton pantalon puis tu t'allonges Comme une petite pute alors j'te pète à l'amende Eh, putain, les mecs, les putes ont le mors Donc j'les pète à l'amende, sec, mec Un pétard au bec, la main sur un Bic Un mac au mic attaque à coups de mots qui claquent sec Et, si tu t'rates, c'est qu'j'te braque, mec Tu traques et j'te fous la trique même si tu fais la schnek Encore un truc avant le break si t'as capté, bsahtek Sinon, tends l'oreille comme Spok dans Star Trek T'auras beau gueuler qu'c'est pas si rigolo qu'ça Moi, dans ma galaxie, y'a pas de gars laxiste Ceux qui rigolent existent, quelques uns résistent Mais la plupart de mes amis, dans l'illégal, excellent Et tu peux gueuler qu'c'est pas si rigolo qu'ça Moi, dans ma galaxie, y'a pas de gars laxiste Ceux qui rigolent existent, quelques uns résistent Mais la plupart de mes amis, dans l'illégal, excellent</t>
+          <t>Ok, un, deux C'est quand qu'on échange les rôles ? C'est quand qu'on s'mélange ? C'est drôle ces clans alors qu'chacun dépend de l'autre Souffrance, toujours on the road Si la montée est épineuse, c'est qu'à la fin, il y aura un champ de roses J'arrive et c'est Santa Cruz, ma banlieue, c'est comme partout Sauf qu'on garde un il ouvert quand on s'repose Frère, j'suis en colère, j'frappe dans l'poteau, Wu-Tang Clan dans l'auto C'est la nuit et j'rentre dans ls locaux On s'retrouve à la planque On fait Y a plusiurs types de weed dans les bocaux, fais l'réseau comme Bouygues loco Y'a les schmitt dans le Oppo J'ai les yeux qui brillent parce-que j'suis défoncé au shit J'mets trois fois et j'fais hat trick 'chète ça avec un grec et un spliff Si j'veux changer, j'prends une crêpe, y aura toujours un spliff J'ai envie d'dire des trucs dingues J'vous amène la lumière comme un prêtre avec un flingue Y a personne qui sait c'qu'il y'a dans leurs seringues Personne m'arrête avec un plein, à part un train J'raconte beaucoup d'vérités, un peu d'baratin Identité vérifiée, Souffrance et Demi P Lâche rien même si c'est niqué Combien d'fois j'ai entendu Que faire pour percer ? T'as deux fois plus de chance de gagner au tiercé Dis-leur comment qu'c'est, hein, autopsie En scred j'arrive de jour, de nuit comme Banksy J'répare quelques pannes, sorti d'quelque part On r'fait le mur avec quelques tags Il faut plus qu'on stagne, on a tout dans l'bag Get Buzy est le meilleur mag Ouais, ma gueule, la prod' claque sa race On reste , change le mot d'passe Le monde fait flipper, l'ambiance est fliquée Putain, quelle rime de bâtard Les rappeurs s'la pètent, font plus profiter, eh ouais Putain, quelle rime de Qatar On a l'même combat malgré les obstacles Le rap est mort depuis Gang Starr Demi P, Souffrance Le rap est mort depuis Gang Starr L'uZine, les grandes gueules Souffrance et Demi P Lâche rien même si c'est niqué Who's the real criminals, take a look behind the scenes This is where we really prepare I watched y'all get fat, now I want my share</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Gangstarr</t>
+          <t>Garder le cap</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ok, un, deux C'est quand qu'on échange les rôles ? C'est quand qu'on s'mélange ? C'est drôle ces clans alors qu'chacun dépend de l'autre Souffrance, toujours on the road Si la montée est épineuse, c'est qu'à la fin, il y aura un champ de roses J'arrive et c'est Santa Cruz, ma banlieue, c'est comme partout Sauf qu'on garde un il ouvert quand on s'repose Frère, j'suis en colère, j'frappe dans l'poteau, Wu-Tang Clan dans l'auto C'est la nuit et j'rentre dans ls locaux On s'retrouve à la planque On fait Y a plusiurs types de weed dans les bocaux, fais l'réseau comme Bouygues loco Y'a les schmitt dans le Oppo J'ai les yeux qui brillent parce-que j'suis défoncé au shit J'mets trois fois et j'fais hat trick 'chète ça avec un grec et un spliff Si j'veux changer, j'prends une crêpe, y aura toujours un spliff J'ai envie d'dire des trucs dingues J'vous amène la lumière comme un prêtre avec un flingue Y a personne qui sait c'qu'il y'a dans leurs seringues Personne m'arrête avec un plein, à part un train J'raconte beaucoup d'vérités, un peu d'baratin Identité vérifiée, Souffrance et Demi P Lâche rien même si c'est niqué Combien d'fois j'ai entendu Que faire pour percer ? T'as deux fois plus de chance de gagner au tiercé Dis-leur comment qu'c'est, hein, autopsie En scred j'arrive de jour, de nuit comme Banksy J'répare quelques pannes, sorti d'quelque part On r'fait le mur avec quelques tags Il faut plus qu'on stagne, on a tout dans l'bag Get Buzy est le meilleur mag Ouais, ma gueule, la prod' claque sa race On reste , change le mot d'passe Le monde fait flipper, l'ambiance est fliquée Putain, quelle rime de bâtard Les rappeurs s'la pètent, font plus profiter, eh ouais Putain, quelle rime de Qatar On a l'même combat malgré les obstacles Le rap est mort depuis Gang Starr Demi P, Souffrance Le rap est mort depuis Gang Starr L'uZine, les grandes gueules Souffrance et Demi P Lâche rien même si c'est niqué Who's the real criminals, take a look behind the scenes This is where we really prepare I watched y'all get fat, now I want my share</t>
+          <t>Hé Rachid Voilà la bouée de sauvetage C'est dur de garder le cap Non, non Demi Portion Davodka 28 piges que j'mène ma barque sur lÎle-de-France, si un jour tout s'effondre J'veux prendre le large, je ne veux pas être une épave juste bon qu'à toucher l'fond J'ai fondé une famille gros j'serais plus rien sans ça J'veux pas d'promesse ni d'argent sale mais du soleil et des cocktails sur un transat Le but c'est d'garder le cap, faire sa route petit à petit à son gré De n'jamais changer de bord, même là où le Titanic a sombré Moi j'ai dû mettre mes voiles loin d'mes rêves d'ado T'as jamais vécu la galère si tu trouves ce texte bateau J'navigue sur une fonce-dé que l'Eristoff prolonge j'écris des strophes trop longues En gardant le cap j'ai découvert l'indé pas comme Christophe Colomb La 'sique, c'est du partage donc on donne tout sur des scènes qui tabassent Vu la force que vous m'donnez, j'fais plus des sons j'fais des Genki Dama J'ai pris le mic car c'est ma raison d'être Je me libère de mon mal à chaque fois qu'les sons pètent Je m'éloigne des bla-bla tant qu'je mène ma barque Et je largue les amarres et traverse les tempêtes Depuis des années, dans la douleur, ça s'fight J'ai compris qu'rien ne tombe du ciel même si le mien à la couleur de l'asphalte T'essaie de rebondir, on t'impose un saut d'l'ange Moi j'étais trop d'équerre pour être en mesure d'voir les choses d'un autre angle Maintenant j'me jette à l'eau et prends l'temps d'savourer Le rap ma bouée d'sauvetage j'arrive à faire surface que lorsque mon encre a coulé Laisse-moi le coup d'un passe-passe le temps de m'installer Oui, on dira que le hip-hop marche très bien c'tte année Garder le cap, t'inquiète, Cortez, vieille casquette Garder le cap, sans 'gueil, sans trop changer d'manette On a des potes et des gobelets qui restent non potables Prends un verre et tu verras les belles rimes de Davodka Maintenant on s'cache autre part, la mort ne patiente pas Elle nous attaque brusquement en veillant sur nos pas On a la pluie, le beau temps, on a même plus de saison Les dirigeants se libèrent et veulent le peuple en prison Garder le cap, disons, un son, une bonne tisane On s'donne donne donne patrons et artisans La porte s'ouvrira bientôt c'est c'qu'on s'dit soi-disant La mort arrivera fissa loin d'leur délires d'Ibiza Garder le cap, le noble art, mon stylo Colombine On y travaille depuis long time car tout l'monde y trouve sa voie Laissez-nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile Laissez-nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile Demi Portion, Davodka Hé, hé Hé Rachid En fait, c'est pas si dur de garder l'cap, hé ! Laissez nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile Laissez nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile2</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Garder le cap</t>
+          <t>Get Up</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Hé Rachid Voilà la bouée de sauvetage C'est dur de garder le cap Non, non Demi Portion Davodka 28 piges que j'mène ma barque sur lÎle-de-France, si un jour tout s'effondre J'veux prendre le large, je ne veux pas être une épave juste bon qu'à toucher l'fond J'ai fondé une famille gros j'serais plus rien sans ça J'veux pas d'promesse ni d'argent sale mais du soleil et des cocktails sur un transat Le but c'est d'garder le cap, faire sa route petit à petit à son gré De n'jamais changer de bord, même là où le Titanic a sombré Moi j'ai dû mettre mes voiles loin d'mes rêves d'ado T'as jamais vécu la galère si tu trouves ce texte bateau J'navigue sur une fonce-dé que l'Eristoff prolonge j'écris des strophes trop longues En gardant le cap j'ai découvert l'indé pas comme Christophe Colomb La 'sique, c'est du partage donc on donne tout sur des scènes qui tabassent Vu la force que vous m'donnez, j'fais plus des sons j'fais des Genki Dama J'ai pris le mic car c'est ma raison d'être Je me libère de mon mal à chaque fois qu'les sons pètent Je m'éloigne des bla-bla tant qu'je mène ma barque Et je largue les amarres et traverse les tempêtes Depuis des années, dans la douleur, ça s'fight J'ai compris qu'rien ne tombe du ciel même si le mien à la couleur de l'asphalte T'essaie de rebondir, on t'impose un saut d'l'ange Moi j'étais trop d'équerre pour être en mesure d'voir les choses d'un autre angle Maintenant j'me jette à l'eau et prends l'temps d'savourer Le rap ma bouée d'sauvetage j'arrive à faire surface que lorsque mon encre a coulé Laisse-moi le coup d'un passe-passe le temps de m'installer Oui, on dira que le hip-hop marche très bien c'tte année Garder le cap, t'inquiète, Cortez, vieille casquette Garder le cap, sans 'gueil, sans trop changer d'manette On a des potes et des gobelets qui restent non potables Prends un verre et tu verras les belles rimes de Davodka Maintenant on s'cache autre part, la mort ne patiente pas Elle nous attaque brusquement en veillant sur nos pas On a la pluie, le beau temps, on a même plus de saison Les dirigeants se libèrent et veulent le peuple en prison Garder le cap, disons, un son, une bonne tisane On s'donne donne donne patrons et artisans La porte s'ouvrira bientôt c'est c'qu'on s'dit soi-disant La mort arrivera fissa loin d'leur délires d'Ibiza Garder le cap, le noble art, mon stylo Colombine On y travaille depuis long time car tout l'monde y trouve sa voie Laissez-nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile Laissez-nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile Demi Portion, Davodka Hé, hé Hé Rachid En fait, c'est pas si dur de garder l'cap, hé ! Laissez nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile Laissez nous passer, passer, garder le cap cette fois-ci Le capitaine a lâché avec la barre trop fragile2</t>
+          <t>Vu qu'un rappeur Se doit d'parler Que ce soit bien ou mal Get up, get up, get up Ça va dans les deux sens Get up, get up, get up Elle est douce, verte et nous fait planer Elle a un grand succès ces dernières années Elle sort à toutes heures, allumeuse, le buzz convoitée chez les fumeuses Elle pousse belle, à toute saison, on la sent arriver comme cette odeur dans la maison Elle provoque la perte, pour d'autre la raison Elle fait tourner la tête J'la connais par coeur, j'la connais par coeur Elle ma suivie, oui, depuis mon premier parcours Si j'pars de ce monde, dis lui qu'j'la déteste La vie ma bien élevée, sans jamais trouver d'prétexte Non j'déconne, ouais j'perds le Nord Autant vivre à deux, vu qu'tu m'fais du mal encore On dit qu'le bruit remporte et que le silence répare Juste un peu d'musique j'te ferai l'amour en rappant Get up, get up, get up Get up, get up, get up Oui on se donne, donne, donne Oui on se donne, donne, donne Oui on se donne, donne, donne Ouais, ouais, ouais Ouais, ouais, ouais Ouais, ouais, ouais Elle est blanche, forte, apparemment discrète Elle aime le monde de la nuit et d'la bonne disquette Elle coûte un peu cher, aime les riches et les pauvres J'ai peur que mon prof, fasse la même à l'école Elle est souvent drôle, ramène beaucoup le drame Elle arrive de loin, après plusieurs escales Elle a fait le tour du globe, à tuer sans dire stop Éliminer du monde avec l'argent qu'on m'escorte Elle parle toutes les langues, connait la muerte Allez santé ! Ou viva la liberté Déconcerté, folle égocentrique, faut bien l'accepter Tout devient sordide Get up, get up, get up Get up, get up, get up Oui on se donne, donne, donne Oui on se donne, donne, donne Oui on se donne, donne, donne Oui on se donne, donne, donne</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Get Up</t>
+          <t>Gorilles</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Vu qu'un rappeur Se doit d'parler Que ce soit bien ou mal Get up, get up, get up Ça va dans les deux sens Get up, get up, get up Elle est douce, verte et nous fait planer Elle a un grand succès ces dernières années Elle sort à toutes heures, allumeuse, le buzz convoitée chez les fumeuses Elle pousse belle, à toute saison, on la sent arriver comme cette odeur dans la maison Elle provoque la perte, pour d'autre la raison Elle fait tourner la tête J'la connais par coeur, j'la connais par coeur Elle ma suivie, oui, depuis mon premier parcours Si j'pars de ce monde, dis lui qu'j'la déteste La vie ma bien élevée, sans jamais trouver d'prétexte Non j'déconne, ouais j'perds le Nord Autant vivre à deux, vu qu'tu m'fais du mal encore On dit qu'le bruit remporte et que le silence répare Juste un peu d'musique j'te ferai l'amour en rappant Get up, get up, get up Get up, get up, get up Oui on se donne, donne, donne Oui on se donne, donne, donne Oui on se donne, donne, donne Ouais, ouais, ouais Ouais, ouais, ouais Ouais, ouais, ouais Elle est blanche, forte, apparemment discrète Elle aime le monde de la nuit et d'la bonne disquette Elle coûte un peu cher, aime les riches et les pauvres J'ai peur que mon prof, fasse la même à l'école Elle est souvent drôle, ramène beaucoup le drame Elle arrive de loin, après plusieurs escales Elle a fait le tour du globe, à tuer sans dire stop Éliminer du monde avec l'argent qu'on m'escorte Elle parle toutes les langues, connait la muerte Allez santé ! Ou viva la liberté Déconcerté, folle égocentrique, faut bien l'accepter Tout devient sordide Get up, get up, get up Get up, get up, get up Oui on se donne, donne, donne Oui on se donne, donne, donne Oui on se donne, donne, donne Oui on se donne, donne, donne</t>
+          <t>SCY, deux L, A DEMI Dans la jungle Dans la jungle Dans la jungle Ah, ma chérie grandir dans la jungle modifie les profils Ouais Dur de devenir l'homme qu'on s'était promis La raison est simple, tu m'as aimé trop vite Ouh Moi, je l'ai fait comme un gorille Ah, logique, mais pourquoi tu cogites ? Au final, rien d'autre n'était plausible Comprends qu'il est difficile en tant qu'artiste de faire triompher les esprits quand il n'y a que les singes qui applaudissent Hm, ah Touchant, quand t'y vois un tel charme Dans les sables mouvants personne ne te jette Yah J'viens d'cette zone de la jungle ou même Baloo commence à fantasmer sur Shere Khan Ici, c'est un business très juteux Stress, violence, sexe, drogue, fric presque élu Dieu Je suis p't-être une espèce d'ogre, mais parmi les hommes, je reste toujours l'un des rares qui connaisse encore le secret du feu J'vois plus qu'des animaux horribles Y a plus dans nos yeux le moindre petit Mowgli Aimer cette folie me domine aussi, t'as beau dire, mais nos villes ont des allures de zoos vides Ah, hm L'appel de la jungle Ah, hm L'appel de la jungle Ah, hm Ah, hm Ah, hm Elle n'est pas le cadre dont j'veux Tous les jours, mon cur la condamne Ah, hm Et j'ai beau vouloir le contraire La jungle fait de lil à mon âme Ah, hm Elle n'est pas le cadre dont j'veux Tous les jours, mon cur la condamne Ah, hm J'ai beau vouloir le contraire Elle fait de lil à mon âme Grandir dans la jungle au milieu des sauvages Le sentiment d'être un gorille, donc il a fallu lâcher un rap On dit que tous les coups sont permis Ouh Welcome, la forêt ne dort pas L'humain est interdit, surtout avec un port d'arme Tout le monde est 'cor-da Ouais, l'venin du cobra Passe par la rivière, t'auras le piège de l'anaconda L'homme est un loup pour l'homme Nous n'en sommes pas surpris Nous savons quand il grogne, il n'attire que les cris Dans la jungle, faut survivre, protéger les siens Prendre soin de la terre, c'est embellir le ciel Aussi, c'est un système très dangereux Toujours mieux à la baraque avec une chaise pour deux Je suis une espèce d'homme, mais parmi les animaux, je reste l'un des rares qui connaisse encore l'effet de la beuh J'ai plus l'envie de dormir et reste encore ceux qui ont des délires de vampires Et c'est de pire en pire, comment dire, j'vais sortir Mais nos rimes, tu le sais, ont des allures de Gandhi Ow J'ai promis d'essayer Ouais On est premiers sur la liste On est premiers sur la liste J'ai ouvert un safari J'ai ouvert un safari Mais pas pour les touristes Ah, oh L'appel de la jungle L'appel de la jungle Scylla, Demi P Dans la jungle Ah hm Ah hm Ah hm Ah hm Yeah</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Gorilles</t>
+          <t>Heddi</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SCY, deux L, A DEMI Dans la jungle Dans la jungle Dans la jungle Ah, ma chérie grandir dans la jungle modifie les profils Ouais Dur de devenir l'homme qu'on s'était promis La raison est simple, tu m'as aimé trop vite Ouh Moi, je l'ai fait comme un gorille Ah, logique, mais pourquoi tu cogites ? Au final, rien d'autre n'était plausible Comprends qu'il est difficile en tant qu'artiste de faire triompher les esprits quand il n'y a que les singes qui applaudissent Hm, ah Touchant, quand t'y vois un tel charme Dans les sables mouvants personne ne te jette Yah J'viens d'cette zone de la jungle ou même Baloo commence à fantasmer sur Shere Khan Ici, c'est un business très juteux Stress, violence, sexe, drogue, fric presque élu Dieu Je suis p't-être une espèce d'ogre, mais parmi les hommes, je reste toujours l'un des rares qui connaisse encore le secret du feu J'vois plus qu'des animaux horribles Y a plus dans nos yeux le moindre petit Mowgli Aimer cette folie me domine aussi, t'as beau dire, mais nos villes ont des allures de zoos vides Ah, hm L'appel de la jungle Ah, hm L'appel de la jungle Ah, hm Ah, hm Ah, hm Elle n'est pas le cadre dont j'veux Tous les jours, mon cur la condamne Ah, hm Et j'ai beau vouloir le contraire La jungle fait de lil à mon âme Ah, hm Elle n'est pas le cadre dont j'veux Tous les jours, mon cur la condamne Ah, hm J'ai beau vouloir le contraire Elle fait de lil à mon âme Grandir dans la jungle au milieu des sauvages Le sentiment d'être un gorille, donc il a fallu lâcher un rap On dit que tous les coups sont permis Ouh Welcome, la forêt ne dort pas L'humain est interdit, surtout avec un port d'arme Tout le monde est 'cor-da Ouais, l'venin du cobra Passe par la rivière, t'auras le piège de l'anaconda L'homme est un loup pour l'homme Nous n'en sommes pas surpris Nous savons quand il grogne, il n'attire que les cris Dans la jungle, faut survivre, protéger les siens Prendre soin de la terre, c'est embellir le ciel Aussi, c'est un système très dangereux Toujours mieux à la baraque avec une chaise pour deux Je suis une espèce d'homme, mais parmi les animaux, je reste l'un des rares qui connaisse encore l'effet de la beuh J'ai plus l'envie de dormir et reste encore ceux qui ont des délires de vampires Et c'est de pire en pire, comment dire, j'vais sortir Mais nos rimes, tu le sais, ont des allures de Gandhi Ow J'ai promis d'essayer Ouais On est premiers sur la liste On est premiers sur la liste J'ai ouvert un safari J'ai ouvert un safari Mais pas pour les touristes Ah, oh L'appel de la jungle L'appel de la jungle Scylla, Demi P Dans la jungle Ah hm Ah hm Ah hm Ah hm Yeah</t>
+          <t>Y a des jours où seul on pourrait craquer Quand face à l'horizon, on n'pense plus savoir nager N'attends rien d'moi, Dieu m'a répondu quand j'ai prié Enfin c'que j'crois, tu vois, c'est qu'les signes ne nous mentent pas J'ai croisé sur mon chemin tant de gens sans attaches Au désespoir si grand que leur vie n'avait pas d'poids Et toi quand j't'ai rencontré, au premier mot j'ai su Qu't'étais un frère, un vrai, l'humain qu'j'ai vu était plus Plus que tout, la main que tu m'as tendue Plus que tout, l'espoir que tu m'as rendu Plus que tout, l'amitié que j'ai reçue Plus que tous cs mots, plus que tout J'ai cru en l'homme, gardé la foi comm j'ai pu compter sur toi Aucun problème, des solutions, me demande même pas pourquoi Tendre la main, l'espoir comme une vie sur la mer Marhaba, bienvenue, y a qu'l'amour qu'on ramène Oui le soleil va avec jusqu'au boulevard des airs Je serai présent évidemment, oui jusqu'au fond du désert On désire que l'homme soit comblé de bonheur Qu'il trouve la paix, sa porte ou sa clé dans le cur C'est pas l'temps qui passe, même s'il m'écrase Qui m'fera oublier mes promesses ni même par où je passe Si je pars trop tôt, j'veux pas qu'tu m'oublies sans larmes Frérot, on a tellement de gloire en haut du stade On triomphera d'ce monde, tu sais c'est sûr qu'on l'aura Et même si l'monde est méchant, il l'est moins grâce à toi Ici j'suis sur l'sommet, à peine la rage en sommeil On trinquera devant l'horizon car on mérite le Champagne J'combats dur et j'ai mal, j'veux qu'on devienne des étoiles Si jamais t'as besoin d'aide, t'as mes épaules pour échelle Les amis nous guident dans la mer J'ai toujours pu compter sur toi, même quand parfois j'te perds Khoya beslama Khoya beslama</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Heddi</t>
+          <t>Histoires sans fin</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Y a des jours où seul on pourrait craquer Quand face à l'horizon, on n'pense plus savoir nager N'attends rien d'moi, Dieu m'a répondu quand j'ai prié Enfin c'que j'crois, tu vois, c'est qu'les signes ne nous mentent pas J'ai croisé sur mon chemin tant de gens sans attaches Au désespoir si grand que leur vie n'avait pas d'poids Et toi quand j't'ai rencontré, au premier mot j'ai su Qu't'étais un frère, un vrai, l'humain qu'j'ai vu était plus Plus que tout, la main que tu m'as tendue Plus que tout, l'espoir que tu m'as rendu Plus que tout, l'amitié que j'ai reçue Plus que tous cs mots, plus que tout J'ai cru en l'homme, gardé la foi comm j'ai pu compter sur toi Aucun problème, des solutions, me demande même pas pourquoi Tendre la main, l'espoir comme une vie sur la mer Marhaba, bienvenue, y a qu'l'amour qu'on ramène Oui le soleil va avec jusqu'au boulevard des airs Je serai présent évidemment, oui jusqu'au fond du désert On désire que l'homme soit comblé de bonheur Qu'il trouve la paix, sa porte ou sa clé dans le cur C'est pas l'temps qui passe, même s'il m'écrase Qui m'fera oublier mes promesses ni même par où je passe Si je pars trop tôt, j'veux pas qu'tu m'oublies sans larmes Frérot, on a tellement de gloire en haut du stade On triomphera d'ce monde, tu sais c'est sûr qu'on l'aura Et même si l'monde est méchant, il l'est moins grâce à toi Ici j'suis sur l'sommet, à peine la rage en sommeil On trinquera devant l'horizon car on mérite le Champagne J'combats dur et j'ai mal, j'veux qu'on devienne des étoiles Si jamais t'as besoin d'aide, t'as mes épaules pour échelle Les amis nous guident dans la mer J'ai toujours pu compter sur toi, même quand parfois j'te perds Khoya beslama Khoya beslama</t>
+          <t>J'ai un couplet pour m'étaler, j'arrive voir si tout allait bien On n'a pas l'fric à Escobar ni les gros puits d'un Saoudien On aime le rap vu qu'ça nous tient parce que, des fois, on pète un câble Alors le courant ne passe plus comme s'noyer dans une cascade On lève la tête, c'est pas grave, j'arrive nettoyer ça Oui, j'préfère remplir des curs et, en même temps, blinder les salles La vie est un coup d'poker, surtout quand t'as pas les cartes On a pris des gifles, normal pour mieux tomber sur nos pattes On a perdu plein de potes, toujours les meilleurs qui partent, ohoh J'n'ai pas compté, comme toutes ces feuilles que j'claque solo Parce que, les règles, j'les ai construites depuis l'temps, frérot La route est longue, maintenant, j'l'apprécie juste en vélo Oui, c'est bon, ne faites rien, oui, le son s'écoute bien Et, le reste, on s'en fout, c'est comme une histoire sans fin C'est bon, ne faites rien, MOH s'écoute bien Et, le reste, on s'en fout, c'est comme une histoire sans fin À RETRANSCRIRE ! Ok, yeah, je ne céderai à la pression, à leur conditionnement J'suis à la , ma montagne, ma cellule d'isolement Qu'on se plie et qu'on s'agenouille ils aimeraient tellement On s'est garé dans l'game, verbalisés au stationnement On vit au jour le jour jusqu'à qu'la nuit nous trompe Et que le tonnerre nous gronde car le Puissant est sur le trône Vivants donc on avance de fil en aiguille On n'dort pas, on écrit, on en devient aigris Tellement ça me crispe Ils veulent qu'on se cambre pour qu'on vende du disque J'leur déclare pas, tout comme le fisc Parce que y'a trop de fils de pratiqueur de fist Yeah, on s'arrête pas devant l'obstacle et la médisance On rappe le bitume avec quiétude et intelligence Une nuisance en sonore, les Hommes s'croient indolores Mais, dead, au point mort, ils n'peuvent plus faire les À RETRANSCRIRE ! Tu peux demander à Demi J'entends chanter les deux et demi Chez moi, le crime a son académie Et les langues de pute chantent leurs calomnies C'est bon, ne faites rien, le son s'écoute bien Et, le reste, on s'en fout, c'est comme une histoire sans fin C'est bon, ne faites rien, MOH s'écoute bien Et, le reste, on s'en fout, c'est que des histoires sans fin</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Histoires sans fin</t>
+          <t>Horizon</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>J'ai un couplet pour m'étaler, j'arrive voir si tout allait bien On n'a pas l'fric à Escobar ni les gros puits d'un Saoudien On aime le rap vu qu'ça nous tient parce que, des fois, on pète un câble Alors le courant ne passe plus comme s'noyer dans une cascade On lève la tête, c'est pas grave, j'arrive nettoyer ça Oui, j'préfère remplir des curs et, en même temps, blinder les salles La vie est un coup d'poker, surtout quand t'as pas les cartes On a pris des gifles, normal pour mieux tomber sur nos pattes On a perdu plein de potes, toujours les meilleurs qui partent, ohoh J'n'ai pas compté, comme toutes ces feuilles que j'claque solo Parce que, les règles, j'les ai construites depuis l'temps, frérot La route est longue, maintenant, j'l'apprécie juste en vélo Oui, c'est bon, ne faites rien, oui, le son s'écoute bien Et, le reste, on s'en fout, c'est comme une histoire sans fin C'est bon, ne faites rien, MOH s'écoute bien Et, le reste, on s'en fout, c'est comme une histoire sans fin À RETRANSCRIRE ! Ok, yeah, je ne céderai à la pression, à leur conditionnement J'suis à la , ma montagne, ma cellule d'isolement Qu'on se plie et qu'on s'agenouille ils aimeraient tellement On s'est garé dans l'game, verbalisés au stationnement On vit au jour le jour jusqu'à qu'la nuit nous trompe Et que le tonnerre nous gronde car le Puissant est sur le trône Vivants donc on avance de fil en aiguille On n'dort pas, on écrit, on en devient aigris Tellement ça me crispe Ils veulent qu'on se cambre pour qu'on vende du disque J'leur déclare pas, tout comme le fisc Parce que y'a trop de fils de pratiqueur de fist Yeah, on s'arrête pas devant l'obstacle et la médisance On rappe le bitume avec quiétude et intelligence Une nuisance en sonore, les Hommes s'croient indolores Mais, dead, au point mort, ils n'peuvent plus faire les À RETRANSCRIRE ! Tu peux demander à Demi J'entends chanter les deux et demi Chez moi, le crime a son académie Et les langues de pute chantent leurs calomnies C'est bon, ne faites rien, le son s'écoute bien Et, le reste, on s'en fout, c'est comme une histoire sans fin C'est bon, ne faites rien, MOH s'écoute bien Et, le reste, on s'en fout, c'est que des histoires sans fin</t>
+          <t>Et ouais J'viens d'une époque formidable où les valeurs n'étaient pas les mêmes Les jeunes s'prennent pour des rois, oublient qu'leurs mamans, c'est des reines On s'dérègle au fil du temps, les problèmes n'arrivent pas direct Dessiner son chemin quand on ne dépasse même pas dix mètres Y a de la méth' dans la dinette, les hommes vendent à la minute On t'prnd pour un fou, pas grave, j'vais pas gober votre pilul Faut qu'on les insulte à chaque fois parce qu'ils nous écoutent plus J'écoute pas la politique parce que c'est pire qu'fumer tue Tu veux du rap, tiens ça, j'écris des cordes depuis des lustres Encore un tag à l'arrêt d'bus ou un sticker de plus Personne ne croyait en nous, mais on n'a rien lâché l'cous' J'viens d'une époque formidable, personne ne parle de flouse Merci aux jaloux aussi et leur générosité Leur montrer que c'est possible en venant d'une cité J'ai passé tellement d'galères que j'me fous de la victoire Oui, j'ai pleuré dans l'malheur, qui y a qu'Allah qui Tu peux parler ou m'faire du mal, on essaie de se protéger On nous parle souvent d'moutons, mais on respecte le berger D'où l'on vient, où j'vais, comme ceux qui nous tirent vers le bas han J'ai deux côtés, j'ai Son Goku et Vegeta J'écoute toujours avec les tripes, est-ce que vous voyez ? J'décris toujours mes sentiments, est-ce que vous voyez ? Toujours à la recherche de titres, est-ce que vous voyez ? Et si je fais aucune story, est-ce que vous m'voyez ? C'est pour ma famille, mes amis, mon fils et ma p'tite gamine Frérot, je remercie Dieu tant qu'il y a la foi qui m'câline Reste fier, reste fort, ce monde est rempli d'ordures La classe est dans la tête, frère, c'est aussi beau qu'un costume Je postule, ouais, ouais Je bosse dur, ouais, ouais Son costume, ouais, ouais On fait l'truc, ouais, ouais Pas d'impostures, eh non Le trajet, ouais, s'fait long J'rappe en a cappella et j'refais l'même bilan Wow Ça va pas où quoi, là, ramène ça une fois, deux fois, trois fois, autant d'fois qui le faudra L'homme s'appelle Demi Portion, sans perdre de temps, roulez J'écoute toujours avec les tripes, est-ce que vous voyez ? J'décris toujours mes sentiments, est-ce que vous voyez ? Toujours à la recherche de titres, est-ce que vous voyez ? Et si je fais aucune story, est-ce que vous m'voyez ? Rachid DJ Rolxx Yeah I got you stuck off the realness The next rhyme I write might be about you I got you stuck off the realness Or the next rhyme I write might be about you</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Horizon</t>
+          <t>Hors des sentiers</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Et ouais J'viens d'une époque formidable où les valeurs n'étaient pas les mêmes Les jeunes s'prennent pour des rois, oublient qu'leurs mamans, c'est des reines On s'dérègle au fil du temps, les problèmes n'arrivent pas direct Dessiner son chemin quand on ne dépasse même pas dix mètres Y a de la méth' dans la dinette, les hommes vendent à la minute On t'prnd pour un fou, pas grave, j'vais pas gober votre pilul Faut qu'on les insulte à chaque fois parce qu'ils nous écoutent plus J'écoute pas la politique parce que c'est pire qu'fumer tue Tu veux du rap, tiens ça, j'écris des cordes depuis des lustres Encore un tag à l'arrêt d'bus ou un sticker de plus Personne ne croyait en nous, mais on n'a rien lâché l'cous' J'viens d'une époque formidable, personne ne parle de flouse Merci aux jaloux aussi et leur générosité Leur montrer que c'est possible en venant d'une cité J'ai passé tellement d'galères que j'me fous de la victoire Oui, j'ai pleuré dans l'malheur, qui y a qu'Allah qui Tu peux parler ou m'faire du mal, on essaie de se protéger On nous parle souvent d'moutons, mais on respecte le berger D'où l'on vient, où j'vais, comme ceux qui nous tirent vers le bas han J'ai deux côtés, j'ai Son Goku et Vegeta J'écoute toujours avec les tripes, est-ce que vous voyez ? J'décris toujours mes sentiments, est-ce que vous voyez ? Toujours à la recherche de titres, est-ce que vous voyez ? Et si je fais aucune story, est-ce que vous m'voyez ? C'est pour ma famille, mes amis, mon fils et ma p'tite gamine Frérot, je remercie Dieu tant qu'il y a la foi qui m'câline Reste fier, reste fort, ce monde est rempli d'ordures La classe est dans la tête, frère, c'est aussi beau qu'un costume Je postule, ouais, ouais Je bosse dur, ouais, ouais Son costume, ouais, ouais On fait l'truc, ouais, ouais Pas d'impostures, eh non Le trajet, ouais, s'fait long J'rappe en a cappella et j'refais l'même bilan Wow Ça va pas où quoi, là, ramène ça une fois, deux fois, trois fois, autant d'fois qui le faudra L'homme s'appelle Demi Portion, sans perdre de temps, roulez J'écoute toujours avec les tripes, est-ce que vous voyez ? J'décris toujours mes sentiments, est-ce que vous voyez ? Toujours à la recherche de titres, est-ce que vous voyez ? Et si je fais aucune story, est-ce que vous m'voyez ? Rachid DJ Rolxx Yeah I got you stuck off the realness The next rhyme I write might be about you I got you stuck off the realness Or the next rhyme I write might be about you</t>
+          <t>Que tout soit clair, depuis mes premiers pas, j'ai vite compris qu'on n'me comprendrai pas J'ai rien d'un renégat, nan j'peux pas m'renier moi À chaque prise de parole, j'vous vois tous hésiter Comprenez qu'dans l'bien ou dans l'mal on va tous bosser pour des idées Certains pensaient qu'on allait baisser la tête Prendre une fessée ou s'affaisser comme si c'était la fête Nettoie ça, mets-toi là, fais-toi light, fête pas l'Aïd C'est pas grave, t'es malade mais respecte les fatwas laïques Descendant d'esclaves et tirailleurs des trente glorieuses Cultivant l'espoir sans une lueur au fond d'leurs yeuz Hypnotisés par des aguerris sémantique Sous tutelle de crapules les cités d'France s'émancipent Lance des rimes sur le gangsterisme, ces gens s'déguisent Pour forcer l'Enfer croyant qu'on y danse terrible Qu'est-ce qui fait tourner l'monde dans c'maudit bourbier sombre Des mouvements boursier d'nombres fait par des courtiers d'l'ombre On s'bat dans une arène devant des seigneurs à la panse pleine Bercé par l'injustice, mais faudrait pas qu'on s'plaigne, alors On cherche des leaders, y'a que des followers Qui chialent quand leur idole se casse un ongle, accélèrent quand un prolo meurt J'me sens moins jugé par ceux qui me considèrent ennemis J'les sens plus sincère que les trolls de ma cyber ethnie J'me prends pour rien ni personne mais j'suis pas là pour rien Si tu sais pas où tu vas au moins tu vas savoir d'où je viens Hors des sentiers jamais battus quand tu montais on redescendait J'me sens riche de mes choix comme si j'avais d'la thune Des mots si forts pour des vies aussi mortes Forcé de prouver que le terme réalité virtuelle est un oxymore On s'évertue à faire pousser la graine en herbe Leur propagande voudrait changer la crème en merde Quand le mensonge prend l'ascenseur la vérité prend la censure Normal quand j'avance seul de méditer dans l'aventure Un frère me dit Mysa j'suis viré de l'usine PSA Après le fusible RSA y'a que le fusil Berretta J'aimerais trucider l'État, j'suis conscient que Lucifer est là Mais j'ai beau vociférer gars j'me sens pas considéré moi C'est ça les mêmes ingénieurs qui les aident et qui les jaugent Car gentil n'a qu'un il ou porte un gilet jaune Perds la main au Père Lachaise t'as compris comment tu gères ton bail Chômage longue durée épitaphe sur ta pierre tombale J'fais pas dans le charabia faut que je réhabilite Balavoine Quand le vent tourne y'a plus que des girouettes et des chars à voile Ça sent le bord de mer, y'a plus de flot qu'à Palavas Et vivement la tournée Rachid, on va se voir à la caravane Pas de mot d'excuse un Rubik's cube avec mes mots d'exclus Faut que j'humilie le stud un missile scud et ils me reconnaissent plus Combien de rappeurs dégagent une haine légendaire ? Méritent une peine exemplaire mais on se dit laisse les gens faire La majorité d'entre eux s'amuse déchaîne les enfers Ici y'a pas de justice mais dans mes rêves je les enterre Ils tuent des gosses et prennent leur chèque en sauve des vies gratuit Pendant qu'ils mentent et jurent j'te dis pas sur le livre à qui J'suis qu'une histoire dont Dieu en est l'auteur Une trajectoire ombragée de gloires illégitimes qui sabotent mes moteurs J'me dis qu'Noé a prêché presque un millénaire Donc on reste amis les frères mais vous m'avez mis les nerfs Hors des sentiers on descendait, on vous voyait aller chercher la thune On travaillait mais pour manger on préférait passer par les pâtures Pourquoi on devrait s'adapter à des adultes souvent pas très matures ? Hors des sentiers oui mais jamais battus Ça fait on me reconnaît à l'accent cousin Mets le contact mets le volume on aime les choses trop simples On se tue ouais la frustration domine ça Encore un son de malade c'est normal c'est avec Mysa J'ai mille rimes mille sabres ... officiel J'suis le demi d'une portion la vraie moitié d'une pizza L'instru est la médecine douce pas moyen que je mette une douille Allez poussez vous tous tout le monde mérite son coup de pouce On déballe nos verres mauvaise bonne nouvelle Le son est une pure bombe allez sortez les couverts L'ennemi est le principal mais monte les décibels Toujours autant de présence depuis Ménélik Tout baigne La même dégaine ouais les mêmes séquelles yeah Sachant très bien que la musique n'est pas éternelle T'sais que j'aime être seul tel une bonne soeur Je te pose une belle fleur dans un bain de seum Allez bouge de là c'est ce qui me fait écrire Prendre du poids dans la musique c'est ce qui te fait maigrir Alors j'essaie d'écrire des merveilles On dit que je fête plus mon anniversaire Alors j'essaie d'écrire des merveilles En essayant de rester sincère La sincérité frérot aujourd'hui y'a que ça de vrai Demi Portion M.Y.S.A on parle vrai Hors des sentiers on descendait, on vous voyait aller chercher la thune On travaillait mais pour manger on préférait passer par les pâtures Pourquoi on devrait s'adapter à des adultes souvent pas très matures ? Hors des sentiers oui mais jamais battus 15 ans après notre premier feat toujours présent 2.0.2.0 Hors des sentiers on descendait, on vous voyait aller chercher la thune On travaillait mais pour manger on préférait passer par les pâtures Pourquoi on devrait s'adapter à des adultes souvent pas très matures ? Hors des sentiers oui mais jamais battus</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Hors des sentiers</t>
+          <t>Ici la terre</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Que tout soit clair, depuis mes premiers pas, j'ai vite compris qu'on n'me comprendrai pas J'ai rien d'un renégat, nan j'peux pas m'renier moi À chaque prise de parole, j'vous vois tous hésiter Comprenez qu'dans l'bien ou dans l'mal on va tous bosser pour des idées Certains pensaient qu'on allait baisser la tête Prendre une fessée ou s'affaisser comme si c'était la fête Nettoie ça, mets-toi là, fais-toi light, fête pas l'Aïd C'est pas grave, t'es malade mais respecte les fatwas laïques Descendant d'esclaves et tirailleurs des trente glorieuses Cultivant l'espoir sans une lueur au fond d'leurs yeuz Hypnotisés par des aguerris sémantique Sous tutelle de crapules les cités d'France s'émancipent Lance des rimes sur le gangsterisme, ces gens s'déguisent Pour forcer l'Enfer croyant qu'on y danse terrible Qu'est-ce qui fait tourner l'monde dans c'maudit bourbier sombre Des mouvements boursier d'nombres fait par des courtiers d'l'ombre On s'bat dans une arène devant des seigneurs à la panse pleine Bercé par l'injustice, mais faudrait pas qu'on s'plaigne, alors On cherche des leaders, y'a que des followers Qui chialent quand leur idole se casse un ongle, accélèrent quand un prolo meurt J'me sens moins jugé par ceux qui me considèrent ennemis J'les sens plus sincère que les trolls de ma cyber ethnie J'me prends pour rien ni personne mais j'suis pas là pour rien Si tu sais pas où tu vas au moins tu vas savoir d'où je viens Hors des sentiers jamais battus quand tu montais on redescendait J'me sens riche de mes choix comme si j'avais d'la thune Des mots si forts pour des vies aussi mortes Forcé de prouver que le terme réalité virtuelle est un oxymore On s'évertue à faire pousser la graine en herbe Leur propagande voudrait changer la crème en merde Quand le mensonge prend l'ascenseur la vérité prend la censure Normal quand j'avance seul de méditer dans l'aventure Un frère me dit Mysa j'suis viré de l'usine PSA Après le fusible RSA y'a que le fusil Berretta J'aimerais trucider l'État, j'suis conscient que Lucifer est là Mais j'ai beau vociférer gars j'me sens pas considéré moi C'est ça les mêmes ingénieurs qui les aident et qui les jaugent Car gentil n'a qu'un il ou porte un gilet jaune Perds la main au Père Lachaise t'as compris comment tu gères ton bail Chômage longue durée épitaphe sur ta pierre tombale J'fais pas dans le charabia faut que je réhabilite Balavoine Quand le vent tourne y'a plus que des girouettes et des chars à voile Ça sent le bord de mer, y'a plus de flot qu'à Palavas Et vivement la tournée Rachid, on va se voir à la caravane Pas de mot d'excuse un Rubik's cube avec mes mots d'exclus Faut que j'humilie le stud un missile scud et ils me reconnaissent plus Combien de rappeurs dégagent une haine légendaire ? Méritent une peine exemplaire mais on se dit laisse les gens faire La majorité d'entre eux s'amuse déchaîne les enfers Ici y'a pas de justice mais dans mes rêves je les enterre Ils tuent des gosses et prennent leur chèque en sauve des vies gratuit Pendant qu'ils mentent et jurent j'te dis pas sur le livre à qui J'suis qu'une histoire dont Dieu en est l'auteur Une trajectoire ombragée de gloires illégitimes qui sabotent mes moteurs J'me dis qu'Noé a prêché presque un millénaire Donc on reste amis les frères mais vous m'avez mis les nerfs Hors des sentiers on descendait, on vous voyait aller chercher la thune On travaillait mais pour manger on préférait passer par les pâtures Pourquoi on devrait s'adapter à des adultes souvent pas très matures ? Hors des sentiers oui mais jamais battus Ça fait on me reconnaît à l'accent cousin Mets le contact mets le volume on aime les choses trop simples On se tue ouais la frustration domine ça Encore un son de malade c'est normal c'est avec Mysa J'ai mille rimes mille sabres ... officiel J'suis le demi d'une portion la vraie moitié d'une pizza L'instru est la médecine douce pas moyen que je mette une douille Allez poussez vous tous tout le monde mérite son coup de pouce On déballe nos verres mauvaise bonne nouvelle Le son est une pure bombe allez sortez les couverts L'ennemi est le principal mais monte les décibels Toujours autant de présence depuis Ménélik Tout baigne La même dégaine ouais les mêmes séquelles yeah Sachant très bien que la musique n'est pas éternelle T'sais que j'aime être seul tel une bonne soeur Je te pose une belle fleur dans un bain de seum Allez bouge de là c'est ce qui me fait écrire Prendre du poids dans la musique c'est ce qui te fait maigrir Alors j'essaie d'écrire des merveilles On dit que je fête plus mon anniversaire Alors j'essaie d'écrire des merveilles En essayant de rester sincère La sincérité frérot aujourd'hui y'a que ça de vrai Demi Portion M.Y.S.A on parle vrai Hors des sentiers on descendait, on vous voyait aller chercher la thune On travaillait mais pour manger on préférait passer par les pâtures Pourquoi on devrait s'adapter à des adultes souvent pas très matures ? Hors des sentiers oui mais jamais battus 15 ans après notre premier feat toujours présent 2.0.2.0 Hors des sentiers on descendait, on vous voyait aller chercher la thune On travaillait mais pour manger on préférait passer par les pâtures Pourquoi on devrait s'adapter à des adultes souvent pas très matures ? Hors des sentiers oui mais jamais battus</t>
+          <t>Lâche un big up à tout mes rats, jamais ils ne cesseront Ni drôle, ni cinéma, j'arrive changer le scénario Ici on est tolérant à représenter l'Hérault Appelle-moi ton festival on te f'ra mieux qu'à Rio La bonne rime est allié de Casa' jusqu'Antalya Big up à toute l'España en passant par les Baléares J'm'en bas les reins j'ai pas d'masque Peur de faire du mal Peur de faire du mal, peur de faire du mal Beaucoup partent pour 100 balles A la guerre du pourcentage Il est mort, il est plus là Juste pour l'amour de son cash J'ai dû froisser dix mille pages j'ai dû refaire des tympans Mais bon quand on aime bien frère Soi-disant on ne compte pas Oublis les problèmes au calme d'après le son qu'on propage J'ai fait mon chemin c'est pas grave j'te laisse porter mes sandales Donc on y met la totale, en faisant gaffe aux faux pas Y a trop d'monde derrière qui ne connaissent pas Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma car Dieu a crée le Monde le reste Made In China Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma Envoi un beat que l'on s'explique tu sais que l'encre m'appelle Envenimer le bic mec, d'manière à que ce soit mortel J'aime pas le changement évidemment, vu que ça donne une sale recette On goûte à la vie chaque jour, j'partirai maigre comme Brassens On tend la joue vers les siens, t'as le temps de prendre ta gifle On félicite nos petits, dès qu'les projets s'finalisent C'est normal, on en remet, envoie du son car j'dors pas Croquer la vie à pleine dent, j'veux bien mais ça mord pas Y a rien d'grave bic up ! Heureusement que l'on gratte Qu'on pensera à Sean Price, Big L ou à Gang Starr On minimise à chaque fois même si le respect s'oublie J'voudrais laisser une belle trace juste avant d'être enseveli On en remet, c'est grâce aux erreurs qu'on se r'lit Qu'on apprend à tourner la page même si on a même plus de livre Oui laissez-nous respirer Laissez-nous sans pression, j'passe à travers le filet Un truc comme demi portion Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'ils ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma car Dieu a crée le Monde le reste Made In China Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'ils ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma et ouai Depuis le, depuis le, depuis le temps que je rappe Depuis le, depuis le, depuis le temps que je rappe... la Rumeur Depuis le, depuis le temps que je rappe... à la Scred Depuis le, depuis le temps que je rappe... Rocca Depuis, depuis le temps que je rappe... Assassin Depuis le, depuis le temps que je rappe... les Sages Po' Depuis le, depuis le temps que je rappe... c'est ça Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma car Dieu a crée le Monde le reste Made In China Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma Malgré les douleurs et les blessures on se relève gars</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ici la terre</t>
+          <t>Ils voudront savoir</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Lâche un big up à tout mes rats, jamais ils ne cesseront Ni drôle, ni cinéma, j'arrive changer le scénario Ici on est tolérant à représenter l'Hérault Appelle-moi ton festival on te f'ra mieux qu'à Rio La bonne rime est allié de Casa' jusqu'Antalya Big up à toute l'España en passant par les Baléares J'm'en bas les reins j'ai pas d'masque Peur de faire du mal Peur de faire du mal, peur de faire du mal Beaucoup partent pour 100 balles A la guerre du pourcentage Il est mort, il est plus là Juste pour l'amour de son cash J'ai dû froisser dix mille pages j'ai dû refaire des tympans Mais bon quand on aime bien frère Soi-disant on ne compte pas Oublis les problèmes au calme d'après le son qu'on propage J'ai fait mon chemin c'est pas grave j'te laisse porter mes sandales Donc on y met la totale, en faisant gaffe aux faux pas Y a trop d'monde derrière qui ne connaissent pas Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma car Dieu a crée le Monde le reste Made In China Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma Envoi un beat que l'on s'explique tu sais que l'encre m'appelle Envenimer le bic mec, d'manière à que ce soit mortel J'aime pas le changement évidemment, vu que ça donne une sale recette On goûte à la vie chaque jour, j'partirai maigre comme Brassens On tend la joue vers les siens, t'as le temps de prendre ta gifle On félicite nos petits, dès qu'les projets s'finalisent C'est normal, on en remet, envoie du son car j'dors pas Croquer la vie à pleine dent, j'veux bien mais ça mord pas Y a rien d'grave bic up ! Heureusement que l'on gratte Qu'on pensera à Sean Price, Big L ou à Gang Starr On minimise à chaque fois même si le respect s'oublie J'voudrais laisser une belle trace juste avant d'être enseveli On en remet, c'est grâce aux erreurs qu'on se r'lit Qu'on apprend à tourner la page même si on a même plus de livre Oui laissez-nous respirer Laissez-nous sans pression, j'passe à travers le filet Un truc comme demi portion Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'ils ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma car Dieu a crée le Monde le reste Made In China Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'ils ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma et ouai Depuis le, depuis le, depuis le temps que je rappe Depuis le, depuis le, depuis le temps que je rappe... la Rumeur Depuis le, depuis le temps que je rappe... à la Scred Depuis le, depuis le temps que je rappe... Rocca Depuis, depuis le temps que je rappe... Assassin Depuis le, depuis le temps que je rappe... les Sages Po' Depuis le, depuis le temps que je rappe... c'est ça Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma car Dieu a crée le Monde le reste Made In China Malgré les douleurs et les blessures on se relève gars On a sûrement vécu des choses qu'y ne connaissent pas J'veux causer à la terre entière oui c'est ça l'schéma Malgré les douleurs et les blessures on se relève gars</t>
+          <t>Ils voudront savoir Si tout va pour moi Et ils se plaindront de mon silence Ils voudront savoir Ils voudront savoir quoi ? Si tout va pour moi Ah bon ? Et ils se plaindront de mon silence Que font-ils ? Mais où sont-ils ? Ils voudront savoir Ils voudront savoir quoi ? Si tout va pour moi Ah bon ? Et ils se plaindront de mon silence Un beat et du rap, j'innove la fiesta Comme dirait Busta C'est nous les reustas Plus d'modestie, tout va bien pour moi Et si t'as pris une grosse gifle, c'est qu't'insultes les mamans Ils voudront savoir comme d'hab' qui a commencé Qui nous a parlés mal et qui nous a balancés Ferme ta gueule, j't'arrête là, remballe, tu rigoles J'fais ni du rap d'intello, ni ton rap de mongol' Ni d'la nouvelle école, tu vois bien un couloir On dort, mais y'a toujours un texte dans l'coltard J'm'emporte, et me demande pas pourquoi je dors tard J'm'exporte, et c'est derrière que j'masse Wouaw, on va pas s'battre, bande de curieux Ne suce pas, ne cherche pas, l'être humain n'a qu'une queue Dès fois il n'a pas d'cur, et fait style d'être dangereux J'te laisse dans l'délire, moi j'suis même plus dans l'jeu Peu importe l'heure ou l'endroit on s'en remet au destin La vie est un test hein, faut qu'je reste modeste, wesh Allez, p't-être une fois dans l'année j'me la pète, mais jamais j'fais le roi Quand j'peux, je donne ou je prête, jamais je fais le rat En tête de faire plaisir à l'entourage mais faut la XXX Question d'texte, j'en suis amoureux mais j'm'en fous du rap On fait ça pour le kiff, le bif s'il en reste Combien d'fois ces derniers temps on entend C'est la hass ! ? Grosse collision entre l'euphorie et les baisses de moral Une fois tu ris, une fois tu pleures, vas-y renvoie la balle Surtout quand la dure réalité t'frappe, des fois Je sais c'est dur de garder la tête froide, en tout cas Quand ça va mal, j'saurai quoi dire à mon zinc' Les miens, ils comptent sur moi comme Kadir à Marseille Sûr, compte sur moi la famille, compte sur moi Paroles rédigées et expliquées par la communauté Rap Genius France !</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ils voudront savoir</t>
+          <t>Insolents III</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ils voudront savoir Si tout va pour moi Et ils se plaindront de mon silence Ils voudront savoir Ils voudront savoir quoi ? Si tout va pour moi Ah bon ? Et ils se plaindront de mon silence Que font-ils ? Mais où sont-ils ? Ils voudront savoir Ils voudront savoir quoi ? Si tout va pour moi Ah bon ? Et ils se plaindront de mon silence Un beat et du rap, j'innove la fiesta Comme dirait Busta C'est nous les reustas Plus d'modestie, tout va bien pour moi Et si t'as pris une grosse gifle, c'est qu't'insultes les mamans Ils voudront savoir comme d'hab' qui a commencé Qui nous a parlés mal et qui nous a balancés Ferme ta gueule, j't'arrête là, remballe, tu rigoles J'fais ni du rap d'intello, ni ton rap de mongol' Ni d'la nouvelle école, tu vois bien un couloir On dort, mais y'a toujours un texte dans l'coltard J'm'emporte, et me demande pas pourquoi je dors tard J'm'exporte, et c'est derrière que j'masse Wouaw, on va pas s'battre, bande de curieux Ne suce pas, ne cherche pas, l'être humain n'a qu'une queue Dès fois il n'a pas d'cur, et fait style d'être dangereux J'te laisse dans l'délire, moi j'suis même plus dans l'jeu Peu importe l'heure ou l'endroit on s'en remet au destin La vie est un test hein, faut qu'je reste modeste, wesh Allez, p't-être une fois dans l'année j'me la pète, mais jamais j'fais le roi Quand j'peux, je donne ou je prête, jamais je fais le rat En tête de faire plaisir à l'entourage mais faut la XXX Question d'texte, j'en suis amoureux mais j'm'en fous du rap On fait ça pour le kiff, le bif s'il en reste Combien d'fois ces derniers temps on entend C'est la hass ! ? Grosse collision entre l'euphorie et les baisses de moral Une fois tu ris, une fois tu pleures, vas-y renvoie la balle Surtout quand la dure réalité t'frappe, des fois Je sais c'est dur de garder la tête froide, en tout cas Quand ça va mal, j'saurai quoi dire à mon zinc' Les miens, ils comptent sur moi comme Kadir à Marseille Sûr, compte sur moi la famille, compte sur moi Paroles rédigées et expliquées par la communauté Rap Genius France !</t>
+          <t>Trente-quatre piges, toujours insolent Yeah Pousse le son, il faut qu'ça résonne dans tout l'habitacle Troisième et dernier épisode d'une série classique tah l'Big Mac Ils nous laissent dans de beaux draps donc on avance grandes gueules ouvertes Et crois-moi qu'il en faudra avant que mon gang de loups perde Coupe la télé, ouvre les yeux et c'est là qu'l'effet s'annule Je marche chaque jour deux grammes dans l'corps, pourtant, j'ai jamais fait la mule Putain, déjà quatre piges que quarante-trois rappeurs mythiques fusillent c'thème Plutôt mourir majeur levé qu'victime du système Yo, dis-leur, Tek', j'suis insolent, NTM, MC Solaar On a grandi avec Céline et regardez les vices qu'on a J'mate l'avenir comme un connard et passe du temps devant ma feuille, hein Un teh et j'me sens bien, en même temps, on est seuls, hein On a la bonne, t'sais très bien qu'on a la bonne On pense souvent à la mort car, à côté, on voit la taule Donc, l'espoir, j'en veux encore juste avant d'se faire la malle J'suis l'mélange d'Abraham featuring Kendrick Lamar J'me suis pas souvent battue, mais que mes frères en soient témoins J'étais l'genre de p'tite qui t'fatigue et n'aime pas qu'on la dévisage J'avais l'genre de répartie qui donne envie d'en v'nir aux mains Avec un r'gard qui t'assassine et un sourire de fille si sage J'ai souvent mal parlé, pas souvent demandé pardon Le corps athlétique mais c'est ma bouche qui en a buté plus d'un Tu sais d'jà qu'on s'en bat les steaks des qu'en dira-t-on ? Toujours l'même adjectif noté en rouge à chaque bulletin À chaque couplet, c'est la cérémonie des grosses rimes quand ma folie s'égosille J'envoie une frappe par semaine et j'terrorise tes prodiges J'ai l'produit, c'est promis, dis-leur qu'j'suis insolent Comme un raciste qui s'branle devant un boule catégorie ebony J'ai pas qu'un sale grain, bien sûr que j'aimerais grimper Mais, pour eux, j'suis qu'un grincheux qui rappe son chagrin La réussite est une guerre à mener, mais j'suis pas seul À faire mon trou, je pense à ceux qui m'aident à creuser, manito J'suis comme La Provence, moi, j'suis là pour votre information J'suis dans l'insolence et ça provoque des insolations On cherche un soleil, c'est parce qu'on n'attend rien d'la lune C'monde est ainsi fait, mon habitat est insalubre Les miens aussi, ils veulent des sous, c'est pas d'la symbolique On t'fait un son lourd et ça d'vient insolite Et, moi, dans l'absolu, j'ai b'soin d'avoir des bases solides La rime étant sonnante, le shit est dans la Samsonite J'suis du genre à perdre le sud toi, t'es juste du genre à perdre Comme dirait Jimmie des comme toi, y'en a à perte de vue Espèce de pute, j'réveille le puma qui sommeille en toi Pour qu'il réveille le braconnier qui sommeille en moi et qu'j'te bute J'ai la rime qui fait remuer la queue d'ta chienne de nuque Et la weed qui fait bader quand il en reste plus Quoi d'plus sensé que d'se faire baiser par ceux qui t'aiment le plus ? Grand J'aurais perdu la vie bien avant qu'je perde le truc J'ai pas changé, même si j'rappe plus sur des violons acérés J'pense toujours à ces règles, j'continue à serrer J'm'enferme de plus en plus et j'm'accroche à ces rêves Pourquoi parler des flux ? Ça fait des siècles qu'on est ferrés han J'sais pas c'que j'ai, j'ai des envies, han Mais j'dois m'soucier de ces gens qui dansent Sur des milliers d'chants, à pieds joints sur des minages Ma soirée devient minable Comme toi, j'ai pas toujours fait c'qu'il fallait Sur mon béton, toutes les roses ont fané J'crache sur nos dirigeants, ils m'font marrer T'étonne pas qu'on réponde avec des pavés J'viens pour tout brûler, pourtant, j'suis calme, hein Toxique comme les vapeurs que j'inhale J'ai bu, j'ai bu tous les jerricanes Insolent comme mes démons qui ricanent Paradoxal, j'ai fait mes classes en séchant les cours Vesqui' la brigade, la drogua bien au chaud dans les couilles Vu qu'c'est l'seul attribut qui t'fait tenir debout Un caractère trop têtu a d'autres tentatives d'être maboule J'porte des lourdes peines, c'est l'poids des années d'blèmes-pro' Minot, p't-être même que j'rêvais trop d'Merco Benz J'étais qu'un gosse à la cabosse amochée walou Rien de bien méchant, le cur légèrement cabossé On est v'nus pour claquer des culs mais, maint'nant, ça zappe les études Au fond, je crois qu'de nos jours l'insolence, c'est pas braquer des thunes Dans ce monde où chacun, de son ego, se gargarise Où tout l'monde veut t'la mettre, prépare les doses de margarine On est mal barrés au milieu d'ce tas d'tarés, j'rappe paré Insolents, c'est rap pour contrer cette phase d'arrêt Masse ta raie si tu veux, nous, on espère qu'ça change L'espoir est p't-être vain mais ça marche pas si tu laisses faire la chance J'ai passé l'âge d'être insolent mais tout s'effondre Et ceux qui peuvent changer s'en foutent alors, c'coup-ci, y'en a assez J'ai envie d'caillasser un keuf comme le clown Que j'étais y'a quinze ans passés Ouais, vous n'aimez pas les gueux mais, non, ne fermez pas les yeux Lorsque les oubliés de Dieu tendent les mains aux Cieux Macron, si tu crains l'accident, pourquoi tu scies l'essieu ? Si, si, ce sont bien des linceuls écrasés sous tes rêves de béton et d'acier Ils veulent qu'on suce leurs rois grotesques, quitte à finir les lèvres rouges sang On a toujours suivi nos règles les tiennes, tu peux t'les mettre où j'pense Personne n'dirige nos rêves, tu peux dire à cette belle douce France Qu'on n'va pas finir vos restes et supporter de telles souffrances Un saut d'ange dans les flammes pour savoir qu'on a mangé sale Insolents dans les âmes, tu pourras jamais changer ça Big up à ceux sur l'même navire, à tous mes insolents Qui peut contrôler ta vie quand c'est toi qui tiens l'volant ? Le majeur en pôle position, t'apprends à rendre les coups J'pousse pas la fonte, juste ma voix pour en découdre et j'les emmerde à fond Quand tout m'est égal, j'dédie qu'à mes gars, aux mans, aux potes de ma clique Je pète des câbles, ça fait des dégâts, du mal, des chocs traumatiques Et j'veux que le vin efface la poussière, l'insolence tient la porte Le chant des sirènes tire la corde de façon grossière Lassés comme ça, les coups durs, on s'y fait, ça forge, à force Les gens préfèrent te critiquer que d'envoyer d'la force J'crois qu'en une track, on mesure pas tout l'level d'insolence Dès qu't'en serres trois, j'rentre en débat, c'est bien plus passionnant Certains l'oublient, d'autres sans sous-titre n'ont pas appris à penser Ouais, mon sourire, j'le sors pour l'pire et prie la vie d'avancer J'suis pas si p'tite pour témoigner d'leur arrogance Car la limite se pose quand ils s'considèrent comme le sommet Cousin, l'respect est mort y'a bien longtemps loin d'la romance Pour qu'le combat prenne sens, je t'offre une dose d'insolence à consommer Tu vas payer pour ton insolence ridicule</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Insolents III</t>
+          <t>Interfusion</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Trente-quatre piges, toujours insolent Yeah Pousse le son, il faut qu'ça résonne dans tout l'habitacle Troisième et dernier épisode d'une série classique tah l'Big Mac Ils nous laissent dans de beaux draps donc on avance grandes gueules ouvertes Et crois-moi qu'il en faudra avant que mon gang de loups perde Coupe la télé, ouvre les yeux et c'est là qu'l'effet s'annule Je marche chaque jour deux grammes dans l'corps, pourtant, j'ai jamais fait la mule Putain, déjà quatre piges que quarante-trois rappeurs mythiques fusillent c'thème Plutôt mourir majeur levé qu'victime du système Yo, dis-leur, Tek', j'suis insolent, NTM, MC Solaar On a grandi avec Céline et regardez les vices qu'on a J'mate l'avenir comme un connard et passe du temps devant ma feuille, hein Un teh et j'me sens bien, en même temps, on est seuls, hein On a la bonne, t'sais très bien qu'on a la bonne On pense souvent à la mort car, à côté, on voit la taule Donc, l'espoir, j'en veux encore juste avant d'se faire la malle J'suis l'mélange d'Abraham featuring Kendrick Lamar J'me suis pas souvent battue, mais que mes frères en soient témoins J'étais l'genre de p'tite qui t'fatigue et n'aime pas qu'on la dévisage J'avais l'genre de répartie qui donne envie d'en v'nir aux mains Avec un r'gard qui t'assassine et un sourire de fille si sage J'ai souvent mal parlé, pas souvent demandé pardon Le corps athlétique mais c'est ma bouche qui en a buté plus d'un Tu sais d'jà qu'on s'en bat les steaks des qu'en dira-t-on ? Toujours l'même adjectif noté en rouge à chaque bulletin À chaque couplet, c'est la cérémonie des grosses rimes quand ma folie s'égosille J'envoie une frappe par semaine et j'terrorise tes prodiges J'ai l'produit, c'est promis, dis-leur qu'j'suis insolent Comme un raciste qui s'branle devant un boule catégorie ebony J'ai pas qu'un sale grain, bien sûr que j'aimerais grimper Mais, pour eux, j'suis qu'un grincheux qui rappe son chagrin La réussite est une guerre à mener, mais j'suis pas seul À faire mon trou, je pense à ceux qui m'aident à creuser, manito J'suis comme La Provence, moi, j'suis là pour votre information J'suis dans l'insolence et ça provoque des insolations On cherche un soleil, c'est parce qu'on n'attend rien d'la lune C'monde est ainsi fait, mon habitat est insalubre Les miens aussi, ils veulent des sous, c'est pas d'la symbolique On t'fait un son lourd et ça d'vient insolite Et, moi, dans l'absolu, j'ai b'soin d'avoir des bases solides La rime étant sonnante, le shit est dans la Samsonite J'suis du genre à perdre le sud toi, t'es juste du genre à perdre Comme dirait Jimmie des comme toi, y'en a à perte de vue Espèce de pute, j'réveille le puma qui sommeille en toi Pour qu'il réveille le braconnier qui sommeille en moi et qu'j'te bute J'ai la rime qui fait remuer la queue d'ta chienne de nuque Et la weed qui fait bader quand il en reste plus Quoi d'plus sensé que d'se faire baiser par ceux qui t'aiment le plus ? Grand J'aurais perdu la vie bien avant qu'je perde le truc J'ai pas changé, même si j'rappe plus sur des violons acérés J'pense toujours à ces règles, j'continue à serrer J'm'enferme de plus en plus et j'm'accroche à ces rêves Pourquoi parler des flux ? Ça fait des siècles qu'on est ferrés han J'sais pas c'que j'ai, j'ai des envies, han Mais j'dois m'soucier de ces gens qui dansent Sur des milliers d'chants, à pieds joints sur des minages Ma soirée devient minable Comme toi, j'ai pas toujours fait c'qu'il fallait Sur mon béton, toutes les roses ont fané J'crache sur nos dirigeants, ils m'font marrer T'étonne pas qu'on réponde avec des pavés J'viens pour tout brûler, pourtant, j'suis calme, hein Toxique comme les vapeurs que j'inhale J'ai bu, j'ai bu tous les jerricanes Insolent comme mes démons qui ricanent Paradoxal, j'ai fait mes classes en séchant les cours Vesqui' la brigade, la drogua bien au chaud dans les couilles Vu qu'c'est l'seul attribut qui t'fait tenir debout Un caractère trop têtu a d'autres tentatives d'être maboule J'porte des lourdes peines, c'est l'poids des années d'blèmes-pro' Minot, p't-être même que j'rêvais trop d'Merco Benz J'étais qu'un gosse à la cabosse amochée walou Rien de bien méchant, le cur légèrement cabossé On est v'nus pour claquer des culs mais, maint'nant, ça zappe les études Au fond, je crois qu'de nos jours l'insolence, c'est pas braquer des thunes Dans ce monde où chacun, de son ego, se gargarise Où tout l'monde veut t'la mettre, prépare les doses de margarine On est mal barrés au milieu d'ce tas d'tarés, j'rappe paré Insolents, c'est rap pour contrer cette phase d'arrêt Masse ta raie si tu veux, nous, on espère qu'ça change L'espoir est p't-être vain mais ça marche pas si tu laisses faire la chance J'ai passé l'âge d'être insolent mais tout s'effondre Et ceux qui peuvent changer s'en foutent alors, c'coup-ci, y'en a assez J'ai envie d'caillasser un keuf comme le clown Que j'étais y'a quinze ans passés Ouais, vous n'aimez pas les gueux mais, non, ne fermez pas les yeux Lorsque les oubliés de Dieu tendent les mains aux Cieux Macron, si tu crains l'accident, pourquoi tu scies l'essieu ? Si, si, ce sont bien des linceuls écrasés sous tes rêves de béton et d'acier Ils veulent qu'on suce leurs rois grotesques, quitte à finir les lèvres rouges sang On a toujours suivi nos règles les tiennes, tu peux t'les mettre où j'pense Personne n'dirige nos rêves, tu peux dire à cette belle douce France Qu'on n'va pas finir vos restes et supporter de telles souffrances Un saut d'ange dans les flammes pour savoir qu'on a mangé sale Insolents dans les âmes, tu pourras jamais changer ça Big up à ceux sur l'même navire, à tous mes insolents Qui peut contrôler ta vie quand c'est toi qui tiens l'volant ? Le majeur en pôle position, t'apprends à rendre les coups J'pousse pas la fonte, juste ma voix pour en découdre et j'les emmerde à fond Quand tout m'est égal, j'dédie qu'à mes gars, aux mans, aux potes de ma clique Je pète des câbles, ça fait des dégâts, du mal, des chocs traumatiques Et j'veux que le vin efface la poussière, l'insolence tient la porte Le chant des sirènes tire la corde de façon grossière Lassés comme ça, les coups durs, on s'y fait, ça forge, à force Les gens préfèrent te critiquer que d'envoyer d'la force J'crois qu'en une track, on mesure pas tout l'level d'insolence Dès qu't'en serres trois, j'rentre en débat, c'est bien plus passionnant Certains l'oublient, d'autres sans sous-titre n'ont pas appris à penser Ouais, mon sourire, j'le sors pour l'pire et prie la vie d'avancer J'suis pas si p'tite pour témoigner d'leur arrogance Car la limite se pose quand ils s'considèrent comme le sommet Cousin, l'respect est mort y'a bien longtemps loin d'la romance Pour qu'le combat prenne sens, je t'offre une dose d'insolence à consommer Tu vas payer pour ton insolence ridicule</t>
+          <t>Cette piste est un interlude musical C'est une instrumentale</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Interfusion</t>
+          <t>Interlutte</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Interlutte</t>
+          <t>J’ai du mal à vivre</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Cette piste est un interlude musical C'est une instrumentale</t>
+          <t>Les grandes gueules Le puzzle Demi portion Ecoute ça Le vrai Ben J'ai encore du mal à vivre Savourer l'air d'cette planète On s'habitue vite à cette merde mélangée à la cigarette J'ai encore du mal à vivre Mes souvenirs effacés Les regards plus sévères quand ta mère parle pas l'français J'ai encore du mal à vivre Faire confiance aux vrais amis On apprend vite à s'lever seul et n'plus voir le tatami J'ai encore du mal à vivre Regarder une pute en face qui essaie d'se faire tourner Qu'on dirait une pub en France J'ai encore du mal à vivre Gros c'est trop depuis minot On veut tous réparer seul sans faire appel au mécano A part tomber dans l'panneau, essayer d'gérer sa route Certains ont préféré la fume, d'autres une bouteille au hanout J'ai encore du mal à vivre Et chaque matin on vient m'rappeler Qu'le temps est compté, qu'le chemin on l'finira à pied J'ai encore du mal à vivre Moi aussi j'veux des enfants Comme je saurai donner l'amour, et j'te l'dis en restant franc Y a toujours ce mal de vivre, tu le liras sous mes cernes Comment refermer la plaie quand elle est débordée d'sel Vouloir chercher conseil, les jaloux répondront Vas-y mange le goulot Et tes projets qui ont 100 ans J'ai encore du mal à vivre Endurcir mon édifice Chaque couplet vient cracher à ceux qui souhaitent qu'on s'divise Le combat on l'continuera, en groupe ou tout seul Demi Portion, les Grandes Gueules et le Vrai Ben du Puzzle J'ai encore du mal à vivre J'ai encore du mal à vivre J'ai encore du mal à vivre J'ai encore du mal à vivre Ma raison est en cavale Mais moi j'respire, c'est d'jà pas mal Mon nom résonne ici tant bien qu'mal Gravé sur un CD, bientôt sur une pierre tombale J'ai pas l'moral mon cousin J'suis pas fait pour la vraie vie, c'est dur mon cousin Se lever tôt le matin, pressé pour rien Faire semblant d'aimer des gens qui font semblant de m'aimer, putain J'ai encore du mal à vivre ma vie A la radio c'matin Alain Souchon m'a dit de mettre l'amour à la machine pour retrouver les couleurs connerie J'ai essayé, Rachid, l'amour a rétrécit Des naissances, des décès, des échecs, des succès Ce gâchis c'est la vie, tu sais Saisons automne-hiver bébé Quand j'm'occupe de mes oignons, ça m'donne envie d'pleurer Les énarques et les héritiers entassent les sous Ces gens qui ne comprennent rien décident de tout Les autres regardent la télé, ils deviennent débiles Et les génies incompris finissent à l'asile Même s'ils disent que non, les gens n'ont besoin que d'amour et d'attention Qu'importe la religion, qu'importe leur couleur Les gens sont juste des gens, ils vivent, ensuite ils meurent x2</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>J’ai du mal à vivre</t>
+          <t>J’ai pas les mots</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Les grandes gueules Le puzzle Demi portion Ecoute ça Le vrai Ben J'ai encore du mal à vivre Savourer l'air d'cette planète On s'habitue vite à cette merde mélangée à la cigarette J'ai encore du mal à vivre Mes souvenirs effacés Les regards plus sévères quand ta mère parle pas l'français J'ai encore du mal à vivre Faire confiance aux vrais amis On apprend vite à s'lever seul et n'plus voir le tatami J'ai encore du mal à vivre Regarder une pute en face qui essaie d'se faire tourner Qu'on dirait une pub en France J'ai encore du mal à vivre Gros c'est trop depuis minot On veut tous réparer seul sans faire appel au mécano A part tomber dans l'panneau, essayer d'gérer sa route Certains ont préféré la fume, d'autres une bouteille au hanout J'ai encore du mal à vivre Et chaque matin on vient m'rappeler Qu'le temps est compté, qu'le chemin on l'finira à pied J'ai encore du mal à vivre Moi aussi j'veux des enfants Comme je saurai donner l'amour, et j'te l'dis en restant franc Y a toujours ce mal de vivre, tu le liras sous mes cernes Comment refermer la plaie quand elle est débordée d'sel Vouloir chercher conseil, les jaloux répondront Vas-y mange le goulot Et tes projets qui ont 100 ans J'ai encore du mal à vivre Endurcir mon édifice Chaque couplet vient cracher à ceux qui souhaitent qu'on s'divise Le combat on l'continuera, en groupe ou tout seul Demi Portion, les Grandes Gueules et le Vrai Ben du Puzzle J'ai encore du mal à vivre J'ai encore du mal à vivre J'ai encore du mal à vivre J'ai encore du mal à vivre Ma raison est en cavale Mais moi j'respire, c'est d'jà pas mal Mon nom résonne ici tant bien qu'mal Gravé sur un CD, bientôt sur une pierre tombale J'ai pas l'moral mon cousin J'suis pas fait pour la vraie vie, c'est dur mon cousin Se lever tôt le matin, pressé pour rien Faire semblant d'aimer des gens qui font semblant de m'aimer, putain J'ai encore du mal à vivre ma vie A la radio c'matin Alain Souchon m'a dit de mettre l'amour à la machine pour retrouver les couleurs connerie J'ai essayé, Rachid, l'amour a rétrécit Des naissances, des décès, des échecs, des succès Ce gâchis c'est la vie, tu sais Saisons automne-hiver bébé Quand j'm'occupe de mes oignons, ça m'donne envie d'pleurer Les énarques et les héritiers entassent les sous Ces gens qui ne comprennent rien décident de tout Les autres regardent la télé, ils deviennent débiles Et les génies incompris finissent à l'asile Même s'ils disent que non, les gens n'ont besoin que d'amour et d'attention Qu'importe la religion, qu'importe leur couleur Les gens sont juste des gens, ils vivent, ensuite ils meurent x2</t>
+          <t>J'ai pas les mots Hmm j'ai pas les mots Yo J'ai toujours dis c'que j'avais sur le cur Mais jamais tout C'est fou ces infos qui peuvent rester enfouis Dans un si petit corps Petit à petit les pires douleurs deviennent Comme les meilleurs fous rires Difficile à décrire me rend compte que j'ai pas les mots Pourtant ça gratte des textes un jour sur deux Mais même pas capable D'aborder des sujets complexes Taper du poing sur la table J'veux qu'on m'écoute, pas qu'on m'acclame Sera déçu qui m'demande La première fois qu'j'ai vu un cadavre Car j'ai pas les mots Inspirée par le paysage, l'histoire et mes états d'âme On s'est pavané à Paname mais si c'est pas là-bas qu'on est nés Du bord de mer on kiffe aimer, la moue, la nature qui fait mal Montagnes autour, le seul point commun C'est qu'au sommet j'ai pas les mots Le paradoxe est là Drôle quand t'y penses D'écrire un son qui révèle à tous que le silence était d'or Mais c'est fort en émotion Moi les mots sortent Parait qu'c'est ça le vrai bonheur La déception, l'autocensure ou la pudeur Et quand les mômes font une démo pourrie J'ai pas les mots Quand un je t'aime va avec deux sourires J'ai pas les mots J'ai beau courir après le vocabulaire Taffer des nouveaux thèmes Restent ces images dans ma tête Pour lesquelles je n'ai pas de mots Les cicatrices sur mon visage J'ai pas les mots La première fois au-dessus des nuages J'ai pas les mots J'ai beau m'ouvrir je me mens Trop compliqué à définir simplement Ces sentiments pour lesquels Il n'y a pas de mots J'arrive du sud comme d'habitude Avec l'accent de Brassens Demande à Fabe j'ai l'attitude Depuis le poste cassette J'ai pas les mots et ni la flûte Vu qu'mon silence est un orchestre Mes textes ont fait des nuits blanches Explosés sous un couchette Tous s'embrouille ouais Fanny J'rappe en restant poli J'nique la musique de France Mais j'l'aime toujours dans mon lit J'ai pas les mots s'il te plait Donc cherche pas l'anomalie C'est pas les rappeurs qui puent C'est l'auditeur qui salit J'ai pas les mots smahlia On partira comme Aaliyah On espère se faire oublier un peu comme le groupe Alliage J'ai pas les mots smahlia On partira comme Aaliyah On espère se faire oublier un peu comme le groupe Alliage Envoie la tasse de café Et crame donc la grosse tête Et laisse nous fumer J'ai pas les mots préfère vivre en scred Quand tu t'mens à toi-même Excuse j'ai pas les mots Laisse nous vivre simplement Pardon j'aime pas la mort Un coucher de soleil, une tempête qui s'lève J'ai pas les mots La modernisation des esclaves J'ai pas les mots Tu peux jouer mais pas tricher Très peu j'me suis dévoilée m'man S'être égaré beaucoup de retouches Et quand la bouche trouve pas les mots J'voulais parler d'mes plus belles victoires J'ai pas les mots Remplir des salles mais face au miroir J'ai pas les mots J'voulais qu'on m'aime Comme à l'ancienne être une poète au micro Mais le rap de comique et de mytho 2.0 JPLM x2 Le paradoxe est là Drôle quand t'y penses D'écrire un son qui révèle à tous Que le silence était d'or Mais c'est fort en émotion Moi les mots sortent Parait que c'est ça le vrai bonheur La déception, l'autocensure ou la pudeur J'ai pas les mots</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>J’ai pas les mots</t>
+          <t>J’ai trouvé ma place</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>J'ai pas les mots Hmm j'ai pas les mots Yo J'ai toujours dis c'que j'avais sur le cur Mais jamais tout C'est fou ces infos qui peuvent rester enfouis Dans un si petit corps Petit à petit les pires douleurs deviennent Comme les meilleurs fous rires Difficile à décrire me rend compte que j'ai pas les mots Pourtant ça gratte des textes un jour sur deux Mais même pas capable D'aborder des sujets complexes Taper du poing sur la table J'veux qu'on m'écoute, pas qu'on m'acclame Sera déçu qui m'demande La première fois qu'j'ai vu un cadavre Car j'ai pas les mots Inspirée par le paysage, l'histoire et mes états d'âme On s'est pavané à Paname mais si c'est pas là-bas qu'on est nés Du bord de mer on kiffe aimer, la moue, la nature qui fait mal Montagnes autour, le seul point commun C'est qu'au sommet j'ai pas les mots Le paradoxe est là Drôle quand t'y penses D'écrire un son qui révèle à tous que le silence était d'or Mais c'est fort en émotion Moi les mots sortent Parait qu'c'est ça le vrai bonheur La déception, l'autocensure ou la pudeur Et quand les mômes font une démo pourrie J'ai pas les mots Quand un je t'aime va avec deux sourires J'ai pas les mots J'ai beau courir après le vocabulaire Taffer des nouveaux thèmes Restent ces images dans ma tête Pour lesquelles je n'ai pas de mots Les cicatrices sur mon visage J'ai pas les mots La première fois au-dessus des nuages J'ai pas les mots J'ai beau m'ouvrir je me mens Trop compliqué à définir simplement Ces sentiments pour lesquels Il n'y a pas de mots J'arrive du sud comme d'habitude Avec l'accent de Brassens Demande à Fabe j'ai l'attitude Depuis le poste cassette J'ai pas les mots et ni la flûte Vu qu'mon silence est un orchestre Mes textes ont fait des nuits blanches Explosés sous un couchette Tous s'embrouille ouais Fanny J'rappe en restant poli J'nique la musique de France Mais j'l'aime toujours dans mon lit J'ai pas les mots s'il te plait Donc cherche pas l'anomalie C'est pas les rappeurs qui puent C'est l'auditeur qui salit J'ai pas les mots smahlia On partira comme Aaliyah On espère se faire oublier un peu comme le groupe Alliage J'ai pas les mots smahlia On partira comme Aaliyah On espère se faire oublier un peu comme le groupe Alliage Envoie la tasse de café Et crame donc la grosse tête Et laisse nous fumer J'ai pas les mots préfère vivre en scred Quand tu t'mens à toi-même Excuse j'ai pas les mots Laisse nous vivre simplement Pardon j'aime pas la mort Un coucher de soleil, une tempête qui s'lève J'ai pas les mots La modernisation des esclaves J'ai pas les mots Tu peux jouer mais pas tricher Très peu j'me suis dévoilée m'man S'être égaré beaucoup de retouches Et quand la bouche trouve pas les mots J'voulais parler d'mes plus belles victoires J'ai pas les mots Remplir des salles mais face au miroir J'ai pas les mots J'voulais qu'on m'aime Comme à l'ancienne être une poète au micro Mais le rap de comique et de mytho 2.0 JPLM x2 Le paradoxe est là Drôle quand t'y penses D'écrire un son qui révèle à tous Que le silence était d'or Mais c'est fort en émotion Moi les mots sortent Parait que c'est ça le vrai bonheur La déception, l'autocensure ou la pudeur J'ai pas les mots</t>
+          <t>J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place J'irai visiter le monde et là, je crois que c'est le cas de le dire, hein J'ai scellé mon cadenas sur l'Accademia à Venise Une rose à la main, j'arrose mon annif' à Rovinj Non, je n'attends pas la fin, je vais me noyer à l'eau d'vie Me plonger dans les décors de la Polynésie française Moi, j'ai plaidé la cause de l'harmonie existentielle Mes mots sont des croquis, les hiéroglyphes de l'Égypte ancienne Du bonheur céleste à l'agonie des villes entières J'ai visité les étoiles, j'ai atterri au plat pays A méditer plus de trois décennies dans le bois de l'abbaye Des écrits calligraphiques gravés à l'encre de Chine hein Et la flamme se ravive quand j'entends chanter le chilien Comme cet enfant polyglotte se rappelant qu'il vient de si loin J'ai la foi de Don Chisciotte qui rappe avec l'accent sicilien De la mode de Philipp Plein aux marmots philippins À la conquête de la galaxie comme les astrophysiciens J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place J'irai visiter le monde avec toi ou sans famille J'irai, oui, parler aux mômes avant qu'ils croisent la zizanie J'ai du mal à vous l'dire mais j'laisserai cracher la plume À quoi bon vivre au soleil quand on a la tête dans la brume ? Donc j'arrive à mille à l'heure, j'veux qu'on traverse les frontières Excuse-moi, je m'appelle Demi car j'te laisse une part entière Non, j'ai pas un cur de pierre car le porter, c'est trop lourd J'pense l'avoir déjà jeté contre un système qui m'fout les boules J'ai faim entouré de mies et pris soin de ma valise La nouvelle vie n'est pas un rêve, d'autres l'ont eu en Australie J'irai visiter le monde parce que Tony n'est même pas là Non, ceci n'est pas un film, je sais qu'le monde est à moi Il est à toi et tu le sais donc C'est à nous dirait Laurent Car l'humain né un déchet à la fois un déodorant Donc c'est bon, je m'arrête là, te donne ma force pour demain J'irai vivre en théorie car en théorie, tout s'passe bien J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place J'irai visiter le monde, visiter la terre de mes ancêtres Vivre ma vie en parallèle du Capricorne au Cancer Observer le soleil, le sable sous la sandale Bah ouais, j'ferai l'tour du globe même s'il m'reste cent balles Visiter ces endroits qui laissent peu d'gens indifférents Et si j'ai pas trouvé ma place, il est temps que j'quitte les rangs Et vu que la vérité dérange, tout le monde prétend se sentir bien à la maison Alors que rien n'change, pas même les saisons Et tu sais, pour en construire, il faut bien couper les ponts Je t'assure que quand j'lui parle parfois, le ciel me répond Des kilomètres à rêver, ça use, ça use les souliers On se sépare mais on laissera ce joli destin nous lier J'ai grandi et j'avoue qu'au bout d'un moment la té-ci m'saoule Mon âme entre la mer du nord et le sable de En vrai, où que j'aille, c'est mon cur que je découvrirai C'est mon for intérieur que j'irai visiter J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>J’ai trouvé ma place</t>
+          <t>J’ai vu</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place J'irai visiter le monde et là, je crois que c'est le cas de le dire, hein J'ai scellé mon cadenas sur l'Accademia à Venise Une rose à la main, j'arrose mon annif' à Rovinj Non, je n'attends pas la fin, je vais me noyer à l'eau d'vie Me plonger dans les décors de la Polynésie française Moi, j'ai plaidé la cause de l'harmonie existentielle Mes mots sont des croquis, les hiéroglyphes de l'Égypte ancienne Du bonheur céleste à l'agonie des villes entières J'ai visité les étoiles, j'ai atterri au plat pays A méditer plus de trois décennies dans le bois de l'abbaye Des écrits calligraphiques gravés à l'encre de Chine hein Et la flamme se ravive quand j'entends chanter le chilien Comme cet enfant polyglotte se rappelant qu'il vient de si loin J'ai la foi de Don Chisciotte qui rappe avec l'accent sicilien De la mode de Philipp Plein aux marmots philippins À la conquête de la galaxie comme les astrophysiciens J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place J'irai visiter le monde avec toi ou sans famille J'irai, oui, parler aux mômes avant qu'ils croisent la zizanie J'ai du mal à vous l'dire mais j'laisserai cracher la plume À quoi bon vivre au soleil quand on a la tête dans la brume ? Donc j'arrive à mille à l'heure, j'veux qu'on traverse les frontières Excuse-moi, je m'appelle Demi car j'te laisse une part entière Non, j'ai pas un cur de pierre car le porter, c'est trop lourd J'pense l'avoir déjà jeté contre un système qui m'fout les boules J'ai faim entouré de mies et pris soin de ma valise La nouvelle vie n'est pas un rêve, d'autres l'ont eu en Australie J'irai visiter le monde parce que Tony n'est même pas là Non, ceci n'est pas un film, je sais qu'le monde est à moi Il est à toi et tu le sais donc C'est à nous dirait Laurent Car l'humain né un déchet à la fois un déodorant Donc c'est bon, je m'arrête là, te donne ma force pour demain J'irai vivre en théorie car en théorie, tout s'passe bien J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place J'irai visiter le monde, visiter la terre de mes ancêtres Vivre ma vie en parallèle du Capricorne au Cancer Observer le soleil, le sable sous la sandale Bah ouais, j'ferai l'tour du globe même s'il m'reste cent balles Visiter ces endroits qui laissent peu d'gens indifférents Et si j'ai pas trouvé ma place, il est temps que j'quitte les rangs Et vu que la vérité dérange, tout le monde prétend se sentir bien à la maison Alors que rien n'change, pas même les saisons Et tu sais, pour en construire, il faut bien couper les ponts Je t'assure que quand j'lui parle parfois, le ciel me répond Des kilomètres à rêver, ça use, ça use les souliers On se sépare mais on laissera ce joli destin nous lier J'ai grandi et j'avoue qu'au bout d'un moment la té-ci m'saoule Mon âme entre la mer du nord et le sable de En vrai, où que j'aille, c'est mon cur que je découvrirai C'est mon for intérieur que j'irai visiter J'irai visiter le monde en partant de la médina Et non, je n'écoute plus les médisants ni les médias J'irai visiter le monde en partant de la médina Comment l'homme se sent seul alors qu'on est des milliards ? Le globe sur les épaules, j'ai traversé l'Atlas Traversé le Sahara et puis, j'ai trouvé ma place J'étudiais la vie, j'écrivais dans l'fond de la classe J'ai traversé le temps et puis, j'ai trouvé ma place</t>
+          <t>Utopie, Demi portion écoute ca ! Dans la foulée j'en ai vu jouer au jeu du foulard J'ai vu mes chevilles enfler juste après leurs fichues foulures Des bêtes crever parce qu'une pute voulait leur fourrure Des hommes lever le poing acclamant ce putain d'Führer J'ai vu mes rêves fuir et tout ces plaisirs éphémères me rendre flemmard J'me suis même vu agir sur les nerfs Insulter le maire parce que nos murs sont toujours plein de merde De même, j'ai vu des frères se bousiller à l'herbe J'ai vu l'air polluée, des plages noires pleines de pétrole Un pote à 18 piges devenir père et dans le pétrin J'ai vu le ciel bé-ton et le béton me frapper fort J'ai cru toucher Sarko en caillassant les forces de l'ordre J'ai vu la nuit devenir jour, le jour devenir nuit Et l'ennui siffler la mort parce que la mort appelle la vie J'ai vu ta fille tailler des pipes alors où tu pensais qu'elle dort Et ce rappeur quitter son groupe parce qu'il voulait le disque d'or J'ai vu des hommes promettre, des hommes traitres, j'ai vu des hommes putes J'ai vu c'pit bouffer un môme, moi j'te l'dis c'est le maître que j'bute J'ai vu l'amour, le coup de foudre avant un coup d'feu Durant 400 ans j'ai vu le blanc mettre des coups de fouet J'ai vu cette vie crade et cette junky qu'la dépendance habite Qui pour 1 gramme se met à 4 pattes et peut t'sucer la bite J'ai vu l'enfer du haut d'une tour, d'en bas j'ai vu mes torts Voyant la corde, je me suis vu pendu dans le décor J'ai vu ces racistes me faire taire parce qu'ils avaient le flash-ball Et sur tf1, Hey Arnold remplacer Dragon Ball J'ai vu mon époque mourir ou dépasser par une autre Des profs juger des gens sur un putain d'carnet d'note J'ai vu ma haine prendre le contrôle, la raison me contraindre Beaucoup d'embrouilles mais rarement de 1 contre 1 J'ai vu leur contrat et mon pe-ra s'épanouir sans L'argent c'est bien mais, l'objectif c'est d'faire du bon son Je me suis vu bosser, écrire des textes à la chaîne Ressentir le rap comme si c'était ma propre chaire J'ai vu le Hip-Hop partir en couille à cause de leur mc Des sons péter quand ces pd se prennent pour des Messies J'ai vu c'coucher d'soleil j'm'y étais cru me c'n'était qu'une carte postale Et vu des centaines, d'Emilie couchées sur un lit d'hôpital De quoi prendre un pétard et s'sauter la cervelle Quand des gamines en arrivent à s'ouvrir les veines J'ai vu les p'tits d'la tess partir en couille parce qu'y a pas d'vacances Qu'l'ennui rend dingue sur les bancs d'la galère, y'a pas de place vacante Alors on campe dans l'hall, emmerde le voisinage Tristesse sur nos visages, brouillard de béton pour seul paysage J'ai vu cette fille rendre dingue celui qu'j'app'lais mon meilleur pote Peut-être que sa chatte était meilleure que notre époque J'sais pas dans l'fond y'a trop d'questions et sa m'rend barge On est plus qu'trois dis moi où est passée ma bande d'en-bas J'ai vu des trucs et pour les dire il me faut plus d'un couplet Plus d'un son, plus d'un album pour trouver la paix Alors j'ai vu ce qui m'choque et même des choses qui m'échappent Utopie frère j'garde l'écharpe d'Arafat Ouais c'est par ici qu'ça s'passe, ouvres les yeux regardes un peu Si on voyage en 3ème classe c'est qu'on a pas voulu faire la queue Heureux ? je sais pas trop, j'vie ma vie puis j'constate Sur feuille et face au micro c'est dev'nu du full contact Et s'exprimer y'a rien d'mieux merci a la zik d'nous réunir Merci si tu soutiens, si tu écris pour prévenir Un respect à c'monde à toutes les familles d'immigrés On a trop sali ma couleur qu'elle s'est transformée en tigré Intégré ca fait un bail, ne m'pose plus cette question Et tes vieux clichés d'racaille à la poubelle mon fiston A croire qu'on s'nourri dans la jungle, entassé dans des cabanes Et comme Rocca on fini par manier l'micro comme une sarbacane Tais toi, non ça va pas, j'reviens booster la culture Quand j'te dirais tout va bien c'est quand j'aurais eu ma structure J'ai vu tellement d'choses sales et comme nos mères à la rupture J'ai vu certain appuyer pause et ignorer le bouton lecture Sachant que la vie est un combat on est toujours en kimono Et des couplets tellement francs qu'on ma demandé d'aller mollo J'ai vu qu'il fallait du boulot en période bien agitée J'ai vu Chazal s'énerver quand on était pas dans son JT J'ai vu des trucs trop graves, j'ai vu le manque de suivi J'ai vu l'envieux parler mal et trop d'chacals en civil Est-c'que dans chaque mots tu devine essayes et imagines J'ai vue des p'tits s'exploser avec un esprit trop fragile On sait qui sont nos ennemis mais pas trop sûr des alliés Comme beaucoup veulent qu'on squatte juste nos cages d'escaliers J'perd mon tempérament, ouais man j'vis comme l'animal Et puis l'envie en final, m'a redit l'envieux l'a prit mal Ici j'ai trop pété les plombs, on m'a trop coupé les ponts J'ai vu qu'la France aimait l'handicap mais seulement au téléthon J'ai vu et admettons que ce soit nous qui les condamne Je serais à la place du président en train d'arroser Marie-Jeanne...</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>J’ai vu</t>
+          <t>J’ai vu (1990)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Utopie, Demi portion écoute ca ! Dans la foulée j'en ai vu jouer au jeu du foulard J'ai vu mes chevilles enfler juste après leurs fichues foulures Des bêtes crever parce qu'une pute voulait leur fourrure Des hommes lever le poing acclamant ce putain d'Führer J'ai vu mes rêves fuir et tout ces plaisirs éphémères me rendre flemmard J'me suis même vu agir sur les nerfs Insulter le maire parce que nos murs sont toujours plein de merde De même, j'ai vu des frères se bousiller à l'herbe J'ai vu l'air polluée, des plages noires pleines de pétrole Un pote à 18 piges devenir père et dans le pétrin J'ai vu le ciel bé-ton et le béton me frapper fort J'ai cru toucher Sarko en caillassant les forces de l'ordre J'ai vu la nuit devenir jour, le jour devenir nuit Et l'ennui siffler la mort parce que la mort appelle la vie J'ai vu ta fille tailler des pipes alors où tu pensais qu'elle dort Et ce rappeur quitter son groupe parce qu'il voulait le disque d'or J'ai vu des hommes promettre, des hommes traitres, j'ai vu des hommes putes J'ai vu c'pit bouffer un môme, moi j'te l'dis c'est le maître que j'bute J'ai vu l'amour, le coup de foudre avant un coup d'feu Durant 400 ans j'ai vu le blanc mettre des coups de fouet J'ai vu cette vie crade et cette junky qu'la dépendance habite Qui pour 1 gramme se met à 4 pattes et peut t'sucer la bite J'ai vu l'enfer du haut d'une tour, d'en bas j'ai vu mes torts Voyant la corde, je me suis vu pendu dans le décor J'ai vu ces racistes me faire taire parce qu'ils avaient le flash-ball Et sur tf1, Hey Arnold remplacer Dragon Ball J'ai vu mon époque mourir ou dépasser par une autre Des profs juger des gens sur un putain d'carnet d'note J'ai vu ma haine prendre le contrôle, la raison me contraindre Beaucoup d'embrouilles mais rarement de 1 contre 1 J'ai vu leur contrat et mon pe-ra s'épanouir sans L'argent c'est bien mais, l'objectif c'est d'faire du bon son Je me suis vu bosser, écrire des textes à la chaîne Ressentir le rap comme si c'était ma propre chaire J'ai vu le Hip-Hop partir en couille à cause de leur mc Des sons péter quand ces pd se prennent pour des Messies J'ai vu c'coucher d'soleil j'm'y étais cru me c'n'était qu'une carte postale Et vu des centaines, d'Emilie couchées sur un lit d'hôpital De quoi prendre un pétard et s'sauter la cervelle Quand des gamines en arrivent à s'ouvrir les veines J'ai vu les p'tits d'la tess partir en couille parce qu'y a pas d'vacances Qu'l'ennui rend dingue sur les bancs d'la galère, y'a pas de place vacante Alors on campe dans l'hall, emmerde le voisinage Tristesse sur nos visages, brouillard de béton pour seul paysage J'ai vu cette fille rendre dingue celui qu'j'app'lais mon meilleur pote Peut-être que sa chatte était meilleure que notre époque J'sais pas dans l'fond y'a trop d'questions et sa m'rend barge On est plus qu'trois dis moi où est passée ma bande d'en-bas J'ai vu des trucs et pour les dire il me faut plus d'un couplet Plus d'un son, plus d'un album pour trouver la paix Alors j'ai vu ce qui m'choque et même des choses qui m'échappent Utopie frère j'garde l'écharpe d'Arafat Ouais c'est par ici qu'ça s'passe, ouvres les yeux regardes un peu Si on voyage en 3ème classe c'est qu'on a pas voulu faire la queue Heureux ? je sais pas trop, j'vie ma vie puis j'constate Sur feuille et face au micro c'est dev'nu du full contact Et s'exprimer y'a rien d'mieux merci a la zik d'nous réunir Merci si tu soutiens, si tu écris pour prévenir Un respect à c'monde à toutes les familles d'immigrés On a trop sali ma couleur qu'elle s'est transformée en tigré Intégré ca fait un bail, ne m'pose plus cette question Et tes vieux clichés d'racaille à la poubelle mon fiston A croire qu'on s'nourri dans la jungle, entassé dans des cabanes Et comme Rocca on fini par manier l'micro comme une sarbacane Tais toi, non ça va pas, j'reviens booster la culture Quand j'te dirais tout va bien c'est quand j'aurais eu ma structure J'ai vu tellement d'choses sales et comme nos mères à la rupture J'ai vu certain appuyer pause et ignorer le bouton lecture Sachant que la vie est un combat on est toujours en kimono Et des couplets tellement francs qu'on ma demandé d'aller mollo J'ai vu qu'il fallait du boulot en période bien agitée J'ai vu Chazal s'énerver quand on était pas dans son JT J'ai vu des trucs trop graves, j'ai vu le manque de suivi J'ai vu l'envieux parler mal et trop d'chacals en civil Est-c'que dans chaque mots tu devine essayes et imagines J'ai vue des p'tits s'exploser avec un esprit trop fragile On sait qui sont nos ennemis mais pas trop sûr des alliés Comme beaucoup veulent qu'on squatte juste nos cages d'escaliers J'perd mon tempérament, ouais man j'vis comme l'animal Et puis l'envie en final, m'a redit l'envieux l'a prit mal Ici j'ai trop pété les plombs, on m'a trop coupé les ponts J'ai vu qu'la France aimait l'handicap mais seulement au téléthon J'ai vu et admettons que ce soit nous qui les condamne Je serais à la place du président en train d'arroser Marie-Jeanne...</t>
+          <t>J'ai vu Ouais J'ai vu des gens me dire, j'ai vu des gens qui dorment T'as vu ce qui n'change pas, t'as vu ce qui s'transforme J'ai vu des uniformes, tapés femmes et des gosses T'as entendu qu'ça tourne jusqu'en Nouvelle-Écosse J'ai passé chaque niveau, mais j'aurai pas d'big boss J'ai toujours cru en nous, malgré les catastrophes J'ai vu des gens sans thunes qui avaient plus de cur Qui avaient du caractère, meilleurs que sur Twitter J'ai vu des dictateurs tenir des citoyens Entouré d'carnivores, et de végétariens J'ai vu des rédacteurs, et puis des détracteurs J'ai vu des gens se taire, et j'ai vu des grandes gueules J'ai vu des papys tu sais, qui n'avaient pas la forme J'ai vu le virus partout, j'ai vu la vache folle J'ai vu les hommes, non, j'ai vu les femmes J'ai vu des gosses, puis j'ai vu le drame J'ai vu les larmes de la Terre remplir l'océan J'ai vu le monde couler avant l'Antarctique avant l'Antarctique, avant l'Antarctique.. Lève le poing, être fort est sur le schéma L'espoir fait vivre, on a pas changé de tactiqueon a pas changé de tactique, pas changé de tactique.. Ouais J'ai vu la guerre, et ça devient gore On dit qu'le crime paie, et que ça rapporte J'ai vu des portes closes et des enfermés J'ai vu des bonnes personnes et des J'ai vu la technologie nous rendre bêtes J'ai vu qu'on savait mentir, même chez les prêtres J'ai vu la confiance, oui être malhonnête J'ai vu l'amour ramper à des kilomètres J'ai vu la meth, cousin j'ai vu comme toi, han J'ai vu des aveugles qui avaient vu comme moi, han J'ai vu le monde, j'ai fermé les yeux J'ai vu l'amour et j'ai vu les envieux J'ai vu comme toi, partout j'ai vu l'étoile J'ai vu l'étoile qui n'exauçait plus les vux Je peux te dire qu'aujourd'hui je crois en Dieu On peut se dire qu'aujourd'hui c'est mieux à deux deux, deux J'ai vu les larmes de la Terre remplir l'océan J'ai vu le monde couler avant l'Antarctique avant l'Antarctique, avant l'Antarctique.. j'ai vu le monde couler avant l'Antarctique Lève le poing, être fort est sur le schéma L'espoir fait vivre, on a pas changé de tactique on a pas changé de tactique, pas changé de tactique.. on a pas changé de tactique Han, ouais J'ai vu, j'ai vu, j'ai vu On a pas changé de tactique Rachid C'est ça On a pas changé de tactique J'ai vu, j'ai vu, j'ai vu J'ai vu, j'ai vu, j'ai vu J'ai vu, j'ai vu, j'ai vu</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>J’ai vu (1990)</t>
+          <t>Je n’ai pas voulu</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>J'ai vu Ouais J'ai vu des gens me dire, j'ai vu des gens qui dorment T'as vu ce qui n'change pas, t'as vu ce qui s'transforme J'ai vu des uniformes, tapés femmes et des gosses T'as entendu qu'ça tourne jusqu'en Nouvelle-Écosse J'ai passé chaque niveau, mais j'aurai pas d'big boss J'ai toujours cru en nous, malgré les catastrophes J'ai vu des gens sans thunes qui avaient plus de cur Qui avaient du caractère, meilleurs que sur Twitter J'ai vu des dictateurs tenir des citoyens Entouré d'carnivores, et de végétariens J'ai vu des rédacteurs, et puis des détracteurs J'ai vu des gens se taire, et j'ai vu des grandes gueules J'ai vu des papys tu sais, qui n'avaient pas la forme J'ai vu le virus partout, j'ai vu la vache folle J'ai vu les hommes, non, j'ai vu les femmes J'ai vu des gosses, puis j'ai vu le drame J'ai vu les larmes de la Terre remplir l'océan J'ai vu le monde couler avant l'Antarctique avant l'Antarctique, avant l'Antarctique.. Lève le poing, être fort est sur le schéma L'espoir fait vivre, on a pas changé de tactiqueon a pas changé de tactique, pas changé de tactique.. Ouais J'ai vu la guerre, et ça devient gore On dit qu'le crime paie, et que ça rapporte J'ai vu des portes closes et des enfermés J'ai vu des bonnes personnes et des J'ai vu la technologie nous rendre bêtes J'ai vu qu'on savait mentir, même chez les prêtres J'ai vu la confiance, oui être malhonnête J'ai vu l'amour ramper à des kilomètres J'ai vu la meth, cousin j'ai vu comme toi, han J'ai vu des aveugles qui avaient vu comme moi, han J'ai vu le monde, j'ai fermé les yeux J'ai vu l'amour et j'ai vu les envieux J'ai vu comme toi, partout j'ai vu l'étoile J'ai vu l'étoile qui n'exauçait plus les vux Je peux te dire qu'aujourd'hui je crois en Dieu On peut se dire qu'aujourd'hui c'est mieux à deux deux, deux J'ai vu les larmes de la Terre remplir l'océan J'ai vu le monde couler avant l'Antarctique avant l'Antarctique, avant l'Antarctique.. j'ai vu le monde couler avant l'Antarctique Lève le poing, être fort est sur le schéma L'espoir fait vivre, on a pas changé de tactique on a pas changé de tactique, pas changé de tactique.. on a pas changé de tactique Han, ouais J'ai vu, j'ai vu, j'ai vu On a pas changé de tactique Rachid C'est ça On a pas changé de tactique J'ai vu, j'ai vu, j'ai vu J'ai vu, j'ai vu, j'ai vu J'ai vu, j'ai vu, j'ai vu</t>
+          <t>On a appris à compter mais pas sur les autres... Yo je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire la gueule mais bon fallait faire un choix Je n'ai pas voulu faire d'erreurs mais bon fallait l'faire une fois Je n'ai pas voulu faire juste quoi ? Écrire simplement Je n'ai pas voulu tu sais quoi, n'y vois aucun jugement Je n'ai pas voulu faire de mal, si peu nourri par le bien Je n'ai pas voulu faire scandale vu qu'on m'a dit marche ou crève Je n'ai pas voulu faire de grèves ni victimes involontaires Ni jouer sur les couleurs on est déjà tapis au poker Je n'ai pas voulu faire la guerre, obligé d'être violent Je n'ai pas voulu écrire ça, chantonner c'est trop saoulant Je n'ai pas voulu faire souvent, mec on en revient au même T'façon t'es pas content, un jour où on en revient aux mains Je n'ai pas voulu faire l'gamin, regarde le monde est grand Je n'ai pas voulu vous taper, y compris ceux qui dérangent Je n'ai pas voulu faire la pince, vois qu'partout y'a des crevards Si j'te prêterai mon flow j'passerai le reprendre plus tard Je n'ai pas voulu faire l'bâtard, écrire un tas d'insultes Éviter le placard, une belle maison en Côte d'Azur Je n'ai pas voulu faire comme eux et d'toute façon plaire à qui ? La vie nous tacle mon vieux et sifflera jamais penalty Je n'ai pas voulu faire partie, faire semblant d'faire un match Cousine on fait un feat, bitch j'te fais un smatch Au pire tu m'fais un stick ou de l'autre on t'fait un scratch J'arrive les enfumer, que les MC's placent un patch Je n'ai pas voulu faire scare on l'est déjà mais d'origine Je n'ai pas voulu faire le gars trop agressif Je n'ai pas voulu faire bref ça fait parti du jeu Mais qui te force ? Personne vas-y fais c'que tu peux Yo je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire peur mais plutôt viser l'cur Oui l'homme n'est que dalle même dans l'apesanteur Je n'ai pas voulu d'acteurs, on est même pas dans l'film Je n'ai pas voulu Seigneur mes anneaux sont fragiles Je suis curieux de savoir ce qui fait de toi un si grand expert Je n'ai pas voulu porter, non y'a pas de ouais gros T'as vu ma dégaine cousin mais les mots pèsent une tonne Je n'ai pas voulu faire mal ni taper l'adversaire Je n'ai pas voulu faire d'rap mais plaisir aux anciens Je n'ai pas voulu faire feu mais cramer des enceintes Je n'ai pas voulu saches-le, Dragon est sorti de Sète J'ai trop voulu faire simple, on m'a dit non c'est trop dur De vous tenir au courant mais sans qu'on s'électrocute J'ai trop voulu faire simple, simple, simple, simple Yo je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? La justice nique sa mère1</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Je n’ai pas voulu</t>
+          <t>J’me suis fait tout p’tit</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>On a appris à compter mais pas sur les autres... Yo je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire la gueule mais bon fallait faire un choix Je n'ai pas voulu faire d'erreurs mais bon fallait l'faire une fois Je n'ai pas voulu faire juste quoi ? Écrire simplement Je n'ai pas voulu tu sais quoi, n'y vois aucun jugement Je n'ai pas voulu faire de mal, si peu nourri par le bien Je n'ai pas voulu faire scandale vu qu'on m'a dit marche ou crève Je n'ai pas voulu faire de grèves ni victimes involontaires Ni jouer sur les couleurs on est déjà tapis au poker Je n'ai pas voulu faire la guerre, obligé d'être violent Je n'ai pas voulu écrire ça, chantonner c'est trop saoulant Je n'ai pas voulu faire souvent, mec on en revient au même T'façon t'es pas content, un jour où on en revient aux mains Je n'ai pas voulu faire l'gamin, regarde le monde est grand Je n'ai pas voulu vous taper, y compris ceux qui dérangent Je n'ai pas voulu faire la pince, vois qu'partout y'a des crevards Si j'te prêterai mon flow j'passerai le reprendre plus tard Je n'ai pas voulu faire l'bâtard, écrire un tas d'insultes Éviter le placard, une belle maison en Côte d'Azur Je n'ai pas voulu faire comme eux et d'toute façon plaire à qui ? La vie nous tacle mon vieux et sifflera jamais penalty Je n'ai pas voulu faire partie, faire semblant d'faire un match Cousine on fait un feat, bitch j'te fais un smatch Au pire tu m'fais un stick ou de l'autre on t'fait un scratch J'arrive les enfumer, que les MC's placent un patch Je n'ai pas voulu faire scare on l'est déjà mais d'origine Je n'ai pas voulu faire le gars trop agressif Je n'ai pas voulu faire bref ça fait parti du jeu Mais qui te force ? Personne vas-y fais c'que tu peux Yo je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire peur mais plutôt viser l'cur Oui l'homme n'est que dalle même dans l'apesanteur Je n'ai pas voulu d'acteurs, on est même pas dans l'film Je n'ai pas voulu Seigneur mes anneaux sont fragiles Je suis curieux de savoir ce qui fait de toi un si grand expert Je n'ai pas voulu porter, non y'a pas de ouais gros T'as vu ma dégaine cousin mais les mots pèsent une tonne Je n'ai pas voulu faire mal ni taper l'adversaire Je n'ai pas voulu faire d'rap mais plaisir aux anciens Je n'ai pas voulu faire feu mais cramer des enceintes Je n'ai pas voulu saches-le, Dragon est sorti de Sète J'ai trop voulu faire simple, on m'a dit non c'est trop dur De vous tenir au courant mais sans qu'on s'électrocute J'ai trop voulu faire simple, simple, simple, simple Yo je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? Je n'ai pas voulu faire ci, je n'ai pas voulu faire ça Je n'ai pas voulu faire ci mais dis-moi qui m'aurait laissé le choix ? La justice nique sa mère1</t>
+          <t>Je n'avais jamais Ote mon chapeau Devant personne Maintenant je rampe et je fait le beau Quand elle me Sonne J'étais chien méchant, elle me fait pesebre Dans sa menotte J'avais des dents d'loup, je les ai changees Pour des quenottes Je m'suis fait tout p'tit devant une poupée Qui ferme les yeux quand en la couche Je m'suis fait tout p'tit devant une poupée Qui fait maman quand en la touche J'était durante à cuire, elle m'a converti La fine mouche Et je suis tout tombé chaud, tout rôti Contre sa bouche Qui a des dents de lait quand elle sourit Quand elle chante Et des dents de loup quand elle est Furie Qu'elle est méchante Je subis sa loi, je archivo tout doux Sous hijo imperio Bien qu'elle soit jalouse au-delà de tout Et même pire Une jolie pervenche qui m'avait paru Plus jolie qu'elle Une jolie pervenche un jour en mourut Un golpe de ombrelle</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>J’me suis fait tout p’tit</t>
+          <t>Jusqu’à quand</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Je n'avais jamais Ote mon chapeau Devant personne Maintenant je rampe et je fait le beau Quand elle me Sonne J'étais chien méchant, elle me fait pesebre Dans sa menotte J'avais des dents d'loup, je les ai changees Pour des quenottes Je m'suis fait tout p'tit devant une poupée Qui ferme les yeux quand en la couche Je m'suis fait tout p'tit devant une poupée Qui fait maman quand en la touche J'était durante à cuire, elle m'a converti La fine mouche Et je suis tout tombé chaud, tout rôti Contre sa bouche Qui a des dents de lait quand elle sourit Quand elle chante Et des dents de loup quand elle est Furie Qu'elle est méchante Je subis sa loi, je archivo tout doux Sous hijo imperio Bien qu'elle soit jalouse au-delà de tout Et même pire Une jolie pervenche qui m'avait paru Plus jolie qu'elle Une jolie pervenche un jour en mourut Un golpe de ombrelle</t>
+          <t>J'ai ici quelques poèmes des temps futurs Les anciens ont écrit de fort belles choses évidemment Mais les poètes de demain devrait vous exalter d'avantage Aimez vous? Partir le plus loin revenir le plus vite Tu sais d'ou l'on vient j't'en prie imagine J't'assure ça va bien repose toi tranquille Repose toi un peux t'as plus trop bonne mine Je sais qu'on s'engueule c'est parce qu'on s'uni J'admet quand t'es seul c'est pour mes conneries J'assume que j'm'ennui j'ai plus les épaules Le mal que je récolte que Dieu me pardonne Et si je m'enfui j't'assure j'aurais tord J'me pose des questions s'il te plais répond Même par 4 chemins même par tout les ponts J'bouge pas c'est certain oui j'ai tout le temps Oui mais jusqu'à quand? Oui mais jusqu'à quand? Moi ça ne me dérange pas Le but dans la vie est de consommer à crédit Non tout ça ne me dérange pas Emprunter de l'argent pour acheter des choses dont nous n'avons pas besoin Toi ça te dérange pas? Les générations futures ne nous pardonnerons jamais Alors tout ça ne nous dérange pas Quand elles découvrirons la vérité sur le mode de vie gaspilleur J'n'avais pas envie de faire comme toi Ça ne me ressembler pas Le soir j'écris en espérant ne pas te voir en pétard J'veux pas renter tard Ne te pose pas d'questions Mais si les fliques viennent un jour ne leurs donnent pas raison Tu m'connais toute façon, j'quitte jamais la maison Mais d'puis des mois t'as pas compris qu'j'étais toujours en mission Évite les comparaison, et dit à papa que'j'bosse Q'on reste en contact surtout qu'on reste en liaison Si t'as besoin d'quoi qu'ce soit tu me fait sonner normal T'inquiète j'ai du forfait et un nouveau portable Ne ferme pas le portail j'ai garé une carcasse Pour aller faire 2, 3 courses et circuler taftaf Vas-y maman le temps passe, j'ai un vote qui m'attend En plus l'autre va arriver et on va parler 30 ans Comme d'hab il comprend pas j'm'occupe de moi tout seul Bon j'y vais gros bisous mais tinquiète pas p'tite sur Oui mais jusqu'à quand? Moi ça ne me dérange pas Je comprend pourquoi c'était très tentant en 1932 Non tout ça ne me dérange pas A l'époque le développement durable n'était pas au centre des préocupations Toi ça te dérange pas? Je ne pense pas qu'on imaginés la planète comme ayant des ressources limitées Alors tout ça ne nous dérange pas On la voyais plutôt comme une source inépuisable Un message pour tous Genre c'est comme si y'avais un gâteau, tu prend une petite part et tu la donne à plein de gens et puis la grosse part c'est quelques personnes qui le partage Rolex Sprinter MedhiZik C'est l'argent mon ennemi, l'argent qui tourne la tête à beaucoup de gens qui fait que t'es prêt à être corrompu à te laisser corrompre, ouais c'est tout ça mes ennemis, les gens qui font du RAP qui finalement ne rendent pas service à nos communautés en donnant une mauvaise image, c'est le journal de 20H, c'est toute la vérité qu'on nous dit pas, c'est tout les gens qui ont des informations et qui veulent pas les donner, c'est les juristes, les juges qui te mettent pas au courant de tout tes droits justice à 5 vitesses et marche arrière1</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Jusqu’à quand</t>
+          <t>Jusqu’ici tout va bien</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>J'ai ici quelques poèmes des temps futurs Les anciens ont écrit de fort belles choses évidemment Mais les poètes de demain devrait vous exalter d'avantage Aimez vous? Partir le plus loin revenir le plus vite Tu sais d'ou l'on vient j't'en prie imagine J't'assure ça va bien repose toi tranquille Repose toi un peux t'as plus trop bonne mine Je sais qu'on s'engueule c'est parce qu'on s'uni J'admet quand t'es seul c'est pour mes conneries J'assume que j'm'ennui j'ai plus les épaules Le mal que je récolte que Dieu me pardonne Et si je m'enfui j't'assure j'aurais tord J'me pose des questions s'il te plais répond Même par 4 chemins même par tout les ponts J'bouge pas c'est certain oui j'ai tout le temps Oui mais jusqu'à quand? Oui mais jusqu'à quand? Moi ça ne me dérange pas Le but dans la vie est de consommer à crédit Non tout ça ne me dérange pas Emprunter de l'argent pour acheter des choses dont nous n'avons pas besoin Toi ça te dérange pas? Les générations futures ne nous pardonnerons jamais Alors tout ça ne nous dérange pas Quand elles découvrirons la vérité sur le mode de vie gaspilleur J'n'avais pas envie de faire comme toi Ça ne me ressembler pas Le soir j'écris en espérant ne pas te voir en pétard J'veux pas renter tard Ne te pose pas d'questions Mais si les fliques viennent un jour ne leurs donnent pas raison Tu m'connais toute façon, j'quitte jamais la maison Mais d'puis des mois t'as pas compris qu'j'étais toujours en mission Évite les comparaison, et dit à papa que'j'bosse Q'on reste en contact surtout qu'on reste en liaison Si t'as besoin d'quoi qu'ce soit tu me fait sonner normal T'inquiète j'ai du forfait et un nouveau portable Ne ferme pas le portail j'ai garé une carcasse Pour aller faire 2, 3 courses et circuler taftaf Vas-y maman le temps passe, j'ai un vote qui m'attend En plus l'autre va arriver et on va parler 30 ans Comme d'hab il comprend pas j'm'occupe de moi tout seul Bon j'y vais gros bisous mais tinquiète pas p'tite sur Oui mais jusqu'à quand? Moi ça ne me dérange pas Je comprend pourquoi c'était très tentant en 1932 Non tout ça ne me dérange pas A l'époque le développement durable n'était pas au centre des préocupations Toi ça te dérange pas? Je ne pense pas qu'on imaginés la planète comme ayant des ressources limitées Alors tout ça ne nous dérange pas On la voyais plutôt comme une source inépuisable Un message pour tous Genre c'est comme si y'avais un gâteau, tu prend une petite part et tu la donne à plein de gens et puis la grosse part c'est quelques personnes qui le partage Rolex Sprinter MedhiZik C'est l'argent mon ennemi, l'argent qui tourne la tête à beaucoup de gens qui fait que t'es prêt à être corrompu à te laisser corrompre, ouais c'est tout ça mes ennemis, les gens qui font du RAP qui finalement ne rendent pas service à nos communautés en donnant une mauvaise image, c'est le journal de 20H, c'est toute la vérité qu'on nous dit pas, c'est tout les gens qui ont des informations et qui veulent pas les donner, c'est les juristes, les juges qui te mettent pas au courant de tout tes droits justice à 5 vitesses et marche arrière1</t>
+          <t>Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Pourquoi on ressent d'la haine alors qu'on voulait Chanel Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Jusqu'ici tout va bien, jusqu'ici tout va bien Jusqu'ici tout va bien, même si on n'va pas Papa maman travaillent dur et l'niveau n'a pas monter Jusqu'ici tout va bien, l'quartier, une boîte à outils On n'y a trouver pleins de vices, facile d'chercher un fautif À trop s'renvoyer la balle, racketter mieux qu'au tennis Combien de fois j'ai entendu arrêtez jappelle la police ? Jusqu'ici tout va bien jusqu'à XXX Arrête de faire le gangter et recollectionne tes pins Jusqu'ici tout va bien mais il s'rait temps qu'on s'extirpe J'ai voulu faire un tête-tête mais ils m'ont ramené seize types On s'estime, se divise, toute ces pensées que l'on garde J'ai pas suivi ta magie, comment cacher une carte à table Jusqu'ici tout est stable mais quand t'as rien c'est pas simple D'autres on fini pendu mais pas celui du dessin J'ai pas les mots, je m'excuse et c'est pas un jeu non plus A vaner Paris Hilton nous aussi on a pas d'cul Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Pourquoi on ressent d'la haine alors qu'on voulait Chanel Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Jusqu'ici tout va bien, jusqu'ici tout va bien Vas-y viens faire un tour chez moi, tu verras que c'est partout pareil Harra faudra bouger plutôt d'manger la gamelle Les gamins ont mille barrettes, c'est mieux qu'l'ANPE Personne a choisit cette vie, qui va refuser mille E ? Attention à c'que t'écris, les petits t'écoutent mon frère Pour eux l'terrain est si petit mais pas l'casier judiciaire Danger, le moteur serre, wesh cousin c'est normal Les potos rentrent en prison et toutes les balances dorment mal Jusqu'ici tout va bien, on s'en remet un moment Vu qu'la joie est une sale drogue et qu'souvent on ressent le manque Elle est dérivée d'la coke, taper dans la drogue dure Non, y'a pas qu'les hôtels qui s'rapprochent près du mercure Vida loca, chiens de la casse, sale comme un mitard De l'île de Thau à La Deveze en passant par la paillade On rêve de jolies voyages et d'mettre bien la mama Frère tu n'as rien d'une bête, juste en portant un pull puma Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Pourquoi on ressent d'la haine alors qu'on voulait Chanel Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Jusqu'ici tout va bien, jusqu'ici tout va bien4</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Jusqu’ici tout va bien</t>
+          <t>Juste avec un piano</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Pourquoi on ressent d'la haine alors qu'on voulait Chanel Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Jusqu'ici tout va bien, jusqu'ici tout va bien Jusqu'ici tout va bien, même si on n'va pas Papa maman travaillent dur et l'niveau n'a pas monter Jusqu'ici tout va bien, l'quartier, une boîte à outils On n'y a trouver pleins de vices, facile d'chercher un fautif À trop s'renvoyer la balle, racketter mieux qu'au tennis Combien de fois j'ai entendu arrêtez jappelle la police ? Jusqu'ici tout va bien jusqu'à XXX Arrête de faire le gangter et recollectionne tes pins Jusqu'ici tout va bien mais il s'rait temps qu'on s'extirpe J'ai voulu faire un tête-tête mais ils m'ont ramené seize types On s'estime, se divise, toute ces pensées que l'on garde J'ai pas suivi ta magie, comment cacher une carte à table Jusqu'ici tout est stable mais quand t'as rien c'est pas simple D'autres on fini pendu mais pas celui du dessin J'ai pas les mots, je m'excuse et c'est pas un jeu non plus A vaner Paris Hilton nous aussi on a pas d'cul Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Pourquoi on ressent d'la haine alors qu'on voulait Chanel Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Jusqu'ici tout va bien, jusqu'ici tout va bien Vas-y viens faire un tour chez moi, tu verras que c'est partout pareil Harra faudra bouger plutôt d'manger la gamelle Les gamins ont mille barrettes, c'est mieux qu'l'ANPE Personne a choisit cette vie, qui va refuser mille E ? Attention à c'que t'écris, les petits t'écoutent mon frère Pour eux l'terrain est si petit mais pas l'casier judiciaire Danger, le moteur serre, wesh cousin c'est normal Les potos rentrent en prison et toutes les balances dorment mal Jusqu'ici tout va bien, on s'en remet un moment Vu qu'la joie est une sale drogue et qu'souvent on ressent le manque Elle est dérivée d'la coke, taper dans la drogue dure Non, y'a pas qu'les hôtels qui s'rapprochent près du mercure Vida loca, chiens de la casse, sale comme un mitard De l'île de Thau à La Deveze en passant par la paillade On rêve de jolies voyages et d'mettre bien la mama Frère tu n'as rien d'une bête, juste en portant un pull puma Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Pourquoi on ressent d'la haine alors qu'on voulait Chanel Sous le soleil ou sous la pluie on rêve sans problème Pour s'endormir un mouton ne peut compter que sur lui même Demande à Vinz Cassel jusqu'ici tout va bien Jusqu'ici tout va bien, jusqu'ici tout va bien4</t>
+          <t>Hip-hop est mon style, chaud pour un nouveau titre Deuxième album, c'est sûr j'vais pas changer d'public Sorti d'sa coquille, et toutes ces villes à conquir Merci, grâce à vous tous, j'ai eu l'envie d'accomplir Griffonner ma copie, mais est-ce donc ça nos vies ? Non Y'a pas de ronds qui rentrent ou trafiquer le pilon Ma chambre est un coffee, obligatoire Et le soir ça s'transforme en micro-fougatoire Bref, j'invente des mots, et si tu fais gaffe Ce plouc sur Facebook fait des fautes d'orthographe Dis, tu veux du taf ? Va faire la pute en t'grillant Quoiqu'une pute se respecte, elle parle bien au client T'as fini d'sortir tes vannes ? Nan, j'ai pas d'concurrent Des histoires, ma fable Le Son, la Brute, le Truand L'inspi' mon carburant, sans t'parler des poumons Parano c'est ça ? Non, pas pote avec tout l'monde Bienvenue à Rash'land, amusez-vous bien Ils appellent Swag c'que j'appelle Timberland Grosse rigolade, on m'a dit t'habites à Paname ? Non, je suis de Sète, dis-moi t'as pas entendu l'alarme ? J'en ai fait des titres et des sacrés kilomètres Défendre tous mes disques et devoir chanter mes textes C'est ma plus grande réussite, c'est tout c'que j'sais faire Malgré tous mes défauts et quelques pas de travers Les mauvais choix qu'on traverse, qui nous poussent à la déprime Les gens s'esquivent, se parlent peu, ont le kit mains-libres Dis-nous ce qui t'fait rire, dis-nous ce qui t'fait vivre Dis-nous où est l'ferry, où est passé l'navire ? Montre-nous le capitaine qu'on change de direction Qu'on change de cap, qu'il fasse une exception Qu'il signe une dérogation, qu'on ne prenne pas l'même chemin Qu'on se mêle plus les pinceaux, qu'on échange nos dessins C'est simple, et c'est tout c'qu'on veut voir J'te laisse entre les mains mon disque et ses histoires Les Histoires... Les Histoires...</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Juste avec un piano</t>
+          <t>La bonne école</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Hip-hop est mon style, chaud pour un nouveau titre Deuxième album, c'est sûr j'vais pas changer d'public Sorti d'sa coquille, et toutes ces villes à conquir Merci, grâce à vous tous, j'ai eu l'envie d'accomplir Griffonner ma copie, mais est-ce donc ça nos vies ? Non Y'a pas de ronds qui rentrent ou trafiquer le pilon Ma chambre est un coffee, obligatoire Et le soir ça s'transforme en micro-fougatoire Bref, j'invente des mots, et si tu fais gaffe Ce plouc sur Facebook fait des fautes d'orthographe Dis, tu veux du taf ? Va faire la pute en t'grillant Quoiqu'une pute se respecte, elle parle bien au client T'as fini d'sortir tes vannes ? Nan, j'ai pas d'concurrent Des histoires, ma fable Le Son, la Brute, le Truand L'inspi' mon carburant, sans t'parler des poumons Parano c'est ça ? Non, pas pote avec tout l'monde Bienvenue à Rash'land, amusez-vous bien Ils appellent Swag c'que j'appelle Timberland Grosse rigolade, on m'a dit t'habites à Paname ? Non, je suis de Sète, dis-moi t'as pas entendu l'alarme ? J'en ai fait des titres et des sacrés kilomètres Défendre tous mes disques et devoir chanter mes textes C'est ma plus grande réussite, c'est tout c'que j'sais faire Malgré tous mes défauts et quelques pas de travers Les mauvais choix qu'on traverse, qui nous poussent à la déprime Les gens s'esquivent, se parlent peu, ont le kit mains-libres Dis-nous ce qui t'fait rire, dis-nous ce qui t'fait vivre Dis-nous où est l'ferry, où est passé l'navire ? Montre-nous le capitaine qu'on change de direction Qu'on change de cap, qu'il fasse une exception Qu'il signe une dérogation, qu'on ne prenne pas l'même chemin Qu'on se mêle plus les pinceaux, qu'on échange nos dessins C'est simple, et c'est tout c'qu'on veut voir J'te laisse entre les mains mon disque et ses histoires Les Histoires... Les Histoires...</t>
+          <t>Han, de l'ancienne génération, jusqu'à aujourd'hui Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore, ça r'met tout l'monde d'accord Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore Dégage-toi, j'ai pas le choix de garder les mêmes valeurs Dépêche-toi, je m'active car mon passé arrive à l'heure Sur un beat, on m'accable, dans un rap, pousse la ? Mal en vivant, t'es présent, tes relèves, toute saveur Un mic et c'est l'décollage, l'équipe sont à mon image T.H dans l'p'tit collage à ceux qui me donnent du courage Un stylo et je fais des dommages, et je fais des dommages Je rentre dans la cabine comme si j'allais faire un cambriolage Et ça fait hip-hop-pop-pop-pop, ouais, hip-pop-pop-pop J'ai grandi avec ces notes et l'envie de cramer l'anti-pop Et ça fait hip-hop-pop-pop-pop, hip-pop-pop-pop Encore un son de malade, laisse-moi trouver l'antidote Oyo, fais-nous plaisir, lève la main On s'améliore et c'est la même, passionnés depuis gamins On réunira les b-boys autour d'un cercle en flammes Trouver le réconfort, un peu comme les bras d'une femme Ma voix se pose à l'aise, un joint l'été à l'ouest Un vrai thème, une voyelle, un wow, wallah-wallem Y a des fous et des malins, des vagues et c'est marin Un ami en guise de bouée, en vrai ça m'sert à rien On s'donne au maximum, on taffe à chaque album On ne mâche pas nos mots, vu qu'on ne pense qu'à envoyer la gomme J'suis le coup d'boule de Zidane, pas le plouc de Washington Paraît qu'la maison est blanche mais sale vu les symptômes On dégage toutes les barrières, debout tel un warrior Écoute, pas d'marche arrière, on avance et alors On a l'flow, c'est normal, on t'invitera dans le stade Dédicace à nos anciens qui ont l'doigt sur l'amstrad? Oyo, aux graffeurs et breakeurs Oyo Aux rappeurs et DJs Oyo Beatmakers, beatboxers Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore, ça r'met tout l'monde d'accord Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore, ça r'met tout l'monde d'accord Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>La bonne école</t>
+          <t>L’addition</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Han, de l'ancienne génération, jusqu'à aujourd'hui Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore, ça r'met tout l'monde d'accord Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore Dégage-toi, j'ai pas le choix de garder les mêmes valeurs Dépêche-toi, je m'active car mon passé arrive à l'heure Sur un beat, on m'accable, dans un rap, pousse la ? Mal en vivant, t'es présent, tes relèves, toute saveur Un mic et c'est l'décollage, l'équipe sont à mon image T.H dans l'p'tit collage à ceux qui me donnent du courage Un stylo et je fais des dommages, et je fais des dommages Je rentre dans la cabine comme si j'allais faire un cambriolage Et ça fait hip-hop-pop-pop-pop, ouais, hip-pop-pop-pop J'ai grandi avec ces notes et l'envie de cramer l'anti-pop Et ça fait hip-hop-pop-pop-pop, hip-pop-pop-pop Encore un son de malade, laisse-moi trouver l'antidote Oyo, fais-nous plaisir, lève la main On s'améliore et c'est la même, passionnés depuis gamins On réunira les b-boys autour d'un cercle en flammes Trouver le réconfort, un peu comme les bras d'une femme Ma voix se pose à l'aise, un joint l'été à l'ouest Un vrai thème, une voyelle, un wow, wallah-wallem Y a des fous et des malins, des vagues et c'est marin Un ami en guise de bouée, en vrai ça m'sert à rien On s'donne au maximum, on taffe à chaque album On ne mâche pas nos mots, vu qu'on ne pense qu'à envoyer la gomme J'suis le coup d'boule de Zidane, pas le plouc de Washington Paraît qu'la maison est blanche mais sale vu les symptômes On dégage toutes les barrières, debout tel un warrior Écoute, pas d'marche arrière, on avance et alors On a l'flow, c'est normal, on t'invitera dans le stade Dédicace à nos anciens qui ont l'doigt sur l'amstrad? Oyo, aux graffeurs et breakeurs Oyo Aux rappeurs et DJs Oyo Beatmakers, beatboxers Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore, ça r'met tout l'monde d'accord Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore, ça r'met tout l'monde d'accord Oyo, aux anciens qui représentent une autre époque Oyo, à la jeunesse qui sort de la bonne école Pas les mêmes codes? Ah bon! J'ai la bonne vibe, d'accord Travaille la rime encore</t>
+          <t>Eh ben voilà, j'crois qu'une fois d'plus, Brassens avait raison Quand il a choisi cette ville pour y fonder sa dernière maison J'n'ai passsé qu'deux jours à Sète, moi et ma peau blème Et sans problème, j'peux vous affirmer qu'cette ville est un poème J'ai respiré l'air marin, senti l'odeur des coquillages J'ai vu qu'y avait une lumière jaune dans chacun d'ses paysages Et puis j'ai rencontré des gens qui avaient trois trucs importants Le sourire, l'air sincère, et surtout ils avaient du temps On a mangé sur le port, une table au bord du paradis Un des meilleurs restos du coin, on a tardé, on a gole-ri À cette table on était quatre mais on a mangé comme dix Pour l'même repas à Paris, on aurait dû emprunter chez Cofidis J'aime la région parisienne mais on y vit dans la démesure Ce jour-là, à cette table, on s'est dit qu'on en ferait trois fois seize mesures Car en face de moi, y avait c'rappeur de Sète qui tenait l'addition Ça a donné un beau moment et puis c'feat avec Demi Portion On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction C'était en août, comme d'hab, à saluer le Soleil Ce qui est sympa de chez moi, t'y fais le tour en Solex J'reçois l'appel de JR, d'une invitation concert C'est l'occasion de voir Fabien et d'se rencontrer à Sète Rien de mieux que de parler autour d'une très belle assiette On a pas vu le temps passer, ça aurait pu durer un siècle Parler de vraies valeurs, je sais, se reconnaître soi-même On a passé deux jours ensembles, on aurait dit une semaine Au sommaire, un chant, sourire et quelques photo à faire Si tu viens faire un tour chez moi, j'te montrerai aussi la mer De Paris à Sète, yeah, y a pas qu'les saisons qui changent On y recherche un peu de calme même si ça paraît étrange J'aime ma petite ville de Sète, c'est pas New York non plus À cette table on s'demandait la dernière fois qu'il a plu Et puis en face de moi cet homme qui se tenait à ma table Ça a donné ce beau partage avec Grand Corps Malade On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction Bon, Rachid, tu prends l'train à Sète, j'viens t'chercher à Gare de Lyon C'est l'match retour Mais cette fois c'est à moi d'payer, mais... à Paris c'est pas la même mon pote Si j'veux t'payer comme tu m'as sorti, là, homard, langoustines, coquillages... J'vais y laisser ma veste, mon frère, ça va être très très très cher Ah, sinon, viens on va chez moi directement, j'te fais un Deliveroo Ou alors j't'emmène, y a un MacDo à Jaurès Ah, vas-y s'te plaît On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>L’addition</t>
+          <t>La forme est dans le fond</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Eh ben voilà, j'crois qu'une fois d'plus, Brassens avait raison Quand il a choisi cette ville pour y fonder sa dernière maison J'n'ai passsé qu'deux jours à Sète, moi et ma peau blème Et sans problème, j'peux vous affirmer qu'cette ville est un poème J'ai respiré l'air marin, senti l'odeur des coquillages J'ai vu qu'y avait une lumière jaune dans chacun d'ses paysages Et puis j'ai rencontré des gens qui avaient trois trucs importants Le sourire, l'air sincère, et surtout ils avaient du temps On a mangé sur le port, une table au bord du paradis Un des meilleurs restos du coin, on a tardé, on a gole-ri À cette table on était quatre mais on a mangé comme dix Pour l'même repas à Paris, on aurait dû emprunter chez Cofidis J'aime la région parisienne mais on y vit dans la démesure Ce jour-là, à cette table, on s'est dit qu'on en ferait trois fois seize mesures Car en face de moi, y avait c'rappeur de Sète qui tenait l'addition Ça a donné un beau moment et puis c'feat avec Demi Portion On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction C'était en août, comme d'hab, à saluer le Soleil Ce qui est sympa de chez moi, t'y fais le tour en Solex J'reçois l'appel de JR, d'une invitation concert C'est l'occasion de voir Fabien et d'se rencontrer à Sète Rien de mieux que de parler autour d'une très belle assiette On a pas vu le temps passer, ça aurait pu durer un siècle Parler de vraies valeurs, je sais, se reconnaître soi-même On a passé deux jours ensembles, on aurait dit une semaine Au sommaire, un chant, sourire et quelques photo à faire Si tu viens faire un tour chez moi, j'te montrerai aussi la mer De Paris à Sète, yeah, y a pas qu'les saisons qui changent On y recherche un peu de calme même si ça paraît étrange J'aime ma petite ville de Sète, c'est pas New York non plus À cette table on s'demandait la dernière fois qu'il a plu Et puis en face de moi cet homme qui se tenait à ma table Ça a donné ce beau partage avec Grand Corps Malade On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction Bon, Rachid, tu prends l'train à Sète, j'viens t'chercher à Gare de Lyon C'est l'match retour Mais cette fois c'est à moi d'payer, mais... à Paris c'est pas la même mon pote Si j'veux t'payer comme tu m'as sorti, là, homard, langoustines, coquillages... J'vais y laisser ma veste, mon frère, ça va être très très très cher Ah, sinon, viens on va chez moi directement, j'te fais un Deliveroo Ou alors j't'emmène, y a un MacDo à Jaurès Ah, vas-y s'te plaît On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction</t>
+          <t>De la qualité à la quantité, des jeunes aux qualifiés De la réussite à la façon d'y arriver Politiquement parlant, de leurs promesses à leur moralité De leurs beaux projets au temps qu'il leur faut pour les trafiquer J'pèse mes mots de la marchandise à l'emballage Du message à faire passer à la mise en page Un monde de décalage de l'original au plagiat Allez-y les gars, faites place au rap irremplaçable La forme est dans le fond à faire de nous des hommes Des êtres hors-normes, des écrivains avec des thèmes énormes Se fondre dans la masse sans se confondre avec les autres Qui se battent pour lire la carte quand on détient déjà l'trésor L'Hexaler, pèlerin envahit le réseau Juste le temps d'agir sur le terrain sans trahir la raison Aucune remise en question sans réponse La forme est dans l'fond dont s'font les choses Des causes aux conséquences, des faux aux compétents Pas qu'au micro se sont trompés complètement Depuis l'époque où mon son s'est fondé concrètement La forme est dans le fond dès qu'on reconnait la reconnaissance La forme est dans le fond, la forme est dans le fond et non pas l'contraire La forme est dans le fond, la forme est dans le fond et donc j'rappe concret La forme est dans le fond, on n'vise pas au-dessus de ce qu'on gère Faut qu'on comprenne ce qu'on dit, le matériel est secondaire Simple et précis moi j'écris, j'éclaircis le complexe Je fais ça bien ouais, je me fous de qui dit le contraire A l'heure où tous répètent en chur que tout est confus La silhouette a pris de l'ampleur pour effacer le contenu L'Hexaler fidèle à moi-même face aux corrompus Les liens sont rompus, mec j'avance même si ce monde recule En hommage à la toute puissance qui nous a conçu La nature à l'état pur aiguise les vers au bout d'ma plume Maîtrisant l'espace littéraire où le temps ne se compte plus La vie s'laisse écouter à percer le mystère de l'inconnu Et ouais c'est ça de l'utilité au nécessaire Du néant à ce qui n'va jamais cesser Des discours travestis à l'expression irrépressible C'est pour qui sait que l'estime ne se gagne pas par l'esthétique La forme est dans le fond, la forme est dans le fond et non pas l'contraire La forme est dans le fond, la forme est dans le fond et donc j'rappe concret La forme est dans le fond et non pas l'contraire Les frères sont dans le son et ne veulent plus s'taire T'as vu l'thème est complet, toute l'équipe l'envie d'faire Trop souvent l'envie d'fuir sans pour autant changer d'scène Chaque signe sert à ça, aucune cible au hasard J'ai tellement peur du monde, l'impression d'être un Massaï Artisan d'une bataille, écrivain hors-concours La forme est dans le fond ou dans l'prochain tour Le son tourne, laissons l'rap surtout quand ça touche grave Bousculer ta cervelle à l'endroit où ça n'bouge pas Ne m'touche pas, tais-toi, arrête, vas-y qu'on en parle La musique c'est bien connu on en perd plus qu'on en gagne Banal et c'est comme ça, à chacun ces consignes Depuis que la musique abrite en moi la meilleure voisine Une feuille et c'est magique non on ne s'invente pas une vie A nos enfants d'la patrie, le jour de gloire est gratuit La forme est dans le fond, la forme est dans le fond et non pas l'contraire La forme est dans le fond, la forme est dans le fond et donc j'rappe concret Alors t'es vraiment au courant de rien ? On peut pas tous être immortels, où est-ce qu'on mettrait tout c'monde ? A quoi servent les ondes temporelles ? Pourquoi tu crois que les taxes et les prix augmentent toujours en même temps dans les ghettos ? Le coût de la vie continue d'augmenter pour que les gens continuent d'mourir. C'est pour quoi certains ont des millions d'années pendant que d'autres survivent au jour le jour</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>La forme est dans le fond</t>
+          <t>La fusion</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>De la qualité à la quantité, des jeunes aux qualifiés De la réussite à la façon d'y arriver Politiquement parlant, de leurs promesses à leur moralité De leurs beaux projets au temps qu'il leur faut pour les trafiquer J'pèse mes mots de la marchandise à l'emballage Du message à faire passer à la mise en page Un monde de décalage de l'original au plagiat Allez-y les gars, faites place au rap irremplaçable La forme est dans le fond à faire de nous des hommes Des êtres hors-normes, des écrivains avec des thèmes énormes Se fondre dans la masse sans se confondre avec les autres Qui se battent pour lire la carte quand on détient déjà l'trésor L'Hexaler, pèlerin envahit le réseau Juste le temps d'agir sur le terrain sans trahir la raison Aucune remise en question sans réponse La forme est dans l'fond dont s'font les choses Des causes aux conséquences, des faux aux compétents Pas qu'au micro se sont trompés complètement Depuis l'époque où mon son s'est fondé concrètement La forme est dans le fond dès qu'on reconnait la reconnaissance La forme est dans le fond, la forme est dans le fond et non pas l'contraire La forme est dans le fond, la forme est dans le fond et donc j'rappe concret La forme est dans le fond, on n'vise pas au-dessus de ce qu'on gère Faut qu'on comprenne ce qu'on dit, le matériel est secondaire Simple et précis moi j'écris, j'éclaircis le complexe Je fais ça bien ouais, je me fous de qui dit le contraire A l'heure où tous répètent en chur que tout est confus La silhouette a pris de l'ampleur pour effacer le contenu L'Hexaler fidèle à moi-même face aux corrompus Les liens sont rompus, mec j'avance même si ce monde recule En hommage à la toute puissance qui nous a conçu La nature à l'état pur aiguise les vers au bout d'ma plume Maîtrisant l'espace littéraire où le temps ne se compte plus La vie s'laisse écouter à percer le mystère de l'inconnu Et ouais c'est ça de l'utilité au nécessaire Du néant à ce qui n'va jamais cesser Des discours travestis à l'expression irrépressible C'est pour qui sait que l'estime ne se gagne pas par l'esthétique La forme est dans le fond, la forme est dans le fond et non pas l'contraire La forme est dans le fond, la forme est dans le fond et donc j'rappe concret La forme est dans le fond et non pas l'contraire Les frères sont dans le son et ne veulent plus s'taire T'as vu l'thème est complet, toute l'équipe l'envie d'faire Trop souvent l'envie d'fuir sans pour autant changer d'scène Chaque signe sert à ça, aucune cible au hasard J'ai tellement peur du monde, l'impression d'être un Massaï Artisan d'une bataille, écrivain hors-concours La forme est dans le fond ou dans l'prochain tour Le son tourne, laissons l'rap surtout quand ça touche grave Bousculer ta cervelle à l'endroit où ça n'bouge pas Ne m'touche pas, tais-toi, arrête, vas-y qu'on en parle La musique c'est bien connu on en perd plus qu'on en gagne Banal et c'est comme ça, à chacun ces consignes Depuis que la musique abrite en moi la meilleure voisine Une feuille et c'est magique non on ne s'invente pas une vie A nos enfants d'la patrie, le jour de gloire est gratuit La forme est dans le fond, la forme est dans le fond et non pas l'contraire La forme est dans le fond, la forme est dans le fond et donc j'rappe concret Alors t'es vraiment au courant de rien ? On peut pas tous être immortels, où est-ce qu'on mettrait tout c'monde ? A quoi servent les ondes temporelles ? Pourquoi tu crois que les taxes et les prix augmentent toujours en même temps dans les ghettos ? Le coût de la vie continue d'augmenter pour que les gens continuent d'mourir. C'est pour quoi certains ont des millions d'années pendant que d'autres survivent au jour le jour</t>
+          <t>Ouverture d'esprit Mais pas d'une fracture du crâne R.A.C.H.I.D Il fallait bousiller nos mic' donc on m'a vite appelé Il fallait trouver l'ouverture mais ça ma paie a gueulé Je vise le but comme d'hab mais t'as le ballon doré Au début nos polos deviennent durs mais si t'es mal entouré La génération d'aujourd'hui n'a plus les mêmes acomptes Et les soirées deviennent folles le nez dans la coke Il faut qu'on s'installe, ignorer le style On s'occupe de tout, y'a Rolex aux platines Vive l'indépendance on ne veut pas d'vos chaînes et ni Se rapprocher un peu de ce qui coûte trop cher Tu veux une flamme, des flammes mais tu brûles en fait Tu veux une femme, des femmes mais t'es gay quand même Non pas de baston ni le bruit des bastos Combien d'entres nous en vrai sont partis gratos ? Trouver l'équilibre ici n'est pas devenu fastoche J'ai voulu refaire le monde mais j'ai pas le bon matos Mais où va le monde ? Mais où va le monde ? J'ai l'impression de tourner en rond, de perdre du temps Perdre du temps mais où va le monde ? Mais où va le monde ? J'ai l'impression de tourner en rond, de perdre du temps J'ai pas les bon matos Est-ce que tu entends d'ici vraiment le bruit des balles ? J'ai pas les bon matos x2 Est-ce que tu entends d'ici vraiment le bruit des balles ? Est-ce que tu entends vraiment d'où t'es le bruit des balles ? Depuis qu'on ma dit Petit tu sais la monnaie parle Depuis qu'on ma dit Non faut pas trop laisser d'écart Moccuper devant le rap comme si la Lyre m'épaulait Mettre de côté le mal et voir le bien décoller J'ai examiné les mots dans mon labo d'à côté J'en veux encore encore Mec sans déconner c'est pour les frères en taule Tout ceux qui sonnent en sport, ceux qui se foutent du score Mais passe le relais je me dois de bien causer à la relève T'as vu la cocaïne tourne chez la jeunesse Mais comment devenir en vrai le bon élève ? Baiser le bénéf'</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>La fusion</t>
+          <t>La Grande Vie</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ouverture d'esprit Mais pas d'une fracture du crâne R.A.C.H.I.D Il fallait bousiller nos mic' donc on m'a vite appelé Il fallait trouver l'ouverture mais ça ma paie a gueulé Je vise le but comme d'hab mais t'as le ballon doré Au début nos polos deviennent durs mais si t'es mal entouré La génération d'aujourd'hui n'a plus les mêmes acomptes Et les soirées deviennent folles le nez dans la coke Il faut qu'on s'installe, ignorer le style On s'occupe de tout, y'a Rolex aux platines Vive l'indépendance on ne veut pas d'vos chaînes et ni Se rapprocher un peu de ce qui coûte trop cher Tu veux une flamme, des flammes mais tu brûles en fait Tu veux une femme, des femmes mais t'es gay quand même Non pas de baston ni le bruit des bastos Combien d'entres nous en vrai sont partis gratos ? Trouver l'équilibre ici n'est pas devenu fastoche J'ai voulu refaire le monde mais j'ai pas le bon matos Mais où va le monde ? Mais où va le monde ? J'ai l'impression de tourner en rond, de perdre du temps Perdre du temps mais où va le monde ? Mais où va le monde ? J'ai l'impression de tourner en rond, de perdre du temps J'ai pas les bon matos Est-ce que tu entends d'ici vraiment le bruit des balles ? J'ai pas les bon matos x2 Est-ce que tu entends d'ici vraiment le bruit des balles ? Est-ce que tu entends vraiment d'où t'es le bruit des balles ? Depuis qu'on ma dit Petit tu sais la monnaie parle Depuis qu'on ma dit Non faut pas trop laisser d'écart Moccuper devant le rap comme si la Lyre m'épaulait Mettre de côté le mal et voir le bien décoller J'ai examiné les mots dans mon labo d'à côté J'en veux encore encore Mec sans déconner c'est pour les frères en taule Tout ceux qui sonnent en sport, ceux qui se foutent du score Mais passe le relais je me dois de bien causer à la relève T'as vu la cocaïne tourne chez la jeunesse Mais comment devenir en vrai le bon élève ? Baiser le bénéf'</t>
+          <t>On s'lève, les nerfs, le taff, la thune, trop d'stress On sait qu'un jour on va l'payer La vie, la drogue, tu testes, t'y restes, arrête On sait qu'un jour on va l'payer Un cercle vicieux, les dettes, les verres, la fête On sait qu'un jour on va l'payer On s'lève, les nerfs, le taff, la thune trop d'stress J'espère qu'un jour ça va s'régler On sait qu'un jour on va l'payer Satisfait ou rembourser Ecoute mon fils, excuse-moi, quand j'n'étais pas là je bossais Aujourd'hui je suis rappeur, je dirais pas que c'est un métier zen A l'époque où j'commençais j'étais encore sur DBZ Encore sur un nuage, un mirage, une facilité Parfois sur un virage, on peut regretter son idée Pas souvent réparer l'erreur, ni trop regarder en arrière J'préfèrais Jack Error plutôt qu'parler à mamie J'avais du mal de voir papi, partir à la mine J'ai donc pris goût à la rime, plutôt qu'un gun sous la veste Qu'mes textes en été pouvaient s'transformer en averse On s'lève, les nerfs, le taff, la thune, trop d'stress Mais j'tenais à t'écrire, avant d'te rendre les clés Avant que tu grandisses et quitte la cours de récrée Tout est chronométré, les années passent tellement vite Le jour où j'partirai je ne voudrais pas te laisser les mains vides Au moins que tu saches que papa fait tant pour son fils Le jour où ça pètera, observe mon feu d'artifice J't'envoie plein d'couleur, j't'en prie relativise C'est une musique pour tous les gosses, le partage tue l'avarice En oubliant les choses simples, laisse moi chanter la vie Passer son temps à s'plaindre nous a jamais trop servi Alors on essaye d'combattre, sans ignorer la famille Mon fils je t'aime c'est ton MC qui l'affirme</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>La Grande Vie</t>
+          <t>Laisse moi</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>On s'lève, les nerfs, le taff, la thune, trop d'stress On sait qu'un jour on va l'payer La vie, la drogue, tu testes, t'y restes, arrête On sait qu'un jour on va l'payer Un cercle vicieux, les dettes, les verres, la fête On sait qu'un jour on va l'payer On s'lève, les nerfs, le taff, la thune trop d'stress J'espère qu'un jour ça va s'régler On sait qu'un jour on va l'payer Satisfait ou rembourser Ecoute mon fils, excuse-moi, quand j'n'étais pas là je bossais Aujourd'hui je suis rappeur, je dirais pas que c'est un métier zen A l'époque où j'commençais j'étais encore sur DBZ Encore sur un nuage, un mirage, une facilité Parfois sur un virage, on peut regretter son idée Pas souvent réparer l'erreur, ni trop regarder en arrière J'préfèrais Jack Error plutôt qu'parler à mamie J'avais du mal de voir papi, partir à la mine J'ai donc pris goût à la rime, plutôt qu'un gun sous la veste Qu'mes textes en été pouvaient s'transformer en averse On s'lève, les nerfs, le taff, la thune, trop d'stress Mais j'tenais à t'écrire, avant d'te rendre les clés Avant que tu grandisses et quitte la cours de récrée Tout est chronométré, les années passent tellement vite Le jour où j'partirai je ne voudrais pas te laisser les mains vides Au moins que tu saches que papa fait tant pour son fils Le jour où ça pètera, observe mon feu d'artifice J't'envoie plein d'couleur, j't'en prie relativise C'est une musique pour tous les gosses, le partage tue l'avarice En oubliant les choses simples, laisse moi chanter la vie Passer son temps à s'plaindre nous a jamais trop servi Alors on essaye d'combattre, sans ignorer la famille Mon fils je t'aime c'est ton MC qui l'affirme</t>
+          <t>Vas-y laisse-moi réfléchir, histoire de trouver un thème J'ai des chaînes, me v'là bloqué, j'aurais l'astuce comme dans Hostel Me taire ? J'arrive pas, comme passer l'temps à Khemmem Et qu'le mal est de partout, même chez celui qui t'salam Si on s'estime de moins en moins c'est qu'il fallait faire ça On a fini par être heureux et grandir avec l'3ssa Indéterminé, en s'disant qu'est-ce que l'on doit faire ? Vu qu'on a pas l'goût à la fête, ou se marrer comme les Trois Frères Les droits de l'homme, dis-moi, ça fait longtemps que j'vois plus d'règles Plusieurs minos sont tombés dans la Vodka et la bull-Red L'inconscience nous a mis raide, le futur est flippant Les anges ont su parler, mais les démons n'se confient pas Sourire ça suffit pas, là où l'bonheur est absent Car on a toujours été fiers de faire partie d'ces rabzas Bloqués à chaque départ et les barrières on connait ça Comme celui qui traîne avec toi, qui s'ra jamais reconnaissant Toujours l'air innocent arrête on n'refera pas le monde Va faire un tour en Palestine c'est une kalash contre une fronde En essayant de fermer les yeux on pourra sauver personne Où chacun mène son train de vie en attendant que son heure sonne Donc on est loin d'la fermer, c'est comme retrouver son calme Dédié à Mystic en prison les barrières restent horizontales Tiens l'coup vas-y frérot ainsi qu'tout c'qui purge en taule La justice est un cliché qui nique Hakim plutôt qu'Jean-Paul Visant toujours les gens pauvres abonnée au délit de faciès À croire que nos parents se plaisent à faire leurs vies dans un 3 pièces Ou faire du vide ça n'va plus y a bien quelqu'chose qui les brusquent Regarde ces pubs ou leurs affiches qui mettent à poil à l'arrêt de bus À partir d'là n'm'embête plus, laisse ma plume t'écrire autre chose La jeunesse veut pas d'voyage mais juste d'un splif au coffee-shop Elle veut qu'mélanger une clope et un beau dégradé tondeuse Parfois capuche, des fois freestyle afin d'améliorer son buzz On dit qu'la femme est une calculeuse, que l'homme veut l'allumeuse Me crois même pas si t'as envie, disons qu'cette rime est une rumeur Y a ceux qui montent et ceux qui creusent, ceux qui ont et ceux qui r'gardent Non ne me laisse pas les restes, tu sais très bien qu'les meilleurs partent Bon les meilleurs cartes s'trouvent jamais dans une même pioche J'fais du rap en m'disant m'reste ça ou braquer un kiosque Porter un toast pour qui ? Ouais pour le dos de nos darons Ils ont bien bati c'pays pour voir sourire un Mitterrand J'étais petit, mais là j'suis grand, vas-y contacte-nous ces patrons Dis-leur à tous ces fils de putes que d'autres sont tués au bâtiment Évidemment qu'on a plus l'temps, à tout voter pas discutable Depuis qu'trop d'soucis nous rongent, on ressemble à des cure-dents Vas-y excusez-nous du r'tard et d'notre allure d'homme des cavernes Me prend pas de haut Demi Portion ne sera que Joe qui gifle Averell Là où le sheitan fait des grands geste de peur que personne ne remarque Souriant, méchant, et très sérieux quand il te r'garde 2010 putain d'merde je n'ai pas vu le temps passer 26 ans y a plus d'bougies mais qu'la galère à embrasser C'est juste un point parmi les autres qui est v'nu le remplacer On tient d'bout comme y a des jours où l'on marche vite sur des lacets Non j'vais pas te faire la scène, mais cette instru me dit d'écrire C'est qu'l'intro de mon projet, bientôt j'arrête tu connais l'Dîn Inch'Allah Ouais qu'elle privilège de s'exprimer, écrire, développer, vous parlez, revendiquer Pfff et le reste qu'est-ce qu'on s'en bat les couilles</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Laisse moi</t>
+          <t>Laisse-moi V2</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vas-y laisse-moi réfléchir, histoire de trouver un thème J'ai des chaînes, me v'là bloqué, j'aurais l'astuce comme dans Hostel Me taire ? J'arrive pas, comme passer l'temps à Khemmem Et qu'le mal est de partout, même chez celui qui t'salam Si on s'estime de moins en moins c'est qu'il fallait faire ça On a fini par être heureux et grandir avec l'3ssa Indéterminé, en s'disant qu'est-ce que l'on doit faire ? Vu qu'on a pas l'goût à la fête, ou se marrer comme les Trois Frères Les droits de l'homme, dis-moi, ça fait longtemps que j'vois plus d'règles Plusieurs minos sont tombés dans la Vodka et la bull-Red L'inconscience nous a mis raide, le futur est flippant Les anges ont su parler, mais les démons n'se confient pas Sourire ça suffit pas, là où l'bonheur est absent Car on a toujours été fiers de faire partie d'ces rabzas Bloqués à chaque départ et les barrières on connait ça Comme celui qui traîne avec toi, qui s'ra jamais reconnaissant Toujours l'air innocent arrête on n'refera pas le monde Va faire un tour en Palestine c'est une kalash contre une fronde En essayant de fermer les yeux on pourra sauver personne Où chacun mène son train de vie en attendant que son heure sonne Donc on est loin d'la fermer, c'est comme retrouver son calme Dédié à Mystic en prison les barrières restent horizontales Tiens l'coup vas-y frérot ainsi qu'tout c'qui purge en taule La justice est un cliché qui nique Hakim plutôt qu'Jean-Paul Visant toujours les gens pauvres abonnée au délit de faciès À croire que nos parents se plaisent à faire leurs vies dans un 3 pièces Ou faire du vide ça n'va plus y a bien quelqu'chose qui les brusquent Regarde ces pubs ou leurs affiches qui mettent à poil à l'arrêt de bus À partir d'là n'm'embête plus, laisse ma plume t'écrire autre chose La jeunesse veut pas d'voyage mais juste d'un splif au coffee-shop Elle veut qu'mélanger une clope et un beau dégradé tondeuse Parfois capuche, des fois freestyle afin d'améliorer son buzz On dit qu'la femme est une calculeuse, que l'homme veut l'allumeuse Me crois même pas si t'as envie, disons qu'cette rime est une rumeur Y a ceux qui montent et ceux qui creusent, ceux qui ont et ceux qui r'gardent Non ne me laisse pas les restes, tu sais très bien qu'les meilleurs partent Bon les meilleurs cartes s'trouvent jamais dans une même pioche J'fais du rap en m'disant m'reste ça ou braquer un kiosque Porter un toast pour qui ? Ouais pour le dos de nos darons Ils ont bien bati c'pays pour voir sourire un Mitterrand J'étais petit, mais là j'suis grand, vas-y contacte-nous ces patrons Dis-leur à tous ces fils de putes que d'autres sont tués au bâtiment Évidemment qu'on a plus l'temps, à tout voter pas discutable Depuis qu'trop d'soucis nous rongent, on ressemble à des cure-dents Vas-y excusez-nous du r'tard et d'notre allure d'homme des cavernes Me prend pas de haut Demi Portion ne sera que Joe qui gifle Averell Là où le sheitan fait des grands geste de peur que personne ne remarque Souriant, méchant, et très sérieux quand il te r'garde 2010 putain d'merde je n'ai pas vu le temps passer 26 ans y a plus d'bougies mais qu'la galère à embrasser C'est juste un point parmi les autres qui est v'nu le remplacer On tient d'bout comme y a des jours où l'on marche vite sur des lacets Non j'vais pas te faire la scène, mais cette instru me dit d'écrire C'est qu'l'intro de mon projet, bientôt j'arrête tu connais l'Dîn Inch'Allah Ouais qu'elle privilège de s'exprimer, écrire, développer, vous parlez, revendiquer Pfff et le reste qu'est-ce qu'on s'en bat les couilles</t>
+          <t>Vas-y laisse-moi réfléchir un peu, histoire de trouver un thème J'ai des chaînes, me v'là bloqué, j'aurais l'astuce comme dans Hostel Me taire ? J'arrive pas, comme passer mon temps à Khemmem Et qu'le mal est de partout, même chez celui qui t'salam Si on s'estime de moins en moins, c'est qu'il fallait faire ça On a fini par être heureux et grandir avec l'3ssa Indéterminé, en s'disant qu'est-ce que l'on doit faire ? Vu qu'on a pas l'goût à la fête, ou se marrer comme les Trois Frères Les droits de l'homme, dis-moi, ça fait longtemps que j'vois plus d'règles Plusieurs minos sont tombés dans la Vodka, la bull-red L'inconscience nous a mis raide, le futur est flippant Les anges ont su parler, mais les démons n'se confient pas Sourire ? ça suffit pas, là où l'bonheur est absent Car on a toujours été fiers de faire partie d'ces rabzas Bloqués à chaque départ, les barrières on connait ça Comme celui qui traîne avec toi, qui s'ra jamais reconnaissant Toujours l'air innocent, arrête on n'refera pas le monde Va faire un tour en Palestine, c'est la kalash contre la fronde En essayant de fermer les yeux, on pourra sauver personne Où chacun mène son train de vie en attendant que son heure sonne Donc on est loin d'la fermer, c'est comme retrouver son calme Les Grandes Gueules et Mystik, les barrières restent horizontales horizontales Hip Hop Mia-mytho, est-ce qu'une vraie c'est une révolution ? Mystik, Grandes Gueules, Demi Portion Authentique MC, micro-test one-two Nique la aine taa elnasse, rebelle comme Maâtoub Lounès On n'demande pas la parole, on la prend Génocide en Afrique, politique africaine de la France Celle qui dit qu'on fait du bruit, qu'on hue On est tous cool à la base, c'est la vie qui pousse à faire des sales trucs Dieu seul nous juge, j'ai des potes ils en ont rien à foutre du rap Ils savent chanter devant les juges Chacun fait c'qu'il peut, t'as vu nos races ? Pour calmer mes nerfs, j'écoutais XXX Tes corones XXX La vie m'a déjà fait assez d'marques, y a plus rien qui fait rafle Moral d'acier, le rap c'est devenu chelou Tu peux avoir du buzz avec un album à chier Tous les frères qui carburent, faut pas lâcher On croquera la victoire à la force du poignet Si tu veux mon avis, l'état des lieues désole Crois en toi, n'deviens pas martyr de la folie des hommes des hommes Simplement des jeunes en plein milieu d'la foule Peut-être bien que le seul point commun avec toi c'est qu'on en a rien à foutre Nous dis jamais qu'le courage y en a pas Tout comme les cousins d'Alger, Constantine, Annaba D'en bas, on présente tous un danger Étranger mais rien à battre, nous on la ferme pas Face à leurs flics, leurs discours politiques Ou face à eux qui se disent pour le litige Khlass, ceux qui intégrant? le dit Haut et fort à tous les frères avec des phases inédites Quitte à redire, nique sa mère si t'accroches pas Si t'es un vrai, toi-même tu vois de quoi j'parle Tout comme les miens, occupé à faire d'la maille Ou les autres au QG qui veulent se faire la malle Ouais rien à foutre, qu'il y ai des bornes à franchir Combien de fois pris l'autoroute sans même réfléchir réfléchir Sber ngoulik 7aja Had lmoussi9a kharja mn lgelb Klam dial cha3b Fi khater cha3b B9aw 3ala khir insh'allah</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Laisse-moi V2</t>
+          <t>Laisse pas tomber</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Vas-y laisse-moi réfléchir un peu, histoire de trouver un thème J'ai des chaînes, me v'là bloqué, j'aurais l'astuce comme dans Hostel Me taire ? J'arrive pas, comme passer mon temps à Khemmem Et qu'le mal est de partout, même chez celui qui t'salam Si on s'estime de moins en moins, c'est qu'il fallait faire ça On a fini par être heureux et grandir avec l'3ssa Indéterminé, en s'disant qu'est-ce que l'on doit faire ? Vu qu'on a pas l'goût à la fête, ou se marrer comme les Trois Frères Les droits de l'homme, dis-moi, ça fait longtemps que j'vois plus d'règles Plusieurs minos sont tombés dans la Vodka, la bull-red L'inconscience nous a mis raide, le futur est flippant Les anges ont su parler, mais les démons n'se confient pas Sourire ? ça suffit pas, là où l'bonheur est absent Car on a toujours été fiers de faire partie d'ces rabzas Bloqués à chaque départ, les barrières on connait ça Comme celui qui traîne avec toi, qui s'ra jamais reconnaissant Toujours l'air innocent, arrête on n'refera pas le monde Va faire un tour en Palestine, c'est la kalash contre la fronde En essayant de fermer les yeux, on pourra sauver personne Où chacun mène son train de vie en attendant que son heure sonne Donc on est loin d'la fermer, c'est comme retrouver son calme Les Grandes Gueules et Mystik, les barrières restent horizontales horizontales Hip Hop Mia-mytho, est-ce qu'une vraie c'est une révolution ? Mystik, Grandes Gueules, Demi Portion Authentique MC, micro-test one-two Nique la aine taa elnasse, rebelle comme Maâtoub Lounès On n'demande pas la parole, on la prend Génocide en Afrique, politique africaine de la France Celle qui dit qu'on fait du bruit, qu'on hue On est tous cool à la base, c'est la vie qui pousse à faire des sales trucs Dieu seul nous juge, j'ai des potes ils en ont rien à foutre du rap Ils savent chanter devant les juges Chacun fait c'qu'il peut, t'as vu nos races ? Pour calmer mes nerfs, j'écoutais XXX Tes corones XXX La vie m'a déjà fait assez d'marques, y a plus rien qui fait rafle Moral d'acier, le rap c'est devenu chelou Tu peux avoir du buzz avec un album à chier Tous les frères qui carburent, faut pas lâcher On croquera la victoire à la force du poignet Si tu veux mon avis, l'état des lieues désole Crois en toi, n'deviens pas martyr de la folie des hommes des hommes Simplement des jeunes en plein milieu d'la foule Peut-être bien que le seul point commun avec toi c'est qu'on en a rien à foutre Nous dis jamais qu'le courage y en a pas Tout comme les cousins d'Alger, Constantine, Annaba D'en bas, on présente tous un danger Étranger mais rien à battre, nous on la ferme pas Face à leurs flics, leurs discours politiques Ou face à eux qui se disent pour le litige Khlass, ceux qui intégrant? le dit Haut et fort à tous les frères avec des phases inédites Quitte à redire, nique sa mère si t'accroches pas Si t'es un vrai, toi-même tu vois de quoi j'parle Tout comme les miens, occupé à faire d'la maille Ou les autres au QG qui veulent se faire la malle Ouais rien à foutre, qu'il y ai des bornes à franchir Combien de fois pris l'autoroute sans même réfléchir réfléchir Sber ngoulik 7aja Had lmoussi9a kharja mn lgelb Klam dial cha3b Fi khater cha3b B9aw 3ala khir insh'allah</t>
+          <t>Encore le réveil qui sonne, la même routine disons Papa maman à l'usine charbonnent voir maintenant plus d'dix ans Le même patron bizarre, le même whisky fait maison Les mêmes travailleurs qui attendent une augmentation Les mêmes locaux pourraves, les mêmes conversations T'as vu le match d'hier ? Bof, y'a pas eu trop d'action La même secrétaire bidon, qui passe son temps à fumer Qui te parle en fin d'journée, comme si elle venait d'se lever Les mêmes machines à café, sans te parler de leur goût T'en bois un, t'en es sûr, tu tiens la chaîne jusqu'au cou Le même qui ralentit tout, mais bon, t'as rien d'rapide Ce que raconte l'intérim, aujourd'hui, je rime C'est loi d'être une fin en soi, comme lire entre mes lignes Un autre texte à chaque fois Au fond on a tous un cur, mais bon reste à voir s'il bat Quand la vie est un ring et qu'les coups deviennent si bas x2 On fait les choses c'est pas grave, non ne laisse pas tomber Ne laisse pas tomber, jamais ne laisse tomber Au fond tu t'en sortiras, le sort nous a rassemblés Et si t'as d'plan B, du coup y'a tout l'alphabet On a pas eu c'qu'il fallait, donc j'ai eu l'envie d'aller voir À force de plus s'calculer on s'est trop laissés d'écart Tous emportés par le rire, ignoraient les vraies occas' On perd tous des calories, à porter l'mal à la base On fait du sport sans s'nourrir, on fume plus que Lafarge On perd la soif de vivre j'te parle pas de c'qu'on avale Les mains sales, automatiques, comme une vieille arme dans la malle Le côté maléfique, nan j'veux celui de l'imam Non j'ai pas peur de l'ennemi, ni non plus du tribunal De tous ces faux amis comme ta pince si amical Nan y'a pas d'rime illégale, mais le temps veut qu'on se magne Mais il n'est jamais trop tard mais notre vécu en témoigne x2 On fait les choses c'est pas grave, non ne laisse pas tomber Ne laisse pas tomber, jamais ne laisse tomber Au fond tu t'en sortiras, le sort nous a rassemblés Et si t'as d'plan B, du coup y'a tout l'alphabet Et il faut s'attendre à tout, avancer j'ai pas l'choix Trouver l'inspi' c'est pas simple donc elle arrive le soir Le rap m'est tombé comme ça, entre breaker et un graf' Entre Mos Def, Mobb Deep, loin de la vie d'rockstar Sorti des rimes c'est possible, former un crew l'est aussi J'te parle de 1.9.9.6, encore loin des soucis Des signatures trop faussées, de gros talents dans l'fossé Y'en a combien qu'ont forcé, le temps les a effacés Facile, viens faire un tour dans le rap français La plupart sont des menteurs, trafiquants d'mauvaises pensées Le passé nous apaise, des rêves t'en auras besoin On oubliera jamais personne comme le groupe d'Assassin Aux potes sourds qui m'entendent, c'est sûrement la force des mots Comme Ekoué j'avance tranquille, blessé dans mon égo Métro, photo d'pub, il fallait bien qu'j'm'occupe Bosse de chez moi cool, j'ai trouvé mieux qu'un stud' J'ai trouvé mes quinze titres, j'vais sortir l'album Dragon Rash cousin, fallait bien qu'ça colle Je cause, compose, m'impose à chaque prose Chaque prise, chaque note, me ramène en osmose No stop, on s'tire, le temps d'lever les stores On gagne, on perd, vu qu'on s'en fout du score On s'tord, on boxe, un peu comme du sport On pose, sans pause, c'que le temps nous rapporte On fait les choses c'est pas grave, non ne laisse pas tomber Ne laisse pas tomber, jamais ne laisse tomber Au fond tu t'en sortiras, le sort nous a rassemblés Et si t'as d'plan B, du coup y'a tout l'alphabet</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Laisse pas tomber</t>
+          <t>Laisser nous respirer</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Encore le réveil qui sonne, la même routine disons Papa maman à l'usine charbonnent voir maintenant plus d'dix ans Le même patron bizarre, le même whisky fait maison Les mêmes travailleurs qui attendent une augmentation Les mêmes locaux pourraves, les mêmes conversations T'as vu le match d'hier ? Bof, y'a pas eu trop d'action La même secrétaire bidon, qui passe son temps à fumer Qui te parle en fin d'journée, comme si elle venait d'se lever Les mêmes machines à café, sans te parler de leur goût T'en bois un, t'en es sûr, tu tiens la chaîne jusqu'au cou Le même qui ralentit tout, mais bon, t'as rien d'rapide Ce que raconte l'intérim, aujourd'hui, je rime C'est loi d'être une fin en soi, comme lire entre mes lignes Un autre texte à chaque fois Au fond on a tous un cur, mais bon reste à voir s'il bat Quand la vie est un ring et qu'les coups deviennent si bas x2 On fait les choses c'est pas grave, non ne laisse pas tomber Ne laisse pas tomber, jamais ne laisse tomber Au fond tu t'en sortiras, le sort nous a rassemblés Et si t'as d'plan B, du coup y'a tout l'alphabet On a pas eu c'qu'il fallait, donc j'ai eu l'envie d'aller voir À force de plus s'calculer on s'est trop laissés d'écart Tous emportés par le rire, ignoraient les vraies occas' On perd tous des calories, à porter l'mal à la base On fait du sport sans s'nourrir, on fume plus que Lafarge On perd la soif de vivre j'te parle pas de c'qu'on avale Les mains sales, automatiques, comme une vieille arme dans la malle Le côté maléfique, nan j'veux celui de l'imam Non j'ai pas peur de l'ennemi, ni non plus du tribunal De tous ces faux amis comme ta pince si amical Nan y'a pas d'rime illégale, mais le temps veut qu'on se magne Mais il n'est jamais trop tard mais notre vécu en témoigne x2 On fait les choses c'est pas grave, non ne laisse pas tomber Ne laisse pas tomber, jamais ne laisse tomber Au fond tu t'en sortiras, le sort nous a rassemblés Et si t'as d'plan B, du coup y'a tout l'alphabet Et il faut s'attendre à tout, avancer j'ai pas l'choix Trouver l'inspi' c'est pas simple donc elle arrive le soir Le rap m'est tombé comme ça, entre breaker et un graf' Entre Mos Def, Mobb Deep, loin de la vie d'rockstar Sorti des rimes c'est possible, former un crew l'est aussi J'te parle de 1.9.9.6, encore loin des soucis Des signatures trop faussées, de gros talents dans l'fossé Y'en a combien qu'ont forcé, le temps les a effacés Facile, viens faire un tour dans le rap français La plupart sont des menteurs, trafiquants d'mauvaises pensées Le passé nous apaise, des rêves t'en auras besoin On oubliera jamais personne comme le groupe d'Assassin Aux potes sourds qui m'entendent, c'est sûrement la force des mots Comme Ekoué j'avance tranquille, blessé dans mon égo Métro, photo d'pub, il fallait bien qu'j'm'occupe Bosse de chez moi cool, j'ai trouvé mieux qu'un stud' J'ai trouvé mes quinze titres, j'vais sortir l'album Dragon Rash cousin, fallait bien qu'ça colle Je cause, compose, m'impose à chaque prose Chaque prise, chaque note, me ramène en osmose No stop, on s'tire, le temps d'lever les stores On gagne, on perd, vu qu'on s'en fout du score On s'tord, on boxe, un peu comme du sport On pose, sans pause, c'que le temps nous rapporte On fait les choses c'est pas grave, non ne laisse pas tomber Ne laisse pas tomber, jamais ne laisse tomber Au fond tu t'en sortiras, le sort nous a rassemblés Et si t'as d'plan B, du coup y'a tout l'alphabet</t>
+          <t>Hin.. Laisser moi respire.. Melis hin.. Demi P 34 Et tu sais pas quoi choisir entre le Dîn, le bizz, la rue J'suis tellement solitaire que dans ma ville J'suis porté disparu Y'en a 10 par rue Terrible de voir que le vice Dans l'droit chemin pas d'exception, pas de déception, ni d'vie crapule La vie m'a passé des épreuves à la chaîne Du vice à la paix D'la paix à la haine Dur d'garder l'contrôle d'soi même Parait qu'le rap est mort ou qu'il serait sous perfusion Pourtant certains disent que lui et moi on fait d'super fusion On a la musique comme seul remède T'es comme moi si quand t'as mal Tu ressens l'envie d'écrire comme seule pulsion vous l'a bien dit On a tous besoin d'aide J'comprends les frères qu'on deux joints d'herbe Pour pouvoir calmer leurs compulsions L'objectif des médias c'est d'nous empêcher d'aimer Dieu Mais tu sais l'amour rend aveugle j'l'ai vu de mes yeux Et ça bloque les frontières quand Blesse la laisse tirée Il est temps que j'me calme Donc poto laisse moi respirer Envoi un beat que l'on s'explique tu sais que l'encre m'appelle Envenimer le bic mec, d'manière à que ce soit mortel On aime pas le changement , vu que ça donne une sale recette On goûte à la vie chaque jour, j'partirai maigre comme Brassens On tend la joue, perd les siens, t'as le temps de prendre ta gifle On félicite nos petits, dès qu'les projets s'finalisent C'est normal, on en remet, envoie du son car j'dors pas Croquer la vie à pleine dent, j'veux bien mais ça mord pas Y a rien d'grave bic up ! Heureusement que l'on gratte Qu'on pensera à Sean Price, Big L ou à Gang Starr On minimise à chaque fois même si l'respect s'oublie J'voudrais laisser une belle trace juste avant d'être enseveli On s'en remet, c'est grâce aux erreurs qu'on se r'lit Qu'on apprend à tourner la page même si on a même plus de livre Oui laissez-nous respirer Laissez-nous sans pression, j'passe au travers le filet Intrus comme demi portion Laisser nous respirer Frère sache que pour la paix On n'fait qu'espèrer La route encore est longue encore plus Cloitrer dans une caisse tiré Faire de mon mieux quand ça va mal Bien-sur que j'essayerai Donc laisser moi respirer</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Laisser nous respirer</t>
+          <t>La lettre</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Hin.. Laisser moi respire.. Melis hin.. Demi P 34 Et tu sais pas quoi choisir entre le Dîn, le bizz, la rue J'suis tellement solitaire que dans ma ville J'suis porté disparu Y'en a 10 par rue Terrible de voir que le vice Dans l'droit chemin pas d'exception, pas de déception, ni d'vie crapule La vie m'a passé des épreuves à la chaîne Du vice à la paix D'la paix à la haine Dur d'garder l'contrôle d'soi même Parait qu'le rap est mort ou qu'il serait sous perfusion Pourtant certains disent que lui et moi on fait d'super fusion On a la musique comme seul remède T'es comme moi si quand t'as mal Tu ressens l'envie d'écrire comme seule pulsion vous l'a bien dit On a tous besoin d'aide J'comprends les frères qu'on deux joints d'herbe Pour pouvoir calmer leurs compulsions L'objectif des médias c'est d'nous empêcher d'aimer Dieu Mais tu sais l'amour rend aveugle j'l'ai vu de mes yeux Et ça bloque les frontières quand Blesse la laisse tirée Il est temps que j'me calme Donc poto laisse moi respirer Envoi un beat que l'on s'explique tu sais que l'encre m'appelle Envenimer le bic mec, d'manière à que ce soit mortel On aime pas le changement , vu que ça donne une sale recette On goûte à la vie chaque jour, j'partirai maigre comme Brassens On tend la joue, perd les siens, t'as le temps de prendre ta gifle On félicite nos petits, dès qu'les projets s'finalisent C'est normal, on en remet, envoie du son car j'dors pas Croquer la vie à pleine dent, j'veux bien mais ça mord pas Y a rien d'grave bic up ! Heureusement que l'on gratte Qu'on pensera à Sean Price, Big L ou à Gang Starr On minimise à chaque fois même si l'respect s'oublie J'voudrais laisser une belle trace juste avant d'être enseveli On s'en remet, c'est grâce aux erreurs qu'on se r'lit Qu'on apprend à tourner la page même si on a même plus de livre Oui laissez-nous respirer Laissez-nous sans pression, j'passe au travers le filet Intrus comme demi portion Laisser nous respirer Frère sache que pour la paix On n'fait qu'espèrer La route encore est longue encore plus Cloitrer dans une caisse tiré Faire de mon mieux quand ça va mal Bien-sur que j'essayerai Donc laisser moi respirer</t>
+          <t>Salut Furax, comment ça va ? J'espère qu'la famille va bien J'ai eu quelques petites nouvelles grâce à deux, trois toulousains Como esta mon cousin ? Chez moi, c'est toujours la même J'enregistre à la maison avec ces plugs à l'ancienne J'te rassure, niveau taff, c'est pas fameux dans le Sud Y a plus de fumeurs en France que d'policiers chez les stups Je m'habitue, mais bon Fu', y a rien de mieux que d'écrire Entre la joie et les pleurs, qui choisira la déprime ? Ça m'intrigue, j'm'entraîne à donner l'maximum gars La vie nous cache des cicatrices comme génocide au Rwanda Sinon ça va, j'perds mon temps trop souvent à l'gagner Mais Dieu merci, on résiste tel un apprenti cavalier Sinon Furax comme d'habitude, j'essaie de nous faire plaisir Garder l'sourire, c'est gratuit, c'est une occasion à saisir Atterrir mais est-c'que la musique est un vrai boulot ? J'ai galéré à m'faire entendre comme un walkman sous l'eau Donc aujourd'hui, j'ai une revanche et un message pour les nôtres J'ai voulu prendre mon temps mais c'est une course contre la montre Ma lettre est pour les Hommes, ma plume est un trésor Non, on n'a jamais voulu s'vendre, on sait qu'l'argent dévore Merci Furax, à bientôt, s'exprimer, ça vaut d'l'or Tu sais qu'à Sète, il fait pas beau mais c'est quand tu veux près du port P.S. j't'écris d'chez moi en préparant mon album Tu sais pour moi un featuring, c'est d'abord bien aimer l'homme Peace Demi-Portion, neuf février Rachid J'attends de tes nouvelles, big up Sabah el nour Rachid, ta lettre est un point d'eau dans un désert de sable Frangin, tes verbes sabrent la fumée de mes herbes sales Ça m'a fait plaisir de te lire, y a les misères, le sah Ici, c'est pas encore le pire mais y a des airs de ça J'te suis sur les réseaux, les gens t'traquent sur Insta' Super-héros, dans mes reilles-o, un jour, tu chanteras sur un stade c'est sûr Tu n'es qu'amour, j'suis c'côté âpre de la merde Mais on s'est lié sur la route jusqu'au théâtre de la mer Dis-moi qu'on a fait la fierté de nos rents-pa Que Liberté, Égalité, Fraternité ne m'auront pas Que Vanité sera chassée de nos remparts Que l'humanité, c'est nos gosses et gars ça, c'est de l'or en barre Sinon pour ma part, Rachid Rachid, là où j'écris ça Y a toujours pas d'couleurs, pas de magie, la rouge est grise Loin des clashs est biz' j'suis classé bizarre Loin des plages d'Ibiza, ici, c'est glacé blizzard La mort qu'on est sensé zappé, moi, j'entends ses appels Je viens de faire deux fois vingt hier j'en avais seize à peine Quand la vie r'prendra son butin et mettra la pose Et, Rach', j'partirai comme une putain d'lettre à la poste Comprendre la peine, ça mène à rien, ça m'aide à la chanter Bref, j'espère que la madre va bien, qu'Ahmed a la santé Désolé, j'voulais pas plier mais le stress fait vriller Amitié sincère sur papier en ce treize février Barbarossa À récolter ce que l'on sème On finit par s'étouffer On s'aime, on s'aime On se le dit pas c'est tout frère</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>La lettre</t>
+          <t>La liberté freestyle #2chezmoi</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Salut Furax, comment ça va ? J'espère qu'la famille va bien J'ai eu quelques petites nouvelles grâce à deux, trois toulousains Como esta mon cousin ? Chez moi, c'est toujours la même J'enregistre à la maison avec ces plugs à l'ancienne J'te rassure, niveau taff, c'est pas fameux dans le Sud Y a plus de fumeurs en France que d'policiers chez les stups Je m'habitue, mais bon Fu', y a rien de mieux que d'écrire Entre la joie et les pleurs, qui choisira la déprime ? Ça m'intrigue, j'm'entraîne à donner l'maximum gars La vie nous cache des cicatrices comme génocide au Rwanda Sinon ça va, j'perds mon temps trop souvent à l'gagner Mais Dieu merci, on résiste tel un apprenti cavalier Sinon Furax comme d'habitude, j'essaie de nous faire plaisir Garder l'sourire, c'est gratuit, c'est une occasion à saisir Atterrir mais est-c'que la musique est un vrai boulot ? J'ai galéré à m'faire entendre comme un walkman sous l'eau Donc aujourd'hui, j'ai une revanche et un message pour les nôtres J'ai voulu prendre mon temps mais c'est une course contre la montre Ma lettre est pour les Hommes, ma plume est un trésor Non, on n'a jamais voulu s'vendre, on sait qu'l'argent dévore Merci Furax, à bientôt, s'exprimer, ça vaut d'l'or Tu sais qu'à Sète, il fait pas beau mais c'est quand tu veux près du port P.S. j't'écris d'chez moi en préparant mon album Tu sais pour moi un featuring, c'est d'abord bien aimer l'homme Peace Demi-Portion, neuf février Rachid J'attends de tes nouvelles, big up Sabah el nour Rachid, ta lettre est un point d'eau dans un désert de sable Frangin, tes verbes sabrent la fumée de mes herbes sales Ça m'a fait plaisir de te lire, y a les misères, le sah Ici, c'est pas encore le pire mais y a des airs de ça J'te suis sur les réseaux, les gens t'traquent sur Insta' Super-héros, dans mes reilles-o, un jour, tu chanteras sur un stade c'est sûr Tu n'es qu'amour, j'suis c'côté âpre de la merde Mais on s'est lié sur la route jusqu'au théâtre de la mer Dis-moi qu'on a fait la fierté de nos rents-pa Que Liberté, Égalité, Fraternité ne m'auront pas Que Vanité sera chassée de nos remparts Que l'humanité, c'est nos gosses et gars ça, c'est de l'or en barre Sinon pour ma part, Rachid Rachid, là où j'écris ça Y a toujours pas d'couleurs, pas de magie, la rouge est grise Loin des clashs est biz' j'suis classé bizarre Loin des plages d'Ibiza, ici, c'est glacé blizzard La mort qu'on est sensé zappé, moi, j'entends ses appels Je viens de faire deux fois vingt hier j'en avais seize à peine Quand la vie r'prendra son butin et mettra la pose Et, Rach', j'partirai comme une putain d'lettre à la poste Comprendre la peine, ça mène à rien, ça m'aide à la chanter Bref, j'espère que la madre va bien, qu'Ahmed a la santé Désolé, j'voulais pas plier mais le stress fait vriller Amitié sincère sur papier en ce treize février Barbarossa À récolter ce que l'on sème On finit par s'étouffer On s'aime, on s'aime On se le dit pas c'est tout frère</t>
+          <t>Yo, 2ChezMoi, écoute Ils ont voulu qu'on finisse con Que nos petits n'y connaissent rien,mise à part squatter le banc L'école? ça dit plus rien,ils te diront que ça compte pas J'ai fermé ma trousse mais j'utilise le compas Continue le combat et chacun tape sa fouine Y a celui qui partage et ceux qui te laisse les ruines Ils ont voulu qu'on la ferme et qu'on finisse stérile On nous rebande tu vois même dans les boites d'intérim Frères surs,cessons de rester anonyme Car suivre les règles,ne veut pas dire tenir la ligne En premier choix,j'ai du apprendre le slalom Etre droit ne certifie pas anti l'homme Le courage,la rage,ce n'est qu'un délire tout ça Mais le truc c'est d'agir et d'oublié le mot froussard Etre fier c'est trop bizarre, être zèle c'est trop facile Regarde le dos à nos pères,ce que leur a fait l'usine Regarde les yeux de mes frères modifié à la résine Regarde toutes ces filles à bloquées sur un fanzine Remets les pieds sur terre,y a rien dans les nuages A force de démarrer pour rien,t'as du pété l'allumage Ils ont sali notre image,la religion musulmane T'as vu les caricatures et ils parlent mal des imams Ils me verront comme un âne et on dira c'est normal J'serai jamais d'accord avec ce putain de kofi anane Vu que j'aime que le rap et toujours au service du kick C'est ça qui m'a appris tu vois,à quoi servait un titre Un message logique,y'aura de la place pour tout le monde Mais attention que nos petites soeurs n'ont pas trop de merde Dans leur I-POD Génération Kily Minogue,ces clips qu'on leur enseigne On te dira que c'est la mode G.S.M et MSN Et ça part d'ici au bled, un virus universel Et je suis de moins en moins ravi frère à chaque anniversaire A parlé de misère,ça ramène rien de jdide Tapé ta cocaïne,ça ramène rien de street Stricte ou sectaire,jouer le fair-play ou faire plaire En essayant de faire le max,c'est pas effacé les repères Tranquillef,c'est pas trop ça pour le moment Et j'te le dis profite bien,pendant que tu dors chez ta maman 2016 c'est pas marrant, Et l'avenir est effarant mais la galère d'aujourd'hui n'a rien aux yeux de tes parents De chez moi a chez toi, Bic Up Keny Arkana De de de demi-portion</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>La liberté freestyle #2chezmoi</t>
+          <t>La raclée</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Yo, 2ChezMoi, écoute Ils ont voulu qu'on finisse con Que nos petits n'y connaissent rien,mise à part squatter le banc L'école? ça dit plus rien,ils te diront que ça compte pas J'ai fermé ma trousse mais j'utilise le compas Continue le combat et chacun tape sa fouine Y a celui qui partage et ceux qui te laisse les ruines Ils ont voulu qu'on la ferme et qu'on finisse stérile On nous rebande tu vois même dans les boites d'intérim Frères surs,cessons de rester anonyme Car suivre les règles,ne veut pas dire tenir la ligne En premier choix,j'ai du apprendre le slalom Etre droit ne certifie pas anti l'homme Le courage,la rage,ce n'est qu'un délire tout ça Mais le truc c'est d'agir et d'oublié le mot froussard Etre fier c'est trop bizarre, être zèle c'est trop facile Regarde le dos à nos pères,ce que leur a fait l'usine Regarde les yeux de mes frères modifié à la résine Regarde toutes ces filles à bloquées sur un fanzine Remets les pieds sur terre,y a rien dans les nuages A force de démarrer pour rien,t'as du pété l'allumage Ils ont sali notre image,la religion musulmane T'as vu les caricatures et ils parlent mal des imams Ils me verront comme un âne et on dira c'est normal J'serai jamais d'accord avec ce putain de kofi anane Vu que j'aime que le rap et toujours au service du kick C'est ça qui m'a appris tu vois,à quoi servait un titre Un message logique,y'aura de la place pour tout le monde Mais attention que nos petites soeurs n'ont pas trop de merde Dans leur I-POD Génération Kily Minogue,ces clips qu'on leur enseigne On te dira que c'est la mode G.S.M et MSN Et ça part d'ici au bled, un virus universel Et je suis de moins en moins ravi frère à chaque anniversaire A parlé de misère,ça ramène rien de jdide Tapé ta cocaïne,ça ramène rien de street Stricte ou sectaire,jouer le fair-play ou faire plaire En essayant de faire le max,c'est pas effacé les repères Tranquillef,c'est pas trop ça pour le moment Et j'te le dis profite bien,pendant que tu dors chez ta maman 2016 c'est pas marrant, Et l'avenir est effarant mais la galère d'aujourd'hui n'a rien aux yeux de tes parents De chez moi a chez toi, Bic Up Keny Arkana De de de demi-portion</t>
+          <t>On t'a mis une raclée à la gare À cause de toi on est passés à la barre Sale balance, j'rappe salement Tu mérites que mes genous et mes quatre phalanges Demande à L.A.S.C.A.R.S Vous êtes en France on est sur M.A.R.S Villeneuve-la-Garenne ça bédave normal Mais sur un contrôle les flics veulent ma barrette Bordel de merde, ok j'me perds Mais comment faire autrement avec mes problèmes d'oseille J'opère le game L'enfoiré est dans un sale état Fallait pas me foutre la rage maintenant chialez pas J'suis pas assistante sociale Je ne connais que la rue, la haine, le bâtiment, le local VLD, VLG on s'est tapé des barres J'me rappelle des raclées quand on ramenait les schtars La rue, la ruse, la vie, la caille et la son-pri Ça pue t'as vu dans mes freestyles tu l'as compris Que des zombies dans mon équipe Que des balances, des baltringues, des don-bi dans ton équipe Crois pas qu'on est quitte J'en ai gros sur la patate donc retiens que c'est chaud si tu parles mal Toujours bien sapé, faut des liasses Fuck les biatchs, ces conneries ça vient après Surveille les tiens car ils le font pour toi Ça bouge pas Comme des fois on se demande pourquoi Paraît qu'on se tue chaque soir Vodka ou eau de Cologne Les zombies y'en a pas que sur Call of Des histoires, moi, j'en ai pas plus qu'les autres Tout se ressemble vas-y tweete ça que mon chat déteste les hommes J'ai le flow qui baise le soul track Sans boys band Waouh ! Sors le Gospel de Whoopi Goldberg Non je délire compère, j'ai le droit de le faire parfois Je rappe depuis 96, à mes délires, les nouveaux clips à voir On devient maniables, maniaques, demande à Mo-guiz comment je manie l'art A manger l'instru, cannibale L'amour de l'encre, je te raconte pas une vie de freestyle YW comme un fast qui traverse l'Espagne Y'a rien de bestial, j'suis pas venu pour clasher Arabe c'est toi, t'as vu de chez toi, t'as reconnu le trajet Articule ou écoute, si tu ne sais pas chanter Speede pas avant d'apprendre le mot patienter C'est un message pour tous, pour tous, pour tous Évite le rap sale sinon on te refile un rap douche Mouille-toi là j'efface tout Défoule-toi, mets des coups Tu veux briller mais t'es grillé comme le billet de Gainsbourg Comme le billet de Gainsbourg... Tu veux me descendre pendant que je té-mon Arrête tes conneries avant que je sois rattrapé par mes vieux démons Laisse-moi te dire que l'espoir n'existe pas Qu'on est tous dans la merde parce que les stars méprisent le rap Et c'est la même du 34 au 92 Ouais on se la met mes semblables ont grave besoin de flouze Guizmo, Demi-P, de Sète à Ri-pas N'oublie pas qu'on a kické sur les faces B de la Cliqua Trop de jaloux font leur speech Tu m'as pris pour ta femme, okay ! Vas-y viens voir on va te faire des enfants N'importe qui s'enflamme et j'vois l'avenir en plus La justice veut me voir au parquet mais pas dans celui des bus</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>La raclée</t>
+          <t>La route est longue</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>On t'a mis une raclée à la gare À cause de toi on est passés à la barre Sale balance, j'rappe salement Tu mérites que mes genous et mes quatre phalanges Demande à L.A.S.C.A.R.S Vous êtes en France on est sur M.A.R.S Villeneuve-la-Garenne ça bédave normal Mais sur un contrôle les flics veulent ma barrette Bordel de merde, ok j'me perds Mais comment faire autrement avec mes problèmes d'oseille J'opère le game L'enfoiré est dans un sale état Fallait pas me foutre la rage maintenant chialez pas J'suis pas assistante sociale Je ne connais que la rue, la haine, le bâtiment, le local VLD, VLG on s'est tapé des barres J'me rappelle des raclées quand on ramenait les schtars La rue, la ruse, la vie, la caille et la son-pri Ça pue t'as vu dans mes freestyles tu l'as compris Que des zombies dans mon équipe Que des balances, des baltringues, des don-bi dans ton équipe Crois pas qu'on est quitte J'en ai gros sur la patate donc retiens que c'est chaud si tu parles mal Toujours bien sapé, faut des liasses Fuck les biatchs, ces conneries ça vient après Surveille les tiens car ils le font pour toi Ça bouge pas Comme des fois on se demande pourquoi Paraît qu'on se tue chaque soir Vodka ou eau de Cologne Les zombies y'en a pas que sur Call of Des histoires, moi, j'en ai pas plus qu'les autres Tout se ressemble vas-y tweete ça que mon chat déteste les hommes J'ai le flow qui baise le soul track Sans boys band Waouh ! Sors le Gospel de Whoopi Goldberg Non je délire compère, j'ai le droit de le faire parfois Je rappe depuis 96, à mes délires, les nouveaux clips à voir On devient maniables, maniaques, demande à Mo-guiz comment je manie l'art A manger l'instru, cannibale L'amour de l'encre, je te raconte pas une vie de freestyle YW comme un fast qui traverse l'Espagne Y'a rien de bestial, j'suis pas venu pour clasher Arabe c'est toi, t'as vu de chez toi, t'as reconnu le trajet Articule ou écoute, si tu ne sais pas chanter Speede pas avant d'apprendre le mot patienter C'est un message pour tous, pour tous, pour tous Évite le rap sale sinon on te refile un rap douche Mouille-toi là j'efface tout Défoule-toi, mets des coups Tu veux briller mais t'es grillé comme le billet de Gainsbourg Comme le billet de Gainsbourg... Tu veux me descendre pendant que je té-mon Arrête tes conneries avant que je sois rattrapé par mes vieux démons Laisse-moi te dire que l'espoir n'existe pas Qu'on est tous dans la merde parce que les stars méprisent le rap Et c'est la même du 34 au 92 Ouais on se la met mes semblables ont grave besoin de flouze Guizmo, Demi-P, de Sète à Ri-pas N'oublie pas qu'on a kické sur les faces B de la Cliqua Trop de jaloux font leur speech Tu m'as pris pour ta femme, okay ! Vas-y viens voir on va te faire des enfants N'importe qui s'enflamme et j'vois l'avenir en plus La justice veut me voir au parquet mais pas dans celui des bus</t>
+          <t>Ouais Les grandes gueules Demi Portion Rachid Sur une prod XXX Ouais Pour un rap de XXX Ecoute ça Ca y est Le rap XXX la haine, un sixième élément Le XXX a téléphoné, il s'est fâché sérieusement Maître de cérémonie Beaucoup veulent serrer mon art Et j'viens choquer Marine, mon stylo porte le foulard Demi Portion prend du plaisir XXX Vingt-trois ans, souviens-toi en Comme j'trouve plus de solutions On s'y fait petit à petit On essaye de pas s'plaindre Même ici, l'échelle est courte et plus personne veut faire peintre Encore enfant tu vois On m'a dit toi, tu finiras docteur Finis tes cours et tu trouveras ton fil conducteur Sans pitié, regarde l'écriture comme métier L'amitié et la jalousie, j'lai comprise qu'à moitié On est loin des cocotiers Des neurones trop près du shit Vu qu'personne veut nous capter, on ira pirater vos sites Certains XXX en slip On est repartit pour un tour Et j'ai gardé les mêmes principes en évitant d'parler d'amour Embarqué par des vautours Beaucoup ont perdu les racines Et puis comment rester tranquille au plein milieu de racistes Ma couleur, un parasite Dans c'pays paranoïaque Et citoyens XXX souflés, Sarko est cardiaque Mais on avance par miracle Ne te pose aucune question Comme beaucoup souhaitent qu'on trace et très peu que nous restions J'ai pas choisi c'contraste Y'a plus moyen que j'coopère et j'ai zappé les sentiments le jour où j'ai perdu mon père, ouais Le manque de repères Tu m'diras t'es encore jeune Nage pendant que l'eau est tiède accompagné d'sales plongeurs Un milieu de sales rongeurs Et c'est chacun pour sa gueule XXX le mauvais il et XXX à laccueil Y'aura du monde à laccueil Et je cherche pas d'placements A trop squatter le petit écran, on a oublié le plasma Le classement, bloqué en premier plan, ne rit pas Ce qu'ils m'ont offert en menu, y'avait un piège dans le repas Aussi Afrique en retard mais on XXX HLM Et la police d'aujourd'hui veut qu'tu ailles vite visiter XXX Ou rouler avec un frein On ignore le mot facile Ceux qui jouaient les solidaires Certains ont fini dociles C'est possible Ici, même les mariages d'homos s'négocient Le boulot éteint ceci Tu vois ça sent le roussi On a la matière entre les mains et l'avenir aussi Et toujours loin d' l'enfermer et ça d'après l'autopsie x4 Ouais, on m'a redit qu'la route est longue et beaucoup d'nos petites surs se sont vite casser un ongle La plupart d'nos petits frères se sont vite passé le mot Qu'ici, tout s'ressemble et qu'ça chauffe sans chalumeau Ouais Vu qu'ça chauffe sans chalumeau On essaie d'faire c'qu'on peut En évitant les tribunaux C'est les grandes gueules Demi Portion</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>La route est longue</t>
+          <t>La sirène</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Ouais Les grandes gueules Demi Portion Rachid Sur une prod XXX Ouais Pour un rap de XXX Ecoute ça Ca y est Le rap XXX la haine, un sixième élément Le XXX a téléphoné, il s'est fâché sérieusement Maître de cérémonie Beaucoup veulent serrer mon art Et j'viens choquer Marine, mon stylo porte le foulard Demi Portion prend du plaisir XXX Vingt-trois ans, souviens-toi en Comme j'trouve plus de solutions On s'y fait petit à petit On essaye de pas s'plaindre Même ici, l'échelle est courte et plus personne veut faire peintre Encore enfant tu vois On m'a dit toi, tu finiras docteur Finis tes cours et tu trouveras ton fil conducteur Sans pitié, regarde l'écriture comme métier L'amitié et la jalousie, j'lai comprise qu'à moitié On est loin des cocotiers Des neurones trop près du shit Vu qu'personne veut nous capter, on ira pirater vos sites Certains XXX en slip On est repartit pour un tour Et j'ai gardé les mêmes principes en évitant d'parler d'amour Embarqué par des vautours Beaucoup ont perdu les racines Et puis comment rester tranquille au plein milieu de racistes Ma couleur, un parasite Dans c'pays paranoïaque Et citoyens XXX souflés, Sarko est cardiaque Mais on avance par miracle Ne te pose aucune question Comme beaucoup souhaitent qu'on trace et très peu que nous restions J'ai pas choisi c'contraste Y'a plus moyen que j'coopère et j'ai zappé les sentiments le jour où j'ai perdu mon père, ouais Le manque de repères Tu m'diras t'es encore jeune Nage pendant que l'eau est tiède accompagné d'sales plongeurs Un milieu de sales rongeurs Et c'est chacun pour sa gueule XXX le mauvais il et XXX à laccueil Y'aura du monde à laccueil Et je cherche pas d'placements A trop squatter le petit écran, on a oublié le plasma Le classement, bloqué en premier plan, ne rit pas Ce qu'ils m'ont offert en menu, y'avait un piège dans le repas Aussi Afrique en retard mais on XXX HLM Et la police d'aujourd'hui veut qu'tu ailles vite visiter XXX Ou rouler avec un frein On ignore le mot facile Ceux qui jouaient les solidaires Certains ont fini dociles C'est possible Ici, même les mariages d'homos s'négocient Le boulot éteint ceci Tu vois ça sent le roussi On a la matière entre les mains et l'avenir aussi Et toujours loin d' l'enfermer et ça d'après l'autopsie x4 Ouais, on m'a redit qu'la route est longue et beaucoup d'nos petites surs se sont vite casser un ongle La plupart d'nos petits frères se sont vite passé le mot Qu'ici, tout s'ressemble et qu'ça chauffe sans chalumeau Ouais Vu qu'ça chauffe sans chalumeau On essaie d'faire c'qu'on peut En évitant les tribunaux C'est les grandes gueules Demi Portion</t>
+          <t>C'est la sirène du rap français Onanaooo Wonana wonanana Onanaooo Wonana wonanana, Action ! Onanaooo Wonana wonanana Onanaooo Wonana wonanana Branche le mic, allume nous ça, fais péter le son Prendre la feuille et la fracturer par passion J'ai fais mon truc sans trop suivre les tentations J'ai mon essence donc j'ai pas eu besoin de stations Voulu chanter parce que le public m'a dit je t'aime Le rap c'est quoi, je trouve pas l'amour chez un disquaire De toutes manière on a toujours voulu s'ambiancer Action ! C'est la sirène du rap français Onanaooo Wonana wonanana Onanaooo Wonana wonanana, Action ! Onanaooo Wonana wonanana Onanaooo Wonana wonanana, C'est la sirène du rap français C'est la sirène, la sirène, la sirène, la sirène, la sirène du rap français 4, 3, 2 Compliqué, depuis tout petit on a milles branches Dépassé, le futur est devenu vintage Nouvel album, j'ai du finir walking dead C'est la sirène du rap français dans la disquette Trop de codes, parait que le sérieux est un sketch yo yo Allez-y, envoyez le cri de guerre En combattant, c'est celui qui a l'envie de perdre en combattant, c'est celui qui a l'envie de perdre Onanaooo Wonana wonanana Onanaooo Wonana wonanana Onanaooo Wonana wonanana Onanaooo Wonana wonanana, C'est la sirène du rap français C'est la sirène, la sirène, yeah ! allez-y envoyez le cri de guerre, hein, la sirène, la sirène, c'est ça, la sirène du rap français Onanaonanana Onanaonanana, on est là Onanaooo Onanaooo Wonanaonanana c'est la sirène, la sirène</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>La sirène</t>
+          <t>L’attitude - Bonus</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>C'est la sirène du rap français Onanaooo Wonana wonanana Onanaooo Wonana wonanana, Action ! Onanaooo Wonana wonanana Onanaooo Wonana wonanana Branche le mic, allume nous ça, fais péter le son Prendre la feuille et la fracturer par passion J'ai fais mon truc sans trop suivre les tentations J'ai mon essence donc j'ai pas eu besoin de stations Voulu chanter parce que le public m'a dit je t'aime Le rap c'est quoi, je trouve pas l'amour chez un disquaire De toutes manière on a toujours voulu s'ambiancer Action ! C'est la sirène du rap français Onanaooo Wonana wonanana Onanaooo Wonana wonanana, Action ! Onanaooo Wonana wonanana Onanaooo Wonana wonanana, C'est la sirène du rap français C'est la sirène, la sirène, la sirène, la sirène, la sirène du rap français 4, 3, 2 Compliqué, depuis tout petit on a milles branches Dépassé, le futur est devenu vintage Nouvel album, j'ai du finir walking dead C'est la sirène du rap français dans la disquette Trop de codes, parait que le sérieux est un sketch yo yo Allez-y, envoyez le cri de guerre En combattant, c'est celui qui a l'envie de perdre en combattant, c'est celui qui a l'envie de perdre Onanaooo Wonana wonanana Onanaooo Wonana wonanana Onanaooo Wonana wonanana Onanaooo Wonana wonanana, C'est la sirène du rap français C'est la sirène, la sirène, yeah ! allez-y envoyez le cri de guerre, hein, la sirène, la sirène, c'est ça, la sirène du rap français Onanaonanana Onanaonanana, on est là Onanaooo Onanaooo Wonanaonanana c'est la sirène, la sirène</t>
+          <t>Ça sera la faute de personne quand tu seras dans l'dédale Ça sera à cause de personne quand tu crèveras la dalle Ça sera la trêve pour tout le monde, ta sortie triomphale XXX et leurs discours banales Première partie, c'est repartit pour les potes qui m'supportent XXX plus la route devient glissante Et XXX alors tu prends conscience Qu'il n'faut pas prendre confiance mais reste à une bonne distance Tout ça est stratégique comme XXX, c'est loin d'mon champ d'vision est pathétique Comme un XXX qui se soigne J'récupère mon XXX C'est qu'j'devais être incitant, assisté par des assistants Vers qui j'ai du persister Subsiste à ma liberté Ma fierté d'avoir la tête haute Qu'on voit XXX nous même si la gloire me saute A ceux qui reculent devant rien et qui donnent leur cul quand y ont rien C'est qu'vraiment dans c'pays, tout est plein d'platitude La seul grosse merde sur l'plateau XXX prendre de l'altitude Personne veut perde ses tics, ses habitudes Le plus rude, c'est que tout est dans l'attitude</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>L’attitude - Bonus</t>
+          <t>La vérité</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Ça sera la faute de personne quand tu seras dans l'dédale Ça sera à cause de personne quand tu crèveras la dalle Ça sera la trêve pour tout le monde, ta sortie triomphale XXX et leurs discours banales Première partie, c'est repartit pour les potes qui m'supportent XXX plus la route devient glissante Et XXX alors tu prends conscience Qu'il n'faut pas prendre confiance mais reste à une bonne distance Tout ça est stratégique comme XXX, c'est loin d'mon champ d'vision est pathétique Comme un XXX qui se soigne J'récupère mon XXX C'est qu'j'devais être incitant, assisté par des assistants Vers qui j'ai du persister Subsiste à ma liberté Ma fierté d'avoir la tête haute Qu'on voit XXX nous même si la gloire me saute A ceux qui reculent devant rien et qui donnent leur cul quand y ont rien C'est qu'vraiment dans c'pays, tout est plein d'platitude La seul grosse merde sur l'plateau XXX prendre de l'altitude Personne veut perde ses tics, ses habitudes Le plus rude, c'est que tout est dans l'attitude</t>
+          <t>La vérité Y paraîtrait qu'c'est bientôt la fin du monde, hein On est postés comme toutes ces putains d'caméra à Londres La vérité On n'arrive plus à s'égarer des sales problèmes, t'as vu On s'ralentit comme on s'le dit devant XXX La vérité J'sais pas trop si on va vivre encore longtemps En vrai, c'est l 'quatre étoiles si on bloquait à Koh Lantha La vérité Si j'ai pris l'bic, c'est que j'avais qu'ça à faire, en gros Si tu m'invites, faut pas qu't'ais peur de tes affaires La vérité C'est qu'en vrai, on arrête pas d'nous mentir La vérité L'euro nous a niqué et ça on l'a ressenti La vérité On nous l'a mise XXX sentir la rotte-ca La vérité Rien qu'tu mens donc n'y rajoute pas ta vodka Ferme ta gueule, j'suis loin de tes délires La vérité M'serre pas la main, toi qui derrière nous dénigre La vérité Et si faibles et violés par le monde sans XXX La vérité Tous les mc's vont aussi t'écrire la même chose La vérité C'est qu'les rappeurs, aujourd'hui on les connaît Sans hésité, tous attirés par la monnaie La vérité C'est vrai, certains ont peur de dénoncer La vérité Ils sont tous là juste pour un titre qui fait danser La vérité Bien sûr, c'est chaud d'vous sortir un disque La vérité Y'a trop d'merdes, fais gaffe à pas chopper le XXX C'est l'titre comme j'aurai pu parler du faux La vérité Provient du fond tout en sachant qu'on a des formes Tu la défends et rends si riches des avocats La vérité T'y amuses pas même si tu sais qu't'as l'avantage La vérité C'est l'message et ce qu'on offre de plus XXX La vérité Ne la cache pas par ton sale appui d'Satan La vérité Je l'attends et j't'en pousserai à faire autant La vérité Est bafouée comme tous les dirigeants d'l'OTAN La vérité Simplement, n'est pas dans l'rap mais dans l'Coran N'écoute que toi, pas c'rappeur XXX La vérité J'évacue, ils m'ont tous saoulé avec leurs histoires La vérité Je fais du rap, viens pas m'parler de petites stars La vérité En étant franc, je n'ai flippé que de mon père La vérité J'm'en bats les couilles d'MySpace et d'ses commentaires La vérité On te l'a dit, on n'peut pas plaire à tout le monde La vérité Je suis comme toi, t'as des questions ? Bah j'vais t'répondre La vérité Ose s'étendre, voilà pourquoi j'me répète La vérité Est méritée comme chaque humain qui s'respecte La vérité J'sais qu'ce son ne passera pas dans vos radios La vérité Pas défaitiste mais pas dans le même bateau La vérité Ouais l'gâteau, une de ces parts contaminée La vérité Dis leur la race, tous les chemins sont minés Ouais Les grandes gueules Demi Portion XXX de ouf La vérité, la vérité</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>La vérité</t>
+          <t>La vie</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>La vérité Y paraîtrait qu'c'est bientôt la fin du monde, hein On est postés comme toutes ces putains d'caméra à Londres La vérité On n'arrive plus à s'égarer des sales problèmes, t'as vu On s'ralentit comme on s'le dit devant XXX La vérité J'sais pas trop si on va vivre encore longtemps En vrai, c'est l 'quatre étoiles si on bloquait à Koh Lantha La vérité Si j'ai pris l'bic, c'est que j'avais qu'ça à faire, en gros Si tu m'invites, faut pas qu't'ais peur de tes affaires La vérité C'est qu'en vrai, on arrête pas d'nous mentir La vérité L'euro nous a niqué et ça on l'a ressenti La vérité On nous l'a mise XXX sentir la rotte-ca La vérité Rien qu'tu mens donc n'y rajoute pas ta vodka Ferme ta gueule, j'suis loin de tes délires La vérité M'serre pas la main, toi qui derrière nous dénigre La vérité Et si faibles et violés par le monde sans XXX La vérité Tous les mc's vont aussi t'écrire la même chose La vérité C'est qu'les rappeurs, aujourd'hui on les connaît Sans hésité, tous attirés par la monnaie La vérité C'est vrai, certains ont peur de dénoncer La vérité Ils sont tous là juste pour un titre qui fait danser La vérité Bien sûr, c'est chaud d'vous sortir un disque La vérité Y'a trop d'merdes, fais gaffe à pas chopper le XXX C'est l'titre comme j'aurai pu parler du faux La vérité Provient du fond tout en sachant qu'on a des formes Tu la défends et rends si riches des avocats La vérité T'y amuses pas même si tu sais qu't'as l'avantage La vérité C'est l'message et ce qu'on offre de plus XXX La vérité Ne la cache pas par ton sale appui d'Satan La vérité Je l'attends et j't'en pousserai à faire autant La vérité Est bafouée comme tous les dirigeants d'l'OTAN La vérité Simplement, n'est pas dans l'rap mais dans l'Coran N'écoute que toi, pas c'rappeur XXX La vérité J'évacue, ils m'ont tous saoulé avec leurs histoires La vérité Je fais du rap, viens pas m'parler de petites stars La vérité En étant franc, je n'ai flippé que de mon père La vérité J'm'en bats les couilles d'MySpace et d'ses commentaires La vérité On te l'a dit, on n'peut pas plaire à tout le monde La vérité Je suis comme toi, t'as des questions ? Bah j'vais t'répondre La vérité Ose s'étendre, voilà pourquoi j'me répète La vérité Est méritée comme chaque humain qui s'respecte La vérité J'sais qu'ce son ne passera pas dans vos radios La vérité Pas défaitiste mais pas dans le même bateau La vérité Ouais l'gâteau, une de ces parts contaminée La vérité Dis leur la race, tous les chemins sont minés Ouais Les grandes gueules Demi Portion XXX de ouf La vérité, la vérité</t>
+          <t>Yo, tu veux du lourd ? Désolé, j'ai le cur léger DJ Rolex et Demi, la scène a pris une fessée J'apprends, j'passe la première, j'tombe, j'passe la deuxième Ma mère m'a dit attention, les yeux rivés sur 2M Au bled, on est des touristes, c'est c'que me disent les cousins C'est pas ça la vie d'artiste, trouve un boulot, c'est plus simple Dix ans qu'on s'tue à la mine, Amine comme dirait mamène Bien sûr qu'on l'aime, la musique, mais pas autant que nos mères On s'ramène, on s'installe, toujours à l'avant quand même On charbonne, c'est l'usine, comme un ouvrier nickel On fait l'tour du monde, on donne ça pour tout l'monde On fait l'tour du monde et on l'refait chaque semaine Laissons le temps de rire et dépasser les problèmes Tout l'monde a des cicatrices mais peu d'pharmacies ouvertes Au fond d'la tête, c'est sûr, nul est impossible Le corps est une plante donc à toi d'voir tes racines Les espèces disparaissent, va falloir qu'on réagisse On aimerait voir autre chose mais c'est pas c'qu'on imagine Rachid casse la machine, le sample est trop massif Quand l'équipe a d'la résine, on dit Viva la médecine Ok mec, j'garde mon style, indé' est mon label Une flûte et c'est parti, bien que les mots m'appellent R.A.C.H.I.D, mon blase, c'est Demi Portion Qui peut prétendre faire du rap sans prendre position ? C'est Demi Portion C'est ça qu'on aime c'est Demi Oh, c'est ça qu'on aime en ces temps, temps C'est ça qu'on aime hip-hop, pop pop pop pop C'est ça qu'on aime hip-hop, pop pop pop pop C'est ça qu'on aime on lâche rien et tu l'sais C'est ça qu'on aime yeah, ah ah La vie est belle La vie est belle han, ça vient du 7 sur Sète La vie est belle han, ça vient du 7 sur Sète C'est ça qu'on aime yo, Rachid Oh lalalalalala, oh lalalalalala Yeah, yeah, han</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>La vie</t>
+          <t>La vie de rêve</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Yo, tu veux du lourd ? Désolé, j'ai le cur léger DJ Rolex et Demi, la scène a pris une fessée J'apprends, j'passe la première, j'tombe, j'passe la deuxième Ma mère m'a dit attention, les yeux rivés sur 2M Au bled, on est des touristes, c'est c'que me disent les cousins C'est pas ça la vie d'artiste, trouve un boulot, c'est plus simple Dix ans qu'on s'tue à la mine, Amine comme dirait mamène Bien sûr qu'on l'aime, la musique, mais pas autant que nos mères On s'ramène, on s'installe, toujours à l'avant quand même On charbonne, c'est l'usine, comme un ouvrier nickel On fait l'tour du monde, on donne ça pour tout l'monde On fait l'tour du monde et on l'refait chaque semaine Laissons le temps de rire et dépasser les problèmes Tout l'monde a des cicatrices mais peu d'pharmacies ouvertes Au fond d'la tête, c'est sûr, nul est impossible Le corps est une plante donc à toi d'voir tes racines Les espèces disparaissent, va falloir qu'on réagisse On aimerait voir autre chose mais c'est pas c'qu'on imagine Rachid casse la machine, le sample est trop massif Quand l'équipe a d'la résine, on dit Viva la médecine Ok mec, j'garde mon style, indé' est mon label Une flûte et c'est parti, bien que les mots m'appellent R.A.C.H.I.D, mon blase, c'est Demi Portion Qui peut prétendre faire du rap sans prendre position ? C'est Demi Portion C'est ça qu'on aime c'est Demi Oh, c'est ça qu'on aime en ces temps, temps C'est ça qu'on aime hip-hop, pop pop pop pop C'est ça qu'on aime hip-hop, pop pop pop pop C'est ça qu'on aime on lâche rien et tu l'sais C'est ça qu'on aime yeah, ah ah La vie est belle La vie est belle han, ça vient du 7 sur Sète La vie est belle han, ça vient du 7 sur Sète C'est ça qu'on aime yo, Rachid Oh lalalalalala, oh lalalalalala Yeah, yeah, han</t>
+          <t>La vie de rêve on te dit quoi il faut penser, ou quoi écrire x2 On est comme on est, fuck la vie de rêve Y'a rien à faire, la vie je l'aime Y'a rien à faire, comment t'le dire Ca passe trop vite.. La vie de rêve d'ici, on l'a jamais recherchée La seule drogue, trop de gars sont restés perchés Combien de papas ont tué leur vie au tiercé ? La vie de rêve non, dis-nous qui va la remercier La monnaie, on sait très bien qu'elle nous fait marcher La clé de la réussite, bloquée ou cadenassée Depuis tout petit l'envie de s'lever, progresser La liberté ne jamais se laisser dresser Vous découvrir ça m'a toujours intéressé Je n'ai jamais voulu m'engraisser J'pense à Papa et tous ceux qui partent blessés C'est ça la vie, de A à Z on finit, décès x2 On est comme on est, fuck la vie de rêve Y'a rien à faire, la vie je l'aime Y'a rien à faire, comment t'le dire Ca passe trop vite.. La vie de rêve, d'ici on l'a jamais ressentie Vois la vie en rose n'a plus rien de splendide Qui se demande comment mon album est sorti J'ai appris à m'tuer pour un public averti J'transpire, comme la sueur laissée sur chaque scène Ouais j'ai appris à me faire tout p'tit Y'a pas de secret, toujours travailler dans son style Aucune formule, tant qu'le message s'éparpille Rolex c'est parti, le kick tombe pile Ecoute ça tranquille, laisse les mauvais s'enfuir Libertad totale, c'est ça être pur indé Pas marcher sur les autres, la seule façon de grimper x2 On est comme on est, fuck la vie de rêve Y'a rien à faire, la vie je l'aime Y'a rien à faire, comment t'le dire Ca passe trop vite..1</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>La vie de rêve</t>
+          <t>La Vie en Rose</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>La vie de rêve on te dit quoi il faut penser, ou quoi écrire x2 On est comme on est, fuck la vie de rêve Y'a rien à faire, la vie je l'aime Y'a rien à faire, comment t'le dire Ca passe trop vite.. La vie de rêve d'ici, on l'a jamais recherchée La seule drogue, trop de gars sont restés perchés Combien de papas ont tué leur vie au tiercé ? La vie de rêve non, dis-nous qui va la remercier La monnaie, on sait très bien qu'elle nous fait marcher La clé de la réussite, bloquée ou cadenassée Depuis tout petit l'envie de s'lever, progresser La liberté ne jamais se laisser dresser Vous découvrir ça m'a toujours intéressé Je n'ai jamais voulu m'engraisser J'pense à Papa et tous ceux qui partent blessés C'est ça la vie, de A à Z on finit, décès x2 On est comme on est, fuck la vie de rêve Y'a rien à faire, la vie je l'aime Y'a rien à faire, comment t'le dire Ca passe trop vite.. La vie de rêve, d'ici on l'a jamais ressentie Vois la vie en rose n'a plus rien de splendide Qui se demande comment mon album est sorti J'ai appris à m'tuer pour un public averti J'transpire, comme la sueur laissée sur chaque scène Ouais j'ai appris à me faire tout p'tit Y'a pas de secret, toujours travailler dans son style Aucune formule, tant qu'le message s'éparpille Rolex c'est parti, le kick tombe pile Ecoute ça tranquille, laisse les mauvais s'enfuir Libertad totale, c'est ça être pur indé Pas marcher sur les autres, la seule façon de grimper x2 On est comme on est, fuck la vie de rêve Y'a rien à faire, la vie je l'aime Y'a rien à faire, comment t'le dire Ca passe trop vite..1</t>
+          <t>Ici comment trouver l'astuce, essayer de voir la vie en rose Laisse moi oui j'arrive encore XXX Matte les thèmes qu'on élabore malgré XXX On ne peut pas plaire à tout le monde j'ai même essayé de rapper russe Tu sais cramer l'arrêt de bus ou tout ça on l'a fait jeunot La France est un pays d'flics c'est comme la belle rime de Renaud Oui on a tous des remords mais la marche arrière est en panne Le temps passe trop vite oui, les grands-pères et leurs cannes On oubliera pas l'époque de la zik dans les temps modernes On partira c'est sur mais on dit que le son est immortel On mord pas, comme partout y'a plein de chose à la poubelle On chante la vie hip hop grille ma clope à la Jacques Brel Jaquetez on est déjà loin comme la vie est en couleurs J'ai appris à tapper la feuille mais elle m'a rendu la douleur Et quand elle me prend dans ses bras Je te jure je vois la vie en rose La zik fait de mes plus gros tracas le cadet de mes soucis J'fais tout pour garder l'essentiel que ma faute ne soit pas remis en cause J'essaye de revenir à la source comme ce gamin qu'est né sous X Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Apelle moi Killa, j'pillave tant que j'vies j'profite Je suis ce petit gars qui a grandit trop vite Mes cauchemars prennent forme je me réveille en sueur puis la j'm'agite Demande à Dragon Rash j'plane sur un nuage magique Ils prennent notre liberté et l'agite tout fière On oublie vite tout ça en consommant un tas d'shit ou d'bières Arpentant les rues titubant pas sans mes chats gris d'gouttières J'apprend de mes erreurs, construis demain avec chaque bout d'hier J'couchais des vertes et des ratures bouffais des vertes et des pas mûres Et sous les toits me faisais de nouvelles plaies ouvertes aidé par le mur On a vu le gouffre, touché des sommets, grimpé dévalé des pentes J'sais que la vie reste une catin même quand elle est grave élégante J'aime pas taper des journées de 12 heures j'aime le jour où tu me payes Ou refaire le monde avec mes homies calés autour d'une teille Même si la life c'est souvent le fracas d'une flamme On se sent mieux au creux d'une prod ou même dans les bras d'une femme Et quand elle me prend dans ses bras Je te jure je vois la vie en rose La zik fait de mes plus gros tracas le cadet de mes soucis J'fais tout pour garder l'essentiel que ma faute ne soit pas remis en cause J'essaye de revenir à la source comme ce gamin qu'est né sous X Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose J'emporterai la foule comme un tsunami d'rimes Pour un hymne à l'amour j'en ai passé des nuits Tant qu'il y aura des jours, allez roulez tambours On s'en fout même avant l'heure la musique à tout va Du matin jusqu'au soir il me reste que ça en fait quand tout fout le camp Le bruit des villes, les affairistes Les blouses blanches, les salles d'attentes, les cris du cur, les gens traqués j'en ai tant vus La fille de joie est triste Y'avait que les mots qui s'accouplaient et un refrain courrait dans la rue Ta zik démerde fait le trottoir, elle fréquentait la rue Pigalle Et l'opinion public n'a pas d'âme pas d'âme Excusez le disque usé, au dessus y'avait du soleil maintenant le ciel est fermé Je me fous pas mal de la FM, secret de polichinelle Dans les kiosques à journaux si le chacal te propose une valse n'y va pas Manuel Je suis un homme comme les autres monsieur incognito Faisons diversion embrasse moi vu que j'entends la sirène Et quand elle me prend dans ses bras Je te jure je vois la vie en rose La zik fait de mes plus gros tracas le cadet de mes soucis J'fais tout pour garder l'essentiel que ma faute ne soit pas remis en cause J'essaye de revenir à la source comme ce gamin qu'est né sous X Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose1</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>La Vie en Rose</t>
+          <t>Le choix</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Ici comment trouver l'astuce, essayer de voir la vie en rose Laisse moi oui j'arrive encore XXX Matte les thèmes qu'on élabore malgré XXX On ne peut pas plaire à tout le monde j'ai même essayé de rapper russe Tu sais cramer l'arrêt de bus ou tout ça on l'a fait jeunot La France est un pays d'flics c'est comme la belle rime de Renaud Oui on a tous des remords mais la marche arrière est en panne Le temps passe trop vite oui, les grands-pères et leurs cannes On oubliera pas l'époque de la zik dans les temps modernes On partira c'est sur mais on dit que le son est immortel On mord pas, comme partout y'a plein de chose à la poubelle On chante la vie hip hop grille ma clope à la Jacques Brel Jaquetez on est déjà loin comme la vie est en couleurs J'ai appris à tapper la feuille mais elle m'a rendu la douleur Et quand elle me prend dans ses bras Je te jure je vois la vie en rose La zik fait de mes plus gros tracas le cadet de mes soucis J'fais tout pour garder l'essentiel que ma faute ne soit pas remis en cause J'essaye de revenir à la source comme ce gamin qu'est né sous X Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Apelle moi Killa, j'pillave tant que j'vies j'profite Je suis ce petit gars qui a grandit trop vite Mes cauchemars prennent forme je me réveille en sueur puis la j'm'agite Demande à Dragon Rash j'plane sur un nuage magique Ils prennent notre liberté et l'agite tout fière On oublie vite tout ça en consommant un tas d'shit ou d'bières Arpentant les rues titubant pas sans mes chats gris d'gouttières J'apprend de mes erreurs, construis demain avec chaque bout d'hier J'couchais des vertes et des ratures bouffais des vertes et des pas mûres Et sous les toits me faisais de nouvelles plaies ouvertes aidé par le mur On a vu le gouffre, touché des sommets, grimpé dévalé des pentes J'sais que la vie reste une catin même quand elle est grave élégante J'aime pas taper des journées de 12 heures j'aime le jour où tu me payes Ou refaire le monde avec mes homies calés autour d'une teille Même si la life c'est souvent le fracas d'une flamme On se sent mieux au creux d'une prod ou même dans les bras d'une femme Et quand elle me prend dans ses bras Je te jure je vois la vie en rose La zik fait de mes plus gros tracas le cadet de mes soucis J'fais tout pour garder l'essentiel que ma faute ne soit pas remis en cause J'essaye de revenir à la source comme ce gamin qu'est né sous X Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose J'emporterai la foule comme un tsunami d'rimes Pour un hymne à l'amour j'en ai passé des nuits Tant qu'il y aura des jours, allez roulez tambours On s'en fout même avant l'heure la musique à tout va Du matin jusqu'au soir il me reste que ça en fait quand tout fout le camp Le bruit des villes, les affairistes Les blouses blanches, les salles d'attentes, les cris du cur, les gens traqués j'en ai tant vus La fille de joie est triste Y'avait que les mots qui s'accouplaient et un refrain courrait dans la rue Ta zik démerde fait le trottoir, elle fréquentait la rue Pigalle Et l'opinion public n'a pas d'âme pas d'âme Excusez le disque usé, au dessus y'avait du soleil maintenant le ciel est fermé Je me fous pas mal de la FM, secret de polichinelle Dans les kiosques à journaux si le chacal te propose une valse n'y va pas Manuel Je suis un homme comme les autres monsieur incognito Faisons diversion embrasse moi vu que j'entends la sirène Et quand elle me prend dans ses bras Je te jure je vois la vie en rose La zik fait de mes plus gros tracas le cadet de mes soucis J'fais tout pour garder l'essentiel que ma faute ne soit pas remis en cause J'essaye de revenir à la source comme ce gamin qu'est né sous X Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose Et quand elle me prend dans ses bras Je vois la vie en rose, vie en ro-ose, vie en ro-ose, vie en rose1</t>
+          <t>Wow, Mokless, Demi Portion Jamais dans la tendance, toujours dans la bonne direction J'ai préféré la modestie, p't-être un fabuleux destin J'ai préféré garder l'esprit pour faire honneur aux anciens J'ai préféré garder mon style, ils sont plusieurs à être pareil J'ai préféré mon spitch plutôt que le changer demain J'ai préféré garder les miens, en même temps qu'les pieds sur terre Moi j'ai préféré DBZ même si les combats se passe en l'air J'ai préféré dire à ma mère, écoute depuis longtemps je rappe J'ai préféré lui dire ça paye même si j'ai rien dans l'avocat J'ai préféré parler du calme, à force de grandir dans le bruit J'ai préféré que l'on m'condamne pour être libre dans ce que je dis J'ai préféré me faire petit, laissant tout c'la à jouer les mac J'ai préféré vous respecter, peut-être un jour changer la vague J'ai préféré être correct, évolué sans trop se plaindre Je me répète mais désoler je crois qu'c'est la même à chaque semaine J'ai préféré les jours d'hiver, on échoue un point c'est tout J'ai préféré rester chez-moi, j't'inviterai bien dans mon igloo De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part Et j'ai préféré le réaliste, l'écorcher sans bistouri Le demi scred qui passe par un trou dsouris J'ai préféré ma mère à toutes les femmes que j'ai connu Pudique j'ai préféré me rhabiller quand j'étais nu J'ai préféré être un pirate et si pique celui qui s'y frotte N'essaie même pas d'faire chavirer ma pirogue J'ai détesté les artistes qui f'sait l'autruche J'ai préféré les Balavoines ou les Coluches Oublier plutôt qu'faire la guerre à ceux qui m'en veulent J'ai préféré t'donner la main que t'la foutre dans la gueule J'ai préféré être insolent qu'un sot rapide Qui prend pour argent content c'qu'un Soral dit J'ai préféré toi-même tu sais refré Toi-même tu sais, c'est que les demi p J'aime peu les deux tiers de c'que j'ai fais hier Je préfère comment j'en parle aujourd'hui De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Le choix</t>
+          <t>Le club</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Wow, Mokless, Demi Portion Jamais dans la tendance, toujours dans la bonne direction J'ai préféré la modestie, p't-être un fabuleux destin J'ai préféré garder l'esprit pour faire honneur aux anciens J'ai préféré garder mon style, ils sont plusieurs à être pareil J'ai préféré mon spitch plutôt que le changer demain J'ai préféré garder les miens, en même temps qu'les pieds sur terre Moi j'ai préféré DBZ même si les combats se passe en l'air J'ai préféré dire à ma mère, écoute depuis longtemps je rappe J'ai préféré lui dire ça paye même si j'ai rien dans l'avocat J'ai préféré parler du calme, à force de grandir dans le bruit J'ai préféré que l'on m'condamne pour être libre dans ce que je dis J'ai préféré me faire petit, laissant tout c'la à jouer les mac J'ai préféré vous respecter, peut-être un jour changer la vague J'ai préféré être correct, évolué sans trop se plaindre Je me répète mais désoler je crois qu'c'est la même à chaque semaine J'ai préféré les jours d'hiver, on échoue un point c'est tout J'ai préféré rester chez-moi, j't'inviterai bien dans mon igloo De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part Et j'ai préféré le réaliste, l'écorcher sans bistouri Le demi scred qui passe par un trou dsouris J'ai préféré ma mère à toutes les femmes que j'ai connu Pudique j'ai préféré me rhabiller quand j'étais nu J'ai préféré être un pirate et si pique celui qui s'y frotte N'essaie même pas d'faire chavirer ma pirogue J'ai détesté les artistes qui f'sait l'autruche J'ai préféré les Balavoines ou les Coluches Oublier plutôt qu'faire la guerre à ceux qui m'en veulent J'ai préféré t'donner la main que t'la foutre dans la gueule J'ai préféré être insolent qu'un sot rapide Qui prend pour argent content c'qu'un Soral dit J'ai préféré toi-même tu sais refré Toi-même tu sais, c'est que les demi p J'aime peu les deux tiers de c'que j'ai fais hier Je préfère comment j'en parle aujourd'hui De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part De l'amour à la haine, il n'y a qu'un pas Dur de trouver ses repères quand normalité pète un câble Le monde est peace ou peut-être pas On sèmera l'amour pour voir l'espoir pousser quelque part</t>
+          <t>Comme un air d'ma génération La mélodie va t'piquer, c'est pour tout le monde, pas d'ségrégation J'voyais les p'tits paniquer J't'emmènes en voyage dans le temps Même si d'base, t'es pas trop opé' L'époque des Boom bap L'époque où j'regardais l'club Dorothée Passionné d'foot, avant c'était pas CR et Messi On faisait du sale à la té-ci Ils appréciaient tous, s'prenaient pour Pelé, au lycée, c'était précis En cas d'embrouille, ça s'prenait pour Kenshiro Mais détalaient en balle quand retentissait l'bruit des gyro' Y a pas d'pitié pour les croissants, laisse moi tirer l'poisson Pour être un super héros, sans pétard ni boisson Le hip-hop est une passion, han, Nicky Larson On est toujours ok, génération Dorothée D. Ace, Demi P, toute l'équipe à côté Power rangers a sauté, nouveau panorama On est dans la capsule Akira Toriyama On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG J'déteste Ségolène Royal gros, y a pas d'recours C'était soit Dorothée, soit le bas d'nos tours Pour passer les obstacles, fallait qu'j'en fasse beaucoup J'étais le black Goku, avant black Dooku, yeah J'étais dégoûté mais tout s'arrête un jour En vérité, rendez nous Dorothée et reprenez Zemmour, yeah J'veux un nuage magique, fuck ta Maybach Dans mes sons le chevalier Ikki et Nicky font mes backs J'n'avais pas de limite, j'bouffais des animes toute la journée J'connaissais pas la mi-temps, à chaque découverte, j'étais choqué Tous les génériques de Bernard Minet, minot, j'étais comme animé Par Goku face à la menace, qu'il finissait par laminer Olive et Tom à midi, tous les départs avec Mehdi Pour m'rappeler de Ken et Saint Seiya, de temps en temps, je médite J'remercie le club Do' pour avoir comblé mes aprems Y a qu'avant que j'me disais, que ce serait mieux après On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG Un peu d'amour, y a pas qu'la haine Ma daronne s'appelle Dorothée, elle met l'feu dans ma boîte crânienne Au CE2 même pas la moyenne, j'm'en bas les noisettes J'étais en live quand Goku est devenu Saiyen Incollable en animés, frère, j'connais tout, tout, tout De Bioman à Collège fou, fou, fou J'avais pas d'thune, moi, y avait pas d'street, pas d'caille J'voulais la culotte de Bulma et l'flow à Tao Pai Pai On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG On était in da club avant 50 Doro nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Le club</t>
+          <t>Le Dernier Chevalier</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Comme un air d'ma génération La mélodie va t'piquer, c'est pour tout le monde, pas d'ségrégation J'voyais les p'tits paniquer J't'emmènes en voyage dans le temps Même si d'base, t'es pas trop opé' L'époque des Boom bap L'époque où j'regardais l'club Dorothée Passionné d'foot, avant c'était pas CR et Messi On faisait du sale à la té-ci Ils appréciaient tous, s'prenaient pour Pelé, au lycée, c'était précis En cas d'embrouille, ça s'prenait pour Kenshiro Mais détalaient en balle quand retentissait l'bruit des gyro' Y a pas d'pitié pour les croissants, laisse moi tirer l'poisson Pour être un super héros, sans pétard ni boisson Le hip-hop est une passion, han, Nicky Larson On est toujours ok, génération Dorothée D. Ace, Demi P, toute l'équipe à côté Power rangers a sauté, nouveau panorama On est dans la capsule Akira Toriyama On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG J'déteste Ségolène Royal gros, y a pas d'recours C'était soit Dorothée, soit le bas d'nos tours Pour passer les obstacles, fallait qu'j'en fasse beaucoup J'étais le black Goku, avant black Dooku, yeah J'étais dégoûté mais tout s'arrête un jour En vérité, rendez nous Dorothée et reprenez Zemmour, yeah J'veux un nuage magique, fuck ta Maybach Dans mes sons le chevalier Ikki et Nicky font mes backs J'n'avais pas de limite, j'bouffais des animes toute la journée J'connaissais pas la mi-temps, à chaque découverte, j'étais choqué Tous les génériques de Bernard Minet, minot, j'étais comme animé Par Goku face à la menace, qu'il finissait par laminer Olive et Tom à midi, tous les départs avec Mehdi Pour m'rappeler de Ken et Saint Seiya, de temps en temps, je médite J'remercie le club Do' pour avoir comblé mes aprems Y a qu'avant que j'me disais, que ce serait mieux après On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG Un peu d'amour, y a pas qu'la haine Ma daronne s'appelle Dorothée, elle met l'feu dans ma boîte crânienne Au CE2 même pas la moyenne, j'm'en bas les noisettes J'étais en live quand Goku est devenu Saiyen Incollable en animés, frère, j'connais tout, tout, tout De Bioman à Collège fou, fou, fou J'avais pas d'thune, moi, y avait pas d'street, pas d'caille J'voulais la culotte de Bulma et l'flow à Tao Pai Pai On était in da club avant 50 Doro' nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG On était in da club avant 50 Doro nous a jeté dedans elle est guilty Et si t'étais pas dans ce bail, t'as raté un truc qui graille Oh oui, la number one des OG</t>
+          <t>T'as vu aujourd'hui j'rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max, vas-y laisse place à lespèce Interview sur interview non laissez-moi tranquille Ils ont senti le truc, hein depuis le titre on m'a dit Demi Portion explique nous d'où sortent toutes ces paroles À trop vouloir battre le fer on a tué l'tétanos Stop, dis-moi est-ce-que t'es fier, est-ce-que les gens sont cool ? Dis-moi Rachid comment tu fais, explique-moi ton parcours J'ai commencé mes premières lignes de ma ville de Sète Je dépasse pas la 10ème ligue, voir Adil qui m'aide Et Timothée m'a rendu MC 15 ans plus tard Non merci pas de Bercy parlez-moi des petites salles Si je te causais du public, grâce à eux j'en suis là Chez moi y'a pas d'mode, pas d'ça si j'ressors mes Fila Depuis l'époque d'ONPP et d'nos premiers volumes À tous les MCs qu'j'ai connu et qui font qu'ça évolue Et si j'te croise dans la rue, j'toublierai jamais mon pote On reste les mêmes pas de problème, c'est ce qui me donne la force x2 T'as vu aujourd'hui je rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max Vas-y laisse place à lespèce, au guerrier de l'espace Beaucoup diront c'est du plaisir mais t'as pas vu le chemin Obligé d'cacher mes peines et d'faire le mec serein Dieu merci je manque de rien, aujourd'hui artiste À peine 16 ans je me retrouve à refuser les maisons de disque À cette heure-ci je ne regrette pas ni les meilleurs moments Si je continue de Sète là où m'emporte le vent On fait rien n'importe comment regarde la chance qu'on a J'préfère l'entrainement je veux pas d'championnat Interview mais sur le vif j'trouve jamais les mots Si je te racontais ma vie ça dépasserait le morceau Des soirées sous boisson et des souvenirs agaçants On veut montrer la bonne image malgré qu'elle est transparente Si nos projets tombent à l'eau, est-ce ramasser du liquide ? Pour avoir au moins un but, faut former la bonne équipe T'as vu aujourd'hui j'rappe, peut-être demain je dérape Protégez mon armure, un Chevalier du Zodiaque x2 T'as vu aujourd'hui je rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max Vas-y laisse place à lespèce, au guerrier de l'espace 19 ans que jécris, j'ai gagné, j'ai perdu Et si ma musique est triste, j'ai le sourire entendu Je remercie la culture, et de ce qu'elle m'a donnée Paraît que j'ai une plume, OK donc laissez-moi décorer x2 T'as vu aujourd'hui je rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max Vas-y laisse place à lespèce, au guerrier de l'espace J'suis arrivé au terminus1</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Le Dernier Chevalier</t>
+          <t>Le droit de tuer</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>T'as vu aujourd'hui j'rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max, vas-y laisse place à lespèce Interview sur interview non laissez-moi tranquille Ils ont senti le truc, hein depuis le titre on m'a dit Demi Portion explique nous d'où sortent toutes ces paroles À trop vouloir battre le fer on a tué l'tétanos Stop, dis-moi est-ce-que t'es fier, est-ce-que les gens sont cool ? Dis-moi Rachid comment tu fais, explique-moi ton parcours J'ai commencé mes premières lignes de ma ville de Sète Je dépasse pas la 10ème ligue, voir Adil qui m'aide Et Timothée m'a rendu MC 15 ans plus tard Non merci pas de Bercy parlez-moi des petites salles Si je te causais du public, grâce à eux j'en suis là Chez moi y'a pas d'mode, pas d'ça si j'ressors mes Fila Depuis l'époque d'ONPP et d'nos premiers volumes À tous les MCs qu'j'ai connu et qui font qu'ça évolue Et si j'te croise dans la rue, j'toublierai jamais mon pote On reste les mêmes pas de problème, c'est ce qui me donne la force x2 T'as vu aujourd'hui je rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max Vas-y laisse place à lespèce, au guerrier de l'espace Beaucoup diront c'est du plaisir mais t'as pas vu le chemin Obligé d'cacher mes peines et d'faire le mec serein Dieu merci je manque de rien, aujourd'hui artiste À peine 16 ans je me retrouve à refuser les maisons de disque À cette heure-ci je ne regrette pas ni les meilleurs moments Si je continue de Sète là où m'emporte le vent On fait rien n'importe comment regarde la chance qu'on a J'préfère l'entrainement je veux pas d'championnat Interview mais sur le vif j'trouve jamais les mots Si je te racontais ma vie ça dépasserait le morceau Des soirées sous boisson et des souvenirs agaçants On veut montrer la bonne image malgré qu'elle est transparente Si nos projets tombent à l'eau, est-ce ramasser du liquide ? Pour avoir au moins un but, faut former la bonne équipe T'as vu aujourd'hui j'rappe, peut-être demain je dérape Protégez mon armure, un Chevalier du Zodiaque x2 T'as vu aujourd'hui je rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max Vas-y laisse place à lespèce, au guerrier de l'espace 19 ans que jécris, j'ai gagné, j'ai perdu Et si ma musique est triste, j'ai le sourire entendu Je remercie la culture, et de ce qu'elle m'a donnée Paraît que j'ai une plume, OK donc laissez-moi décorer x2 T'as vu aujourd'hui je rappe, peut-être que demain je déraperai Protégez mon armure, un Chevalier du Zodiaque On va s'donner jusqu'au max, jusqu'au max Vas-y laisse place à lespèce, au guerrier de l'espace J'suis arrivé au terminus1</t>
+          <t>Personne 1 Veuillez vous lever, laudience est ouverte. Lhonorable Président Juge Bonjour chers concitoyens, veuillez-vous asseoir. Messieurs et vous monsieur Accusé Demi Portion Oui monsieur ? Juge Jai devant les yeux, une copie de votre inculpation, abattu par un être humain. Comprenez-vous les accusations portées contre vous ? Accusé Oui Juge Comment comptez-vous plaider ? Excusez-moi Monsieur le Juge, jvais vous raconter simplement Ce soir jétais énervé, ça ma changé lcomportement Javais un drôle de manque, un peu comme un toxico Jai pris un Bic, une feuille et un énorme Zippo Aussitôt, on sdit qula nuit tout l'monde dort, cest sûr Je men souviens, cest vers minuit que jai trouvé une mesure Une par une, tête par tête, jvise ma cible Ce soir-là, comment vous dire, je navais plus dprincipes 16 barils brûlent sans faire de victime Votre honneur, je vous rassure que je nai rien fait dpire Lhistoire est mal partie, pourtant javais rien bu La rage ma provoqué quand jai tapé linstru Quelle horreur, là on mdit dparler au procureur Pour des punchlines aujourdhui on tappelle vite tueur Quand ils rentrent, tinnoves pour une place dans un ptit rang Demande à Flynt, du bon son, cest cque le peuple demande Pourquoi mconvoquer, je ne regrette pas lacte Pour des rimes, jai lmême procès quDieudonné MBala Des titres enregistrés, lenquête sarrête pas là Objection, Demi Portion, vous sortez de là Non, je vous renvoie la balle, si je me permets Toute façon, vous allez faire quoi ? Jsuis déjà enfermé Jury ou citoyens, ne soyez pas étonnés Si aujourdhui il est mort, cest que mes mots lont bien tué Personne 2 Cest un héros ce type alors libérez-le Juge Que le jury ne tienne pas compte de cette réponse Personne 2 Un héros du peuple ! Juge Allons, veuillez faire taire cet homme aussi Personne 2 Un héros du peuple ! C'est là un homme qui a admis devant vous, en rendant la justice sans laide dun jury La défense veut sa parole, lâchez vos dépositions Daprès le casier des Grandes Gueules, délit chez Demi Portion Article en infraction, inconnu chez nos services Refus dobtempérer pour écriture à rime à risque Plusieurs avertissements, notamment beaucoup dplaintes En nous signant partout des vidéos sur internet Rachid, sorti dSète, cest une arme quil emploie Sa perquisition, il avait de lencre sur les doigts On a les preuves, les plans, tout est revu à la loupe Son bloc-notes, ses amis, un vieux réseau sur Facebook On surveille tout, le coupable est bien présent Cest un vrai récidiviste, il a des textes pour tous les samples Soyez conscient, il ne faut pas quil nous échappe Cest un hors-la-loi qui na pas peur de se défendre Bizarre, et pour indices, il nous a laissé qudes sons On doit lenfermer très vite pour la liberté dexpression Accusé Demi Portion Excusez-moi dhausser la voix, ma dernière question est posée On sait qula vérité blesse, mais a-t-il le droit de tuer ? Personne 3 Le droit de tuer ? Tous ceux qui sont dans ce tribunal le savent, tous nos concitoyens le savent aussi. Il vous suffit à présent de trouver le courage de prononcer Coupable ! et il doit être condamné, jen ai fini Juge Fin de laudience</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Le droit de tuer</t>
+          <t>Le ghetto humanitaire</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Personne 1 Veuillez vous lever, laudience est ouverte. Lhonorable Président Juge Bonjour chers concitoyens, veuillez-vous asseoir. Messieurs et vous monsieur Accusé Demi Portion Oui monsieur ? Juge Jai devant les yeux, une copie de votre inculpation, abattu par un être humain. Comprenez-vous les accusations portées contre vous ? Accusé Oui Juge Comment comptez-vous plaider ? Excusez-moi Monsieur le Juge, jvais vous raconter simplement Ce soir jétais énervé, ça ma changé lcomportement Javais un drôle de manque, un peu comme un toxico Jai pris un Bic, une feuille et un énorme Zippo Aussitôt, on sdit qula nuit tout l'monde dort, cest sûr Je men souviens, cest vers minuit que jai trouvé une mesure Une par une, tête par tête, jvise ma cible Ce soir-là, comment vous dire, je navais plus dprincipes 16 barils brûlent sans faire de victime Votre honneur, je vous rassure que je nai rien fait dpire Lhistoire est mal partie, pourtant javais rien bu La rage ma provoqué quand jai tapé linstru Quelle horreur, là on mdit dparler au procureur Pour des punchlines aujourdhui on tappelle vite tueur Quand ils rentrent, tinnoves pour une place dans un ptit rang Demande à Flynt, du bon son, cest cque le peuple demande Pourquoi mconvoquer, je ne regrette pas lacte Pour des rimes, jai lmême procès quDieudonné MBala Des titres enregistrés, lenquête sarrête pas là Objection, Demi Portion, vous sortez de là Non, je vous renvoie la balle, si je me permets Toute façon, vous allez faire quoi ? Jsuis déjà enfermé Jury ou citoyens, ne soyez pas étonnés Si aujourdhui il est mort, cest que mes mots lont bien tué Personne 2 Cest un héros ce type alors libérez-le Juge Que le jury ne tienne pas compte de cette réponse Personne 2 Un héros du peuple ! Juge Allons, veuillez faire taire cet homme aussi Personne 2 Un héros du peuple ! C'est là un homme qui a admis devant vous, en rendant la justice sans laide dun jury La défense veut sa parole, lâchez vos dépositions Daprès le casier des Grandes Gueules, délit chez Demi Portion Article en infraction, inconnu chez nos services Refus dobtempérer pour écriture à rime à risque Plusieurs avertissements, notamment beaucoup dplaintes En nous signant partout des vidéos sur internet Rachid, sorti dSète, cest une arme quil emploie Sa perquisition, il avait de lencre sur les doigts On a les preuves, les plans, tout est revu à la loupe Son bloc-notes, ses amis, un vieux réseau sur Facebook On surveille tout, le coupable est bien présent Cest un vrai récidiviste, il a des textes pour tous les samples Soyez conscient, il ne faut pas quil nous échappe Cest un hors-la-loi qui na pas peur de se défendre Bizarre, et pour indices, il nous a laissé qudes sons On doit lenfermer très vite pour la liberté dexpression Accusé Demi Portion Excusez-moi dhausser la voix, ma dernière question est posée On sait qula vérité blesse, mais a-t-il le droit de tuer ? Personne 3 Le droit de tuer ? Tous ceux qui sont dans ce tribunal le savent, tous nos concitoyens le savent aussi. Il vous suffit à présent de trouver le courage de prononcer Coupable ! et il doit être condamné, jen ai fini Juge Fin de laudience</t>
+          <t>Demi Portion Soulchildren à la prod Écoute ça Les Grandes Gueules Ouais x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire Alerte incolore On lâchera pas le drapeau blanc À force d'être par terre, on s'fait plus mal en tombant J'vois plus rien à l'horizon et même à l'aide de mes jumelles Et rêve de changer d'vision et sans pouvoir compter les semaines J'ai encore du mal à vivre Et va demander aux vraies belles On s'contente, on survit, d'voir ma famille, la vie est belle J'remercie Dieu d'écrire et d'vous envoyer mes signes En crachant sur le Sheitan qui nous rapproche de la résine Car nos petits grandissent vite et ont compris le mot colère Et puis y'a ceux qui étudient et vont rarement à la vie scolaire Y'a toutes nos surs pudiques qui veulent ressembler à leur mère Ici on veut tourner la page et on veut déchirer le sommaire x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire J'n'ai pas voulu baisser le son mais j'ai préféré parler fort L'écriture nous a bercé à réunir nos idées folles On dessine tous le monde petit comme la Mini Austin Et les gamines se font grandes, à la Whitney Houston À l'été ou automne, dis-moi pourquoi tu t'étonnes ? Vas-y garde les pieds sur terre et dis-moi pourquoi tu décolles Sachant qu'y'a rien dans les nuages mis à part Dieu qui nous visionne Et si j'ai besoin d'éclairage, encore une famille qui m'résonne On travaille, on essaie juste d'avoir le savoir comme armée Car rien qu'la différence m'a confié d'ne pas s'calmer Enfin, ne pas stagner Et bien vous parler quand j'note C'est bon, j'lance le refrain, un nouveau point parmi les autres x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire Sorti d'là où ça réfléchit avant d'foncer poto Mon image a été sali comme pour une vieille photo Excuse-moi, c'est pas à c'pays que j'dirai je t'aime Et si tu l'fais, chez nous on appelle ça un vrai chekhem On oublie rien Tu sais, à qui la faute J'me sens visé À l'écart, j'me fous d'leurs voyages et MJC Trop d'projets brisés, les jeunes sont sous tension Et ici, on a pas appris l'rap grâce à une subvention Lâche Demi Portion, c'est c'qu'on me répète souvent Qu'mon rap n'arrange rien même si ça pète au Soudan On peut ni changer le temps ni la direction des tanks Ni aider les clochards juste en leur offrant un sand' Si on en revenait Quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour en béton, c'est le ghetto humanitaire x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire Demi Portion Soulchildren à la prod 2008 Ouais Les Grandes Gueules Le ghetto humanitaire</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Le ghetto humanitaire</t>
+          <t>Le mécréant</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Demi Portion Soulchildren à la prod Écoute ça Les Grandes Gueules Ouais x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire Alerte incolore On lâchera pas le drapeau blanc À force d'être par terre, on s'fait plus mal en tombant J'vois plus rien à l'horizon et même à l'aide de mes jumelles Et rêve de changer d'vision et sans pouvoir compter les semaines J'ai encore du mal à vivre Et va demander aux vraies belles On s'contente, on survit, d'voir ma famille, la vie est belle J'remercie Dieu d'écrire et d'vous envoyer mes signes En crachant sur le Sheitan qui nous rapproche de la résine Car nos petits grandissent vite et ont compris le mot colère Et puis y'a ceux qui étudient et vont rarement à la vie scolaire Y'a toutes nos surs pudiques qui veulent ressembler à leur mère Ici on veut tourner la page et on veut déchirer le sommaire x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire J'n'ai pas voulu baisser le son mais j'ai préféré parler fort L'écriture nous a bercé à réunir nos idées folles On dessine tous le monde petit comme la Mini Austin Et les gamines se font grandes, à la Whitney Houston À l'été ou automne, dis-moi pourquoi tu t'étonnes ? Vas-y garde les pieds sur terre et dis-moi pourquoi tu décolles Sachant qu'y'a rien dans les nuages mis à part Dieu qui nous visionne Et si j'ai besoin d'éclairage, encore une famille qui m'résonne On travaille, on essaie juste d'avoir le savoir comme armée Car rien qu'la différence m'a confié d'ne pas s'calmer Enfin, ne pas stagner Et bien vous parler quand j'note C'est bon, j'lance le refrain, un nouveau point parmi les autres x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire Sorti d'là où ça réfléchit avant d'foncer poto Mon image a été sali comme pour une vieille photo Excuse-moi, c'est pas à c'pays que j'dirai je t'aime Et si tu l'fais, chez nous on appelle ça un vrai chekhem On oublie rien Tu sais, à qui la faute J'me sens visé À l'écart, j'me fous d'leurs voyages et MJC Trop d'projets brisés, les jeunes sont sous tension Et ici, on a pas appris l'rap grâce à une subvention Lâche Demi Portion, c'est c'qu'on me répète souvent Qu'mon rap n'arrange rien même si ça pète au Soudan On peut ni changer le temps ni la direction des tanks Ni aider les clochards juste en leur offrant un sand' Si on en revenait Quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour en béton, c'est le ghetto humanitaire x2 Et si on en revenait à chaque fois qu'on faisait une faute Et si on me remettait en France quand le hip-hop ouvrait ses portes Et si on en revenait quand notre père bâtit la terre C'est ma tour de béton, c'est le ghetto humanitaire Demi Portion Soulchildren à la prod 2008 Ouais Les Grandes Gueules Le ghetto humanitaire</t>
+          <t>Est-il en notre temps rien de plus odieux De plus désespérant que de ne pas croire en Dieu ? Jvoudrais avoir la foi, la foi dmon charbonnier Qui est heureux comme un pape et con comme un panier Mon voisin du dessus un certain Blaise Pascal Ma gentiment donné, ce conseil amical Mettez-vous à genoux, priez et implorez Faire qusemblant de croire et bientôt vous mcroirez Jme mis à débiter les rotules à terre Tous les Ave Maria et tous les paternes austères Dans les rues, les cafés, les trains, les autobus Tous les De Profundis, tous les morpionibus Sur ces entrefaites là strouvant dans les orties Une soutane à ma taille et jmen suis travestis Et tonsuré de frais, ma guitare à la main Vers la foi salvatrice, jme mis en chemin Jtombais sur un boisseau dpunaises de sacristie Me prenant pour un autre, en chur Elles mont dit mon père, chantez nous donc quelques refrains sacrés Quelques saines chansons dont vous avez lsecret Grattant avec ferveur, les cordes sous mes doigts Jentonnais Le gorille avec Putain de toi Criant à limposteur, aux traitres aux papelards Elles veulent me faire subir le supplice dAbélard Jvais grossir les rangs des muets du Sérail Les belles ne viendront plus se pendre à mon poitrail Grâce à ma voix coupée, jaurai la place de choix Au milieu des petits chanteurs à la croix dbois Attirer par le bruit, une dame de charité Leur dire que faites-vous ? Malheureuses arrêtez Ya tant dhommes aujourdhui qui ont un penchant pervers A prendre obstinément Cupidon à lenvers Tant dhommes dépourvus de leurs virils appas A ceux qui en ont encore, ne les enlevons pas Ces arguments massues firent une grosse impression On me laissa partir avec des ovations Mais sur le chemin du ciel, je nferai plus un pas La foi viendra delle-même ou elle ne viendra pas Jnai jamais tué, jamais violé non plus Ya déjà quelques temps que je ne vole plus Et si lÉternel existe, en fin dcompte il voit Que je me conduis guère plus mal qusi javais la foi Si lÉternel existe, en fin dcompte il voit Que je me conduis guère plus mal qusi on avait la foi</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Le mécréant</t>
+          <t>Le message</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Est-il en notre temps rien de plus odieux De plus désespérant que de ne pas croire en Dieu ? Jvoudrais avoir la foi, la foi dmon charbonnier Qui est heureux comme un pape et con comme un panier Mon voisin du dessus un certain Blaise Pascal Ma gentiment donné, ce conseil amical Mettez-vous à genoux, priez et implorez Faire qusemblant de croire et bientôt vous mcroirez Jme mis à débiter les rotules à terre Tous les Ave Maria et tous les paternes austères Dans les rues, les cafés, les trains, les autobus Tous les De Profundis, tous les morpionibus Sur ces entrefaites là strouvant dans les orties Une soutane à ma taille et jmen suis travestis Et tonsuré de frais, ma guitare à la main Vers la foi salvatrice, jme mis en chemin Jtombais sur un boisseau dpunaises de sacristie Me prenant pour un autre, en chur Elles mont dit mon père, chantez nous donc quelques refrains sacrés Quelques saines chansons dont vous avez lsecret Grattant avec ferveur, les cordes sous mes doigts Jentonnais Le gorille avec Putain de toi Criant à limposteur, aux traitres aux papelards Elles veulent me faire subir le supplice dAbélard Jvais grossir les rangs des muets du Sérail Les belles ne viendront plus se pendre à mon poitrail Grâce à ma voix coupée, jaurai la place de choix Au milieu des petits chanteurs à la croix dbois Attirer par le bruit, une dame de charité Leur dire que faites-vous ? Malheureuses arrêtez Ya tant dhommes aujourdhui qui ont un penchant pervers A prendre obstinément Cupidon à lenvers Tant dhommes dépourvus de leurs virils appas A ceux qui en ont encore, ne les enlevons pas Ces arguments massues firent une grosse impression On me laissa partir avec des ovations Mais sur le chemin du ciel, je nferai plus un pas La foi viendra delle-même ou elle ne viendra pas Jnai jamais tué, jamais violé non plus Ya déjà quelques temps que je ne vole plus Et si lÉternel existe, en fin dcompte il voit Que je me conduis guère plus mal qusi javais la foi Si lÉternel existe, en fin dcompte il voit Que je me conduis guère plus mal qusi on avait la foi</t>
+          <t>en cours d'écriture, si tu a les paroles envoie les nous!</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Le message</t>
+          <t>Lentement</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>en cours d'écriture, si tu a les paroles envoie les nous!</t>
+          <t>Le fait d'vous parler maintenant ne me rend plus seul J'regarde l'écran de ce monde mais j'vois qu'le curseur Parce que le fait d'vous écrire me libère franchement Malgré toutes les blessures que j'ai vous êtes mon pansement Encore un pincement au coeur ou la gorge nouée D'abord avec les moyens du bord faudra une bouée D'accord, travailler dur dois-je l'avouer C'est sûr, même avec mon regard j'parle aux muets J'n'ai jamais écrasé personne j'ai juste pris mon chemin Avec les bâtons dans les roues j'ai repris Michelin Avec la même équipe depuis, j'ai appris trop d'choses Comme toujours aimer les siens en guise de bonne dose C'est ça la bonne cause tout en gardant les mêmes codes En cas d'mal j'ai qu'des mots, ma première démo tourne encore Extra large, bonjour la France avec Fabe Ouai le temps passe j'ai gobé l'hip-hop comme extase Un freestyle pas d'soucis j'aime trop ça c'est certain The artist, aller présentez-moi Dujardin En hors-piste, pas d'thème ce son est pour mon public Merci pour votre tenue moi qui suis timide et pudique Rachid, on m'a dit continues si ça s'complique Tranquille, et c'est tout ce qu'ils retiennent d'un sudiste Un accent non ça suffit pas, sûrement trop insuffisant On a tous un pote ou voir un autre qui avait deux visages L'apparence devient trop bizarre, oh v'la l'image Foncer c'est trop facile donc j'me suis intéressé aux limaces Leonidas, sans la carrure de Rambo J'n'ai jamais voulu monter c'n'est pas mon truc la rando Pas d'repos, la seule forme d'autorité Quand on a trop d'caractère est-c'qu'on se doit de l'tweeter ? Nouvel album dans les bacs, sorti en indépendant J'porte la voix de tout l'monde, des passionnés depuis longtemps Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement On avance à petits pas, mais ça ça n'est que le départ Et paraîtrait qu'c'est pas du gâteau si je veux couper des parts J'ai même en tendu qu'c'était mort, t'es passé comme les TN Mais dans le sud on perd pas l'nord, on aime rapper comme les vrais M hein T'y as vu la scène tout le contraire de celle du crime On arrive sans artifices pour foutre le feu avec une rime Moi j'étais pas dans mon assiette, trouver les couteaux dans mon dos p'tit La chute j'ai su l'amortir, sur un matelas d'ortie Pendant qu'certains déraillent en pensant vivre un train d'enfer Armé de rimes nous on veut voir tout le monde les mains en l'air One loove, facile à dire si t'y mets pas du cur Pris de l'écart où les trois quarts te disent j'm'en bas les couilles T'arrives avec un gun j'arrive avec une fleur Grandi dans la débrouille avec mes frères et surs Envie d'croquer le monde comme ce bonhomme qui revient d'taule Si on fait tâche ce sera seulement avec paintball bang Hein, lol,Triste prise de position, personne refuse le fric On cherche juste les solutions Oublies la thug life, ça vient de Montpel', et pas d'Los Angeles Que du sunshine dans tous les sons qu'je laisse Hé ! Ça part de Sète y a la recette sur scène Au fait, qu'est-ce vous faites y a un concert c'week-end ? Et même faya on foutre l'faya comme un raggaman Envoie le mic, c'est pour mes gaillards pour mes padawans J'vois pas la maille, si j'fais pas l'boulot qui va l'faire boy Tenir la tête sous l'eau j'connais qu'sur Gameboy Tu vois l'bail, on aime kiffer la life la belle grillade au soleil On s'accueillera avec le smile on oubliera les problèmes T'as vu ce mec a mouillé le maillot pour refaire sa maille et finir meilleur Y en a marre des cailloux, de mettre de la mayo, de la sauce samouraï en croyant qu'c'est meilleur On joue pas les voyous, le mental de warrior on est face aux jaloux par ici ou ailleurs Comme Tapion on veut finir meilleur Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Lentement</t>
+          <t>Les Histoires</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Le fait d'vous parler maintenant ne me rend plus seul J'regarde l'écran de ce monde mais j'vois qu'le curseur Parce que le fait d'vous écrire me libère franchement Malgré toutes les blessures que j'ai vous êtes mon pansement Encore un pincement au coeur ou la gorge nouée D'abord avec les moyens du bord faudra une bouée D'accord, travailler dur dois-je l'avouer C'est sûr, même avec mon regard j'parle aux muets J'n'ai jamais écrasé personne j'ai juste pris mon chemin Avec les bâtons dans les roues j'ai repris Michelin Avec la même équipe depuis, j'ai appris trop d'choses Comme toujours aimer les siens en guise de bonne dose C'est ça la bonne cause tout en gardant les mêmes codes En cas d'mal j'ai qu'des mots, ma première démo tourne encore Extra large, bonjour la France avec Fabe Ouai le temps passe j'ai gobé l'hip-hop comme extase Un freestyle pas d'soucis j'aime trop ça c'est certain The artist, aller présentez-moi Dujardin En hors-piste, pas d'thème ce son est pour mon public Merci pour votre tenue moi qui suis timide et pudique Rachid, on m'a dit continues si ça s'complique Tranquille, et c'est tout ce qu'ils retiennent d'un sudiste Un accent non ça suffit pas, sûrement trop insuffisant On a tous un pote ou voir un autre qui avait deux visages L'apparence devient trop bizarre, oh v'la l'image Foncer c'est trop facile donc j'me suis intéressé aux limaces Leonidas, sans la carrure de Rambo J'n'ai jamais voulu monter c'n'est pas mon truc la rando Pas d'repos, la seule forme d'autorité Quand on a trop d'caractère est-c'qu'on se doit de l'tweeter ? Nouvel album dans les bacs, sorti en indépendant J'porte la voix de tout l'monde, des passionnés depuis longtemps Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement On avance à petits pas, mais ça ça n'est que le départ Et paraîtrait qu'c'est pas du gâteau si je veux couper des parts J'ai même en tendu qu'c'était mort, t'es passé comme les TN Mais dans le sud on perd pas l'nord, on aime rapper comme les vrais M hein T'y as vu la scène tout le contraire de celle du crime On arrive sans artifices pour foutre le feu avec une rime Moi j'étais pas dans mon assiette, trouver les couteaux dans mon dos p'tit La chute j'ai su l'amortir, sur un matelas d'ortie Pendant qu'certains déraillent en pensant vivre un train d'enfer Armé de rimes nous on veut voir tout le monde les mains en l'air One loove, facile à dire si t'y mets pas du cur Pris de l'écart où les trois quarts te disent j'm'en bas les couilles T'arrives avec un gun j'arrive avec une fleur Grandi dans la débrouille avec mes frères et surs Envie d'croquer le monde comme ce bonhomme qui revient d'taule Si on fait tâche ce sera seulement avec paintball bang Hein, lol,Triste prise de position, personne refuse le fric On cherche juste les solutions Oublies la thug life, ça vient de Montpel', et pas d'Los Angeles Que du sunshine dans tous les sons qu'je laisse Hé ! Ça part de Sète y a la recette sur scène Au fait, qu'est-ce vous faites y a un concert c'week-end ? Et même faya on foutre l'faya comme un raggaman Envoie le mic, c'est pour mes gaillards pour mes padawans J'vois pas la maille, si j'fais pas l'boulot qui va l'faire boy Tenir la tête sous l'eau j'connais qu'sur Gameboy Tu vois l'bail, on aime kiffer la life la belle grillade au soleil On s'accueillera avec le smile on oubliera les problèmes T'as vu ce mec a mouillé le maillot pour refaire sa maille et finir meilleur Y en a marre des cailloux, de mettre de la mayo, de la sauce samouraï en croyant qu'c'est meilleur On joue pas les voyous, le mental de warrior on est face aux jaloux par ici ou ailleurs Comme Tapion on veut finir meilleur Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement Ici, je représente les indépendants J'porte la voix de tout l'monde, des passionnés depuis longtemps Lentement mais sûrement, lentement mais sûrement Lentement</t>
+          <t>x2 Des naissances, des décès, des échecs, des succès Ce gâchis c'est la vie, tu sais Saisons automne-hiver bébé Quand j'm'occupe de mes oignons, ça m'donne envie d'pleurer J'ai pas pris le mic pour me la sentir mec Plutôt me sentir libre Quitte à s'en sortir sans tirette La zik' te fait rêver toi R'garde au pire on fait quoi Regarde un peu le ciel, chacun d'mes titres est une étoile Frapper ça sert à quoi ? Ils n'ressentent plus rien La plupart r'fourguent 100 kil' avec une piqueuse dans les reins On n'cherche pas une vie d'galérien, c'est plutôt elle qui trouve Je tourne qu'autour du pot, t'as un problème de zoom Non c'n'est pas le rap qui t'soûle, mais les groupes que tu consommes Quand t'auras fini d'bouffer, ça t'fera une belle addition J'écris le 3 septembre, chaque jour est une rentrée Prof de moi-même j'ai construit ma propre école à côté Sans chercher la renommée, juste un coin d'tranquille On n'sera jamais bien couvert comme un gosse en Syrie Putain ma rime chagrine, pourquoi dois-je parler d'ça Et si j'vous parlais arabe, on a jamais trop d'shrab x2 On se plaint pas, j'parle pas, souvent trop pas indigné A force de s'planter, écoute, on a fini jardinier Tant qu'y a du taf', on y va, on f'ra les choses comme y faut Mais y a toujours un connard pour souligner tes défauts Comment ça la réussite ne s'mérite qu'en perdant J'ai accidenté l'industrie sans trop m'fier au constat Sans crier mon code postal, car de partout ça déboîte Fais ta vie, j'veux pas savoir comment tu laves ton argent sale Quand t'es au commissariat je suis sûr que tu chiales Tous ceux qui parlaient fort la ferment au moment crucial On est loin d'Ibiza, de grosses piscines à Barcelone Ici c'est plus faux visa mais est-ce difficile d'avoir ce rôle On fait tous partie du monde, chacun ses arguments Le jour où tu partiras tu s'ras solo à ton jugement Donc poto vas-y doucement, en attendant que tout s'arrange Ma soeur, regarde ta mère, est-ce qu'elle a vécu ça avant ? x2 C'est la fin du carnaval pour l'édito de mes histoires J'ai du mal à m'arrêter, j'ai sûrement écrit 100 barres Dédié à ma carte son qui m'a suivi depuis l'époque Dédié à mon XXX qui a vu grandir mon bloc-notes J'parle de misère, mon père voulait l'meilleur de nous-mêmes de nous-mêmes Et non pas voir une génération L-O-L Tout le monde veut devenir star, est-ce un rêve ou cauchemar Mieux vaut marcher d'travers et n'jamais rester au centre Lâche c'que t'as dans l'ventre, j'fais ça avec le coeur Et quand j'rappe même ta montre arrête de t'filer l'heure Tellement décalé, énervé qu'on dirait qu'j'fais du métal Donc allez vous faire foutre dans vos hôtels à Dubaï Fuck les moyens du bord, on a même plus d'gouvernail Rien nous choque, ces temps-ci ça r'vend des litrons de sky Les claquer c'est leur but, afin qu'on n'réfléchisse plus Remplace les t sur ce mot tu verras si ça donne zup, suce Ouais j't'assure comment chaque acte on l'assume J'pourrais t'viser tranquille, sans t'sortir une insulte C'n'est pas parce que t'es moisi que j'dois parler d'pourriture Tu sais t'as aucune patte, MC fruits et légumes Écrire loin du ridicule, on m'a dit -Toi ne lâche pas Y a des ferraris, c'est pas grave j'irais le faire en Mazda J'm'en fous de la course, laissez-moi un camping J'vous laisserai les pleins phares, j'allumerai les warning Si j'rappe ta vie c'est donc, qu'on a les mêmes histoires Un muet pourrait les dire, un aveugle pourrait les voir Si j'rappe ta vie c'est donc, qu'on a les mêmes histoires Un muet pourrait les dire, un aveugle pourrait les voir x2 Yo... Yo... Les Histoires... Les Histoires... Yo... R-A-S-H-I-D - Demi Portion C'était les Histoires... Merci à ceux qui m'soutiennent, à toutes les villes de France Tous ceux qu'j'ai pu rencontrer, le public Ma famille, ceux qui m'ont donné la force A tous les passionnés, tous ceux qui sont présents sur l'album Ceux qui font avancer les choses A ceux que je n'connais pas encore One Love Oh, l'album est fini ? T'as bloqué, jusqu'à la fin des Histoires T'es vraiment un drogué Ouais c'est ma vie Tu veux du flow là ? Je vais t'envoyer tout c'que t'aimes Demi Portion tape un p'tit passe-passe, sur la touche mais vise la surface L'effet de surprise, la rage sur place Ouais c'est sur pause, une vida loca Cherche l'occaz', un peu d''audace, les bêtises on a passé l'âge Un jour tout s'efface Oui c'est Rashid, fais voir ton visage Oui c'est facile de parler trop mal Non c'est rapide de faire des dommages Atterris t'as niqué des collages Pas d'coloriage, ne colle pas de biatchs Rien à l'amiable, mate ce que je lâche J'me sers de ma bouche, comme une arme Ou j'me couche, toi tu craches Centre de menaces, j't'oublie grave Oui j'vis ça, loin des strass, pourquoi tu stresses, faut qu'tu saches Nous on t'adresse à chaque message Oui les mots blessent, mais qui est sage ? XXX nos mots, un coup d'shlass Rentrer dans le moule, ça faut pas C'est fragile, y a tout qui s'casse Qui fait la tête et qui s'écrase Sorti d'Sète, du haut d'la classe Pas d'compét', j'ai pas l'temps pour ça La grosse tête te XXX la face Et oui ça m'agace, c'est pas trop ma tasse XXX qu'tu parles et bousilles le taf' Bousilles le taf'... x2 On a fait de cet art une drogue qu'on r'vend à la populace Paraît qu'on s'pique à chaque note et qu'les saints en redemande Ingurgite des litres d'encre dans toutes nos soirées dark C'est l'retour du Black White Des vies en noir et blanc C'est l'retour du Black White Demi Portion Black White Noir Blanc, époque insomniaque Yes, les Histoires et les Histoires... C'est les Histoires et les Histoires... XXX XXX Big Up</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Les Histoires</t>
+          <t>Les Hommes</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>x2 Des naissances, des décès, des échecs, des succès Ce gâchis c'est la vie, tu sais Saisons automne-hiver bébé Quand j'm'occupe de mes oignons, ça m'donne envie d'pleurer J'ai pas pris le mic pour me la sentir mec Plutôt me sentir libre Quitte à s'en sortir sans tirette La zik' te fait rêver toi R'garde au pire on fait quoi Regarde un peu le ciel, chacun d'mes titres est une étoile Frapper ça sert à quoi ? Ils n'ressentent plus rien La plupart r'fourguent 100 kil' avec une piqueuse dans les reins On n'cherche pas une vie d'galérien, c'est plutôt elle qui trouve Je tourne qu'autour du pot, t'as un problème de zoom Non c'n'est pas le rap qui t'soûle, mais les groupes que tu consommes Quand t'auras fini d'bouffer, ça t'fera une belle addition J'écris le 3 septembre, chaque jour est une rentrée Prof de moi-même j'ai construit ma propre école à côté Sans chercher la renommée, juste un coin d'tranquille On n'sera jamais bien couvert comme un gosse en Syrie Putain ma rime chagrine, pourquoi dois-je parler d'ça Et si j'vous parlais arabe, on a jamais trop d'shrab x2 On se plaint pas, j'parle pas, souvent trop pas indigné A force de s'planter, écoute, on a fini jardinier Tant qu'y a du taf', on y va, on f'ra les choses comme y faut Mais y a toujours un connard pour souligner tes défauts Comment ça la réussite ne s'mérite qu'en perdant J'ai accidenté l'industrie sans trop m'fier au constat Sans crier mon code postal, car de partout ça déboîte Fais ta vie, j'veux pas savoir comment tu laves ton argent sale Quand t'es au commissariat je suis sûr que tu chiales Tous ceux qui parlaient fort la ferment au moment crucial On est loin d'Ibiza, de grosses piscines à Barcelone Ici c'est plus faux visa mais est-ce difficile d'avoir ce rôle On fait tous partie du monde, chacun ses arguments Le jour où tu partiras tu s'ras solo à ton jugement Donc poto vas-y doucement, en attendant que tout s'arrange Ma soeur, regarde ta mère, est-ce qu'elle a vécu ça avant ? x2 C'est la fin du carnaval pour l'édito de mes histoires J'ai du mal à m'arrêter, j'ai sûrement écrit 100 barres Dédié à ma carte son qui m'a suivi depuis l'époque Dédié à mon XXX qui a vu grandir mon bloc-notes J'parle de misère, mon père voulait l'meilleur de nous-mêmes de nous-mêmes Et non pas voir une génération L-O-L Tout le monde veut devenir star, est-ce un rêve ou cauchemar Mieux vaut marcher d'travers et n'jamais rester au centre Lâche c'que t'as dans l'ventre, j'fais ça avec le coeur Et quand j'rappe même ta montre arrête de t'filer l'heure Tellement décalé, énervé qu'on dirait qu'j'fais du métal Donc allez vous faire foutre dans vos hôtels à Dubaï Fuck les moyens du bord, on a même plus d'gouvernail Rien nous choque, ces temps-ci ça r'vend des litrons de sky Les claquer c'est leur but, afin qu'on n'réfléchisse plus Remplace les t sur ce mot tu verras si ça donne zup, suce Ouais j't'assure comment chaque acte on l'assume J'pourrais t'viser tranquille, sans t'sortir une insulte C'n'est pas parce que t'es moisi que j'dois parler d'pourriture Tu sais t'as aucune patte, MC fruits et légumes Écrire loin du ridicule, on m'a dit -Toi ne lâche pas Y a des ferraris, c'est pas grave j'irais le faire en Mazda J'm'en fous de la course, laissez-moi un camping J'vous laisserai les pleins phares, j'allumerai les warning Si j'rappe ta vie c'est donc, qu'on a les mêmes histoires Un muet pourrait les dire, un aveugle pourrait les voir Si j'rappe ta vie c'est donc, qu'on a les mêmes histoires Un muet pourrait les dire, un aveugle pourrait les voir x2 Yo... Yo... Les Histoires... Les Histoires... Yo... R-A-S-H-I-D - Demi Portion C'était les Histoires... Merci à ceux qui m'soutiennent, à toutes les villes de France Tous ceux qu'j'ai pu rencontrer, le public Ma famille, ceux qui m'ont donné la force A tous les passionnés, tous ceux qui sont présents sur l'album Ceux qui font avancer les choses A ceux que je n'connais pas encore One Love Oh, l'album est fini ? T'as bloqué, jusqu'à la fin des Histoires T'es vraiment un drogué Ouais c'est ma vie Tu veux du flow là ? Je vais t'envoyer tout c'que t'aimes Demi Portion tape un p'tit passe-passe, sur la touche mais vise la surface L'effet de surprise, la rage sur place Ouais c'est sur pause, une vida loca Cherche l'occaz', un peu d''audace, les bêtises on a passé l'âge Un jour tout s'efface Oui c'est Rashid, fais voir ton visage Oui c'est facile de parler trop mal Non c'est rapide de faire des dommages Atterris t'as niqué des collages Pas d'coloriage, ne colle pas de biatchs Rien à l'amiable, mate ce que je lâche J'me sers de ma bouche, comme une arme Ou j'me couche, toi tu craches Centre de menaces, j't'oublie grave Oui j'vis ça, loin des strass, pourquoi tu stresses, faut qu'tu saches Nous on t'adresse à chaque message Oui les mots blessent, mais qui est sage ? XXX nos mots, un coup d'shlass Rentrer dans le moule, ça faut pas C'est fragile, y a tout qui s'casse Qui fait la tête et qui s'écrase Sorti d'Sète, du haut d'la classe Pas d'compét', j'ai pas l'temps pour ça La grosse tête te XXX la face Et oui ça m'agace, c'est pas trop ma tasse XXX qu'tu parles et bousilles le taf' Bousilles le taf'... x2 On a fait de cet art une drogue qu'on r'vend à la populace Paraît qu'on s'pique à chaque note et qu'les saints en redemande Ingurgite des litres d'encre dans toutes nos soirées dark C'est l'retour du Black White Des vies en noir et blanc C'est l'retour du Black White Demi Portion Black White Noir Blanc, époque insomniaque Yes, les Histoires et les Histoires... C'est les Histoires et les Histoires... XXX XXX Big Up</t>
+          <t>J'avais le choix entre faire du rap ou sentir l'urine J'avais le choix entre me battre ou bien sortir du ring On dit que les problèmes arrivent dès qu'on rencontre la merde Tout l'monde veut le gâteau cousin dès qu'on a goûté aux miettes À part se motiver soi-même, à croire que ça nous aide J'crois pas à la politique cousin j'ai peur que ça nous gêne Les sales nous parlent d'hygiène et ça ne date pas d'hier On en revient au même et j'en suis à mon cinquième Yo, j'ai plein d'amour qui se mélange à plein de nerfs La voix des opprimés qui se balade en plein air On arrive en tête, on taffe depuis longtime On finira sur le stade, et même si vous gardez la balle Allez, regardez là-bas, j'arrive remonter la barre Au lieu d'aller trop vite, moi j'ai préféré prendre le car Calmez-vous les gars, beaucoup de tentations Quand l'pétard est tassé, j'sais qu'faut faire attention Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur D'toute manière c'est l'bordel, temps d'vider la corbeille Vague de problèmes, une fontaine à t'faire tomber une bouteille L'avenir a rien dans l'coude, disons qu'on restera soudés J'm'en fous qu'y ait rien à manger tant qu'Médior a pris l'goûter Prends l'départ au terminus, sans coup d'frein à l'arrivée La rue n'est pas ma prof vu qu'elle m'a déscolarisé Déchire le coloriage et fais péter les décibels Chez moi, y a que Saïd qui a réussi avec la Haine Frapper avec un verbe, éloigné d'vos parasites Ça fait du bien la musique donc j'reprends une pharmacie Dans ma route j'en ai croisés qu'on ne reverra plus jamais J'fais du rap en pyjama, paraît qu'on sera mieux soyer On a commencé d'en bas On a commencé d'en bas Passionnés depuis un bail Passionnés depuis un bail Oui on a démarré d'en bas on a démarré d'en bas Avec la rage qui m'accompagne Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur Oui on a démarré d'en bas Passionnés depuis un bail Passionnés depuis un bail Sprinter On a démarré d'en bas Demi Passionnés depuis un bail Mehdi On a démarré d'en bas Mono Passionnés depuis un bail Rolxx On a démarré d'en bas Passionnés depuis un bail Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur Une musique pas faite pour cent personnes mais pour des millions On est des milliers</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Les Hommes</t>
+          <t>Le Smile</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>J'avais le choix entre faire du rap ou sentir l'urine J'avais le choix entre me battre ou bien sortir du ring On dit que les problèmes arrivent dès qu'on rencontre la merde Tout l'monde veut le gâteau cousin dès qu'on a goûté aux miettes À part se motiver soi-même, à croire que ça nous aide J'crois pas à la politique cousin j'ai peur que ça nous gêne Les sales nous parlent d'hygiène et ça ne date pas d'hier On en revient au même et j'en suis à mon cinquième Yo, j'ai plein d'amour qui se mélange à plein de nerfs La voix des opprimés qui se balade en plein air On arrive en tête, on taffe depuis longtime On finira sur le stade, et même si vous gardez la balle Allez, regardez là-bas, j'arrive remonter la barre Au lieu d'aller trop vite, moi j'ai préféré prendre le car Calmez-vous les gars, beaucoup de tentations Quand l'pétard est tassé, j'sais qu'faut faire attention Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur D'toute manière c'est l'bordel, temps d'vider la corbeille Vague de problèmes, une fontaine à t'faire tomber une bouteille L'avenir a rien dans l'coude, disons qu'on restera soudés J'm'en fous qu'y ait rien à manger tant qu'Médior a pris l'goûter Prends l'départ au terminus, sans coup d'frein à l'arrivée La rue n'est pas ma prof vu qu'elle m'a déscolarisé Déchire le coloriage et fais péter les décibels Chez moi, y a que Saïd qui a réussi avec la Haine Frapper avec un verbe, éloigné d'vos parasites Ça fait du bien la musique donc j'reprends une pharmacie Dans ma route j'en ai croisés qu'on ne reverra plus jamais J'fais du rap en pyjama, paraît qu'on sera mieux soyer On a commencé d'en bas On a commencé d'en bas Passionnés depuis un bail Passionnés depuis un bail Oui on a démarré d'en bas on a démarré d'en bas Avec la rage qui m'accompagne Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur Oui on a démarré d'en bas Passionnés depuis un bail Passionnés depuis un bail Sprinter On a démarré d'en bas Demi Passionnés depuis un bail Mehdi On a démarré d'en bas Mono Passionnés depuis un bail Rolxx On a démarré d'en bas Passionnés depuis un bail Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur C'est pas de l'ironie, on dit que les hommes forts pleurent Cède pas à la folie, paraît que les hommes font peur Une musique pas faite pour cent personnes mais pour des millions On est des milliers</t>
+          <t>Rigole c'est que d'la zik, encore, en cur La gagne dans le collimateur, petit à la Tony Parker Acteur, interprète, un smile à mes auditeurs Ceci n'est qu'une demi lettre, envoyé à la bonne heure Le bonheur, la belle vie, Chacun comme il l'a voit La thune y'a ceux qui l'ont, ceux qui se tue à l'avoir Pas d'galère on contrôle, big up à la métropole C'est d'la bonne, on t'la donne, emballée dans l'album Ca se passe comme ça chez Racheton Un beat et j'pose le flow Un pas oui sans jalousie, non pas pour danser le slow Parait que les filles hallucinent, c'est elles qui font tourner le son Gardait le sourire les gars, le smile, la forme et le fond Le smile x3 Toujours on garde le smile Et comment le smile! Avec ça le smile! Encore Tout en gardant le smile Le smile x2 Toujours en gardant le smile Le smile x2 Tout en gardant le smile Sourit le son t'emporte, car il est temps qu'on partent Ca fait pas d'mal un peux d'joie sur un disque compact Contact, nomade, et ça fait funk Junk, smile, rigolade et ça fait jump, jump La musique adoucit ce qui me rend perplexe Le bon MC n'est pas celui qui a le meilleur texte Lache une oreille et constate Par toi meme qu'c'est de l'amour et du time Un smile, oui un smile Fait passer l'mot au suivant qu'on s'lache qu'on freestyle Nouvelle vibe grillé qu'on oublie un peux le calme A ne jamais oublier c'est qu'une passion au départ Sauvage, sauvage Même si l'argent fait le bonheur triste, dommage Courage, courage La faim justifie les moyens Non pas la fin de nos messages, messages La je t'explique Qui passe trop vite le sbif j'insiste C'est rare mon art Mon art</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Le Smile</t>
+          <t>Les nôtres</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Rigole c'est que d'la zik, encore, en cur La gagne dans le collimateur, petit à la Tony Parker Acteur, interprète, un smile à mes auditeurs Ceci n'est qu'une demi lettre, envoyé à la bonne heure Le bonheur, la belle vie, Chacun comme il l'a voit La thune y'a ceux qui l'ont, ceux qui se tue à l'avoir Pas d'galère on contrôle, big up à la métropole C'est d'la bonne, on t'la donne, emballée dans l'album Ca se passe comme ça chez Racheton Un beat et j'pose le flow Un pas oui sans jalousie, non pas pour danser le slow Parait que les filles hallucinent, c'est elles qui font tourner le son Gardait le sourire les gars, le smile, la forme et le fond Le smile x3 Toujours on garde le smile Et comment le smile! Avec ça le smile! Encore Tout en gardant le smile Le smile x2 Toujours en gardant le smile Le smile x2 Tout en gardant le smile Sourit le son t'emporte, car il est temps qu'on partent Ca fait pas d'mal un peux d'joie sur un disque compact Contact, nomade, et ça fait funk Junk, smile, rigolade et ça fait jump, jump La musique adoucit ce qui me rend perplexe Le bon MC n'est pas celui qui a le meilleur texte Lache une oreille et constate Par toi meme qu'c'est de l'amour et du time Un smile, oui un smile Fait passer l'mot au suivant qu'on s'lache qu'on freestyle Nouvelle vibe grillé qu'on oublie un peux le calme A ne jamais oublier c'est qu'une passion au départ Sauvage, sauvage Même si l'argent fait le bonheur triste, dommage Courage, courage La faim justifie les moyens Non pas la fin de nos messages, messages La je t'explique Qui passe trop vite le sbif j'insiste C'est rare mon art Mon art</t>
+          <t>Les Grandes Gueules, eh ouais, toujours Sprinter Demi Portion Je rame dans la même galère que la plupart de mes pairs Écoute, c'est pour les nôtres Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale À chaque, message Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale Aux armes Ouais c'est bizarre d'avouer qu'cent mille euros nan c'est pas la vie d'riche Des Quartiers Nord à la Reynerie, de ma ZUP à Vitry Dans l'immédiat, nous on veut l'or, fuck le Nouvel Ordre et fuck les médias On compte sur le mektoub pas sur la voyance fuck les médiums Toutes leurs prédilections, voudraient qu'tu prennes une direction Tous leurs critères de sélection, du vote aux élections On parle de nous comme si on était bons qu'pour les fractures Jamais démodés depuis la naissance toujours été d'actu Ici, regarde à qui on nous identifie Des sauvages révoltés, ça c'est c'est tout ce dont ils flippent Le Soleil tape mais les soucis en rien n'se modifient Et, qui a dit que dans le Sud la vie c'est magnifique ? De ville en ville les ennuis ne changent pas Devant les naïfs j'passe aussi pour un abruti quand j'parle Qui n'admet pas la peur que le malheur y frappe sec Tous d'accord, hier têtu aujourd'hui tu acceptes Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale À chaque, message Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale Aux armes Libérez-moi d'ce manège et du vertige avant tout Libérez-moi d'ce siège quitte à m'laisser aux vautours Embarrassé pas du tout, j'n'attends rien en retour Tous ceux qui ont visé la coupe sont tous sortis de la poule À court, la street paraît qu'elle est si maligne Et la thune, il en faut sans trouver un synonyme Et banni, banalisé, foncés sont vérifiés Ouais gros, ta carte bleue est maigre aux Champs Élysées Donc me parle pas d'hip-hop, stop y'a aucun rapport Mais qui dénonce vraiment, stop y'a aucun rappeur Et taper là où ça fait mal c'est connu ils sont protégés, big up Me reste encore un coup d'essai D'ici, ça paraît sec au cirque on en rigole Me sample pas trop MC, j'sais pas si j'te réponds D'ici, ça paraît sec, au cirque on en rigole Me sample pas trop MC, j'sais pas si j'te réponds Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale À chaque, message Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale Aux armes Je rame dans la même galère que la plupart de mes pairs La bombe du freestyle français Je rame dans la même galère que la plupart de mes pairs La bombe du freestyle français Chaque titre est un classique</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Les nôtres</t>
+          <t>Le Son Des Blockas #2</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Les Grandes Gueules, eh ouais, toujours Sprinter Demi Portion Je rame dans la même galère que la plupart de mes pairs Écoute, c'est pour les nôtres Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale À chaque, message Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale Aux armes Ouais c'est bizarre d'avouer qu'cent mille euros nan c'est pas la vie d'riche Des Quartiers Nord à la Reynerie, de ma ZUP à Vitry Dans l'immédiat, nous on veut l'or, fuck le Nouvel Ordre et fuck les médias On compte sur le mektoub pas sur la voyance fuck les médiums Toutes leurs prédilections, voudraient qu'tu prennes une direction Tous leurs critères de sélection, du vote aux élections On parle de nous comme si on était bons qu'pour les fractures Jamais démodés depuis la naissance toujours été d'actu Ici, regarde à qui on nous identifie Des sauvages révoltés, ça c'est c'est tout ce dont ils flippent Le Soleil tape mais les soucis en rien n'se modifient Et, qui a dit que dans le Sud la vie c'est magnifique ? De ville en ville les ennuis ne changent pas Devant les naïfs j'passe aussi pour un abruti quand j'parle Qui n'admet pas la peur que le malheur y frappe sec Tous d'accord, hier têtu aujourd'hui tu acceptes Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale À chaque, message Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale Aux armes Libérez-moi d'ce manège et du vertige avant tout Libérez-moi d'ce siège quitte à m'laisser aux vautours Embarrassé pas du tout, j'n'attends rien en retour Tous ceux qui ont visé la coupe sont tous sortis de la poule À court, la street paraît qu'elle est si maligne Et la thune, il en faut sans trouver un synonyme Et banni, banalisé, foncés sont vérifiés Ouais gros, ta carte bleue est maigre aux Champs Élysées Donc me parle pas d'hip-hop, stop y'a aucun rapport Mais qui dénonce vraiment, stop y'a aucun rappeur Et taper là où ça fait mal c'est connu ils sont protégés, big up Me reste encore un coup d'essai D'ici, ça paraît sec au cirque on en rigole Me sample pas trop MC, j'sais pas si j'te réponds D'ici, ça paraît sec, au cirque on en rigole Me sample pas trop MC, j'sais pas si j'te réponds Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale À chaque, message Tous les nôtres ils le savent Condamnés à n'pas rester sur la touche depuis tout jeune on tente d'esquiver le sale Aux armes Je rame dans la même galère que la plupart de mes pairs La bombe du freestyle français Je rame dans la même galère que la plupart de mes pairs La bombe du freestyle français Chaque titre est un classique</t>
+          <t>J'aimerai avoir la bague au doigt, j'peux pas j'ai les mains gantées J'connais miseria maintenant j'veux l'Maserati Parano j'recompte mes billets deux trois fois dans la noche Avant de finir menotté Mais là j'vends du rêve mais, j'préfère la beuh le shit J'ai trainé dans le bloc mais c'est pas la belle vie J'fais du bénéfice mais y'a qu'mon 9 qui est milli Je sors c'est un feeling, ça tire après minuit Chacun son secteur, chacun son setup tant qu'y'a le guetteur bien calé Y'a ?, de midi à sept heures, v-esqui inspecteur et plein d'camés Y'a du filtré x3 d'la quali, si les flics croient moins y'a le calibre Sacoche remplie, l'guetteur en place, j'ai vu les inspecteurs en face arah En bas du bloc ça vends, ça parle de chatte et de monnaie C'est pas qu'des mots, la rue ne sera jamais démodée C'est pour les p'tits qui frottent la bavette, pour les types qui vivent le pavé Grâce aux reufs t'effrites la barrette, fuck les keufs j'esquive la BAC Faut les lovés ma bambina, j'suis né pour leur faire ? J'vais te faire comme Toto Riina, si tu t'la sens sous coco Ruinart Ça sent la weed dans l'RS3, dans le ? la Beldia Gros moteur sur la troisième voie, appel de phare ? Élevé au chant des ?, ça vient du ghetto, ressors la mélo, bouge la tête tête tête tête Ça cartonne, pourquoi t'es deg deg deg deg Elle s'enjaille, elle kiffe le bail, elle a ? Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs C'est l'son des blockas 2, ma hbiba c'est cadeau Donc j'ai quarante carrosses, ? ça s'arrose C'est l'son des blockas 2, pour mes cigarillos Torse nu ça lève le cross, ça crie au final Chaibotch Il me manque, le frérot purge sa peine Fort comme un tank, il demande rien à personne C'est pas la peine de demander des nouvelles Ça crack, comme à l'ancienne Elle veut savoir, y'a quoi dans la sacoche Y'a la moula qui m'appelle, bébé m'en veut pas si j'raccroche À part la ceinture du BM, poto j'ai pas d'attaches Revenir c'est plus la peine si j'fais du bruit comme la Kalash J'baraude solo dans la ville, soda glacé dans ma Lean C'est la calle, sur moi j'ai ma lame Tout le monde s'écarte quand j'arrive J'suis avec Chaib D'La Paillade, Le Damou C'est incroyable Le quartier ça rend malade, j'crois qu'il faut qu'j'parte en balade ... ... Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs C'est l'son des blockas 2, ma hbiba c'est cadeau Donc j'ai quarante carrosses, ? ça s'arrose C'est l'son des blockas 2, pour mes cigarillos Torse nu ça lève le cross, ça crie au final Chaibotch Il me manque, le frérot purge sa peine Fort comme un tank, il demande rien à personne C'est pas la peine de demander des nouvelles Ça crack, comme à l'ancienne ... Cest le 3 cest le 4 ça vient pas dRis-pa, j'en place une à Chaib pour l'invitation J'v-esqui les galères à chaque virage, tous les jours dans nos têtes c'est un film d'action Pour réussir y'a pas mille façons, dans nos vida le destin n'existe pas Avec le temps mon cur c'est un vrai glaçon mais crois pas que perde un pote m'attriste pas nan nan Matrixé par les lovés, dans ma tête c'est la guerre, y'a personne pour m'raisonner T'as disparu des radars en pensant que le temps ferait l'taff Maintenant c'est le karma qui t'rattrape pour te mettre des baffes J'rentre dans l'beat comme un Audi Sport, j'aime pas trop quand on parle de star Montre les stats, sur le stade à la Batista Regarde le monde y'en a plein qui s'bute, y'en a plein qui s'rate Y'en a plein qui s'bute, nique le game avec ou sans thunes C'est pout le 3-4 qu'on gagne, on fait les bails ouais ouais ouais C'est dans une p'tite place qu'on s'gare, de Sète à La Paillade ouais ouais ouais Rohpopop Wesh les gars, toujours en forme, on monte la barre On monte la barre, on fête le milli en djellaba Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Le Son Des Blockas #2</t>
+          <t>Le taulier</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>J'aimerai avoir la bague au doigt, j'peux pas j'ai les mains gantées J'connais miseria maintenant j'veux l'Maserati Parano j'recompte mes billets deux trois fois dans la noche Avant de finir menotté Mais là j'vends du rêve mais, j'préfère la beuh le shit J'ai trainé dans le bloc mais c'est pas la belle vie J'fais du bénéfice mais y'a qu'mon 9 qui est milli Je sors c'est un feeling, ça tire après minuit Chacun son secteur, chacun son setup tant qu'y'a le guetteur bien calé Y'a ?, de midi à sept heures, v-esqui inspecteur et plein d'camés Y'a du filtré x3 d'la quali, si les flics croient moins y'a le calibre Sacoche remplie, l'guetteur en place, j'ai vu les inspecteurs en face arah En bas du bloc ça vends, ça parle de chatte et de monnaie C'est pas qu'des mots, la rue ne sera jamais démodée C'est pour les p'tits qui frottent la bavette, pour les types qui vivent le pavé Grâce aux reufs t'effrites la barrette, fuck les keufs j'esquive la BAC Faut les lovés ma bambina, j'suis né pour leur faire ? J'vais te faire comme Toto Riina, si tu t'la sens sous coco Ruinart Ça sent la weed dans l'RS3, dans le ? la Beldia Gros moteur sur la troisième voie, appel de phare ? Élevé au chant des ?, ça vient du ghetto, ressors la mélo, bouge la tête tête tête tête Ça cartonne, pourquoi t'es deg deg deg deg Elle s'enjaille, elle kiffe le bail, elle a ? Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs C'est l'son des blockas 2, ma hbiba c'est cadeau Donc j'ai quarante carrosses, ? ça s'arrose C'est l'son des blockas 2, pour mes cigarillos Torse nu ça lève le cross, ça crie au final Chaibotch Il me manque, le frérot purge sa peine Fort comme un tank, il demande rien à personne C'est pas la peine de demander des nouvelles Ça crack, comme à l'ancienne Elle veut savoir, y'a quoi dans la sacoche Y'a la moula qui m'appelle, bébé m'en veut pas si j'raccroche À part la ceinture du BM, poto j'ai pas d'attaches Revenir c'est plus la peine si j'fais du bruit comme la Kalash J'baraude solo dans la ville, soda glacé dans ma Lean C'est la calle, sur moi j'ai ma lame Tout le monde s'écarte quand j'arrive J'suis avec Chaib D'La Paillade, Le Damou C'est incroyable Le quartier ça rend malade, j'crois qu'il faut qu'j'parte en balade ... ... Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs C'est l'son des blockas 2, ma hbiba c'est cadeau Donc j'ai quarante carrosses, ? ça s'arrose C'est l'son des blockas 2, pour mes cigarillos Torse nu ça lève le cross, ça crie au final Chaibotch Il me manque, le frérot purge sa peine Fort comme un tank, il demande rien à personne C'est pas la peine de demander des nouvelles Ça crack, comme à l'ancienne ... Cest le 3 cest le 4 ça vient pas dRis-pa, j'en place une à Chaib pour l'invitation J'v-esqui les galères à chaque virage, tous les jours dans nos têtes c'est un film d'action Pour réussir y'a pas mille façons, dans nos vida le destin n'existe pas Avec le temps mon cur c'est un vrai glaçon mais crois pas que perde un pote m'attriste pas nan nan Matrixé par les lovés, dans ma tête c'est la guerre, y'a personne pour m'raisonner T'as disparu des radars en pensant que le temps ferait l'taff Maintenant c'est le karma qui t'rattrape pour te mettre des baffes J'rentre dans l'beat comme un Audi Sport, j'aime pas trop quand on parle de star Montre les stats, sur le stade à la Batista Regarde le monde y'en a plein qui s'bute, y'en a plein qui s'rate Y'en a plein qui s'bute, nique le game avec ou sans thunes C'est pout le 3-4 qu'on gagne, on fait les bails ouais ouais ouais C'est dans une p'tite place qu'on s'gare, de Sète à La Paillade ouais ouais ouais Rohpopop Wesh les gars, toujours en forme, on monte la barre On monte la barre, on fête le milli en djellaba Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs Dehors c'est tendu, le frère sort de Condi On apprend la vie et ses coups durs</t>
+          <t>Parolier, même si les mots me manquent souvent L'inconscience m'a trop tamponné Les erreurs m'ont pas pardonné La terreur, oui, m'a cartonné Oui m'a cartonné Vivre seul, je me sens comme emprisonné L'impression de n'plus voir le sommet Y a qu'l'alcool qui a su m'consoler Qui a su m'consoler Qui a su m'consoler Hé taulier C'est l'Demi qui te met la pression L'impression de t'avoir soûlé Sa maison lui a pas pardonné Sa raison l'a abandonné L'a abandonné Pardonnez-moi, car aujourd'hui je n'ai plus rien du tout Plus d'espoir, plus d'amour, ce soir j'ai la corde au cou Seul, m'a rendu tellement fou L'alcool est mon eau de source Mes enfants m'ont laissé en d'ssous Et le silence m'a rendu sourd Le bonheur ne vient plus des sous La lumière me fait mal aux yeux J'ai toujours voulu faire le bien mais le mal est si malicieux Ma mère voulait me rendre heureux Ne jamais dire que c'est dur Pour nos parents, ne plus se plaindre J'crois qu'c'est devenu une procédure ne m'a pas séduit J'ai sûrement fait une sale manuvre Peur de pas regarder les gens sachant qu'il y a toujours pire ailleurs J'me sens comme abandonné J'n'ai pas eu l'don d'être orphelin Comme toi, sortir en famille ou dire juste à papa demain J'n'ai plus rien à portée de main On partira, c'est certain Chaque fois qu'j'me lève, j'me dis c'est bon, j'vais l'faire ce matin Hé taulier C'est l'Demi qui te met la pression L'impression de t'avoir soûlé Sa maison lui a pas pardonné Sa raison l'a abandonné L'a abandonné</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Le taulier</t>
+          <t>Le temps passe</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Parolier, même si les mots me manquent souvent L'inconscience m'a trop tamponné Les erreurs m'ont pas pardonné La terreur, oui, m'a cartonné Oui m'a cartonné Vivre seul, je me sens comme emprisonné L'impression de n'plus voir le sommet Y a qu'l'alcool qui a su m'consoler Qui a su m'consoler Qui a su m'consoler Hé taulier C'est l'Demi qui te met la pression L'impression de t'avoir soûlé Sa maison lui a pas pardonné Sa raison l'a abandonné L'a abandonné Pardonnez-moi, car aujourd'hui je n'ai plus rien du tout Plus d'espoir, plus d'amour, ce soir j'ai la corde au cou Seul, m'a rendu tellement fou L'alcool est mon eau de source Mes enfants m'ont laissé en d'ssous Et le silence m'a rendu sourd Le bonheur ne vient plus des sous La lumière me fait mal aux yeux J'ai toujours voulu faire le bien mais le mal est si malicieux Ma mère voulait me rendre heureux Ne jamais dire que c'est dur Pour nos parents, ne plus se plaindre J'crois qu'c'est devenu une procédure ne m'a pas séduit J'ai sûrement fait une sale manuvre Peur de pas regarder les gens sachant qu'il y a toujours pire ailleurs J'me sens comme abandonné J'n'ai pas eu l'don d'être orphelin Comme toi, sortir en famille ou dire juste à papa demain J'n'ai plus rien à portée de main On partira, c'est certain Chaque fois qu'j'me lève, j'me dis c'est bon, j'vais l'faire ce matin Hé taulier C'est l'Demi qui te met la pression L'impression de t'avoir soûlé Sa maison lui a pas pardonné Sa raison l'a abandonné L'a abandonné</t>
+          <t>x2 Comment fonctionne l'humain ? Dites-nous comment ça marche Trop de mal à respirer Un peu comme les pieds sur Mars Le temps passe, passe, passe Et depuis rien n'a changé Quand j'm'occupe de mes oignons Ça m'donne envie d'pleurer Avec finesse et précision, qu'j'ai pris les stylos, mon vieux On apprend à lever la tête et s'en sortir sans eux On apprend à créer nos règles et contourner le hors-jeu Donc j'ai appris à cuisiner, comme faire des crêpes sans oeufs Passionné avant tout, à bosser plus de cent heures Les égoïstes mentent seuls et nous bloquent l'ascenseur Ouais j'ai du mal, étant donné qu'on ne fait rien de toute manière Les rappeurs parlent, beaucoup parlent, mais ne mènent pas de carrière Aucun charisme, aucun talent, avec un air méchant Et le dernier qui est monté a fini par redescendre sont pas rentrer dans le stade juste pour viser les jambes Plutôt l'enfant de la terre, qui ralliera les gens Non pas de prime, d'où je suis il m'en reste encore de la rime On a cherché notre route d'un côté plus tranquille On a plus de cent constats, mais bon rien n'a changé On se débrouille comme on peut, en tant que messagers yo x2 Comment fonctionne l'humain ? Dites-nous comment ça marche Trop de mal à respirer Un peu comme les pieds sur Mars Le temps passe, passe, passe Et depuis rien n'a changé Quand j'm'occupe de mes oignons Ça m'donne envie d'pleurer On n'veut pas suivre le troupeau, mais regarde où ça nous mène Vive le son qui fait en sorte de nous retirer le frein En effet, on se refait, je trace et fais avec Vu que la route est déjà longue, mon dojo sur la Mecque L'art et la manière de savoir donner de belles phrases L'art et la manière de savoir suivre les bonnes bases Non, on ne cherche pas la thune on ne cherche pas la thune Et d'après tout ce qu'on véhicule, on laisse rouler la plume Le temps passe, passe, passe, et depuis on continue Ouais, le monde est à nous, mais qui est-ce qui distribue ? Tu sais que l'homme, joue un rôle, mais ce n'est pas du cinéma Comment ça marche, un humain ? Il s'éteint, il se rallume pas x2 Comment fonctionne l'humain ? Dites-nous comment ça marche Trop de mal à respirer Un peu comme les pieds sur Mars Le temps passe, passe, passe Et depuis rien n'a changé Quand j'm'occupe de mes oignons Ça m'donne envie d'pleurer</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Le temps passe</t>
+          <t>Le Troupeau</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>x2 Comment fonctionne l'humain ? Dites-nous comment ça marche Trop de mal à respirer Un peu comme les pieds sur Mars Le temps passe, passe, passe Et depuis rien n'a changé Quand j'm'occupe de mes oignons Ça m'donne envie d'pleurer Avec finesse et précision, qu'j'ai pris les stylos, mon vieux On apprend à lever la tête et s'en sortir sans eux On apprend à créer nos règles et contourner le hors-jeu Donc j'ai appris à cuisiner, comme faire des crêpes sans oeufs Passionné avant tout, à bosser plus de cent heures Les égoïstes mentent seuls et nous bloquent l'ascenseur Ouais j'ai du mal, étant donné qu'on ne fait rien de toute manière Les rappeurs parlent, beaucoup parlent, mais ne mènent pas de carrière Aucun charisme, aucun talent, avec un air méchant Et le dernier qui est monté a fini par redescendre sont pas rentrer dans le stade juste pour viser les jambes Plutôt l'enfant de la terre, qui ralliera les gens Non pas de prime, d'où je suis il m'en reste encore de la rime On a cherché notre route d'un côté plus tranquille On a plus de cent constats, mais bon rien n'a changé On se débrouille comme on peut, en tant que messagers yo x2 Comment fonctionne l'humain ? Dites-nous comment ça marche Trop de mal à respirer Un peu comme les pieds sur Mars Le temps passe, passe, passe Et depuis rien n'a changé Quand j'm'occupe de mes oignons Ça m'donne envie d'pleurer On n'veut pas suivre le troupeau, mais regarde où ça nous mène Vive le son qui fait en sorte de nous retirer le frein En effet, on se refait, je trace et fais avec Vu que la route est déjà longue, mon dojo sur la Mecque L'art et la manière de savoir donner de belles phrases L'art et la manière de savoir suivre les bonnes bases Non, on ne cherche pas la thune on ne cherche pas la thune Et d'après tout ce qu'on véhicule, on laisse rouler la plume Le temps passe, passe, passe, et depuis on continue Ouais, le monde est à nous, mais qui est-ce qui distribue ? Tu sais que l'homme, joue un rôle, mais ce n'est pas du cinéma Comment ça marche, un humain ? Il s'éteint, il se rallume pas x2 Comment fonctionne l'humain ? Dites-nous comment ça marche Trop de mal à respirer Un peu comme les pieds sur Mars Le temps passe, passe, passe Et depuis rien n'a changé Quand j'm'occupe de mes oignons Ça m'donne envie d'pleurer</t>
+          <t>Entends, au loin le troupeau bèle Nous, on fait partie des troupes rebelles La Replic, Demi Portion C'est pas sur leur modèle du bonheur qu'on va calquer nos vies On canne les lobbies qui nous fourrent comme des cannellonis Au fil de la mélodie, on rime, râle et maudit Trop d'trips sales mênent au crime On trime grave, s'démotive, j'en ai trop dit J'suis pas c'mouton à la life fade et qui pourtant le ravit Comme Senna à Imola j'suis à un tournant de ma vie C'est l'heure d'évacuer la rage qui te tourmentes vas y L'Occident ne mange plus, elle est gourmande L'Asie Même si on a pas l'mode de vie d'un ouvrier au bengladesh Au final même ici y en a beaucoup des miens qui craignent la dèche J'fais tout pour que se ferme la page et pour que mes frères se bougent Qu'on soit tous enfin verts de rage au lieu de boire des verres de rouge Mais autour de moi je n'vois qu'des brebis égarées L'être humain court à sa perte c'est bien la preuve qu'il est taré Pour tenir un peuple il faut des jeux, des beuveries il paraît Tu t'demandes pas pourquoi dès qu'il y a un coluche, il disparait Je ne suivrai pas le troupeau, je n'ai pas besoin de berger Ici bas rien de nouveau, qu'des fruits pourris dans le verger Je sais bien qui est le bourreau, hors de question de l'héberger Je donnerais ma vie pour au moins voir la révolte émerger J'ai l'impression qu'ils sont guidés par des voix que j'n'entends pas Mais le temps passe et je n'veux pas de leur étendard à la recherche d'un sauveur Comme l'impression qu'on y arrive qu'en étant dark, en étant d'acc Mais j'ai tant de hargne et pas d'temps d'arrêt j'veux pas être game over Du fond de la nasse, ils veulent qu'on se fonde dans la masse Se contenter de ce qu'on a mais c'est pas des fonds qu'on amasse On est à fond man hélas toi tu veux le fion de Pamela Nan c'est pas du son de favela mais la route d'actions pavez la! Tu suis la ligne blanche je prends les chemin de traverse Pour rester digne je flanche sur ma feuille c'est que j'la verse Toute cette émotion et toute cette colère mêlées Ils jettent un froid glacial si t'as des polaires mets les Car c'est pas le troupeau qui va te réchauffer Tu es seul au milieu du lot donc il vaut mieux t'étoffer Moi j'ai tout fait pour essayer de pas m'faire bouffer On s'est barré du troupeau car on ne veut pas étouffer 2</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Le Troupeau</t>
+          <t>Lettre au président</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Entends, au loin le troupeau bèle Nous, on fait partie des troupes rebelles La Replic, Demi Portion C'est pas sur leur modèle du bonheur qu'on va calquer nos vies On canne les lobbies qui nous fourrent comme des cannellonis Au fil de la mélodie, on rime, râle et maudit Trop d'trips sales mênent au crime On trime grave, s'démotive, j'en ai trop dit J'suis pas c'mouton à la life fade et qui pourtant le ravit Comme Senna à Imola j'suis à un tournant de ma vie C'est l'heure d'évacuer la rage qui te tourmentes vas y L'Occident ne mange plus, elle est gourmande L'Asie Même si on a pas l'mode de vie d'un ouvrier au bengladesh Au final même ici y en a beaucoup des miens qui craignent la dèche J'fais tout pour que se ferme la page et pour que mes frères se bougent Qu'on soit tous enfin verts de rage au lieu de boire des verres de rouge Mais autour de moi je n'vois qu'des brebis égarées L'être humain court à sa perte c'est bien la preuve qu'il est taré Pour tenir un peuple il faut des jeux, des beuveries il paraît Tu t'demandes pas pourquoi dès qu'il y a un coluche, il disparait Je ne suivrai pas le troupeau, je n'ai pas besoin de berger Ici bas rien de nouveau, qu'des fruits pourris dans le verger Je sais bien qui est le bourreau, hors de question de l'héberger Je donnerais ma vie pour au moins voir la révolte émerger J'ai l'impression qu'ils sont guidés par des voix que j'n'entends pas Mais le temps passe et je n'veux pas de leur étendard à la recherche d'un sauveur Comme l'impression qu'on y arrive qu'en étant dark, en étant d'acc Mais j'ai tant de hargne et pas d'temps d'arrêt j'veux pas être game over Du fond de la nasse, ils veulent qu'on se fonde dans la masse Se contenter de ce qu'on a mais c'est pas des fonds qu'on amasse On est à fond man hélas toi tu veux le fion de Pamela Nan c'est pas du son de favela mais la route d'actions pavez la! Tu suis la ligne blanche je prends les chemin de traverse Pour rester digne je flanche sur ma feuille c'est que j'la verse Toute cette émotion et toute cette colère mêlées Ils jettent un froid glacial si t'as des polaires mets les Car c'est pas le troupeau qui va te réchauffer Tu es seul au milieu du lot donc il vaut mieux t'étoffer Moi j'ai tout fait pour essayer de pas m'faire bouffer On s'est barré du troupeau car on ne veut pas étouffer 2</t>
+          <t>After laughter comes tears Lâche le bordel, on est plusieurs sur la corde Ça pousse, pousse, en attendant la fournée Pas d'liquide donc la fumée nous emporte On la connaît tous, fais tourner, fais tourner Monsieur le Prédisent, désolé cette fois j'ai pas l'temps Le changement c'est quand, c'est quoi, ça fait 10 ans qu'on attend J'essaie de vous écrire, ce texte ne sera qu'pour vous J'veux servir de modèle, juste un bordel sans mots doux Monsieur le Président, je viens parler pour toute une jeunesse En parlant du principal, j'fume et j'reste honnête Rap et reste correct, un dicton bien placé Qui ne se plante jamais non, n'a aucune chance de pousser Chez nous c'est légalisé, faudrait dépénaliser Si j'étais le Président, j'enfumerais lÉlysée J'vous changerais les musées, je changerais Disneyland J'ai appris avec ton nom, on s'amuse mieux en Hollande François, salut, sur ce coup c'est freestyle Sans vous manquer de respect, j'vais arroser Marie-Jeanne Lâche le bordel, on est plusieurs sur la corde Ça pousse, pousse, en attendant la fournée Pas d'liquide donc la fumée nous emporte On la connaît tous, fais tourner, fais tourner Allume-le, y a pas d'problème, ça va nous changer l'odeur Monsieur le Président, viens te poser un peu dans l'fauteuil Fais le tourner à côté, surtout ne le fume pas seul Attends faut qu'tu le tasses, non pas trop que tu tousses J'te vois cramer les Droits d'l'Homme, disons qu'on a le droit d'ça J'ai toujours trouvé l'inspi depuis qu'j'écris sur des massa Vie d'maso, joints d'affilés, dans le cendrier Éclairer nos nuis dès que nos yeux se mettent à briller Ici les graines ont grillé, tu connais, ça fait planer Tu vois bien que le mois d'juin, on le porte bien toute l'année Chez nous c'est légalisé, faudrait dépénaliser Si j'étais le Président, j'enfumerais lÉlysée Sans vous manquer de respect, y a que des petites feuilles Monsieur le Président, y a rien d'vraiment trop fun Lâche le bordel, on est plusieurs sur la corde Ça pousse, pousse, en attendant la fournée Pas d'liquide donc la fumée nous emporte On la connaît tous, fais tourner, fais tourner After laughter comes tears After laughter comes tears</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Lettre au président</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>After laughter comes tears Lâche le bordel, on est plusieurs sur la corde Ça pousse, pousse, en attendant la fournée Pas d'liquide donc la fumée nous emporte On la connaît tous, fais tourner, fais tourner Monsieur le Prédisent, désolé cette fois j'ai pas l'temps Le changement c'est quand, c'est quoi, ça fait 10 ans qu'on attend J'essaie de vous écrire, ce texte ne sera qu'pour vous J'veux servir de modèle, juste un bordel sans mots doux Monsieur le Président, je viens parler pour toute une jeunesse En parlant du principal, j'fume et j'reste honnête Rap et reste correct, un dicton bien placé Qui ne se plante jamais non, n'a aucune chance de pousser Chez nous c'est légalisé, faudrait dépénaliser Si j'étais le Président, j'enfumerais lÉlysée J'vous changerais les musées, je changerais Disneyland J'ai appris avec ton nom, on s'amuse mieux en Hollande François, salut, sur ce coup c'est freestyle Sans vous manquer de respect, j'vais arroser Marie-Jeanne Lâche le bordel, on est plusieurs sur la corde Ça pousse, pousse, en attendant la fournée Pas d'liquide donc la fumée nous emporte On la connaît tous, fais tourner, fais tourner Allume-le, y a pas d'problème, ça va nous changer l'odeur Monsieur le Président, viens te poser un peu dans l'fauteuil Fais le tourner à côté, surtout ne le fume pas seul Attends faut qu'tu le tasses, non pas trop que tu tousses J'te vois cramer les Droits d'l'Homme, disons qu'on a le droit d'ça J'ai toujours trouvé l'inspi depuis qu'j'écris sur des massa Vie d'maso, joints d'affilés, dans le cendrier Éclairer nos nuis dès que nos yeux se mettent à briller Ici les graines ont grillé, tu connais, ça fait planer Tu vois bien que le mois d'juin, on le porte bien toute l'année Chez nous c'est légalisé, faudrait dépénaliser Si j'étais le Président, j'enfumerais lÉlysée Sans vous manquer de respect, y a que des petites feuilles Monsieur le Président, y a rien d'vraiment trop fun Lâche le bordel, on est plusieurs sur la corde Ça pousse, pousse, en attendant la fournée Pas d'liquide donc la fumée nous emporte On la connaît tous, fais tourner, fais tourner After laughter comes tears After laughter comes tears</t>
+          <t>J'avance sans fusil à l'épaule, sans fusil à l'épaule J'veux la paix mais la guerre encore ici nous a bien changé le décor Y a plus d'respect pour les symboles, inspiré du mauvais syndrome Et la nuit c'est le drame et les rêves se rétament juste pour s'évader d'la taule Dès petit je réponds, le béton, ça me tue, papa a d'la force Et des balles et des buts au départ le vécu au lieu de braquer la poste J'avance sans fusil à l'épaule, oui depuis l'ancienne école De la bonne je me donne, tu déconnes, j'espère qu'on puisse même changer les hommes On passe du temps pour un album, d'autres le perdent à Monaco Mon ami, mon amor, pour la vie, à la mort, à la famille j'en suis accro J'avance en oubliant l'ego, le cur serré dans un étau Le bitume, le bétail, ont tué la médaille jusqu'aux produits illégaux T'envoie ma plume tel un sérum, laisse-moi oui propager le son Je débute et milite et des rimes et de l'encre et des litres et crosse le son J'avance sans fusil à l'épaule, tout la fierté de nos darons Tout la fierté de nos darons, branché comme une parabole J'avance en soulevant des tonnes, soulevant des tonnes Protégé par leurs coups de bâton, de leurs coups de bâton Le travail se finit dans les temps, se finit dans les temps J'lève le poing tel un combattant, tel un combattant J'avance sans fusil à l'épaule, sans fusil à l'épaule J'veux la paix mais la guerre encore ici nous a bien changé le décor Y a plus d'respect pour les symboles, inspiré du mauvais syndrome Et la nuit c'est le drame et les rêves se rétament juste pour s'évader d'la taule Libérer, libérer, libertad On va se libérer, libérer, libertad Je veux me libérer, libérer, libertad Libérer, libérer, libertad J'avance même si on a mal aux côtes, on tombe et se relève encore Jamais ne viser le monopole, content de c'que le bonheur apporte Avant qu'on devienne monotone, dur de mettre tout le monde d'accord Plusieurs à tirer sur la corde, c'que raconte tous les nouveaux rapports Rappeur oui c'est le petit bonhomme, l'envie de construire et de faire un pont Hip-hop hip-hop oui je tiens bon, hip-hop hip-hop oui je charbonne J'avance en soulevant des tonnes, soulevant des tonnes Protégé par leurs coups de bâton, de leurs coups de bâton J'avance même si on a mal aux côtes, on tombe et se relève encore Jamais ne viser le monopole, content de c'que le bonheur apporte Avant qu'on devienne monotone, dur de mettre tout le monde d'accord Plusieurs à tirer sur la corde, c'que raconte tous les nouveaux rapports Rappeur oui c'est le petit bonhomme, l'envie de construire et de faire un pont Hip-hop hip-hop oui je tiens bon, hip-hop hip-hop oui je charbonne Hip-hop hip-hop oui je charbonne J'avance sans fusil à l'épaule, sans fusil à l'épaule J'veux la paix mais la guerre encore ici nous a bien changé le décor Y a plus d'respect pour les symboles, inspiré du mauvais syndrome Et la nuit c'est le drame et les rêves se rétament juste pour s'évader d'la taule Libérer, libérer, libertad On va se libérer, libérer, libertad Je veux me libérer, libérer, libertad Libérer, libérer, libertad</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>L’image</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>J'avance sans fusil à l'épaule, sans fusil à l'épaule J'veux la paix mais la guerre encore ici nous a bien changé le décor Y a plus d'respect pour les symboles, inspiré du mauvais syndrome Et la nuit c'est le drame et les rêves se rétament juste pour s'évader d'la taule Dès petit je réponds, le béton, ça me tue, papa a d'la force Et des balles et des buts au départ le vécu au lieu de braquer la poste J'avance sans fusil à l'épaule, oui depuis l'ancienne école De la bonne je me donne, tu déconnes, j'espère qu'on puisse même changer les hommes On passe du temps pour un album, d'autres le perdent à Monaco Mon ami, mon amor, pour la vie, à la mort, à la famille j'en suis accro J'avance en oubliant l'ego, le cur serré dans un étau Le bitume, le bétail, ont tué la médaille jusqu'aux produits illégaux T'envoie ma plume tel un sérum, laisse-moi oui propager le son Je débute et milite et des rimes et de l'encre et des litres et crosse le son J'avance sans fusil à l'épaule, tout la fierté de nos darons Tout la fierté de nos darons, branché comme une parabole J'avance en soulevant des tonnes, soulevant des tonnes Protégé par leurs coups de bâton, de leurs coups de bâton Le travail se finit dans les temps, se finit dans les temps J'lève le poing tel un combattant, tel un combattant J'avance sans fusil à l'épaule, sans fusil à l'épaule J'veux la paix mais la guerre encore ici nous a bien changé le décor Y a plus d'respect pour les symboles, inspiré du mauvais syndrome Et la nuit c'est le drame et les rêves se rétament juste pour s'évader d'la taule Libérer, libérer, libertad On va se libérer, libérer, libertad Je veux me libérer, libérer, libertad Libérer, libérer, libertad J'avance même si on a mal aux côtes, on tombe et se relève encore Jamais ne viser le monopole, content de c'que le bonheur apporte Avant qu'on devienne monotone, dur de mettre tout le monde d'accord Plusieurs à tirer sur la corde, c'que raconte tous les nouveaux rapports Rappeur oui c'est le petit bonhomme, l'envie de construire et de faire un pont Hip-hop hip-hop oui je tiens bon, hip-hop hip-hop oui je charbonne J'avance en soulevant des tonnes, soulevant des tonnes Protégé par leurs coups de bâton, de leurs coups de bâton J'avance même si on a mal aux côtes, on tombe et se relève encore Jamais ne viser le monopole, content de c'que le bonheur apporte Avant qu'on devienne monotone, dur de mettre tout le monde d'accord Plusieurs à tirer sur la corde, c'que raconte tous les nouveaux rapports Rappeur oui c'est le petit bonhomme, l'envie de construire et de faire un pont Hip-hop hip-hop oui je tiens bon, hip-hop hip-hop oui je charbonne Hip-hop hip-hop oui je charbonne J'avance sans fusil à l'épaule, sans fusil à l'épaule J'veux la paix mais la guerre encore ici nous a bien changé le décor Y a plus d'respect pour les symboles, inspiré du mauvais syndrome Et la nuit c'est le drame et les rêves se rétament juste pour s'évader d'la taule Libérer, libérer, libertad On va se libérer, libérer, libertad Je veux me libérer, libérer, libertad Libérer, libérer, libertad</t>
+          <t>Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba Quand ctruc est rentré dans mes veines, putain Jnavais quà peine 16 ans En y réfléchissant, ce rap nous donnera pas dCésar Donc on sacquit ses armes tout en sdisant qucest ça Qu'c'est l'art à jouer lpremier rôle dans son propre scénar Les vrais MC sfont rares, ce qu'il y a dfaux mfait rire Ghetto, la crise sur le gâteau m'donne lenvie dvomir Ne change pas dprofil, joublierai pas comme dit Fabe Et jai encore du mal à vivre comme la mort dArafat Regarde mes phrases, rien dfun elles sortent à peine dla casse Cest un couplet rien dplus écrit du haut d'l'Atlas Dernier dla classe et dans la rue on strouve premier dla place La route est longue, Artisan du Bic et dma sale paperasse La vie ma tout File-moi un Efferalgan, on ne savoure plus le temps, on a rien de Charlie Ingalls On tire ses dernières taffes, on rfait ce Monde plus tard Imagine ci, imagine ça, jaurai pleins dMasterCard Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba Regarde ouvre lil, ça devient trop difficile On plonge, on y voit flou comme nos yeux dans une piscine Détruire ? On l'sait tous qu'ça sera si simple à faire On a dû sentir des secousses qui vnaient sûrement d'une averse La guerre ? Y'a plus d'soldats, la bombe est sur un bouton Dégoûtant, cest sur un gosse quon rtrouvera un bout dtôle Marquer des cicatrices quon efface pour un coup dgomme Vu quon est tous défoncés à trop respirer la colle La victoire ? Le seul problème cest quy a un pays qui la cherche Après avoir cramé les champs, impossible d'garder la pêche Neutre car cest dehors quon doit prendre de lassurance Les citoyens sont stressés et des villes sous surveillance Choqué ? Cest pt-êt' pour ça que tu lressens quand je parle Toujours autant dfrissons comme un sale état grippal La France on y est nés, faudra bien qutu ty fasses Incruster plusieurs traits comme la quatrième bande d'Adidas Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba L'image et son rap game, où chacun veut cueillir sa pomme Où des MC nont pas écrit mais veulent déjà créer l'album Old school ou new school, ccouplet sera mon constat Sachant qules vrais lyrics ne pourront attirer un Oscar En tirer une grosse barre ? Non laisse-moi une demi-paix Jen place une à plein dgroupes qui ont assurés dnous inviter Intello ou hardcore et peu importe ton niveau d'vie De Sète à Marseille, de Paname ou même du centre-ville Et blindé ou le compte vide, jai appris tellement dchoses dans ce milieu Mon frère, on tboycotte si tu montes vite La monnaie a fait ses preuves, naturellement cest ça quon dit Le rap ne paye plus comme un puits en Arabie Saoudite Les jeux sont faits et jte laisse prendre la température On ne sra jamais parfaits, ni experts en littérature Jaime la musique, ici on ncourt pas avec les tongs La vérité comme optique en sachant qula route est longue Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>L’image</t>
+          <t>L’industrie du risque</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba Quand ctruc est rentré dans mes veines, putain Jnavais quà peine 16 ans En y réfléchissant, ce rap nous donnera pas dCésar Donc on sacquit ses armes tout en sdisant qucest ça Qu'c'est l'art à jouer lpremier rôle dans son propre scénar Les vrais MC sfont rares, ce qu'il y a dfaux mfait rire Ghetto, la crise sur le gâteau m'donne lenvie dvomir Ne change pas dprofil, joublierai pas comme dit Fabe Et jai encore du mal à vivre comme la mort dArafat Regarde mes phrases, rien dfun elles sortent à peine dla casse Cest un couplet rien dplus écrit du haut d'l'Atlas Dernier dla classe et dans la rue on strouve premier dla place La route est longue, Artisan du Bic et dma sale paperasse La vie ma tout File-moi un Efferalgan, on ne savoure plus le temps, on a rien de Charlie Ingalls On tire ses dernières taffes, on rfait ce Monde plus tard Imagine ci, imagine ça, jaurai pleins dMasterCard Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba Regarde ouvre lil, ça devient trop difficile On plonge, on y voit flou comme nos yeux dans une piscine Détruire ? On l'sait tous qu'ça sera si simple à faire On a dû sentir des secousses qui vnaient sûrement d'une averse La guerre ? Y'a plus d'soldats, la bombe est sur un bouton Dégoûtant, cest sur un gosse quon rtrouvera un bout dtôle Marquer des cicatrices quon efface pour un coup dgomme Vu quon est tous défoncés à trop respirer la colle La victoire ? Le seul problème cest quy a un pays qui la cherche Après avoir cramé les champs, impossible d'garder la pêche Neutre car cest dehors quon doit prendre de lassurance Les citoyens sont stressés et des villes sous surveillance Choqué ? Cest pt-êt' pour ça que tu lressens quand je parle Toujours autant dfrissons comme un sale état grippal La France on y est nés, faudra bien qutu ty fasses Incruster plusieurs traits comme la quatrième bande d'Adidas Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba L'image et son rap game, où chacun veut cueillir sa pomme Où des MC nont pas écrit mais veulent déjà créer l'album Old school ou new school, ccouplet sera mon constat Sachant qules vrais lyrics ne pourront attirer un Oscar En tirer une grosse barre ? Non laisse-moi une demi-paix Jen place une à plein dgroupes qui ont assurés dnous inviter Intello ou hardcore et peu importe ton niveau d'vie De Sète à Marseille, de Paname ou même du centre-ville Et blindé ou le compte vide, jai appris tellement dchoses dans ce milieu Mon frère, on tboycotte si tu montes vite La monnaie a fait ses preuves, naturellement cest ça quon dit Le rap ne paye plus comme un puits en Arabie Saoudite Les jeux sont faits et jte laisse prendre la température On ne sra jamais parfaits, ni experts en littérature Jaime la musique, ici on ncourt pas avec les tongs La vérité comme optique en sachant qula route est longue Parce que tout lmonde aujourdhui tient à son image Les MC sbattent pour la réput qui les rendra crédibles Parce que tout lmonde aujourdhui tient à son image Les belles images, cest pour Sony et Toshiba</t>
+          <t>Oh, faut bien faire les choses Rester le même, jamais changer Han ! Nouvel album, j'arrive encore Carlito on the track Personne n'y arrive Augmente le tarif La montée des siens commence au Tenerife Personne n'y arrive, allez, volez le riche Oui, se la couler douce Oui, à l'ile Maurice On a du prendre des risques Vendre des disques sans maison de disques Fuck le travail, j'veux pas d'code du travail Personne n'y arrive car il faut qu'tu cavales Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré' Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré' Tu connais la choré' Tu connais la choré' Reste sérieux Tu connais la choré Même si L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque Make money, money, money Make money, money, money Personne n'y arrive J'veux pas d'concert en boite On sait qu'ils me recalent mais je gagne le public N'oublie pas, dans c'rap pour une meuf qui se... chut ! Ce week end la même, oui elle changera de lit Juste un message différé J'suis l'rappeur préféré d'ton rappeur préféré Fuck le travail et leur charge patronale Si j'ressors un album, c'est qu'j'm'en sors pas trop mal Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré Tu connais la choré Tu connais la choré Reste serieux Tu connais la choré L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque Make money, money, money Make money, money, money</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>L’industrie du risque</t>
+          <t>Live 1997-1998</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Oh, faut bien faire les choses Rester le même, jamais changer Han ! Nouvel album, j'arrive encore Carlito on the track Personne n'y arrive Augmente le tarif La montée des siens commence au Tenerife Personne n'y arrive, allez, volez le riche Oui, se la couler douce Oui, à l'ile Maurice On a du prendre des risques Vendre des disques sans maison de disques Fuck le travail, j'veux pas d'code du travail Personne n'y arrive car il faut qu'tu cavales Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré' Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré' Tu connais la choré' Tu connais la choré' Reste sérieux Tu connais la choré Même si L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque Make money, money, money Make money, money, money Personne n'y arrive J'veux pas d'concert en boite On sait qu'ils me recalent mais je gagne le public N'oublie pas, dans c'rap pour une meuf qui se... chut ! Ce week end la même, oui elle changera de lit Juste un message différé J'suis l'rappeur préféré d'ton rappeur préféré Fuck le travail et leur charge patronale Si j'ressors un album, c'est qu'j'm'en sors pas trop mal Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré Make money, money, money Make money, money, money Boulot, dodo, tu connais la choré Tu connais la choré Tu connais la choré Reste serieux Tu connais la choré L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque L'industrie du risque L'industrie, l'industrie, l'industrie du risque Make money, money, money Make money, money, money</t>
+          <t>Hein, yeah Demi Portion Cédric XXX Ca s'passe comme ça Représente Seth Hein, ouais Yeah Demi Portion précoce dans la place Ca s'passe comme ça, yeah Est-ce j'suis chaud Béziers là ? Hein Ca s'passe comme ça, yeah, hein Hein, hein Yeah Devenir fort sans effort Reprendre son souffle en corps à corps Prendre la grosse tête et laisser ses potes à tribord Putain que j'm'endors quand j'change pas d'décor XXX un mort qui a laissé ses médailles d'or XXX un décès, faut avoir du courage Combattre les barrages et d'être l'homme du XXX Pleurer la XXX du mal, maintenant paix à son âme Alikum Salaam, j'suis fier d'représenter l'Islam Je reste judicieux, et j'pense de mieux en mieux XXX heureux J'vais pas t'en faire une XXX de rédaction J'suis pas la perfection XXX d'être tous les jours moins con C'est comme ça Quand tu perds ton père qui t'a élevé à sa manière Avec le bon matériel, maintenant c'est moi qui m'en sers Maintenant c'est moi qui m'en sers Ouais, ça s'passe comme ça hein x2 XXX un décès Faut avoir du courage Combattre les barrages et d'être l'homme du XXX Pleurer XXX du mal, maintenant paix à son âme Alikum Salaam, j'suis fier d'représenter l'Islam Je crois en Dieu, j'suis audacieux Je crois en ceux qui s'entraident entre eux Souhaitent aller au paradis, que souffrir dans le feu Toujours les bons qui partent, c'est malheureux Toujours les mauvais qui restent, ça m'rend nerveux Toujours les mêmes têtes qui traînent dans les banlieues Toujours les ordures, les pourritures Qui retient les murs ? XXX en murmure Toujours la bouche bien ouverte mais reste à la même allure Toujours les mêmes qui s'prennent pour des durs C'est comme ça On s'précipite pour rien Ici j'vois pas c'qui c'rime Avec tu veux un coup d'main XXX un monde de recoin XXX race s'propagent comme des indiens Les mères s'cachent au travers des rideaux C'est bizarre Y'a d'quoi en avoir marre Y'a d'quoi en avoir marre, ouais Ça s'passe comme ça Hein x2 C'est comme ça, dans mon quartier qu'on supporte les femmes Sans compter XXX la plus forte L'histoire de peur de ma sur XXX rumeur On voit pas, où en sont les médiateurs On s'cache derrière les carreaux Pour XXX arriver là-haut Le vice s'allume dans leurs yeux Il faudra prier Dieu Y'en a qui forcent leur fille à faire c'qu'il faut pas faire Tu vois l'amitié, il faut reconnaître aussi c'qu'il y'a derrière XXX dans mon lit Face à la XXX j'fuis Voilà un thème qui dit XXX d'mon esprit Ma feuille est un tableau, mon stylo un pinceau Une rime de la peinture XXX pure Ça s'passe comme ça, ouais Représente Seth, hein Est-ce que j'suis chaud Béziers Faites du bruit, allez Hein, ça s'passe comme ça,ouais Hein, yeah! x2</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Live 1997-1998</t>
+          <t>Loin de toi</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Hein, yeah Demi Portion Cédric XXX Ca s'passe comme ça Représente Seth Hein, ouais Yeah Demi Portion précoce dans la place Ca s'passe comme ça, yeah Est-ce j'suis chaud Béziers là ? Hein Ca s'passe comme ça, yeah, hein Hein, hein Yeah Devenir fort sans effort Reprendre son souffle en corps à corps Prendre la grosse tête et laisser ses potes à tribord Putain que j'm'endors quand j'change pas d'décor XXX un mort qui a laissé ses médailles d'or XXX un décès, faut avoir du courage Combattre les barrages et d'être l'homme du XXX Pleurer la XXX du mal, maintenant paix à son âme Alikum Salaam, j'suis fier d'représenter l'Islam Je reste judicieux, et j'pense de mieux en mieux XXX heureux J'vais pas t'en faire une XXX de rédaction J'suis pas la perfection XXX d'être tous les jours moins con C'est comme ça Quand tu perds ton père qui t'a élevé à sa manière Avec le bon matériel, maintenant c'est moi qui m'en sers Maintenant c'est moi qui m'en sers Ouais, ça s'passe comme ça hein x2 XXX un décès Faut avoir du courage Combattre les barrages et d'être l'homme du XXX Pleurer XXX du mal, maintenant paix à son âme Alikum Salaam, j'suis fier d'représenter l'Islam Je crois en Dieu, j'suis audacieux Je crois en ceux qui s'entraident entre eux Souhaitent aller au paradis, que souffrir dans le feu Toujours les bons qui partent, c'est malheureux Toujours les mauvais qui restent, ça m'rend nerveux Toujours les mêmes têtes qui traînent dans les banlieues Toujours les ordures, les pourritures Qui retient les murs ? XXX en murmure Toujours la bouche bien ouverte mais reste à la même allure Toujours les mêmes qui s'prennent pour des durs C'est comme ça On s'précipite pour rien Ici j'vois pas c'qui c'rime Avec tu veux un coup d'main XXX un monde de recoin XXX race s'propagent comme des indiens Les mères s'cachent au travers des rideaux C'est bizarre Y'a d'quoi en avoir marre Y'a d'quoi en avoir marre, ouais Ça s'passe comme ça Hein x2 C'est comme ça, dans mon quartier qu'on supporte les femmes Sans compter XXX la plus forte L'histoire de peur de ma sur XXX rumeur On voit pas, où en sont les médiateurs On s'cache derrière les carreaux Pour XXX arriver là-haut Le vice s'allume dans leurs yeux Il faudra prier Dieu Y'en a qui forcent leur fille à faire c'qu'il faut pas faire Tu vois l'amitié, il faut reconnaître aussi c'qu'il y'a derrière XXX dans mon lit Face à la XXX j'fuis Voilà un thème qui dit XXX d'mon esprit Ma feuille est un tableau, mon stylo un pinceau Une rime de la peinture XXX pure Ça s'passe comme ça, ouais Représente Seth, hein Est-ce que j'suis chaud Béziers Faites du bruit, allez Hein, ça s'passe comme ça,ouais Hein, yeah! x2</t>
+          <t>Ma tdirouch âalia, rani bâid âlikoum Ma tdirouch âalia, rani kifkoum Demi débite phénoménal, transformation de l'animal Laisse deux minutes, polyvalent, poli d'abord, demi galant Oh le gala oh les dégâts écartez les gars, descends de l'étage Mettez les gants et virez les 'tasses, mettez du son et ouvrez la cage T'as tué qui ? Personne, j'me téléguide seul garçon Petit bonhomme vu l'blason chaque recette est fait maison Aucune raison, un rizon d'accord et un sandwich En bas de l'affiche, en bas de la fosse, on fait que du rap et on s'en fiche On veut partir mais tu le sais qu'on nous parle souvent de moyens Rester ici mais pourquoi pas ? Disons que t'as vu, ça mène à rien Demain c'est loin vu qu'on m'a dit tu verras, ça ira mieux Ne t'en fais pas si j'reste c'est pour éviter les adieux Loin d'vous mais c'est pas grave j'saurais pas comment l'expliquer Oui chaque jour j'en bave, sûrement que ça m'a éduqué J'voulais juste voyager, voir comment vivaient les autres Mais j'ai compris que l'imbécile était caché souvent chez l'homme Ma tdirouch âalia, rani bâid âlikoum Ma tdirouch âalia, rani kifkoum Ouais et tu sais ce qu'on recommande, uniquement du son lourd Mets-nous l'texte en avant et une instru qui rend fou Rappe avec ou sans sou non dis pas que ça t'saoule Un plaisir avant tout et un public qui m'entoure On veut des concerts partout, un micro par contre À tous ceux qui s'déplacent et à tous ceux qu'on rencontre Obligé qu'on envoie sans se salir au sens propre Sans détourner les lois ni les valeurs du Hip-Hop Obligé qu'on s'y colle, que personne s'y retrouve Ils veulent pas de nos clips mais des bâtards à Cancún Donc à qui l'prochain tour ? C'est qui l'prochain plouc ? Les produits du marché deviennent si périmés dans le souk On n'veut plus d'vos surfaces, on est si bien en dessous Écrire avec rage et des projets en soum-soum Regarde le petit qui passe a la calvitie d'Zizou À tous mes re-frè qui n'ont pas grandi chez Picsou Ma tdirouch âalia, rani bâid âlikoum Ma tdirouch âalia, rani kifkoum 2</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Loin de toi</t>
+          <t>Lyricistes</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Ma tdirouch âalia, rani bâid âlikoum Ma tdirouch âalia, rani kifkoum Demi débite phénoménal, transformation de l'animal Laisse deux minutes, polyvalent, poli d'abord, demi galant Oh le gala oh les dégâts écartez les gars, descends de l'étage Mettez les gants et virez les 'tasses, mettez du son et ouvrez la cage T'as tué qui ? Personne, j'me téléguide seul garçon Petit bonhomme vu l'blason chaque recette est fait maison Aucune raison, un rizon d'accord et un sandwich En bas de l'affiche, en bas de la fosse, on fait que du rap et on s'en fiche On veut partir mais tu le sais qu'on nous parle souvent de moyens Rester ici mais pourquoi pas ? Disons que t'as vu, ça mène à rien Demain c'est loin vu qu'on m'a dit tu verras, ça ira mieux Ne t'en fais pas si j'reste c'est pour éviter les adieux Loin d'vous mais c'est pas grave j'saurais pas comment l'expliquer Oui chaque jour j'en bave, sûrement que ça m'a éduqué J'voulais juste voyager, voir comment vivaient les autres Mais j'ai compris que l'imbécile était caché souvent chez l'homme Ma tdirouch âalia, rani bâid âlikoum Ma tdirouch âalia, rani kifkoum Ouais et tu sais ce qu'on recommande, uniquement du son lourd Mets-nous l'texte en avant et une instru qui rend fou Rappe avec ou sans sou non dis pas que ça t'saoule Un plaisir avant tout et un public qui m'entoure On veut des concerts partout, un micro par contre À tous ceux qui s'déplacent et à tous ceux qu'on rencontre Obligé qu'on envoie sans se salir au sens propre Sans détourner les lois ni les valeurs du Hip-Hop Obligé qu'on s'y colle, que personne s'y retrouve Ils veulent pas de nos clips mais des bâtards à Cancún Donc à qui l'prochain tour ? C'est qui l'prochain plouc ? Les produits du marché deviennent si périmés dans le souk On n'veut plus d'vos surfaces, on est si bien en dessous Écrire avec rage et des projets en soum-soum Regarde le petit qui passe a la calvitie d'Zizou À tous mes re-frè qui n'ont pas grandi chez Picsou Ma tdirouch âalia, rani bâid âlikoum Ma tdirouch âalia, rani kifkoum 2</t>
+          <t>Appelez-nous lyricistes Ça fait... Assignés à résistance, comme toute la planète On attend la délivrance, on sort d'la cachette Si la pression est immense comme sur l'pouls d'la canette J'rêve de défier les puissances, que personne m'arrête J'vois clair dans vos jeux, même à la lumière d'la bougie J'vois vos yeux dans l'noir tellement la haine les rougit J'veux plus d'ce monde, vu qu'ce monde est pourri Mais j'peux pas lui casser la main car sa main me nourrit Toujours courir, y en a qui veulent plus ça Qui voient plus rien, tu vois, finissent sous l'eau et sans tuba Tu t'bats, tu sais même plus contre qui Plus tard, qui veux-tu être, tous les rôles de bâtards sont pris Tant pis, tu guettes, la vie quel est son prix? La question s'pose, vu que pour certaines causes, certains payent en années d'son-pri Pause, vous n'avez toujours pas compris, c'est c'qu'on dit Demi Portion, Rocé, la vie qu'on mène, c'est la vie qu'on vit J'écris sur des feuilles volantes, j'essaye d'atteindre les étoiles Nos rêves sont des poids jusqu'à devenir des voiles On dévoile les peurs, les goûts d'histoires des proches Les frères, les surs, les coups du sort féroces On n'oublie rien, on s'habitue à l'attitude Le cur se souvient mais il a sa lassitude Ce monde dur mais durcit, bientôt nos mots seront illicites On résiste, on existe, appelle-nous lyricistes lyricistes lyricistes lyricistes lyricistes Le reflet du monde n'est qu'une transparence On l'écrit sur des feuilles volantes C'est parti, s'lever pour mieux combattre Si le savoir était une arme, ça fait longtemps qu'on s'attarde J'te rassure, prendre position c'est sûr La voix du peuple est trop chère et crier pousse à l'usure Allons-y, y a plus l'choix, notre rap est compatible En plein milieu d'une histoire, combien sont vraiment partis Combien sont vraiment restés à squatter dans c'parking C'est toujours systématique, comment oublier Mobb Deep Avec la rage dans les tripes, j'ai appris à m'en sortir Une porte fermée c'est tranquille, l'ouvrir devient sordide La vie est une musique et la famille est une compil' Suffit d'une balle et riez, comme un classique Master P Écrire c'est fabuleux, faut re-sonner étant tout petit La haine a ses principes, qui nous poussera à s'engloutir Comment écrire sans vous l'dire, nos mots sont dans l'canon On foncera tout de façon, comme une page à Frantz Fanon Nous sommes les damnés d'la terre, les derniers gladiateurs Un mic en guise de gun et une machette dans les hauts-parleurs DJ Rolxx et Rocé, laissez-nous partir bosser Mon futur est à l'ancienne, oui l'son fait des ricochets Le reflet du monde n'est qu'une transparence On l'écrit sur des feuilles volantes Eh ouais Demi Portion, Rocé Appelez-nous lyricistes Appelez-nous lyricistes Lyricistes, lyricistes, lyricistes, lyricistes, lyricistes lyricistes lyricistes</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Lyricistes</t>
+          <t>Lyrics sur mesure(s)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Appelez-nous lyricistes Ça fait... Assignés à résistance, comme toute la planète On attend la délivrance, on sort d'la cachette Si la pression est immense comme sur l'pouls d'la canette J'rêve de défier les puissances, que personne m'arrête J'vois clair dans vos jeux, même à la lumière d'la bougie J'vois vos yeux dans l'noir tellement la haine les rougit J'veux plus d'ce monde, vu qu'ce monde est pourri Mais j'peux pas lui casser la main car sa main me nourrit Toujours courir, y en a qui veulent plus ça Qui voient plus rien, tu vois, finissent sous l'eau et sans tuba Tu t'bats, tu sais même plus contre qui Plus tard, qui veux-tu être, tous les rôles de bâtards sont pris Tant pis, tu guettes, la vie quel est son prix? La question s'pose, vu que pour certaines causes, certains payent en années d'son-pri Pause, vous n'avez toujours pas compris, c'est c'qu'on dit Demi Portion, Rocé, la vie qu'on mène, c'est la vie qu'on vit J'écris sur des feuilles volantes, j'essaye d'atteindre les étoiles Nos rêves sont des poids jusqu'à devenir des voiles On dévoile les peurs, les goûts d'histoires des proches Les frères, les surs, les coups du sort féroces On n'oublie rien, on s'habitue à l'attitude Le cur se souvient mais il a sa lassitude Ce monde dur mais durcit, bientôt nos mots seront illicites On résiste, on existe, appelle-nous lyricistes lyricistes lyricistes lyricistes lyricistes Le reflet du monde n'est qu'une transparence On l'écrit sur des feuilles volantes C'est parti, s'lever pour mieux combattre Si le savoir était une arme, ça fait longtemps qu'on s'attarde J'te rassure, prendre position c'est sûr La voix du peuple est trop chère et crier pousse à l'usure Allons-y, y a plus l'choix, notre rap est compatible En plein milieu d'une histoire, combien sont vraiment partis Combien sont vraiment restés à squatter dans c'parking C'est toujours systématique, comment oublier Mobb Deep Avec la rage dans les tripes, j'ai appris à m'en sortir Une porte fermée c'est tranquille, l'ouvrir devient sordide La vie est une musique et la famille est une compil' Suffit d'une balle et riez, comme un classique Master P Écrire c'est fabuleux, faut re-sonner étant tout petit La haine a ses principes, qui nous poussera à s'engloutir Comment écrire sans vous l'dire, nos mots sont dans l'canon On foncera tout de façon, comme une page à Frantz Fanon Nous sommes les damnés d'la terre, les derniers gladiateurs Un mic en guise de gun et une machette dans les hauts-parleurs DJ Rolxx et Rocé, laissez-nous partir bosser Mon futur est à l'ancienne, oui l'son fait des ricochets Le reflet du monde n'est qu'une transparence On l'écrit sur des feuilles volantes Eh ouais Demi Portion, Rocé Appelez-nous lyricistes Appelez-nous lyricistes Lyricistes, lyricistes, lyricistes, lyricistes, lyricistes lyricistes lyricistes</t>
+          <t>sur mesures Cest bon, allume ta came on va tmontrer un freestyle On ne peut pas plaire à tout lmonde et cest dbonne guerre amicale Banal, moi jfais du rap, je men tape de ton argent Cours, cours, jirai de la même allure en marchant Demi Portion tape un petit passe-passe Sur la touche mais vise la surface Leffet de surprise big up ou rester sur pause, une vida loca Chercher loccas, un peu daudace A part des bêtises, on a passé lâge On sen fiche, un jour tout sefface Oui cest Rasheed fais voir ton visage Oui cest facile de parler trop mal Non cest rapide de faire des dommages Atterris, tas niqué des collages Pas de coloriage, me colle pas de biatchs Rien à lamiable, matte ce que je lâche Je me sers de ma bouche comme une arme Où jme couche, toi tu tcaches Centre de menaces, je toublie grave Oui je vis ça, loin des strass Pourquoi tu stresses ? Faut qutu saches Ne manque pas dadresse à chaque message Oui les mots blessent mais qui est sage ? Naal dine oumouk un coup dschlass Rentrer dans lmoule ça faut pas Tout est fragile, ya tout qui scasse Qui fait la tête et qui sécrase ? Sorti de Sète donc la classe Pas de compét', jai pas ltemps pour ça La grosse tête, te gâcher la face Oui ça magace, cest pas trop ma tasse Pendant qutu parles et bousilles le taf Première mesure, cest pour mes gaillards du 3-4, ça y est Jai pris lmicro, tout lmonde se chauffe, ça risquera pas dcailler Supporter de ma ville comme Karim Aït-Fana Juin 2012, Place de la Com, cétait vlà lfaya Ça vient du Sud 34 degrés à lombre Je dmande pas dcrécher à Londres Non par ici mec ya un tas dplaya Des talents de quartier comme celui de La Paillade Des blanc, des jaunes, des noirs tu peux remarquer un métissage royal On représente même salé comme Karabatic Cest du nimporte quoi comme Rémi Gaillard à Palavas Beach Joue pas ltaré ou on te tacle à lEl Kaoutari Oh on prépare nos arrières juste au cas où tarrives Ouvre la route quand on débarque cest du 3K ? tout terrain Tu vois mes types dans les clips portent pas du Gucci, Guerlain Jveux faire monter les nôtres comme René Girard On compte pas tromper les votes comme le faisait Chirac Petit, ya trop de modestie, jai jamais dit que je mettais la barre haute Mais jfuck toujours les présidents, les rois ou la baronne Seulement soumis au tout puissant ou à la daronne Au temps qui passe, je peux le jurer sur ma parole Avec léquipe tape des barres au lieu de pleurer sur nos sorts Qui veut une place derrière les barreaux ? Là ya sûrement personne Malheureusement tous bloqué entre libérable et arrivant Les Grandes Gueules, jamais eu le temps de rapper dans le vent Ya pas de leçons à recevoir, plutôt à donner doù jviens Envoie le son mais aussi les ronds quon se mette tous bien Depuis môme, on marche en silence et ils veulent même pas quon réponde Strict minimum car cest limage qui correspond S-P-R-I-N-T accumulation drage Non jsuis pas venu feinter et je men tape dvos sondages Je nveux pas plaire à tout lmonde vu qutout lmonde est perdu Heureusement comme dhabitude, ya quelques bons qui perdurent Sinon, tu las bien vu, les ambiances sont flinguées Ils disent tous être dans le vrai mais se font zingués A chaque fois, confronté à la stupidité des caves Te faire accréditer chez nous ? Pfff vas-y décale, dégage Cest vrai que dans la vie jai trop attendu les choses Et quand on ma dit non, jai dit ok et jai pris des notes Mais je nen veux à personne, fallait quje me bouge un peu Et jai compris que dans la vie faut mériter ce quon veut Alors jai pris un Bic et jai retroussé mes manches Aujourdhui comment vous dire quécrire me démange ? Quatre autres choses me dérangent mais dois-je rester passif ? Subir la vie, fermer ma gueule et puis rester assis Nan, nan ce nest pas le genre de la maison Encore faut-il ne pas confondre un grand monsieur et un grand garçon Moi jai la rime et lflow, il te reste quoi en fait ? Ya plus de place pour faire le fort quand on a tout dun faible Oh, insaisissable, incorruptible Rappeur timide avec des textes un peu trop combustibles Paradoxale quand ils lisent chacune de mes pages Pour eux jsuis un gars normal avec des rimes de barge 1</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Lyrics sur mesure(s)</t>
+          <t>Ma chaîne mosaïque</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>sur mesures Cest bon, allume ta came on va tmontrer un freestyle On ne peut pas plaire à tout lmonde et cest dbonne guerre amicale Banal, moi jfais du rap, je men tape de ton argent Cours, cours, jirai de la même allure en marchant Demi Portion tape un petit passe-passe Sur la touche mais vise la surface Leffet de surprise big up ou rester sur pause, une vida loca Chercher loccas, un peu daudace A part des bêtises, on a passé lâge On sen fiche, un jour tout sefface Oui cest Rasheed fais voir ton visage Oui cest facile de parler trop mal Non cest rapide de faire des dommages Atterris, tas niqué des collages Pas de coloriage, me colle pas de biatchs Rien à lamiable, matte ce que je lâche Je me sers de ma bouche comme une arme Où jme couche, toi tu tcaches Centre de menaces, je toublie grave Oui je vis ça, loin des strass Pourquoi tu stresses ? Faut qutu saches Ne manque pas dadresse à chaque message Oui les mots blessent mais qui est sage ? Naal dine oumouk un coup dschlass Rentrer dans lmoule ça faut pas Tout est fragile, ya tout qui scasse Qui fait la tête et qui sécrase ? Sorti de Sète donc la classe Pas de compét', jai pas ltemps pour ça La grosse tête, te gâcher la face Oui ça magace, cest pas trop ma tasse Pendant qutu parles et bousilles le taf Première mesure, cest pour mes gaillards du 3-4, ça y est Jai pris lmicro, tout lmonde se chauffe, ça risquera pas dcailler Supporter de ma ville comme Karim Aït-Fana Juin 2012, Place de la Com, cétait vlà lfaya Ça vient du Sud 34 degrés à lombre Je dmande pas dcrécher à Londres Non par ici mec ya un tas dplaya Des talents de quartier comme celui de La Paillade Des blanc, des jaunes, des noirs tu peux remarquer un métissage royal On représente même salé comme Karabatic Cest du nimporte quoi comme Rémi Gaillard à Palavas Beach Joue pas ltaré ou on te tacle à lEl Kaoutari Oh on prépare nos arrières juste au cas où tarrives Ouvre la route quand on débarque cest du 3K ? tout terrain Tu vois mes types dans les clips portent pas du Gucci, Guerlain Jveux faire monter les nôtres comme René Girard On compte pas tromper les votes comme le faisait Chirac Petit, ya trop de modestie, jai jamais dit que je mettais la barre haute Mais jfuck toujours les présidents, les rois ou la baronne Seulement soumis au tout puissant ou à la daronne Au temps qui passe, je peux le jurer sur ma parole Avec léquipe tape des barres au lieu de pleurer sur nos sorts Qui veut une place derrière les barreaux ? Là ya sûrement personne Malheureusement tous bloqué entre libérable et arrivant Les Grandes Gueules, jamais eu le temps de rapper dans le vent Ya pas de leçons à recevoir, plutôt à donner doù jviens Envoie le son mais aussi les ronds quon se mette tous bien Depuis môme, on marche en silence et ils veulent même pas quon réponde Strict minimum car cest limage qui correspond S-P-R-I-N-T accumulation drage Non jsuis pas venu feinter et je men tape dvos sondages Je nveux pas plaire à tout lmonde vu qutout lmonde est perdu Heureusement comme dhabitude, ya quelques bons qui perdurent Sinon, tu las bien vu, les ambiances sont flinguées Ils disent tous être dans le vrai mais se font zingués A chaque fois, confronté à la stupidité des caves Te faire accréditer chez nous ? Pfff vas-y décale, dégage Cest vrai que dans la vie jai trop attendu les choses Et quand on ma dit non, jai dit ok et jai pris des notes Mais je nen veux à personne, fallait quje me bouge un peu Et jai compris que dans la vie faut mériter ce quon veut Alors jai pris un Bic et jai retroussé mes manches Aujourdhui comment vous dire quécrire me démange ? Quatre autres choses me dérangent mais dois-je rester passif ? Subir la vie, fermer ma gueule et puis rester assis Nan, nan ce nest pas le genre de la maison Encore faut-il ne pas confondre un grand monsieur et un grand garçon Moi jai la rime et lflow, il te reste quoi en fait ? Ya plus de place pour faire le fort quand on a tout dun faible Oh, insaisissable, incorruptible Rappeur timide avec des textes un peu trop combustibles Paradoxale quand ils lisent chacune de mes pages Pour eux jsuis un gars normal avec des rimes de barge 1</t>
+          <t>Coucou c'est nous y'a King Kong l'amour ne sera pas dans l'pré Y'a pas d'secrets ni d'story ça j'te le redis d'entrée Ça se discute de la rue j'commence par Salam Maalekoum Même si y'a la mer près d'chez moi, 'a rien d'Alerte à Malibu Les Frères Scott sont pas ici, très peu révisent leurs cours Ici les jeunes veillent sur l'image et suis l'courant d'une rivière pourpre On est coupables même si j'fais rentrer l'accusé On passe à table, je lui dirai à c'facho c'est pas grossier Influençable pas couché voire terrifié du Grand Journal Incroyable mais vrai comme les infos de chez Groland Salut les Terriens, moi j'vis ma vie si tu fais rien L'argent n'viendra pas seul, nulle part ailleurs et tu l'sais bien C'est à prendre ou à laisser, c'est en cachette que l'on se sert Y'a les enfants de la télé, derrière l'écran y'a la misère Ça flashe, mets ta visière, on n'peut pas plaire à tout l'monde C'est sûr qu'on a peu d'Zidane, l'envie d'percer dans l'football Perdu d'vue, un cauchemar, dis-moi les rêves, combien ça coûte ? La roue d'la fortune non, j'ai l'pneu crevé sans aucun doute On a l'sens du partage un peu comme découper une pièce Sans parier j'termine ce jeu sans rien à Pékin Express On veut le juste prix, l'envoyé spécial pour ceux qui vannent Trente millions d'amis, non j'fais pas l'service après-vente Trois minutes inside, le Fort Boyard dans mon freestyle Viens dans ma zone interdite, tu n'y sors pas, c'est capital Ceux qui veulent gagner des milliards, des marionnettes aux Guignols Aller plus vite que la musique sans trop connaître les paroles Ça saute à force mais du bronze qui passe à l'or Il faudra ensuite sucer ou t'rapprocher du bachelor D'une, on met l'turbo, sur l'terrain ou sur Stade 2 Pour la promo y'a des sticks, j'ai pas d'Flavie sur Fan 2 Bref, c'est l'zapping, ils diront qu'on a tout essayé Avec des racines et des ailes, j'ai vu ton arbre se bousiller Tout en restant poli, y'a qu'la vérité qui compte Oui y'a arrêt sur image car vu du ciel on fait des fautes Finie l'époque, pour ma culture c'est mi amor À tous les frères, ceux qui m'soutiennent, je vous surnomme Famille en or Montez à bord, si tarrives presque à l'agonie On a l'remède et des morceaux qui remplacent Grey's Anatomy Devenir malade, disons qu'chaque titre est embarrassant Si j'te dis quAl-Qaïda gère même la chaîne de Thalassa C'est sous contrôle trop sale, ils te diront qu'c'est du propre Que l'incroyable talent c'est une nouvelle star dans la pop Que les filles plus saines sont sur l'île de la tentation Que les perdants sans réponse regardent Question pour un champion Où va-t-on ? Détruis l'antenne de tous ces vices qu'ils émettent Donc c'est sur feuille moi j'cherche et tape des chiffres et des lettres Exclusive est l'enquête rien ne m'a convaincu Mais bon t'es déjà venu, Sète c'est pas New York non plus ... PS j't'écris de chez moi, j'allume mon PC J'avais oublié y'a pas qu'les p'tits qui matent la télé</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3178,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ma chaîne mosaïque</t>
+          <t>Magnifique</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Coucou c'est nous y'a King Kong l'amour ne sera pas dans l'pré Y'a pas d'secrets ni d'story ça j'te le redis d'entrée Ça se discute de la rue j'commence par Salam Maalekoum Même si y'a la mer près d'chez moi, 'a rien d'Alerte à Malibu Les Frères Scott sont pas ici, très peu révisent leurs cours Ici les jeunes veillent sur l'image et suis l'courant d'une rivière pourpre On est coupables même si j'fais rentrer l'accusé On passe à table, je lui dirai à c'facho c'est pas grossier Influençable pas couché voire terrifié du Grand Journal Incroyable mais vrai comme les infos de chez Groland Salut les Terriens, moi j'vis ma vie si tu fais rien L'argent n'viendra pas seul, nulle part ailleurs et tu l'sais bien C'est à prendre ou à laisser, c'est en cachette que l'on se sert Y'a les enfants de la télé, derrière l'écran y'a la misère Ça flashe, mets ta visière, on n'peut pas plaire à tout l'monde C'est sûr qu'on a peu d'Zidane, l'envie d'percer dans l'football Perdu d'vue, un cauchemar, dis-moi les rêves, combien ça coûte ? La roue d'la fortune non, j'ai l'pneu crevé sans aucun doute On a l'sens du partage un peu comme découper une pièce Sans parier j'termine ce jeu sans rien à Pékin Express On veut le juste prix, l'envoyé spécial pour ceux qui vannent Trente millions d'amis, non j'fais pas l'service après-vente Trois minutes inside, le Fort Boyard dans mon freestyle Viens dans ma zone interdite, tu n'y sors pas, c'est capital Ceux qui veulent gagner des milliards, des marionnettes aux Guignols Aller plus vite que la musique sans trop connaître les paroles Ça saute à force mais du bronze qui passe à l'or Il faudra ensuite sucer ou t'rapprocher du bachelor D'une, on met l'turbo, sur l'terrain ou sur Stade 2 Pour la promo y'a des sticks, j'ai pas d'Flavie sur Fan 2 Bref, c'est l'zapping, ils diront qu'on a tout essayé Avec des racines et des ailes, j'ai vu ton arbre se bousiller Tout en restant poli, y'a qu'la vérité qui compte Oui y'a arrêt sur image car vu du ciel on fait des fautes Finie l'époque, pour ma culture c'est mi amor À tous les frères, ceux qui m'soutiennent, je vous surnomme Famille en or Montez à bord, si tarrives presque à l'agonie On a l'remède et des morceaux qui remplacent Grey's Anatomy Devenir malade, disons qu'chaque titre est embarrassant Si j'te dis quAl-Qaïda gère même la chaîne de Thalassa C'est sous contrôle trop sale, ils te diront qu'c'est du propre Que l'incroyable talent c'est une nouvelle star dans la pop Que les filles plus saines sont sur l'île de la tentation Que les perdants sans réponse regardent Question pour un champion Où va-t-on ? Détruis l'antenne de tous ces vices qu'ils émettent Donc c'est sur feuille moi j'cherche et tape des chiffres et des lettres Exclusive est l'enquête rien ne m'a convaincu Mais bon t'es déjà venu, Sète c'est pas New York non plus ... PS j't'écris de chez moi, j'allume mon PC J'avais oublié y'a pas qu'les p'tits qui matent la télé</t>
+          <t>Ceux qui voient l'mal partout sont maléfiques Donne-moi un mic et c'est devenu magnifique Dis-leur que c'est des malades On a dansé à voir les absents torts Comme ceux qui étaient pas là A la belle étoile entre nous à la fraîche P'tit déj' tartine au beurre de Marrakech Tous pour un et chacun pour l'autre La scène notre terrain, ce morceau le votre La vie est unique comme son MC Donc 2 fois Sète impossible Chaque seconde la chance de ta vie Chaque seconde la chance de ta vie... x2 Chante la vie et oui c'est magnifique Donne d'l'amour avant que tout se termine Sois meilleur si tu veux des amis Sois meilleur si tu veux des amis La 'sique est magnifique comme cette île en Malaisie L'enfant d'la Terre a toujours besoin d'ses racines S'planter ça ne suffit pas on sait que pousser c'est évident Je cherchais une chaise pour deux du coup on m'a offert un banc Y a la scène donc on se lance le public n'attend qu'ça L'ambiance est Kingston je sais comment on chauffe une salle oh Comme Oxmo la libération de nos mots Puccino histoire de rentrer en osmose C'est magnifique c'est la seule tristesse que j'ressens J'ai mal au rap voila pourquoi nous faut ces prises de son Le rap c'est bien mais toujours mieux de parler aux enfants C'est magnifique mais toujours mieux d'le dire tous ensemble x2 Chante la vie et oui c'est magnifique Donne d'l'amour avant que tout se termine Sois meilleur si tu veux des amis Sois meilleur si tu veux des amis Pour me copier-coller faut plus qu'un logiciel Temps couvert, mais j'aurais ma part de ciel Eeny, meeny, magnifique Le public chante et c'est le pic de l'histoire Dans l'fond on sera toujours pote on parcourt nos vies dans l'Hip Hop Hop Hop Hop Pas d'guerre ouais c'est p't être ça l'antidote La route est longue donc on s'transforme vite en pilote Vous êtes à bord sourire en papillote Attachez vos ceintures bande de papillons C'est d'l'amour qu'on dégoupille Donc appelle tes potos et tes copines Artiste, non c'est pas difficile Ouais à ta santé Mon frérot c'est D.E.M.I On se met tranquille x2 Chante la vie et oui c'est magnifique Donne d'l'amour avant que tout se termine Sois meilleur si tu veux des amis Sois meilleur si tu veux des amis</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Magnifique</t>
+          <t>Maintenant ou jamais</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Ceux qui voient l'mal partout sont maléfiques Donne-moi un mic et c'est devenu magnifique Dis-leur que c'est des malades On a dansé à voir les absents torts Comme ceux qui étaient pas là A la belle étoile entre nous à la fraîche P'tit déj' tartine au beurre de Marrakech Tous pour un et chacun pour l'autre La scène notre terrain, ce morceau le votre La vie est unique comme son MC Donc 2 fois Sète impossible Chaque seconde la chance de ta vie Chaque seconde la chance de ta vie... x2 Chante la vie et oui c'est magnifique Donne d'l'amour avant que tout se termine Sois meilleur si tu veux des amis Sois meilleur si tu veux des amis La 'sique est magnifique comme cette île en Malaisie L'enfant d'la Terre a toujours besoin d'ses racines S'planter ça ne suffit pas on sait que pousser c'est évident Je cherchais une chaise pour deux du coup on m'a offert un banc Y a la scène donc on se lance le public n'attend qu'ça L'ambiance est Kingston je sais comment on chauffe une salle oh Comme Oxmo la libération de nos mots Puccino histoire de rentrer en osmose C'est magnifique c'est la seule tristesse que j'ressens J'ai mal au rap voila pourquoi nous faut ces prises de son Le rap c'est bien mais toujours mieux de parler aux enfants C'est magnifique mais toujours mieux d'le dire tous ensemble x2 Chante la vie et oui c'est magnifique Donne d'l'amour avant que tout se termine Sois meilleur si tu veux des amis Sois meilleur si tu veux des amis Pour me copier-coller faut plus qu'un logiciel Temps couvert, mais j'aurais ma part de ciel Eeny, meeny, magnifique Le public chante et c'est le pic de l'histoire Dans l'fond on sera toujours pote on parcourt nos vies dans l'Hip Hop Hop Hop Hop Pas d'guerre ouais c'est p't être ça l'antidote La route est longue donc on s'transforme vite en pilote Vous êtes à bord sourire en papillote Attachez vos ceintures bande de papillons C'est d'l'amour qu'on dégoupille Donc appelle tes potos et tes copines Artiste, non c'est pas difficile Ouais à ta santé Mon frérot c'est D.E.M.I On se met tranquille x2 Chante la vie et oui c'est magnifique Donne d'l'amour avant que tout se termine Sois meilleur si tu veux des amis Sois meilleur si tu veux des amis</t>
+          <t>Eh! Mon frère relève la tête, regarde le ciel, il est si beau Souri même si t'as les poches aussi vide que ton frigo N'écoute pas tous ces mythos qui disent que t'as rien dans l'cartable Nous on a des valeurs que même l'argent ne remplace pas Dans c'monde flingué où même loxygène a son prix Y'a des choses qui n'se vendent pas, qui rendent heureux et j'l'ai compris Avoir des frissons sur scène, que la salle soit ou pas remplie Respirer en pleine nature ou voir la famille s'agrandir Le bonheur c'est de choses simples, c'est d'l'amour que tu récoltes C'est pas d'l'argent c'est encore c'qu'on t'apprend à l'école Moi j'ai mes codes et mes principes, ma façon d'le percevoir Mais j'me contente de peu quand j'pense à ceux qui rêvent de voir Combien d'fois me suis-je demandé si tout ça en valait la peine Mais vos sourires sur vos lèvres m'ont redonné la pêche Gâcher son talent à faire le faux j'éviterais l'gâchis On m'a dit Toi, ne lâche pas, donc j'laisse pas tomber comme Rachid Profiter d'la vie qu'on t'a donnée c'est maintenant ou jamais Remercier dieu pour ses bienfaits c'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis Aller là où temmène ton cur c'est maintenant ou jamais Faire sourire nos frères et sur C'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis Je suis la plume en personne, celle qui m'aide à m'exprimer A trop connaître le goût du sol, c'est bien de s'refaire son p'tit nez Ecoute moi, j'ai déprimé, j'ai passé du temps sous l'eau A croire qu'un rappeur c'est trop cool, et pt'être noyer dans son boulot On passe souvent la tête sous l'eau, nos intérêts d'l'aquarium Si l'instru' me fait pleurer c'est un sourire pour mon album On m'dit souvent comment tu fais cousin tu rap depuis poussin? Ouai t'as la touffe qui a poussée. En gros est-ce que tu vis tout seul? Les concerts, les cris, les sueurs et des story, dans la bédave Des aller-retour en toute pudeur, c'est ça le retour d'la médaille Etre artiste? Non j'sais pas, j'ai pas calculé tout ça On m'dit t'es fort, non j'suis faible, indécent, universal On fête son anniversaire de Sète jusqu'à Montréal Parce que oui je le vaut bien, comme une aurore boréale Et oui c'est dur dêtre sois même, de partout y'a des miroirs Moi j'ai pas choisis ma couleur, c'est un peu comme sur un billard Profiter d'la vie qu'on t'a donnée c'est maintenant ou jamais Remercier dieu pour ses bienfaits c'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis Aller là où temmène ton cur c'est maintenant ou jamais Faire sourire nos frères et sur C'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis1</t>
         </is>
       </c>
     </row>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Maintenant ou jamais</t>
+          <t>Ma musique</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Eh! Mon frère relève la tête, regarde le ciel, il est si beau Souri même si t'as les poches aussi vide que ton frigo N'écoute pas tous ces mythos qui disent que t'as rien dans l'cartable Nous on a des valeurs que même l'argent ne remplace pas Dans c'monde flingué où même loxygène a son prix Y'a des choses qui n'se vendent pas, qui rendent heureux et j'l'ai compris Avoir des frissons sur scène, que la salle soit ou pas remplie Respirer en pleine nature ou voir la famille s'agrandir Le bonheur c'est de choses simples, c'est d'l'amour que tu récoltes C'est pas d'l'argent c'est encore c'qu'on t'apprend à l'école Moi j'ai mes codes et mes principes, ma façon d'le percevoir Mais j'me contente de peu quand j'pense à ceux qui rêvent de voir Combien d'fois me suis-je demandé si tout ça en valait la peine Mais vos sourires sur vos lèvres m'ont redonné la pêche Gâcher son talent à faire le faux j'éviterais l'gâchis On m'a dit Toi, ne lâche pas, donc j'laisse pas tomber comme Rachid Profiter d'la vie qu'on t'a donnée c'est maintenant ou jamais Remercier dieu pour ses bienfaits c'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis Aller là où temmène ton cur c'est maintenant ou jamais Faire sourire nos frères et sur C'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis Je suis la plume en personne, celle qui m'aide à m'exprimer A trop connaître le goût du sol, c'est bien de s'refaire son p'tit nez Ecoute moi, j'ai déprimé, j'ai passé du temps sous l'eau A croire qu'un rappeur c'est trop cool, et pt'être noyer dans son boulot On passe souvent la tête sous l'eau, nos intérêts d'l'aquarium Si l'instru' me fait pleurer c'est un sourire pour mon album On m'dit souvent comment tu fais cousin tu rap depuis poussin? Ouai t'as la touffe qui a poussée. En gros est-ce que tu vis tout seul? Les concerts, les cris, les sueurs et des story, dans la bédave Des aller-retour en toute pudeur, c'est ça le retour d'la médaille Etre artiste? Non j'sais pas, j'ai pas calculé tout ça On m'dit t'es fort, non j'suis faible, indécent, universal On fête son anniversaire de Sète jusqu'à Montréal Parce que oui je le vaut bien, comme une aurore boréale Et oui c'est dur dêtre sois même, de partout y'a des miroirs Moi j'ai pas choisis ma couleur, c'est un peu comme sur un billard Profiter d'la vie qu'on t'a donnée c'est maintenant ou jamais Remercier dieu pour ses bienfaits c'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis Aller là où temmène ton cur c'est maintenant ou jamais Faire sourire nos frères et sur C'est maintenant ou jamais Regarder l'ciel et se rendre compte qu'on est tout petits Voir la Terre et se rendre compte qu'on qu'des fourmis1</t>
+          <t>Laissez ma musique Pas d'commercial, on est trop rusés Le taff à l'usine, la rime aiguisée Toujours acharné sur le projet car Rien n'est arrivé, t'as vu le départ ? Le destin ne prévient jamais quand la mort nous sépare Quand la mort nous sépare... Paraît qu'on est tous un peu décalés Trop peur de finir égarés Qu'au fond de nous le malaise On vit en bas de la falaise J'rêve juste d'emballer ma valise Voyager loin des coulisses J'en place une à tous les condamnés Que le son puisse nous évader Passionné depuis des années Entouré de mes vrais amis Arroser la fleur fanée Comme chaque mesure est taillée Trouver la paix et s'en aller J'crée le tunnel de ma vallée N'oublions pas ceux qui sont partis Qui ont mis de l'essence dans la machine Laissez ma musique Pas d'commercial, on est trop rusés Le taff à l'usine, la rime aiguisée Toujours acharné sur le projet car Rien n'est arrivé, t'as vu le départ ? Le destin ne prévient jamais quand la mort nous sépare Quand la mort nous sépare... Paraît qu'on est tous un peu décalés La crainte de jamais démarrer Le vice est parfois si balaise J'veux pas récupérer les restes Donc vas-y retire le masque Montre-nous tout ce qui nous menace Ceux qui n'ont plus la force de crier Porte-parole de tous les guerriers Assumer les textes il fallait Passer nos vies à s'étaler Les mêmes potes depuis l'époque Apprendre à maîtriser les codes Encore des thèmes à déballer Pointer les mots comme une arme On fête jamais l'arrivée Chaque jour est un nouveau départ Laissez ma musique Pas d'commercial, on est trop rusés Le taff à l'usine, la rime aiguisée Toujours acharné sur le projet car Rien n'est arrivé, t'as vu le départ ? Le destin ne prévient jamais quand la mort nous sépare Quand la mort nous sépare... Passer nos vies à s'étaler Apprendre à maîtriser les codes Pointer les mots comme une arme Chaque jour est un nouveau départ</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3229,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ma musique</t>
+          <t>Ma planète</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Laissez ma musique Pas d'commercial, on est trop rusés Le taff à l'usine, la rime aiguisée Toujours acharné sur le projet car Rien n'est arrivé, t'as vu le départ ? Le destin ne prévient jamais quand la mort nous sépare Quand la mort nous sépare... Paraît qu'on est tous un peu décalés Trop peur de finir égarés Qu'au fond de nous le malaise On vit en bas de la falaise J'rêve juste d'emballer ma valise Voyager loin des coulisses J'en place une à tous les condamnés Que le son puisse nous évader Passionné depuis des années Entouré de mes vrais amis Arroser la fleur fanée Comme chaque mesure est taillée Trouver la paix et s'en aller J'crée le tunnel de ma vallée N'oublions pas ceux qui sont partis Qui ont mis de l'essence dans la machine Laissez ma musique Pas d'commercial, on est trop rusés Le taff à l'usine, la rime aiguisée Toujours acharné sur le projet car Rien n'est arrivé, t'as vu le départ ? Le destin ne prévient jamais quand la mort nous sépare Quand la mort nous sépare... Paraît qu'on est tous un peu décalés La crainte de jamais démarrer Le vice est parfois si balaise J'veux pas récupérer les restes Donc vas-y retire le masque Montre-nous tout ce qui nous menace Ceux qui n'ont plus la force de crier Porte-parole de tous les guerriers Assumer les textes il fallait Passer nos vies à s'étaler Les mêmes potes depuis l'époque Apprendre à maîtriser les codes Encore des thèmes à déballer Pointer les mots comme une arme On fête jamais l'arrivée Chaque jour est un nouveau départ Laissez ma musique Pas d'commercial, on est trop rusés Le taff à l'usine, la rime aiguisée Toujours acharné sur le projet car Rien n'est arrivé, t'as vu le départ ? Le destin ne prévient jamais quand la mort nous sépare Quand la mort nous sépare... Passer nos vies à s'étaler Apprendre à maîtriser les codes Pointer les mots comme une arme Chaque jour est un nouveau départ</t>
+          <t>11 heures du mat', mal de dos sur un clic-clac, j'ai p't être encore mal dormi La vie me réveille à coups de p'tites claques, dosé, j'arrête pas d'vomir, gros la poisse m'atomise Au fond d'mon âme, ma chance agonise, j'sors dehors, j'attrape ma sacoche j'rejoins 2-3 acolytes La hess, on s'accroche et ça cogne, c'est ça comme, chacun pour son cul Demande pas d'aide j'suis pas Malcom X, autant d'vautours et d'rapaces, hein Toi qu'est c'que tu ferais à ma place ? Nan, nan, j'me plains pas, les blessures mentales on les pansent pas avec du Hansaplast Des victoires, des ratures, des amis, des raclures, je sature de ça, rien qu'ça tire et ça tue Du sale shit, des sales putes, rien qu'ça tise, ça s'agite, tout s'achète, trouve ça chill, mec ça pue J'les entend chuchoter, j'les entend chuchoter les joies d'la médisance Et franchement, j'suis choqué, et franchement, j'suis choqué, comprends que j'prenne mes distances Tellement d'voix dans ma tête, je ne m'entends même plus penser Ne m'casser pas les couilles, le cerveau sur répondeur, laissez-moi j'suis fonce-dé Seul sur ma planète, j'veux mourir seul sur ma planète Du cash, j'suis seul sur ma planète, j'ressens ce mal-être J'perds contrôle, j'tiens plus les manettes Seul sur ma planète, laissez-moi seul sur ma planète Moi, je n'rentre pas dans vos panels Ressens mon malaise, dans ma bulle gros, ça tourne pas net 16 heures du mat', pas sommeil, j'ai la barre, c'est pas grave quand je réfléchis Une feuille blanche, des images, j'hallucine, vis la même encore depuis plusieurs nuits En sueur, je dors mal, assure mec, c'est normal, on s'relève vas-y man Insomnie, je tente ma chance, j'sors dehors, roule un niak Quatre albums, bois dans lencrier comme un alcoolique Respecte nous si tu es mal poli, ouais l'public criant historique ! Un selfie, on s'en fout, ça va vite, nan, nan, pas de filtres dans nos p'tites stories Des victoires, des blessures, des gaffes et des gars sûrs, des baffes et des barrettes Tout sachète, des barres et des histoires, ouais les mecs, on est pleins dans ma tête mais seul de ma planète J'les entend chuchoter, j'les entend chuchoter les joies d'la médisance Et franchement, j'suis choqué, et franchement, j'suis choqué, comprends que j'prenne mes distances Tellement d'voix dans ma tête, je ne m'entends même plus penser Ne m'casser pas les couilles, le cerveau sur répondeur, laissez-moi j'suis fonce-dé Seul sur ma planète, j'veux mourir seul sur ma planète Du cash, j'suis seul sur ma planète, j'ressens ce mal-être J'perds contrôle, j'tiens plus les manettes Seul sur ma planète, laissez moi seul sur ma planète Moi, je n'rentre pas dans vos panels Ressens mon malaise, dans ma bulle gros, ça tourne pas net Sam's, Demi Seul sur ma planète, j'veux mourir seul sur ma planète Du cash, j'suis seul sur ma planète J'ressens ce mal-être, j'perds contrôle, j'tiens plus les manettes Seul sur ma planète, laissez-moi seul sur ma planète Moi, je n'rentre pas dans vos panels Ressens mon malaise, dans ma bulle gros, ça tourne pas net</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ma planète</t>
+          <t>Marre</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>11 heures du mat', mal de dos sur un clic-clac, j'ai p't être encore mal dormi La vie me réveille à coups de p'tites claques, dosé, j'arrête pas d'vomir, gros la poisse m'atomise Au fond d'mon âme, ma chance agonise, j'sors dehors, j'attrape ma sacoche j'rejoins 2-3 acolytes La hess, on s'accroche et ça cogne, c'est ça comme, chacun pour son cul Demande pas d'aide j'suis pas Malcom X, autant d'vautours et d'rapaces, hein Toi qu'est c'que tu ferais à ma place ? Nan, nan, j'me plains pas, les blessures mentales on les pansent pas avec du Hansaplast Des victoires, des ratures, des amis, des raclures, je sature de ça, rien qu'ça tire et ça tue Du sale shit, des sales putes, rien qu'ça tise, ça s'agite, tout s'achète, trouve ça chill, mec ça pue J'les entend chuchoter, j'les entend chuchoter les joies d'la médisance Et franchement, j'suis choqué, et franchement, j'suis choqué, comprends que j'prenne mes distances Tellement d'voix dans ma tête, je ne m'entends même plus penser Ne m'casser pas les couilles, le cerveau sur répondeur, laissez-moi j'suis fonce-dé Seul sur ma planète, j'veux mourir seul sur ma planète Du cash, j'suis seul sur ma planète, j'ressens ce mal-être J'perds contrôle, j'tiens plus les manettes Seul sur ma planète, laissez-moi seul sur ma planète Moi, je n'rentre pas dans vos panels Ressens mon malaise, dans ma bulle gros, ça tourne pas net 16 heures du mat', pas sommeil, j'ai la barre, c'est pas grave quand je réfléchis Une feuille blanche, des images, j'hallucine, vis la même encore depuis plusieurs nuits En sueur, je dors mal, assure mec, c'est normal, on s'relève vas-y man Insomnie, je tente ma chance, j'sors dehors, roule un niak Quatre albums, bois dans lencrier comme un alcoolique Respecte nous si tu es mal poli, ouais l'public criant historique ! Un selfie, on s'en fout, ça va vite, nan, nan, pas de filtres dans nos p'tites stories Des victoires, des blessures, des gaffes et des gars sûrs, des baffes et des barrettes Tout sachète, des barres et des histoires, ouais les mecs, on est pleins dans ma tête mais seul de ma planète J'les entend chuchoter, j'les entend chuchoter les joies d'la médisance Et franchement, j'suis choqué, et franchement, j'suis choqué, comprends que j'prenne mes distances Tellement d'voix dans ma tête, je ne m'entends même plus penser Ne m'casser pas les couilles, le cerveau sur répondeur, laissez-moi j'suis fonce-dé Seul sur ma planète, j'veux mourir seul sur ma planète Du cash, j'suis seul sur ma planète, j'ressens ce mal-être J'perds contrôle, j'tiens plus les manettes Seul sur ma planète, laissez moi seul sur ma planète Moi, je n'rentre pas dans vos panels Ressens mon malaise, dans ma bulle gros, ça tourne pas net Sam's, Demi Seul sur ma planète, j'veux mourir seul sur ma planète Du cash, j'suis seul sur ma planète J'ressens ce mal-être, j'perds contrôle, j'tiens plus les manettes Seul sur ma planète, laissez-moi seul sur ma planète Moi, je n'rentre pas dans vos panels Ressens mon malaise, dans ma bulle gros, ça tourne pas net</t>
+          <t>Mais pourquoi t'es méchant? Ouais Demi Portion Les grandes gueules Marre Ouais Les grandes gueules Dj Sax, envoie la basse Marre Ils verront bien comment ça s'passe On a rien demandé à la base Vu qu'on a la tête entre l'étau Jamais perdu l'contrôle Nage pendant que l'eau est tiède On a laissé tomber le crawl, la rage Le stylo-bic, les postillons qu'on dégage Ma sale forme est oblique Pronostique MC adage Certains veulent qu'on dégage Qu'ma couleur se déguise Gamberger dans une cave ou bien finir sa vie sous gaz Et leur dire Qu'on s'excuse alors qu'c'est eux qu'on accuse J'pète une XXX car ils admirent qu'on s'use Marre qu'on se rate Les voir critiquer nos sourates Marre des visages qui s'irritent, un regard dans lil du pirate Marre de joueur de barbares De superflu, d'bobards Marre de ces gros pompeurs qui essaient d'nous baisser la barre Marre d'façon Interne, extérieure crache ces termes A l'horizon plus d'estime, acceptez notre épiderme Marre d'confrères qui dorment Parler à des suicidaires Et marre qu'on considère mieux l'autre à sa thune mon frère Marre de nous voir frire Compter les jours pour souffrir Marre d'l'odeur du souffre mais c'gouffre a l'fou-rire Marre vu qu'on s'camoufle, afin d'ne pas mourir Et mon miroir t'reflète leur deur-gran à l'sourire Qui gronde avant d'l'ouvrir Vas-y crie avant l'soupir Marre, t'as vu d'quoi j'ai l'air comme à Gaza accroupi? Roule pas à deux-cents à l'heure et maîtrise bien ton allure Marre des rappeurs qui s'vendent comme un produit dans l'allu Marre, mets-les dans la corbeille avec leurs fleurs à l'oreille Y'a l'virus qui donne sommeil et y'a les jaloux qui t'conseillent Marre, quand j'me réveille, y'a beaucoup d'choses qui s'révèlent L'actualité m'révolte Ces nouvelles, plutôt mauvaises Marre car on nous vise Qu'on fasse déborder l'vase Qu'on passe des années à trimer juste à balancer des phrases Y'en a marre, j'pète un câble Qui veut respecter l'état ? Le processus d'l'Élisée et d'nous retrouver sous la table Marre de ces pieds au mur Marre de discuter d'morts Bien heureusement qu'y'a des murs qui savent de qui on s'remémore Marre et tu l'ressens Vu qu'il est temps d'opérer Si j'parle tant du passé, c'est qu'ils ont du exagérer Marre, on est encore serrés Dis-moi pourquoi tu t'étonnes ? Regarde la petite qui s'fait vomir, elle veut être Paris Hilton S'mélanger dans les icônes, en s'voyant dans un sitcom Tu vois, la vie n'est pas si simple, elle est souvent bloquée d'codes Elle apprend à monter les cotes Même si l'cerveau en a marre Souvent les pneus crevés mais on fait c'qu'on peut, on démarre On a pas droit au scénar' Mais côtoyer l'arrière plan On a gardé les pieds sur terre, on sera jamais Peter Pan Marre et j'apprécie A présent, un message précis Marre à mon récit, le son va t'fournir des frissons Marre, puis j'm'initie à mieux mener ici Le savoir comme munition et mes racines comme un signe Le savoir comme munitions Alerte incolore, on lâchera pas l'drapeau blanc A force d'être par terre, on s'fait plus mal en tombant Marre, marre Les grandes gueules Sprinter et Demi Portion 2007 Dj Sax à la prod Y'en a marre Marra, marre, marre Mais pourquoi t'es méchant? XXX Tu me vois et, et, t'es méchant Eh, eh Rachid Ihih, Rachid grande gueule !</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Marre</t>
+          <t>Mauvais Garçon</t>
  